--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -15,14 +15,14 @@
     <sheet name="ta_división_edad" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_división_edad!$A$6:$JX$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_división_edad!$A$6:$JY$87</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-junio l2021</t>
+    <t>Enero 1998-julio l2021</t>
   </si>
 </sst>
 </file>
@@ -912,6 +912,12 @@
     <xf numFmtId="3" fontId="19" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -926,12 +932,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1254,383 +1254,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JX89"/>
+  <dimension ref="A1:JY89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:C2"/>
+      <pane xSplit="2" topLeftCell="JS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KB17" sqref="KB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="284" width="11.85546875" style="1" customWidth="1"/>
-    <col min="285" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="285" width="11.85546875" style="1" customWidth="1"/>
+    <col min="286" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:284" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:285" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:284" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:285" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:284" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:285" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="26">
         <v>1998</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="24">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="26">
         <v>1999</v>
       </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="24">
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="26">
         <v>2000</v>
       </c>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="24">
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="26">
         <v>2001</v>
       </c>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="26"/>
-      <c r="AY5" s="24">
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="28"/>
+      <c r="AY5" s="26">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="25"/>
-      <c r="BB5" s="25"/>
-      <c r="BC5" s="25"/>
-      <c r="BD5" s="25"/>
-      <c r="BE5" s="25"/>
-      <c r="BF5" s="25"/>
-      <c r="BG5" s="25"/>
-      <c r="BH5" s="25"/>
-      <c r="BI5" s="25"/>
-      <c r="BJ5" s="26"/>
-      <c r="BK5" s="24">
+      <c r="AZ5" s="27"/>
+      <c r="BA5" s="27"/>
+      <c r="BB5" s="27"/>
+      <c r="BC5" s="27"/>
+      <c r="BD5" s="27"/>
+      <c r="BE5" s="27"/>
+      <c r="BF5" s="27"/>
+      <c r="BG5" s="27"/>
+      <c r="BH5" s="27"/>
+      <c r="BI5" s="27"/>
+      <c r="BJ5" s="28"/>
+      <c r="BK5" s="26">
         <v>2003</v>
       </c>
-      <c r="BL5" s="25"/>
-      <c r="BM5" s="25"/>
-      <c r="BN5" s="25"/>
-      <c r="BO5" s="25"/>
-      <c r="BP5" s="25"/>
-      <c r="BQ5" s="25"/>
-      <c r="BR5" s="25"/>
-      <c r="BS5" s="25"/>
-      <c r="BT5" s="25"/>
-      <c r="BU5" s="25"/>
-      <c r="BV5" s="26"/>
-      <c r="BW5" s="24">
+      <c r="BL5" s="27"/>
+      <c r="BM5" s="27"/>
+      <c r="BN5" s="27"/>
+      <c r="BO5" s="27"/>
+      <c r="BP5" s="27"/>
+      <c r="BQ5" s="27"/>
+      <c r="BR5" s="27"/>
+      <c r="BS5" s="27"/>
+      <c r="BT5" s="27"/>
+      <c r="BU5" s="27"/>
+      <c r="BV5" s="28"/>
+      <c r="BW5" s="26">
         <v>2004</v>
       </c>
-      <c r="BX5" s="25"/>
-      <c r="BY5" s="25"/>
-      <c r="BZ5" s="25"/>
-      <c r="CA5" s="25"/>
-      <c r="CB5" s="25"/>
-      <c r="CC5" s="25"/>
-      <c r="CD5" s="25"/>
-      <c r="CE5" s="25"/>
-      <c r="CF5" s="25"/>
-      <c r="CG5" s="25"/>
-      <c r="CH5" s="26"/>
-      <c r="CI5" s="24">
+      <c r="BX5" s="27"/>
+      <c r="BY5" s="27"/>
+      <c r="BZ5" s="27"/>
+      <c r="CA5" s="27"/>
+      <c r="CB5" s="27"/>
+      <c r="CC5" s="27"/>
+      <c r="CD5" s="27"/>
+      <c r="CE5" s="27"/>
+      <c r="CF5" s="27"/>
+      <c r="CG5" s="27"/>
+      <c r="CH5" s="28"/>
+      <c r="CI5" s="26">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="25"/>
-      <c r="CK5" s="25"/>
-      <c r="CL5" s="25"/>
-      <c r="CM5" s="25"/>
-      <c r="CN5" s="25"/>
-      <c r="CO5" s="25"/>
-      <c r="CP5" s="25"/>
-      <c r="CQ5" s="25"/>
-      <c r="CR5" s="25"/>
-      <c r="CS5" s="25"/>
-      <c r="CT5" s="26"/>
-      <c r="CU5" s="24">
+      <c r="CJ5" s="27"/>
+      <c r="CK5" s="27"/>
+      <c r="CL5" s="27"/>
+      <c r="CM5" s="27"/>
+      <c r="CN5" s="27"/>
+      <c r="CO5" s="27"/>
+      <c r="CP5" s="27"/>
+      <c r="CQ5" s="27"/>
+      <c r="CR5" s="27"/>
+      <c r="CS5" s="27"/>
+      <c r="CT5" s="28"/>
+      <c r="CU5" s="26">
         <v>2006</v>
       </c>
-      <c r="CV5" s="25"/>
-      <c r="CW5" s="25"/>
-      <c r="CX5" s="25"/>
-      <c r="CY5" s="25"/>
-      <c r="CZ5" s="25"/>
-      <c r="DA5" s="25"/>
-      <c r="DB5" s="25"/>
-      <c r="DC5" s="25"/>
-      <c r="DD5" s="25"/>
-      <c r="DE5" s="25"/>
-      <c r="DF5" s="26"/>
-      <c r="DG5" s="24">
+      <c r="CV5" s="27"/>
+      <c r="CW5" s="27"/>
+      <c r="CX5" s="27"/>
+      <c r="CY5" s="27"/>
+      <c r="CZ5" s="27"/>
+      <c r="DA5" s="27"/>
+      <c r="DB5" s="27"/>
+      <c r="DC5" s="27"/>
+      <c r="DD5" s="27"/>
+      <c r="DE5" s="27"/>
+      <c r="DF5" s="28"/>
+      <c r="DG5" s="26">
         <v>2007</v>
       </c>
-      <c r="DH5" s="25"/>
-      <c r="DI5" s="25"/>
-      <c r="DJ5" s="25"/>
-      <c r="DK5" s="25"/>
-      <c r="DL5" s="25"/>
-      <c r="DM5" s="25"/>
-      <c r="DN5" s="25"/>
-      <c r="DO5" s="25"/>
-      <c r="DP5" s="25"/>
-      <c r="DQ5" s="25"/>
-      <c r="DR5" s="26"/>
-      <c r="DS5" s="24">
+      <c r="DH5" s="27"/>
+      <c r="DI5" s="27"/>
+      <c r="DJ5" s="27"/>
+      <c r="DK5" s="27"/>
+      <c r="DL5" s="27"/>
+      <c r="DM5" s="27"/>
+      <c r="DN5" s="27"/>
+      <c r="DO5" s="27"/>
+      <c r="DP5" s="27"/>
+      <c r="DQ5" s="27"/>
+      <c r="DR5" s="28"/>
+      <c r="DS5" s="26">
         <v>2008</v>
       </c>
-      <c r="DT5" s="25"/>
-      <c r="DU5" s="25"/>
-      <c r="DV5" s="25"/>
-      <c r="DW5" s="25"/>
-      <c r="DX5" s="25"/>
-      <c r="DY5" s="25"/>
-      <c r="DZ5" s="25"/>
-      <c r="EA5" s="25"/>
-      <c r="EB5" s="25"/>
-      <c r="EC5" s="25"/>
-      <c r="ED5" s="26"/>
-      <c r="EE5" s="24">
+      <c r="DT5" s="27"/>
+      <c r="DU5" s="27"/>
+      <c r="DV5" s="27"/>
+      <c r="DW5" s="27"/>
+      <c r="DX5" s="27"/>
+      <c r="DY5" s="27"/>
+      <c r="DZ5" s="27"/>
+      <c r="EA5" s="27"/>
+      <c r="EB5" s="27"/>
+      <c r="EC5" s="27"/>
+      <c r="ED5" s="28"/>
+      <c r="EE5" s="26">
         <v>2009</v>
       </c>
-      <c r="EF5" s="25"/>
-      <c r="EG5" s="25"/>
-      <c r="EH5" s="25"/>
-      <c r="EI5" s="25"/>
-      <c r="EJ5" s="25"/>
-      <c r="EK5" s="25"/>
-      <c r="EL5" s="25"/>
-      <c r="EM5" s="25"/>
-      <c r="EN5" s="25"/>
-      <c r="EO5" s="25"/>
-      <c r="EP5" s="26"/>
-      <c r="EQ5" s="24">
+      <c r="EF5" s="27"/>
+      <c r="EG5" s="27"/>
+      <c r="EH5" s="27"/>
+      <c r="EI5" s="27"/>
+      <c r="EJ5" s="27"/>
+      <c r="EK5" s="27"/>
+      <c r="EL5" s="27"/>
+      <c r="EM5" s="27"/>
+      <c r="EN5" s="27"/>
+      <c r="EO5" s="27"/>
+      <c r="EP5" s="28"/>
+      <c r="EQ5" s="26">
         <v>2010</v>
       </c>
-      <c r="ER5" s="25"/>
-      <c r="ES5" s="25"/>
-      <c r="ET5" s="25"/>
-      <c r="EU5" s="25"/>
-      <c r="EV5" s="25"/>
-      <c r="EW5" s="25"/>
-      <c r="EX5" s="25"/>
-      <c r="EY5" s="25"/>
-      <c r="EZ5" s="25"/>
-      <c r="FA5" s="25"/>
-      <c r="FB5" s="26"/>
-      <c r="FC5" s="24">
+      <c r="ER5" s="27"/>
+      <c r="ES5" s="27"/>
+      <c r="ET5" s="27"/>
+      <c r="EU5" s="27"/>
+      <c r="EV5" s="27"/>
+      <c r="EW5" s="27"/>
+      <c r="EX5" s="27"/>
+      <c r="EY5" s="27"/>
+      <c r="EZ5" s="27"/>
+      <c r="FA5" s="27"/>
+      <c r="FB5" s="28"/>
+      <c r="FC5" s="26">
         <v>2011</v>
       </c>
-      <c r="FD5" s="25"/>
-      <c r="FE5" s="25"/>
-      <c r="FF5" s="25"/>
-      <c r="FG5" s="25"/>
-      <c r="FH5" s="25"/>
-      <c r="FI5" s="25"/>
-      <c r="FJ5" s="25"/>
-      <c r="FK5" s="25"/>
-      <c r="FL5" s="25"/>
-      <c r="FM5" s="25"/>
-      <c r="FN5" s="26"/>
-      <c r="FO5" s="24">
+      <c r="FD5" s="27"/>
+      <c r="FE5" s="27"/>
+      <c r="FF5" s="27"/>
+      <c r="FG5" s="27"/>
+      <c r="FH5" s="27"/>
+      <c r="FI5" s="27"/>
+      <c r="FJ5" s="27"/>
+      <c r="FK5" s="27"/>
+      <c r="FL5" s="27"/>
+      <c r="FM5" s="27"/>
+      <c r="FN5" s="28"/>
+      <c r="FO5" s="26">
         <v>2012</v>
       </c>
-      <c r="FP5" s="25"/>
-      <c r="FQ5" s="25"/>
-      <c r="FR5" s="25"/>
-      <c r="FS5" s="25"/>
-      <c r="FT5" s="25"/>
-      <c r="FU5" s="25"/>
-      <c r="FV5" s="25"/>
-      <c r="FW5" s="25"/>
-      <c r="FX5" s="25"/>
-      <c r="FY5" s="25"/>
-      <c r="FZ5" s="26"/>
-      <c r="GA5" s="24">
+      <c r="FP5" s="27"/>
+      <c r="FQ5" s="27"/>
+      <c r="FR5" s="27"/>
+      <c r="FS5" s="27"/>
+      <c r="FT5" s="27"/>
+      <c r="FU5" s="27"/>
+      <c r="FV5" s="27"/>
+      <c r="FW5" s="27"/>
+      <c r="FX5" s="27"/>
+      <c r="FY5" s="27"/>
+      <c r="FZ5" s="28"/>
+      <c r="GA5" s="26">
         <v>2013</v>
       </c>
-      <c r="GB5" s="25"/>
-      <c r="GC5" s="25"/>
-      <c r="GD5" s="25"/>
-      <c r="GE5" s="25"/>
-      <c r="GF5" s="25"/>
-      <c r="GG5" s="25"/>
-      <c r="GH5" s="25"/>
-      <c r="GI5" s="25"/>
-      <c r="GJ5" s="25"/>
-      <c r="GK5" s="25"/>
-      <c r="GL5" s="26"/>
-      <c r="GM5" s="24">
+      <c r="GB5" s="27"/>
+      <c r="GC5" s="27"/>
+      <c r="GD5" s="27"/>
+      <c r="GE5" s="27"/>
+      <c r="GF5" s="27"/>
+      <c r="GG5" s="27"/>
+      <c r="GH5" s="27"/>
+      <c r="GI5" s="27"/>
+      <c r="GJ5" s="27"/>
+      <c r="GK5" s="27"/>
+      <c r="GL5" s="28"/>
+      <c r="GM5" s="26">
         <v>2014</v>
       </c>
-      <c r="GN5" s="25"/>
-      <c r="GO5" s="25"/>
-      <c r="GP5" s="25"/>
-      <c r="GQ5" s="25"/>
-      <c r="GR5" s="25"/>
-      <c r="GS5" s="25"/>
-      <c r="GT5" s="25"/>
-      <c r="GU5" s="25"/>
-      <c r="GV5" s="25"/>
-      <c r="GW5" s="25"/>
-      <c r="GX5" s="26"/>
-      <c r="GY5" s="24">
+      <c r="GN5" s="27"/>
+      <c r="GO5" s="27"/>
+      <c r="GP5" s="27"/>
+      <c r="GQ5" s="27"/>
+      <c r="GR5" s="27"/>
+      <c r="GS5" s="27"/>
+      <c r="GT5" s="27"/>
+      <c r="GU5" s="27"/>
+      <c r="GV5" s="27"/>
+      <c r="GW5" s="27"/>
+      <c r="GX5" s="28"/>
+      <c r="GY5" s="26">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="25"/>
-      <c r="HA5" s="25"/>
-      <c r="HB5" s="25"/>
-      <c r="HC5" s="25"/>
-      <c r="HD5" s="25"/>
-      <c r="HE5" s="25"/>
-      <c r="HF5" s="25"/>
-      <c r="HG5" s="25"/>
-      <c r="HH5" s="25"/>
-      <c r="HI5" s="25"/>
-      <c r="HJ5" s="26"/>
-      <c r="HK5" s="24">
+      <c r="GZ5" s="27"/>
+      <c r="HA5" s="27"/>
+      <c r="HB5" s="27"/>
+      <c r="HC5" s="27"/>
+      <c r="HD5" s="27"/>
+      <c r="HE5" s="27"/>
+      <c r="HF5" s="27"/>
+      <c r="HG5" s="27"/>
+      <c r="HH5" s="27"/>
+      <c r="HI5" s="27"/>
+      <c r="HJ5" s="28"/>
+      <c r="HK5" s="26">
         <v>2016</v>
       </c>
-      <c r="HL5" s="25"/>
-      <c r="HM5" s="25"/>
-      <c r="HN5" s="25"/>
-      <c r="HO5" s="25"/>
-      <c r="HP5" s="25"/>
-      <c r="HQ5" s="25"/>
-      <c r="HR5" s="25"/>
-      <c r="HS5" s="25"/>
-      <c r="HT5" s="25"/>
-      <c r="HU5" s="25"/>
-      <c r="HV5" s="26"/>
-      <c r="HW5" s="24">
+      <c r="HL5" s="27"/>
+      <c r="HM5" s="27"/>
+      <c r="HN5" s="27"/>
+      <c r="HO5" s="27"/>
+      <c r="HP5" s="27"/>
+      <c r="HQ5" s="27"/>
+      <c r="HR5" s="27"/>
+      <c r="HS5" s="27"/>
+      <c r="HT5" s="27"/>
+      <c r="HU5" s="27"/>
+      <c r="HV5" s="28"/>
+      <c r="HW5" s="26">
         <v>2017</v>
       </c>
-      <c r="HX5" s="25"/>
-      <c r="HY5" s="25"/>
-      <c r="HZ5" s="25"/>
-      <c r="IA5" s="25"/>
-      <c r="IB5" s="25"/>
-      <c r="IC5" s="25"/>
-      <c r="ID5" s="25"/>
-      <c r="IE5" s="25"/>
-      <c r="IF5" s="25"/>
-      <c r="IG5" s="25"/>
-      <c r="IH5" s="26"/>
-      <c r="II5" s="24">
+      <c r="HX5" s="27"/>
+      <c r="HY5" s="27"/>
+      <c r="HZ5" s="27"/>
+      <c r="IA5" s="27"/>
+      <c r="IB5" s="27"/>
+      <c r="IC5" s="27"/>
+      <c r="ID5" s="27"/>
+      <c r="IE5" s="27"/>
+      <c r="IF5" s="27"/>
+      <c r="IG5" s="27"/>
+      <c r="IH5" s="28"/>
+      <c r="II5" s="26">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="25"/>
-      <c r="IK5" s="25"/>
-      <c r="IL5" s="25"/>
-      <c r="IM5" s="25"/>
-      <c r="IN5" s="25"/>
-      <c r="IO5" s="25"/>
-      <c r="IP5" s="25"/>
-      <c r="IQ5" s="25"/>
-      <c r="IR5" s="25"/>
-      <c r="IS5" s="25"/>
-      <c r="IT5" s="26"/>
-      <c r="IU5" s="24">
+      <c r="IJ5" s="27"/>
+      <c r="IK5" s="27"/>
+      <c r="IL5" s="27"/>
+      <c r="IM5" s="27"/>
+      <c r="IN5" s="27"/>
+      <c r="IO5" s="27"/>
+      <c r="IP5" s="27"/>
+      <c r="IQ5" s="27"/>
+      <c r="IR5" s="27"/>
+      <c r="IS5" s="27"/>
+      <c r="IT5" s="28"/>
+      <c r="IU5" s="26">
         <v>2019</v>
       </c>
-      <c r="IV5" s="25"/>
-      <c r="IW5" s="25"/>
-      <c r="IX5" s="25"/>
-      <c r="IY5" s="25"/>
-      <c r="IZ5" s="25"/>
-      <c r="JA5" s="25"/>
-      <c r="JB5" s="25"/>
-      <c r="JC5" s="25"/>
-      <c r="JD5" s="25"/>
-      <c r="JE5" s="25"/>
-      <c r="JF5" s="26"/>
-      <c r="JG5" s="24">
+      <c r="IV5" s="27"/>
+      <c r="IW5" s="27"/>
+      <c r="IX5" s="27"/>
+      <c r="IY5" s="27"/>
+      <c r="IZ5" s="27"/>
+      <c r="JA5" s="27"/>
+      <c r="JB5" s="27"/>
+      <c r="JC5" s="27"/>
+      <c r="JD5" s="27"/>
+      <c r="JE5" s="27"/>
+      <c r="JF5" s="28"/>
+      <c r="JG5" s="26">
         <v>2020</v>
       </c>
-      <c r="JH5" s="25"/>
-      <c r="JI5" s="25"/>
-      <c r="JJ5" s="25"/>
-      <c r="JK5" s="25"/>
-      <c r="JL5" s="25"/>
-      <c r="JM5" s="25"/>
-      <c r="JN5" s="25"/>
-      <c r="JO5" s="25"/>
-      <c r="JP5" s="25"/>
-      <c r="JQ5" s="25"/>
-      <c r="JR5" s="26"/>
-      <c r="JS5" s="24">
+      <c r="JH5" s="27"/>
+      <c r="JI5" s="27"/>
+      <c r="JJ5" s="27"/>
+      <c r="JK5" s="27"/>
+      <c r="JL5" s="27"/>
+      <c r="JM5" s="27"/>
+      <c r="JN5" s="27"/>
+      <c r="JO5" s="27"/>
+      <c r="JP5" s="27"/>
+      <c r="JQ5" s="27"/>
+      <c r="JR5" s="28"/>
+      <c r="JS5" s="26">
         <v>2021</v>
       </c>
-      <c r="JT5" s="25"/>
-      <c r="JU5" s="25"/>
-      <c r="JV5" s="25"/>
-      <c r="JW5" s="25"/>
-      <c r="JX5" s="26"/>
+      <c r="JT5" s="27"/>
+      <c r="JU5" s="27"/>
+      <c r="JV5" s="27"/>
+      <c r="JW5" s="27"/>
+      <c r="JX5" s="27"/>
+      <c r="JY5" s="28"/>
     </row>
-    <row r="6" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+    <row r="6" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2474,11 +2475,14 @@
       <c r="JW6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="JX6" s="11" t="s">
+      <c r="JX6" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="JY6" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:284" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:285" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3328,11 +3332,14 @@
       <c r="JW7" s="8">
         <v>108441</v>
       </c>
-      <c r="JX7" s="18">
+      <c r="JX7" s="8">
         <v>107839</v>
       </c>
+      <c r="JY7" s="18">
+        <v>108146</v>
+      </c>
     </row>
-    <row r="8" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4180,11 +4187,14 @@
       <c r="JW8" s="3">
         <v>20886</v>
       </c>
-      <c r="JX8" s="4">
+      <c r="JX8" s="3">
         <v>20887</v>
       </c>
+      <c r="JY8" s="4">
+        <v>20264</v>
+      </c>
     </row>
-    <row r="9" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5032,11 +5042,14 @@
       <c r="JW9" s="3">
         <v>4856</v>
       </c>
-      <c r="JX9" s="4">
+      <c r="JX9" s="3">
         <v>4667</v>
       </c>
+      <c r="JY9" s="4">
+        <v>5020</v>
+      </c>
     </row>
-    <row r="10" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -5884,11 +5897,14 @@
       <c r="JW10" s="3">
         <v>16451</v>
       </c>
-      <c r="JX10" s="4">
+      <c r="JX10" s="3">
         <v>16007</v>
       </c>
+      <c r="JY10" s="4">
+        <v>16726</v>
+      </c>
     </row>
-    <row r="11" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -6736,11 +6752,14 @@
       <c r="JW11" s="3">
         <v>16869</v>
       </c>
-      <c r="JX11" s="4">
+      <c r="JX11" s="3">
         <v>16974</v>
       </c>
+      <c r="JY11" s="4">
+        <v>16997</v>
+      </c>
     </row>
-    <row r="12" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7588,11 +7607,14 @@
       <c r="JW12" s="3">
         <v>14817</v>
       </c>
-      <c r="JX12" s="4">
+      <c r="JX12" s="3">
         <v>14816</v>
       </c>
+      <c r="JY12" s="4">
+        <v>14794</v>
+      </c>
     </row>
-    <row r="13" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8440,11 +8462,14 @@
       <c r="JW13" s="3">
         <v>12730</v>
       </c>
-      <c r="JX13" s="4">
+      <c r="JX13" s="3">
         <v>12692</v>
       </c>
+      <c r="JY13" s="4">
+        <v>12778</v>
+      </c>
     </row>
-    <row r="14" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9292,11 +9317,14 @@
       <c r="JW14" s="3">
         <v>11200</v>
       </c>
-      <c r="JX14" s="4">
+      <c r="JX14" s="3">
         <v>11176</v>
       </c>
+      <c r="JY14" s="4">
+        <v>11028</v>
+      </c>
     </row>
-    <row r="15" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10144,11 +10172,14 @@
       <c r="JW15" s="3">
         <v>10623</v>
       </c>
-      <c r="JX15" s="4">
+      <c r="JX15" s="3">
         <v>10611</v>
       </c>
+      <c r="JY15" s="4">
+        <v>10535</v>
+      </c>
     </row>
-    <row r="16" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -10996,11 +11027,14 @@
       <c r="JW16" s="3">
         <v>9</v>
       </c>
-      <c r="JX16" s="4">
+      <c r="JX16" s="3">
         <v>9</v>
       </c>
+      <c r="JY16" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -11850,11 +11884,14 @@
       <c r="JW17" s="8">
         <v>369627</v>
       </c>
-      <c r="JX17" s="18">
+      <c r="JX17" s="8">
         <v>372391</v>
       </c>
+      <c r="JY17" s="18">
+        <v>382052</v>
+      </c>
     </row>
-    <row r="18" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -12702,11 +12739,14 @@
       <c r="JW18" s="3">
         <v>53953</v>
       </c>
-      <c r="JX18" s="4">
+      <c r="JX18" s="3">
         <v>54613</v>
       </c>
+      <c r="JY18" s="4">
+        <v>55473</v>
+      </c>
     </row>
-    <row r="19" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -13554,11 +13594,14 @@
       <c r="JW19" s="3">
         <v>12128</v>
       </c>
-      <c r="JX19" s="4">
+      <c r="JX19" s="3">
         <v>12098</v>
       </c>
+      <c r="JY19" s="4">
+        <v>12151</v>
+      </c>
     </row>
-    <row r="20" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -14406,11 +14449,14 @@
       <c r="JW20" s="3">
         <v>53089</v>
       </c>
-      <c r="JX20" s="4">
+      <c r="JX20" s="3">
         <v>53405</v>
       </c>
+      <c r="JY20" s="4">
+        <v>54342</v>
+      </c>
     </row>
-    <row r="21" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -15258,11 +15304,14 @@
       <c r="JW21" s="3">
         <v>63552</v>
       </c>
-      <c r="JX21" s="4">
+      <c r="JX21" s="3">
         <v>64111</v>
       </c>
+      <c r="JY21" s="4">
+        <v>66020</v>
+      </c>
     </row>
-    <row r="22" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16110,11 +16159,14 @@
       <c r="JW22" s="3">
         <v>59219</v>
       </c>
-      <c r="JX22" s="4">
+      <c r="JX22" s="3">
         <v>59570</v>
       </c>
+      <c r="JY22" s="4">
+        <v>61834</v>
+      </c>
     </row>
-    <row r="23" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -16962,11 +17014,14 @@
       <c r="JW23" s="3">
         <v>50766</v>
       </c>
-      <c r="JX23" s="4">
+      <c r="JX23" s="3">
         <v>51065</v>
       </c>
+      <c r="JY23" s="4">
+        <v>52842</v>
+      </c>
     </row>
-    <row r="24" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -17814,11 +17869,14 @@
       <c r="JW24" s="3">
         <v>41265</v>
       </c>
-      <c r="JX24" s="4">
+      <c r="JX24" s="3">
         <v>41642</v>
       </c>
+      <c r="JY24" s="4">
+        <v>42812</v>
+      </c>
     </row>
-    <row r="25" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -18666,11 +18724,14 @@
       <c r="JW25" s="3">
         <v>35648</v>
       </c>
-      <c r="JX25" s="4">
+      <c r="JX25" s="3">
         <v>35881</v>
       </c>
+      <c r="JY25" s="4">
+        <v>36571</v>
+      </c>
     </row>
-    <row r="26" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -19516,11 +19577,14 @@
       <c r="JW26" s="3">
         <v>7</v>
       </c>
-      <c r="JX26" s="4">
+      <c r="JX26" s="3">
         <v>6</v>
       </c>
+      <c r="JY26" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -20370,11 +20434,14 @@
       <c r="JW27" s="8">
         <v>138531</v>
       </c>
-      <c r="JX27" s="18">
+      <c r="JX27" s="8">
         <v>140925</v>
       </c>
+      <c r="JY27" s="18">
+        <v>137423</v>
+      </c>
     </row>
-    <row r="28" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -21222,11 +21289,14 @@
       <c r="JW28" s="3">
         <v>23914</v>
       </c>
-      <c r="JX28" s="4">
+      <c r="JX28" s="3">
         <v>24331</v>
       </c>
+      <c r="JY28" s="4">
+        <v>24098</v>
+      </c>
     </row>
-    <row r="29" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -22074,11 +22144,14 @@
       <c r="JW29" s="3">
         <v>5054</v>
       </c>
-      <c r="JX29" s="4">
+      <c r="JX29" s="3">
         <v>5177</v>
       </c>
+      <c r="JY29" s="4">
+        <v>5091</v>
+      </c>
     </row>
-    <row r="30" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -22926,11 +22999,14 @@
       <c r="JW30" s="3">
         <v>17968</v>
       </c>
-      <c r="JX30" s="4">
+      <c r="JX30" s="3">
         <v>18347</v>
       </c>
+      <c r="JY30" s="4">
+        <v>17753</v>
+      </c>
     </row>
-    <row r="31" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -23778,11 +23854,14 @@
       <c r="JW31" s="3">
         <v>22957</v>
       </c>
-      <c r="JX31" s="4">
+      <c r="JX31" s="3">
         <v>23294</v>
       </c>
+      <c r="JY31" s="4">
+        <v>22464</v>
+      </c>
     </row>
-    <row r="32" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -24630,11 +24709,14 @@
       <c r="JW32" s="3">
         <v>21174</v>
       </c>
-      <c r="JX32" s="4">
+      <c r="JX32" s="3">
         <v>21495</v>
       </c>
+      <c r="JY32" s="4">
+        <v>20649</v>
+      </c>
     </row>
-    <row r="33" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -25482,11 +25564,14 @@
       <c r="JW33" s="3">
         <v>18417</v>
       </c>
-      <c r="JX33" s="4">
+      <c r="JX33" s="3">
         <v>18917</v>
       </c>
+      <c r="JY33" s="4">
+        <v>18401</v>
+      </c>
     </row>
-    <row r="34" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -26334,11 +26419,14 @@
       <c r="JW34" s="3">
         <v>15542</v>
       </c>
-      <c r="JX34" s="4">
+      <c r="JX34" s="3">
         <v>15676</v>
       </c>
+      <c r="JY34" s="4">
+        <v>15410</v>
+      </c>
     </row>
-    <row r="35" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -27186,11 +27274,14 @@
       <c r="JW35" s="3">
         <v>13477</v>
       </c>
-      <c r="JX35" s="4">
+      <c r="JX35" s="3">
         <v>13658</v>
       </c>
+      <c r="JY35" s="4">
+        <v>13526</v>
+      </c>
     </row>
-    <row r="36" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -28038,11 +28129,14 @@
       <c r="JW36" s="3">
         <v>28</v>
       </c>
-      <c r="JX36" s="4">
+      <c r="JX36" s="3">
         <v>30</v>
       </c>
+      <c r="JY36" s="4">
+        <v>31</v>
+      </c>
     </row>
-    <row r="37" spans="1:284" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:285" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>34</v>
       </c>
@@ -28892,11 +28986,14 @@
       <c r="JW37" s="8">
         <v>10007</v>
       </c>
-      <c r="JX37" s="18">
+      <c r="JX37" s="8">
         <v>10103</v>
       </c>
+      <c r="JY37" s="18">
+        <v>9603</v>
+      </c>
     </row>
-    <row r="38" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -29744,11 +29841,14 @@
       <c r="JW38" s="3">
         <v>1847</v>
       </c>
-      <c r="JX38" s="4">
+      <c r="JX38" s="3">
         <v>1831</v>
       </c>
+      <c r="JY38" s="4">
+        <v>1697</v>
+      </c>
     </row>
-    <row r="39" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -30596,11 +30696,14 @@
       <c r="JW39" s="3">
         <v>86</v>
       </c>
-      <c r="JX39" s="4">
+      <c r="JX39" s="3">
         <v>100</v>
       </c>
+      <c r="JY39" s="4">
+        <v>75</v>
+      </c>
     </row>
-    <row r="40" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -31448,11 +31551,14 @@
       <c r="JW40" s="3">
         <v>504</v>
       </c>
-      <c r="JX40" s="4">
+      <c r="JX40" s="3">
         <v>527</v>
       </c>
+      <c r="JY40" s="4">
+        <v>480</v>
+      </c>
     </row>
-    <row r="41" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -32300,11 +32406,14 @@
       <c r="JW41" s="3">
         <v>1016</v>
       </c>
-      <c r="JX41" s="4">
+      <c r="JX41" s="3">
         <v>1050</v>
       </c>
+      <c r="JY41" s="4">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="42" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -33152,11 +33261,14 @@
       <c r="JW42" s="3">
         <v>1496</v>
       </c>
-      <c r="JX42" s="4">
+      <c r="JX42" s="3">
         <v>1513</v>
       </c>
+      <c r="JY42" s="4">
+        <v>1456</v>
+      </c>
     </row>
-    <row r="43" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -34004,11 +34116,14 @@
       <c r="JW43" s="3">
         <v>1796</v>
       </c>
-      <c r="JX43" s="4">
+      <c r="JX43" s="3">
         <v>1796</v>
       </c>
+      <c r="JY43" s="4">
+        <v>1715</v>
+      </c>
     </row>
-    <row r="44" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -34856,11 +34971,14 @@
       <c r="JW44" s="3">
         <v>1726</v>
       </c>
-      <c r="JX44" s="4">
+      <c r="JX44" s="3">
         <v>1739</v>
       </c>
+      <c r="JY44" s="4">
+        <v>1698</v>
+      </c>
     </row>
-    <row r="45" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -35708,11 +35826,14 @@
       <c r="JW45" s="3">
         <v>1536</v>
       </c>
-      <c r="JX45" s="4">
+      <c r="JX45" s="3">
         <v>1547</v>
       </c>
+      <c r="JY45" s="4">
+        <v>1481</v>
+      </c>
     </row>
-    <row r="46" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -36122,9 +36243,10 @@
       </c>
       <c r="JV46" s="3"/>
       <c r="JW46" s="3"/>
-      <c r="JX46" s="4"/>
+      <c r="JX46" s="3"/>
+      <c r="JY46" s="4"/>
     </row>
-    <row r="47" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -36974,11 +37096,14 @@
       <c r="JW47" s="8">
         <v>467355</v>
       </c>
-      <c r="JX47" s="18">
+      <c r="JX47" s="8">
         <v>464115</v>
       </c>
+      <c r="JY47" s="18">
+        <v>473006</v>
+      </c>
     </row>
-    <row r="48" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -37826,11 +37951,14 @@
       <c r="JW48" s="3">
         <v>67204</v>
       </c>
-      <c r="JX48" s="4">
+      <c r="JX48" s="3">
         <v>67476</v>
       </c>
+      <c r="JY48" s="4">
+        <v>68426</v>
+      </c>
     </row>
-    <row r="49" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -38678,11 +38806,14 @@
       <c r="JW49" s="3">
         <v>15401</v>
       </c>
-      <c r="JX49" s="4">
+      <c r="JX49" s="3">
         <v>15269</v>
       </c>
+      <c r="JY49" s="4">
+        <v>15877</v>
+      </c>
     </row>
-    <row r="50" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -39530,11 +39661,14 @@
       <c r="JW50" s="3">
         <v>64593</v>
       </c>
-      <c r="JX50" s="4">
+      <c r="JX50" s="3">
         <v>64347</v>
       </c>
+      <c r="JY50" s="4">
+        <v>65941</v>
+      </c>
     </row>
-    <row r="51" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -40382,11 +40516,14 @@
       <c r="JW51" s="3">
         <v>77673</v>
       </c>
-      <c r="JX51" s="4">
+      <c r="JX51" s="3">
         <v>76591</v>
       </c>
+      <c r="JY51" s="4">
+        <v>78411</v>
+      </c>
     </row>
-    <row r="52" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -41234,11 +41371,14 @@
       <c r="JW52" s="3">
         <v>70727</v>
       </c>
-      <c r="JX52" s="4">
+      <c r="JX52" s="3">
         <v>69703</v>
       </c>
+      <c r="JY52" s="4">
+        <v>71228</v>
+      </c>
     </row>
-    <row r="53" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -42086,11 +42226,14 @@
       <c r="JW53" s="3">
         <v>64514</v>
       </c>
-      <c r="JX53" s="4">
+      <c r="JX53" s="3">
         <v>63968</v>
       </c>
+      <c r="JY53" s="4">
+        <v>64928</v>
+      </c>
     </row>
-    <row r="54" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -42938,11 +43081,14 @@
       <c r="JW54" s="3">
         <v>57404</v>
       </c>
-      <c r="JX54" s="4">
+      <c r="JX54" s="3">
         <v>57049</v>
       </c>
+      <c r="JY54" s="4">
+        <v>57908</v>
+      </c>
     </row>
-    <row r="55" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -43790,11 +43936,14 @@
       <c r="JW55" s="3">
         <v>49832</v>
       </c>
-      <c r="JX55" s="4">
+      <c r="JX55" s="3">
         <v>49707</v>
       </c>
+      <c r="JY55" s="4">
+        <v>50280</v>
+      </c>
     </row>
-    <row r="56" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -44642,11 +44791,14 @@
       <c r="JW56" s="3">
         <v>7</v>
       </c>
-      <c r="JX56" s="4">
+      <c r="JX56" s="3">
         <v>5</v>
       </c>
+      <c r="JY56" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="57" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -45496,11 +45648,14 @@
       <c r="JW57" s="8">
         <v>2465</v>
       </c>
-      <c r="JX57" s="18">
+      <c r="JX57" s="8">
         <v>2420</v>
       </c>
+      <c r="JY57" s="18">
+        <v>2577</v>
+      </c>
     </row>
-    <row r="58" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -46348,11 +46503,14 @@
       <c r="JW58" s="3">
         <v>477</v>
       </c>
-      <c r="JX58" s="4">
+      <c r="JX58" s="3">
         <v>478</v>
       </c>
+      <c r="JY58" s="4">
+        <v>486</v>
+      </c>
     </row>
-    <row r="59" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -47200,11 +47358,14 @@
       <c r="JW59" s="3">
         <v>41</v>
       </c>
-      <c r="JX59" s="4">
+      <c r="JX59" s="3">
         <v>43</v>
       </c>
+      <c r="JY59" s="4">
+        <v>46</v>
+      </c>
     </row>
-    <row r="60" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -48052,11 +48213,14 @@
       <c r="JW60" s="3">
         <v>225</v>
       </c>
-      <c r="JX60" s="4">
+      <c r="JX60" s="3">
         <v>219</v>
       </c>
+      <c r="JY60" s="4">
+        <v>245</v>
+      </c>
     </row>
-    <row r="61" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -48904,11 +49068,14 @@
       <c r="JW61" s="3">
         <v>370</v>
       </c>
-      <c r="JX61" s="4">
+      <c r="JX61" s="3">
         <v>367</v>
       </c>
+      <c r="JY61" s="4">
+        <v>400</v>
+      </c>
     </row>
-    <row r="62" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -49756,11 +49923,14 @@
       <c r="JW62" s="3">
         <v>400</v>
       </c>
-      <c r="JX62" s="4">
+      <c r="JX62" s="3">
         <v>390</v>
       </c>
+      <c r="JY62" s="4">
+        <v>433</v>
+      </c>
     </row>
-    <row r="63" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -50608,11 +50778,14 @@
       <c r="JW63" s="3">
         <v>345</v>
       </c>
-      <c r="JX63" s="4">
+      <c r="JX63" s="3">
         <v>329</v>
       </c>
+      <c r="JY63" s="4">
+        <v>345</v>
+      </c>
     </row>
-    <row r="64" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -51460,11 +51633,14 @@
       <c r="JW64" s="3">
         <v>326</v>
       </c>
-      <c r="JX64" s="4">
+      <c r="JX64" s="3">
         <v>325</v>
       </c>
+      <c r="JY64" s="4">
+        <v>343</v>
+      </c>
     </row>
-    <row r="65" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -52312,11 +52488,14 @@
       <c r="JW65" s="3">
         <v>281</v>
       </c>
-      <c r="JX65" s="4">
+      <c r="JX65" s="3">
         <v>269</v>
       </c>
+      <c r="JY65" s="4">
+        <v>279</v>
+      </c>
     </row>
-    <row r="66" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -52660,9 +52839,10 @@
       <c r="JU66" s="3"/>
       <c r="JV66" s="3"/>
       <c r="JW66" s="3"/>
-      <c r="JX66" s="4"/>
+      <c r="JX66" s="3"/>
+      <c r="JY66" s="4"/>
     </row>
-    <row r="67" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -53512,11 +53692,14 @@
       <c r="JW67" s="8">
         <v>629782</v>
       </c>
-      <c r="JX67" s="18">
+      <c r="JX67" s="8">
         <v>633445</v>
       </c>
+      <c r="JY67" s="18">
+        <v>620513</v>
+      </c>
     </row>
-    <row r="68" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -54364,11 +54547,14 @@
       <c r="JW68" s="3">
         <v>127660</v>
       </c>
-      <c r="JX68" s="4">
+      <c r="JX68" s="3">
         <v>128237</v>
       </c>
+      <c r="JY68" s="4">
+        <v>126855</v>
+      </c>
     </row>
-    <row r="69" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -55216,11 +55402,14 @@
       <c r="JW69" s="3">
         <v>11059</v>
       </c>
-      <c r="JX69" s="4">
+      <c r="JX69" s="3">
         <v>10995</v>
       </c>
+      <c r="JY69" s="4">
+        <v>11824</v>
+      </c>
     </row>
-    <row r="70" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -56068,11 +56257,14 @@
       <c r="JW70" s="3">
         <v>60291</v>
       </c>
-      <c r="JX70" s="4">
+      <c r="JX70" s="3">
         <v>60729</v>
       </c>
+      <c r="JY70" s="4">
+        <v>60470</v>
+      </c>
     </row>
-    <row r="71" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -56920,11 +57112,14 @@
       <c r="JW71" s="3">
         <v>99586</v>
       </c>
-      <c r="JX71" s="4">
+      <c r="JX71" s="3">
         <v>100813</v>
       </c>
+      <c r="JY71" s="4">
+        <v>97258</v>
+      </c>
     </row>
-    <row r="72" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -57772,11 +57967,14 @@
       <c r="JW72" s="3">
         <v>95980</v>
       </c>
-      <c r="JX72" s="4">
+      <c r="JX72" s="3">
         <v>96688</v>
       </c>
+      <c r="JY72" s="4">
+        <v>93319</v>
+      </c>
     </row>
-    <row r="73" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -58624,11 +58822,14 @@
       <c r="JW73" s="3">
         <v>87659</v>
       </c>
-      <c r="JX73" s="4">
+      <c r="JX73" s="3">
         <v>88054</v>
       </c>
+      <c r="JY73" s="4">
+        <v>85526</v>
+      </c>
     </row>
-    <row r="74" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -59476,11 +59677,14 @@
       <c r="JW74" s="3">
         <v>77282</v>
       </c>
-      <c r="JX74" s="4">
+      <c r="JX74" s="3">
         <v>77497</v>
       </c>
+      <c r="JY74" s="4">
+        <v>76038</v>
+      </c>
     </row>
-    <row r="75" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -60328,11 +60532,14 @@
       <c r="JW75" s="3">
         <v>70259</v>
       </c>
-      <c r="JX75" s="4">
+      <c r="JX75" s="3">
         <v>70428</v>
       </c>
+      <c r="JY75" s="4">
+        <v>69220</v>
+      </c>
     </row>
-    <row r="76" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -61180,11 +61387,14 @@
       <c r="JW76" s="3">
         <v>6</v>
       </c>
-      <c r="JX76" s="4">
+      <c r="JX76" s="3">
         <v>4</v>
       </c>
+      <c r="JY76" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="77" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -62034,11 +62244,14 @@
       <c r="JW77" s="8">
         <v>89399</v>
       </c>
-      <c r="JX77" s="18">
+      <c r="JX77" s="8">
         <v>89547</v>
       </c>
+      <c r="JY77" s="18">
+        <v>93255</v>
+      </c>
     </row>
-    <row r="78" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -62886,11 +63099,14 @@
       <c r="JW78" s="3">
         <v>16097</v>
       </c>
-      <c r="JX78" s="4">
+      <c r="JX78" s="3">
         <v>16107</v>
       </c>
+      <c r="JY78" s="4">
+        <v>16540</v>
+      </c>
     </row>
-    <row r="79" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -63738,11 +63954,14 @@
       <c r="JW79" s="3">
         <v>1493</v>
       </c>
-      <c r="JX79" s="4">
+      <c r="JX79" s="3">
         <v>1511</v>
       </c>
+      <c r="JY79" s="4">
+        <v>1672</v>
+      </c>
     </row>
-    <row r="80" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -64590,11 +64809,14 @@
       <c r="JW80" s="3">
         <v>9393</v>
       </c>
-      <c r="JX80" s="4">
+      <c r="JX80" s="3">
         <v>9480</v>
       </c>
+      <c r="JY80" s="4">
+        <v>10068</v>
+      </c>
     </row>
-    <row r="81" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -65442,11 +65664,14 @@
       <c r="JW81" s="3">
         <v>13694</v>
       </c>
-      <c r="JX81" s="4">
+      <c r="JX81" s="3">
         <v>13653</v>
       </c>
+      <c r="JY81" s="4">
+        <v>14306</v>
+      </c>
     </row>
-    <row r="82" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -66294,11 +66519,14 @@
       <c r="JW82" s="3">
         <v>13782</v>
       </c>
-      <c r="JX82" s="4">
+      <c r="JX82" s="3">
         <v>13781</v>
       </c>
+      <c r="JY82" s="4">
+        <v>14371</v>
+      </c>
     </row>
-    <row r="83" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -67146,11 +67374,14 @@
       <c r="JW83" s="3">
         <v>13099</v>
       </c>
-      <c r="JX83" s="4">
+      <c r="JX83" s="3">
         <v>13179</v>
       </c>
+      <c r="JY83" s="4">
+        <v>13664</v>
+      </c>
     </row>
-    <row r="84" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -67998,11 +68229,14 @@
       <c r="JW84" s="3">
         <v>11430</v>
       </c>
-      <c r="JX84" s="4">
+      <c r="JX84" s="3">
         <v>11399</v>
       </c>
+      <c r="JY84" s="4">
+        <v>11796</v>
+      </c>
     </row>
-    <row r="85" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -68850,11 +69084,14 @@
       <c r="JW85" s="3">
         <v>10410</v>
       </c>
-      <c r="JX85" s="4">
+      <c r="JX85" s="3">
         <v>10437</v>
       </c>
+      <c r="JY85" s="4">
+        <v>10838</v>
+      </c>
     </row>
-    <row r="86" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -69526,9 +69763,10 @@
       <c r="JW86" s="3">
         <v>1</v>
       </c>
-      <c r="JX86" s="4"/>
+      <c r="JX86" s="3"/>
+      <c r="JY86" s="4"/>
     </row>
-    <row r="87" spans="1:284" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -70378,23 +70616,26 @@
       <c r="JW87" s="22">
         <v>1815607</v>
       </c>
-      <c r="JX87" s="23">
+      <c r="JX87" s="22">
         <v>1820785</v>
       </c>
+      <c r="JY87" s="23">
+        <v>1826575</v>
+      </c>
     </row>
-    <row r="88" spans="1:284" x14ac:dyDescent="0.2">
-      <c r="A88" s="29" t="s">
+    <row r="88" spans="1:285" x14ac:dyDescent="0.2">
+      <c r="A88" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
     </row>
-    <row r="89" spans="1:284" x14ac:dyDescent="0.2">
-      <c r="JX89" s="30"/>
+    <row r="89" spans="1:285" x14ac:dyDescent="0.2">
+      <c r="JY89" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -70414,7 +70655,8 @@
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
     <mergeCell ref="DS5:ED5"/>
-    <mergeCell ref="JS5:JX5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="JS5:JY5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A2:C2"/>
@@ -70426,7 +70668,6 @@
     <mergeCell ref="AM5:AX5"/>
     <mergeCell ref="AY5:BJ5"/>
     <mergeCell ref="BK5:BV5"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -15,14 +15,14 @@
     <sheet name="ta_división_edad" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_división_edad!$A$6:$JY$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_división_edad!$A$6:$JZ$87</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-julio l2021</t>
+    <t>Enero 1998-agosto 2021</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -932,6 +932,21 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1254,22 +1269,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JY89"/>
+  <dimension ref="A1:JZ89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KB17" sqref="KB17"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="285" width="11.85546875" style="1" customWidth="1"/>
-    <col min="286" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="286" width="11.85546875" style="1" customWidth="1"/>
+    <col min="287" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:285" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:286" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>36</v>
       </c>
@@ -1278,19 +1293,19 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:285" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:286" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
@@ -1627,9 +1642,10 @@
       <c r="JV5" s="27"/>
       <c r="JW5" s="27"/>
       <c r="JX5" s="27"/>
-      <c r="JY5" s="28"/>
+      <c r="JY5" s="27"/>
+      <c r="JZ5" s="28"/>
     </row>
-    <row r="6" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
       <c r="C6" s="15" t="s">
@@ -2478,11 +2494,14 @@
       <c r="JX6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="JY6" s="11" t="s">
+      <c r="JY6" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="JZ6" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:285" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:286" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3335,11 +3354,14 @@
       <c r="JX7" s="8">
         <v>107839</v>
       </c>
-      <c r="JY7" s="18">
+      <c r="JY7" s="8">
         <v>108146</v>
       </c>
+      <c r="JZ7" s="18">
+        <v>112612</v>
+      </c>
     </row>
-    <row r="8" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4190,11 +4212,14 @@
       <c r="JX8" s="3">
         <v>20887</v>
       </c>
-      <c r="JY8" s="4">
+      <c r="JY8" s="3">
         <v>20264</v>
       </c>
+      <c r="JZ8" s="4">
+        <v>21210</v>
+      </c>
     </row>
-    <row r="9" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5045,11 +5070,14 @@
       <c r="JX9" s="3">
         <v>4667</v>
       </c>
-      <c r="JY9" s="4">
+      <c r="JY9" s="3">
         <v>5020</v>
       </c>
+      <c r="JZ9" s="4">
+        <v>5296</v>
+      </c>
     </row>
-    <row r="10" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -5900,11 +5928,14 @@
       <c r="JX10" s="3">
         <v>16007</v>
       </c>
-      <c r="JY10" s="4">
+      <c r="JY10" s="3">
         <v>16726</v>
       </c>
+      <c r="JZ10" s="4">
+        <v>17310</v>
+      </c>
     </row>
-    <row r="11" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -6755,11 +6786,14 @@
       <c r="JX11" s="3">
         <v>16974</v>
       </c>
-      <c r="JY11" s="4">
+      <c r="JY11" s="3">
         <v>16997</v>
       </c>
+      <c r="JZ11" s="4">
+        <v>17575</v>
+      </c>
     </row>
-    <row r="12" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7610,11 +7644,14 @@
       <c r="JX12" s="3">
         <v>14816</v>
       </c>
-      <c r="JY12" s="4">
+      <c r="JY12" s="3">
         <v>14794</v>
       </c>
+      <c r="JZ12" s="4">
+        <v>15340</v>
+      </c>
     </row>
-    <row r="13" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8465,11 +8502,14 @@
       <c r="JX13" s="3">
         <v>12692</v>
       </c>
-      <c r="JY13" s="4">
+      <c r="JY13" s="3">
         <v>12778</v>
       </c>
+      <c r="JZ13" s="4">
+        <v>13392</v>
+      </c>
     </row>
-    <row r="14" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9320,11 +9360,14 @@
       <c r="JX14" s="3">
         <v>11176</v>
       </c>
-      <c r="JY14" s="4">
+      <c r="JY14" s="3">
         <v>11028</v>
       </c>
+      <c r="JZ14" s="4">
+        <v>11501</v>
+      </c>
     </row>
-    <row r="15" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10175,11 +10218,14 @@
       <c r="JX15" s="3">
         <v>10611</v>
       </c>
-      <c r="JY15" s="4">
+      <c r="JY15" s="3">
         <v>10535</v>
       </c>
+      <c r="JZ15" s="4">
+        <v>10981</v>
+      </c>
     </row>
-    <row r="16" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11030,11 +11076,14 @@
       <c r="JX16" s="3">
         <v>9</v>
       </c>
-      <c r="JY16" s="4">
+      <c r="JY16" s="3">
         <v>4</v>
       </c>
+      <c r="JZ16" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -11887,11 +11936,14 @@
       <c r="JX17" s="8">
         <v>372391</v>
       </c>
-      <c r="JY17" s="18">
+      <c r="JY17" s="8">
         <v>382052</v>
       </c>
+      <c r="JZ17" s="18">
+        <v>382970</v>
+      </c>
     </row>
-    <row r="18" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -12742,11 +12794,14 @@
       <c r="JX18" s="3">
         <v>54613</v>
       </c>
-      <c r="JY18" s="4">
+      <c r="JY18" s="3">
         <v>55473</v>
       </c>
+      <c r="JZ18" s="4">
+        <v>56041</v>
+      </c>
     </row>
-    <row r="19" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -13597,11 +13652,14 @@
       <c r="JX19" s="3">
         <v>12098</v>
       </c>
-      <c r="JY19" s="4">
+      <c r="JY19" s="3">
         <v>12151</v>
       </c>
+      <c r="JZ19" s="4">
+        <v>12106</v>
+      </c>
     </row>
-    <row r="20" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -14452,11 +14510,14 @@
       <c r="JX20" s="3">
         <v>53405</v>
       </c>
-      <c r="JY20" s="4">
+      <c r="JY20" s="3">
         <v>54342</v>
       </c>
+      <c r="JZ20" s="4">
+        <v>53777</v>
+      </c>
     </row>
-    <row r="21" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -15307,11 +15368,14 @@
       <c r="JX21" s="3">
         <v>64111</v>
       </c>
-      <c r="JY21" s="4">
+      <c r="JY21" s="3">
         <v>66020</v>
       </c>
+      <c r="JZ21" s="4">
+        <v>65945</v>
+      </c>
     </row>
-    <row r="22" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16162,11 +16226,14 @@
       <c r="JX22" s="3">
         <v>59570</v>
       </c>
-      <c r="JY22" s="4">
+      <c r="JY22" s="3">
         <v>61834</v>
       </c>
+      <c r="JZ22" s="4">
+        <v>62187</v>
+      </c>
     </row>
-    <row r="23" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17017,11 +17084,14 @@
       <c r="JX23" s="3">
         <v>51065</v>
       </c>
-      <c r="JY23" s="4">
+      <c r="JY23" s="3">
         <v>52842</v>
       </c>
+      <c r="JZ23" s="4">
+        <v>53094</v>
+      </c>
     </row>
-    <row r="24" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -17872,11 +17942,14 @@
       <c r="JX24" s="3">
         <v>41642</v>
       </c>
-      <c r="JY24" s="4">
+      <c r="JY24" s="3">
         <v>42812</v>
       </c>
+      <c r="JZ24" s="4">
+        <v>43126</v>
+      </c>
     </row>
-    <row r="25" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -18727,11 +18800,14 @@
       <c r="JX25" s="3">
         <v>35881</v>
       </c>
-      <c r="JY25" s="4">
+      <c r="JY25" s="3">
         <v>36571</v>
       </c>
+      <c r="JZ25" s="4">
+        <v>36691</v>
+      </c>
     </row>
-    <row r="26" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -19580,11 +19656,14 @@
       <c r="JX26" s="3">
         <v>6</v>
       </c>
-      <c r="JY26" s="4">
+      <c r="JY26" s="3">
         <v>7</v>
       </c>
+      <c r="JZ26" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -20437,11 +20516,14 @@
       <c r="JX27" s="8">
         <v>140925</v>
       </c>
-      <c r="JY27" s="18">
+      <c r="JY27" s="8">
         <v>137423</v>
       </c>
+      <c r="JZ27" s="18">
+        <v>139603</v>
+      </c>
     </row>
-    <row r="28" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -21292,11 +21374,14 @@
       <c r="JX28" s="3">
         <v>24331</v>
       </c>
-      <c r="JY28" s="4">
+      <c r="JY28" s="3">
         <v>24098</v>
       </c>
+      <c r="JZ28" s="4">
+        <v>24334</v>
+      </c>
     </row>
-    <row r="29" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -22147,11 +22232,14 @@
       <c r="JX29" s="3">
         <v>5177</v>
       </c>
-      <c r="JY29" s="4">
+      <c r="JY29" s="3">
         <v>5091</v>
       </c>
+      <c r="JZ29" s="4">
+        <v>5237</v>
+      </c>
     </row>
-    <row r="30" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -23002,11 +23090,14 @@
       <c r="JX30" s="3">
         <v>18347</v>
       </c>
-      <c r="JY30" s="4">
+      <c r="JY30" s="3">
         <v>17753</v>
       </c>
+      <c r="JZ30" s="4">
+        <v>18089</v>
+      </c>
     </row>
-    <row r="31" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -23857,11 +23948,14 @@
       <c r="JX31" s="3">
         <v>23294</v>
       </c>
-      <c r="JY31" s="4">
+      <c r="JY31" s="3">
         <v>22464</v>
       </c>
+      <c r="JZ31" s="4">
+        <v>22742</v>
+      </c>
     </row>
-    <row r="32" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -24712,11 +24806,14 @@
       <c r="JX32" s="3">
         <v>21495</v>
       </c>
-      <c r="JY32" s="4">
+      <c r="JY32" s="3">
         <v>20649</v>
       </c>
+      <c r="JZ32" s="4">
+        <v>21178</v>
+      </c>
     </row>
-    <row r="33" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -25567,11 +25664,14 @@
       <c r="JX33" s="3">
         <v>18917</v>
       </c>
-      <c r="JY33" s="4">
+      <c r="JY33" s="3">
         <v>18401</v>
       </c>
+      <c r="JZ33" s="4">
+        <v>18675</v>
+      </c>
     </row>
-    <row r="34" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -26422,11 +26522,14 @@
       <c r="JX34" s="3">
         <v>15676</v>
       </c>
-      <c r="JY34" s="4">
+      <c r="JY34" s="3">
         <v>15410</v>
       </c>
+      <c r="JZ34" s="4">
+        <v>15566</v>
+      </c>
     </row>
-    <row r="35" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -27277,11 +27380,14 @@
       <c r="JX35" s="3">
         <v>13658</v>
       </c>
-      <c r="JY35" s="4">
+      <c r="JY35" s="3">
         <v>13526</v>
       </c>
+      <c r="JZ35" s="4">
+        <v>13748</v>
+      </c>
     </row>
-    <row r="36" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -28132,868 +28238,874 @@
       <c r="JX36" s="3">
         <v>30</v>
       </c>
-      <c r="JY36" s="4">
+      <c r="JY36" s="3">
         <v>31</v>
       </c>
+      <c r="JZ36" s="4">
+        <v>34</v>
+      </c>
     </row>
-    <row r="37" spans="1:285" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:286" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="32">
         <v>7246</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="33">
         <v>7117</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="33">
         <v>7374</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="33">
         <v>7442</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="33">
         <v>7381</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="33">
         <v>7414</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="33">
         <v>7460</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="33">
         <v>7443</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="33">
         <v>7415</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="33">
         <v>7514</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="33">
         <v>7646</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N37" s="34">
         <v>7466</v>
       </c>
-      <c r="O37" s="17">
+      <c r="O37" s="32">
         <v>7298</v>
       </c>
-      <c r="P37" s="8">
+      <c r="P37" s="33">
         <v>7259</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="Q37" s="33">
         <v>7527</v>
       </c>
-      <c r="R37" s="8">
+      <c r="R37" s="33">
         <v>7472</v>
       </c>
-      <c r="S37" s="8">
+      <c r="S37" s="33">
         <v>7486</v>
       </c>
-      <c r="T37" s="8">
+      <c r="T37" s="33">
         <v>7482</v>
       </c>
-      <c r="U37" s="8">
+      <c r="U37" s="33">
         <v>7539</v>
       </c>
-      <c r="V37" s="8">
+      <c r="V37" s="33">
         <v>7541</v>
       </c>
-      <c r="W37" s="8">
+      <c r="W37" s="33">
         <v>7420</v>
       </c>
-      <c r="X37" s="8">
+      <c r="X37" s="33">
         <v>7300</v>
       </c>
-      <c r="Y37" s="8">
+      <c r="Y37" s="33">
         <v>7362</v>
       </c>
-      <c r="Z37" s="18">
+      <c r="Z37" s="34">
         <v>7535</v>
       </c>
-      <c r="AA37" s="17">
+      <c r="AA37" s="32">
         <v>7276</v>
       </c>
-      <c r="AB37" s="8">
+      <c r="AB37" s="33">
         <v>7305</v>
       </c>
-      <c r="AC37" s="8">
+      <c r="AC37" s="33">
         <v>7337</v>
       </c>
-      <c r="AD37" s="8">
+      <c r="AD37" s="33">
         <v>7448</v>
       </c>
-      <c r="AE37" s="8">
+      <c r="AE37" s="33">
         <v>7473</v>
       </c>
-      <c r="AF37" s="8">
+      <c r="AF37" s="33">
         <v>7515</v>
       </c>
-      <c r="AG37" s="8">
+      <c r="AG37" s="33">
         <v>7620</v>
       </c>
-      <c r="AH37" s="8">
+      <c r="AH37" s="33">
         <v>7570</v>
       </c>
-      <c r="AI37" s="8">
+      <c r="AI37" s="33">
         <v>7451</v>
       </c>
-      <c r="AJ37" s="8">
+      <c r="AJ37" s="33">
         <v>7405</v>
       </c>
-      <c r="AK37" s="8">
+      <c r="AK37" s="33">
         <v>7226</v>
       </c>
-      <c r="AL37" s="18">
+      <c r="AL37" s="34">
         <v>7333</v>
       </c>
-      <c r="AM37" s="17">
+      <c r="AM37" s="32">
         <v>7225</v>
       </c>
-      <c r="AN37" s="8">
+      <c r="AN37" s="33">
         <v>7218</v>
       </c>
-      <c r="AO37" s="8">
+      <c r="AO37" s="33">
         <v>7290</v>
       </c>
-      <c r="AP37" s="8">
+      <c r="AP37" s="33">
         <v>7436</v>
       </c>
-      <c r="AQ37" s="8">
+      <c r="AQ37" s="33">
         <v>7486</v>
       </c>
-      <c r="AR37" s="8">
+      <c r="AR37" s="33">
         <v>7501</v>
       </c>
-      <c r="AS37" s="8">
+      <c r="AS37" s="33">
         <v>7528</v>
       </c>
-      <c r="AT37" s="8">
+      <c r="AT37" s="33">
         <v>7553</v>
       </c>
-      <c r="AU37" s="8">
+      <c r="AU37" s="33">
         <v>7466</v>
       </c>
-      <c r="AV37" s="8">
+      <c r="AV37" s="33">
         <v>7514</v>
       </c>
-      <c r="AW37" s="8">
+      <c r="AW37" s="33">
         <v>7519</v>
       </c>
-      <c r="AX37" s="18">
+      <c r="AX37" s="34">
         <v>7640</v>
       </c>
-      <c r="AY37" s="17">
+      <c r="AY37" s="32">
         <v>7566</v>
       </c>
-      <c r="AZ37" s="8">
+      <c r="AZ37" s="33">
         <v>7591</v>
       </c>
-      <c r="BA37" s="8">
+      <c r="BA37" s="33">
         <v>7638</v>
       </c>
-      <c r="BB37" s="8">
+      <c r="BB37" s="33">
         <v>7605</v>
       </c>
-      <c r="BC37" s="8">
+      <c r="BC37" s="33">
         <v>7544</v>
       </c>
-      <c r="BD37" s="8">
+      <c r="BD37" s="33">
         <v>7555</v>
       </c>
-      <c r="BE37" s="8">
+      <c r="BE37" s="33">
         <v>7576</v>
       </c>
-      <c r="BF37" s="8">
+      <c r="BF37" s="33">
         <v>7518</v>
       </c>
-      <c r="BG37" s="8">
+      <c r="BG37" s="33">
         <v>7404</v>
       </c>
-      <c r="BH37" s="8">
+      <c r="BH37" s="33">
         <v>7439</v>
       </c>
-      <c r="BI37" s="8">
+      <c r="BI37" s="33">
         <v>7424</v>
       </c>
-      <c r="BJ37" s="18">
+      <c r="BJ37" s="34">
         <v>7506</v>
       </c>
-      <c r="BK37" s="17">
+      <c r="BK37" s="32">
         <v>7471</v>
       </c>
-      <c r="BL37" s="8">
+      <c r="BL37" s="33">
         <v>7453</v>
       </c>
-      <c r="BM37" s="8">
+      <c r="BM37" s="33">
         <v>7484</v>
       </c>
-      <c r="BN37" s="8">
+      <c r="BN37" s="33">
         <v>7642</v>
       </c>
-      <c r="BO37" s="8">
+      <c r="BO37" s="33">
         <v>7603</v>
       </c>
-      <c r="BP37" s="8">
+      <c r="BP37" s="33">
         <v>7690</v>
       </c>
-      <c r="BQ37" s="8">
+      <c r="BQ37" s="33">
         <v>7908</v>
       </c>
-      <c r="BR37" s="8">
+      <c r="BR37" s="33">
         <v>7725</v>
       </c>
-      <c r="BS37" s="8">
+      <c r="BS37" s="33">
         <v>7720</v>
       </c>
-      <c r="BT37" s="8">
+      <c r="BT37" s="33">
         <v>7722</v>
       </c>
-      <c r="BU37" s="8">
+      <c r="BU37" s="33">
         <v>7572</v>
       </c>
-      <c r="BV37" s="18">
+      <c r="BV37" s="34">
         <v>7814</v>
       </c>
-      <c r="BW37" s="17">
+      <c r="BW37" s="32">
         <v>7584</v>
       </c>
-      <c r="BX37" s="8">
+      <c r="BX37" s="33">
         <v>7586</v>
       </c>
-      <c r="BY37" s="8">
+      <c r="BY37" s="33">
         <v>7706</v>
       </c>
-      <c r="BZ37" s="8">
+      <c r="BZ37" s="33">
         <v>7969</v>
       </c>
-      <c r="CA37" s="8">
+      <c r="CA37" s="33">
         <v>7995</v>
       </c>
-      <c r="CB37" s="8">
+      <c r="CB37" s="33">
         <v>8134</v>
       </c>
-      <c r="CC37" s="8">
+      <c r="CC37" s="33">
         <v>8242</v>
       </c>
-      <c r="CD37" s="8">
+      <c r="CD37" s="33">
         <v>7995</v>
       </c>
-      <c r="CE37" s="8">
+      <c r="CE37" s="33">
         <v>7992</v>
       </c>
-      <c r="CF37" s="8">
+      <c r="CF37" s="33">
         <v>7916</v>
       </c>
-      <c r="CG37" s="8">
+      <c r="CG37" s="33">
         <v>7927</v>
       </c>
-      <c r="CH37" s="18">
+      <c r="CH37" s="34">
         <v>7962</v>
       </c>
-      <c r="CI37" s="17">
+      <c r="CI37" s="32">
         <v>7777</v>
       </c>
-      <c r="CJ37" s="8">
+      <c r="CJ37" s="33">
         <v>7883</v>
       </c>
-      <c r="CK37" s="8">
+      <c r="CK37" s="33">
         <v>8151</v>
       </c>
-      <c r="CL37" s="8">
+      <c r="CL37" s="33">
         <v>8225</v>
       </c>
-      <c r="CM37" s="8">
+      <c r="CM37" s="33">
         <v>8301</v>
       </c>
-      <c r="CN37" s="8">
+      <c r="CN37" s="33">
         <v>8371</v>
       </c>
-      <c r="CO37" s="8">
+      <c r="CO37" s="33">
         <v>8408</v>
       </c>
-      <c r="CP37" s="8">
+      <c r="CP37" s="33">
         <v>8335</v>
       </c>
-      <c r="CQ37" s="8">
+      <c r="CQ37" s="33">
         <v>8432</v>
       </c>
-      <c r="CR37" s="8">
+      <c r="CR37" s="33">
         <v>8462</v>
       </c>
-      <c r="CS37" s="8">
+      <c r="CS37" s="33">
         <v>8559</v>
       </c>
-      <c r="CT37" s="18">
+      <c r="CT37" s="34">
         <v>8390</v>
       </c>
-      <c r="CU37" s="17">
+      <c r="CU37" s="32">
         <v>8260</v>
       </c>
-      <c r="CV37" s="8">
+      <c r="CV37" s="33">
         <v>8322</v>
       </c>
-      <c r="CW37" s="8">
+      <c r="CW37" s="33">
         <v>8078</v>
       </c>
-      <c r="CX37" s="8">
+      <c r="CX37" s="33">
         <v>8189</v>
       </c>
-      <c r="CY37" s="8">
+      <c r="CY37" s="33">
         <v>8206</v>
       </c>
-      <c r="CZ37" s="8">
+      <c r="CZ37" s="33">
         <v>8285</v>
       </c>
-      <c r="DA37" s="8">
+      <c r="DA37" s="33">
         <v>8310</v>
       </c>
-      <c r="DB37" s="8">
+      <c r="DB37" s="33">
         <v>8370</v>
       </c>
-      <c r="DC37" s="8">
+      <c r="DC37" s="33">
         <v>8314</v>
       </c>
-      <c r="DD37" s="8">
+      <c r="DD37" s="33">
         <v>8284</v>
       </c>
-      <c r="DE37" s="8">
+      <c r="DE37" s="33">
         <v>8340</v>
       </c>
-      <c r="DF37" s="18">
+      <c r="DF37" s="34">
         <v>8293</v>
       </c>
-      <c r="DG37" s="17">
+      <c r="DG37" s="32">
         <v>8057</v>
       </c>
-      <c r="DH37" s="8">
+      <c r="DH37" s="33">
         <v>8023</v>
       </c>
-      <c r="DI37" s="8">
+      <c r="DI37" s="33">
         <v>8137</v>
       </c>
-      <c r="DJ37" s="8">
+      <c r="DJ37" s="33">
         <v>8115</v>
       </c>
-      <c r="DK37" s="8">
+      <c r="DK37" s="33">
         <v>8195</v>
       </c>
-      <c r="DL37" s="8">
+      <c r="DL37" s="33">
         <v>8245</v>
       </c>
-      <c r="DM37" s="8">
+      <c r="DM37" s="33">
         <v>8333</v>
       </c>
-      <c r="DN37" s="8">
+      <c r="DN37" s="33">
         <v>8234</v>
       </c>
-      <c r="DO37" s="8">
+      <c r="DO37" s="33">
         <v>8157</v>
       </c>
-      <c r="DP37" s="8">
+      <c r="DP37" s="33">
         <v>8217</v>
       </c>
-      <c r="DQ37" s="8">
+      <c r="DQ37" s="33">
         <v>8354</v>
       </c>
-      <c r="DR37" s="18">
+      <c r="DR37" s="34">
         <v>8376</v>
       </c>
-      <c r="DS37" s="17">
+      <c r="DS37" s="32">
         <v>8367</v>
       </c>
-      <c r="DT37" s="8">
+      <c r="DT37" s="33">
         <v>8425</v>
       </c>
-      <c r="DU37" s="8">
+      <c r="DU37" s="33">
         <v>8527</v>
       </c>
-      <c r="DV37" s="8">
+      <c r="DV37" s="33">
         <v>8557</v>
       </c>
-      <c r="DW37" s="8">
+      <c r="DW37" s="33">
         <v>8635</v>
       </c>
-      <c r="DX37" s="8">
+      <c r="DX37" s="33">
         <v>8683</v>
       </c>
-      <c r="DY37" s="8">
+      <c r="DY37" s="33">
         <v>8679</v>
       </c>
-      <c r="DZ37" s="8">
+      <c r="DZ37" s="33">
         <v>8773</v>
       </c>
-      <c r="EA37" s="8">
+      <c r="EA37" s="33">
         <v>8723</v>
       </c>
-      <c r="EB37" s="8">
+      <c r="EB37" s="33">
         <v>8649</v>
       </c>
-      <c r="EC37" s="8">
+      <c r="EC37" s="33">
         <v>8638</v>
       </c>
-      <c r="ED37" s="18">
+      <c r="ED37" s="34">
         <v>8854</v>
       </c>
-      <c r="EE37" s="17">
+      <c r="EE37" s="32">
         <v>8643</v>
       </c>
-      <c r="EF37" s="8">
+      <c r="EF37" s="33">
         <v>8657</v>
       </c>
-      <c r="EG37" s="8">
+      <c r="EG37" s="33">
         <v>8842</v>
       </c>
-      <c r="EH37" s="8">
+      <c r="EH37" s="33">
         <v>8870</v>
       </c>
-      <c r="EI37" s="8">
+      <c r="EI37" s="33">
         <v>8940</v>
       </c>
-      <c r="EJ37" s="8">
+      <c r="EJ37" s="33">
         <v>8931</v>
       </c>
-      <c r="EK37" s="8">
+      <c r="EK37" s="33">
         <v>9199</v>
       </c>
-      <c r="EL37" s="8">
+      <c r="EL37" s="33">
         <v>8956</v>
       </c>
-      <c r="EM37" s="8">
+      <c r="EM37" s="33">
         <v>8865</v>
       </c>
-      <c r="EN37" s="8">
+      <c r="EN37" s="33">
         <v>8849</v>
       </c>
-      <c r="EO37" s="8">
+      <c r="EO37" s="33">
         <v>8887</v>
       </c>
-      <c r="EP37" s="18">
+      <c r="EP37" s="34">
         <v>9024</v>
       </c>
-      <c r="EQ37" s="17">
+      <c r="EQ37" s="32">
         <v>9061</v>
       </c>
-      <c r="ER37" s="8">
+      <c r="ER37" s="33">
         <v>9220</v>
       </c>
-      <c r="ES37" s="8">
+      <c r="ES37" s="33">
         <v>9507</v>
       </c>
-      <c r="ET37" s="8">
+      <c r="ET37" s="33">
         <v>9611</v>
       </c>
-      <c r="EU37" s="8">
+      <c r="EU37" s="33">
         <v>9626</v>
       </c>
-      <c r="EV37" s="8">
+      <c r="EV37" s="33">
         <v>9694</v>
       </c>
-      <c r="EW37" s="8">
+      <c r="EW37" s="33">
         <v>9706</v>
       </c>
-      <c r="EX37" s="8">
+      <c r="EX37" s="33">
         <v>9333</v>
       </c>
-      <c r="EY37" s="8">
+      <c r="EY37" s="33">
         <v>9242</v>
       </c>
-      <c r="EZ37" s="8">
+      <c r="EZ37" s="33">
         <v>9303</v>
       </c>
-      <c r="FA37" s="8">
+      <c r="FA37" s="33">
         <v>9104</v>
       </c>
-      <c r="FB37" s="18">
+      <c r="FB37" s="34">
         <v>9311</v>
       </c>
-      <c r="FC37" s="17">
+      <c r="FC37" s="32">
         <v>9172</v>
       </c>
-      <c r="FD37" s="8">
+      <c r="FD37" s="33">
         <v>9191</v>
       </c>
-      <c r="FE37" s="8">
+      <c r="FE37" s="33">
         <v>9154</v>
       </c>
-      <c r="FF37" s="8">
+      <c r="FF37" s="33">
         <v>9337</v>
       </c>
-      <c r="FG37" s="8">
+      <c r="FG37" s="33">
         <v>9205</v>
       </c>
-      <c r="FH37" s="8">
+      <c r="FH37" s="33">
         <v>9179</v>
       </c>
-      <c r="FI37" s="8">
+      <c r="FI37" s="33">
         <v>9295</v>
       </c>
-      <c r="FJ37" s="8">
+      <c r="FJ37" s="33">
         <v>9211</v>
       </c>
-      <c r="FK37" s="8">
+      <c r="FK37" s="33">
         <v>9157</v>
       </c>
-      <c r="FL37" s="8">
+      <c r="FL37" s="33">
         <v>9219</v>
       </c>
-      <c r="FM37" s="8">
+      <c r="FM37" s="33">
         <v>9071</v>
       </c>
-      <c r="FN37" s="18">
+      <c r="FN37" s="34">
         <v>9191</v>
       </c>
-      <c r="FO37" s="17">
+      <c r="FO37" s="32">
         <v>8998</v>
       </c>
-      <c r="FP37" s="8">
+      <c r="FP37" s="33">
         <v>9029</v>
       </c>
-      <c r="FQ37" s="8">
+      <c r="FQ37" s="33">
         <v>9124</v>
       </c>
-      <c r="FR37" s="8">
+      <c r="FR37" s="33">
         <v>9209</v>
       </c>
-      <c r="FS37" s="8">
+      <c r="FS37" s="33">
         <v>9183</v>
       </c>
-      <c r="FT37" s="8">
+      <c r="FT37" s="33">
         <v>9160</v>
       </c>
-      <c r="FU37" s="8">
+      <c r="FU37" s="33">
         <v>9196</v>
       </c>
-      <c r="FV37" s="8">
+      <c r="FV37" s="33">
         <v>9125</v>
       </c>
-      <c r="FW37" s="8">
+      <c r="FW37" s="33">
         <v>9070</v>
       </c>
-      <c r="FX37" s="8">
+      <c r="FX37" s="33">
         <v>9069</v>
       </c>
-      <c r="FY37" s="8">
+      <c r="FY37" s="33">
         <v>9087</v>
       </c>
-      <c r="FZ37" s="18">
+      <c r="FZ37" s="34">
         <v>9246</v>
       </c>
-      <c r="GA37" s="17">
+      <c r="GA37" s="32">
         <v>9107</v>
       </c>
-      <c r="GB37" s="8">
+      <c r="GB37" s="33">
         <v>9145</v>
       </c>
-      <c r="GC37" s="8">
+      <c r="GC37" s="33">
         <v>9177</v>
       </c>
-      <c r="GD37" s="8">
+      <c r="GD37" s="33">
         <v>9178</v>
       </c>
-      <c r="GE37" s="8">
+      <c r="GE37" s="33">
         <v>9254</v>
       </c>
-      <c r="GF37" s="8">
+      <c r="GF37" s="33">
         <v>9176</v>
       </c>
-      <c r="GG37" s="8">
+      <c r="GG37" s="33">
         <v>9237</v>
       </c>
-      <c r="GH37" s="8">
+      <c r="GH37" s="33">
         <v>9176</v>
       </c>
-      <c r="GI37" s="8">
+      <c r="GI37" s="33">
         <v>9171</v>
       </c>
-      <c r="GJ37" s="8">
+      <c r="GJ37" s="33">
         <v>9108</v>
       </c>
-      <c r="GK37" s="8">
+      <c r="GK37" s="33">
         <v>9143</v>
       </c>
-      <c r="GL37" s="18">
+      <c r="GL37" s="34">
         <v>9369</v>
       </c>
-      <c r="GM37" s="17">
+      <c r="GM37" s="32">
         <v>9148</v>
       </c>
-      <c r="GN37" s="8">
+      <c r="GN37" s="33">
         <v>9253</v>
       </c>
-      <c r="GO37" s="8">
+      <c r="GO37" s="33">
         <v>9218</v>
       </c>
-      <c r="GP37" s="8">
+      <c r="GP37" s="33">
         <v>9328</v>
       </c>
-      <c r="GQ37" s="8">
+      <c r="GQ37" s="33">
         <v>9307</v>
       </c>
-      <c r="GR37" s="8">
+      <c r="GR37" s="33">
         <v>9226</v>
       </c>
-      <c r="GS37" s="8">
+      <c r="GS37" s="33">
         <v>9429</v>
       </c>
-      <c r="GT37" s="8">
+      <c r="GT37" s="33">
         <v>9240</v>
       </c>
-      <c r="GU37" s="8">
+      <c r="GU37" s="33">
         <v>9401</v>
       </c>
-      <c r="GV37" s="8">
+      <c r="GV37" s="33">
         <v>9378</v>
       </c>
-      <c r="GW37" s="8">
+      <c r="GW37" s="33">
         <v>9346</v>
       </c>
-      <c r="GX37" s="18">
+      <c r="GX37" s="34">
         <v>9548</v>
       </c>
-      <c r="GY37" s="17">
+      <c r="GY37" s="32">
         <v>9332</v>
       </c>
-      <c r="GZ37" s="8">
+      <c r="GZ37" s="33">
         <v>9221</v>
       </c>
-      <c r="HA37" s="8">
+      <c r="HA37" s="33">
         <v>9389</v>
       </c>
-      <c r="HB37" s="8">
+      <c r="HB37" s="33">
         <v>9402</v>
       </c>
-      <c r="HC37" s="8">
+      <c r="HC37" s="33">
         <v>9350</v>
       </c>
-      <c r="HD37" s="8">
+      <c r="HD37" s="33">
         <v>9377</v>
       </c>
-      <c r="HE37" s="8">
+      <c r="HE37" s="33">
         <v>9440</v>
       </c>
-      <c r="HF37" s="8">
+      <c r="HF37" s="33">
         <v>9204</v>
       </c>
-      <c r="HG37" s="8">
+      <c r="HG37" s="33">
         <v>9121</v>
       </c>
-      <c r="HH37" s="8">
+      <c r="HH37" s="33">
         <v>9047</v>
       </c>
-      <c r="HI37" s="8">
+      <c r="HI37" s="33">
         <v>9126</v>
       </c>
-      <c r="HJ37" s="18">
+      <c r="HJ37" s="34">
         <v>9329</v>
       </c>
-      <c r="HK37" s="17">
+      <c r="HK37" s="32">
         <v>9153</v>
       </c>
-      <c r="HL37" s="8">
+      <c r="HL37" s="33">
         <v>9230</v>
       </c>
-      <c r="HM37" s="8">
+      <c r="HM37" s="33">
         <v>9429</v>
       </c>
-      <c r="HN37" s="8">
+      <c r="HN37" s="33">
         <v>9294</v>
       </c>
-      <c r="HO37" s="8">
+      <c r="HO37" s="33">
         <v>9204</v>
       </c>
-      <c r="HP37" s="8">
+      <c r="HP37" s="33">
         <v>9238</v>
       </c>
-      <c r="HQ37" s="8">
+      <c r="HQ37" s="33">
         <v>9290</v>
       </c>
-      <c r="HR37" s="8">
+      <c r="HR37" s="33">
         <v>9238</v>
       </c>
-      <c r="HS37" s="8">
+      <c r="HS37" s="33">
         <v>9247</v>
       </c>
-      <c r="HT37" s="8">
+      <c r="HT37" s="33">
         <v>9249</v>
       </c>
-      <c r="HU37" s="8">
+      <c r="HU37" s="33">
         <v>9253</v>
       </c>
-      <c r="HV37" s="18">
+      <c r="HV37" s="34">
         <v>9329</v>
       </c>
-      <c r="HW37" s="17">
+      <c r="HW37" s="32">
         <v>9211</v>
       </c>
-      <c r="HX37" s="8">
+      <c r="HX37" s="33">
         <v>9233</v>
       </c>
-      <c r="HY37" s="8">
+      <c r="HY37" s="33">
         <v>9264</v>
       </c>
-      <c r="HZ37" s="8">
+      <c r="HZ37" s="33">
         <v>9221</v>
       </c>
-      <c r="IA37" s="8">
+      <c r="IA37" s="33">
         <v>9150</v>
       </c>
-      <c r="IB37" s="8">
+      <c r="IB37" s="33">
         <v>9178</v>
       </c>
-      <c r="IC37" s="8">
+      <c r="IC37" s="33">
         <v>9225</v>
       </c>
-      <c r="ID37" s="8">
+      <c r="ID37" s="33">
         <v>9168</v>
       </c>
-      <c r="IE37" s="8">
+      <c r="IE37" s="33">
         <v>9107</v>
       </c>
-      <c r="IF37" s="8">
+      <c r="IF37" s="33">
         <v>9185</v>
       </c>
-      <c r="IG37" s="8">
+      <c r="IG37" s="33">
         <v>9100</v>
       </c>
-      <c r="IH37" s="18">
+      <c r="IH37" s="34">
         <v>9194</v>
       </c>
-      <c r="II37" s="17">
+      <c r="II37" s="32">
         <v>9163</v>
       </c>
-      <c r="IJ37" s="8">
+      <c r="IJ37" s="33">
         <v>9251</v>
       </c>
-      <c r="IK37" s="8">
+      <c r="IK37" s="33">
         <v>9275</v>
       </c>
-      <c r="IL37" s="8">
+      <c r="IL37" s="33">
         <v>9221</v>
       </c>
-      <c r="IM37" s="8">
+      <c r="IM37" s="33">
         <v>9364</v>
       </c>
-      <c r="IN37" s="8">
+      <c r="IN37" s="33">
         <v>9481</v>
       </c>
-      <c r="IO37" s="8">
+      <c r="IO37" s="33">
         <v>9574</v>
       </c>
-      <c r="IP37" s="8">
+      <c r="IP37" s="33">
         <v>9622</v>
       </c>
-      <c r="IQ37" s="8">
+      <c r="IQ37" s="33">
         <v>9492</v>
       </c>
-      <c r="IR37" s="8">
+      <c r="IR37" s="33">
         <v>9506</v>
       </c>
-      <c r="IS37" s="8">
+      <c r="IS37" s="33">
         <v>9464</v>
       </c>
-      <c r="IT37" s="18">
+      <c r="IT37" s="34">
         <v>9458</v>
       </c>
-      <c r="IU37" s="17">
+      <c r="IU37" s="32">
         <v>9448</v>
       </c>
-      <c r="IV37" s="8">
+      <c r="IV37" s="33">
         <v>9537</v>
       </c>
-      <c r="IW37" s="8">
+      <c r="IW37" s="33">
         <v>9509</v>
       </c>
-      <c r="IX37" s="8">
+      <c r="IX37" s="33">
         <v>9598</v>
       </c>
-      <c r="IY37" s="8">
+      <c r="IY37" s="33">
         <v>9687</v>
       </c>
-      <c r="IZ37" s="8">
+      <c r="IZ37" s="33">
         <v>9644</v>
       </c>
-      <c r="JA37" s="8">
+      <c r="JA37" s="33">
         <v>9754</v>
       </c>
-      <c r="JB37" s="8">
+      <c r="JB37" s="33">
         <v>9702</v>
       </c>
-      <c r="JC37" s="8">
+      <c r="JC37" s="33">
         <v>9646</v>
       </c>
-      <c r="JD37" s="8">
+      <c r="JD37" s="33">
         <v>9755</v>
       </c>
-      <c r="JE37" s="8">
+      <c r="JE37" s="33">
         <v>9637</v>
       </c>
-      <c r="JF37" s="18">
+      <c r="JF37" s="34">
         <v>9697</v>
       </c>
-      <c r="JG37" s="17">
+      <c r="JG37" s="32">
         <v>9895</v>
       </c>
-      <c r="JH37" s="8">
+      <c r="JH37" s="33">
         <v>9952</v>
       </c>
-      <c r="JI37" s="8">
+      <c r="JI37" s="33">
         <v>9921</v>
       </c>
-      <c r="JJ37" s="8">
+      <c r="JJ37" s="33">
         <v>9758</v>
       </c>
-      <c r="JK37" s="8">
+      <c r="JK37" s="33">
         <v>9733</v>
       </c>
-      <c r="JL37" s="8">
+      <c r="JL37" s="33">
         <v>9474</v>
       </c>
-      <c r="JM37" s="8">
+      <c r="JM37" s="33">
         <v>9829</v>
       </c>
-      <c r="JN37" s="8">
+      <c r="JN37" s="33">
         <v>9818</v>
       </c>
-      <c r="JO37" s="8">
+      <c r="JO37" s="33">
         <v>9911</v>
       </c>
-      <c r="JP37" s="8">
+      <c r="JP37" s="33">
         <v>9901</v>
       </c>
-      <c r="JQ37" s="8">
+      <c r="JQ37" s="33">
         <v>9956</v>
       </c>
-      <c r="JR37" s="18">
+      <c r="JR37" s="34">
         <v>9984</v>
       </c>
-      <c r="JS37" s="17">
+      <c r="JS37" s="32">
         <v>9992</v>
       </c>
-      <c r="JT37" s="8">
+      <c r="JT37" s="33">
         <v>10000</v>
       </c>
-      <c r="JU37" s="8">
+      <c r="JU37" s="33">
         <v>10132</v>
       </c>
-      <c r="JV37" s="8">
+      <c r="JV37" s="33">
         <v>9977</v>
       </c>
-      <c r="JW37" s="8">
+      <c r="JW37" s="33">
         <v>10007</v>
       </c>
-      <c r="JX37" s="8">
+      <c r="JX37" s="33">
         <v>10103</v>
       </c>
-      <c r="JY37" s="18">
+      <c r="JY37" s="33">
         <v>9603</v>
       </c>
+      <c r="JZ37" s="34">
+        <v>9612</v>
+      </c>
     </row>
-    <row r="38" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -29844,11 +29956,14 @@
       <c r="JX38" s="3">
         <v>1831</v>
       </c>
-      <c r="JY38" s="4">
+      <c r="JY38" s="3">
         <v>1697</v>
       </c>
+      <c r="JZ38" s="4">
+        <v>1712</v>
+      </c>
     </row>
-    <row r="39" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -30699,11 +30814,14 @@
       <c r="JX39" s="3">
         <v>100</v>
       </c>
-      <c r="JY39" s="4">
+      <c r="JY39" s="3">
         <v>75</v>
       </c>
+      <c r="JZ39" s="4">
+        <v>62</v>
+      </c>
     </row>
-    <row r="40" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -31554,11 +31672,14 @@
       <c r="JX40" s="3">
         <v>527</v>
       </c>
-      <c r="JY40" s="4">
+      <c r="JY40" s="3">
         <v>480</v>
       </c>
+      <c r="JZ40" s="4">
+        <v>480</v>
+      </c>
     </row>
-    <row r="41" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -32409,11 +32530,14 @@
       <c r="JX41" s="3">
         <v>1050</v>
       </c>
-      <c r="JY41" s="4">
+      <c r="JY41" s="3">
         <v>1001</v>
       </c>
+      <c r="JZ41" s="4">
+        <v>997</v>
+      </c>
     </row>
-    <row r="42" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -33264,11 +33388,14 @@
       <c r="JX42" s="3">
         <v>1513</v>
       </c>
-      <c r="JY42" s="4">
+      <c r="JY42" s="3">
         <v>1456</v>
       </c>
+      <c r="JZ42" s="4">
+        <v>1454</v>
+      </c>
     </row>
-    <row r="43" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -34119,11 +34246,14 @@
       <c r="JX43" s="3">
         <v>1796</v>
       </c>
-      <c r="JY43" s="4">
+      <c r="JY43" s="3">
         <v>1715</v>
       </c>
+      <c r="JZ43" s="4">
+        <v>1719</v>
+      </c>
     </row>
-    <row r="44" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -34974,11 +35104,14 @@
       <c r="JX44" s="3">
         <v>1739</v>
       </c>
-      <c r="JY44" s="4">
+      <c r="JY44" s="3">
         <v>1698</v>
       </c>
+      <c r="JZ44" s="4">
+        <v>1710</v>
+      </c>
     </row>
-    <row r="45" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -35829,11 +35962,14 @@
       <c r="JX45" s="3">
         <v>1547</v>
       </c>
-      <c r="JY45" s="4">
+      <c r="JY45" s="3">
         <v>1481</v>
       </c>
+      <c r="JZ45" s="4">
+        <v>1478</v>
+      </c>
     </row>
-    <row r="46" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -36244,9 +36380,10 @@
       <c r="JV46" s="3"/>
       <c r="JW46" s="3"/>
       <c r="JX46" s="3"/>
-      <c r="JY46" s="4"/>
+      <c r="JY46" s="3"/>
+      <c r="JZ46" s="4"/>
     </row>
-    <row r="47" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -37099,11 +37236,14 @@
       <c r="JX47" s="8">
         <v>464115</v>
       </c>
-      <c r="JY47" s="18">
+      <c r="JY47" s="8">
         <v>473006</v>
       </c>
+      <c r="JZ47" s="18">
+        <v>477017</v>
+      </c>
     </row>
-    <row r="48" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -37954,11 +38094,14 @@
       <c r="JX48" s="3">
         <v>67476</v>
       </c>
-      <c r="JY48" s="4">
+      <c r="JY48" s="3">
         <v>68426</v>
       </c>
+      <c r="JZ48" s="4">
+        <v>69008</v>
+      </c>
     </row>
-    <row r="49" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -38809,11 +38952,14 @@
       <c r="JX49" s="3">
         <v>15269</v>
       </c>
-      <c r="JY49" s="4">
+      <c r="JY49" s="3">
         <v>15877</v>
       </c>
+      <c r="JZ49" s="4">
+        <v>16393</v>
+      </c>
     </row>
-    <row r="50" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -39664,11 +39810,14 @@
       <c r="JX50" s="3">
         <v>64347</v>
       </c>
-      <c r="JY50" s="4">
+      <c r="JY50" s="3">
         <v>65941</v>
       </c>
+      <c r="JZ50" s="4">
+        <v>66507</v>
+      </c>
     </row>
-    <row r="51" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -40519,11 +40668,14 @@
       <c r="JX51" s="3">
         <v>76591</v>
       </c>
-      <c r="JY51" s="4">
+      <c r="JY51" s="3">
         <v>78411</v>
       </c>
+      <c r="JZ51" s="4">
+        <v>78863</v>
+      </c>
     </row>
-    <row r="52" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -41374,11 +41526,14 @@
       <c r="JX52" s="3">
         <v>69703</v>
       </c>
-      <c r="JY52" s="4">
+      <c r="JY52" s="3">
         <v>71228</v>
       </c>
+      <c r="JZ52" s="4">
+        <v>71767</v>
+      </c>
     </row>
-    <row r="53" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -42229,11 +42384,14 @@
       <c r="JX53" s="3">
         <v>63968</v>
       </c>
-      <c r="JY53" s="4">
+      <c r="JY53" s="3">
         <v>64928</v>
       </c>
+      <c r="JZ53" s="4">
+        <v>65247</v>
+      </c>
     </row>
-    <row r="54" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -43084,11 +43242,14 @@
       <c r="JX54" s="3">
         <v>57049</v>
       </c>
-      <c r="JY54" s="4">
+      <c r="JY54" s="3">
         <v>57908</v>
       </c>
+      <c r="JZ54" s="4">
+        <v>58505</v>
+      </c>
     </row>
-    <row r="55" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -43939,11 +44100,14 @@
       <c r="JX55" s="3">
         <v>49707</v>
       </c>
-      <c r="JY55" s="4">
+      <c r="JY55" s="3">
         <v>50280</v>
       </c>
+      <c r="JZ55" s="4">
+        <v>50720</v>
+      </c>
     </row>
-    <row r="56" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -44794,11 +44958,14 @@
       <c r="JX56" s="3">
         <v>5</v>
       </c>
-      <c r="JY56" s="4">
+      <c r="JY56" s="3">
         <v>7</v>
       </c>
+      <c r="JZ56" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="57" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -45651,11 +45818,14 @@
       <c r="JX57" s="8">
         <v>2420</v>
       </c>
-      <c r="JY57" s="18">
+      <c r="JY57" s="8">
         <v>2577</v>
       </c>
+      <c r="JZ57" s="18">
+        <v>2692</v>
+      </c>
     </row>
-    <row r="58" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -46506,11 +46676,14 @@
       <c r="JX58" s="3">
         <v>478</v>
       </c>
-      <c r="JY58" s="4">
+      <c r="JY58" s="3">
         <v>486</v>
       </c>
+      <c r="JZ58" s="4">
+        <v>498</v>
+      </c>
     </row>
-    <row r="59" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -47361,11 +47534,14 @@
       <c r="JX59" s="3">
         <v>43</v>
       </c>
-      <c r="JY59" s="4">
+      <c r="JY59" s="3">
         <v>46</v>
       </c>
+      <c r="JZ59" s="4">
+        <v>43</v>
+      </c>
     </row>
-    <row r="60" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -48216,11 +48392,14 @@
       <c r="JX60" s="3">
         <v>219</v>
       </c>
-      <c r="JY60" s="4">
+      <c r="JY60" s="3">
         <v>245</v>
       </c>
+      <c r="JZ60" s="4">
+        <v>252</v>
+      </c>
     </row>
-    <row r="61" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -49071,11 +49250,14 @@
       <c r="JX61" s="3">
         <v>367</v>
       </c>
-      <c r="JY61" s="4">
+      <c r="JY61" s="3">
         <v>400</v>
       </c>
+      <c r="JZ61" s="4">
+        <v>436</v>
+      </c>
     </row>
-    <row r="62" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -49926,11 +50108,14 @@
       <c r="JX62" s="3">
         <v>390</v>
       </c>
-      <c r="JY62" s="4">
+      <c r="JY62" s="3">
         <v>433</v>
       </c>
+      <c r="JZ62" s="4">
+        <v>457</v>
+      </c>
     </row>
-    <row r="63" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -50781,11 +50966,14 @@
       <c r="JX63" s="3">
         <v>329</v>
       </c>
-      <c r="JY63" s="4">
+      <c r="JY63" s="3">
         <v>345</v>
       </c>
+      <c r="JZ63" s="4">
+        <v>363</v>
+      </c>
     </row>
-    <row r="64" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -51636,11 +51824,14 @@
       <c r="JX64" s="3">
         <v>325</v>
       </c>
-      <c r="JY64" s="4">
+      <c r="JY64" s="3">
         <v>343</v>
       </c>
+      <c r="JZ64" s="4">
+        <v>356</v>
+      </c>
     </row>
-    <row r="65" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -52491,11 +52682,14 @@
       <c r="JX65" s="3">
         <v>269</v>
       </c>
-      <c r="JY65" s="4">
+      <c r="JY65" s="3">
         <v>279</v>
       </c>
+      <c r="JZ65" s="4">
+        <v>287</v>
+      </c>
     </row>
-    <row r="66" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -52840,9 +53034,10 @@
       <c r="JV66" s="3"/>
       <c r="JW66" s="3"/>
       <c r="JX66" s="3"/>
-      <c r="JY66" s="4"/>
+      <c r="JY66" s="3"/>
+      <c r="JZ66" s="4"/>
     </row>
-    <row r="67" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -53695,11 +53890,14 @@
       <c r="JX67" s="8">
         <v>633445</v>
       </c>
-      <c r="JY67" s="18">
+      <c r="JY67" s="8">
         <v>620513</v>
       </c>
+      <c r="JZ67" s="18">
+        <v>619137</v>
+      </c>
     </row>
-    <row r="68" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -54550,11 +54748,14 @@
       <c r="JX68" s="3">
         <v>128237</v>
       </c>
-      <c r="JY68" s="4">
+      <c r="JY68" s="3">
         <v>126855</v>
       </c>
+      <c r="JZ68" s="4">
+        <v>127371</v>
+      </c>
     </row>
-    <row r="69" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -55405,11 +55606,14 @@
       <c r="JX69" s="3">
         <v>10995</v>
       </c>
-      <c r="JY69" s="4">
+      <c r="JY69" s="3">
         <v>11824</v>
       </c>
+      <c r="JZ69" s="4">
+        <v>11520</v>
+      </c>
     </row>
-    <row r="70" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -56260,11 +56464,14 @@
       <c r="JX70" s="3">
         <v>60729</v>
       </c>
-      <c r="JY70" s="4">
+      <c r="JY70" s="3">
         <v>60470</v>
       </c>
+      <c r="JZ70" s="4">
+        <v>59505</v>
+      </c>
     </row>
-    <row r="71" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -57115,11 +57322,14 @@
       <c r="JX71" s="3">
         <v>100813</v>
       </c>
-      <c r="JY71" s="4">
+      <c r="JY71" s="3">
         <v>97258</v>
       </c>
+      <c r="JZ71" s="4">
+        <v>96776</v>
+      </c>
     </row>
-    <row r="72" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -57970,11 +58180,14 @@
       <c r="JX72" s="3">
         <v>96688</v>
       </c>
-      <c r="JY72" s="4">
+      <c r="JY72" s="3">
         <v>93319</v>
       </c>
+      <c r="JZ72" s="4">
+        <v>93188</v>
+      </c>
     </row>
-    <row r="73" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -58825,11 +59038,14 @@
       <c r="JX73" s="3">
         <v>88054</v>
       </c>
-      <c r="JY73" s="4">
+      <c r="JY73" s="3">
         <v>85526</v>
       </c>
+      <c r="JZ73" s="4">
+        <v>85525</v>
+      </c>
     </row>
-    <row r="74" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -59680,11 +59896,14 @@
       <c r="JX74" s="3">
         <v>77497</v>
       </c>
-      <c r="JY74" s="4">
+      <c r="JY74" s="3">
         <v>76038</v>
       </c>
+      <c r="JZ74" s="4">
+        <v>75857</v>
+      </c>
     </row>
-    <row r="75" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -60535,11 +60754,14 @@
       <c r="JX75" s="3">
         <v>70428</v>
       </c>
-      <c r="JY75" s="4">
+      <c r="JY75" s="3">
         <v>69220</v>
       </c>
+      <c r="JZ75" s="4">
+        <v>69392</v>
+      </c>
     </row>
-    <row r="76" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -61390,11 +61612,14 @@
       <c r="JX76" s="3">
         <v>4</v>
       </c>
-      <c r="JY76" s="4">
+      <c r="JY76" s="3">
         <v>3</v>
       </c>
+      <c r="JZ76" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="77" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -62247,11 +62472,14 @@
       <c r="JX77" s="8">
         <v>89547</v>
       </c>
-      <c r="JY77" s="18">
+      <c r="JY77" s="8">
         <v>93255</v>
       </c>
+      <c r="JZ77" s="18">
+        <v>94332</v>
+      </c>
     </row>
-    <row r="78" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -63102,11 +63330,14 @@
       <c r="JX78" s="3">
         <v>16107</v>
       </c>
-      <c r="JY78" s="4">
+      <c r="JY78" s="3">
         <v>16540</v>
       </c>
+      <c r="JZ78" s="4">
+        <v>16592</v>
+      </c>
     </row>
-    <row r="79" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -63957,11 +64188,14 @@
       <c r="JX79" s="3">
         <v>1511</v>
       </c>
-      <c r="JY79" s="4">
+      <c r="JY79" s="3">
         <v>1672</v>
       </c>
+      <c r="JZ79" s="4">
+        <v>1742</v>
+      </c>
     </row>
-    <row r="80" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -64812,11 +65046,14 @@
       <c r="JX80" s="3">
         <v>9480</v>
       </c>
-      <c r="JY80" s="4">
+      <c r="JY80" s="3">
         <v>10068</v>
       </c>
+      <c r="JZ80" s="4">
+        <v>10270</v>
+      </c>
     </row>
-    <row r="81" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -65667,11 +65904,14 @@
       <c r="JX81" s="3">
         <v>13653</v>
       </c>
-      <c r="JY81" s="4">
+      <c r="JY81" s="3">
         <v>14306</v>
       </c>
+      <c r="JZ81" s="4">
+        <v>14550</v>
+      </c>
     </row>
-    <row r="82" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -66522,11 +66762,14 @@
       <c r="JX82" s="3">
         <v>13781</v>
       </c>
-      <c r="JY82" s="4">
+      <c r="JY82" s="3">
         <v>14371</v>
       </c>
+      <c r="JZ82" s="4">
+        <v>14405</v>
+      </c>
     </row>
-    <row r="83" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -67377,11 +67620,14 @@
       <c r="JX83" s="3">
         <v>13179</v>
       </c>
-      <c r="JY83" s="4">
+      <c r="JY83" s="3">
         <v>13664</v>
       </c>
+      <c r="JZ83" s="4">
+        <v>13882</v>
+      </c>
     </row>
-    <row r="84" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -68232,11 +68478,14 @@
       <c r="JX84" s="3">
         <v>11399</v>
       </c>
-      <c r="JY84" s="4">
+      <c r="JY84" s="3">
         <v>11796</v>
       </c>
+      <c r="JZ84" s="4">
+        <v>11963</v>
+      </c>
     </row>
-    <row r="85" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -69087,11 +69336,14 @@
       <c r="JX85" s="3">
         <v>10437</v>
       </c>
-      <c r="JY85" s="4">
+      <c r="JY85" s="3">
         <v>10838</v>
       </c>
+      <c r="JZ85" s="4">
+        <v>10928</v>
+      </c>
     </row>
-    <row r="86" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -69764,9 +70016,10 @@
         <v>1</v>
       </c>
       <c r="JX86" s="3"/>
-      <c r="JY86" s="4"/>
+      <c r="JY86" s="3"/>
+      <c r="JZ86" s="4"/>
     </row>
-    <row r="87" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -70619,11 +70872,14 @@
       <c r="JX87" s="22">
         <v>1820785</v>
       </c>
-      <c r="JY87" s="23">
+      <c r="JY87" s="22">
         <v>1826575</v>
       </c>
+      <c r="JZ87" s="23">
+        <v>1837975</v>
+      </c>
     </row>
-    <row r="88" spans="1:285" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A88" s="25" t="s">
         <v>23</v>
       </c>
@@ -70634,11 +70890,24 @@
       <c r="F88" s="25"/>
       <c r="G88" s="25"/>
     </row>
-    <row r="89" spans="1:285" x14ac:dyDescent="0.2">
-      <c r="JY89" s="24"/>
+    <row r="89" spans="1:286" x14ac:dyDescent="0.2">
+      <c r="JZ89" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="JS5:JZ5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -70655,19 +70924,6 @@
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
     <mergeCell ref="DS5:ED5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="JS5:JY5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -15,14 +15,14 @@
     <sheet name="ta_división_edad" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_división_edad!$A$6:$JZ$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_división_edad!$A$6:$KA$87</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-agosto 2021</t>
+    <t>Enero 1998-septiembre 2021</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -915,24 +915,6 @@
     <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -946,6 +928,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1269,385 +1278,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JZ89"/>
+  <dimension ref="A1:KA89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L6" sqref="L6"/>
+      <pane xSplit="2" topLeftCell="JN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KC86" sqref="KC86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="286" width="11.85546875" style="1" customWidth="1"/>
-    <col min="287" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="287" width="11.85546875" style="1" customWidth="1"/>
+    <col min="288" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:286" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:287" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:286" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:287" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
     </row>
-    <row r="3" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:286" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:287" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="30">
         <v>1998</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="26">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="30">
         <v>1999</v>
       </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="26">
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="30">
         <v>2000</v>
       </c>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="26">
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="30">
         <v>2001</v>
       </c>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
-      <c r="AQ5" s="27"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="27"/>
-      <c r="AV5" s="27"/>
-      <c r="AW5" s="27"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="26">
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="31"/>
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="31"/>
+      <c r="AT5" s="31"/>
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="31"/>
+      <c r="AW5" s="31"/>
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="30">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="27"/>
-      <c r="BA5" s="27"/>
-      <c r="BB5" s="27"/>
-      <c r="BC5" s="27"/>
-      <c r="BD5" s="27"/>
-      <c r="BE5" s="27"/>
-      <c r="BF5" s="27"/>
-      <c r="BG5" s="27"/>
-      <c r="BH5" s="27"/>
-      <c r="BI5" s="27"/>
-      <c r="BJ5" s="28"/>
-      <c r="BK5" s="26">
+      <c r="AZ5" s="31"/>
+      <c r="BA5" s="31"/>
+      <c r="BB5" s="31"/>
+      <c r="BC5" s="31"/>
+      <c r="BD5" s="31"/>
+      <c r="BE5" s="31"/>
+      <c r="BF5" s="31"/>
+      <c r="BG5" s="31"/>
+      <c r="BH5" s="31"/>
+      <c r="BI5" s="31"/>
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="30">
         <v>2003</v>
       </c>
-      <c r="BL5" s="27"/>
-      <c r="BM5" s="27"/>
-      <c r="BN5" s="27"/>
-      <c r="BO5" s="27"/>
-      <c r="BP5" s="27"/>
-      <c r="BQ5" s="27"/>
-      <c r="BR5" s="27"/>
-      <c r="BS5" s="27"/>
-      <c r="BT5" s="27"/>
-      <c r="BU5" s="27"/>
-      <c r="BV5" s="28"/>
-      <c r="BW5" s="26">
+      <c r="BL5" s="31"/>
+      <c r="BM5" s="31"/>
+      <c r="BN5" s="31"/>
+      <c r="BO5" s="31"/>
+      <c r="BP5" s="31"/>
+      <c r="BQ5" s="31"/>
+      <c r="BR5" s="31"/>
+      <c r="BS5" s="31"/>
+      <c r="BT5" s="31"/>
+      <c r="BU5" s="31"/>
+      <c r="BV5" s="32"/>
+      <c r="BW5" s="30">
         <v>2004</v>
       </c>
-      <c r="BX5" s="27"/>
-      <c r="BY5" s="27"/>
-      <c r="BZ5" s="27"/>
-      <c r="CA5" s="27"/>
-      <c r="CB5" s="27"/>
-      <c r="CC5" s="27"/>
-      <c r="CD5" s="27"/>
-      <c r="CE5" s="27"/>
-      <c r="CF5" s="27"/>
-      <c r="CG5" s="27"/>
-      <c r="CH5" s="28"/>
-      <c r="CI5" s="26">
+      <c r="BX5" s="31"/>
+      <c r="BY5" s="31"/>
+      <c r="BZ5" s="31"/>
+      <c r="CA5" s="31"/>
+      <c r="CB5" s="31"/>
+      <c r="CC5" s="31"/>
+      <c r="CD5" s="31"/>
+      <c r="CE5" s="31"/>
+      <c r="CF5" s="31"/>
+      <c r="CG5" s="31"/>
+      <c r="CH5" s="32"/>
+      <c r="CI5" s="30">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="27"/>
-      <c r="CK5" s="27"/>
-      <c r="CL5" s="27"/>
-      <c r="CM5" s="27"/>
-      <c r="CN5" s="27"/>
-      <c r="CO5" s="27"/>
-      <c r="CP5" s="27"/>
-      <c r="CQ5" s="27"/>
-      <c r="CR5" s="27"/>
-      <c r="CS5" s="27"/>
-      <c r="CT5" s="28"/>
-      <c r="CU5" s="26">
+      <c r="CJ5" s="31"/>
+      <c r="CK5" s="31"/>
+      <c r="CL5" s="31"/>
+      <c r="CM5" s="31"/>
+      <c r="CN5" s="31"/>
+      <c r="CO5" s="31"/>
+      <c r="CP5" s="31"/>
+      <c r="CQ5" s="31"/>
+      <c r="CR5" s="31"/>
+      <c r="CS5" s="31"/>
+      <c r="CT5" s="32"/>
+      <c r="CU5" s="30">
         <v>2006</v>
       </c>
-      <c r="CV5" s="27"/>
-      <c r="CW5" s="27"/>
-      <c r="CX5" s="27"/>
-      <c r="CY5" s="27"/>
-      <c r="CZ5" s="27"/>
-      <c r="DA5" s="27"/>
-      <c r="DB5" s="27"/>
-      <c r="DC5" s="27"/>
-      <c r="DD5" s="27"/>
-      <c r="DE5" s="27"/>
-      <c r="DF5" s="28"/>
-      <c r="DG5" s="26">
+      <c r="CV5" s="31"/>
+      <c r="CW5" s="31"/>
+      <c r="CX5" s="31"/>
+      <c r="CY5" s="31"/>
+      <c r="CZ5" s="31"/>
+      <c r="DA5" s="31"/>
+      <c r="DB5" s="31"/>
+      <c r="DC5" s="31"/>
+      <c r="DD5" s="31"/>
+      <c r="DE5" s="31"/>
+      <c r="DF5" s="32"/>
+      <c r="DG5" s="30">
         <v>2007</v>
       </c>
-      <c r="DH5" s="27"/>
-      <c r="DI5" s="27"/>
-      <c r="DJ5" s="27"/>
-      <c r="DK5" s="27"/>
-      <c r="DL5" s="27"/>
-      <c r="DM5" s="27"/>
-      <c r="DN5" s="27"/>
-      <c r="DO5" s="27"/>
-      <c r="DP5" s="27"/>
-      <c r="DQ5" s="27"/>
-      <c r="DR5" s="28"/>
-      <c r="DS5" s="26">
+      <c r="DH5" s="31"/>
+      <c r="DI5" s="31"/>
+      <c r="DJ5" s="31"/>
+      <c r="DK5" s="31"/>
+      <c r="DL5" s="31"/>
+      <c r="DM5" s="31"/>
+      <c r="DN5" s="31"/>
+      <c r="DO5" s="31"/>
+      <c r="DP5" s="31"/>
+      <c r="DQ5" s="31"/>
+      <c r="DR5" s="32"/>
+      <c r="DS5" s="30">
         <v>2008</v>
       </c>
-      <c r="DT5" s="27"/>
-      <c r="DU5" s="27"/>
-      <c r="DV5" s="27"/>
-      <c r="DW5" s="27"/>
-      <c r="DX5" s="27"/>
-      <c r="DY5" s="27"/>
-      <c r="DZ5" s="27"/>
-      <c r="EA5" s="27"/>
-      <c r="EB5" s="27"/>
-      <c r="EC5" s="27"/>
-      <c r="ED5" s="28"/>
-      <c r="EE5" s="26">
+      <c r="DT5" s="31"/>
+      <c r="DU5" s="31"/>
+      <c r="DV5" s="31"/>
+      <c r="DW5" s="31"/>
+      <c r="DX5" s="31"/>
+      <c r="DY5" s="31"/>
+      <c r="DZ5" s="31"/>
+      <c r="EA5" s="31"/>
+      <c r="EB5" s="31"/>
+      <c r="EC5" s="31"/>
+      <c r="ED5" s="32"/>
+      <c r="EE5" s="30">
         <v>2009</v>
       </c>
-      <c r="EF5" s="27"/>
-      <c r="EG5" s="27"/>
-      <c r="EH5" s="27"/>
-      <c r="EI5" s="27"/>
-      <c r="EJ5" s="27"/>
-      <c r="EK5" s="27"/>
-      <c r="EL5" s="27"/>
-      <c r="EM5" s="27"/>
-      <c r="EN5" s="27"/>
-      <c r="EO5" s="27"/>
-      <c r="EP5" s="28"/>
-      <c r="EQ5" s="26">
+      <c r="EF5" s="31"/>
+      <c r="EG5" s="31"/>
+      <c r="EH5" s="31"/>
+      <c r="EI5" s="31"/>
+      <c r="EJ5" s="31"/>
+      <c r="EK5" s="31"/>
+      <c r="EL5" s="31"/>
+      <c r="EM5" s="31"/>
+      <c r="EN5" s="31"/>
+      <c r="EO5" s="31"/>
+      <c r="EP5" s="32"/>
+      <c r="EQ5" s="30">
         <v>2010</v>
       </c>
-      <c r="ER5" s="27"/>
-      <c r="ES5" s="27"/>
-      <c r="ET5" s="27"/>
-      <c r="EU5" s="27"/>
-      <c r="EV5" s="27"/>
-      <c r="EW5" s="27"/>
-      <c r="EX5" s="27"/>
-      <c r="EY5" s="27"/>
-      <c r="EZ5" s="27"/>
-      <c r="FA5" s="27"/>
-      <c r="FB5" s="28"/>
-      <c r="FC5" s="26">
+      <c r="ER5" s="31"/>
+      <c r="ES5" s="31"/>
+      <c r="ET5" s="31"/>
+      <c r="EU5" s="31"/>
+      <c r="EV5" s="31"/>
+      <c r="EW5" s="31"/>
+      <c r="EX5" s="31"/>
+      <c r="EY5" s="31"/>
+      <c r="EZ5" s="31"/>
+      <c r="FA5" s="31"/>
+      <c r="FB5" s="32"/>
+      <c r="FC5" s="30">
         <v>2011</v>
       </c>
-      <c r="FD5" s="27"/>
-      <c r="FE5" s="27"/>
-      <c r="FF5" s="27"/>
-      <c r="FG5" s="27"/>
-      <c r="FH5" s="27"/>
-      <c r="FI5" s="27"/>
-      <c r="FJ5" s="27"/>
-      <c r="FK5" s="27"/>
-      <c r="FL5" s="27"/>
-      <c r="FM5" s="27"/>
-      <c r="FN5" s="28"/>
-      <c r="FO5" s="26">
+      <c r="FD5" s="31"/>
+      <c r="FE5" s="31"/>
+      <c r="FF5" s="31"/>
+      <c r="FG5" s="31"/>
+      <c r="FH5" s="31"/>
+      <c r="FI5" s="31"/>
+      <c r="FJ5" s="31"/>
+      <c r="FK5" s="31"/>
+      <c r="FL5" s="31"/>
+      <c r="FM5" s="31"/>
+      <c r="FN5" s="32"/>
+      <c r="FO5" s="30">
         <v>2012</v>
       </c>
-      <c r="FP5" s="27"/>
-      <c r="FQ5" s="27"/>
-      <c r="FR5" s="27"/>
-      <c r="FS5" s="27"/>
-      <c r="FT5" s="27"/>
-      <c r="FU5" s="27"/>
-      <c r="FV5" s="27"/>
-      <c r="FW5" s="27"/>
-      <c r="FX5" s="27"/>
-      <c r="FY5" s="27"/>
-      <c r="FZ5" s="28"/>
-      <c r="GA5" s="26">
+      <c r="FP5" s="31"/>
+      <c r="FQ5" s="31"/>
+      <c r="FR5" s="31"/>
+      <c r="FS5" s="31"/>
+      <c r="FT5" s="31"/>
+      <c r="FU5" s="31"/>
+      <c r="FV5" s="31"/>
+      <c r="FW5" s="31"/>
+      <c r="FX5" s="31"/>
+      <c r="FY5" s="31"/>
+      <c r="FZ5" s="32"/>
+      <c r="GA5" s="30">
         <v>2013</v>
       </c>
-      <c r="GB5" s="27"/>
-      <c r="GC5" s="27"/>
-      <c r="GD5" s="27"/>
-      <c r="GE5" s="27"/>
-      <c r="GF5" s="27"/>
-      <c r="GG5" s="27"/>
-      <c r="GH5" s="27"/>
-      <c r="GI5" s="27"/>
-      <c r="GJ5" s="27"/>
-      <c r="GK5" s="27"/>
-      <c r="GL5" s="28"/>
-      <c r="GM5" s="26">
+      <c r="GB5" s="31"/>
+      <c r="GC5" s="31"/>
+      <c r="GD5" s="31"/>
+      <c r="GE5" s="31"/>
+      <c r="GF5" s="31"/>
+      <c r="GG5" s="31"/>
+      <c r="GH5" s="31"/>
+      <c r="GI5" s="31"/>
+      <c r="GJ5" s="31"/>
+      <c r="GK5" s="31"/>
+      <c r="GL5" s="32"/>
+      <c r="GM5" s="30">
         <v>2014</v>
       </c>
-      <c r="GN5" s="27"/>
-      <c r="GO5" s="27"/>
-      <c r="GP5" s="27"/>
-      <c r="GQ5" s="27"/>
-      <c r="GR5" s="27"/>
-      <c r="GS5" s="27"/>
-      <c r="GT5" s="27"/>
-      <c r="GU5" s="27"/>
-      <c r="GV5" s="27"/>
-      <c r="GW5" s="27"/>
-      <c r="GX5" s="28"/>
-      <c r="GY5" s="26">
+      <c r="GN5" s="31"/>
+      <c r="GO5" s="31"/>
+      <c r="GP5" s="31"/>
+      <c r="GQ5" s="31"/>
+      <c r="GR5" s="31"/>
+      <c r="GS5" s="31"/>
+      <c r="GT5" s="31"/>
+      <c r="GU5" s="31"/>
+      <c r="GV5" s="31"/>
+      <c r="GW5" s="31"/>
+      <c r="GX5" s="32"/>
+      <c r="GY5" s="30">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="27"/>
-      <c r="HA5" s="27"/>
-      <c r="HB5" s="27"/>
-      <c r="HC5" s="27"/>
-      <c r="HD5" s="27"/>
-      <c r="HE5" s="27"/>
-      <c r="HF5" s="27"/>
-      <c r="HG5" s="27"/>
-      <c r="HH5" s="27"/>
-      <c r="HI5" s="27"/>
-      <c r="HJ5" s="28"/>
-      <c r="HK5" s="26">
+      <c r="GZ5" s="31"/>
+      <c r="HA5" s="31"/>
+      <c r="HB5" s="31"/>
+      <c r="HC5" s="31"/>
+      <c r="HD5" s="31"/>
+      <c r="HE5" s="31"/>
+      <c r="HF5" s="31"/>
+      <c r="HG5" s="31"/>
+      <c r="HH5" s="31"/>
+      <c r="HI5" s="31"/>
+      <c r="HJ5" s="32"/>
+      <c r="HK5" s="30">
         <v>2016</v>
       </c>
-      <c r="HL5" s="27"/>
-      <c r="HM5" s="27"/>
-      <c r="HN5" s="27"/>
-      <c r="HO5" s="27"/>
-      <c r="HP5" s="27"/>
-      <c r="HQ5" s="27"/>
-      <c r="HR5" s="27"/>
-      <c r="HS5" s="27"/>
-      <c r="HT5" s="27"/>
-      <c r="HU5" s="27"/>
-      <c r="HV5" s="28"/>
-      <c r="HW5" s="26">
+      <c r="HL5" s="31"/>
+      <c r="HM5" s="31"/>
+      <c r="HN5" s="31"/>
+      <c r="HO5" s="31"/>
+      <c r="HP5" s="31"/>
+      <c r="HQ5" s="31"/>
+      <c r="HR5" s="31"/>
+      <c r="HS5" s="31"/>
+      <c r="HT5" s="31"/>
+      <c r="HU5" s="31"/>
+      <c r="HV5" s="32"/>
+      <c r="HW5" s="30">
         <v>2017</v>
       </c>
-      <c r="HX5" s="27"/>
-      <c r="HY5" s="27"/>
-      <c r="HZ5" s="27"/>
-      <c r="IA5" s="27"/>
-      <c r="IB5" s="27"/>
-      <c r="IC5" s="27"/>
-      <c r="ID5" s="27"/>
-      <c r="IE5" s="27"/>
-      <c r="IF5" s="27"/>
-      <c r="IG5" s="27"/>
-      <c r="IH5" s="28"/>
-      <c r="II5" s="26">
+      <c r="HX5" s="31"/>
+      <c r="HY5" s="31"/>
+      <c r="HZ5" s="31"/>
+      <c r="IA5" s="31"/>
+      <c r="IB5" s="31"/>
+      <c r="IC5" s="31"/>
+      <c r="ID5" s="31"/>
+      <c r="IE5" s="31"/>
+      <c r="IF5" s="31"/>
+      <c r="IG5" s="31"/>
+      <c r="IH5" s="32"/>
+      <c r="II5" s="30">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="27"/>
-      <c r="IK5" s="27"/>
-      <c r="IL5" s="27"/>
-      <c r="IM5" s="27"/>
-      <c r="IN5" s="27"/>
-      <c r="IO5" s="27"/>
-      <c r="IP5" s="27"/>
-      <c r="IQ5" s="27"/>
-      <c r="IR5" s="27"/>
-      <c r="IS5" s="27"/>
-      <c r="IT5" s="28"/>
-      <c r="IU5" s="26">
+      <c r="IJ5" s="31"/>
+      <c r="IK5" s="31"/>
+      <c r="IL5" s="31"/>
+      <c r="IM5" s="31"/>
+      <c r="IN5" s="31"/>
+      <c r="IO5" s="31"/>
+      <c r="IP5" s="31"/>
+      <c r="IQ5" s="31"/>
+      <c r="IR5" s="31"/>
+      <c r="IS5" s="31"/>
+      <c r="IT5" s="32"/>
+      <c r="IU5" s="30">
         <v>2019</v>
       </c>
-      <c r="IV5" s="27"/>
-      <c r="IW5" s="27"/>
-      <c r="IX5" s="27"/>
-      <c r="IY5" s="27"/>
-      <c r="IZ5" s="27"/>
-      <c r="JA5" s="27"/>
-      <c r="JB5" s="27"/>
-      <c r="JC5" s="27"/>
-      <c r="JD5" s="27"/>
-      <c r="JE5" s="27"/>
-      <c r="JF5" s="28"/>
-      <c r="JG5" s="26">
+      <c r="IV5" s="31"/>
+      <c r="IW5" s="31"/>
+      <c r="IX5" s="31"/>
+      <c r="IY5" s="31"/>
+      <c r="IZ5" s="31"/>
+      <c r="JA5" s="31"/>
+      <c r="JB5" s="31"/>
+      <c r="JC5" s="31"/>
+      <c r="JD5" s="31"/>
+      <c r="JE5" s="31"/>
+      <c r="JF5" s="32"/>
+      <c r="JG5" s="30">
         <v>2020</v>
       </c>
-      <c r="JH5" s="27"/>
-      <c r="JI5" s="27"/>
-      <c r="JJ5" s="27"/>
-      <c r="JK5" s="27"/>
-      <c r="JL5" s="27"/>
-      <c r="JM5" s="27"/>
-      <c r="JN5" s="27"/>
-      <c r="JO5" s="27"/>
-      <c r="JP5" s="27"/>
-      <c r="JQ5" s="27"/>
-      <c r="JR5" s="28"/>
-      <c r="JS5" s="26">
+      <c r="JH5" s="31"/>
+      <c r="JI5" s="31"/>
+      <c r="JJ5" s="31"/>
+      <c r="JK5" s="31"/>
+      <c r="JL5" s="31"/>
+      <c r="JM5" s="31"/>
+      <c r="JN5" s="31"/>
+      <c r="JO5" s="31"/>
+      <c r="JP5" s="31"/>
+      <c r="JQ5" s="31"/>
+      <c r="JR5" s="32"/>
+      <c r="JS5" s="36">
         <v>2021</v>
       </c>
-      <c r="JT5" s="27"/>
-      <c r="JU5" s="27"/>
-      <c r="JV5" s="27"/>
-      <c r="JW5" s="27"/>
-      <c r="JX5" s="27"/>
-      <c r="JY5" s="27"/>
-      <c r="JZ5" s="28"/>
+      <c r="JT5" s="37"/>
+      <c r="JU5" s="37"/>
+      <c r="JV5" s="37"/>
+      <c r="JW5" s="37"/>
+      <c r="JX5" s="37"/>
+      <c r="JY5" s="37"/>
+      <c r="JZ5" s="37"/>
+      <c r="KA5" s="38"/>
     </row>
-    <row r="6" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+    <row r="6" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2497,11 +2507,14 @@
       <c r="JY6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="JZ6" s="11" t="s">
+      <c r="JZ6" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="KA6" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:286" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:287" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3357,11 +3370,14 @@
       <c r="JY7" s="8">
         <v>108146</v>
       </c>
-      <c r="JZ7" s="18">
+      <c r="JZ7" s="8">
         <v>112612</v>
       </c>
+      <c r="KA7" s="18">
+        <v>115046</v>
+      </c>
     </row>
-    <row r="8" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4215,11 +4231,14 @@
       <c r="JY8" s="3">
         <v>20264</v>
       </c>
-      <c r="JZ8" s="4">
+      <c r="JZ8" s="3">
         <v>21210</v>
       </c>
+      <c r="KA8" s="4">
+        <v>21488</v>
+      </c>
     </row>
-    <row r="9" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5073,11 +5092,14 @@
       <c r="JY9" s="3">
         <v>5020</v>
       </c>
-      <c r="JZ9" s="4">
+      <c r="JZ9" s="3">
         <v>5296</v>
       </c>
+      <c r="KA9" s="4">
+        <v>5475</v>
+      </c>
     </row>
-    <row r="10" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -5931,11 +5953,14 @@
       <c r="JY10" s="3">
         <v>16726</v>
       </c>
-      <c r="JZ10" s="4">
+      <c r="JZ10" s="3">
         <v>17310</v>
       </c>
+      <c r="KA10" s="4">
+        <v>18195</v>
+      </c>
     </row>
-    <row r="11" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -6789,11 +6814,14 @@
       <c r="JY11" s="3">
         <v>16997</v>
       </c>
-      <c r="JZ11" s="4">
+      <c r="JZ11" s="3">
         <v>17575</v>
       </c>
+      <c r="KA11" s="4">
+        <v>17951</v>
+      </c>
     </row>
-    <row r="12" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7647,11 +7675,14 @@
       <c r="JY12" s="3">
         <v>14794</v>
       </c>
-      <c r="JZ12" s="4">
+      <c r="JZ12" s="3">
         <v>15340</v>
       </c>
+      <c r="KA12" s="4">
+        <v>15654</v>
+      </c>
     </row>
-    <row r="13" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8505,11 +8536,14 @@
       <c r="JY13" s="3">
         <v>12778</v>
       </c>
-      <c r="JZ13" s="4">
+      <c r="JZ13" s="3">
         <v>13392</v>
       </c>
+      <c r="KA13" s="4">
+        <v>13648</v>
+      </c>
     </row>
-    <row r="14" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9363,11 +9397,14 @@
       <c r="JY14" s="3">
         <v>11028</v>
       </c>
-      <c r="JZ14" s="4">
+      <c r="JZ14" s="3">
         <v>11501</v>
       </c>
+      <c r="KA14" s="4">
+        <v>11587</v>
+      </c>
     </row>
-    <row r="15" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10221,11 +10258,14 @@
       <c r="JY15" s="3">
         <v>10535</v>
       </c>
-      <c r="JZ15" s="4">
+      <c r="JZ15" s="3">
         <v>10981</v>
       </c>
+      <c r="KA15" s="4">
+        <v>11042</v>
+      </c>
     </row>
-    <row r="16" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11079,11 +11119,14 @@
       <c r="JY16" s="3">
         <v>4</v>
       </c>
-      <c r="JZ16" s="4">
+      <c r="JZ16" s="3">
         <v>7</v>
       </c>
+      <c r="KA16" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -11939,11 +11982,14 @@
       <c r="JY17" s="8">
         <v>382052</v>
       </c>
-      <c r="JZ17" s="18">
+      <c r="JZ17" s="8">
         <v>382970</v>
       </c>
+      <c r="KA17" s="18">
+        <v>385474</v>
+      </c>
     </row>
-    <row r="18" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -12797,11 +12843,14 @@
       <c r="JY18" s="3">
         <v>55473</v>
       </c>
-      <c r="JZ18" s="4">
+      <c r="JZ18" s="3">
         <v>56041</v>
       </c>
+      <c r="KA18" s="4">
+        <v>55651</v>
+      </c>
     </row>
-    <row r="19" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -13655,11 +13704,14 @@
       <c r="JY19" s="3">
         <v>12151</v>
       </c>
-      <c r="JZ19" s="4">
+      <c r="JZ19" s="3">
         <v>12106</v>
       </c>
+      <c r="KA19" s="4">
+        <v>12321</v>
+      </c>
     </row>
-    <row r="20" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -14513,11 +14565,14 @@
       <c r="JY20" s="3">
         <v>54342</v>
       </c>
-      <c r="JZ20" s="4">
+      <c r="JZ20" s="3">
         <v>53777</v>
       </c>
+      <c r="KA20" s="4">
+        <v>54384</v>
+      </c>
     </row>
-    <row r="21" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -15371,11 +15426,14 @@
       <c r="JY21" s="3">
         <v>66020</v>
       </c>
-      <c r="JZ21" s="4">
+      <c r="JZ21" s="3">
         <v>65945</v>
       </c>
+      <c r="KA21" s="4">
+        <v>66311</v>
+      </c>
     </row>
-    <row r="22" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16229,11 +16287,14 @@
       <c r="JY22" s="3">
         <v>61834</v>
       </c>
-      <c r="JZ22" s="4">
+      <c r="JZ22" s="3">
         <v>62187</v>
       </c>
+      <c r="KA22" s="4">
+        <v>62632</v>
+      </c>
     </row>
-    <row r="23" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17087,11 +17148,14 @@
       <c r="JY23" s="3">
         <v>52842</v>
       </c>
-      <c r="JZ23" s="4">
+      <c r="JZ23" s="3">
         <v>53094</v>
       </c>
+      <c r="KA23" s="4">
+        <v>53596</v>
+      </c>
     </row>
-    <row r="24" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -17945,11 +18009,14 @@
       <c r="JY24" s="3">
         <v>42812</v>
       </c>
-      <c r="JZ24" s="4">
+      <c r="JZ24" s="3">
         <v>43126</v>
       </c>
+      <c r="KA24" s="4">
+        <v>43631</v>
+      </c>
     </row>
-    <row r="25" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -18803,11 +18870,14 @@
       <c r="JY25" s="3">
         <v>36571</v>
       </c>
-      <c r="JZ25" s="4">
+      <c r="JZ25" s="3">
         <v>36691</v>
       </c>
+      <c r="KA25" s="4">
+        <v>36945</v>
+      </c>
     </row>
-    <row r="26" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -19659,11 +19729,14 @@
       <c r="JY26" s="3">
         <v>7</v>
       </c>
-      <c r="JZ26" s="4">
+      <c r="JZ26" s="3">
         <v>3</v>
       </c>
+      <c r="KA26" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -20519,11 +20592,14 @@
       <c r="JY27" s="8">
         <v>137423</v>
       </c>
-      <c r="JZ27" s="18">
+      <c r="JZ27" s="8">
         <v>139603</v>
       </c>
+      <c r="KA27" s="18">
+        <v>140812</v>
+      </c>
     </row>
-    <row r="28" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -21377,11 +21453,14 @@
       <c r="JY28" s="3">
         <v>24098</v>
       </c>
-      <c r="JZ28" s="4">
+      <c r="JZ28" s="3">
         <v>24334</v>
       </c>
+      <c r="KA28" s="4">
+        <v>24426</v>
+      </c>
     </row>
-    <row r="29" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -22235,11 +22314,14 @@
       <c r="JY29" s="3">
         <v>5091</v>
       </c>
-      <c r="JZ29" s="4">
+      <c r="JZ29" s="3">
         <v>5237</v>
       </c>
+      <c r="KA29" s="4">
+        <v>5266</v>
+      </c>
     </row>
-    <row r="30" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -23093,11 +23175,14 @@
       <c r="JY30" s="3">
         <v>17753</v>
       </c>
-      <c r="JZ30" s="4">
+      <c r="JZ30" s="3">
         <v>18089</v>
       </c>
+      <c r="KA30" s="4">
+        <v>18075</v>
+      </c>
     </row>
-    <row r="31" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -23951,11 +24036,14 @@
       <c r="JY31" s="3">
         <v>22464</v>
       </c>
-      <c r="JZ31" s="4">
+      <c r="JZ31" s="3">
         <v>22742</v>
       </c>
+      <c r="KA31" s="4">
+        <v>23022</v>
+      </c>
     </row>
-    <row r="32" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -24809,11 +24897,14 @@
       <c r="JY32" s="3">
         <v>20649</v>
       </c>
-      <c r="JZ32" s="4">
+      <c r="JZ32" s="3">
         <v>21178</v>
       </c>
+      <c r="KA32" s="4">
+        <v>21340</v>
+      </c>
     </row>
-    <row r="33" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -25667,11 +25758,14 @@
       <c r="JY33" s="3">
         <v>18401</v>
       </c>
-      <c r="JZ33" s="4">
+      <c r="JZ33" s="3">
         <v>18675</v>
       </c>
+      <c r="KA33" s="4">
+        <v>18972</v>
+      </c>
     </row>
-    <row r="34" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -26525,11 +26619,14 @@
       <c r="JY34" s="3">
         <v>15410</v>
       </c>
-      <c r="JZ34" s="4">
+      <c r="JZ34" s="3">
         <v>15566</v>
       </c>
+      <c r="KA34" s="4">
+        <v>15786</v>
+      </c>
     </row>
-    <row r="35" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -27383,11 +27480,14 @@
       <c r="JY35" s="3">
         <v>13526</v>
       </c>
-      <c r="JZ35" s="4">
+      <c r="JZ35" s="3">
         <v>13748</v>
       </c>
+      <c r="KA35" s="4">
+        <v>13895</v>
+      </c>
     </row>
-    <row r="36" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -28241,871 +28341,877 @@
       <c r="JY36" s="3">
         <v>31</v>
       </c>
-      <c r="JZ36" s="4">
+      <c r="JZ36" s="3">
         <v>34</v>
       </c>
+      <c r="KA36" s="4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="37" spans="1:286" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
+    <row r="37" spans="1:287" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="26">
         <v>7246</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="27">
         <v>7117</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="27">
         <v>7374</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F37" s="27">
         <v>7442</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="27">
         <v>7381</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37" s="27">
         <v>7414</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="27">
         <v>7460</v>
       </c>
-      <c r="J37" s="33">
+      <c r="J37" s="27">
         <v>7443</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="27">
         <v>7415</v>
       </c>
-      <c r="L37" s="33">
+      <c r="L37" s="27">
         <v>7514</v>
       </c>
-      <c r="M37" s="33">
+      <c r="M37" s="27">
         <v>7646</v>
       </c>
-      <c r="N37" s="34">
+      <c r="N37" s="28">
         <v>7466</v>
       </c>
-      <c r="O37" s="32">
+      <c r="O37" s="26">
         <v>7298</v>
       </c>
-      <c r="P37" s="33">
+      <c r="P37" s="27">
         <v>7259</v>
       </c>
-      <c r="Q37" s="33">
+      <c r="Q37" s="27">
         <v>7527</v>
       </c>
-      <c r="R37" s="33">
+      <c r="R37" s="27">
         <v>7472</v>
       </c>
-      <c r="S37" s="33">
+      <c r="S37" s="27">
         <v>7486</v>
       </c>
-      <c r="T37" s="33">
+      <c r="T37" s="27">
         <v>7482</v>
       </c>
-      <c r="U37" s="33">
+      <c r="U37" s="27">
         <v>7539</v>
       </c>
-      <c r="V37" s="33">
+      <c r="V37" s="27">
         <v>7541</v>
       </c>
-      <c r="W37" s="33">
+      <c r="W37" s="27">
         <v>7420</v>
       </c>
-      <c r="X37" s="33">
+      <c r="X37" s="27">
         <v>7300</v>
       </c>
-      <c r="Y37" s="33">
+      <c r="Y37" s="27">
         <v>7362</v>
       </c>
-      <c r="Z37" s="34">
+      <c r="Z37" s="28">
         <v>7535</v>
       </c>
-      <c r="AA37" s="32">
+      <c r="AA37" s="26">
         <v>7276</v>
       </c>
-      <c r="AB37" s="33">
+      <c r="AB37" s="27">
         <v>7305</v>
       </c>
-      <c r="AC37" s="33">
+      <c r="AC37" s="27">
         <v>7337</v>
       </c>
-      <c r="AD37" s="33">
+      <c r="AD37" s="27">
         <v>7448</v>
       </c>
-      <c r="AE37" s="33">
+      <c r="AE37" s="27">
         <v>7473</v>
       </c>
-      <c r="AF37" s="33">
+      <c r="AF37" s="27">
         <v>7515</v>
       </c>
-      <c r="AG37" s="33">
+      <c r="AG37" s="27">
         <v>7620</v>
       </c>
-      <c r="AH37" s="33">
+      <c r="AH37" s="27">
         <v>7570</v>
       </c>
-      <c r="AI37" s="33">
+      <c r="AI37" s="27">
         <v>7451</v>
       </c>
-      <c r="AJ37" s="33">
+      <c r="AJ37" s="27">
         <v>7405</v>
       </c>
-      <c r="AK37" s="33">
+      <c r="AK37" s="27">
         <v>7226</v>
       </c>
-      <c r="AL37" s="34">
+      <c r="AL37" s="28">
         <v>7333</v>
       </c>
-      <c r="AM37" s="32">
+      <c r="AM37" s="26">
         <v>7225</v>
       </c>
-      <c r="AN37" s="33">
+      <c r="AN37" s="27">
         <v>7218</v>
       </c>
-      <c r="AO37" s="33">
+      <c r="AO37" s="27">
         <v>7290</v>
       </c>
-      <c r="AP37" s="33">
+      <c r="AP37" s="27">
         <v>7436</v>
       </c>
-      <c r="AQ37" s="33">
+      <c r="AQ37" s="27">
         <v>7486</v>
       </c>
-      <c r="AR37" s="33">
+      <c r="AR37" s="27">
         <v>7501</v>
       </c>
-      <c r="AS37" s="33">
+      <c r="AS37" s="27">
         <v>7528</v>
       </c>
-      <c r="AT37" s="33">
+      <c r="AT37" s="27">
         <v>7553</v>
       </c>
-      <c r="AU37" s="33">
+      <c r="AU37" s="27">
         <v>7466</v>
       </c>
-      <c r="AV37" s="33">
+      <c r="AV37" s="27">
         <v>7514</v>
       </c>
-      <c r="AW37" s="33">
+      <c r="AW37" s="27">
         <v>7519</v>
       </c>
-      <c r="AX37" s="34">
+      <c r="AX37" s="28">
         <v>7640</v>
       </c>
-      <c r="AY37" s="32">
+      <c r="AY37" s="26">
         <v>7566</v>
       </c>
-      <c r="AZ37" s="33">
+      <c r="AZ37" s="27">
         <v>7591</v>
       </c>
-      <c r="BA37" s="33">
+      <c r="BA37" s="27">
         <v>7638</v>
       </c>
-      <c r="BB37" s="33">
+      <c r="BB37" s="27">
         <v>7605</v>
       </c>
-      <c r="BC37" s="33">
+      <c r="BC37" s="27">
         <v>7544</v>
       </c>
-      <c r="BD37" s="33">
+      <c r="BD37" s="27">
         <v>7555</v>
       </c>
-      <c r="BE37" s="33">
+      <c r="BE37" s="27">
         <v>7576</v>
       </c>
-      <c r="BF37" s="33">
+      <c r="BF37" s="27">
         <v>7518</v>
       </c>
-      <c r="BG37" s="33">
+      <c r="BG37" s="27">
         <v>7404</v>
       </c>
-      <c r="BH37" s="33">
+      <c r="BH37" s="27">
         <v>7439</v>
       </c>
-      <c r="BI37" s="33">
+      <c r="BI37" s="27">
         <v>7424</v>
       </c>
-      <c r="BJ37" s="34">
+      <c r="BJ37" s="28">
         <v>7506</v>
       </c>
-      <c r="BK37" s="32">
+      <c r="BK37" s="26">
         <v>7471</v>
       </c>
-      <c r="BL37" s="33">
+      <c r="BL37" s="27">
         <v>7453</v>
       </c>
-      <c r="BM37" s="33">
+      <c r="BM37" s="27">
         <v>7484</v>
       </c>
-      <c r="BN37" s="33">
+      <c r="BN37" s="27">
         <v>7642</v>
       </c>
-      <c r="BO37" s="33">
+      <c r="BO37" s="27">
         <v>7603</v>
       </c>
-      <c r="BP37" s="33">
+      <c r="BP37" s="27">
         <v>7690</v>
       </c>
-      <c r="BQ37" s="33">
+      <c r="BQ37" s="27">
         <v>7908</v>
       </c>
-      <c r="BR37" s="33">
+      <c r="BR37" s="27">
         <v>7725</v>
       </c>
-      <c r="BS37" s="33">
+      <c r="BS37" s="27">
         <v>7720</v>
       </c>
-      <c r="BT37" s="33">
+      <c r="BT37" s="27">
         <v>7722</v>
       </c>
-      <c r="BU37" s="33">
+      <c r="BU37" s="27">
         <v>7572</v>
       </c>
-      <c r="BV37" s="34">
+      <c r="BV37" s="28">
         <v>7814</v>
       </c>
-      <c r="BW37" s="32">
+      <c r="BW37" s="26">
         <v>7584</v>
       </c>
-      <c r="BX37" s="33">
+      <c r="BX37" s="27">
         <v>7586</v>
       </c>
-      <c r="BY37" s="33">
+      <c r="BY37" s="27">
         <v>7706</v>
       </c>
-      <c r="BZ37" s="33">
+      <c r="BZ37" s="27">
         <v>7969</v>
       </c>
-      <c r="CA37" s="33">
+      <c r="CA37" s="27">
         <v>7995</v>
       </c>
-      <c r="CB37" s="33">
+      <c r="CB37" s="27">
         <v>8134</v>
       </c>
-      <c r="CC37" s="33">
+      <c r="CC37" s="27">
         <v>8242</v>
       </c>
-      <c r="CD37" s="33">
+      <c r="CD37" s="27">
         <v>7995</v>
       </c>
-      <c r="CE37" s="33">
+      <c r="CE37" s="27">
         <v>7992</v>
       </c>
-      <c r="CF37" s="33">
+      <c r="CF37" s="27">
         <v>7916</v>
       </c>
-      <c r="CG37" s="33">
+      <c r="CG37" s="27">
         <v>7927</v>
       </c>
-      <c r="CH37" s="34">
+      <c r="CH37" s="28">
         <v>7962</v>
       </c>
-      <c r="CI37" s="32">
+      <c r="CI37" s="26">
         <v>7777</v>
       </c>
-      <c r="CJ37" s="33">
+      <c r="CJ37" s="27">
         <v>7883</v>
       </c>
-      <c r="CK37" s="33">
+      <c r="CK37" s="27">
         <v>8151</v>
       </c>
-      <c r="CL37" s="33">
+      <c r="CL37" s="27">
         <v>8225</v>
       </c>
-      <c r="CM37" s="33">
+      <c r="CM37" s="27">
         <v>8301</v>
       </c>
-      <c r="CN37" s="33">
+      <c r="CN37" s="27">
         <v>8371</v>
       </c>
-      <c r="CO37" s="33">
+      <c r="CO37" s="27">
         <v>8408</v>
       </c>
-      <c r="CP37" s="33">
+      <c r="CP37" s="27">
         <v>8335</v>
       </c>
-      <c r="CQ37" s="33">
+      <c r="CQ37" s="27">
         <v>8432</v>
       </c>
-      <c r="CR37" s="33">
+      <c r="CR37" s="27">
         <v>8462</v>
       </c>
-      <c r="CS37" s="33">
+      <c r="CS37" s="27">
         <v>8559</v>
       </c>
-      <c r="CT37" s="34">
+      <c r="CT37" s="28">
         <v>8390</v>
       </c>
-      <c r="CU37" s="32">
+      <c r="CU37" s="26">
         <v>8260</v>
       </c>
-      <c r="CV37" s="33">
+      <c r="CV37" s="27">
         <v>8322</v>
       </c>
-      <c r="CW37" s="33">
+      <c r="CW37" s="27">
         <v>8078</v>
       </c>
-      <c r="CX37" s="33">
+      <c r="CX37" s="27">
         <v>8189</v>
       </c>
-      <c r="CY37" s="33">
+      <c r="CY37" s="27">
         <v>8206</v>
       </c>
-      <c r="CZ37" s="33">
+      <c r="CZ37" s="27">
         <v>8285</v>
       </c>
-      <c r="DA37" s="33">
+      <c r="DA37" s="27">
         <v>8310</v>
       </c>
-      <c r="DB37" s="33">
+      <c r="DB37" s="27">
         <v>8370</v>
       </c>
-      <c r="DC37" s="33">
+      <c r="DC37" s="27">
         <v>8314</v>
       </c>
-      <c r="DD37" s="33">
+      <c r="DD37" s="27">
         <v>8284</v>
       </c>
-      <c r="DE37" s="33">
+      <c r="DE37" s="27">
         <v>8340</v>
       </c>
-      <c r="DF37" s="34">
+      <c r="DF37" s="28">
         <v>8293</v>
       </c>
-      <c r="DG37" s="32">
+      <c r="DG37" s="26">
         <v>8057</v>
       </c>
-      <c r="DH37" s="33">
+      <c r="DH37" s="27">
         <v>8023</v>
       </c>
-      <c r="DI37" s="33">
+      <c r="DI37" s="27">
         <v>8137</v>
       </c>
-      <c r="DJ37" s="33">
+      <c r="DJ37" s="27">
         <v>8115</v>
       </c>
-      <c r="DK37" s="33">
+      <c r="DK37" s="27">
         <v>8195</v>
       </c>
-      <c r="DL37" s="33">
+      <c r="DL37" s="27">
         <v>8245</v>
       </c>
-      <c r="DM37" s="33">
+      <c r="DM37" s="27">
         <v>8333</v>
       </c>
-      <c r="DN37" s="33">
+      <c r="DN37" s="27">
         <v>8234</v>
       </c>
-      <c r="DO37" s="33">
+      <c r="DO37" s="27">
         <v>8157</v>
       </c>
-      <c r="DP37" s="33">
+      <c r="DP37" s="27">
         <v>8217</v>
       </c>
-      <c r="DQ37" s="33">
+      <c r="DQ37" s="27">
         <v>8354</v>
       </c>
-      <c r="DR37" s="34">
+      <c r="DR37" s="28">
         <v>8376</v>
       </c>
-      <c r="DS37" s="32">
+      <c r="DS37" s="26">
         <v>8367</v>
       </c>
-      <c r="DT37" s="33">
+      <c r="DT37" s="27">
         <v>8425</v>
       </c>
-      <c r="DU37" s="33">
+      <c r="DU37" s="27">
         <v>8527</v>
       </c>
-      <c r="DV37" s="33">
+      <c r="DV37" s="27">
         <v>8557</v>
       </c>
-      <c r="DW37" s="33">
+      <c r="DW37" s="27">
         <v>8635</v>
       </c>
-      <c r="DX37" s="33">
+      <c r="DX37" s="27">
         <v>8683</v>
       </c>
-      <c r="DY37" s="33">
+      <c r="DY37" s="27">
         <v>8679</v>
       </c>
-      <c r="DZ37" s="33">
+      <c r="DZ37" s="27">
         <v>8773</v>
       </c>
-      <c r="EA37" s="33">
+      <c r="EA37" s="27">
         <v>8723</v>
       </c>
-      <c r="EB37" s="33">
+      <c r="EB37" s="27">
         <v>8649</v>
       </c>
-      <c r="EC37" s="33">
+      <c r="EC37" s="27">
         <v>8638</v>
       </c>
-      <c r="ED37" s="34">
+      <c r="ED37" s="28">
         <v>8854</v>
       </c>
-      <c r="EE37" s="32">
+      <c r="EE37" s="26">
         <v>8643</v>
       </c>
-      <c r="EF37" s="33">
+      <c r="EF37" s="27">
         <v>8657</v>
       </c>
-      <c r="EG37" s="33">
+      <c r="EG37" s="27">
         <v>8842</v>
       </c>
-      <c r="EH37" s="33">
+      <c r="EH37" s="27">
         <v>8870</v>
       </c>
-      <c r="EI37" s="33">
+      <c r="EI37" s="27">
         <v>8940</v>
       </c>
-      <c r="EJ37" s="33">
+      <c r="EJ37" s="27">
         <v>8931</v>
       </c>
-      <c r="EK37" s="33">
+      <c r="EK37" s="27">
         <v>9199</v>
       </c>
-      <c r="EL37" s="33">
+      <c r="EL37" s="27">
         <v>8956</v>
       </c>
-      <c r="EM37" s="33">
+      <c r="EM37" s="27">
         <v>8865</v>
       </c>
-      <c r="EN37" s="33">
+      <c r="EN37" s="27">
         <v>8849</v>
       </c>
-      <c r="EO37" s="33">
+      <c r="EO37" s="27">
         <v>8887</v>
       </c>
-      <c r="EP37" s="34">
+      <c r="EP37" s="28">
         <v>9024</v>
       </c>
-      <c r="EQ37" s="32">
+      <c r="EQ37" s="26">
         <v>9061</v>
       </c>
-      <c r="ER37" s="33">
+      <c r="ER37" s="27">
         <v>9220</v>
       </c>
-      <c r="ES37" s="33">
+      <c r="ES37" s="27">
         <v>9507</v>
       </c>
-      <c r="ET37" s="33">
+      <c r="ET37" s="27">
         <v>9611</v>
       </c>
-      <c r="EU37" s="33">
+      <c r="EU37" s="27">
         <v>9626</v>
       </c>
-      <c r="EV37" s="33">
+      <c r="EV37" s="27">
         <v>9694</v>
       </c>
-      <c r="EW37" s="33">
+      <c r="EW37" s="27">
         <v>9706</v>
       </c>
-      <c r="EX37" s="33">
+      <c r="EX37" s="27">
         <v>9333</v>
       </c>
-      <c r="EY37" s="33">
+      <c r="EY37" s="27">
         <v>9242</v>
       </c>
-      <c r="EZ37" s="33">
+      <c r="EZ37" s="27">
         <v>9303</v>
       </c>
-      <c r="FA37" s="33">
+      <c r="FA37" s="27">
         <v>9104</v>
       </c>
-      <c r="FB37" s="34">
+      <c r="FB37" s="28">
         <v>9311</v>
       </c>
-      <c r="FC37" s="32">
+      <c r="FC37" s="26">
         <v>9172</v>
       </c>
-      <c r="FD37" s="33">
+      <c r="FD37" s="27">
         <v>9191</v>
       </c>
-      <c r="FE37" s="33">
+      <c r="FE37" s="27">
         <v>9154</v>
       </c>
-      <c r="FF37" s="33">
+      <c r="FF37" s="27">
         <v>9337</v>
       </c>
-      <c r="FG37" s="33">
+      <c r="FG37" s="27">
         <v>9205</v>
       </c>
-      <c r="FH37" s="33">
+      <c r="FH37" s="27">
         <v>9179</v>
       </c>
-      <c r="FI37" s="33">
+      <c r="FI37" s="27">
         <v>9295</v>
       </c>
-      <c r="FJ37" s="33">
+      <c r="FJ37" s="27">
         <v>9211</v>
       </c>
-      <c r="FK37" s="33">
+      <c r="FK37" s="27">
         <v>9157</v>
       </c>
-      <c r="FL37" s="33">
+      <c r="FL37" s="27">
         <v>9219</v>
       </c>
-      <c r="FM37" s="33">
+      <c r="FM37" s="27">
         <v>9071</v>
       </c>
-      <c r="FN37" s="34">
+      <c r="FN37" s="28">
         <v>9191</v>
       </c>
-      <c r="FO37" s="32">
+      <c r="FO37" s="26">
         <v>8998</v>
       </c>
-      <c r="FP37" s="33">
+      <c r="FP37" s="27">
         <v>9029</v>
       </c>
-      <c r="FQ37" s="33">
+      <c r="FQ37" s="27">
         <v>9124</v>
       </c>
-      <c r="FR37" s="33">
+      <c r="FR37" s="27">
         <v>9209</v>
       </c>
-      <c r="FS37" s="33">
+      <c r="FS37" s="27">
         <v>9183</v>
       </c>
-      <c r="FT37" s="33">
+      <c r="FT37" s="27">
         <v>9160</v>
       </c>
-      <c r="FU37" s="33">
+      <c r="FU37" s="27">
         <v>9196</v>
       </c>
-      <c r="FV37" s="33">
+      <c r="FV37" s="27">
         <v>9125</v>
       </c>
-      <c r="FW37" s="33">
+      <c r="FW37" s="27">
         <v>9070</v>
       </c>
-      <c r="FX37" s="33">
+      <c r="FX37" s="27">
         <v>9069</v>
       </c>
-      <c r="FY37" s="33">
+      <c r="FY37" s="27">
         <v>9087</v>
       </c>
-      <c r="FZ37" s="34">
+      <c r="FZ37" s="28">
         <v>9246</v>
       </c>
-      <c r="GA37" s="32">
+      <c r="GA37" s="26">
         <v>9107</v>
       </c>
-      <c r="GB37" s="33">
+      <c r="GB37" s="27">
         <v>9145</v>
       </c>
-      <c r="GC37" s="33">
+      <c r="GC37" s="27">
         <v>9177</v>
       </c>
-      <c r="GD37" s="33">
+      <c r="GD37" s="27">
         <v>9178</v>
       </c>
-      <c r="GE37" s="33">
+      <c r="GE37" s="27">
         <v>9254</v>
       </c>
-      <c r="GF37" s="33">
+      <c r="GF37" s="27">
         <v>9176</v>
       </c>
-      <c r="GG37" s="33">
+      <c r="GG37" s="27">
         <v>9237</v>
       </c>
-      <c r="GH37" s="33">
+      <c r="GH37" s="27">
         <v>9176</v>
       </c>
-      <c r="GI37" s="33">
+      <c r="GI37" s="27">
         <v>9171</v>
       </c>
-      <c r="GJ37" s="33">
+      <c r="GJ37" s="27">
         <v>9108</v>
       </c>
-      <c r="GK37" s="33">
+      <c r="GK37" s="27">
         <v>9143</v>
       </c>
-      <c r="GL37" s="34">
+      <c r="GL37" s="28">
         <v>9369</v>
       </c>
-      <c r="GM37" s="32">
+      <c r="GM37" s="26">
         <v>9148</v>
       </c>
-      <c r="GN37" s="33">
+      <c r="GN37" s="27">
         <v>9253</v>
       </c>
-      <c r="GO37" s="33">
+      <c r="GO37" s="27">
         <v>9218</v>
       </c>
-      <c r="GP37" s="33">
+      <c r="GP37" s="27">
         <v>9328</v>
       </c>
-      <c r="GQ37" s="33">
+      <c r="GQ37" s="27">
         <v>9307</v>
       </c>
-      <c r="GR37" s="33">
+      <c r="GR37" s="27">
         <v>9226</v>
       </c>
-      <c r="GS37" s="33">
+      <c r="GS37" s="27">
         <v>9429</v>
       </c>
-      <c r="GT37" s="33">
+      <c r="GT37" s="27">
         <v>9240</v>
       </c>
-      <c r="GU37" s="33">
+      <c r="GU37" s="27">
         <v>9401</v>
       </c>
-      <c r="GV37" s="33">
+      <c r="GV37" s="27">
         <v>9378</v>
       </c>
-      <c r="GW37" s="33">
+      <c r="GW37" s="27">
         <v>9346</v>
       </c>
-      <c r="GX37" s="34">
+      <c r="GX37" s="28">
         <v>9548</v>
       </c>
-      <c r="GY37" s="32">
+      <c r="GY37" s="26">
         <v>9332</v>
       </c>
-      <c r="GZ37" s="33">
+      <c r="GZ37" s="27">
         <v>9221</v>
       </c>
-      <c r="HA37" s="33">
+      <c r="HA37" s="27">
         <v>9389</v>
       </c>
-      <c r="HB37" s="33">
+      <c r="HB37" s="27">
         <v>9402</v>
       </c>
-      <c r="HC37" s="33">
+      <c r="HC37" s="27">
         <v>9350</v>
       </c>
-      <c r="HD37" s="33">
+      <c r="HD37" s="27">
         <v>9377</v>
       </c>
-      <c r="HE37" s="33">
+      <c r="HE37" s="27">
         <v>9440</v>
       </c>
-      <c r="HF37" s="33">
+      <c r="HF37" s="27">
         <v>9204</v>
       </c>
-      <c r="HG37" s="33">
+      <c r="HG37" s="27">
         <v>9121</v>
       </c>
-      <c r="HH37" s="33">
+      <c r="HH37" s="27">
         <v>9047</v>
       </c>
-      <c r="HI37" s="33">
+      <c r="HI37" s="27">
         <v>9126</v>
       </c>
-      <c r="HJ37" s="34">
+      <c r="HJ37" s="28">
         <v>9329</v>
       </c>
-      <c r="HK37" s="32">
+      <c r="HK37" s="26">
         <v>9153</v>
       </c>
-      <c r="HL37" s="33">
+      <c r="HL37" s="27">
         <v>9230</v>
       </c>
-      <c r="HM37" s="33">
+      <c r="HM37" s="27">
         <v>9429</v>
       </c>
-      <c r="HN37" s="33">
+      <c r="HN37" s="27">
         <v>9294</v>
       </c>
-      <c r="HO37" s="33">
+      <c r="HO37" s="27">
         <v>9204</v>
       </c>
-      <c r="HP37" s="33">
+      <c r="HP37" s="27">
         <v>9238</v>
       </c>
-      <c r="HQ37" s="33">
+      <c r="HQ37" s="27">
         <v>9290</v>
       </c>
-      <c r="HR37" s="33">
+      <c r="HR37" s="27">
         <v>9238</v>
       </c>
-      <c r="HS37" s="33">
+      <c r="HS37" s="27">
         <v>9247</v>
       </c>
-      <c r="HT37" s="33">
+      <c r="HT37" s="27">
         <v>9249</v>
       </c>
-      <c r="HU37" s="33">
+      <c r="HU37" s="27">
         <v>9253</v>
       </c>
-      <c r="HV37" s="34">
+      <c r="HV37" s="28">
         <v>9329</v>
       </c>
-      <c r="HW37" s="32">
+      <c r="HW37" s="26">
         <v>9211</v>
       </c>
-      <c r="HX37" s="33">
+      <c r="HX37" s="27">
         <v>9233</v>
       </c>
-      <c r="HY37" s="33">
+      <c r="HY37" s="27">
         <v>9264</v>
       </c>
-      <c r="HZ37" s="33">
+      <c r="HZ37" s="27">
         <v>9221</v>
       </c>
-      <c r="IA37" s="33">
+      <c r="IA37" s="27">
         <v>9150</v>
       </c>
-      <c r="IB37" s="33">
+      <c r="IB37" s="27">
         <v>9178</v>
       </c>
-      <c r="IC37" s="33">
+      <c r="IC37" s="27">
         <v>9225</v>
       </c>
-      <c r="ID37" s="33">
+      <c r="ID37" s="27">
         <v>9168</v>
       </c>
-      <c r="IE37" s="33">
+      <c r="IE37" s="27">
         <v>9107</v>
       </c>
-      <c r="IF37" s="33">
+      <c r="IF37" s="27">
         <v>9185</v>
       </c>
-      <c r="IG37" s="33">
+      <c r="IG37" s="27">
         <v>9100</v>
       </c>
-      <c r="IH37" s="34">
+      <c r="IH37" s="28">
         <v>9194</v>
       </c>
-      <c r="II37" s="32">
+      <c r="II37" s="26">
         <v>9163</v>
       </c>
-      <c r="IJ37" s="33">
+      <c r="IJ37" s="27">
         <v>9251</v>
       </c>
-      <c r="IK37" s="33">
+      <c r="IK37" s="27">
         <v>9275</v>
       </c>
-      <c r="IL37" s="33">
+      <c r="IL37" s="27">
         <v>9221</v>
       </c>
-      <c r="IM37" s="33">
+      <c r="IM37" s="27">
         <v>9364</v>
       </c>
-      <c r="IN37" s="33">
+      <c r="IN37" s="27">
         <v>9481</v>
       </c>
-      <c r="IO37" s="33">
+      <c r="IO37" s="27">
         <v>9574</v>
       </c>
-      <c r="IP37" s="33">
+      <c r="IP37" s="27">
         <v>9622</v>
       </c>
-      <c r="IQ37" s="33">
+      <c r="IQ37" s="27">
         <v>9492</v>
       </c>
-      <c r="IR37" s="33">
+      <c r="IR37" s="27">
         <v>9506</v>
       </c>
-      <c r="IS37" s="33">
+      <c r="IS37" s="27">
         <v>9464</v>
       </c>
-      <c r="IT37" s="34">
+      <c r="IT37" s="28">
         <v>9458</v>
       </c>
-      <c r="IU37" s="32">
+      <c r="IU37" s="26">
         <v>9448</v>
       </c>
-      <c r="IV37" s="33">
+      <c r="IV37" s="27">
         <v>9537</v>
       </c>
-      <c r="IW37" s="33">
+      <c r="IW37" s="27">
         <v>9509</v>
       </c>
-      <c r="IX37" s="33">
+      <c r="IX37" s="27">
         <v>9598</v>
       </c>
-      <c r="IY37" s="33">
+      <c r="IY37" s="27">
         <v>9687</v>
       </c>
-      <c r="IZ37" s="33">
+      <c r="IZ37" s="27">
         <v>9644</v>
       </c>
-      <c r="JA37" s="33">
+      <c r="JA37" s="27">
         <v>9754</v>
       </c>
-      <c r="JB37" s="33">
+      <c r="JB37" s="27">
         <v>9702</v>
       </c>
-      <c r="JC37" s="33">
+      <c r="JC37" s="27">
         <v>9646</v>
       </c>
-      <c r="JD37" s="33">
+      <c r="JD37" s="27">
         <v>9755</v>
       </c>
-      <c r="JE37" s="33">
+      <c r="JE37" s="27">
         <v>9637</v>
       </c>
-      <c r="JF37" s="34">
+      <c r="JF37" s="28">
         <v>9697</v>
       </c>
-      <c r="JG37" s="32">
+      <c r="JG37" s="26">
         <v>9895</v>
       </c>
-      <c r="JH37" s="33">
+      <c r="JH37" s="27">
         <v>9952</v>
       </c>
-      <c r="JI37" s="33">
+      <c r="JI37" s="27">
         <v>9921</v>
       </c>
-      <c r="JJ37" s="33">
+      <c r="JJ37" s="27">
         <v>9758</v>
       </c>
-      <c r="JK37" s="33">
+      <c r="JK37" s="27">
         <v>9733</v>
       </c>
-      <c r="JL37" s="33">
+      <c r="JL37" s="27">
         <v>9474</v>
       </c>
-      <c r="JM37" s="33">
+      <c r="JM37" s="27">
         <v>9829</v>
       </c>
-      <c r="JN37" s="33">
+      <c r="JN37" s="27">
         <v>9818</v>
       </c>
-      <c r="JO37" s="33">
+      <c r="JO37" s="27">
         <v>9911</v>
       </c>
-      <c r="JP37" s="33">
+      <c r="JP37" s="27">
         <v>9901</v>
       </c>
-      <c r="JQ37" s="33">
+      <c r="JQ37" s="27">
         <v>9956</v>
       </c>
-      <c r="JR37" s="34">
+      <c r="JR37" s="28">
         <v>9984</v>
       </c>
-      <c r="JS37" s="32">
+      <c r="JS37" s="26">
         <v>9992</v>
       </c>
-      <c r="JT37" s="33">
+      <c r="JT37" s="27">
         <v>10000</v>
       </c>
-      <c r="JU37" s="33">
+      <c r="JU37" s="27">
         <v>10132</v>
       </c>
-      <c r="JV37" s="33">
+      <c r="JV37" s="27">
         <v>9977</v>
       </c>
-      <c r="JW37" s="33">
+      <c r="JW37" s="27">
         <v>10007</v>
       </c>
-      <c r="JX37" s="33">
+      <c r="JX37" s="27">
         <v>10103</v>
       </c>
-      <c r="JY37" s="33">
+      <c r="JY37" s="27">
         <v>9603</v>
       </c>
-      <c r="JZ37" s="34">
+      <c r="JZ37" s="27">
         <v>9612</v>
       </c>
+      <c r="KA37" s="28">
+        <v>9562</v>
+      </c>
     </row>
-    <row r="38" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -29959,11 +30065,14 @@
       <c r="JY38" s="3">
         <v>1697</v>
       </c>
-      <c r="JZ38" s="4">
+      <c r="JZ38" s="3">
         <v>1712</v>
       </c>
+      <c r="KA38" s="4">
+        <v>1703</v>
+      </c>
     </row>
-    <row r="39" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -30817,11 +30926,14 @@
       <c r="JY39" s="3">
         <v>75</v>
       </c>
-      <c r="JZ39" s="4">
+      <c r="JZ39" s="3">
         <v>62</v>
       </c>
+      <c r="KA39" s="4">
+        <v>57</v>
+      </c>
     </row>
-    <row r="40" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -31675,11 +31787,14 @@
       <c r="JY40" s="3">
         <v>480</v>
       </c>
-      <c r="JZ40" s="4">
+      <c r="JZ40" s="3">
         <v>480</v>
       </c>
+      <c r="KA40" s="4">
+        <v>469</v>
+      </c>
     </row>
-    <row r="41" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -32533,11 +32648,14 @@
       <c r="JY41" s="3">
         <v>1001</v>
       </c>
-      <c r="JZ41" s="4">
+      <c r="JZ41" s="3">
         <v>997</v>
       </c>
+      <c r="KA41" s="4">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="42" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -33391,11 +33509,14 @@
       <c r="JY42" s="3">
         <v>1456</v>
       </c>
-      <c r="JZ42" s="4">
+      <c r="JZ42" s="3">
         <v>1454</v>
       </c>
+      <c r="KA42" s="4">
+        <v>1453</v>
+      </c>
     </row>
-    <row r="43" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -34249,11 +34370,14 @@
       <c r="JY43" s="3">
         <v>1715</v>
       </c>
-      <c r="JZ43" s="4">
+      <c r="JZ43" s="3">
         <v>1719</v>
       </c>
+      <c r="KA43" s="4">
+        <v>1717</v>
+      </c>
     </row>
-    <row r="44" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -35107,11 +35231,14 @@
       <c r="JY44" s="3">
         <v>1698</v>
       </c>
-      <c r="JZ44" s="4">
+      <c r="JZ44" s="3">
         <v>1710</v>
       </c>
+      <c r="KA44" s="4">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="45" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -35965,11 +36092,14 @@
       <c r="JY45" s="3">
         <v>1481</v>
       </c>
-      <c r="JZ45" s="4">
+      <c r="JZ45" s="3">
         <v>1478</v>
       </c>
+      <c r="KA45" s="4">
+        <v>1459</v>
+      </c>
     </row>
-    <row r="46" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -36381,9 +36511,10 @@
       <c r="JW46" s="3"/>
       <c r="JX46" s="3"/>
       <c r="JY46" s="3"/>
-      <c r="JZ46" s="4"/>
+      <c r="JZ46" s="3"/>
+      <c r="KA46" s="4"/>
     </row>
-    <row r="47" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -37239,11 +37370,14 @@
       <c r="JY47" s="8">
         <v>473006</v>
       </c>
-      <c r="JZ47" s="18">
+      <c r="JZ47" s="8">
         <v>477017</v>
       </c>
+      <c r="KA47" s="18">
+        <v>480063</v>
+      </c>
     </row>
-    <row r="48" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -38097,11 +38231,14 @@
       <c r="JY48" s="3">
         <v>68426</v>
       </c>
-      <c r="JZ48" s="4">
+      <c r="JZ48" s="3">
         <v>69008</v>
       </c>
+      <c r="KA48" s="4">
+        <v>69587</v>
+      </c>
     </row>
-    <row r="49" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -38955,11 +39092,14 @@
       <c r="JY49" s="3">
         <v>15877</v>
       </c>
-      <c r="JZ49" s="4">
+      <c r="JZ49" s="3">
         <v>16393</v>
       </c>
+      <c r="KA49" s="4">
+        <v>16767</v>
+      </c>
     </row>
-    <row r="50" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -39813,11 +39953,14 @@
       <c r="JY50" s="3">
         <v>65941</v>
       </c>
-      <c r="JZ50" s="4">
+      <c r="JZ50" s="3">
         <v>66507</v>
       </c>
+      <c r="KA50" s="4">
+        <v>66918</v>
+      </c>
     </row>
-    <row r="51" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -40671,11 +40814,14 @@
       <c r="JY51" s="3">
         <v>78411</v>
       </c>
-      <c r="JZ51" s="4">
+      <c r="JZ51" s="3">
         <v>78863</v>
       </c>
+      <c r="KA51" s="4">
+        <v>79082</v>
+      </c>
     </row>
-    <row r="52" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -41529,11 +41675,14 @@
       <c r="JY52" s="3">
         <v>71228</v>
       </c>
-      <c r="JZ52" s="4">
+      <c r="JZ52" s="3">
         <v>71767</v>
       </c>
+      <c r="KA52" s="4">
+        <v>72156</v>
+      </c>
     </row>
-    <row r="53" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -42387,11 +42536,14 @@
       <c r="JY53" s="3">
         <v>64928</v>
       </c>
-      <c r="JZ53" s="4">
+      <c r="JZ53" s="3">
         <v>65247</v>
       </c>
+      <c r="KA53" s="4">
+        <v>65686</v>
+      </c>
     </row>
-    <row r="54" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -43245,11 +43397,14 @@
       <c r="JY54" s="3">
         <v>57908</v>
       </c>
-      <c r="JZ54" s="4">
+      <c r="JZ54" s="3">
         <v>58505</v>
       </c>
+      <c r="KA54" s="4">
+        <v>58952</v>
+      </c>
     </row>
-    <row r="55" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -44103,11 +44258,14 @@
       <c r="JY55" s="3">
         <v>50280</v>
       </c>
-      <c r="JZ55" s="4">
+      <c r="JZ55" s="3">
         <v>50720</v>
       </c>
+      <c r="KA55" s="4">
+        <v>50910</v>
+      </c>
     </row>
-    <row r="56" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -44961,11 +45119,14 @@
       <c r="JY56" s="3">
         <v>7</v>
       </c>
-      <c r="JZ56" s="4">
+      <c r="JZ56" s="3">
         <v>7</v>
       </c>
+      <c r="KA56" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="57" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -45821,11 +45982,14 @@
       <c r="JY57" s="8">
         <v>2577</v>
       </c>
-      <c r="JZ57" s="18">
+      <c r="JZ57" s="8">
         <v>2692</v>
       </c>
+      <c r="KA57" s="18">
+        <v>2640</v>
+      </c>
     </row>
-    <row r="58" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -46679,11 +46843,14 @@
       <c r="JY58" s="3">
         <v>486</v>
       </c>
-      <c r="JZ58" s="4">
+      <c r="JZ58" s="3">
         <v>498</v>
       </c>
+      <c r="KA58" s="4">
+        <v>490</v>
+      </c>
     </row>
-    <row r="59" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -47537,11 +47704,14 @@
       <c r="JY59" s="3">
         <v>46</v>
       </c>
-      <c r="JZ59" s="4">
+      <c r="JZ59" s="3">
         <v>43</v>
       </c>
+      <c r="KA59" s="4">
+        <v>36</v>
+      </c>
     </row>
-    <row r="60" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -48395,11 +48565,14 @@
       <c r="JY60" s="3">
         <v>245</v>
       </c>
-      <c r="JZ60" s="4">
+      <c r="JZ60" s="3">
         <v>252</v>
       </c>
+      <c r="KA60" s="4">
+        <v>251</v>
+      </c>
     </row>
-    <row r="61" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -49253,11 +49426,14 @@
       <c r="JY61" s="3">
         <v>400</v>
       </c>
-      <c r="JZ61" s="4">
+      <c r="JZ61" s="3">
         <v>436</v>
       </c>
+      <c r="KA61" s="4">
+        <v>416</v>
+      </c>
     </row>
-    <row r="62" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -50111,11 +50287,14 @@
       <c r="JY62" s="3">
         <v>433</v>
       </c>
-      <c r="JZ62" s="4">
+      <c r="JZ62" s="3">
         <v>457</v>
       </c>
+      <c r="KA62" s="4">
+        <v>449</v>
+      </c>
     </row>
-    <row r="63" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -50969,11 +51148,14 @@
       <c r="JY63" s="3">
         <v>345</v>
       </c>
-      <c r="JZ63" s="4">
+      <c r="JZ63" s="3">
         <v>363</v>
       </c>
+      <c r="KA63" s="4">
+        <v>367</v>
+      </c>
     </row>
-    <row r="64" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -51827,11 +52009,14 @@
       <c r="JY64" s="3">
         <v>343</v>
       </c>
-      <c r="JZ64" s="4">
+      <c r="JZ64" s="3">
         <v>356</v>
       </c>
+      <c r="KA64" s="4">
+        <v>348</v>
+      </c>
     </row>
-    <row r="65" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -52685,11 +52870,14 @@
       <c r="JY65" s="3">
         <v>279</v>
       </c>
-      <c r="JZ65" s="4">
+      <c r="JZ65" s="3">
         <v>287</v>
       </c>
+      <c r="KA65" s="4">
+        <v>283</v>
+      </c>
     </row>
-    <row r="66" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -53035,9 +53223,10 @@
       <c r="JW66" s="3"/>
       <c r="JX66" s="3"/>
       <c r="JY66" s="3"/>
-      <c r="JZ66" s="4"/>
+      <c r="JZ66" s="3"/>
+      <c r="KA66" s="4"/>
     </row>
-    <row r="67" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -53893,11 +54082,14 @@
       <c r="JY67" s="8">
         <v>620513</v>
       </c>
-      <c r="JZ67" s="18">
+      <c r="JZ67" s="8">
         <v>619137</v>
       </c>
+      <c r="KA67" s="18">
+        <v>619859</v>
+      </c>
     </row>
-    <row r="68" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -54751,11 +54943,14 @@
       <c r="JY68" s="3">
         <v>126855</v>
       </c>
-      <c r="JZ68" s="4">
+      <c r="JZ68" s="3">
         <v>127371</v>
       </c>
+      <c r="KA68" s="4">
+        <v>129083</v>
+      </c>
     </row>
-    <row r="69" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -55609,11 +55804,14 @@
       <c r="JY69" s="3">
         <v>11824</v>
       </c>
-      <c r="JZ69" s="4">
+      <c r="JZ69" s="3">
         <v>11520</v>
       </c>
+      <c r="KA69" s="4">
+        <v>11322</v>
+      </c>
     </row>
-    <row r="70" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -56467,11 +56665,14 @@
       <c r="JY70" s="3">
         <v>60470</v>
       </c>
-      <c r="JZ70" s="4">
+      <c r="JZ70" s="3">
         <v>59505</v>
       </c>
+      <c r="KA70" s="4">
+        <v>59475</v>
+      </c>
     </row>
-    <row r="71" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -57325,11 +57526,14 @@
       <c r="JY71" s="3">
         <v>97258</v>
       </c>
-      <c r="JZ71" s="4">
+      <c r="JZ71" s="3">
         <v>96776</v>
       </c>
+      <c r="KA71" s="4">
+        <v>96622</v>
+      </c>
     </row>
-    <row r="72" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -58183,11 +58387,14 @@
       <c r="JY72" s="3">
         <v>93319</v>
       </c>
-      <c r="JZ72" s="4">
+      <c r="JZ72" s="3">
         <v>93188</v>
       </c>
+      <c r="KA72" s="4">
+        <v>92907</v>
+      </c>
     </row>
-    <row r="73" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -59041,11 +59248,14 @@
       <c r="JY73" s="3">
         <v>85526</v>
       </c>
-      <c r="JZ73" s="4">
+      <c r="JZ73" s="3">
         <v>85525</v>
       </c>
+      <c r="KA73" s="4">
+        <v>85227</v>
+      </c>
     </row>
-    <row r="74" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -59899,11 +60109,14 @@
       <c r="JY74" s="3">
         <v>76038</v>
       </c>
-      <c r="JZ74" s="4">
+      <c r="JZ74" s="3">
         <v>75857</v>
       </c>
+      <c r="KA74" s="4">
+        <v>75943</v>
+      </c>
     </row>
-    <row r="75" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -60757,11 +60970,14 @@
       <c r="JY75" s="3">
         <v>69220</v>
       </c>
-      <c r="JZ75" s="4">
+      <c r="JZ75" s="3">
         <v>69392</v>
       </c>
+      <c r="KA75" s="4">
+        <v>69277</v>
+      </c>
     </row>
-    <row r="76" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -61615,11 +61831,14 @@
       <c r="JY76" s="3">
         <v>3</v>
       </c>
-      <c r="JZ76" s="4">
+      <c r="JZ76" s="3">
         <v>3</v>
       </c>
+      <c r="KA76" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="77" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -62475,11 +62694,14 @@
       <c r="JY77" s="8">
         <v>93255</v>
       </c>
-      <c r="JZ77" s="18">
+      <c r="JZ77" s="8">
         <v>94332</v>
       </c>
+      <c r="KA77" s="18">
+        <v>94275</v>
+      </c>
     </row>
-    <row r="78" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -63333,11 +63555,14 @@
       <c r="JY78" s="3">
         <v>16540</v>
       </c>
-      <c r="JZ78" s="4">
+      <c r="JZ78" s="3">
         <v>16592</v>
       </c>
+      <c r="KA78" s="4">
+        <v>16590</v>
+      </c>
     </row>
-    <row r="79" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -64191,11 +64416,14 @@
       <c r="JY79" s="3">
         <v>1672</v>
       </c>
-      <c r="JZ79" s="4">
+      <c r="JZ79" s="3">
         <v>1742</v>
       </c>
+      <c r="KA79" s="4">
+        <v>1790</v>
+      </c>
     </row>
-    <row r="80" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -65049,11 +65277,14 @@
       <c r="JY80" s="3">
         <v>10068</v>
       </c>
-      <c r="JZ80" s="4">
+      <c r="JZ80" s="3">
         <v>10270</v>
       </c>
+      <c r="KA80" s="4">
+        <v>10476</v>
+      </c>
     </row>
-    <row r="81" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -65907,11 +66138,14 @@
       <c r="JY81" s="3">
         <v>14306</v>
       </c>
-      <c r="JZ81" s="4">
+      <c r="JZ81" s="3">
         <v>14550</v>
       </c>
+      <c r="KA81" s="4">
+        <v>14512</v>
+      </c>
     </row>
-    <row r="82" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -66765,11 +66999,14 @@
       <c r="JY82" s="3">
         <v>14371</v>
       </c>
-      <c r="JZ82" s="4">
+      <c r="JZ82" s="3">
         <v>14405</v>
       </c>
+      <c r="KA82" s="4">
+        <v>14384</v>
+      </c>
     </row>
-    <row r="83" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -67623,11 +67860,14 @@
       <c r="JY83" s="3">
         <v>13664</v>
       </c>
-      <c r="JZ83" s="4">
+      <c r="JZ83" s="3">
         <v>13882</v>
       </c>
+      <c r="KA83" s="4">
+        <v>13822</v>
+      </c>
     </row>
-    <row r="84" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -68481,11 +68721,14 @@
       <c r="JY84" s="3">
         <v>11796</v>
       </c>
-      <c r="JZ84" s="4">
+      <c r="JZ84" s="3">
         <v>11963</v>
       </c>
+      <c r="KA84" s="4">
+        <v>11893</v>
+      </c>
     </row>
-    <row r="85" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -69339,11 +69582,14 @@
       <c r="JY85" s="3">
         <v>10838</v>
       </c>
-      <c r="JZ85" s="4">
+      <c r="JZ85" s="3">
         <v>10928</v>
       </c>
+      <c r="KA85" s="4">
+        <v>10808</v>
+      </c>
     </row>
-    <row r="86" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -70017,9 +70263,10 @@
       </c>
       <c r="JX86" s="3"/>
       <c r="JY86" s="3"/>
-      <c r="JZ86" s="4"/>
+      <c r="JZ86" s="3"/>
+      <c r="KA86" s="4"/>
     </row>
-    <row r="87" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:287" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -70875,39 +71122,29 @@
       <c r="JY87" s="22">
         <v>1826575</v>
       </c>
-      <c r="JZ87" s="23">
+      <c r="JZ87" s="22">
         <v>1837975</v>
       </c>
+      <c r="KA87" s="23">
+        <v>1847731</v>
+      </c>
     </row>
-    <row r="88" spans="1:286" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
+    <row r="88" spans="1:287" x14ac:dyDescent="0.2">
+      <c r="A88" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
     </row>
-    <row r="89" spans="1:286" x14ac:dyDescent="0.2">
-      <c r="JZ89" s="24"/>
+    <row r="89" spans="1:287" x14ac:dyDescent="0.2">
+      <c r="KA89" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="JS5:JZ5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
+  <mergeCells count="28">
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -70924,6 +71161,18 @@
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
     <mergeCell ref="DS5:ED5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -15,14 +15,14 @@
     <sheet name="ta_división_edad" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_división_edad!$A$6:$KA$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_división_edad!$A$6:$KB$87</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-septiembre 2021</t>
+    <t>Enero 1998-octubre 2021</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -930,6 +930,9 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -939,23 +942,11 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1278,384 +1269,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KA89"/>
+  <dimension ref="A1:KB89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KC86" sqref="KC86"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KD22" sqref="KD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="287" width="11.85546875" style="1" customWidth="1"/>
-    <col min="288" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="288" width="11.85546875" style="1" customWidth="1"/>
+    <col min="289" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:287" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:288" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:287" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:287" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:288" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="31">
         <v>1998</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="30">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="31">
         <v>1999</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="30">
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="31">
         <v>2000</v>
       </c>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="30">
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="31">
         <v>2001</v>
       </c>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="31"/>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="31"/>
-      <c r="AV5" s="31"/>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="30">
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="31">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="31"/>
-      <c r="BB5" s="31"/>
-      <c r="BC5" s="31"/>
-      <c r="BD5" s="31"/>
-      <c r="BE5" s="31"/>
-      <c r="BF5" s="31"/>
-      <c r="BG5" s="31"/>
-      <c r="BH5" s="31"/>
-      <c r="BI5" s="31"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="30">
+      <c r="AZ5" s="32"/>
+      <c r="BA5" s="32"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="32"/>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="31">
         <v>2003</v>
       </c>
-      <c r="BL5" s="31"/>
-      <c r="BM5" s="31"/>
-      <c r="BN5" s="31"/>
-      <c r="BO5" s="31"/>
-      <c r="BP5" s="31"/>
-      <c r="BQ5" s="31"/>
-      <c r="BR5" s="31"/>
-      <c r="BS5" s="31"/>
-      <c r="BT5" s="31"/>
-      <c r="BU5" s="31"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="30">
+      <c r="BL5" s="32"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="32"/>
+      <c r="BS5" s="32"/>
+      <c r="BT5" s="32"/>
+      <c r="BU5" s="32"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="31">
         <v>2004</v>
       </c>
-      <c r="BX5" s="31"/>
-      <c r="BY5" s="31"/>
-      <c r="BZ5" s="31"/>
-      <c r="CA5" s="31"/>
-      <c r="CB5" s="31"/>
-      <c r="CC5" s="31"/>
-      <c r="CD5" s="31"/>
-      <c r="CE5" s="31"/>
-      <c r="CF5" s="31"/>
-      <c r="CG5" s="31"/>
-      <c r="CH5" s="32"/>
-      <c r="CI5" s="30">
+      <c r="BX5" s="32"/>
+      <c r="BY5" s="32"/>
+      <c r="BZ5" s="32"/>
+      <c r="CA5" s="32"/>
+      <c r="CB5" s="32"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="32"/>
+      <c r="CE5" s="32"/>
+      <c r="CF5" s="32"/>
+      <c r="CG5" s="32"/>
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="31">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="31"/>
-      <c r="CK5" s="31"/>
-      <c r="CL5" s="31"/>
-      <c r="CM5" s="31"/>
-      <c r="CN5" s="31"/>
-      <c r="CO5" s="31"/>
-      <c r="CP5" s="31"/>
-      <c r="CQ5" s="31"/>
-      <c r="CR5" s="31"/>
-      <c r="CS5" s="31"/>
-      <c r="CT5" s="32"/>
-      <c r="CU5" s="30">
+      <c r="CJ5" s="32"/>
+      <c r="CK5" s="32"/>
+      <c r="CL5" s="32"/>
+      <c r="CM5" s="32"/>
+      <c r="CN5" s="32"/>
+      <c r="CO5" s="32"/>
+      <c r="CP5" s="32"/>
+      <c r="CQ5" s="32"/>
+      <c r="CR5" s="32"/>
+      <c r="CS5" s="32"/>
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="31">
         <v>2006</v>
       </c>
-      <c r="CV5" s="31"/>
-      <c r="CW5" s="31"/>
-      <c r="CX5" s="31"/>
-      <c r="CY5" s="31"/>
-      <c r="CZ5" s="31"/>
-      <c r="DA5" s="31"/>
-      <c r="DB5" s="31"/>
-      <c r="DC5" s="31"/>
-      <c r="DD5" s="31"/>
-      <c r="DE5" s="31"/>
-      <c r="DF5" s="32"/>
-      <c r="DG5" s="30">
+      <c r="CV5" s="32"/>
+      <c r="CW5" s="32"/>
+      <c r="CX5" s="32"/>
+      <c r="CY5" s="32"/>
+      <c r="CZ5" s="32"/>
+      <c r="DA5" s="32"/>
+      <c r="DB5" s="32"/>
+      <c r="DC5" s="32"/>
+      <c r="DD5" s="32"/>
+      <c r="DE5" s="32"/>
+      <c r="DF5" s="33"/>
+      <c r="DG5" s="31">
         <v>2007</v>
       </c>
-      <c r="DH5" s="31"/>
-      <c r="DI5" s="31"/>
-      <c r="DJ5" s="31"/>
-      <c r="DK5" s="31"/>
-      <c r="DL5" s="31"/>
-      <c r="DM5" s="31"/>
-      <c r="DN5" s="31"/>
-      <c r="DO5" s="31"/>
-      <c r="DP5" s="31"/>
-      <c r="DQ5" s="31"/>
-      <c r="DR5" s="32"/>
-      <c r="DS5" s="30">
+      <c r="DH5" s="32"/>
+      <c r="DI5" s="32"/>
+      <c r="DJ5" s="32"/>
+      <c r="DK5" s="32"/>
+      <c r="DL5" s="32"/>
+      <c r="DM5" s="32"/>
+      <c r="DN5" s="32"/>
+      <c r="DO5" s="32"/>
+      <c r="DP5" s="32"/>
+      <c r="DQ5" s="32"/>
+      <c r="DR5" s="33"/>
+      <c r="DS5" s="31">
         <v>2008</v>
       </c>
-      <c r="DT5" s="31"/>
-      <c r="DU5" s="31"/>
-      <c r="DV5" s="31"/>
-      <c r="DW5" s="31"/>
-      <c r="DX5" s="31"/>
-      <c r="DY5" s="31"/>
-      <c r="DZ5" s="31"/>
-      <c r="EA5" s="31"/>
-      <c r="EB5" s="31"/>
-      <c r="EC5" s="31"/>
-      <c r="ED5" s="32"/>
-      <c r="EE5" s="30">
+      <c r="DT5" s="32"/>
+      <c r="DU5" s="32"/>
+      <c r="DV5" s="32"/>
+      <c r="DW5" s="32"/>
+      <c r="DX5" s="32"/>
+      <c r="DY5" s="32"/>
+      <c r="DZ5" s="32"/>
+      <c r="EA5" s="32"/>
+      <c r="EB5" s="32"/>
+      <c r="EC5" s="32"/>
+      <c r="ED5" s="33"/>
+      <c r="EE5" s="31">
         <v>2009</v>
       </c>
-      <c r="EF5" s="31"/>
-      <c r="EG5" s="31"/>
-      <c r="EH5" s="31"/>
-      <c r="EI5" s="31"/>
-      <c r="EJ5" s="31"/>
-      <c r="EK5" s="31"/>
-      <c r="EL5" s="31"/>
-      <c r="EM5" s="31"/>
-      <c r="EN5" s="31"/>
-      <c r="EO5" s="31"/>
-      <c r="EP5" s="32"/>
-      <c r="EQ5" s="30">
+      <c r="EF5" s="32"/>
+      <c r="EG5" s="32"/>
+      <c r="EH5" s="32"/>
+      <c r="EI5" s="32"/>
+      <c r="EJ5" s="32"/>
+      <c r="EK5" s="32"/>
+      <c r="EL5" s="32"/>
+      <c r="EM5" s="32"/>
+      <c r="EN5" s="32"/>
+      <c r="EO5" s="32"/>
+      <c r="EP5" s="33"/>
+      <c r="EQ5" s="31">
         <v>2010</v>
       </c>
-      <c r="ER5" s="31"/>
-      <c r="ES5" s="31"/>
-      <c r="ET5" s="31"/>
-      <c r="EU5" s="31"/>
-      <c r="EV5" s="31"/>
-      <c r="EW5" s="31"/>
-      <c r="EX5" s="31"/>
-      <c r="EY5" s="31"/>
-      <c r="EZ5" s="31"/>
-      <c r="FA5" s="31"/>
-      <c r="FB5" s="32"/>
-      <c r="FC5" s="30">
+      <c r="ER5" s="32"/>
+      <c r="ES5" s="32"/>
+      <c r="ET5" s="32"/>
+      <c r="EU5" s="32"/>
+      <c r="EV5" s="32"/>
+      <c r="EW5" s="32"/>
+      <c r="EX5" s="32"/>
+      <c r="EY5" s="32"/>
+      <c r="EZ5" s="32"/>
+      <c r="FA5" s="32"/>
+      <c r="FB5" s="33"/>
+      <c r="FC5" s="31">
         <v>2011</v>
       </c>
-      <c r="FD5" s="31"/>
-      <c r="FE5" s="31"/>
-      <c r="FF5" s="31"/>
-      <c r="FG5" s="31"/>
-      <c r="FH5" s="31"/>
-      <c r="FI5" s="31"/>
-      <c r="FJ5" s="31"/>
-      <c r="FK5" s="31"/>
-      <c r="FL5" s="31"/>
-      <c r="FM5" s="31"/>
-      <c r="FN5" s="32"/>
-      <c r="FO5" s="30">
+      <c r="FD5" s="32"/>
+      <c r="FE5" s="32"/>
+      <c r="FF5" s="32"/>
+      <c r="FG5" s="32"/>
+      <c r="FH5" s="32"/>
+      <c r="FI5" s="32"/>
+      <c r="FJ5" s="32"/>
+      <c r="FK5" s="32"/>
+      <c r="FL5" s="32"/>
+      <c r="FM5" s="32"/>
+      <c r="FN5" s="33"/>
+      <c r="FO5" s="31">
         <v>2012</v>
       </c>
-      <c r="FP5" s="31"/>
-      <c r="FQ5" s="31"/>
-      <c r="FR5" s="31"/>
-      <c r="FS5" s="31"/>
-      <c r="FT5" s="31"/>
-      <c r="FU5" s="31"/>
-      <c r="FV5" s="31"/>
-      <c r="FW5" s="31"/>
-      <c r="FX5" s="31"/>
-      <c r="FY5" s="31"/>
-      <c r="FZ5" s="32"/>
-      <c r="GA5" s="30">
+      <c r="FP5" s="32"/>
+      <c r="FQ5" s="32"/>
+      <c r="FR5" s="32"/>
+      <c r="FS5" s="32"/>
+      <c r="FT5" s="32"/>
+      <c r="FU5" s="32"/>
+      <c r="FV5" s="32"/>
+      <c r="FW5" s="32"/>
+      <c r="FX5" s="32"/>
+      <c r="FY5" s="32"/>
+      <c r="FZ5" s="33"/>
+      <c r="GA5" s="31">
         <v>2013</v>
       </c>
-      <c r="GB5" s="31"/>
-      <c r="GC5" s="31"/>
-      <c r="GD5" s="31"/>
-      <c r="GE5" s="31"/>
-      <c r="GF5" s="31"/>
-      <c r="GG5" s="31"/>
-      <c r="GH5" s="31"/>
-      <c r="GI5" s="31"/>
-      <c r="GJ5" s="31"/>
-      <c r="GK5" s="31"/>
-      <c r="GL5" s="32"/>
-      <c r="GM5" s="30">
+      <c r="GB5" s="32"/>
+      <c r="GC5" s="32"/>
+      <c r="GD5" s="32"/>
+      <c r="GE5" s="32"/>
+      <c r="GF5" s="32"/>
+      <c r="GG5" s="32"/>
+      <c r="GH5" s="32"/>
+      <c r="GI5" s="32"/>
+      <c r="GJ5" s="32"/>
+      <c r="GK5" s="32"/>
+      <c r="GL5" s="33"/>
+      <c r="GM5" s="31">
         <v>2014</v>
       </c>
-      <c r="GN5" s="31"/>
-      <c r="GO5" s="31"/>
-      <c r="GP5" s="31"/>
-      <c r="GQ5" s="31"/>
-      <c r="GR5" s="31"/>
-      <c r="GS5" s="31"/>
-      <c r="GT5" s="31"/>
-      <c r="GU5" s="31"/>
-      <c r="GV5" s="31"/>
-      <c r="GW5" s="31"/>
-      <c r="GX5" s="32"/>
-      <c r="GY5" s="30">
+      <c r="GN5" s="32"/>
+      <c r="GO5" s="32"/>
+      <c r="GP5" s="32"/>
+      <c r="GQ5" s="32"/>
+      <c r="GR5" s="32"/>
+      <c r="GS5" s="32"/>
+      <c r="GT5" s="32"/>
+      <c r="GU5" s="32"/>
+      <c r="GV5" s="32"/>
+      <c r="GW5" s="32"/>
+      <c r="GX5" s="33"/>
+      <c r="GY5" s="31">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="31"/>
-      <c r="HA5" s="31"/>
-      <c r="HB5" s="31"/>
-      <c r="HC5" s="31"/>
-      <c r="HD5" s="31"/>
-      <c r="HE5" s="31"/>
-      <c r="HF5" s="31"/>
-      <c r="HG5" s="31"/>
-      <c r="HH5" s="31"/>
-      <c r="HI5" s="31"/>
-      <c r="HJ5" s="32"/>
-      <c r="HK5" s="30">
+      <c r="GZ5" s="32"/>
+      <c r="HA5" s="32"/>
+      <c r="HB5" s="32"/>
+      <c r="HC5" s="32"/>
+      <c r="HD5" s="32"/>
+      <c r="HE5" s="32"/>
+      <c r="HF5" s="32"/>
+      <c r="HG5" s="32"/>
+      <c r="HH5" s="32"/>
+      <c r="HI5" s="32"/>
+      <c r="HJ5" s="33"/>
+      <c r="HK5" s="31">
         <v>2016</v>
       </c>
-      <c r="HL5" s="31"/>
-      <c r="HM5" s="31"/>
-      <c r="HN5" s="31"/>
-      <c r="HO5" s="31"/>
-      <c r="HP5" s="31"/>
-      <c r="HQ5" s="31"/>
-      <c r="HR5" s="31"/>
-      <c r="HS5" s="31"/>
-      <c r="HT5" s="31"/>
-      <c r="HU5" s="31"/>
-      <c r="HV5" s="32"/>
-      <c r="HW5" s="30">
+      <c r="HL5" s="32"/>
+      <c r="HM5" s="32"/>
+      <c r="HN5" s="32"/>
+      <c r="HO5" s="32"/>
+      <c r="HP5" s="32"/>
+      <c r="HQ5" s="32"/>
+      <c r="HR5" s="32"/>
+      <c r="HS5" s="32"/>
+      <c r="HT5" s="32"/>
+      <c r="HU5" s="32"/>
+      <c r="HV5" s="33"/>
+      <c r="HW5" s="31">
         <v>2017</v>
       </c>
-      <c r="HX5" s="31"/>
-      <c r="HY5" s="31"/>
-      <c r="HZ5" s="31"/>
-      <c r="IA5" s="31"/>
-      <c r="IB5" s="31"/>
-      <c r="IC5" s="31"/>
-      <c r="ID5" s="31"/>
-      <c r="IE5" s="31"/>
-      <c r="IF5" s="31"/>
-      <c r="IG5" s="31"/>
-      <c r="IH5" s="32"/>
-      <c r="II5" s="30">
+      <c r="HX5" s="32"/>
+      <c r="HY5" s="32"/>
+      <c r="HZ5" s="32"/>
+      <c r="IA5" s="32"/>
+      <c r="IB5" s="32"/>
+      <c r="IC5" s="32"/>
+      <c r="ID5" s="32"/>
+      <c r="IE5" s="32"/>
+      <c r="IF5" s="32"/>
+      <c r="IG5" s="32"/>
+      <c r="IH5" s="33"/>
+      <c r="II5" s="31">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="31"/>
-      <c r="IK5" s="31"/>
-      <c r="IL5" s="31"/>
-      <c r="IM5" s="31"/>
-      <c r="IN5" s="31"/>
-      <c r="IO5" s="31"/>
-      <c r="IP5" s="31"/>
-      <c r="IQ5" s="31"/>
-      <c r="IR5" s="31"/>
-      <c r="IS5" s="31"/>
-      <c r="IT5" s="32"/>
-      <c r="IU5" s="30">
+      <c r="IJ5" s="32"/>
+      <c r="IK5" s="32"/>
+      <c r="IL5" s="32"/>
+      <c r="IM5" s="32"/>
+      <c r="IN5" s="32"/>
+      <c r="IO5" s="32"/>
+      <c r="IP5" s="32"/>
+      <c r="IQ5" s="32"/>
+      <c r="IR5" s="32"/>
+      <c r="IS5" s="32"/>
+      <c r="IT5" s="33"/>
+      <c r="IU5" s="31">
         <v>2019</v>
       </c>
-      <c r="IV5" s="31"/>
-      <c r="IW5" s="31"/>
-      <c r="IX5" s="31"/>
-      <c r="IY5" s="31"/>
-      <c r="IZ5" s="31"/>
-      <c r="JA5" s="31"/>
-      <c r="JB5" s="31"/>
-      <c r="JC5" s="31"/>
-      <c r="JD5" s="31"/>
-      <c r="JE5" s="31"/>
-      <c r="JF5" s="32"/>
-      <c r="JG5" s="30">
+      <c r="IV5" s="32"/>
+      <c r="IW5" s="32"/>
+      <c r="IX5" s="32"/>
+      <c r="IY5" s="32"/>
+      <c r="IZ5" s="32"/>
+      <c r="JA5" s="32"/>
+      <c r="JB5" s="32"/>
+      <c r="JC5" s="32"/>
+      <c r="JD5" s="32"/>
+      <c r="JE5" s="32"/>
+      <c r="JF5" s="33"/>
+      <c r="JG5" s="31">
         <v>2020</v>
       </c>
-      <c r="JH5" s="31"/>
-      <c r="JI5" s="31"/>
-      <c r="JJ5" s="31"/>
-      <c r="JK5" s="31"/>
-      <c r="JL5" s="31"/>
-      <c r="JM5" s="31"/>
-      <c r="JN5" s="31"/>
-      <c r="JO5" s="31"/>
-      <c r="JP5" s="31"/>
-      <c r="JQ5" s="31"/>
-      <c r="JR5" s="32"/>
-      <c r="JS5" s="36">
+      <c r="JH5" s="32"/>
+      <c r="JI5" s="32"/>
+      <c r="JJ5" s="32"/>
+      <c r="JK5" s="32"/>
+      <c r="JL5" s="32"/>
+      <c r="JM5" s="32"/>
+      <c r="JN5" s="32"/>
+      <c r="JO5" s="32"/>
+      <c r="JP5" s="32"/>
+      <c r="JQ5" s="32"/>
+      <c r="JR5" s="33"/>
+      <c r="JS5" s="31">
         <v>2021</v>
       </c>
-      <c r="JT5" s="37"/>
-      <c r="JU5" s="37"/>
-      <c r="JV5" s="37"/>
-      <c r="JW5" s="37"/>
-      <c r="JX5" s="37"/>
-      <c r="JY5" s="37"/>
-      <c r="JZ5" s="37"/>
-      <c r="KA5" s="38"/>
+      <c r="JT5" s="32"/>
+      <c r="JU5" s="32"/>
+      <c r="JV5" s="32"/>
+      <c r="JW5" s="32"/>
+      <c r="JX5" s="32"/>
+      <c r="JY5" s="32"/>
+      <c r="JZ5" s="32"/>
+      <c r="KA5" s="32"/>
+      <c r="KB5" s="33"/>
     </row>
-    <row r="6" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="15" t="s">
@@ -2510,11 +2502,14 @@
       <c r="JZ6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="KA6" s="11" t="s">
+      <c r="KA6" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="KB6" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:287" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:288" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3373,11 +3368,14 @@
       <c r="JZ7" s="8">
         <v>112612</v>
       </c>
-      <c r="KA7" s="18">
+      <c r="KA7" s="8">
         <v>115046</v>
       </c>
+      <c r="KB7" s="18">
+        <v>117212</v>
+      </c>
     </row>
-    <row r="8" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4234,11 +4232,14 @@
       <c r="JZ8" s="3">
         <v>21210</v>
       </c>
-      <c r="KA8" s="4">
+      <c r="KA8" s="3">
         <v>21488</v>
       </c>
+      <c r="KB8" s="4">
+        <v>21701</v>
+      </c>
     </row>
-    <row r="9" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5095,11 +5096,14 @@
       <c r="JZ9" s="3">
         <v>5296</v>
       </c>
-      <c r="KA9" s="4">
+      <c r="KA9" s="3">
         <v>5475</v>
       </c>
+      <c r="KB9" s="4">
+        <v>5590</v>
+      </c>
     </row>
-    <row r="10" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -5956,11 +5960,14 @@
       <c r="JZ10" s="3">
         <v>17310</v>
       </c>
-      <c r="KA10" s="4">
+      <c r="KA10" s="3">
         <v>18195</v>
       </c>
+      <c r="KB10" s="4">
+        <v>18808</v>
+      </c>
     </row>
-    <row r="11" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -6817,11 +6824,14 @@
       <c r="JZ11" s="3">
         <v>17575</v>
       </c>
-      <c r="KA11" s="4">
+      <c r="KA11" s="3">
         <v>17951</v>
       </c>
+      <c r="KB11" s="4">
+        <v>18364</v>
+      </c>
     </row>
-    <row r="12" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7678,11 +7688,14 @@
       <c r="JZ12" s="3">
         <v>15340</v>
       </c>
-      <c r="KA12" s="4">
+      <c r="KA12" s="3">
         <v>15654</v>
       </c>
+      <c r="KB12" s="4">
+        <v>15946</v>
+      </c>
     </row>
-    <row r="13" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8539,11 +8552,14 @@
       <c r="JZ13" s="3">
         <v>13392</v>
       </c>
-      <c r="KA13" s="4">
+      <c r="KA13" s="3">
         <v>13648</v>
       </c>
+      <c r="KB13" s="4">
+        <v>13827</v>
+      </c>
     </row>
-    <row r="14" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9400,11 +9416,14 @@
       <c r="JZ14" s="3">
         <v>11501</v>
       </c>
-      <c r="KA14" s="4">
+      <c r="KA14" s="3">
         <v>11587</v>
       </c>
+      <c r="KB14" s="4">
+        <v>11774</v>
+      </c>
     </row>
-    <row r="15" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10261,11 +10280,14 @@
       <c r="JZ15" s="3">
         <v>10981</v>
       </c>
-      <c r="KA15" s="4">
+      <c r="KA15" s="3">
         <v>11042</v>
       </c>
+      <c r="KB15" s="4">
+        <v>11197</v>
+      </c>
     </row>
-    <row r="16" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11122,11 +11144,14 @@
       <c r="JZ16" s="3">
         <v>7</v>
       </c>
-      <c r="KA16" s="4">
+      <c r="KA16" s="3">
         <v>6</v>
       </c>
+      <c r="KB16" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -11985,11 +12010,14 @@
       <c r="JZ17" s="8">
         <v>382970</v>
       </c>
-      <c r="KA17" s="18">
+      <c r="KA17" s="8">
         <v>385474</v>
       </c>
+      <c r="KB17" s="18">
+        <v>388373</v>
+      </c>
     </row>
-    <row r="18" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -12846,11 +12874,14 @@
       <c r="JZ18" s="3">
         <v>56041</v>
       </c>
-      <c r="KA18" s="4">
+      <c r="KA18" s="3">
         <v>55651</v>
       </c>
+      <c r="KB18" s="4">
+        <v>55904</v>
+      </c>
     </row>
-    <row r="19" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -13707,11 +13738,14 @@
       <c r="JZ19" s="3">
         <v>12106</v>
       </c>
-      <c r="KA19" s="4">
+      <c r="KA19" s="3">
         <v>12321</v>
       </c>
+      <c r="KB19" s="4">
+        <v>12808</v>
+      </c>
     </row>
-    <row r="20" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -14568,11 +14602,14 @@
       <c r="JZ20" s="3">
         <v>53777</v>
       </c>
-      <c r="KA20" s="4">
+      <c r="KA20" s="3">
         <v>54384</v>
       </c>
+      <c r="KB20" s="4">
+        <v>54899</v>
+      </c>
     </row>
-    <row r="21" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -15429,11 +15466,14 @@
       <c r="JZ21" s="3">
         <v>65945</v>
       </c>
-      <c r="KA21" s="4">
+      <c r="KA21" s="3">
         <v>66311</v>
       </c>
+      <c r="KB21" s="4">
+        <v>66693</v>
+      </c>
     </row>
-    <row r="22" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16290,11 +16330,14 @@
       <c r="JZ22" s="3">
         <v>62187</v>
       </c>
-      <c r="KA22" s="4">
+      <c r="KA22" s="3">
         <v>62632</v>
       </c>
+      <c r="KB22" s="4">
+        <v>62908</v>
+      </c>
     </row>
-    <row r="23" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17151,11 +17194,14 @@
       <c r="JZ23" s="3">
         <v>53094</v>
       </c>
-      <c r="KA23" s="4">
+      <c r="KA23" s="3">
         <v>53596</v>
       </c>
+      <c r="KB23" s="4">
+        <v>54021</v>
+      </c>
     </row>
-    <row r="24" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18012,11 +18058,14 @@
       <c r="JZ24" s="3">
         <v>43126</v>
       </c>
-      <c r="KA24" s="4">
+      <c r="KA24" s="3">
         <v>43631</v>
       </c>
+      <c r="KB24" s="4">
+        <v>43944</v>
+      </c>
     </row>
-    <row r="25" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -18873,11 +18922,14 @@
       <c r="JZ25" s="3">
         <v>36691</v>
       </c>
-      <c r="KA25" s="4">
+      <c r="KA25" s="3">
         <v>36945</v>
       </c>
+      <c r="KB25" s="4">
+        <v>37193</v>
+      </c>
     </row>
-    <row r="26" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -19732,11 +19784,14 @@
       <c r="JZ26" s="3">
         <v>3</v>
       </c>
-      <c r="KA26" s="4">
+      <c r="KA26" s="3">
         <v>3</v>
       </c>
+      <c r="KB26" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -20595,11 +20650,14 @@
       <c r="JZ27" s="8">
         <v>139603</v>
       </c>
-      <c r="KA27" s="18">
+      <c r="KA27" s="8">
         <v>140812</v>
       </c>
+      <c r="KB27" s="18">
+        <v>141565</v>
+      </c>
     </row>
-    <row r="28" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -21456,11 +21514,14 @@
       <c r="JZ28" s="3">
         <v>24334</v>
       </c>
-      <c r="KA28" s="4">
+      <c r="KA28" s="3">
         <v>24426</v>
       </c>
+      <c r="KB28" s="4">
+        <v>24459</v>
+      </c>
     </row>
-    <row r="29" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -22317,11 +22378,14 @@
       <c r="JZ29" s="3">
         <v>5237</v>
       </c>
-      <c r="KA29" s="4">
+      <c r="KA29" s="3">
         <v>5266</v>
       </c>
+      <c r="KB29" s="4">
+        <v>5318</v>
+      </c>
     </row>
-    <row r="30" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -23178,11 +23242,14 @@
       <c r="JZ30" s="3">
         <v>18089</v>
       </c>
-      <c r="KA30" s="4">
+      <c r="KA30" s="3">
         <v>18075</v>
       </c>
+      <c r="KB30" s="4">
+        <v>18289</v>
+      </c>
     </row>
-    <row r="31" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -24039,11 +24106,14 @@
       <c r="JZ31" s="3">
         <v>22742</v>
       </c>
-      <c r="KA31" s="4">
+      <c r="KA31" s="3">
         <v>23022</v>
       </c>
+      <c r="KB31" s="4">
+        <v>23202</v>
+      </c>
     </row>
-    <row r="32" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -24900,11 +24970,14 @@
       <c r="JZ32" s="3">
         <v>21178</v>
       </c>
-      <c r="KA32" s="4">
+      <c r="KA32" s="3">
         <v>21340</v>
       </c>
+      <c r="KB32" s="4">
+        <v>21318</v>
+      </c>
     </row>
-    <row r="33" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -25761,11 +25834,14 @@
       <c r="JZ33" s="3">
         <v>18675</v>
       </c>
-      <c r="KA33" s="4">
+      <c r="KA33" s="3">
         <v>18972</v>
       </c>
+      <c r="KB33" s="4">
+        <v>18918</v>
+      </c>
     </row>
-    <row r="34" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -26622,11 +26698,14 @@
       <c r="JZ34" s="3">
         <v>15566</v>
       </c>
-      <c r="KA34" s="4">
+      <c r="KA34" s="3">
         <v>15786</v>
       </c>
+      <c r="KB34" s="4">
+        <v>16047</v>
+      </c>
     </row>
-    <row r="35" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -27483,11 +27562,14 @@
       <c r="JZ35" s="3">
         <v>13748</v>
       </c>
-      <c r="KA35" s="4">
+      <c r="KA35" s="3">
         <v>13895</v>
       </c>
+      <c r="KB35" s="4">
+        <v>13988</v>
+      </c>
     </row>
-    <row r="36" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -28344,11 +28426,14 @@
       <c r="JZ36" s="3">
         <v>34</v>
       </c>
-      <c r="KA36" s="4">
+      <c r="KA36" s="3">
         <v>30</v>
       </c>
+      <c r="KB36" s="4">
+        <v>26</v>
+      </c>
     </row>
-    <row r="37" spans="1:287" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:288" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -29207,11 +29292,14 @@
       <c r="JZ37" s="27">
         <v>9612</v>
       </c>
-      <c r="KA37" s="28">
+      <c r="KA37" s="27">
         <v>9562</v>
       </c>
+      <c r="KB37" s="28">
+        <v>9508</v>
+      </c>
     </row>
-    <row r="38" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -30068,11 +30156,14 @@
       <c r="JZ38" s="3">
         <v>1712</v>
       </c>
-      <c r="KA38" s="4">
+      <c r="KA38" s="3">
         <v>1703</v>
       </c>
+      <c r="KB38" s="4">
+        <v>1687</v>
+      </c>
     </row>
-    <row r="39" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -30929,11 +31020,14 @@
       <c r="JZ39" s="3">
         <v>62</v>
       </c>
-      <c r="KA39" s="4">
+      <c r="KA39" s="3">
         <v>57</v>
       </c>
+      <c r="KB39" s="4">
+        <v>57</v>
+      </c>
     </row>
-    <row r="40" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -31790,11 +31884,14 @@
       <c r="JZ40" s="3">
         <v>480</v>
       </c>
-      <c r="KA40" s="4">
+      <c r="KA40" s="3">
         <v>469</v>
       </c>
+      <c r="KB40" s="4">
+        <v>454</v>
+      </c>
     </row>
-    <row r="41" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -32651,11 +32748,14 @@
       <c r="JZ41" s="3">
         <v>997</v>
       </c>
-      <c r="KA41" s="4">
+      <c r="KA41" s="3">
         <v>1004</v>
       </c>
+      <c r="KB41" s="4">
+        <v>986</v>
+      </c>
     </row>
-    <row r="42" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -33512,11 +33612,14 @@
       <c r="JZ42" s="3">
         <v>1454</v>
       </c>
-      <c r="KA42" s="4">
+      <c r="KA42" s="3">
         <v>1453</v>
       </c>
+      <c r="KB42" s="4">
+        <v>1433</v>
+      </c>
     </row>
-    <row r="43" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -34373,11 +34476,14 @@
       <c r="JZ43" s="3">
         <v>1719</v>
       </c>
-      <c r="KA43" s="4">
+      <c r="KA43" s="3">
         <v>1717</v>
       </c>
+      <c r="KB43" s="4">
+        <v>1747</v>
+      </c>
     </row>
-    <row r="44" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -35234,11 +35340,14 @@
       <c r="JZ44" s="3">
         <v>1710</v>
       </c>
-      <c r="KA44" s="4">
+      <c r="KA44" s="3">
         <v>1700</v>
       </c>
+      <c r="KB44" s="4">
+        <v>1686</v>
+      </c>
     </row>
-    <row r="45" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -36095,11 +36204,14 @@
       <c r="JZ45" s="3">
         <v>1478</v>
       </c>
-      <c r="KA45" s="4">
+      <c r="KA45" s="3">
         <v>1459</v>
       </c>
+      <c r="KB45" s="4">
+        <v>1458</v>
+      </c>
     </row>
-    <row r="46" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -36512,9 +36624,10 @@
       <c r="JX46" s="3"/>
       <c r="JY46" s="3"/>
       <c r="JZ46" s="3"/>
-      <c r="KA46" s="4"/>
+      <c r="KA46" s="3"/>
+      <c r="KB46" s="4"/>
     </row>
-    <row r="47" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -37373,11 +37486,14 @@
       <c r="JZ47" s="8">
         <v>477017</v>
       </c>
-      <c r="KA47" s="18">
+      <c r="KA47" s="8">
         <v>480063</v>
       </c>
+      <c r="KB47" s="18">
+        <v>481695</v>
+      </c>
     </row>
-    <row r="48" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -38234,11 +38350,14 @@
       <c r="JZ48" s="3">
         <v>69008</v>
       </c>
-      <c r="KA48" s="4">
+      <c r="KA48" s="3">
         <v>69587</v>
       </c>
+      <c r="KB48" s="4">
+        <v>70164</v>
+      </c>
     </row>
-    <row r="49" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -39095,11 +39214,14 @@
       <c r="JZ49" s="3">
         <v>16393</v>
       </c>
-      <c r="KA49" s="4">
+      <c r="KA49" s="3">
         <v>16767</v>
       </c>
+      <c r="KB49" s="4">
+        <v>16757</v>
+      </c>
     </row>
-    <row r="50" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -39956,11 +40078,14 @@
       <c r="JZ50" s="3">
         <v>66507</v>
       </c>
-      <c r="KA50" s="4">
+      <c r="KA50" s="3">
         <v>66918</v>
       </c>
+      <c r="KB50" s="4">
+        <v>67183</v>
+      </c>
     </row>
-    <row r="51" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -40817,11 +40942,14 @@
       <c r="JZ51" s="3">
         <v>78863</v>
       </c>
-      <c r="KA51" s="4">
+      <c r="KA51" s="3">
         <v>79082</v>
       </c>
+      <c r="KB51" s="4">
+        <v>79265</v>
+      </c>
     </row>
-    <row r="52" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -41678,11 +41806,14 @@
       <c r="JZ52" s="3">
         <v>71767</v>
       </c>
-      <c r="KA52" s="4">
+      <c r="KA52" s="3">
         <v>72156</v>
       </c>
+      <c r="KB52" s="4">
+        <v>72436</v>
+      </c>
     </row>
-    <row r="53" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -42539,11 +42670,14 @@
       <c r="JZ53" s="3">
         <v>65247</v>
       </c>
-      <c r="KA53" s="4">
+      <c r="KA53" s="3">
         <v>65686</v>
       </c>
+      <c r="KB53" s="4">
+        <v>65808</v>
+      </c>
     </row>
-    <row r="54" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -43400,11 +43534,14 @@
       <c r="JZ54" s="3">
         <v>58505</v>
       </c>
-      <c r="KA54" s="4">
+      <c r="KA54" s="3">
         <v>58952</v>
       </c>
+      <c r="KB54" s="4">
+        <v>59109</v>
+      </c>
     </row>
-    <row r="55" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -44261,11 +44398,14 @@
       <c r="JZ55" s="3">
         <v>50720</v>
       </c>
-      <c r="KA55" s="4">
+      <c r="KA55" s="3">
         <v>50910</v>
       </c>
+      <c r="KB55" s="4">
+        <v>50969</v>
+      </c>
     </row>
-    <row r="56" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -45122,11 +45262,14 @@
       <c r="JZ56" s="3">
         <v>7</v>
       </c>
-      <c r="KA56" s="4">
+      <c r="KA56" s="3">
         <v>5</v>
       </c>
+      <c r="KB56" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="57" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -45985,11 +46128,14 @@
       <c r="JZ57" s="8">
         <v>2692</v>
       </c>
-      <c r="KA57" s="18">
+      <c r="KA57" s="8">
         <v>2640</v>
       </c>
+      <c r="KB57" s="18">
+        <v>2620</v>
+      </c>
     </row>
-    <row r="58" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -46846,11 +46992,14 @@
       <c r="JZ58" s="3">
         <v>498</v>
       </c>
-      <c r="KA58" s="4">
+      <c r="KA58" s="3">
         <v>490</v>
       </c>
+      <c r="KB58" s="4">
+        <v>485</v>
+      </c>
     </row>
-    <row r="59" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -47707,11 +47856,14 @@
       <c r="JZ59" s="3">
         <v>43</v>
       </c>
-      <c r="KA59" s="4">
+      <c r="KA59" s="3">
         <v>36</v>
       </c>
+      <c r="KB59" s="4">
+        <v>40</v>
+      </c>
     </row>
-    <row r="60" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -48568,11 +48720,14 @@
       <c r="JZ60" s="3">
         <v>252</v>
       </c>
-      <c r="KA60" s="4">
+      <c r="KA60" s="3">
         <v>251</v>
       </c>
+      <c r="KB60" s="4">
+        <v>242</v>
+      </c>
     </row>
-    <row r="61" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -49429,11 +49584,14 @@
       <c r="JZ61" s="3">
         <v>436</v>
       </c>
-      <c r="KA61" s="4">
+      <c r="KA61" s="3">
         <v>416</v>
       </c>
+      <c r="KB61" s="4">
+        <v>405</v>
+      </c>
     </row>
-    <row r="62" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -50290,11 +50448,14 @@
       <c r="JZ62" s="3">
         <v>457</v>
       </c>
-      <c r="KA62" s="4">
+      <c r="KA62" s="3">
         <v>449</v>
       </c>
+      <c r="KB62" s="4">
+        <v>448</v>
+      </c>
     </row>
-    <row r="63" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -51151,11 +51312,14 @@
       <c r="JZ63" s="3">
         <v>363</v>
       </c>
-      <c r="KA63" s="4">
+      <c r="KA63" s="3">
         <v>367</v>
       </c>
+      <c r="KB63" s="4">
+        <v>369</v>
+      </c>
     </row>
-    <row r="64" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -52012,11 +52176,14 @@
       <c r="JZ64" s="3">
         <v>356</v>
       </c>
-      <c r="KA64" s="4">
+      <c r="KA64" s="3">
         <v>348</v>
       </c>
+      <c r="KB64" s="4">
+        <v>342</v>
+      </c>
     </row>
-    <row r="65" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -52873,11 +53040,14 @@
       <c r="JZ65" s="3">
         <v>287</v>
       </c>
-      <c r="KA65" s="4">
+      <c r="KA65" s="3">
         <v>283</v>
       </c>
+      <c r="KB65" s="4">
+        <v>289</v>
+      </c>
     </row>
-    <row r="66" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -53224,9 +53394,10 @@
       <c r="JX66" s="3"/>
       <c r="JY66" s="3"/>
       <c r="JZ66" s="3"/>
-      <c r="KA66" s="4"/>
+      <c r="KA66" s="3"/>
+      <c r="KB66" s="4"/>
     </row>
-    <row r="67" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -54085,11 +54256,14 @@
       <c r="JZ67" s="8">
         <v>619137</v>
       </c>
-      <c r="KA67" s="18">
+      <c r="KA67" s="8">
         <v>619859</v>
       </c>
+      <c r="KB67" s="18">
+        <v>622204</v>
+      </c>
     </row>
-    <row r="68" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -54946,11 +55120,14 @@
       <c r="JZ68" s="3">
         <v>127371</v>
       </c>
-      <c r="KA68" s="4">
+      <c r="KA68" s="3">
         <v>129083</v>
       </c>
+      <c r="KB68" s="4">
+        <v>129347</v>
+      </c>
     </row>
-    <row r="69" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -55807,11 +55984,14 @@
       <c r="JZ69" s="3">
         <v>11520</v>
       </c>
-      <c r="KA69" s="4">
+      <c r="KA69" s="3">
         <v>11322</v>
       </c>
+      <c r="KB69" s="4">
+        <v>11438</v>
+      </c>
     </row>
-    <row r="70" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -56668,11 +56848,14 @@
       <c r="JZ70" s="3">
         <v>59505</v>
       </c>
-      <c r="KA70" s="4">
+      <c r="KA70" s="3">
         <v>59475</v>
       </c>
+      <c r="KB70" s="4">
+        <v>60256</v>
+      </c>
     </row>
-    <row r="71" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -57529,11 +57712,14 @@
       <c r="JZ71" s="3">
         <v>96776</v>
       </c>
-      <c r="KA71" s="4">
+      <c r="KA71" s="3">
         <v>96622</v>
       </c>
+      <c r="KB71" s="4">
+        <v>97197</v>
+      </c>
     </row>
-    <row r="72" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -58390,11 +58576,14 @@
       <c r="JZ72" s="3">
         <v>93188</v>
       </c>
-      <c r="KA72" s="4">
+      <c r="KA72" s="3">
         <v>92907</v>
       </c>
+      <c r="KB72" s="4">
+        <v>93291</v>
+      </c>
     </row>
-    <row r="73" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -59251,11 +59440,14 @@
       <c r="JZ73" s="3">
         <v>85525</v>
       </c>
-      <c r="KA73" s="4">
+      <c r="KA73" s="3">
         <v>85227</v>
       </c>
+      <c r="KB73" s="4">
+        <v>85343</v>
+      </c>
     </row>
-    <row r="74" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -60112,11 +60304,14 @@
       <c r="JZ74" s="3">
         <v>75857</v>
       </c>
-      <c r="KA74" s="4">
+      <c r="KA74" s="3">
         <v>75943</v>
       </c>
+      <c r="KB74" s="4">
+        <v>76200</v>
+      </c>
     </row>
-    <row r="75" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -60973,11 +61168,14 @@
       <c r="JZ75" s="3">
         <v>69392</v>
       </c>
-      <c r="KA75" s="4">
+      <c r="KA75" s="3">
         <v>69277</v>
       </c>
+      <c r="KB75" s="4">
+        <v>69130</v>
+      </c>
     </row>
-    <row r="76" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -61834,11 +62032,14 @@
       <c r="JZ76" s="3">
         <v>3</v>
       </c>
-      <c r="KA76" s="4">
+      <c r="KA76" s="3">
         <v>3</v>
       </c>
+      <c r="KB76" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="77" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -62697,11 +62898,14 @@
       <c r="JZ77" s="8">
         <v>94332</v>
       </c>
-      <c r="KA77" s="18">
+      <c r="KA77" s="8">
         <v>94275</v>
       </c>
+      <c r="KB77" s="18">
+        <v>95058</v>
+      </c>
     </row>
-    <row r="78" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -63558,11 +63762,14 @@
       <c r="JZ78" s="3">
         <v>16592</v>
       </c>
-      <c r="KA78" s="4">
+      <c r="KA78" s="3">
         <v>16590</v>
       </c>
+      <c r="KB78" s="4">
+        <v>16730</v>
+      </c>
     </row>
-    <row r="79" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -64419,11 +64626,14 @@
       <c r="JZ79" s="3">
         <v>1742</v>
       </c>
-      <c r="KA79" s="4">
+      <c r="KA79" s="3">
         <v>1790</v>
       </c>
+      <c r="KB79" s="4">
+        <v>1840</v>
+      </c>
     </row>
-    <row r="80" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -65280,11 +65490,14 @@
       <c r="JZ80" s="3">
         <v>10270</v>
       </c>
-      <c r="KA80" s="4">
+      <c r="KA80" s="3">
         <v>10476</v>
       </c>
+      <c r="KB80" s="4">
+        <v>10656</v>
+      </c>
     </row>
-    <row r="81" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -66141,11 +66354,14 @@
       <c r="JZ81" s="3">
         <v>14550</v>
       </c>
-      <c r="KA81" s="4">
+      <c r="KA81" s="3">
         <v>14512</v>
       </c>
+      <c r="KB81" s="4">
+        <v>14537</v>
+      </c>
     </row>
-    <row r="82" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -67002,11 +67218,14 @@
       <c r="JZ82" s="3">
         <v>14405</v>
       </c>
-      <c r="KA82" s="4">
+      <c r="KA82" s="3">
         <v>14384</v>
       </c>
+      <c r="KB82" s="4">
+        <v>14478</v>
+      </c>
     </row>
-    <row r="83" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -67863,11 +68082,14 @@
       <c r="JZ83" s="3">
         <v>13882</v>
       </c>
-      <c r="KA83" s="4">
+      <c r="KA83" s="3">
         <v>13822</v>
       </c>
+      <c r="KB83" s="4">
+        <v>13891</v>
+      </c>
     </row>
-    <row r="84" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -68724,11 +68946,14 @@
       <c r="JZ84" s="3">
         <v>11963</v>
       </c>
-      <c r="KA84" s="4">
+      <c r="KA84" s="3">
         <v>11893</v>
       </c>
+      <c r="KB84" s="4">
+        <v>11994</v>
+      </c>
     </row>
-    <row r="85" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -69585,11 +69810,14 @@
       <c r="JZ85" s="3">
         <v>10928</v>
       </c>
-      <c r="KA85" s="4">
+      <c r="KA85" s="3">
         <v>10808</v>
       </c>
+      <c r="KB85" s="4">
+        <v>10929</v>
+      </c>
     </row>
-    <row r="86" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -70264,9 +70492,12 @@
       <c r="JX86" s="3"/>
       <c r="JY86" s="3"/>
       <c r="JZ86" s="3"/>
-      <c r="KA86" s="4"/>
+      <c r="KA86" s="3"/>
+      <c r="KB86" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="87" spans="1:287" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -71125,26 +71356,42 @@
       <c r="JZ87" s="22">
         <v>1837975</v>
       </c>
-      <c r="KA87" s="23">
+      <c r="KA87" s="22">
         <v>1847731</v>
       </c>
+      <c r="KB87" s="23">
+        <v>1858235</v>
+      </c>
     </row>
-    <row r="88" spans="1:287" x14ac:dyDescent="0.2">
-      <c r="A88" s="33" t="s">
+    <row r="88" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="A88" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
     </row>
-    <row r="89" spans="1:287" x14ac:dyDescent="0.2">
-      <c r="KA89" s="24"/>
+    <row r="89" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="KB89" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="JS5:KB5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="IU5:JF5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -71161,18 +71408,6 @@
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
     <mergeCell ref="DS5:ED5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -15,14 +15,14 @@
     <sheet name="ta_división_edad" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_división_edad!$A$6:$KB$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_división_edad!$A$6:$KC$87</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-octubre 2021</t>
+    <t>Enero 1998-noviembre 2021</t>
   </si>
 </sst>
 </file>
@@ -930,9 +930,6 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -941,6 +938,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1269,385 +1269,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KB89"/>
+  <dimension ref="A1:KC89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KD22" sqref="KD22"/>
+      <selection pane="topRight" activeCell="KC88" sqref="KC88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="288" width="11.85546875" style="1" customWidth="1"/>
-    <col min="289" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="289" width="11.85546875" style="1" customWidth="1"/>
+    <col min="290" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:288" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:289" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:288" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:289" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
     </row>
-    <row r="3" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:288" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:289" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>1998</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="31">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="30">
         <v>1999</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="31">
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="30">
         <v>2000</v>
       </c>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="31">
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="30">
         <v>2001</v>
       </c>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="32"/>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="31">
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="31"/>
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="31"/>
+      <c r="AT5" s="31"/>
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="31"/>
+      <c r="AW5" s="31"/>
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="30">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="32"/>
-      <c r="BA5" s="32"/>
-      <c r="BB5" s="32"/>
-      <c r="BC5" s="32"/>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="31">
+      <c r="AZ5" s="31"/>
+      <c r="BA5" s="31"/>
+      <c r="BB5" s="31"/>
+      <c r="BC5" s="31"/>
+      <c r="BD5" s="31"/>
+      <c r="BE5" s="31"/>
+      <c r="BF5" s="31"/>
+      <c r="BG5" s="31"/>
+      <c r="BH5" s="31"/>
+      <c r="BI5" s="31"/>
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="30">
         <v>2003</v>
       </c>
-      <c r="BL5" s="32"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="32"/>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="32"/>
-      <c r="BR5" s="32"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="32"/>
-      <c r="BU5" s="32"/>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="31">
+      <c r="BL5" s="31"/>
+      <c r="BM5" s="31"/>
+      <c r="BN5" s="31"/>
+      <c r="BO5" s="31"/>
+      <c r="BP5" s="31"/>
+      <c r="BQ5" s="31"/>
+      <c r="BR5" s="31"/>
+      <c r="BS5" s="31"/>
+      <c r="BT5" s="31"/>
+      <c r="BU5" s="31"/>
+      <c r="BV5" s="32"/>
+      <c r="BW5" s="30">
         <v>2004</v>
       </c>
-      <c r="BX5" s="32"/>
-      <c r="BY5" s="32"/>
-      <c r="BZ5" s="32"/>
-      <c r="CA5" s="32"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="32"/>
-      <c r="CD5" s="32"/>
-      <c r="CE5" s="32"/>
-      <c r="CF5" s="32"/>
-      <c r="CG5" s="32"/>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="31">
+      <c r="BX5" s="31"/>
+      <c r="BY5" s="31"/>
+      <c r="BZ5" s="31"/>
+      <c r="CA5" s="31"/>
+      <c r="CB5" s="31"/>
+      <c r="CC5" s="31"/>
+      <c r="CD5" s="31"/>
+      <c r="CE5" s="31"/>
+      <c r="CF5" s="31"/>
+      <c r="CG5" s="31"/>
+      <c r="CH5" s="32"/>
+      <c r="CI5" s="30">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="32"/>
-      <c r="CK5" s="32"/>
-      <c r="CL5" s="32"/>
-      <c r="CM5" s="32"/>
-      <c r="CN5" s="32"/>
-      <c r="CO5" s="32"/>
-      <c r="CP5" s="32"/>
-      <c r="CQ5" s="32"/>
-      <c r="CR5" s="32"/>
-      <c r="CS5" s="32"/>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="31">
+      <c r="CJ5" s="31"/>
+      <c r="CK5" s="31"/>
+      <c r="CL5" s="31"/>
+      <c r="CM5" s="31"/>
+      <c r="CN5" s="31"/>
+      <c r="CO5" s="31"/>
+      <c r="CP5" s="31"/>
+      <c r="CQ5" s="31"/>
+      <c r="CR5" s="31"/>
+      <c r="CS5" s="31"/>
+      <c r="CT5" s="32"/>
+      <c r="CU5" s="30">
         <v>2006</v>
       </c>
-      <c r="CV5" s="32"/>
-      <c r="CW5" s="32"/>
-      <c r="CX5" s="32"/>
-      <c r="CY5" s="32"/>
-      <c r="CZ5" s="32"/>
-      <c r="DA5" s="32"/>
-      <c r="DB5" s="32"/>
-      <c r="DC5" s="32"/>
-      <c r="DD5" s="32"/>
-      <c r="DE5" s="32"/>
-      <c r="DF5" s="33"/>
-      <c r="DG5" s="31">
+      <c r="CV5" s="31"/>
+      <c r="CW5" s="31"/>
+      <c r="CX5" s="31"/>
+      <c r="CY5" s="31"/>
+      <c r="CZ5" s="31"/>
+      <c r="DA5" s="31"/>
+      <c r="DB5" s="31"/>
+      <c r="DC5" s="31"/>
+      <c r="DD5" s="31"/>
+      <c r="DE5" s="31"/>
+      <c r="DF5" s="32"/>
+      <c r="DG5" s="30">
         <v>2007</v>
       </c>
-      <c r="DH5" s="32"/>
-      <c r="DI5" s="32"/>
-      <c r="DJ5" s="32"/>
-      <c r="DK5" s="32"/>
-      <c r="DL5" s="32"/>
-      <c r="DM5" s="32"/>
-      <c r="DN5" s="32"/>
-      <c r="DO5" s="32"/>
-      <c r="DP5" s="32"/>
-      <c r="DQ5" s="32"/>
-      <c r="DR5" s="33"/>
-      <c r="DS5" s="31">
+      <c r="DH5" s="31"/>
+      <c r="DI5" s="31"/>
+      <c r="DJ5" s="31"/>
+      <c r="DK5" s="31"/>
+      <c r="DL5" s="31"/>
+      <c r="DM5" s="31"/>
+      <c r="DN5" s="31"/>
+      <c r="DO5" s="31"/>
+      <c r="DP5" s="31"/>
+      <c r="DQ5" s="31"/>
+      <c r="DR5" s="32"/>
+      <c r="DS5" s="30">
         <v>2008</v>
       </c>
-      <c r="DT5" s="32"/>
-      <c r="DU5" s="32"/>
-      <c r="DV5" s="32"/>
-      <c r="DW5" s="32"/>
-      <c r="DX5" s="32"/>
-      <c r="DY5" s="32"/>
-      <c r="DZ5" s="32"/>
-      <c r="EA5" s="32"/>
-      <c r="EB5" s="32"/>
-      <c r="EC5" s="32"/>
-      <c r="ED5" s="33"/>
-      <c r="EE5" s="31">
+      <c r="DT5" s="31"/>
+      <c r="DU5" s="31"/>
+      <c r="DV5" s="31"/>
+      <c r="DW5" s="31"/>
+      <c r="DX5" s="31"/>
+      <c r="DY5" s="31"/>
+      <c r="DZ5" s="31"/>
+      <c r="EA5" s="31"/>
+      <c r="EB5" s="31"/>
+      <c r="EC5" s="31"/>
+      <c r="ED5" s="32"/>
+      <c r="EE5" s="30">
         <v>2009</v>
       </c>
-      <c r="EF5" s="32"/>
-      <c r="EG5" s="32"/>
-      <c r="EH5" s="32"/>
-      <c r="EI5" s="32"/>
-      <c r="EJ5" s="32"/>
-      <c r="EK5" s="32"/>
-      <c r="EL5" s="32"/>
-      <c r="EM5" s="32"/>
-      <c r="EN5" s="32"/>
-      <c r="EO5" s="32"/>
-      <c r="EP5" s="33"/>
-      <c r="EQ5" s="31">
+      <c r="EF5" s="31"/>
+      <c r="EG5" s="31"/>
+      <c r="EH5" s="31"/>
+      <c r="EI5" s="31"/>
+      <c r="EJ5" s="31"/>
+      <c r="EK5" s="31"/>
+      <c r="EL5" s="31"/>
+      <c r="EM5" s="31"/>
+      <c r="EN5" s="31"/>
+      <c r="EO5" s="31"/>
+      <c r="EP5" s="32"/>
+      <c r="EQ5" s="30">
         <v>2010</v>
       </c>
-      <c r="ER5" s="32"/>
-      <c r="ES5" s="32"/>
-      <c r="ET5" s="32"/>
-      <c r="EU5" s="32"/>
-      <c r="EV5" s="32"/>
-      <c r="EW5" s="32"/>
-      <c r="EX5" s="32"/>
-      <c r="EY5" s="32"/>
-      <c r="EZ5" s="32"/>
-      <c r="FA5" s="32"/>
-      <c r="FB5" s="33"/>
-      <c r="FC5" s="31">
+      <c r="ER5" s="31"/>
+      <c r="ES5" s="31"/>
+      <c r="ET5" s="31"/>
+      <c r="EU5" s="31"/>
+      <c r="EV5" s="31"/>
+      <c r="EW5" s="31"/>
+      <c r="EX5" s="31"/>
+      <c r="EY5" s="31"/>
+      <c r="EZ5" s="31"/>
+      <c r="FA5" s="31"/>
+      <c r="FB5" s="32"/>
+      <c r="FC5" s="30">
         <v>2011</v>
       </c>
-      <c r="FD5" s="32"/>
-      <c r="FE5" s="32"/>
-      <c r="FF5" s="32"/>
-      <c r="FG5" s="32"/>
-      <c r="FH5" s="32"/>
-      <c r="FI5" s="32"/>
-      <c r="FJ5" s="32"/>
-      <c r="FK5" s="32"/>
-      <c r="FL5" s="32"/>
-      <c r="FM5" s="32"/>
-      <c r="FN5" s="33"/>
-      <c r="FO5" s="31">
+      <c r="FD5" s="31"/>
+      <c r="FE5" s="31"/>
+      <c r="FF5" s="31"/>
+      <c r="FG5" s="31"/>
+      <c r="FH5" s="31"/>
+      <c r="FI5" s="31"/>
+      <c r="FJ5" s="31"/>
+      <c r="FK5" s="31"/>
+      <c r="FL5" s="31"/>
+      <c r="FM5" s="31"/>
+      <c r="FN5" s="32"/>
+      <c r="FO5" s="30">
         <v>2012</v>
       </c>
-      <c r="FP5" s="32"/>
-      <c r="FQ5" s="32"/>
-      <c r="FR5" s="32"/>
-      <c r="FS5" s="32"/>
-      <c r="FT5" s="32"/>
-      <c r="FU5" s="32"/>
-      <c r="FV5" s="32"/>
-      <c r="FW5" s="32"/>
-      <c r="FX5" s="32"/>
-      <c r="FY5" s="32"/>
-      <c r="FZ5" s="33"/>
-      <c r="GA5" s="31">
+      <c r="FP5" s="31"/>
+      <c r="FQ5" s="31"/>
+      <c r="FR5" s="31"/>
+      <c r="FS5" s="31"/>
+      <c r="FT5" s="31"/>
+      <c r="FU5" s="31"/>
+      <c r="FV5" s="31"/>
+      <c r="FW5" s="31"/>
+      <c r="FX5" s="31"/>
+      <c r="FY5" s="31"/>
+      <c r="FZ5" s="32"/>
+      <c r="GA5" s="30">
         <v>2013</v>
       </c>
-      <c r="GB5" s="32"/>
-      <c r="GC5" s="32"/>
-      <c r="GD5" s="32"/>
-      <c r="GE5" s="32"/>
-      <c r="GF5" s="32"/>
-      <c r="GG5" s="32"/>
-      <c r="GH5" s="32"/>
-      <c r="GI5" s="32"/>
-      <c r="GJ5" s="32"/>
-      <c r="GK5" s="32"/>
-      <c r="GL5" s="33"/>
-      <c r="GM5" s="31">
+      <c r="GB5" s="31"/>
+      <c r="GC5" s="31"/>
+      <c r="GD5" s="31"/>
+      <c r="GE5" s="31"/>
+      <c r="GF5" s="31"/>
+      <c r="GG5" s="31"/>
+      <c r="GH5" s="31"/>
+      <c r="GI5" s="31"/>
+      <c r="GJ5" s="31"/>
+      <c r="GK5" s="31"/>
+      <c r="GL5" s="32"/>
+      <c r="GM5" s="30">
         <v>2014</v>
       </c>
-      <c r="GN5" s="32"/>
-      <c r="GO5" s="32"/>
-      <c r="GP5" s="32"/>
-      <c r="GQ5" s="32"/>
-      <c r="GR5" s="32"/>
-      <c r="GS5" s="32"/>
-      <c r="GT5" s="32"/>
-      <c r="GU5" s="32"/>
-      <c r="GV5" s="32"/>
-      <c r="GW5" s="32"/>
-      <c r="GX5" s="33"/>
-      <c r="GY5" s="31">
+      <c r="GN5" s="31"/>
+      <c r="GO5" s="31"/>
+      <c r="GP5" s="31"/>
+      <c r="GQ5" s="31"/>
+      <c r="GR5" s="31"/>
+      <c r="GS5" s="31"/>
+      <c r="GT5" s="31"/>
+      <c r="GU5" s="31"/>
+      <c r="GV5" s="31"/>
+      <c r="GW5" s="31"/>
+      <c r="GX5" s="32"/>
+      <c r="GY5" s="30">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="32"/>
-      <c r="HA5" s="32"/>
-      <c r="HB5" s="32"/>
-      <c r="HC5" s="32"/>
-      <c r="HD5" s="32"/>
-      <c r="HE5" s="32"/>
-      <c r="HF5" s="32"/>
-      <c r="HG5" s="32"/>
-      <c r="HH5" s="32"/>
-      <c r="HI5" s="32"/>
-      <c r="HJ5" s="33"/>
-      <c r="HK5" s="31">
+      <c r="GZ5" s="31"/>
+      <c r="HA5" s="31"/>
+      <c r="HB5" s="31"/>
+      <c r="HC5" s="31"/>
+      <c r="HD5" s="31"/>
+      <c r="HE5" s="31"/>
+      <c r="HF5" s="31"/>
+      <c r="HG5" s="31"/>
+      <c r="HH5" s="31"/>
+      <c r="HI5" s="31"/>
+      <c r="HJ5" s="32"/>
+      <c r="HK5" s="30">
         <v>2016</v>
       </c>
-      <c r="HL5" s="32"/>
-      <c r="HM5" s="32"/>
-      <c r="HN5" s="32"/>
-      <c r="HO5" s="32"/>
-      <c r="HP5" s="32"/>
-      <c r="HQ5" s="32"/>
-      <c r="HR5" s="32"/>
-      <c r="HS5" s="32"/>
-      <c r="HT5" s="32"/>
-      <c r="HU5" s="32"/>
-      <c r="HV5" s="33"/>
-      <c r="HW5" s="31">
+      <c r="HL5" s="31"/>
+      <c r="HM5" s="31"/>
+      <c r="HN5" s="31"/>
+      <c r="HO5" s="31"/>
+      <c r="HP5" s="31"/>
+      <c r="HQ5" s="31"/>
+      <c r="HR5" s="31"/>
+      <c r="HS5" s="31"/>
+      <c r="HT5" s="31"/>
+      <c r="HU5" s="31"/>
+      <c r="HV5" s="32"/>
+      <c r="HW5" s="30">
         <v>2017</v>
       </c>
-      <c r="HX5" s="32"/>
-      <c r="HY5" s="32"/>
-      <c r="HZ5" s="32"/>
-      <c r="IA5" s="32"/>
-      <c r="IB5" s="32"/>
-      <c r="IC5" s="32"/>
-      <c r="ID5" s="32"/>
-      <c r="IE5" s="32"/>
-      <c r="IF5" s="32"/>
-      <c r="IG5" s="32"/>
-      <c r="IH5" s="33"/>
-      <c r="II5" s="31">
+      <c r="HX5" s="31"/>
+      <c r="HY5" s="31"/>
+      <c r="HZ5" s="31"/>
+      <c r="IA5" s="31"/>
+      <c r="IB5" s="31"/>
+      <c r="IC5" s="31"/>
+      <c r="ID5" s="31"/>
+      <c r="IE5" s="31"/>
+      <c r="IF5" s="31"/>
+      <c r="IG5" s="31"/>
+      <c r="IH5" s="32"/>
+      <c r="II5" s="30">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="32"/>
-      <c r="IK5" s="32"/>
-      <c r="IL5" s="32"/>
-      <c r="IM5" s="32"/>
-      <c r="IN5" s="32"/>
-      <c r="IO5" s="32"/>
-      <c r="IP5" s="32"/>
-      <c r="IQ5" s="32"/>
-      <c r="IR5" s="32"/>
-      <c r="IS5" s="32"/>
-      <c r="IT5" s="33"/>
-      <c r="IU5" s="31">
+      <c r="IJ5" s="31"/>
+      <c r="IK5" s="31"/>
+      <c r="IL5" s="31"/>
+      <c r="IM5" s="31"/>
+      <c r="IN5" s="31"/>
+      <c r="IO5" s="31"/>
+      <c r="IP5" s="31"/>
+      <c r="IQ5" s="31"/>
+      <c r="IR5" s="31"/>
+      <c r="IS5" s="31"/>
+      <c r="IT5" s="32"/>
+      <c r="IU5" s="30">
         <v>2019</v>
       </c>
-      <c r="IV5" s="32"/>
-      <c r="IW5" s="32"/>
-      <c r="IX5" s="32"/>
-      <c r="IY5" s="32"/>
-      <c r="IZ5" s="32"/>
-      <c r="JA5" s="32"/>
-      <c r="JB5" s="32"/>
-      <c r="JC5" s="32"/>
-      <c r="JD5" s="32"/>
-      <c r="JE5" s="32"/>
-      <c r="JF5" s="33"/>
-      <c r="JG5" s="31">
+      <c r="IV5" s="31"/>
+      <c r="IW5" s="31"/>
+      <c r="IX5" s="31"/>
+      <c r="IY5" s="31"/>
+      <c r="IZ5" s="31"/>
+      <c r="JA5" s="31"/>
+      <c r="JB5" s="31"/>
+      <c r="JC5" s="31"/>
+      <c r="JD5" s="31"/>
+      <c r="JE5" s="31"/>
+      <c r="JF5" s="32"/>
+      <c r="JG5" s="30">
         <v>2020</v>
       </c>
-      <c r="JH5" s="32"/>
-      <c r="JI5" s="32"/>
-      <c r="JJ5" s="32"/>
-      <c r="JK5" s="32"/>
-      <c r="JL5" s="32"/>
-      <c r="JM5" s="32"/>
-      <c r="JN5" s="32"/>
-      <c r="JO5" s="32"/>
-      <c r="JP5" s="32"/>
-      <c r="JQ5" s="32"/>
-      <c r="JR5" s="33"/>
-      <c r="JS5" s="31">
+      <c r="JH5" s="31"/>
+      <c r="JI5" s="31"/>
+      <c r="JJ5" s="31"/>
+      <c r="JK5" s="31"/>
+      <c r="JL5" s="31"/>
+      <c r="JM5" s="31"/>
+      <c r="JN5" s="31"/>
+      <c r="JO5" s="31"/>
+      <c r="JP5" s="31"/>
+      <c r="JQ5" s="31"/>
+      <c r="JR5" s="32"/>
+      <c r="JS5" s="30">
         <v>2021</v>
       </c>
-      <c r="JT5" s="32"/>
-      <c r="JU5" s="32"/>
-      <c r="JV5" s="32"/>
-      <c r="JW5" s="32"/>
-      <c r="JX5" s="32"/>
-      <c r="JY5" s="32"/>
-      <c r="JZ5" s="32"/>
-      <c r="KA5" s="32"/>
-      <c r="KB5" s="33"/>
+      <c r="JT5" s="31"/>
+      <c r="JU5" s="31"/>
+      <c r="JV5" s="31"/>
+      <c r="JW5" s="31"/>
+      <c r="JX5" s="31"/>
+      <c r="JY5" s="31"/>
+      <c r="JZ5" s="31"/>
+      <c r="KA5" s="31"/>
+      <c r="KB5" s="31"/>
+      <c r="KC5" s="32"/>
     </row>
-    <row r="6" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="15" t="s">
@@ -2505,11 +2506,14 @@
       <c r="KA6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="KB6" s="11" t="s">
+      <c r="KB6" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="KC6" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:288" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:289" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3371,11 +3375,14 @@
       <c r="KA7" s="8">
         <v>115046</v>
       </c>
-      <c r="KB7" s="18">
+      <c r="KB7" s="8">
         <v>117212</v>
       </c>
+      <c r="KC7" s="18">
+        <v>119220</v>
+      </c>
     </row>
-    <row r="8" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4235,11 +4242,14 @@
       <c r="KA8" s="3">
         <v>21488</v>
       </c>
-      <c r="KB8" s="4">
+      <c r="KB8" s="3">
         <v>21701</v>
       </c>
+      <c r="KC8" s="4">
+        <v>22065</v>
+      </c>
     </row>
-    <row r="9" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5099,11 +5109,14 @@
       <c r="KA9" s="3">
         <v>5475</v>
       </c>
-      <c r="KB9" s="4">
+      <c r="KB9" s="3">
         <v>5590</v>
       </c>
+      <c r="KC9" s="4">
+        <v>5653</v>
+      </c>
     </row>
-    <row r="10" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -5963,11 +5976,14 @@
       <c r="KA10" s="3">
         <v>18195</v>
       </c>
-      <c r="KB10" s="4">
+      <c r="KB10" s="3">
         <v>18808</v>
       </c>
+      <c r="KC10" s="4">
+        <v>19188</v>
+      </c>
     </row>
-    <row r="11" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -6827,11 +6843,14 @@
       <c r="KA11" s="3">
         <v>17951</v>
       </c>
-      <c r="KB11" s="4">
+      <c r="KB11" s="3">
         <v>18364</v>
       </c>
+      <c r="KC11" s="4">
+        <v>18649</v>
+      </c>
     </row>
-    <row r="12" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7691,11 +7710,14 @@
       <c r="KA12" s="3">
         <v>15654</v>
       </c>
-      <c r="KB12" s="4">
+      <c r="KB12" s="3">
         <v>15946</v>
       </c>
+      <c r="KC12" s="4">
+        <v>16203</v>
+      </c>
     </row>
-    <row r="13" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8555,11 +8577,14 @@
       <c r="KA13" s="3">
         <v>13648</v>
       </c>
-      <c r="KB13" s="4">
+      <c r="KB13" s="3">
         <v>13827</v>
       </c>
+      <c r="KC13" s="4">
+        <v>14015</v>
+      </c>
     </row>
-    <row r="14" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9419,11 +9444,14 @@
       <c r="KA14" s="3">
         <v>11587</v>
       </c>
-      <c r="KB14" s="4">
+      <c r="KB14" s="3">
         <v>11774</v>
       </c>
+      <c r="KC14" s="4">
+        <v>12041</v>
+      </c>
     </row>
-    <row r="15" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10283,11 +10311,14 @@
       <c r="KA15" s="3">
         <v>11042</v>
       </c>
-      <c r="KB15" s="4">
+      <c r="KB15" s="3">
         <v>11197</v>
       </c>
+      <c r="KC15" s="4">
+        <v>11400</v>
+      </c>
     </row>
-    <row r="16" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11147,11 +11178,14 @@
       <c r="KA16" s="3">
         <v>6</v>
       </c>
-      <c r="KB16" s="4">
+      <c r="KB16" s="3">
         <v>5</v>
       </c>
+      <c r="KC16" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12013,11 +12047,14 @@
       <c r="KA17" s="8">
         <v>385474</v>
       </c>
-      <c r="KB17" s="18">
+      <c r="KB17" s="8">
         <v>388373</v>
       </c>
+      <c r="KC17" s="18">
+        <v>391234</v>
+      </c>
     </row>
-    <row r="18" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -12877,11 +12914,14 @@
       <c r="KA18" s="3">
         <v>55651</v>
       </c>
-      <c r="KB18" s="4">
+      <c r="KB18" s="3">
         <v>55904</v>
       </c>
+      <c r="KC18" s="4">
+        <v>56225</v>
+      </c>
     </row>
-    <row r="19" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -13741,11 +13781,14 @@
       <c r="KA19" s="3">
         <v>12321</v>
       </c>
-      <c r="KB19" s="4">
+      <c r="KB19" s="3">
         <v>12808</v>
       </c>
+      <c r="KC19" s="4">
+        <v>13095</v>
+      </c>
     </row>
-    <row r="20" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -14605,11 +14648,14 @@
       <c r="KA20" s="3">
         <v>54384</v>
       </c>
-      <c r="KB20" s="4">
+      <c r="KB20" s="3">
         <v>54899</v>
       </c>
+      <c r="KC20" s="4">
+        <v>56068</v>
+      </c>
     </row>
-    <row r="21" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -15469,11 +15515,14 @@
       <c r="KA21" s="3">
         <v>66311</v>
       </c>
-      <c r="KB21" s="4">
+      <c r="KB21" s="3">
         <v>66693</v>
       </c>
+      <c r="KC21" s="4">
+        <v>67048</v>
+      </c>
     </row>
-    <row r="22" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16333,11 +16382,14 @@
       <c r="KA22" s="3">
         <v>62632</v>
       </c>
-      <c r="KB22" s="4">
+      <c r="KB22" s="3">
         <v>62908</v>
       </c>
+      <c r="KC22" s="4">
+        <v>63243</v>
+      </c>
     </row>
-    <row r="23" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17197,11 +17249,14 @@
       <c r="KA23" s="3">
         <v>53596</v>
       </c>
-      <c r="KB23" s="4">
+      <c r="KB23" s="3">
         <v>54021</v>
       </c>
+      <c r="KC23" s="4">
+        <v>54155</v>
+      </c>
     </row>
-    <row r="24" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18061,11 +18116,14 @@
       <c r="KA24" s="3">
         <v>43631</v>
       </c>
-      <c r="KB24" s="4">
+      <c r="KB24" s="3">
         <v>43944</v>
       </c>
+      <c r="KC24" s="4">
+        <v>44130</v>
+      </c>
     </row>
-    <row r="25" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -18925,11 +18983,14 @@
       <c r="KA25" s="3">
         <v>36945</v>
       </c>
-      <c r="KB25" s="4">
+      <c r="KB25" s="3">
         <v>37193</v>
       </c>
+      <c r="KC25" s="4">
+        <v>37269</v>
+      </c>
     </row>
-    <row r="26" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -19787,11 +19848,14 @@
       <c r="KA26" s="3">
         <v>3</v>
       </c>
-      <c r="KB26" s="4">
+      <c r="KB26" s="3">
         <v>3</v>
       </c>
+      <c r="KC26" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -20653,11 +20717,14 @@
       <c r="KA27" s="8">
         <v>140812</v>
       </c>
-      <c r="KB27" s="18">
+      <c r="KB27" s="8">
         <v>141565</v>
       </c>
+      <c r="KC27" s="18">
+        <v>141823</v>
+      </c>
     </row>
-    <row r="28" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -21517,11 +21584,14 @@
       <c r="KA28" s="3">
         <v>24426</v>
       </c>
-      <c r="KB28" s="4">
+      <c r="KB28" s="3">
         <v>24459</v>
       </c>
+      <c r="KC28" s="4">
+        <v>24615</v>
+      </c>
     </row>
-    <row r="29" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -22381,11 +22451,14 @@
       <c r="KA29" s="3">
         <v>5266</v>
       </c>
-      <c r="KB29" s="4">
+      <c r="KB29" s="3">
         <v>5318</v>
       </c>
+      <c r="KC29" s="4">
+        <v>5216</v>
+      </c>
     </row>
-    <row r="30" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -23245,11 +23318,14 @@
       <c r="KA30" s="3">
         <v>18075</v>
       </c>
-      <c r="KB30" s="4">
+      <c r="KB30" s="3">
         <v>18289</v>
       </c>
+      <c r="KC30" s="4">
+        <v>18301</v>
+      </c>
     </row>
-    <row r="31" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -24109,11 +24185,14 @@
       <c r="KA31" s="3">
         <v>23022</v>
       </c>
-      <c r="KB31" s="4">
+      <c r="KB31" s="3">
         <v>23202</v>
       </c>
+      <c r="KC31" s="4">
+        <v>23269</v>
+      </c>
     </row>
-    <row r="32" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -24973,11 +25052,14 @@
       <c r="KA32" s="3">
         <v>21340</v>
       </c>
-      <c r="KB32" s="4">
+      <c r="KB32" s="3">
         <v>21318</v>
       </c>
+      <c r="KC32" s="4">
+        <v>21304</v>
+      </c>
     </row>
-    <row r="33" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -25837,11 +25919,14 @@
       <c r="KA33" s="3">
         <v>18972</v>
       </c>
-      <c r="KB33" s="4">
+      <c r="KB33" s="3">
         <v>18918</v>
       </c>
+      <c r="KC33" s="4">
+        <v>18917</v>
+      </c>
     </row>
-    <row r="34" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -26701,11 +26786,14 @@
       <c r="KA34" s="3">
         <v>15786</v>
       </c>
-      <c r="KB34" s="4">
+      <c r="KB34" s="3">
         <v>16047</v>
       </c>
+      <c r="KC34" s="4">
+        <v>16086</v>
+      </c>
     </row>
-    <row r="35" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -27565,11 +27653,14 @@
       <c r="KA35" s="3">
         <v>13895</v>
       </c>
-      <c r="KB35" s="4">
+      <c r="KB35" s="3">
         <v>13988</v>
       </c>
+      <c r="KC35" s="4">
+        <v>14094</v>
+      </c>
     </row>
-    <row r="36" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -28429,11 +28520,14 @@
       <c r="KA36" s="3">
         <v>30</v>
       </c>
-      <c r="KB36" s="4">
+      <c r="KB36" s="3">
         <v>26</v>
       </c>
+      <c r="KC36" s="4">
+        <v>21</v>
+      </c>
     </row>
-    <row r="37" spans="1:288" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:289" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -29295,11 +29389,14 @@
       <c r="KA37" s="27">
         <v>9562</v>
       </c>
-      <c r="KB37" s="28">
+      <c r="KB37" s="27">
         <v>9508</v>
       </c>
+      <c r="KC37" s="28">
+        <v>9570</v>
+      </c>
     </row>
-    <row r="38" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -30159,11 +30256,14 @@
       <c r="KA38" s="3">
         <v>1703</v>
       </c>
-      <c r="KB38" s="4">
+      <c r="KB38" s="3">
         <v>1687</v>
       </c>
+      <c r="KC38" s="4">
+        <v>1702</v>
+      </c>
     </row>
-    <row r="39" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -31023,11 +31123,14 @@
       <c r="KA39" s="3">
         <v>57</v>
       </c>
-      <c r="KB39" s="4">
+      <c r="KB39" s="3">
         <v>57</v>
       </c>
+      <c r="KC39" s="4">
+        <v>58</v>
+      </c>
     </row>
-    <row r="40" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -31887,11 +31990,14 @@
       <c r="KA40" s="3">
         <v>469</v>
       </c>
-      <c r="KB40" s="4">
+      <c r="KB40" s="3">
         <v>454</v>
       </c>
+      <c r="KC40" s="4">
+        <v>454</v>
+      </c>
     </row>
-    <row r="41" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -32751,11 +32857,14 @@
       <c r="KA41" s="3">
         <v>1004</v>
       </c>
-      <c r="KB41" s="4">
+      <c r="KB41" s="3">
         <v>986</v>
       </c>
+      <c r="KC41" s="4">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="42" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -33615,11 +33724,14 @@
       <c r="KA42" s="3">
         <v>1453</v>
       </c>
-      <c r="KB42" s="4">
+      <c r="KB42" s="3">
         <v>1433</v>
       </c>
+      <c r="KC42" s="4">
+        <v>1435</v>
+      </c>
     </row>
-    <row r="43" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -34479,11 +34591,14 @@
       <c r="KA43" s="3">
         <v>1717</v>
       </c>
-      <c r="KB43" s="4">
+      <c r="KB43" s="3">
         <v>1747</v>
       </c>
+      <c r="KC43" s="4">
+        <v>1770</v>
+      </c>
     </row>
-    <row r="44" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -35343,11 +35458,14 @@
       <c r="KA44" s="3">
         <v>1700</v>
       </c>
-      <c r="KB44" s="4">
+      <c r="KB44" s="3">
         <v>1686</v>
       </c>
+      <c r="KC44" s="4">
+        <v>1690</v>
+      </c>
     </row>
-    <row r="45" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -36207,11 +36325,14 @@
       <c r="KA45" s="3">
         <v>1459</v>
       </c>
-      <c r="KB45" s="4">
+      <c r="KB45" s="3">
         <v>1458</v>
       </c>
+      <c r="KC45" s="4">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="46" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -36625,9 +36746,10 @@
       <c r="JY46" s="3"/>
       <c r="JZ46" s="3"/>
       <c r="KA46" s="3"/>
-      <c r="KB46" s="4"/>
+      <c r="KB46" s="3"/>
+      <c r="KC46" s="4"/>
     </row>
-    <row r="47" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -37489,11 +37611,14 @@
       <c r="KA47" s="8">
         <v>480063</v>
       </c>
-      <c r="KB47" s="18">
+      <c r="KB47" s="8">
         <v>481695</v>
       </c>
+      <c r="KC47" s="18">
+        <v>484648</v>
+      </c>
     </row>
-    <row r="48" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -38353,11 +38478,14 @@
       <c r="KA48" s="3">
         <v>69587</v>
       </c>
-      <c r="KB48" s="4">
+      <c r="KB48" s="3">
         <v>70164</v>
       </c>
+      <c r="KC48" s="4">
+        <v>70872</v>
+      </c>
     </row>
-    <row r="49" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -39217,11 +39345,14 @@
       <c r="KA49" s="3">
         <v>16767</v>
       </c>
-      <c r="KB49" s="4">
+      <c r="KB49" s="3">
         <v>16757</v>
       </c>
+      <c r="KC49" s="4">
+        <v>16728</v>
+      </c>
     </row>
-    <row r="50" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -40081,11 +40212,14 @@
       <c r="KA50" s="3">
         <v>66918</v>
       </c>
-      <c r="KB50" s="4">
+      <c r="KB50" s="3">
         <v>67183</v>
       </c>
+      <c r="KC50" s="4">
+        <v>67650</v>
+      </c>
     </row>
-    <row r="51" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -40945,11 +41079,14 @@
       <c r="KA51" s="3">
         <v>79082</v>
       </c>
-      <c r="KB51" s="4">
+      <c r="KB51" s="3">
         <v>79265</v>
       </c>
+      <c r="KC51" s="4">
+        <v>79472</v>
+      </c>
     </row>
-    <row r="52" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -41809,11 +41946,14 @@
       <c r="KA52" s="3">
         <v>72156</v>
       </c>
-      <c r="KB52" s="4">
+      <c r="KB52" s="3">
         <v>72436</v>
       </c>
+      <c r="KC52" s="4">
+        <v>72900</v>
+      </c>
     </row>
-    <row r="53" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -42673,11 +42813,14 @@
       <c r="KA53" s="3">
         <v>65686</v>
       </c>
-      <c r="KB53" s="4">
+      <c r="KB53" s="3">
         <v>65808</v>
       </c>
+      <c r="KC53" s="4">
+        <v>66106</v>
+      </c>
     </row>
-    <row r="54" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -43537,11 +43680,14 @@
       <c r="KA54" s="3">
         <v>58952</v>
       </c>
-      <c r="KB54" s="4">
+      <c r="KB54" s="3">
         <v>59109</v>
       </c>
+      <c r="KC54" s="4">
+        <v>59566</v>
+      </c>
     </row>
-    <row r="55" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -44401,11 +44547,14 @@
       <c r="KA55" s="3">
         <v>50910</v>
       </c>
-      <c r="KB55" s="4">
+      <c r="KB55" s="3">
         <v>50969</v>
       </c>
+      <c r="KC55" s="4">
+        <v>51347</v>
+      </c>
     </row>
-    <row r="56" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -45265,11 +45414,14 @@
       <c r="KA56" s="3">
         <v>5</v>
       </c>
-      <c r="KB56" s="4">
+      <c r="KB56" s="3">
         <v>4</v>
       </c>
+      <c r="KC56" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="57" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -46131,11 +46283,14 @@
       <c r="KA57" s="8">
         <v>2640</v>
       </c>
-      <c r="KB57" s="18">
+      <c r="KB57" s="8">
         <v>2620</v>
       </c>
+      <c r="KC57" s="18">
+        <v>2646</v>
+      </c>
     </row>
-    <row r="58" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -46995,11 +47150,14 @@
       <c r="KA58" s="3">
         <v>490</v>
       </c>
-      <c r="KB58" s="4">
+      <c r="KB58" s="3">
         <v>485</v>
       </c>
+      <c r="KC58" s="4">
+        <v>490</v>
+      </c>
     </row>
-    <row r="59" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -47859,11 +48017,14 @@
       <c r="KA59" s="3">
         <v>36</v>
       </c>
-      <c r="KB59" s="4">
+      <c r="KB59" s="3">
         <v>40</v>
       </c>
+      <c r="KC59" s="4">
+        <v>40</v>
+      </c>
     </row>
-    <row r="60" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -48723,11 +48884,14 @@
       <c r="KA60" s="3">
         <v>251</v>
       </c>
-      <c r="KB60" s="4">
+      <c r="KB60" s="3">
         <v>242</v>
       </c>
+      <c r="KC60" s="4">
+        <v>258</v>
+      </c>
     </row>
-    <row r="61" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -49587,11 +49751,14 @@
       <c r="KA61" s="3">
         <v>416</v>
       </c>
-      <c r="KB61" s="4">
+      <c r="KB61" s="3">
         <v>405</v>
       </c>
+      <c r="KC61" s="4">
+        <v>401</v>
+      </c>
     </row>
-    <row r="62" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -50451,11 +50618,14 @@
       <c r="KA62" s="3">
         <v>449</v>
       </c>
-      <c r="KB62" s="4">
+      <c r="KB62" s="3">
         <v>448</v>
       </c>
+      <c r="KC62" s="4">
+        <v>440</v>
+      </c>
     </row>
-    <row r="63" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -51315,11 +51485,14 @@
       <c r="KA63" s="3">
         <v>367</v>
       </c>
-      <c r="KB63" s="4">
+      <c r="KB63" s="3">
         <v>369</v>
       </c>
+      <c r="KC63" s="4">
+        <v>386</v>
+      </c>
     </row>
-    <row r="64" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -52179,11 +52352,14 @@
       <c r="KA64" s="3">
         <v>348</v>
       </c>
-      <c r="KB64" s="4">
+      <c r="KB64" s="3">
         <v>342</v>
       </c>
+      <c r="KC64" s="4">
+        <v>348</v>
+      </c>
     </row>
-    <row r="65" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -53043,11 +53219,14 @@
       <c r="KA65" s="3">
         <v>283</v>
       </c>
-      <c r="KB65" s="4">
+      <c r="KB65" s="3">
         <v>289</v>
       </c>
+      <c r="KC65" s="4">
+        <v>283</v>
+      </c>
     </row>
-    <row r="66" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -53395,9 +53574,10 @@
       <c r="JY66" s="3"/>
       <c r="JZ66" s="3"/>
       <c r="KA66" s="3"/>
-      <c r="KB66" s="4"/>
+      <c r="KB66" s="3"/>
+      <c r="KC66" s="4"/>
     </row>
-    <row r="67" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -54259,11 +54439,14 @@
       <c r="KA67" s="8">
         <v>619859</v>
       </c>
-      <c r="KB67" s="18">
+      <c r="KB67" s="8">
         <v>622204</v>
       </c>
+      <c r="KC67" s="18">
+        <v>626463</v>
+      </c>
     </row>
-    <row r="68" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -55123,11 +55306,14 @@
       <c r="KA68" s="3">
         <v>129083</v>
       </c>
-      <c r="KB68" s="4">
+      <c r="KB68" s="3">
         <v>129347</v>
       </c>
+      <c r="KC68" s="4">
+        <v>130403</v>
+      </c>
     </row>
-    <row r="69" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -55987,11 +56173,14 @@
       <c r="KA69" s="3">
         <v>11322</v>
       </c>
-      <c r="KB69" s="4">
+      <c r="KB69" s="3">
         <v>11438</v>
       </c>
+      <c r="KC69" s="4">
+        <v>11497</v>
+      </c>
     </row>
-    <row r="70" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -56851,11 +57040,14 @@
       <c r="KA70" s="3">
         <v>59475</v>
       </c>
-      <c r="KB70" s="4">
+      <c r="KB70" s="3">
         <v>60256</v>
       </c>
+      <c r="KC70" s="4">
+        <v>61090</v>
+      </c>
     </row>
-    <row r="71" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -57715,11 +57907,14 @@
       <c r="KA71" s="3">
         <v>96622</v>
       </c>
-      <c r="KB71" s="4">
+      <c r="KB71" s="3">
         <v>97197</v>
       </c>
+      <c r="KC71" s="4">
+        <v>97831</v>
+      </c>
     </row>
-    <row r="72" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -58579,11 +58774,14 @@
       <c r="KA72" s="3">
         <v>92907</v>
       </c>
-      <c r="KB72" s="4">
+      <c r="KB72" s="3">
         <v>93291</v>
       </c>
+      <c r="KC72" s="4">
+        <v>93942</v>
+      </c>
     </row>
-    <row r="73" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -59443,11 +59641,14 @@
       <c r="KA73" s="3">
         <v>85227</v>
       </c>
-      <c r="KB73" s="4">
+      <c r="KB73" s="3">
         <v>85343</v>
       </c>
+      <c r="KC73" s="4">
+        <v>85668</v>
+      </c>
     </row>
-    <row r="74" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -60307,11 +60508,14 @@
       <c r="KA74" s="3">
         <v>75943</v>
       </c>
-      <c r="KB74" s="4">
+      <c r="KB74" s="3">
         <v>76200</v>
       </c>
+      <c r="KC74" s="4">
+        <v>76594</v>
+      </c>
     </row>
-    <row r="75" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -61171,11 +61375,14 @@
       <c r="KA75" s="3">
         <v>69277</v>
       </c>
-      <c r="KB75" s="4">
+      <c r="KB75" s="3">
         <v>69130</v>
       </c>
+      <c r="KC75" s="4">
+        <v>69434</v>
+      </c>
     </row>
-    <row r="76" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -62035,11 +62242,14 @@
       <c r="KA76" s="3">
         <v>3</v>
       </c>
-      <c r="KB76" s="4">
+      <c r="KB76" s="3">
         <v>2</v>
       </c>
+      <c r="KC76" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="77" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -62901,11 +63111,14 @@
       <c r="KA77" s="8">
         <v>94275</v>
       </c>
-      <c r="KB77" s="18">
+      <c r="KB77" s="8">
         <v>95058</v>
       </c>
+      <c r="KC77" s="18">
+        <v>97872</v>
+      </c>
     </row>
-    <row r="78" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -63765,11 +63978,14 @@
       <c r="KA78" s="3">
         <v>16590</v>
       </c>
-      <c r="KB78" s="4">
+      <c r="KB78" s="3">
         <v>16730</v>
       </c>
+      <c r="KC78" s="4">
+        <v>17050</v>
+      </c>
     </row>
-    <row r="79" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -64629,11 +64845,14 @@
       <c r="KA79" s="3">
         <v>1790</v>
       </c>
-      <c r="KB79" s="4">
+      <c r="KB79" s="3">
         <v>1840</v>
       </c>
+      <c r="KC79" s="4">
+        <v>1902</v>
+      </c>
     </row>
-    <row r="80" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -65493,11 +65712,14 @@
       <c r="KA80" s="3">
         <v>10476</v>
       </c>
-      <c r="KB80" s="4">
+      <c r="KB80" s="3">
         <v>10656</v>
       </c>
+      <c r="KC80" s="4">
+        <v>11211</v>
+      </c>
     </row>
-    <row r="81" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -66357,11 +66579,14 @@
       <c r="KA81" s="3">
         <v>14512</v>
       </c>
-      <c r="KB81" s="4">
+      <c r="KB81" s="3">
         <v>14537</v>
       </c>
+      <c r="KC81" s="4">
+        <v>15099</v>
+      </c>
     </row>
-    <row r="82" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -67221,11 +67446,14 @@
       <c r="KA82" s="3">
         <v>14384</v>
       </c>
-      <c r="KB82" s="4">
+      <c r="KB82" s="3">
         <v>14478</v>
       </c>
+      <c r="KC82" s="4">
+        <v>14902</v>
+      </c>
     </row>
-    <row r="83" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -68085,11 +68313,14 @@
       <c r="KA83" s="3">
         <v>13822</v>
       </c>
-      <c r="KB83" s="4">
+      <c r="KB83" s="3">
         <v>13891</v>
       </c>
+      <c r="KC83" s="4">
+        <v>14216</v>
+      </c>
     </row>
-    <row r="84" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -68949,11 +69180,14 @@
       <c r="KA84" s="3">
         <v>11893</v>
       </c>
-      <c r="KB84" s="4">
+      <c r="KB84" s="3">
         <v>11994</v>
       </c>
+      <c r="KC84" s="4">
+        <v>12333</v>
+      </c>
     </row>
-    <row r="85" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -69813,11 +70047,14 @@
       <c r="KA85" s="3">
         <v>10808</v>
       </c>
-      <c r="KB85" s="4">
+      <c r="KB85" s="3">
         <v>10929</v>
       </c>
+      <c r="KC85" s="4">
+        <v>11158</v>
+      </c>
     </row>
-    <row r="86" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -70493,11 +70730,14 @@
       <c r="JY86" s="3"/>
       <c r="JZ86" s="3"/>
       <c r="KA86" s="3"/>
-      <c r="KB86" s="4">
+      <c r="KB86" s="3">
         <v>3</v>
       </c>
+      <c r="KC86" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:289" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -71359,39 +71599,30 @@
       <c r="KA87" s="22">
         <v>1847731</v>
       </c>
-      <c r="KB87" s="23">
+      <c r="KB87" s="22">
         <v>1858235</v>
       </c>
+      <c r="KC87" s="23">
+        <v>1873476</v>
+      </c>
     </row>
-    <row r="88" spans="1:288" x14ac:dyDescent="0.2">
-      <c r="A88" s="30" t="s">
+    <row r="88" spans="1:289" x14ac:dyDescent="0.2">
+      <c r="A88" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="KC88" s="24"/>
     </row>
-    <row r="89" spans="1:288" x14ac:dyDescent="0.2">
-      <c r="KB89" s="24"/>
+    <row r="89" spans="1:289" x14ac:dyDescent="0.2">
+      <c r="KC89" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="JS5:KB5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="IU5:JF5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -71408,6 +71639,19 @@
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
     <mergeCell ref="DS5:ED5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JS5:KC5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -15,14 +15,14 @@
     <sheet name="ta_división_edad" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_división_edad!$A$6:$KC$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_división_edad!$A$6:$KD$87</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-noviembre 2021</t>
+    <t>Enero 1998-diciembre 2021</t>
   </si>
 </sst>
 </file>
@@ -1269,22 +1269,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KC89"/>
+  <dimension ref="A1:KE89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KC88" sqref="KC88"/>
+      <selection pane="topRight" activeCell="KE78" sqref="KE78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="289" width="11.85546875" style="1" customWidth="1"/>
-    <col min="290" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="290" width="11.85546875" style="1" customWidth="1"/>
+    <col min="291" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:289" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:290" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>36</v>
       </c>
@@ -1293,19 +1293,19 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
     </row>
-    <row r="3" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:289" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:290" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
@@ -1646,9 +1646,10 @@
       <c r="JZ5" s="31"/>
       <c r="KA5" s="31"/>
       <c r="KB5" s="31"/>
-      <c r="KC5" s="32"/>
+      <c r="KC5" s="31"/>
+      <c r="KD5" s="32"/>
     </row>
-    <row r="6" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="15" t="s">
@@ -2509,11 +2510,14 @@
       <c r="KB6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="KC6" s="11" t="s">
+      <c r="KC6" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="KD6" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:289" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:290" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3378,11 +3382,14 @@
       <c r="KB7" s="8">
         <v>117212</v>
       </c>
-      <c r="KC7" s="18">
+      <c r="KC7" s="8">
         <v>119220</v>
       </c>
+      <c r="KD7" s="18">
+        <v>116251</v>
+      </c>
     </row>
-    <row r="8" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4245,11 +4252,14 @@
       <c r="KB8" s="3">
         <v>21701</v>
       </c>
-      <c r="KC8" s="4">
+      <c r="KC8" s="3">
         <v>22065</v>
       </c>
+      <c r="KD8" s="4">
+        <v>22475</v>
+      </c>
     </row>
-    <row r="9" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5112,11 +5122,14 @@
       <c r="KB9" s="3">
         <v>5590</v>
       </c>
-      <c r="KC9" s="4">
+      <c r="KC9" s="3">
         <v>5653</v>
       </c>
+      <c r="KD9" s="4">
+        <v>5150</v>
+      </c>
     </row>
-    <row r="10" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -5979,11 +5992,14 @@
       <c r="KB10" s="3">
         <v>18808</v>
       </c>
-      <c r="KC10" s="4">
+      <c r="KC10" s="3">
         <v>19188</v>
       </c>
+      <c r="KD10" s="4">
+        <v>17867</v>
+      </c>
     </row>
-    <row r="11" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -6846,11 +6862,14 @@
       <c r="KB11" s="3">
         <v>18364</v>
       </c>
-      <c r="KC11" s="4">
+      <c r="KC11" s="3">
         <v>18649</v>
       </c>
+      <c r="KD11" s="4">
+        <v>17813</v>
+      </c>
     </row>
-    <row r="12" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7713,11 +7732,14 @@
       <c r="KB12" s="3">
         <v>15946</v>
       </c>
-      <c r="KC12" s="4">
+      <c r="KC12" s="3">
         <v>16203</v>
       </c>
+      <c r="KD12" s="4">
+        <v>15700</v>
+      </c>
     </row>
-    <row r="13" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8580,11 +8602,14 @@
       <c r="KB13" s="3">
         <v>13827</v>
       </c>
-      <c r="KC13" s="4">
+      <c r="KC13" s="3">
         <v>14015</v>
       </c>
+      <c r="KD13" s="4">
+        <v>13805</v>
+      </c>
     </row>
-    <row r="14" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9447,11 +9472,14 @@
       <c r="KB14" s="3">
         <v>11774</v>
       </c>
-      <c r="KC14" s="4">
+      <c r="KC14" s="3">
         <v>12041</v>
       </c>
+      <c r="KD14" s="4">
+        <v>12020</v>
+      </c>
     </row>
-    <row r="15" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10314,11 +10342,14 @@
       <c r="KB15" s="3">
         <v>11197</v>
       </c>
-      <c r="KC15" s="4">
+      <c r="KC15" s="3">
         <v>11400</v>
       </c>
+      <c r="KD15" s="4">
+        <v>11415</v>
+      </c>
     </row>
-    <row r="16" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11181,11 +11212,14 @@
       <c r="KB16" s="3">
         <v>5</v>
       </c>
-      <c r="KC16" s="4">
+      <c r="KC16" s="3">
         <v>6</v>
       </c>
+      <c r="KD16" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12050,11 +12084,14 @@
       <c r="KB17" s="8">
         <v>388373</v>
       </c>
-      <c r="KC17" s="18">
+      <c r="KC17" s="8">
         <v>391234</v>
       </c>
+      <c r="KD17" s="18">
+        <v>388949</v>
+      </c>
     </row>
-    <row r="18" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -12917,11 +12954,14 @@
       <c r="KB18" s="3">
         <v>55904</v>
       </c>
-      <c r="KC18" s="4">
+      <c r="KC18" s="3">
         <v>56225</v>
       </c>
+      <c r="KD18" s="4">
+        <v>56484</v>
+      </c>
     </row>
-    <row r="19" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -13784,11 +13824,14 @@
       <c r="KB19" s="3">
         <v>12808</v>
       </c>
-      <c r="KC19" s="4">
+      <c r="KC19" s="3">
         <v>13095</v>
       </c>
+      <c r="KD19" s="4">
+        <v>12274</v>
+      </c>
     </row>
-    <row r="20" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -14651,11 +14694,14 @@
       <c r="KB20" s="3">
         <v>54899</v>
       </c>
-      <c r="KC20" s="4">
+      <c r="KC20" s="3">
         <v>56068</v>
       </c>
+      <c r="KD20" s="4">
+        <v>54983</v>
+      </c>
     </row>
-    <row r="21" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -15518,11 +15564,14 @@
       <c r="KB21" s="3">
         <v>66693</v>
       </c>
-      <c r="KC21" s="4">
+      <c r="KC21" s="3">
         <v>67048</v>
       </c>
+      <c r="KD21" s="4">
+        <v>66353</v>
+      </c>
     </row>
-    <row r="22" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16385,11 +16434,14 @@
       <c r="KB22" s="3">
         <v>62908</v>
       </c>
-      <c r="KC22" s="4">
+      <c r="KC22" s="3">
         <v>63243</v>
       </c>
+      <c r="KD22" s="4">
+        <v>63098</v>
+      </c>
     </row>
-    <row r="23" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17252,11 +17304,14 @@
       <c r="KB23" s="3">
         <v>54021</v>
       </c>
-      <c r="KC23" s="4">
+      <c r="KC23" s="3">
         <v>54155</v>
       </c>
+      <c r="KD23" s="4">
+        <v>54144</v>
+      </c>
     </row>
-    <row r="24" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18119,11 +18174,14 @@
       <c r="KB24" s="3">
         <v>43944</v>
       </c>
-      <c r="KC24" s="4">
+      <c r="KC24" s="3">
         <v>44130</v>
       </c>
+      <c r="KD24" s="4">
+        <v>44201</v>
+      </c>
     </row>
-    <row r="25" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -18986,11 +19044,14 @@
       <c r="KB25" s="3">
         <v>37193</v>
       </c>
-      <c r="KC25" s="4">
+      <c r="KC25" s="3">
         <v>37269</v>
       </c>
+      <c r="KD25" s="4">
+        <v>37412</v>
+      </c>
     </row>
-    <row r="26" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -19851,11 +19912,12 @@
       <c r="KB26" s="3">
         <v>3</v>
       </c>
-      <c r="KC26" s="4">
+      <c r="KC26" s="3">
         <v>1</v>
       </c>
+      <c r="KD26" s="4"/>
     </row>
-    <row r="27" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -20720,11 +20782,14 @@
       <c r="KB27" s="8">
         <v>141565</v>
       </c>
-      <c r="KC27" s="18">
+      <c r="KC27" s="8">
         <v>141823</v>
       </c>
+      <c r="KD27" s="18">
+        <v>134547</v>
+      </c>
     </row>
-    <row r="28" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -21587,11 +21652,14 @@
       <c r="KB28" s="3">
         <v>24459</v>
       </c>
-      <c r="KC28" s="4">
+      <c r="KC28" s="3">
         <v>24615</v>
       </c>
+      <c r="KD28" s="4">
+        <v>24018</v>
+      </c>
     </row>
-    <row r="29" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -22454,11 +22522,14 @@
       <c r="KB29" s="3">
         <v>5318</v>
       </c>
-      <c r="KC29" s="4">
+      <c r="KC29" s="3">
         <v>5216</v>
       </c>
+      <c r="KD29" s="4">
+        <v>4614</v>
+      </c>
     </row>
-    <row r="30" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -23321,11 +23392,14 @@
       <c r="KB30" s="3">
         <v>18289</v>
       </c>
-      <c r="KC30" s="4">
+      <c r="KC30" s="3">
         <v>18301</v>
       </c>
+      <c r="KD30" s="4">
+        <v>16820</v>
+      </c>
     </row>
-    <row r="31" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -24188,11 +24262,14 @@
       <c r="KB31" s="3">
         <v>23202</v>
       </c>
-      <c r="KC31" s="4">
+      <c r="KC31" s="3">
         <v>23269</v>
       </c>
+      <c r="KD31" s="4">
+        <v>21917</v>
+      </c>
     </row>
-    <row r="32" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -25055,11 +25132,14 @@
       <c r="KB32" s="3">
         <v>21318</v>
       </c>
-      <c r="KC32" s="4">
+      <c r="KC32" s="3">
         <v>21304</v>
       </c>
+      <c r="KD32" s="4">
+        <v>20182</v>
+      </c>
     </row>
-    <row r="33" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -25922,11 +26002,14 @@
       <c r="KB33" s="3">
         <v>18918</v>
       </c>
-      <c r="KC33" s="4">
+      <c r="KC33" s="3">
         <v>18917</v>
       </c>
+      <c r="KD33" s="4">
+        <v>18029</v>
+      </c>
     </row>
-    <row r="34" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -26789,11 +26872,14 @@
       <c r="KB34" s="3">
         <v>16047</v>
       </c>
-      <c r="KC34" s="4">
+      <c r="KC34" s="3">
         <v>16086</v>
       </c>
+      <c r="KD34" s="4">
+        <v>15427</v>
+      </c>
     </row>
-    <row r="35" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -27656,11 +27742,14 @@
       <c r="KB35" s="3">
         <v>13988</v>
       </c>
-      <c r="KC35" s="4">
+      <c r="KC35" s="3">
         <v>14094</v>
       </c>
+      <c r="KD35" s="4">
+        <v>13517</v>
+      </c>
     </row>
-    <row r="36" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -28523,11 +28612,14 @@
       <c r="KB36" s="3">
         <v>26</v>
       </c>
-      <c r="KC36" s="4">
+      <c r="KC36" s="3">
         <v>21</v>
       </c>
+      <c r="KD36" s="4">
+        <v>23</v>
+      </c>
     </row>
-    <row r="37" spans="1:289" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:290" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -29392,11 +29484,14 @@
       <c r="KB37" s="27">
         <v>9508</v>
       </c>
-      <c r="KC37" s="28">
+      <c r="KC37" s="27">
         <v>9570</v>
       </c>
+      <c r="KD37" s="28">
+        <v>9393</v>
+      </c>
     </row>
-    <row r="38" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -30259,11 +30354,14 @@
       <c r="KB38" s="3">
         <v>1687</v>
       </c>
-      <c r="KC38" s="4">
+      <c r="KC38" s="3">
         <v>1702</v>
       </c>
+      <c r="KD38" s="4">
+        <v>1703</v>
+      </c>
     </row>
-    <row r="39" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -31126,11 +31224,14 @@
       <c r="KB39" s="3">
         <v>57</v>
       </c>
-      <c r="KC39" s="4">
+      <c r="KC39" s="3">
         <v>58</v>
       </c>
+      <c r="KD39" s="4">
+        <v>57</v>
+      </c>
     </row>
-    <row r="40" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -31993,11 +32094,14 @@
       <c r="KB40" s="3">
         <v>454</v>
       </c>
-      <c r="KC40" s="4">
+      <c r="KC40" s="3">
         <v>454</v>
       </c>
+      <c r="KD40" s="4">
+        <v>409</v>
+      </c>
     </row>
-    <row r="41" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -32860,11 +32964,14 @@
       <c r="KB41" s="3">
         <v>986</v>
       </c>
-      <c r="KC41" s="4">
+      <c r="KC41" s="3">
         <v>1013</v>
       </c>
+      <c r="KD41" s="4">
+        <v>969</v>
+      </c>
     </row>
-    <row r="42" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -33727,11 +33834,14 @@
       <c r="KB42" s="3">
         <v>1433</v>
       </c>
-      <c r="KC42" s="4">
+      <c r="KC42" s="3">
         <v>1435</v>
       </c>
+      <c r="KD42" s="4">
+        <v>1379</v>
+      </c>
     </row>
-    <row r="43" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -34594,11 +34704,14 @@
       <c r="KB43" s="3">
         <v>1747</v>
       </c>
-      <c r="KC43" s="4">
+      <c r="KC43" s="3">
         <v>1770</v>
       </c>
+      <c r="KD43" s="4">
+        <v>1761</v>
+      </c>
     </row>
-    <row r="44" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -35461,11 +35574,14 @@
       <c r="KB44" s="3">
         <v>1686</v>
       </c>
-      <c r="KC44" s="4">
+      <c r="KC44" s="3">
         <v>1690</v>
       </c>
+      <c r="KD44" s="4">
+        <v>1696</v>
+      </c>
     </row>
-    <row r="45" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -36328,11 +36444,14 @@
       <c r="KB45" s="3">
         <v>1458</v>
       </c>
-      <c r="KC45" s="4">
+      <c r="KC45" s="3">
         <v>1448</v>
       </c>
+      <c r="KD45" s="4">
+        <v>1419</v>
+      </c>
     </row>
-    <row r="46" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -36747,9 +36866,10 @@
       <c r="JZ46" s="3"/>
       <c r="KA46" s="3"/>
       <c r="KB46" s="3"/>
-      <c r="KC46" s="4"/>
+      <c r="KC46" s="3"/>
+      <c r="KD46" s="4"/>
     </row>
-    <row r="47" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -37614,11 +37734,14 @@
       <c r="KB47" s="8">
         <v>481695</v>
       </c>
-      <c r="KC47" s="18">
+      <c r="KC47" s="8">
         <v>484648</v>
       </c>
+      <c r="KD47" s="18">
+        <v>480660</v>
+      </c>
     </row>
-    <row r="48" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -38481,11 +38604,14 @@
       <c r="KB48" s="3">
         <v>70164</v>
       </c>
-      <c r="KC48" s="4">
+      <c r="KC48" s="3">
         <v>70872</v>
       </c>
+      <c r="KD48" s="4">
+        <v>71374</v>
+      </c>
     </row>
-    <row r="49" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -39348,11 +39474,14 @@
       <c r="KB49" s="3">
         <v>16757</v>
       </c>
-      <c r="KC49" s="4">
+      <c r="KC49" s="3">
         <v>16728</v>
       </c>
+      <c r="KD49" s="4">
+        <v>15454</v>
+      </c>
     </row>
-    <row r="50" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -40215,11 +40344,14 @@
       <c r="KB50" s="3">
         <v>67183</v>
       </c>
-      <c r="KC50" s="4">
+      <c r="KC50" s="3">
         <v>67650</v>
       </c>
+      <c r="KD50" s="4">
+        <v>66384</v>
+      </c>
     </row>
-    <row r="51" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -41082,11 +41214,14 @@
       <c r="KB51" s="3">
         <v>79265</v>
       </c>
-      <c r="KC51" s="4">
+      <c r="KC51" s="3">
         <v>79472</v>
       </c>
+      <c r="KD51" s="4">
+        <v>78518</v>
+      </c>
     </row>
-    <row r="52" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -41949,11 +42084,14 @@
       <c r="KB52" s="3">
         <v>72436</v>
       </c>
-      <c r="KC52" s="4">
+      <c r="KC52" s="3">
         <v>72900</v>
       </c>
+      <c r="KD52" s="4">
+        <v>72399</v>
+      </c>
     </row>
-    <row r="53" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -42816,11 +42954,14 @@
       <c r="KB53" s="3">
         <v>65808</v>
       </c>
-      <c r="KC53" s="4">
+      <c r="KC53" s="3">
         <v>66106</v>
       </c>
+      <c r="KD53" s="4">
+        <v>65685</v>
+      </c>
     </row>
-    <row r="54" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -43683,11 +43824,14 @@
       <c r="KB54" s="3">
         <v>59109</v>
       </c>
-      <c r="KC54" s="4">
+      <c r="KC54" s="3">
         <v>59566</v>
       </c>
+      <c r="KD54" s="4">
+        <v>59516</v>
+      </c>
     </row>
-    <row r="55" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -44550,11 +44694,14 @@
       <c r="KB55" s="3">
         <v>50969</v>
       </c>
-      <c r="KC55" s="4">
+      <c r="KC55" s="3">
         <v>51347</v>
       </c>
+      <c r="KD55" s="4">
+        <v>51324</v>
+      </c>
     </row>
-    <row r="56" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -45417,11 +45564,14 @@
       <c r="KB56" s="3">
         <v>4</v>
       </c>
-      <c r="KC56" s="4">
+      <c r="KC56" s="3">
         <v>7</v>
       </c>
+      <c r="KD56" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="57" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -46286,11 +46436,14 @@
       <c r="KB57" s="8">
         <v>2620</v>
       </c>
-      <c r="KC57" s="18">
+      <c r="KC57" s="8">
         <v>2646</v>
       </c>
+      <c r="KD57" s="18">
+        <v>2624</v>
+      </c>
     </row>
-    <row r="58" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -47153,11 +47306,14 @@
       <c r="KB58" s="3">
         <v>485</v>
       </c>
-      <c r="KC58" s="4">
+      <c r="KC58" s="3">
         <v>490</v>
       </c>
+      <c r="KD58" s="4">
+        <v>493</v>
+      </c>
     </row>
-    <row r="59" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -48020,11 +48176,14 @@
       <c r="KB59" s="3">
         <v>40</v>
       </c>
-      <c r="KC59" s="4">
+      <c r="KC59" s="3">
         <v>40</v>
       </c>
+      <c r="KD59" s="4">
+        <v>38</v>
+      </c>
     </row>
-    <row r="60" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -48887,11 +49046,14 @@
       <c r="KB60" s="3">
         <v>242</v>
       </c>
-      <c r="KC60" s="4">
+      <c r="KC60" s="3">
         <v>258</v>
       </c>
+      <c r="KD60" s="4">
+        <v>242</v>
+      </c>
     </row>
-    <row r="61" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -49754,11 +49916,14 @@
       <c r="KB61" s="3">
         <v>405</v>
       </c>
-      <c r="KC61" s="4">
+      <c r="KC61" s="3">
         <v>401</v>
       </c>
+      <c r="KD61" s="4">
+        <v>406</v>
+      </c>
     </row>
-    <row r="62" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -50621,11 +50786,14 @@
       <c r="KB62" s="3">
         <v>448</v>
       </c>
-      <c r="KC62" s="4">
+      <c r="KC62" s="3">
         <v>440</v>
       </c>
+      <c r="KD62" s="4">
+        <v>441</v>
+      </c>
     </row>
-    <row r="63" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -51488,11 +51656,14 @@
       <c r="KB63" s="3">
         <v>369</v>
       </c>
-      <c r="KC63" s="4">
+      <c r="KC63" s="3">
         <v>386</v>
       </c>
+      <c r="KD63" s="4">
+        <v>379</v>
+      </c>
     </row>
-    <row r="64" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -52355,11 +52526,14 @@
       <c r="KB64" s="3">
         <v>342</v>
       </c>
-      <c r="KC64" s="4">
+      <c r="KC64" s="3">
         <v>348</v>
       </c>
+      <c r="KD64" s="4">
+        <v>334</v>
+      </c>
     </row>
-    <row r="65" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -53222,11 +53396,14 @@
       <c r="KB65" s="3">
         <v>289</v>
       </c>
-      <c r="KC65" s="4">
+      <c r="KC65" s="3">
         <v>283</v>
       </c>
+      <c r="KD65" s="4">
+        <v>291</v>
+      </c>
     </row>
-    <row r="66" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -53575,9 +53752,10 @@
       <c r="JZ66" s="3"/>
       <c r="KA66" s="3"/>
       <c r="KB66" s="3"/>
-      <c r="KC66" s="4"/>
+      <c r="KC66" s="3"/>
+      <c r="KD66" s="4"/>
     </row>
-    <row r="67" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -54442,11 +54620,14 @@
       <c r="KB67" s="8">
         <v>622204</v>
       </c>
-      <c r="KC67" s="18">
+      <c r="KC67" s="8">
         <v>626463</v>
       </c>
+      <c r="KD67" s="18">
+        <v>620320</v>
+      </c>
     </row>
-    <row r="68" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -55309,11 +55490,14 @@
       <c r="KB68" s="3">
         <v>129347</v>
       </c>
-      <c r="KC68" s="4">
+      <c r="KC68" s="3">
         <v>130403</v>
       </c>
+      <c r="KD68" s="4">
+        <v>129724</v>
+      </c>
     </row>
-    <row r="69" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -56176,11 +56360,14 @@
       <c r="KB69" s="3">
         <v>11438</v>
       </c>
-      <c r="KC69" s="4">
+      <c r="KC69" s="3">
         <v>11497</v>
       </c>
+      <c r="KD69" s="4">
+        <v>11211</v>
+      </c>
     </row>
-    <row r="70" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -57043,11 +57230,14 @@
       <c r="KB70" s="3">
         <v>60256</v>
       </c>
-      <c r="KC70" s="4">
+      <c r="KC70" s="3">
         <v>61090</v>
       </c>
+      <c r="KD70" s="4">
+        <v>60612</v>
+      </c>
     </row>
-    <row r="71" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -57910,11 +58100,14 @@
       <c r="KB71" s="3">
         <v>97197</v>
       </c>
-      <c r="KC71" s="4">
+      <c r="KC71" s="3">
         <v>97831</v>
       </c>
+      <c r="KD71" s="4">
+        <v>96741</v>
+      </c>
     </row>
-    <row r="72" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -58777,11 +58970,14 @@
       <c r="KB72" s="3">
         <v>93291</v>
       </c>
-      <c r="KC72" s="4">
+      <c r="KC72" s="3">
         <v>93942</v>
       </c>
+      <c r="KD72" s="4">
+        <v>92685</v>
+      </c>
     </row>
-    <row r="73" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -59644,11 +59840,14 @@
       <c r="KB73" s="3">
         <v>85343</v>
       </c>
-      <c r="KC73" s="4">
+      <c r="KC73" s="3">
         <v>85668</v>
       </c>
+      <c r="KD73" s="4">
+        <v>84675</v>
+      </c>
     </row>
-    <row r="74" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -60511,11 +60710,14 @@
       <c r="KB74" s="3">
         <v>76200</v>
       </c>
-      <c r="KC74" s="4">
+      <c r="KC74" s="3">
         <v>76594</v>
       </c>
+      <c r="KD74" s="4">
+        <v>75838</v>
+      </c>
     </row>
-    <row r="75" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -61378,11 +61580,14 @@
       <c r="KB75" s="3">
         <v>69130</v>
       </c>
-      <c r="KC75" s="4">
+      <c r="KC75" s="3">
         <v>69434</v>
       </c>
+      <c r="KD75" s="4">
+        <v>68829</v>
+      </c>
     </row>
-    <row r="76" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -62245,11 +62450,14 @@
       <c r="KB76" s="3">
         <v>2</v>
       </c>
-      <c r="KC76" s="4">
+      <c r="KC76" s="3">
         <v>4</v>
       </c>
+      <c r="KD76" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="77" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -63114,11 +63322,14 @@
       <c r="KB77" s="8">
         <v>95058</v>
       </c>
-      <c r="KC77" s="18">
+      <c r="KC77" s="8">
         <v>97872</v>
       </c>
+      <c r="KD77" s="18">
+        <v>97255</v>
+      </c>
     </row>
-    <row r="78" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -63981,11 +64192,14 @@
       <c r="KB78" s="3">
         <v>16730</v>
       </c>
-      <c r="KC78" s="4">
+      <c r="KC78" s="3">
         <v>17050</v>
       </c>
+      <c r="KD78" s="4">
+        <v>17150</v>
+      </c>
     </row>
-    <row r="79" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -64848,11 +65062,14 @@
       <c r="KB79" s="3">
         <v>1840</v>
       </c>
-      <c r="KC79" s="4">
+      <c r="KC79" s="3">
         <v>1902</v>
       </c>
+      <c r="KD79" s="4">
+        <v>1756</v>
+      </c>
     </row>
-    <row r="80" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:290" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -65715,11 +65932,14 @@
       <c r="KB80" s="3">
         <v>10656</v>
       </c>
-      <c r="KC80" s="4">
+      <c r="KC80" s="3">
         <v>11211</v>
       </c>
+      <c r="KD80" s="4">
+        <v>10949</v>
+      </c>
     </row>
-    <row r="81" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -66582,11 +66802,14 @@
       <c r="KB81" s="3">
         <v>14537</v>
       </c>
-      <c r="KC81" s="4">
+      <c r="KC81" s="3">
         <v>15099</v>
       </c>
+      <c r="KD81" s="4">
+        <v>14957</v>
+      </c>
     </row>
-    <row r="82" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -67449,11 +67672,14 @@
       <c r="KB82" s="3">
         <v>14478</v>
       </c>
-      <c r="KC82" s="4">
+      <c r="KC82" s="3">
         <v>14902</v>
       </c>
+      <c r="KD82" s="4">
+        <v>14797</v>
+      </c>
     </row>
-    <row r="83" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -68316,11 +68542,14 @@
       <c r="KB83" s="3">
         <v>13891</v>
       </c>
-      <c r="KC83" s="4">
+      <c r="KC83" s="3">
         <v>14216</v>
       </c>
+      <c r="KD83" s="4">
+        <v>14184</v>
+      </c>
     </row>
-    <row r="84" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -69183,11 +69412,14 @@
       <c r="KB84" s="3">
         <v>11994</v>
       </c>
-      <c r="KC84" s="4">
+      <c r="KC84" s="3">
         <v>12333</v>
       </c>
+      <c r="KD84" s="4">
+        <v>12337</v>
+      </c>
     </row>
-    <row r="85" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -70050,11 +70282,14 @@
       <c r="KB85" s="3">
         <v>10929</v>
       </c>
-      <c r="KC85" s="4">
+      <c r="KC85" s="3">
         <v>11158</v>
       </c>
+      <c r="KD85" s="4">
+        <v>11124</v>
+      </c>
     </row>
-    <row r="86" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -70733,11 +70968,14 @@
       <c r="KB86" s="3">
         <v>3</v>
       </c>
-      <c r="KC86" s="4">
+      <c r="KC86" s="3">
         <v>1</v>
       </c>
+      <c r="KD86" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -71602,11 +71840,15 @@
       <c r="KB87" s="22">
         <v>1858235</v>
       </c>
-      <c r="KC87" s="23">
+      <c r="KC87" s="22">
         <v>1873476</v>
       </c>
+      <c r="KD87" s="23">
+        <v>1849999</v>
+      </c>
+      <c r="KE87" s="24"/>
     </row>
-    <row r="88" spans="1:289" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A88" s="33" t="s">
         <v>23</v>
       </c>
@@ -71616,10 +71858,10 @@
       <c r="E88" s="33"/>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
-      <c r="KC88" s="24"/>
+      <c r="KD88" s="24"/>
     </row>
-    <row r="89" spans="1:289" x14ac:dyDescent="0.2">
-      <c r="KC89" s="24"/>
+    <row r="89" spans="1:291" x14ac:dyDescent="0.2">
+      <c r="KD89" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -71644,7 +71886,7 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JS5:KC5"/>
+    <mergeCell ref="JS5:KD5"/>
     <mergeCell ref="JG5:JR5"/>
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="O5:Z5"/>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-diciembre 2021</t>
+    <t>Enero 1998-enero 2022</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -930,6 +930,9 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -939,13 +942,28 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1269,387 +1287,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KE89"/>
+  <dimension ref="A1:KF89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KE78" sqref="KE78"/>
+      <selection pane="topRight" activeCell="KF81" sqref="KF81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="290" width="11.85546875" style="1" customWidth="1"/>
-    <col min="291" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="291" width="11.85546875" style="1" customWidth="1"/>
+    <col min="292" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:290" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:291" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:290" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:291" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:290" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:291" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="31">
         <v>1998</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="30">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="31">
         <v>1999</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="30">
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="31">
         <v>2000</v>
       </c>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="30">
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="31">
         <v>2001</v>
       </c>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="31"/>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="31"/>
-      <c r="AV5" s="31"/>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="30">
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="31">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="31"/>
-      <c r="BB5" s="31"/>
-      <c r="BC5" s="31"/>
-      <c r="BD5" s="31"/>
-      <c r="BE5" s="31"/>
-      <c r="BF5" s="31"/>
-      <c r="BG5" s="31"/>
-      <c r="BH5" s="31"/>
-      <c r="BI5" s="31"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="30">
+      <c r="AZ5" s="32"/>
+      <c r="BA5" s="32"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="32"/>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="31">
         <v>2003</v>
       </c>
-      <c r="BL5" s="31"/>
-      <c r="BM5" s="31"/>
-      <c r="BN5" s="31"/>
-      <c r="BO5" s="31"/>
-      <c r="BP5" s="31"/>
-      <c r="BQ5" s="31"/>
-      <c r="BR5" s="31"/>
-      <c r="BS5" s="31"/>
-      <c r="BT5" s="31"/>
-      <c r="BU5" s="31"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="30">
+      <c r="BL5" s="32"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="32"/>
+      <c r="BS5" s="32"/>
+      <c r="BT5" s="32"/>
+      <c r="BU5" s="32"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="31">
         <v>2004</v>
       </c>
-      <c r="BX5" s="31"/>
-      <c r="BY5" s="31"/>
-      <c r="BZ5" s="31"/>
-      <c r="CA5" s="31"/>
-      <c r="CB5" s="31"/>
-      <c r="CC5" s="31"/>
-      <c r="CD5" s="31"/>
-      <c r="CE5" s="31"/>
-      <c r="CF5" s="31"/>
-      <c r="CG5" s="31"/>
-      <c r="CH5" s="32"/>
-      <c r="CI5" s="30">
+      <c r="BX5" s="32"/>
+      <c r="BY5" s="32"/>
+      <c r="BZ5" s="32"/>
+      <c r="CA5" s="32"/>
+      <c r="CB5" s="32"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="32"/>
+      <c r="CE5" s="32"/>
+      <c r="CF5" s="32"/>
+      <c r="CG5" s="32"/>
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="31">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="31"/>
-      <c r="CK5" s="31"/>
-      <c r="CL5" s="31"/>
-      <c r="CM5" s="31"/>
-      <c r="CN5" s="31"/>
-      <c r="CO5" s="31"/>
-      <c r="CP5" s="31"/>
-      <c r="CQ5" s="31"/>
-      <c r="CR5" s="31"/>
-      <c r="CS5" s="31"/>
-      <c r="CT5" s="32"/>
-      <c r="CU5" s="30">
+      <c r="CJ5" s="32"/>
+      <c r="CK5" s="32"/>
+      <c r="CL5" s="32"/>
+      <c r="CM5" s="32"/>
+      <c r="CN5" s="32"/>
+      <c r="CO5" s="32"/>
+      <c r="CP5" s="32"/>
+      <c r="CQ5" s="32"/>
+      <c r="CR5" s="32"/>
+      <c r="CS5" s="32"/>
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="31">
         <v>2006</v>
       </c>
-      <c r="CV5" s="31"/>
-      <c r="CW5" s="31"/>
-      <c r="CX5" s="31"/>
-      <c r="CY5" s="31"/>
-      <c r="CZ5" s="31"/>
-      <c r="DA5" s="31"/>
-      <c r="DB5" s="31"/>
-      <c r="DC5" s="31"/>
-      <c r="DD5" s="31"/>
-      <c r="DE5" s="31"/>
-      <c r="DF5" s="32"/>
-      <c r="DG5" s="30">
+      <c r="CV5" s="32"/>
+      <c r="CW5" s="32"/>
+      <c r="CX5" s="32"/>
+      <c r="CY5" s="32"/>
+      <c r="CZ5" s="32"/>
+      <c r="DA5" s="32"/>
+      <c r="DB5" s="32"/>
+      <c r="DC5" s="32"/>
+      <c r="DD5" s="32"/>
+      <c r="DE5" s="32"/>
+      <c r="DF5" s="33"/>
+      <c r="DG5" s="31">
         <v>2007</v>
       </c>
-      <c r="DH5" s="31"/>
-      <c r="DI5" s="31"/>
-      <c r="DJ5" s="31"/>
-      <c r="DK5" s="31"/>
-      <c r="DL5" s="31"/>
-      <c r="DM5" s="31"/>
-      <c r="DN5" s="31"/>
-      <c r="DO5" s="31"/>
-      <c r="DP5" s="31"/>
-      <c r="DQ5" s="31"/>
-      <c r="DR5" s="32"/>
-      <c r="DS5" s="30">
+      <c r="DH5" s="32"/>
+      <c r="DI5" s="32"/>
+      <c r="DJ5" s="32"/>
+      <c r="DK5" s="32"/>
+      <c r="DL5" s="32"/>
+      <c r="DM5" s="32"/>
+      <c r="DN5" s="32"/>
+      <c r="DO5" s="32"/>
+      <c r="DP5" s="32"/>
+      <c r="DQ5" s="32"/>
+      <c r="DR5" s="33"/>
+      <c r="DS5" s="31">
         <v>2008</v>
       </c>
-      <c r="DT5" s="31"/>
-      <c r="DU5" s="31"/>
-      <c r="DV5" s="31"/>
-      <c r="DW5" s="31"/>
-      <c r="DX5" s="31"/>
-      <c r="DY5" s="31"/>
-      <c r="DZ5" s="31"/>
-      <c r="EA5" s="31"/>
-      <c r="EB5" s="31"/>
-      <c r="EC5" s="31"/>
-      <c r="ED5" s="32"/>
-      <c r="EE5" s="30">
+      <c r="DT5" s="32"/>
+      <c r="DU5" s="32"/>
+      <c r="DV5" s="32"/>
+      <c r="DW5" s="32"/>
+      <c r="DX5" s="32"/>
+      <c r="DY5" s="32"/>
+      <c r="DZ5" s="32"/>
+      <c r="EA5" s="32"/>
+      <c r="EB5" s="32"/>
+      <c r="EC5" s="32"/>
+      <c r="ED5" s="33"/>
+      <c r="EE5" s="31">
         <v>2009</v>
       </c>
-      <c r="EF5" s="31"/>
-      <c r="EG5" s="31"/>
-      <c r="EH5" s="31"/>
-      <c r="EI5" s="31"/>
-      <c r="EJ5" s="31"/>
-      <c r="EK5" s="31"/>
-      <c r="EL5" s="31"/>
-      <c r="EM5" s="31"/>
-      <c r="EN5" s="31"/>
-      <c r="EO5" s="31"/>
-      <c r="EP5" s="32"/>
-      <c r="EQ5" s="30">
+      <c r="EF5" s="32"/>
+      <c r="EG5" s="32"/>
+      <c r="EH5" s="32"/>
+      <c r="EI5" s="32"/>
+      <c r="EJ5" s="32"/>
+      <c r="EK5" s="32"/>
+      <c r="EL5" s="32"/>
+      <c r="EM5" s="32"/>
+      <c r="EN5" s="32"/>
+      <c r="EO5" s="32"/>
+      <c r="EP5" s="33"/>
+      <c r="EQ5" s="31">
         <v>2010</v>
       </c>
-      <c r="ER5" s="31"/>
-      <c r="ES5" s="31"/>
-      <c r="ET5" s="31"/>
-      <c r="EU5" s="31"/>
-      <c r="EV5" s="31"/>
-      <c r="EW5" s="31"/>
-      <c r="EX5" s="31"/>
-      <c r="EY5" s="31"/>
-      <c r="EZ5" s="31"/>
-      <c r="FA5" s="31"/>
-      <c r="FB5" s="32"/>
-      <c r="FC5" s="30">
+      <c r="ER5" s="32"/>
+      <c r="ES5" s="32"/>
+      <c r="ET5" s="32"/>
+      <c r="EU5" s="32"/>
+      <c r="EV5" s="32"/>
+      <c r="EW5" s="32"/>
+      <c r="EX5" s="32"/>
+      <c r="EY5" s="32"/>
+      <c r="EZ5" s="32"/>
+      <c r="FA5" s="32"/>
+      <c r="FB5" s="33"/>
+      <c r="FC5" s="31">
         <v>2011</v>
       </c>
-      <c r="FD5" s="31"/>
-      <c r="FE5" s="31"/>
-      <c r="FF5" s="31"/>
-      <c r="FG5" s="31"/>
-      <c r="FH5" s="31"/>
-      <c r="FI5" s="31"/>
-      <c r="FJ5" s="31"/>
-      <c r="FK5" s="31"/>
-      <c r="FL5" s="31"/>
-      <c r="FM5" s="31"/>
-      <c r="FN5" s="32"/>
-      <c r="FO5" s="30">
+      <c r="FD5" s="32"/>
+      <c r="FE5" s="32"/>
+      <c r="FF5" s="32"/>
+      <c r="FG5" s="32"/>
+      <c r="FH5" s="32"/>
+      <c r="FI5" s="32"/>
+      <c r="FJ5" s="32"/>
+      <c r="FK5" s="32"/>
+      <c r="FL5" s="32"/>
+      <c r="FM5" s="32"/>
+      <c r="FN5" s="33"/>
+      <c r="FO5" s="31">
         <v>2012</v>
       </c>
-      <c r="FP5" s="31"/>
-      <c r="FQ5" s="31"/>
-      <c r="FR5" s="31"/>
-      <c r="FS5" s="31"/>
-      <c r="FT5" s="31"/>
-      <c r="FU5" s="31"/>
-      <c r="FV5" s="31"/>
-      <c r="FW5" s="31"/>
-      <c r="FX5" s="31"/>
-      <c r="FY5" s="31"/>
-      <c r="FZ5" s="32"/>
-      <c r="GA5" s="30">
+      <c r="FP5" s="32"/>
+      <c r="FQ5" s="32"/>
+      <c r="FR5" s="32"/>
+      <c r="FS5" s="32"/>
+      <c r="FT5" s="32"/>
+      <c r="FU5" s="32"/>
+      <c r="FV5" s="32"/>
+      <c r="FW5" s="32"/>
+      <c r="FX5" s="32"/>
+      <c r="FY5" s="32"/>
+      <c r="FZ5" s="33"/>
+      <c r="GA5" s="31">
         <v>2013</v>
       </c>
-      <c r="GB5" s="31"/>
-      <c r="GC5" s="31"/>
-      <c r="GD5" s="31"/>
-      <c r="GE5" s="31"/>
-      <c r="GF5" s="31"/>
-      <c r="GG5" s="31"/>
-      <c r="GH5" s="31"/>
-      <c r="GI5" s="31"/>
-      <c r="GJ5" s="31"/>
-      <c r="GK5" s="31"/>
-      <c r="GL5" s="32"/>
-      <c r="GM5" s="30">
+      <c r="GB5" s="32"/>
+      <c r="GC5" s="32"/>
+      <c r="GD5" s="32"/>
+      <c r="GE5" s="32"/>
+      <c r="GF5" s="32"/>
+      <c r="GG5" s="32"/>
+      <c r="GH5" s="32"/>
+      <c r="GI5" s="32"/>
+      <c r="GJ5" s="32"/>
+      <c r="GK5" s="32"/>
+      <c r="GL5" s="33"/>
+      <c r="GM5" s="31">
         <v>2014</v>
       </c>
-      <c r="GN5" s="31"/>
-      <c r="GO5" s="31"/>
-      <c r="GP5" s="31"/>
-      <c r="GQ5" s="31"/>
-      <c r="GR5" s="31"/>
-      <c r="GS5" s="31"/>
-      <c r="GT5" s="31"/>
-      <c r="GU5" s="31"/>
-      <c r="GV5" s="31"/>
-      <c r="GW5" s="31"/>
-      <c r="GX5" s="32"/>
-      <c r="GY5" s="30">
+      <c r="GN5" s="32"/>
+      <c r="GO5" s="32"/>
+      <c r="GP5" s="32"/>
+      <c r="GQ5" s="32"/>
+      <c r="GR5" s="32"/>
+      <c r="GS5" s="32"/>
+      <c r="GT5" s="32"/>
+      <c r="GU5" s="32"/>
+      <c r="GV5" s="32"/>
+      <c r="GW5" s="32"/>
+      <c r="GX5" s="33"/>
+      <c r="GY5" s="31">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="31"/>
-      <c r="HA5" s="31"/>
-      <c r="HB5" s="31"/>
-      <c r="HC5" s="31"/>
-      <c r="HD5" s="31"/>
-      <c r="HE5" s="31"/>
-      <c r="HF5" s="31"/>
-      <c r="HG5" s="31"/>
-      <c r="HH5" s="31"/>
-      <c r="HI5" s="31"/>
-      <c r="HJ5" s="32"/>
-      <c r="HK5" s="30">
+      <c r="GZ5" s="32"/>
+      <c r="HA5" s="32"/>
+      <c r="HB5" s="32"/>
+      <c r="HC5" s="32"/>
+      <c r="HD5" s="32"/>
+      <c r="HE5" s="32"/>
+      <c r="HF5" s="32"/>
+      <c r="HG5" s="32"/>
+      <c r="HH5" s="32"/>
+      <c r="HI5" s="32"/>
+      <c r="HJ5" s="33"/>
+      <c r="HK5" s="31">
         <v>2016</v>
       </c>
-      <c r="HL5" s="31"/>
-      <c r="HM5" s="31"/>
-      <c r="HN5" s="31"/>
-      <c r="HO5" s="31"/>
-      <c r="HP5" s="31"/>
-      <c r="HQ5" s="31"/>
-      <c r="HR5" s="31"/>
-      <c r="HS5" s="31"/>
-      <c r="HT5" s="31"/>
-      <c r="HU5" s="31"/>
-      <c r="HV5" s="32"/>
-      <c r="HW5" s="30">
+      <c r="HL5" s="32"/>
+      <c r="HM5" s="32"/>
+      <c r="HN5" s="32"/>
+      <c r="HO5" s="32"/>
+      <c r="HP5" s="32"/>
+      <c r="HQ5" s="32"/>
+      <c r="HR5" s="32"/>
+      <c r="HS5" s="32"/>
+      <c r="HT5" s="32"/>
+      <c r="HU5" s="32"/>
+      <c r="HV5" s="33"/>
+      <c r="HW5" s="31">
         <v>2017</v>
       </c>
-      <c r="HX5" s="31"/>
-      <c r="HY5" s="31"/>
-      <c r="HZ5" s="31"/>
-      <c r="IA5" s="31"/>
-      <c r="IB5" s="31"/>
-      <c r="IC5" s="31"/>
-      <c r="ID5" s="31"/>
-      <c r="IE5" s="31"/>
-      <c r="IF5" s="31"/>
-      <c r="IG5" s="31"/>
-      <c r="IH5" s="32"/>
-      <c r="II5" s="30">
+      <c r="HX5" s="32"/>
+      <c r="HY5" s="32"/>
+      <c r="HZ5" s="32"/>
+      <c r="IA5" s="32"/>
+      <c r="IB5" s="32"/>
+      <c r="IC5" s="32"/>
+      <c r="ID5" s="32"/>
+      <c r="IE5" s="32"/>
+      <c r="IF5" s="32"/>
+      <c r="IG5" s="32"/>
+      <c r="IH5" s="33"/>
+      <c r="II5" s="31">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="31"/>
-      <c r="IK5" s="31"/>
-      <c r="IL5" s="31"/>
-      <c r="IM5" s="31"/>
-      <c r="IN5" s="31"/>
-      <c r="IO5" s="31"/>
-      <c r="IP5" s="31"/>
-      <c r="IQ5" s="31"/>
-      <c r="IR5" s="31"/>
-      <c r="IS5" s="31"/>
-      <c r="IT5" s="32"/>
-      <c r="IU5" s="30">
+      <c r="IJ5" s="32"/>
+      <c r="IK5" s="32"/>
+      <c r="IL5" s="32"/>
+      <c r="IM5" s="32"/>
+      <c r="IN5" s="32"/>
+      <c r="IO5" s="32"/>
+      <c r="IP5" s="32"/>
+      <c r="IQ5" s="32"/>
+      <c r="IR5" s="32"/>
+      <c r="IS5" s="32"/>
+      <c r="IT5" s="33"/>
+      <c r="IU5" s="31">
         <v>2019</v>
       </c>
-      <c r="IV5" s="31"/>
-      <c r="IW5" s="31"/>
-      <c r="IX5" s="31"/>
-      <c r="IY5" s="31"/>
-      <c r="IZ5" s="31"/>
-      <c r="JA5" s="31"/>
-      <c r="JB5" s="31"/>
-      <c r="JC5" s="31"/>
-      <c r="JD5" s="31"/>
-      <c r="JE5" s="31"/>
-      <c r="JF5" s="32"/>
-      <c r="JG5" s="30">
+      <c r="IV5" s="32"/>
+      <c r="IW5" s="32"/>
+      <c r="IX5" s="32"/>
+      <c r="IY5" s="32"/>
+      <c r="IZ5" s="32"/>
+      <c r="JA5" s="32"/>
+      <c r="JB5" s="32"/>
+      <c r="JC5" s="32"/>
+      <c r="JD5" s="32"/>
+      <c r="JE5" s="32"/>
+      <c r="JF5" s="33"/>
+      <c r="JG5" s="31">
         <v>2020</v>
       </c>
-      <c r="JH5" s="31"/>
-      <c r="JI5" s="31"/>
-      <c r="JJ5" s="31"/>
-      <c r="JK5" s="31"/>
-      <c r="JL5" s="31"/>
-      <c r="JM5" s="31"/>
-      <c r="JN5" s="31"/>
-      <c r="JO5" s="31"/>
-      <c r="JP5" s="31"/>
-      <c r="JQ5" s="31"/>
-      <c r="JR5" s="32"/>
-      <c r="JS5" s="30">
+      <c r="JH5" s="32"/>
+      <c r="JI5" s="32"/>
+      <c r="JJ5" s="32"/>
+      <c r="JK5" s="32"/>
+      <c r="JL5" s="32"/>
+      <c r="JM5" s="32"/>
+      <c r="JN5" s="32"/>
+      <c r="JO5" s="32"/>
+      <c r="JP5" s="32"/>
+      <c r="JQ5" s="32"/>
+      <c r="JR5" s="33"/>
+      <c r="JS5" s="31">
         <v>2021</v>
       </c>
-      <c r="JT5" s="31"/>
-      <c r="JU5" s="31"/>
-      <c r="JV5" s="31"/>
-      <c r="JW5" s="31"/>
-      <c r="JX5" s="31"/>
-      <c r="JY5" s="31"/>
-      <c r="JZ5" s="31"/>
-      <c r="KA5" s="31"/>
-      <c r="KB5" s="31"/>
-      <c r="KC5" s="31"/>
-      <c r="KD5" s="32"/>
+      <c r="JT5" s="32"/>
+      <c r="JU5" s="32"/>
+      <c r="JV5" s="32"/>
+      <c r="JW5" s="32"/>
+      <c r="JX5" s="32"/>
+      <c r="JY5" s="32"/>
+      <c r="JZ5" s="32"/>
+      <c r="KA5" s="32"/>
+      <c r="KB5" s="32"/>
+      <c r="KC5" s="32"/>
+      <c r="KD5" s="33"/>
+      <c r="KE5" s="41">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="6" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="15" t="s">
@@ -2516,8 +2537,11 @@
       <c r="KD6" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="KE6" s="36" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:290" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:291" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3388,8 +3412,11 @@
       <c r="KD7" s="18">
         <v>116251</v>
       </c>
+      <c r="KE7" s="37">
+        <v>121583</v>
+      </c>
     </row>
-    <row r="8" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4258,8 +4285,11 @@
       <c r="KD8" s="4">
         <v>22475</v>
       </c>
+      <c r="KE8" s="38">
+        <v>23143</v>
+      </c>
     </row>
-    <row r="9" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5128,8 +5158,11 @@
       <c r="KD9" s="4">
         <v>5150</v>
       </c>
+      <c r="KE9" s="38">
+        <v>5625</v>
+      </c>
     </row>
-    <row r="10" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -5998,8 +6031,11 @@
       <c r="KD10" s="4">
         <v>17867</v>
       </c>
+      <c r="KE10" s="38">
+        <v>19015</v>
+      </c>
     </row>
-    <row r="11" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -6868,8 +6904,11 @@
       <c r="KD11" s="4">
         <v>17813</v>
       </c>
+      <c r="KE11" s="38">
+        <v>18803</v>
+      </c>
     </row>
-    <row r="12" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7738,8 +7777,11 @@
       <c r="KD12" s="4">
         <v>15700</v>
       </c>
+      <c r="KE12" s="38">
+        <v>16498</v>
+      </c>
     </row>
-    <row r="13" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8608,8 +8650,11 @@
       <c r="KD13" s="4">
         <v>13805</v>
       </c>
+      <c r="KE13" s="38">
+        <v>14337</v>
+      </c>
     </row>
-    <row r="14" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9478,8 +9523,11 @@
       <c r="KD14" s="4">
         <v>12020</v>
       </c>
+      <c r="KE14" s="38">
+        <v>12468</v>
+      </c>
     </row>
-    <row r="15" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10348,8 +10396,11 @@
       <c r="KD15" s="4">
         <v>11415</v>
       </c>
+      <c r="KE15" s="38">
+        <v>11687</v>
+      </c>
     </row>
-    <row r="16" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11218,8 +11269,11 @@
       <c r="KD16" s="4">
         <v>6</v>
       </c>
+      <c r="KE16" s="38">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12090,8 +12144,11 @@
       <c r="KD17" s="18">
         <v>388949</v>
       </c>
+      <c r="KE17" s="37">
+        <v>388222</v>
+      </c>
     </row>
-    <row r="18" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -12960,8 +13017,11 @@
       <c r="KD18" s="4">
         <v>56484</v>
       </c>
+      <c r="KE18" s="38">
+        <v>57226</v>
+      </c>
     </row>
-    <row r="19" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -13830,8 +13890,11 @@
       <c r="KD19" s="4">
         <v>12274</v>
       </c>
+      <c r="KE19" s="38">
+        <v>11312</v>
+      </c>
     </row>
-    <row r="20" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -14700,8 +14763,11 @@
       <c r="KD20" s="4">
         <v>54983</v>
       </c>
+      <c r="KE20" s="38">
+        <v>53944</v>
+      </c>
     </row>
-    <row r="21" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -15570,8 +15636,11 @@
       <c r="KD21" s="4">
         <v>66353</v>
       </c>
+      <c r="KE21" s="38">
+        <v>65885</v>
+      </c>
     </row>
-    <row r="22" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16440,8 +16509,11 @@
       <c r="KD22" s="4">
         <v>63098</v>
       </c>
+      <c r="KE22" s="38">
+        <v>63554</v>
+      </c>
     </row>
-    <row r="23" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17310,8 +17382,11 @@
       <c r="KD23" s="4">
         <v>54144</v>
       </c>
+      <c r="KE23" s="38">
+        <v>54369</v>
+      </c>
     </row>
-    <row r="24" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18180,8 +18255,11 @@
       <c r="KD24" s="4">
         <v>44201</v>
       </c>
+      <c r="KE24" s="38">
+        <v>44414</v>
+      </c>
     </row>
-    <row r="25" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -19050,8 +19128,11 @@
       <c r="KD25" s="4">
         <v>37412</v>
       </c>
+      <c r="KE25" s="38">
+        <v>37518</v>
+      </c>
     </row>
-    <row r="26" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -19916,8 +19997,9 @@
         <v>1</v>
       </c>
       <c r="KD26" s="4"/>
+      <c r="KE26" s="38"/>
     </row>
-    <row r="27" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -20788,8 +20870,11 @@
       <c r="KD27" s="18">
         <v>134547</v>
       </c>
+      <c r="KE27" s="37">
+        <v>135688</v>
+      </c>
     </row>
-    <row r="28" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -21658,8 +21743,11 @@
       <c r="KD28" s="4">
         <v>24018</v>
       </c>
+      <c r="KE28" s="38">
+        <v>24300</v>
+      </c>
     </row>
-    <row r="29" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -22528,8 +22616,11 @@
       <c r="KD29" s="4">
         <v>4614</v>
       </c>
+      <c r="KE29" s="38">
+        <v>4602</v>
+      </c>
     </row>
-    <row r="30" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -23398,8 +23489,11 @@
       <c r="KD30" s="4">
         <v>16820</v>
       </c>
+      <c r="KE30" s="38">
+        <v>16947</v>
+      </c>
     </row>
-    <row r="31" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -24268,8 +24362,11 @@
       <c r="KD31" s="4">
         <v>21917</v>
       </c>
+      <c r="KE31" s="38">
+        <v>22001</v>
+      </c>
     </row>
-    <row r="32" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -25138,8 +25235,11 @@
       <c r="KD32" s="4">
         <v>20182</v>
       </c>
+      <c r="KE32" s="38">
+        <v>20615</v>
+      </c>
     </row>
-    <row r="33" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -26008,8 +26108,11 @@
       <c r="KD33" s="4">
         <v>18029</v>
       </c>
+      <c r="KE33" s="38">
+        <v>18181</v>
+      </c>
     </row>
-    <row r="34" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -26878,8 +26981,11 @@
       <c r="KD34" s="4">
         <v>15427</v>
       </c>
+      <c r="KE34" s="38">
+        <v>15383</v>
+      </c>
     </row>
-    <row r="35" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -27748,8 +27854,11 @@
       <c r="KD35" s="4">
         <v>13517</v>
       </c>
+      <c r="KE35" s="38">
+        <v>13638</v>
+      </c>
     </row>
-    <row r="36" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -28618,8 +28727,11 @@
       <c r="KD36" s="4">
         <v>23</v>
       </c>
+      <c r="KE36" s="38">
+        <v>21</v>
+      </c>
     </row>
-    <row r="37" spans="1:290" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:291" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -29490,8 +29602,11 @@
       <c r="KD37" s="28">
         <v>9393</v>
       </c>
+      <c r="KE37" s="39">
+        <v>9433</v>
+      </c>
     </row>
-    <row r="38" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -30360,8 +30475,11 @@
       <c r="KD38" s="4">
         <v>1703</v>
       </c>
+      <c r="KE38" s="38">
+        <v>1708</v>
+      </c>
     </row>
-    <row r="39" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -31230,8 +31348,11 @@
       <c r="KD39" s="4">
         <v>57</v>
       </c>
+      <c r="KE39" s="38">
+        <v>67</v>
+      </c>
     </row>
-    <row r="40" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -32100,8 +32221,11 @@
       <c r="KD40" s="4">
         <v>409</v>
       </c>
+      <c r="KE40" s="38">
+        <v>441</v>
+      </c>
     </row>
-    <row r="41" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -32970,8 +33094,11 @@
       <c r="KD41" s="4">
         <v>969</v>
       </c>
+      <c r="KE41" s="38">
+        <v>952</v>
+      </c>
     </row>
-    <row r="42" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -33840,8 +33967,11 @@
       <c r="KD42" s="4">
         <v>1379</v>
       </c>
+      <c r="KE42" s="38">
+        <v>1379</v>
+      </c>
     </row>
-    <row r="43" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -34710,8 +34840,11 @@
       <c r="KD43" s="4">
         <v>1761</v>
       </c>
+      <c r="KE43" s="38">
+        <v>1773</v>
+      </c>
     </row>
-    <row r="44" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -35580,8 +35713,11 @@
       <c r="KD44" s="4">
         <v>1696</v>
       </c>
+      <c r="KE44" s="38">
+        <v>1706</v>
+      </c>
     </row>
-    <row r="45" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -36450,8 +36586,11 @@
       <c r="KD45" s="4">
         <v>1419</v>
       </c>
+      <c r="KE45" s="38">
+        <v>1407</v>
+      </c>
     </row>
-    <row r="46" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -36868,8 +37007,9 @@
       <c r="KB46" s="3"/>
       <c r="KC46" s="3"/>
       <c r="KD46" s="4"/>
+      <c r="KE46" s="38"/>
     </row>
-    <row r="47" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -37740,8 +37880,11 @@
       <c r="KD47" s="18">
         <v>480660</v>
       </c>
+      <c r="KE47" s="37">
+        <v>483047</v>
+      </c>
     </row>
-    <row r="48" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -38610,8 +38753,11 @@
       <c r="KD48" s="4">
         <v>71374</v>
       </c>
+      <c r="KE48" s="38">
+        <v>72221</v>
+      </c>
     </row>
-    <row r="49" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -39480,8 +39626,11 @@
       <c r="KD49" s="4">
         <v>15454</v>
       </c>
+      <c r="KE49" s="38">
+        <v>15247</v>
+      </c>
     </row>
-    <row r="50" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -40350,8 +40499,11 @@
       <c r="KD50" s="4">
         <v>66384</v>
       </c>
+      <c r="KE50" s="38">
+        <v>66575</v>
+      </c>
     </row>
-    <row r="51" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -41220,8 +41372,11 @@
       <c r="KD51" s="4">
         <v>78518</v>
       </c>
+      <c r="KE51" s="38">
+        <v>78525</v>
+      </c>
     </row>
-    <row r="52" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -42090,8 +42245,11 @@
       <c r="KD52" s="4">
         <v>72399</v>
       </c>
+      <c r="KE52" s="38">
+        <v>73074</v>
+      </c>
     </row>
-    <row r="53" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -42960,8 +43118,11 @@
       <c r="KD53" s="4">
         <v>65685</v>
       </c>
+      <c r="KE53" s="38">
+        <v>66091</v>
+      </c>
     </row>
-    <row r="54" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -43830,8 +43991,11 @@
       <c r="KD54" s="4">
         <v>59516</v>
       </c>
+      <c r="KE54" s="38">
+        <v>59688</v>
+      </c>
     </row>
-    <row r="55" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -44700,8 +44864,11 @@
       <c r="KD55" s="4">
         <v>51324</v>
       </c>
+      <c r="KE55" s="38">
+        <v>51620</v>
+      </c>
     </row>
-    <row r="56" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -45570,8 +45737,11 @@
       <c r="KD56" s="4">
         <v>6</v>
       </c>
+      <c r="KE56" s="38">
+        <v>6</v>
+      </c>
     </row>
-    <row r="57" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -46442,8 +46612,11 @@
       <c r="KD57" s="18">
         <v>2624</v>
       </c>
+      <c r="KE57" s="37">
+        <v>2642</v>
+      </c>
     </row>
-    <row r="58" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -47312,8 +47485,11 @@
       <c r="KD58" s="4">
         <v>493</v>
       </c>
+      <c r="KE58" s="38">
+        <v>501</v>
+      </c>
     </row>
-    <row r="59" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -48182,8 +48358,11 @@
       <c r="KD59" s="4">
         <v>38</v>
       </c>
+      <c r="KE59" s="38">
+        <v>39</v>
+      </c>
     </row>
-    <row r="60" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -49052,8 +49231,11 @@
       <c r="KD60" s="4">
         <v>242</v>
       </c>
+      <c r="KE60" s="38">
+        <v>237</v>
+      </c>
     </row>
-    <row r="61" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -49922,8 +50104,11 @@
       <c r="KD61" s="4">
         <v>406</v>
       </c>
+      <c r="KE61" s="38">
+        <v>398</v>
+      </c>
     </row>
-    <row r="62" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -50792,8 +50977,11 @@
       <c r="KD62" s="4">
         <v>441</v>
       </c>
+      <c r="KE62" s="38">
+        <v>443</v>
+      </c>
     </row>
-    <row r="63" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -51662,8 +51850,11 @@
       <c r="KD63" s="4">
         <v>379</v>
       </c>
+      <c r="KE63" s="38">
+        <v>394</v>
+      </c>
     </row>
-    <row r="64" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -52532,8 +52723,11 @@
       <c r="KD64" s="4">
         <v>334</v>
       </c>
+      <c r="KE64" s="38">
+        <v>337</v>
+      </c>
     </row>
-    <row r="65" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -53402,8 +53596,11 @@
       <c r="KD65" s="4">
         <v>291</v>
       </c>
+      <c r="KE65" s="38">
+        <v>293</v>
+      </c>
     </row>
-    <row r="66" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -53754,8 +53951,9 @@
       <c r="KB66" s="3"/>
       <c r="KC66" s="3"/>
       <c r="KD66" s="4"/>
+      <c r="KE66" s="38"/>
     </row>
-    <row r="67" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -54626,8 +54824,11 @@
       <c r="KD67" s="18">
         <v>620320</v>
       </c>
+      <c r="KE67" s="37">
+        <v>622201</v>
+      </c>
     </row>
-    <row r="68" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -55496,8 +55697,11 @@
       <c r="KD68" s="4">
         <v>129724</v>
       </c>
+      <c r="KE68" s="38">
+        <v>130770</v>
+      </c>
     </row>
-    <row r="69" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -56366,8 +56570,11 @@
       <c r="KD69" s="4">
         <v>11211</v>
       </c>
+      <c r="KE69" s="38">
+        <v>10644</v>
+      </c>
     </row>
-    <row r="70" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -57236,8 +57443,11 @@
       <c r="KD70" s="4">
         <v>60612</v>
       </c>
+      <c r="KE70" s="38">
+        <v>60181</v>
+      </c>
     </row>
-    <row r="71" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -58106,8 +58316,11 @@
       <c r="KD71" s="4">
         <v>96741</v>
       </c>
+      <c r="KE71" s="38">
+        <v>96568</v>
+      </c>
     </row>
-    <row r="72" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -58976,8 +59189,11 @@
       <c r="KD72" s="4">
         <v>92685</v>
       </c>
+      <c r="KE72" s="38">
+        <v>93394</v>
+      </c>
     </row>
-    <row r="73" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -59846,8 +60062,11 @@
       <c r="KD73" s="4">
         <v>84675</v>
       </c>
+      <c r="KE73" s="38">
+        <v>85172</v>
+      </c>
     </row>
-    <row r="74" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -60716,8 +60935,11 @@
       <c r="KD74" s="4">
         <v>75838</v>
       </c>
+      <c r="KE74" s="38">
+        <v>76245</v>
+      </c>
     </row>
-    <row r="75" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -61586,8 +61808,11 @@
       <c r="KD75" s="4">
         <v>68829</v>
       </c>
+      <c r="KE75" s="38">
+        <v>69224</v>
+      </c>
     </row>
-    <row r="76" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -62456,8 +62681,11 @@
       <c r="KD76" s="4">
         <v>5</v>
       </c>
+      <c r="KE76" s="38">
+        <v>3</v>
+      </c>
     </row>
-    <row r="77" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -63328,8 +63556,11 @@
       <c r="KD77" s="18">
         <v>97255</v>
       </c>
+      <c r="KE77" s="37">
+        <v>98343</v>
+      </c>
     </row>
-    <row r="78" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -64198,8 +64429,11 @@
       <c r="KD78" s="4">
         <v>17150</v>
       </c>
+      <c r="KE78" s="38">
+        <v>17523</v>
+      </c>
     </row>
-    <row r="79" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -65068,8 +65302,11 @@
       <c r="KD79" s="4">
         <v>1756</v>
       </c>
+      <c r="KE79" s="38">
+        <v>1737</v>
+      </c>
     </row>
-    <row r="80" spans="1:290" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:291" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -65938,8 +66175,11 @@
       <c r="KD80" s="4">
         <v>10949</v>
       </c>
+      <c r="KE80" s="38">
+        <v>10980</v>
+      </c>
     </row>
-    <row r="81" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -66808,8 +67048,11 @@
       <c r="KD81" s="4">
         <v>14957</v>
       </c>
+      <c r="KE81" s="38">
+        <v>14964</v>
+      </c>
     </row>
-    <row r="82" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -67678,8 +67921,11 @@
       <c r="KD82" s="4">
         <v>14797</v>
       </c>
+      <c r="KE82" s="38">
+        <v>15088</v>
+      </c>
     </row>
-    <row r="83" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -68548,8 +68794,11 @@
       <c r="KD83" s="4">
         <v>14184</v>
       </c>
+      <c r="KE83" s="38">
+        <v>14353</v>
+      </c>
     </row>
-    <row r="84" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -69418,8 +69667,11 @@
       <c r="KD84" s="4">
         <v>12337</v>
       </c>
+      <c r="KE84" s="38">
+        <v>12487</v>
+      </c>
     </row>
-    <row r="85" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -70288,8 +70540,11 @@
       <c r="KD85" s="4">
         <v>11124</v>
       </c>
+      <c r="KE85" s="38">
+        <v>11211</v>
+      </c>
     </row>
-    <row r="86" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -70974,8 +71229,9 @@
       <c r="KD86" s="4">
         <v>1</v>
       </c>
+      <c r="KE86" s="38"/>
     </row>
-    <row r="87" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -71846,25 +72102,41 @@
       <c r="KD87" s="23">
         <v>1849999</v>
       </c>
-      <c r="KE87" s="24"/>
+      <c r="KE87" s="40">
+        <v>1861159</v>
+      </c>
+      <c r="KF87" s="24"/>
     </row>
-    <row r="88" spans="1:291" x14ac:dyDescent="0.2">
-      <c r="A88" s="33" t="s">
+    <row r="88" spans="1:292" x14ac:dyDescent="0.2">
+      <c r="A88" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
       <c r="KD88" s="24"/>
     </row>
-    <row r="89" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:292" x14ac:dyDescent="0.2">
       <c r="KD89" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="JS5:KD5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="IU5:JF5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -71881,19 +72153,6 @@
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
     <mergeCell ref="DS5:ED5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JS5:KD5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-enero 2022</t>
+    <t>Enero 1998-febrero 2022</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -930,9 +930,6 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -942,29 +939,38 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="19" fillId="36" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1287,390 +1293,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KF89"/>
+  <dimension ref="A1:KG89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KF81" sqref="KF81"/>
+      <selection pane="topRight" activeCell="KH9" sqref="KH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="291" width="11.85546875" style="1" customWidth="1"/>
-    <col min="292" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="292" width="11.85546875" style="1" customWidth="1"/>
+    <col min="293" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:291" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:291" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:292" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
     </row>
-    <row r="3" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:291" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:292" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>1998</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="31">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="30">
         <v>1999</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="31">
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="30">
         <v>2000</v>
       </c>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="31">
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="30">
         <v>2001</v>
       </c>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="32"/>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="31">
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="31"/>
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="31"/>
+      <c r="AT5" s="31"/>
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="31"/>
+      <c r="AW5" s="31"/>
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="30">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="32"/>
-      <c r="BA5" s="32"/>
-      <c r="BB5" s="32"/>
-      <c r="BC5" s="32"/>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="31">
+      <c r="AZ5" s="31"/>
+      <c r="BA5" s="31"/>
+      <c r="BB5" s="31"/>
+      <c r="BC5" s="31"/>
+      <c r="BD5" s="31"/>
+      <c r="BE5" s="31"/>
+      <c r="BF5" s="31"/>
+      <c r="BG5" s="31"/>
+      <c r="BH5" s="31"/>
+      <c r="BI5" s="31"/>
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="30">
         <v>2003</v>
       </c>
-      <c r="BL5" s="32"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="32"/>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="32"/>
-      <c r="BR5" s="32"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="32"/>
-      <c r="BU5" s="32"/>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="31">
+      <c r="BL5" s="31"/>
+      <c r="BM5" s="31"/>
+      <c r="BN5" s="31"/>
+      <c r="BO5" s="31"/>
+      <c r="BP5" s="31"/>
+      <c r="BQ5" s="31"/>
+      <c r="BR5" s="31"/>
+      <c r="BS5" s="31"/>
+      <c r="BT5" s="31"/>
+      <c r="BU5" s="31"/>
+      <c r="BV5" s="32"/>
+      <c r="BW5" s="30">
         <v>2004</v>
       </c>
-      <c r="BX5" s="32"/>
-      <c r="BY5" s="32"/>
-      <c r="BZ5" s="32"/>
-      <c r="CA5" s="32"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="32"/>
-      <c r="CD5" s="32"/>
-      <c r="CE5" s="32"/>
-      <c r="CF5" s="32"/>
-      <c r="CG5" s="32"/>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="31">
+      <c r="BX5" s="31"/>
+      <c r="BY5" s="31"/>
+      <c r="BZ5" s="31"/>
+      <c r="CA5" s="31"/>
+      <c r="CB5" s="31"/>
+      <c r="CC5" s="31"/>
+      <c r="CD5" s="31"/>
+      <c r="CE5" s="31"/>
+      <c r="CF5" s="31"/>
+      <c r="CG5" s="31"/>
+      <c r="CH5" s="32"/>
+      <c r="CI5" s="30">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="32"/>
-      <c r="CK5" s="32"/>
-      <c r="CL5" s="32"/>
-      <c r="CM5" s="32"/>
-      <c r="CN5" s="32"/>
-      <c r="CO5" s="32"/>
-      <c r="CP5" s="32"/>
-      <c r="CQ5" s="32"/>
-      <c r="CR5" s="32"/>
-      <c r="CS5" s="32"/>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="31">
+      <c r="CJ5" s="31"/>
+      <c r="CK5" s="31"/>
+      <c r="CL5" s="31"/>
+      <c r="CM5" s="31"/>
+      <c r="CN5" s="31"/>
+      <c r="CO5" s="31"/>
+      <c r="CP5" s="31"/>
+      <c r="CQ5" s="31"/>
+      <c r="CR5" s="31"/>
+      <c r="CS5" s="31"/>
+      <c r="CT5" s="32"/>
+      <c r="CU5" s="30">
         <v>2006</v>
       </c>
-      <c r="CV5" s="32"/>
-      <c r="CW5" s="32"/>
-      <c r="CX5" s="32"/>
-      <c r="CY5" s="32"/>
-      <c r="CZ5" s="32"/>
-      <c r="DA5" s="32"/>
-      <c r="DB5" s="32"/>
-      <c r="DC5" s="32"/>
-      <c r="DD5" s="32"/>
-      <c r="DE5" s="32"/>
-      <c r="DF5" s="33"/>
-      <c r="DG5" s="31">
+      <c r="CV5" s="31"/>
+      <c r="CW5" s="31"/>
+      <c r="CX5" s="31"/>
+      <c r="CY5" s="31"/>
+      <c r="CZ5" s="31"/>
+      <c r="DA5" s="31"/>
+      <c r="DB5" s="31"/>
+      <c r="DC5" s="31"/>
+      <c r="DD5" s="31"/>
+      <c r="DE5" s="31"/>
+      <c r="DF5" s="32"/>
+      <c r="DG5" s="30">
         <v>2007</v>
       </c>
-      <c r="DH5" s="32"/>
-      <c r="DI5" s="32"/>
-      <c r="DJ5" s="32"/>
-      <c r="DK5" s="32"/>
-      <c r="DL5" s="32"/>
-      <c r="DM5" s="32"/>
-      <c r="DN5" s="32"/>
-      <c r="DO5" s="32"/>
-      <c r="DP5" s="32"/>
-      <c r="DQ5" s="32"/>
-      <c r="DR5" s="33"/>
-      <c r="DS5" s="31">
+      <c r="DH5" s="31"/>
+      <c r="DI5" s="31"/>
+      <c r="DJ5" s="31"/>
+      <c r="DK5" s="31"/>
+      <c r="DL5" s="31"/>
+      <c r="DM5" s="31"/>
+      <c r="DN5" s="31"/>
+      <c r="DO5" s="31"/>
+      <c r="DP5" s="31"/>
+      <c r="DQ5" s="31"/>
+      <c r="DR5" s="32"/>
+      <c r="DS5" s="30">
         <v>2008</v>
       </c>
-      <c r="DT5" s="32"/>
-      <c r="DU5" s="32"/>
-      <c r="DV5" s="32"/>
-      <c r="DW5" s="32"/>
-      <c r="DX5" s="32"/>
-      <c r="DY5" s="32"/>
-      <c r="DZ5" s="32"/>
-      <c r="EA5" s="32"/>
-      <c r="EB5" s="32"/>
-      <c r="EC5" s="32"/>
-      <c r="ED5" s="33"/>
-      <c r="EE5" s="31">
+      <c r="DT5" s="31"/>
+      <c r="DU5" s="31"/>
+      <c r="DV5" s="31"/>
+      <c r="DW5" s="31"/>
+      <c r="DX5" s="31"/>
+      <c r="DY5" s="31"/>
+      <c r="DZ5" s="31"/>
+      <c r="EA5" s="31"/>
+      <c r="EB5" s="31"/>
+      <c r="EC5" s="31"/>
+      <c r="ED5" s="32"/>
+      <c r="EE5" s="30">
         <v>2009</v>
       </c>
-      <c r="EF5" s="32"/>
-      <c r="EG5" s="32"/>
-      <c r="EH5" s="32"/>
-      <c r="EI5" s="32"/>
-      <c r="EJ5" s="32"/>
-      <c r="EK5" s="32"/>
-      <c r="EL5" s="32"/>
-      <c r="EM5" s="32"/>
-      <c r="EN5" s="32"/>
-      <c r="EO5" s="32"/>
-      <c r="EP5" s="33"/>
-      <c r="EQ5" s="31">
+      <c r="EF5" s="31"/>
+      <c r="EG5" s="31"/>
+      <c r="EH5" s="31"/>
+      <c r="EI5" s="31"/>
+      <c r="EJ5" s="31"/>
+      <c r="EK5" s="31"/>
+      <c r="EL5" s="31"/>
+      <c r="EM5" s="31"/>
+      <c r="EN5" s="31"/>
+      <c r="EO5" s="31"/>
+      <c r="EP5" s="32"/>
+      <c r="EQ5" s="30">
         <v>2010</v>
       </c>
-      <c r="ER5" s="32"/>
-      <c r="ES5" s="32"/>
-      <c r="ET5" s="32"/>
-      <c r="EU5" s="32"/>
-      <c r="EV5" s="32"/>
-      <c r="EW5" s="32"/>
-      <c r="EX5" s="32"/>
-      <c r="EY5" s="32"/>
-      <c r="EZ5" s="32"/>
-      <c r="FA5" s="32"/>
-      <c r="FB5" s="33"/>
-      <c r="FC5" s="31">
+      <c r="ER5" s="31"/>
+      <c r="ES5" s="31"/>
+      <c r="ET5" s="31"/>
+      <c r="EU5" s="31"/>
+      <c r="EV5" s="31"/>
+      <c r="EW5" s="31"/>
+      <c r="EX5" s="31"/>
+      <c r="EY5" s="31"/>
+      <c r="EZ5" s="31"/>
+      <c r="FA5" s="31"/>
+      <c r="FB5" s="32"/>
+      <c r="FC5" s="30">
         <v>2011</v>
       </c>
-      <c r="FD5" s="32"/>
-      <c r="FE5" s="32"/>
-      <c r="FF5" s="32"/>
-      <c r="FG5" s="32"/>
-      <c r="FH5" s="32"/>
-      <c r="FI5" s="32"/>
-      <c r="FJ5" s="32"/>
-      <c r="FK5" s="32"/>
-      <c r="FL5" s="32"/>
-      <c r="FM5" s="32"/>
-      <c r="FN5" s="33"/>
-      <c r="FO5" s="31">
+      <c r="FD5" s="31"/>
+      <c r="FE5" s="31"/>
+      <c r="FF5" s="31"/>
+      <c r="FG5" s="31"/>
+      <c r="FH5" s="31"/>
+      <c r="FI5" s="31"/>
+      <c r="FJ5" s="31"/>
+      <c r="FK5" s="31"/>
+      <c r="FL5" s="31"/>
+      <c r="FM5" s="31"/>
+      <c r="FN5" s="32"/>
+      <c r="FO5" s="30">
         <v>2012</v>
       </c>
-      <c r="FP5" s="32"/>
-      <c r="FQ5" s="32"/>
-      <c r="FR5" s="32"/>
-      <c r="FS5" s="32"/>
-      <c r="FT5" s="32"/>
-      <c r="FU5" s="32"/>
-      <c r="FV5" s="32"/>
-      <c r="FW5" s="32"/>
-      <c r="FX5" s="32"/>
-      <c r="FY5" s="32"/>
-      <c r="FZ5" s="33"/>
-      <c r="GA5" s="31">
+      <c r="FP5" s="31"/>
+      <c r="FQ5" s="31"/>
+      <c r="FR5" s="31"/>
+      <c r="FS5" s="31"/>
+      <c r="FT5" s="31"/>
+      <c r="FU5" s="31"/>
+      <c r="FV5" s="31"/>
+      <c r="FW5" s="31"/>
+      <c r="FX5" s="31"/>
+      <c r="FY5" s="31"/>
+      <c r="FZ5" s="32"/>
+      <c r="GA5" s="30">
         <v>2013</v>
       </c>
-      <c r="GB5" s="32"/>
-      <c r="GC5" s="32"/>
-      <c r="GD5" s="32"/>
-      <c r="GE5" s="32"/>
-      <c r="GF5" s="32"/>
-      <c r="GG5" s="32"/>
-      <c r="GH5" s="32"/>
-      <c r="GI5" s="32"/>
-      <c r="GJ5" s="32"/>
-      <c r="GK5" s="32"/>
-      <c r="GL5" s="33"/>
-      <c r="GM5" s="31">
+      <c r="GB5" s="31"/>
+      <c r="GC5" s="31"/>
+      <c r="GD5" s="31"/>
+      <c r="GE5" s="31"/>
+      <c r="GF5" s="31"/>
+      <c r="GG5" s="31"/>
+      <c r="GH5" s="31"/>
+      <c r="GI5" s="31"/>
+      <c r="GJ5" s="31"/>
+      <c r="GK5" s="31"/>
+      <c r="GL5" s="32"/>
+      <c r="GM5" s="30">
         <v>2014</v>
       </c>
-      <c r="GN5" s="32"/>
-      <c r="GO5" s="32"/>
-      <c r="GP5" s="32"/>
-      <c r="GQ5" s="32"/>
-      <c r="GR5" s="32"/>
-      <c r="GS5" s="32"/>
-      <c r="GT5" s="32"/>
-      <c r="GU5" s="32"/>
-      <c r="GV5" s="32"/>
-      <c r="GW5" s="32"/>
-      <c r="GX5" s="33"/>
-      <c r="GY5" s="31">
+      <c r="GN5" s="31"/>
+      <c r="GO5" s="31"/>
+      <c r="GP5" s="31"/>
+      <c r="GQ5" s="31"/>
+      <c r="GR5" s="31"/>
+      <c r="GS5" s="31"/>
+      <c r="GT5" s="31"/>
+      <c r="GU5" s="31"/>
+      <c r="GV5" s="31"/>
+      <c r="GW5" s="31"/>
+      <c r="GX5" s="32"/>
+      <c r="GY5" s="30">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="32"/>
-      <c r="HA5" s="32"/>
-      <c r="HB5" s="32"/>
-      <c r="HC5" s="32"/>
-      <c r="HD5" s="32"/>
-      <c r="HE5" s="32"/>
-      <c r="HF5" s="32"/>
-      <c r="HG5" s="32"/>
-      <c r="HH5" s="32"/>
-      <c r="HI5" s="32"/>
-      <c r="HJ5" s="33"/>
-      <c r="HK5" s="31">
+      <c r="GZ5" s="31"/>
+      <c r="HA5" s="31"/>
+      <c r="HB5" s="31"/>
+      <c r="HC5" s="31"/>
+      <c r="HD5" s="31"/>
+      <c r="HE5" s="31"/>
+      <c r="HF5" s="31"/>
+      <c r="HG5" s="31"/>
+      <c r="HH5" s="31"/>
+      <c r="HI5" s="31"/>
+      <c r="HJ5" s="32"/>
+      <c r="HK5" s="30">
         <v>2016</v>
       </c>
-      <c r="HL5" s="32"/>
-      <c r="HM5" s="32"/>
-      <c r="HN5" s="32"/>
-      <c r="HO5" s="32"/>
-      <c r="HP5" s="32"/>
-      <c r="HQ5" s="32"/>
-      <c r="HR5" s="32"/>
-      <c r="HS5" s="32"/>
-      <c r="HT5" s="32"/>
-      <c r="HU5" s="32"/>
-      <c r="HV5" s="33"/>
-      <c r="HW5" s="31">
+      <c r="HL5" s="31"/>
+      <c r="HM5" s="31"/>
+      <c r="HN5" s="31"/>
+      <c r="HO5" s="31"/>
+      <c r="HP5" s="31"/>
+      <c r="HQ5" s="31"/>
+      <c r="HR5" s="31"/>
+      <c r="HS5" s="31"/>
+      <c r="HT5" s="31"/>
+      <c r="HU5" s="31"/>
+      <c r="HV5" s="32"/>
+      <c r="HW5" s="30">
         <v>2017</v>
       </c>
-      <c r="HX5" s="32"/>
-      <c r="HY5" s="32"/>
-      <c r="HZ5" s="32"/>
-      <c r="IA5" s="32"/>
-      <c r="IB5" s="32"/>
-      <c r="IC5" s="32"/>
-      <c r="ID5" s="32"/>
-      <c r="IE5" s="32"/>
-      <c r="IF5" s="32"/>
-      <c r="IG5" s="32"/>
-      <c r="IH5" s="33"/>
-      <c r="II5" s="31">
+      <c r="HX5" s="31"/>
+      <c r="HY5" s="31"/>
+      <c r="HZ5" s="31"/>
+      <c r="IA5" s="31"/>
+      <c r="IB5" s="31"/>
+      <c r="IC5" s="31"/>
+      <c r="ID5" s="31"/>
+      <c r="IE5" s="31"/>
+      <c r="IF5" s="31"/>
+      <c r="IG5" s="31"/>
+      <c r="IH5" s="32"/>
+      <c r="II5" s="30">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="32"/>
-      <c r="IK5" s="32"/>
-      <c r="IL5" s="32"/>
-      <c r="IM5" s="32"/>
-      <c r="IN5" s="32"/>
-      <c r="IO5" s="32"/>
-      <c r="IP5" s="32"/>
-      <c r="IQ5" s="32"/>
-      <c r="IR5" s="32"/>
-      <c r="IS5" s="32"/>
-      <c r="IT5" s="33"/>
-      <c r="IU5" s="31">
+      <c r="IJ5" s="31"/>
+      <c r="IK5" s="31"/>
+      <c r="IL5" s="31"/>
+      <c r="IM5" s="31"/>
+      <c r="IN5" s="31"/>
+      <c r="IO5" s="31"/>
+      <c r="IP5" s="31"/>
+      <c r="IQ5" s="31"/>
+      <c r="IR5" s="31"/>
+      <c r="IS5" s="31"/>
+      <c r="IT5" s="32"/>
+      <c r="IU5" s="30">
         <v>2019</v>
       </c>
-      <c r="IV5" s="32"/>
-      <c r="IW5" s="32"/>
-      <c r="IX5" s="32"/>
-      <c r="IY5" s="32"/>
-      <c r="IZ5" s="32"/>
-      <c r="JA5" s="32"/>
-      <c r="JB5" s="32"/>
-      <c r="JC5" s="32"/>
-      <c r="JD5" s="32"/>
-      <c r="JE5" s="32"/>
-      <c r="JF5" s="33"/>
-      <c r="JG5" s="31">
+      <c r="IV5" s="31"/>
+      <c r="IW5" s="31"/>
+      <c r="IX5" s="31"/>
+      <c r="IY5" s="31"/>
+      <c r="IZ5" s="31"/>
+      <c r="JA5" s="31"/>
+      <c r="JB5" s="31"/>
+      <c r="JC5" s="31"/>
+      <c r="JD5" s="31"/>
+      <c r="JE5" s="31"/>
+      <c r="JF5" s="32"/>
+      <c r="JG5" s="30">
         <v>2020</v>
       </c>
-      <c r="JH5" s="32"/>
-      <c r="JI5" s="32"/>
-      <c r="JJ5" s="32"/>
-      <c r="JK5" s="32"/>
-      <c r="JL5" s="32"/>
-      <c r="JM5" s="32"/>
-      <c r="JN5" s="32"/>
-      <c r="JO5" s="32"/>
-      <c r="JP5" s="32"/>
-      <c r="JQ5" s="32"/>
-      <c r="JR5" s="33"/>
-      <c r="JS5" s="31">
+      <c r="JH5" s="31"/>
+      <c r="JI5" s="31"/>
+      <c r="JJ5" s="31"/>
+      <c r="JK5" s="31"/>
+      <c r="JL5" s="31"/>
+      <c r="JM5" s="31"/>
+      <c r="JN5" s="31"/>
+      <c r="JO5" s="31"/>
+      <c r="JP5" s="31"/>
+      <c r="JQ5" s="31"/>
+      <c r="JR5" s="32"/>
+      <c r="JS5" s="30">
         <v>2021</v>
       </c>
-      <c r="JT5" s="32"/>
-      <c r="JU5" s="32"/>
-      <c r="JV5" s="32"/>
-      <c r="JW5" s="32"/>
-      <c r="JX5" s="32"/>
-      <c r="JY5" s="32"/>
-      <c r="JZ5" s="32"/>
-      <c r="KA5" s="32"/>
-      <c r="KB5" s="32"/>
-      <c r="KC5" s="32"/>
-      <c r="KD5" s="33"/>
-      <c r="KE5" s="41">
+      <c r="JT5" s="31"/>
+      <c r="JU5" s="31"/>
+      <c r="JV5" s="31"/>
+      <c r="JW5" s="31"/>
+      <c r="JX5" s="31"/>
+      <c r="JY5" s="31"/>
+      <c r="JZ5" s="31"/>
+      <c r="KA5" s="31"/>
+      <c r="KB5" s="31"/>
+      <c r="KC5" s="31"/>
+      <c r="KD5" s="31"/>
+      <c r="KE5" s="30">
         <v>2022</v>
       </c>
+      <c r="KF5" s="32"/>
     </row>
-    <row r="6" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="15" t="s">
@@ -2534,14 +2541,17 @@
       <c r="KC6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="KD6" s="11" t="s">
+      <c r="KD6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="KE6" s="36" t="s">
+      <c r="KE6" s="19" t="s">
         <v>8</v>
       </c>
+      <c r="KF6" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:291" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:292" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3409,14 +3419,17 @@
       <c r="KC7" s="8">
         <v>119220</v>
       </c>
-      <c r="KD7" s="18">
+      <c r="KD7" s="8">
         <v>116251</v>
       </c>
-      <c r="KE7" s="37">
+      <c r="KE7" s="36">
         <v>121583</v>
       </c>
+      <c r="KF7" s="37">
+        <v>123302</v>
+      </c>
     </row>
-    <row r="8" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4282,14 +4295,17 @@
       <c r="KC8" s="3">
         <v>22065</v>
       </c>
-      <c r="KD8" s="4">
+      <c r="KD8" s="3">
         <v>22475</v>
       </c>
-      <c r="KE8" s="38">
+      <c r="KE8" s="2">
         <v>23143</v>
       </c>
+      <c r="KF8" s="4">
+        <v>23402</v>
+      </c>
     </row>
-    <row r="9" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5155,14 +5171,17 @@
       <c r="KC9" s="3">
         <v>5653</v>
       </c>
-      <c r="KD9" s="4">
+      <c r="KD9" s="3">
         <v>5150</v>
       </c>
-      <c r="KE9" s="38">
+      <c r="KE9" s="2">
         <v>5625</v>
       </c>
+      <c r="KF9" s="4">
+        <v>5645</v>
+      </c>
     </row>
-    <row r="10" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6028,14 +6047,17 @@
       <c r="KC10" s="3">
         <v>19188</v>
       </c>
-      <c r="KD10" s="4">
+      <c r="KD10" s="3">
         <v>17867</v>
       </c>
-      <c r="KE10" s="38">
+      <c r="KE10" s="2">
         <v>19015</v>
       </c>
+      <c r="KF10" s="4">
+        <v>19181</v>
+      </c>
     </row>
-    <row r="11" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -6901,14 +6923,17 @@
       <c r="KC11" s="3">
         <v>18649</v>
       </c>
-      <c r="KD11" s="4">
+      <c r="KD11" s="3">
         <v>17813</v>
       </c>
-      <c r="KE11" s="38">
+      <c r="KE11" s="2">
         <v>18803</v>
       </c>
+      <c r="KF11" s="4">
+        <v>19121</v>
+      </c>
     </row>
-    <row r="12" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7774,14 +7799,17 @@
       <c r="KC12" s="3">
         <v>16203</v>
       </c>
-      <c r="KD12" s="4">
+      <c r="KD12" s="3">
         <v>15700</v>
       </c>
-      <c r="KE12" s="38">
+      <c r="KE12" s="2">
         <v>16498</v>
       </c>
+      <c r="KF12" s="4">
+        <v>16717</v>
+      </c>
     </row>
-    <row r="13" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8647,14 +8675,17 @@
       <c r="KC13" s="3">
         <v>14015</v>
       </c>
-      <c r="KD13" s="4">
+      <c r="KD13" s="3">
         <v>13805</v>
       </c>
-      <c r="KE13" s="38">
+      <c r="KE13" s="2">
         <v>14337</v>
       </c>
+      <c r="KF13" s="4">
+        <v>14638</v>
+      </c>
     </row>
-    <row r="14" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9520,14 +9551,17 @@
       <c r="KC14" s="3">
         <v>12041</v>
       </c>
-      <c r="KD14" s="4">
+      <c r="KD14" s="3">
         <v>12020</v>
       </c>
-      <c r="KE14" s="38">
+      <c r="KE14" s="2">
         <v>12468</v>
       </c>
+      <c r="KF14" s="4">
+        <v>12699</v>
+      </c>
     </row>
-    <row r="15" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10393,14 +10427,17 @@
       <c r="KC15" s="3">
         <v>11400</v>
       </c>
-      <c r="KD15" s="4">
+      <c r="KD15" s="3">
         <v>11415</v>
       </c>
-      <c r="KE15" s="38">
+      <c r="KE15" s="2">
         <v>11687</v>
       </c>
+      <c r="KF15" s="4">
+        <v>11891</v>
+      </c>
     </row>
-    <row r="16" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11266,14 +11303,17 @@
       <c r="KC16" s="3">
         <v>6</v>
       </c>
-      <c r="KD16" s="4">
+      <c r="KD16" s="3">
         <v>6</v>
       </c>
-      <c r="KE16" s="38">
+      <c r="KE16" s="42">
         <v>7</v>
       </c>
+      <c r="KF16" s="43">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12141,14 +12181,17 @@
       <c r="KC17" s="8">
         <v>391234</v>
       </c>
-      <c r="KD17" s="18">
+      <c r="KD17" s="8">
         <v>388949</v>
       </c>
-      <c r="KE17" s="37">
+      <c r="KE17" s="36">
         <v>388222</v>
       </c>
+      <c r="KF17" s="37">
+        <v>388746</v>
+      </c>
     </row>
-    <row r="18" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13014,14 +13057,17 @@
       <c r="KC18" s="3">
         <v>56225</v>
       </c>
-      <c r="KD18" s="4">
+      <c r="KD18" s="3">
         <v>56484</v>
       </c>
-      <c r="KE18" s="38">
+      <c r="KE18" s="2">
         <v>57226</v>
       </c>
+      <c r="KF18" s="4">
+        <v>57489</v>
+      </c>
     </row>
-    <row r="19" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -13887,14 +13933,17 @@
       <c r="KC19" s="3">
         <v>13095</v>
       </c>
-      <c r="KD19" s="4">
+      <c r="KD19" s="3">
         <v>12274</v>
       </c>
-      <c r="KE19" s="38">
+      <c r="KE19" s="2">
         <v>11312</v>
       </c>
+      <c r="KF19" s="4">
+        <v>11173</v>
+      </c>
     </row>
-    <row r="20" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -14760,14 +14809,17 @@
       <c r="KC20" s="3">
         <v>56068</v>
       </c>
-      <c r="KD20" s="4">
+      <c r="KD20" s="3">
         <v>54983</v>
       </c>
-      <c r="KE20" s="38">
+      <c r="KE20" s="2">
         <v>53944</v>
       </c>
+      <c r="KF20" s="4">
+        <v>54062</v>
+      </c>
     </row>
-    <row r="21" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -15633,14 +15685,17 @@
       <c r="KC21" s="3">
         <v>67048</v>
       </c>
-      <c r="KD21" s="4">
+      <c r="KD21" s="3">
         <v>66353</v>
       </c>
-      <c r="KE21" s="38">
+      <c r="KE21" s="2">
         <v>65885</v>
       </c>
+      <c r="KF21" s="4">
+        <v>65808</v>
+      </c>
     </row>
-    <row r="22" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16506,14 +16561,17 @@
       <c r="KC22" s="3">
         <v>63243</v>
       </c>
-      <c r="KD22" s="4">
+      <c r="KD22" s="3">
         <v>63098</v>
       </c>
-      <c r="KE22" s="38">
+      <c r="KE22" s="2">
         <v>63554</v>
       </c>
+      <c r="KF22" s="4">
+        <v>63593</v>
+      </c>
     </row>
-    <row r="23" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17379,14 +17437,17 @@
       <c r="KC23" s="3">
         <v>54155</v>
       </c>
-      <c r="KD23" s="4">
+      <c r="KD23" s="3">
         <v>54144</v>
       </c>
-      <c r="KE23" s="38">
+      <c r="KE23" s="2">
         <v>54369</v>
       </c>
+      <c r="KF23" s="4">
+        <v>54418</v>
+      </c>
     </row>
-    <row r="24" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18252,14 +18313,17 @@
       <c r="KC24" s="3">
         <v>44130</v>
       </c>
-      <c r="KD24" s="4">
+      <c r="KD24" s="3">
         <v>44201</v>
       </c>
-      <c r="KE24" s="38">
+      <c r="KE24" s="2">
         <v>44414</v>
       </c>
+      <c r="KF24" s="4">
+        <v>44578</v>
+      </c>
     </row>
-    <row r="25" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -19125,14 +19189,17 @@
       <c r="KC25" s="3">
         <v>37269</v>
       </c>
-      <c r="KD25" s="4">
+      <c r="KD25" s="3">
         <v>37412</v>
       </c>
-      <c r="KE25" s="38">
+      <c r="KE25" s="2">
         <v>37518</v>
       </c>
+      <c r="KF25" s="4">
+        <v>37623</v>
+      </c>
     </row>
-    <row r="26" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -19996,10 +20063,13 @@
       <c r="KC26" s="3">
         <v>1</v>
       </c>
-      <c r="KD26" s="4"/>
-      <c r="KE26" s="38"/>
+      <c r="KD26" s="3"/>
+      <c r="KE26" s="42"/>
+      <c r="KF26" s="43">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -20867,14 +20937,17 @@
       <c r="KC27" s="8">
         <v>141823</v>
       </c>
-      <c r="KD27" s="18">
+      <c r="KD27" s="8">
         <v>134547</v>
       </c>
-      <c r="KE27" s="37">
+      <c r="KE27" s="36">
         <v>135688</v>
       </c>
+      <c r="KF27" s="37">
+        <v>136388</v>
+      </c>
     </row>
-    <row r="28" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -21740,14 +21813,17 @@
       <c r="KC28" s="3">
         <v>24615</v>
       </c>
-      <c r="KD28" s="4">
+      <c r="KD28" s="3">
         <v>24018</v>
       </c>
-      <c r="KE28" s="38">
+      <c r="KE28" s="2">
         <v>24300</v>
       </c>
+      <c r="KF28" s="4">
+        <v>24553</v>
+      </c>
     </row>
-    <row r="29" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -22613,14 +22689,17 @@
       <c r="KC29" s="3">
         <v>5216</v>
       </c>
-      <c r="KD29" s="4">
+      <c r="KD29" s="3">
         <v>4614</v>
       </c>
-      <c r="KE29" s="38">
+      <c r="KE29" s="2">
         <v>4602</v>
       </c>
+      <c r="KF29" s="4">
+        <v>4722</v>
+      </c>
     </row>
-    <row r="30" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -23486,14 +23565,17 @@
       <c r="KC30" s="3">
         <v>18301</v>
       </c>
-      <c r="KD30" s="4">
+      <c r="KD30" s="3">
         <v>16820</v>
       </c>
-      <c r="KE30" s="38">
+      <c r="KE30" s="2">
         <v>16947</v>
       </c>
+      <c r="KF30" s="4">
+        <v>16955</v>
+      </c>
     </row>
-    <row r="31" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -24359,14 +24441,17 @@
       <c r="KC31" s="3">
         <v>23269</v>
       </c>
-      <c r="KD31" s="4">
+      <c r="KD31" s="3">
         <v>21917</v>
       </c>
-      <c r="KE31" s="38">
+      <c r="KE31" s="2">
         <v>22001</v>
       </c>
+      <c r="KF31" s="4">
+        <v>21879</v>
+      </c>
     </row>
-    <row r="32" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -25232,14 +25317,17 @@
       <c r="KC32" s="3">
         <v>21304</v>
       </c>
-      <c r="KD32" s="4">
+      <c r="KD32" s="3">
         <v>20182</v>
       </c>
-      <c r="KE32" s="38">
+      <c r="KE32" s="2">
         <v>20615</v>
       </c>
+      <c r="KF32" s="4">
+        <v>20634</v>
+      </c>
     </row>
-    <row r="33" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -26105,14 +26193,17 @@
       <c r="KC33" s="3">
         <v>18917</v>
       </c>
-      <c r="KD33" s="4">
+      <c r="KD33" s="3">
         <v>18029</v>
       </c>
-      <c r="KE33" s="38">
+      <c r="KE33" s="2">
         <v>18181</v>
       </c>
+      <c r="KF33" s="4">
+        <v>18469</v>
+      </c>
     </row>
-    <row r="34" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -26978,14 +27069,17 @@
       <c r="KC34" s="3">
         <v>16086</v>
       </c>
-      <c r="KD34" s="4">
+      <c r="KD34" s="3">
         <v>15427</v>
       </c>
-      <c r="KE34" s="38">
+      <c r="KE34" s="2">
         <v>15383</v>
       </c>
+      <c r="KF34" s="4">
+        <v>15489</v>
+      </c>
     </row>
-    <row r="35" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -27851,14 +27945,17 @@
       <c r="KC35" s="3">
         <v>14094</v>
       </c>
-      <c r="KD35" s="4">
+      <c r="KD35" s="3">
         <v>13517</v>
       </c>
-      <c r="KE35" s="38">
+      <c r="KE35" s="2">
         <v>13638</v>
       </c>
+      <c r="KF35" s="4">
+        <v>13666</v>
+      </c>
     </row>
-    <row r="36" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -28724,14 +28821,17 @@
       <c r="KC36" s="3">
         <v>21</v>
       </c>
-      <c r="KD36" s="4">
+      <c r="KD36" s="3">
         <v>23</v>
       </c>
-      <c r="KE36" s="38">
+      <c r="KE36" s="42">
         <v>21</v>
       </c>
+      <c r="KF36" s="43">
+        <v>21</v>
+      </c>
     </row>
-    <row r="37" spans="1:291" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:292" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -29599,14 +29699,17 @@
       <c r="KC37" s="27">
         <v>9570</v>
       </c>
-      <c r="KD37" s="28">
+      <c r="KD37" s="27">
         <v>9393</v>
       </c>
-      <c r="KE37" s="39">
+      <c r="KE37" s="38">
         <v>9433</v>
       </c>
+      <c r="KF37" s="39">
+        <v>9550</v>
+      </c>
     </row>
-    <row r="38" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -30472,14 +30575,17 @@
       <c r="KC38" s="3">
         <v>1702</v>
       </c>
-      <c r="KD38" s="4">
+      <c r="KD38" s="3">
         <v>1703</v>
       </c>
-      <c r="KE38" s="38">
+      <c r="KE38" s="2">
         <v>1708</v>
       </c>
+      <c r="KF38" s="4">
+        <v>1697</v>
+      </c>
     </row>
-    <row r="39" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -31345,14 +31451,17 @@
       <c r="KC39" s="3">
         <v>58</v>
       </c>
-      <c r="KD39" s="4">
+      <c r="KD39" s="3">
         <v>57</v>
       </c>
-      <c r="KE39" s="38">
+      <c r="KE39" s="2">
         <v>67</v>
       </c>
+      <c r="KF39" s="4">
+        <v>91</v>
+      </c>
     </row>
-    <row r="40" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -32218,14 +32327,17 @@
       <c r="KC40" s="3">
         <v>454</v>
       </c>
-      <c r="KD40" s="4">
+      <c r="KD40" s="3">
         <v>409</v>
       </c>
-      <c r="KE40" s="38">
+      <c r="KE40" s="2">
         <v>441</v>
       </c>
+      <c r="KF40" s="4">
+        <v>479</v>
+      </c>
     </row>
-    <row r="41" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -33091,14 +33203,17 @@
       <c r="KC41" s="3">
         <v>1013</v>
       </c>
-      <c r="KD41" s="4">
+      <c r="KD41" s="3">
         <v>969</v>
       </c>
-      <c r="KE41" s="38">
+      <c r="KE41" s="2">
         <v>952</v>
       </c>
+      <c r="KF41" s="4">
+        <v>975</v>
+      </c>
     </row>
-    <row r="42" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -33964,14 +34079,17 @@
       <c r="KC42" s="3">
         <v>1435</v>
       </c>
-      <c r="KD42" s="4">
+      <c r="KD42" s="3">
         <v>1379</v>
       </c>
-      <c r="KE42" s="38">
+      <c r="KE42" s="2">
         <v>1379</v>
       </c>
+      <c r="KF42" s="4">
+        <v>1405</v>
+      </c>
     </row>
-    <row r="43" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -34837,14 +34955,17 @@
       <c r="KC43" s="3">
         <v>1770</v>
       </c>
-      <c r="KD43" s="4">
+      <c r="KD43" s="3">
         <v>1761</v>
       </c>
-      <c r="KE43" s="38">
+      <c r="KE43" s="2">
         <v>1773</v>
       </c>
+      <c r="KF43" s="4">
+        <v>1774</v>
+      </c>
     </row>
-    <row r="44" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -35710,14 +35831,17 @@
       <c r="KC44" s="3">
         <v>1690</v>
       </c>
-      <c r="KD44" s="4">
+      <c r="KD44" s="3">
         <v>1696</v>
       </c>
-      <c r="KE44" s="38">
+      <c r="KE44" s="2">
         <v>1706</v>
       </c>
+      <c r="KF44" s="4">
+        <v>1716</v>
+      </c>
     </row>
-    <row r="45" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -36583,14 +36707,17 @@
       <c r="KC45" s="3">
         <v>1448</v>
       </c>
-      <c r="KD45" s="4">
+      <c r="KD45" s="3">
         <v>1419</v>
       </c>
-      <c r="KE45" s="38">
+      <c r="KE45" s="2">
         <v>1407</v>
       </c>
+      <c r="KF45" s="4">
+        <v>1413</v>
+      </c>
     </row>
-    <row r="46" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -37006,10 +37133,11 @@
       <c r="KA46" s="3"/>
       <c r="KB46" s="3"/>
       <c r="KC46" s="3"/>
-      <c r="KD46" s="4"/>
-      <c r="KE46" s="38"/>
+      <c r="KD46" s="3"/>
+      <c r="KE46" s="42"/>
+      <c r="KF46" s="43"/>
     </row>
-    <row r="47" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -37877,14 +38005,17 @@
       <c r="KC47" s="8">
         <v>484648</v>
       </c>
-      <c r="KD47" s="18">
+      <c r="KD47" s="8">
         <v>480660</v>
       </c>
-      <c r="KE47" s="37">
+      <c r="KE47" s="36">
         <v>483047</v>
       </c>
+      <c r="KF47" s="37">
+        <v>487818</v>
+      </c>
     </row>
-    <row r="48" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -38750,14 +38881,17 @@
       <c r="KC48" s="3">
         <v>70872</v>
       </c>
-      <c r="KD48" s="4">
+      <c r="KD48" s="3">
         <v>71374</v>
       </c>
-      <c r="KE48" s="38">
+      <c r="KE48" s="2">
         <v>72221</v>
       </c>
+      <c r="KF48" s="4">
+        <v>72925</v>
+      </c>
     </row>
-    <row r="49" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -39623,14 +39757,17 @@
       <c r="KC49" s="3">
         <v>16728</v>
       </c>
-      <c r="KD49" s="4">
+      <c r="KD49" s="3">
         <v>15454</v>
       </c>
-      <c r="KE49" s="38">
+      <c r="KE49" s="2">
         <v>15247</v>
       </c>
+      <c r="KF49" s="4">
+        <v>15504</v>
+      </c>
     </row>
-    <row r="50" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -40496,14 +40633,17 @@
       <c r="KC50" s="3">
         <v>67650</v>
       </c>
-      <c r="KD50" s="4">
+      <c r="KD50" s="3">
         <v>66384</v>
       </c>
-      <c r="KE50" s="38">
+      <c r="KE50" s="2">
         <v>66575</v>
       </c>
+      <c r="KF50" s="4">
+        <v>67735</v>
+      </c>
     </row>
-    <row r="51" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -41369,14 +41509,17 @@
       <c r="KC51" s="3">
         <v>79472</v>
       </c>
-      <c r="KD51" s="4">
+      <c r="KD51" s="3">
         <v>78518</v>
       </c>
-      <c r="KE51" s="38">
+      <c r="KE51" s="2">
         <v>78525</v>
       </c>
+      <c r="KF51" s="4">
+        <v>79310</v>
+      </c>
     </row>
-    <row r="52" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -42242,14 +42385,17 @@
       <c r="KC52" s="3">
         <v>72900</v>
       </c>
-      <c r="KD52" s="4">
+      <c r="KD52" s="3">
         <v>72399</v>
       </c>
-      <c r="KE52" s="38">
+      <c r="KE52" s="2">
         <v>73074</v>
       </c>
+      <c r="KF52" s="4">
+        <v>73648</v>
+      </c>
     </row>
-    <row r="53" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -43115,14 +43261,17 @@
       <c r="KC53" s="3">
         <v>66106</v>
       </c>
-      <c r="KD53" s="4">
+      <c r="KD53" s="3">
         <v>65685</v>
       </c>
-      <c r="KE53" s="38">
+      <c r="KE53" s="2">
         <v>66091</v>
       </c>
+      <c r="KF53" s="4">
+        <v>66546</v>
+      </c>
     </row>
-    <row r="54" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -43988,14 +44137,17 @@
       <c r="KC54" s="3">
         <v>59566</v>
       </c>
-      <c r="KD54" s="4">
+      <c r="KD54" s="3">
         <v>59516</v>
       </c>
-      <c r="KE54" s="38">
+      <c r="KE54" s="2">
         <v>59688</v>
       </c>
+      <c r="KF54" s="4">
+        <v>60206</v>
+      </c>
     </row>
-    <row r="55" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -44861,14 +45013,17 @@
       <c r="KC55" s="3">
         <v>51347</v>
       </c>
-      <c r="KD55" s="4">
+      <c r="KD55" s="3">
         <v>51324</v>
       </c>
-      <c r="KE55" s="38">
+      <c r="KE55" s="2">
         <v>51620</v>
       </c>
+      <c r="KF55" s="4">
+        <v>51936</v>
+      </c>
     </row>
-    <row r="56" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -45734,14 +45889,17 @@
       <c r="KC56" s="3">
         <v>7</v>
       </c>
-      <c r="KD56" s="4">
+      <c r="KD56" s="3">
         <v>6</v>
       </c>
-      <c r="KE56" s="38">
+      <c r="KE56" s="42">
         <v>6</v>
       </c>
+      <c r="KF56" s="43">
+        <v>8</v>
+      </c>
     </row>
-    <row r="57" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -46609,14 +46767,17 @@
       <c r="KC57" s="8">
         <v>2646</v>
       </c>
-      <c r="KD57" s="18">
+      <c r="KD57" s="8">
         <v>2624</v>
       </c>
-      <c r="KE57" s="37">
+      <c r="KE57" s="36">
         <v>2642</v>
       </c>
+      <c r="KF57" s="37">
+        <v>2643</v>
+      </c>
     </row>
-    <row r="58" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -47482,14 +47643,17 @@
       <c r="KC58" s="3">
         <v>490</v>
       </c>
-      <c r="KD58" s="4">
+      <c r="KD58" s="3">
         <v>493</v>
       </c>
-      <c r="KE58" s="38">
+      <c r="KE58" s="2">
         <v>501</v>
       </c>
+      <c r="KF58" s="4">
+        <v>501</v>
+      </c>
     </row>
-    <row r="59" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -48355,14 +48519,17 @@
       <c r="KC59" s="3">
         <v>40</v>
       </c>
-      <c r="KD59" s="4">
+      <c r="KD59" s="3">
         <v>38</v>
       </c>
-      <c r="KE59" s="38">
+      <c r="KE59" s="2">
         <v>39</v>
       </c>
+      <c r="KF59" s="4">
+        <v>39</v>
+      </c>
     </row>
-    <row r="60" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -49228,14 +49395,17 @@
       <c r="KC60" s="3">
         <v>258</v>
       </c>
-      <c r="KD60" s="4">
+      <c r="KD60" s="3">
         <v>242</v>
       </c>
-      <c r="KE60" s="38">
+      <c r="KE60" s="2">
         <v>237</v>
       </c>
+      <c r="KF60" s="4">
+        <v>212</v>
+      </c>
     </row>
-    <row r="61" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -50101,14 +50271,17 @@
       <c r="KC61" s="3">
         <v>401</v>
       </c>
-      <c r="KD61" s="4">
+      <c r="KD61" s="3">
         <v>406</v>
       </c>
-      <c r="KE61" s="38">
+      <c r="KE61" s="2">
         <v>398</v>
       </c>
+      <c r="KF61" s="4">
+        <v>416</v>
+      </c>
     </row>
-    <row r="62" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -50974,14 +51147,17 @@
       <c r="KC62" s="3">
         <v>440</v>
       </c>
-      <c r="KD62" s="4">
+      <c r="KD62" s="3">
         <v>441</v>
       </c>
-      <c r="KE62" s="38">
+      <c r="KE62" s="2">
         <v>443</v>
       </c>
+      <c r="KF62" s="4">
+        <v>445</v>
+      </c>
     </row>
-    <row r="63" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -51847,14 +52023,17 @@
       <c r="KC63" s="3">
         <v>386</v>
       </c>
-      <c r="KD63" s="4">
+      <c r="KD63" s="3">
         <v>379</v>
       </c>
-      <c r="KE63" s="38">
+      <c r="KE63" s="2">
         <v>394</v>
       </c>
+      <c r="KF63" s="4">
+        <v>391</v>
+      </c>
     </row>
-    <row r="64" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -52720,14 +52899,17 @@
       <c r="KC64" s="3">
         <v>348</v>
       </c>
-      <c r="KD64" s="4">
+      <c r="KD64" s="3">
         <v>334</v>
       </c>
-      <c r="KE64" s="38">
+      <c r="KE64" s="2">
         <v>337</v>
       </c>
+      <c r="KF64" s="4">
+        <v>343</v>
+      </c>
     </row>
-    <row r="65" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -53593,14 +53775,17 @@
       <c r="KC65" s="3">
         <v>283</v>
       </c>
-      <c r="KD65" s="4">
+      <c r="KD65" s="3">
         <v>291</v>
       </c>
-      <c r="KE65" s="38">
+      <c r="KE65" s="2">
         <v>293</v>
       </c>
+      <c r="KF65" s="4">
+        <v>296</v>
+      </c>
     </row>
-    <row r="66" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -53950,10 +54135,11 @@
       <c r="KA66" s="3"/>
       <c r="KB66" s="3"/>
       <c r="KC66" s="3"/>
-      <c r="KD66" s="4"/>
-      <c r="KE66" s="38"/>
+      <c r="KD66" s="3"/>
+      <c r="KE66" s="42"/>
+      <c r="KF66" s="43"/>
     </row>
-    <row r="67" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -54821,14 +55007,17 @@
       <c r="KC67" s="8">
         <v>626463</v>
       </c>
-      <c r="KD67" s="18">
+      <c r="KD67" s="8">
         <v>620320</v>
       </c>
-      <c r="KE67" s="37">
+      <c r="KE67" s="36">
         <v>622201</v>
       </c>
+      <c r="KF67" s="37">
+        <v>626630</v>
+      </c>
     </row>
-    <row r="68" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -55694,14 +55883,17 @@
       <c r="KC68" s="3">
         <v>130403</v>
       </c>
-      <c r="KD68" s="4">
+      <c r="KD68" s="3">
         <v>129724</v>
       </c>
-      <c r="KE68" s="38">
+      <c r="KE68" s="2">
         <v>130770</v>
       </c>
+      <c r="KF68" s="4">
+        <v>131219</v>
+      </c>
     </row>
-    <row r="69" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -56567,14 +56759,17 @@
       <c r="KC69" s="3">
         <v>11497</v>
       </c>
-      <c r="KD69" s="4">
+      <c r="KD69" s="3">
         <v>11211</v>
       </c>
-      <c r="KE69" s="38">
+      <c r="KE69" s="2">
         <v>10644</v>
       </c>
+      <c r="KF69" s="4">
+        <v>10508</v>
+      </c>
     </row>
-    <row r="70" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -57440,14 +57635,17 @@
       <c r="KC70" s="3">
         <v>61090</v>
       </c>
-      <c r="KD70" s="4">
+      <c r="KD70" s="3">
         <v>60612</v>
       </c>
-      <c r="KE70" s="38">
+      <c r="KE70" s="2">
         <v>60181</v>
       </c>
+      <c r="KF70" s="4">
+        <v>60846</v>
+      </c>
     </row>
-    <row r="71" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -58313,14 +58511,17 @@
       <c r="KC71" s="3">
         <v>97831</v>
       </c>
-      <c r="KD71" s="4">
+      <c r="KD71" s="3">
         <v>96741</v>
       </c>
-      <c r="KE71" s="38">
+      <c r="KE71" s="2">
         <v>96568</v>
       </c>
+      <c r="KF71" s="4">
+        <v>97744</v>
+      </c>
     </row>
-    <row r="72" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -59186,14 +59387,17 @@
       <c r="KC72" s="3">
         <v>93942</v>
       </c>
-      <c r="KD72" s="4">
+      <c r="KD72" s="3">
         <v>92685</v>
       </c>
-      <c r="KE72" s="38">
+      <c r="KE72" s="2">
         <v>93394</v>
       </c>
+      <c r="KF72" s="4">
+        <v>94152</v>
+      </c>
     </row>
-    <row r="73" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -60059,14 +60263,17 @@
       <c r="KC73" s="3">
         <v>85668</v>
       </c>
-      <c r="KD73" s="4">
+      <c r="KD73" s="3">
         <v>84675</v>
       </c>
-      <c r="KE73" s="38">
+      <c r="KE73" s="2">
         <v>85172</v>
       </c>
+      <c r="KF73" s="4">
+        <v>85818</v>
+      </c>
     </row>
-    <row r="74" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -60932,14 +61139,17 @@
       <c r="KC74" s="3">
         <v>76594</v>
       </c>
-      <c r="KD74" s="4">
+      <c r="KD74" s="3">
         <v>75838</v>
       </c>
-      <c r="KE74" s="38">
+      <c r="KE74" s="2">
         <v>76245</v>
       </c>
+      <c r="KF74" s="4">
+        <v>76817</v>
+      </c>
     </row>
-    <row r="75" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -61805,14 +62015,17 @@
       <c r="KC75" s="3">
         <v>69434</v>
       </c>
-      <c r="KD75" s="4">
+      <c r="KD75" s="3">
         <v>68829</v>
       </c>
-      <c r="KE75" s="38">
+      <c r="KE75" s="2">
         <v>69224</v>
       </c>
+      <c r="KF75" s="4">
+        <v>69522</v>
+      </c>
     </row>
-    <row r="76" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -62678,14 +62891,17 @@
       <c r="KC76" s="3">
         <v>4</v>
       </c>
-      <c r="KD76" s="4">
+      <c r="KD76" s="3">
         <v>5</v>
       </c>
-      <c r="KE76" s="38">
+      <c r="KE76" s="42">
         <v>3</v>
       </c>
+      <c r="KF76" s="43">
+        <v>4</v>
+      </c>
     </row>
-    <row r="77" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -63553,14 +63769,17 @@
       <c r="KC77" s="8">
         <v>97872</v>
       </c>
-      <c r="KD77" s="18">
+      <c r="KD77" s="8">
         <v>97255</v>
       </c>
-      <c r="KE77" s="37">
+      <c r="KE77" s="36">
         <v>98343</v>
       </c>
+      <c r="KF77" s="37">
+        <v>99545</v>
+      </c>
     </row>
-    <row r="78" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -64426,14 +64645,17 @@
       <c r="KC78" s="3">
         <v>17050</v>
       </c>
-      <c r="KD78" s="4">
+      <c r="KD78" s="3">
         <v>17150</v>
       </c>
-      <c r="KE78" s="38">
+      <c r="KE78" s="2">
         <v>17523</v>
       </c>
+      <c r="KF78" s="4">
+        <v>17738</v>
+      </c>
     </row>
-    <row r="79" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -65299,14 +65521,17 @@
       <c r="KC79" s="3">
         <v>1902</v>
       </c>
-      <c r="KD79" s="4">
+      <c r="KD79" s="3">
         <v>1756</v>
       </c>
-      <c r="KE79" s="38">
+      <c r="KE79" s="2">
         <v>1737</v>
       </c>
+      <c r="KF79" s="4">
+        <v>1734</v>
+      </c>
     </row>
-    <row r="80" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:292" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -66172,14 +66397,17 @@
       <c r="KC80" s="3">
         <v>11211</v>
       </c>
-      <c r="KD80" s="4">
+      <c r="KD80" s="3">
         <v>10949</v>
       </c>
-      <c r="KE80" s="38">
+      <c r="KE80" s="2">
         <v>10980</v>
       </c>
+      <c r="KF80" s="4">
+        <v>11200</v>
+      </c>
     </row>
-    <row r="81" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -67045,14 +67273,17 @@
       <c r="KC81" s="3">
         <v>15099</v>
       </c>
-      <c r="KD81" s="4">
+      <c r="KD81" s="3">
         <v>14957</v>
       </c>
-      <c r="KE81" s="38">
+      <c r="KE81" s="2">
         <v>14964</v>
       </c>
+      <c r="KF81" s="4">
+        <v>15120</v>
+      </c>
     </row>
-    <row r="82" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -67918,14 +68149,17 @@
       <c r="KC82" s="3">
         <v>14902</v>
       </c>
-      <c r="KD82" s="4">
+      <c r="KD82" s="3">
         <v>14797</v>
       </c>
-      <c r="KE82" s="38">
+      <c r="KE82" s="2">
         <v>15088</v>
       </c>
+      <c r="KF82" s="4">
+        <v>15337</v>
+      </c>
     </row>
-    <row r="83" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -68791,14 +69025,17 @@
       <c r="KC83" s="3">
         <v>14216</v>
       </c>
-      <c r="KD83" s="4">
+      <c r="KD83" s="3">
         <v>14184</v>
       </c>
-      <c r="KE83" s="38">
+      <c r="KE83" s="2">
         <v>14353</v>
       </c>
+      <c r="KF83" s="4">
+        <v>14449</v>
+      </c>
     </row>
-    <row r="84" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -69664,14 +69901,17 @@
       <c r="KC84" s="3">
         <v>12333</v>
       </c>
-      <c r="KD84" s="4">
+      <c r="KD84" s="3">
         <v>12337</v>
       </c>
-      <c r="KE84" s="38">
+      <c r="KE84" s="2">
         <v>12487</v>
       </c>
+      <c r="KF84" s="4">
+        <v>12558</v>
+      </c>
     </row>
-    <row r="85" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -70537,14 +70777,17 @@
       <c r="KC85" s="3">
         <v>11158</v>
       </c>
-      <c r="KD85" s="4">
+      <c r="KD85" s="3">
         <v>11124</v>
       </c>
-      <c r="KE85" s="38">
+      <c r="KE85" s="2">
         <v>11211</v>
       </c>
+      <c r="KF85" s="4">
+        <v>11409</v>
+      </c>
     </row>
-    <row r="86" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -71226,12 +71469,13 @@
       <c r="KC86" s="3">
         <v>1</v>
       </c>
-      <c r="KD86" s="4">
+      <c r="KD86" s="3">
         <v>1</v>
       </c>
-      <c r="KE86" s="38"/>
+      <c r="KE86" s="42"/>
+      <c r="KF86" s="43"/>
     </row>
-    <row r="87" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -72099,44 +72343,35 @@
       <c r="KC87" s="22">
         <v>1873476</v>
       </c>
-      <c r="KD87" s="23">
+      <c r="KD87" s="22">
         <v>1849999</v>
       </c>
       <c r="KE87" s="40">
         <v>1861159</v>
       </c>
-      <c r="KF87" s="24"/>
+      <c r="KF87" s="41">
+        <v>1874622</v>
+      </c>
+      <c r="KG87" s="24"/>
     </row>
-    <row r="88" spans="1:292" x14ac:dyDescent="0.2">
-      <c r="A88" s="30" t="s">
+    <row r="88" spans="1:293" x14ac:dyDescent="0.2">
+      <c r="A88" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
       <c r="KD88" s="24"/>
     </row>
-    <row r="89" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:293" x14ac:dyDescent="0.2">
       <c r="KD89" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="JS5:KD5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="IU5:JF5"/>
+  <mergeCells count="30">
+    <mergeCell ref="KE5:KF5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -72153,6 +72388,19 @@
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
     <mergeCell ref="DS5:ED5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JS5:KD5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-febrero 2022</t>
+    <t>Enero 1998-marzo 2022</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -930,24 +930,6 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="20" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -970,6 +952,36 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1293,393 +1305,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KG89"/>
+  <dimension ref="A1:KH96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KH9" sqref="KH9"/>
+      <selection pane="topRight" activeCell="KJ76" sqref="KJ76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="292" width="11.85546875" style="1" customWidth="1"/>
-    <col min="293" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="293" width="11.85546875" style="1" customWidth="1"/>
+    <col min="294" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:293" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:292" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:293" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
     </row>
-    <row r="3" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:292" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:293" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="38">
         <v>1998</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="30">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38">
         <v>1999</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="30">
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="38">
         <v>2000</v>
       </c>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="30">
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="38">
         <v>2001</v>
       </c>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="31"/>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="31"/>
-      <c r="AV5" s="31"/>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="30">
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="38">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="31"/>
-      <c r="BB5" s="31"/>
-      <c r="BC5" s="31"/>
-      <c r="BD5" s="31"/>
-      <c r="BE5" s="31"/>
-      <c r="BF5" s="31"/>
-      <c r="BG5" s="31"/>
-      <c r="BH5" s="31"/>
-      <c r="BI5" s="31"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="30">
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="41"/>
+      <c r="BG5" s="41"/>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="41"/>
+      <c r="BJ5" s="39"/>
+      <c r="BK5" s="38">
         <v>2003</v>
       </c>
-      <c r="BL5" s="31"/>
-      <c r="BM5" s="31"/>
-      <c r="BN5" s="31"/>
-      <c r="BO5" s="31"/>
-      <c r="BP5" s="31"/>
-      <c r="BQ5" s="31"/>
-      <c r="BR5" s="31"/>
-      <c r="BS5" s="31"/>
-      <c r="BT5" s="31"/>
-      <c r="BU5" s="31"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="30">
+      <c r="BL5" s="41"/>
+      <c r="BM5" s="41"/>
+      <c r="BN5" s="41"/>
+      <c r="BO5" s="41"/>
+      <c r="BP5" s="41"/>
+      <c r="BQ5" s="41"/>
+      <c r="BR5" s="41"/>
+      <c r="BS5" s="41"/>
+      <c r="BT5" s="41"/>
+      <c r="BU5" s="41"/>
+      <c r="BV5" s="39"/>
+      <c r="BW5" s="38">
         <v>2004</v>
       </c>
-      <c r="BX5" s="31"/>
-      <c r="BY5" s="31"/>
-      <c r="BZ5" s="31"/>
-      <c r="CA5" s="31"/>
-      <c r="CB5" s="31"/>
-      <c r="CC5" s="31"/>
-      <c r="CD5" s="31"/>
-      <c r="CE5" s="31"/>
-      <c r="CF5" s="31"/>
-      <c r="CG5" s="31"/>
-      <c r="CH5" s="32"/>
-      <c r="CI5" s="30">
+      <c r="BX5" s="41"/>
+      <c r="BY5" s="41"/>
+      <c r="BZ5" s="41"/>
+      <c r="CA5" s="41"/>
+      <c r="CB5" s="41"/>
+      <c r="CC5" s="41"/>
+      <c r="CD5" s="41"/>
+      <c r="CE5" s="41"/>
+      <c r="CF5" s="41"/>
+      <c r="CG5" s="41"/>
+      <c r="CH5" s="39"/>
+      <c r="CI5" s="38">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="31"/>
-      <c r="CK5" s="31"/>
-      <c r="CL5" s="31"/>
-      <c r="CM5" s="31"/>
-      <c r="CN5" s="31"/>
-      <c r="CO5" s="31"/>
-      <c r="CP5" s="31"/>
-      <c r="CQ5" s="31"/>
-      <c r="CR5" s="31"/>
-      <c r="CS5" s="31"/>
-      <c r="CT5" s="32"/>
-      <c r="CU5" s="30">
+      <c r="CJ5" s="41"/>
+      <c r="CK5" s="41"/>
+      <c r="CL5" s="41"/>
+      <c r="CM5" s="41"/>
+      <c r="CN5" s="41"/>
+      <c r="CO5" s="41"/>
+      <c r="CP5" s="41"/>
+      <c r="CQ5" s="41"/>
+      <c r="CR5" s="41"/>
+      <c r="CS5" s="41"/>
+      <c r="CT5" s="39"/>
+      <c r="CU5" s="38">
         <v>2006</v>
       </c>
-      <c r="CV5" s="31"/>
-      <c r="CW5" s="31"/>
-      <c r="CX5" s="31"/>
-      <c r="CY5" s="31"/>
-      <c r="CZ5" s="31"/>
-      <c r="DA5" s="31"/>
-      <c r="DB5" s="31"/>
-      <c r="DC5" s="31"/>
-      <c r="DD5" s="31"/>
-      <c r="DE5" s="31"/>
-      <c r="DF5" s="32"/>
-      <c r="DG5" s="30">
+      <c r="CV5" s="41"/>
+      <c r="CW5" s="41"/>
+      <c r="CX5" s="41"/>
+      <c r="CY5" s="41"/>
+      <c r="CZ5" s="41"/>
+      <c r="DA5" s="41"/>
+      <c r="DB5" s="41"/>
+      <c r="DC5" s="41"/>
+      <c r="DD5" s="41"/>
+      <c r="DE5" s="41"/>
+      <c r="DF5" s="39"/>
+      <c r="DG5" s="38">
         <v>2007</v>
       </c>
-      <c r="DH5" s="31"/>
-      <c r="DI5" s="31"/>
-      <c r="DJ5" s="31"/>
-      <c r="DK5" s="31"/>
-      <c r="DL5" s="31"/>
-      <c r="DM5" s="31"/>
-      <c r="DN5" s="31"/>
-      <c r="DO5" s="31"/>
-      <c r="DP5" s="31"/>
-      <c r="DQ5" s="31"/>
-      <c r="DR5" s="32"/>
-      <c r="DS5" s="30">
+      <c r="DH5" s="41"/>
+      <c r="DI5" s="41"/>
+      <c r="DJ5" s="41"/>
+      <c r="DK5" s="41"/>
+      <c r="DL5" s="41"/>
+      <c r="DM5" s="41"/>
+      <c r="DN5" s="41"/>
+      <c r="DO5" s="41"/>
+      <c r="DP5" s="41"/>
+      <c r="DQ5" s="41"/>
+      <c r="DR5" s="39"/>
+      <c r="DS5" s="38">
         <v>2008</v>
       </c>
-      <c r="DT5" s="31"/>
-      <c r="DU5" s="31"/>
-      <c r="DV5" s="31"/>
-      <c r="DW5" s="31"/>
-      <c r="DX5" s="31"/>
-      <c r="DY5" s="31"/>
-      <c r="DZ5" s="31"/>
-      <c r="EA5" s="31"/>
-      <c r="EB5" s="31"/>
-      <c r="EC5" s="31"/>
-      <c r="ED5" s="32"/>
-      <c r="EE5" s="30">
+      <c r="DT5" s="41"/>
+      <c r="DU5" s="41"/>
+      <c r="DV5" s="41"/>
+      <c r="DW5" s="41"/>
+      <c r="DX5" s="41"/>
+      <c r="DY5" s="41"/>
+      <c r="DZ5" s="41"/>
+      <c r="EA5" s="41"/>
+      <c r="EB5" s="41"/>
+      <c r="EC5" s="41"/>
+      <c r="ED5" s="39"/>
+      <c r="EE5" s="38">
         <v>2009</v>
       </c>
-      <c r="EF5" s="31"/>
-      <c r="EG5" s="31"/>
-      <c r="EH5" s="31"/>
-      <c r="EI5" s="31"/>
-      <c r="EJ5" s="31"/>
-      <c r="EK5" s="31"/>
-      <c r="EL5" s="31"/>
-      <c r="EM5" s="31"/>
-      <c r="EN5" s="31"/>
-      <c r="EO5" s="31"/>
-      <c r="EP5" s="32"/>
-      <c r="EQ5" s="30">
+      <c r="EF5" s="41"/>
+      <c r="EG5" s="41"/>
+      <c r="EH5" s="41"/>
+      <c r="EI5" s="41"/>
+      <c r="EJ5" s="41"/>
+      <c r="EK5" s="41"/>
+      <c r="EL5" s="41"/>
+      <c r="EM5" s="41"/>
+      <c r="EN5" s="41"/>
+      <c r="EO5" s="41"/>
+      <c r="EP5" s="39"/>
+      <c r="EQ5" s="38">
         <v>2010</v>
       </c>
-      <c r="ER5" s="31"/>
-      <c r="ES5" s="31"/>
-      <c r="ET5" s="31"/>
-      <c r="EU5" s="31"/>
-      <c r="EV5" s="31"/>
-      <c r="EW5" s="31"/>
-      <c r="EX5" s="31"/>
-      <c r="EY5" s="31"/>
-      <c r="EZ5" s="31"/>
-      <c r="FA5" s="31"/>
-      <c r="FB5" s="32"/>
-      <c r="FC5" s="30">
+      <c r="ER5" s="41"/>
+      <c r="ES5" s="41"/>
+      <c r="ET5" s="41"/>
+      <c r="EU5" s="41"/>
+      <c r="EV5" s="41"/>
+      <c r="EW5" s="41"/>
+      <c r="EX5" s="41"/>
+      <c r="EY5" s="41"/>
+      <c r="EZ5" s="41"/>
+      <c r="FA5" s="41"/>
+      <c r="FB5" s="39"/>
+      <c r="FC5" s="38">
         <v>2011</v>
       </c>
-      <c r="FD5" s="31"/>
-      <c r="FE5" s="31"/>
-      <c r="FF5" s="31"/>
-      <c r="FG5" s="31"/>
-      <c r="FH5" s="31"/>
-      <c r="FI5" s="31"/>
-      <c r="FJ5" s="31"/>
-      <c r="FK5" s="31"/>
-      <c r="FL5" s="31"/>
-      <c r="FM5" s="31"/>
-      <c r="FN5" s="32"/>
-      <c r="FO5" s="30">
+      <c r="FD5" s="41"/>
+      <c r="FE5" s="41"/>
+      <c r="FF5" s="41"/>
+      <c r="FG5" s="41"/>
+      <c r="FH5" s="41"/>
+      <c r="FI5" s="41"/>
+      <c r="FJ5" s="41"/>
+      <c r="FK5" s="41"/>
+      <c r="FL5" s="41"/>
+      <c r="FM5" s="41"/>
+      <c r="FN5" s="39"/>
+      <c r="FO5" s="38">
         <v>2012</v>
       </c>
-      <c r="FP5" s="31"/>
-      <c r="FQ5" s="31"/>
-      <c r="FR5" s="31"/>
-      <c r="FS5" s="31"/>
-      <c r="FT5" s="31"/>
-      <c r="FU5" s="31"/>
-      <c r="FV5" s="31"/>
-      <c r="FW5" s="31"/>
-      <c r="FX5" s="31"/>
-      <c r="FY5" s="31"/>
-      <c r="FZ5" s="32"/>
-      <c r="GA5" s="30">
+      <c r="FP5" s="41"/>
+      <c r="FQ5" s="41"/>
+      <c r="FR5" s="41"/>
+      <c r="FS5" s="41"/>
+      <c r="FT5" s="41"/>
+      <c r="FU5" s="41"/>
+      <c r="FV5" s="41"/>
+      <c r="FW5" s="41"/>
+      <c r="FX5" s="41"/>
+      <c r="FY5" s="41"/>
+      <c r="FZ5" s="39"/>
+      <c r="GA5" s="38">
         <v>2013</v>
       </c>
-      <c r="GB5" s="31"/>
-      <c r="GC5" s="31"/>
-      <c r="GD5" s="31"/>
-      <c r="GE5" s="31"/>
-      <c r="GF5" s="31"/>
-      <c r="GG5" s="31"/>
-      <c r="GH5" s="31"/>
-      <c r="GI5" s="31"/>
-      <c r="GJ5" s="31"/>
-      <c r="GK5" s="31"/>
-      <c r="GL5" s="32"/>
-      <c r="GM5" s="30">
+      <c r="GB5" s="41"/>
+      <c r="GC5" s="41"/>
+      <c r="GD5" s="41"/>
+      <c r="GE5" s="41"/>
+      <c r="GF5" s="41"/>
+      <c r="GG5" s="41"/>
+      <c r="GH5" s="41"/>
+      <c r="GI5" s="41"/>
+      <c r="GJ5" s="41"/>
+      <c r="GK5" s="41"/>
+      <c r="GL5" s="39"/>
+      <c r="GM5" s="38">
         <v>2014</v>
       </c>
-      <c r="GN5" s="31"/>
-      <c r="GO5" s="31"/>
-      <c r="GP5" s="31"/>
-      <c r="GQ5" s="31"/>
-      <c r="GR5" s="31"/>
-      <c r="GS5" s="31"/>
-      <c r="GT5" s="31"/>
-      <c r="GU5" s="31"/>
-      <c r="GV5" s="31"/>
-      <c r="GW5" s="31"/>
-      <c r="GX5" s="32"/>
-      <c r="GY5" s="30">
+      <c r="GN5" s="41"/>
+      <c r="GO5" s="41"/>
+      <c r="GP5" s="41"/>
+      <c r="GQ5" s="41"/>
+      <c r="GR5" s="41"/>
+      <c r="GS5" s="41"/>
+      <c r="GT5" s="41"/>
+      <c r="GU5" s="41"/>
+      <c r="GV5" s="41"/>
+      <c r="GW5" s="41"/>
+      <c r="GX5" s="39"/>
+      <c r="GY5" s="38">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="31"/>
-      <c r="HA5" s="31"/>
-      <c r="HB5" s="31"/>
-      <c r="HC5" s="31"/>
-      <c r="HD5" s="31"/>
-      <c r="HE5" s="31"/>
-      <c r="HF5" s="31"/>
-      <c r="HG5" s="31"/>
-      <c r="HH5" s="31"/>
-      <c r="HI5" s="31"/>
-      <c r="HJ5" s="32"/>
-      <c r="HK5" s="30">
+      <c r="GZ5" s="41"/>
+      <c r="HA5" s="41"/>
+      <c r="HB5" s="41"/>
+      <c r="HC5" s="41"/>
+      <c r="HD5" s="41"/>
+      <c r="HE5" s="41"/>
+      <c r="HF5" s="41"/>
+      <c r="HG5" s="41"/>
+      <c r="HH5" s="41"/>
+      <c r="HI5" s="41"/>
+      <c r="HJ5" s="39"/>
+      <c r="HK5" s="38">
         <v>2016</v>
       </c>
-      <c r="HL5" s="31"/>
-      <c r="HM5" s="31"/>
-      <c r="HN5" s="31"/>
-      <c r="HO5" s="31"/>
-      <c r="HP5" s="31"/>
-      <c r="HQ5" s="31"/>
-      <c r="HR5" s="31"/>
-      <c r="HS5" s="31"/>
-      <c r="HT5" s="31"/>
-      <c r="HU5" s="31"/>
-      <c r="HV5" s="32"/>
-      <c r="HW5" s="30">
+      <c r="HL5" s="41"/>
+      <c r="HM5" s="41"/>
+      <c r="HN5" s="41"/>
+      <c r="HO5" s="41"/>
+      <c r="HP5" s="41"/>
+      <c r="HQ5" s="41"/>
+      <c r="HR5" s="41"/>
+      <c r="HS5" s="41"/>
+      <c r="HT5" s="41"/>
+      <c r="HU5" s="41"/>
+      <c r="HV5" s="39"/>
+      <c r="HW5" s="38">
         <v>2017</v>
       </c>
-      <c r="HX5" s="31"/>
-      <c r="HY5" s="31"/>
-      <c r="HZ5" s="31"/>
-      <c r="IA5" s="31"/>
-      <c r="IB5" s="31"/>
-      <c r="IC5" s="31"/>
-      <c r="ID5" s="31"/>
-      <c r="IE5" s="31"/>
-      <c r="IF5" s="31"/>
-      <c r="IG5" s="31"/>
-      <c r="IH5" s="32"/>
-      <c r="II5" s="30">
+      <c r="HX5" s="41"/>
+      <c r="HY5" s="41"/>
+      <c r="HZ5" s="41"/>
+      <c r="IA5" s="41"/>
+      <c r="IB5" s="41"/>
+      <c r="IC5" s="41"/>
+      <c r="ID5" s="41"/>
+      <c r="IE5" s="41"/>
+      <c r="IF5" s="41"/>
+      <c r="IG5" s="41"/>
+      <c r="IH5" s="39"/>
+      <c r="II5" s="38">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="31"/>
-      <c r="IK5" s="31"/>
-      <c r="IL5" s="31"/>
-      <c r="IM5" s="31"/>
-      <c r="IN5" s="31"/>
-      <c r="IO5" s="31"/>
-      <c r="IP5" s="31"/>
-      <c r="IQ5" s="31"/>
-      <c r="IR5" s="31"/>
-      <c r="IS5" s="31"/>
-      <c r="IT5" s="32"/>
-      <c r="IU5" s="30">
+      <c r="IJ5" s="41"/>
+      <c r="IK5" s="41"/>
+      <c r="IL5" s="41"/>
+      <c r="IM5" s="41"/>
+      <c r="IN5" s="41"/>
+      <c r="IO5" s="41"/>
+      <c r="IP5" s="41"/>
+      <c r="IQ5" s="41"/>
+      <c r="IR5" s="41"/>
+      <c r="IS5" s="41"/>
+      <c r="IT5" s="39"/>
+      <c r="IU5" s="38">
         <v>2019</v>
       </c>
-      <c r="IV5" s="31"/>
-      <c r="IW5" s="31"/>
-      <c r="IX5" s="31"/>
-      <c r="IY5" s="31"/>
-      <c r="IZ5" s="31"/>
-      <c r="JA5" s="31"/>
-      <c r="JB5" s="31"/>
-      <c r="JC5" s="31"/>
-      <c r="JD5" s="31"/>
-      <c r="JE5" s="31"/>
-      <c r="JF5" s="32"/>
-      <c r="JG5" s="30">
+      <c r="IV5" s="41"/>
+      <c r="IW5" s="41"/>
+      <c r="IX5" s="41"/>
+      <c r="IY5" s="41"/>
+      <c r="IZ5" s="41"/>
+      <c r="JA5" s="41"/>
+      <c r="JB5" s="41"/>
+      <c r="JC5" s="41"/>
+      <c r="JD5" s="41"/>
+      <c r="JE5" s="41"/>
+      <c r="JF5" s="39"/>
+      <c r="JG5" s="38">
         <v>2020</v>
       </c>
-      <c r="JH5" s="31"/>
-      <c r="JI5" s="31"/>
-      <c r="JJ5" s="31"/>
-      <c r="JK5" s="31"/>
-      <c r="JL5" s="31"/>
-      <c r="JM5" s="31"/>
-      <c r="JN5" s="31"/>
-      <c r="JO5" s="31"/>
-      <c r="JP5" s="31"/>
-      <c r="JQ5" s="31"/>
-      <c r="JR5" s="32"/>
-      <c r="JS5" s="30">
+      <c r="JH5" s="41"/>
+      <c r="JI5" s="41"/>
+      <c r="JJ5" s="41"/>
+      <c r="JK5" s="41"/>
+      <c r="JL5" s="41"/>
+      <c r="JM5" s="41"/>
+      <c r="JN5" s="41"/>
+      <c r="JO5" s="41"/>
+      <c r="JP5" s="41"/>
+      <c r="JQ5" s="41"/>
+      <c r="JR5" s="39"/>
+      <c r="JS5" s="38">
         <v>2021</v>
       </c>
-      <c r="JT5" s="31"/>
-      <c r="JU5" s="31"/>
-      <c r="JV5" s="31"/>
-      <c r="JW5" s="31"/>
-      <c r="JX5" s="31"/>
-      <c r="JY5" s="31"/>
-      <c r="JZ5" s="31"/>
-      <c r="KA5" s="31"/>
-      <c r="KB5" s="31"/>
-      <c r="KC5" s="31"/>
-      <c r="KD5" s="31"/>
-      <c r="KE5" s="30">
+      <c r="JT5" s="41"/>
+      <c r="JU5" s="41"/>
+      <c r="JV5" s="41"/>
+      <c r="JW5" s="41"/>
+      <c r="JX5" s="41"/>
+      <c r="JY5" s="41"/>
+      <c r="JZ5" s="41"/>
+      <c r="KA5" s="41"/>
+      <c r="KB5" s="41"/>
+      <c r="KC5" s="41"/>
+      <c r="KD5" s="41"/>
+      <c r="KE5" s="38">
         <v>2022</v>
       </c>
-      <c r="KF5" s="32"/>
+      <c r="KF5" s="41"/>
+      <c r="KG5" s="39"/>
     </row>
-    <row r="6" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+    <row r="6" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2547,11 +2560,14 @@
       <c r="KE6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="KF6" s="11" t="s">
+      <c r="KF6" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="KG6" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:292" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:293" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3422,14 +3438,17 @@
       <c r="KD7" s="8">
         <v>116251</v>
       </c>
-      <c r="KE7" s="36">
+      <c r="KE7" s="30">
         <v>121583</v>
       </c>
-      <c r="KF7" s="37">
+      <c r="KF7" s="44">
         <v>123302</v>
       </c>
+      <c r="KG7" s="31">
+        <v>124917</v>
+      </c>
     </row>
-    <row r="8" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4301,11 +4320,14 @@
       <c r="KE8" s="2">
         <v>23143</v>
       </c>
-      <c r="KF8" s="4">
+      <c r="KF8" s="3">
         <v>23402</v>
       </c>
+      <c r="KG8" s="4">
+        <v>23697</v>
+      </c>
     </row>
-    <row r="9" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5177,11 +5199,14 @@
       <c r="KE9" s="2">
         <v>5625</v>
       </c>
-      <c r="KF9" s="4">
+      <c r="KF9" s="3">
         <v>5645</v>
       </c>
+      <c r="KG9" s="4">
+        <v>5819</v>
+      </c>
     </row>
-    <row r="10" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6053,11 +6078,14 @@
       <c r="KE10" s="2">
         <v>19015</v>
       </c>
-      <c r="KF10" s="4">
+      <c r="KF10" s="3">
         <v>19181</v>
       </c>
+      <c r="KG10" s="4">
+        <v>19489</v>
+      </c>
     </row>
-    <row r="11" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -6929,11 +6957,14 @@
       <c r="KE11" s="2">
         <v>18803</v>
       </c>
-      <c r="KF11" s="4">
+      <c r="KF11" s="3">
         <v>19121</v>
       </c>
+      <c r="KG11" s="4">
+        <v>19268</v>
+      </c>
     </row>
-    <row r="12" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7805,11 +7836,14 @@
       <c r="KE12" s="2">
         <v>16498</v>
       </c>
-      <c r="KF12" s="4">
+      <c r="KF12" s="3">
         <v>16717</v>
       </c>
+      <c r="KG12" s="4">
+        <v>16918</v>
+      </c>
     </row>
-    <row r="13" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8681,11 +8715,14 @@
       <c r="KE13" s="2">
         <v>14337</v>
       </c>
-      <c r="KF13" s="4">
+      <c r="KF13" s="3">
         <v>14638</v>
       </c>
+      <c r="KG13" s="4">
+        <v>14770</v>
+      </c>
     </row>
-    <row r="14" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9557,11 +9594,14 @@
       <c r="KE14" s="2">
         <v>12468</v>
       </c>
-      <c r="KF14" s="4">
+      <c r="KF14" s="3">
         <v>12699</v>
       </c>
+      <c r="KG14" s="4">
+        <v>12945</v>
+      </c>
     </row>
-    <row r="15" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10433,11 +10473,14 @@
       <c r="KE15" s="2">
         <v>11687</v>
       </c>
-      <c r="KF15" s="4">
+      <c r="KF15" s="3">
         <v>11891</v>
       </c>
+      <c r="KG15" s="4">
+        <v>12003</v>
+      </c>
     </row>
-    <row r="16" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11306,14 +11349,17 @@
       <c r="KD16" s="3">
         <v>6</v>
       </c>
-      <c r="KE16" s="42">
+      <c r="KE16" s="36">
         <v>7</v>
       </c>
-      <c r="KF16" s="43">
+      <c r="KF16" s="45">
         <v>8</v>
       </c>
+      <c r="KG16" s="37">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12184,14 +12230,17 @@
       <c r="KD17" s="8">
         <v>388949</v>
       </c>
-      <c r="KE17" s="36">
+      <c r="KE17" s="30">
         <v>388222</v>
       </c>
-      <c r="KF17" s="37">
+      <c r="KF17" s="44">
         <v>388746</v>
       </c>
+      <c r="KG17" s="31">
+        <v>389036</v>
+      </c>
     </row>
-    <row r="18" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13063,11 +13112,14 @@
       <c r="KE18" s="2">
         <v>57226</v>
       </c>
-      <c r="KF18" s="4">
+      <c r="KF18" s="3">
         <v>57489</v>
       </c>
+      <c r="KG18" s="4">
+        <v>57926</v>
+      </c>
     </row>
-    <row r="19" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -13939,11 +13991,14 @@
       <c r="KE19" s="2">
         <v>11312</v>
       </c>
-      <c r="KF19" s="4">
+      <c r="KF19" s="3">
         <v>11173</v>
       </c>
+      <c r="KG19" s="4">
+        <v>10811</v>
+      </c>
     </row>
-    <row r="20" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -14815,11 +14870,14 @@
       <c r="KE20" s="2">
         <v>53944</v>
       </c>
-      <c r="KF20" s="4">
+      <c r="KF20" s="3">
         <v>54062</v>
       </c>
+      <c r="KG20" s="4">
+        <v>54200</v>
+      </c>
     </row>
-    <row r="21" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -15691,11 +15749,14 @@
       <c r="KE21" s="2">
         <v>65885</v>
       </c>
-      <c r="KF21" s="4">
+      <c r="KF21" s="3">
         <v>65808</v>
       </c>
+      <c r="KG21" s="4">
+        <v>65802</v>
+      </c>
     </row>
-    <row r="22" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16567,11 +16628,14 @@
       <c r="KE22" s="2">
         <v>63554</v>
       </c>
-      <c r="KF22" s="4">
+      <c r="KF22" s="3">
         <v>63593</v>
       </c>
+      <c r="KG22" s="4">
+        <v>63523</v>
+      </c>
     </row>
-    <row r="23" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17443,11 +17507,14 @@
       <c r="KE23" s="2">
         <v>54369</v>
       </c>
-      <c r="KF23" s="4">
+      <c r="KF23" s="3">
         <v>54418</v>
       </c>
+      <c r="KG23" s="4">
+        <v>54444</v>
+      </c>
     </row>
-    <row r="24" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18319,11 +18386,14 @@
       <c r="KE24" s="2">
         <v>44414</v>
       </c>
-      <c r="KF24" s="4">
+      <c r="KF24" s="3">
         <v>44578</v>
       </c>
+      <c r="KG24" s="4">
+        <v>44633</v>
+      </c>
     </row>
-    <row r="25" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -19195,11 +19265,14 @@
       <c r="KE25" s="2">
         <v>37518</v>
       </c>
-      <c r="KF25" s="4">
+      <c r="KF25" s="3">
         <v>37623</v>
       </c>
+      <c r="KG25" s="4">
+        <v>37694</v>
+      </c>
     </row>
-    <row r="26" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -20064,12 +20137,15 @@
         <v>1</v>
       </c>
       <c r="KD26" s="3"/>
-      <c r="KE26" s="42"/>
-      <c r="KF26" s="43">
+      <c r="KE26" s="36"/>
+      <c r="KF26" s="45">
         <v>2</v>
       </c>
+      <c r="KG26" s="37">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -20940,14 +21016,17 @@
       <c r="KD27" s="8">
         <v>134547</v>
       </c>
-      <c r="KE27" s="36">
+      <c r="KE27" s="30">
         <v>135688</v>
       </c>
-      <c r="KF27" s="37">
+      <c r="KF27" s="44">
         <v>136388</v>
       </c>
+      <c r="KG27" s="31">
+        <v>137344</v>
+      </c>
     </row>
-    <row r="28" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -21819,11 +21898,14 @@
       <c r="KE28" s="2">
         <v>24300</v>
       </c>
-      <c r="KF28" s="4">
+      <c r="KF28" s="3">
         <v>24553</v>
       </c>
+      <c r="KG28" s="4">
+        <v>24612</v>
+      </c>
     </row>
-    <row r="29" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -22695,11 +22777,14 @@
       <c r="KE29" s="2">
         <v>4602</v>
       </c>
-      <c r="KF29" s="4">
+      <c r="KF29" s="3">
         <v>4722</v>
       </c>
+      <c r="KG29" s="4">
+        <v>4664</v>
+      </c>
     </row>
-    <row r="30" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -23571,11 +23656,14 @@
       <c r="KE30" s="2">
         <v>16947</v>
       </c>
-      <c r="KF30" s="4">
+      <c r="KF30" s="3">
         <v>16955</v>
       </c>
+      <c r="KG30" s="4">
+        <v>17143</v>
+      </c>
     </row>
-    <row r="31" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -24447,11 +24535,14 @@
       <c r="KE31" s="2">
         <v>22001</v>
       </c>
-      <c r="KF31" s="4">
+      <c r="KF31" s="3">
         <v>21879</v>
       </c>
+      <c r="KG31" s="4">
+        <v>22117</v>
+      </c>
     </row>
-    <row r="32" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -25323,11 +25414,14 @@
       <c r="KE32" s="2">
         <v>20615</v>
       </c>
-      <c r="KF32" s="4">
+      <c r="KF32" s="3">
         <v>20634</v>
       </c>
+      <c r="KG32" s="4">
+        <v>20771</v>
+      </c>
     </row>
-    <row r="33" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -26199,11 +26293,14 @@
       <c r="KE33" s="2">
         <v>18181</v>
       </c>
-      <c r="KF33" s="4">
+      <c r="KF33" s="3">
         <v>18469</v>
       </c>
+      <c r="KG33" s="4">
+        <v>18626</v>
+      </c>
     </row>
-    <row r="34" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -27075,11 +27172,14 @@
       <c r="KE34" s="2">
         <v>15383</v>
       </c>
-      <c r="KF34" s="4">
+      <c r="KF34" s="3">
         <v>15489</v>
       </c>
+      <c r="KG34" s="4">
+        <v>15626</v>
+      </c>
     </row>
-    <row r="35" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -27951,11 +28051,14 @@
       <c r="KE35" s="2">
         <v>13638</v>
       </c>
-      <c r="KF35" s="4">
+      <c r="KF35" s="3">
         <v>13666</v>
       </c>
+      <c r="KG35" s="4">
+        <v>13764</v>
+      </c>
     </row>
-    <row r="36" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -28824,14 +28927,17 @@
       <c r="KD36" s="3">
         <v>23</v>
       </c>
-      <c r="KE36" s="42">
+      <c r="KE36" s="36">
         <v>21</v>
       </c>
-      <c r="KF36" s="43">
+      <c r="KF36" s="45">
         <v>21</v>
       </c>
+      <c r="KG36" s="37">
+        <v>21</v>
+      </c>
     </row>
-    <row r="37" spans="1:292" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:293" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -29702,14 +29808,17 @@
       <c r="KD37" s="27">
         <v>9393</v>
       </c>
-      <c r="KE37" s="38">
+      <c r="KE37" s="32">
         <v>9433</v>
       </c>
-      <c r="KF37" s="39">
+      <c r="KF37" s="46">
         <v>9550</v>
       </c>
+      <c r="KG37" s="33">
+        <v>9619</v>
+      </c>
     </row>
-    <row r="38" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -30581,11 +30690,14 @@
       <c r="KE38" s="2">
         <v>1708</v>
       </c>
-      <c r="KF38" s="4">
+      <c r="KF38" s="3">
         <v>1697</v>
       </c>
+      <c r="KG38" s="4">
+        <v>1701</v>
+      </c>
     </row>
-    <row r="39" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -31457,11 +31569,14 @@
       <c r="KE39" s="2">
         <v>67</v>
       </c>
-      <c r="KF39" s="4">
+      <c r="KF39" s="3">
         <v>91</v>
       </c>
+      <c r="KG39" s="4">
+        <v>96</v>
+      </c>
     </row>
-    <row r="40" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -32333,11 +32448,14 @@
       <c r="KE40" s="2">
         <v>441</v>
       </c>
-      <c r="KF40" s="4">
+      <c r="KF40" s="3">
         <v>479</v>
       </c>
+      <c r="KG40" s="4">
+        <v>503</v>
+      </c>
     </row>
-    <row r="41" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -33209,11 +33327,14 @@
       <c r="KE41" s="2">
         <v>952</v>
       </c>
-      <c r="KF41" s="4">
+      <c r="KF41" s="3">
         <v>975</v>
       </c>
+      <c r="KG41" s="4">
+        <v>979</v>
+      </c>
     </row>
-    <row r="42" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -34085,11 +34206,14 @@
       <c r="KE42" s="2">
         <v>1379</v>
       </c>
-      <c r="KF42" s="4">
+      <c r="KF42" s="3">
         <v>1405</v>
       </c>
+      <c r="KG42" s="4">
+        <v>1418</v>
+      </c>
     </row>
-    <row r="43" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -34961,11 +35085,14 @@
       <c r="KE43" s="2">
         <v>1773</v>
       </c>
-      <c r="KF43" s="4">
+      <c r="KF43" s="3">
         <v>1774</v>
       </c>
+      <c r="KG43" s="4">
+        <v>1796</v>
+      </c>
     </row>
-    <row r="44" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -35837,11 +35964,14 @@
       <c r="KE44" s="2">
         <v>1706</v>
       </c>
-      <c r="KF44" s="4">
+      <c r="KF44" s="3">
         <v>1716</v>
       </c>
+      <c r="KG44" s="4">
+        <v>1698</v>
+      </c>
     </row>
-    <row r="45" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -36713,11 +36843,14 @@
       <c r="KE45" s="2">
         <v>1407</v>
       </c>
-      <c r="KF45" s="4">
+      <c r="KF45" s="3">
         <v>1413</v>
       </c>
+      <c r="KG45" s="4">
+        <v>1428</v>
+      </c>
     </row>
-    <row r="46" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -37134,10 +37267,11 @@
       <c r="KB46" s="3"/>
       <c r="KC46" s="3"/>
       <c r="KD46" s="3"/>
-      <c r="KE46" s="42"/>
-      <c r="KF46" s="43"/>
+      <c r="KE46" s="36"/>
+      <c r="KF46" s="45"/>
+      <c r="KG46" s="37"/>
     </row>
-    <row r="47" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -38008,14 +38142,17 @@
       <c r="KD47" s="8">
         <v>480660</v>
       </c>
-      <c r="KE47" s="36">
+      <c r="KE47" s="30">
         <v>483047</v>
       </c>
-      <c r="KF47" s="37">
+      <c r="KF47" s="44">
         <v>487818</v>
       </c>
+      <c r="KG47" s="31">
+        <v>493413</v>
+      </c>
     </row>
-    <row r="48" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -38887,11 +39024,14 @@
       <c r="KE48" s="2">
         <v>72221</v>
       </c>
-      <c r="KF48" s="4">
+      <c r="KF48" s="3">
         <v>72925</v>
       </c>
+      <c r="KG48" s="4">
+        <v>73814</v>
+      </c>
     </row>
-    <row r="49" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -39763,11 +39903,14 @@
       <c r="KE49" s="2">
         <v>15247</v>
       </c>
-      <c r="KF49" s="4">
+      <c r="KF49" s="3">
         <v>15504</v>
       </c>
+      <c r="KG49" s="4">
+        <v>15502</v>
+      </c>
     </row>
-    <row r="50" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -40639,11 +40782,14 @@
       <c r="KE50" s="2">
         <v>66575</v>
       </c>
-      <c r="KF50" s="4">
+      <c r="KF50" s="3">
         <v>67735</v>
       </c>
+      <c r="KG50" s="4">
+        <v>69154</v>
+      </c>
     </row>
-    <row r="51" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -41515,11 +41661,14 @@
       <c r="KE51" s="2">
         <v>78525</v>
       </c>
-      <c r="KF51" s="4">
+      <c r="KF51" s="3">
         <v>79310</v>
       </c>
+      <c r="KG51" s="4">
+        <v>80360</v>
+      </c>
     </row>
-    <row r="52" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -42391,11 +42540,14 @@
       <c r="KE52" s="2">
         <v>73074</v>
       </c>
-      <c r="KF52" s="4">
+      <c r="KF52" s="3">
         <v>73648</v>
       </c>
+      <c r="KG52" s="4">
+        <v>74188</v>
+      </c>
     </row>
-    <row r="53" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -43267,11 +43419,14 @@
       <c r="KE53" s="2">
         <v>66091</v>
       </c>
-      <c r="KF53" s="4">
+      <c r="KF53" s="3">
         <v>66546</v>
       </c>
+      <c r="KG53" s="4">
+        <v>67123</v>
+      </c>
     </row>
-    <row r="54" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -44143,11 +44298,14 @@
       <c r="KE54" s="2">
         <v>59688</v>
       </c>
-      <c r="KF54" s="4">
+      <c r="KF54" s="3">
         <v>60206</v>
       </c>
+      <c r="KG54" s="4">
+        <v>60827</v>
+      </c>
     </row>
-    <row r="55" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -45019,11 +45177,14 @@
       <c r="KE55" s="2">
         <v>51620</v>
       </c>
-      <c r="KF55" s="4">
+      <c r="KF55" s="3">
         <v>51936</v>
       </c>
+      <c r="KG55" s="4">
+        <v>52436</v>
+      </c>
     </row>
-    <row r="56" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -45892,14 +46053,17 @@
       <c r="KD56" s="3">
         <v>6</v>
       </c>
-      <c r="KE56" s="42">
+      <c r="KE56" s="36">
         <v>6</v>
       </c>
-      <c r="KF56" s="43">
+      <c r="KF56" s="45">
         <v>8</v>
       </c>
+      <c r="KG56" s="37">
+        <v>9</v>
+      </c>
     </row>
-    <row r="57" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -46770,14 +46934,17 @@
       <c r="KD57" s="8">
         <v>2624</v>
       </c>
-      <c r="KE57" s="36">
+      <c r="KE57" s="30">
         <v>2642</v>
       </c>
-      <c r="KF57" s="37">
+      <c r="KF57" s="44">
         <v>2643</v>
       </c>
+      <c r="KG57" s="31">
+        <v>2577</v>
+      </c>
     </row>
-    <row r="58" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -47649,11 +47816,14 @@
       <c r="KE58" s="2">
         <v>501</v>
       </c>
-      <c r="KF58" s="4">
+      <c r="KF58" s="3">
         <v>501</v>
       </c>
+      <c r="KG58" s="4">
+        <v>504</v>
+      </c>
     </row>
-    <row r="59" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -48525,11 +48695,14 @@
       <c r="KE59" s="2">
         <v>39</v>
       </c>
-      <c r="KF59" s="4">
+      <c r="KF59" s="3">
         <v>39</v>
       </c>
+      <c r="KG59" s="4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="60" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -49401,11 +49574,14 @@
       <c r="KE60" s="2">
         <v>237</v>
       </c>
-      <c r="KF60" s="4">
+      <c r="KF60" s="3">
         <v>212</v>
       </c>
+      <c r="KG60" s="4">
+        <v>206</v>
+      </c>
     </row>
-    <row r="61" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -50277,11 +50453,14 @@
       <c r="KE61" s="2">
         <v>398</v>
       </c>
-      <c r="KF61" s="4">
+      <c r="KF61" s="3">
         <v>416</v>
       </c>
+      <c r="KG61" s="4">
+        <v>390</v>
+      </c>
     </row>
-    <row r="62" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -51153,11 +51332,14 @@
       <c r="KE62" s="2">
         <v>443</v>
       </c>
-      <c r="KF62" s="4">
+      <c r="KF62" s="3">
         <v>445</v>
       </c>
+      <c r="KG62" s="4">
+        <v>413</v>
+      </c>
     </row>
-    <row r="63" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -52029,11 +52211,14 @@
       <c r="KE63" s="2">
         <v>394</v>
       </c>
-      <c r="KF63" s="4">
+      <c r="KF63" s="3">
         <v>391</v>
       </c>
+      <c r="KG63" s="4">
+        <v>401</v>
+      </c>
     </row>
-    <row r="64" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -52905,11 +53090,14 @@
       <c r="KE64" s="2">
         <v>337</v>
       </c>
-      <c r="KF64" s="4">
+      <c r="KF64" s="3">
         <v>343</v>
       </c>
+      <c r="KG64" s="4">
+        <v>340</v>
+      </c>
     </row>
-    <row r="65" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -53781,11 +53969,14 @@
       <c r="KE65" s="2">
         <v>293</v>
       </c>
-      <c r="KF65" s="4">
+      <c r="KF65" s="3">
         <v>296</v>
       </c>
+      <c r="KG65" s="4">
+        <v>286</v>
+      </c>
     </row>
-    <row r="66" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -54136,10 +54327,11 @@
       <c r="KB66" s="3"/>
       <c r="KC66" s="3"/>
       <c r="KD66" s="3"/>
-      <c r="KE66" s="42"/>
-      <c r="KF66" s="43"/>
+      <c r="KE66" s="36"/>
+      <c r="KF66" s="45"/>
+      <c r="KG66" s="37"/>
     </row>
-    <row r="67" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -55010,14 +55202,17 @@
       <c r="KD67" s="8">
         <v>620320</v>
       </c>
-      <c r="KE67" s="36">
+      <c r="KE67" s="30">
         <v>622201</v>
       </c>
-      <c r="KF67" s="37">
+      <c r="KF67" s="44">
         <v>626630</v>
       </c>
+      <c r="KG67" s="31">
+        <v>352766</v>
+      </c>
     </row>
-    <row r="68" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -55889,11 +56084,14 @@
       <c r="KE68" s="2">
         <v>130770</v>
       </c>
-      <c r="KF68" s="4">
+      <c r="KF68" s="3">
         <v>131219</v>
       </c>
+      <c r="KG68" s="4">
+        <v>63666</v>
+      </c>
     </row>
-    <row r="69" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -56765,11 +56963,14 @@
       <c r="KE69" s="2">
         <v>10644</v>
       </c>
-      <c r="KF69" s="4">
+      <c r="KF69" s="3">
         <v>10508</v>
       </c>
+      <c r="KG69" s="4">
+        <v>9560</v>
+      </c>
     </row>
-    <row r="70" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -57641,11 +57842,14 @@
       <c r="KE70" s="2">
         <v>60181</v>
       </c>
-      <c r="KF70" s="4">
+      <c r="KF70" s="3">
         <v>60846</v>
       </c>
+      <c r="KG70" s="4">
+        <v>47229</v>
+      </c>
     </row>
-    <row r="71" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -58517,11 +58721,14 @@
       <c r="KE71" s="2">
         <v>96568</v>
       </c>
-      <c r="KF71" s="4">
+      <c r="KF71" s="3">
         <v>97744</v>
       </c>
+      <c r="KG71" s="4">
+        <v>62675</v>
+      </c>
     </row>
-    <row r="72" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -59393,11 +59600,14 @@
       <c r="KE72" s="2">
         <v>93394</v>
       </c>
-      <c r="KF72" s="4">
+      <c r="KF72" s="3">
         <v>94152</v>
       </c>
+      <c r="KG72" s="4">
+        <v>55104</v>
+      </c>
     </row>
-    <row r="73" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -60269,11 +60479,14 @@
       <c r="KE73" s="2">
         <v>85172</v>
       </c>
-      <c r="KF73" s="4">
+      <c r="KF73" s="3">
         <v>85818</v>
       </c>
+      <c r="KG73" s="4">
+        <v>45185</v>
+      </c>
     </row>
-    <row r="74" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -61145,11 +61358,14 @@
       <c r="KE74" s="2">
         <v>76245</v>
       </c>
-      <c r="KF74" s="4">
+      <c r="KF74" s="3">
         <v>76817</v>
       </c>
+      <c r="KG74" s="4">
+        <v>36603</v>
+      </c>
     </row>
-    <row r="75" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -62021,11 +62237,14 @@
       <c r="KE75" s="2">
         <v>69224</v>
       </c>
-      <c r="KF75" s="4">
+      <c r="KF75" s="3">
         <v>69522</v>
       </c>
+      <c r="KG75" s="4">
+        <v>32743</v>
+      </c>
     </row>
-    <row r="76" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -62894,14 +63113,17 @@
       <c r="KD76" s="3">
         <v>5</v>
       </c>
-      <c r="KE76" s="42">
+      <c r="KE76" s="36">
         <v>3</v>
       </c>
-      <c r="KF76" s="43">
+      <c r="KF76" s="45">
         <v>4</v>
       </c>
+      <c r="KG76" s="37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="77" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -63772,14 +63994,17 @@
       <c r="KD77" s="8">
         <v>97255</v>
       </c>
-      <c r="KE77" s="36">
+      <c r="KE77" s="30">
         <v>98343</v>
       </c>
-      <c r="KF77" s="37">
+      <c r="KF77" s="44">
         <v>99545</v>
       </c>
+      <c r="KG77" s="31">
+        <v>277280</v>
+      </c>
     </row>
-    <row r="78" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -64651,11 +64876,14 @@
       <c r="KE78" s="2">
         <v>17523</v>
       </c>
-      <c r="KF78" s="4">
+      <c r="KF78" s="3">
         <v>17738</v>
       </c>
+      <c r="KG78" s="4">
+        <v>68644</v>
+      </c>
     </row>
-    <row r="79" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -65527,11 +65755,14 @@
       <c r="KE79" s="2">
         <v>1737</v>
       </c>
-      <c r="KF79" s="4">
+      <c r="KF79" s="3">
         <v>1734</v>
       </c>
+      <c r="KG79" s="4">
+        <v>929</v>
+      </c>
     </row>
-    <row r="80" spans="1:292" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:293" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -66403,11 +66634,14 @@
       <c r="KE80" s="2">
         <v>10980</v>
       </c>
-      <c r="KF80" s="4">
+      <c r="KF80" s="3">
         <v>11200</v>
       </c>
+      <c r="KG80" s="4">
+        <v>13952</v>
+      </c>
     </row>
-    <row r="81" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -67279,11 +67513,14 @@
       <c r="KE81" s="2">
         <v>14964</v>
       </c>
-      <c r="KF81" s="4">
+      <c r="KF81" s="3">
         <v>15120</v>
       </c>
+      <c r="KG81" s="4">
+        <v>35536</v>
+      </c>
     </row>
-    <row r="82" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -68155,11 +68392,14 @@
       <c r="KE82" s="2">
         <v>15088</v>
       </c>
-      <c r="KF82" s="4">
+      <c r="KF82" s="3">
         <v>15337</v>
       </c>
+      <c r="KG82" s="4">
+        <v>39292</v>
+      </c>
     </row>
-    <row r="83" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -69031,11 +69271,14 @@
       <c r="KE83" s="2">
         <v>14353</v>
       </c>
-      <c r="KF83" s="4">
+      <c r="KF83" s="3">
         <v>14449</v>
       </c>
+      <c r="KG83" s="4">
+        <v>40935</v>
+      </c>
     </row>
-    <row r="84" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -69907,11 +70150,14 @@
       <c r="KE84" s="2">
         <v>12487</v>
       </c>
-      <c r="KF84" s="4">
+      <c r="KF84" s="3">
         <v>12558</v>
       </c>
+      <c r="KG84" s="4">
+        <v>40845</v>
+      </c>
     </row>
-    <row r="85" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -70783,11 +71029,14 @@
       <c r="KE85" s="2">
         <v>11211</v>
       </c>
-      <c r="KF85" s="4">
+      <c r="KF85" s="3">
         <v>11409</v>
       </c>
+      <c r="KG85" s="4">
+        <v>37146</v>
+      </c>
     </row>
-    <row r="86" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -71472,10 +71721,13 @@
       <c r="KD86" s="3">
         <v>1</v>
       </c>
-      <c r="KE86" s="42"/>
-      <c r="KF86" s="43"/>
+      <c r="KE86" s="36"/>
+      <c r="KF86" s="45"/>
+      <c r="KG86" s="37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -72346,32 +72598,90 @@
       <c r="KD87" s="22">
         <v>1849999</v>
       </c>
-      <c r="KE87" s="40">
+      <c r="KE87" s="34">
         <v>1861159</v>
       </c>
-      <c r="KF87" s="41">
+      <c r="KF87" s="47">
         <v>1874622</v>
       </c>
-      <c r="KG87" s="24"/>
+      <c r="KG87" s="35">
+        <v>99824</v>
+      </c>
+      <c r="KH87" s="24"/>
     </row>
-    <row r="88" spans="1:293" x14ac:dyDescent="0.2">
-      <c r="A88" s="33" t="s">
+    <row r="88" spans="1:294" x14ac:dyDescent="0.2">
+      <c r="A88" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
       <c r="KD88" s="24"/>
+      <c r="KG88" s="1">
+        <v>17806</v>
+      </c>
     </row>
-    <row r="89" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:294" x14ac:dyDescent="0.2">
       <c r="KD89" s="24"/>
+      <c r="KG89" s="1">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="90" spans="1:294" x14ac:dyDescent="0.2">
+      <c r="KG90" s="1">
+        <v>11197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:294" x14ac:dyDescent="0.2">
+      <c r="KG91" s="1">
+        <v>15158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:294" x14ac:dyDescent="0.2">
+      <c r="KG92" s="1">
+        <v>15327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:294" x14ac:dyDescent="0.2">
+      <c r="KG93" s="1">
+        <v>14460</v>
+      </c>
+    </row>
+    <row r="94" spans="1:294" x14ac:dyDescent="0.2">
+      <c r="KG94" s="1">
+        <v>12635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:294" x14ac:dyDescent="0.2">
+      <c r="KG95" s="1">
+        <v>11523</v>
+      </c>
+    </row>
+    <row r="96" spans="1:294" x14ac:dyDescent="0.2">
+      <c r="KG96" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="KE5:KF5"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JS5:KD5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
+    <mergeCell ref="DS5:ED5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="KE5:KG5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -72387,20 +72697,6 @@
     <mergeCell ref="CI5:CT5"/>
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
-    <mergeCell ref="DS5:ED5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JS5:KD5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
   </bookViews>
   <sheets>
     <sheet name="ta_división_edad" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-marzo 2022</t>
+    <t>Enero 1998-abril 2022</t>
   </si>
 </sst>
 </file>
@@ -954,24 +954,6 @@
     <xf numFmtId="3" fontId="18" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -983,6 +965,24 @@
     </xf>
     <xf numFmtId="3" fontId="19" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1305,394 +1305,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KH96"/>
+  <dimension ref="A1:KI89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KJ76" sqref="KJ76"/>
+      <selection pane="topRight" activeCell="KI87" sqref="KI87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="45.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="293" width="11.85546875" style="1" customWidth="1"/>
-    <col min="294" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="294" width="11.875" style="1" customWidth="1"/>
+    <col min="295" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:293" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:294" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:293" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:294" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
     </row>
-    <row r="3" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:293" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:294" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="42">
         <v>1998</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="38">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="42">
         <v>1999</v>
       </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="38">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="42">
         <v>2000</v>
       </c>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="38">
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="42">
         <v>2001</v>
       </c>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="38">
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="42">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="39"/>
-      <c r="BK5" s="38">
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="43"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="44"/>
+      <c r="BK5" s="42">
         <v>2003</v>
       </c>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41"/>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="41"/>
-      <c r="BP5" s="41"/>
-      <c r="BQ5" s="41"/>
-      <c r="BR5" s="41"/>
-      <c r="BS5" s="41"/>
-      <c r="BT5" s="41"/>
-      <c r="BU5" s="41"/>
-      <c r="BV5" s="39"/>
-      <c r="BW5" s="38">
+      <c r="BL5" s="43"/>
+      <c r="BM5" s="43"/>
+      <c r="BN5" s="43"/>
+      <c r="BO5" s="43"/>
+      <c r="BP5" s="43"/>
+      <c r="BQ5" s="43"/>
+      <c r="BR5" s="43"/>
+      <c r="BS5" s="43"/>
+      <c r="BT5" s="43"/>
+      <c r="BU5" s="43"/>
+      <c r="BV5" s="44"/>
+      <c r="BW5" s="42">
         <v>2004</v>
       </c>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="41"/>
-      <c r="BZ5" s="41"/>
-      <c r="CA5" s="41"/>
-      <c r="CB5" s="41"/>
-      <c r="CC5" s="41"/>
-      <c r="CD5" s="41"/>
-      <c r="CE5" s="41"/>
-      <c r="CF5" s="41"/>
-      <c r="CG5" s="41"/>
-      <c r="CH5" s="39"/>
-      <c r="CI5" s="38">
+      <c r="BX5" s="43"/>
+      <c r="BY5" s="43"/>
+      <c r="BZ5" s="43"/>
+      <c r="CA5" s="43"/>
+      <c r="CB5" s="43"/>
+      <c r="CC5" s="43"/>
+      <c r="CD5" s="43"/>
+      <c r="CE5" s="43"/>
+      <c r="CF5" s="43"/>
+      <c r="CG5" s="43"/>
+      <c r="CH5" s="44"/>
+      <c r="CI5" s="42">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="41"/>
-      <c r="CK5" s="41"/>
-      <c r="CL5" s="41"/>
-      <c r="CM5" s="41"/>
-      <c r="CN5" s="41"/>
-      <c r="CO5" s="41"/>
-      <c r="CP5" s="41"/>
-      <c r="CQ5" s="41"/>
-      <c r="CR5" s="41"/>
-      <c r="CS5" s="41"/>
-      <c r="CT5" s="39"/>
-      <c r="CU5" s="38">
+      <c r="CJ5" s="43"/>
+      <c r="CK5" s="43"/>
+      <c r="CL5" s="43"/>
+      <c r="CM5" s="43"/>
+      <c r="CN5" s="43"/>
+      <c r="CO5" s="43"/>
+      <c r="CP5" s="43"/>
+      <c r="CQ5" s="43"/>
+      <c r="CR5" s="43"/>
+      <c r="CS5" s="43"/>
+      <c r="CT5" s="44"/>
+      <c r="CU5" s="42">
         <v>2006</v>
       </c>
-      <c r="CV5" s="41"/>
-      <c r="CW5" s="41"/>
-      <c r="CX5" s="41"/>
-      <c r="CY5" s="41"/>
-      <c r="CZ5" s="41"/>
-      <c r="DA5" s="41"/>
-      <c r="DB5" s="41"/>
-      <c r="DC5" s="41"/>
-      <c r="DD5" s="41"/>
-      <c r="DE5" s="41"/>
-      <c r="DF5" s="39"/>
-      <c r="DG5" s="38">
+      <c r="CV5" s="43"/>
+      <c r="CW5" s="43"/>
+      <c r="CX5" s="43"/>
+      <c r="CY5" s="43"/>
+      <c r="CZ5" s="43"/>
+      <c r="DA5" s="43"/>
+      <c r="DB5" s="43"/>
+      <c r="DC5" s="43"/>
+      <c r="DD5" s="43"/>
+      <c r="DE5" s="43"/>
+      <c r="DF5" s="44"/>
+      <c r="DG5" s="42">
         <v>2007</v>
       </c>
-      <c r="DH5" s="41"/>
-      <c r="DI5" s="41"/>
-      <c r="DJ5" s="41"/>
-      <c r="DK5" s="41"/>
-      <c r="DL5" s="41"/>
-      <c r="DM5" s="41"/>
-      <c r="DN5" s="41"/>
-      <c r="DO5" s="41"/>
-      <c r="DP5" s="41"/>
-      <c r="DQ5" s="41"/>
-      <c r="DR5" s="39"/>
-      <c r="DS5" s="38">
+      <c r="DH5" s="43"/>
+      <c r="DI5" s="43"/>
+      <c r="DJ5" s="43"/>
+      <c r="DK5" s="43"/>
+      <c r="DL5" s="43"/>
+      <c r="DM5" s="43"/>
+      <c r="DN5" s="43"/>
+      <c r="DO5" s="43"/>
+      <c r="DP5" s="43"/>
+      <c r="DQ5" s="43"/>
+      <c r="DR5" s="44"/>
+      <c r="DS5" s="42">
         <v>2008</v>
       </c>
-      <c r="DT5" s="41"/>
-      <c r="DU5" s="41"/>
-      <c r="DV5" s="41"/>
-      <c r="DW5" s="41"/>
-      <c r="DX5" s="41"/>
-      <c r="DY5" s="41"/>
-      <c r="DZ5" s="41"/>
-      <c r="EA5" s="41"/>
-      <c r="EB5" s="41"/>
-      <c r="EC5" s="41"/>
-      <c r="ED5" s="39"/>
-      <c r="EE5" s="38">
+      <c r="DT5" s="43"/>
+      <c r="DU5" s="43"/>
+      <c r="DV5" s="43"/>
+      <c r="DW5" s="43"/>
+      <c r="DX5" s="43"/>
+      <c r="DY5" s="43"/>
+      <c r="DZ5" s="43"/>
+      <c r="EA5" s="43"/>
+      <c r="EB5" s="43"/>
+      <c r="EC5" s="43"/>
+      <c r="ED5" s="44"/>
+      <c r="EE5" s="42">
         <v>2009</v>
       </c>
-      <c r="EF5" s="41"/>
-      <c r="EG5" s="41"/>
-      <c r="EH5" s="41"/>
-      <c r="EI5" s="41"/>
-      <c r="EJ5" s="41"/>
-      <c r="EK5" s="41"/>
-      <c r="EL5" s="41"/>
-      <c r="EM5" s="41"/>
-      <c r="EN5" s="41"/>
-      <c r="EO5" s="41"/>
-      <c r="EP5" s="39"/>
-      <c r="EQ5" s="38">
+      <c r="EF5" s="43"/>
+      <c r="EG5" s="43"/>
+      <c r="EH5" s="43"/>
+      <c r="EI5" s="43"/>
+      <c r="EJ5" s="43"/>
+      <c r="EK5" s="43"/>
+      <c r="EL5" s="43"/>
+      <c r="EM5" s="43"/>
+      <c r="EN5" s="43"/>
+      <c r="EO5" s="43"/>
+      <c r="EP5" s="44"/>
+      <c r="EQ5" s="42">
         <v>2010</v>
       </c>
-      <c r="ER5" s="41"/>
-      <c r="ES5" s="41"/>
-      <c r="ET5" s="41"/>
-      <c r="EU5" s="41"/>
-      <c r="EV5" s="41"/>
-      <c r="EW5" s="41"/>
-      <c r="EX5" s="41"/>
-      <c r="EY5" s="41"/>
-      <c r="EZ5" s="41"/>
-      <c r="FA5" s="41"/>
-      <c r="FB5" s="39"/>
-      <c r="FC5" s="38">
+      <c r="ER5" s="43"/>
+      <c r="ES5" s="43"/>
+      <c r="ET5" s="43"/>
+      <c r="EU5" s="43"/>
+      <c r="EV5" s="43"/>
+      <c r="EW5" s="43"/>
+      <c r="EX5" s="43"/>
+      <c r="EY5" s="43"/>
+      <c r="EZ5" s="43"/>
+      <c r="FA5" s="43"/>
+      <c r="FB5" s="44"/>
+      <c r="FC5" s="42">
         <v>2011</v>
       </c>
-      <c r="FD5" s="41"/>
-      <c r="FE5" s="41"/>
-      <c r="FF5" s="41"/>
-      <c r="FG5" s="41"/>
-      <c r="FH5" s="41"/>
-      <c r="FI5" s="41"/>
-      <c r="FJ5" s="41"/>
-      <c r="FK5" s="41"/>
-      <c r="FL5" s="41"/>
-      <c r="FM5" s="41"/>
-      <c r="FN5" s="39"/>
-      <c r="FO5" s="38">
+      <c r="FD5" s="43"/>
+      <c r="FE5" s="43"/>
+      <c r="FF5" s="43"/>
+      <c r="FG5" s="43"/>
+      <c r="FH5" s="43"/>
+      <c r="FI5" s="43"/>
+      <c r="FJ5" s="43"/>
+      <c r="FK5" s="43"/>
+      <c r="FL5" s="43"/>
+      <c r="FM5" s="43"/>
+      <c r="FN5" s="44"/>
+      <c r="FO5" s="42">
         <v>2012</v>
       </c>
-      <c r="FP5" s="41"/>
-      <c r="FQ5" s="41"/>
-      <c r="FR5" s="41"/>
-      <c r="FS5" s="41"/>
-      <c r="FT5" s="41"/>
-      <c r="FU5" s="41"/>
-      <c r="FV5" s="41"/>
-      <c r="FW5" s="41"/>
-      <c r="FX5" s="41"/>
-      <c r="FY5" s="41"/>
-      <c r="FZ5" s="39"/>
-      <c r="GA5" s="38">
+      <c r="FP5" s="43"/>
+      <c r="FQ5" s="43"/>
+      <c r="FR5" s="43"/>
+      <c r="FS5" s="43"/>
+      <c r="FT5" s="43"/>
+      <c r="FU5" s="43"/>
+      <c r="FV5" s="43"/>
+      <c r="FW5" s="43"/>
+      <c r="FX5" s="43"/>
+      <c r="FY5" s="43"/>
+      <c r="FZ5" s="44"/>
+      <c r="GA5" s="42">
         <v>2013</v>
       </c>
-      <c r="GB5" s="41"/>
-      <c r="GC5" s="41"/>
-      <c r="GD5" s="41"/>
-      <c r="GE5" s="41"/>
-      <c r="GF5" s="41"/>
-      <c r="GG5" s="41"/>
-      <c r="GH5" s="41"/>
-      <c r="GI5" s="41"/>
-      <c r="GJ5" s="41"/>
-      <c r="GK5" s="41"/>
-      <c r="GL5" s="39"/>
-      <c r="GM5" s="38">
+      <c r="GB5" s="43"/>
+      <c r="GC5" s="43"/>
+      <c r="GD5" s="43"/>
+      <c r="GE5" s="43"/>
+      <c r="GF5" s="43"/>
+      <c r="GG5" s="43"/>
+      <c r="GH5" s="43"/>
+      <c r="GI5" s="43"/>
+      <c r="GJ5" s="43"/>
+      <c r="GK5" s="43"/>
+      <c r="GL5" s="44"/>
+      <c r="GM5" s="42">
         <v>2014</v>
       </c>
-      <c r="GN5" s="41"/>
-      <c r="GO5" s="41"/>
-      <c r="GP5" s="41"/>
-      <c r="GQ5" s="41"/>
-      <c r="GR5" s="41"/>
-      <c r="GS5" s="41"/>
-      <c r="GT5" s="41"/>
-      <c r="GU5" s="41"/>
-      <c r="GV5" s="41"/>
-      <c r="GW5" s="41"/>
-      <c r="GX5" s="39"/>
-      <c r="GY5" s="38">
+      <c r="GN5" s="43"/>
+      <c r="GO5" s="43"/>
+      <c r="GP5" s="43"/>
+      <c r="GQ5" s="43"/>
+      <c r="GR5" s="43"/>
+      <c r="GS5" s="43"/>
+      <c r="GT5" s="43"/>
+      <c r="GU5" s="43"/>
+      <c r="GV5" s="43"/>
+      <c r="GW5" s="43"/>
+      <c r="GX5" s="44"/>
+      <c r="GY5" s="42">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="41"/>
-      <c r="HA5" s="41"/>
-      <c r="HB5" s="41"/>
-      <c r="HC5" s="41"/>
-      <c r="HD5" s="41"/>
-      <c r="HE5" s="41"/>
-      <c r="HF5" s="41"/>
-      <c r="HG5" s="41"/>
-      <c r="HH5" s="41"/>
-      <c r="HI5" s="41"/>
-      <c r="HJ5" s="39"/>
-      <c r="HK5" s="38">
+      <c r="GZ5" s="43"/>
+      <c r="HA5" s="43"/>
+      <c r="HB5" s="43"/>
+      <c r="HC5" s="43"/>
+      <c r="HD5" s="43"/>
+      <c r="HE5" s="43"/>
+      <c r="HF5" s="43"/>
+      <c r="HG5" s="43"/>
+      <c r="HH5" s="43"/>
+      <c r="HI5" s="43"/>
+      <c r="HJ5" s="44"/>
+      <c r="HK5" s="42">
         <v>2016</v>
       </c>
-      <c r="HL5" s="41"/>
-      <c r="HM5" s="41"/>
-      <c r="HN5" s="41"/>
-      <c r="HO5" s="41"/>
-      <c r="HP5" s="41"/>
-      <c r="HQ5" s="41"/>
-      <c r="HR5" s="41"/>
-      <c r="HS5" s="41"/>
-      <c r="HT5" s="41"/>
-      <c r="HU5" s="41"/>
-      <c r="HV5" s="39"/>
-      <c r="HW5" s="38">
+      <c r="HL5" s="43"/>
+      <c r="HM5" s="43"/>
+      <c r="HN5" s="43"/>
+      <c r="HO5" s="43"/>
+      <c r="HP5" s="43"/>
+      <c r="HQ5" s="43"/>
+      <c r="HR5" s="43"/>
+      <c r="HS5" s="43"/>
+      <c r="HT5" s="43"/>
+      <c r="HU5" s="43"/>
+      <c r="HV5" s="44"/>
+      <c r="HW5" s="42">
         <v>2017</v>
       </c>
-      <c r="HX5" s="41"/>
-      <c r="HY5" s="41"/>
-      <c r="HZ5" s="41"/>
-      <c r="IA5" s="41"/>
-      <c r="IB5" s="41"/>
-      <c r="IC5" s="41"/>
-      <c r="ID5" s="41"/>
-      <c r="IE5" s="41"/>
-      <c r="IF5" s="41"/>
-      <c r="IG5" s="41"/>
-      <c r="IH5" s="39"/>
-      <c r="II5" s="38">
+      <c r="HX5" s="43"/>
+      <c r="HY5" s="43"/>
+      <c r="HZ5" s="43"/>
+      <c r="IA5" s="43"/>
+      <c r="IB5" s="43"/>
+      <c r="IC5" s="43"/>
+      <c r="ID5" s="43"/>
+      <c r="IE5" s="43"/>
+      <c r="IF5" s="43"/>
+      <c r="IG5" s="43"/>
+      <c r="IH5" s="44"/>
+      <c r="II5" s="42">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="41"/>
-      <c r="IK5" s="41"/>
-      <c r="IL5" s="41"/>
-      <c r="IM5" s="41"/>
-      <c r="IN5" s="41"/>
-      <c r="IO5" s="41"/>
-      <c r="IP5" s="41"/>
-      <c r="IQ5" s="41"/>
-      <c r="IR5" s="41"/>
-      <c r="IS5" s="41"/>
-      <c r="IT5" s="39"/>
-      <c r="IU5" s="38">
+      <c r="IJ5" s="43"/>
+      <c r="IK5" s="43"/>
+      <c r="IL5" s="43"/>
+      <c r="IM5" s="43"/>
+      <c r="IN5" s="43"/>
+      <c r="IO5" s="43"/>
+      <c r="IP5" s="43"/>
+      <c r="IQ5" s="43"/>
+      <c r="IR5" s="43"/>
+      <c r="IS5" s="43"/>
+      <c r="IT5" s="44"/>
+      <c r="IU5" s="42">
         <v>2019</v>
       </c>
-      <c r="IV5" s="41"/>
-      <c r="IW5" s="41"/>
-      <c r="IX5" s="41"/>
-      <c r="IY5" s="41"/>
-      <c r="IZ5" s="41"/>
-      <c r="JA5" s="41"/>
-      <c r="JB5" s="41"/>
-      <c r="JC5" s="41"/>
-      <c r="JD5" s="41"/>
-      <c r="JE5" s="41"/>
-      <c r="JF5" s="39"/>
-      <c r="JG5" s="38">
+      <c r="IV5" s="43"/>
+      <c r="IW5" s="43"/>
+      <c r="IX5" s="43"/>
+      <c r="IY5" s="43"/>
+      <c r="IZ5" s="43"/>
+      <c r="JA5" s="43"/>
+      <c r="JB5" s="43"/>
+      <c r="JC5" s="43"/>
+      <c r="JD5" s="43"/>
+      <c r="JE5" s="43"/>
+      <c r="JF5" s="44"/>
+      <c r="JG5" s="42">
         <v>2020</v>
       </c>
-      <c r="JH5" s="41"/>
-      <c r="JI5" s="41"/>
-      <c r="JJ5" s="41"/>
-      <c r="JK5" s="41"/>
-      <c r="JL5" s="41"/>
-      <c r="JM5" s="41"/>
-      <c r="JN5" s="41"/>
-      <c r="JO5" s="41"/>
-      <c r="JP5" s="41"/>
-      <c r="JQ5" s="41"/>
-      <c r="JR5" s="39"/>
-      <c r="JS5" s="38">
+      <c r="JH5" s="43"/>
+      <c r="JI5" s="43"/>
+      <c r="JJ5" s="43"/>
+      <c r="JK5" s="43"/>
+      <c r="JL5" s="43"/>
+      <c r="JM5" s="43"/>
+      <c r="JN5" s="43"/>
+      <c r="JO5" s="43"/>
+      <c r="JP5" s="43"/>
+      <c r="JQ5" s="43"/>
+      <c r="JR5" s="44"/>
+      <c r="JS5" s="42">
         <v>2021</v>
       </c>
-      <c r="JT5" s="41"/>
-      <c r="JU5" s="41"/>
-      <c r="JV5" s="41"/>
-      <c r="JW5" s="41"/>
-      <c r="JX5" s="41"/>
-      <c r="JY5" s="41"/>
-      <c r="JZ5" s="41"/>
-      <c r="KA5" s="41"/>
-      <c r="KB5" s="41"/>
-      <c r="KC5" s="41"/>
-      <c r="KD5" s="41"/>
-      <c r="KE5" s="38">
+      <c r="JT5" s="43"/>
+      <c r="JU5" s="43"/>
+      <c r="JV5" s="43"/>
+      <c r="JW5" s="43"/>
+      <c r="JX5" s="43"/>
+      <c r="JY5" s="43"/>
+      <c r="JZ5" s="43"/>
+      <c r="KA5" s="43"/>
+      <c r="KB5" s="43"/>
+      <c r="KC5" s="43"/>
+      <c r="KD5" s="43"/>
+      <c r="KE5" s="42">
         <v>2022</v>
       </c>
-      <c r="KF5" s="41"/>
-      <c r="KG5" s="39"/>
+      <c r="KF5" s="43"/>
+      <c r="KG5" s="43"/>
+      <c r="KH5" s="44"/>
     </row>
-    <row r="6" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
+    <row r="6" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2563,11 +2564,14 @@
       <c r="KF6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="KG6" s="11" t="s">
+      <c r="KG6" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="KH6" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:293" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:294" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3441,14 +3445,17 @@
       <c r="KE7" s="30">
         <v>121583</v>
       </c>
-      <c r="KF7" s="44">
+      <c r="KF7" s="38">
         <v>123302</v>
       </c>
-      <c r="KG7" s="31">
+      <c r="KG7" s="38">
         <v>124917</v>
       </c>
+      <c r="KH7" s="31">
+        <v>120707</v>
+      </c>
     </row>
-    <row r="8" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4323,11 +4330,14 @@
       <c r="KF8" s="3">
         <v>23402</v>
       </c>
-      <c r="KG8" s="4">
+      <c r="KG8" s="3">
         <v>23697</v>
       </c>
+      <c r="KH8" s="4">
+        <v>23622</v>
+      </c>
     </row>
-    <row r="9" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5202,11 +5212,14 @@
       <c r="KF9" s="3">
         <v>5645</v>
       </c>
-      <c r="KG9" s="4">
+      <c r="KG9" s="3">
         <v>5819</v>
       </c>
+      <c r="KH9" s="4">
+        <v>5383</v>
+      </c>
     </row>
-    <row r="10" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6081,11 +6094,14 @@
       <c r="KF10" s="3">
         <v>19181</v>
       </c>
-      <c r="KG10" s="4">
+      <c r="KG10" s="3">
         <v>19489</v>
       </c>
+      <c r="KH10" s="4">
+        <v>18040</v>
+      </c>
     </row>
-    <row r="11" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -6960,11 +6976,14 @@
       <c r="KF11" s="3">
         <v>19121</v>
       </c>
-      <c r="KG11" s="4">
+      <c r="KG11" s="3">
         <v>19268</v>
       </c>
+      <c r="KH11" s="4">
+        <v>18407</v>
+      </c>
     </row>
-    <row r="12" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7839,11 +7858,14 @@
       <c r="KF12" s="3">
         <v>16717</v>
       </c>
-      <c r="KG12" s="4">
+      <c r="KG12" s="3">
         <v>16918</v>
       </c>
+      <c r="KH12" s="4">
+        <v>16246</v>
+      </c>
     </row>
-    <row r="13" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8718,11 +8740,14 @@
       <c r="KF13" s="3">
         <v>14638</v>
       </c>
-      <c r="KG13" s="4">
+      <c r="KG13" s="3">
         <v>14770</v>
       </c>
+      <c r="KH13" s="4">
+        <v>14481</v>
+      </c>
     </row>
-    <row r="14" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9597,11 +9622,14 @@
       <c r="KF14" s="3">
         <v>12699</v>
       </c>
-      <c r="KG14" s="4">
+      <c r="KG14" s="3">
         <v>12945</v>
       </c>
+      <c r="KH14" s="4">
+        <v>12659</v>
+      </c>
     </row>
-    <row r="15" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10476,11 +10504,14 @@
       <c r="KF15" s="3">
         <v>11891</v>
       </c>
-      <c r="KG15" s="4">
+      <c r="KG15" s="3">
         <v>12003</v>
       </c>
+      <c r="KH15" s="4">
+        <v>11859</v>
+      </c>
     </row>
-    <row r="16" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11352,14 +11383,17 @@
       <c r="KE16" s="36">
         <v>7</v>
       </c>
-      <c r="KF16" s="45">
+      <c r="KF16" s="39">
         <v>8</v>
       </c>
-      <c r="KG16" s="37">
+      <c r="KG16" s="39">
         <v>8</v>
       </c>
+      <c r="KH16" s="37">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12233,14 +12267,17 @@
       <c r="KE17" s="30">
         <v>388222</v>
       </c>
-      <c r="KF17" s="44">
+      <c r="KF17" s="38">
         <v>388746</v>
       </c>
-      <c r="KG17" s="31">
+      <c r="KG17" s="38">
         <v>389036</v>
       </c>
+      <c r="KH17" s="31">
+        <v>389372</v>
+      </c>
     </row>
-    <row r="18" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13115,11 +13152,14 @@
       <c r="KF18" s="3">
         <v>57489</v>
       </c>
-      <c r="KG18" s="4">
+      <c r="KG18" s="3">
         <v>57926</v>
       </c>
+      <c r="KH18" s="4">
+        <v>58539</v>
+      </c>
     </row>
-    <row r="19" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -13994,11 +14034,14 @@
       <c r="KF19" s="3">
         <v>11173</v>
       </c>
-      <c r="KG19" s="4">
+      <c r="KG19" s="3">
         <v>10811</v>
       </c>
+      <c r="KH19" s="4">
+        <v>10559</v>
+      </c>
     </row>
-    <row r="20" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -14873,11 +14916,14 @@
       <c r="KF20" s="3">
         <v>54062</v>
       </c>
-      <c r="KG20" s="4">
+      <c r="KG20" s="3">
         <v>54200</v>
       </c>
+      <c r="KH20" s="4">
+        <v>53866</v>
+      </c>
     </row>
-    <row r="21" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -15752,11 +15798,14 @@
       <c r="KF21" s="3">
         <v>65808</v>
       </c>
-      <c r="KG21" s="4">
+      <c r="KG21" s="3">
         <v>65802</v>
       </c>
+      <c r="KH21" s="4">
+        <v>65773</v>
+      </c>
     </row>
-    <row r="22" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16631,11 +16680,14 @@
       <c r="KF22" s="3">
         <v>63593</v>
       </c>
-      <c r="KG22" s="4">
+      <c r="KG22" s="3">
         <v>63523</v>
       </c>
+      <c r="KH22" s="4">
+        <v>63490</v>
+      </c>
     </row>
-    <row r="23" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17510,11 +17562,14 @@
       <c r="KF23" s="3">
         <v>54418</v>
       </c>
-      <c r="KG23" s="4">
+      <c r="KG23" s="3">
         <v>54444</v>
       </c>
+      <c r="KH23" s="4">
+        <v>54549</v>
+      </c>
     </row>
-    <row r="24" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18389,11 +18444,14 @@
       <c r="KF24" s="3">
         <v>44578</v>
       </c>
-      <c r="KG24" s="4">
+      <c r="KG24" s="3">
         <v>44633</v>
       </c>
+      <c r="KH24" s="4">
+        <v>44775</v>
+      </c>
     </row>
-    <row r="25" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -19268,11 +19326,14 @@
       <c r="KF25" s="3">
         <v>37623</v>
       </c>
-      <c r="KG25" s="4">
+      <c r="KG25" s="3">
         <v>37694</v>
       </c>
+      <c r="KH25" s="4">
+        <v>37818</v>
+      </c>
     </row>
-    <row r="26" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -20138,14 +20199,17 @@
       </c>
       <c r="KD26" s="3"/>
       <c r="KE26" s="36"/>
-      <c r="KF26" s="45">
+      <c r="KF26" s="39">
         <v>2</v>
       </c>
-      <c r="KG26" s="37">
+      <c r="KG26" s="39">
         <v>3</v>
       </c>
+      <c r="KH26" s="37">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -21019,14 +21083,17 @@
       <c r="KE27" s="30">
         <v>135688</v>
       </c>
-      <c r="KF27" s="44">
+      <c r="KF27" s="38">
         <v>136388</v>
       </c>
-      <c r="KG27" s="31">
+      <c r="KG27" s="38">
         <v>137344</v>
       </c>
+      <c r="KH27" s="31">
+        <v>137135</v>
+      </c>
     </row>
-    <row r="28" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -21901,11 +21968,14 @@
       <c r="KF28" s="3">
         <v>24553</v>
       </c>
-      <c r="KG28" s="4">
+      <c r="KG28" s="3">
         <v>24612</v>
       </c>
+      <c r="KH28" s="4">
+        <v>24632</v>
+      </c>
     </row>
-    <row r="29" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -22780,11 +22850,14 @@
       <c r="KF29" s="3">
         <v>4722</v>
       </c>
-      <c r="KG29" s="4">
+      <c r="KG29" s="3">
         <v>4664</v>
       </c>
+      <c r="KH29" s="4">
+        <v>4623</v>
+      </c>
     </row>
-    <row r="30" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -23659,11 +23732,14 @@
       <c r="KF30" s="3">
         <v>16955</v>
       </c>
-      <c r="KG30" s="4">
+      <c r="KG30" s="3">
         <v>17143</v>
       </c>
+      <c r="KH30" s="4">
+        <v>17102</v>
+      </c>
     </row>
-    <row r="31" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -24538,11 +24614,14 @@
       <c r="KF31" s="3">
         <v>21879</v>
       </c>
-      <c r="KG31" s="4">
+      <c r="KG31" s="3">
         <v>22117</v>
       </c>
+      <c r="KH31" s="4">
+        <v>22076</v>
+      </c>
     </row>
-    <row r="32" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -25417,11 +25496,14 @@
       <c r="KF32" s="3">
         <v>20634</v>
       </c>
-      <c r="KG32" s="4">
+      <c r="KG32" s="3">
         <v>20771</v>
       </c>
+      <c r="KH32" s="4">
+        <v>20735</v>
+      </c>
     </row>
-    <row r="33" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -26296,11 +26378,14 @@
       <c r="KF33" s="3">
         <v>18469</v>
       </c>
-      <c r="KG33" s="4">
+      <c r="KG33" s="3">
         <v>18626</v>
       </c>
+      <c r="KH33" s="4">
+        <v>18577</v>
+      </c>
     </row>
-    <row r="34" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -27175,11 +27260,14 @@
       <c r="KF34" s="3">
         <v>15489</v>
       </c>
-      <c r="KG34" s="4">
+      <c r="KG34" s="3">
         <v>15626</v>
       </c>
+      <c r="KH34" s="4">
+        <v>15660</v>
+      </c>
     </row>
-    <row r="35" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -28054,11 +28142,14 @@
       <c r="KF35" s="3">
         <v>13666</v>
       </c>
-      <c r="KG35" s="4">
+      <c r="KG35" s="3">
         <v>13764</v>
       </c>
+      <c r="KH35" s="4">
+        <v>13710</v>
+      </c>
     </row>
-    <row r="36" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -28930,14 +29021,17 @@
       <c r="KE36" s="36">
         <v>21</v>
       </c>
-      <c r="KF36" s="45">
+      <c r="KF36" s="39">
         <v>21</v>
       </c>
-      <c r="KG36" s="37">
+      <c r="KG36" s="39">
         <v>21</v>
       </c>
+      <c r="KH36" s="37">
+        <v>20</v>
+      </c>
     </row>
-    <row r="37" spans="1:293" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:294" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -29811,14 +29905,17 @@
       <c r="KE37" s="32">
         <v>9433</v>
       </c>
-      <c r="KF37" s="46">
+      <c r="KF37" s="40">
         <v>9550</v>
       </c>
-      <c r="KG37" s="33">
+      <c r="KG37" s="40">
         <v>9619</v>
       </c>
+      <c r="KH37" s="33">
+        <v>9540</v>
+      </c>
     </row>
-    <row r="38" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -30693,11 +30790,14 @@
       <c r="KF38" s="3">
         <v>1697</v>
       </c>
-      <c r="KG38" s="4">
+      <c r="KG38" s="3">
         <v>1701</v>
       </c>
+      <c r="KH38" s="4">
+        <v>1696</v>
+      </c>
     </row>
-    <row r="39" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -31572,11 +31672,14 @@
       <c r="KF39" s="3">
         <v>91</v>
       </c>
-      <c r="KG39" s="4">
+      <c r="KG39" s="3">
         <v>96</v>
       </c>
+      <c r="KH39" s="4">
+        <v>82</v>
+      </c>
     </row>
-    <row r="40" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -32451,11 +32554,14 @@
       <c r="KF40" s="3">
         <v>479</v>
       </c>
-      <c r="KG40" s="4">
+      <c r="KG40" s="3">
         <v>503</v>
       </c>
+      <c r="KH40" s="4">
+        <v>480</v>
+      </c>
     </row>
-    <row r="41" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -33330,11 +33436,14 @@
       <c r="KF41" s="3">
         <v>975</v>
       </c>
-      <c r="KG41" s="4">
+      <c r="KG41" s="3">
         <v>979</v>
       </c>
+      <c r="KH41" s="4">
+        <v>982</v>
+      </c>
     </row>
-    <row r="42" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -34209,11 +34318,14 @@
       <c r="KF42" s="3">
         <v>1405</v>
       </c>
-      <c r="KG42" s="4">
+      <c r="KG42" s="3">
         <v>1418</v>
       </c>
+      <c r="KH42" s="4">
+        <v>1383</v>
+      </c>
     </row>
-    <row r="43" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -35088,11 +35200,14 @@
       <c r="KF43" s="3">
         <v>1774</v>
       </c>
-      <c r="KG43" s="4">
+      <c r="KG43" s="3">
         <v>1796</v>
       </c>
+      <c r="KH43" s="4">
+        <v>1796</v>
+      </c>
     </row>
-    <row r="44" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -35967,11 +36082,14 @@
       <c r="KF44" s="3">
         <v>1716</v>
       </c>
-      <c r="KG44" s="4">
+      <c r="KG44" s="3">
         <v>1698</v>
       </c>
+      <c r="KH44" s="4">
+        <v>1690</v>
+      </c>
     </row>
-    <row r="45" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -36846,11 +36964,14 @@
       <c r="KF45" s="3">
         <v>1413</v>
       </c>
-      <c r="KG45" s="4">
+      <c r="KG45" s="3">
         <v>1428</v>
       </c>
+      <c r="KH45" s="4">
+        <v>1431</v>
+      </c>
     </row>
-    <row r="46" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -37268,10 +37389,11 @@
       <c r="KC46" s="3"/>
       <c r="KD46" s="3"/>
       <c r="KE46" s="36"/>
-      <c r="KF46" s="45"/>
-      <c r="KG46" s="37"/>
+      <c r="KF46" s="39"/>
+      <c r="KG46" s="39"/>
+      <c r="KH46" s="37"/>
     </row>
-    <row r="47" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -38145,14 +38267,17 @@
       <c r="KE47" s="30">
         <v>483047</v>
       </c>
-      <c r="KF47" s="44">
+      <c r="KF47" s="38">
         <v>487818</v>
       </c>
-      <c r="KG47" s="31">
+      <c r="KG47" s="38">
         <v>493413</v>
       </c>
+      <c r="KH47" s="31">
+        <v>494824</v>
+      </c>
     </row>
-    <row r="48" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -39027,11 +39152,14 @@
       <c r="KF48" s="3">
         <v>72925</v>
       </c>
-      <c r="KG48" s="4">
+      <c r="KG48" s="3">
         <v>73814</v>
       </c>
+      <c r="KH48" s="4">
+        <v>74520</v>
+      </c>
     </row>
-    <row r="49" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -39906,11 +40034,14 @@
       <c r="KF49" s="3">
         <v>15504</v>
       </c>
-      <c r="KG49" s="4">
+      <c r="KG49" s="3">
         <v>15502</v>
       </c>
+      <c r="KH49" s="4">
+        <v>15064</v>
+      </c>
     </row>
-    <row r="50" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -40785,11 +40916,14 @@
       <c r="KF50" s="3">
         <v>67735</v>
       </c>
-      <c r="KG50" s="4">
+      <c r="KG50" s="3">
         <v>69154</v>
       </c>
+      <c r="KH50" s="4">
+        <v>69243</v>
+      </c>
     </row>
-    <row r="51" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -41664,11 +41798,14 @@
       <c r="KF51" s="3">
         <v>79310</v>
       </c>
-      <c r="KG51" s="4">
+      <c r="KG51" s="3">
         <v>80360</v>
       </c>
+      <c r="KH51" s="4">
+        <v>80467</v>
+      </c>
     </row>
-    <row r="52" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -42543,11 +42680,14 @@
       <c r="KF52" s="3">
         <v>73648</v>
       </c>
-      <c r="KG52" s="4">
+      <c r="KG52" s="3">
         <v>74188</v>
       </c>
+      <c r="KH52" s="4">
+        <v>74469</v>
+      </c>
     </row>
-    <row r="53" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -43422,11 +43562,14 @@
       <c r="KF53" s="3">
         <v>66546</v>
       </c>
-      <c r="KG53" s="4">
+      <c r="KG53" s="3">
         <v>67123</v>
       </c>
+      <c r="KH53" s="4">
+        <v>67290</v>
+      </c>
     </row>
-    <row r="54" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -44301,11 +44444,14 @@
       <c r="KF54" s="3">
         <v>60206</v>
       </c>
-      <c r="KG54" s="4">
+      <c r="KG54" s="3">
         <v>60827</v>
       </c>
+      <c r="KH54" s="4">
+        <v>61079</v>
+      </c>
     </row>
-    <row r="55" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -45180,11 +45326,14 @@
       <c r="KF55" s="3">
         <v>51936</v>
       </c>
-      <c r="KG55" s="4">
+      <c r="KG55" s="3">
         <v>52436</v>
       </c>
+      <c r="KH55" s="4">
+        <v>52684</v>
+      </c>
     </row>
-    <row r="56" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -46056,14 +46205,17 @@
       <c r="KE56" s="36">
         <v>6</v>
       </c>
-      <c r="KF56" s="45">
+      <c r="KF56" s="39">
         <v>8</v>
       </c>
-      <c r="KG56" s="37">
+      <c r="KG56" s="39">
         <v>9</v>
       </c>
+      <c r="KH56" s="37">
+        <v>8</v>
+      </c>
     </row>
-    <row r="57" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -46937,14 +47089,17 @@
       <c r="KE57" s="30">
         <v>2642</v>
       </c>
-      <c r="KF57" s="44">
+      <c r="KF57" s="38">
         <v>2643</v>
       </c>
-      <c r="KG57" s="31">
+      <c r="KG57" s="38">
         <v>2577</v>
       </c>
+      <c r="KH57" s="31">
+        <v>2556</v>
+      </c>
     </row>
-    <row r="58" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -47819,11 +47974,14 @@
       <c r="KF58" s="3">
         <v>501</v>
       </c>
-      <c r="KG58" s="4">
+      <c r="KG58" s="3">
         <v>504</v>
       </c>
+      <c r="KH58" s="4">
+        <v>519</v>
+      </c>
     </row>
-    <row r="59" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -48698,11 +48856,14 @@
       <c r="KF59" s="3">
         <v>39</v>
       </c>
-      <c r="KG59" s="4">
+      <c r="KG59" s="3">
         <v>37</v>
       </c>
+      <c r="KH59" s="4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="60" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -49577,11 +49738,14 @@
       <c r="KF60" s="3">
         <v>212</v>
       </c>
-      <c r="KG60" s="4">
+      <c r="KG60" s="3">
         <v>206</v>
       </c>
+      <c r="KH60" s="4">
+        <v>200</v>
+      </c>
     </row>
-    <row r="61" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -50456,11 +50620,14 @@
       <c r="KF61" s="3">
         <v>416</v>
       </c>
-      <c r="KG61" s="4">
+      <c r="KG61" s="3">
         <v>390</v>
       </c>
+      <c r="KH61" s="4">
+        <v>377</v>
+      </c>
     </row>
-    <row r="62" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -51335,11 +51502,14 @@
       <c r="KF62" s="3">
         <v>445</v>
       </c>
-      <c r="KG62" s="4">
+      <c r="KG62" s="3">
         <v>413</v>
       </c>
+      <c r="KH62" s="4">
+        <v>404</v>
+      </c>
     </row>
-    <row r="63" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -52214,11 +52384,14 @@
       <c r="KF63" s="3">
         <v>391</v>
       </c>
-      <c r="KG63" s="4">
+      <c r="KG63" s="3">
         <v>401</v>
       </c>
+      <c r="KH63" s="4">
+        <v>396</v>
+      </c>
     </row>
-    <row r="64" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -53093,11 +53266,14 @@
       <c r="KF64" s="3">
         <v>343</v>
       </c>
-      <c r="KG64" s="4">
+      <c r="KG64" s="3">
         <v>340</v>
       </c>
+      <c r="KH64" s="4">
+        <v>340</v>
+      </c>
     </row>
-    <row r="65" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -53972,11 +54148,14 @@
       <c r="KF65" s="3">
         <v>296</v>
       </c>
-      <c r="KG65" s="4">
+      <c r="KG65" s="3">
         <v>286</v>
       </c>
+      <c r="KH65" s="4">
+        <v>283</v>
+      </c>
     </row>
-    <row r="66" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -54328,10 +54507,11 @@
       <c r="KC66" s="3"/>
       <c r="KD66" s="3"/>
       <c r="KE66" s="36"/>
-      <c r="KF66" s="45"/>
-      <c r="KG66" s="37"/>
+      <c r="KF66" s="39"/>
+      <c r="KG66" s="39"/>
+      <c r="KH66" s="37"/>
     </row>
-    <row r="67" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -55205,14 +55385,17 @@
       <c r="KE67" s="30">
         <v>622201</v>
       </c>
-      <c r="KF67" s="44">
+      <c r="KF67" s="38">
         <v>626630</v>
       </c>
-      <c r="KG67" s="31">
-        <v>352766</v>
+      <c r="KG67" s="38">
+        <v>630046</v>
+      </c>
+      <c r="KH67" s="31">
+        <v>630421</v>
       </c>
     </row>
-    <row r="68" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -56087,11 +56270,14 @@
       <c r="KF68" s="3">
         <v>131219</v>
       </c>
-      <c r="KG68" s="4">
-        <v>63666</v>
+      <c r="KG68" s="3">
+        <v>132310</v>
+      </c>
+      <c r="KH68" s="4">
+        <v>132483</v>
       </c>
     </row>
-    <row r="69" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -56966,11 +57152,14 @@
       <c r="KF69" s="3">
         <v>10508</v>
       </c>
-      <c r="KG69" s="4">
-        <v>9560</v>
+      <c r="KG69" s="3">
+        <v>10489</v>
+      </c>
+      <c r="KH69" s="4">
+        <v>10380</v>
       </c>
     </row>
-    <row r="70" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -57845,11 +58034,14 @@
       <c r="KF70" s="3">
         <v>60846</v>
       </c>
-      <c r="KG70" s="4">
-        <v>47229</v>
+      <c r="KG70" s="3">
+        <v>61181</v>
+      </c>
+      <c r="KH70" s="4">
+        <v>61337</v>
       </c>
     </row>
-    <row r="71" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -58724,11 +58916,14 @@
       <c r="KF71" s="3">
         <v>97744</v>
       </c>
-      <c r="KG71" s="4">
-        <v>62675</v>
+      <c r="KG71" s="3">
+        <v>98211</v>
+      </c>
+      <c r="KH71" s="4">
+        <v>98259</v>
       </c>
     </row>
-    <row r="72" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -59603,11 +59798,14 @@
       <c r="KF72" s="3">
         <v>94152</v>
       </c>
-      <c r="KG72" s="4">
-        <v>55104</v>
+      <c r="KG72" s="3">
+        <v>94396</v>
+      </c>
+      <c r="KH72" s="4">
+        <v>94736</v>
       </c>
     </row>
-    <row r="73" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -60482,11 +60680,14 @@
       <c r="KF73" s="3">
         <v>85818</v>
       </c>
-      <c r="KG73" s="4">
-        <v>45185</v>
+      <c r="KG73" s="3">
+        <v>86120</v>
+      </c>
+      <c r="KH73" s="4">
+        <v>85956</v>
       </c>
     </row>
-    <row r="74" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -61361,11 +61562,14 @@
       <c r="KF74" s="3">
         <v>76817</v>
       </c>
-      <c r="KG74" s="4">
-        <v>36603</v>
+      <c r="KG74" s="3">
+        <v>77448</v>
+      </c>
+      <c r="KH74" s="4">
+        <v>77311</v>
       </c>
     </row>
-    <row r="75" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -62240,11 +62444,14 @@
       <c r="KF75" s="3">
         <v>69522</v>
       </c>
-      <c r="KG75" s="4">
-        <v>32743</v>
+      <c r="KG75" s="3">
+        <v>69889</v>
+      </c>
+      <c r="KH75" s="4">
+        <v>69954</v>
       </c>
     </row>
-    <row r="76" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -63116,14 +63323,17 @@
       <c r="KE76" s="36">
         <v>3</v>
       </c>
-      <c r="KF76" s="45">
+      <c r="KF76" s="39">
         <v>4</v>
       </c>
-      <c r="KG76" s="37">
-        <v>1</v>
+      <c r="KG76" s="39">
+        <v>2</v>
+      </c>
+      <c r="KH76" s="37">
+        <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -63997,14 +64207,17 @@
       <c r="KE77" s="30">
         <v>98343</v>
       </c>
-      <c r="KF77" s="44">
+      <c r="KF77" s="38">
         <v>99545</v>
       </c>
-      <c r="KG77" s="31">
-        <v>277280</v>
+      <c r="KG77" s="38">
+        <v>99824</v>
+      </c>
+      <c r="KH77" s="31">
+        <v>100160</v>
       </c>
     </row>
-    <row r="78" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -64879,11 +65092,14 @@
       <c r="KF78" s="3">
         <v>17738</v>
       </c>
-      <c r="KG78" s="4">
-        <v>68644</v>
+      <c r="KG78" s="3">
+        <v>17806</v>
+      </c>
+      <c r="KH78" s="4">
+        <v>17861</v>
       </c>
     </row>
-    <row r="79" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -65758,11 +65974,14 @@
       <c r="KF79" s="3">
         <v>1734</v>
       </c>
-      <c r="KG79" s="4">
-        <v>929</v>
+      <c r="KG79" s="3">
+        <v>1717</v>
+      </c>
+      <c r="KH79" s="4">
+        <v>1685</v>
       </c>
     </row>
-    <row r="80" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -66637,11 +66856,14 @@
       <c r="KF80" s="3">
         <v>11200</v>
       </c>
-      <c r="KG80" s="4">
-        <v>13952</v>
+      <c r="KG80" s="3">
+        <v>11197</v>
+      </c>
+      <c r="KH80" s="4">
+        <v>11294</v>
       </c>
     </row>
-    <row r="81" spans="1:294" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -67516,11 +67738,14 @@
       <c r="KF81" s="3">
         <v>15120</v>
       </c>
-      <c r="KG81" s="4">
-        <v>35536</v>
+      <c r="KG81" s="3">
+        <v>15158</v>
+      </c>
+      <c r="KH81" s="4">
+        <v>15170</v>
       </c>
     </row>
-    <row r="82" spans="1:294" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -68395,11 +68620,14 @@
       <c r="KF82" s="3">
         <v>15337</v>
       </c>
-      <c r="KG82" s="4">
-        <v>39292</v>
+      <c r="KG82" s="3">
+        <v>15327</v>
+      </c>
+      <c r="KH82" s="4">
+        <v>15433</v>
       </c>
     </row>
-    <row r="83" spans="1:294" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -69274,11 +69502,14 @@
       <c r="KF83" s="3">
         <v>14449</v>
       </c>
-      <c r="KG83" s="4">
-        <v>40935</v>
+      <c r="KG83" s="3">
+        <v>14460</v>
+      </c>
+      <c r="KH83" s="4">
+        <v>14484</v>
       </c>
     </row>
-    <row r="84" spans="1:294" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -70153,11 +70384,14 @@
       <c r="KF84" s="3">
         <v>12558</v>
       </c>
-      <c r="KG84" s="4">
-        <v>40845</v>
+      <c r="KG84" s="3">
+        <v>12635</v>
+      </c>
+      <c r="KH84" s="4">
+        <v>12706</v>
       </c>
     </row>
-    <row r="85" spans="1:294" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -71032,11 +71266,14 @@
       <c r="KF85" s="3">
         <v>11409</v>
       </c>
-      <c r="KG85" s="4">
-        <v>37146</v>
+      <c r="KG85" s="3">
+        <v>11523</v>
+      </c>
+      <c r="KH85" s="4">
+        <v>11526</v>
       </c>
     </row>
-    <row r="86" spans="1:294" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -71722,12 +71959,15 @@
         <v>1</v>
       </c>
       <c r="KE86" s="36"/>
-      <c r="KF86" s="45"/>
-      <c r="KG86" s="37">
+      <c r="KF86" s="39"/>
+      <c r="KG86" s="39">
         <v>1</v>
       </c>
+      <c r="KH86" s="37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:294" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -72601,87 +72841,34 @@
       <c r="KE87" s="34">
         <v>1861159</v>
       </c>
-      <c r="KF87" s="47">
+      <c r="KF87" s="41">
         <v>1874622</v>
       </c>
-      <c r="KG87" s="35">
-        <v>99824</v>
-      </c>
-      <c r="KH87" s="24"/>
+      <c r="KG87" s="41">
+        <v>1886776</v>
+      </c>
+      <c r="KH87" s="35">
+        <v>1884715</v>
+      </c>
+      <c r="KI87" s="24"/>
     </row>
-    <row r="88" spans="1:294" x14ac:dyDescent="0.2">
-      <c r="A88" s="40" t="s">
+    <row r="88" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="A88" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="40"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
       <c r="KD88" s="24"/>
-      <c r="KG88" s="1">
-        <v>17806</v>
-      </c>
     </row>
-    <row r="89" spans="1:294" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:295" x14ac:dyDescent="0.25">
       <c r="KD89" s="24"/>
-      <c r="KG89" s="1">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="90" spans="1:294" x14ac:dyDescent="0.2">
-      <c r="KG90" s="1">
-        <v>11197</v>
-      </c>
-    </row>
-    <row r="91" spans="1:294" x14ac:dyDescent="0.2">
-      <c r="KG91" s="1">
-        <v>15158</v>
-      </c>
-    </row>
-    <row r="92" spans="1:294" x14ac:dyDescent="0.2">
-      <c r="KG92" s="1">
-        <v>15327</v>
-      </c>
-    </row>
-    <row r="93" spans="1:294" x14ac:dyDescent="0.2">
-      <c r="KG93" s="1">
-        <v>14460</v>
-      </c>
-    </row>
-    <row r="94" spans="1:294" x14ac:dyDescent="0.2">
-      <c r="KG94" s="1">
-        <v>12635</v>
-      </c>
-    </row>
-    <row r="95" spans="1:294" x14ac:dyDescent="0.2">
-      <c r="KG95" s="1">
-        <v>11523</v>
-      </c>
-    </row>
-    <row r="96" spans="1:294" x14ac:dyDescent="0.2">
-      <c r="KG96" s="1">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JS5:KD5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
-    <mergeCell ref="DS5:ED5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="KE5:KG5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -72697,6 +72884,21 @@
     <mergeCell ref="CI5:CT5"/>
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="KE5:KH5"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JS5:KD5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
+    <mergeCell ref="DS5:ED5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-abril 2022</t>
+    <t>Enero 1998-mayo 2022</t>
   </si>
 </sst>
 </file>
@@ -966,6 +966,15 @@
     <xf numFmtId="3" fontId="19" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -973,15 +982,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1305,395 +1305,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KI89"/>
+  <dimension ref="A1:KJ89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KI87" sqref="KI87"/>
+      <selection pane="topRight" activeCell="KK75" sqref="KK75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="294" width="11.875" style="1" customWidth="1"/>
-    <col min="295" max="16384" width="11.375" style="1"/>
+    <col min="3" max="295" width="11.875" style="1" customWidth="1"/>
+    <col min="296" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:294" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:295" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:294" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:294" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:295" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="45">
         <v>1998</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="42">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="45">
         <v>1999</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="42">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="45">
         <v>2000</v>
       </c>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="42">
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="45">
         <v>2001</v>
       </c>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="42">
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="45">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="43"/>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="44"/>
-      <c r="BK5" s="42">
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="46"/>
+      <c r="BC5" s="46"/>
+      <c r="BD5" s="46"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="46"/>
+      <c r="BG5" s="46"/>
+      <c r="BH5" s="46"/>
+      <c r="BI5" s="46"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="45">
         <v>2003</v>
       </c>
-      <c r="BL5" s="43"/>
-      <c r="BM5" s="43"/>
-      <c r="BN5" s="43"/>
-      <c r="BO5" s="43"/>
-      <c r="BP5" s="43"/>
-      <c r="BQ5" s="43"/>
-      <c r="BR5" s="43"/>
-      <c r="BS5" s="43"/>
-      <c r="BT5" s="43"/>
-      <c r="BU5" s="43"/>
-      <c r="BV5" s="44"/>
-      <c r="BW5" s="42">
+      <c r="BL5" s="46"/>
+      <c r="BM5" s="46"/>
+      <c r="BN5" s="46"/>
+      <c r="BO5" s="46"/>
+      <c r="BP5" s="46"/>
+      <c r="BQ5" s="46"/>
+      <c r="BR5" s="46"/>
+      <c r="BS5" s="46"/>
+      <c r="BT5" s="46"/>
+      <c r="BU5" s="46"/>
+      <c r="BV5" s="47"/>
+      <c r="BW5" s="45">
         <v>2004</v>
       </c>
-      <c r="BX5" s="43"/>
-      <c r="BY5" s="43"/>
-      <c r="BZ5" s="43"/>
-      <c r="CA5" s="43"/>
-      <c r="CB5" s="43"/>
-      <c r="CC5" s="43"/>
-      <c r="CD5" s="43"/>
-      <c r="CE5" s="43"/>
-      <c r="CF5" s="43"/>
-      <c r="CG5" s="43"/>
-      <c r="CH5" s="44"/>
-      <c r="CI5" s="42">
+      <c r="BX5" s="46"/>
+      <c r="BY5" s="46"/>
+      <c r="BZ5" s="46"/>
+      <c r="CA5" s="46"/>
+      <c r="CB5" s="46"/>
+      <c r="CC5" s="46"/>
+      <c r="CD5" s="46"/>
+      <c r="CE5" s="46"/>
+      <c r="CF5" s="46"/>
+      <c r="CG5" s="46"/>
+      <c r="CH5" s="47"/>
+      <c r="CI5" s="45">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="43"/>
-      <c r="CK5" s="43"/>
-      <c r="CL5" s="43"/>
-      <c r="CM5" s="43"/>
-      <c r="CN5" s="43"/>
-      <c r="CO5" s="43"/>
-      <c r="CP5" s="43"/>
-      <c r="CQ5" s="43"/>
-      <c r="CR5" s="43"/>
-      <c r="CS5" s="43"/>
-      <c r="CT5" s="44"/>
-      <c r="CU5" s="42">
+      <c r="CJ5" s="46"/>
+      <c r="CK5" s="46"/>
+      <c r="CL5" s="46"/>
+      <c r="CM5" s="46"/>
+      <c r="CN5" s="46"/>
+      <c r="CO5" s="46"/>
+      <c r="CP5" s="46"/>
+      <c r="CQ5" s="46"/>
+      <c r="CR5" s="46"/>
+      <c r="CS5" s="46"/>
+      <c r="CT5" s="47"/>
+      <c r="CU5" s="45">
         <v>2006</v>
       </c>
-      <c r="CV5" s="43"/>
-      <c r="CW5" s="43"/>
-      <c r="CX5" s="43"/>
-      <c r="CY5" s="43"/>
-      <c r="CZ5" s="43"/>
-      <c r="DA5" s="43"/>
-      <c r="DB5" s="43"/>
-      <c r="DC5" s="43"/>
-      <c r="DD5" s="43"/>
-      <c r="DE5" s="43"/>
-      <c r="DF5" s="44"/>
-      <c r="DG5" s="42">
+      <c r="CV5" s="46"/>
+      <c r="CW5" s="46"/>
+      <c r="CX5" s="46"/>
+      <c r="CY5" s="46"/>
+      <c r="CZ5" s="46"/>
+      <c r="DA5" s="46"/>
+      <c r="DB5" s="46"/>
+      <c r="DC5" s="46"/>
+      <c r="DD5" s="46"/>
+      <c r="DE5" s="46"/>
+      <c r="DF5" s="47"/>
+      <c r="DG5" s="45">
         <v>2007</v>
       </c>
-      <c r="DH5" s="43"/>
-      <c r="DI5" s="43"/>
-      <c r="DJ5" s="43"/>
-      <c r="DK5" s="43"/>
-      <c r="DL5" s="43"/>
-      <c r="DM5" s="43"/>
-      <c r="DN5" s="43"/>
-      <c r="DO5" s="43"/>
-      <c r="DP5" s="43"/>
-      <c r="DQ5" s="43"/>
-      <c r="DR5" s="44"/>
-      <c r="DS5" s="42">
+      <c r="DH5" s="46"/>
+      <c r="DI5" s="46"/>
+      <c r="DJ5" s="46"/>
+      <c r="DK5" s="46"/>
+      <c r="DL5" s="46"/>
+      <c r="DM5" s="46"/>
+      <c r="DN5" s="46"/>
+      <c r="DO5" s="46"/>
+      <c r="DP5" s="46"/>
+      <c r="DQ5" s="46"/>
+      <c r="DR5" s="47"/>
+      <c r="DS5" s="45">
         <v>2008</v>
       </c>
-      <c r="DT5" s="43"/>
-      <c r="DU5" s="43"/>
-      <c r="DV5" s="43"/>
-      <c r="DW5" s="43"/>
-      <c r="DX5" s="43"/>
-      <c r="DY5" s="43"/>
-      <c r="DZ5" s="43"/>
-      <c r="EA5" s="43"/>
-      <c r="EB5" s="43"/>
-      <c r="EC5" s="43"/>
-      <c r="ED5" s="44"/>
-      <c r="EE5" s="42">
+      <c r="DT5" s="46"/>
+      <c r="DU5" s="46"/>
+      <c r="DV5" s="46"/>
+      <c r="DW5" s="46"/>
+      <c r="DX5" s="46"/>
+      <c r="DY5" s="46"/>
+      <c r="DZ5" s="46"/>
+      <c r="EA5" s="46"/>
+      <c r="EB5" s="46"/>
+      <c r="EC5" s="46"/>
+      <c r="ED5" s="47"/>
+      <c r="EE5" s="45">
         <v>2009</v>
       </c>
-      <c r="EF5" s="43"/>
-      <c r="EG5" s="43"/>
-      <c r="EH5" s="43"/>
-      <c r="EI5" s="43"/>
-      <c r="EJ5" s="43"/>
-      <c r="EK5" s="43"/>
-      <c r="EL5" s="43"/>
-      <c r="EM5" s="43"/>
-      <c r="EN5" s="43"/>
-      <c r="EO5" s="43"/>
-      <c r="EP5" s="44"/>
-      <c r="EQ5" s="42">
+      <c r="EF5" s="46"/>
+      <c r="EG5" s="46"/>
+      <c r="EH5" s="46"/>
+      <c r="EI5" s="46"/>
+      <c r="EJ5" s="46"/>
+      <c r="EK5" s="46"/>
+      <c r="EL5" s="46"/>
+      <c r="EM5" s="46"/>
+      <c r="EN5" s="46"/>
+      <c r="EO5" s="46"/>
+      <c r="EP5" s="47"/>
+      <c r="EQ5" s="45">
         <v>2010</v>
       </c>
-      <c r="ER5" s="43"/>
-      <c r="ES5" s="43"/>
-      <c r="ET5" s="43"/>
-      <c r="EU5" s="43"/>
-      <c r="EV5" s="43"/>
-      <c r="EW5" s="43"/>
-      <c r="EX5" s="43"/>
-      <c r="EY5" s="43"/>
-      <c r="EZ5" s="43"/>
-      <c r="FA5" s="43"/>
-      <c r="FB5" s="44"/>
-      <c r="FC5" s="42">
+      <c r="ER5" s="46"/>
+      <c r="ES5" s="46"/>
+      <c r="ET5" s="46"/>
+      <c r="EU5" s="46"/>
+      <c r="EV5" s="46"/>
+      <c r="EW5" s="46"/>
+      <c r="EX5" s="46"/>
+      <c r="EY5" s="46"/>
+      <c r="EZ5" s="46"/>
+      <c r="FA5" s="46"/>
+      <c r="FB5" s="47"/>
+      <c r="FC5" s="45">
         <v>2011</v>
       </c>
-      <c r="FD5" s="43"/>
-      <c r="FE5" s="43"/>
-      <c r="FF5" s="43"/>
-      <c r="FG5" s="43"/>
-      <c r="FH5" s="43"/>
-      <c r="FI5" s="43"/>
-      <c r="FJ5" s="43"/>
-      <c r="FK5" s="43"/>
-      <c r="FL5" s="43"/>
-      <c r="FM5" s="43"/>
-      <c r="FN5" s="44"/>
-      <c r="FO5" s="42">
+      <c r="FD5" s="46"/>
+      <c r="FE5" s="46"/>
+      <c r="FF5" s="46"/>
+      <c r="FG5" s="46"/>
+      <c r="FH5" s="46"/>
+      <c r="FI5" s="46"/>
+      <c r="FJ5" s="46"/>
+      <c r="FK5" s="46"/>
+      <c r="FL5" s="46"/>
+      <c r="FM5" s="46"/>
+      <c r="FN5" s="47"/>
+      <c r="FO5" s="45">
         <v>2012</v>
       </c>
-      <c r="FP5" s="43"/>
-      <c r="FQ5" s="43"/>
-      <c r="FR5" s="43"/>
-      <c r="FS5" s="43"/>
-      <c r="FT5" s="43"/>
-      <c r="FU5" s="43"/>
-      <c r="FV5" s="43"/>
-      <c r="FW5" s="43"/>
-      <c r="FX5" s="43"/>
-      <c r="FY5" s="43"/>
-      <c r="FZ5" s="44"/>
-      <c r="GA5" s="42">
+      <c r="FP5" s="46"/>
+      <c r="FQ5" s="46"/>
+      <c r="FR5" s="46"/>
+      <c r="FS5" s="46"/>
+      <c r="FT5" s="46"/>
+      <c r="FU5" s="46"/>
+      <c r="FV5" s="46"/>
+      <c r="FW5" s="46"/>
+      <c r="FX5" s="46"/>
+      <c r="FY5" s="46"/>
+      <c r="FZ5" s="47"/>
+      <c r="GA5" s="45">
         <v>2013</v>
       </c>
-      <c r="GB5" s="43"/>
-      <c r="GC5" s="43"/>
-      <c r="GD5" s="43"/>
-      <c r="GE5" s="43"/>
-      <c r="GF5" s="43"/>
-      <c r="GG5" s="43"/>
-      <c r="GH5" s="43"/>
-      <c r="GI5" s="43"/>
-      <c r="GJ5" s="43"/>
-      <c r="GK5" s="43"/>
-      <c r="GL5" s="44"/>
-      <c r="GM5" s="42">
+      <c r="GB5" s="46"/>
+      <c r="GC5" s="46"/>
+      <c r="GD5" s="46"/>
+      <c r="GE5" s="46"/>
+      <c r="GF5" s="46"/>
+      <c r="GG5" s="46"/>
+      <c r="GH5" s="46"/>
+      <c r="GI5" s="46"/>
+      <c r="GJ5" s="46"/>
+      <c r="GK5" s="46"/>
+      <c r="GL5" s="47"/>
+      <c r="GM5" s="45">
         <v>2014</v>
       </c>
-      <c r="GN5" s="43"/>
-      <c r="GO5" s="43"/>
-      <c r="GP5" s="43"/>
-      <c r="GQ5" s="43"/>
-      <c r="GR5" s="43"/>
-      <c r="GS5" s="43"/>
-      <c r="GT5" s="43"/>
-      <c r="GU5" s="43"/>
-      <c r="GV5" s="43"/>
-      <c r="GW5" s="43"/>
-      <c r="GX5" s="44"/>
-      <c r="GY5" s="42">
+      <c r="GN5" s="46"/>
+      <c r="GO5" s="46"/>
+      <c r="GP5" s="46"/>
+      <c r="GQ5" s="46"/>
+      <c r="GR5" s="46"/>
+      <c r="GS5" s="46"/>
+      <c r="GT5" s="46"/>
+      <c r="GU5" s="46"/>
+      <c r="GV5" s="46"/>
+      <c r="GW5" s="46"/>
+      <c r="GX5" s="47"/>
+      <c r="GY5" s="45">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="43"/>
-      <c r="HA5" s="43"/>
-      <c r="HB5" s="43"/>
-      <c r="HC5" s="43"/>
-      <c r="HD5" s="43"/>
-      <c r="HE5" s="43"/>
-      <c r="HF5" s="43"/>
-      <c r="HG5" s="43"/>
-      <c r="HH5" s="43"/>
-      <c r="HI5" s="43"/>
-      <c r="HJ5" s="44"/>
-      <c r="HK5" s="42">
+      <c r="GZ5" s="46"/>
+      <c r="HA5" s="46"/>
+      <c r="HB5" s="46"/>
+      <c r="HC5" s="46"/>
+      <c r="HD5" s="46"/>
+      <c r="HE5" s="46"/>
+      <c r="HF5" s="46"/>
+      <c r="HG5" s="46"/>
+      <c r="HH5" s="46"/>
+      <c r="HI5" s="46"/>
+      <c r="HJ5" s="47"/>
+      <c r="HK5" s="45">
         <v>2016</v>
       </c>
-      <c r="HL5" s="43"/>
-      <c r="HM5" s="43"/>
-      <c r="HN5" s="43"/>
-      <c r="HO5" s="43"/>
-      <c r="HP5" s="43"/>
-      <c r="HQ5" s="43"/>
-      <c r="HR5" s="43"/>
-      <c r="HS5" s="43"/>
-      <c r="HT5" s="43"/>
-      <c r="HU5" s="43"/>
-      <c r="HV5" s="44"/>
-      <c r="HW5" s="42">
+      <c r="HL5" s="46"/>
+      <c r="HM5" s="46"/>
+      <c r="HN5" s="46"/>
+      <c r="HO5" s="46"/>
+      <c r="HP5" s="46"/>
+      <c r="HQ5" s="46"/>
+      <c r="HR5" s="46"/>
+      <c r="HS5" s="46"/>
+      <c r="HT5" s="46"/>
+      <c r="HU5" s="46"/>
+      <c r="HV5" s="47"/>
+      <c r="HW5" s="45">
         <v>2017</v>
       </c>
-      <c r="HX5" s="43"/>
-      <c r="HY5" s="43"/>
-      <c r="HZ5" s="43"/>
-      <c r="IA5" s="43"/>
-      <c r="IB5" s="43"/>
-      <c r="IC5" s="43"/>
-      <c r="ID5" s="43"/>
-      <c r="IE5" s="43"/>
-      <c r="IF5" s="43"/>
-      <c r="IG5" s="43"/>
-      <c r="IH5" s="44"/>
-      <c r="II5" s="42">
+      <c r="HX5" s="46"/>
+      <c r="HY5" s="46"/>
+      <c r="HZ5" s="46"/>
+      <c r="IA5" s="46"/>
+      <c r="IB5" s="46"/>
+      <c r="IC5" s="46"/>
+      <c r="ID5" s="46"/>
+      <c r="IE5" s="46"/>
+      <c r="IF5" s="46"/>
+      <c r="IG5" s="46"/>
+      <c r="IH5" s="47"/>
+      <c r="II5" s="45">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="43"/>
-      <c r="IK5" s="43"/>
-      <c r="IL5" s="43"/>
-      <c r="IM5" s="43"/>
-      <c r="IN5" s="43"/>
-      <c r="IO5" s="43"/>
-      <c r="IP5" s="43"/>
-      <c r="IQ5" s="43"/>
-      <c r="IR5" s="43"/>
-      <c r="IS5" s="43"/>
-      <c r="IT5" s="44"/>
-      <c r="IU5" s="42">
+      <c r="IJ5" s="46"/>
+      <c r="IK5" s="46"/>
+      <c r="IL5" s="46"/>
+      <c r="IM5" s="46"/>
+      <c r="IN5" s="46"/>
+      <c r="IO5" s="46"/>
+      <c r="IP5" s="46"/>
+      <c r="IQ5" s="46"/>
+      <c r="IR5" s="46"/>
+      <c r="IS5" s="46"/>
+      <c r="IT5" s="47"/>
+      <c r="IU5" s="45">
         <v>2019</v>
       </c>
-      <c r="IV5" s="43"/>
-      <c r="IW5" s="43"/>
-      <c r="IX5" s="43"/>
-      <c r="IY5" s="43"/>
-      <c r="IZ5" s="43"/>
-      <c r="JA5" s="43"/>
-      <c r="JB5" s="43"/>
-      <c r="JC5" s="43"/>
-      <c r="JD5" s="43"/>
-      <c r="JE5" s="43"/>
-      <c r="JF5" s="44"/>
-      <c r="JG5" s="42">
+      <c r="IV5" s="46"/>
+      <c r="IW5" s="46"/>
+      <c r="IX5" s="46"/>
+      <c r="IY5" s="46"/>
+      <c r="IZ5" s="46"/>
+      <c r="JA5" s="46"/>
+      <c r="JB5" s="46"/>
+      <c r="JC5" s="46"/>
+      <c r="JD5" s="46"/>
+      <c r="JE5" s="46"/>
+      <c r="JF5" s="47"/>
+      <c r="JG5" s="45">
         <v>2020</v>
       </c>
-      <c r="JH5" s="43"/>
-      <c r="JI5" s="43"/>
-      <c r="JJ5" s="43"/>
-      <c r="JK5" s="43"/>
-      <c r="JL5" s="43"/>
-      <c r="JM5" s="43"/>
-      <c r="JN5" s="43"/>
-      <c r="JO5" s="43"/>
-      <c r="JP5" s="43"/>
-      <c r="JQ5" s="43"/>
-      <c r="JR5" s="44"/>
-      <c r="JS5" s="42">
+      <c r="JH5" s="46"/>
+      <c r="JI5" s="46"/>
+      <c r="JJ5" s="46"/>
+      <c r="JK5" s="46"/>
+      <c r="JL5" s="46"/>
+      <c r="JM5" s="46"/>
+      <c r="JN5" s="46"/>
+      <c r="JO5" s="46"/>
+      <c r="JP5" s="46"/>
+      <c r="JQ5" s="46"/>
+      <c r="JR5" s="47"/>
+      <c r="JS5" s="45">
         <v>2021</v>
       </c>
-      <c r="JT5" s="43"/>
-      <c r="JU5" s="43"/>
-      <c r="JV5" s="43"/>
-      <c r="JW5" s="43"/>
-      <c r="JX5" s="43"/>
-      <c r="JY5" s="43"/>
-      <c r="JZ5" s="43"/>
-      <c r="KA5" s="43"/>
-      <c r="KB5" s="43"/>
-      <c r="KC5" s="43"/>
-      <c r="KD5" s="43"/>
-      <c r="KE5" s="42">
+      <c r="JT5" s="46"/>
+      <c r="JU5" s="46"/>
+      <c r="JV5" s="46"/>
+      <c r="JW5" s="46"/>
+      <c r="JX5" s="46"/>
+      <c r="JY5" s="46"/>
+      <c r="JZ5" s="46"/>
+      <c r="KA5" s="46"/>
+      <c r="KB5" s="46"/>
+      <c r="KC5" s="46"/>
+      <c r="KD5" s="46"/>
+      <c r="KE5" s="45">
         <v>2022</v>
       </c>
-      <c r="KF5" s="43"/>
-      <c r="KG5" s="43"/>
-      <c r="KH5" s="44"/>
+      <c r="KF5" s="46"/>
+      <c r="KG5" s="46"/>
+      <c r="KH5" s="46"/>
+      <c r="KI5" s="47"/>
     </row>
-    <row r="6" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+    <row r="6" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2567,11 +2568,14 @@
       <c r="KG6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="KH6" s="11" t="s">
+      <c r="KH6" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="KI6" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:294" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:295" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3451,11 +3455,14 @@
       <c r="KG7" s="38">
         <v>124917</v>
       </c>
-      <c r="KH7" s="31">
+      <c r="KH7" s="38">
         <v>120707</v>
       </c>
+      <c r="KI7" s="31">
+        <v>116527</v>
+      </c>
     </row>
-    <row r="8" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4333,11 +4340,14 @@
       <c r="KG8" s="3">
         <v>23697</v>
       </c>
-      <c r="KH8" s="4">
+      <c r="KH8" s="3">
         <v>23622</v>
       </c>
+      <c r="KI8" s="4">
+        <v>22686</v>
+      </c>
     </row>
-    <row r="9" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5215,11 +5225,14 @@
       <c r="KG9" s="3">
         <v>5819</v>
       </c>
-      <c r="KH9" s="4">
+      <c r="KH9" s="3">
         <v>5383</v>
       </c>
+      <c r="KI9" s="4">
+        <v>5283</v>
+      </c>
     </row>
-    <row r="10" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6097,11 +6110,14 @@
       <c r="KG10" s="3">
         <v>19489</v>
       </c>
-      <c r="KH10" s="4">
+      <c r="KH10" s="3">
         <v>18040</v>
       </c>
+      <c r="KI10" s="4">
+        <v>17426</v>
+      </c>
     </row>
-    <row r="11" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -6979,11 +6995,14 @@
       <c r="KG11" s="3">
         <v>19268</v>
       </c>
-      <c r="KH11" s="4">
+      <c r="KH11" s="3">
         <v>18407</v>
       </c>
+      <c r="KI11" s="4">
+        <v>17892</v>
+      </c>
     </row>
-    <row r="12" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7861,11 +7880,14 @@
       <c r="KG12" s="3">
         <v>16918</v>
       </c>
-      <c r="KH12" s="4">
+      <c r="KH12" s="3">
         <v>16246</v>
       </c>
+      <c r="KI12" s="4">
+        <v>15859</v>
+      </c>
     </row>
-    <row r="13" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8743,11 +8765,14 @@
       <c r="KG13" s="3">
         <v>14770</v>
       </c>
-      <c r="KH13" s="4">
+      <c r="KH13" s="3">
         <v>14481</v>
       </c>
+      <c r="KI13" s="4">
+        <v>14013</v>
+      </c>
     </row>
-    <row r="14" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9625,11 +9650,14 @@
       <c r="KG14" s="3">
         <v>12945</v>
       </c>
-      <c r="KH14" s="4">
+      <c r="KH14" s="3">
         <v>12659</v>
       </c>
+      <c r="KI14" s="4">
+        <v>12022</v>
+      </c>
     </row>
-    <row r="15" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10507,11 +10535,14 @@
       <c r="KG15" s="3">
         <v>12003</v>
       </c>
-      <c r="KH15" s="4">
+      <c r="KH15" s="3">
         <v>11859</v>
       </c>
+      <c r="KI15" s="4">
+        <v>11333</v>
+      </c>
     </row>
-    <row r="16" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11389,11 +11420,14 @@
       <c r="KG16" s="39">
         <v>8</v>
       </c>
-      <c r="KH16" s="37">
+      <c r="KH16" s="39">
         <v>10</v>
       </c>
+      <c r="KI16" s="37">
+        <v>13</v>
+      </c>
     </row>
-    <row r="17" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12273,11 +12307,14 @@
       <c r="KG17" s="38">
         <v>389036</v>
       </c>
-      <c r="KH17" s="31">
+      <c r="KH17" s="38">
         <v>389372</v>
       </c>
+      <c r="KI17" s="31">
+        <v>390157</v>
+      </c>
     </row>
-    <row r="18" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13155,11 +13192,14 @@
       <c r="KG18" s="3">
         <v>57926</v>
       </c>
-      <c r="KH18" s="4">
+      <c r="KH18" s="3">
         <v>58539</v>
       </c>
+      <c r="KI18" s="4">
+        <v>58997</v>
+      </c>
     </row>
-    <row r="19" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14037,11 +14077,14 @@
       <c r="KG19" s="3">
         <v>10811</v>
       </c>
-      <c r="KH19" s="4">
+      <c r="KH19" s="3">
         <v>10559</v>
       </c>
+      <c r="KI19" s="4">
+        <v>10282</v>
+      </c>
     </row>
-    <row r="20" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -14919,11 +14962,14 @@
       <c r="KG20" s="3">
         <v>54200</v>
       </c>
-      <c r="KH20" s="4">
+      <c r="KH20" s="3">
         <v>53866</v>
       </c>
+      <c r="KI20" s="4">
+        <v>53788</v>
+      </c>
     </row>
-    <row r="21" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -15801,11 +15847,14 @@
       <c r="KG21" s="3">
         <v>65802</v>
       </c>
-      <c r="KH21" s="4">
+      <c r="KH21" s="3">
         <v>65773</v>
       </c>
+      <c r="KI21" s="4">
+        <v>65755</v>
+      </c>
     </row>
-    <row r="22" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16683,11 +16732,14 @@
       <c r="KG22" s="3">
         <v>63523</v>
       </c>
-      <c r="KH22" s="4">
+      <c r="KH22" s="3">
         <v>63490</v>
       </c>
+      <c r="KI22" s="4">
+        <v>63561</v>
+      </c>
     </row>
-    <row r="23" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17565,11 +17617,14 @@
       <c r="KG23" s="3">
         <v>54444</v>
       </c>
-      <c r="KH23" s="4">
+      <c r="KH23" s="3">
         <v>54549</v>
       </c>
+      <c r="KI23" s="4">
+        <v>54672</v>
+      </c>
     </row>
-    <row r="24" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18447,11 +18502,14 @@
       <c r="KG24" s="3">
         <v>44633</v>
       </c>
-      <c r="KH24" s="4">
+      <c r="KH24" s="3">
         <v>44775</v>
       </c>
+      <c r="KI24" s="4">
+        <v>45038</v>
+      </c>
     </row>
-    <row r="25" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -19329,11 +19387,14 @@
       <c r="KG25" s="3">
         <v>37694</v>
       </c>
-      <c r="KH25" s="4">
+      <c r="KH25" s="3">
         <v>37818</v>
       </c>
+      <c r="KI25" s="4">
+        <v>38059</v>
+      </c>
     </row>
-    <row r="26" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -20205,11 +20266,14 @@
       <c r="KG26" s="39">
         <v>3</v>
       </c>
-      <c r="KH26" s="37">
+      <c r="KH26" s="39">
         <v>3</v>
       </c>
+      <c r="KI26" s="37">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -21089,11 +21153,14 @@
       <c r="KG27" s="38">
         <v>137344</v>
       </c>
-      <c r="KH27" s="31">
+      <c r="KH27" s="38">
         <v>137135</v>
       </c>
+      <c r="KI27" s="31">
+        <v>139462</v>
+      </c>
     </row>
-    <row r="28" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -21971,11 +22038,14 @@
       <c r="KG28" s="3">
         <v>24612</v>
       </c>
-      <c r="KH28" s="4">
+      <c r="KH28" s="3">
         <v>24632</v>
       </c>
+      <c r="KI28" s="4">
+        <v>25283</v>
+      </c>
     </row>
-    <row r="29" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -22853,11 +22923,14 @@
       <c r="KG29" s="3">
         <v>4664</v>
       </c>
-      <c r="KH29" s="4">
+      <c r="KH29" s="3">
         <v>4623</v>
       </c>
+      <c r="KI29" s="4">
+        <v>4616</v>
+      </c>
     </row>
-    <row r="30" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -23735,11 +23808,14 @@
       <c r="KG30" s="3">
         <v>17143</v>
       </c>
-      <c r="KH30" s="4">
+      <c r="KH30" s="3">
         <v>17102</v>
       </c>
+      <c r="KI30" s="4">
+        <v>17411</v>
+      </c>
     </row>
-    <row r="31" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -24617,11 +24693,14 @@
       <c r="KG31" s="3">
         <v>22117</v>
       </c>
-      <c r="KH31" s="4">
+      <c r="KH31" s="3">
         <v>22076</v>
       </c>
+      <c r="KI31" s="4">
+        <v>22330</v>
+      </c>
     </row>
-    <row r="32" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -25499,11 +25578,14 @@
       <c r="KG32" s="3">
         <v>20771</v>
       </c>
-      <c r="KH32" s="4">
+      <c r="KH32" s="3">
         <v>20735</v>
       </c>
+      <c r="KI32" s="4">
+        <v>21097</v>
+      </c>
     </row>
-    <row r="33" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -26381,11 +26463,14 @@
       <c r="KG33" s="3">
         <v>18626</v>
       </c>
-      <c r="KH33" s="4">
+      <c r="KH33" s="3">
         <v>18577</v>
       </c>
+      <c r="KI33" s="4">
+        <v>18894</v>
+      </c>
     </row>
-    <row r="34" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -27263,11 +27348,14 @@
       <c r="KG34" s="3">
         <v>15626</v>
       </c>
-      <c r="KH34" s="4">
+      <c r="KH34" s="3">
         <v>15660</v>
       </c>
+      <c r="KI34" s="4">
+        <v>15887</v>
+      </c>
     </row>
-    <row r="35" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -28145,11 +28233,14 @@
       <c r="KG35" s="3">
         <v>13764</v>
       </c>
-      <c r="KH35" s="4">
+      <c r="KH35" s="3">
         <v>13710</v>
       </c>
+      <c r="KI35" s="4">
+        <v>13929</v>
+      </c>
     </row>
-    <row r="36" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -29027,11 +29118,14 @@
       <c r="KG36" s="39">
         <v>21</v>
       </c>
-      <c r="KH36" s="37">
+      <c r="KH36" s="39">
         <v>20</v>
       </c>
+      <c r="KI36" s="37">
+        <v>15</v>
+      </c>
     </row>
-    <row r="37" spans="1:294" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:295" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -29911,11 +30005,14 @@
       <c r="KG37" s="40">
         <v>9619</v>
       </c>
-      <c r="KH37" s="33">
+      <c r="KH37" s="40">
         <v>9540</v>
       </c>
+      <c r="KI37" s="33">
+        <v>9600</v>
+      </c>
     </row>
-    <row r="38" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -30793,11 +30890,14 @@
       <c r="KG38" s="3">
         <v>1701</v>
       </c>
-      <c r="KH38" s="4">
+      <c r="KH38" s="3">
         <v>1696</v>
       </c>
+      <c r="KI38" s="4">
+        <v>1711</v>
+      </c>
     </row>
-    <row r="39" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -31675,11 +31775,14 @@
       <c r="KG39" s="3">
         <v>96</v>
       </c>
-      <c r="KH39" s="4">
+      <c r="KH39" s="3">
         <v>82</v>
       </c>
+      <c r="KI39" s="4">
+        <v>85</v>
+      </c>
     </row>
-    <row r="40" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -32557,11 +32660,14 @@
       <c r="KG40" s="3">
         <v>503</v>
       </c>
-      <c r="KH40" s="4">
+      <c r="KH40" s="3">
         <v>480</v>
       </c>
+      <c r="KI40" s="4">
+        <v>493</v>
+      </c>
     </row>
-    <row r="41" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -33439,11 +33545,14 @@
       <c r="KG41" s="3">
         <v>979</v>
       </c>
-      <c r="KH41" s="4">
+      <c r="KH41" s="3">
         <v>982</v>
       </c>
+      <c r="KI41" s="4">
+        <v>989</v>
+      </c>
     </row>
-    <row r="42" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -34321,11 +34430,14 @@
       <c r="KG42" s="3">
         <v>1418</v>
       </c>
-      <c r="KH42" s="4">
+      <c r="KH42" s="3">
         <v>1383</v>
       </c>
+      <c r="KI42" s="4">
+        <v>1389</v>
+      </c>
     </row>
-    <row r="43" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -35203,11 +35315,14 @@
       <c r="KG43" s="3">
         <v>1796</v>
       </c>
-      <c r="KH43" s="4">
+      <c r="KH43" s="3">
         <v>1796</v>
       </c>
+      <c r="KI43" s="4">
+        <v>1775</v>
+      </c>
     </row>
-    <row r="44" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -36085,11 +36200,14 @@
       <c r="KG44" s="3">
         <v>1698</v>
       </c>
-      <c r="KH44" s="4">
+      <c r="KH44" s="3">
         <v>1690</v>
       </c>
+      <c r="KI44" s="4">
+        <v>1714</v>
+      </c>
     </row>
-    <row r="45" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -36967,11 +37085,14 @@
       <c r="KG45" s="3">
         <v>1428</v>
       </c>
-      <c r="KH45" s="4">
+      <c r="KH45" s="3">
         <v>1431</v>
       </c>
+      <c r="KI45" s="4">
+        <v>1444</v>
+      </c>
     </row>
-    <row r="46" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -37391,9 +37512,10 @@
       <c r="KE46" s="36"/>
       <c r="KF46" s="39"/>
       <c r="KG46" s="39"/>
-      <c r="KH46" s="37"/>
+      <c r="KH46" s="39"/>
+      <c r="KI46" s="37"/>
     </row>
-    <row r="47" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -38273,11 +38395,14 @@
       <c r="KG47" s="38">
         <v>493413</v>
       </c>
-      <c r="KH47" s="31">
+      <c r="KH47" s="38">
         <v>494824</v>
       </c>
+      <c r="KI47" s="31">
+        <v>496682</v>
+      </c>
     </row>
-    <row r="48" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -39155,11 +39280,14 @@
       <c r="KG48" s="3">
         <v>73814</v>
       </c>
-      <c r="KH48" s="4">
+      <c r="KH48" s="3">
         <v>74520</v>
       </c>
+      <c r="KI48" s="4">
+        <v>75179</v>
+      </c>
     </row>
-    <row r="49" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -40037,11 +40165,14 @@
       <c r="KG49" s="3">
         <v>15502</v>
       </c>
-      <c r="KH49" s="4">
+      <c r="KH49" s="3">
         <v>15064</v>
       </c>
+      <c r="KI49" s="4">
+        <v>14584</v>
+      </c>
     </row>
-    <row r="50" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -40919,11 +41050,14 @@
       <c r="KG50" s="3">
         <v>69154</v>
       </c>
-      <c r="KH50" s="4">
+      <c r="KH50" s="3">
         <v>69243</v>
       </c>
+      <c r="KI50" s="4">
+        <v>69377</v>
+      </c>
     </row>
-    <row r="51" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -41801,11 +41935,14 @@
       <c r="KG51" s="3">
         <v>80360</v>
       </c>
-      <c r="KH51" s="4">
+      <c r="KH51" s="3">
         <v>80467</v>
       </c>
+      <c r="KI51" s="4">
+        <v>80725</v>
+      </c>
     </row>
-    <row r="52" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -42683,11 +42820,14 @@
       <c r="KG52" s="3">
         <v>74188</v>
       </c>
-      <c r="KH52" s="4">
+      <c r="KH52" s="3">
         <v>74469</v>
       </c>
+      <c r="KI52" s="4">
+        <v>74978</v>
+      </c>
     </row>
-    <row r="53" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -43565,11 +43705,14 @@
       <c r="KG53" s="3">
         <v>67123</v>
       </c>
-      <c r="KH53" s="4">
+      <c r="KH53" s="3">
         <v>67290</v>
       </c>
+      <c r="KI53" s="4">
+        <v>67557</v>
+      </c>
     </row>
-    <row r="54" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -44447,11 +44590,14 @@
       <c r="KG54" s="3">
         <v>60827</v>
       </c>
-      <c r="KH54" s="4">
+      <c r="KH54" s="3">
         <v>61079</v>
       </c>
+      <c r="KI54" s="4">
+        <v>61367</v>
+      </c>
     </row>
-    <row r="55" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -45329,11 +45475,14 @@
       <c r="KG55" s="3">
         <v>52436</v>
       </c>
-      <c r="KH55" s="4">
+      <c r="KH55" s="3">
         <v>52684</v>
       </c>
+      <c r="KI55" s="4">
+        <v>52905</v>
+      </c>
     </row>
-    <row r="56" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -46211,11 +46360,14 @@
       <c r="KG56" s="39">
         <v>9</v>
       </c>
-      <c r="KH56" s="37">
+      <c r="KH56" s="39">
         <v>8</v>
       </c>
+      <c r="KI56" s="37">
+        <v>10</v>
+      </c>
     </row>
-    <row r="57" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -47095,11 +47247,14 @@
       <c r="KG57" s="38">
         <v>2577</v>
       </c>
-      <c r="KH57" s="31">
+      <c r="KH57" s="38">
         <v>2556</v>
       </c>
+      <c r="KI57" s="31">
+        <v>2538</v>
+      </c>
     </row>
-    <row r="58" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -47977,11 +48132,14 @@
       <c r="KG58" s="3">
         <v>504</v>
       </c>
-      <c r="KH58" s="4">
+      <c r="KH58" s="3">
         <v>519</v>
       </c>
+      <c r="KI58" s="4">
+        <v>510</v>
+      </c>
     </row>
-    <row r="59" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -48859,11 +49017,14 @@
       <c r="KG59" s="3">
         <v>37</v>
       </c>
-      <c r="KH59" s="4">
+      <c r="KH59" s="3">
         <v>37</v>
       </c>
+      <c r="KI59" s="4">
+        <v>35</v>
+      </c>
     </row>
-    <row r="60" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -49741,11 +49902,14 @@
       <c r="KG60" s="3">
         <v>206</v>
       </c>
-      <c r="KH60" s="4">
+      <c r="KH60" s="3">
         <v>200</v>
       </c>
+      <c r="KI60" s="4">
+        <v>197</v>
+      </c>
     </row>
-    <row r="61" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -50623,11 +50787,14 @@
       <c r="KG61" s="3">
         <v>390</v>
       </c>
-      <c r="KH61" s="4">
+      <c r="KH61" s="3">
         <v>377</v>
       </c>
+      <c r="KI61" s="4">
+        <v>395</v>
+      </c>
     </row>
-    <row r="62" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -51505,11 +51672,14 @@
       <c r="KG62" s="3">
         <v>413</v>
       </c>
-      <c r="KH62" s="4">
+      <c r="KH62" s="3">
         <v>404</v>
       </c>
+      <c r="KI62" s="4">
+        <v>394</v>
+      </c>
     </row>
-    <row r="63" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -52387,11 +52557,14 @@
       <c r="KG63" s="3">
         <v>401</v>
       </c>
-      <c r="KH63" s="4">
+      <c r="KH63" s="3">
         <v>396</v>
       </c>
+      <c r="KI63" s="4">
+        <v>389</v>
+      </c>
     </row>
-    <row r="64" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -53269,11 +53442,14 @@
       <c r="KG64" s="3">
         <v>340</v>
       </c>
-      <c r="KH64" s="4">
+      <c r="KH64" s="3">
         <v>340</v>
       </c>
+      <c r="KI64" s="4">
+        <v>336</v>
+      </c>
     </row>
-    <row r="65" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -54151,11 +54327,14 @@
       <c r="KG65" s="3">
         <v>286</v>
       </c>
-      <c r="KH65" s="4">
+      <c r="KH65" s="3">
         <v>283</v>
       </c>
+      <c r="KI65" s="4">
+        <v>282</v>
+      </c>
     </row>
-    <row r="66" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -54509,9 +54688,10 @@
       <c r="KE66" s="36"/>
       <c r="KF66" s="39"/>
       <c r="KG66" s="39"/>
-      <c r="KH66" s="37"/>
+      <c r="KH66" s="39"/>
+      <c r="KI66" s="37"/>
     </row>
-    <row r="67" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -55391,11 +55571,14 @@
       <c r="KG67" s="38">
         <v>630046</v>
       </c>
-      <c r="KH67" s="31">
+      <c r="KH67" s="38">
         <v>630421</v>
       </c>
+      <c r="KI67" s="31">
+        <v>632610</v>
+      </c>
     </row>
-    <row r="68" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -56273,11 +56456,14 @@
       <c r="KG68" s="3">
         <v>132310</v>
       </c>
-      <c r="KH68" s="4">
+      <c r="KH68" s="3">
         <v>132483</v>
       </c>
+      <c r="KI68" s="4">
+        <v>132806</v>
+      </c>
     </row>
-    <row r="69" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -57155,11 +57341,14 @@
       <c r="KG69" s="3">
         <v>10489</v>
       </c>
-      <c r="KH69" s="4">
+      <c r="KH69" s="3">
         <v>10380</v>
       </c>
+      <c r="KI69" s="4">
+        <v>10274</v>
+      </c>
     </row>
-    <row r="70" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -58037,11 +58226,14 @@
       <c r="KG70" s="3">
         <v>61181</v>
       </c>
-      <c r="KH70" s="4">
+      <c r="KH70" s="3">
         <v>61337</v>
       </c>
+      <c r="KI70" s="4">
+        <v>61538</v>
+      </c>
     </row>
-    <row r="71" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -58919,11 +59111,14 @@
       <c r="KG71" s="3">
         <v>98211</v>
       </c>
-      <c r="KH71" s="4">
+      <c r="KH71" s="3">
         <v>98259</v>
       </c>
+      <c r="KI71" s="4">
+        <v>98688</v>
+      </c>
     </row>
-    <row r="72" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -59801,11 +59996,14 @@
       <c r="KG72" s="3">
         <v>94396</v>
       </c>
-      <c r="KH72" s="4">
+      <c r="KH72" s="3">
         <v>94736</v>
       </c>
+      <c r="KI72" s="4">
+        <v>95049</v>
+      </c>
     </row>
-    <row r="73" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -60683,11 +60881,14 @@
       <c r="KG73" s="3">
         <v>86120</v>
       </c>
-      <c r="KH73" s="4">
+      <c r="KH73" s="3">
         <v>85956</v>
       </c>
+      <c r="KI73" s="4">
+        <v>86410</v>
+      </c>
     </row>
-    <row r="74" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -61565,11 +61766,14 @@
       <c r="KG74" s="3">
         <v>77448</v>
       </c>
-      <c r="KH74" s="4">
+      <c r="KH74" s="3">
         <v>77311</v>
       </c>
+      <c r="KI74" s="4">
+        <v>77640</v>
+      </c>
     </row>
-    <row r="75" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -62447,11 +62651,14 @@
       <c r="KG75" s="3">
         <v>69889</v>
       </c>
-      <c r="KH75" s="4">
+      <c r="KH75" s="3">
         <v>69954</v>
       </c>
+      <c r="KI75" s="4">
+        <v>70202</v>
+      </c>
     </row>
-    <row r="76" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -63329,11 +63536,14 @@
       <c r="KG76" s="39">
         <v>2</v>
       </c>
-      <c r="KH76" s="37">
+      <c r="KH76" s="39">
         <v>5</v>
       </c>
+      <c r="KI76" s="37">
+        <v>3</v>
+      </c>
     </row>
-    <row r="77" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -64213,11 +64423,14 @@
       <c r="KG77" s="38">
         <v>99824</v>
       </c>
-      <c r="KH77" s="31">
+      <c r="KH77" s="38">
         <v>100160</v>
       </c>
+      <c r="KI77" s="31">
+        <v>100656</v>
+      </c>
     </row>
-    <row r="78" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -65095,11 +65308,14 @@
       <c r="KG78" s="3">
         <v>17806</v>
       </c>
-      <c r="KH78" s="4">
+      <c r="KH78" s="3">
         <v>17861</v>
       </c>
+      <c r="KI78" s="4">
+        <v>17975</v>
+      </c>
     </row>
-    <row r="79" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -65977,11 +66193,14 @@
       <c r="KG79" s="3">
         <v>1717</v>
       </c>
-      <c r="KH79" s="4">
+      <c r="KH79" s="3">
         <v>1685</v>
       </c>
+      <c r="KI79" s="4">
+        <v>1630</v>
+      </c>
     </row>
-    <row r="80" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -66859,11 +67078,14 @@
       <c r="KG80" s="3">
         <v>11197</v>
       </c>
-      <c r="KH80" s="4">
+      <c r="KH80" s="3">
         <v>11294</v>
       </c>
+      <c r="KI80" s="4">
+        <v>11340</v>
+      </c>
     </row>
-    <row r="81" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -67741,11 +67963,14 @@
       <c r="KG81" s="3">
         <v>15158</v>
       </c>
-      <c r="KH81" s="4">
+      <c r="KH81" s="3">
         <v>15170</v>
       </c>
+      <c r="KI81" s="4">
+        <v>15328</v>
+      </c>
     </row>
-    <row r="82" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -68623,11 +68848,14 @@
       <c r="KG82" s="3">
         <v>15327</v>
       </c>
-      <c r="KH82" s="4">
+      <c r="KH82" s="3">
         <v>15433</v>
       </c>
+      <c r="KI82" s="4">
+        <v>15469</v>
+      </c>
     </row>
-    <row r="83" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -69505,11 +69733,14 @@
       <c r="KG83" s="3">
         <v>14460</v>
       </c>
-      <c r="KH83" s="4">
+      <c r="KH83" s="3">
         <v>14484</v>
       </c>
+      <c r="KI83" s="4">
+        <v>14548</v>
+      </c>
     </row>
-    <row r="84" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -70387,11 +70618,14 @@
       <c r="KG84" s="3">
         <v>12635</v>
       </c>
-      <c r="KH84" s="4">
+      <c r="KH84" s="3">
         <v>12706</v>
       </c>
+      <c r="KI84" s="4">
+        <v>12786</v>
+      </c>
     </row>
-    <row r="85" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -71269,11 +71503,14 @@
       <c r="KG85" s="3">
         <v>11523</v>
       </c>
-      <c r="KH85" s="4">
+      <c r="KH85" s="3">
         <v>11526</v>
       </c>
+      <c r="KI85" s="4">
+        <v>11579</v>
+      </c>
     </row>
-    <row r="86" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -71963,11 +72200,14 @@
       <c r="KG86" s="39">
         <v>1</v>
       </c>
-      <c r="KH86" s="37">
+      <c r="KH86" s="39">
         <v>1</v>
       </c>
+      <c r="KI86" s="37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -72847,24 +73087,27 @@
       <c r="KG87" s="41">
         <v>1886776</v>
       </c>
-      <c r="KH87" s="35">
+      <c r="KH87" s="41">
         <v>1884715</v>
       </c>
-      <c r="KI87" s="24"/>
+      <c r="KI87" s="35">
+        <v>1888232</v>
+      </c>
+      <c r="KJ87" s="24"/>
     </row>
-    <row r="88" spans="1:295" x14ac:dyDescent="0.25">
-      <c r="A88" s="45" t="s">
+    <row r="88" spans="1:296" x14ac:dyDescent="0.25">
+      <c r="A88" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
       <c r="KD88" s="24"/>
     </row>
-    <row r="89" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:296" x14ac:dyDescent="0.25">
       <c r="KD89" s="24"/>
     </row>
   </sheetData>
@@ -72888,7 +73131,7 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="KE5:KH5"/>
+    <mergeCell ref="KE5:KI5"/>
     <mergeCell ref="IU5:JF5"/>
     <mergeCell ref="JS5:KD5"/>
     <mergeCell ref="JG5:JR5"/>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-mayo 2022</t>
+    <t>Enero 1998-junio 2022</t>
   </si>
 </sst>
 </file>
@@ -969,12 +969,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -982,6 +976,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1305,22 +1305,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KJ89"/>
+  <dimension ref="A1:KK89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KK75" sqref="KK75"/>
+      <selection pane="topRight" activeCell="KL87" sqref="KL87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="295" width="11.875" style="1" customWidth="1"/>
-    <col min="296" max="16384" width="11.375" style="1"/>
+    <col min="3" max="296" width="11.875" style="1" customWidth="1"/>
+    <col min="297" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:295" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:296" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>36</v>
       </c>
@@ -1329,372 +1329,373 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:295" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:296" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="43">
         <v>1998</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="45">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="43">
         <v>1999</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="45">
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="43">
         <v>2000</v>
       </c>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="45">
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="43">
         <v>2001</v>
       </c>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="45">
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="43">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="45">
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="44"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="44"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="44"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="43">
         <v>2003</v>
       </c>
-      <c r="BL5" s="46"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="46"/>
-      <c r="BO5" s="46"/>
-      <c r="BP5" s="46"/>
-      <c r="BQ5" s="46"/>
-      <c r="BR5" s="46"/>
-      <c r="BS5" s="46"/>
-      <c r="BT5" s="46"/>
-      <c r="BU5" s="46"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="45">
+      <c r="BL5" s="44"/>
+      <c r="BM5" s="44"/>
+      <c r="BN5" s="44"/>
+      <c r="BO5" s="44"/>
+      <c r="BP5" s="44"/>
+      <c r="BQ5" s="44"/>
+      <c r="BR5" s="44"/>
+      <c r="BS5" s="44"/>
+      <c r="BT5" s="44"/>
+      <c r="BU5" s="44"/>
+      <c r="BV5" s="45"/>
+      <c r="BW5" s="43">
         <v>2004</v>
       </c>
-      <c r="BX5" s="46"/>
-      <c r="BY5" s="46"/>
-      <c r="BZ5" s="46"/>
-      <c r="CA5" s="46"/>
-      <c r="CB5" s="46"/>
-      <c r="CC5" s="46"/>
-      <c r="CD5" s="46"/>
-      <c r="CE5" s="46"/>
-      <c r="CF5" s="46"/>
-      <c r="CG5" s="46"/>
-      <c r="CH5" s="47"/>
-      <c r="CI5" s="45">
+      <c r="BX5" s="44"/>
+      <c r="BY5" s="44"/>
+      <c r="BZ5" s="44"/>
+      <c r="CA5" s="44"/>
+      <c r="CB5" s="44"/>
+      <c r="CC5" s="44"/>
+      <c r="CD5" s="44"/>
+      <c r="CE5" s="44"/>
+      <c r="CF5" s="44"/>
+      <c r="CG5" s="44"/>
+      <c r="CH5" s="45"/>
+      <c r="CI5" s="43">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="46"/>
-      <c r="CK5" s="46"/>
-      <c r="CL5" s="46"/>
-      <c r="CM5" s="46"/>
-      <c r="CN5" s="46"/>
-      <c r="CO5" s="46"/>
-      <c r="CP5" s="46"/>
-      <c r="CQ5" s="46"/>
-      <c r="CR5" s="46"/>
-      <c r="CS5" s="46"/>
-      <c r="CT5" s="47"/>
-      <c r="CU5" s="45">
+      <c r="CJ5" s="44"/>
+      <c r="CK5" s="44"/>
+      <c r="CL5" s="44"/>
+      <c r="CM5" s="44"/>
+      <c r="CN5" s="44"/>
+      <c r="CO5" s="44"/>
+      <c r="CP5" s="44"/>
+      <c r="CQ5" s="44"/>
+      <c r="CR5" s="44"/>
+      <c r="CS5" s="44"/>
+      <c r="CT5" s="45"/>
+      <c r="CU5" s="43">
         <v>2006</v>
       </c>
-      <c r="CV5" s="46"/>
-      <c r="CW5" s="46"/>
-      <c r="CX5" s="46"/>
-      <c r="CY5" s="46"/>
-      <c r="CZ5" s="46"/>
-      <c r="DA5" s="46"/>
-      <c r="DB5" s="46"/>
-      <c r="DC5" s="46"/>
-      <c r="DD5" s="46"/>
-      <c r="DE5" s="46"/>
-      <c r="DF5" s="47"/>
-      <c r="DG5" s="45">
+      <c r="CV5" s="44"/>
+      <c r="CW5" s="44"/>
+      <c r="CX5" s="44"/>
+      <c r="CY5" s="44"/>
+      <c r="CZ5" s="44"/>
+      <c r="DA5" s="44"/>
+      <c r="DB5" s="44"/>
+      <c r="DC5" s="44"/>
+      <c r="DD5" s="44"/>
+      <c r="DE5" s="44"/>
+      <c r="DF5" s="45"/>
+      <c r="DG5" s="43">
         <v>2007</v>
       </c>
-      <c r="DH5" s="46"/>
-      <c r="DI5" s="46"/>
-      <c r="DJ5" s="46"/>
-      <c r="DK5" s="46"/>
-      <c r="DL5" s="46"/>
-      <c r="DM5" s="46"/>
-      <c r="DN5" s="46"/>
-      <c r="DO5" s="46"/>
-      <c r="DP5" s="46"/>
-      <c r="DQ5" s="46"/>
-      <c r="DR5" s="47"/>
-      <c r="DS5" s="45">
+      <c r="DH5" s="44"/>
+      <c r="DI5" s="44"/>
+      <c r="DJ5" s="44"/>
+      <c r="DK5" s="44"/>
+      <c r="DL5" s="44"/>
+      <c r="DM5" s="44"/>
+      <c r="DN5" s="44"/>
+      <c r="DO5" s="44"/>
+      <c r="DP5" s="44"/>
+      <c r="DQ5" s="44"/>
+      <c r="DR5" s="45"/>
+      <c r="DS5" s="43">
         <v>2008</v>
       </c>
-      <c r="DT5" s="46"/>
-      <c r="DU5" s="46"/>
-      <c r="DV5" s="46"/>
-      <c r="DW5" s="46"/>
-      <c r="DX5" s="46"/>
-      <c r="DY5" s="46"/>
-      <c r="DZ5" s="46"/>
-      <c r="EA5" s="46"/>
-      <c r="EB5" s="46"/>
-      <c r="EC5" s="46"/>
-      <c r="ED5" s="47"/>
-      <c r="EE5" s="45">
+      <c r="DT5" s="44"/>
+      <c r="DU5" s="44"/>
+      <c r="DV5" s="44"/>
+      <c r="DW5" s="44"/>
+      <c r="DX5" s="44"/>
+      <c r="DY5" s="44"/>
+      <c r="DZ5" s="44"/>
+      <c r="EA5" s="44"/>
+      <c r="EB5" s="44"/>
+      <c r="EC5" s="44"/>
+      <c r="ED5" s="45"/>
+      <c r="EE5" s="43">
         <v>2009</v>
       </c>
-      <c r="EF5" s="46"/>
-      <c r="EG5" s="46"/>
-      <c r="EH5" s="46"/>
-      <c r="EI5" s="46"/>
-      <c r="EJ5" s="46"/>
-      <c r="EK5" s="46"/>
-      <c r="EL5" s="46"/>
-      <c r="EM5" s="46"/>
-      <c r="EN5" s="46"/>
-      <c r="EO5" s="46"/>
-      <c r="EP5" s="47"/>
-      <c r="EQ5" s="45">
+      <c r="EF5" s="44"/>
+      <c r="EG5" s="44"/>
+      <c r="EH5" s="44"/>
+      <c r="EI5" s="44"/>
+      <c r="EJ5" s="44"/>
+      <c r="EK5" s="44"/>
+      <c r="EL5" s="44"/>
+      <c r="EM5" s="44"/>
+      <c r="EN5" s="44"/>
+      <c r="EO5" s="44"/>
+      <c r="EP5" s="45"/>
+      <c r="EQ5" s="43">
         <v>2010</v>
       </c>
-      <c r="ER5" s="46"/>
-      <c r="ES5" s="46"/>
-      <c r="ET5" s="46"/>
-      <c r="EU5" s="46"/>
-      <c r="EV5" s="46"/>
-      <c r="EW5" s="46"/>
-      <c r="EX5" s="46"/>
-      <c r="EY5" s="46"/>
-      <c r="EZ5" s="46"/>
-      <c r="FA5" s="46"/>
-      <c r="FB5" s="47"/>
-      <c r="FC5" s="45">
+      <c r="ER5" s="44"/>
+      <c r="ES5" s="44"/>
+      <c r="ET5" s="44"/>
+      <c r="EU5" s="44"/>
+      <c r="EV5" s="44"/>
+      <c r="EW5" s="44"/>
+      <c r="EX5" s="44"/>
+      <c r="EY5" s="44"/>
+      <c r="EZ5" s="44"/>
+      <c r="FA5" s="44"/>
+      <c r="FB5" s="45"/>
+      <c r="FC5" s="43">
         <v>2011</v>
       </c>
-      <c r="FD5" s="46"/>
-      <c r="FE5" s="46"/>
-      <c r="FF5" s="46"/>
-      <c r="FG5" s="46"/>
-      <c r="FH5" s="46"/>
-      <c r="FI5" s="46"/>
-      <c r="FJ5" s="46"/>
-      <c r="FK5" s="46"/>
-      <c r="FL5" s="46"/>
-      <c r="FM5" s="46"/>
-      <c r="FN5" s="47"/>
-      <c r="FO5" s="45">
+      <c r="FD5" s="44"/>
+      <c r="FE5" s="44"/>
+      <c r="FF5" s="44"/>
+      <c r="FG5" s="44"/>
+      <c r="FH5" s="44"/>
+      <c r="FI5" s="44"/>
+      <c r="FJ5" s="44"/>
+      <c r="FK5" s="44"/>
+      <c r="FL5" s="44"/>
+      <c r="FM5" s="44"/>
+      <c r="FN5" s="45"/>
+      <c r="FO5" s="43">
         <v>2012</v>
       </c>
-      <c r="FP5" s="46"/>
-      <c r="FQ5" s="46"/>
-      <c r="FR5" s="46"/>
-      <c r="FS5" s="46"/>
-      <c r="FT5" s="46"/>
-      <c r="FU5" s="46"/>
-      <c r="FV5" s="46"/>
-      <c r="FW5" s="46"/>
-      <c r="FX5" s="46"/>
-      <c r="FY5" s="46"/>
-      <c r="FZ5" s="47"/>
-      <c r="GA5" s="45">
+      <c r="FP5" s="44"/>
+      <c r="FQ5" s="44"/>
+      <c r="FR5" s="44"/>
+      <c r="FS5" s="44"/>
+      <c r="FT5" s="44"/>
+      <c r="FU5" s="44"/>
+      <c r="FV5" s="44"/>
+      <c r="FW5" s="44"/>
+      <c r="FX5" s="44"/>
+      <c r="FY5" s="44"/>
+      <c r="FZ5" s="45"/>
+      <c r="GA5" s="43">
         <v>2013</v>
       </c>
-      <c r="GB5" s="46"/>
-      <c r="GC5" s="46"/>
-      <c r="GD5" s="46"/>
-      <c r="GE5" s="46"/>
-      <c r="GF5" s="46"/>
-      <c r="GG5" s="46"/>
-      <c r="GH5" s="46"/>
-      <c r="GI5" s="46"/>
-      <c r="GJ5" s="46"/>
-      <c r="GK5" s="46"/>
-      <c r="GL5" s="47"/>
-      <c r="GM5" s="45">
+      <c r="GB5" s="44"/>
+      <c r="GC5" s="44"/>
+      <c r="GD5" s="44"/>
+      <c r="GE5" s="44"/>
+      <c r="GF5" s="44"/>
+      <c r="GG5" s="44"/>
+      <c r="GH5" s="44"/>
+      <c r="GI5" s="44"/>
+      <c r="GJ5" s="44"/>
+      <c r="GK5" s="44"/>
+      <c r="GL5" s="45"/>
+      <c r="GM5" s="43">
         <v>2014</v>
       </c>
-      <c r="GN5" s="46"/>
-      <c r="GO5" s="46"/>
-      <c r="GP5" s="46"/>
-      <c r="GQ5" s="46"/>
-      <c r="GR5" s="46"/>
-      <c r="GS5" s="46"/>
-      <c r="GT5" s="46"/>
-      <c r="GU5" s="46"/>
-      <c r="GV5" s="46"/>
-      <c r="GW5" s="46"/>
-      <c r="GX5" s="47"/>
-      <c r="GY5" s="45">
+      <c r="GN5" s="44"/>
+      <c r="GO5" s="44"/>
+      <c r="GP5" s="44"/>
+      <c r="GQ5" s="44"/>
+      <c r="GR5" s="44"/>
+      <c r="GS5" s="44"/>
+      <c r="GT5" s="44"/>
+      <c r="GU5" s="44"/>
+      <c r="GV5" s="44"/>
+      <c r="GW5" s="44"/>
+      <c r="GX5" s="45"/>
+      <c r="GY5" s="43">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="46"/>
-      <c r="HA5" s="46"/>
-      <c r="HB5" s="46"/>
-      <c r="HC5" s="46"/>
-      <c r="HD5" s="46"/>
-      <c r="HE5" s="46"/>
-      <c r="HF5" s="46"/>
-      <c r="HG5" s="46"/>
-      <c r="HH5" s="46"/>
-      <c r="HI5" s="46"/>
-      <c r="HJ5" s="47"/>
-      <c r="HK5" s="45">
+      <c r="GZ5" s="44"/>
+      <c r="HA5" s="44"/>
+      <c r="HB5" s="44"/>
+      <c r="HC5" s="44"/>
+      <c r="HD5" s="44"/>
+      <c r="HE5" s="44"/>
+      <c r="HF5" s="44"/>
+      <c r="HG5" s="44"/>
+      <c r="HH5" s="44"/>
+      <c r="HI5" s="44"/>
+      <c r="HJ5" s="45"/>
+      <c r="HK5" s="43">
         <v>2016</v>
       </c>
-      <c r="HL5" s="46"/>
-      <c r="HM5" s="46"/>
-      <c r="HN5" s="46"/>
-      <c r="HO5" s="46"/>
-      <c r="HP5" s="46"/>
-      <c r="HQ5" s="46"/>
-      <c r="HR5" s="46"/>
-      <c r="HS5" s="46"/>
-      <c r="HT5" s="46"/>
-      <c r="HU5" s="46"/>
-      <c r="HV5" s="47"/>
-      <c r="HW5" s="45">
+      <c r="HL5" s="44"/>
+      <c r="HM5" s="44"/>
+      <c r="HN5" s="44"/>
+      <c r="HO5" s="44"/>
+      <c r="HP5" s="44"/>
+      <c r="HQ5" s="44"/>
+      <c r="HR5" s="44"/>
+      <c r="HS5" s="44"/>
+      <c r="HT5" s="44"/>
+      <c r="HU5" s="44"/>
+      <c r="HV5" s="45"/>
+      <c r="HW5" s="43">
         <v>2017</v>
       </c>
-      <c r="HX5" s="46"/>
-      <c r="HY5" s="46"/>
-      <c r="HZ5" s="46"/>
-      <c r="IA5" s="46"/>
-      <c r="IB5" s="46"/>
-      <c r="IC5" s="46"/>
-      <c r="ID5" s="46"/>
-      <c r="IE5" s="46"/>
-      <c r="IF5" s="46"/>
-      <c r="IG5" s="46"/>
-      <c r="IH5" s="47"/>
-      <c r="II5" s="45">
+      <c r="HX5" s="44"/>
+      <c r="HY5" s="44"/>
+      <c r="HZ5" s="44"/>
+      <c r="IA5" s="44"/>
+      <c r="IB5" s="44"/>
+      <c r="IC5" s="44"/>
+      <c r="ID5" s="44"/>
+      <c r="IE5" s="44"/>
+      <c r="IF5" s="44"/>
+      <c r="IG5" s="44"/>
+      <c r="IH5" s="45"/>
+      <c r="II5" s="43">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="46"/>
-      <c r="IK5" s="46"/>
-      <c r="IL5" s="46"/>
-      <c r="IM5" s="46"/>
-      <c r="IN5" s="46"/>
-      <c r="IO5" s="46"/>
-      <c r="IP5" s="46"/>
-      <c r="IQ5" s="46"/>
-      <c r="IR5" s="46"/>
-      <c r="IS5" s="46"/>
-      <c r="IT5" s="47"/>
-      <c r="IU5" s="45">
+      <c r="IJ5" s="44"/>
+      <c r="IK5" s="44"/>
+      <c r="IL5" s="44"/>
+      <c r="IM5" s="44"/>
+      <c r="IN5" s="44"/>
+      <c r="IO5" s="44"/>
+      <c r="IP5" s="44"/>
+      <c r="IQ5" s="44"/>
+      <c r="IR5" s="44"/>
+      <c r="IS5" s="44"/>
+      <c r="IT5" s="45"/>
+      <c r="IU5" s="43">
         <v>2019</v>
       </c>
-      <c r="IV5" s="46"/>
-      <c r="IW5" s="46"/>
-      <c r="IX5" s="46"/>
-      <c r="IY5" s="46"/>
-      <c r="IZ5" s="46"/>
-      <c r="JA5" s="46"/>
-      <c r="JB5" s="46"/>
-      <c r="JC5" s="46"/>
-      <c r="JD5" s="46"/>
-      <c r="JE5" s="46"/>
-      <c r="JF5" s="47"/>
-      <c r="JG5" s="45">
+      <c r="IV5" s="44"/>
+      <c r="IW5" s="44"/>
+      <c r="IX5" s="44"/>
+      <c r="IY5" s="44"/>
+      <c r="IZ5" s="44"/>
+      <c r="JA5" s="44"/>
+      <c r="JB5" s="44"/>
+      <c r="JC5" s="44"/>
+      <c r="JD5" s="44"/>
+      <c r="JE5" s="44"/>
+      <c r="JF5" s="45"/>
+      <c r="JG5" s="43">
         <v>2020</v>
       </c>
-      <c r="JH5" s="46"/>
-      <c r="JI5" s="46"/>
-      <c r="JJ5" s="46"/>
-      <c r="JK5" s="46"/>
-      <c r="JL5" s="46"/>
-      <c r="JM5" s="46"/>
-      <c r="JN5" s="46"/>
-      <c r="JO5" s="46"/>
-      <c r="JP5" s="46"/>
-      <c r="JQ5" s="46"/>
-      <c r="JR5" s="47"/>
-      <c r="JS5" s="45">
+      <c r="JH5" s="44"/>
+      <c r="JI5" s="44"/>
+      <c r="JJ5" s="44"/>
+      <c r="JK5" s="44"/>
+      <c r="JL5" s="44"/>
+      <c r="JM5" s="44"/>
+      <c r="JN5" s="44"/>
+      <c r="JO5" s="44"/>
+      <c r="JP5" s="44"/>
+      <c r="JQ5" s="44"/>
+      <c r="JR5" s="45"/>
+      <c r="JS5" s="43">
         <v>2021</v>
       </c>
-      <c r="JT5" s="46"/>
-      <c r="JU5" s="46"/>
-      <c r="JV5" s="46"/>
-      <c r="JW5" s="46"/>
-      <c r="JX5" s="46"/>
-      <c r="JY5" s="46"/>
-      <c r="JZ5" s="46"/>
-      <c r="KA5" s="46"/>
-      <c r="KB5" s="46"/>
-      <c r="KC5" s="46"/>
-      <c r="KD5" s="46"/>
-      <c r="KE5" s="45">
+      <c r="JT5" s="44"/>
+      <c r="JU5" s="44"/>
+      <c r="JV5" s="44"/>
+      <c r="JW5" s="44"/>
+      <c r="JX5" s="44"/>
+      <c r="JY5" s="44"/>
+      <c r="JZ5" s="44"/>
+      <c r="KA5" s="44"/>
+      <c r="KB5" s="44"/>
+      <c r="KC5" s="44"/>
+      <c r="KD5" s="44"/>
+      <c r="KE5" s="43">
         <v>2022</v>
       </c>
-      <c r="KF5" s="46"/>
-      <c r="KG5" s="46"/>
-      <c r="KH5" s="46"/>
-      <c r="KI5" s="47"/>
+      <c r="KF5" s="44"/>
+      <c r="KG5" s="44"/>
+      <c r="KH5" s="44"/>
+      <c r="KI5" s="44"/>
+      <c r="KJ5" s="45"/>
     </row>
-    <row r="6" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+    <row r="6" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2571,11 +2572,14 @@
       <c r="KH6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="KI6" s="11" t="s">
+      <c r="KI6" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="KJ6" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:295" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:296" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3458,11 +3462,14 @@
       <c r="KH7" s="38">
         <v>120707</v>
       </c>
-      <c r="KI7" s="31">
+      <c r="KI7" s="38">
         <v>116527</v>
       </c>
+      <c r="KJ7" s="31">
+        <v>114765</v>
+      </c>
     </row>
-    <row r="8" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4343,11 +4350,14 @@
       <c r="KH8" s="3">
         <v>23622</v>
       </c>
-      <c r="KI8" s="4">
+      <c r="KI8" s="3">
         <v>22686</v>
       </c>
+      <c r="KJ8" s="4">
+        <v>22741</v>
+      </c>
     </row>
-    <row r="9" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5228,11 +5238,14 @@
       <c r="KH9" s="3">
         <v>5383</v>
       </c>
-      <c r="KI9" s="4">
+      <c r="KI9" s="3">
         <v>5283</v>
       </c>
+      <c r="KJ9" s="4">
+        <v>5052</v>
+      </c>
     </row>
-    <row r="10" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6113,11 +6126,14 @@
       <c r="KH10" s="3">
         <v>18040</v>
       </c>
-      <c r="KI10" s="4">
+      <c r="KI10" s="3">
         <v>17426</v>
       </c>
+      <c r="KJ10" s="4">
+        <v>16863</v>
+      </c>
     </row>
-    <row r="11" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -6998,11 +7014,14 @@
       <c r="KH11" s="3">
         <v>18407</v>
       </c>
-      <c r="KI11" s="4">
+      <c r="KI11" s="3">
         <v>17892</v>
       </c>
+      <c r="KJ11" s="4">
+        <v>17357</v>
+      </c>
     </row>
-    <row r="12" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7883,11 +7902,14 @@
       <c r="KH12" s="3">
         <v>16246</v>
       </c>
-      <c r="KI12" s="4">
+      <c r="KI12" s="3">
         <v>15859</v>
       </c>
+      <c r="KJ12" s="4">
+        <v>15556</v>
+      </c>
     </row>
-    <row r="13" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8768,11 +8790,14 @@
       <c r="KH13" s="3">
         <v>14481</v>
       </c>
-      <c r="KI13" s="4">
+      <c r="KI13" s="3">
         <v>14013</v>
       </c>
+      <c r="KJ13" s="4">
+        <v>13925</v>
+      </c>
     </row>
-    <row r="14" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9653,11 +9678,14 @@
       <c r="KH14" s="3">
         <v>12659</v>
       </c>
-      <c r="KI14" s="4">
+      <c r="KI14" s="3">
         <v>12022</v>
       </c>
+      <c r="KJ14" s="4">
+        <v>11950</v>
+      </c>
     </row>
-    <row r="15" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10538,11 +10566,14 @@
       <c r="KH15" s="3">
         <v>11859</v>
       </c>
-      <c r="KI15" s="4">
+      <c r="KI15" s="3">
         <v>11333</v>
       </c>
+      <c r="KJ15" s="4">
+        <v>11307</v>
+      </c>
     </row>
-    <row r="16" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11423,11 +11454,14 @@
       <c r="KH16" s="39">
         <v>10</v>
       </c>
-      <c r="KI16" s="37">
+      <c r="KI16" s="39">
         <v>13</v>
       </c>
+      <c r="KJ16" s="37">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12310,11 +12344,14 @@
       <c r="KH17" s="38">
         <v>389372</v>
       </c>
-      <c r="KI17" s="31">
+      <c r="KI17" s="38">
         <v>390157</v>
       </c>
+      <c r="KJ17" s="31">
+        <v>393243</v>
+      </c>
     </row>
-    <row r="18" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13195,11 +13232,14 @@
       <c r="KH18" s="3">
         <v>58539</v>
       </c>
-      <c r="KI18" s="4">
+      <c r="KI18" s="3">
         <v>58997</v>
       </c>
+      <c r="KJ18" s="4">
+        <v>59506</v>
+      </c>
     </row>
-    <row r="19" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14080,11 +14120,14 @@
       <c r="KH19" s="3">
         <v>10559</v>
       </c>
-      <c r="KI19" s="4">
+      <c r="KI19" s="3">
         <v>10282</v>
       </c>
+      <c r="KJ19" s="4">
+        <v>10559</v>
+      </c>
     </row>
-    <row r="20" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -14965,11 +15008,14 @@
       <c r="KH20" s="3">
         <v>53866</v>
       </c>
-      <c r="KI20" s="4">
+      <c r="KI20" s="3">
         <v>53788</v>
       </c>
+      <c r="KJ20" s="4">
+        <v>54594</v>
+      </c>
     </row>
-    <row r="21" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -15850,11 +15896,14 @@
       <c r="KH21" s="3">
         <v>65773</v>
       </c>
-      <c r="KI21" s="4">
+      <c r="KI21" s="3">
         <v>65755</v>
       </c>
+      <c r="KJ21" s="4">
+        <v>65930</v>
+      </c>
     </row>
-    <row r="22" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16735,11 +16784,14 @@
       <c r="KH22" s="3">
         <v>63490</v>
       </c>
-      <c r="KI22" s="4">
+      <c r="KI22" s="3">
         <v>63561</v>
       </c>
+      <c r="KJ22" s="4">
+        <v>64000</v>
+      </c>
     </row>
-    <row r="23" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17620,11 +17672,14 @@
       <c r="KH23" s="3">
         <v>54549</v>
       </c>
-      <c r="KI23" s="4">
+      <c r="KI23" s="3">
         <v>54672</v>
       </c>
+      <c r="KJ23" s="4">
+        <v>55105</v>
+      </c>
     </row>
-    <row r="24" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18505,11 +18560,14 @@
       <c r="KH24" s="3">
         <v>44775</v>
       </c>
-      <c r="KI24" s="4">
+      <c r="KI24" s="3">
         <v>45038</v>
       </c>
+      <c r="KJ24" s="4">
+        <v>45234</v>
+      </c>
     </row>
-    <row r="25" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -19390,11 +19448,14 @@
       <c r="KH25" s="3">
         <v>37818</v>
       </c>
-      <c r="KI25" s="4">
+      <c r="KI25" s="3">
         <v>38059</v>
       </c>
+      <c r="KJ25" s="4">
+        <v>38313</v>
+      </c>
     </row>
-    <row r="26" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -20269,11 +20330,14 @@
       <c r="KH26" s="39">
         <v>3</v>
       </c>
-      <c r="KI26" s="37">
+      <c r="KI26" s="39">
         <v>5</v>
       </c>
+      <c r="KJ26" s="37">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -21156,11 +21220,14 @@
       <c r="KH27" s="38">
         <v>137135</v>
       </c>
-      <c r="KI27" s="31">
+      <c r="KI27" s="38">
         <v>139462</v>
       </c>
+      <c r="KJ27" s="31">
+        <v>140587</v>
+      </c>
     </row>
-    <row r="28" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -22041,11 +22108,14 @@
       <c r="KH28" s="3">
         <v>24632</v>
       </c>
-      <c r="KI28" s="4">
+      <c r="KI28" s="3">
         <v>25283</v>
       </c>
+      <c r="KJ28" s="4">
+        <v>25668</v>
+      </c>
     </row>
-    <row r="29" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -22926,11 +22996,14 @@
       <c r="KH29" s="3">
         <v>4623</v>
       </c>
-      <c r="KI29" s="4">
+      <c r="KI29" s="3">
         <v>4616</v>
       </c>
+      <c r="KJ29" s="4">
+        <v>4648</v>
+      </c>
     </row>
-    <row r="30" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -23811,11 +23884,14 @@
       <c r="KH30" s="3">
         <v>17102</v>
       </c>
-      <c r="KI30" s="4">
+      <c r="KI30" s="3">
         <v>17411</v>
       </c>
+      <c r="KJ30" s="4">
+        <v>17609</v>
+      </c>
     </row>
-    <row r="31" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -24696,11 +24772,14 @@
       <c r="KH31" s="3">
         <v>22076</v>
       </c>
-      <c r="KI31" s="4">
+      <c r="KI31" s="3">
         <v>22330</v>
       </c>
+      <c r="KJ31" s="4">
+        <v>22384</v>
+      </c>
     </row>
-    <row r="32" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -25581,11 +25660,14 @@
       <c r="KH32" s="3">
         <v>20735</v>
       </c>
-      <c r="KI32" s="4">
+      <c r="KI32" s="3">
         <v>21097</v>
       </c>
+      <c r="KJ32" s="4">
+        <v>21262</v>
+      </c>
     </row>
-    <row r="33" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -26466,11 +26548,14 @@
       <c r="KH33" s="3">
         <v>18577</v>
       </c>
-      <c r="KI33" s="4">
+      <c r="KI33" s="3">
         <v>18894</v>
       </c>
+      <c r="KJ33" s="4">
+        <v>18975</v>
+      </c>
     </row>
-    <row r="34" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -27351,11 +27436,14 @@
       <c r="KH34" s="3">
         <v>15660</v>
       </c>
-      <c r="KI34" s="4">
+      <c r="KI34" s="3">
         <v>15887</v>
       </c>
+      <c r="KJ34" s="4">
+        <v>15978</v>
+      </c>
     </row>
-    <row r="35" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -28236,11 +28324,14 @@
       <c r="KH35" s="3">
         <v>13710</v>
       </c>
-      <c r="KI35" s="4">
+      <c r="KI35" s="3">
         <v>13929</v>
       </c>
+      <c r="KJ35" s="4">
+        <v>14047</v>
+      </c>
     </row>
-    <row r="36" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -29121,11 +29212,14 @@
       <c r="KH36" s="39">
         <v>20</v>
       </c>
-      <c r="KI36" s="37">
+      <c r="KI36" s="39">
         <v>15</v>
       </c>
+      <c r="KJ36" s="37">
+        <v>16</v>
+      </c>
     </row>
-    <row r="37" spans="1:295" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:296" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -30008,11 +30102,14 @@
       <c r="KH37" s="40">
         <v>9540</v>
       </c>
-      <c r="KI37" s="33">
+      <c r="KI37" s="40">
         <v>9600</v>
       </c>
+      <c r="KJ37" s="33">
+        <v>9738</v>
+      </c>
     </row>
-    <row r="38" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -30893,11 +30990,14 @@
       <c r="KH38" s="3">
         <v>1696</v>
       </c>
-      <c r="KI38" s="4">
+      <c r="KI38" s="3">
         <v>1711</v>
       </c>
+      <c r="KJ38" s="4">
+        <v>1730</v>
+      </c>
     </row>
-    <row r="39" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -31778,11 +31878,14 @@
       <c r="KH39" s="3">
         <v>82</v>
       </c>
-      <c r="KI39" s="4">
+      <c r="KI39" s="3">
         <v>85</v>
       </c>
+      <c r="KJ39" s="4">
+        <v>92</v>
+      </c>
     </row>
-    <row r="40" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -32663,11 +32766,14 @@
       <c r="KH40" s="3">
         <v>480</v>
       </c>
-      <c r="KI40" s="4">
+      <c r="KI40" s="3">
         <v>493</v>
       </c>
+      <c r="KJ40" s="4">
+        <v>541</v>
+      </c>
     </row>
-    <row r="41" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -33548,11 +33654,14 @@
       <c r="KH41" s="3">
         <v>982</v>
       </c>
-      <c r="KI41" s="4">
+      <c r="KI41" s="3">
         <v>989</v>
       </c>
+      <c r="KJ41" s="4">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="42" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -34433,11 +34542,14 @@
       <c r="KH42" s="3">
         <v>1383</v>
       </c>
-      <c r="KI42" s="4">
+      <c r="KI42" s="3">
         <v>1389</v>
       </c>
+      <c r="KJ42" s="4">
+        <v>1408</v>
+      </c>
     </row>
-    <row r="43" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -35318,11 +35430,14 @@
       <c r="KH43" s="3">
         <v>1796</v>
       </c>
-      <c r="KI43" s="4">
+      <c r="KI43" s="3">
         <v>1775</v>
       </c>
+      <c r="KJ43" s="4">
+        <v>1796</v>
+      </c>
     </row>
-    <row r="44" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -36203,11 +36318,14 @@
       <c r="KH44" s="3">
         <v>1690</v>
       </c>
-      <c r="KI44" s="4">
+      <c r="KI44" s="3">
         <v>1714</v>
       </c>
+      <c r="KJ44" s="4">
+        <v>1712</v>
+      </c>
     </row>
-    <row r="45" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -37088,11 +37206,14 @@
       <c r="KH45" s="3">
         <v>1431</v>
       </c>
-      <c r="KI45" s="4">
+      <c r="KI45" s="3">
         <v>1444</v>
       </c>
+      <c r="KJ45" s="4">
+        <v>1446</v>
+      </c>
     </row>
-    <row r="46" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -37513,9 +37634,10 @@
       <c r="KF46" s="39"/>
       <c r="KG46" s="39"/>
       <c r="KH46" s="39"/>
-      <c r="KI46" s="37"/>
+      <c r="KI46" s="39"/>
+      <c r="KJ46" s="37"/>
     </row>
-    <row r="47" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -38398,11 +38520,14 @@
       <c r="KH47" s="38">
         <v>494824</v>
       </c>
-      <c r="KI47" s="31">
+      <c r="KI47" s="38">
         <v>496682</v>
       </c>
+      <c r="KJ47" s="31">
+        <v>499541</v>
+      </c>
     </row>
-    <row r="48" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -39283,11 +39408,14 @@
       <c r="KH48" s="3">
         <v>74520</v>
       </c>
-      <c r="KI48" s="4">
+      <c r="KI48" s="3">
         <v>75179</v>
       </c>
+      <c r="KJ48" s="4">
+        <v>75760</v>
+      </c>
     </row>
-    <row r="49" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -40168,11 +40296,14 @@
       <c r="KH49" s="3">
         <v>15064</v>
       </c>
-      <c r="KI49" s="4">
+      <c r="KI49" s="3">
         <v>14584</v>
       </c>
+      <c r="KJ49" s="4">
+        <v>14474</v>
+      </c>
     </row>
-    <row r="50" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -41053,11 +41184,14 @@
       <c r="KH50" s="3">
         <v>69243</v>
       </c>
-      <c r="KI50" s="4">
+      <c r="KI50" s="3">
         <v>69377</v>
       </c>
+      <c r="KJ50" s="4">
+        <v>70256</v>
+      </c>
     </row>
-    <row r="51" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -41938,11 +42072,14 @@
       <c r="KH51" s="3">
         <v>80467</v>
       </c>
-      <c r="KI51" s="4">
+      <c r="KI51" s="3">
         <v>80725</v>
       </c>
+      <c r="KJ51" s="4">
+        <v>81019</v>
+      </c>
     </row>
-    <row r="52" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -42823,11 +42960,14 @@
       <c r="KH52" s="3">
         <v>74469</v>
       </c>
-      <c r="KI52" s="4">
+      <c r="KI52" s="3">
         <v>74978</v>
       </c>
+      <c r="KJ52" s="4">
+        <v>75364</v>
+      </c>
     </row>
-    <row r="53" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -43708,11 +43848,14 @@
       <c r="KH53" s="3">
         <v>67290</v>
       </c>
-      <c r="KI53" s="4">
+      <c r="KI53" s="3">
         <v>67557</v>
       </c>
+      <c r="KJ53" s="4">
+        <v>67780</v>
+      </c>
     </row>
-    <row r="54" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -44593,11 +44736,14 @@
       <c r="KH54" s="3">
         <v>61079</v>
       </c>
-      <c r="KI54" s="4">
+      <c r="KI54" s="3">
         <v>61367</v>
       </c>
+      <c r="KJ54" s="4">
+        <v>61687</v>
+      </c>
     </row>
-    <row r="55" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -45478,11 +45624,14 @@
       <c r="KH55" s="3">
         <v>52684</v>
       </c>
-      <c r="KI55" s="4">
+      <c r="KI55" s="3">
         <v>52905</v>
       </c>
+      <c r="KJ55" s="4">
+        <v>53192</v>
+      </c>
     </row>
-    <row r="56" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -46363,11 +46512,14 @@
       <c r="KH56" s="39">
         <v>8</v>
       </c>
-      <c r="KI56" s="37">
+      <c r="KI56" s="39">
         <v>10</v>
       </c>
+      <c r="KJ56" s="37">
+        <v>9</v>
+      </c>
     </row>
-    <row r="57" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -47250,11 +47402,14 @@
       <c r="KH57" s="38">
         <v>2556</v>
       </c>
-      <c r="KI57" s="31">
+      <c r="KI57" s="38">
         <v>2538</v>
       </c>
+      <c r="KJ57" s="31">
+        <v>2538</v>
+      </c>
     </row>
-    <row r="58" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -48135,11 +48290,14 @@
       <c r="KH58" s="3">
         <v>519</v>
       </c>
-      <c r="KI58" s="4">
+      <c r="KI58" s="3">
         <v>510</v>
       </c>
+      <c r="KJ58" s="4">
+        <v>515</v>
+      </c>
     </row>
-    <row r="59" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -49020,11 +49178,14 @@
       <c r="KH59" s="3">
         <v>37</v>
       </c>
-      <c r="KI59" s="4">
+      <c r="KI59" s="3">
         <v>35</v>
       </c>
+      <c r="KJ59" s="4">
+        <v>38</v>
+      </c>
     </row>
-    <row r="60" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -49905,11 +50066,14 @@
       <c r="KH60" s="3">
         <v>200</v>
       </c>
-      <c r="KI60" s="4">
+      <c r="KI60" s="3">
         <v>197</v>
       </c>
+      <c r="KJ60" s="4">
+        <v>203</v>
+      </c>
     </row>
-    <row r="61" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -50790,11 +50954,14 @@
       <c r="KH61" s="3">
         <v>377</v>
       </c>
-      <c r="KI61" s="4">
+      <c r="KI61" s="3">
         <v>395</v>
       </c>
+      <c r="KJ61" s="4">
+        <v>389</v>
+      </c>
     </row>
-    <row r="62" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -51675,11 +51842,14 @@
       <c r="KH62" s="3">
         <v>404</v>
       </c>
-      <c r="KI62" s="4">
+      <c r="KI62" s="3">
         <v>394</v>
       </c>
+      <c r="KJ62" s="4">
+        <v>398</v>
+      </c>
     </row>
-    <row r="63" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -52560,11 +52730,14 @@
       <c r="KH63" s="3">
         <v>396</v>
       </c>
-      <c r="KI63" s="4">
+      <c r="KI63" s="3">
         <v>389</v>
       </c>
+      <c r="KJ63" s="4">
+        <v>389</v>
+      </c>
     </row>
-    <row r="64" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -53445,11 +53618,14 @@
       <c r="KH64" s="3">
         <v>340</v>
       </c>
-      <c r="KI64" s="4">
+      <c r="KI64" s="3">
         <v>336</v>
       </c>
+      <c r="KJ64" s="4">
+        <v>330</v>
+      </c>
     </row>
-    <row r="65" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -54330,11 +54506,14 @@
       <c r="KH65" s="3">
         <v>283</v>
       </c>
-      <c r="KI65" s="4">
+      <c r="KI65" s="3">
         <v>282</v>
       </c>
+      <c r="KJ65" s="4">
+        <v>276</v>
+      </c>
     </row>
-    <row r="66" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -54689,9 +54868,10 @@
       <c r="KF66" s="39"/>
       <c r="KG66" s="39"/>
       <c r="KH66" s="39"/>
-      <c r="KI66" s="37"/>
+      <c r="KI66" s="39"/>
+      <c r="KJ66" s="37"/>
     </row>
-    <row r="67" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -55574,11 +55754,14 @@
       <c r="KH67" s="38">
         <v>630421</v>
       </c>
-      <c r="KI67" s="31">
+      <c r="KI67" s="38">
         <v>632610</v>
       </c>
+      <c r="KJ67" s="31">
+        <v>634764</v>
+      </c>
     </row>
-    <row r="68" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -56459,11 +56642,14 @@
       <c r="KH68" s="3">
         <v>132483</v>
       </c>
-      <c r="KI68" s="4">
+      <c r="KI68" s="3">
         <v>132806</v>
       </c>
+      <c r="KJ68" s="4">
+        <v>133026</v>
+      </c>
     </row>
-    <row r="69" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -57344,11 +57530,14 @@
       <c r="KH69" s="3">
         <v>10380</v>
       </c>
-      <c r="KI69" s="4">
+      <c r="KI69" s="3">
         <v>10274</v>
       </c>
+      <c r="KJ69" s="4">
+        <v>10487</v>
+      </c>
     </row>
-    <row r="70" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -58229,11 +58418,14 @@
       <c r="KH70" s="3">
         <v>61337</v>
       </c>
-      <c r="KI70" s="4">
+      <c r="KI70" s="3">
         <v>61538</v>
       </c>
+      <c r="KJ70" s="4">
+        <v>62565</v>
+      </c>
     </row>
-    <row r="71" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -59114,11 +59306,14 @@
       <c r="KH71" s="3">
         <v>98259</v>
       </c>
-      <c r="KI71" s="4">
+      <c r="KI71" s="3">
         <v>98688</v>
       </c>
+      <c r="KJ71" s="4">
+        <v>98917</v>
+      </c>
     </row>
-    <row r="72" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -59999,11 +60194,14 @@
       <c r="KH72" s="3">
         <v>94736</v>
       </c>
-      <c r="KI72" s="4">
+      <c r="KI72" s="3">
         <v>95049</v>
       </c>
+      <c r="KJ72" s="4">
+        <v>95189</v>
+      </c>
     </row>
-    <row r="73" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -60884,11 +61082,14 @@
       <c r="KH73" s="3">
         <v>85956</v>
       </c>
-      <c r="KI73" s="4">
+      <c r="KI73" s="3">
         <v>86410</v>
       </c>
+      <c r="KJ73" s="4">
+        <v>86582</v>
+      </c>
     </row>
-    <row r="74" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -61769,11 +61970,14 @@
       <c r="KH74" s="3">
         <v>77311</v>
       </c>
-      <c r="KI74" s="4">
+      <c r="KI74" s="3">
         <v>77640</v>
       </c>
+      <c r="KJ74" s="4">
+        <v>77753</v>
+      </c>
     </row>
-    <row r="75" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -62654,11 +62858,14 @@
       <c r="KH75" s="3">
         <v>69954</v>
       </c>
-      <c r="KI75" s="4">
+      <c r="KI75" s="3">
         <v>70202</v>
       </c>
+      <c r="KJ75" s="4">
+        <v>70242</v>
+      </c>
     </row>
-    <row r="76" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -63539,11 +63746,14 @@
       <c r="KH76" s="39">
         <v>5</v>
       </c>
-      <c r="KI76" s="37">
+      <c r="KI76" s="39">
         <v>3</v>
       </c>
+      <c r="KJ76" s="37">
+        <v>3</v>
+      </c>
     </row>
-    <row r="77" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -64426,11 +64636,14 @@
       <c r="KH77" s="38">
         <v>100160</v>
       </c>
-      <c r="KI77" s="31">
+      <c r="KI77" s="38">
         <v>100656</v>
       </c>
+      <c r="KJ77" s="31">
+        <v>101579</v>
+      </c>
     </row>
-    <row r="78" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -65311,11 +65524,14 @@
       <c r="KH78" s="3">
         <v>17861</v>
       </c>
-      <c r="KI78" s="4">
+      <c r="KI78" s="3">
         <v>17975</v>
       </c>
+      <c r="KJ78" s="4">
+        <v>18093</v>
+      </c>
     </row>
-    <row r="79" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -66196,11 +66412,14 @@
       <c r="KH79" s="3">
         <v>1685</v>
       </c>
-      <c r="KI79" s="4">
+      <c r="KI79" s="3">
         <v>1630</v>
       </c>
+      <c r="KJ79" s="4">
+        <v>1671</v>
+      </c>
     </row>
-    <row r="80" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -67081,11 +67300,14 @@
       <c r="KH80" s="3">
         <v>11294</v>
       </c>
-      <c r="KI80" s="4">
+      <c r="KI80" s="3">
         <v>11340</v>
       </c>
+      <c r="KJ80" s="4">
+        <v>11517</v>
+      </c>
     </row>
-    <row r="81" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -67966,11 +68188,14 @@
       <c r="KH81" s="3">
         <v>15170</v>
       </c>
-      <c r="KI81" s="4">
+      <c r="KI81" s="3">
         <v>15328</v>
       </c>
+      <c r="KJ81" s="4">
+        <v>15510</v>
+      </c>
     </row>
-    <row r="82" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -68851,11 +69076,14 @@
       <c r="KH82" s="3">
         <v>15433</v>
       </c>
-      <c r="KI82" s="4">
+      <c r="KI82" s="3">
         <v>15469</v>
       </c>
+      <c r="KJ82" s="4">
+        <v>15634</v>
+      </c>
     </row>
-    <row r="83" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -69736,11 +69964,14 @@
       <c r="KH83" s="3">
         <v>14484</v>
       </c>
-      <c r="KI83" s="4">
+      <c r="KI83" s="3">
         <v>14548</v>
       </c>
+      <c r="KJ83" s="4">
+        <v>14631</v>
+      </c>
     </row>
-    <row r="84" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -70621,11 +70852,14 @@
       <c r="KH84" s="3">
         <v>12706</v>
       </c>
-      <c r="KI84" s="4">
+      <c r="KI84" s="3">
         <v>12786</v>
       </c>
+      <c r="KJ84" s="4">
+        <v>12863</v>
+      </c>
     </row>
-    <row r="85" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -71506,11 +71740,14 @@
       <c r="KH85" s="3">
         <v>11526</v>
       </c>
-      <c r="KI85" s="4">
+      <c r="KI85" s="3">
         <v>11579</v>
       </c>
+      <c r="KJ85" s="4">
+        <v>11659</v>
+      </c>
     </row>
-    <row r="86" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -72203,11 +72440,14 @@
       <c r="KH86" s="39">
         <v>1</v>
       </c>
-      <c r="KI86" s="37">
+      <c r="KI86" s="39">
         <v>1</v>
       </c>
+      <c r="KJ86" s="37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -73090,12 +73330,15 @@
       <c r="KH87" s="41">
         <v>1884715</v>
       </c>
-      <c r="KI87" s="35">
+      <c r="KI87" s="41">
         <v>1888232</v>
       </c>
-      <c r="KJ87" s="24"/>
+      <c r="KJ87" s="35">
+        <v>1896755</v>
+      </c>
+      <c r="KK87" s="24"/>
     </row>
-    <row r="88" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
         <v>23</v>
       </c>
@@ -73107,11 +73350,26 @@
       <c r="G88" s="42"/>
       <c r="KD88" s="24"/>
     </row>
-    <row r="89" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:297" x14ac:dyDescent="0.25">
       <c r="KD89" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="KE5:KJ5"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JS5:KD5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
+    <mergeCell ref="DS5:ED5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -73127,21 +73385,6 @@
     <mergeCell ref="CI5:CT5"/>
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="KE5:KI5"/>
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JS5:KD5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
-    <mergeCell ref="DS5:ED5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-junio 2022</t>
+    <t>Enero 1998-julio 2022</t>
   </si>
 </sst>
 </file>
@@ -969,6 +969,12 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -976,12 +982,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1305,22 +1305,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KK89"/>
+  <dimension ref="A1:KL89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KL87" sqref="KL87"/>
+      <selection pane="topRight" activeCell="KL80" sqref="KL80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="296" width="11.875" style="1" customWidth="1"/>
-    <col min="297" max="16384" width="11.375" style="1"/>
+    <col min="3" max="297" width="11.875" style="1" customWidth="1"/>
+    <col min="298" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:296" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:297" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>36</v>
       </c>
@@ -1329,373 +1329,374 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:296" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:297" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="45">
         <v>1998</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="43">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="45">
         <v>1999</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="43">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="45">
         <v>2000</v>
       </c>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="43">
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="45">
         <v>2001</v>
       </c>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="44"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="44"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="43">
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="45">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="44"/>
-      <c r="BB5" s="44"/>
-      <c r="BC5" s="44"/>
-      <c r="BD5" s="44"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="44"/>
-      <c r="BG5" s="44"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="44"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="43">
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="46"/>
+      <c r="BC5" s="46"/>
+      <c r="BD5" s="46"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="46"/>
+      <c r="BG5" s="46"/>
+      <c r="BH5" s="46"/>
+      <c r="BI5" s="46"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="45">
         <v>2003</v>
       </c>
-      <c r="BL5" s="44"/>
-      <c r="BM5" s="44"/>
-      <c r="BN5" s="44"/>
-      <c r="BO5" s="44"/>
-      <c r="BP5" s="44"/>
-      <c r="BQ5" s="44"/>
-      <c r="BR5" s="44"/>
-      <c r="BS5" s="44"/>
-      <c r="BT5" s="44"/>
-      <c r="BU5" s="44"/>
-      <c r="BV5" s="45"/>
-      <c r="BW5" s="43">
+      <c r="BL5" s="46"/>
+      <c r="BM5" s="46"/>
+      <c r="BN5" s="46"/>
+      <c r="BO5" s="46"/>
+      <c r="BP5" s="46"/>
+      <c r="BQ5" s="46"/>
+      <c r="BR5" s="46"/>
+      <c r="BS5" s="46"/>
+      <c r="BT5" s="46"/>
+      <c r="BU5" s="46"/>
+      <c r="BV5" s="47"/>
+      <c r="BW5" s="45">
         <v>2004</v>
       </c>
-      <c r="BX5" s="44"/>
-      <c r="BY5" s="44"/>
-      <c r="BZ5" s="44"/>
-      <c r="CA5" s="44"/>
-      <c r="CB5" s="44"/>
-      <c r="CC5" s="44"/>
-      <c r="CD5" s="44"/>
-      <c r="CE5" s="44"/>
-      <c r="CF5" s="44"/>
-      <c r="CG5" s="44"/>
-      <c r="CH5" s="45"/>
-      <c r="CI5" s="43">
+      <c r="BX5" s="46"/>
+      <c r="BY5" s="46"/>
+      <c r="BZ5" s="46"/>
+      <c r="CA5" s="46"/>
+      <c r="CB5" s="46"/>
+      <c r="CC5" s="46"/>
+      <c r="CD5" s="46"/>
+      <c r="CE5" s="46"/>
+      <c r="CF5" s="46"/>
+      <c r="CG5" s="46"/>
+      <c r="CH5" s="47"/>
+      <c r="CI5" s="45">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="44"/>
-      <c r="CK5" s="44"/>
-      <c r="CL5" s="44"/>
-      <c r="CM5" s="44"/>
-      <c r="CN5" s="44"/>
-      <c r="CO5" s="44"/>
-      <c r="CP5" s="44"/>
-      <c r="CQ5" s="44"/>
-      <c r="CR5" s="44"/>
-      <c r="CS5" s="44"/>
-      <c r="CT5" s="45"/>
-      <c r="CU5" s="43">
+      <c r="CJ5" s="46"/>
+      <c r="CK5" s="46"/>
+      <c r="CL5" s="46"/>
+      <c r="CM5" s="46"/>
+      <c r="CN5" s="46"/>
+      <c r="CO5" s="46"/>
+      <c r="CP5" s="46"/>
+      <c r="CQ5" s="46"/>
+      <c r="CR5" s="46"/>
+      <c r="CS5" s="46"/>
+      <c r="CT5" s="47"/>
+      <c r="CU5" s="45">
         <v>2006</v>
       </c>
-      <c r="CV5" s="44"/>
-      <c r="CW5" s="44"/>
-      <c r="CX5" s="44"/>
-      <c r="CY5" s="44"/>
-      <c r="CZ5" s="44"/>
-      <c r="DA5" s="44"/>
-      <c r="DB5" s="44"/>
-      <c r="DC5" s="44"/>
-      <c r="DD5" s="44"/>
-      <c r="DE5" s="44"/>
-      <c r="DF5" s="45"/>
-      <c r="DG5" s="43">
+      <c r="CV5" s="46"/>
+      <c r="CW5" s="46"/>
+      <c r="CX5" s="46"/>
+      <c r="CY5" s="46"/>
+      <c r="CZ5" s="46"/>
+      <c r="DA5" s="46"/>
+      <c r="DB5" s="46"/>
+      <c r="DC5" s="46"/>
+      <c r="DD5" s="46"/>
+      <c r="DE5" s="46"/>
+      <c r="DF5" s="47"/>
+      <c r="DG5" s="45">
         <v>2007</v>
       </c>
-      <c r="DH5" s="44"/>
-      <c r="DI5" s="44"/>
-      <c r="DJ5" s="44"/>
-      <c r="DK5" s="44"/>
-      <c r="DL5" s="44"/>
-      <c r="DM5" s="44"/>
-      <c r="DN5" s="44"/>
-      <c r="DO5" s="44"/>
-      <c r="DP5" s="44"/>
-      <c r="DQ5" s="44"/>
-      <c r="DR5" s="45"/>
-      <c r="DS5" s="43">
+      <c r="DH5" s="46"/>
+      <c r="DI5" s="46"/>
+      <c r="DJ5" s="46"/>
+      <c r="DK5" s="46"/>
+      <c r="DL5" s="46"/>
+      <c r="DM5" s="46"/>
+      <c r="DN5" s="46"/>
+      <c r="DO5" s="46"/>
+      <c r="DP5" s="46"/>
+      <c r="DQ5" s="46"/>
+      <c r="DR5" s="47"/>
+      <c r="DS5" s="45">
         <v>2008</v>
       </c>
-      <c r="DT5" s="44"/>
-      <c r="DU5" s="44"/>
-      <c r="DV5" s="44"/>
-      <c r="DW5" s="44"/>
-      <c r="DX5" s="44"/>
-      <c r="DY5" s="44"/>
-      <c r="DZ5" s="44"/>
-      <c r="EA5" s="44"/>
-      <c r="EB5" s="44"/>
-      <c r="EC5" s="44"/>
-      <c r="ED5" s="45"/>
-      <c r="EE5" s="43">
+      <c r="DT5" s="46"/>
+      <c r="DU5" s="46"/>
+      <c r="DV5" s="46"/>
+      <c r="DW5" s="46"/>
+      <c r="DX5" s="46"/>
+      <c r="DY5" s="46"/>
+      <c r="DZ5" s="46"/>
+      <c r="EA5" s="46"/>
+      <c r="EB5" s="46"/>
+      <c r="EC5" s="46"/>
+      <c r="ED5" s="47"/>
+      <c r="EE5" s="45">
         <v>2009</v>
       </c>
-      <c r="EF5" s="44"/>
-      <c r="EG5" s="44"/>
-      <c r="EH5" s="44"/>
-      <c r="EI5" s="44"/>
-      <c r="EJ5" s="44"/>
-      <c r="EK5" s="44"/>
-      <c r="EL5" s="44"/>
-      <c r="EM5" s="44"/>
-      <c r="EN5" s="44"/>
-      <c r="EO5" s="44"/>
-      <c r="EP5" s="45"/>
-      <c r="EQ5" s="43">
+      <c r="EF5" s="46"/>
+      <c r="EG5" s="46"/>
+      <c r="EH5" s="46"/>
+      <c r="EI5" s="46"/>
+      <c r="EJ5" s="46"/>
+      <c r="EK5" s="46"/>
+      <c r="EL5" s="46"/>
+      <c r="EM5" s="46"/>
+      <c r="EN5" s="46"/>
+      <c r="EO5" s="46"/>
+      <c r="EP5" s="47"/>
+      <c r="EQ5" s="45">
         <v>2010</v>
       </c>
-      <c r="ER5" s="44"/>
-      <c r="ES5" s="44"/>
-      <c r="ET5" s="44"/>
-      <c r="EU5" s="44"/>
-      <c r="EV5" s="44"/>
-      <c r="EW5" s="44"/>
-      <c r="EX5" s="44"/>
-      <c r="EY5" s="44"/>
-      <c r="EZ5" s="44"/>
-      <c r="FA5" s="44"/>
-      <c r="FB5" s="45"/>
-      <c r="FC5" s="43">
+      <c r="ER5" s="46"/>
+      <c r="ES5" s="46"/>
+      <c r="ET5" s="46"/>
+      <c r="EU5" s="46"/>
+      <c r="EV5" s="46"/>
+      <c r="EW5" s="46"/>
+      <c r="EX5" s="46"/>
+      <c r="EY5" s="46"/>
+      <c r="EZ5" s="46"/>
+      <c r="FA5" s="46"/>
+      <c r="FB5" s="47"/>
+      <c r="FC5" s="45">
         <v>2011</v>
       </c>
-      <c r="FD5" s="44"/>
-      <c r="FE5" s="44"/>
-      <c r="FF5" s="44"/>
-      <c r="FG5" s="44"/>
-      <c r="FH5" s="44"/>
-      <c r="FI5" s="44"/>
-      <c r="FJ5" s="44"/>
-      <c r="FK5" s="44"/>
-      <c r="FL5" s="44"/>
-      <c r="FM5" s="44"/>
-      <c r="FN5" s="45"/>
-      <c r="FO5" s="43">
+      <c r="FD5" s="46"/>
+      <c r="FE5" s="46"/>
+      <c r="FF5" s="46"/>
+      <c r="FG5" s="46"/>
+      <c r="FH5" s="46"/>
+      <c r="FI5" s="46"/>
+      <c r="FJ5" s="46"/>
+      <c r="FK5" s="46"/>
+      <c r="FL5" s="46"/>
+      <c r="FM5" s="46"/>
+      <c r="FN5" s="47"/>
+      <c r="FO5" s="45">
         <v>2012</v>
       </c>
-      <c r="FP5" s="44"/>
-      <c r="FQ5" s="44"/>
-      <c r="FR5" s="44"/>
-      <c r="FS5" s="44"/>
-      <c r="FT5" s="44"/>
-      <c r="FU5" s="44"/>
-      <c r="FV5" s="44"/>
-      <c r="FW5" s="44"/>
-      <c r="FX5" s="44"/>
-      <c r="FY5" s="44"/>
-      <c r="FZ5" s="45"/>
-      <c r="GA5" s="43">
+      <c r="FP5" s="46"/>
+      <c r="FQ5" s="46"/>
+      <c r="FR5" s="46"/>
+      <c r="FS5" s="46"/>
+      <c r="FT5" s="46"/>
+      <c r="FU5" s="46"/>
+      <c r="FV5" s="46"/>
+      <c r="FW5" s="46"/>
+      <c r="FX5" s="46"/>
+      <c r="FY5" s="46"/>
+      <c r="FZ5" s="47"/>
+      <c r="GA5" s="45">
         <v>2013</v>
       </c>
-      <c r="GB5" s="44"/>
-      <c r="GC5" s="44"/>
-      <c r="GD5" s="44"/>
-      <c r="GE5" s="44"/>
-      <c r="GF5" s="44"/>
-      <c r="GG5" s="44"/>
-      <c r="GH5" s="44"/>
-      <c r="GI5" s="44"/>
-      <c r="GJ5" s="44"/>
-      <c r="GK5" s="44"/>
-      <c r="GL5" s="45"/>
-      <c r="GM5" s="43">
+      <c r="GB5" s="46"/>
+      <c r="GC5" s="46"/>
+      <c r="GD5" s="46"/>
+      <c r="GE5" s="46"/>
+      <c r="GF5" s="46"/>
+      <c r="GG5" s="46"/>
+      <c r="GH5" s="46"/>
+      <c r="GI5" s="46"/>
+      <c r="GJ5" s="46"/>
+      <c r="GK5" s="46"/>
+      <c r="GL5" s="47"/>
+      <c r="GM5" s="45">
         <v>2014</v>
       </c>
-      <c r="GN5" s="44"/>
-      <c r="GO5" s="44"/>
-      <c r="GP5" s="44"/>
-      <c r="GQ5" s="44"/>
-      <c r="GR5" s="44"/>
-      <c r="GS5" s="44"/>
-      <c r="GT5" s="44"/>
-      <c r="GU5" s="44"/>
-      <c r="GV5" s="44"/>
-      <c r="GW5" s="44"/>
-      <c r="GX5" s="45"/>
-      <c r="GY5" s="43">
+      <c r="GN5" s="46"/>
+      <c r="GO5" s="46"/>
+      <c r="GP5" s="46"/>
+      <c r="GQ5" s="46"/>
+      <c r="GR5" s="46"/>
+      <c r="GS5" s="46"/>
+      <c r="GT5" s="46"/>
+      <c r="GU5" s="46"/>
+      <c r="GV5" s="46"/>
+      <c r="GW5" s="46"/>
+      <c r="GX5" s="47"/>
+      <c r="GY5" s="45">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="44"/>
-      <c r="HA5" s="44"/>
-      <c r="HB5" s="44"/>
-      <c r="HC5" s="44"/>
-      <c r="HD5" s="44"/>
-      <c r="HE5" s="44"/>
-      <c r="HF5" s="44"/>
-      <c r="HG5" s="44"/>
-      <c r="HH5" s="44"/>
-      <c r="HI5" s="44"/>
-      <c r="HJ5" s="45"/>
-      <c r="HK5" s="43">
+      <c r="GZ5" s="46"/>
+      <c r="HA5" s="46"/>
+      <c r="HB5" s="46"/>
+      <c r="HC5" s="46"/>
+      <c r="HD5" s="46"/>
+      <c r="HE5" s="46"/>
+      <c r="HF5" s="46"/>
+      <c r="HG5" s="46"/>
+      <c r="HH5" s="46"/>
+      <c r="HI5" s="46"/>
+      <c r="HJ5" s="47"/>
+      <c r="HK5" s="45">
         <v>2016</v>
       </c>
-      <c r="HL5" s="44"/>
-      <c r="HM5" s="44"/>
-      <c r="HN5" s="44"/>
-      <c r="HO5" s="44"/>
-      <c r="HP5" s="44"/>
-      <c r="HQ5" s="44"/>
-      <c r="HR5" s="44"/>
-      <c r="HS5" s="44"/>
-      <c r="HT5" s="44"/>
-      <c r="HU5" s="44"/>
-      <c r="HV5" s="45"/>
-      <c r="HW5" s="43">
+      <c r="HL5" s="46"/>
+      <c r="HM5" s="46"/>
+      <c r="HN5" s="46"/>
+      <c r="HO5" s="46"/>
+      <c r="HP5" s="46"/>
+      <c r="HQ5" s="46"/>
+      <c r="HR5" s="46"/>
+      <c r="HS5" s="46"/>
+      <c r="HT5" s="46"/>
+      <c r="HU5" s="46"/>
+      <c r="HV5" s="47"/>
+      <c r="HW5" s="45">
         <v>2017</v>
       </c>
-      <c r="HX5" s="44"/>
-      <c r="HY5" s="44"/>
-      <c r="HZ5" s="44"/>
-      <c r="IA5" s="44"/>
-      <c r="IB5" s="44"/>
-      <c r="IC5" s="44"/>
-      <c r="ID5" s="44"/>
-      <c r="IE5" s="44"/>
-      <c r="IF5" s="44"/>
-      <c r="IG5" s="44"/>
-      <c r="IH5" s="45"/>
-      <c r="II5" s="43">
+      <c r="HX5" s="46"/>
+      <c r="HY5" s="46"/>
+      <c r="HZ5" s="46"/>
+      <c r="IA5" s="46"/>
+      <c r="IB5" s="46"/>
+      <c r="IC5" s="46"/>
+      <c r="ID5" s="46"/>
+      <c r="IE5" s="46"/>
+      <c r="IF5" s="46"/>
+      <c r="IG5" s="46"/>
+      <c r="IH5" s="47"/>
+      <c r="II5" s="45">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="44"/>
-      <c r="IK5" s="44"/>
-      <c r="IL5" s="44"/>
-      <c r="IM5" s="44"/>
-      <c r="IN5" s="44"/>
-      <c r="IO5" s="44"/>
-      <c r="IP5" s="44"/>
-      <c r="IQ5" s="44"/>
-      <c r="IR5" s="44"/>
-      <c r="IS5" s="44"/>
-      <c r="IT5" s="45"/>
-      <c r="IU5" s="43">
+      <c r="IJ5" s="46"/>
+      <c r="IK5" s="46"/>
+      <c r="IL5" s="46"/>
+      <c r="IM5" s="46"/>
+      <c r="IN5" s="46"/>
+      <c r="IO5" s="46"/>
+      <c r="IP5" s="46"/>
+      <c r="IQ5" s="46"/>
+      <c r="IR5" s="46"/>
+      <c r="IS5" s="46"/>
+      <c r="IT5" s="47"/>
+      <c r="IU5" s="45">
         <v>2019</v>
       </c>
-      <c r="IV5" s="44"/>
-      <c r="IW5" s="44"/>
-      <c r="IX5" s="44"/>
-      <c r="IY5" s="44"/>
-      <c r="IZ5" s="44"/>
-      <c r="JA5" s="44"/>
-      <c r="JB5" s="44"/>
-      <c r="JC5" s="44"/>
-      <c r="JD5" s="44"/>
-      <c r="JE5" s="44"/>
-      <c r="JF5" s="45"/>
-      <c r="JG5" s="43">
+      <c r="IV5" s="46"/>
+      <c r="IW5" s="46"/>
+      <c r="IX5" s="46"/>
+      <c r="IY5" s="46"/>
+      <c r="IZ5" s="46"/>
+      <c r="JA5" s="46"/>
+      <c r="JB5" s="46"/>
+      <c r="JC5" s="46"/>
+      <c r="JD5" s="46"/>
+      <c r="JE5" s="46"/>
+      <c r="JF5" s="47"/>
+      <c r="JG5" s="45">
         <v>2020</v>
       </c>
-      <c r="JH5" s="44"/>
-      <c r="JI5" s="44"/>
-      <c r="JJ5" s="44"/>
-      <c r="JK5" s="44"/>
-      <c r="JL5" s="44"/>
-      <c r="JM5" s="44"/>
-      <c r="JN5" s="44"/>
-      <c r="JO5" s="44"/>
-      <c r="JP5" s="44"/>
-      <c r="JQ5" s="44"/>
-      <c r="JR5" s="45"/>
-      <c r="JS5" s="43">
+      <c r="JH5" s="46"/>
+      <c r="JI5" s="46"/>
+      <c r="JJ5" s="46"/>
+      <c r="JK5" s="46"/>
+      <c r="JL5" s="46"/>
+      <c r="JM5" s="46"/>
+      <c r="JN5" s="46"/>
+      <c r="JO5" s="46"/>
+      <c r="JP5" s="46"/>
+      <c r="JQ5" s="46"/>
+      <c r="JR5" s="47"/>
+      <c r="JS5" s="45">
         <v>2021</v>
       </c>
-      <c r="JT5" s="44"/>
-      <c r="JU5" s="44"/>
-      <c r="JV5" s="44"/>
-      <c r="JW5" s="44"/>
-      <c r="JX5" s="44"/>
-      <c r="JY5" s="44"/>
-      <c r="JZ5" s="44"/>
-      <c r="KA5" s="44"/>
-      <c r="KB5" s="44"/>
-      <c r="KC5" s="44"/>
-      <c r="KD5" s="44"/>
-      <c r="KE5" s="43">
+      <c r="JT5" s="46"/>
+      <c r="JU5" s="46"/>
+      <c r="JV5" s="46"/>
+      <c r="JW5" s="46"/>
+      <c r="JX5" s="46"/>
+      <c r="JY5" s="46"/>
+      <c r="JZ5" s="46"/>
+      <c r="KA5" s="46"/>
+      <c r="KB5" s="46"/>
+      <c r="KC5" s="46"/>
+      <c r="KD5" s="46"/>
+      <c r="KE5" s="45">
         <v>2022</v>
       </c>
-      <c r="KF5" s="44"/>
-      <c r="KG5" s="44"/>
-      <c r="KH5" s="44"/>
-      <c r="KI5" s="44"/>
-      <c r="KJ5" s="45"/>
+      <c r="KF5" s="46"/>
+      <c r="KG5" s="46"/>
+      <c r="KH5" s="46"/>
+      <c r="KI5" s="46"/>
+      <c r="KJ5" s="46"/>
+      <c r="KK5" s="47"/>
     </row>
-    <row r="6" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+    <row r="6" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2575,11 +2576,14 @@
       <c r="KI6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="KJ6" s="11" t="s">
+      <c r="KJ6" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="KK6" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:296" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:297" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3465,11 +3469,14 @@
       <c r="KI7" s="38">
         <v>116527</v>
       </c>
-      <c r="KJ7" s="31">
+      <c r="KJ7" s="38">
         <v>114765</v>
       </c>
+      <c r="KK7" s="31">
+        <v>112865</v>
+      </c>
     </row>
-    <row r="8" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4353,11 +4360,14 @@
       <c r="KI8" s="3">
         <v>22686</v>
       </c>
-      <c r="KJ8" s="4">
+      <c r="KJ8" s="3">
         <v>22741</v>
       </c>
+      <c r="KK8" s="4">
+        <v>21730</v>
+      </c>
     </row>
-    <row r="9" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5241,11 +5251,14 @@
       <c r="KI9" s="3">
         <v>5283</v>
       </c>
-      <c r="KJ9" s="4">
+      <c r="KJ9" s="3">
         <v>5052</v>
       </c>
+      <c r="KK9" s="4">
+        <v>5206</v>
+      </c>
     </row>
-    <row r="10" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6129,11 +6142,14 @@
       <c r="KI10" s="3">
         <v>17426</v>
       </c>
-      <c r="KJ10" s="4">
+      <c r="KJ10" s="3">
         <v>16863</v>
       </c>
+      <c r="KK10" s="4">
+        <v>16914</v>
+      </c>
     </row>
-    <row r="11" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7017,11 +7033,14 @@
       <c r="KI11" s="3">
         <v>17892</v>
       </c>
-      <c r="KJ11" s="4">
+      <c r="KJ11" s="3">
         <v>17357</v>
       </c>
+      <c r="KK11" s="4">
+        <v>17205</v>
+      </c>
     </row>
-    <row r="12" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7905,11 +7924,14 @@
       <c r="KI12" s="3">
         <v>15859</v>
       </c>
-      <c r="KJ12" s="4">
+      <c r="KJ12" s="3">
         <v>15556</v>
       </c>
+      <c r="KK12" s="4">
+        <v>15437</v>
+      </c>
     </row>
-    <row r="13" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8793,11 +8815,14 @@
       <c r="KI13" s="3">
         <v>14013</v>
       </c>
-      <c r="KJ13" s="4">
+      <c r="KJ13" s="3">
         <v>13925</v>
       </c>
+      <c r="KK13" s="4">
+        <v>13640</v>
+      </c>
     </row>
-    <row r="14" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9681,11 +9706,14 @@
       <c r="KI14" s="3">
         <v>12022</v>
       </c>
-      <c r="KJ14" s="4">
+      <c r="KJ14" s="3">
         <v>11950</v>
       </c>
+      <c r="KK14" s="4">
+        <v>11746</v>
+      </c>
     </row>
-    <row r="15" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10569,11 +10597,14 @@
       <c r="KI15" s="3">
         <v>11333</v>
       </c>
-      <c r="KJ15" s="4">
+      <c r="KJ15" s="3">
         <v>11307</v>
       </c>
+      <c r="KK15" s="4">
+        <v>10978</v>
+      </c>
     </row>
-    <row r="16" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11457,11 +11488,14 @@
       <c r="KI16" s="39">
         <v>13</v>
       </c>
-      <c r="KJ16" s="37">
+      <c r="KJ16" s="39">
         <v>14</v>
       </c>
+      <c r="KK16" s="37">
+        <v>9</v>
+      </c>
     </row>
-    <row r="17" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12347,11 +12381,14 @@
       <c r="KI17" s="38">
         <v>390157</v>
       </c>
-      <c r="KJ17" s="31">
+      <c r="KJ17" s="38">
         <v>393243</v>
       </c>
+      <c r="KK17" s="31">
+        <v>392581</v>
+      </c>
     </row>
-    <row r="18" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13235,11 +13272,14 @@
       <c r="KI18" s="3">
         <v>58997</v>
       </c>
-      <c r="KJ18" s="4">
+      <c r="KJ18" s="3">
         <v>59506</v>
       </c>
+      <c r="KK18" s="4">
+        <v>59905</v>
+      </c>
     </row>
-    <row r="19" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14123,11 +14163,14 @@
       <c r="KI19" s="3">
         <v>10282</v>
       </c>
-      <c r="KJ19" s="4">
+      <c r="KJ19" s="3">
         <v>10559</v>
       </c>
+      <c r="KK19" s="4">
+        <v>10422</v>
+      </c>
     </row>
-    <row r="20" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15011,11 +15054,14 @@
       <c r="KI20" s="3">
         <v>53788</v>
       </c>
-      <c r="KJ20" s="4">
+      <c r="KJ20" s="3">
         <v>54594</v>
       </c>
+      <c r="KK20" s="4">
+        <v>54439</v>
+      </c>
     </row>
-    <row r="21" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -15899,11 +15945,14 @@
       <c r="KI21" s="3">
         <v>65755</v>
       </c>
-      <c r="KJ21" s="4">
+      <c r="KJ21" s="3">
         <v>65930</v>
       </c>
+      <c r="KK21" s="4">
+        <v>65688</v>
+      </c>
     </row>
-    <row r="22" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16787,11 +16836,14 @@
       <c r="KI22" s="3">
         <v>63561</v>
       </c>
-      <c r="KJ22" s="4">
+      <c r="KJ22" s="3">
         <v>64000</v>
       </c>
+      <c r="KK22" s="4">
+        <v>63823</v>
+      </c>
     </row>
-    <row r="23" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17675,11 +17727,14 @@
       <c r="KI23" s="3">
         <v>54672</v>
       </c>
-      <c r="KJ23" s="4">
+      <c r="KJ23" s="3">
         <v>55105</v>
       </c>
+      <c r="KK23" s="4">
+        <v>54930</v>
+      </c>
     </row>
-    <row r="24" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18563,11 +18618,14 @@
       <c r="KI24" s="3">
         <v>45038</v>
       </c>
-      <c r="KJ24" s="4">
+      <c r="KJ24" s="3">
         <v>45234</v>
       </c>
+      <c r="KK24" s="4">
+        <v>45160</v>
+      </c>
     </row>
-    <row r="25" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -19451,11 +19509,14 @@
       <c r="KI25" s="3">
         <v>38059</v>
       </c>
-      <c r="KJ25" s="4">
+      <c r="KJ25" s="3">
         <v>38313</v>
       </c>
+      <c r="KK25" s="4">
+        <v>38213</v>
+      </c>
     </row>
-    <row r="26" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -20333,11 +20394,14 @@
       <c r="KI26" s="39">
         <v>5</v>
       </c>
-      <c r="KJ26" s="37">
+      <c r="KJ26" s="39">
         <v>2</v>
       </c>
+      <c r="KK26" s="37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -21223,11 +21287,14 @@
       <c r="KI27" s="38">
         <v>139462</v>
       </c>
-      <c r="KJ27" s="31">
+      <c r="KJ27" s="38">
         <v>140587</v>
       </c>
+      <c r="KK27" s="31">
+        <v>142342</v>
+      </c>
     </row>
-    <row r="28" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -22111,11 +22178,14 @@
       <c r="KI28" s="3">
         <v>25283</v>
       </c>
-      <c r="KJ28" s="4">
+      <c r="KJ28" s="3">
         <v>25668</v>
       </c>
+      <c r="KK28" s="4">
+        <v>25883</v>
+      </c>
     </row>
-    <row r="29" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -22999,11 +23069,14 @@
       <c r="KI29" s="3">
         <v>4616</v>
       </c>
-      <c r="KJ29" s="4">
+      <c r="KJ29" s="3">
         <v>4648</v>
       </c>
+      <c r="KK29" s="4">
+        <v>4730</v>
+      </c>
     </row>
-    <row r="30" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -23887,11 +23960,14 @@
       <c r="KI30" s="3">
         <v>17411</v>
       </c>
-      <c r="KJ30" s="4">
+      <c r="KJ30" s="3">
         <v>17609</v>
       </c>
+      <c r="KK30" s="4">
+        <v>17892</v>
+      </c>
     </row>
-    <row r="31" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -24775,11 +24851,14 @@
       <c r="KI31" s="3">
         <v>22330</v>
       </c>
-      <c r="KJ31" s="4">
+      <c r="KJ31" s="3">
         <v>22384</v>
       </c>
+      <c r="KK31" s="4">
+        <v>22564</v>
+      </c>
     </row>
-    <row r="32" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -25663,11 +25742,14 @@
       <c r="KI32" s="3">
         <v>21097</v>
       </c>
-      <c r="KJ32" s="4">
+      <c r="KJ32" s="3">
         <v>21262</v>
       </c>
+      <c r="KK32" s="4">
+        <v>21561</v>
+      </c>
     </row>
-    <row r="33" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -26551,11 +26633,14 @@
       <c r="KI33" s="3">
         <v>18894</v>
       </c>
-      <c r="KJ33" s="4">
+      <c r="KJ33" s="3">
         <v>18975</v>
       </c>
+      <c r="KK33" s="4">
+        <v>19095</v>
+      </c>
     </row>
-    <row r="34" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -27439,11 +27524,14 @@
       <c r="KI34" s="3">
         <v>15887</v>
       </c>
-      <c r="KJ34" s="4">
+      <c r="KJ34" s="3">
         <v>15978</v>
       </c>
+      <c r="KK34" s="4">
+        <v>16308</v>
+      </c>
     </row>
-    <row r="35" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -28327,11 +28415,14 @@
       <c r="KI35" s="3">
         <v>13929</v>
       </c>
-      <c r="KJ35" s="4">
+      <c r="KJ35" s="3">
         <v>14047</v>
       </c>
+      <c r="KK35" s="4">
+        <v>14289</v>
+      </c>
     </row>
-    <row r="36" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -29215,11 +29306,14 @@
       <c r="KI36" s="39">
         <v>15</v>
       </c>
-      <c r="KJ36" s="37">
+      <c r="KJ36" s="39">
         <v>16</v>
       </c>
+      <c r="KK36" s="37">
+        <v>20</v>
+      </c>
     </row>
-    <row r="37" spans="1:296" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:297" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -30105,11 +30199,14 @@
       <c r="KI37" s="40">
         <v>9600</v>
       </c>
-      <c r="KJ37" s="33">
+      <c r="KJ37" s="40">
         <v>9738</v>
       </c>
+      <c r="KK37" s="33">
+        <v>9682</v>
+      </c>
     </row>
-    <row r="38" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -30993,11 +31090,14 @@
       <c r="KI38" s="3">
         <v>1711</v>
       </c>
-      <c r="KJ38" s="4">
+      <c r="KJ38" s="3">
         <v>1730</v>
       </c>
+      <c r="KK38" s="4">
+        <v>1726</v>
+      </c>
     </row>
-    <row r="39" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -31881,11 +31981,14 @@
       <c r="KI39" s="3">
         <v>85</v>
       </c>
-      <c r="KJ39" s="4">
+      <c r="KJ39" s="3">
         <v>92</v>
       </c>
+      <c r="KK39" s="4">
+        <v>84</v>
+      </c>
     </row>
-    <row r="40" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -32769,11 +32872,14 @@
       <c r="KI40" s="3">
         <v>493</v>
       </c>
-      <c r="KJ40" s="4">
+      <c r="KJ40" s="3">
         <v>541</v>
       </c>
+      <c r="KK40" s="4">
+        <v>514</v>
+      </c>
     </row>
-    <row r="41" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -33657,11 +33763,14 @@
       <c r="KI41" s="3">
         <v>989</v>
       </c>
-      <c r="KJ41" s="4">
+      <c r="KJ41" s="3">
         <v>1013</v>
       </c>
+      <c r="KK41" s="4">
+        <v>1024</v>
+      </c>
     </row>
-    <row r="42" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -34545,11 +34654,14 @@
       <c r="KI42" s="3">
         <v>1389</v>
       </c>
-      <c r="KJ42" s="4">
+      <c r="KJ42" s="3">
         <v>1408</v>
       </c>
+      <c r="KK42" s="4">
+        <v>1374</v>
+      </c>
     </row>
-    <row r="43" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -35433,11 +35545,14 @@
       <c r="KI43" s="3">
         <v>1775</v>
       </c>
-      <c r="KJ43" s="4">
+      <c r="KJ43" s="3">
         <v>1796</v>
       </c>
+      <c r="KK43" s="4">
+        <v>1819</v>
+      </c>
     </row>
-    <row r="44" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -36321,11 +36436,14 @@
       <c r="KI44" s="3">
         <v>1714</v>
       </c>
-      <c r="KJ44" s="4">
+      <c r="KJ44" s="3">
         <v>1712</v>
       </c>
+      <c r="KK44" s="4">
+        <v>1691</v>
+      </c>
     </row>
-    <row r="45" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -37209,11 +37327,14 @@
       <c r="KI45" s="3">
         <v>1444</v>
       </c>
-      <c r="KJ45" s="4">
+      <c r="KJ45" s="3">
         <v>1446</v>
       </c>
+      <c r="KK45" s="4">
+        <v>1450</v>
+      </c>
     </row>
-    <row r="46" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -37635,9 +37756,10 @@
       <c r="KG46" s="39"/>
       <c r="KH46" s="39"/>
       <c r="KI46" s="39"/>
-      <c r="KJ46" s="37"/>
+      <c r="KJ46" s="39"/>
+      <c r="KK46" s="37"/>
     </row>
-    <row r="47" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -38523,11 +38645,14 @@
       <c r="KI47" s="38">
         <v>496682</v>
       </c>
-      <c r="KJ47" s="31">
+      <c r="KJ47" s="38">
         <v>499541</v>
       </c>
+      <c r="KK47" s="31">
+        <v>502349</v>
+      </c>
     </row>
-    <row r="48" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -39411,11 +39536,14 @@
       <c r="KI48" s="3">
         <v>75179</v>
       </c>
-      <c r="KJ48" s="4">
+      <c r="KJ48" s="3">
         <v>75760</v>
       </c>
+      <c r="KK48" s="4">
+        <v>76440</v>
+      </c>
     </row>
-    <row r="49" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -40299,11 +40427,14 @@
       <c r="KI49" s="3">
         <v>14584</v>
       </c>
-      <c r="KJ49" s="4">
+      <c r="KJ49" s="3">
         <v>14474</v>
       </c>
+      <c r="KK49" s="4">
+        <v>14427</v>
+      </c>
     </row>
-    <row r="50" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -41187,11 +41318,14 @@
       <c r="KI50" s="3">
         <v>69377</v>
       </c>
-      <c r="KJ50" s="4">
+      <c r="KJ50" s="3">
         <v>70256</v>
       </c>
+      <c r="KK50" s="4">
+        <v>70958</v>
+      </c>
     </row>
-    <row r="51" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -42075,11 +42209,14 @@
       <c r="KI51" s="3">
         <v>80725</v>
       </c>
-      <c r="KJ51" s="4">
+      <c r="KJ51" s="3">
         <v>81019</v>
       </c>
+      <c r="KK51" s="4">
+        <v>81582</v>
+      </c>
     </row>
-    <row r="52" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -42963,11 +43100,14 @@
       <c r="KI52" s="3">
         <v>74978</v>
       </c>
-      <c r="KJ52" s="4">
+      <c r="KJ52" s="3">
         <v>75364</v>
       </c>
+      <c r="KK52" s="4">
+        <v>75722</v>
+      </c>
     </row>
-    <row r="53" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -43851,11 +43991,14 @@
       <c r="KI53" s="3">
         <v>67557</v>
       </c>
-      <c r="KJ53" s="4">
+      <c r="KJ53" s="3">
         <v>67780</v>
       </c>
+      <c r="KK53" s="4">
+        <v>67814</v>
+      </c>
     </row>
-    <row r="54" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -44739,11 +44882,14 @@
       <c r="KI54" s="3">
         <v>61367</v>
       </c>
-      <c r="KJ54" s="4">
+      <c r="KJ54" s="3">
         <v>61687</v>
       </c>
+      <c r="KK54" s="4">
+        <v>61899</v>
+      </c>
     </row>
-    <row r="55" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -45627,11 +45773,14 @@
       <c r="KI55" s="3">
         <v>52905</v>
       </c>
-      <c r="KJ55" s="4">
+      <c r="KJ55" s="3">
         <v>53192</v>
       </c>
+      <c r="KK55" s="4">
+        <v>53498</v>
+      </c>
     </row>
-    <row r="56" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -46515,11 +46664,14 @@
       <c r="KI56" s="39">
         <v>10</v>
       </c>
-      <c r="KJ56" s="37">
+      <c r="KJ56" s="39">
         <v>9</v>
       </c>
+      <c r="KK56" s="37">
+        <v>9</v>
+      </c>
     </row>
-    <row r="57" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -47405,11 +47557,14 @@
       <c r="KI57" s="38">
         <v>2538</v>
       </c>
-      <c r="KJ57" s="31">
+      <c r="KJ57" s="38">
         <v>2538</v>
       </c>
+      <c r="KK57" s="31">
+        <v>2465</v>
+      </c>
     </row>
-    <row r="58" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -48293,11 +48448,14 @@
       <c r="KI58" s="3">
         <v>510</v>
       </c>
-      <c r="KJ58" s="4">
+      <c r="KJ58" s="3">
         <v>515</v>
       </c>
+      <c r="KK58" s="4">
+        <v>505</v>
+      </c>
     </row>
-    <row r="59" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -49181,11 +49339,14 @@
       <c r="KI59" s="3">
         <v>35</v>
       </c>
-      <c r="KJ59" s="4">
+      <c r="KJ59" s="3">
         <v>38</v>
       </c>
+      <c r="KK59" s="4">
+        <v>32</v>
+      </c>
     </row>
-    <row r="60" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -50069,11 +50230,14 @@
       <c r="KI60" s="3">
         <v>197</v>
       </c>
-      <c r="KJ60" s="4">
+      <c r="KJ60" s="3">
         <v>203</v>
       </c>
+      <c r="KK60" s="4">
+        <v>194</v>
+      </c>
     </row>
-    <row r="61" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -50957,11 +51121,14 @@
       <c r="KI61" s="3">
         <v>395</v>
       </c>
-      <c r="KJ61" s="4">
+      <c r="KJ61" s="3">
         <v>389</v>
       </c>
+      <c r="KK61" s="4">
+        <v>373</v>
+      </c>
     </row>
-    <row r="62" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -51845,11 +52012,14 @@
       <c r="KI62" s="3">
         <v>394</v>
       </c>
-      <c r="KJ62" s="4">
+      <c r="KJ62" s="3">
         <v>398</v>
       </c>
+      <c r="KK62" s="4">
+        <v>393</v>
+      </c>
     </row>
-    <row r="63" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -52733,11 +52903,14 @@
       <c r="KI63" s="3">
         <v>389</v>
       </c>
-      <c r="KJ63" s="4">
+      <c r="KJ63" s="3">
         <v>389</v>
       </c>
+      <c r="KK63" s="4">
+        <v>374</v>
+      </c>
     </row>
-    <row r="64" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -53621,11 +53794,14 @@
       <c r="KI64" s="3">
         <v>336</v>
       </c>
-      <c r="KJ64" s="4">
+      <c r="KJ64" s="3">
         <v>330</v>
       </c>
+      <c r="KK64" s="4">
+        <v>322</v>
+      </c>
     </row>
-    <row r="65" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -54509,11 +54685,14 @@
       <c r="KI65" s="3">
         <v>282</v>
       </c>
-      <c r="KJ65" s="4">
+      <c r="KJ65" s="3">
         <v>276</v>
       </c>
+      <c r="KK65" s="4">
+        <v>272</v>
+      </c>
     </row>
-    <row r="66" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -54869,9 +55048,10 @@
       <c r="KG66" s="39"/>
       <c r="KH66" s="39"/>
       <c r="KI66" s="39"/>
-      <c r="KJ66" s="37"/>
+      <c r="KJ66" s="39"/>
+      <c r="KK66" s="37"/>
     </row>
-    <row r="67" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -55757,11 +55937,14 @@
       <c r="KI67" s="38">
         <v>632610</v>
       </c>
-      <c r="KJ67" s="31">
+      <c r="KJ67" s="38">
         <v>634764</v>
       </c>
+      <c r="KK67" s="31">
+        <v>632848</v>
+      </c>
     </row>
-    <row r="68" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -56645,11 +56828,14 @@
       <c r="KI68" s="3">
         <v>132806</v>
       </c>
-      <c r="KJ68" s="4">
+      <c r="KJ68" s="3">
         <v>133026</v>
       </c>
+      <c r="KK68" s="4">
+        <v>132522</v>
+      </c>
     </row>
-    <row r="69" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -57533,11 +57719,14 @@
       <c r="KI69" s="3">
         <v>10274</v>
       </c>
-      <c r="KJ69" s="4">
+      <c r="KJ69" s="3">
         <v>10487</v>
       </c>
+      <c r="KK69" s="4">
+        <v>10511</v>
+      </c>
     </row>
-    <row r="70" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -58421,11 +58610,14 @@
       <c r="KI70" s="3">
         <v>61538</v>
       </c>
-      <c r="KJ70" s="4">
+      <c r="KJ70" s="3">
         <v>62565</v>
       </c>
+      <c r="KK70" s="4">
+        <v>62423</v>
+      </c>
     </row>
-    <row r="71" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -59309,11 +59501,14 @@
       <c r="KI71" s="3">
         <v>98688</v>
       </c>
-      <c r="KJ71" s="4">
+      <c r="KJ71" s="3">
         <v>98917</v>
       </c>
+      <c r="KK71" s="4">
+        <v>98631</v>
+      </c>
     </row>
-    <row r="72" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -60197,11 +60392,14 @@
       <c r="KI72" s="3">
         <v>95049</v>
       </c>
-      <c r="KJ72" s="4">
+      <c r="KJ72" s="3">
         <v>95189</v>
       </c>
+      <c r="KK72" s="4">
+        <v>94937</v>
+      </c>
     </row>
-    <row r="73" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -61085,11 +61283,14 @@
       <c r="KI73" s="3">
         <v>86410</v>
       </c>
-      <c r="KJ73" s="4">
+      <c r="KJ73" s="3">
         <v>86582</v>
       </c>
+      <c r="KK73" s="4">
+        <v>86222</v>
+      </c>
     </row>
-    <row r="74" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -61973,11 +62174,14 @@
       <c r="KI74" s="3">
         <v>77640</v>
       </c>
-      <c r="KJ74" s="4">
+      <c r="KJ74" s="3">
         <v>77753</v>
       </c>
+      <c r="KK74" s="4">
+        <v>77503</v>
+      </c>
     </row>
-    <row r="75" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -62861,11 +63065,14 @@
       <c r="KI75" s="3">
         <v>70202</v>
       </c>
-      <c r="KJ75" s="4">
+      <c r="KJ75" s="3">
         <v>70242</v>
       </c>
+      <c r="KK75" s="4">
+        <v>70095</v>
+      </c>
     </row>
-    <row r="76" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -63749,11 +63956,14 @@
       <c r="KI76" s="39">
         <v>3</v>
       </c>
-      <c r="KJ76" s="37">
+      <c r="KJ76" s="39">
         <v>3</v>
       </c>
+      <c r="KK76" s="37">
+        <v>4</v>
+      </c>
     </row>
-    <row r="77" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -64639,11 +64849,14 @@
       <c r="KI77" s="38">
         <v>100656</v>
       </c>
-      <c r="KJ77" s="31">
+      <c r="KJ77" s="38">
         <v>101579</v>
       </c>
+      <c r="KK77" s="31">
+        <v>101385</v>
+      </c>
     </row>
-    <row r="78" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -65527,11 +65740,14 @@
       <c r="KI78" s="3">
         <v>17975</v>
       </c>
-      <c r="KJ78" s="4">
+      <c r="KJ78" s="3">
         <v>18093</v>
       </c>
+      <c r="KK78" s="4">
+        <v>18211</v>
+      </c>
     </row>
-    <row r="79" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -66415,11 +66631,14 @@
       <c r="KI79" s="3">
         <v>1630</v>
       </c>
-      <c r="KJ79" s="4">
+      <c r="KJ79" s="3">
         <v>1671</v>
       </c>
+      <c r="KK79" s="4">
+        <v>1620</v>
+      </c>
     </row>
-    <row r="80" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -67303,11 +67522,14 @@
       <c r="KI80" s="3">
         <v>11340</v>
       </c>
-      <c r="KJ80" s="4">
+      <c r="KJ80" s="3">
         <v>11517</v>
       </c>
+      <c r="KK80" s="4">
+        <v>11393</v>
+      </c>
     </row>
-    <row r="81" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -68191,11 +68413,14 @@
       <c r="KI81" s="3">
         <v>15328</v>
       </c>
-      <c r="KJ81" s="4">
+      <c r="KJ81" s="3">
         <v>15510</v>
       </c>
+      <c r="KK81" s="4">
+        <v>15483</v>
+      </c>
     </row>
-    <row r="82" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -69079,11 +69304,14 @@
       <c r="KI82" s="3">
         <v>15469</v>
       </c>
-      <c r="KJ82" s="4">
+      <c r="KJ82" s="3">
         <v>15634</v>
       </c>
+      <c r="KK82" s="4">
+        <v>15643</v>
+      </c>
     </row>
-    <row r="83" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -69967,11 +70195,14 @@
       <c r="KI83" s="3">
         <v>14548</v>
       </c>
-      <c r="KJ83" s="4">
+      <c r="KJ83" s="3">
         <v>14631</v>
       </c>
+      <c r="KK83" s="4">
+        <v>14595</v>
+      </c>
     </row>
-    <row r="84" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -70855,11 +71086,14 @@
       <c r="KI84" s="3">
         <v>12786</v>
       </c>
-      <c r="KJ84" s="4">
+      <c r="KJ84" s="3">
         <v>12863</v>
       </c>
+      <c r="KK84" s="4">
+        <v>12817</v>
+      </c>
     </row>
-    <row r="85" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -71743,11 +71977,14 @@
       <c r="KI85" s="3">
         <v>11579</v>
       </c>
-      <c r="KJ85" s="4">
+      <c r="KJ85" s="3">
         <v>11659</v>
       </c>
+      <c r="KK85" s="4">
+        <v>11621</v>
+      </c>
     </row>
-    <row r="86" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -72443,11 +72680,14 @@
       <c r="KI86" s="39">
         <v>1</v>
       </c>
-      <c r="KJ86" s="37">
+      <c r="KJ86" s="39">
         <v>1</v>
       </c>
+      <c r="KK86" s="37">
+        <v>2</v>
+      </c>
     </row>
-    <row r="87" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -73333,12 +73573,16 @@
       <c r="KI87" s="41">
         <v>1888232</v>
       </c>
-      <c r="KJ87" s="35">
+      <c r="KJ87" s="41">
         <v>1896755</v>
       </c>
-      <c r="KK87" s="24"/>
+      <c r="KK87" s="35">
+        <f>KK7+KK17+KK27+KK37+KK47+KK57+KK67+KK77</f>
+        <v>1896517</v>
+      </c>
+      <c r="KL87" s="24"/>
     </row>
-    <row r="88" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
         <v>23</v>
       </c>
@@ -73350,26 +73594,11 @@
       <c r="G88" s="42"/>
       <c r="KD88" s="24"/>
     </row>
-    <row r="89" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:298" x14ac:dyDescent="0.25">
       <c r="KD89" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="KE5:KJ5"/>
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JS5:KD5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
-    <mergeCell ref="DS5:ED5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -73385,6 +73614,21 @@
     <mergeCell ref="CI5:CT5"/>
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="KE5:KK5"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JS5:KD5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
+    <mergeCell ref="DS5:ED5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-julio 2022</t>
+    <t>Enero 1998-agosto 2022</t>
   </si>
 </sst>
 </file>
@@ -969,12 +969,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -982,6 +976,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1305,22 +1305,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KL89"/>
+  <dimension ref="A1:KM89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KL80" sqref="KL80"/>
+      <selection pane="topRight" activeCell="KM18" sqref="KM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="297" width="11.875" style="1" customWidth="1"/>
-    <col min="298" max="16384" width="11.375" style="1"/>
+    <col min="3" max="298" width="11.875" style="1" customWidth="1"/>
+    <col min="299" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:297" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:298" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>36</v>
       </c>
@@ -1329,374 +1329,375 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:297" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:298" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="43">
         <v>1998</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="45">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="43">
         <v>1999</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="45">
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="43">
         <v>2000</v>
       </c>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="45">
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="43">
         <v>2001</v>
       </c>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="45">
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="43">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="45">
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="44"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="44"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="44"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="43">
         <v>2003</v>
       </c>
-      <c r="BL5" s="46"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="46"/>
-      <c r="BO5" s="46"/>
-      <c r="BP5" s="46"/>
-      <c r="BQ5" s="46"/>
-      <c r="BR5" s="46"/>
-      <c r="BS5" s="46"/>
-      <c r="BT5" s="46"/>
-      <c r="BU5" s="46"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="45">
+      <c r="BL5" s="44"/>
+      <c r="BM5" s="44"/>
+      <c r="BN5" s="44"/>
+      <c r="BO5" s="44"/>
+      <c r="BP5" s="44"/>
+      <c r="BQ5" s="44"/>
+      <c r="BR5" s="44"/>
+      <c r="BS5" s="44"/>
+      <c r="BT5" s="44"/>
+      <c r="BU5" s="44"/>
+      <c r="BV5" s="45"/>
+      <c r="BW5" s="43">
         <v>2004</v>
       </c>
-      <c r="BX5" s="46"/>
-      <c r="BY5" s="46"/>
-      <c r="BZ5" s="46"/>
-      <c r="CA5" s="46"/>
-      <c r="CB5" s="46"/>
-      <c r="CC5" s="46"/>
-      <c r="CD5" s="46"/>
-      <c r="CE5" s="46"/>
-      <c r="CF5" s="46"/>
-      <c r="CG5" s="46"/>
-      <c r="CH5" s="47"/>
-      <c r="CI5" s="45">
+      <c r="BX5" s="44"/>
+      <c r="BY5" s="44"/>
+      <c r="BZ5" s="44"/>
+      <c r="CA5" s="44"/>
+      <c r="CB5" s="44"/>
+      <c r="CC5" s="44"/>
+      <c r="CD5" s="44"/>
+      <c r="CE5" s="44"/>
+      <c r="CF5" s="44"/>
+      <c r="CG5" s="44"/>
+      <c r="CH5" s="45"/>
+      <c r="CI5" s="43">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="46"/>
-      <c r="CK5" s="46"/>
-      <c r="CL5" s="46"/>
-      <c r="CM5" s="46"/>
-      <c r="CN5" s="46"/>
-      <c r="CO5" s="46"/>
-      <c r="CP5" s="46"/>
-      <c r="CQ5" s="46"/>
-      <c r="CR5" s="46"/>
-      <c r="CS5" s="46"/>
-      <c r="CT5" s="47"/>
-      <c r="CU5" s="45">
+      <c r="CJ5" s="44"/>
+      <c r="CK5" s="44"/>
+      <c r="CL5" s="44"/>
+      <c r="CM5" s="44"/>
+      <c r="CN5" s="44"/>
+      <c r="CO5" s="44"/>
+      <c r="CP5" s="44"/>
+      <c r="CQ5" s="44"/>
+      <c r="CR5" s="44"/>
+      <c r="CS5" s="44"/>
+      <c r="CT5" s="45"/>
+      <c r="CU5" s="43">
         <v>2006</v>
       </c>
-      <c r="CV5" s="46"/>
-      <c r="CW5" s="46"/>
-      <c r="CX5" s="46"/>
-      <c r="CY5" s="46"/>
-      <c r="CZ5" s="46"/>
-      <c r="DA5" s="46"/>
-      <c r="DB5" s="46"/>
-      <c r="DC5" s="46"/>
-      <c r="DD5" s="46"/>
-      <c r="DE5" s="46"/>
-      <c r="DF5" s="47"/>
-      <c r="DG5" s="45">
+      <c r="CV5" s="44"/>
+      <c r="CW5" s="44"/>
+      <c r="CX5" s="44"/>
+      <c r="CY5" s="44"/>
+      <c r="CZ5" s="44"/>
+      <c r="DA5" s="44"/>
+      <c r="DB5" s="44"/>
+      <c r="DC5" s="44"/>
+      <c r="DD5" s="44"/>
+      <c r="DE5" s="44"/>
+      <c r="DF5" s="45"/>
+      <c r="DG5" s="43">
         <v>2007</v>
       </c>
-      <c r="DH5" s="46"/>
-      <c r="DI5" s="46"/>
-      <c r="DJ5" s="46"/>
-      <c r="DK5" s="46"/>
-      <c r="DL5" s="46"/>
-      <c r="DM5" s="46"/>
-      <c r="DN5" s="46"/>
-      <c r="DO5" s="46"/>
-      <c r="DP5" s="46"/>
-      <c r="DQ5" s="46"/>
-      <c r="DR5" s="47"/>
-      <c r="DS5" s="45">
+      <c r="DH5" s="44"/>
+      <c r="DI5" s="44"/>
+      <c r="DJ5" s="44"/>
+      <c r="DK5" s="44"/>
+      <c r="DL5" s="44"/>
+      <c r="DM5" s="44"/>
+      <c r="DN5" s="44"/>
+      <c r="DO5" s="44"/>
+      <c r="DP5" s="44"/>
+      <c r="DQ5" s="44"/>
+      <c r="DR5" s="45"/>
+      <c r="DS5" s="43">
         <v>2008</v>
       </c>
-      <c r="DT5" s="46"/>
-      <c r="DU5" s="46"/>
-      <c r="DV5" s="46"/>
-      <c r="DW5" s="46"/>
-      <c r="DX5" s="46"/>
-      <c r="DY5" s="46"/>
-      <c r="DZ5" s="46"/>
-      <c r="EA5" s="46"/>
-      <c r="EB5" s="46"/>
-      <c r="EC5" s="46"/>
-      <c r="ED5" s="47"/>
-      <c r="EE5" s="45">
+      <c r="DT5" s="44"/>
+      <c r="DU5" s="44"/>
+      <c r="DV5" s="44"/>
+      <c r="DW5" s="44"/>
+      <c r="DX5" s="44"/>
+      <c r="DY5" s="44"/>
+      <c r="DZ5" s="44"/>
+      <c r="EA5" s="44"/>
+      <c r="EB5" s="44"/>
+      <c r="EC5" s="44"/>
+      <c r="ED5" s="45"/>
+      <c r="EE5" s="43">
         <v>2009</v>
       </c>
-      <c r="EF5" s="46"/>
-      <c r="EG5" s="46"/>
-      <c r="EH5" s="46"/>
-      <c r="EI5" s="46"/>
-      <c r="EJ5" s="46"/>
-      <c r="EK5" s="46"/>
-      <c r="EL5" s="46"/>
-      <c r="EM5" s="46"/>
-      <c r="EN5" s="46"/>
-      <c r="EO5" s="46"/>
-      <c r="EP5" s="47"/>
-      <c r="EQ5" s="45">
+      <c r="EF5" s="44"/>
+      <c r="EG5" s="44"/>
+      <c r="EH5" s="44"/>
+      <c r="EI5" s="44"/>
+      <c r="EJ5" s="44"/>
+      <c r="EK5" s="44"/>
+      <c r="EL5" s="44"/>
+      <c r="EM5" s="44"/>
+      <c r="EN5" s="44"/>
+      <c r="EO5" s="44"/>
+      <c r="EP5" s="45"/>
+      <c r="EQ5" s="43">
         <v>2010</v>
       </c>
-      <c r="ER5" s="46"/>
-      <c r="ES5" s="46"/>
-      <c r="ET5" s="46"/>
-      <c r="EU5" s="46"/>
-      <c r="EV5" s="46"/>
-      <c r="EW5" s="46"/>
-      <c r="EX5" s="46"/>
-      <c r="EY5" s="46"/>
-      <c r="EZ5" s="46"/>
-      <c r="FA5" s="46"/>
-      <c r="FB5" s="47"/>
-      <c r="FC5" s="45">
+      <c r="ER5" s="44"/>
+      <c r="ES5" s="44"/>
+      <c r="ET5" s="44"/>
+      <c r="EU5" s="44"/>
+      <c r="EV5" s="44"/>
+      <c r="EW5" s="44"/>
+      <c r="EX5" s="44"/>
+      <c r="EY5" s="44"/>
+      <c r="EZ5" s="44"/>
+      <c r="FA5" s="44"/>
+      <c r="FB5" s="45"/>
+      <c r="FC5" s="43">
         <v>2011</v>
       </c>
-      <c r="FD5" s="46"/>
-      <c r="FE5" s="46"/>
-      <c r="FF5" s="46"/>
-      <c r="FG5" s="46"/>
-      <c r="FH5" s="46"/>
-      <c r="FI5" s="46"/>
-      <c r="FJ5" s="46"/>
-      <c r="FK5" s="46"/>
-      <c r="FL5" s="46"/>
-      <c r="FM5" s="46"/>
-      <c r="FN5" s="47"/>
-      <c r="FO5" s="45">
+      <c r="FD5" s="44"/>
+      <c r="FE5" s="44"/>
+      <c r="FF5" s="44"/>
+      <c r="FG5" s="44"/>
+      <c r="FH5" s="44"/>
+      <c r="FI5" s="44"/>
+      <c r="FJ5" s="44"/>
+      <c r="FK5" s="44"/>
+      <c r="FL5" s="44"/>
+      <c r="FM5" s="44"/>
+      <c r="FN5" s="45"/>
+      <c r="FO5" s="43">
         <v>2012</v>
       </c>
-      <c r="FP5" s="46"/>
-      <c r="FQ5" s="46"/>
-      <c r="FR5" s="46"/>
-      <c r="FS5" s="46"/>
-      <c r="FT5" s="46"/>
-      <c r="FU5" s="46"/>
-      <c r="FV5" s="46"/>
-      <c r="FW5" s="46"/>
-      <c r="FX5" s="46"/>
-      <c r="FY5" s="46"/>
-      <c r="FZ5" s="47"/>
-      <c r="GA5" s="45">
+      <c r="FP5" s="44"/>
+      <c r="FQ5" s="44"/>
+      <c r="FR5" s="44"/>
+      <c r="FS5" s="44"/>
+      <c r="FT5" s="44"/>
+      <c r="FU5" s="44"/>
+      <c r="FV5" s="44"/>
+      <c r="FW5" s="44"/>
+      <c r="FX5" s="44"/>
+      <c r="FY5" s="44"/>
+      <c r="FZ5" s="45"/>
+      <c r="GA5" s="43">
         <v>2013</v>
       </c>
-      <c r="GB5" s="46"/>
-      <c r="GC5" s="46"/>
-      <c r="GD5" s="46"/>
-      <c r="GE5" s="46"/>
-      <c r="GF5" s="46"/>
-      <c r="GG5" s="46"/>
-      <c r="GH5" s="46"/>
-      <c r="GI5" s="46"/>
-      <c r="GJ5" s="46"/>
-      <c r="GK5" s="46"/>
-      <c r="GL5" s="47"/>
-      <c r="GM5" s="45">
+      <c r="GB5" s="44"/>
+      <c r="GC5" s="44"/>
+      <c r="GD5" s="44"/>
+      <c r="GE5" s="44"/>
+      <c r="GF5" s="44"/>
+      <c r="GG5" s="44"/>
+      <c r="GH5" s="44"/>
+      <c r="GI5" s="44"/>
+      <c r="GJ5" s="44"/>
+      <c r="GK5" s="44"/>
+      <c r="GL5" s="45"/>
+      <c r="GM5" s="43">
         <v>2014</v>
       </c>
-      <c r="GN5" s="46"/>
-      <c r="GO5" s="46"/>
-      <c r="GP5" s="46"/>
-      <c r="GQ5" s="46"/>
-      <c r="GR5" s="46"/>
-      <c r="GS5" s="46"/>
-      <c r="GT5" s="46"/>
-      <c r="GU5" s="46"/>
-      <c r="GV5" s="46"/>
-      <c r="GW5" s="46"/>
-      <c r="GX5" s="47"/>
-      <c r="GY5" s="45">
+      <c r="GN5" s="44"/>
+      <c r="GO5" s="44"/>
+      <c r="GP5" s="44"/>
+      <c r="GQ5" s="44"/>
+      <c r="GR5" s="44"/>
+      <c r="GS5" s="44"/>
+      <c r="GT5" s="44"/>
+      <c r="GU5" s="44"/>
+      <c r="GV5" s="44"/>
+      <c r="GW5" s="44"/>
+      <c r="GX5" s="45"/>
+      <c r="GY5" s="43">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="46"/>
-      <c r="HA5" s="46"/>
-      <c r="HB5" s="46"/>
-      <c r="HC5" s="46"/>
-      <c r="HD5" s="46"/>
-      <c r="HE5" s="46"/>
-      <c r="HF5" s="46"/>
-      <c r="HG5" s="46"/>
-      <c r="HH5" s="46"/>
-      <c r="HI5" s="46"/>
-      <c r="HJ5" s="47"/>
-      <c r="HK5" s="45">
+      <c r="GZ5" s="44"/>
+      <c r="HA5" s="44"/>
+      <c r="HB5" s="44"/>
+      <c r="HC5" s="44"/>
+      <c r="HD5" s="44"/>
+      <c r="HE5" s="44"/>
+      <c r="HF5" s="44"/>
+      <c r="HG5" s="44"/>
+      <c r="HH5" s="44"/>
+      <c r="HI5" s="44"/>
+      <c r="HJ5" s="45"/>
+      <c r="HK5" s="43">
         <v>2016</v>
       </c>
-      <c r="HL5" s="46"/>
-      <c r="HM5" s="46"/>
-      <c r="HN5" s="46"/>
-      <c r="HO5" s="46"/>
-      <c r="HP5" s="46"/>
-      <c r="HQ5" s="46"/>
-      <c r="HR5" s="46"/>
-      <c r="HS5" s="46"/>
-      <c r="HT5" s="46"/>
-      <c r="HU5" s="46"/>
-      <c r="HV5" s="47"/>
-      <c r="HW5" s="45">
+      <c r="HL5" s="44"/>
+      <c r="HM5" s="44"/>
+      <c r="HN5" s="44"/>
+      <c r="HO5" s="44"/>
+      <c r="HP5" s="44"/>
+      <c r="HQ5" s="44"/>
+      <c r="HR5" s="44"/>
+      <c r="HS5" s="44"/>
+      <c r="HT5" s="44"/>
+      <c r="HU5" s="44"/>
+      <c r="HV5" s="45"/>
+      <c r="HW5" s="43">
         <v>2017</v>
       </c>
-      <c r="HX5" s="46"/>
-      <c r="HY5" s="46"/>
-      <c r="HZ5" s="46"/>
-      <c r="IA5" s="46"/>
-      <c r="IB5" s="46"/>
-      <c r="IC5" s="46"/>
-      <c r="ID5" s="46"/>
-      <c r="IE5" s="46"/>
-      <c r="IF5" s="46"/>
-      <c r="IG5" s="46"/>
-      <c r="IH5" s="47"/>
-      <c r="II5" s="45">
+      <c r="HX5" s="44"/>
+      <c r="HY5" s="44"/>
+      <c r="HZ5" s="44"/>
+      <c r="IA5" s="44"/>
+      <c r="IB5" s="44"/>
+      <c r="IC5" s="44"/>
+      <c r="ID5" s="44"/>
+      <c r="IE5" s="44"/>
+      <c r="IF5" s="44"/>
+      <c r="IG5" s="44"/>
+      <c r="IH5" s="45"/>
+      <c r="II5" s="43">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="46"/>
-      <c r="IK5" s="46"/>
-      <c r="IL5" s="46"/>
-      <c r="IM5" s="46"/>
-      <c r="IN5" s="46"/>
-      <c r="IO5" s="46"/>
-      <c r="IP5" s="46"/>
-      <c r="IQ5" s="46"/>
-      <c r="IR5" s="46"/>
-      <c r="IS5" s="46"/>
-      <c r="IT5" s="47"/>
-      <c r="IU5" s="45">
+      <c r="IJ5" s="44"/>
+      <c r="IK5" s="44"/>
+      <c r="IL5" s="44"/>
+      <c r="IM5" s="44"/>
+      <c r="IN5" s="44"/>
+      <c r="IO5" s="44"/>
+      <c r="IP5" s="44"/>
+      <c r="IQ5" s="44"/>
+      <c r="IR5" s="44"/>
+      <c r="IS5" s="44"/>
+      <c r="IT5" s="45"/>
+      <c r="IU5" s="43">
         <v>2019</v>
       </c>
-      <c r="IV5" s="46"/>
-      <c r="IW5" s="46"/>
-      <c r="IX5" s="46"/>
-      <c r="IY5" s="46"/>
-      <c r="IZ5" s="46"/>
-      <c r="JA5" s="46"/>
-      <c r="JB5" s="46"/>
-      <c r="JC5" s="46"/>
-      <c r="JD5" s="46"/>
-      <c r="JE5" s="46"/>
-      <c r="JF5" s="47"/>
-      <c r="JG5" s="45">
+      <c r="IV5" s="44"/>
+      <c r="IW5" s="44"/>
+      <c r="IX5" s="44"/>
+      <c r="IY5" s="44"/>
+      <c r="IZ5" s="44"/>
+      <c r="JA5" s="44"/>
+      <c r="JB5" s="44"/>
+      <c r="JC5" s="44"/>
+      <c r="JD5" s="44"/>
+      <c r="JE5" s="44"/>
+      <c r="JF5" s="45"/>
+      <c r="JG5" s="43">
         <v>2020</v>
       </c>
-      <c r="JH5" s="46"/>
-      <c r="JI5" s="46"/>
-      <c r="JJ5" s="46"/>
-      <c r="JK5" s="46"/>
-      <c r="JL5" s="46"/>
-      <c r="JM5" s="46"/>
-      <c r="JN5" s="46"/>
-      <c r="JO5" s="46"/>
-      <c r="JP5" s="46"/>
-      <c r="JQ5" s="46"/>
-      <c r="JR5" s="47"/>
-      <c r="JS5" s="45">
+      <c r="JH5" s="44"/>
+      <c r="JI5" s="44"/>
+      <c r="JJ5" s="44"/>
+      <c r="JK5" s="44"/>
+      <c r="JL5" s="44"/>
+      <c r="JM5" s="44"/>
+      <c r="JN5" s="44"/>
+      <c r="JO5" s="44"/>
+      <c r="JP5" s="44"/>
+      <c r="JQ5" s="44"/>
+      <c r="JR5" s="45"/>
+      <c r="JS5" s="43">
         <v>2021</v>
       </c>
-      <c r="JT5" s="46"/>
-      <c r="JU5" s="46"/>
-      <c r="JV5" s="46"/>
-      <c r="JW5" s="46"/>
-      <c r="JX5" s="46"/>
-      <c r="JY5" s="46"/>
-      <c r="JZ5" s="46"/>
-      <c r="KA5" s="46"/>
-      <c r="KB5" s="46"/>
-      <c r="KC5" s="46"/>
-      <c r="KD5" s="46"/>
-      <c r="KE5" s="45">
+      <c r="JT5" s="44"/>
+      <c r="JU5" s="44"/>
+      <c r="JV5" s="44"/>
+      <c r="JW5" s="44"/>
+      <c r="JX5" s="44"/>
+      <c r="JY5" s="44"/>
+      <c r="JZ5" s="44"/>
+      <c r="KA5" s="44"/>
+      <c r="KB5" s="44"/>
+      <c r="KC5" s="44"/>
+      <c r="KD5" s="44"/>
+      <c r="KE5" s="43">
         <v>2022</v>
       </c>
-      <c r="KF5" s="46"/>
-      <c r="KG5" s="46"/>
-      <c r="KH5" s="46"/>
-      <c r="KI5" s="46"/>
-      <c r="KJ5" s="46"/>
-      <c r="KK5" s="47"/>
+      <c r="KF5" s="44"/>
+      <c r="KG5" s="44"/>
+      <c r="KH5" s="44"/>
+      <c r="KI5" s="44"/>
+      <c r="KJ5" s="44"/>
+      <c r="KK5" s="44"/>
+      <c r="KL5" s="45"/>
     </row>
-    <row r="6" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+    <row r="6" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2579,11 +2580,14 @@
       <c r="KJ6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="KK6" s="11" t="s">
+      <c r="KK6" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="KL6" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:297" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:298" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3472,11 +3476,14 @@
       <c r="KJ7" s="38">
         <v>114765</v>
       </c>
-      <c r="KK7" s="31">
+      <c r="KK7" s="38">
         <v>112865</v>
       </c>
+      <c r="KL7" s="31">
+        <v>115219</v>
+      </c>
     </row>
-    <row r="8" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4363,11 +4370,14 @@
       <c r="KJ8" s="3">
         <v>22741</v>
       </c>
-      <c r="KK8" s="4">
+      <c r="KK8" s="3">
         <v>21730</v>
       </c>
+      <c r="KL8" s="4">
+        <v>22245</v>
+      </c>
     </row>
-    <row r="9" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5254,11 +5264,14 @@
       <c r="KJ9" s="3">
         <v>5052</v>
       </c>
-      <c r="KK9" s="4">
+      <c r="KK9" s="3">
         <v>5206</v>
       </c>
+      <c r="KL9" s="4">
+        <v>5141</v>
+      </c>
     </row>
-    <row r="10" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6145,11 +6158,14 @@
       <c r="KJ10" s="3">
         <v>16863</v>
       </c>
-      <c r="KK10" s="4">
+      <c r="KK10" s="3">
         <v>16914</v>
       </c>
+      <c r="KL10" s="4">
+        <v>17371</v>
+      </c>
     </row>
-    <row r="11" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7036,11 +7052,14 @@
       <c r="KJ11" s="3">
         <v>17357</v>
       </c>
-      <c r="KK11" s="4">
+      <c r="KK11" s="3">
         <v>17205</v>
       </c>
+      <c r="KL11" s="4">
+        <v>17712</v>
+      </c>
     </row>
-    <row r="12" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7927,11 +7946,14 @@
       <c r="KJ12" s="3">
         <v>15556</v>
       </c>
-      <c r="KK12" s="4">
+      <c r="KK12" s="3">
         <v>15437</v>
       </c>
+      <c r="KL12" s="4">
+        <v>15701</v>
+      </c>
     </row>
-    <row r="13" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8818,11 +8840,14 @@
       <c r="KJ13" s="3">
         <v>13925</v>
       </c>
-      <c r="KK13" s="4">
+      <c r="KK13" s="3">
         <v>13640</v>
       </c>
+      <c r="KL13" s="4">
+        <v>13909</v>
+      </c>
     </row>
-    <row r="14" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9709,11 +9734,14 @@
       <c r="KJ14" s="3">
         <v>11950</v>
       </c>
-      <c r="KK14" s="4">
+      <c r="KK14" s="3">
         <v>11746</v>
       </c>
+      <c r="KL14" s="4">
+        <v>11973</v>
+      </c>
     </row>
-    <row r="15" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10600,11 +10628,14 @@
       <c r="KJ15" s="3">
         <v>11307</v>
       </c>
-      <c r="KK15" s="4">
+      <c r="KK15" s="3">
         <v>10978</v>
       </c>
+      <c r="KL15" s="4">
+        <v>11160</v>
+      </c>
     </row>
-    <row r="16" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11491,11 +11522,14 @@
       <c r="KJ16" s="39">
         <v>14</v>
       </c>
-      <c r="KK16" s="37">
+      <c r="KK16" s="39">
         <v>9</v>
       </c>
+      <c r="KL16" s="37">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12384,11 +12418,14 @@
       <c r="KJ17" s="38">
         <v>393243</v>
       </c>
-      <c r="KK17" s="31">
+      <c r="KK17" s="38">
         <v>392581</v>
       </c>
+      <c r="KL17" s="31">
+        <v>394460</v>
+      </c>
     </row>
-    <row r="18" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13275,11 +13312,14 @@
       <c r="KJ18" s="3">
         <v>59506</v>
       </c>
-      <c r="KK18" s="4">
+      <c r="KK18" s="3">
         <v>59905</v>
       </c>
+      <c r="KL18" s="4">
+        <v>60693</v>
+      </c>
     </row>
-    <row r="19" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14166,11 +14206,14 @@
       <c r="KJ19" s="3">
         <v>10559</v>
       </c>
-      <c r="KK19" s="4">
+      <c r="KK19" s="3">
         <v>10422</v>
       </c>
+      <c r="KL19" s="4">
+        <v>10345</v>
+      </c>
     </row>
-    <row r="20" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15057,11 +15100,14 @@
       <c r="KJ20" s="3">
         <v>54594</v>
       </c>
-      <c r="KK20" s="4">
+      <c r="KK20" s="3">
         <v>54439</v>
       </c>
+      <c r="KL20" s="4">
+        <v>54158</v>
+      </c>
     </row>
-    <row r="21" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -15948,11 +15994,14 @@
       <c r="KJ21" s="3">
         <v>65930</v>
       </c>
-      <c r="KK21" s="4">
+      <c r="KK21" s="3">
         <v>65688</v>
       </c>
+      <c r="KL21" s="4">
+        <v>65774</v>
+      </c>
     </row>
-    <row r="22" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16839,11 +16888,14 @@
       <c r="KJ22" s="3">
         <v>64000</v>
       </c>
-      <c r="KK22" s="4">
+      <c r="KK22" s="3">
         <v>63823</v>
       </c>
+      <c r="KL22" s="4">
+        <v>64135</v>
+      </c>
     </row>
-    <row r="23" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17730,11 +17782,14 @@
       <c r="KJ23" s="3">
         <v>55105</v>
       </c>
-      <c r="KK23" s="4">
+      <c r="KK23" s="3">
         <v>54930</v>
       </c>
+      <c r="KL23" s="4">
+        <v>55290</v>
+      </c>
     </row>
-    <row r="24" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18621,11 +18676,14 @@
       <c r="KJ24" s="3">
         <v>45234</v>
       </c>
-      <c r="KK24" s="4">
+      <c r="KK24" s="3">
         <v>45160</v>
       </c>
+      <c r="KL24" s="4">
+        <v>45491</v>
+      </c>
     </row>
-    <row r="25" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -19512,11 +19570,14 @@
       <c r="KJ25" s="3">
         <v>38313</v>
       </c>
-      <c r="KK25" s="4">
+      <c r="KK25" s="3">
         <v>38213</v>
       </c>
+      <c r="KL25" s="4">
+        <v>38574</v>
+      </c>
     </row>
-    <row r="26" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -20397,11 +20458,12 @@
       <c r="KJ26" s="39">
         <v>2</v>
       </c>
-      <c r="KK26" s="37">
+      <c r="KK26" s="39">
         <v>1</v>
       </c>
+      <c r="KL26" s="37"/>
     </row>
-    <row r="27" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -21290,11 +21352,14 @@
       <c r="KJ27" s="38">
         <v>140587</v>
       </c>
-      <c r="KK27" s="31">
+      <c r="KK27" s="38">
         <v>142342</v>
       </c>
+      <c r="KL27" s="31">
+        <v>144641</v>
+      </c>
     </row>
-    <row r="28" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -22181,11 +22246,14 @@
       <c r="KJ28" s="3">
         <v>25668</v>
       </c>
-      <c r="KK28" s="4">
+      <c r="KK28" s="3">
         <v>25883</v>
       </c>
+      <c r="KL28" s="4">
+        <v>26178</v>
+      </c>
     </row>
-    <row r="29" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -23072,11 +23140,14 @@
       <c r="KJ29" s="3">
         <v>4648</v>
       </c>
-      <c r="KK29" s="4">
+      <c r="KK29" s="3">
         <v>4730</v>
       </c>
+      <c r="KL29" s="4">
+        <v>4742</v>
+      </c>
     </row>
-    <row r="30" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -23963,11 +24034,14 @@
       <c r="KJ30" s="3">
         <v>17609</v>
       </c>
-      <c r="KK30" s="4">
+      <c r="KK30" s="3">
         <v>17892</v>
       </c>
+      <c r="KL30" s="4">
+        <v>18260</v>
+      </c>
     </row>
-    <row r="31" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -24854,11 +24928,14 @@
       <c r="KJ31" s="3">
         <v>22384</v>
       </c>
-      <c r="KK31" s="4">
+      <c r="KK31" s="3">
         <v>22564</v>
       </c>
+      <c r="KL31" s="4">
+        <v>23140</v>
+      </c>
     </row>
-    <row r="32" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -25745,11 +25822,14 @@
       <c r="KJ32" s="3">
         <v>21262</v>
       </c>
-      <c r="KK32" s="4">
+      <c r="KK32" s="3">
         <v>21561</v>
       </c>
+      <c r="KL32" s="4">
+        <v>21843</v>
+      </c>
     </row>
-    <row r="33" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -26636,11 +26716,14 @@
       <c r="KJ33" s="3">
         <v>18975</v>
       </c>
-      <c r="KK33" s="4">
+      <c r="KK33" s="3">
         <v>19095</v>
       </c>
+      <c r="KL33" s="4">
+        <v>19373</v>
+      </c>
     </row>
-    <row r="34" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -27527,11 +27610,14 @@
       <c r="KJ34" s="3">
         <v>15978</v>
       </c>
-      <c r="KK34" s="4">
+      <c r="KK34" s="3">
         <v>16308</v>
       </c>
+      <c r="KL34" s="4">
+        <v>16582</v>
+      </c>
     </row>
-    <row r="35" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -28418,11 +28504,14 @@
       <c r="KJ35" s="3">
         <v>14047</v>
       </c>
-      <c r="KK35" s="4">
+      <c r="KK35" s="3">
         <v>14289</v>
       </c>
+      <c r="KL35" s="4">
+        <v>14500</v>
+      </c>
     </row>
-    <row r="36" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -29309,11 +29398,14 @@
       <c r="KJ36" s="39">
         <v>16</v>
       </c>
-      <c r="KK36" s="37">
+      <c r="KK36" s="39">
         <v>20</v>
       </c>
+      <c r="KL36" s="37">
+        <v>23</v>
+      </c>
     </row>
-    <row r="37" spans="1:297" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:298" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -30202,11 +30294,14 @@
       <c r="KJ37" s="40">
         <v>9738</v>
       </c>
-      <c r="KK37" s="33">
+      <c r="KK37" s="40">
         <v>9682</v>
       </c>
+      <c r="KL37" s="33">
+        <v>9763</v>
+      </c>
     </row>
-    <row r="38" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -31093,11 +31188,14 @@
       <c r="KJ38" s="3">
         <v>1730</v>
       </c>
-      <c r="KK38" s="4">
+      <c r="KK38" s="3">
         <v>1726</v>
       </c>
+      <c r="KL38" s="4">
+        <v>1728</v>
+      </c>
     </row>
-    <row r="39" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -31984,11 +32082,14 @@
       <c r="KJ39" s="3">
         <v>92</v>
       </c>
-      <c r="KK39" s="4">
+      <c r="KK39" s="3">
         <v>84</v>
       </c>
+      <c r="KL39" s="4">
+        <v>86</v>
+      </c>
     </row>
-    <row r="40" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -32875,11 +32976,14 @@
       <c r="KJ40" s="3">
         <v>541</v>
       </c>
-      <c r="KK40" s="4">
+      <c r="KK40" s="3">
         <v>514</v>
       </c>
+      <c r="KL40" s="4">
+        <v>542</v>
+      </c>
     </row>
-    <row r="41" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -33766,11 +33870,14 @@
       <c r="KJ41" s="3">
         <v>1013</v>
       </c>
-      <c r="KK41" s="4">
+      <c r="KK41" s="3">
         <v>1024</v>
       </c>
+      <c r="KL41" s="4">
+        <v>1024</v>
+      </c>
     </row>
-    <row r="42" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -34657,11 +34764,14 @@
       <c r="KJ42" s="3">
         <v>1408</v>
       </c>
-      <c r="KK42" s="4">
+      <c r="KK42" s="3">
         <v>1374</v>
       </c>
+      <c r="KL42" s="4">
+        <v>1401</v>
+      </c>
     </row>
-    <row r="43" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -35548,11 +35658,14 @@
       <c r="KJ43" s="3">
         <v>1796</v>
       </c>
-      <c r="KK43" s="4">
+      <c r="KK43" s="3">
         <v>1819</v>
       </c>
+      <c r="KL43" s="4">
+        <v>1816</v>
+      </c>
     </row>
-    <row r="44" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -36439,11 +36552,14 @@
       <c r="KJ44" s="3">
         <v>1712</v>
       </c>
-      <c r="KK44" s="4">
+      <c r="KK44" s="3">
         <v>1691</v>
       </c>
+      <c r="KL44" s="4">
+        <v>1716</v>
+      </c>
     </row>
-    <row r="45" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -37330,11 +37446,14 @@
       <c r="KJ45" s="3">
         <v>1446</v>
       </c>
-      <c r="KK45" s="4">
+      <c r="KK45" s="3">
         <v>1450</v>
       </c>
+      <c r="KL45" s="4">
+        <v>1450</v>
+      </c>
     </row>
-    <row r="46" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -37757,9 +37876,10 @@
       <c r="KH46" s="39"/>
       <c r="KI46" s="39"/>
       <c r="KJ46" s="39"/>
-      <c r="KK46" s="37"/>
+      <c r="KK46" s="39"/>
+      <c r="KL46" s="37"/>
     </row>
-    <row r="47" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -38648,11 +38768,14 @@
       <c r="KJ47" s="38">
         <v>499541</v>
       </c>
-      <c r="KK47" s="31">
+      <c r="KK47" s="38">
         <v>502349</v>
       </c>
+      <c r="KL47" s="31">
+        <v>505597</v>
+      </c>
     </row>
-    <row r="48" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -39539,11 +39662,14 @@
       <c r="KJ48" s="3">
         <v>75760</v>
       </c>
-      <c r="KK48" s="4">
+      <c r="KK48" s="3">
         <v>76440</v>
       </c>
+      <c r="KL48" s="4">
+        <v>77261</v>
+      </c>
     </row>
-    <row r="49" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -40430,11 +40556,14 @@
       <c r="KJ49" s="3">
         <v>14474</v>
       </c>
-      <c r="KK49" s="4">
+      <c r="KK49" s="3">
         <v>14427</v>
       </c>
+      <c r="KL49" s="4">
+        <v>14357</v>
+      </c>
     </row>
-    <row r="50" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -41321,11 +41450,14 @@
       <c r="KJ50" s="3">
         <v>70256</v>
       </c>
-      <c r="KK50" s="4">
+      <c r="KK50" s="3">
         <v>70958</v>
       </c>
+      <c r="KL50" s="4">
+        <v>71149</v>
+      </c>
     </row>
-    <row r="51" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -42212,11 +42344,14 @@
       <c r="KJ51" s="3">
         <v>81019</v>
       </c>
-      <c r="KK51" s="4">
+      <c r="KK51" s="3">
         <v>81582</v>
       </c>
+      <c r="KL51" s="4">
+        <v>82191</v>
+      </c>
     </row>
-    <row r="52" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -43103,11 +43238,14 @@
       <c r="KJ52" s="3">
         <v>75364</v>
       </c>
-      <c r="KK52" s="4">
+      <c r="KK52" s="3">
         <v>75722</v>
       </c>
+      <c r="KL52" s="4">
+        <v>76203</v>
+      </c>
     </row>
-    <row r="53" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -43994,11 +44132,14 @@
       <c r="KJ53" s="3">
         <v>67780</v>
       </c>
-      <c r="KK53" s="4">
+      <c r="KK53" s="3">
         <v>67814</v>
       </c>
+      <c r="KL53" s="4">
+        <v>68122</v>
+      </c>
     </row>
-    <row r="54" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -44885,11 +45026,14 @@
       <c r="KJ54" s="3">
         <v>61687</v>
       </c>
-      <c r="KK54" s="4">
+      <c r="KK54" s="3">
         <v>61899</v>
       </c>
+      <c r="KL54" s="4">
+        <v>62391</v>
+      </c>
     </row>
-    <row r="55" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -45776,11 +45920,14 @@
       <c r="KJ55" s="3">
         <v>53192</v>
       </c>
-      <c r="KK55" s="4">
+      <c r="KK55" s="3">
         <v>53498</v>
       </c>
+      <c r="KL55" s="4">
+        <v>53917</v>
+      </c>
     </row>
-    <row r="56" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -46667,11 +46814,14 @@
       <c r="KJ56" s="39">
         <v>9</v>
       </c>
-      <c r="KK56" s="37">
+      <c r="KK56" s="39">
         <v>9</v>
       </c>
+      <c r="KL56" s="37">
+        <v>6</v>
+      </c>
     </row>
-    <row r="57" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -47560,11 +47710,14 @@
       <c r="KJ57" s="38">
         <v>2538</v>
       </c>
-      <c r="KK57" s="31">
+      <c r="KK57" s="38">
         <v>2465</v>
       </c>
+      <c r="KL57" s="31">
+        <v>2477</v>
+      </c>
     </row>
-    <row r="58" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -48451,11 +48604,14 @@
       <c r="KJ58" s="3">
         <v>515</v>
       </c>
-      <c r="KK58" s="4">
+      <c r="KK58" s="3">
         <v>505</v>
       </c>
+      <c r="KL58" s="4">
+        <v>508</v>
+      </c>
     </row>
-    <row r="59" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -49342,11 +49498,14 @@
       <c r="KJ59" s="3">
         <v>38</v>
       </c>
-      <c r="KK59" s="4">
+      <c r="KK59" s="3">
         <v>32</v>
       </c>
+      <c r="KL59" s="4">
+        <v>29</v>
+      </c>
     </row>
-    <row r="60" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -50233,11 +50392,14 @@
       <c r="KJ60" s="3">
         <v>203</v>
       </c>
-      <c r="KK60" s="4">
+      <c r="KK60" s="3">
         <v>194</v>
       </c>
+      <c r="KL60" s="4">
+        <v>193</v>
+      </c>
     </row>
-    <row r="61" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -51124,11 +51286,14 @@
       <c r="KJ61" s="3">
         <v>389</v>
       </c>
-      <c r="KK61" s="4">
+      <c r="KK61" s="3">
         <v>373</v>
       </c>
+      <c r="KL61" s="4">
+        <v>377</v>
+      </c>
     </row>
-    <row r="62" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -52015,11 +52180,14 @@
       <c r="KJ62" s="3">
         <v>398</v>
       </c>
-      <c r="KK62" s="4">
+      <c r="KK62" s="3">
         <v>393</v>
       </c>
+      <c r="KL62" s="4">
+        <v>393</v>
+      </c>
     </row>
-    <row r="63" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -52906,11 +53074,14 @@
       <c r="KJ63" s="3">
         <v>389</v>
       </c>
-      <c r="KK63" s="4">
+      <c r="KK63" s="3">
         <v>374</v>
       </c>
+      <c r="KL63" s="4">
+        <v>377</v>
+      </c>
     </row>
-    <row r="64" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -53797,11 +53968,14 @@
       <c r="KJ64" s="3">
         <v>330</v>
       </c>
-      <c r="KK64" s="4">
+      <c r="KK64" s="3">
         <v>322</v>
       </c>
+      <c r="KL64" s="4">
+        <v>325</v>
+      </c>
     </row>
-    <row r="65" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -54688,11 +54862,14 @@
       <c r="KJ65" s="3">
         <v>276</v>
       </c>
-      <c r="KK65" s="4">
+      <c r="KK65" s="3">
         <v>272</v>
       </c>
+      <c r="KL65" s="4">
+        <v>275</v>
+      </c>
     </row>
-    <row r="66" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -55049,9 +55226,10 @@
       <c r="KH66" s="39"/>
       <c r="KI66" s="39"/>
       <c r="KJ66" s="39"/>
-      <c r="KK66" s="37"/>
+      <c r="KK66" s="39"/>
+      <c r="KL66" s="37"/>
     </row>
-    <row r="67" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -55940,11 +56118,14 @@
       <c r="KJ67" s="38">
         <v>634764</v>
       </c>
-      <c r="KK67" s="31">
+      <c r="KK67" s="38">
         <v>632848</v>
       </c>
+      <c r="KL67" s="31">
+        <v>636862</v>
+      </c>
     </row>
-    <row r="68" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -56831,11 +57012,14 @@
       <c r="KJ68" s="3">
         <v>133026</v>
       </c>
-      <c r="KK68" s="4">
+      <c r="KK68" s="3">
         <v>132522</v>
       </c>
+      <c r="KL68" s="4">
+        <v>133602</v>
+      </c>
     </row>
-    <row r="69" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -57722,11 +57906,14 @@
       <c r="KJ69" s="3">
         <v>10487</v>
       </c>
-      <c r="KK69" s="4">
+      <c r="KK69" s="3">
         <v>10511</v>
       </c>
+      <c r="KL69" s="4">
+        <v>10257</v>
+      </c>
     </row>
-    <row r="70" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -58613,11 +58800,14 @@
       <c r="KJ70" s="3">
         <v>62565</v>
       </c>
-      <c r="KK70" s="4">
+      <c r="KK70" s="3">
         <v>62423</v>
       </c>
+      <c r="KL70" s="4">
+        <v>62084</v>
+      </c>
     </row>
-    <row r="71" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -59504,11 +59694,14 @@
       <c r="KJ71" s="3">
         <v>98917</v>
       </c>
-      <c r="KK71" s="4">
+      <c r="KK71" s="3">
         <v>98631</v>
       </c>
+      <c r="KL71" s="4">
+        <v>99348</v>
+      </c>
     </row>
-    <row r="72" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -60395,11 +60588,14 @@
       <c r="KJ72" s="3">
         <v>95189</v>
       </c>
-      <c r="KK72" s="4">
+      <c r="KK72" s="3">
         <v>94937</v>
       </c>
+      <c r="KL72" s="4">
+        <v>95960</v>
+      </c>
     </row>
-    <row r="73" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -61286,11 +61482,14 @@
       <c r="KJ73" s="3">
         <v>86582</v>
       </c>
-      <c r="KK73" s="4">
+      <c r="KK73" s="3">
         <v>86222</v>
       </c>
+      <c r="KL73" s="4">
+        <v>86955</v>
+      </c>
     </row>
-    <row r="74" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -62177,11 +62376,14 @@
       <c r="KJ74" s="3">
         <v>77753</v>
       </c>
-      <c r="KK74" s="4">
+      <c r="KK74" s="3">
         <v>77503</v>
       </c>
+      <c r="KL74" s="4">
+        <v>77963</v>
+      </c>
     </row>
-    <row r="75" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -63068,11 +63270,14 @@
       <c r="KJ75" s="3">
         <v>70242</v>
       </c>
-      <c r="KK75" s="4">
+      <c r="KK75" s="3">
         <v>70095</v>
       </c>
+      <c r="KL75" s="4">
+        <v>70687</v>
+      </c>
     </row>
-    <row r="76" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -63959,11 +64164,14 @@
       <c r="KJ76" s="39">
         <v>3</v>
       </c>
-      <c r="KK76" s="37">
+      <c r="KK76" s="39">
         <v>4</v>
       </c>
+      <c r="KL76" s="37">
+        <v>6</v>
+      </c>
     </row>
-    <row r="77" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -64852,11 +65060,14 @@
       <c r="KJ77" s="38">
         <v>101579</v>
       </c>
-      <c r="KK77" s="31">
+      <c r="KK77" s="38">
         <v>101385</v>
       </c>
+      <c r="KL77" s="31">
+        <v>101608</v>
+      </c>
     </row>
-    <row r="78" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -65743,11 +65954,14 @@
       <c r="KJ78" s="3">
         <v>18093</v>
       </c>
-      <c r="KK78" s="4">
+      <c r="KK78" s="3">
         <v>18211</v>
       </c>
+      <c r="KL78" s="4">
+        <v>18321</v>
+      </c>
     </row>
-    <row r="79" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -66634,11 +66848,14 @@
       <c r="KJ79" s="3">
         <v>1671</v>
       </c>
-      <c r="KK79" s="4">
+      <c r="KK79" s="3">
         <v>1620</v>
       </c>
+      <c r="KL79" s="4">
+        <v>1662</v>
+      </c>
     </row>
-    <row r="80" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -67525,11 +67742,14 @@
       <c r="KJ80" s="3">
         <v>11517</v>
       </c>
-      <c r="KK80" s="4">
+      <c r="KK80" s="3">
         <v>11393</v>
       </c>
+      <c r="KL80" s="4">
+        <v>11360</v>
+      </c>
     </row>
-    <row r="81" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -68416,11 +68636,14 @@
       <c r="KJ81" s="3">
         <v>15510</v>
       </c>
-      <c r="KK81" s="4">
+      <c r="KK81" s="3">
         <v>15483</v>
       </c>
+      <c r="KL81" s="4">
+        <v>15536</v>
+      </c>
     </row>
-    <row r="82" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -69307,11 +69530,14 @@
       <c r="KJ82" s="3">
         <v>15634</v>
       </c>
-      <c r="KK82" s="4">
+      <c r="KK82" s="3">
         <v>15643</v>
       </c>
+      <c r="KL82" s="4">
+        <v>15600</v>
+      </c>
     </row>
-    <row r="83" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -70198,11 +70424,14 @@
       <c r="KJ83" s="3">
         <v>14631</v>
       </c>
-      <c r="KK83" s="4">
+      <c r="KK83" s="3">
         <v>14595</v>
       </c>
+      <c r="KL83" s="4">
+        <v>14623</v>
+      </c>
     </row>
-    <row r="84" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -71089,11 +71318,14 @@
       <c r="KJ84" s="3">
         <v>12863</v>
       </c>
-      <c r="KK84" s="4">
+      <c r="KK84" s="3">
         <v>12817</v>
       </c>
+      <c r="KL84" s="4">
+        <v>12837</v>
+      </c>
     </row>
-    <row r="85" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -71980,11 +72212,14 @@
       <c r="KJ85" s="3">
         <v>11659</v>
       </c>
-      <c r="KK85" s="4">
+      <c r="KK85" s="3">
         <v>11621</v>
       </c>
+      <c r="KL85" s="4">
+        <v>11668</v>
+      </c>
     </row>
-    <row r="86" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -72683,11 +72918,14 @@
       <c r="KJ86" s="39">
         <v>1</v>
       </c>
-      <c r="KK86" s="37">
+      <c r="KK86" s="39">
         <v>2</v>
       </c>
+      <c r="KL86" s="37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -73576,13 +73814,15 @@
       <c r="KJ87" s="41">
         <v>1896755</v>
       </c>
-      <c r="KK87" s="35">
-        <f>KK7+KK17+KK27+KK37+KK47+KK57+KK67+KK77</f>
+      <c r="KK87" s="41">
         <v>1896517</v>
       </c>
-      <c r="KL87" s="24"/>
+      <c r="KL87" s="35">
+        <v>1910627</v>
+      </c>
+      <c r="KM87" s="24"/>
     </row>
-    <row r="88" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
         <v>23</v>
       </c>
@@ -73594,11 +73834,26 @@
       <c r="G88" s="42"/>
       <c r="KD88" s="24"/>
     </row>
-    <row r="89" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:299" x14ac:dyDescent="0.25">
       <c r="KD89" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="KE5:KL5"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JS5:KD5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
+    <mergeCell ref="DS5:ED5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -73614,21 +73869,6 @@
     <mergeCell ref="CI5:CT5"/>
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="KE5:KK5"/>
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JS5:KD5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
-    <mergeCell ref="DS5:ED5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-agosto 2022</t>
+    <t>Enero 1998-septiembre 2022</t>
   </si>
 </sst>
 </file>
@@ -1305,22 +1305,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KM89"/>
+  <dimension ref="A1:KN89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KM18" sqref="KM18"/>
+      <pane xSplit="2" topLeftCell="KD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KN67" sqref="KN67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="298" width="11.875" style="1" customWidth="1"/>
-    <col min="299" max="16384" width="11.375" style="1"/>
+    <col min="3" max="299" width="11.875" style="1" customWidth="1"/>
+    <col min="300" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:298" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:299" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>36</v>
       </c>
@@ -1329,19 +1329,19 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:298" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:299" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
@@ -1693,9 +1693,10 @@
       <c r="KI5" s="44"/>
       <c r="KJ5" s="44"/>
       <c r="KK5" s="44"/>
-      <c r="KL5" s="45"/>
+      <c r="KL5" s="44"/>
+      <c r="KM5" s="45"/>
     </row>
-    <row r="6" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="15" t="s">
@@ -2583,11 +2584,14 @@
       <c r="KK6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="KL6" s="11" t="s">
+      <c r="KL6" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="KM6" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:298" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:299" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3479,11 +3483,14 @@
       <c r="KK7" s="38">
         <v>112865</v>
       </c>
-      <c r="KL7" s="31">
+      <c r="KL7" s="38">
         <v>115219</v>
       </c>
+      <c r="KM7" s="31">
+        <v>119089</v>
+      </c>
     </row>
-    <row r="8" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4373,11 +4380,14 @@
       <c r="KK8" s="3">
         <v>21730</v>
       </c>
-      <c r="KL8" s="4">
+      <c r="KL8" s="3">
         <v>22245</v>
       </c>
+      <c r="KM8" s="4">
+        <v>22683</v>
+      </c>
     </row>
-    <row r="9" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5267,11 +5277,14 @@
       <c r="KK9" s="3">
         <v>5206</v>
       </c>
-      <c r="KL9" s="4">
+      <c r="KL9" s="3">
         <v>5141</v>
       </c>
+      <c r="KM9" s="4">
+        <v>5430</v>
+      </c>
     </row>
-    <row r="10" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6161,11 +6174,14 @@
       <c r="KK10" s="3">
         <v>16914</v>
       </c>
-      <c r="KL10" s="4">
+      <c r="KL10" s="3">
         <v>17371</v>
       </c>
+      <c r="KM10" s="4">
+        <v>18328</v>
+      </c>
     </row>
-    <row r="11" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7055,11 +7071,14 @@
       <c r="KK11" s="3">
         <v>17205</v>
       </c>
-      <c r="KL11" s="4">
+      <c r="KL11" s="3">
         <v>17712</v>
       </c>
+      <c r="KM11" s="4">
+        <v>18348</v>
+      </c>
     </row>
-    <row r="12" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7949,11 +7968,14 @@
       <c r="KK12" s="3">
         <v>15437</v>
       </c>
-      <c r="KL12" s="4">
+      <c r="KL12" s="3">
         <v>15701</v>
       </c>
+      <c r="KM12" s="4">
+        <v>16288</v>
+      </c>
     </row>
-    <row r="13" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8843,11 +8865,14 @@
       <c r="KK13" s="3">
         <v>13640</v>
       </c>
-      <c r="KL13" s="4">
+      <c r="KL13" s="3">
         <v>13909</v>
       </c>
+      <c r="KM13" s="4">
+        <v>14258</v>
+      </c>
     </row>
-    <row r="14" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9737,11 +9762,14 @@
       <c r="KK14" s="3">
         <v>11746</v>
       </c>
-      <c r="KL14" s="4">
+      <c r="KL14" s="3">
         <v>11973</v>
       </c>
+      <c r="KM14" s="4">
+        <v>12311</v>
+      </c>
     </row>
-    <row r="15" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10631,11 +10659,14 @@
       <c r="KK15" s="3">
         <v>10978</v>
       </c>
-      <c r="KL15" s="4">
+      <c r="KL15" s="3">
         <v>11160</v>
       </c>
+      <c r="KM15" s="4">
+        <v>11434</v>
+      </c>
     </row>
-    <row r="16" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11525,11 +11556,14 @@
       <c r="KK16" s="39">
         <v>9</v>
       </c>
-      <c r="KL16" s="37">
+      <c r="KL16" s="39">
         <v>7</v>
       </c>
+      <c r="KM16" s="37">
+        <v>9</v>
+      </c>
     </row>
-    <row r="17" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12421,11 +12455,14 @@
       <c r="KK17" s="38">
         <v>392581</v>
       </c>
-      <c r="KL17" s="31">
+      <c r="KL17" s="38">
         <v>394460</v>
       </c>
+      <c r="KM17" s="31">
+        <v>397012</v>
+      </c>
     </row>
-    <row r="18" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13315,11 +13352,14 @@
       <c r="KK18" s="3">
         <v>59905</v>
       </c>
-      <c r="KL18" s="4">
+      <c r="KL18" s="3">
         <v>60693</v>
       </c>
+      <c r="KM18" s="4">
+        <v>61531</v>
+      </c>
     </row>
-    <row r="19" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14209,11 +14249,14 @@
       <c r="KK19" s="3">
         <v>10422</v>
       </c>
-      <c r="KL19" s="4">
+      <c r="KL19" s="3">
         <v>10345</v>
       </c>
+      <c r="KM19" s="4">
+        <v>10605</v>
+      </c>
     </row>
-    <row r="20" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15103,11 +15146,14 @@
       <c r="KK20" s="3">
         <v>54439</v>
       </c>
-      <c r="KL20" s="4">
+      <c r="KL20" s="3">
         <v>54158</v>
       </c>
+      <c r="KM20" s="4">
+        <v>54523</v>
+      </c>
     </row>
-    <row r="21" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -15997,11 +16043,14 @@
       <c r="KK21" s="3">
         <v>65688</v>
       </c>
-      <c r="KL21" s="4">
+      <c r="KL21" s="3">
         <v>65774</v>
       </c>
+      <c r="KM21" s="4">
+        <v>66174</v>
+      </c>
     </row>
-    <row r="22" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16891,11 +16940,14 @@
       <c r="KK22" s="3">
         <v>63823</v>
       </c>
-      <c r="KL22" s="4">
+      <c r="KL22" s="3">
         <v>64135</v>
       </c>
+      <c r="KM22" s="4">
+        <v>64252</v>
+      </c>
     </row>
-    <row r="23" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17785,11 +17837,14 @@
       <c r="KK23" s="3">
         <v>54930</v>
       </c>
-      <c r="KL23" s="4">
+      <c r="KL23" s="3">
         <v>55290</v>
       </c>
+      <c r="KM23" s="4">
+        <v>55377</v>
+      </c>
     </row>
-    <row r="24" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18679,11 +18734,14 @@
       <c r="KK24" s="3">
         <v>45160</v>
       </c>
-      <c r="KL24" s="4">
+      <c r="KL24" s="3">
         <v>45491</v>
       </c>
+      <c r="KM24" s="4">
+        <v>45796</v>
+      </c>
     </row>
-    <row r="25" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -19573,11 +19631,14 @@
       <c r="KK25" s="3">
         <v>38213</v>
       </c>
-      <c r="KL25" s="4">
+      <c r="KL25" s="3">
         <v>38574</v>
       </c>
+      <c r="KM25" s="4">
+        <v>38752</v>
+      </c>
     </row>
-    <row r="26" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -20461,9 +20522,12 @@
       <c r="KK26" s="39">
         <v>1</v>
       </c>
-      <c r="KL26" s="37"/>
+      <c r="KL26" s="39"/>
+      <c r="KM26" s="37">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -21355,11 +21419,14 @@
       <c r="KK27" s="38">
         <v>142342</v>
       </c>
-      <c r="KL27" s="31">
+      <c r="KL27" s="38">
         <v>144641</v>
       </c>
+      <c r="KM27" s="31">
+        <v>145163</v>
+      </c>
     </row>
-    <row r="28" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -22249,11 +22316,14 @@
       <c r="KK28" s="3">
         <v>25883</v>
       </c>
-      <c r="KL28" s="4">
+      <c r="KL28" s="3">
         <v>26178</v>
       </c>
+      <c r="KM28" s="4">
+        <v>26510</v>
+      </c>
     </row>
-    <row r="29" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -23143,11 +23213,14 @@
       <c r="KK29" s="3">
         <v>4730</v>
       </c>
-      <c r="KL29" s="4">
+      <c r="KL29" s="3">
         <v>4742</v>
       </c>
+      <c r="KM29" s="4">
+        <v>4705</v>
+      </c>
     </row>
-    <row r="30" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -24037,11 +24110,14 @@
       <c r="KK30" s="3">
         <v>17892</v>
       </c>
-      <c r="KL30" s="4">
+      <c r="KL30" s="3">
         <v>18260</v>
       </c>
+      <c r="KM30" s="4">
+        <v>18220</v>
+      </c>
     </row>
-    <row r="31" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -24931,11 +25007,14 @@
       <c r="KK31" s="3">
         <v>22564</v>
       </c>
-      <c r="KL31" s="4">
+      <c r="KL31" s="3">
         <v>23140</v>
       </c>
+      <c r="KM31" s="4">
+        <v>23289</v>
+      </c>
     </row>
-    <row r="32" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -25825,11 +25904,14 @@
       <c r="KK32" s="3">
         <v>21561</v>
       </c>
-      <c r="KL32" s="4">
+      <c r="KL32" s="3">
         <v>21843</v>
       </c>
+      <c r="KM32" s="4">
+        <v>21977</v>
+      </c>
     </row>
-    <row r="33" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -26719,11 +26801,14 @@
       <c r="KK33" s="3">
         <v>19095</v>
       </c>
-      <c r="KL33" s="4">
+      <c r="KL33" s="3">
         <v>19373</v>
       </c>
+      <c r="KM33" s="4">
+        <v>19333</v>
+      </c>
     </row>
-    <row r="34" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -27613,11 +27698,14 @@
       <c r="KK34" s="3">
         <v>16308</v>
       </c>
-      <c r="KL34" s="4">
+      <c r="KL34" s="3">
         <v>16582</v>
       </c>
+      <c r="KM34" s="4">
+        <v>16520</v>
+      </c>
     </row>
-    <row r="35" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -28507,11 +28595,14 @@
       <c r="KK35" s="3">
         <v>14289</v>
       </c>
-      <c r="KL35" s="4">
+      <c r="KL35" s="3">
         <v>14500</v>
       </c>
+      <c r="KM35" s="4">
+        <v>14587</v>
+      </c>
     </row>
-    <row r="36" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -29401,11 +29492,14 @@
       <c r="KK36" s="39">
         <v>20</v>
       </c>
-      <c r="KL36" s="37">
+      <c r="KL36" s="39">
         <v>23</v>
       </c>
+      <c r="KM36" s="37">
+        <v>22</v>
+      </c>
     </row>
-    <row r="37" spans="1:298" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:299" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -30297,11 +30391,14 @@
       <c r="KK37" s="40">
         <v>9682</v>
       </c>
-      <c r="KL37" s="33">
+      <c r="KL37" s="40">
         <v>9763</v>
       </c>
+      <c r="KM37" s="33">
+        <v>9686</v>
+      </c>
     </row>
-    <row r="38" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -31191,11 +31288,14 @@
       <c r="KK38" s="3">
         <v>1726</v>
       </c>
-      <c r="KL38" s="4">
+      <c r="KL38" s="3">
         <v>1728</v>
       </c>
+      <c r="KM38" s="4">
+        <v>1725</v>
+      </c>
     </row>
-    <row r="39" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -32085,11 +32185,14 @@
       <c r="KK39" s="3">
         <v>84</v>
       </c>
-      <c r="KL39" s="4">
+      <c r="KL39" s="3">
         <v>86</v>
       </c>
+      <c r="KM39" s="4">
+        <v>88</v>
+      </c>
     </row>
-    <row r="40" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -32979,11 +33082,14 @@
       <c r="KK40" s="3">
         <v>514</v>
       </c>
-      <c r="KL40" s="4">
+      <c r="KL40" s="3">
         <v>542</v>
       </c>
+      <c r="KM40" s="4">
+        <v>525</v>
+      </c>
     </row>
-    <row r="41" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -33873,11 +33979,14 @@
       <c r="KK41" s="3">
         <v>1024</v>
       </c>
-      <c r="KL41" s="4">
+      <c r="KL41" s="3">
         <v>1024</v>
       </c>
+      <c r="KM41" s="4">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="42" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -34767,11 +34876,14 @@
       <c r="KK42" s="3">
         <v>1374</v>
       </c>
-      <c r="KL42" s="4">
+      <c r="KL42" s="3">
         <v>1401</v>
       </c>
+      <c r="KM42" s="4">
+        <v>1391</v>
+      </c>
     </row>
-    <row r="43" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -35661,11 +35773,14 @@
       <c r="KK43" s="3">
         <v>1819</v>
       </c>
-      <c r="KL43" s="4">
+      <c r="KL43" s="3">
         <v>1816</v>
       </c>
+      <c r="KM43" s="4">
+        <v>1801</v>
+      </c>
     </row>
-    <row r="44" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -36555,11 +36670,14 @@
       <c r="KK44" s="3">
         <v>1691</v>
       </c>
-      <c r="KL44" s="4">
+      <c r="KL44" s="3">
         <v>1716</v>
       </c>
+      <c r="KM44" s="4">
+        <v>1701</v>
+      </c>
     </row>
-    <row r="45" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -37449,11 +37567,14 @@
       <c r="KK45" s="3">
         <v>1450</v>
       </c>
-      <c r="KL45" s="4">
+      <c r="KL45" s="3">
         <v>1450</v>
       </c>
+      <c r="KM45" s="4">
+        <v>1451</v>
+      </c>
     </row>
-    <row r="46" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -37877,9 +37998,10 @@
       <c r="KI46" s="39"/>
       <c r="KJ46" s="39"/>
       <c r="KK46" s="39"/>
-      <c r="KL46" s="37"/>
+      <c r="KL46" s="39"/>
+      <c r="KM46" s="37"/>
     </row>
-    <row r="47" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -38771,11 +38893,14 @@
       <c r="KK47" s="38">
         <v>502349</v>
       </c>
-      <c r="KL47" s="31">
+      <c r="KL47" s="38">
         <v>505597</v>
       </c>
+      <c r="KM47" s="31">
+        <v>509874</v>
+      </c>
     </row>
-    <row r="48" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -39665,11 +39790,14 @@
       <c r="KK48" s="3">
         <v>76440</v>
       </c>
-      <c r="KL48" s="4">
+      <c r="KL48" s="3">
         <v>77261</v>
       </c>
+      <c r="KM48" s="4">
+        <v>78421</v>
+      </c>
     </row>
-    <row r="49" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -40559,11 +40687,14 @@
       <c r="KK49" s="3">
         <v>14427</v>
       </c>
-      <c r="KL49" s="4">
+      <c r="KL49" s="3">
         <v>14357</v>
       </c>
+      <c r="KM49" s="4">
+        <v>14792</v>
+      </c>
     </row>
-    <row r="50" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -41453,11 +41584,14 @@
       <c r="KK50" s="3">
         <v>70958</v>
       </c>
-      <c r="KL50" s="4">
+      <c r="KL50" s="3">
         <v>71149</v>
       </c>
+      <c r="KM50" s="4">
+        <v>71855</v>
+      </c>
     </row>
-    <row r="51" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -42347,11 +42481,14 @@
       <c r="KK51" s="3">
         <v>81582</v>
       </c>
-      <c r="KL51" s="4">
+      <c r="KL51" s="3">
         <v>82191</v>
       </c>
+      <c r="KM51" s="4">
+        <v>82507</v>
+      </c>
     </row>
-    <row r="52" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -43241,11 +43378,14 @@
       <c r="KK52" s="3">
         <v>75722</v>
       </c>
-      <c r="KL52" s="4">
+      <c r="KL52" s="3">
         <v>76203</v>
       </c>
+      <c r="KM52" s="4">
+        <v>76576</v>
+      </c>
     </row>
-    <row r="53" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -44135,11 +44275,14 @@
       <c r="KK53" s="3">
         <v>67814</v>
       </c>
-      <c r="KL53" s="4">
+      <c r="KL53" s="3">
         <v>68122</v>
       </c>
+      <c r="KM53" s="4">
+        <v>68446</v>
+      </c>
     </row>
-    <row r="54" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -45029,11 +45172,14 @@
       <c r="KK54" s="3">
         <v>61899</v>
       </c>
-      <c r="KL54" s="4">
+      <c r="KL54" s="3">
         <v>62391</v>
       </c>
+      <c r="KM54" s="4">
+        <v>63038</v>
+      </c>
     </row>
-    <row r="55" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -45923,11 +46069,14 @@
       <c r="KK55" s="3">
         <v>53498</v>
       </c>
-      <c r="KL55" s="4">
+      <c r="KL55" s="3">
         <v>53917</v>
       </c>
+      <c r="KM55" s="4">
+        <v>54236</v>
+      </c>
     </row>
-    <row r="56" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -46817,11 +46966,14 @@
       <c r="KK56" s="39">
         <v>9</v>
       </c>
-      <c r="KL56" s="37">
+      <c r="KL56" s="39">
         <v>6</v>
       </c>
+      <c r="KM56" s="37">
+        <v>3</v>
+      </c>
     </row>
-    <row r="57" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -47713,11 +47865,14 @@
       <c r="KK57" s="38">
         <v>2465</v>
       </c>
-      <c r="KL57" s="31">
+      <c r="KL57" s="38">
         <v>2477</v>
       </c>
+      <c r="KM57" s="31">
+        <v>2518</v>
+      </c>
     </row>
-    <row r="58" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -48607,11 +48762,14 @@
       <c r="KK58" s="3">
         <v>505</v>
       </c>
-      <c r="KL58" s="4">
+      <c r="KL58" s="3">
         <v>508</v>
       </c>
+      <c r="KM58" s="4">
+        <v>524</v>
+      </c>
     </row>
-    <row r="59" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -49501,11 +49659,14 @@
       <c r="KK59" s="3">
         <v>32</v>
       </c>
-      <c r="KL59" s="4">
+      <c r="KL59" s="3">
         <v>29</v>
       </c>
+      <c r="KM59" s="4">
+        <v>35</v>
+      </c>
     </row>
-    <row r="60" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -50395,11 +50556,14 @@
       <c r="KK60" s="3">
         <v>194</v>
       </c>
-      <c r="KL60" s="4">
+      <c r="KL60" s="3">
         <v>193</v>
       </c>
+      <c r="KM60" s="4">
+        <v>194</v>
+      </c>
     </row>
-    <row r="61" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -51289,11 +51453,14 @@
       <c r="KK61" s="3">
         <v>373</v>
       </c>
-      <c r="KL61" s="4">
+      <c r="KL61" s="3">
         <v>377</v>
       </c>
+      <c r="KM61" s="4">
+        <v>387</v>
+      </c>
     </row>
-    <row r="62" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -52183,11 +52350,14 @@
       <c r="KK62" s="3">
         <v>393</v>
       </c>
-      <c r="KL62" s="4">
+      <c r="KL62" s="3">
         <v>393</v>
       </c>
+      <c r="KM62" s="4">
+        <v>390</v>
+      </c>
     </row>
-    <row r="63" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -53077,11 +53247,14 @@
       <c r="KK63" s="3">
         <v>374</v>
       </c>
-      <c r="KL63" s="4">
+      <c r="KL63" s="3">
         <v>377</v>
       </c>
+      <c r="KM63" s="4">
+        <v>379</v>
+      </c>
     </row>
-    <row r="64" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -53971,11 +54144,14 @@
       <c r="KK64" s="3">
         <v>322</v>
       </c>
-      <c r="KL64" s="4">
+      <c r="KL64" s="3">
         <v>325</v>
       </c>
+      <c r="KM64" s="4">
+        <v>326</v>
+      </c>
     </row>
-    <row r="65" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -54865,11 +55041,14 @@
       <c r="KK65" s="3">
         <v>272</v>
       </c>
-      <c r="KL65" s="4">
+      <c r="KL65" s="3">
         <v>275</v>
       </c>
+      <c r="KM65" s="4">
+        <v>283</v>
+      </c>
     </row>
-    <row r="66" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -55227,9 +55406,10 @@
       <c r="KI66" s="39"/>
       <c r="KJ66" s="39"/>
       <c r="KK66" s="39"/>
-      <c r="KL66" s="37"/>
+      <c r="KL66" s="39"/>
+      <c r="KM66" s="37"/>
     </row>
-    <row r="67" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -56121,11 +56301,14 @@
       <c r="KK67" s="38">
         <v>632848</v>
       </c>
-      <c r="KL67" s="31">
+      <c r="KL67" s="38">
         <v>636862</v>
       </c>
+      <c r="KM67" s="31">
+        <v>640257</v>
+      </c>
     </row>
-    <row r="68" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -57015,11 +57198,14 @@
       <c r="KK68" s="3">
         <v>132522</v>
       </c>
-      <c r="KL68" s="4">
+      <c r="KL68" s="3">
         <v>133602</v>
       </c>
+      <c r="KM68" s="4">
+        <v>134724</v>
+      </c>
     </row>
-    <row r="69" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -57909,11 +58095,14 @@
       <c r="KK69" s="3">
         <v>10511</v>
       </c>
-      <c r="KL69" s="4">
+      <c r="KL69" s="3">
         <v>10257</v>
       </c>
+      <c r="KM69" s="4">
+        <v>10282</v>
+      </c>
     </row>
-    <row r="70" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -58803,11 +58992,14 @@
       <c r="KK70" s="3">
         <v>62423</v>
       </c>
-      <c r="KL70" s="4">
+      <c r="KL70" s="3">
         <v>62084</v>
       </c>
+      <c r="KM70" s="4">
+        <v>62123</v>
+      </c>
     </row>
-    <row r="71" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -59697,11 +59889,14 @@
       <c r="KK71" s="3">
         <v>98631</v>
       </c>
-      <c r="KL71" s="4">
+      <c r="KL71" s="3">
         <v>99348</v>
       </c>
+      <c r="KM71" s="4">
+        <v>99717</v>
+      </c>
     </row>
-    <row r="72" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -60591,11 +60786,14 @@
       <c r="KK72" s="3">
         <v>94937</v>
       </c>
-      <c r="KL72" s="4">
+      <c r="KL72" s="3">
         <v>95960</v>
       </c>
+      <c r="KM72" s="4">
+        <v>96461</v>
+      </c>
     </row>
-    <row r="73" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -61485,11 +61683,14 @@
       <c r="KK73" s="3">
         <v>86222</v>
       </c>
-      <c r="KL73" s="4">
+      <c r="KL73" s="3">
         <v>86955</v>
       </c>
+      <c r="KM73" s="4">
+        <v>87375</v>
+      </c>
     </row>
-    <row r="74" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -62379,11 +62580,14 @@
       <c r="KK74" s="3">
         <v>77503</v>
       </c>
-      <c r="KL74" s="4">
+      <c r="KL74" s="3">
         <v>77963</v>
       </c>
+      <c r="KM74" s="4">
+        <v>78545</v>
+      </c>
     </row>
-    <row r="75" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -63273,11 +63477,14 @@
       <c r="KK75" s="3">
         <v>70095</v>
       </c>
-      <c r="KL75" s="4">
+      <c r="KL75" s="3">
         <v>70687</v>
       </c>
+      <c r="KM75" s="4">
+        <v>71024</v>
+      </c>
     </row>
-    <row r="76" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -64167,11 +64374,14 @@
       <c r="KK76" s="39">
         <v>4</v>
       </c>
-      <c r="KL76" s="37">
+      <c r="KL76" s="39">
         <v>6</v>
       </c>
+      <c r="KM76" s="37">
+        <v>6</v>
+      </c>
     </row>
-    <row r="77" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -65063,11 +65273,14 @@
       <c r="KK77" s="38">
         <v>101385</v>
       </c>
-      <c r="KL77" s="31">
+      <c r="KL77" s="38">
         <v>101608</v>
       </c>
+      <c r="KM77" s="31">
+        <v>104048</v>
+      </c>
     </row>
-    <row r="78" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -65957,11 +66170,14 @@
       <c r="KK78" s="3">
         <v>18211</v>
       </c>
-      <c r="KL78" s="4">
+      <c r="KL78" s="3">
         <v>18321</v>
       </c>
+      <c r="KM78" s="4">
+        <v>18675</v>
+      </c>
     </row>
-    <row r="79" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -66851,11 +67067,14 @@
       <c r="KK79" s="3">
         <v>1620</v>
       </c>
-      <c r="KL79" s="4">
+      <c r="KL79" s="3">
         <v>1662</v>
       </c>
+      <c r="KM79" s="4">
+        <v>1709</v>
+      </c>
     </row>
-    <row r="80" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -67745,11 +67964,14 @@
       <c r="KK80" s="3">
         <v>11393</v>
       </c>
-      <c r="KL80" s="4">
+      <c r="KL80" s="3">
         <v>11360</v>
       </c>
+      <c r="KM80" s="4">
+        <v>11838</v>
+      </c>
     </row>
-    <row r="81" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -68639,11 +68861,14 @@
       <c r="KK81" s="3">
         <v>15483</v>
       </c>
-      <c r="KL81" s="4">
+      <c r="KL81" s="3">
         <v>15536</v>
       </c>
+      <c r="KM81" s="4">
+        <v>15951</v>
+      </c>
     </row>
-    <row r="82" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -69533,11 +69758,14 @@
       <c r="KK82" s="3">
         <v>15643</v>
       </c>
-      <c r="KL82" s="4">
+      <c r="KL82" s="3">
         <v>15600</v>
       </c>
+      <c r="KM82" s="4">
+        <v>15966</v>
+      </c>
     </row>
-    <row r="83" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -70427,11 +70655,14 @@
       <c r="KK83" s="3">
         <v>14595</v>
       </c>
-      <c r="KL83" s="4">
+      <c r="KL83" s="3">
         <v>14623</v>
       </c>
+      <c r="KM83" s="4">
+        <v>14916</v>
+      </c>
     </row>
-    <row r="84" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -71321,11 +71552,14 @@
       <c r="KK84" s="3">
         <v>12817</v>
       </c>
-      <c r="KL84" s="4">
+      <c r="KL84" s="3">
         <v>12837</v>
       </c>
+      <c r="KM84" s="4">
+        <v>13090</v>
+      </c>
     </row>
-    <row r="85" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -72215,11 +72449,14 @@
       <c r="KK85" s="3">
         <v>11621</v>
       </c>
-      <c r="KL85" s="4">
+      <c r="KL85" s="3">
         <v>11668</v>
       </c>
+      <c r="KM85" s="4">
+        <v>11900</v>
+      </c>
     </row>
-    <row r="86" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -72921,11 +73158,14 @@
       <c r="KK86" s="39">
         <v>2</v>
       </c>
-      <c r="KL86" s="37">
+      <c r="KL86" s="39">
         <v>1</v>
       </c>
+      <c r="KM86" s="37">
+        <v>3</v>
+      </c>
     </row>
-    <row r="87" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -73817,12 +74057,15 @@
       <c r="KK87" s="41">
         <v>1896517</v>
       </c>
-      <c r="KL87" s="35">
+      <c r="KL87" s="41">
         <v>1910627</v>
       </c>
-      <c r="KM87" s="24"/>
+      <c r="KM87" s="35">
+        <v>1927647</v>
+      </c>
+      <c r="KN87" s="24"/>
     </row>
-    <row r="88" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
         <v>23</v>
       </c>
@@ -73834,7 +74077,7 @@
       <c r="G88" s="42"/>
       <c r="KD88" s="24"/>
     </row>
-    <row r="89" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:300" x14ac:dyDescent="0.25">
       <c r="KD89" s="24"/>
     </row>
   </sheetData>
@@ -73843,7 +74086,7 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="KE5:KL5"/>
+    <mergeCell ref="KE5:KM5"/>
     <mergeCell ref="IU5:JF5"/>
     <mergeCell ref="JS5:KD5"/>
     <mergeCell ref="JG5:JR5"/>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-septiembre 2022</t>
+    <t>Enero 1998-octubre 2022</t>
   </si>
 </sst>
 </file>
@@ -969,6 +969,12 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -976,12 +982,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1305,22 +1305,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KN89"/>
+  <dimension ref="A1:KO89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="KD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KN67" sqref="KN67"/>
+      <pane xSplit="2" topLeftCell="KE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KJ92" sqref="KJ92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="299" width="11.875" style="1" customWidth="1"/>
-    <col min="300" max="16384" width="11.375" style="1"/>
+    <col min="3" max="300" width="11.875" style="1" customWidth="1"/>
+    <col min="301" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:299" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:300" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>36</v>
       </c>
@@ -1329,376 +1329,377 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:299" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:300" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="45">
         <v>1998</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="43">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="45">
         <v>1999</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="43">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="45">
         <v>2000</v>
       </c>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="43">
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="45">
         <v>2001</v>
       </c>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="44"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="44"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="43">
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="45">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="44"/>
-      <c r="BB5" s="44"/>
-      <c r="BC5" s="44"/>
-      <c r="BD5" s="44"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="44"/>
-      <c r="BG5" s="44"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="44"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="43">
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="46"/>
+      <c r="BC5" s="46"/>
+      <c r="BD5" s="46"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="46"/>
+      <c r="BG5" s="46"/>
+      <c r="BH5" s="46"/>
+      <c r="BI5" s="46"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="45">
         <v>2003</v>
       </c>
-      <c r="BL5" s="44"/>
-      <c r="BM5" s="44"/>
-      <c r="BN5" s="44"/>
-      <c r="BO5" s="44"/>
-      <c r="BP5" s="44"/>
-      <c r="BQ5" s="44"/>
-      <c r="BR5" s="44"/>
-      <c r="BS5" s="44"/>
-      <c r="BT5" s="44"/>
-      <c r="BU5" s="44"/>
-      <c r="BV5" s="45"/>
-      <c r="BW5" s="43">
+      <c r="BL5" s="46"/>
+      <c r="BM5" s="46"/>
+      <c r="BN5" s="46"/>
+      <c r="BO5" s="46"/>
+      <c r="BP5" s="46"/>
+      <c r="BQ5" s="46"/>
+      <c r="BR5" s="46"/>
+      <c r="BS5" s="46"/>
+      <c r="BT5" s="46"/>
+      <c r="BU5" s="46"/>
+      <c r="BV5" s="47"/>
+      <c r="BW5" s="45">
         <v>2004</v>
       </c>
-      <c r="BX5" s="44"/>
-      <c r="BY5" s="44"/>
-      <c r="BZ5" s="44"/>
-      <c r="CA5" s="44"/>
-      <c r="CB5" s="44"/>
-      <c r="CC5" s="44"/>
-      <c r="CD5" s="44"/>
-      <c r="CE5" s="44"/>
-      <c r="CF5" s="44"/>
-      <c r="CG5" s="44"/>
-      <c r="CH5" s="45"/>
-      <c r="CI5" s="43">
+      <c r="BX5" s="46"/>
+      <c r="BY5" s="46"/>
+      <c r="BZ5" s="46"/>
+      <c r="CA5" s="46"/>
+      <c r="CB5" s="46"/>
+      <c r="CC5" s="46"/>
+      <c r="CD5" s="46"/>
+      <c r="CE5" s="46"/>
+      <c r="CF5" s="46"/>
+      <c r="CG5" s="46"/>
+      <c r="CH5" s="47"/>
+      <c r="CI5" s="45">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="44"/>
-      <c r="CK5" s="44"/>
-      <c r="CL5" s="44"/>
-      <c r="CM5" s="44"/>
-      <c r="CN5" s="44"/>
-      <c r="CO5" s="44"/>
-      <c r="CP5" s="44"/>
-      <c r="CQ5" s="44"/>
-      <c r="CR5" s="44"/>
-      <c r="CS5" s="44"/>
-      <c r="CT5" s="45"/>
-      <c r="CU5" s="43">
+      <c r="CJ5" s="46"/>
+      <c r="CK5" s="46"/>
+      <c r="CL5" s="46"/>
+      <c r="CM5" s="46"/>
+      <c r="CN5" s="46"/>
+      <c r="CO5" s="46"/>
+      <c r="CP5" s="46"/>
+      <c r="CQ5" s="46"/>
+      <c r="CR5" s="46"/>
+      <c r="CS5" s="46"/>
+      <c r="CT5" s="47"/>
+      <c r="CU5" s="45">
         <v>2006</v>
       </c>
-      <c r="CV5" s="44"/>
-      <c r="CW5" s="44"/>
-      <c r="CX5" s="44"/>
-      <c r="CY5" s="44"/>
-      <c r="CZ5" s="44"/>
-      <c r="DA5" s="44"/>
-      <c r="DB5" s="44"/>
-      <c r="DC5" s="44"/>
-      <c r="DD5" s="44"/>
-      <c r="DE5" s="44"/>
-      <c r="DF5" s="45"/>
-      <c r="DG5" s="43">
+      <c r="CV5" s="46"/>
+      <c r="CW5" s="46"/>
+      <c r="CX5" s="46"/>
+      <c r="CY5" s="46"/>
+      <c r="CZ5" s="46"/>
+      <c r="DA5" s="46"/>
+      <c r="DB5" s="46"/>
+      <c r="DC5" s="46"/>
+      <c r="DD5" s="46"/>
+      <c r="DE5" s="46"/>
+      <c r="DF5" s="47"/>
+      <c r="DG5" s="45">
         <v>2007</v>
       </c>
-      <c r="DH5" s="44"/>
-      <c r="DI5" s="44"/>
-      <c r="DJ5" s="44"/>
-      <c r="DK5" s="44"/>
-      <c r="DL5" s="44"/>
-      <c r="DM5" s="44"/>
-      <c r="DN5" s="44"/>
-      <c r="DO5" s="44"/>
-      <c r="DP5" s="44"/>
-      <c r="DQ5" s="44"/>
-      <c r="DR5" s="45"/>
-      <c r="DS5" s="43">
+      <c r="DH5" s="46"/>
+      <c r="DI5" s="46"/>
+      <c r="DJ5" s="46"/>
+      <c r="DK5" s="46"/>
+      <c r="DL5" s="46"/>
+      <c r="DM5" s="46"/>
+      <c r="DN5" s="46"/>
+      <c r="DO5" s="46"/>
+      <c r="DP5" s="46"/>
+      <c r="DQ5" s="46"/>
+      <c r="DR5" s="47"/>
+      <c r="DS5" s="45">
         <v>2008</v>
       </c>
-      <c r="DT5" s="44"/>
-      <c r="DU5" s="44"/>
-      <c r="DV5" s="44"/>
-      <c r="DW5" s="44"/>
-      <c r="DX5" s="44"/>
-      <c r="DY5" s="44"/>
-      <c r="DZ5" s="44"/>
-      <c r="EA5" s="44"/>
-      <c r="EB5" s="44"/>
-      <c r="EC5" s="44"/>
-      <c r="ED5" s="45"/>
-      <c r="EE5" s="43">
+      <c r="DT5" s="46"/>
+      <c r="DU5" s="46"/>
+      <c r="DV5" s="46"/>
+      <c r="DW5" s="46"/>
+      <c r="DX5" s="46"/>
+      <c r="DY5" s="46"/>
+      <c r="DZ5" s="46"/>
+      <c r="EA5" s="46"/>
+      <c r="EB5" s="46"/>
+      <c r="EC5" s="46"/>
+      <c r="ED5" s="47"/>
+      <c r="EE5" s="45">
         <v>2009</v>
       </c>
-      <c r="EF5" s="44"/>
-      <c r="EG5" s="44"/>
-      <c r="EH5" s="44"/>
-      <c r="EI5" s="44"/>
-      <c r="EJ5" s="44"/>
-      <c r="EK5" s="44"/>
-      <c r="EL5" s="44"/>
-      <c r="EM5" s="44"/>
-      <c r="EN5" s="44"/>
-      <c r="EO5" s="44"/>
-      <c r="EP5" s="45"/>
-      <c r="EQ5" s="43">
+      <c r="EF5" s="46"/>
+      <c r="EG5" s="46"/>
+      <c r="EH5" s="46"/>
+      <c r="EI5" s="46"/>
+      <c r="EJ5" s="46"/>
+      <c r="EK5" s="46"/>
+      <c r="EL5" s="46"/>
+      <c r="EM5" s="46"/>
+      <c r="EN5" s="46"/>
+      <c r="EO5" s="46"/>
+      <c r="EP5" s="47"/>
+      <c r="EQ5" s="45">
         <v>2010</v>
       </c>
-      <c r="ER5" s="44"/>
-      <c r="ES5" s="44"/>
-      <c r="ET5" s="44"/>
-      <c r="EU5" s="44"/>
-      <c r="EV5" s="44"/>
-      <c r="EW5" s="44"/>
-      <c r="EX5" s="44"/>
-      <c r="EY5" s="44"/>
-      <c r="EZ5" s="44"/>
-      <c r="FA5" s="44"/>
-      <c r="FB5" s="45"/>
-      <c r="FC5" s="43">
+      <c r="ER5" s="46"/>
+      <c r="ES5" s="46"/>
+      <c r="ET5" s="46"/>
+      <c r="EU5" s="46"/>
+      <c r="EV5" s="46"/>
+      <c r="EW5" s="46"/>
+      <c r="EX5" s="46"/>
+      <c r="EY5" s="46"/>
+      <c r="EZ5" s="46"/>
+      <c r="FA5" s="46"/>
+      <c r="FB5" s="47"/>
+      <c r="FC5" s="45">
         <v>2011</v>
       </c>
-      <c r="FD5" s="44"/>
-      <c r="FE5" s="44"/>
-      <c r="FF5" s="44"/>
-      <c r="FG5" s="44"/>
-      <c r="FH5" s="44"/>
-      <c r="FI5" s="44"/>
-      <c r="FJ5" s="44"/>
-      <c r="FK5" s="44"/>
-      <c r="FL5" s="44"/>
-      <c r="FM5" s="44"/>
-      <c r="FN5" s="45"/>
-      <c r="FO5" s="43">
+      <c r="FD5" s="46"/>
+      <c r="FE5" s="46"/>
+      <c r="FF5" s="46"/>
+      <c r="FG5" s="46"/>
+      <c r="FH5" s="46"/>
+      <c r="FI5" s="46"/>
+      <c r="FJ5" s="46"/>
+      <c r="FK5" s="46"/>
+      <c r="FL5" s="46"/>
+      <c r="FM5" s="46"/>
+      <c r="FN5" s="47"/>
+      <c r="FO5" s="45">
         <v>2012</v>
       </c>
-      <c r="FP5" s="44"/>
-      <c r="FQ5" s="44"/>
-      <c r="FR5" s="44"/>
-      <c r="FS5" s="44"/>
-      <c r="FT5" s="44"/>
-      <c r="FU5" s="44"/>
-      <c r="FV5" s="44"/>
-      <c r="FW5" s="44"/>
-      <c r="FX5" s="44"/>
-      <c r="FY5" s="44"/>
-      <c r="FZ5" s="45"/>
-      <c r="GA5" s="43">
+      <c r="FP5" s="46"/>
+      <c r="FQ5" s="46"/>
+      <c r="FR5" s="46"/>
+      <c r="FS5" s="46"/>
+      <c r="FT5" s="46"/>
+      <c r="FU5" s="46"/>
+      <c r="FV5" s="46"/>
+      <c r="FW5" s="46"/>
+      <c r="FX5" s="46"/>
+      <c r="FY5" s="46"/>
+      <c r="FZ5" s="47"/>
+      <c r="GA5" s="45">
         <v>2013</v>
       </c>
-      <c r="GB5" s="44"/>
-      <c r="GC5" s="44"/>
-      <c r="GD5" s="44"/>
-      <c r="GE5" s="44"/>
-      <c r="GF5" s="44"/>
-      <c r="GG5" s="44"/>
-      <c r="GH5" s="44"/>
-      <c r="GI5" s="44"/>
-      <c r="GJ5" s="44"/>
-      <c r="GK5" s="44"/>
-      <c r="GL5" s="45"/>
-      <c r="GM5" s="43">
+      <c r="GB5" s="46"/>
+      <c r="GC5" s="46"/>
+      <c r="GD5" s="46"/>
+      <c r="GE5" s="46"/>
+      <c r="GF5" s="46"/>
+      <c r="GG5" s="46"/>
+      <c r="GH5" s="46"/>
+      <c r="GI5" s="46"/>
+      <c r="GJ5" s="46"/>
+      <c r="GK5" s="46"/>
+      <c r="GL5" s="47"/>
+      <c r="GM5" s="45">
         <v>2014</v>
       </c>
-      <c r="GN5" s="44"/>
-      <c r="GO5" s="44"/>
-      <c r="GP5" s="44"/>
-      <c r="GQ5" s="44"/>
-      <c r="GR5" s="44"/>
-      <c r="GS5" s="44"/>
-      <c r="GT5" s="44"/>
-      <c r="GU5" s="44"/>
-      <c r="GV5" s="44"/>
-      <c r="GW5" s="44"/>
-      <c r="GX5" s="45"/>
-      <c r="GY5" s="43">
+      <c r="GN5" s="46"/>
+      <c r="GO5" s="46"/>
+      <c r="GP5" s="46"/>
+      <c r="GQ5" s="46"/>
+      <c r="GR5" s="46"/>
+      <c r="GS5" s="46"/>
+      <c r="GT5" s="46"/>
+      <c r="GU5" s="46"/>
+      <c r="GV5" s="46"/>
+      <c r="GW5" s="46"/>
+      <c r="GX5" s="47"/>
+      <c r="GY5" s="45">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="44"/>
-      <c r="HA5" s="44"/>
-      <c r="HB5" s="44"/>
-      <c r="HC5" s="44"/>
-      <c r="HD5" s="44"/>
-      <c r="HE5" s="44"/>
-      <c r="HF5" s="44"/>
-      <c r="HG5" s="44"/>
-      <c r="HH5" s="44"/>
-      <c r="HI5" s="44"/>
-      <c r="HJ5" s="45"/>
-      <c r="HK5" s="43">
+      <c r="GZ5" s="46"/>
+      <c r="HA5" s="46"/>
+      <c r="HB5" s="46"/>
+      <c r="HC5" s="46"/>
+      <c r="HD5" s="46"/>
+      <c r="HE5" s="46"/>
+      <c r="HF5" s="46"/>
+      <c r="HG5" s="46"/>
+      <c r="HH5" s="46"/>
+      <c r="HI5" s="46"/>
+      <c r="HJ5" s="47"/>
+      <c r="HK5" s="45">
         <v>2016</v>
       </c>
-      <c r="HL5" s="44"/>
-      <c r="HM5" s="44"/>
-      <c r="HN5" s="44"/>
-      <c r="HO5" s="44"/>
-      <c r="HP5" s="44"/>
-      <c r="HQ5" s="44"/>
-      <c r="HR5" s="44"/>
-      <c r="HS5" s="44"/>
-      <c r="HT5" s="44"/>
-      <c r="HU5" s="44"/>
-      <c r="HV5" s="45"/>
-      <c r="HW5" s="43">
+      <c r="HL5" s="46"/>
+      <c r="HM5" s="46"/>
+      <c r="HN5" s="46"/>
+      <c r="HO5" s="46"/>
+      <c r="HP5" s="46"/>
+      <c r="HQ5" s="46"/>
+      <c r="HR5" s="46"/>
+      <c r="HS5" s="46"/>
+      <c r="HT5" s="46"/>
+      <c r="HU5" s="46"/>
+      <c r="HV5" s="47"/>
+      <c r="HW5" s="45">
         <v>2017</v>
       </c>
-      <c r="HX5" s="44"/>
-      <c r="HY5" s="44"/>
-      <c r="HZ5" s="44"/>
-      <c r="IA5" s="44"/>
-      <c r="IB5" s="44"/>
-      <c r="IC5" s="44"/>
-      <c r="ID5" s="44"/>
-      <c r="IE5" s="44"/>
-      <c r="IF5" s="44"/>
-      <c r="IG5" s="44"/>
-      <c r="IH5" s="45"/>
-      <c r="II5" s="43">
+      <c r="HX5" s="46"/>
+      <c r="HY5" s="46"/>
+      <c r="HZ5" s="46"/>
+      <c r="IA5" s="46"/>
+      <c r="IB5" s="46"/>
+      <c r="IC5" s="46"/>
+      <c r="ID5" s="46"/>
+      <c r="IE5" s="46"/>
+      <c r="IF5" s="46"/>
+      <c r="IG5" s="46"/>
+      <c r="IH5" s="47"/>
+      <c r="II5" s="45">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="44"/>
-      <c r="IK5" s="44"/>
-      <c r="IL5" s="44"/>
-      <c r="IM5" s="44"/>
-      <c r="IN5" s="44"/>
-      <c r="IO5" s="44"/>
-      <c r="IP5" s="44"/>
-      <c r="IQ5" s="44"/>
-      <c r="IR5" s="44"/>
-      <c r="IS5" s="44"/>
-      <c r="IT5" s="45"/>
-      <c r="IU5" s="43">
+      <c r="IJ5" s="46"/>
+      <c r="IK5" s="46"/>
+      <c r="IL5" s="46"/>
+      <c r="IM5" s="46"/>
+      <c r="IN5" s="46"/>
+      <c r="IO5" s="46"/>
+      <c r="IP5" s="46"/>
+      <c r="IQ5" s="46"/>
+      <c r="IR5" s="46"/>
+      <c r="IS5" s="46"/>
+      <c r="IT5" s="47"/>
+      <c r="IU5" s="45">
         <v>2019</v>
       </c>
-      <c r="IV5" s="44"/>
-      <c r="IW5" s="44"/>
-      <c r="IX5" s="44"/>
-      <c r="IY5" s="44"/>
-      <c r="IZ5" s="44"/>
-      <c r="JA5" s="44"/>
-      <c r="JB5" s="44"/>
-      <c r="JC5" s="44"/>
-      <c r="JD5" s="44"/>
-      <c r="JE5" s="44"/>
-      <c r="JF5" s="45"/>
-      <c r="JG5" s="43">
+      <c r="IV5" s="46"/>
+      <c r="IW5" s="46"/>
+      <c r="IX5" s="46"/>
+      <c r="IY5" s="46"/>
+      <c r="IZ5" s="46"/>
+      <c r="JA5" s="46"/>
+      <c r="JB5" s="46"/>
+      <c r="JC5" s="46"/>
+      <c r="JD5" s="46"/>
+      <c r="JE5" s="46"/>
+      <c r="JF5" s="47"/>
+      <c r="JG5" s="45">
         <v>2020</v>
       </c>
-      <c r="JH5" s="44"/>
-      <c r="JI5" s="44"/>
-      <c r="JJ5" s="44"/>
-      <c r="JK5" s="44"/>
-      <c r="JL5" s="44"/>
-      <c r="JM5" s="44"/>
-      <c r="JN5" s="44"/>
-      <c r="JO5" s="44"/>
-      <c r="JP5" s="44"/>
-      <c r="JQ5" s="44"/>
-      <c r="JR5" s="45"/>
-      <c r="JS5" s="43">
+      <c r="JH5" s="46"/>
+      <c r="JI5" s="46"/>
+      <c r="JJ5" s="46"/>
+      <c r="JK5" s="46"/>
+      <c r="JL5" s="46"/>
+      <c r="JM5" s="46"/>
+      <c r="JN5" s="46"/>
+      <c r="JO5" s="46"/>
+      <c r="JP5" s="46"/>
+      <c r="JQ5" s="46"/>
+      <c r="JR5" s="47"/>
+      <c r="JS5" s="45">
         <v>2021</v>
       </c>
-      <c r="JT5" s="44"/>
-      <c r="JU5" s="44"/>
-      <c r="JV5" s="44"/>
-      <c r="JW5" s="44"/>
-      <c r="JX5" s="44"/>
-      <c r="JY5" s="44"/>
-      <c r="JZ5" s="44"/>
-      <c r="KA5" s="44"/>
-      <c r="KB5" s="44"/>
-      <c r="KC5" s="44"/>
-      <c r="KD5" s="44"/>
-      <c r="KE5" s="43">
+      <c r="JT5" s="46"/>
+      <c r="JU5" s="46"/>
+      <c r="JV5" s="46"/>
+      <c r="JW5" s="46"/>
+      <c r="JX5" s="46"/>
+      <c r="JY5" s="46"/>
+      <c r="JZ5" s="46"/>
+      <c r="KA5" s="46"/>
+      <c r="KB5" s="46"/>
+      <c r="KC5" s="46"/>
+      <c r="KD5" s="46"/>
+      <c r="KE5" s="45">
         <v>2022</v>
       </c>
-      <c r="KF5" s="44"/>
-      <c r="KG5" s="44"/>
-      <c r="KH5" s="44"/>
-      <c r="KI5" s="44"/>
-      <c r="KJ5" s="44"/>
-      <c r="KK5" s="44"/>
-      <c r="KL5" s="44"/>
-      <c r="KM5" s="45"/>
+      <c r="KF5" s="46"/>
+      <c r="KG5" s="46"/>
+      <c r="KH5" s="46"/>
+      <c r="KI5" s="46"/>
+      <c r="KJ5" s="46"/>
+      <c r="KK5" s="46"/>
+      <c r="KL5" s="46"/>
+      <c r="KM5" s="46"/>
+      <c r="KN5" s="47"/>
     </row>
-    <row r="6" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+    <row r="6" spans="1:300" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2587,11 +2588,14 @@
       <c r="KL6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="KM6" s="11" t="s">
+      <c r="KM6" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="KN6" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:299" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:300" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3486,11 +3490,14 @@
       <c r="KL7" s="38">
         <v>115219</v>
       </c>
-      <c r="KM7" s="31">
+      <c r="KM7" s="38">
         <v>119089</v>
       </c>
+      <c r="KN7" s="31">
+        <v>121255</v>
+      </c>
     </row>
-    <row r="8" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4383,11 +4390,14 @@
       <c r="KL8" s="3">
         <v>22245</v>
       </c>
-      <c r="KM8" s="4">
+      <c r="KM8" s="3">
         <v>22683</v>
       </c>
+      <c r="KN8" s="4">
+        <v>23113</v>
+      </c>
     </row>
-    <row r="9" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5280,11 +5290,14 @@
       <c r="KL9" s="3">
         <v>5141</v>
       </c>
-      <c r="KM9" s="4">
+      <c r="KM9" s="3">
         <v>5430</v>
       </c>
+      <c r="KN9" s="4">
+        <v>5575</v>
+      </c>
     </row>
-    <row r="10" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6177,11 +6190,14 @@
       <c r="KL10" s="3">
         <v>17371</v>
       </c>
-      <c r="KM10" s="4">
+      <c r="KM10" s="3">
         <v>18328</v>
       </c>
+      <c r="KN10" s="4">
+        <v>18748</v>
+      </c>
     </row>
-    <row r="11" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7074,11 +7090,14 @@
       <c r="KL11" s="3">
         <v>17712</v>
       </c>
-      <c r="KM11" s="4">
+      <c r="KM11" s="3">
         <v>18348</v>
       </c>
+      <c r="KN11" s="4">
+        <v>18722</v>
+      </c>
     </row>
-    <row r="12" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7971,11 +7990,14 @@
       <c r="KL12" s="3">
         <v>15701</v>
       </c>
-      <c r="KM12" s="4">
+      <c r="KM12" s="3">
         <v>16288</v>
       </c>
+      <c r="KN12" s="4">
+        <v>16477</v>
+      </c>
     </row>
-    <row r="13" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8868,11 +8890,14 @@
       <c r="KL13" s="3">
         <v>13909</v>
       </c>
-      <c r="KM13" s="4">
+      <c r="KM13" s="3">
         <v>14258</v>
       </c>
+      <c r="KN13" s="4">
+        <v>14417</v>
+      </c>
     </row>
-    <row r="14" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9765,11 +9790,14 @@
       <c r="KL14" s="3">
         <v>11973</v>
       </c>
-      <c r="KM14" s="4">
+      <c r="KM14" s="3">
         <v>12311</v>
       </c>
+      <c r="KN14" s="4">
+        <v>12540</v>
+      </c>
     </row>
-    <row r="15" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10662,11 +10690,14 @@
       <c r="KL15" s="3">
         <v>11160</v>
       </c>
-      <c r="KM15" s="4">
+      <c r="KM15" s="3">
         <v>11434</v>
       </c>
+      <c r="KN15" s="4">
+        <v>11653</v>
+      </c>
     </row>
-    <row r="16" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11559,11 +11590,14 @@
       <c r="KL16" s="39">
         <v>7</v>
       </c>
-      <c r="KM16" s="37">
+      <c r="KM16" s="39">
         <v>9</v>
       </c>
+      <c r="KN16" s="37">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12458,11 +12492,14 @@
       <c r="KL17" s="38">
         <v>394460</v>
       </c>
-      <c r="KM17" s="31">
+      <c r="KM17" s="38">
         <v>397012</v>
       </c>
+      <c r="KN17" s="31">
+        <v>402868</v>
+      </c>
     </row>
-    <row r="18" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13355,11 +13392,14 @@
       <c r="KL18" s="3">
         <v>60693</v>
       </c>
-      <c r="KM18" s="4">
+      <c r="KM18" s="3">
         <v>61531</v>
       </c>
+      <c r="KN18" s="4">
+        <v>62879</v>
+      </c>
     </row>
-    <row r="19" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14252,11 +14292,14 @@
       <c r="KL19" s="3">
         <v>10345</v>
       </c>
-      <c r="KM19" s="4">
+      <c r="KM19" s="3">
         <v>10605</v>
       </c>
+      <c r="KN19" s="4">
+        <v>11007</v>
+      </c>
     </row>
-    <row r="20" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15149,11 +15192,14 @@
       <c r="KL20" s="3">
         <v>54158</v>
       </c>
-      <c r="KM20" s="4">
+      <c r="KM20" s="3">
         <v>54523</v>
       </c>
+      <c r="KN20" s="4">
+        <v>55436</v>
+      </c>
     </row>
-    <row r="21" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -16046,11 +16092,14 @@
       <c r="KL21" s="3">
         <v>65774</v>
       </c>
-      <c r="KM21" s="4">
+      <c r="KM21" s="3">
         <v>66174</v>
       </c>
+      <c r="KN21" s="4">
+        <v>66882</v>
+      </c>
     </row>
-    <row r="22" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16943,11 +16992,14 @@
       <c r="KL22" s="3">
         <v>64135</v>
       </c>
-      <c r="KM22" s="4">
+      <c r="KM22" s="3">
         <v>64252</v>
       </c>
+      <c r="KN22" s="4">
+        <v>64959</v>
+      </c>
     </row>
-    <row r="23" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17840,11 +17892,14 @@
       <c r="KL23" s="3">
         <v>55290</v>
       </c>
-      <c r="KM23" s="4">
+      <c r="KM23" s="3">
         <v>55377</v>
       </c>
+      <c r="KN23" s="4">
+        <v>55995</v>
+      </c>
     </row>
-    <row r="24" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18737,11 +18792,14 @@
       <c r="KL24" s="3">
         <v>45491</v>
       </c>
-      <c r="KM24" s="4">
+      <c r="KM24" s="3">
         <v>45796</v>
       </c>
+      <c r="KN24" s="4">
+        <v>46436</v>
+      </c>
     </row>
-    <row r="25" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -19634,11 +19692,14 @@
       <c r="KL25" s="3">
         <v>38574</v>
       </c>
-      <c r="KM25" s="4">
+      <c r="KM25" s="3">
         <v>38752</v>
       </c>
+      <c r="KN25" s="4">
+        <v>39270</v>
+      </c>
     </row>
-    <row r="26" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -20523,11 +20584,14 @@
         <v>1</v>
       </c>
       <c r="KL26" s="39"/>
-      <c r="KM26" s="37">
+      <c r="KM26" s="39">
         <v>2</v>
       </c>
+      <c r="KN26" s="37">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -21422,11 +21486,14 @@
       <c r="KL27" s="38">
         <v>144641</v>
       </c>
-      <c r="KM27" s="31">
+      <c r="KM27" s="38">
         <v>145163</v>
       </c>
+      <c r="KN27" s="31">
+        <v>150581</v>
+      </c>
     </row>
-    <row r="28" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -22319,11 +22386,14 @@
       <c r="KL28" s="3">
         <v>26178</v>
       </c>
-      <c r="KM28" s="4">
+      <c r="KM28" s="3">
         <v>26510</v>
       </c>
+      <c r="KN28" s="4">
+        <v>27430</v>
+      </c>
     </row>
-    <row r="29" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -23216,11 +23286,14 @@
       <c r="KL29" s="3">
         <v>4742</v>
       </c>
-      <c r="KM29" s="4">
+      <c r="KM29" s="3">
         <v>4705</v>
       </c>
+      <c r="KN29" s="4">
+        <v>4878</v>
+      </c>
     </row>
-    <row r="30" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -24113,11 +24186,14 @@
       <c r="KL30" s="3">
         <v>18260</v>
       </c>
-      <c r="KM30" s="4">
+      <c r="KM30" s="3">
         <v>18220</v>
       </c>
+      <c r="KN30" s="4">
+        <v>19147</v>
+      </c>
     </row>
-    <row r="31" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -25010,11 +25086,14 @@
       <c r="KL31" s="3">
         <v>23140</v>
       </c>
-      <c r="KM31" s="4">
+      <c r="KM31" s="3">
         <v>23289</v>
       </c>
+      <c r="KN31" s="4">
+        <v>24064</v>
+      </c>
     </row>
-    <row r="32" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -25907,11 +25986,14 @@
       <c r="KL32" s="3">
         <v>21843</v>
       </c>
-      <c r="KM32" s="4">
+      <c r="KM32" s="3">
         <v>21977</v>
       </c>
+      <c r="KN32" s="4">
+        <v>22735</v>
+      </c>
     </row>
-    <row r="33" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -26804,11 +26886,14 @@
       <c r="KL33" s="3">
         <v>19373</v>
       </c>
-      <c r="KM33" s="4">
+      <c r="KM33" s="3">
         <v>19333</v>
       </c>
+      <c r="KN33" s="4">
+        <v>20061</v>
+      </c>
     </row>
-    <row r="34" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -27701,11 +27786,14 @@
       <c r="KL34" s="3">
         <v>16582</v>
       </c>
-      <c r="KM34" s="4">
+      <c r="KM34" s="3">
         <v>16520</v>
       </c>
+      <c r="KN34" s="4">
+        <v>17259</v>
+      </c>
     </row>
-    <row r="35" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -28598,11 +28686,14 @@
       <c r="KL35" s="3">
         <v>14500</v>
       </c>
-      <c r="KM35" s="4">
+      <c r="KM35" s="3">
         <v>14587</v>
       </c>
+      <c r="KN35" s="4">
+        <v>14987</v>
+      </c>
     </row>
-    <row r="36" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -29495,11 +29586,14 @@
       <c r="KL36" s="39">
         <v>23</v>
       </c>
-      <c r="KM36" s="37">
+      <c r="KM36" s="39">
         <v>22</v>
       </c>
+      <c r="KN36" s="37">
+        <v>20</v>
+      </c>
     </row>
-    <row r="37" spans="1:299" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:300" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -30394,11 +30488,14 @@
       <c r="KL37" s="40">
         <v>9763</v>
       </c>
-      <c r="KM37" s="33">
+      <c r="KM37" s="40">
         <v>9686</v>
       </c>
+      <c r="KN37" s="33">
+        <v>9745</v>
+      </c>
     </row>
-    <row r="38" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -31291,11 +31388,14 @@
       <c r="KL38" s="3">
         <v>1728</v>
       </c>
-      <c r="KM38" s="4">
+      <c r="KM38" s="3">
         <v>1725</v>
       </c>
+      <c r="KN38" s="4">
+        <v>1724</v>
+      </c>
     </row>
-    <row r="39" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -32188,11 +32288,14 @@
       <c r="KL39" s="3">
         <v>86</v>
       </c>
-      <c r="KM39" s="4">
+      <c r="KM39" s="3">
         <v>88</v>
       </c>
+      <c r="KN39" s="4">
+        <v>77</v>
+      </c>
     </row>
-    <row r="40" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -33085,11 +33188,14 @@
       <c r="KL40" s="3">
         <v>542</v>
       </c>
-      <c r="KM40" s="4">
+      <c r="KM40" s="3">
         <v>525</v>
       </c>
+      <c r="KN40" s="4">
+        <v>551</v>
+      </c>
     </row>
-    <row r="41" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -33982,11 +34088,14 @@
       <c r="KL41" s="3">
         <v>1024</v>
       </c>
-      <c r="KM41" s="4">
+      <c r="KM41" s="3">
         <v>1004</v>
       </c>
+      <c r="KN41" s="4">
+        <v>1025</v>
+      </c>
     </row>
-    <row r="42" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -34879,11 +34988,14 @@
       <c r="KL42" s="3">
         <v>1401</v>
       </c>
-      <c r="KM42" s="4">
+      <c r="KM42" s="3">
         <v>1391</v>
       </c>
+      <c r="KN42" s="4">
+        <v>1409</v>
+      </c>
     </row>
-    <row r="43" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -35776,11 +35888,14 @@
       <c r="KL43" s="3">
         <v>1816</v>
       </c>
-      <c r="KM43" s="4">
+      <c r="KM43" s="3">
         <v>1801</v>
       </c>
+      <c r="KN43" s="4">
+        <v>1794</v>
+      </c>
     </row>
-    <row r="44" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -36673,11 +36788,14 @@
       <c r="KL44" s="3">
         <v>1716</v>
       </c>
-      <c r="KM44" s="4">
+      <c r="KM44" s="3">
         <v>1701</v>
       </c>
+      <c r="KN44" s="4">
+        <v>1701</v>
+      </c>
     </row>
-    <row r="45" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -37570,11 +37688,14 @@
       <c r="KL45" s="3">
         <v>1450</v>
       </c>
-      <c r="KM45" s="4">
+      <c r="KM45" s="3">
         <v>1451</v>
       </c>
+      <c r="KN45" s="4">
+        <v>1464</v>
+      </c>
     </row>
-    <row r="46" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -37999,9 +38120,10 @@
       <c r="KJ46" s="39"/>
       <c r="KK46" s="39"/>
       <c r="KL46" s="39"/>
-      <c r="KM46" s="37"/>
+      <c r="KM46" s="39"/>
+      <c r="KN46" s="37"/>
     </row>
-    <row r="47" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -38896,11 +39018,14 @@
       <c r="KL47" s="38">
         <v>505597</v>
       </c>
-      <c r="KM47" s="31">
+      <c r="KM47" s="38">
         <v>509874</v>
       </c>
+      <c r="KN47" s="31">
+        <v>513734</v>
+      </c>
     </row>
-    <row r="48" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -39793,11 +39918,14 @@
       <c r="KL48" s="3">
         <v>77261</v>
       </c>
-      <c r="KM48" s="4">
+      <c r="KM48" s="3">
         <v>78421</v>
       </c>
+      <c r="KN48" s="4">
+        <v>79207</v>
+      </c>
     </row>
-    <row r="49" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -40690,11 +40818,14 @@
       <c r="KL49" s="3">
         <v>14357</v>
       </c>
-      <c r="KM49" s="4">
+      <c r="KM49" s="3">
         <v>14792</v>
       </c>
+      <c r="KN49" s="4">
+        <v>15074</v>
+      </c>
     </row>
-    <row r="50" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -41587,11 +41718,14 @@
       <c r="KL50" s="3">
         <v>71149</v>
       </c>
-      <c r="KM50" s="4">
+      <c r="KM50" s="3">
         <v>71855</v>
       </c>
+      <c r="KN50" s="4">
+        <v>72520</v>
+      </c>
     </row>
-    <row r="51" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -42484,11 +42618,14 @@
       <c r="KL51" s="3">
         <v>82191</v>
       </c>
-      <c r="KM51" s="4">
+      <c r="KM51" s="3">
         <v>82507</v>
       </c>
+      <c r="KN51" s="4">
+        <v>82930</v>
+      </c>
     </row>
-    <row r="52" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -43381,11 +43518,14 @@
       <c r="KL52" s="3">
         <v>76203</v>
       </c>
-      <c r="KM52" s="4">
+      <c r="KM52" s="3">
         <v>76576</v>
       </c>
+      <c r="KN52" s="4">
+        <v>77237</v>
+      </c>
     </row>
-    <row r="53" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -44278,11 +44418,14 @@
       <c r="KL53" s="3">
         <v>68122</v>
       </c>
-      <c r="KM53" s="4">
+      <c r="KM53" s="3">
         <v>68446</v>
       </c>
+      <c r="KN53" s="4">
+        <v>68607</v>
+      </c>
     </row>
-    <row r="54" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -45175,11 +45318,14 @@
       <c r="KL54" s="3">
         <v>62391</v>
       </c>
-      <c r="KM54" s="4">
+      <c r="KM54" s="3">
         <v>63038</v>
       </c>
+      <c r="KN54" s="4">
+        <v>63442</v>
+      </c>
     </row>
-    <row r="55" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -46072,11 +46218,14 @@
       <c r="KL55" s="3">
         <v>53917</v>
       </c>
-      <c r="KM55" s="4">
+      <c r="KM55" s="3">
         <v>54236</v>
       </c>
+      <c r="KN55" s="4">
+        <v>54713</v>
+      </c>
     </row>
-    <row r="56" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -46969,11 +47118,14 @@
       <c r="KL56" s="39">
         <v>6</v>
       </c>
-      <c r="KM56" s="37">
+      <c r="KM56" s="39">
         <v>3</v>
       </c>
+      <c r="KN56" s="37">
+        <v>4</v>
+      </c>
     </row>
-    <row r="57" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -47868,11 +48020,14 @@
       <c r="KL57" s="38">
         <v>2477</v>
       </c>
-      <c r="KM57" s="31">
+      <c r="KM57" s="38">
         <v>2518</v>
       </c>
+      <c r="KN57" s="31">
+        <v>2505</v>
+      </c>
     </row>
-    <row r="58" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -48765,11 +48920,14 @@
       <c r="KL58" s="3">
         <v>508</v>
       </c>
-      <c r="KM58" s="4">
+      <c r="KM58" s="3">
         <v>524</v>
       </c>
+      <c r="KN58" s="4">
+        <v>522</v>
+      </c>
     </row>
-    <row r="59" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -49662,11 +49820,14 @@
       <c r="KL59" s="3">
         <v>29</v>
       </c>
-      <c r="KM59" s="4">
+      <c r="KM59" s="3">
         <v>35</v>
       </c>
+      <c r="KN59" s="4">
+        <v>38</v>
+      </c>
     </row>
-    <row r="60" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -50559,11 +50720,14 @@
       <c r="KL60" s="3">
         <v>193</v>
       </c>
-      <c r="KM60" s="4">
+      <c r="KM60" s="3">
         <v>194</v>
       </c>
+      <c r="KN60" s="4">
+        <v>193</v>
+      </c>
     </row>
-    <row r="61" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -51456,11 +51620,14 @@
       <c r="KL61" s="3">
         <v>377</v>
       </c>
-      <c r="KM61" s="4">
+      <c r="KM61" s="3">
         <v>387</v>
       </c>
+      <c r="KN61" s="4">
+        <v>381</v>
+      </c>
     </row>
-    <row r="62" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -52353,11 +52520,14 @@
       <c r="KL62" s="3">
         <v>393</v>
       </c>
-      <c r="KM62" s="4">
+      <c r="KM62" s="3">
         <v>390</v>
       </c>
+      <c r="KN62" s="4">
+        <v>401</v>
+      </c>
     </row>
-    <row r="63" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -53250,11 +53420,14 @@
       <c r="KL63" s="3">
         <v>377</v>
       </c>
-      <c r="KM63" s="4">
+      <c r="KM63" s="3">
         <v>379</v>
       </c>
+      <c r="KN63" s="4">
+        <v>369</v>
+      </c>
     </row>
-    <row r="64" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -54147,11 +54320,14 @@
       <c r="KL64" s="3">
         <v>325</v>
       </c>
-      <c r="KM64" s="4">
+      <c r="KM64" s="3">
         <v>326</v>
       </c>
+      <c r="KN64" s="4">
+        <v>324</v>
+      </c>
     </row>
-    <row r="65" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -55044,11 +55220,14 @@
       <c r="KL65" s="3">
         <v>275</v>
       </c>
-      <c r="KM65" s="4">
+      <c r="KM65" s="3">
         <v>283</v>
       </c>
+      <c r="KN65" s="4">
+        <v>277</v>
+      </c>
     </row>
-    <row r="66" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -55407,9 +55586,10 @@
       <c r="KJ66" s="39"/>
       <c r="KK66" s="39"/>
       <c r="KL66" s="39"/>
-      <c r="KM66" s="37"/>
+      <c r="KM66" s="39"/>
+      <c r="KN66" s="37"/>
     </row>
-    <row r="67" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -56304,11 +56484,14 @@
       <c r="KL67" s="38">
         <v>636862</v>
       </c>
-      <c r="KM67" s="31">
+      <c r="KM67" s="38">
         <v>640257</v>
       </c>
+      <c r="KN67" s="31">
+        <v>645409</v>
+      </c>
     </row>
-    <row r="68" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -57201,11 +57384,14 @@
       <c r="KL68" s="3">
         <v>133602</v>
       </c>
-      <c r="KM68" s="4">
+      <c r="KM68" s="3">
         <v>134724</v>
       </c>
+      <c r="KN68" s="4">
+        <v>135198</v>
+      </c>
     </row>
-    <row r="69" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -58098,11 +58284,14 @@
       <c r="KL69" s="3">
         <v>10257</v>
       </c>
-      <c r="KM69" s="4">
+      <c r="KM69" s="3">
         <v>10282</v>
       </c>
+      <c r="KN69" s="4">
+        <v>10442</v>
+      </c>
     </row>
-    <row r="70" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -58995,11 +59184,14 @@
       <c r="KL70" s="3">
         <v>62084</v>
       </c>
-      <c r="KM70" s="4">
+      <c r="KM70" s="3">
         <v>62123</v>
       </c>
+      <c r="KN70" s="4">
+        <v>62929</v>
+      </c>
     </row>
-    <row r="71" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -59892,11 +60084,14 @@
       <c r="KL71" s="3">
         <v>99348</v>
       </c>
-      <c r="KM71" s="4">
+      <c r="KM71" s="3">
         <v>99717</v>
       </c>
+      <c r="KN71" s="4">
+        <v>100800</v>
+      </c>
     </row>
-    <row r="72" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -60789,11 +60984,14 @@
       <c r="KL72" s="3">
         <v>95960</v>
       </c>
-      <c r="KM72" s="4">
+      <c r="KM72" s="3">
         <v>96461</v>
       </c>
+      <c r="KN72" s="4">
+        <v>97510</v>
+      </c>
     </row>
-    <row r="73" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -61686,11 +61884,14 @@
       <c r="KL73" s="3">
         <v>86955</v>
       </c>
-      <c r="KM73" s="4">
+      <c r="KM73" s="3">
         <v>87375</v>
       </c>
+      <c r="KN73" s="4">
+        <v>88172</v>
+      </c>
     </row>
-    <row r="74" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -62583,11 +62784,14 @@
       <c r="KL74" s="3">
         <v>77963</v>
       </c>
-      <c r="KM74" s="4">
+      <c r="KM74" s="3">
         <v>78545</v>
       </c>
+      <c r="KN74" s="4">
+        <v>79015</v>
+      </c>
     </row>
-    <row r="75" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -63480,11 +63684,14 @@
       <c r="KL75" s="3">
         <v>70687</v>
       </c>
-      <c r="KM75" s="4">
+      <c r="KM75" s="3">
         <v>71024</v>
       </c>
+      <c r="KN75" s="4">
+        <v>71339</v>
+      </c>
     </row>
-    <row r="76" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -64377,11 +64584,14 @@
       <c r="KL76" s="39">
         <v>6</v>
       </c>
-      <c r="KM76" s="37">
+      <c r="KM76" s="39">
         <v>6</v>
       </c>
+      <c r="KN76" s="37">
+        <v>4</v>
+      </c>
     </row>
-    <row r="77" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -65276,11 +65486,14 @@
       <c r="KL77" s="38">
         <v>101608</v>
       </c>
-      <c r="KM77" s="31">
+      <c r="KM77" s="38">
         <v>104048</v>
       </c>
+      <c r="KN77" s="31">
+        <v>104844</v>
+      </c>
     </row>
-    <row r="78" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -66173,11 +66386,14 @@
       <c r="KL78" s="3">
         <v>18321</v>
       </c>
-      <c r="KM78" s="4">
+      <c r="KM78" s="3">
         <v>18675</v>
       </c>
+      <c r="KN78" s="4">
+        <v>18705</v>
+      </c>
     </row>
-    <row r="79" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -67070,11 +67286,14 @@
       <c r="KL79" s="3">
         <v>1662</v>
       </c>
-      <c r="KM79" s="4">
+      <c r="KM79" s="3">
         <v>1709</v>
       </c>
+      <c r="KN79" s="4">
+        <v>1844</v>
+      </c>
     </row>
-    <row r="80" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -67967,11 +68186,14 @@
       <c r="KL80" s="3">
         <v>11360</v>
       </c>
-      <c r="KM80" s="4">
+      <c r="KM80" s="3">
         <v>11838</v>
       </c>
+      <c r="KN80" s="4">
+        <v>11944</v>
+      </c>
     </row>
-    <row r="81" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -68864,11 +69086,14 @@
       <c r="KL81" s="3">
         <v>15536</v>
       </c>
-      <c r="KM81" s="4">
+      <c r="KM81" s="3">
         <v>15951</v>
       </c>
+      <c r="KN81" s="4">
+        <v>16034</v>
+      </c>
     </row>
-    <row r="82" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -69761,11 +69986,14 @@
       <c r="KL82" s="3">
         <v>15600</v>
       </c>
-      <c r="KM82" s="4">
+      <c r="KM82" s="3">
         <v>15966</v>
       </c>
+      <c r="KN82" s="4">
+        <v>16090</v>
+      </c>
     </row>
-    <row r="83" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -70658,11 +70886,14 @@
       <c r="KL83" s="3">
         <v>14623</v>
       </c>
-      <c r="KM83" s="4">
+      <c r="KM83" s="3">
         <v>14916</v>
       </c>
+      <c r="KN83" s="4">
+        <v>15105</v>
+      </c>
     </row>
-    <row r="84" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -71555,11 +71786,14 @@
       <c r="KL84" s="3">
         <v>12837</v>
       </c>
-      <c r="KM84" s="4">
+      <c r="KM84" s="3">
         <v>13090</v>
       </c>
+      <c r="KN84" s="4">
+        <v>13174</v>
+      </c>
     </row>
-    <row r="85" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -72452,11 +72686,14 @@
       <c r="KL85" s="3">
         <v>11668</v>
       </c>
-      <c r="KM85" s="4">
+      <c r="KM85" s="3">
         <v>11900</v>
       </c>
+      <c r="KN85" s="4">
+        <v>11943</v>
+      </c>
     </row>
-    <row r="86" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -73161,11 +73398,14 @@
       <c r="KL86" s="39">
         <v>1</v>
       </c>
-      <c r="KM86" s="37">
+      <c r="KM86" s="39">
         <v>3</v>
       </c>
+      <c r="KN86" s="37">
+        <v>5</v>
+      </c>
     </row>
-    <row r="87" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -74060,12 +74300,15 @@
       <c r="KL87" s="41">
         <v>1910627</v>
       </c>
-      <c r="KM87" s="35">
+      <c r="KM87" s="41">
         <v>1927647</v>
       </c>
-      <c r="KN87" s="24"/>
+      <c r="KN87" s="35">
+        <v>1950941</v>
+      </c>
+      <c r="KO87" s="24"/>
     </row>
-    <row r="88" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
         <v>23</v>
       </c>
@@ -74077,26 +74320,11 @@
       <c r="G88" s="42"/>
       <c r="KD88" s="24"/>
     </row>
-    <row r="89" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:301" x14ac:dyDescent="0.25">
       <c r="KD89" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="KE5:KM5"/>
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JS5:KD5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
-    <mergeCell ref="DS5:ED5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -74112,6 +74340,21 @@
     <mergeCell ref="CI5:CT5"/>
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="KE5:KN5"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JS5:KD5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
+    <mergeCell ref="DS5:ED5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998-octubre 2022</t>
+    <t>Enero 1998 - noviembre 2022</t>
   </si>
 </sst>
 </file>
@@ -969,12 +969,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -982,6 +976,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1305,22 +1305,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KO89"/>
+  <dimension ref="A1:KP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="KE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KJ92" sqref="KJ92"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="300" width="11.875" style="1" customWidth="1"/>
-    <col min="301" max="16384" width="11.375" style="1"/>
+    <col min="3" max="301" width="11.875" style="1" customWidth="1"/>
+    <col min="302" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:300" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:301" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>36</v>
       </c>
@@ -1329,377 +1329,378 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:300" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:301" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="43">
         <v>1998</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="45">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="43">
         <v>1999</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="45">
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="43">
         <v>2000</v>
       </c>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="45">
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="43">
         <v>2001</v>
       </c>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="45">
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="43">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="45">
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="44"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="44"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="44"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="43">
         <v>2003</v>
       </c>
-      <c r="BL5" s="46"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="46"/>
-      <c r="BO5" s="46"/>
-      <c r="BP5" s="46"/>
-      <c r="BQ5" s="46"/>
-      <c r="BR5" s="46"/>
-      <c r="BS5" s="46"/>
-      <c r="BT5" s="46"/>
-      <c r="BU5" s="46"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="45">
+      <c r="BL5" s="44"/>
+      <c r="BM5" s="44"/>
+      <c r="BN5" s="44"/>
+      <c r="BO5" s="44"/>
+      <c r="BP5" s="44"/>
+      <c r="BQ5" s="44"/>
+      <c r="BR5" s="44"/>
+      <c r="BS5" s="44"/>
+      <c r="BT5" s="44"/>
+      <c r="BU5" s="44"/>
+      <c r="BV5" s="45"/>
+      <c r="BW5" s="43">
         <v>2004</v>
       </c>
-      <c r="BX5" s="46"/>
-      <c r="BY5" s="46"/>
-      <c r="BZ5" s="46"/>
-      <c r="CA5" s="46"/>
-      <c r="CB5" s="46"/>
-      <c r="CC5" s="46"/>
-      <c r="CD5" s="46"/>
-      <c r="CE5" s="46"/>
-      <c r="CF5" s="46"/>
-      <c r="CG5" s="46"/>
-      <c r="CH5" s="47"/>
-      <c r="CI5" s="45">
+      <c r="BX5" s="44"/>
+      <c r="BY5" s="44"/>
+      <c r="BZ5" s="44"/>
+      <c r="CA5" s="44"/>
+      <c r="CB5" s="44"/>
+      <c r="CC5" s="44"/>
+      <c r="CD5" s="44"/>
+      <c r="CE5" s="44"/>
+      <c r="CF5" s="44"/>
+      <c r="CG5" s="44"/>
+      <c r="CH5" s="45"/>
+      <c r="CI5" s="43">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="46"/>
-      <c r="CK5" s="46"/>
-      <c r="CL5" s="46"/>
-      <c r="CM5" s="46"/>
-      <c r="CN5" s="46"/>
-      <c r="CO5" s="46"/>
-      <c r="CP5" s="46"/>
-      <c r="CQ5" s="46"/>
-      <c r="CR5" s="46"/>
-      <c r="CS5" s="46"/>
-      <c r="CT5" s="47"/>
-      <c r="CU5" s="45">
+      <c r="CJ5" s="44"/>
+      <c r="CK5" s="44"/>
+      <c r="CL5" s="44"/>
+      <c r="CM5" s="44"/>
+      <c r="CN5" s="44"/>
+      <c r="CO5" s="44"/>
+      <c r="CP5" s="44"/>
+      <c r="CQ5" s="44"/>
+      <c r="CR5" s="44"/>
+      <c r="CS5" s="44"/>
+      <c r="CT5" s="45"/>
+      <c r="CU5" s="43">
         <v>2006</v>
       </c>
-      <c r="CV5" s="46"/>
-      <c r="CW5" s="46"/>
-      <c r="CX5" s="46"/>
-      <c r="CY5" s="46"/>
-      <c r="CZ5" s="46"/>
-      <c r="DA5" s="46"/>
-      <c r="DB5" s="46"/>
-      <c r="DC5" s="46"/>
-      <c r="DD5" s="46"/>
-      <c r="DE5" s="46"/>
-      <c r="DF5" s="47"/>
-      <c r="DG5" s="45">
+      <c r="CV5" s="44"/>
+      <c r="CW5" s="44"/>
+      <c r="CX5" s="44"/>
+      <c r="CY5" s="44"/>
+      <c r="CZ5" s="44"/>
+      <c r="DA5" s="44"/>
+      <c r="DB5" s="44"/>
+      <c r="DC5" s="44"/>
+      <c r="DD5" s="44"/>
+      <c r="DE5" s="44"/>
+      <c r="DF5" s="45"/>
+      <c r="DG5" s="43">
         <v>2007</v>
       </c>
-      <c r="DH5" s="46"/>
-      <c r="DI5" s="46"/>
-      <c r="DJ5" s="46"/>
-      <c r="DK5" s="46"/>
-      <c r="DL5" s="46"/>
-      <c r="DM5" s="46"/>
-      <c r="DN5" s="46"/>
-      <c r="DO5" s="46"/>
-      <c r="DP5" s="46"/>
-      <c r="DQ5" s="46"/>
-      <c r="DR5" s="47"/>
-      <c r="DS5" s="45">
+      <c r="DH5" s="44"/>
+      <c r="DI5" s="44"/>
+      <c r="DJ5" s="44"/>
+      <c r="DK5" s="44"/>
+      <c r="DL5" s="44"/>
+      <c r="DM5" s="44"/>
+      <c r="DN5" s="44"/>
+      <c r="DO5" s="44"/>
+      <c r="DP5" s="44"/>
+      <c r="DQ5" s="44"/>
+      <c r="DR5" s="45"/>
+      <c r="DS5" s="43">
         <v>2008</v>
       </c>
-      <c r="DT5" s="46"/>
-      <c r="DU5" s="46"/>
-      <c r="DV5" s="46"/>
-      <c r="DW5" s="46"/>
-      <c r="DX5" s="46"/>
-      <c r="DY5" s="46"/>
-      <c r="DZ5" s="46"/>
-      <c r="EA5" s="46"/>
-      <c r="EB5" s="46"/>
-      <c r="EC5" s="46"/>
-      <c r="ED5" s="47"/>
-      <c r="EE5" s="45">
+      <c r="DT5" s="44"/>
+      <c r="DU5" s="44"/>
+      <c r="DV5" s="44"/>
+      <c r="DW5" s="44"/>
+      <c r="DX5" s="44"/>
+      <c r="DY5" s="44"/>
+      <c r="DZ5" s="44"/>
+      <c r="EA5" s="44"/>
+      <c r="EB5" s="44"/>
+      <c r="EC5" s="44"/>
+      <c r="ED5" s="45"/>
+      <c r="EE5" s="43">
         <v>2009</v>
       </c>
-      <c r="EF5" s="46"/>
-      <c r="EG5" s="46"/>
-      <c r="EH5" s="46"/>
-      <c r="EI5" s="46"/>
-      <c r="EJ5" s="46"/>
-      <c r="EK5" s="46"/>
-      <c r="EL5" s="46"/>
-      <c r="EM5" s="46"/>
-      <c r="EN5" s="46"/>
-      <c r="EO5" s="46"/>
-      <c r="EP5" s="47"/>
-      <c r="EQ5" s="45">
+      <c r="EF5" s="44"/>
+      <c r="EG5" s="44"/>
+      <c r="EH5" s="44"/>
+      <c r="EI5" s="44"/>
+      <c r="EJ5" s="44"/>
+      <c r="EK5" s="44"/>
+      <c r="EL5" s="44"/>
+      <c r="EM5" s="44"/>
+      <c r="EN5" s="44"/>
+      <c r="EO5" s="44"/>
+      <c r="EP5" s="45"/>
+      <c r="EQ5" s="43">
         <v>2010</v>
       </c>
-      <c r="ER5" s="46"/>
-      <c r="ES5" s="46"/>
-      <c r="ET5" s="46"/>
-      <c r="EU5" s="46"/>
-      <c r="EV5" s="46"/>
-      <c r="EW5" s="46"/>
-      <c r="EX5" s="46"/>
-      <c r="EY5" s="46"/>
-      <c r="EZ5" s="46"/>
-      <c r="FA5" s="46"/>
-      <c r="FB5" s="47"/>
-      <c r="FC5" s="45">
+      <c r="ER5" s="44"/>
+      <c r="ES5" s="44"/>
+      <c r="ET5" s="44"/>
+      <c r="EU5" s="44"/>
+      <c r="EV5" s="44"/>
+      <c r="EW5" s="44"/>
+      <c r="EX5" s="44"/>
+      <c r="EY5" s="44"/>
+      <c r="EZ5" s="44"/>
+      <c r="FA5" s="44"/>
+      <c r="FB5" s="45"/>
+      <c r="FC5" s="43">
         <v>2011</v>
       </c>
-      <c r="FD5" s="46"/>
-      <c r="FE5" s="46"/>
-      <c r="FF5" s="46"/>
-      <c r="FG5" s="46"/>
-      <c r="FH5" s="46"/>
-      <c r="FI5" s="46"/>
-      <c r="FJ5" s="46"/>
-      <c r="FK5" s="46"/>
-      <c r="FL5" s="46"/>
-      <c r="FM5" s="46"/>
-      <c r="FN5" s="47"/>
-      <c r="FO5" s="45">
+      <c r="FD5" s="44"/>
+      <c r="FE5" s="44"/>
+      <c r="FF5" s="44"/>
+      <c r="FG5" s="44"/>
+      <c r="FH5" s="44"/>
+      <c r="FI5" s="44"/>
+      <c r="FJ5" s="44"/>
+      <c r="FK5" s="44"/>
+      <c r="FL5" s="44"/>
+      <c r="FM5" s="44"/>
+      <c r="FN5" s="45"/>
+      <c r="FO5" s="43">
         <v>2012</v>
       </c>
-      <c r="FP5" s="46"/>
-      <c r="FQ5" s="46"/>
-      <c r="FR5" s="46"/>
-      <c r="FS5" s="46"/>
-      <c r="FT5" s="46"/>
-      <c r="FU5" s="46"/>
-      <c r="FV5" s="46"/>
-      <c r="FW5" s="46"/>
-      <c r="FX5" s="46"/>
-      <c r="FY5" s="46"/>
-      <c r="FZ5" s="47"/>
-      <c r="GA5" s="45">
+      <c r="FP5" s="44"/>
+      <c r="FQ5" s="44"/>
+      <c r="FR5" s="44"/>
+      <c r="FS5" s="44"/>
+      <c r="FT5" s="44"/>
+      <c r="FU5" s="44"/>
+      <c r="FV5" s="44"/>
+      <c r="FW5" s="44"/>
+      <c r="FX5" s="44"/>
+      <c r="FY5" s="44"/>
+      <c r="FZ5" s="45"/>
+      <c r="GA5" s="43">
         <v>2013</v>
       </c>
-      <c r="GB5" s="46"/>
-      <c r="GC5" s="46"/>
-      <c r="GD5" s="46"/>
-      <c r="GE5" s="46"/>
-      <c r="GF5" s="46"/>
-      <c r="GG5" s="46"/>
-      <c r="GH5" s="46"/>
-      <c r="GI5" s="46"/>
-      <c r="GJ5" s="46"/>
-      <c r="GK5" s="46"/>
-      <c r="GL5" s="47"/>
-      <c r="GM5" s="45">
+      <c r="GB5" s="44"/>
+      <c r="GC5" s="44"/>
+      <c r="GD5" s="44"/>
+      <c r="GE5" s="44"/>
+      <c r="GF5" s="44"/>
+      <c r="GG5" s="44"/>
+      <c r="GH5" s="44"/>
+      <c r="GI5" s="44"/>
+      <c r="GJ5" s="44"/>
+      <c r="GK5" s="44"/>
+      <c r="GL5" s="45"/>
+      <c r="GM5" s="43">
         <v>2014</v>
       </c>
-      <c r="GN5" s="46"/>
-      <c r="GO5" s="46"/>
-      <c r="GP5" s="46"/>
-      <c r="GQ5" s="46"/>
-      <c r="GR5" s="46"/>
-      <c r="GS5" s="46"/>
-      <c r="GT5" s="46"/>
-      <c r="GU5" s="46"/>
-      <c r="GV5" s="46"/>
-      <c r="GW5" s="46"/>
-      <c r="GX5" s="47"/>
-      <c r="GY5" s="45">
+      <c r="GN5" s="44"/>
+      <c r="GO5" s="44"/>
+      <c r="GP5" s="44"/>
+      <c r="GQ5" s="44"/>
+      <c r="GR5" s="44"/>
+      <c r="GS5" s="44"/>
+      <c r="GT5" s="44"/>
+      <c r="GU5" s="44"/>
+      <c r="GV5" s="44"/>
+      <c r="GW5" s="44"/>
+      <c r="GX5" s="45"/>
+      <c r="GY5" s="43">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="46"/>
-      <c r="HA5" s="46"/>
-      <c r="HB5" s="46"/>
-      <c r="HC5" s="46"/>
-      <c r="HD5" s="46"/>
-      <c r="HE5" s="46"/>
-      <c r="HF5" s="46"/>
-      <c r="HG5" s="46"/>
-      <c r="HH5" s="46"/>
-      <c r="HI5" s="46"/>
-      <c r="HJ5" s="47"/>
-      <c r="HK5" s="45">
+      <c r="GZ5" s="44"/>
+      <c r="HA5" s="44"/>
+      <c r="HB5" s="44"/>
+      <c r="HC5" s="44"/>
+      <c r="HD5" s="44"/>
+      <c r="HE5" s="44"/>
+      <c r="HF5" s="44"/>
+      <c r="HG5" s="44"/>
+      <c r="HH5" s="44"/>
+      <c r="HI5" s="44"/>
+      <c r="HJ5" s="45"/>
+      <c r="HK5" s="43">
         <v>2016</v>
       </c>
-      <c r="HL5" s="46"/>
-      <c r="HM5" s="46"/>
-      <c r="HN5" s="46"/>
-      <c r="HO5" s="46"/>
-      <c r="HP5" s="46"/>
-      <c r="HQ5" s="46"/>
-      <c r="HR5" s="46"/>
-      <c r="HS5" s="46"/>
-      <c r="HT5" s="46"/>
-      <c r="HU5" s="46"/>
-      <c r="HV5" s="47"/>
-      <c r="HW5" s="45">
+      <c r="HL5" s="44"/>
+      <c r="HM5" s="44"/>
+      <c r="HN5" s="44"/>
+      <c r="HO5" s="44"/>
+      <c r="HP5" s="44"/>
+      <c r="HQ5" s="44"/>
+      <c r="HR5" s="44"/>
+      <c r="HS5" s="44"/>
+      <c r="HT5" s="44"/>
+      <c r="HU5" s="44"/>
+      <c r="HV5" s="45"/>
+      <c r="HW5" s="43">
         <v>2017</v>
       </c>
-      <c r="HX5" s="46"/>
-      <c r="HY5" s="46"/>
-      <c r="HZ5" s="46"/>
-      <c r="IA5" s="46"/>
-      <c r="IB5" s="46"/>
-      <c r="IC5" s="46"/>
-      <c r="ID5" s="46"/>
-      <c r="IE5" s="46"/>
-      <c r="IF5" s="46"/>
-      <c r="IG5" s="46"/>
-      <c r="IH5" s="47"/>
-      <c r="II5" s="45">
+      <c r="HX5" s="44"/>
+      <c r="HY5" s="44"/>
+      <c r="HZ5" s="44"/>
+      <c r="IA5" s="44"/>
+      <c r="IB5" s="44"/>
+      <c r="IC5" s="44"/>
+      <c r="ID5" s="44"/>
+      <c r="IE5" s="44"/>
+      <c r="IF5" s="44"/>
+      <c r="IG5" s="44"/>
+      <c r="IH5" s="45"/>
+      <c r="II5" s="43">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="46"/>
-      <c r="IK5" s="46"/>
-      <c r="IL5" s="46"/>
-      <c r="IM5" s="46"/>
-      <c r="IN5" s="46"/>
-      <c r="IO5" s="46"/>
-      <c r="IP5" s="46"/>
-      <c r="IQ5" s="46"/>
-      <c r="IR5" s="46"/>
-      <c r="IS5" s="46"/>
-      <c r="IT5" s="47"/>
-      <c r="IU5" s="45">
+      <c r="IJ5" s="44"/>
+      <c r="IK5" s="44"/>
+      <c r="IL5" s="44"/>
+      <c r="IM5" s="44"/>
+      <c r="IN5" s="44"/>
+      <c r="IO5" s="44"/>
+      <c r="IP5" s="44"/>
+      <c r="IQ5" s="44"/>
+      <c r="IR5" s="44"/>
+      <c r="IS5" s="44"/>
+      <c r="IT5" s="45"/>
+      <c r="IU5" s="43">
         <v>2019</v>
       </c>
-      <c r="IV5" s="46"/>
-      <c r="IW5" s="46"/>
-      <c r="IX5" s="46"/>
-      <c r="IY5" s="46"/>
-      <c r="IZ5" s="46"/>
-      <c r="JA5" s="46"/>
-      <c r="JB5" s="46"/>
-      <c r="JC5" s="46"/>
-      <c r="JD5" s="46"/>
-      <c r="JE5" s="46"/>
-      <c r="JF5" s="47"/>
-      <c r="JG5" s="45">
+      <c r="IV5" s="44"/>
+      <c r="IW5" s="44"/>
+      <c r="IX5" s="44"/>
+      <c r="IY5" s="44"/>
+      <c r="IZ5" s="44"/>
+      <c r="JA5" s="44"/>
+      <c r="JB5" s="44"/>
+      <c r="JC5" s="44"/>
+      <c r="JD5" s="44"/>
+      <c r="JE5" s="44"/>
+      <c r="JF5" s="45"/>
+      <c r="JG5" s="43">
         <v>2020</v>
       </c>
-      <c r="JH5" s="46"/>
-      <c r="JI5" s="46"/>
-      <c r="JJ5" s="46"/>
-      <c r="JK5" s="46"/>
-      <c r="JL5" s="46"/>
-      <c r="JM5" s="46"/>
-      <c r="JN5" s="46"/>
-      <c r="JO5" s="46"/>
-      <c r="JP5" s="46"/>
-      <c r="JQ5" s="46"/>
-      <c r="JR5" s="47"/>
-      <c r="JS5" s="45">
+      <c r="JH5" s="44"/>
+      <c r="JI5" s="44"/>
+      <c r="JJ5" s="44"/>
+      <c r="JK5" s="44"/>
+      <c r="JL5" s="44"/>
+      <c r="JM5" s="44"/>
+      <c r="JN5" s="44"/>
+      <c r="JO5" s="44"/>
+      <c r="JP5" s="44"/>
+      <c r="JQ5" s="44"/>
+      <c r="JR5" s="45"/>
+      <c r="JS5" s="43">
         <v>2021</v>
       </c>
-      <c r="JT5" s="46"/>
-      <c r="JU5" s="46"/>
-      <c r="JV5" s="46"/>
-      <c r="JW5" s="46"/>
-      <c r="JX5" s="46"/>
-      <c r="JY5" s="46"/>
-      <c r="JZ5" s="46"/>
-      <c r="KA5" s="46"/>
-      <c r="KB5" s="46"/>
-      <c r="KC5" s="46"/>
-      <c r="KD5" s="46"/>
-      <c r="KE5" s="45">
+      <c r="JT5" s="44"/>
+      <c r="JU5" s="44"/>
+      <c r="JV5" s="44"/>
+      <c r="JW5" s="44"/>
+      <c r="JX5" s="44"/>
+      <c r="JY5" s="44"/>
+      <c r="JZ5" s="44"/>
+      <c r="KA5" s="44"/>
+      <c r="KB5" s="44"/>
+      <c r="KC5" s="44"/>
+      <c r="KD5" s="44"/>
+      <c r="KE5" s="43">
         <v>2022</v>
       </c>
-      <c r="KF5" s="46"/>
-      <c r="KG5" s="46"/>
-      <c r="KH5" s="46"/>
-      <c r="KI5" s="46"/>
-      <c r="KJ5" s="46"/>
-      <c r="KK5" s="46"/>
-      <c r="KL5" s="46"/>
-      <c r="KM5" s="46"/>
-      <c r="KN5" s="47"/>
+      <c r="KF5" s="44"/>
+      <c r="KG5" s="44"/>
+      <c r="KH5" s="44"/>
+      <c r="KI5" s="44"/>
+      <c r="KJ5" s="44"/>
+      <c r="KK5" s="44"/>
+      <c r="KL5" s="44"/>
+      <c r="KM5" s="44"/>
+      <c r="KN5" s="44"/>
+      <c r="KO5" s="45"/>
     </row>
-    <row r="6" spans="1:300" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+    <row r="6" spans="1:301" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2591,11 +2592,14 @@
       <c r="KM6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="KN6" s="11" t="s">
+      <c r="KN6" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="KO6" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:300" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:301" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3493,11 +3497,14 @@
       <c r="KM7" s="38">
         <v>119089</v>
       </c>
-      <c r="KN7" s="31">
+      <c r="KN7" s="38">
         <v>121255</v>
       </c>
+      <c r="KO7" s="31">
+        <v>120917</v>
+      </c>
     </row>
-    <row r="8" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4393,11 +4400,14 @@
       <c r="KM8" s="3">
         <v>22683</v>
       </c>
-      <c r="KN8" s="4">
+      <c r="KN8" s="3">
         <v>23113</v>
       </c>
+      <c r="KO8" s="4">
+        <v>23374</v>
+      </c>
     </row>
-    <row r="9" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5293,11 +5303,14 @@
       <c r="KM9" s="3">
         <v>5430</v>
       </c>
-      <c r="KN9" s="4">
+      <c r="KN9" s="3">
         <v>5575</v>
       </c>
+      <c r="KO9" s="4">
+        <v>5506</v>
+      </c>
     </row>
-    <row r="10" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6193,11 +6206,14 @@
       <c r="KM10" s="3">
         <v>18328</v>
       </c>
-      <c r="KN10" s="4">
+      <c r="KN10" s="3">
         <v>18748</v>
       </c>
+      <c r="KO10" s="4">
+        <v>18481</v>
+      </c>
     </row>
-    <row r="11" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7093,11 +7109,14 @@
       <c r="KM11" s="3">
         <v>18348</v>
       </c>
-      <c r="KN11" s="4">
+      <c r="KN11" s="3">
         <v>18722</v>
       </c>
+      <c r="KO11" s="4">
+        <v>18490</v>
+      </c>
     </row>
-    <row r="12" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -7993,11 +8012,14 @@
       <c r="KM12" s="3">
         <v>16288</v>
       </c>
-      <c r="KN12" s="4">
+      <c r="KN12" s="3">
         <v>16477</v>
       </c>
+      <c r="KO12" s="4">
+        <v>16358</v>
+      </c>
     </row>
-    <row r="13" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8893,11 +8915,14 @@
       <c r="KM13" s="3">
         <v>14258</v>
       </c>
-      <c r="KN13" s="4">
+      <c r="KN13" s="3">
         <v>14417</v>
       </c>
+      <c r="KO13" s="4">
+        <v>14380</v>
+      </c>
     </row>
-    <row r="14" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9793,11 +9818,14 @@
       <c r="KM14" s="3">
         <v>12311</v>
       </c>
-      <c r="KN14" s="4">
+      <c r="KN14" s="3">
         <v>12540</v>
       </c>
+      <c r="KO14" s="4">
+        <v>12602</v>
+      </c>
     </row>
-    <row r="15" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10693,11 +10721,14 @@
       <c r="KM15" s="3">
         <v>11434</v>
       </c>
-      <c r="KN15" s="4">
+      <c r="KN15" s="3">
         <v>11653</v>
       </c>
+      <c r="KO15" s="4">
+        <v>11717</v>
+      </c>
     </row>
-    <row r="16" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11593,11 +11624,14 @@
       <c r="KM16" s="39">
         <v>9</v>
       </c>
-      <c r="KN16" s="37">
+      <c r="KN16" s="39">
         <v>10</v>
       </c>
+      <c r="KO16" s="37">
+        <v>9</v>
+      </c>
     </row>
-    <row r="17" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12495,11 +12529,14 @@
       <c r="KM17" s="38">
         <v>397012</v>
       </c>
-      <c r="KN17" s="31">
+      <c r="KN17" s="38">
         <v>402868</v>
       </c>
+      <c r="KO17" s="31">
+        <v>403989</v>
+      </c>
     </row>
-    <row r="18" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13395,11 +13432,14 @@
       <c r="KM18" s="3">
         <v>61531</v>
       </c>
-      <c r="KN18" s="4">
+      <c r="KN18" s="3">
         <v>62879</v>
       </c>
+      <c r="KO18" s="4">
+        <v>63374</v>
+      </c>
     </row>
-    <row r="19" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14295,11 +14335,14 @@
       <c r="KM19" s="3">
         <v>10605</v>
       </c>
-      <c r="KN19" s="4">
+      <c r="KN19" s="3">
         <v>11007</v>
       </c>
+      <c r="KO19" s="4">
+        <v>11438</v>
+      </c>
     </row>
-    <row r="20" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15195,11 +15238,14 @@
       <c r="KM20" s="3">
         <v>54523</v>
       </c>
-      <c r="KN20" s="4">
+      <c r="KN20" s="3">
         <v>55436</v>
       </c>
+      <c r="KO20" s="4">
+        <v>55770</v>
+      </c>
     </row>
-    <row r="21" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -16095,11 +16141,14 @@
       <c r="KM21" s="3">
         <v>66174</v>
       </c>
-      <c r="KN21" s="4">
+      <c r="KN21" s="3">
         <v>66882</v>
       </c>
+      <c r="KO21" s="4">
+        <v>66849</v>
+      </c>
     </row>
-    <row r="22" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -16995,11 +17044,14 @@
       <c r="KM22" s="3">
         <v>64252</v>
       </c>
-      <c r="KN22" s="4">
+      <c r="KN22" s="3">
         <v>64959</v>
       </c>
+      <c r="KO22" s="4">
+        <v>64740</v>
+      </c>
     </row>
-    <row r="23" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17895,11 +17947,14 @@
       <c r="KM23" s="3">
         <v>55377</v>
       </c>
-      <c r="KN23" s="4">
+      <c r="KN23" s="3">
         <v>55995</v>
       </c>
+      <c r="KO23" s="4">
+        <v>56064</v>
+      </c>
     </row>
-    <row r="24" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18795,11 +18850,14 @@
       <c r="KM24" s="3">
         <v>45796</v>
       </c>
-      <c r="KN24" s="4">
+      <c r="KN24" s="3">
         <v>46436</v>
       </c>
+      <c r="KO24" s="4">
+        <v>46432</v>
+      </c>
     </row>
-    <row r="25" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -19695,11 +19753,14 @@
       <c r="KM25" s="3">
         <v>38752</v>
       </c>
-      <c r="KN25" s="4">
+      <c r="KN25" s="3">
         <v>39270</v>
       </c>
+      <c r="KO25" s="4">
+        <v>39319</v>
+      </c>
     </row>
-    <row r="26" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -20587,11 +20648,14 @@
       <c r="KM26" s="39">
         <v>2</v>
       </c>
-      <c r="KN26" s="37">
+      <c r="KN26" s="39">
         <v>4</v>
       </c>
+      <c r="KO26" s="37">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -21489,11 +21553,14 @@
       <c r="KM27" s="38">
         <v>145163</v>
       </c>
-      <c r="KN27" s="31">
+      <c r="KN27" s="38">
         <v>150581</v>
       </c>
+      <c r="KO27" s="31">
+        <v>152128</v>
+      </c>
     </row>
-    <row r="28" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -22389,11 +22456,14 @@
       <c r="KM28" s="3">
         <v>26510</v>
       </c>
-      <c r="KN28" s="4">
+      <c r="KN28" s="3">
         <v>27430</v>
       </c>
+      <c r="KO28" s="4">
+        <v>27603</v>
+      </c>
     </row>
-    <row r="29" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -23289,11 +23359,14 @@
       <c r="KM29" s="3">
         <v>4705</v>
       </c>
-      <c r="KN29" s="4">
+      <c r="KN29" s="3">
         <v>4878</v>
       </c>
+      <c r="KO29" s="4">
+        <v>4987</v>
+      </c>
     </row>
-    <row r="30" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -24189,11 +24262,14 @@
       <c r="KM30" s="3">
         <v>18220</v>
       </c>
-      <c r="KN30" s="4">
+      <c r="KN30" s="3">
         <v>19147</v>
       </c>
+      <c r="KO30" s="4">
+        <v>19365</v>
+      </c>
     </row>
-    <row r="31" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -25089,11 +25165,14 @@
       <c r="KM31" s="3">
         <v>23289</v>
       </c>
-      <c r="KN31" s="4">
+      <c r="KN31" s="3">
         <v>24064</v>
       </c>
+      <c r="KO31" s="4">
+        <v>24514</v>
+      </c>
     </row>
-    <row r="32" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -25989,11 +26068,14 @@
       <c r="KM32" s="3">
         <v>21977</v>
       </c>
-      <c r="KN32" s="4">
+      <c r="KN32" s="3">
         <v>22735</v>
       </c>
+      <c r="KO32" s="4">
+        <v>22926</v>
+      </c>
     </row>
-    <row r="33" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -26889,11 +26971,14 @@
       <c r="KM33" s="3">
         <v>19333</v>
       </c>
-      <c r="KN33" s="4">
+      <c r="KN33" s="3">
         <v>20061</v>
       </c>
+      <c r="KO33" s="4">
+        <v>20293</v>
+      </c>
     </row>
-    <row r="34" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -27789,11 +27874,14 @@
       <c r="KM34" s="3">
         <v>16520</v>
       </c>
-      <c r="KN34" s="4">
+      <c r="KN34" s="3">
         <v>17259</v>
       </c>
+      <c r="KO34" s="4">
+        <v>17271</v>
+      </c>
     </row>
-    <row r="35" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -28689,11 +28777,14 @@
       <c r="KM35" s="3">
         <v>14587</v>
       </c>
-      <c r="KN35" s="4">
+      <c r="KN35" s="3">
         <v>14987</v>
       </c>
+      <c r="KO35" s="4">
+        <v>15154</v>
+      </c>
     </row>
-    <row r="36" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -29589,11 +29680,14 @@
       <c r="KM36" s="39">
         <v>22</v>
       </c>
-      <c r="KN36" s="37">
+      <c r="KN36" s="39">
         <v>20</v>
       </c>
+      <c r="KO36" s="37">
+        <v>15</v>
+      </c>
     </row>
-    <row r="37" spans="1:300" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:301" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -30491,11 +30585,14 @@
       <c r="KM37" s="40">
         <v>9686</v>
       </c>
-      <c r="KN37" s="33">
+      <c r="KN37" s="40">
         <v>9745</v>
       </c>
+      <c r="KO37" s="33">
+        <v>9847</v>
+      </c>
     </row>
-    <row r="38" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -31391,11 +31488,14 @@
       <c r="KM38" s="3">
         <v>1725</v>
       </c>
-      <c r="KN38" s="4">
+      <c r="KN38" s="3">
         <v>1724</v>
       </c>
+      <c r="KO38" s="4">
+        <v>1731</v>
+      </c>
     </row>
-    <row r="39" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -32291,11 +32391,14 @@
       <c r="KM39" s="3">
         <v>88</v>
       </c>
-      <c r="KN39" s="4">
+      <c r="KN39" s="3">
         <v>77</v>
       </c>
+      <c r="KO39" s="4">
+        <v>77</v>
+      </c>
     </row>
-    <row r="40" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -33191,11 +33294,14 @@
       <c r="KM40" s="3">
         <v>525</v>
       </c>
-      <c r="KN40" s="4">
+      <c r="KN40" s="3">
         <v>551</v>
       </c>
+      <c r="KO40" s="4">
+        <v>570</v>
+      </c>
     </row>
-    <row r="41" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -34091,11 +34197,14 @@
       <c r="KM41" s="3">
         <v>1004</v>
       </c>
-      <c r="KN41" s="4">
+      <c r="KN41" s="3">
         <v>1025</v>
       </c>
+      <c r="KO41" s="4">
+        <v>1045</v>
+      </c>
     </row>
-    <row r="42" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -34991,11 +35100,14 @@
       <c r="KM42" s="3">
         <v>1391</v>
       </c>
-      <c r="KN42" s="4">
+      <c r="KN42" s="3">
         <v>1409</v>
       </c>
+      <c r="KO42" s="4">
+        <v>1407</v>
+      </c>
     </row>
-    <row r="43" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -35891,11 +36003,14 @@
       <c r="KM43" s="3">
         <v>1801</v>
       </c>
-      <c r="KN43" s="4">
+      <c r="KN43" s="3">
         <v>1794</v>
       </c>
+      <c r="KO43" s="4">
+        <v>1819</v>
+      </c>
     </row>
-    <row r="44" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -36791,11 +36906,14 @@
       <c r="KM44" s="3">
         <v>1701</v>
       </c>
-      <c r="KN44" s="4">
+      <c r="KN44" s="3">
         <v>1701</v>
       </c>
+      <c r="KO44" s="4">
+        <v>1712</v>
+      </c>
     </row>
-    <row r="45" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -37691,11 +37809,14 @@
       <c r="KM45" s="3">
         <v>1451</v>
       </c>
-      <c r="KN45" s="4">
+      <c r="KN45" s="3">
         <v>1464</v>
       </c>
+      <c r="KO45" s="4">
+        <v>1486</v>
+      </c>
     </row>
-    <row r="46" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -38121,9 +38242,10 @@
       <c r="KK46" s="39"/>
       <c r="KL46" s="39"/>
       <c r="KM46" s="39"/>
-      <c r="KN46" s="37"/>
+      <c r="KN46" s="39"/>
+      <c r="KO46" s="37"/>
     </row>
-    <row r="47" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -39021,11 +39143,14 @@
       <c r="KM47" s="38">
         <v>509874</v>
       </c>
-      <c r="KN47" s="31">
+      <c r="KN47" s="38">
         <v>513734</v>
       </c>
+      <c r="KO47" s="31">
+        <v>515303</v>
+      </c>
     </row>
-    <row r="48" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -39921,11 +40046,14 @@
       <c r="KM48" s="3">
         <v>78421</v>
       </c>
-      <c r="KN48" s="4">
+      <c r="KN48" s="3">
         <v>79207</v>
       </c>
+      <c r="KO48" s="4">
+        <v>79869</v>
+      </c>
     </row>
-    <row r="49" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -40821,11 +40949,14 @@
       <c r="KM49" s="3">
         <v>14792</v>
       </c>
-      <c r="KN49" s="4">
+      <c r="KN49" s="3">
         <v>15074</v>
       </c>
+      <c r="KO49" s="4">
+        <v>14983</v>
+      </c>
     </row>
-    <row r="50" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -41721,11 +41852,14 @@
       <c r="KM50" s="3">
         <v>71855</v>
       </c>
-      <c r="KN50" s="4">
+      <c r="KN50" s="3">
         <v>72520</v>
       </c>
+      <c r="KO50" s="4">
+        <v>72376</v>
+      </c>
     </row>
-    <row r="51" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -42621,11 +42755,14 @@
       <c r="KM51" s="3">
         <v>82507</v>
       </c>
-      <c r="KN51" s="4">
+      <c r="KN51" s="3">
         <v>82930</v>
       </c>
+      <c r="KO51" s="4">
+        <v>83248</v>
+      </c>
     </row>
-    <row r="52" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -43521,11 +43658,14 @@
       <c r="KM52" s="3">
         <v>76576</v>
       </c>
-      <c r="KN52" s="4">
+      <c r="KN52" s="3">
         <v>77237</v>
       </c>
+      <c r="KO52" s="4">
+        <v>77286</v>
+      </c>
     </row>
-    <row r="53" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -44421,11 +44561,14 @@
       <c r="KM53" s="3">
         <v>68446</v>
       </c>
-      <c r="KN53" s="4">
+      <c r="KN53" s="3">
         <v>68607</v>
       </c>
+      <c r="KO53" s="4">
+        <v>68974</v>
+      </c>
     </row>
-    <row r="54" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -45321,11 +45464,14 @@
       <c r="KM54" s="3">
         <v>63038</v>
       </c>
-      <c r="KN54" s="4">
+      <c r="KN54" s="3">
         <v>63442</v>
       </c>
+      <c r="KO54" s="4">
+        <v>63592</v>
+      </c>
     </row>
-    <row r="55" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -46221,11 +46367,14 @@
       <c r="KM55" s="3">
         <v>54236</v>
       </c>
-      <c r="KN55" s="4">
+      <c r="KN55" s="3">
         <v>54713</v>
       </c>
+      <c r="KO55" s="4">
+        <v>54972</v>
+      </c>
     </row>
-    <row r="56" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -47121,11 +47270,14 @@
       <c r="KM56" s="39">
         <v>3</v>
       </c>
-      <c r="KN56" s="37">
+      <c r="KN56" s="39">
         <v>4</v>
       </c>
+      <c r="KO56" s="37">
+        <v>3</v>
+      </c>
     </row>
-    <row r="57" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -48023,11 +48175,14 @@
       <c r="KM57" s="38">
         <v>2518</v>
       </c>
-      <c r="KN57" s="31">
+      <c r="KN57" s="38">
         <v>2505</v>
       </c>
+      <c r="KO57" s="31">
+        <v>2515</v>
+      </c>
     </row>
-    <row r="58" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -48923,11 +49078,14 @@
       <c r="KM58" s="3">
         <v>524</v>
       </c>
-      <c r="KN58" s="4">
+      <c r="KN58" s="3">
         <v>522</v>
       </c>
+      <c r="KO58" s="4">
+        <v>528</v>
+      </c>
     </row>
-    <row r="59" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -49823,11 +49981,14 @@
       <c r="KM59" s="3">
         <v>35</v>
       </c>
-      <c r="KN59" s="4">
+      <c r="KN59" s="3">
         <v>38</v>
       </c>
+      <c r="KO59" s="4">
+        <v>32</v>
+      </c>
     </row>
-    <row r="60" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -50723,11 +50884,14 @@
       <c r="KM60" s="3">
         <v>194</v>
       </c>
-      <c r="KN60" s="4">
+      <c r="KN60" s="3">
         <v>193</v>
       </c>
+      <c r="KO60" s="4">
+        <v>190</v>
+      </c>
     </row>
-    <row r="61" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -51623,11 +51787,14 @@
       <c r="KM61" s="3">
         <v>387</v>
       </c>
-      <c r="KN61" s="4">
+      <c r="KN61" s="3">
         <v>381</v>
       </c>
+      <c r="KO61" s="4">
+        <v>380</v>
+      </c>
     </row>
-    <row r="62" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -52523,11 +52690,14 @@
       <c r="KM62" s="3">
         <v>390</v>
       </c>
-      <c r="KN62" s="4">
+      <c r="KN62" s="3">
         <v>401</v>
       </c>
+      <c r="KO62" s="4">
+        <v>401</v>
+      </c>
     </row>
-    <row r="63" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -53423,11 +53593,14 @@
       <c r="KM63" s="3">
         <v>379</v>
       </c>
-      <c r="KN63" s="4">
+      <c r="KN63" s="3">
         <v>369</v>
       </c>
+      <c r="KO63" s="4">
+        <v>377</v>
+      </c>
     </row>
-    <row r="64" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -54323,11 +54496,14 @@
       <c r="KM64" s="3">
         <v>326</v>
       </c>
-      <c r="KN64" s="4">
+      <c r="KN64" s="3">
         <v>324</v>
       </c>
+      <c r="KO64" s="4">
+        <v>333</v>
+      </c>
     </row>
-    <row r="65" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -55223,11 +55399,14 @@
       <c r="KM65" s="3">
         <v>283</v>
       </c>
-      <c r="KN65" s="4">
+      <c r="KN65" s="3">
         <v>277</v>
       </c>
+      <c r="KO65" s="4">
+        <v>274</v>
+      </c>
     </row>
-    <row r="66" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -55587,9 +55766,10 @@
       <c r="KK66" s="39"/>
       <c r="KL66" s="39"/>
       <c r="KM66" s="39"/>
-      <c r="KN66" s="37"/>
+      <c r="KN66" s="39"/>
+      <c r="KO66" s="37"/>
     </row>
-    <row r="67" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -56487,11 +56667,14 @@
       <c r="KM67" s="38">
         <v>640257</v>
       </c>
-      <c r="KN67" s="31">
+      <c r="KN67" s="38">
         <v>645409</v>
       </c>
+      <c r="KO67" s="31">
+        <v>650779</v>
+      </c>
     </row>
-    <row r="68" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -57387,11 +57570,14 @@
       <c r="KM68" s="3">
         <v>134724</v>
       </c>
-      <c r="KN68" s="4">
+      <c r="KN68" s="3">
         <v>135198</v>
       </c>
+      <c r="KO68" s="4">
+        <v>136155</v>
+      </c>
     </row>
-    <row r="69" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -58287,11 +58473,14 @@
       <c r="KM69" s="3">
         <v>10282</v>
       </c>
-      <c r="KN69" s="4">
+      <c r="KN69" s="3">
         <v>10442</v>
       </c>
+      <c r="KO69" s="4">
+        <v>10556</v>
+      </c>
     </row>
-    <row r="70" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -59187,11 +59376,14 @@
       <c r="KM70" s="3">
         <v>62123</v>
       </c>
-      <c r="KN70" s="4">
+      <c r="KN70" s="3">
         <v>62929</v>
       </c>
+      <c r="KO70" s="4">
+        <v>63665</v>
+      </c>
     </row>
-    <row r="71" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -60087,11 +60279,14 @@
       <c r="KM71" s="3">
         <v>99717</v>
       </c>
-      <c r="KN71" s="4">
+      <c r="KN71" s="3">
         <v>100800</v>
       </c>
+      <c r="KO71" s="4">
+        <v>101615</v>
+      </c>
     </row>
-    <row r="72" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -60987,11 +61182,14 @@
       <c r="KM72" s="3">
         <v>96461</v>
       </c>
-      <c r="KN72" s="4">
+      <c r="KN72" s="3">
         <v>97510</v>
       </c>
+      <c r="KO72" s="4">
+        <v>98645</v>
+      </c>
     </row>
-    <row r="73" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -61887,11 +62085,14 @@
       <c r="KM73" s="3">
         <v>87375</v>
       </c>
-      <c r="KN73" s="4">
+      <c r="KN73" s="3">
         <v>88172</v>
       </c>
+      <c r="KO73" s="4">
+        <v>88663</v>
+      </c>
     </row>
-    <row r="74" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -62787,11 +62988,14 @@
       <c r="KM74" s="3">
         <v>78545</v>
       </c>
-      <c r="KN74" s="4">
+      <c r="KN74" s="3">
         <v>79015</v>
       </c>
+      <c r="KO74" s="4">
+        <v>79725</v>
+      </c>
     </row>
-    <row r="75" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -63687,11 +63891,14 @@
       <c r="KM75" s="3">
         <v>71024</v>
       </c>
-      <c r="KN75" s="4">
+      <c r="KN75" s="3">
         <v>71339</v>
       </c>
+      <c r="KO75" s="4">
+        <v>71750</v>
+      </c>
     </row>
-    <row r="76" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -64587,11 +64794,14 @@
       <c r="KM76" s="39">
         <v>6</v>
       </c>
-      <c r="KN76" s="37">
+      <c r="KN76" s="39">
         <v>4</v>
       </c>
+      <c r="KO76" s="37">
+        <v>5</v>
+      </c>
     </row>
-    <row r="77" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -65489,11 +65699,14 @@
       <c r="KM77" s="38">
         <v>104048</v>
       </c>
-      <c r="KN77" s="31">
+      <c r="KN77" s="38">
         <v>104844</v>
       </c>
+      <c r="KO77" s="31">
+        <v>105032</v>
+      </c>
     </row>
-    <row r="78" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -66389,11 +66602,14 @@
       <c r="KM78" s="3">
         <v>18675</v>
       </c>
-      <c r="KN78" s="4">
+      <c r="KN78" s="3">
         <v>18705</v>
       </c>
+      <c r="KO78" s="4">
+        <v>18633</v>
+      </c>
     </row>
-    <row r="79" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -67289,11 +67505,14 @@
       <c r="KM79" s="3">
         <v>1709</v>
       </c>
-      <c r="KN79" s="4">
+      <c r="KN79" s="3">
         <v>1844</v>
       </c>
+      <c r="KO79" s="4">
+        <v>1854</v>
+      </c>
     </row>
-    <row r="80" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -68189,11 +68408,14 @@
       <c r="KM80" s="3">
         <v>11838</v>
       </c>
-      <c r="KN80" s="4">
+      <c r="KN80" s="3">
         <v>11944</v>
       </c>
+      <c r="KO80" s="4">
+        <v>12013</v>
+      </c>
     </row>
-    <row r="81" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -69089,11 +69311,14 @@
       <c r="KM81" s="3">
         <v>15951</v>
       </c>
-      <c r="KN81" s="4">
+      <c r="KN81" s="3">
         <v>16034</v>
       </c>
+      <c r="KO81" s="4">
+        <v>16064</v>
+      </c>
     </row>
-    <row r="82" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -69989,11 +70214,14 @@
       <c r="KM82" s="3">
         <v>15966</v>
       </c>
-      <c r="KN82" s="4">
+      <c r="KN82" s="3">
         <v>16090</v>
       </c>
+      <c r="KO82" s="4">
+        <v>16153</v>
+      </c>
     </row>
-    <row r="83" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -70889,11 +71117,14 @@
       <c r="KM83" s="3">
         <v>14916</v>
       </c>
-      <c r="KN83" s="4">
+      <c r="KN83" s="3">
         <v>15105</v>
       </c>
+      <c r="KO83" s="4">
+        <v>15109</v>
+      </c>
     </row>
-    <row r="84" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -71789,11 +72020,14 @@
       <c r="KM84" s="3">
         <v>13090</v>
       </c>
-      <c r="KN84" s="4">
+      <c r="KN84" s="3">
         <v>13174</v>
       </c>
+      <c r="KO84" s="4">
+        <v>13247</v>
+      </c>
     </row>
-    <row r="85" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -72689,11 +72923,14 @@
       <c r="KM85" s="3">
         <v>11900</v>
       </c>
-      <c r="KN85" s="4">
+      <c r="KN85" s="3">
         <v>11943</v>
       </c>
+      <c r="KO85" s="4">
+        <v>11958</v>
+      </c>
     </row>
-    <row r="86" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -73401,11 +73638,14 @@
       <c r="KM86" s="39">
         <v>3</v>
       </c>
-      <c r="KN86" s="37">
+      <c r="KN86" s="39">
         <v>5</v>
       </c>
+      <c r="KO86" s="37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -74303,12 +74543,15 @@
       <c r="KM87" s="41">
         <v>1927647</v>
       </c>
-      <c r="KN87" s="35">
+      <c r="KN87" s="41">
         <v>1950941</v>
       </c>
-      <c r="KO87" s="24"/>
+      <c r="KO87" s="35">
+        <v>1960510</v>
+      </c>
+      <c r="KP87" s="24"/>
     </row>
-    <row r="88" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
         <v>23</v>
       </c>
@@ -74320,11 +74563,26 @@
       <c r="G88" s="42"/>
       <c r="KD88" s="24"/>
     </row>
-    <row r="89" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:302" x14ac:dyDescent="0.25">
       <c r="KD89" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="KE5:KO5"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JS5:KD5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
+    <mergeCell ref="DS5:ED5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -74340,21 +74598,6 @@
     <mergeCell ref="CI5:CT5"/>
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="KE5:KN5"/>
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JS5:KD5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
-    <mergeCell ref="DS5:ED5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998 - noviembre 2022</t>
+    <t>Enero 1998 - diciembre 2022</t>
   </si>
 </sst>
 </file>
@@ -969,6 +969,12 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -976,12 +982,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1305,22 +1305,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KP89"/>
+  <dimension ref="A1:KQ89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="KE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="KF91" sqref="KF91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="301" width="11.875" style="1" customWidth="1"/>
-    <col min="302" max="16384" width="11.375" style="1"/>
+    <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="302" width="11.875" style="1" customWidth="1"/>
+    <col min="303" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:301" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:302" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>36</v>
       </c>
@@ -1329,378 +1329,379 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:301" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:302" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="45">
         <v>1998</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="43">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="45">
         <v>1999</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="43">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="45">
         <v>2000</v>
       </c>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="43">
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="45">
         <v>2001</v>
       </c>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="44"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="44"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="43">
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="45">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="44"/>
-      <c r="BB5" s="44"/>
-      <c r="BC5" s="44"/>
-      <c r="BD5" s="44"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="44"/>
-      <c r="BG5" s="44"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="44"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="43">
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="46"/>
+      <c r="BC5" s="46"/>
+      <c r="BD5" s="46"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="46"/>
+      <c r="BG5" s="46"/>
+      <c r="BH5" s="46"/>
+      <c r="BI5" s="46"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="45">
         <v>2003</v>
       </c>
-      <c r="BL5" s="44"/>
-      <c r="BM5" s="44"/>
-      <c r="BN5" s="44"/>
-      <c r="BO5" s="44"/>
-      <c r="BP5" s="44"/>
-      <c r="BQ5" s="44"/>
-      <c r="BR5" s="44"/>
-      <c r="BS5" s="44"/>
-      <c r="BT5" s="44"/>
-      <c r="BU5" s="44"/>
-      <c r="BV5" s="45"/>
-      <c r="BW5" s="43">
+      <c r="BL5" s="46"/>
+      <c r="BM5" s="46"/>
+      <c r="BN5" s="46"/>
+      <c r="BO5" s="46"/>
+      <c r="BP5" s="46"/>
+      <c r="BQ5" s="46"/>
+      <c r="BR5" s="46"/>
+      <c r="BS5" s="46"/>
+      <c r="BT5" s="46"/>
+      <c r="BU5" s="46"/>
+      <c r="BV5" s="47"/>
+      <c r="BW5" s="45">
         <v>2004</v>
       </c>
-      <c r="BX5" s="44"/>
-      <c r="BY5" s="44"/>
-      <c r="BZ5" s="44"/>
-      <c r="CA5" s="44"/>
-      <c r="CB5" s="44"/>
-      <c r="CC5" s="44"/>
-      <c r="CD5" s="44"/>
-      <c r="CE5" s="44"/>
-      <c r="CF5" s="44"/>
-      <c r="CG5" s="44"/>
-      <c r="CH5" s="45"/>
-      <c r="CI5" s="43">
+      <c r="BX5" s="46"/>
+      <c r="BY5" s="46"/>
+      <c r="BZ5" s="46"/>
+      <c r="CA5" s="46"/>
+      <c r="CB5" s="46"/>
+      <c r="CC5" s="46"/>
+      <c r="CD5" s="46"/>
+      <c r="CE5" s="46"/>
+      <c r="CF5" s="46"/>
+      <c r="CG5" s="46"/>
+      <c r="CH5" s="47"/>
+      <c r="CI5" s="45">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="44"/>
-      <c r="CK5" s="44"/>
-      <c r="CL5" s="44"/>
-      <c r="CM5" s="44"/>
-      <c r="CN5" s="44"/>
-      <c r="CO5" s="44"/>
-      <c r="CP5" s="44"/>
-      <c r="CQ5" s="44"/>
-      <c r="CR5" s="44"/>
-      <c r="CS5" s="44"/>
-      <c r="CT5" s="45"/>
-      <c r="CU5" s="43">
+      <c r="CJ5" s="46"/>
+      <c r="CK5" s="46"/>
+      <c r="CL5" s="46"/>
+      <c r="CM5" s="46"/>
+      <c r="CN5" s="46"/>
+      <c r="CO5" s="46"/>
+      <c r="CP5" s="46"/>
+      <c r="CQ5" s="46"/>
+      <c r="CR5" s="46"/>
+      <c r="CS5" s="46"/>
+      <c r="CT5" s="47"/>
+      <c r="CU5" s="45">
         <v>2006</v>
       </c>
-      <c r="CV5" s="44"/>
-      <c r="CW5" s="44"/>
-      <c r="CX5" s="44"/>
-      <c r="CY5" s="44"/>
-      <c r="CZ5" s="44"/>
-      <c r="DA5" s="44"/>
-      <c r="DB5" s="44"/>
-      <c r="DC5" s="44"/>
-      <c r="DD5" s="44"/>
-      <c r="DE5" s="44"/>
-      <c r="DF5" s="45"/>
-      <c r="DG5" s="43">
+      <c r="CV5" s="46"/>
+      <c r="CW5" s="46"/>
+      <c r="CX5" s="46"/>
+      <c r="CY5" s="46"/>
+      <c r="CZ5" s="46"/>
+      <c r="DA5" s="46"/>
+      <c r="DB5" s="46"/>
+      <c r="DC5" s="46"/>
+      <c r="DD5" s="46"/>
+      <c r="DE5" s="46"/>
+      <c r="DF5" s="47"/>
+      <c r="DG5" s="45">
         <v>2007</v>
       </c>
-      <c r="DH5" s="44"/>
-      <c r="DI5" s="44"/>
-      <c r="DJ5" s="44"/>
-      <c r="DK5" s="44"/>
-      <c r="DL5" s="44"/>
-      <c r="DM5" s="44"/>
-      <c r="DN5" s="44"/>
-      <c r="DO5" s="44"/>
-      <c r="DP5" s="44"/>
-      <c r="DQ5" s="44"/>
-      <c r="DR5" s="45"/>
-      <c r="DS5" s="43">
+      <c r="DH5" s="46"/>
+      <c r="DI5" s="46"/>
+      <c r="DJ5" s="46"/>
+      <c r="DK5" s="46"/>
+      <c r="DL5" s="46"/>
+      <c r="DM5" s="46"/>
+      <c r="DN5" s="46"/>
+      <c r="DO5" s="46"/>
+      <c r="DP5" s="46"/>
+      <c r="DQ5" s="46"/>
+      <c r="DR5" s="47"/>
+      <c r="DS5" s="45">
         <v>2008</v>
       </c>
-      <c r="DT5" s="44"/>
-      <c r="DU5" s="44"/>
-      <c r="DV5" s="44"/>
-      <c r="DW5" s="44"/>
-      <c r="DX5" s="44"/>
-      <c r="DY5" s="44"/>
-      <c r="DZ5" s="44"/>
-      <c r="EA5" s="44"/>
-      <c r="EB5" s="44"/>
-      <c r="EC5" s="44"/>
-      <c r="ED5" s="45"/>
-      <c r="EE5" s="43">
+      <c r="DT5" s="46"/>
+      <c r="DU5" s="46"/>
+      <c r="DV5" s="46"/>
+      <c r="DW5" s="46"/>
+      <c r="DX5" s="46"/>
+      <c r="DY5" s="46"/>
+      <c r="DZ5" s="46"/>
+      <c r="EA5" s="46"/>
+      <c r="EB5" s="46"/>
+      <c r="EC5" s="46"/>
+      <c r="ED5" s="47"/>
+      <c r="EE5" s="45">
         <v>2009</v>
       </c>
-      <c r="EF5" s="44"/>
-      <c r="EG5" s="44"/>
-      <c r="EH5" s="44"/>
-      <c r="EI5" s="44"/>
-      <c r="EJ5" s="44"/>
-      <c r="EK5" s="44"/>
-      <c r="EL5" s="44"/>
-      <c r="EM5" s="44"/>
-      <c r="EN5" s="44"/>
-      <c r="EO5" s="44"/>
-      <c r="EP5" s="45"/>
-      <c r="EQ5" s="43">
+      <c r="EF5" s="46"/>
+      <c r="EG5" s="46"/>
+      <c r="EH5" s="46"/>
+      <c r="EI5" s="46"/>
+      <c r="EJ5" s="46"/>
+      <c r="EK5" s="46"/>
+      <c r="EL5" s="46"/>
+      <c r="EM5" s="46"/>
+      <c r="EN5" s="46"/>
+      <c r="EO5" s="46"/>
+      <c r="EP5" s="47"/>
+      <c r="EQ5" s="45">
         <v>2010</v>
       </c>
-      <c r="ER5" s="44"/>
-      <c r="ES5" s="44"/>
-      <c r="ET5" s="44"/>
-      <c r="EU5" s="44"/>
-      <c r="EV5" s="44"/>
-      <c r="EW5" s="44"/>
-      <c r="EX5" s="44"/>
-      <c r="EY5" s="44"/>
-      <c r="EZ5" s="44"/>
-      <c r="FA5" s="44"/>
-      <c r="FB5" s="45"/>
-      <c r="FC5" s="43">
+      <c r="ER5" s="46"/>
+      <c r="ES5" s="46"/>
+      <c r="ET5" s="46"/>
+      <c r="EU5" s="46"/>
+      <c r="EV5" s="46"/>
+      <c r="EW5" s="46"/>
+      <c r="EX5" s="46"/>
+      <c r="EY5" s="46"/>
+      <c r="EZ5" s="46"/>
+      <c r="FA5" s="46"/>
+      <c r="FB5" s="47"/>
+      <c r="FC5" s="45">
         <v>2011</v>
       </c>
-      <c r="FD5" s="44"/>
-      <c r="FE5" s="44"/>
-      <c r="FF5" s="44"/>
-      <c r="FG5" s="44"/>
-      <c r="FH5" s="44"/>
-      <c r="FI5" s="44"/>
-      <c r="FJ5" s="44"/>
-      <c r="FK5" s="44"/>
-      <c r="FL5" s="44"/>
-      <c r="FM5" s="44"/>
-      <c r="FN5" s="45"/>
-      <c r="FO5" s="43">
+      <c r="FD5" s="46"/>
+      <c r="FE5" s="46"/>
+      <c r="FF5" s="46"/>
+      <c r="FG5" s="46"/>
+      <c r="FH5" s="46"/>
+      <c r="FI5" s="46"/>
+      <c r="FJ5" s="46"/>
+      <c r="FK5" s="46"/>
+      <c r="FL5" s="46"/>
+      <c r="FM5" s="46"/>
+      <c r="FN5" s="47"/>
+      <c r="FO5" s="45">
         <v>2012</v>
       </c>
-      <c r="FP5" s="44"/>
-      <c r="FQ5" s="44"/>
-      <c r="FR5" s="44"/>
-      <c r="FS5" s="44"/>
-      <c r="FT5" s="44"/>
-      <c r="FU5" s="44"/>
-      <c r="FV5" s="44"/>
-      <c r="FW5" s="44"/>
-      <c r="FX5" s="44"/>
-      <c r="FY5" s="44"/>
-      <c r="FZ5" s="45"/>
-      <c r="GA5" s="43">
+      <c r="FP5" s="46"/>
+      <c r="FQ5" s="46"/>
+      <c r="FR5" s="46"/>
+      <c r="FS5" s="46"/>
+      <c r="FT5" s="46"/>
+      <c r="FU5" s="46"/>
+      <c r="FV5" s="46"/>
+      <c r="FW5" s="46"/>
+      <c r="FX5" s="46"/>
+      <c r="FY5" s="46"/>
+      <c r="FZ5" s="47"/>
+      <c r="GA5" s="45">
         <v>2013</v>
       </c>
-      <c r="GB5" s="44"/>
-      <c r="GC5" s="44"/>
-      <c r="GD5" s="44"/>
-      <c r="GE5" s="44"/>
-      <c r="GF5" s="44"/>
-      <c r="GG5" s="44"/>
-      <c r="GH5" s="44"/>
-      <c r="GI5" s="44"/>
-      <c r="GJ5" s="44"/>
-      <c r="GK5" s="44"/>
-      <c r="GL5" s="45"/>
-      <c r="GM5" s="43">
+      <c r="GB5" s="46"/>
+      <c r="GC5" s="46"/>
+      <c r="GD5" s="46"/>
+      <c r="GE5" s="46"/>
+      <c r="GF5" s="46"/>
+      <c r="GG5" s="46"/>
+      <c r="GH5" s="46"/>
+      <c r="GI5" s="46"/>
+      <c r="GJ5" s="46"/>
+      <c r="GK5" s="46"/>
+      <c r="GL5" s="47"/>
+      <c r="GM5" s="45">
         <v>2014</v>
       </c>
-      <c r="GN5" s="44"/>
-      <c r="GO5" s="44"/>
-      <c r="GP5" s="44"/>
-      <c r="GQ5" s="44"/>
-      <c r="GR5" s="44"/>
-      <c r="GS5" s="44"/>
-      <c r="GT5" s="44"/>
-      <c r="GU5" s="44"/>
-      <c r="GV5" s="44"/>
-      <c r="GW5" s="44"/>
-      <c r="GX5" s="45"/>
-      <c r="GY5" s="43">
+      <c r="GN5" s="46"/>
+      <c r="GO5" s="46"/>
+      <c r="GP5" s="46"/>
+      <c r="GQ5" s="46"/>
+      <c r="GR5" s="46"/>
+      <c r="GS5" s="46"/>
+      <c r="GT5" s="46"/>
+      <c r="GU5" s="46"/>
+      <c r="GV5" s="46"/>
+      <c r="GW5" s="46"/>
+      <c r="GX5" s="47"/>
+      <c r="GY5" s="45">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="44"/>
-      <c r="HA5" s="44"/>
-      <c r="HB5" s="44"/>
-      <c r="HC5" s="44"/>
-      <c r="HD5" s="44"/>
-      <c r="HE5" s="44"/>
-      <c r="HF5" s="44"/>
-      <c r="HG5" s="44"/>
-      <c r="HH5" s="44"/>
-      <c r="HI5" s="44"/>
-      <c r="HJ5" s="45"/>
-      <c r="HK5" s="43">
+      <c r="GZ5" s="46"/>
+      <c r="HA5" s="46"/>
+      <c r="HB5" s="46"/>
+      <c r="HC5" s="46"/>
+      <c r="HD5" s="46"/>
+      <c r="HE5" s="46"/>
+      <c r="HF5" s="46"/>
+      <c r="HG5" s="46"/>
+      <c r="HH5" s="46"/>
+      <c r="HI5" s="46"/>
+      <c r="HJ5" s="47"/>
+      <c r="HK5" s="45">
         <v>2016</v>
       </c>
-      <c r="HL5" s="44"/>
-      <c r="HM5" s="44"/>
-      <c r="HN5" s="44"/>
-      <c r="HO5" s="44"/>
-      <c r="HP5" s="44"/>
-      <c r="HQ5" s="44"/>
-      <c r="HR5" s="44"/>
-      <c r="HS5" s="44"/>
-      <c r="HT5" s="44"/>
-      <c r="HU5" s="44"/>
-      <c r="HV5" s="45"/>
-      <c r="HW5" s="43">
+      <c r="HL5" s="46"/>
+      <c r="HM5" s="46"/>
+      <c r="HN5" s="46"/>
+      <c r="HO5" s="46"/>
+      <c r="HP5" s="46"/>
+      <c r="HQ5" s="46"/>
+      <c r="HR5" s="46"/>
+      <c r="HS5" s="46"/>
+      <c r="HT5" s="46"/>
+      <c r="HU5" s="46"/>
+      <c r="HV5" s="47"/>
+      <c r="HW5" s="45">
         <v>2017</v>
       </c>
-      <c r="HX5" s="44"/>
-      <c r="HY5" s="44"/>
-      <c r="HZ5" s="44"/>
-      <c r="IA5" s="44"/>
-      <c r="IB5" s="44"/>
-      <c r="IC5" s="44"/>
-      <c r="ID5" s="44"/>
-      <c r="IE5" s="44"/>
-      <c r="IF5" s="44"/>
-      <c r="IG5" s="44"/>
-      <c r="IH5" s="45"/>
-      <c r="II5" s="43">
+      <c r="HX5" s="46"/>
+      <c r="HY5" s="46"/>
+      <c r="HZ5" s="46"/>
+      <c r="IA5" s="46"/>
+      <c r="IB5" s="46"/>
+      <c r="IC5" s="46"/>
+      <c r="ID5" s="46"/>
+      <c r="IE5" s="46"/>
+      <c r="IF5" s="46"/>
+      <c r="IG5" s="46"/>
+      <c r="IH5" s="47"/>
+      <c r="II5" s="45">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="44"/>
-      <c r="IK5" s="44"/>
-      <c r="IL5" s="44"/>
-      <c r="IM5" s="44"/>
-      <c r="IN5" s="44"/>
-      <c r="IO5" s="44"/>
-      <c r="IP5" s="44"/>
-      <c r="IQ5" s="44"/>
-      <c r="IR5" s="44"/>
-      <c r="IS5" s="44"/>
-      <c r="IT5" s="45"/>
-      <c r="IU5" s="43">
+      <c r="IJ5" s="46"/>
+      <c r="IK5" s="46"/>
+      <c r="IL5" s="46"/>
+      <c r="IM5" s="46"/>
+      <c r="IN5" s="46"/>
+      <c r="IO5" s="46"/>
+      <c r="IP5" s="46"/>
+      <c r="IQ5" s="46"/>
+      <c r="IR5" s="46"/>
+      <c r="IS5" s="46"/>
+      <c r="IT5" s="47"/>
+      <c r="IU5" s="45">
         <v>2019</v>
       </c>
-      <c r="IV5" s="44"/>
-      <c r="IW5" s="44"/>
-      <c r="IX5" s="44"/>
-      <c r="IY5" s="44"/>
-      <c r="IZ5" s="44"/>
-      <c r="JA5" s="44"/>
-      <c r="JB5" s="44"/>
-      <c r="JC5" s="44"/>
-      <c r="JD5" s="44"/>
-      <c r="JE5" s="44"/>
-      <c r="JF5" s="45"/>
-      <c r="JG5" s="43">
+      <c r="IV5" s="46"/>
+      <c r="IW5" s="46"/>
+      <c r="IX5" s="46"/>
+      <c r="IY5" s="46"/>
+      <c r="IZ5" s="46"/>
+      <c r="JA5" s="46"/>
+      <c r="JB5" s="46"/>
+      <c r="JC5" s="46"/>
+      <c r="JD5" s="46"/>
+      <c r="JE5" s="46"/>
+      <c r="JF5" s="47"/>
+      <c r="JG5" s="45">
         <v>2020</v>
       </c>
-      <c r="JH5" s="44"/>
-      <c r="JI5" s="44"/>
-      <c r="JJ5" s="44"/>
-      <c r="JK5" s="44"/>
-      <c r="JL5" s="44"/>
-      <c r="JM5" s="44"/>
-      <c r="JN5" s="44"/>
-      <c r="JO5" s="44"/>
-      <c r="JP5" s="44"/>
-      <c r="JQ5" s="44"/>
-      <c r="JR5" s="45"/>
-      <c r="JS5" s="43">
+      <c r="JH5" s="46"/>
+      <c r="JI5" s="46"/>
+      <c r="JJ5" s="46"/>
+      <c r="JK5" s="46"/>
+      <c r="JL5" s="46"/>
+      <c r="JM5" s="46"/>
+      <c r="JN5" s="46"/>
+      <c r="JO5" s="46"/>
+      <c r="JP5" s="46"/>
+      <c r="JQ5" s="46"/>
+      <c r="JR5" s="47"/>
+      <c r="JS5" s="45">
         <v>2021</v>
       </c>
-      <c r="JT5" s="44"/>
-      <c r="JU5" s="44"/>
-      <c r="JV5" s="44"/>
-      <c r="JW5" s="44"/>
-      <c r="JX5" s="44"/>
-      <c r="JY5" s="44"/>
-      <c r="JZ5" s="44"/>
-      <c r="KA5" s="44"/>
-      <c r="KB5" s="44"/>
-      <c r="KC5" s="44"/>
-      <c r="KD5" s="44"/>
-      <c r="KE5" s="43">
+      <c r="JT5" s="46"/>
+      <c r="JU5" s="46"/>
+      <c r="JV5" s="46"/>
+      <c r="JW5" s="46"/>
+      <c r="JX5" s="46"/>
+      <c r="JY5" s="46"/>
+      <c r="JZ5" s="46"/>
+      <c r="KA5" s="46"/>
+      <c r="KB5" s="46"/>
+      <c r="KC5" s="46"/>
+      <c r="KD5" s="46"/>
+      <c r="KE5" s="45">
         <v>2022</v>
       </c>
-      <c r="KF5" s="44"/>
-      <c r="KG5" s="44"/>
-      <c r="KH5" s="44"/>
-      <c r="KI5" s="44"/>
-      <c r="KJ5" s="44"/>
-      <c r="KK5" s="44"/>
-      <c r="KL5" s="44"/>
-      <c r="KM5" s="44"/>
-      <c r="KN5" s="44"/>
-      <c r="KO5" s="45"/>
+      <c r="KF5" s="46"/>
+      <c r="KG5" s="46"/>
+      <c r="KH5" s="46"/>
+      <c r="KI5" s="46"/>
+      <c r="KJ5" s="46"/>
+      <c r="KK5" s="46"/>
+      <c r="KL5" s="46"/>
+      <c r="KM5" s="46"/>
+      <c r="KN5" s="46"/>
+      <c r="KO5" s="46"/>
+      <c r="KP5" s="47"/>
     </row>
-    <row r="6" spans="1:301" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+    <row r="6" spans="1:302" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2595,11 +2596,14 @@
       <c r="KN6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="KO6" s="11" t="s">
+      <c r="KO6" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="KP6" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:301" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:302" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3500,11 +3504,14 @@
       <c r="KN7" s="38">
         <v>121255</v>
       </c>
-      <c r="KO7" s="31">
+      <c r="KO7" s="38">
         <v>120917</v>
       </c>
+      <c r="KP7" s="31">
+        <v>118708</v>
+      </c>
     </row>
-    <row r="8" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4403,11 +4410,14 @@
       <c r="KN8" s="3">
         <v>23113</v>
       </c>
-      <c r="KO8" s="4">
+      <c r="KO8" s="3">
         <v>23374</v>
       </c>
+      <c r="KP8" s="4">
+        <v>23857</v>
+      </c>
     </row>
-    <row r="9" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5306,11 +5316,14 @@
       <c r="KN9" s="3">
         <v>5575</v>
       </c>
-      <c r="KO9" s="4">
+      <c r="KO9" s="3">
         <v>5506</v>
       </c>
+      <c r="KP9" s="4">
+        <v>5070</v>
+      </c>
     </row>
-    <row r="10" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6209,11 +6222,14 @@
       <c r="KN10" s="3">
         <v>18748</v>
       </c>
-      <c r="KO10" s="4">
+      <c r="KO10" s="3">
         <v>18481</v>
       </c>
+      <c r="KP10" s="4">
+        <v>17442</v>
+      </c>
     </row>
-    <row r="11" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7112,11 +7128,14 @@
       <c r="KN11" s="3">
         <v>18722</v>
       </c>
-      <c r="KO11" s="4">
+      <c r="KO11" s="3">
         <v>18490</v>
       </c>
+      <c r="KP11" s="4">
+        <v>17859</v>
+      </c>
     </row>
-    <row r="12" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -8015,11 +8034,14 @@
       <c r="KN12" s="3">
         <v>16477</v>
       </c>
-      <c r="KO12" s="4">
+      <c r="KO12" s="3">
         <v>16358</v>
       </c>
+      <c r="KP12" s="4">
+        <v>16047</v>
+      </c>
     </row>
-    <row r="13" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8918,11 +8940,14 @@
       <c r="KN13" s="3">
         <v>14417</v>
       </c>
-      <c r="KO13" s="4">
+      <c r="KO13" s="3">
         <v>14380</v>
       </c>
+      <c r="KP13" s="4">
+        <v>14161</v>
+      </c>
     </row>
-    <row r="14" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9821,11 +9846,14 @@
       <c r="KN14" s="3">
         <v>12540</v>
       </c>
-      <c r="KO14" s="4">
+      <c r="KO14" s="3">
         <v>12602</v>
       </c>
+      <c r="KP14" s="4">
+        <v>12522</v>
+      </c>
     </row>
-    <row r="15" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10724,11 +10752,14 @@
       <c r="KN15" s="3">
         <v>11653</v>
       </c>
-      <c r="KO15" s="4">
+      <c r="KO15" s="3">
         <v>11717</v>
       </c>
+      <c r="KP15" s="4">
+        <v>11743</v>
+      </c>
     </row>
-    <row r="16" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11627,11 +11658,14 @@
       <c r="KN16" s="39">
         <v>10</v>
       </c>
-      <c r="KO16" s="37">
+      <c r="KO16" s="39">
         <v>9</v>
       </c>
+      <c r="KP16" s="37">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12532,11 +12566,14 @@
       <c r="KN17" s="38">
         <v>402868</v>
       </c>
-      <c r="KO17" s="31">
+      <c r="KO17" s="38">
         <v>403989</v>
       </c>
+      <c r="KP17" s="31">
+        <v>399607</v>
+      </c>
     </row>
-    <row r="18" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13435,11 +13472,14 @@
       <c r="KN18" s="3">
         <v>62879</v>
       </c>
-      <c r="KO18" s="4">
+      <c r="KO18" s="3">
         <v>63374</v>
       </c>
+      <c r="KP18" s="4">
+        <v>63269</v>
+      </c>
     </row>
-    <row r="19" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14338,11 +14378,14 @@
       <c r="KN19" s="3">
         <v>11007</v>
       </c>
-      <c r="KO19" s="4">
+      <c r="KO19" s="3">
         <v>11438</v>
       </c>
+      <c r="KP19" s="4">
+        <v>11273</v>
+      </c>
     </row>
-    <row r="20" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15241,11 +15284,14 @@
       <c r="KN20" s="3">
         <v>55436</v>
       </c>
-      <c r="KO20" s="4">
+      <c r="KO20" s="3">
         <v>55770</v>
       </c>
+      <c r="KP20" s="4">
+        <v>54870</v>
+      </c>
     </row>
-    <row r="21" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -16144,11 +16190,14 @@
       <c r="KN21" s="3">
         <v>66882</v>
       </c>
-      <c r="KO21" s="4">
+      <c r="KO21" s="3">
         <v>66849</v>
       </c>
+      <c r="KP21" s="4">
+        <v>65790</v>
+      </c>
     </row>
-    <row r="22" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -17047,11 +17096,14 @@
       <c r="KN22" s="3">
         <v>64959</v>
       </c>
-      <c r="KO22" s="4">
+      <c r="KO22" s="3">
         <v>64740</v>
       </c>
+      <c r="KP22" s="4">
+        <v>63880</v>
+      </c>
     </row>
-    <row r="23" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -17950,11 +18002,14 @@
       <c r="KN23" s="3">
         <v>55995</v>
       </c>
-      <c r="KO23" s="4">
+      <c r="KO23" s="3">
         <v>56064</v>
       </c>
+      <c r="KP23" s="4">
+        <v>55468</v>
+      </c>
     </row>
-    <row r="24" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18853,11 +18908,14 @@
       <c r="KN24" s="3">
         <v>46436</v>
       </c>
-      <c r="KO24" s="4">
+      <c r="KO24" s="3">
         <v>46432</v>
       </c>
+      <c r="KP24" s="4">
+        <v>46068</v>
+      </c>
     </row>
-    <row r="25" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -19756,11 +19814,14 @@
       <c r="KN25" s="3">
         <v>39270</v>
       </c>
-      <c r="KO25" s="4">
+      <c r="KO25" s="3">
         <v>39319</v>
       </c>
+      <c r="KP25" s="4">
+        <v>38987</v>
+      </c>
     </row>
-    <row r="26" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -20651,11 +20712,14 @@
       <c r="KN26" s="39">
         <v>4</v>
       </c>
-      <c r="KO26" s="37">
+      <c r="KO26" s="39">
         <v>3</v>
       </c>
+      <c r="KP26" s="37">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -21556,11 +21620,14 @@
       <c r="KN27" s="38">
         <v>150581</v>
       </c>
-      <c r="KO27" s="31">
+      <c r="KO27" s="38">
         <v>152128</v>
       </c>
+      <c r="KP27" s="31">
+        <v>145346</v>
+      </c>
     </row>
-    <row r="28" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -22459,11 +22526,14 @@
       <c r="KN28" s="3">
         <v>27430</v>
       </c>
-      <c r="KO28" s="4">
+      <c r="KO28" s="3">
         <v>27603</v>
       </c>
+      <c r="KP28" s="4">
+        <v>27049</v>
+      </c>
     </row>
-    <row r="29" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -23362,11 +23432,14 @@
       <c r="KN29" s="3">
         <v>4878</v>
       </c>
-      <c r="KO29" s="4">
+      <c r="KO29" s="3">
         <v>4987</v>
       </c>
+      <c r="KP29" s="4">
+        <v>4578</v>
+      </c>
     </row>
-    <row r="30" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -24265,11 +24338,14 @@
       <c r="KN30" s="3">
         <v>19147</v>
       </c>
-      <c r="KO30" s="4">
+      <c r="KO30" s="3">
         <v>19365</v>
       </c>
+      <c r="KP30" s="4">
+        <v>17950</v>
+      </c>
     </row>
-    <row r="31" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -25168,11 +25244,14 @@
       <c r="KN31" s="3">
         <v>24064</v>
       </c>
-      <c r="KO31" s="4">
+      <c r="KO31" s="3">
         <v>24514</v>
       </c>
+      <c r="KP31" s="4">
+        <v>23136</v>
+      </c>
     </row>
-    <row r="32" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -26071,11 +26150,14 @@
       <c r="KN32" s="3">
         <v>22735</v>
       </c>
-      <c r="KO32" s="4">
+      <c r="KO32" s="3">
         <v>22926</v>
       </c>
+      <c r="KP32" s="4">
+        <v>21786</v>
+      </c>
     </row>
-    <row r="33" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -26974,11 +27056,14 @@
       <c r="KN33" s="3">
         <v>20061</v>
       </c>
-      <c r="KO33" s="4">
+      <c r="KO33" s="3">
         <v>20293</v>
       </c>
+      <c r="KP33" s="4">
+        <v>19557</v>
+      </c>
     </row>
-    <row r="34" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -27877,11 +27962,14 @@
       <c r="KN34" s="3">
         <v>17259</v>
       </c>
-      <c r="KO34" s="4">
+      <c r="KO34" s="3">
         <v>17271</v>
       </c>
+      <c r="KP34" s="4">
+        <v>16619</v>
+      </c>
     </row>
-    <row r="35" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -28780,11 +28868,14 @@
       <c r="KN35" s="3">
         <v>14987</v>
       </c>
-      <c r="KO35" s="4">
+      <c r="KO35" s="3">
         <v>15154</v>
       </c>
+      <c r="KP35" s="4">
+        <v>14656</v>
+      </c>
     </row>
-    <row r="36" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -29683,11 +29774,14 @@
       <c r="KN36" s="39">
         <v>20</v>
       </c>
-      <c r="KO36" s="37">
+      <c r="KO36" s="39">
         <v>15</v>
       </c>
+      <c r="KP36" s="37">
+        <v>15</v>
+      </c>
     </row>
-    <row r="37" spans="1:301" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:302" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -30588,11 +30682,14 @@
       <c r="KN37" s="40">
         <v>9745</v>
       </c>
-      <c r="KO37" s="33">
+      <c r="KO37" s="40">
         <v>9847</v>
       </c>
+      <c r="KP37" s="33">
+        <v>9814</v>
+      </c>
     </row>
-    <row r="38" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -31491,11 +31588,14 @@
       <c r="KN38" s="3">
         <v>1724</v>
       </c>
-      <c r="KO38" s="4">
+      <c r="KO38" s="3">
         <v>1731</v>
       </c>
+      <c r="KP38" s="4">
+        <v>1720</v>
+      </c>
     </row>
-    <row r="39" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -32394,11 +32494,14 @@
       <c r="KN39" s="3">
         <v>77</v>
       </c>
-      <c r="KO39" s="4">
+      <c r="KO39" s="3">
         <v>77</v>
       </c>
+      <c r="KP39" s="4">
+        <v>78</v>
+      </c>
     </row>
-    <row r="40" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -33297,11 +33400,14 @@
       <c r="KN40" s="3">
         <v>551</v>
       </c>
-      <c r="KO40" s="4">
+      <c r="KO40" s="3">
         <v>570</v>
       </c>
+      <c r="KP40" s="4">
+        <v>563</v>
+      </c>
     </row>
-    <row r="41" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -34200,11 +34306,14 @@
       <c r="KN41" s="3">
         <v>1025</v>
       </c>
-      <c r="KO41" s="4">
+      <c r="KO41" s="3">
         <v>1045</v>
       </c>
+      <c r="KP41" s="4">
+        <v>1039</v>
+      </c>
     </row>
-    <row r="42" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -35103,11 +35212,14 @@
       <c r="KN42" s="3">
         <v>1409</v>
       </c>
-      <c r="KO42" s="4">
+      <c r="KO42" s="3">
         <v>1407</v>
       </c>
+      <c r="KP42" s="4">
+        <v>1426</v>
+      </c>
     </row>
-    <row r="43" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -36006,11 +36118,14 @@
       <c r="KN43" s="3">
         <v>1794</v>
       </c>
-      <c r="KO43" s="4">
+      <c r="KO43" s="3">
         <v>1819</v>
       </c>
+      <c r="KP43" s="4">
+        <v>1792</v>
+      </c>
     </row>
-    <row r="44" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -36909,11 +37024,14 @@
       <c r="KN44" s="3">
         <v>1701</v>
       </c>
-      <c r="KO44" s="4">
+      <c r="KO44" s="3">
         <v>1712</v>
       </c>
+      <c r="KP44" s="4">
+        <v>1715</v>
+      </c>
     </row>
-    <row r="45" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -37812,11 +37930,14 @@
       <c r="KN45" s="3">
         <v>1464</v>
       </c>
-      <c r="KO45" s="4">
+      <c r="KO45" s="3">
         <v>1486</v>
       </c>
+      <c r="KP45" s="4">
+        <v>1481</v>
+      </c>
     </row>
-    <row r="46" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -38243,9 +38364,10 @@
       <c r="KL46" s="39"/>
       <c r="KM46" s="39"/>
       <c r="KN46" s="39"/>
-      <c r="KO46" s="37"/>
+      <c r="KO46" s="39"/>
+      <c r="KP46" s="37"/>
     </row>
-    <row r="47" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -39146,11 +39268,14 @@
       <c r="KN47" s="38">
         <v>513734</v>
       </c>
-      <c r="KO47" s="31">
+      <c r="KO47" s="38">
         <v>515303</v>
       </c>
+      <c r="KP47" s="31">
+        <v>508146</v>
+      </c>
     </row>
-    <row r="48" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -40049,11 +40174,14 @@
       <c r="KN48" s="3">
         <v>79207</v>
       </c>
-      <c r="KO48" s="4">
+      <c r="KO48" s="3">
         <v>79869</v>
       </c>
+      <c r="KP48" s="4">
+        <v>80010</v>
+      </c>
     </row>
-    <row r="49" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -40952,11 +41080,14 @@
       <c r="KN49" s="3">
         <v>15074</v>
       </c>
-      <c r="KO49" s="4">
+      <c r="KO49" s="3">
         <v>14983</v>
       </c>
+      <c r="KP49" s="4">
+        <v>14242</v>
+      </c>
     </row>
-    <row r="50" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -41855,11 +41986,14 @@
       <c r="KN50" s="3">
         <v>72520</v>
       </c>
-      <c r="KO50" s="4">
+      <c r="KO50" s="3">
         <v>72376</v>
       </c>
+      <c r="KP50" s="4">
+        <v>70298</v>
+      </c>
     </row>
-    <row r="51" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -42758,11 +42892,14 @@
       <c r="KN51" s="3">
         <v>82930</v>
       </c>
-      <c r="KO51" s="4">
+      <c r="KO51" s="3">
         <v>83248</v>
       </c>
+      <c r="KP51" s="4">
+        <v>81844</v>
+      </c>
     </row>
-    <row r="52" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -43661,11 +43798,14 @@
       <c r="KN52" s="3">
         <v>77237</v>
       </c>
-      <c r="KO52" s="4">
+      <c r="KO52" s="3">
         <v>77286</v>
       </c>
+      <c r="KP52" s="4">
+        <v>76191</v>
+      </c>
     </row>
-    <row r="53" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -44564,11 +44704,14 @@
       <c r="KN53" s="3">
         <v>68607</v>
       </c>
-      <c r="KO53" s="4">
+      <c r="KO53" s="3">
         <v>68974</v>
       </c>
+      <c r="KP53" s="4">
+        <v>68002</v>
+      </c>
     </row>
-    <row r="54" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -45467,11 +45610,14 @@
       <c r="KN54" s="3">
         <v>63442</v>
       </c>
-      <c r="KO54" s="4">
+      <c r="KO54" s="3">
         <v>63592</v>
       </c>
+      <c r="KP54" s="4">
+        <v>62982</v>
+      </c>
     </row>
-    <row r="55" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -46370,11 +46516,14 @@
       <c r="KN55" s="3">
         <v>54713</v>
       </c>
-      <c r="KO55" s="4">
+      <c r="KO55" s="3">
         <v>54972</v>
       </c>
+      <c r="KP55" s="4">
+        <v>54574</v>
+      </c>
     </row>
-    <row r="56" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -47273,11 +47422,14 @@
       <c r="KN56" s="39">
         <v>4</v>
       </c>
-      <c r="KO56" s="37">
+      <c r="KO56" s="39">
         <v>3</v>
       </c>
+      <c r="KP56" s="37">
+        <v>3</v>
+      </c>
     </row>
-    <row r="57" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -48178,11 +48330,14 @@
       <c r="KN57" s="38">
         <v>2505</v>
       </c>
-      <c r="KO57" s="31">
+      <c r="KO57" s="38">
         <v>2515</v>
       </c>
+      <c r="KP57" s="31">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="58" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -49081,11 +49236,14 @@
       <c r="KN58" s="3">
         <v>522</v>
       </c>
-      <c r="KO58" s="4">
+      <c r="KO58" s="3">
         <v>528</v>
       </c>
+      <c r="KP58" s="4">
+        <v>533</v>
+      </c>
     </row>
-    <row r="59" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -49984,11 +50142,14 @@
       <c r="KN59" s="3">
         <v>38</v>
       </c>
-      <c r="KO59" s="4">
+      <c r="KO59" s="3">
         <v>32</v>
       </c>
+      <c r="KP59" s="4">
+        <v>29</v>
+      </c>
     </row>
-    <row r="60" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -50887,11 +51048,14 @@
       <c r="KN60" s="3">
         <v>193</v>
       </c>
-      <c r="KO60" s="4">
+      <c r="KO60" s="3">
         <v>190</v>
       </c>
+      <c r="KP60" s="4">
+        <v>182</v>
+      </c>
     </row>
-    <row r="61" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -51790,11 +51954,14 @@
       <c r="KN61" s="3">
         <v>381</v>
       </c>
-      <c r="KO61" s="4">
+      <c r="KO61" s="3">
         <v>380</v>
       </c>
+      <c r="KP61" s="4">
+        <v>381</v>
+      </c>
     </row>
-    <row r="62" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -52693,11 +52860,14 @@
       <c r="KN62" s="3">
         <v>401</v>
       </c>
-      <c r="KO62" s="4">
+      <c r="KO62" s="3">
         <v>401</v>
       </c>
+      <c r="KP62" s="4">
+        <v>391</v>
+      </c>
     </row>
-    <row r="63" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -53596,11 +53766,14 @@
       <c r="KN63" s="3">
         <v>369</v>
       </c>
-      <c r="KO63" s="4">
+      <c r="KO63" s="3">
         <v>377</v>
       </c>
+      <c r="KP63" s="4">
+        <v>372</v>
+      </c>
     </row>
-    <row r="64" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -54499,11 +54672,14 @@
       <c r="KN64" s="3">
         <v>324</v>
       </c>
-      <c r="KO64" s="4">
+      <c r="KO64" s="3">
         <v>333</v>
       </c>
+      <c r="KP64" s="4">
+        <v>335</v>
+      </c>
     </row>
-    <row r="65" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -55402,11 +55578,14 @@
       <c r="KN65" s="3">
         <v>277</v>
       </c>
-      <c r="KO65" s="4">
+      <c r="KO65" s="3">
         <v>274</v>
       </c>
+      <c r="KP65" s="4">
+        <v>277</v>
+      </c>
     </row>
-    <row r="66" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -55767,9 +55946,10 @@
       <c r="KL66" s="39"/>
       <c r="KM66" s="39"/>
       <c r="KN66" s="39"/>
-      <c r="KO66" s="37"/>
+      <c r="KO66" s="39"/>
+      <c r="KP66" s="37"/>
     </row>
-    <row r="67" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -56670,11 +56850,14 @@
       <c r="KN67" s="38">
         <v>645409</v>
       </c>
-      <c r="KO67" s="31">
+      <c r="KO67" s="38">
         <v>650779</v>
       </c>
+      <c r="KP67" s="31">
+        <v>644397</v>
+      </c>
     </row>
-    <row r="68" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -57573,11 +57756,14 @@
       <c r="KN68" s="3">
         <v>135198</v>
       </c>
-      <c r="KO68" s="4">
+      <c r="KO68" s="3">
         <v>136155</v>
       </c>
+      <c r="KP68" s="4">
+        <v>135336</v>
+      </c>
     </row>
-    <row r="69" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -58476,11 +58662,14 @@
       <c r="KN69" s="3">
         <v>10442</v>
       </c>
-      <c r="KO69" s="4">
+      <c r="KO69" s="3">
         <v>10556</v>
       </c>
+      <c r="KP69" s="4">
+        <v>10333</v>
+      </c>
     </row>
-    <row r="70" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -59379,11 +59568,14 @@
       <c r="KN70" s="3">
         <v>62929</v>
       </c>
-      <c r="KO70" s="4">
+      <c r="KO70" s="3">
         <v>63665</v>
       </c>
+      <c r="KP70" s="4">
+        <v>62559</v>
+      </c>
     </row>
-    <row r="71" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -60282,11 +60474,14 @@
       <c r="KN71" s="3">
         <v>100800</v>
       </c>
-      <c r="KO71" s="4">
+      <c r="KO71" s="3">
         <v>101615</v>
       </c>
+      <c r="KP71" s="4">
+        <v>100575</v>
+      </c>
     </row>
-    <row r="72" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -61185,11 +61380,14 @@
       <c r="KN72" s="3">
         <v>97510</v>
       </c>
-      <c r="KO72" s="4">
+      <c r="KO72" s="3">
         <v>98645</v>
       </c>
+      <c r="KP72" s="4">
+        <v>97821</v>
+      </c>
     </row>
-    <row r="73" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -62088,11 +62286,14 @@
       <c r="KN73" s="3">
         <v>88172</v>
       </c>
-      <c r="KO73" s="4">
+      <c r="KO73" s="3">
         <v>88663</v>
       </c>
+      <c r="KP73" s="4">
+        <v>87830</v>
+      </c>
     </row>
-    <row r="74" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -62991,11 +63192,14 @@
       <c r="KN74" s="3">
         <v>79015</v>
       </c>
-      <c r="KO74" s="4">
+      <c r="KO74" s="3">
         <v>79725</v>
       </c>
+      <c r="KP74" s="4">
+        <v>78905</v>
+      </c>
     </row>
-    <row r="75" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -63894,11 +64098,14 @@
       <c r="KN75" s="3">
         <v>71339</v>
       </c>
-      <c r="KO75" s="4">
+      <c r="KO75" s="3">
         <v>71750</v>
       </c>
+      <c r="KP75" s="4">
+        <v>71034</v>
+      </c>
     </row>
-    <row r="76" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -64797,11 +65004,14 @@
       <c r="KN76" s="39">
         <v>4</v>
       </c>
-      <c r="KO76" s="37">
+      <c r="KO76" s="39">
         <v>5</v>
       </c>
+      <c r="KP76" s="37">
+        <v>4</v>
+      </c>
     </row>
-    <row r="77" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -65702,11 +65912,14 @@
       <c r="KN77" s="38">
         <v>104844</v>
       </c>
-      <c r="KO77" s="31">
+      <c r="KO77" s="38">
         <v>105032</v>
       </c>
+      <c r="KP77" s="31">
+        <v>104444</v>
+      </c>
     </row>
-    <row r="78" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -66605,11 +66818,14 @@
       <c r="KN78" s="3">
         <v>18705</v>
       </c>
-      <c r="KO78" s="4">
+      <c r="KO78" s="3">
         <v>18633</v>
       </c>
+      <c r="KP78" s="4">
+        <v>18744</v>
+      </c>
     </row>
-    <row r="79" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -67508,11 +67724,14 @@
       <c r="KN79" s="3">
         <v>1844</v>
       </c>
-      <c r="KO79" s="4">
+      <c r="KO79" s="3">
         <v>1854</v>
       </c>
+      <c r="KP79" s="4">
+        <v>1761</v>
+      </c>
     </row>
-    <row r="80" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -68411,11 +68630,14 @@
       <c r="KN80" s="3">
         <v>11944</v>
       </c>
-      <c r="KO80" s="4">
+      <c r="KO80" s="3">
         <v>12013</v>
       </c>
+      <c r="KP80" s="4">
+        <v>11818</v>
+      </c>
     </row>
-    <row r="81" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -69314,11 +69536,14 @@
       <c r="KN81" s="3">
         <v>16034</v>
       </c>
-      <c r="KO81" s="4">
+      <c r="KO81" s="3">
         <v>16064</v>
       </c>
+      <c r="KP81" s="4">
+        <v>15931</v>
+      </c>
     </row>
-    <row r="82" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -70217,11 +70442,14 @@
       <c r="KN82" s="3">
         <v>16090</v>
       </c>
-      <c r="KO82" s="4">
+      <c r="KO82" s="3">
         <v>16153</v>
       </c>
+      <c r="KP82" s="4">
+        <v>16051</v>
+      </c>
     </row>
-    <row r="83" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -71120,11 +71348,14 @@
       <c r="KN83" s="3">
         <v>15105</v>
       </c>
-      <c r="KO83" s="4">
+      <c r="KO83" s="3">
         <v>15109</v>
       </c>
+      <c r="KP83" s="4">
+        <v>15025</v>
+      </c>
     </row>
-    <row r="84" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -72023,11 +72254,14 @@
       <c r="KN84" s="3">
         <v>13174</v>
       </c>
-      <c r="KO84" s="4">
+      <c r="KO84" s="3">
         <v>13247</v>
       </c>
+      <c r="KP84" s="4">
+        <v>13165</v>
+      </c>
     </row>
-    <row r="85" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -72926,11 +73160,14 @@
       <c r="KN85" s="3">
         <v>11943</v>
       </c>
-      <c r="KO85" s="4">
+      <c r="KO85" s="3">
         <v>11958</v>
       </c>
+      <c r="KP85" s="4">
+        <v>11948</v>
+      </c>
     </row>
-    <row r="86" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -73641,11 +73878,14 @@
       <c r="KN86" s="39">
         <v>5</v>
       </c>
-      <c r="KO86" s="37">
+      <c r="KO86" s="39">
         <v>1</v>
       </c>
+      <c r="KP86" s="37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -74546,12 +74786,15 @@
       <c r="KN87" s="41">
         <v>1950941</v>
       </c>
-      <c r="KO87" s="35">
+      <c r="KO87" s="41">
         <v>1960510</v>
       </c>
-      <c r="KP87" s="24"/>
+      <c r="KP87" s="35">
+        <v>1932962</v>
+      </c>
+      <c r="KQ87" s="24"/>
     </row>
-    <row r="88" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
         <v>23</v>
       </c>
@@ -74563,26 +74806,11 @@
       <c r="G88" s="42"/>
       <c r="KD88" s="24"/>
     </row>
-    <row r="89" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:303" x14ac:dyDescent="0.25">
       <c r="KD89" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="KE5:KO5"/>
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JS5:KD5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
-    <mergeCell ref="DS5:ED5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -74598,6 +74826,21 @@
     <mergeCell ref="CI5:CT5"/>
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="KE5:KP5"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JS5:KD5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
+    <mergeCell ref="DS5:ED5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998 - diciembre 2022</t>
+    <t>Enero 1998 - enero  2023</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -969,12 +969,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -982,6 +976,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1305,22 +1326,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KQ89"/>
+  <dimension ref="A1:KR89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="KE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KF91" sqref="KF91"/>
+      <pane xSplit="2" topLeftCell="KG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KR84" sqref="KR84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="302" width="11.875" style="1" customWidth="1"/>
-    <col min="303" max="16384" width="11.375" style="1"/>
+    <col min="3" max="303" width="11.875" style="1" customWidth="1"/>
+    <col min="304" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:302" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:303" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>36</v>
       </c>
@@ -1329,379 +1350,382 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:302" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:303" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="43">
         <v>1998</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="45">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="43">
         <v>1999</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="45">
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="43">
         <v>2000</v>
       </c>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="45">
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="43">
         <v>2001</v>
       </c>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="45">
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="43">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="45">
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="44"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="44"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="44"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="43">
         <v>2003</v>
       </c>
-      <c r="BL5" s="46"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="46"/>
-      <c r="BO5" s="46"/>
-      <c r="BP5" s="46"/>
-      <c r="BQ5" s="46"/>
-      <c r="BR5" s="46"/>
-      <c r="BS5" s="46"/>
-      <c r="BT5" s="46"/>
-      <c r="BU5" s="46"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="45">
+      <c r="BL5" s="44"/>
+      <c r="BM5" s="44"/>
+      <c r="BN5" s="44"/>
+      <c r="BO5" s="44"/>
+      <c r="BP5" s="44"/>
+      <c r="BQ5" s="44"/>
+      <c r="BR5" s="44"/>
+      <c r="BS5" s="44"/>
+      <c r="BT5" s="44"/>
+      <c r="BU5" s="44"/>
+      <c r="BV5" s="45"/>
+      <c r="BW5" s="43">
         <v>2004</v>
       </c>
-      <c r="BX5" s="46"/>
-      <c r="BY5" s="46"/>
-      <c r="BZ5" s="46"/>
-      <c r="CA5" s="46"/>
-      <c r="CB5" s="46"/>
-      <c r="CC5" s="46"/>
-      <c r="CD5" s="46"/>
-      <c r="CE5" s="46"/>
-      <c r="CF5" s="46"/>
-      <c r="CG5" s="46"/>
-      <c r="CH5" s="47"/>
-      <c r="CI5" s="45">
+      <c r="BX5" s="44"/>
+      <c r="BY5" s="44"/>
+      <c r="BZ5" s="44"/>
+      <c r="CA5" s="44"/>
+      <c r="CB5" s="44"/>
+      <c r="CC5" s="44"/>
+      <c r="CD5" s="44"/>
+      <c r="CE5" s="44"/>
+      <c r="CF5" s="44"/>
+      <c r="CG5" s="44"/>
+      <c r="CH5" s="45"/>
+      <c r="CI5" s="43">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="46"/>
-      <c r="CK5" s="46"/>
-      <c r="CL5" s="46"/>
-      <c r="CM5" s="46"/>
-      <c r="CN5" s="46"/>
-      <c r="CO5" s="46"/>
-      <c r="CP5" s="46"/>
-      <c r="CQ5" s="46"/>
-      <c r="CR5" s="46"/>
-      <c r="CS5" s="46"/>
-      <c r="CT5" s="47"/>
-      <c r="CU5" s="45">
+      <c r="CJ5" s="44"/>
+      <c r="CK5" s="44"/>
+      <c r="CL5" s="44"/>
+      <c r="CM5" s="44"/>
+      <c r="CN5" s="44"/>
+      <c r="CO5" s="44"/>
+      <c r="CP5" s="44"/>
+      <c r="CQ5" s="44"/>
+      <c r="CR5" s="44"/>
+      <c r="CS5" s="44"/>
+      <c r="CT5" s="45"/>
+      <c r="CU5" s="43">
         <v>2006</v>
       </c>
-      <c r="CV5" s="46"/>
-      <c r="CW5" s="46"/>
-      <c r="CX5" s="46"/>
-      <c r="CY5" s="46"/>
-      <c r="CZ5" s="46"/>
-      <c r="DA5" s="46"/>
-      <c r="DB5" s="46"/>
-      <c r="DC5" s="46"/>
-      <c r="DD5" s="46"/>
-      <c r="DE5" s="46"/>
-      <c r="DF5" s="47"/>
-      <c r="DG5" s="45">
+      <c r="CV5" s="44"/>
+      <c r="CW5" s="44"/>
+      <c r="CX5" s="44"/>
+      <c r="CY5" s="44"/>
+      <c r="CZ5" s="44"/>
+      <c r="DA5" s="44"/>
+      <c r="DB5" s="44"/>
+      <c r="DC5" s="44"/>
+      <c r="DD5" s="44"/>
+      <c r="DE5" s="44"/>
+      <c r="DF5" s="45"/>
+      <c r="DG5" s="43">
         <v>2007</v>
       </c>
-      <c r="DH5" s="46"/>
-      <c r="DI5" s="46"/>
-      <c r="DJ5" s="46"/>
-      <c r="DK5" s="46"/>
-      <c r="DL5" s="46"/>
-      <c r="DM5" s="46"/>
-      <c r="DN5" s="46"/>
-      <c r="DO5" s="46"/>
-      <c r="DP5" s="46"/>
-      <c r="DQ5" s="46"/>
-      <c r="DR5" s="47"/>
-      <c r="DS5" s="45">
+      <c r="DH5" s="44"/>
+      <c r="DI5" s="44"/>
+      <c r="DJ5" s="44"/>
+      <c r="DK5" s="44"/>
+      <c r="DL5" s="44"/>
+      <c r="DM5" s="44"/>
+      <c r="DN5" s="44"/>
+      <c r="DO5" s="44"/>
+      <c r="DP5" s="44"/>
+      <c r="DQ5" s="44"/>
+      <c r="DR5" s="45"/>
+      <c r="DS5" s="43">
         <v>2008</v>
       </c>
-      <c r="DT5" s="46"/>
-      <c r="DU5" s="46"/>
-      <c r="DV5" s="46"/>
-      <c r="DW5" s="46"/>
-      <c r="DX5" s="46"/>
-      <c r="DY5" s="46"/>
-      <c r="DZ5" s="46"/>
-      <c r="EA5" s="46"/>
-      <c r="EB5" s="46"/>
-      <c r="EC5" s="46"/>
-      <c r="ED5" s="47"/>
-      <c r="EE5" s="45">
+      <c r="DT5" s="44"/>
+      <c r="DU5" s="44"/>
+      <c r="DV5" s="44"/>
+      <c r="DW5" s="44"/>
+      <c r="DX5" s="44"/>
+      <c r="DY5" s="44"/>
+      <c r="DZ5" s="44"/>
+      <c r="EA5" s="44"/>
+      <c r="EB5" s="44"/>
+      <c r="EC5" s="44"/>
+      <c r="ED5" s="45"/>
+      <c r="EE5" s="43">
         <v>2009</v>
       </c>
-      <c r="EF5" s="46"/>
-      <c r="EG5" s="46"/>
-      <c r="EH5" s="46"/>
-      <c r="EI5" s="46"/>
-      <c r="EJ5" s="46"/>
-      <c r="EK5" s="46"/>
-      <c r="EL5" s="46"/>
-      <c r="EM5" s="46"/>
-      <c r="EN5" s="46"/>
-      <c r="EO5" s="46"/>
-      <c r="EP5" s="47"/>
-      <c r="EQ5" s="45">
+      <c r="EF5" s="44"/>
+      <c r="EG5" s="44"/>
+      <c r="EH5" s="44"/>
+      <c r="EI5" s="44"/>
+      <c r="EJ5" s="44"/>
+      <c r="EK5" s="44"/>
+      <c r="EL5" s="44"/>
+      <c r="EM5" s="44"/>
+      <c r="EN5" s="44"/>
+      <c r="EO5" s="44"/>
+      <c r="EP5" s="45"/>
+      <c r="EQ5" s="43">
         <v>2010</v>
       </c>
-      <c r="ER5" s="46"/>
-      <c r="ES5" s="46"/>
-      <c r="ET5" s="46"/>
-      <c r="EU5" s="46"/>
-      <c r="EV5" s="46"/>
-      <c r="EW5" s="46"/>
-      <c r="EX5" s="46"/>
-      <c r="EY5" s="46"/>
-      <c r="EZ5" s="46"/>
-      <c r="FA5" s="46"/>
-      <c r="FB5" s="47"/>
-      <c r="FC5" s="45">
+      <c r="ER5" s="44"/>
+      <c r="ES5" s="44"/>
+      <c r="ET5" s="44"/>
+      <c r="EU5" s="44"/>
+      <c r="EV5" s="44"/>
+      <c r="EW5" s="44"/>
+      <c r="EX5" s="44"/>
+      <c r="EY5" s="44"/>
+      <c r="EZ5" s="44"/>
+      <c r="FA5" s="44"/>
+      <c r="FB5" s="45"/>
+      <c r="FC5" s="43">
         <v>2011</v>
       </c>
-      <c r="FD5" s="46"/>
-      <c r="FE5" s="46"/>
-      <c r="FF5" s="46"/>
-      <c r="FG5" s="46"/>
-      <c r="FH5" s="46"/>
-      <c r="FI5" s="46"/>
-      <c r="FJ5" s="46"/>
-      <c r="FK5" s="46"/>
-      <c r="FL5" s="46"/>
-      <c r="FM5" s="46"/>
-      <c r="FN5" s="47"/>
-      <c r="FO5" s="45">
+      <c r="FD5" s="44"/>
+      <c r="FE5" s="44"/>
+      <c r="FF5" s="44"/>
+      <c r="FG5" s="44"/>
+      <c r="FH5" s="44"/>
+      <c r="FI5" s="44"/>
+      <c r="FJ5" s="44"/>
+      <c r="FK5" s="44"/>
+      <c r="FL5" s="44"/>
+      <c r="FM5" s="44"/>
+      <c r="FN5" s="45"/>
+      <c r="FO5" s="43">
         <v>2012</v>
       </c>
-      <c r="FP5" s="46"/>
-      <c r="FQ5" s="46"/>
-      <c r="FR5" s="46"/>
-      <c r="FS5" s="46"/>
-      <c r="FT5" s="46"/>
-      <c r="FU5" s="46"/>
-      <c r="FV5" s="46"/>
-      <c r="FW5" s="46"/>
-      <c r="FX5" s="46"/>
-      <c r="FY5" s="46"/>
-      <c r="FZ5" s="47"/>
-      <c r="GA5" s="45">
+      <c r="FP5" s="44"/>
+      <c r="FQ5" s="44"/>
+      <c r="FR5" s="44"/>
+      <c r="FS5" s="44"/>
+      <c r="FT5" s="44"/>
+      <c r="FU5" s="44"/>
+      <c r="FV5" s="44"/>
+      <c r="FW5" s="44"/>
+      <c r="FX5" s="44"/>
+      <c r="FY5" s="44"/>
+      <c r="FZ5" s="45"/>
+      <c r="GA5" s="43">
         <v>2013</v>
       </c>
-      <c r="GB5" s="46"/>
-      <c r="GC5" s="46"/>
-      <c r="GD5" s="46"/>
-      <c r="GE5" s="46"/>
-      <c r="GF5" s="46"/>
-      <c r="GG5" s="46"/>
-      <c r="GH5" s="46"/>
-      <c r="GI5" s="46"/>
-      <c r="GJ5" s="46"/>
-      <c r="GK5" s="46"/>
-      <c r="GL5" s="47"/>
-      <c r="GM5" s="45">
+      <c r="GB5" s="44"/>
+      <c r="GC5" s="44"/>
+      <c r="GD5" s="44"/>
+      <c r="GE5" s="44"/>
+      <c r="GF5" s="44"/>
+      <c r="GG5" s="44"/>
+      <c r="GH5" s="44"/>
+      <c r="GI5" s="44"/>
+      <c r="GJ5" s="44"/>
+      <c r="GK5" s="44"/>
+      <c r="GL5" s="45"/>
+      <c r="GM5" s="43">
         <v>2014</v>
       </c>
-      <c r="GN5" s="46"/>
-      <c r="GO5" s="46"/>
-      <c r="GP5" s="46"/>
-      <c r="GQ5" s="46"/>
-      <c r="GR5" s="46"/>
-      <c r="GS5" s="46"/>
-      <c r="GT5" s="46"/>
-      <c r="GU5" s="46"/>
-      <c r="GV5" s="46"/>
-      <c r="GW5" s="46"/>
-      <c r="GX5" s="47"/>
-      <c r="GY5" s="45">
+      <c r="GN5" s="44"/>
+      <c r="GO5" s="44"/>
+      <c r="GP5" s="44"/>
+      <c r="GQ5" s="44"/>
+      <c r="GR5" s="44"/>
+      <c r="GS5" s="44"/>
+      <c r="GT5" s="44"/>
+      <c r="GU5" s="44"/>
+      <c r="GV5" s="44"/>
+      <c r="GW5" s="44"/>
+      <c r="GX5" s="45"/>
+      <c r="GY5" s="43">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="46"/>
-      <c r="HA5" s="46"/>
-      <c r="HB5" s="46"/>
-      <c r="HC5" s="46"/>
-      <c r="HD5" s="46"/>
-      <c r="HE5" s="46"/>
-      <c r="HF5" s="46"/>
-      <c r="HG5" s="46"/>
-      <c r="HH5" s="46"/>
-      <c r="HI5" s="46"/>
-      <c r="HJ5" s="47"/>
-      <c r="HK5" s="45">
+      <c r="GZ5" s="44"/>
+      <c r="HA5" s="44"/>
+      <c r="HB5" s="44"/>
+      <c r="HC5" s="44"/>
+      <c r="HD5" s="44"/>
+      <c r="HE5" s="44"/>
+      <c r="HF5" s="44"/>
+      <c r="HG5" s="44"/>
+      <c r="HH5" s="44"/>
+      <c r="HI5" s="44"/>
+      <c r="HJ5" s="45"/>
+      <c r="HK5" s="43">
         <v>2016</v>
       </c>
-      <c r="HL5" s="46"/>
-      <c r="HM5" s="46"/>
-      <c r="HN5" s="46"/>
-      <c r="HO5" s="46"/>
-      <c r="HP5" s="46"/>
-      <c r="HQ5" s="46"/>
-      <c r="HR5" s="46"/>
-      <c r="HS5" s="46"/>
-      <c r="HT5" s="46"/>
-      <c r="HU5" s="46"/>
-      <c r="HV5" s="47"/>
-      <c r="HW5" s="45">
+      <c r="HL5" s="44"/>
+      <c r="HM5" s="44"/>
+      <c r="HN5" s="44"/>
+      <c r="HO5" s="44"/>
+      <c r="HP5" s="44"/>
+      <c r="HQ5" s="44"/>
+      <c r="HR5" s="44"/>
+      <c r="HS5" s="44"/>
+      <c r="HT5" s="44"/>
+      <c r="HU5" s="44"/>
+      <c r="HV5" s="45"/>
+      <c r="HW5" s="43">
         <v>2017</v>
       </c>
-      <c r="HX5" s="46"/>
-      <c r="HY5" s="46"/>
-      <c r="HZ5" s="46"/>
-      <c r="IA5" s="46"/>
-      <c r="IB5" s="46"/>
-      <c r="IC5" s="46"/>
-      <c r="ID5" s="46"/>
-      <c r="IE5" s="46"/>
-      <c r="IF5" s="46"/>
-      <c r="IG5" s="46"/>
-      <c r="IH5" s="47"/>
-      <c r="II5" s="45">
+      <c r="HX5" s="44"/>
+      <c r="HY5" s="44"/>
+      <c r="HZ5" s="44"/>
+      <c r="IA5" s="44"/>
+      <c r="IB5" s="44"/>
+      <c r="IC5" s="44"/>
+      <c r="ID5" s="44"/>
+      <c r="IE5" s="44"/>
+      <c r="IF5" s="44"/>
+      <c r="IG5" s="44"/>
+      <c r="IH5" s="45"/>
+      <c r="II5" s="43">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="46"/>
-      <c r="IK5" s="46"/>
-      <c r="IL5" s="46"/>
-      <c r="IM5" s="46"/>
-      <c r="IN5" s="46"/>
-      <c r="IO5" s="46"/>
-      <c r="IP5" s="46"/>
-      <c r="IQ5" s="46"/>
-      <c r="IR5" s="46"/>
-      <c r="IS5" s="46"/>
-      <c r="IT5" s="47"/>
-      <c r="IU5" s="45">
+      <c r="IJ5" s="44"/>
+      <c r="IK5" s="44"/>
+      <c r="IL5" s="44"/>
+      <c r="IM5" s="44"/>
+      <c r="IN5" s="44"/>
+      <c r="IO5" s="44"/>
+      <c r="IP5" s="44"/>
+      <c r="IQ5" s="44"/>
+      <c r="IR5" s="44"/>
+      <c r="IS5" s="44"/>
+      <c r="IT5" s="45"/>
+      <c r="IU5" s="43">
         <v>2019</v>
       </c>
-      <c r="IV5" s="46"/>
-      <c r="IW5" s="46"/>
-      <c r="IX5" s="46"/>
-      <c r="IY5" s="46"/>
-      <c r="IZ5" s="46"/>
-      <c r="JA5" s="46"/>
-      <c r="JB5" s="46"/>
-      <c r="JC5" s="46"/>
-      <c r="JD5" s="46"/>
-      <c r="JE5" s="46"/>
-      <c r="JF5" s="47"/>
-      <c r="JG5" s="45">
+      <c r="IV5" s="44"/>
+      <c r="IW5" s="44"/>
+      <c r="IX5" s="44"/>
+      <c r="IY5" s="44"/>
+      <c r="IZ5" s="44"/>
+      <c r="JA5" s="44"/>
+      <c r="JB5" s="44"/>
+      <c r="JC5" s="44"/>
+      <c r="JD5" s="44"/>
+      <c r="JE5" s="44"/>
+      <c r="JF5" s="45"/>
+      <c r="JG5" s="43">
         <v>2020</v>
       </c>
-      <c r="JH5" s="46"/>
-      <c r="JI5" s="46"/>
-      <c r="JJ5" s="46"/>
-      <c r="JK5" s="46"/>
-      <c r="JL5" s="46"/>
-      <c r="JM5" s="46"/>
-      <c r="JN5" s="46"/>
-      <c r="JO5" s="46"/>
-      <c r="JP5" s="46"/>
-      <c r="JQ5" s="46"/>
-      <c r="JR5" s="47"/>
-      <c r="JS5" s="45">
+      <c r="JH5" s="44"/>
+      <c r="JI5" s="44"/>
+      <c r="JJ5" s="44"/>
+      <c r="JK5" s="44"/>
+      <c r="JL5" s="44"/>
+      <c r="JM5" s="44"/>
+      <c r="JN5" s="44"/>
+      <c r="JO5" s="44"/>
+      <c r="JP5" s="44"/>
+      <c r="JQ5" s="44"/>
+      <c r="JR5" s="45"/>
+      <c r="JS5" s="43">
         <v>2021</v>
       </c>
-      <c r="JT5" s="46"/>
-      <c r="JU5" s="46"/>
-      <c r="JV5" s="46"/>
-      <c r="JW5" s="46"/>
-      <c r="JX5" s="46"/>
-      <c r="JY5" s="46"/>
-      <c r="JZ5" s="46"/>
-      <c r="KA5" s="46"/>
-      <c r="KB5" s="46"/>
-      <c r="KC5" s="46"/>
-      <c r="KD5" s="46"/>
-      <c r="KE5" s="45">
+      <c r="JT5" s="44"/>
+      <c r="JU5" s="44"/>
+      <c r="JV5" s="44"/>
+      <c r="JW5" s="44"/>
+      <c r="JX5" s="44"/>
+      <c r="JY5" s="44"/>
+      <c r="JZ5" s="44"/>
+      <c r="KA5" s="44"/>
+      <c r="KB5" s="44"/>
+      <c r="KC5" s="44"/>
+      <c r="KD5" s="44"/>
+      <c r="KE5" s="43">
         <v>2022</v>
       </c>
-      <c r="KF5" s="46"/>
-      <c r="KG5" s="46"/>
-      <c r="KH5" s="46"/>
-      <c r="KI5" s="46"/>
-      <c r="KJ5" s="46"/>
-      <c r="KK5" s="46"/>
-      <c r="KL5" s="46"/>
-      <c r="KM5" s="46"/>
-      <c r="KN5" s="46"/>
-      <c r="KO5" s="46"/>
-      <c r="KP5" s="47"/>
+      <c r="KF5" s="44"/>
+      <c r="KG5" s="44"/>
+      <c r="KH5" s="44"/>
+      <c r="KI5" s="44"/>
+      <c r="KJ5" s="44"/>
+      <c r="KK5" s="44"/>
+      <c r="KL5" s="44"/>
+      <c r="KM5" s="44"/>
+      <c r="KN5" s="44"/>
+      <c r="KO5" s="44"/>
+      <c r="KP5" s="45"/>
+      <c r="KQ5" s="54">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="6" spans="1:302" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+    <row r="6" spans="1:303" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2602,8 +2626,11 @@
       <c r="KP6" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="KQ6" s="48" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:302" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:303" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3510,8 +3537,11 @@
       <c r="KP7" s="31">
         <v>118708</v>
       </c>
+      <c r="KQ7" s="49">
+        <v>125411</v>
+      </c>
     </row>
-    <row r="8" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4416,8 +4446,11 @@
       <c r="KP8" s="4">
         <v>23857</v>
       </c>
+      <c r="KQ8" s="50">
+        <v>24223</v>
+      </c>
     </row>
-    <row r="9" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5322,8 +5355,11 @@
       <c r="KP9" s="4">
         <v>5070</v>
       </c>
+      <c r="KQ9" s="50">
+        <v>5773</v>
+      </c>
     </row>
-    <row r="10" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6228,8 +6264,11 @@
       <c r="KP10" s="4">
         <v>17442</v>
       </c>
+      <c r="KQ10" s="50">
+        <v>19266</v>
+      </c>
     </row>
-    <row r="11" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7134,8 +7173,11 @@
       <c r="KP11" s="4">
         <v>17859</v>
       </c>
+      <c r="KQ11" s="50">
+        <v>19218</v>
+      </c>
     </row>
-    <row r="12" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -8040,8 +8082,11 @@
       <c r="KP12" s="4">
         <v>16047</v>
       </c>
+      <c r="KQ12" s="50">
+        <v>17134</v>
+      </c>
     </row>
-    <row r="13" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8946,8 +8991,11 @@
       <c r="KP13" s="4">
         <v>14161</v>
       </c>
+      <c r="KQ13" s="50">
+        <v>14794</v>
+      </c>
     </row>
-    <row r="14" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9852,8 +9900,11 @@
       <c r="KP14" s="4">
         <v>12522</v>
       </c>
+      <c r="KQ14" s="50">
+        <v>12928</v>
+      </c>
     </row>
-    <row r="15" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10758,8 +10809,11 @@
       <c r="KP15" s="4">
         <v>11743</v>
       </c>
+      <c r="KQ15" s="50">
+        <v>12065</v>
+      </c>
     </row>
-    <row r="16" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11664,8 +11718,11 @@
       <c r="KP16" s="37">
         <v>7</v>
       </c>
+      <c r="KQ16" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12572,8 +12629,11 @@
       <c r="KP17" s="31">
         <v>399607</v>
       </c>
+      <c r="KQ17" s="49">
+        <v>397405</v>
+      </c>
     </row>
-    <row r="18" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13478,8 +13538,11 @@
       <c r="KP18" s="4">
         <v>63269</v>
       </c>
+      <c r="KQ18" s="50">
+        <v>63340</v>
+      </c>
     </row>
-    <row r="19" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14384,8 +14447,11 @@
       <c r="KP19" s="4">
         <v>11273</v>
       </c>
+      <c r="KQ19" s="50">
+        <v>10445</v>
+      </c>
     </row>
-    <row r="20" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15290,8 +15356,11 @@
       <c r="KP20" s="4">
         <v>54870</v>
       </c>
+      <c r="KQ20" s="50">
+        <v>53792</v>
+      </c>
     </row>
-    <row r="21" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -16196,8 +16265,11 @@
       <c r="KP21" s="4">
         <v>65790</v>
       </c>
+      <c r="KQ21" s="50">
+        <v>65090</v>
+      </c>
     </row>
-    <row r="22" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -17102,8 +17174,11 @@
       <c r="KP22" s="4">
         <v>63880</v>
       </c>
+      <c r="KQ22" s="50">
+        <v>64192</v>
+      </c>
     </row>
-    <row r="23" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -18008,8 +18083,11 @@
       <c r="KP23" s="4">
         <v>55468</v>
       </c>
+      <c r="KQ23" s="50">
+        <v>55494</v>
+      </c>
     </row>
-    <row r="24" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18914,8 +18992,11 @@
       <c r="KP24" s="4">
         <v>46068</v>
       </c>
+      <c r="KQ24" s="50">
+        <v>46261</v>
+      </c>
     </row>
-    <row r="25" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -19820,8 +19901,11 @@
       <c r="KP25" s="4">
         <v>38987</v>
       </c>
+      <c r="KQ25" s="50">
+        <v>38789</v>
+      </c>
     </row>
-    <row r="26" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -20718,8 +20802,11 @@
       <c r="KP26" s="37">
         <v>2</v>
       </c>
+      <c r="KQ26" s="51">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -21626,8 +21713,11 @@
       <c r="KP27" s="31">
         <v>145346</v>
       </c>
+      <c r="KQ27" s="49">
+        <v>148827</v>
+      </c>
     </row>
-    <row r="28" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -22532,8 +22622,11 @@
       <c r="KP28" s="4">
         <v>27049</v>
       </c>
+      <c r="KQ28" s="50">
+        <v>27501</v>
+      </c>
     </row>
-    <row r="29" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -23438,8 +23531,11 @@
       <c r="KP29" s="4">
         <v>4578</v>
       </c>
+      <c r="KQ29" s="50">
+        <v>4676</v>
+      </c>
     </row>
-    <row r="30" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -24344,8 +24440,11 @@
       <c r="KP30" s="4">
         <v>17950</v>
       </c>
+      <c r="KQ30" s="50">
+        <v>18581</v>
+      </c>
     </row>
-    <row r="31" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -25250,8 +25349,11 @@
       <c r="KP31" s="4">
         <v>23136</v>
       </c>
+      <c r="KQ31" s="50">
+        <v>23650</v>
+      </c>
     </row>
-    <row r="32" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -26156,8 +26258,11 @@
       <c r="KP32" s="4">
         <v>21786</v>
       </c>
+      <c r="KQ32" s="50">
+        <v>22629</v>
+      </c>
     </row>
-    <row r="33" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -27062,8 +27167,11 @@
       <c r="KP33" s="4">
         <v>19557</v>
       </c>
+      <c r="KQ33" s="50">
+        <v>20032</v>
+      </c>
     </row>
-    <row r="34" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -27968,8 +28076,11 @@
       <c r="KP34" s="4">
         <v>16619</v>
       </c>
+      <c r="KQ34" s="50">
+        <v>16956</v>
+      </c>
     </row>
-    <row r="35" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -28874,8 +28985,11 @@
       <c r="KP35" s="4">
         <v>14656</v>
       </c>
+      <c r="KQ35" s="50">
+        <v>14789</v>
+      </c>
     </row>
-    <row r="36" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -29780,8 +29894,11 @@
       <c r="KP36" s="37">
         <v>15</v>
       </c>
+      <c r="KQ36" s="51">
+        <v>13</v>
+      </c>
     </row>
-    <row r="37" spans="1:302" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:303" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -30688,8 +30805,11 @@
       <c r="KP37" s="33">
         <v>9814</v>
       </c>
+      <c r="KQ37" s="52">
+        <v>9847</v>
+      </c>
     </row>
-    <row r="38" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -31594,8 +31714,11 @@
       <c r="KP38" s="4">
         <v>1720</v>
       </c>
+      <c r="KQ38" s="50">
+        <v>1724</v>
+      </c>
     </row>
-    <row r="39" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -32500,8 +32623,11 @@
       <c r="KP39" s="4">
         <v>78</v>
       </c>
+      <c r="KQ39" s="50">
+        <v>81</v>
+      </c>
     </row>
-    <row r="40" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -33406,8 +33532,11 @@
       <c r="KP40" s="4">
         <v>563</v>
       </c>
+      <c r="KQ40" s="50">
+        <v>576</v>
+      </c>
     </row>
-    <row r="41" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -34312,8 +34441,11 @@
       <c r="KP41" s="4">
         <v>1039</v>
       </c>
+      <c r="KQ41" s="50">
+        <v>1023</v>
+      </c>
     </row>
-    <row r="42" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -35218,8 +35350,11 @@
       <c r="KP42" s="4">
         <v>1426</v>
       </c>
+      <c r="KQ42" s="50">
+        <v>1421</v>
+      </c>
     </row>
-    <row r="43" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -36124,8 +36259,11 @@
       <c r="KP43" s="4">
         <v>1792</v>
       </c>
+      <c r="KQ43" s="50">
+        <v>1791</v>
+      </c>
     </row>
-    <row r="44" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -37030,8 +37168,11 @@
       <c r="KP44" s="4">
         <v>1715</v>
       </c>
+      <c r="KQ44" s="50">
+        <v>1730</v>
+      </c>
     </row>
-    <row r="45" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -37936,8 +38077,11 @@
       <c r="KP45" s="4">
         <v>1481</v>
       </c>
+      <c r="KQ45" s="50">
+        <v>1501</v>
+      </c>
     </row>
-    <row r="46" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -38366,8 +38510,9 @@
       <c r="KN46" s="39"/>
       <c r="KO46" s="39"/>
       <c r="KP46" s="37"/>
+      <c r="KQ46" s="51"/>
     </row>
-    <row r="47" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -39274,8 +39419,11 @@
       <c r="KP47" s="31">
         <v>508146</v>
       </c>
+      <c r="KQ47" s="49">
+        <v>512903</v>
+      </c>
     </row>
-    <row r="48" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -40180,8 +40328,11 @@
       <c r="KP48" s="4">
         <v>80010</v>
       </c>
+      <c r="KQ48" s="50">
+        <v>81027</v>
+      </c>
     </row>
-    <row r="49" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -41086,8 +41237,11 @@
       <c r="KP49" s="4">
         <v>14242</v>
       </c>
+      <c r="KQ49" s="50">
+        <v>14515</v>
+      </c>
     </row>
-    <row r="50" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -41992,8 +42146,11 @@
       <c r="KP50" s="4">
         <v>70298</v>
       </c>
+      <c r="KQ50" s="50">
+        <v>70968</v>
+      </c>
     </row>
-    <row r="51" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -42898,8 +43055,11 @@
       <c r="KP51" s="4">
         <v>81844</v>
       </c>
+      <c r="KQ51" s="50">
+        <v>82137</v>
+      </c>
     </row>
-    <row r="52" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -43804,8 +43964,11 @@
       <c r="KP52" s="4">
         <v>76191</v>
       </c>
+      <c r="KQ52" s="50">
+        <v>77211</v>
+      </c>
     </row>
-    <row r="53" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -44710,8 +44873,11 @@
       <c r="KP53" s="4">
         <v>68002</v>
       </c>
+      <c r="KQ53" s="50">
+        <v>68609</v>
+      </c>
     </row>
-    <row r="54" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -45616,8 +45782,11 @@
       <c r="KP54" s="4">
         <v>62982</v>
       </c>
+      <c r="KQ54" s="50">
+        <v>63444</v>
+      </c>
     </row>
-    <row r="55" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -46522,8 +46691,11 @@
       <c r="KP55" s="4">
         <v>54574</v>
       </c>
+      <c r="KQ55" s="50">
+        <v>54990</v>
+      </c>
     </row>
-    <row r="56" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -47428,8 +47600,11 @@
       <c r="KP56" s="37">
         <v>3</v>
       </c>
+      <c r="KQ56" s="51">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -48336,8 +48511,11 @@
       <c r="KP57" s="31">
         <v>2500</v>
       </c>
+      <c r="KQ57" s="49">
+        <v>2580</v>
+      </c>
     </row>
-    <row r="58" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -49242,8 +49420,11 @@
       <c r="KP58" s="4">
         <v>533</v>
       </c>
+      <c r="KQ58" s="50">
+        <v>531</v>
+      </c>
     </row>
-    <row r="59" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -50148,8 +50329,11 @@
       <c r="KP59" s="4">
         <v>29</v>
       </c>
+      <c r="KQ59" s="50">
+        <v>35</v>
+      </c>
     </row>
-    <row r="60" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -51054,8 +51238,11 @@
       <c r="KP60" s="4">
         <v>182</v>
       </c>
+      <c r="KQ60" s="50">
+        <v>190</v>
+      </c>
     </row>
-    <row r="61" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -51960,8 +52147,11 @@
       <c r="KP61" s="4">
         <v>381</v>
       </c>
+      <c r="KQ61" s="50">
+        <v>383</v>
+      </c>
     </row>
-    <row r="62" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -52866,8 +53056,11 @@
       <c r="KP62" s="4">
         <v>391</v>
       </c>
+      <c r="KQ62" s="50">
+        <v>425</v>
+      </c>
     </row>
-    <row r="63" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -53772,8 +53965,11 @@
       <c r="KP63" s="4">
         <v>372</v>
       </c>
+      <c r="KQ63" s="50">
+        <v>385</v>
+      </c>
     </row>
-    <row r="64" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -54678,8 +54874,11 @@
       <c r="KP64" s="4">
         <v>335</v>
       </c>
+      <c r="KQ64" s="50">
+        <v>341</v>
+      </c>
     </row>
-    <row r="65" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -55584,8 +55783,11 @@
       <c r="KP65" s="4">
         <v>277</v>
       </c>
+      <c r="KQ65" s="50">
+        <v>290</v>
+      </c>
     </row>
-    <row r="66" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -55948,8 +56150,9 @@
       <c r="KN66" s="39"/>
       <c r="KO66" s="39"/>
       <c r="KP66" s="37"/>
+      <c r="KQ66" s="51"/>
     </row>
-    <row r="67" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -56856,8 +57059,11 @@
       <c r="KP67" s="31">
         <v>644397</v>
       </c>
+      <c r="KQ67" s="49">
+        <v>649778</v>
+      </c>
     </row>
-    <row r="68" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -57762,8 +57968,11 @@
       <c r="KP68" s="4">
         <v>135336</v>
       </c>
+      <c r="KQ68" s="50">
+        <v>137712</v>
+      </c>
     </row>
-    <row r="69" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -58668,8 +58877,11 @@
       <c r="KP69" s="4">
         <v>10333</v>
       </c>
+      <c r="KQ69" s="50">
+        <v>10209</v>
+      </c>
     </row>
-    <row r="70" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -59574,8 +59786,11 @@
       <c r="KP70" s="4">
         <v>62559</v>
       </c>
+      <c r="KQ70" s="50">
+        <v>62400</v>
+      </c>
     </row>
-    <row r="71" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -60480,8 +60695,11 @@
       <c r="KP71" s="4">
         <v>100575</v>
       </c>
+      <c r="KQ71" s="50">
+        <v>100441</v>
+      </c>
     </row>
-    <row r="72" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -61386,8 +61604,11 @@
       <c r="KP72" s="4">
         <v>97821</v>
       </c>
+      <c r="KQ72" s="50">
+        <v>98780</v>
+      </c>
     </row>
-    <row r="73" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -62292,8 +62513,11 @@
       <c r="KP73" s="4">
         <v>87830</v>
       </c>
+      <c r="KQ73" s="50">
+        <v>88801</v>
+      </c>
     </row>
-    <row r="74" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -63198,8 +63422,11 @@
       <c r="KP74" s="4">
         <v>78905</v>
       </c>
+      <c r="KQ74" s="50">
+        <v>79885</v>
+      </c>
     </row>
-    <row r="75" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -64104,8 +64331,11 @@
       <c r="KP75" s="4">
         <v>71034</v>
       </c>
+      <c r="KQ75" s="50">
+        <v>71544</v>
+      </c>
     </row>
-    <row r="76" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -65010,8 +65240,11 @@
       <c r="KP76" s="37">
         <v>4</v>
       </c>
+      <c r="KQ76" s="51">
+        <v>6</v>
+      </c>
     </row>
-    <row r="77" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -65918,8 +66151,11 @@
       <c r="KP77" s="31">
         <v>104444</v>
       </c>
+      <c r="KQ77" s="49">
+        <v>104505</v>
+      </c>
     </row>
-    <row r="78" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -66824,8 +67060,11 @@
       <c r="KP78" s="4">
         <v>18744</v>
       </c>
+      <c r="KQ78" s="50">
+        <v>18947</v>
+      </c>
     </row>
-    <row r="79" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -67730,8 +67969,11 @@
       <c r="KP79" s="4">
         <v>1761</v>
       </c>
+      <c r="KQ79" s="50">
+        <v>1710</v>
+      </c>
     </row>
-    <row r="80" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -68636,8 +68878,11 @@
       <c r="KP80" s="4">
         <v>11818</v>
       </c>
+      <c r="KQ80" s="50">
+        <v>11644</v>
+      </c>
     </row>
-    <row r="81" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -69542,8 +69787,11 @@
       <c r="KP81" s="4">
         <v>15931</v>
       </c>
+      <c r="KQ81" s="50">
+        <v>15770</v>
+      </c>
     </row>
-    <row r="82" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -70448,8 +70696,11 @@
       <c r="KP82" s="4">
         <v>16051</v>
       </c>
+      <c r="KQ82" s="50">
+        <v>16190</v>
+      </c>
     </row>
-    <row r="83" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -71354,8 +71605,11 @@
       <c r="KP83" s="4">
         <v>15025</v>
       </c>
+      <c r="KQ83" s="50">
+        <v>15064</v>
+      </c>
     </row>
-    <row r="84" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -72260,8 +72514,11 @@
       <c r="KP84" s="4">
         <v>13165</v>
       </c>
+      <c r="KQ84" s="50">
+        <v>13237</v>
+      </c>
     </row>
-    <row r="85" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -73166,8 +73423,11 @@
       <c r="KP85" s="4">
         <v>11948</v>
       </c>
+      <c r="KQ85" s="50">
+        <v>11942</v>
+      </c>
     </row>
-    <row r="86" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -73884,8 +74144,11 @@
       <c r="KP86" s="37">
         <v>1</v>
       </c>
+      <c r="KQ86" s="51">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -74792,9 +75055,12 @@
       <c r="KP87" s="35">
         <v>1932962</v>
       </c>
-      <c r="KQ87" s="24"/>
+      <c r="KQ87" s="53">
+        <v>1951256</v>
+      </c>
+      <c r="KR87" s="24"/>
     </row>
-    <row r="88" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
         <v>23</v>
       </c>
@@ -74806,11 +75072,26 @@
       <c r="G88" s="42"/>
       <c r="KD88" s="24"/>
     </row>
-    <row r="89" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:304" x14ac:dyDescent="0.25">
       <c r="KD89" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="KE5:KP5"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JS5:KD5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
+    <mergeCell ref="DS5:ED5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -74826,21 +75107,6 @@
     <mergeCell ref="CI5:CT5"/>
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="KE5:KP5"/>
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JS5:KD5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
-    <mergeCell ref="DS5:ED5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabluados_imss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="ta_división_edad" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -966,24 +966,6 @@
     <xf numFmtId="3" fontId="19" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1003,6 +985,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1329,403 +1329,404 @@
   <dimension ref="A1:KR89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="KG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KR84" sqref="KR84"/>
+      <pane xSplit="2" topLeftCell="KJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KT9" sqref="KT9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="303" width="11.875" style="1" customWidth="1"/>
-    <col min="304" max="16384" width="11.375" style="1"/>
+    <col min="1" max="1" width="45.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="303" width="11.85546875" style="1" customWidth="1"/>
+    <col min="304" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:303" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:304" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:303" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:304" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
     </row>
-    <row r="3" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:303" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:304" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="52">
         <v>1998</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="43">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="52">
         <v>1999</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="43">
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="52">
         <v>2000</v>
       </c>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="43">
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="52">
         <v>2001</v>
       </c>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="44"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="44"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="43">
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="54"/>
+      <c r="AY5" s="52">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="44"/>
-      <c r="BB5" s="44"/>
-      <c r="BC5" s="44"/>
-      <c r="BD5" s="44"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="44"/>
-      <c r="BG5" s="44"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="44"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="43">
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="53"/>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="53"/>
+      <c r="BH5" s="53"/>
+      <c r="BI5" s="53"/>
+      <c r="BJ5" s="54"/>
+      <c r="BK5" s="52">
         <v>2003</v>
       </c>
-      <c r="BL5" s="44"/>
-      <c r="BM5" s="44"/>
-      <c r="BN5" s="44"/>
-      <c r="BO5" s="44"/>
-      <c r="BP5" s="44"/>
-      <c r="BQ5" s="44"/>
-      <c r="BR5" s="44"/>
-      <c r="BS5" s="44"/>
-      <c r="BT5" s="44"/>
-      <c r="BU5" s="44"/>
-      <c r="BV5" s="45"/>
-      <c r="BW5" s="43">
+      <c r="BL5" s="53"/>
+      <c r="BM5" s="53"/>
+      <c r="BN5" s="53"/>
+      <c r="BO5" s="53"/>
+      <c r="BP5" s="53"/>
+      <c r="BQ5" s="53"/>
+      <c r="BR5" s="53"/>
+      <c r="BS5" s="53"/>
+      <c r="BT5" s="53"/>
+      <c r="BU5" s="53"/>
+      <c r="BV5" s="54"/>
+      <c r="BW5" s="52">
         <v>2004</v>
       </c>
-      <c r="BX5" s="44"/>
-      <c r="BY5" s="44"/>
-      <c r="BZ5" s="44"/>
-      <c r="CA5" s="44"/>
-      <c r="CB5" s="44"/>
-      <c r="CC5" s="44"/>
-      <c r="CD5" s="44"/>
-      <c r="CE5" s="44"/>
-      <c r="CF5" s="44"/>
-      <c r="CG5" s="44"/>
-      <c r="CH5" s="45"/>
-      <c r="CI5" s="43">
+      <c r="BX5" s="53"/>
+      <c r="BY5" s="53"/>
+      <c r="BZ5" s="53"/>
+      <c r="CA5" s="53"/>
+      <c r="CB5" s="53"/>
+      <c r="CC5" s="53"/>
+      <c r="CD5" s="53"/>
+      <c r="CE5" s="53"/>
+      <c r="CF5" s="53"/>
+      <c r="CG5" s="53"/>
+      <c r="CH5" s="54"/>
+      <c r="CI5" s="52">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="44"/>
-      <c r="CK5" s="44"/>
-      <c r="CL5" s="44"/>
-      <c r="CM5" s="44"/>
-      <c r="CN5" s="44"/>
-      <c r="CO5" s="44"/>
-      <c r="CP5" s="44"/>
-      <c r="CQ5" s="44"/>
-      <c r="CR5" s="44"/>
-      <c r="CS5" s="44"/>
-      <c r="CT5" s="45"/>
-      <c r="CU5" s="43">
+      <c r="CJ5" s="53"/>
+      <c r="CK5" s="53"/>
+      <c r="CL5" s="53"/>
+      <c r="CM5" s="53"/>
+      <c r="CN5" s="53"/>
+      <c r="CO5" s="53"/>
+      <c r="CP5" s="53"/>
+      <c r="CQ5" s="53"/>
+      <c r="CR5" s="53"/>
+      <c r="CS5" s="53"/>
+      <c r="CT5" s="54"/>
+      <c r="CU5" s="52">
         <v>2006</v>
       </c>
-      <c r="CV5" s="44"/>
-      <c r="CW5" s="44"/>
-      <c r="CX5" s="44"/>
-      <c r="CY5" s="44"/>
-      <c r="CZ5" s="44"/>
-      <c r="DA5" s="44"/>
-      <c r="DB5" s="44"/>
-      <c r="DC5" s="44"/>
-      <c r="DD5" s="44"/>
-      <c r="DE5" s="44"/>
-      <c r="DF5" s="45"/>
-      <c r="DG5" s="43">
+      <c r="CV5" s="53"/>
+      <c r="CW5" s="53"/>
+      <c r="CX5" s="53"/>
+      <c r="CY5" s="53"/>
+      <c r="CZ5" s="53"/>
+      <c r="DA5" s="53"/>
+      <c r="DB5" s="53"/>
+      <c r="DC5" s="53"/>
+      <c r="DD5" s="53"/>
+      <c r="DE5" s="53"/>
+      <c r="DF5" s="54"/>
+      <c r="DG5" s="52">
         <v>2007</v>
       </c>
-      <c r="DH5" s="44"/>
-      <c r="DI5" s="44"/>
-      <c r="DJ5" s="44"/>
-      <c r="DK5" s="44"/>
-      <c r="DL5" s="44"/>
-      <c r="DM5" s="44"/>
-      <c r="DN5" s="44"/>
-      <c r="DO5" s="44"/>
-      <c r="DP5" s="44"/>
-      <c r="DQ5" s="44"/>
-      <c r="DR5" s="45"/>
-      <c r="DS5" s="43">
+      <c r="DH5" s="53"/>
+      <c r="DI5" s="53"/>
+      <c r="DJ5" s="53"/>
+      <c r="DK5" s="53"/>
+      <c r="DL5" s="53"/>
+      <c r="DM5" s="53"/>
+      <c r="DN5" s="53"/>
+      <c r="DO5" s="53"/>
+      <c r="DP5" s="53"/>
+      <c r="DQ5" s="53"/>
+      <c r="DR5" s="54"/>
+      <c r="DS5" s="52">
         <v>2008</v>
       </c>
-      <c r="DT5" s="44"/>
-      <c r="DU5" s="44"/>
-      <c r="DV5" s="44"/>
-      <c r="DW5" s="44"/>
-      <c r="DX5" s="44"/>
-      <c r="DY5" s="44"/>
-      <c r="DZ5" s="44"/>
-      <c r="EA5" s="44"/>
-      <c r="EB5" s="44"/>
-      <c r="EC5" s="44"/>
-      <c r="ED5" s="45"/>
-      <c r="EE5" s="43">
+      <c r="DT5" s="53"/>
+      <c r="DU5" s="53"/>
+      <c r="DV5" s="53"/>
+      <c r="DW5" s="53"/>
+      <c r="DX5" s="53"/>
+      <c r="DY5" s="53"/>
+      <c r="DZ5" s="53"/>
+      <c r="EA5" s="53"/>
+      <c r="EB5" s="53"/>
+      <c r="EC5" s="53"/>
+      <c r="ED5" s="54"/>
+      <c r="EE5" s="52">
         <v>2009</v>
       </c>
-      <c r="EF5" s="44"/>
-      <c r="EG5" s="44"/>
-      <c r="EH5" s="44"/>
-      <c r="EI5" s="44"/>
-      <c r="EJ5" s="44"/>
-      <c r="EK5" s="44"/>
-      <c r="EL5" s="44"/>
-      <c r="EM5" s="44"/>
-      <c r="EN5" s="44"/>
-      <c r="EO5" s="44"/>
-      <c r="EP5" s="45"/>
-      <c r="EQ5" s="43">
+      <c r="EF5" s="53"/>
+      <c r="EG5" s="53"/>
+      <c r="EH5" s="53"/>
+      <c r="EI5" s="53"/>
+      <c r="EJ5" s="53"/>
+      <c r="EK5" s="53"/>
+      <c r="EL5" s="53"/>
+      <c r="EM5" s="53"/>
+      <c r="EN5" s="53"/>
+      <c r="EO5" s="53"/>
+      <c r="EP5" s="54"/>
+      <c r="EQ5" s="52">
         <v>2010</v>
       </c>
-      <c r="ER5" s="44"/>
-      <c r="ES5" s="44"/>
-      <c r="ET5" s="44"/>
-      <c r="EU5" s="44"/>
-      <c r="EV5" s="44"/>
-      <c r="EW5" s="44"/>
-      <c r="EX5" s="44"/>
-      <c r="EY5" s="44"/>
-      <c r="EZ5" s="44"/>
-      <c r="FA5" s="44"/>
-      <c r="FB5" s="45"/>
-      <c r="FC5" s="43">
+      <c r="ER5" s="53"/>
+      <c r="ES5" s="53"/>
+      <c r="ET5" s="53"/>
+      <c r="EU5" s="53"/>
+      <c r="EV5" s="53"/>
+      <c r="EW5" s="53"/>
+      <c r="EX5" s="53"/>
+      <c r="EY5" s="53"/>
+      <c r="EZ5" s="53"/>
+      <c r="FA5" s="53"/>
+      <c r="FB5" s="54"/>
+      <c r="FC5" s="52">
         <v>2011</v>
       </c>
-      <c r="FD5" s="44"/>
-      <c r="FE5" s="44"/>
-      <c r="FF5" s="44"/>
-      <c r="FG5" s="44"/>
-      <c r="FH5" s="44"/>
-      <c r="FI5" s="44"/>
-      <c r="FJ5" s="44"/>
-      <c r="FK5" s="44"/>
-      <c r="FL5" s="44"/>
-      <c r="FM5" s="44"/>
-      <c r="FN5" s="45"/>
-      <c r="FO5" s="43">
+      <c r="FD5" s="53"/>
+      <c r="FE5" s="53"/>
+      <c r="FF5" s="53"/>
+      <c r="FG5" s="53"/>
+      <c r="FH5" s="53"/>
+      <c r="FI5" s="53"/>
+      <c r="FJ5" s="53"/>
+      <c r="FK5" s="53"/>
+      <c r="FL5" s="53"/>
+      <c r="FM5" s="53"/>
+      <c r="FN5" s="54"/>
+      <c r="FO5" s="52">
         <v>2012</v>
       </c>
-      <c r="FP5" s="44"/>
-      <c r="FQ5" s="44"/>
-      <c r="FR5" s="44"/>
-      <c r="FS5" s="44"/>
-      <c r="FT5" s="44"/>
-      <c r="FU5" s="44"/>
-      <c r="FV5" s="44"/>
-      <c r="FW5" s="44"/>
-      <c r="FX5" s="44"/>
-      <c r="FY5" s="44"/>
-      <c r="FZ5" s="45"/>
-      <c r="GA5" s="43">
+      <c r="FP5" s="53"/>
+      <c r="FQ5" s="53"/>
+      <c r="FR5" s="53"/>
+      <c r="FS5" s="53"/>
+      <c r="FT5" s="53"/>
+      <c r="FU5" s="53"/>
+      <c r="FV5" s="53"/>
+      <c r="FW5" s="53"/>
+      <c r="FX5" s="53"/>
+      <c r="FY5" s="53"/>
+      <c r="FZ5" s="54"/>
+      <c r="GA5" s="52">
         <v>2013</v>
       </c>
-      <c r="GB5" s="44"/>
-      <c r="GC5" s="44"/>
-      <c r="GD5" s="44"/>
-      <c r="GE5" s="44"/>
-      <c r="GF5" s="44"/>
-      <c r="GG5" s="44"/>
-      <c r="GH5" s="44"/>
-      <c r="GI5" s="44"/>
-      <c r="GJ5" s="44"/>
-      <c r="GK5" s="44"/>
-      <c r="GL5" s="45"/>
-      <c r="GM5" s="43">
+      <c r="GB5" s="53"/>
+      <c r="GC5" s="53"/>
+      <c r="GD5" s="53"/>
+      <c r="GE5" s="53"/>
+      <c r="GF5" s="53"/>
+      <c r="GG5" s="53"/>
+      <c r="GH5" s="53"/>
+      <c r="GI5" s="53"/>
+      <c r="GJ5" s="53"/>
+      <c r="GK5" s="53"/>
+      <c r="GL5" s="54"/>
+      <c r="GM5" s="52">
         <v>2014</v>
       </c>
-      <c r="GN5" s="44"/>
-      <c r="GO5" s="44"/>
-      <c r="GP5" s="44"/>
-      <c r="GQ5" s="44"/>
-      <c r="GR5" s="44"/>
-      <c r="GS5" s="44"/>
-      <c r="GT5" s="44"/>
-      <c r="GU5" s="44"/>
-      <c r="GV5" s="44"/>
-      <c r="GW5" s="44"/>
-      <c r="GX5" s="45"/>
-      <c r="GY5" s="43">
+      <c r="GN5" s="53"/>
+      <c r="GO5" s="53"/>
+      <c r="GP5" s="53"/>
+      <c r="GQ5" s="53"/>
+      <c r="GR5" s="53"/>
+      <c r="GS5" s="53"/>
+      <c r="GT5" s="53"/>
+      <c r="GU5" s="53"/>
+      <c r="GV5" s="53"/>
+      <c r="GW5" s="53"/>
+      <c r="GX5" s="54"/>
+      <c r="GY5" s="52">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="44"/>
-      <c r="HA5" s="44"/>
-      <c r="HB5" s="44"/>
-      <c r="HC5" s="44"/>
-      <c r="HD5" s="44"/>
-      <c r="HE5" s="44"/>
-      <c r="HF5" s="44"/>
-      <c r="HG5" s="44"/>
-      <c r="HH5" s="44"/>
-      <c r="HI5" s="44"/>
-      <c r="HJ5" s="45"/>
-      <c r="HK5" s="43">
+      <c r="GZ5" s="53"/>
+      <c r="HA5" s="53"/>
+      <c r="HB5" s="53"/>
+      <c r="HC5" s="53"/>
+      <c r="HD5" s="53"/>
+      <c r="HE5" s="53"/>
+      <c r="HF5" s="53"/>
+      <c r="HG5" s="53"/>
+      <c r="HH5" s="53"/>
+      <c r="HI5" s="53"/>
+      <c r="HJ5" s="54"/>
+      <c r="HK5" s="52">
         <v>2016</v>
       </c>
-      <c r="HL5" s="44"/>
-      <c r="HM5" s="44"/>
-      <c r="HN5" s="44"/>
-      <c r="HO5" s="44"/>
-      <c r="HP5" s="44"/>
-      <c r="HQ5" s="44"/>
-      <c r="HR5" s="44"/>
-      <c r="HS5" s="44"/>
-      <c r="HT5" s="44"/>
-      <c r="HU5" s="44"/>
-      <c r="HV5" s="45"/>
-      <c r="HW5" s="43">
+      <c r="HL5" s="53"/>
+      <c r="HM5" s="53"/>
+      <c r="HN5" s="53"/>
+      <c r="HO5" s="53"/>
+      <c r="HP5" s="53"/>
+      <c r="HQ5" s="53"/>
+      <c r="HR5" s="53"/>
+      <c r="HS5" s="53"/>
+      <c r="HT5" s="53"/>
+      <c r="HU5" s="53"/>
+      <c r="HV5" s="54"/>
+      <c r="HW5" s="52">
         <v>2017</v>
       </c>
-      <c r="HX5" s="44"/>
-      <c r="HY5" s="44"/>
-      <c r="HZ5" s="44"/>
-      <c r="IA5" s="44"/>
-      <c r="IB5" s="44"/>
-      <c r="IC5" s="44"/>
-      <c r="ID5" s="44"/>
-      <c r="IE5" s="44"/>
-      <c r="IF5" s="44"/>
-      <c r="IG5" s="44"/>
-      <c r="IH5" s="45"/>
-      <c r="II5" s="43">
+      <c r="HX5" s="53"/>
+      <c r="HY5" s="53"/>
+      <c r="HZ5" s="53"/>
+      <c r="IA5" s="53"/>
+      <c r="IB5" s="53"/>
+      <c r="IC5" s="53"/>
+      <c r="ID5" s="53"/>
+      <c r="IE5" s="53"/>
+      <c r="IF5" s="53"/>
+      <c r="IG5" s="53"/>
+      <c r="IH5" s="54"/>
+      <c r="II5" s="52">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="44"/>
-      <c r="IK5" s="44"/>
-      <c r="IL5" s="44"/>
-      <c r="IM5" s="44"/>
-      <c r="IN5" s="44"/>
-      <c r="IO5" s="44"/>
-      <c r="IP5" s="44"/>
-      <c r="IQ5" s="44"/>
-      <c r="IR5" s="44"/>
-      <c r="IS5" s="44"/>
-      <c r="IT5" s="45"/>
-      <c r="IU5" s="43">
+      <c r="IJ5" s="53"/>
+      <c r="IK5" s="53"/>
+      <c r="IL5" s="53"/>
+      <c r="IM5" s="53"/>
+      <c r="IN5" s="53"/>
+      <c r="IO5" s="53"/>
+      <c r="IP5" s="53"/>
+      <c r="IQ5" s="53"/>
+      <c r="IR5" s="53"/>
+      <c r="IS5" s="53"/>
+      <c r="IT5" s="54"/>
+      <c r="IU5" s="52">
         <v>2019</v>
       </c>
-      <c r="IV5" s="44"/>
-      <c r="IW5" s="44"/>
-      <c r="IX5" s="44"/>
-      <c r="IY5" s="44"/>
-      <c r="IZ5" s="44"/>
-      <c r="JA5" s="44"/>
-      <c r="JB5" s="44"/>
-      <c r="JC5" s="44"/>
-      <c r="JD5" s="44"/>
-      <c r="JE5" s="44"/>
-      <c r="JF5" s="45"/>
-      <c r="JG5" s="43">
+      <c r="IV5" s="53"/>
+      <c r="IW5" s="53"/>
+      <c r="IX5" s="53"/>
+      <c r="IY5" s="53"/>
+      <c r="IZ5" s="53"/>
+      <c r="JA5" s="53"/>
+      <c r="JB5" s="53"/>
+      <c r="JC5" s="53"/>
+      <c r="JD5" s="53"/>
+      <c r="JE5" s="53"/>
+      <c r="JF5" s="54"/>
+      <c r="JG5" s="52">
         <v>2020</v>
       </c>
-      <c r="JH5" s="44"/>
-      <c r="JI5" s="44"/>
-      <c r="JJ5" s="44"/>
-      <c r="JK5" s="44"/>
-      <c r="JL5" s="44"/>
-      <c r="JM5" s="44"/>
-      <c r="JN5" s="44"/>
-      <c r="JO5" s="44"/>
-      <c r="JP5" s="44"/>
-      <c r="JQ5" s="44"/>
-      <c r="JR5" s="45"/>
-      <c r="JS5" s="43">
+      <c r="JH5" s="53"/>
+      <c r="JI5" s="53"/>
+      <c r="JJ5" s="53"/>
+      <c r="JK5" s="53"/>
+      <c r="JL5" s="53"/>
+      <c r="JM5" s="53"/>
+      <c r="JN5" s="53"/>
+      <c r="JO5" s="53"/>
+      <c r="JP5" s="53"/>
+      <c r="JQ5" s="53"/>
+      <c r="JR5" s="54"/>
+      <c r="JS5" s="52">
         <v>2021</v>
       </c>
-      <c r="JT5" s="44"/>
-      <c r="JU5" s="44"/>
-      <c r="JV5" s="44"/>
-      <c r="JW5" s="44"/>
-      <c r="JX5" s="44"/>
-      <c r="JY5" s="44"/>
-      <c r="JZ5" s="44"/>
-      <c r="KA5" s="44"/>
-      <c r="KB5" s="44"/>
-      <c r="KC5" s="44"/>
-      <c r="KD5" s="44"/>
-      <c r="KE5" s="43">
+      <c r="JT5" s="53"/>
+      <c r="JU5" s="53"/>
+      <c r="JV5" s="53"/>
+      <c r="JW5" s="53"/>
+      <c r="JX5" s="53"/>
+      <c r="JY5" s="53"/>
+      <c r="JZ5" s="53"/>
+      <c r="KA5" s="53"/>
+      <c r="KB5" s="53"/>
+      <c r="KC5" s="53"/>
+      <c r="KD5" s="53"/>
+      <c r="KE5" s="52">
         <v>2022</v>
       </c>
-      <c r="KF5" s="44"/>
-      <c r="KG5" s="44"/>
-      <c r="KH5" s="44"/>
-      <c r="KI5" s="44"/>
-      <c r="KJ5" s="44"/>
-      <c r="KK5" s="44"/>
-      <c r="KL5" s="44"/>
-      <c r="KM5" s="44"/>
-      <c r="KN5" s="44"/>
-      <c r="KO5" s="44"/>
-      <c r="KP5" s="45"/>
-      <c r="KQ5" s="54">
+      <c r="KF5" s="53"/>
+      <c r="KG5" s="53"/>
+      <c r="KH5" s="53"/>
+      <c r="KI5" s="53"/>
+      <c r="KJ5" s="53"/>
+      <c r="KK5" s="53"/>
+      <c r="KL5" s="53"/>
+      <c r="KM5" s="53"/>
+      <c r="KN5" s="53"/>
+      <c r="KO5" s="53"/>
+      <c r="KP5" s="54"/>
+      <c r="KQ5" s="48">
         <v>2023</v>
       </c>
+      <c r="KR5" s="48"/>
     </row>
-    <row r="6" spans="1:303" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+    <row r="6" spans="1:304" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2626,11 +2627,14 @@
       <c r="KP6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="KQ6" s="48" t="s">
+      <c r="KQ6" s="42" t="s">
         <v>8</v>
       </c>
+      <c r="KR6" s="42" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:303" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:304" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3537,11 +3541,14 @@
       <c r="KP7" s="31">
         <v>118708</v>
       </c>
-      <c r="KQ7" s="49">
+      <c r="KQ7" s="43">
         <v>125411</v>
       </c>
+      <c r="KR7" s="43">
+        <v>126199</v>
+      </c>
     </row>
-    <row r="8" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4446,11 +4453,14 @@
       <c r="KP8" s="4">
         <v>23857</v>
       </c>
-      <c r="KQ8" s="50">
+      <c r="KQ8" s="44">
         <v>24223</v>
       </c>
+      <c r="KR8" s="44">
+        <v>24493</v>
+      </c>
     </row>
-    <row r="9" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5355,11 +5365,14 @@
       <c r="KP9" s="4">
         <v>5070</v>
       </c>
-      <c r="KQ9" s="50">
+      <c r="KQ9" s="44">
         <v>5773</v>
       </c>
+      <c r="KR9" s="44">
+        <v>5833</v>
+      </c>
     </row>
-    <row r="10" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6264,11 +6277,14 @@
       <c r="KP10" s="4">
         <v>17442</v>
       </c>
-      <c r="KQ10" s="50">
+      <c r="KQ10" s="44">
         <v>19266</v>
       </c>
+      <c r="KR10" s="44">
+        <v>19304</v>
+      </c>
     </row>
-    <row r="11" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7173,11 +7189,14 @@
       <c r="KP11" s="4">
         <v>17859</v>
       </c>
-      <c r="KQ11" s="50">
+      <c r="KQ11" s="44">
         <v>19218</v>
       </c>
+      <c r="KR11" s="44">
+        <v>19228</v>
+      </c>
     </row>
-    <row r="12" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -8082,11 +8101,14 @@
       <c r="KP12" s="4">
         <v>16047</v>
       </c>
-      <c r="KQ12" s="50">
+      <c r="KQ12" s="44">
         <v>17134</v>
       </c>
+      <c r="KR12" s="44">
+        <v>17249</v>
+      </c>
     </row>
-    <row r="13" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -8991,11 +9013,14 @@
       <c r="KP13" s="4">
         <v>14161</v>
       </c>
-      <c r="KQ13" s="50">
+      <c r="KQ13" s="44">
         <v>14794</v>
       </c>
+      <c r="KR13" s="44">
+        <v>14795</v>
+      </c>
     </row>
-    <row r="14" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9900,11 +9925,14 @@
       <c r="KP14" s="4">
         <v>12522</v>
       </c>
-      <c r="KQ14" s="50">
+      <c r="KQ14" s="44">
         <v>12928</v>
       </c>
+      <c r="KR14" s="44">
+        <v>13108</v>
+      </c>
     </row>
-    <row r="15" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10809,11 +10837,14 @@
       <c r="KP15" s="4">
         <v>11743</v>
       </c>
-      <c r="KQ15" s="50">
+      <c r="KQ15" s="44">
         <v>12065</v>
       </c>
+      <c r="KR15" s="44">
+        <v>12178</v>
+      </c>
     </row>
-    <row r="16" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11718,11 +11749,14 @@
       <c r="KP16" s="37">
         <v>7</v>
       </c>
-      <c r="KQ16" s="51">
+      <c r="KQ16" s="45">
         <v>10</v>
       </c>
+      <c r="KR16" s="45">
+        <v>11</v>
+      </c>
     </row>
-    <row r="17" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12629,11 +12663,14 @@
       <c r="KP17" s="31">
         <v>399607</v>
       </c>
-      <c r="KQ17" s="49">
+      <c r="KQ17" s="43">
         <v>397405</v>
       </c>
+      <c r="KR17" s="43">
+        <v>399812</v>
+      </c>
     </row>
-    <row r="18" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13538,11 +13575,14 @@
       <c r="KP18" s="4">
         <v>63269</v>
       </c>
-      <c r="KQ18" s="50">
+      <c r="KQ18" s="44">
         <v>63340</v>
       </c>
+      <c r="KR18" s="44">
+        <v>63907</v>
+      </c>
     </row>
-    <row r="19" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14447,11 +14487,14 @@
       <c r="KP19" s="4">
         <v>11273</v>
       </c>
-      <c r="KQ19" s="50">
+      <c r="KQ19" s="44">
         <v>10445</v>
       </c>
+      <c r="KR19" s="44">
+        <v>10579</v>
+      </c>
     </row>
-    <row r="20" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15356,11 +15399,14 @@
       <c r="KP20" s="4">
         <v>54870</v>
       </c>
-      <c r="KQ20" s="50">
+      <c r="KQ20" s="44">
         <v>53792</v>
       </c>
+      <c r="KR20" s="44">
+        <v>54189</v>
+      </c>
     </row>
-    <row r="21" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -16265,11 +16311,14 @@
       <c r="KP21" s="4">
         <v>65790</v>
       </c>
-      <c r="KQ21" s="50">
+      <c r="KQ21" s="44">
         <v>65090</v>
       </c>
+      <c r="KR21" s="44">
+        <v>65342</v>
+      </c>
     </row>
-    <row r="22" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -17174,11 +17223,14 @@
       <c r="KP22" s="4">
         <v>63880</v>
       </c>
-      <c r="KQ22" s="50">
+      <c r="KQ22" s="44">
         <v>64192</v>
       </c>
+      <c r="KR22" s="44">
+        <v>64434</v>
+      </c>
     </row>
-    <row r="23" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -18083,11 +18135,14 @@
       <c r="KP23" s="4">
         <v>55468</v>
       </c>
-      <c r="KQ23" s="50">
+      <c r="KQ23" s="44">
         <v>55494</v>
       </c>
+      <c r="KR23" s="44">
+        <v>55912</v>
+      </c>
     </row>
-    <row r="24" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -18992,11 +19047,14 @@
       <c r="KP24" s="4">
         <v>46068</v>
       </c>
-      <c r="KQ24" s="50">
+      <c r="KQ24" s="44">
         <v>46261</v>
       </c>
+      <c r="KR24" s="44">
+        <v>46508</v>
+      </c>
     </row>
-    <row r="25" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -19901,11 +19959,14 @@
       <c r="KP25" s="4">
         <v>38987</v>
       </c>
-      <c r="KQ25" s="50">
+      <c r="KQ25" s="44">
         <v>38789</v>
       </c>
+      <c r="KR25" s="44">
+        <v>38940</v>
+      </c>
     </row>
-    <row r="26" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -20802,11 +20863,14 @@
       <c r="KP26" s="37">
         <v>2</v>
       </c>
-      <c r="KQ26" s="51">
+      <c r="KQ26" s="45">
         <v>2</v>
       </c>
+      <c r="KR26" s="45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -21713,11 +21777,14 @@
       <c r="KP27" s="31">
         <v>145346</v>
       </c>
-      <c r="KQ27" s="49">
+      <c r="KQ27" s="43">
         <v>148827</v>
       </c>
+      <c r="KR27" s="43">
+        <v>150599</v>
+      </c>
     </row>
-    <row r="28" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -22622,11 +22689,14 @@
       <c r="KP28" s="4">
         <v>27049</v>
       </c>
-      <c r="KQ28" s="50">
+      <c r="KQ28" s="44">
         <v>27501</v>
       </c>
+      <c r="KR28" s="44">
+        <v>27808</v>
+      </c>
     </row>
-    <row r="29" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -23531,11 +23601,14 @@
       <c r="KP29" s="4">
         <v>4578</v>
       </c>
-      <c r="KQ29" s="50">
+      <c r="KQ29" s="44">
         <v>4676</v>
       </c>
+      <c r="KR29" s="44">
+        <v>4760</v>
+      </c>
     </row>
-    <row r="30" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -24440,11 +24513,14 @@
       <c r="KP30" s="4">
         <v>17950</v>
       </c>
-      <c r="KQ30" s="50">
+      <c r="KQ30" s="44">
         <v>18581</v>
       </c>
+      <c r="KR30" s="44">
+        <v>19064</v>
+      </c>
     </row>
-    <row r="31" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -25349,11 +25425,14 @@
       <c r="KP31" s="4">
         <v>23136</v>
       </c>
-      <c r="KQ31" s="50">
+      <c r="KQ31" s="44">
         <v>23650</v>
       </c>
+      <c r="KR31" s="44">
+        <v>23825</v>
+      </c>
     </row>
-    <row r="32" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -26258,11 +26337,14 @@
       <c r="KP32" s="4">
         <v>21786</v>
       </c>
-      <c r="KQ32" s="50">
+      <c r="KQ32" s="44">
         <v>22629</v>
       </c>
+      <c r="KR32" s="44">
+        <v>23003</v>
+      </c>
     </row>
-    <row r="33" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -27167,11 +27249,14 @@
       <c r="KP33" s="4">
         <v>19557</v>
       </c>
-      <c r="KQ33" s="50">
+      <c r="KQ33" s="44">
         <v>20032</v>
       </c>
+      <c r="KR33" s="44">
+        <v>20144</v>
+      </c>
     </row>
-    <row r="34" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -28076,11 +28161,14 @@
       <c r="KP34" s="4">
         <v>16619</v>
       </c>
-      <c r="KQ34" s="50">
+      <c r="KQ34" s="44">
         <v>16956</v>
       </c>
+      <c r="KR34" s="44">
+        <v>17080</v>
+      </c>
     </row>
-    <row r="35" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -28985,11 +29073,14 @@
       <c r="KP35" s="4">
         <v>14656</v>
       </c>
-      <c r="KQ35" s="50">
+      <c r="KQ35" s="44">
         <v>14789</v>
       </c>
+      <c r="KR35" s="44">
+        <v>14903</v>
+      </c>
     </row>
-    <row r="36" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -29894,11 +29985,14 @@
       <c r="KP36" s="37">
         <v>15</v>
       </c>
-      <c r="KQ36" s="51">
+      <c r="KQ36" s="45">
         <v>13</v>
       </c>
+      <c r="KR36" s="45">
+        <v>12</v>
+      </c>
     </row>
-    <row r="37" spans="1:303" s="29" customFormat="1" ht="27.2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:304" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -30805,11 +30899,14 @@
       <c r="KP37" s="33">
         <v>9814</v>
       </c>
-      <c r="KQ37" s="52">
+      <c r="KQ37" s="46">
         <v>9847</v>
       </c>
+      <c r="KR37" s="46">
+        <v>9971</v>
+      </c>
     </row>
-    <row r="38" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -31714,11 +31811,14 @@
       <c r="KP38" s="4">
         <v>1720</v>
       </c>
-      <c r="KQ38" s="50">
+      <c r="KQ38" s="44">
         <v>1724</v>
       </c>
+      <c r="KR38" s="44">
+        <v>1737</v>
+      </c>
     </row>
-    <row r="39" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -32623,11 +32723,14 @@
       <c r="KP39" s="4">
         <v>78</v>
       </c>
-      <c r="KQ39" s="50">
+      <c r="KQ39" s="44">
         <v>81</v>
       </c>
+      <c r="KR39" s="44">
+        <v>92</v>
+      </c>
     </row>
-    <row r="40" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -33532,11 +33635,14 @@
       <c r="KP40" s="4">
         <v>563</v>
       </c>
-      <c r="KQ40" s="50">
+      <c r="KQ40" s="44">
         <v>576</v>
       </c>
+      <c r="KR40" s="44">
+        <v>618</v>
+      </c>
     </row>
-    <row r="41" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -34441,11 +34547,14 @@
       <c r="KP41" s="4">
         <v>1039</v>
       </c>
-      <c r="KQ41" s="50">
+      <c r="KQ41" s="44">
         <v>1023</v>
       </c>
+      <c r="KR41" s="44">
+        <v>1040</v>
+      </c>
     </row>
-    <row r="42" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -35350,11 +35459,14 @@
       <c r="KP42" s="4">
         <v>1426</v>
       </c>
-      <c r="KQ42" s="50">
+      <c r="KQ42" s="44">
         <v>1421</v>
       </c>
+      <c r="KR42" s="44">
+        <v>1431</v>
+      </c>
     </row>
-    <row r="43" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -36259,11 +36371,14 @@
       <c r="KP43" s="4">
         <v>1792</v>
       </c>
-      <c r="KQ43" s="50">
+      <c r="KQ43" s="44">
         <v>1791</v>
       </c>
+      <c r="KR43" s="44">
+        <v>1798</v>
+      </c>
     </row>
-    <row r="44" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -37168,11 +37283,14 @@
       <c r="KP44" s="4">
         <v>1715</v>
       </c>
-      <c r="KQ44" s="50">
+      <c r="KQ44" s="44">
         <v>1730</v>
       </c>
+      <c r="KR44" s="44">
+        <v>1746</v>
+      </c>
     </row>
-    <row r="45" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -38077,11 +38195,14 @@
       <c r="KP45" s="4">
         <v>1481</v>
       </c>
-      <c r="KQ45" s="50">
+      <c r="KQ45" s="44">
         <v>1501</v>
       </c>
+      <c r="KR45" s="44">
+        <v>1509</v>
+      </c>
     </row>
-    <row r="46" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -38510,9 +38631,10 @@
       <c r="KN46" s="39"/>
       <c r="KO46" s="39"/>
       <c r="KP46" s="37"/>
-      <c r="KQ46" s="51"/>
+      <c r="KQ46" s="45"/>
+      <c r="KR46" s="45"/>
     </row>
-    <row r="47" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -39419,11 +39541,14 @@
       <c r="KP47" s="31">
         <v>508146</v>
       </c>
-      <c r="KQ47" s="49">
+      <c r="KQ47" s="43">
         <v>512903</v>
       </c>
+      <c r="KR47" s="43">
+        <v>517652</v>
+      </c>
     </row>
-    <row r="48" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -40328,11 +40453,14 @@
       <c r="KP48" s="4">
         <v>80010</v>
       </c>
-      <c r="KQ48" s="50">
+      <c r="KQ48" s="44">
         <v>81027</v>
       </c>
+      <c r="KR48" s="44">
+        <v>81751</v>
+      </c>
     </row>
-    <row r="49" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -41237,11 +41365,14 @@
       <c r="KP49" s="4">
         <v>14242</v>
       </c>
-      <c r="KQ49" s="50">
+      <c r="KQ49" s="44">
         <v>14515</v>
       </c>
+      <c r="KR49" s="44">
+        <v>14908</v>
+      </c>
     </row>
-    <row r="50" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -42146,11 +42277,14 @@
       <c r="KP50" s="4">
         <v>70298</v>
       </c>
-      <c r="KQ50" s="50">
+      <c r="KQ50" s="44">
         <v>70968</v>
       </c>
+      <c r="KR50" s="44">
+        <v>71719</v>
+      </c>
     </row>
-    <row r="51" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -43055,11 +43189,14 @@
       <c r="KP51" s="4">
         <v>81844</v>
       </c>
-      <c r="KQ51" s="50">
+      <c r="KQ51" s="44">
         <v>82137</v>
       </c>
+      <c r="KR51" s="44">
+        <v>83127</v>
+      </c>
     </row>
-    <row r="52" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -43964,11 +44101,14 @@
       <c r="KP52" s="4">
         <v>76191</v>
       </c>
-      <c r="KQ52" s="50">
+      <c r="KQ52" s="44">
         <v>77211</v>
       </c>
+      <c r="KR52" s="44">
+        <v>77846</v>
+      </c>
     </row>
-    <row r="53" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -44873,11 +45013,14 @@
       <c r="KP53" s="4">
         <v>68002</v>
       </c>
-      <c r="KQ53" s="50">
+      <c r="KQ53" s="44">
         <v>68609</v>
       </c>
+      <c r="KR53" s="44">
+        <v>68992</v>
+      </c>
     </row>
-    <row r="54" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -45782,11 +45925,14 @@
       <c r="KP54" s="4">
         <v>62982</v>
       </c>
-      <c r="KQ54" s="50">
+      <c r="KQ54" s="44">
         <v>63444</v>
       </c>
+      <c r="KR54" s="44">
+        <v>63880</v>
+      </c>
     </row>
-    <row r="55" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -46691,11 +46837,14 @@
       <c r="KP55" s="4">
         <v>54574</v>
       </c>
-      <c r="KQ55" s="50">
+      <c r="KQ55" s="44">
         <v>54990</v>
       </c>
+      <c r="KR55" s="44">
+        <v>55424</v>
+      </c>
     </row>
-    <row r="56" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -47600,11 +47749,14 @@
       <c r="KP56" s="37">
         <v>3</v>
       </c>
-      <c r="KQ56" s="51">
+      <c r="KQ56" s="45">
         <v>2</v>
       </c>
+      <c r="KR56" s="45">
+        <v>5</v>
+      </c>
     </row>
-    <row r="57" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -48511,11 +48663,14 @@
       <c r="KP57" s="31">
         <v>2500</v>
       </c>
-      <c r="KQ57" s="49">
+      <c r="KQ57" s="43">
         <v>2580</v>
       </c>
+      <c r="KR57" s="43">
+        <v>2633</v>
+      </c>
     </row>
-    <row r="58" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -49420,11 +49575,14 @@
       <c r="KP58" s="4">
         <v>533</v>
       </c>
-      <c r="KQ58" s="50">
+      <c r="KQ58" s="44">
         <v>531</v>
       </c>
+      <c r="KR58" s="44">
+        <v>548</v>
+      </c>
     </row>
-    <row r="59" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -50329,11 +50487,14 @@
       <c r="KP59" s="4">
         <v>29</v>
       </c>
-      <c r="KQ59" s="50">
+      <c r="KQ59" s="44">
         <v>35</v>
       </c>
+      <c r="KR59" s="44">
+        <v>35</v>
+      </c>
     </row>
-    <row r="60" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -51238,11 +51399,14 @@
       <c r="KP60" s="4">
         <v>182</v>
       </c>
-      <c r="KQ60" s="50">
+      <c r="KQ60" s="44">
         <v>190</v>
       </c>
+      <c r="KR60" s="44">
+        <v>197</v>
+      </c>
     </row>
-    <row r="61" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -52147,11 +52311,14 @@
       <c r="KP61" s="4">
         <v>381</v>
       </c>
-      <c r="KQ61" s="50">
+      <c r="KQ61" s="44">
         <v>383</v>
       </c>
+      <c r="KR61" s="44">
+        <v>393</v>
+      </c>
     </row>
-    <row r="62" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -53056,11 +53223,14 @@
       <c r="KP62" s="4">
         <v>391</v>
       </c>
-      <c r="KQ62" s="50">
+      <c r="KQ62" s="44">
         <v>425</v>
       </c>
+      <c r="KR62" s="44">
+        <v>421</v>
+      </c>
     </row>
-    <row r="63" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -53965,11 +54135,14 @@
       <c r="KP63" s="4">
         <v>372</v>
       </c>
-      <c r="KQ63" s="50">
+      <c r="KQ63" s="44">
         <v>385</v>
       </c>
+      <c r="KR63" s="44">
+        <v>392</v>
+      </c>
     </row>
-    <row r="64" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -54874,11 +55047,14 @@
       <c r="KP64" s="4">
         <v>335</v>
       </c>
-      <c r="KQ64" s="50">
+      <c r="KQ64" s="44">
         <v>341</v>
       </c>
+      <c r="KR64" s="44">
+        <v>347</v>
+      </c>
     </row>
-    <row r="65" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -55783,11 +55959,14 @@
       <c r="KP65" s="4">
         <v>277</v>
       </c>
-      <c r="KQ65" s="50">
+      <c r="KQ65" s="44">
         <v>290</v>
       </c>
+      <c r="KR65" s="44">
+        <v>299</v>
+      </c>
     </row>
-    <row r="66" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -56150,9 +56329,12 @@
       <c r="KN66" s="39"/>
       <c r="KO66" s="39"/>
       <c r="KP66" s="37"/>
-      <c r="KQ66" s="51"/>
+      <c r="KQ66" s="45"/>
+      <c r="KR66" s="45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -57059,11 +57241,14 @@
       <c r="KP67" s="31">
         <v>644397</v>
       </c>
-      <c r="KQ67" s="49">
+      <c r="KQ67" s="43">
         <v>649778</v>
       </c>
+      <c r="KR67" s="43">
+        <v>653050</v>
+      </c>
     </row>
-    <row r="68" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -57968,11 +58153,14 @@
       <c r="KP68" s="4">
         <v>135336</v>
       </c>
-      <c r="KQ68" s="50">
+      <c r="KQ68" s="44">
         <v>137712</v>
       </c>
+      <c r="KR68" s="44">
+        <v>138793</v>
+      </c>
     </row>
-    <row r="69" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -58877,11 +59065,14 @@
       <c r="KP69" s="4">
         <v>10333</v>
       </c>
-      <c r="KQ69" s="50">
+      <c r="KQ69" s="44">
         <v>10209</v>
       </c>
+      <c r="KR69" s="44">
+        <v>10433</v>
+      </c>
     </row>
-    <row r="70" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -59786,11 +59977,14 @@
       <c r="KP70" s="4">
         <v>62559</v>
       </c>
-      <c r="KQ70" s="50">
+      <c r="KQ70" s="44">
         <v>62400</v>
       </c>
+      <c r="KR70" s="44">
+        <v>62797</v>
+      </c>
     </row>
-    <row r="71" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -60695,11 +60889,14 @@
       <c r="KP71" s="4">
         <v>100575</v>
       </c>
-      <c r="KQ71" s="50">
+      <c r="KQ71" s="44">
         <v>100441</v>
       </c>
+      <c r="KR71" s="44">
+        <v>100741</v>
+      </c>
     </row>
-    <row r="72" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -61604,11 +61801,14 @@
       <c r="KP72" s="4">
         <v>97821</v>
       </c>
-      <c r="KQ72" s="50">
+      <c r="KQ72" s="44">
         <v>98780</v>
       </c>
+      <c r="KR72" s="44">
+        <v>99071</v>
+      </c>
     </row>
-    <row r="73" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -62513,11 +62713,14 @@
       <c r="KP73" s="4">
         <v>87830</v>
       </c>
-      <c r="KQ73" s="50">
+      <c r="KQ73" s="44">
         <v>88801</v>
       </c>
+      <c r="KR73" s="44">
+        <v>89166</v>
+      </c>
     </row>
-    <row r="74" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -63422,11 +63625,14 @@
       <c r="KP74" s="4">
         <v>78905</v>
       </c>
-      <c r="KQ74" s="50">
+      <c r="KQ74" s="44">
         <v>79885</v>
       </c>
+      <c r="KR74" s="44">
+        <v>80234</v>
+      </c>
     </row>
-    <row r="75" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -64331,11 +64537,14 @@
       <c r="KP75" s="4">
         <v>71034</v>
       </c>
-      <c r="KQ75" s="50">
+      <c r="KQ75" s="44">
         <v>71544</v>
       </c>
+      <c r="KR75" s="44">
+        <v>71812</v>
+      </c>
     </row>
-    <row r="76" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -65240,11 +65449,14 @@
       <c r="KP76" s="37">
         <v>4</v>
       </c>
-      <c r="KQ76" s="51">
+      <c r="KQ76" s="45">
         <v>6</v>
       </c>
+      <c r="KR76" s="45">
+        <v>3</v>
+      </c>
     </row>
-    <row r="77" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -66151,11 +66363,14 @@
       <c r="KP77" s="31">
         <v>104444</v>
       </c>
-      <c r="KQ77" s="49">
+      <c r="KQ77" s="43">
         <v>104505</v>
       </c>
+      <c r="KR77" s="43">
+        <v>104603</v>
+      </c>
     </row>
-    <row r="78" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -67060,11 +67275,14 @@
       <c r="KP78" s="4">
         <v>18744</v>
       </c>
-      <c r="KQ78" s="50">
+      <c r="KQ78" s="44">
         <v>18947</v>
       </c>
+      <c r="KR78" s="44">
+        <v>18961</v>
+      </c>
     </row>
-    <row r="79" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -67969,11 +68187,14 @@
       <c r="KP79" s="4">
         <v>1761</v>
       </c>
-      <c r="KQ79" s="50">
+      <c r="KQ79" s="44">
         <v>1710</v>
       </c>
+      <c r="KR79" s="44">
+        <v>1753</v>
+      </c>
     </row>
-    <row r="80" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -68878,11 +69099,14 @@
       <c r="KP80" s="4">
         <v>11818</v>
       </c>
-      <c r="KQ80" s="50">
+      <c r="KQ80" s="44">
         <v>11644</v>
       </c>
+      <c r="KR80" s="44">
+        <v>11714</v>
+      </c>
     </row>
-    <row r="81" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -69787,11 +70011,14 @@
       <c r="KP81" s="4">
         <v>15931</v>
       </c>
-      <c r="KQ81" s="50">
+      <c r="KQ81" s="44">
         <v>15770</v>
       </c>
+      <c r="KR81" s="44">
+        <v>15731</v>
+      </c>
     </row>
-    <row r="82" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -70696,11 +70923,14 @@
       <c r="KP82" s="4">
         <v>16051</v>
       </c>
-      <c r="KQ82" s="50">
+      <c r="KQ82" s="44">
         <v>16190</v>
       </c>
+      <c r="KR82" s="44">
+        <v>16186</v>
+      </c>
     </row>
-    <row r="83" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -71605,11 +71835,14 @@
       <c r="KP83" s="4">
         <v>15025</v>
       </c>
-      <c r="KQ83" s="50">
+      <c r="KQ83" s="44">
         <v>15064</v>
       </c>
+      <c r="KR83" s="44">
+        <v>15104</v>
+      </c>
     </row>
-    <row r="84" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -72514,11 +72747,14 @@
       <c r="KP84" s="4">
         <v>13165</v>
       </c>
-      <c r="KQ84" s="50">
+      <c r="KQ84" s="44">
         <v>13237</v>
       </c>
+      <c r="KR84" s="44">
+        <v>13205</v>
+      </c>
     </row>
-    <row r="85" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -73423,11 +73659,14 @@
       <c r="KP85" s="4">
         <v>11948</v>
       </c>
-      <c r="KQ85" s="50">
+      <c r="KQ85" s="44">
         <v>11942</v>
       </c>
+      <c r="KR85" s="44">
+        <v>11948</v>
+      </c>
     </row>
-    <row r="86" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -74144,11 +74383,14 @@
       <c r="KP86" s="37">
         <v>1</v>
       </c>
-      <c r="KQ86" s="51">
+      <c r="KQ86" s="45">
         <v>1</v>
       </c>
+      <c r="KR86" s="45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:304" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -75055,28 +75297,45 @@
       <c r="KP87" s="35">
         <v>1932962</v>
       </c>
-      <c r="KQ87" s="53">
+      <c r="KQ87" s="47">
         <v>1951256</v>
       </c>
-      <c r="KR87" s="24"/>
+      <c r="KR87" s="47">
+        <v>1964519</v>
+      </c>
     </row>
-    <row r="88" spans="1:304" x14ac:dyDescent="0.25">
-      <c r="A88" s="42" t="s">
+    <row r="88" spans="1:304" x14ac:dyDescent="0.2">
+      <c r="A88" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
       <c r="KD88" s="24"/>
     </row>
-    <row r="89" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:304" x14ac:dyDescent="0.2">
       <c r="KD89" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="GY5:HJ5"/>
+    <mergeCell ref="HK5:HV5"/>
+    <mergeCell ref="HW5:IH5"/>
+    <mergeCell ref="II5:IT5"/>
+    <mergeCell ref="EE5:EP5"/>
+    <mergeCell ref="EQ5:FB5"/>
+    <mergeCell ref="FC5:FN5"/>
+    <mergeCell ref="FO5:FZ5"/>
+    <mergeCell ref="GA5:GL5"/>
+    <mergeCell ref="GM5:GX5"/>
+    <mergeCell ref="BW5:CH5"/>
+    <mergeCell ref="CI5:CT5"/>
+    <mergeCell ref="CU5:DF5"/>
+    <mergeCell ref="DG5:DR5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -75092,21 +75351,6 @@
     <mergeCell ref="AY5:BJ5"/>
     <mergeCell ref="BK5:BV5"/>
     <mergeCell ref="DS5:ED5"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="GY5:HJ5"/>
-    <mergeCell ref="HK5:HV5"/>
-    <mergeCell ref="HW5:IH5"/>
-    <mergeCell ref="II5:IT5"/>
-    <mergeCell ref="EE5:EP5"/>
-    <mergeCell ref="EQ5:FB5"/>
-    <mergeCell ref="FC5:FN5"/>
-    <mergeCell ref="FO5:FZ5"/>
-    <mergeCell ref="GA5:GL5"/>
-    <mergeCell ref="GM5:GX5"/>
-    <mergeCell ref="BW5:CH5"/>
-    <mergeCell ref="CI5:CT5"/>
-    <mergeCell ref="CU5:DF5"/>
-    <mergeCell ref="DG5:DR5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998 - enero  2023</t>
+    <t>Enero 1998 - marzo  2023</t>
   </si>
 </sst>
 </file>
@@ -990,12 +990,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1003,6 +997,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1326,11 +1326,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KR89"/>
+  <dimension ref="A1:KS89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="KJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KT9" sqref="KT9"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1341,7 +1341,7 @@
     <col min="304" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:304" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:305" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>36</v>
       </c>
@@ -1350,383 +1350,384 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
     </row>
-    <row r="3" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:304" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:305" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="50">
         <v>1998</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="52">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="50">
         <v>1999</v>
       </c>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="52">
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="50">
         <v>2000</v>
       </c>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="52">
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="51"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="50">
         <v>2001</v>
       </c>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="54"/>
-      <c r="AY5" s="52">
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="51"/>
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="51"/>
+      <c r="AR5" s="51"/>
+      <c r="AS5" s="51"/>
+      <c r="AT5" s="51"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="51"/>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="50">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="53"/>
-      <c r="BJ5" s="54"/>
-      <c r="BK5" s="52">
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="51"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="52"/>
+      <c r="BK5" s="50">
         <v>2003</v>
       </c>
-      <c r="BL5" s="53"/>
-      <c r="BM5" s="53"/>
-      <c r="BN5" s="53"/>
-      <c r="BO5" s="53"/>
-      <c r="BP5" s="53"/>
-      <c r="BQ5" s="53"/>
-      <c r="BR5" s="53"/>
-      <c r="BS5" s="53"/>
-      <c r="BT5" s="53"/>
-      <c r="BU5" s="53"/>
-      <c r="BV5" s="54"/>
-      <c r="BW5" s="52">
+      <c r="BL5" s="51"/>
+      <c r="BM5" s="51"/>
+      <c r="BN5" s="51"/>
+      <c r="BO5" s="51"/>
+      <c r="BP5" s="51"/>
+      <c r="BQ5" s="51"/>
+      <c r="BR5" s="51"/>
+      <c r="BS5" s="51"/>
+      <c r="BT5" s="51"/>
+      <c r="BU5" s="51"/>
+      <c r="BV5" s="52"/>
+      <c r="BW5" s="50">
         <v>2004</v>
       </c>
-      <c r="BX5" s="53"/>
-      <c r="BY5" s="53"/>
-      <c r="BZ5" s="53"/>
-      <c r="CA5" s="53"/>
-      <c r="CB5" s="53"/>
-      <c r="CC5" s="53"/>
-      <c r="CD5" s="53"/>
-      <c r="CE5" s="53"/>
-      <c r="CF5" s="53"/>
-      <c r="CG5" s="53"/>
-      <c r="CH5" s="54"/>
-      <c r="CI5" s="52">
+      <c r="BX5" s="51"/>
+      <c r="BY5" s="51"/>
+      <c r="BZ5" s="51"/>
+      <c r="CA5" s="51"/>
+      <c r="CB5" s="51"/>
+      <c r="CC5" s="51"/>
+      <c r="CD5" s="51"/>
+      <c r="CE5" s="51"/>
+      <c r="CF5" s="51"/>
+      <c r="CG5" s="51"/>
+      <c r="CH5" s="52"/>
+      <c r="CI5" s="50">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="53"/>
-      <c r="CK5" s="53"/>
-      <c r="CL5" s="53"/>
-      <c r="CM5" s="53"/>
-      <c r="CN5" s="53"/>
-      <c r="CO5" s="53"/>
-      <c r="CP5" s="53"/>
-      <c r="CQ5" s="53"/>
-      <c r="CR5" s="53"/>
-      <c r="CS5" s="53"/>
-      <c r="CT5" s="54"/>
-      <c r="CU5" s="52">
+      <c r="CJ5" s="51"/>
+      <c r="CK5" s="51"/>
+      <c r="CL5" s="51"/>
+      <c r="CM5" s="51"/>
+      <c r="CN5" s="51"/>
+      <c r="CO5" s="51"/>
+      <c r="CP5" s="51"/>
+      <c r="CQ5" s="51"/>
+      <c r="CR5" s="51"/>
+      <c r="CS5" s="51"/>
+      <c r="CT5" s="52"/>
+      <c r="CU5" s="50">
         <v>2006</v>
       </c>
-      <c r="CV5" s="53"/>
-      <c r="CW5" s="53"/>
-      <c r="CX5" s="53"/>
-      <c r="CY5" s="53"/>
-      <c r="CZ5" s="53"/>
-      <c r="DA5" s="53"/>
-      <c r="DB5" s="53"/>
-      <c r="DC5" s="53"/>
-      <c r="DD5" s="53"/>
-      <c r="DE5" s="53"/>
-      <c r="DF5" s="54"/>
-      <c r="DG5" s="52">
+      <c r="CV5" s="51"/>
+      <c r="CW5" s="51"/>
+      <c r="CX5" s="51"/>
+      <c r="CY5" s="51"/>
+      <c r="CZ5" s="51"/>
+      <c r="DA5" s="51"/>
+      <c r="DB5" s="51"/>
+      <c r="DC5" s="51"/>
+      <c r="DD5" s="51"/>
+      <c r="DE5" s="51"/>
+      <c r="DF5" s="52"/>
+      <c r="DG5" s="50">
         <v>2007</v>
       </c>
-      <c r="DH5" s="53"/>
-      <c r="DI5" s="53"/>
-      <c r="DJ5" s="53"/>
-      <c r="DK5" s="53"/>
-      <c r="DL5" s="53"/>
-      <c r="DM5" s="53"/>
-      <c r="DN5" s="53"/>
-      <c r="DO5" s="53"/>
-      <c r="DP5" s="53"/>
-      <c r="DQ5" s="53"/>
-      <c r="DR5" s="54"/>
-      <c r="DS5" s="52">
+      <c r="DH5" s="51"/>
+      <c r="DI5" s="51"/>
+      <c r="DJ5" s="51"/>
+      <c r="DK5" s="51"/>
+      <c r="DL5" s="51"/>
+      <c r="DM5" s="51"/>
+      <c r="DN5" s="51"/>
+      <c r="DO5" s="51"/>
+      <c r="DP5" s="51"/>
+      <c r="DQ5" s="51"/>
+      <c r="DR5" s="52"/>
+      <c r="DS5" s="50">
         <v>2008</v>
       </c>
-      <c r="DT5" s="53"/>
-      <c r="DU5" s="53"/>
-      <c r="DV5" s="53"/>
-      <c r="DW5" s="53"/>
-      <c r="DX5" s="53"/>
-      <c r="DY5" s="53"/>
-      <c r="DZ5" s="53"/>
-      <c r="EA5" s="53"/>
-      <c r="EB5" s="53"/>
-      <c r="EC5" s="53"/>
-      <c r="ED5" s="54"/>
-      <c r="EE5" s="52">
+      <c r="DT5" s="51"/>
+      <c r="DU5" s="51"/>
+      <c r="DV5" s="51"/>
+      <c r="DW5" s="51"/>
+      <c r="DX5" s="51"/>
+      <c r="DY5" s="51"/>
+      <c r="DZ5" s="51"/>
+      <c r="EA5" s="51"/>
+      <c r="EB5" s="51"/>
+      <c r="EC5" s="51"/>
+      <c r="ED5" s="52"/>
+      <c r="EE5" s="50">
         <v>2009</v>
       </c>
-      <c r="EF5" s="53"/>
-      <c r="EG5" s="53"/>
-      <c r="EH5" s="53"/>
-      <c r="EI5" s="53"/>
-      <c r="EJ5" s="53"/>
-      <c r="EK5" s="53"/>
-      <c r="EL5" s="53"/>
-      <c r="EM5" s="53"/>
-      <c r="EN5" s="53"/>
-      <c r="EO5" s="53"/>
-      <c r="EP5" s="54"/>
-      <c r="EQ5" s="52">
+      <c r="EF5" s="51"/>
+      <c r="EG5" s="51"/>
+      <c r="EH5" s="51"/>
+      <c r="EI5" s="51"/>
+      <c r="EJ5" s="51"/>
+      <c r="EK5" s="51"/>
+      <c r="EL5" s="51"/>
+      <c r="EM5" s="51"/>
+      <c r="EN5" s="51"/>
+      <c r="EO5" s="51"/>
+      <c r="EP5" s="52"/>
+      <c r="EQ5" s="50">
         <v>2010</v>
       </c>
-      <c r="ER5" s="53"/>
-      <c r="ES5" s="53"/>
-      <c r="ET5" s="53"/>
-      <c r="EU5" s="53"/>
-      <c r="EV5" s="53"/>
-      <c r="EW5" s="53"/>
-      <c r="EX5" s="53"/>
-      <c r="EY5" s="53"/>
-      <c r="EZ5" s="53"/>
-      <c r="FA5" s="53"/>
-      <c r="FB5" s="54"/>
-      <c r="FC5" s="52">
+      <c r="ER5" s="51"/>
+      <c r="ES5" s="51"/>
+      <c r="ET5" s="51"/>
+      <c r="EU5" s="51"/>
+      <c r="EV5" s="51"/>
+      <c r="EW5" s="51"/>
+      <c r="EX5" s="51"/>
+      <c r="EY5" s="51"/>
+      <c r="EZ5" s="51"/>
+      <c r="FA5" s="51"/>
+      <c r="FB5" s="52"/>
+      <c r="FC5" s="50">
         <v>2011</v>
       </c>
-      <c r="FD5" s="53"/>
-      <c r="FE5" s="53"/>
-      <c r="FF5" s="53"/>
-      <c r="FG5" s="53"/>
-      <c r="FH5" s="53"/>
-      <c r="FI5" s="53"/>
-      <c r="FJ5" s="53"/>
-      <c r="FK5" s="53"/>
-      <c r="FL5" s="53"/>
-      <c r="FM5" s="53"/>
-      <c r="FN5" s="54"/>
-      <c r="FO5" s="52">
+      <c r="FD5" s="51"/>
+      <c r="FE5" s="51"/>
+      <c r="FF5" s="51"/>
+      <c r="FG5" s="51"/>
+      <c r="FH5" s="51"/>
+      <c r="FI5" s="51"/>
+      <c r="FJ5" s="51"/>
+      <c r="FK5" s="51"/>
+      <c r="FL5" s="51"/>
+      <c r="FM5" s="51"/>
+      <c r="FN5" s="52"/>
+      <c r="FO5" s="50">
         <v>2012</v>
       </c>
-      <c r="FP5" s="53"/>
-      <c r="FQ5" s="53"/>
-      <c r="FR5" s="53"/>
-      <c r="FS5" s="53"/>
-      <c r="FT5" s="53"/>
-      <c r="FU5" s="53"/>
-      <c r="FV5" s="53"/>
-      <c r="FW5" s="53"/>
-      <c r="FX5" s="53"/>
-      <c r="FY5" s="53"/>
-      <c r="FZ5" s="54"/>
-      <c r="GA5" s="52">
+      <c r="FP5" s="51"/>
+      <c r="FQ5" s="51"/>
+      <c r="FR5" s="51"/>
+      <c r="FS5" s="51"/>
+      <c r="FT5" s="51"/>
+      <c r="FU5" s="51"/>
+      <c r="FV5" s="51"/>
+      <c r="FW5" s="51"/>
+      <c r="FX5" s="51"/>
+      <c r="FY5" s="51"/>
+      <c r="FZ5" s="52"/>
+      <c r="GA5" s="50">
         <v>2013</v>
       </c>
-      <c r="GB5" s="53"/>
-      <c r="GC5" s="53"/>
-      <c r="GD5" s="53"/>
-      <c r="GE5" s="53"/>
-      <c r="GF5" s="53"/>
-      <c r="GG5" s="53"/>
-      <c r="GH5" s="53"/>
-      <c r="GI5" s="53"/>
-      <c r="GJ5" s="53"/>
-      <c r="GK5" s="53"/>
-      <c r="GL5" s="54"/>
-      <c r="GM5" s="52">
+      <c r="GB5" s="51"/>
+      <c r="GC5" s="51"/>
+      <c r="GD5" s="51"/>
+      <c r="GE5" s="51"/>
+      <c r="GF5" s="51"/>
+      <c r="GG5" s="51"/>
+      <c r="GH5" s="51"/>
+      <c r="GI5" s="51"/>
+      <c r="GJ5" s="51"/>
+      <c r="GK5" s="51"/>
+      <c r="GL5" s="52"/>
+      <c r="GM5" s="50">
         <v>2014</v>
       </c>
-      <c r="GN5" s="53"/>
-      <c r="GO5" s="53"/>
-      <c r="GP5" s="53"/>
-      <c r="GQ5" s="53"/>
-      <c r="GR5" s="53"/>
-      <c r="GS5" s="53"/>
-      <c r="GT5" s="53"/>
-      <c r="GU5" s="53"/>
-      <c r="GV5" s="53"/>
-      <c r="GW5" s="53"/>
-      <c r="GX5" s="54"/>
-      <c r="GY5" s="52">
+      <c r="GN5" s="51"/>
+      <c r="GO5" s="51"/>
+      <c r="GP5" s="51"/>
+      <c r="GQ5" s="51"/>
+      <c r="GR5" s="51"/>
+      <c r="GS5" s="51"/>
+      <c r="GT5" s="51"/>
+      <c r="GU5" s="51"/>
+      <c r="GV5" s="51"/>
+      <c r="GW5" s="51"/>
+      <c r="GX5" s="52"/>
+      <c r="GY5" s="50">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="53"/>
-      <c r="HA5" s="53"/>
-      <c r="HB5" s="53"/>
-      <c r="HC5" s="53"/>
-      <c r="HD5" s="53"/>
-      <c r="HE5" s="53"/>
-      <c r="HF5" s="53"/>
-      <c r="HG5" s="53"/>
-      <c r="HH5" s="53"/>
-      <c r="HI5" s="53"/>
-      <c r="HJ5" s="54"/>
-      <c r="HK5" s="52">
+      <c r="GZ5" s="51"/>
+      <c r="HA5" s="51"/>
+      <c r="HB5" s="51"/>
+      <c r="HC5" s="51"/>
+      <c r="HD5" s="51"/>
+      <c r="HE5" s="51"/>
+      <c r="HF5" s="51"/>
+      <c r="HG5" s="51"/>
+      <c r="HH5" s="51"/>
+      <c r="HI5" s="51"/>
+      <c r="HJ5" s="52"/>
+      <c r="HK5" s="50">
         <v>2016</v>
       </c>
-      <c r="HL5" s="53"/>
-      <c r="HM5" s="53"/>
-      <c r="HN5" s="53"/>
-      <c r="HO5" s="53"/>
-      <c r="HP5" s="53"/>
-      <c r="HQ5" s="53"/>
-      <c r="HR5" s="53"/>
-      <c r="HS5" s="53"/>
-      <c r="HT5" s="53"/>
-      <c r="HU5" s="53"/>
-      <c r="HV5" s="54"/>
-      <c r="HW5" s="52">
+      <c r="HL5" s="51"/>
+      <c r="HM5" s="51"/>
+      <c r="HN5" s="51"/>
+      <c r="HO5" s="51"/>
+      <c r="HP5" s="51"/>
+      <c r="HQ5" s="51"/>
+      <c r="HR5" s="51"/>
+      <c r="HS5" s="51"/>
+      <c r="HT5" s="51"/>
+      <c r="HU5" s="51"/>
+      <c r="HV5" s="52"/>
+      <c r="HW5" s="50">
         <v>2017</v>
       </c>
-      <c r="HX5" s="53"/>
-      <c r="HY5" s="53"/>
-      <c r="HZ5" s="53"/>
-      <c r="IA5" s="53"/>
-      <c r="IB5" s="53"/>
-      <c r="IC5" s="53"/>
-      <c r="ID5" s="53"/>
-      <c r="IE5" s="53"/>
-      <c r="IF5" s="53"/>
-      <c r="IG5" s="53"/>
-      <c r="IH5" s="54"/>
-      <c r="II5" s="52">
+      <c r="HX5" s="51"/>
+      <c r="HY5" s="51"/>
+      <c r="HZ5" s="51"/>
+      <c r="IA5" s="51"/>
+      <c r="IB5" s="51"/>
+      <c r="IC5" s="51"/>
+      <c r="ID5" s="51"/>
+      <c r="IE5" s="51"/>
+      <c r="IF5" s="51"/>
+      <c r="IG5" s="51"/>
+      <c r="IH5" s="52"/>
+      <c r="II5" s="50">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="53"/>
-      <c r="IK5" s="53"/>
-      <c r="IL5" s="53"/>
-      <c r="IM5" s="53"/>
-      <c r="IN5" s="53"/>
-      <c r="IO5" s="53"/>
-      <c r="IP5" s="53"/>
-      <c r="IQ5" s="53"/>
-      <c r="IR5" s="53"/>
-      <c r="IS5" s="53"/>
-      <c r="IT5" s="54"/>
-      <c r="IU5" s="52">
+      <c r="IJ5" s="51"/>
+      <c r="IK5" s="51"/>
+      <c r="IL5" s="51"/>
+      <c r="IM5" s="51"/>
+      <c r="IN5" s="51"/>
+      <c r="IO5" s="51"/>
+      <c r="IP5" s="51"/>
+      <c r="IQ5" s="51"/>
+      <c r="IR5" s="51"/>
+      <c r="IS5" s="51"/>
+      <c r="IT5" s="52"/>
+      <c r="IU5" s="50">
         <v>2019</v>
       </c>
-      <c r="IV5" s="53"/>
-      <c r="IW5" s="53"/>
-      <c r="IX5" s="53"/>
-      <c r="IY5" s="53"/>
-      <c r="IZ5" s="53"/>
-      <c r="JA5" s="53"/>
-      <c r="JB5" s="53"/>
-      <c r="JC5" s="53"/>
-      <c r="JD5" s="53"/>
-      <c r="JE5" s="53"/>
-      <c r="JF5" s="54"/>
-      <c r="JG5" s="52">
+      <c r="IV5" s="51"/>
+      <c r="IW5" s="51"/>
+      <c r="IX5" s="51"/>
+      <c r="IY5" s="51"/>
+      <c r="IZ5" s="51"/>
+      <c r="JA5" s="51"/>
+      <c r="JB5" s="51"/>
+      <c r="JC5" s="51"/>
+      <c r="JD5" s="51"/>
+      <c r="JE5" s="51"/>
+      <c r="JF5" s="52"/>
+      <c r="JG5" s="50">
         <v>2020</v>
       </c>
-      <c r="JH5" s="53"/>
-      <c r="JI5" s="53"/>
-      <c r="JJ5" s="53"/>
-      <c r="JK5" s="53"/>
-      <c r="JL5" s="53"/>
-      <c r="JM5" s="53"/>
-      <c r="JN5" s="53"/>
-      <c r="JO5" s="53"/>
-      <c r="JP5" s="53"/>
-      <c r="JQ5" s="53"/>
-      <c r="JR5" s="54"/>
-      <c r="JS5" s="52">
+      <c r="JH5" s="51"/>
+      <c r="JI5" s="51"/>
+      <c r="JJ5" s="51"/>
+      <c r="JK5" s="51"/>
+      <c r="JL5" s="51"/>
+      <c r="JM5" s="51"/>
+      <c r="JN5" s="51"/>
+      <c r="JO5" s="51"/>
+      <c r="JP5" s="51"/>
+      <c r="JQ5" s="51"/>
+      <c r="JR5" s="52"/>
+      <c r="JS5" s="50">
         <v>2021</v>
       </c>
-      <c r="JT5" s="53"/>
-      <c r="JU5" s="53"/>
-      <c r="JV5" s="53"/>
-      <c r="JW5" s="53"/>
-      <c r="JX5" s="53"/>
-      <c r="JY5" s="53"/>
-      <c r="JZ5" s="53"/>
-      <c r="KA5" s="53"/>
-      <c r="KB5" s="53"/>
-      <c r="KC5" s="53"/>
-      <c r="KD5" s="53"/>
-      <c r="KE5" s="52">
+      <c r="JT5" s="51"/>
+      <c r="JU5" s="51"/>
+      <c r="JV5" s="51"/>
+      <c r="JW5" s="51"/>
+      <c r="JX5" s="51"/>
+      <c r="JY5" s="51"/>
+      <c r="JZ5" s="51"/>
+      <c r="KA5" s="51"/>
+      <c r="KB5" s="51"/>
+      <c r="KC5" s="51"/>
+      <c r="KD5" s="51"/>
+      <c r="KE5" s="50">
         <v>2022</v>
       </c>
-      <c r="KF5" s="53"/>
-      <c r="KG5" s="53"/>
-      <c r="KH5" s="53"/>
-      <c r="KI5" s="53"/>
-      <c r="KJ5" s="53"/>
-      <c r="KK5" s="53"/>
-      <c r="KL5" s="53"/>
-      <c r="KM5" s="53"/>
-      <c r="KN5" s="53"/>
-      <c r="KO5" s="53"/>
-      <c r="KP5" s="54"/>
+      <c r="KF5" s="51"/>
+      <c r="KG5" s="51"/>
+      <c r="KH5" s="51"/>
+      <c r="KI5" s="51"/>
+      <c r="KJ5" s="51"/>
+      <c r="KK5" s="51"/>
+      <c r="KL5" s="51"/>
+      <c r="KM5" s="51"/>
+      <c r="KN5" s="51"/>
+      <c r="KO5" s="51"/>
+      <c r="KP5" s="52"/>
       <c r="KQ5" s="48">
         <v>2023</v>
       </c>
       <c r="KR5" s="48"/>
+      <c r="KS5" s="48"/>
     </row>
-    <row r="6" spans="1:304" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
+    <row r="6" spans="1:305" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2633,8 +2634,11 @@
       <c r="KR6" s="42" t="s">
         <v>9</v>
       </c>
+      <c r="KS6" s="42" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:304" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:305" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3547,8 +3551,11 @@
       <c r="KR7" s="43">
         <v>126199</v>
       </c>
+      <c r="KS7" s="43">
+        <v>126571</v>
+      </c>
     </row>
-    <row r="8" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4459,8 +4466,11 @@
       <c r="KR8" s="44">
         <v>24493</v>
       </c>
+      <c r="KS8" s="44">
+        <v>24607</v>
+      </c>
     </row>
-    <row r="9" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5371,8 +5381,11 @@
       <c r="KR9" s="44">
         <v>5833</v>
       </c>
+      <c r="KS9" s="44">
+        <v>5885</v>
+      </c>
     </row>
-    <row r="10" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6283,8 +6296,11 @@
       <c r="KR10" s="44">
         <v>19304</v>
       </c>
+      <c r="KS10" s="44">
+        <v>19196</v>
+      </c>
     </row>
-    <row r="11" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7195,8 +7211,11 @@
       <c r="KR11" s="44">
         <v>19228</v>
       </c>
+      <c r="KS11" s="44">
+        <v>19251</v>
+      </c>
     </row>
-    <row r="12" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -8107,8 +8126,11 @@
       <c r="KR12" s="44">
         <v>17249</v>
       </c>
+      <c r="KS12" s="44">
+        <v>17274</v>
+      </c>
     </row>
-    <row r="13" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -9019,8 +9041,11 @@
       <c r="KR13" s="44">
         <v>14795</v>
       </c>
+      <c r="KS13" s="44">
+        <v>14872</v>
+      </c>
     </row>
-    <row r="14" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9931,8 +9956,11 @@
       <c r="KR14" s="44">
         <v>13108</v>
       </c>
+      <c r="KS14" s="44">
+        <v>13228</v>
+      </c>
     </row>
-    <row r="15" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10843,8 +10871,11 @@
       <c r="KR15" s="44">
         <v>12178</v>
       </c>
+      <c r="KS15" s="44">
+        <v>12247</v>
+      </c>
     </row>
-    <row r="16" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11755,8 +11786,11 @@
       <c r="KR16" s="45">
         <v>11</v>
       </c>
+      <c r="KS16" s="45">
+        <v>11</v>
+      </c>
     </row>
-    <row r="17" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12669,8 +12703,11 @@
       <c r="KR17" s="43">
         <v>399812</v>
       </c>
+      <c r="KS17" s="43">
+        <v>402175</v>
+      </c>
     </row>
-    <row r="18" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13581,8 +13618,11 @@
       <c r="KR18" s="44">
         <v>63907</v>
       </c>
+      <c r="KS18" s="44">
+        <v>64481</v>
+      </c>
     </row>
-    <row r="19" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14493,8 +14533,11 @@
       <c r="KR19" s="44">
         <v>10579</v>
       </c>
+      <c r="KS19" s="44">
+        <v>10754</v>
+      </c>
     </row>
-    <row r="20" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15405,8 +15448,11 @@
       <c r="KR20" s="44">
         <v>54189</v>
       </c>
+      <c r="KS20" s="44">
+        <v>54414</v>
+      </c>
     </row>
-    <row r="21" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -16317,8 +16363,11 @@
       <c r="KR21" s="44">
         <v>65342</v>
       </c>
+      <c r="KS21" s="44">
+        <v>65776</v>
+      </c>
     </row>
-    <row r="22" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -17229,8 +17278,11 @@
       <c r="KR22" s="44">
         <v>64434</v>
       </c>
+      <c r="KS22" s="44">
+        <v>64570</v>
+      </c>
     </row>
-    <row r="23" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -18141,8 +18193,11 @@
       <c r="KR23" s="44">
         <v>55912</v>
       </c>
+      <c r="KS23" s="44">
+        <v>56359</v>
+      </c>
     </row>
-    <row r="24" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -19053,8 +19108,11 @@
       <c r="KR24" s="44">
         <v>46508</v>
       </c>
+      <c r="KS24" s="44">
+        <v>46742</v>
+      </c>
     </row>
-    <row r="25" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -19965,8 +20023,11 @@
       <c r="KR25" s="44">
         <v>38940</v>
       </c>
+      <c r="KS25" s="44">
+        <v>39079</v>
+      </c>
     </row>
-    <row r="26" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -20869,8 +20930,9 @@
       <c r="KR26" s="45">
         <v>1</v>
       </c>
+      <c r="KS26" s="45"/>
     </row>
-    <row r="27" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -21783,8 +21845,11 @@
       <c r="KR27" s="43">
         <v>150599</v>
       </c>
+      <c r="KS27" s="43">
+        <v>150009</v>
+      </c>
     </row>
-    <row r="28" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -22695,8 +22760,11 @@
       <c r="KR28" s="44">
         <v>27808</v>
       </c>
+      <c r="KS28" s="44">
+        <v>28039</v>
+      </c>
     </row>
-    <row r="29" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -23607,8 +23675,11 @@
       <c r="KR29" s="44">
         <v>4760</v>
       </c>
+      <c r="KS29" s="44">
+        <v>4747</v>
+      </c>
     </row>
-    <row r="30" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -24519,8 +24590,11 @@
       <c r="KR30" s="44">
         <v>19064</v>
       </c>
+      <c r="KS30" s="44">
+        <v>18777</v>
+      </c>
     </row>
-    <row r="31" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -25431,8 +25505,11 @@
       <c r="KR31" s="44">
         <v>23825</v>
       </c>
+      <c r="KS31" s="44">
+        <v>23702</v>
+      </c>
     </row>
-    <row r="32" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -26343,8 +26420,11 @@
       <c r="KR32" s="44">
         <v>23003</v>
       </c>
+      <c r="KS32" s="44">
+        <v>22706</v>
+      </c>
     </row>
-    <row r="33" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -27255,8 +27335,11 @@
       <c r="KR33" s="44">
         <v>20144</v>
       </c>
+      <c r="KS33" s="44">
+        <v>20010</v>
+      </c>
     </row>
-    <row r="34" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -28167,8 +28250,11 @@
       <c r="KR34" s="44">
         <v>17080</v>
       </c>
+      <c r="KS34" s="44">
+        <v>17100</v>
+      </c>
     </row>
-    <row r="35" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -29079,8 +29165,11 @@
       <c r="KR35" s="44">
         <v>14903</v>
       </c>
+      <c r="KS35" s="44">
+        <v>14912</v>
+      </c>
     </row>
-    <row r="36" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -29991,8 +30080,11 @@
       <c r="KR36" s="45">
         <v>12</v>
       </c>
+      <c r="KS36" s="45">
+        <v>16</v>
+      </c>
     </row>
-    <row r="37" spans="1:304" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:305" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -30905,8 +30997,11 @@
       <c r="KR37" s="46">
         <v>9971</v>
       </c>
+      <c r="KS37" s="46">
+        <v>10018</v>
+      </c>
     </row>
-    <row r="38" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -31817,8 +31912,11 @@
       <c r="KR38" s="44">
         <v>1737</v>
       </c>
+      <c r="KS38" s="44">
+        <v>1736</v>
+      </c>
     </row>
-    <row r="39" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -32729,8 +32827,11 @@
       <c r="KR39" s="44">
         <v>92</v>
       </c>
+      <c r="KS39" s="44">
+        <v>86</v>
+      </c>
     </row>
-    <row r="40" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -33641,8 +33742,11 @@
       <c r="KR40" s="44">
         <v>618</v>
       </c>
+      <c r="KS40" s="44">
+        <v>642</v>
+      </c>
     </row>
-    <row r="41" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -34553,8 +34657,11 @@
       <c r="KR41" s="44">
         <v>1040</v>
       </c>
+      <c r="KS41" s="44">
+        <v>1039</v>
+      </c>
     </row>
-    <row r="42" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -35465,8 +35572,11 @@
       <c r="KR42" s="44">
         <v>1431</v>
       </c>
+      <c r="KS42" s="44">
+        <v>1440</v>
+      </c>
     </row>
-    <row r="43" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -36377,8 +36487,11 @@
       <c r="KR43" s="44">
         <v>1798</v>
       </c>
+      <c r="KS43" s="44">
+        <v>1805</v>
+      </c>
     </row>
-    <row r="44" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -37289,8 +37402,11 @@
       <c r="KR44" s="44">
         <v>1746</v>
       </c>
+      <c r="KS44" s="44">
+        <v>1764</v>
+      </c>
     </row>
-    <row r="45" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -38201,8 +38317,11 @@
       <c r="KR45" s="44">
         <v>1509</v>
       </c>
+      <c r="KS45" s="44">
+        <v>1506</v>
+      </c>
     </row>
-    <row r="46" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -38633,8 +38752,9 @@
       <c r="KP46" s="37"/>
       <c r="KQ46" s="45"/>
       <c r="KR46" s="45"/>
+      <c r="KS46" s="45"/>
     </row>
-    <row r="47" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -39547,8 +39667,11 @@
       <c r="KR47" s="43">
         <v>517652</v>
       </c>
+      <c r="KS47" s="43">
+        <v>519869</v>
+      </c>
     </row>
-    <row r="48" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -40459,8 +40582,11 @@
       <c r="KR48" s="44">
         <v>81751</v>
       </c>
+      <c r="KS48" s="44">
+        <v>82520</v>
+      </c>
     </row>
-    <row r="49" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -41371,8 +41497,11 @@
       <c r="KR49" s="44">
         <v>14908</v>
       </c>
+      <c r="KS49" s="44">
+        <v>15266</v>
+      </c>
     </row>
-    <row r="50" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -42283,8 +42412,11 @@
       <c r="KR50" s="44">
         <v>71719</v>
       </c>
+      <c r="KS50" s="44">
+        <v>72143</v>
+      </c>
     </row>
-    <row r="51" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -43195,8 +43327,11 @@
       <c r="KR51" s="44">
         <v>83127</v>
       </c>
+      <c r="KS51" s="44">
+        <v>83250</v>
+      </c>
     </row>
-    <row r="52" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -44107,8 +44242,11 @@
       <c r="KR52" s="44">
         <v>77846</v>
       </c>
+      <c r="KS52" s="44">
+        <v>77999</v>
+      </c>
     </row>
-    <row r="53" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -45019,8 +45157,11 @@
       <c r="KR53" s="44">
         <v>68992</v>
       </c>
+      <c r="KS53" s="44">
+        <v>69017</v>
+      </c>
     </row>
-    <row r="54" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -45931,8 +46072,11 @@
       <c r="KR54" s="44">
         <v>63880</v>
       </c>
+      <c r="KS54" s="44">
+        <v>64066</v>
+      </c>
     </row>
-    <row r="55" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -46843,8 +46987,11 @@
       <c r="KR55" s="44">
         <v>55424</v>
       </c>
+      <c r="KS55" s="44">
+        <v>55607</v>
+      </c>
     </row>
-    <row r="56" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -47755,8 +47902,11 @@
       <c r="KR56" s="45">
         <v>5</v>
       </c>
+      <c r="KS56" s="45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -48669,8 +48819,11 @@
       <c r="KR57" s="43">
         <v>2633</v>
       </c>
+      <c r="KS57" s="43">
+        <v>2476</v>
+      </c>
     </row>
-    <row r="58" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -49581,8 +49734,11 @@
       <c r="KR58" s="44">
         <v>548</v>
       </c>
+      <c r="KS58" s="44">
+        <v>538</v>
+      </c>
     </row>
-    <row r="59" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -50493,8 +50649,11 @@
       <c r="KR59" s="44">
         <v>35</v>
       </c>
+      <c r="KS59" s="44">
+        <v>30</v>
+      </c>
     </row>
-    <row r="60" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -51405,8 +51564,11 @@
       <c r="KR60" s="44">
         <v>197</v>
       </c>
+      <c r="KS60" s="44">
+        <v>183</v>
+      </c>
     </row>
-    <row r="61" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -52317,8 +52479,11 @@
       <c r="KR61" s="44">
         <v>393</v>
       </c>
+      <c r="KS61" s="44">
+        <v>379</v>
+      </c>
     </row>
-    <row r="62" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -53229,8 +53394,11 @@
       <c r="KR62" s="44">
         <v>421</v>
       </c>
+      <c r="KS62" s="44">
+        <v>379</v>
+      </c>
     </row>
-    <row r="63" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -54141,8 +54309,11 @@
       <c r="KR63" s="44">
         <v>392</v>
       </c>
+      <c r="KS63" s="44">
+        <v>357</v>
+      </c>
     </row>
-    <row r="64" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -55053,8 +55224,11 @@
       <c r="KR64" s="44">
         <v>347</v>
       </c>
+      <c r="KS64" s="44">
+        <v>327</v>
+      </c>
     </row>
-    <row r="65" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -55965,8 +56139,11 @@
       <c r="KR65" s="44">
         <v>299</v>
       </c>
+      <c r="KS65" s="44">
+        <v>283</v>
+      </c>
     </row>
-    <row r="66" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -56333,8 +56510,9 @@
       <c r="KR66" s="45">
         <v>1</v>
       </c>
+      <c r="KS66" s="45"/>
     </row>
-    <row r="67" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -57247,8 +57425,11 @@
       <c r="KR67" s="43">
         <v>653050</v>
       </c>
+      <c r="KS67" s="43">
+        <v>656605</v>
+      </c>
     </row>
-    <row r="68" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -58159,8 +58340,11 @@
       <c r="KR68" s="44">
         <v>138793</v>
       </c>
+      <c r="KS68" s="44">
+        <v>139183</v>
+      </c>
     </row>
-    <row r="69" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -59071,8 +59255,11 @@
       <c r="KR69" s="44">
         <v>10433</v>
       </c>
+      <c r="KS69" s="44">
+        <v>10667</v>
+      </c>
     </row>
-    <row r="70" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -59983,8 +60170,11 @@
       <c r="KR70" s="44">
         <v>62797</v>
       </c>
+      <c r="KS70" s="44">
+        <v>63633</v>
+      </c>
     </row>
-    <row r="71" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -60895,8 +61085,11 @@
       <c r="KR71" s="44">
         <v>100741</v>
       </c>
+      <c r="KS71" s="44">
+        <v>101670</v>
+      </c>
     </row>
-    <row r="72" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -61807,8 +62000,11 @@
       <c r="KR72" s="44">
         <v>99071</v>
       </c>
+      <c r="KS72" s="44">
+        <v>99469</v>
+      </c>
     </row>
-    <row r="73" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -62719,8 +62915,11 @@
       <c r="KR73" s="44">
         <v>89166</v>
       </c>
+      <c r="KS73" s="44">
+        <v>89504</v>
+      </c>
     </row>
-    <row r="74" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -63631,8 +63830,11 @@
       <c r="KR74" s="44">
         <v>80234</v>
       </c>
+      <c r="KS74" s="44">
+        <v>80554</v>
+      </c>
     </row>
-    <row r="75" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -64543,8 +64745,11 @@
       <c r="KR75" s="44">
         <v>71812</v>
       </c>
+      <c r="KS75" s="44">
+        <v>71922</v>
+      </c>
     </row>
-    <row r="76" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -65455,8 +65660,11 @@
       <c r="KR76" s="45">
         <v>3</v>
       </c>
+      <c r="KS76" s="45">
+        <v>3</v>
+      </c>
     </row>
-    <row r="77" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -66369,8 +66577,11 @@
       <c r="KR77" s="43">
         <v>104603</v>
       </c>
+      <c r="KS77" s="43">
+        <v>104992</v>
+      </c>
     </row>
-    <row r="78" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -67281,8 +67492,11 @@
       <c r="KR78" s="44">
         <v>18961</v>
       </c>
+      <c r="KS78" s="44">
+        <v>19099</v>
+      </c>
     </row>
-    <row r="79" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -68193,8 +68407,11 @@
       <c r="KR79" s="44">
         <v>1753</v>
       </c>
+      <c r="KS79" s="44">
+        <v>1713</v>
+      </c>
     </row>
-    <row r="80" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -69105,8 +69322,11 @@
       <c r="KR80" s="44">
         <v>11714</v>
       </c>
+      <c r="KS80" s="44">
+        <v>11728</v>
+      </c>
     </row>
-    <row r="81" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -70017,8 +70237,11 @@
       <c r="KR81" s="44">
         <v>15731</v>
       </c>
+      <c r="KS81" s="44">
+        <v>15822</v>
+      </c>
     </row>
-    <row r="82" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -70929,8 +71152,11 @@
       <c r="KR82" s="44">
         <v>16186</v>
       </c>
+      <c r="KS82" s="44">
+        <v>16234</v>
+      </c>
     </row>
-    <row r="83" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -71841,8 +72067,11 @@
       <c r="KR83" s="44">
         <v>15104</v>
       </c>
+      <c r="KS83" s="44">
+        <v>15118</v>
+      </c>
     </row>
-    <row r="84" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -72753,8 +72982,11 @@
       <c r="KR84" s="44">
         <v>13205</v>
       </c>
+      <c r="KS84" s="44">
+        <v>13321</v>
+      </c>
     </row>
-    <row r="85" spans="1:304" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -73665,8 +73897,11 @@
       <c r="KR85" s="44">
         <v>11948</v>
       </c>
+      <c r="KS85" s="44">
+        <v>11956</v>
+      </c>
     </row>
-    <row r="86" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -74389,8 +74624,11 @@
       <c r="KR86" s="45">
         <v>1</v>
       </c>
+      <c r="KS86" s="45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -75303,8 +75541,11 @@
       <c r="KR87" s="47">
         <v>1964519</v>
       </c>
+      <c r="KS87" s="47">
+        <v>1972715</v>
+      </c>
     </row>
-    <row r="88" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A88" s="49" t="s">
         <v>23</v>
       </c>
@@ -75316,11 +75557,26 @@
       <c r="G88" s="49"/>
       <c r="KD88" s="24"/>
     </row>
-    <row r="89" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:305" x14ac:dyDescent="0.2">
       <c r="KD89" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="KE5:KP5"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JS5:KD5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
+    <mergeCell ref="DS5:ED5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -75336,21 +75592,6 @@
     <mergeCell ref="CI5:CT5"/>
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="KE5:KP5"/>
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JS5:KD5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
-    <mergeCell ref="DS5:ED5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabluados_imss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iieg\OneDrive\Escritorio\Susana\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998 - marzo  2023</t>
+    <t>Enero 1998 - abril 2023</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -966,29 +966,14 @@
     <xf numFmtId="3" fontId="19" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -999,11 +984,14 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1326,408 +1314,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KS89"/>
+  <dimension ref="A1:KU89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="KJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <pane xSplit="2" topLeftCell="KK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KP96" sqref="KP96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="303" width="11.85546875" style="1" customWidth="1"/>
-    <col min="304" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="45.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="306" width="11.88671875" style="1" customWidth="1"/>
+    <col min="307" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:305" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:306" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:305" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:306" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:305" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:306" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="45">
         <v>1998</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="50">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="45">
         <v>1999</v>
       </c>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="50">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="45">
         <v>2000</v>
       </c>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="51"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="50">
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="45">
         <v>2001</v>
       </c>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="51"/>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="51"/>
-      <c r="AV5" s="51"/>
-      <c r="AW5" s="51"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="50">
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="45">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="51"/>
-      <c r="BA5" s="51"/>
-      <c r="BB5" s="51"/>
-      <c r="BC5" s="51"/>
-      <c r="BD5" s="51"/>
-      <c r="BE5" s="51"/>
-      <c r="BF5" s="51"/>
-      <c r="BG5" s="51"/>
-      <c r="BH5" s="51"/>
-      <c r="BI5" s="51"/>
-      <c r="BJ5" s="52"/>
-      <c r="BK5" s="50">
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="46"/>
+      <c r="BC5" s="46"/>
+      <c r="BD5" s="46"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="46"/>
+      <c r="BG5" s="46"/>
+      <c r="BH5" s="46"/>
+      <c r="BI5" s="46"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="45">
         <v>2003</v>
       </c>
-      <c r="BL5" s="51"/>
-      <c r="BM5" s="51"/>
-      <c r="BN5" s="51"/>
-      <c r="BO5" s="51"/>
-      <c r="BP5" s="51"/>
-      <c r="BQ5" s="51"/>
-      <c r="BR5" s="51"/>
-      <c r="BS5" s="51"/>
-      <c r="BT5" s="51"/>
-      <c r="BU5" s="51"/>
-      <c r="BV5" s="52"/>
-      <c r="BW5" s="50">
+      <c r="BL5" s="46"/>
+      <c r="BM5" s="46"/>
+      <c r="BN5" s="46"/>
+      <c r="BO5" s="46"/>
+      <c r="BP5" s="46"/>
+      <c r="BQ5" s="46"/>
+      <c r="BR5" s="46"/>
+      <c r="BS5" s="46"/>
+      <c r="BT5" s="46"/>
+      <c r="BU5" s="46"/>
+      <c r="BV5" s="47"/>
+      <c r="BW5" s="45">
         <v>2004</v>
       </c>
-      <c r="BX5" s="51"/>
-      <c r="BY5" s="51"/>
-      <c r="BZ5" s="51"/>
-      <c r="CA5" s="51"/>
-      <c r="CB5" s="51"/>
-      <c r="CC5" s="51"/>
-      <c r="CD5" s="51"/>
-      <c r="CE5" s="51"/>
-      <c r="CF5" s="51"/>
-      <c r="CG5" s="51"/>
-      <c r="CH5" s="52"/>
-      <c r="CI5" s="50">
+      <c r="BX5" s="46"/>
+      <c r="BY5" s="46"/>
+      <c r="BZ5" s="46"/>
+      <c r="CA5" s="46"/>
+      <c r="CB5" s="46"/>
+      <c r="CC5" s="46"/>
+      <c r="CD5" s="46"/>
+      <c r="CE5" s="46"/>
+      <c r="CF5" s="46"/>
+      <c r="CG5" s="46"/>
+      <c r="CH5" s="47"/>
+      <c r="CI5" s="45">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="51"/>
-      <c r="CK5" s="51"/>
-      <c r="CL5" s="51"/>
-      <c r="CM5" s="51"/>
-      <c r="CN5" s="51"/>
-      <c r="CO5" s="51"/>
-      <c r="CP5" s="51"/>
-      <c r="CQ5" s="51"/>
-      <c r="CR5" s="51"/>
-      <c r="CS5" s="51"/>
-      <c r="CT5" s="52"/>
-      <c r="CU5" s="50">
+      <c r="CJ5" s="46"/>
+      <c r="CK5" s="46"/>
+      <c r="CL5" s="46"/>
+      <c r="CM5" s="46"/>
+      <c r="CN5" s="46"/>
+      <c r="CO5" s="46"/>
+      <c r="CP5" s="46"/>
+      <c r="CQ5" s="46"/>
+      <c r="CR5" s="46"/>
+      <c r="CS5" s="46"/>
+      <c r="CT5" s="47"/>
+      <c r="CU5" s="45">
         <v>2006</v>
       </c>
-      <c r="CV5" s="51"/>
-      <c r="CW5" s="51"/>
-      <c r="CX5" s="51"/>
-      <c r="CY5" s="51"/>
-      <c r="CZ5" s="51"/>
-      <c r="DA5" s="51"/>
-      <c r="DB5" s="51"/>
-      <c r="DC5" s="51"/>
-      <c r="DD5" s="51"/>
-      <c r="DE5" s="51"/>
-      <c r="DF5" s="52"/>
-      <c r="DG5" s="50">
+      <c r="CV5" s="46"/>
+      <c r="CW5" s="46"/>
+      <c r="CX5" s="46"/>
+      <c r="CY5" s="46"/>
+      <c r="CZ5" s="46"/>
+      <c r="DA5" s="46"/>
+      <c r="DB5" s="46"/>
+      <c r="DC5" s="46"/>
+      <c r="DD5" s="46"/>
+      <c r="DE5" s="46"/>
+      <c r="DF5" s="47"/>
+      <c r="DG5" s="45">
         <v>2007</v>
       </c>
-      <c r="DH5" s="51"/>
-      <c r="DI5" s="51"/>
-      <c r="DJ5" s="51"/>
-      <c r="DK5" s="51"/>
-      <c r="DL5" s="51"/>
-      <c r="DM5" s="51"/>
-      <c r="DN5" s="51"/>
-      <c r="DO5" s="51"/>
-      <c r="DP5" s="51"/>
-      <c r="DQ5" s="51"/>
-      <c r="DR5" s="52"/>
-      <c r="DS5" s="50">
+      <c r="DH5" s="46"/>
+      <c r="DI5" s="46"/>
+      <c r="DJ5" s="46"/>
+      <c r="DK5" s="46"/>
+      <c r="DL5" s="46"/>
+      <c r="DM5" s="46"/>
+      <c r="DN5" s="46"/>
+      <c r="DO5" s="46"/>
+      <c r="DP5" s="46"/>
+      <c r="DQ5" s="46"/>
+      <c r="DR5" s="47"/>
+      <c r="DS5" s="45">
         <v>2008</v>
       </c>
-      <c r="DT5" s="51"/>
-      <c r="DU5" s="51"/>
-      <c r="DV5" s="51"/>
-      <c r="DW5" s="51"/>
-      <c r="DX5" s="51"/>
-      <c r="DY5" s="51"/>
-      <c r="DZ5" s="51"/>
-      <c r="EA5" s="51"/>
-      <c r="EB5" s="51"/>
-      <c r="EC5" s="51"/>
-      <c r="ED5" s="52"/>
-      <c r="EE5" s="50">
+      <c r="DT5" s="46"/>
+      <c r="DU5" s="46"/>
+      <c r="DV5" s="46"/>
+      <c r="DW5" s="46"/>
+      <c r="DX5" s="46"/>
+      <c r="DY5" s="46"/>
+      <c r="DZ5" s="46"/>
+      <c r="EA5" s="46"/>
+      <c r="EB5" s="46"/>
+      <c r="EC5" s="46"/>
+      <c r="ED5" s="47"/>
+      <c r="EE5" s="45">
         <v>2009</v>
       </c>
-      <c r="EF5" s="51"/>
-      <c r="EG5" s="51"/>
-      <c r="EH5" s="51"/>
-      <c r="EI5" s="51"/>
-      <c r="EJ5" s="51"/>
-      <c r="EK5" s="51"/>
-      <c r="EL5" s="51"/>
-      <c r="EM5" s="51"/>
-      <c r="EN5" s="51"/>
-      <c r="EO5" s="51"/>
-      <c r="EP5" s="52"/>
-      <c r="EQ5" s="50">
+      <c r="EF5" s="46"/>
+      <c r="EG5" s="46"/>
+      <c r="EH5" s="46"/>
+      <c r="EI5" s="46"/>
+      <c r="EJ5" s="46"/>
+      <c r="EK5" s="46"/>
+      <c r="EL5" s="46"/>
+      <c r="EM5" s="46"/>
+      <c r="EN5" s="46"/>
+      <c r="EO5" s="46"/>
+      <c r="EP5" s="47"/>
+      <c r="EQ5" s="45">
         <v>2010</v>
       </c>
-      <c r="ER5" s="51"/>
-      <c r="ES5" s="51"/>
-      <c r="ET5" s="51"/>
-      <c r="EU5" s="51"/>
-      <c r="EV5" s="51"/>
-      <c r="EW5" s="51"/>
-      <c r="EX5" s="51"/>
-      <c r="EY5" s="51"/>
-      <c r="EZ5" s="51"/>
-      <c r="FA5" s="51"/>
-      <c r="FB5" s="52"/>
-      <c r="FC5" s="50">
+      <c r="ER5" s="46"/>
+      <c r="ES5" s="46"/>
+      <c r="ET5" s="46"/>
+      <c r="EU5" s="46"/>
+      <c r="EV5" s="46"/>
+      <c r="EW5" s="46"/>
+      <c r="EX5" s="46"/>
+      <c r="EY5" s="46"/>
+      <c r="EZ5" s="46"/>
+      <c r="FA5" s="46"/>
+      <c r="FB5" s="47"/>
+      <c r="FC5" s="45">
         <v>2011</v>
       </c>
-      <c r="FD5" s="51"/>
-      <c r="FE5" s="51"/>
-      <c r="FF5" s="51"/>
-      <c r="FG5" s="51"/>
-      <c r="FH5" s="51"/>
-      <c r="FI5" s="51"/>
-      <c r="FJ5" s="51"/>
-      <c r="FK5" s="51"/>
-      <c r="FL5" s="51"/>
-      <c r="FM5" s="51"/>
-      <c r="FN5" s="52"/>
-      <c r="FO5" s="50">
+      <c r="FD5" s="46"/>
+      <c r="FE5" s="46"/>
+      <c r="FF5" s="46"/>
+      <c r="FG5" s="46"/>
+      <c r="FH5" s="46"/>
+      <c r="FI5" s="46"/>
+      <c r="FJ5" s="46"/>
+      <c r="FK5" s="46"/>
+      <c r="FL5" s="46"/>
+      <c r="FM5" s="46"/>
+      <c r="FN5" s="47"/>
+      <c r="FO5" s="45">
         <v>2012</v>
       </c>
-      <c r="FP5" s="51"/>
-      <c r="FQ5" s="51"/>
-      <c r="FR5" s="51"/>
-      <c r="FS5" s="51"/>
-      <c r="FT5" s="51"/>
-      <c r="FU5" s="51"/>
-      <c r="FV5" s="51"/>
-      <c r="FW5" s="51"/>
-      <c r="FX5" s="51"/>
-      <c r="FY5" s="51"/>
-      <c r="FZ5" s="52"/>
-      <c r="GA5" s="50">
+      <c r="FP5" s="46"/>
+      <c r="FQ5" s="46"/>
+      <c r="FR5" s="46"/>
+      <c r="FS5" s="46"/>
+      <c r="FT5" s="46"/>
+      <c r="FU5" s="46"/>
+      <c r="FV5" s="46"/>
+      <c r="FW5" s="46"/>
+      <c r="FX5" s="46"/>
+      <c r="FY5" s="46"/>
+      <c r="FZ5" s="47"/>
+      <c r="GA5" s="45">
         <v>2013</v>
       </c>
-      <c r="GB5" s="51"/>
-      <c r="GC5" s="51"/>
-      <c r="GD5" s="51"/>
-      <c r="GE5" s="51"/>
-      <c r="GF5" s="51"/>
-      <c r="GG5" s="51"/>
-      <c r="GH5" s="51"/>
-      <c r="GI5" s="51"/>
-      <c r="GJ5" s="51"/>
-      <c r="GK5" s="51"/>
-      <c r="GL5" s="52"/>
-      <c r="GM5" s="50">
+      <c r="GB5" s="46"/>
+      <c r="GC5" s="46"/>
+      <c r="GD5" s="46"/>
+      <c r="GE5" s="46"/>
+      <c r="GF5" s="46"/>
+      <c r="GG5" s="46"/>
+      <c r="GH5" s="46"/>
+      <c r="GI5" s="46"/>
+      <c r="GJ5" s="46"/>
+      <c r="GK5" s="46"/>
+      <c r="GL5" s="47"/>
+      <c r="GM5" s="45">
         <v>2014</v>
       </c>
-      <c r="GN5" s="51"/>
-      <c r="GO5" s="51"/>
-      <c r="GP5" s="51"/>
-      <c r="GQ5" s="51"/>
-      <c r="GR5" s="51"/>
-      <c r="GS5" s="51"/>
-      <c r="GT5" s="51"/>
-      <c r="GU5" s="51"/>
-      <c r="GV5" s="51"/>
-      <c r="GW5" s="51"/>
-      <c r="GX5" s="52"/>
-      <c r="GY5" s="50">
+      <c r="GN5" s="46"/>
+      <c r="GO5" s="46"/>
+      <c r="GP5" s="46"/>
+      <c r="GQ5" s="46"/>
+      <c r="GR5" s="46"/>
+      <c r="GS5" s="46"/>
+      <c r="GT5" s="46"/>
+      <c r="GU5" s="46"/>
+      <c r="GV5" s="46"/>
+      <c r="GW5" s="46"/>
+      <c r="GX5" s="47"/>
+      <c r="GY5" s="45">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="51"/>
-      <c r="HA5" s="51"/>
-      <c r="HB5" s="51"/>
-      <c r="HC5" s="51"/>
-      <c r="HD5" s="51"/>
-      <c r="HE5" s="51"/>
-      <c r="HF5" s="51"/>
-      <c r="HG5" s="51"/>
-      <c r="HH5" s="51"/>
-      <c r="HI5" s="51"/>
-      <c r="HJ5" s="52"/>
-      <c r="HK5" s="50">
+      <c r="GZ5" s="46"/>
+      <c r="HA5" s="46"/>
+      <c r="HB5" s="46"/>
+      <c r="HC5" s="46"/>
+      <c r="HD5" s="46"/>
+      <c r="HE5" s="46"/>
+      <c r="HF5" s="46"/>
+      <c r="HG5" s="46"/>
+      <c r="HH5" s="46"/>
+      <c r="HI5" s="46"/>
+      <c r="HJ5" s="47"/>
+      <c r="HK5" s="45">
         <v>2016</v>
       </c>
-      <c r="HL5" s="51"/>
-      <c r="HM5" s="51"/>
-      <c r="HN5" s="51"/>
-      <c r="HO5" s="51"/>
-      <c r="HP5" s="51"/>
-      <c r="HQ5" s="51"/>
-      <c r="HR5" s="51"/>
-      <c r="HS5" s="51"/>
-      <c r="HT5" s="51"/>
-      <c r="HU5" s="51"/>
-      <c r="HV5" s="52"/>
-      <c r="HW5" s="50">
+      <c r="HL5" s="46"/>
+      <c r="HM5" s="46"/>
+      <c r="HN5" s="46"/>
+      <c r="HO5" s="46"/>
+      <c r="HP5" s="46"/>
+      <c r="HQ5" s="46"/>
+      <c r="HR5" s="46"/>
+      <c r="HS5" s="46"/>
+      <c r="HT5" s="46"/>
+      <c r="HU5" s="46"/>
+      <c r="HV5" s="47"/>
+      <c r="HW5" s="45">
         <v>2017</v>
       </c>
-      <c r="HX5" s="51"/>
-      <c r="HY5" s="51"/>
-      <c r="HZ5" s="51"/>
-      <c r="IA5" s="51"/>
-      <c r="IB5" s="51"/>
-      <c r="IC5" s="51"/>
-      <c r="ID5" s="51"/>
-      <c r="IE5" s="51"/>
-      <c r="IF5" s="51"/>
-      <c r="IG5" s="51"/>
-      <c r="IH5" s="52"/>
-      <c r="II5" s="50">
+      <c r="HX5" s="46"/>
+      <c r="HY5" s="46"/>
+      <c r="HZ5" s="46"/>
+      <c r="IA5" s="46"/>
+      <c r="IB5" s="46"/>
+      <c r="IC5" s="46"/>
+      <c r="ID5" s="46"/>
+      <c r="IE5" s="46"/>
+      <c r="IF5" s="46"/>
+      <c r="IG5" s="46"/>
+      <c r="IH5" s="47"/>
+      <c r="II5" s="45">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="51"/>
-      <c r="IK5" s="51"/>
-      <c r="IL5" s="51"/>
-      <c r="IM5" s="51"/>
-      <c r="IN5" s="51"/>
-      <c r="IO5" s="51"/>
-      <c r="IP5" s="51"/>
-      <c r="IQ5" s="51"/>
-      <c r="IR5" s="51"/>
-      <c r="IS5" s="51"/>
-      <c r="IT5" s="52"/>
-      <c r="IU5" s="50">
+      <c r="IJ5" s="46"/>
+      <c r="IK5" s="46"/>
+      <c r="IL5" s="46"/>
+      <c r="IM5" s="46"/>
+      <c r="IN5" s="46"/>
+      <c r="IO5" s="46"/>
+      <c r="IP5" s="46"/>
+      <c r="IQ5" s="46"/>
+      <c r="IR5" s="46"/>
+      <c r="IS5" s="46"/>
+      <c r="IT5" s="47"/>
+      <c r="IU5" s="45">
         <v>2019</v>
       </c>
-      <c r="IV5" s="51"/>
-      <c r="IW5" s="51"/>
-      <c r="IX5" s="51"/>
-      <c r="IY5" s="51"/>
-      <c r="IZ5" s="51"/>
-      <c r="JA5" s="51"/>
-      <c r="JB5" s="51"/>
-      <c r="JC5" s="51"/>
-      <c r="JD5" s="51"/>
-      <c r="JE5" s="51"/>
-      <c r="JF5" s="52"/>
-      <c r="JG5" s="50">
+      <c r="IV5" s="46"/>
+      <c r="IW5" s="46"/>
+      <c r="IX5" s="46"/>
+      <c r="IY5" s="46"/>
+      <c r="IZ5" s="46"/>
+      <c r="JA5" s="46"/>
+      <c r="JB5" s="46"/>
+      <c r="JC5" s="46"/>
+      <c r="JD5" s="46"/>
+      <c r="JE5" s="46"/>
+      <c r="JF5" s="47"/>
+      <c r="JG5" s="45">
         <v>2020</v>
       </c>
-      <c r="JH5" s="51"/>
-      <c r="JI5" s="51"/>
-      <c r="JJ5" s="51"/>
-      <c r="JK5" s="51"/>
-      <c r="JL5" s="51"/>
-      <c r="JM5" s="51"/>
-      <c r="JN5" s="51"/>
-      <c r="JO5" s="51"/>
-      <c r="JP5" s="51"/>
-      <c r="JQ5" s="51"/>
-      <c r="JR5" s="52"/>
-      <c r="JS5" s="50">
+      <c r="JH5" s="46"/>
+      <c r="JI5" s="46"/>
+      <c r="JJ5" s="46"/>
+      <c r="JK5" s="46"/>
+      <c r="JL5" s="46"/>
+      <c r="JM5" s="46"/>
+      <c r="JN5" s="46"/>
+      <c r="JO5" s="46"/>
+      <c r="JP5" s="46"/>
+      <c r="JQ5" s="46"/>
+      <c r="JR5" s="47"/>
+      <c r="JS5" s="45">
         <v>2021</v>
       </c>
-      <c r="JT5" s="51"/>
-      <c r="JU5" s="51"/>
-      <c r="JV5" s="51"/>
-      <c r="JW5" s="51"/>
-      <c r="JX5" s="51"/>
-      <c r="JY5" s="51"/>
-      <c r="JZ5" s="51"/>
-      <c r="KA5" s="51"/>
-      <c r="KB5" s="51"/>
-      <c r="KC5" s="51"/>
-      <c r="KD5" s="51"/>
-      <c r="KE5" s="50">
+      <c r="JT5" s="46"/>
+      <c r="JU5" s="46"/>
+      <c r="JV5" s="46"/>
+      <c r="JW5" s="46"/>
+      <c r="JX5" s="46"/>
+      <c r="JY5" s="46"/>
+      <c r="JZ5" s="46"/>
+      <c r="KA5" s="46"/>
+      <c r="KB5" s="46"/>
+      <c r="KC5" s="46"/>
+      <c r="KD5" s="46"/>
+      <c r="KE5" s="45">
         <v>2022</v>
       </c>
-      <c r="KF5" s="51"/>
-      <c r="KG5" s="51"/>
-      <c r="KH5" s="51"/>
-      <c r="KI5" s="51"/>
-      <c r="KJ5" s="51"/>
-      <c r="KK5" s="51"/>
-      <c r="KL5" s="51"/>
-      <c r="KM5" s="51"/>
-      <c r="KN5" s="51"/>
-      <c r="KO5" s="51"/>
-      <c r="KP5" s="52"/>
-      <c r="KQ5" s="48">
+      <c r="KF5" s="46"/>
+      <c r="KG5" s="46"/>
+      <c r="KH5" s="46"/>
+      <c r="KI5" s="46"/>
+      <c r="KJ5" s="46"/>
+      <c r="KK5" s="46"/>
+      <c r="KL5" s="46"/>
+      <c r="KM5" s="46"/>
+      <c r="KN5" s="46"/>
+      <c r="KO5" s="46"/>
+      <c r="KP5" s="47"/>
+      <c r="KQ5" s="45">
         <v>2023</v>
       </c>
-      <c r="KR5" s="48"/>
-      <c r="KS5" s="48"/>
+      <c r="KR5" s="46"/>
+      <c r="KS5" s="46"/>
+      <c r="KT5" s="47"/>
     </row>
-    <row r="6" spans="1:305" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
+    <row r="6" spans="1:306" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2625,20 +2614,23 @@
       <c r="KO6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="KP6" s="11" t="s">
+      <c r="KP6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="KQ6" s="42" t="s">
+      <c r="KQ6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="KR6" s="42" t="s">
+      <c r="KR6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="KS6" s="42" t="s">
+      <c r="KS6" s="49" t="s">
         <v>10</v>
       </c>
+      <c r="KT6" s="50" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:305" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:306" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3542,20 +3534,23 @@
       <c r="KO7" s="38">
         <v>120917</v>
       </c>
-      <c r="KP7" s="31">
+      <c r="KP7" s="38">
         <v>118708</v>
       </c>
-      <c r="KQ7" s="43">
+      <c r="KQ7" s="30">
         <v>125411</v>
       </c>
-      <c r="KR7" s="43">
+      <c r="KR7" s="38">
         <v>126199</v>
       </c>
-      <c r="KS7" s="43">
+      <c r="KS7" s="38">
         <v>126571</v>
       </c>
+      <c r="KT7" s="31">
+        <v>123159</v>
+      </c>
     </row>
-    <row r="8" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4457,20 +4452,23 @@
       <c r="KO8" s="3">
         <v>23374</v>
       </c>
-      <c r="KP8" s="4">
+      <c r="KP8" s="3">
         <v>23857</v>
       </c>
-      <c r="KQ8" s="44">
+      <c r="KQ8" s="2">
         <v>24223</v>
       </c>
-      <c r="KR8" s="44">
+      <c r="KR8" s="3">
         <v>24493</v>
       </c>
-      <c r="KS8" s="44">
+      <c r="KS8" s="3">
         <v>24607</v>
       </c>
+      <c r="KT8" s="4">
+        <v>24157</v>
+      </c>
     </row>
-    <row r="9" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5372,20 +5370,23 @@
       <c r="KO9" s="3">
         <v>5506</v>
       </c>
-      <c r="KP9" s="4">
+      <c r="KP9" s="3">
         <v>5070</v>
       </c>
-      <c r="KQ9" s="44">
+      <c r="KQ9" s="2">
         <v>5773</v>
       </c>
-      <c r="KR9" s="44">
+      <c r="KR9" s="3">
         <v>5833</v>
       </c>
-      <c r="KS9" s="44">
+      <c r="KS9" s="3">
         <v>5885</v>
       </c>
+      <c r="KT9" s="4">
+        <v>5489</v>
+      </c>
     </row>
-    <row r="10" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6287,20 +6288,23 @@
       <c r="KO10" s="3">
         <v>18481</v>
       </c>
-      <c r="KP10" s="4">
+      <c r="KP10" s="3">
         <v>17442</v>
       </c>
-      <c r="KQ10" s="44">
+      <c r="KQ10" s="2">
         <v>19266</v>
       </c>
-      <c r="KR10" s="44">
+      <c r="KR10" s="3">
         <v>19304</v>
       </c>
-      <c r="KS10" s="44">
+      <c r="KS10" s="3">
         <v>19196</v>
       </c>
+      <c r="KT10" s="4">
+        <v>18580</v>
+      </c>
     </row>
-    <row r="11" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7202,20 +7206,23 @@
       <c r="KO11" s="3">
         <v>18490</v>
       </c>
-      <c r="KP11" s="4">
+      <c r="KP11" s="3">
         <v>17859</v>
       </c>
-      <c r="KQ11" s="44">
+      <c r="KQ11" s="2">
         <v>19218</v>
       </c>
-      <c r="KR11" s="44">
+      <c r="KR11" s="3">
         <v>19228</v>
       </c>
-      <c r="KS11" s="44">
+      <c r="KS11" s="3">
         <v>19251</v>
       </c>
+      <c r="KT11" s="4">
+        <v>18618</v>
+      </c>
     </row>
-    <row r="12" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -8117,20 +8124,23 @@
       <c r="KO12" s="3">
         <v>16358</v>
       </c>
-      <c r="KP12" s="4">
+      <c r="KP12" s="3">
         <v>16047</v>
       </c>
-      <c r="KQ12" s="44">
+      <c r="KQ12" s="2">
         <v>17134</v>
       </c>
-      <c r="KR12" s="44">
+      <c r="KR12" s="3">
         <v>17249</v>
       </c>
-      <c r="KS12" s="44">
+      <c r="KS12" s="3">
         <v>17274</v>
       </c>
+      <c r="KT12" s="4">
+        <v>16841</v>
+      </c>
     </row>
-    <row r="13" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -9032,20 +9042,23 @@
       <c r="KO13" s="3">
         <v>14380</v>
       </c>
-      <c r="KP13" s="4">
+      <c r="KP13" s="3">
         <v>14161</v>
       </c>
-      <c r="KQ13" s="44">
+      <c r="KQ13" s="2">
         <v>14794</v>
       </c>
-      <c r="KR13" s="44">
+      <c r="KR13" s="3">
         <v>14795</v>
       </c>
-      <c r="KS13" s="44">
+      <c r="KS13" s="3">
         <v>14872</v>
       </c>
+      <c r="KT13" s="4">
+        <v>14608</v>
+      </c>
     </row>
-    <row r="14" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9947,20 +9960,23 @@
       <c r="KO14" s="3">
         <v>12602</v>
       </c>
-      <c r="KP14" s="4">
+      <c r="KP14" s="3">
         <v>12522</v>
       </c>
-      <c r="KQ14" s="44">
+      <c r="KQ14" s="2">
         <v>12928</v>
       </c>
-      <c r="KR14" s="44">
+      <c r="KR14" s="3">
         <v>13108</v>
       </c>
-      <c r="KS14" s="44">
+      <c r="KS14" s="3">
         <v>13228</v>
       </c>
+      <c r="KT14" s="4">
+        <v>12951</v>
+      </c>
     </row>
-    <row r="15" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10862,20 +10878,23 @@
       <c r="KO15" s="3">
         <v>11717</v>
       </c>
-      <c r="KP15" s="4">
+      <c r="KP15" s="3">
         <v>11743</v>
       </c>
-      <c r="KQ15" s="44">
+      <c r="KQ15" s="2">
         <v>12065</v>
       </c>
-      <c r="KR15" s="44">
+      <c r="KR15" s="3">
         <v>12178</v>
       </c>
-      <c r="KS15" s="44">
+      <c r="KS15" s="3">
         <v>12247</v>
       </c>
+      <c r="KT15" s="4">
+        <v>11906</v>
+      </c>
     </row>
-    <row r="16" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11777,20 +11796,23 @@
       <c r="KO16" s="39">
         <v>9</v>
       </c>
-      <c r="KP16" s="37">
+      <c r="KP16" s="39">
         <v>7</v>
       </c>
-      <c r="KQ16" s="45">
+      <c r="KQ16" s="36">
         <v>10</v>
       </c>
-      <c r="KR16" s="45">
+      <c r="KR16" s="39">
         <v>11</v>
       </c>
-      <c r="KS16" s="45">
+      <c r="KS16" s="39">
         <v>11</v>
       </c>
+      <c r="KT16" s="37">
+        <v>9</v>
+      </c>
     </row>
-    <row r="17" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12694,20 +12716,23 @@
       <c r="KO17" s="38">
         <v>403989</v>
       </c>
-      <c r="KP17" s="31">
+      <c r="KP17" s="38">
         <v>399607</v>
       </c>
-      <c r="KQ17" s="43">
+      <c r="KQ17" s="30">
         <v>397405</v>
       </c>
-      <c r="KR17" s="43">
+      <c r="KR17" s="38">
         <v>399812</v>
       </c>
-      <c r="KS17" s="43">
+      <c r="KS17" s="38">
         <v>402175</v>
       </c>
+      <c r="KT17" s="31">
+        <v>404779</v>
+      </c>
     </row>
-    <row r="18" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13609,20 +13634,23 @@
       <c r="KO18" s="3">
         <v>63374</v>
       </c>
-      <c r="KP18" s="4">
+      <c r="KP18" s="3">
         <v>63269</v>
       </c>
-      <c r="KQ18" s="44">
+      <c r="KQ18" s="2">
         <v>63340</v>
       </c>
-      <c r="KR18" s="44">
+      <c r="KR18" s="3">
         <v>63907</v>
       </c>
-      <c r="KS18" s="44">
+      <c r="KS18" s="3">
         <v>64481</v>
       </c>
+      <c r="KT18" s="4">
+        <v>65019</v>
+      </c>
     </row>
-    <row r="19" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14524,20 +14552,23 @@
       <c r="KO19" s="3">
         <v>11438</v>
       </c>
-      <c r="KP19" s="4">
+      <c r="KP19" s="3">
         <v>11273</v>
       </c>
-      <c r="KQ19" s="44">
+      <c r="KQ19" s="2">
         <v>10445</v>
       </c>
-      <c r="KR19" s="44">
+      <c r="KR19" s="3">
         <v>10579</v>
       </c>
-      <c r="KS19" s="44">
+      <c r="KS19" s="3">
         <v>10754</v>
       </c>
+      <c r="KT19" s="4">
+        <v>10768</v>
+      </c>
     </row>
-    <row r="20" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15439,20 +15470,23 @@
       <c r="KO20" s="3">
         <v>55770</v>
       </c>
-      <c r="KP20" s="4">
+      <c r="KP20" s="3">
         <v>54870</v>
       </c>
-      <c r="KQ20" s="44">
+      <c r="KQ20" s="2">
         <v>53792</v>
       </c>
-      <c r="KR20" s="44">
+      <c r="KR20" s="3">
         <v>54189</v>
       </c>
-      <c r="KS20" s="44">
+      <c r="KS20" s="3">
         <v>54414</v>
       </c>
+      <c r="KT20" s="4">
+        <v>54530</v>
+      </c>
     </row>
-    <row r="21" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -16354,20 +16388,23 @@
       <c r="KO21" s="3">
         <v>66849</v>
       </c>
-      <c r="KP21" s="4">
+      <c r="KP21" s="3">
         <v>65790</v>
       </c>
-      <c r="KQ21" s="44">
+      <c r="KQ21" s="2">
         <v>65090</v>
       </c>
-      <c r="KR21" s="44">
+      <c r="KR21" s="3">
         <v>65342</v>
       </c>
-      <c r="KS21" s="44">
+      <c r="KS21" s="3">
         <v>65776</v>
       </c>
+      <c r="KT21" s="4">
+        <v>66160</v>
+      </c>
     </row>
-    <row r="22" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -17269,20 +17306,23 @@
       <c r="KO22" s="3">
         <v>64740</v>
       </c>
-      <c r="KP22" s="4">
+      <c r="KP22" s="3">
         <v>63880</v>
       </c>
-      <c r="KQ22" s="44">
+      <c r="KQ22" s="2">
         <v>64192</v>
       </c>
-      <c r="KR22" s="44">
+      <c r="KR22" s="3">
         <v>64434</v>
       </c>
-      <c r="KS22" s="44">
+      <c r="KS22" s="3">
         <v>64570</v>
       </c>
+      <c r="KT22" s="4">
+        <v>64741</v>
+      </c>
     </row>
-    <row r="23" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -18184,20 +18224,23 @@
       <c r="KO23" s="3">
         <v>56064</v>
       </c>
-      <c r="KP23" s="4">
+      <c r="KP23" s="3">
         <v>55468</v>
       </c>
-      <c r="KQ23" s="44">
+      <c r="KQ23" s="2">
         <v>55494</v>
       </c>
-      <c r="KR23" s="44">
+      <c r="KR23" s="3">
         <v>55912</v>
       </c>
-      <c r="KS23" s="44">
+      <c r="KS23" s="3">
         <v>56359</v>
       </c>
+      <c r="KT23" s="4">
+        <v>56863</v>
+      </c>
     </row>
-    <row r="24" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -19099,20 +19142,23 @@
       <c r="KO24" s="3">
         <v>46432</v>
       </c>
-      <c r="KP24" s="4">
+      <c r="KP24" s="3">
         <v>46068</v>
       </c>
-      <c r="KQ24" s="44">
+      <c r="KQ24" s="2">
         <v>46261</v>
       </c>
-      <c r="KR24" s="44">
+      <c r="KR24" s="3">
         <v>46508</v>
       </c>
-      <c r="KS24" s="44">
+      <c r="KS24" s="3">
         <v>46742</v>
       </c>
+      <c r="KT24" s="4">
+        <v>47224</v>
+      </c>
     </row>
-    <row r="25" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -20014,20 +20060,23 @@
       <c r="KO25" s="3">
         <v>39319</v>
       </c>
-      <c r="KP25" s="4">
+      <c r="KP25" s="3">
         <v>38987</v>
       </c>
-      <c r="KQ25" s="44">
+      <c r="KQ25" s="2">
         <v>38789</v>
       </c>
-      <c r="KR25" s="44">
+      <c r="KR25" s="3">
         <v>38940</v>
       </c>
-      <c r="KS25" s="44">
+      <c r="KS25" s="3">
         <v>39079</v>
       </c>
+      <c r="KT25" s="4">
+        <v>39473</v>
+      </c>
     </row>
-    <row r="26" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -20921,18 +20970,21 @@
       <c r="KO26" s="39">
         <v>3</v>
       </c>
-      <c r="KP26" s="37">
+      <c r="KP26" s="39">
         <v>2</v>
       </c>
-      <c r="KQ26" s="45">
+      <c r="KQ26" s="36">
         <v>2</v>
       </c>
-      <c r="KR26" s="45">
+      <c r="KR26" s="39">
         <v>1</v>
       </c>
-      <c r="KS26" s="45"/>
+      <c r="KS26" s="39"/>
+      <c r="KT26" s="37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -21836,20 +21888,23 @@
       <c r="KO27" s="38">
         <v>152128</v>
       </c>
-      <c r="KP27" s="31">
+      <c r="KP27" s="38">
         <v>145346</v>
       </c>
-      <c r="KQ27" s="43">
+      <c r="KQ27" s="30">
         <v>148827</v>
       </c>
-      <c r="KR27" s="43">
+      <c r="KR27" s="38">
         <v>150599</v>
       </c>
-      <c r="KS27" s="43">
+      <c r="KS27" s="38">
         <v>150009</v>
       </c>
+      <c r="KT27" s="31">
+        <v>149587</v>
+      </c>
     </row>
-    <row r="28" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -22751,20 +22806,23 @@
       <c r="KO28" s="3">
         <v>27603</v>
       </c>
-      <c r="KP28" s="4">
+      <c r="KP28" s="3">
         <v>27049</v>
       </c>
-      <c r="KQ28" s="44">
+      <c r="KQ28" s="2">
         <v>27501</v>
       </c>
-      <c r="KR28" s="44">
+      <c r="KR28" s="3">
         <v>27808</v>
       </c>
-      <c r="KS28" s="44">
+      <c r="KS28" s="3">
         <v>28039</v>
       </c>
+      <c r="KT28" s="4">
+        <v>27720</v>
+      </c>
     </row>
-    <row r="29" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -23666,20 +23724,23 @@
       <c r="KO29" s="3">
         <v>4987</v>
       </c>
-      <c r="KP29" s="4">
+      <c r="KP29" s="3">
         <v>4578</v>
       </c>
-      <c r="KQ29" s="44">
+      <c r="KQ29" s="2">
         <v>4676</v>
       </c>
-      <c r="KR29" s="44">
+      <c r="KR29" s="3">
         <v>4760</v>
       </c>
-      <c r="KS29" s="44">
+      <c r="KS29" s="3">
         <v>4747</v>
       </c>
+      <c r="KT29" s="4">
+        <v>4702</v>
+      </c>
     </row>
-    <row r="30" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -24581,20 +24642,23 @@
       <c r="KO30" s="3">
         <v>19365</v>
       </c>
-      <c r="KP30" s="4">
+      <c r="KP30" s="3">
         <v>17950</v>
       </c>
-      <c r="KQ30" s="44">
+      <c r="KQ30" s="2">
         <v>18581</v>
       </c>
-      <c r="KR30" s="44">
+      <c r="KR30" s="3">
         <v>19064</v>
       </c>
-      <c r="KS30" s="44">
+      <c r="KS30" s="3">
         <v>18777</v>
       </c>
+      <c r="KT30" s="4">
+        <v>18752</v>
+      </c>
     </row>
-    <row r="31" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -25496,20 +25560,23 @@
       <c r="KO31" s="3">
         <v>24514</v>
       </c>
-      <c r="KP31" s="4">
+      <c r="KP31" s="3">
         <v>23136</v>
       </c>
-      <c r="KQ31" s="44">
+      <c r="KQ31" s="2">
         <v>23650</v>
       </c>
-      <c r="KR31" s="44">
+      <c r="KR31" s="3">
         <v>23825</v>
       </c>
-      <c r="KS31" s="44">
+      <c r="KS31" s="3">
         <v>23702</v>
       </c>
+      <c r="KT31" s="4">
+        <v>23689</v>
+      </c>
     </row>
-    <row r="32" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -26411,20 +26478,23 @@
       <c r="KO32" s="3">
         <v>22926</v>
       </c>
-      <c r="KP32" s="4">
+      <c r="KP32" s="3">
         <v>21786</v>
       </c>
-      <c r="KQ32" s="44">
+      <c r="KQ32" s="2">
         <v>22629</v>
       </c>
-      <c r="KR32" s="44">
+      <c r="KR32" s="3">
         <v>23003</v>
       </c>
-      <c r="KS32" s="44">
+      <c r="KS32" s="3">
         <v>22706</v>
       </c>
+      <c r="KT32" s="4">
+        <v>22545</v>
+      </c>
     </row>
-    <row r="33" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -27326,20 +27396,23 @@
       <c r="KO33" s="3">
         <v>20293</v>
       </c>
-      <c r="KP33" s="4">
+      <c r="KP33" s="3">
         <v>19557</v>
       </c>
-      <c r="KQ33" s="44">
+      <c r="KQ33" s="2">
         <v>20032</v>
       </c>
-      <c r="KR33" s="44">
+      <c r="KR33" s="3">
         <v>20144</v>
       </c>
-      <c r="KS33" s="44">
+      <c r="KS33" s="3">
         <v>20010</v>
       </c>
+      <c r="KT33" s="4">
+        <v>19981</v>
+      </c>
     </row>
-    <row r="34" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -28241,20 +28314,23 @@
       <c r="KO34" s="3">
         <v>17271</v>
       </c>
-      <c r="KP34" s="4">
+      <c r="KP34" s="3">
         <v>16619</v>
       </c>
-      <c r="KQ34" s="44">
+      <c r="KQ34" s="2">
         <v>16956</v>
       </c>
-      <c r="KR34" s="44">
+      <c r="KR34" s="3">
         <v>17080</v>
       </c>
-      <c r="KS34" s="44">
+      <c r="KS34" s="3">
         <v>17100</v>
       </c>
+      <c r="KT34" s="4">
+        <v>17237</v>
+      </c>
     </row>
-    <row r="35" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -29156,20 +29232,23 @@
       <c r="KO35" s="3">
         <v>15154</v>
       </c>
-      <c r="KP35" s="4">
+      <c r="KP35" s="3">
         <v>14656</v>
       </c>
-      <c r="KQ35" s="44">
+      <c r="KQ35" s="2">
         <v>14789</v>
       </c>
-      <c r="KR35" s="44">
+      <c r="KR35" s="3">
         <v>14903</v>
       </c>
-      <c r="KS35" s="44">
+      <c r="KS35" s="3">
         <v>14912</v>
       </c>
+      <c r="KT35" s="4">
+        <v>14947</v>
+      </c>
     </row>
-    <row r="36" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -30071,20 +30150,23 @@
       <c r="KO36" s="39">
         <v>15</v>
       </c>
-      <c r="KP36" s="37">
+      <c r="KP36" s="39">
         <v>15</v>
       </c>
-      <c r="KQ36" s="45">
+      <c r="KQ36" s="36">
         <v>13</v>
       </c>
-      <c r="KR36" s="45">
+      <c r="KR36" s="39">
         <v>12</v>
       </c>
-      <c r="KS36" s="45">
+      <c r="KS36" s="39">
         <v>16</v>
       </c>
+      <c r="KT36" s="37">
+        <v>14</v>
+      </c>
     </row>
-    <row r="37" spans="1:305" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:306" s="29" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>34</v>
       </c>
@@ -30988,20 +31070,23 @@
       <c r="KO37" s="40">
         <v>9847</v>
       </c>
-      <c r="KP37" s="33">
+      <c r="KP37" s="40">
         <v>9814</v>
       </c>
-      <c r="KQ37" s="46">
+      <c r="KQ37" s="32">
         <v>9847</v>
       </c>
-      <c r="KR37" s="46">
+      <c r="KR37" s="40">
         <v>9971</v>
       </c>
-      <c r="KS37" s="46">
+      <c r="KS37" s="40">
         <v>10018</v>
       </c>
+      <c r="KT37" s="33">
+        <v>9992</v>
+      </c>
     </row>
-    <row r="38" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -31903,20 +31988,23 @@
       <c r="KO38" s="3">
         <v>1731</v>
       </c>
-      <c r="KP38" s="4">
+      <c r="KP38" s="3">
         <v>1720</v>
       </c>
-      <c r="KQ38" s="44">
+      <c r="KQ38" s="2">
         <v>1724</v>
       </c>
-      <c r="KR38" s="44">
+      <c r="KR38" s="3">
         <v>1737</v>
       </c>
-      <c r="KS38" s="44">
+      <c r="KS38" s="3">
         <v>1736</v>
       </c>
+      <c r="KT38" s="4">
+        <v>1749</v>
+      </c>
     </row>
-    <row r="39" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -32818,20 +32906,23 @@
       <c r="KO39" s="3">
         <v>77</v>
       </c>
-      <c r="KP39" s="4">
+      <c r="KP39" s="3">
         <v>78</v>
       </c>
-      <c r="KQ39" s="44">
+      <c r="KQ39" s="2">
         <v>81</v>
       </c>
-      <c r="KR39" s="44">
+      <c r="KR39" s="3">
         <v>92</v>
       </c>
-      <c r="KS39" s="44">
+      <c r="KS39" s="3">
         <v>86</v>
       </c>
+      <c r="KT39" s="4">
+        <v>91</v>
+      </c>
     </row>
-    <row r="40" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -33733,20 +33824,23 @@
       <c r="KO40" s="3">
         <v>570</v>
       </c>
-      <c r="KP40" s="4">
+      <c r="KP40" s="3">
         <v>563</v>
       </c>
-      <c r="KQ40" s="44">
+      <c r="KQ40" s="2">
         <v>576</v>
       </c>
-      <c r="KR40" s="44">
+      <c r="KR40" s="3">
         <v>618</v>
       </c>
-      <c r="KS40" s="44">
+      <c r="KS40" s="3">
         <v>642</v>
       </c>
+      <c r="KT40" s="4">
+        <v>630</v>
+      </c>
     </row>
-    <row r="41" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -34648,20 +34742,23 @@
       <c r="KO41" s="3">
         <v>1045</v>
       </c>
-      <c r="KP41" s="4">
+      <c r="KP41" s="3">
         <v>1039</v>
       </c>
-      <c r="KQ41" s="44">
+      <c r="KQ41" s="2">
         <v>1023</v>
       </c>
-      <c r="KR41" s="44">
+      <c r="KR41" s="3">
         <v>1040</v>
       </c>
-      <c r="KS41" s="44">
+      <c r="KS41" s="3">
         <v>1039</v>
       </c>
+      <c r="KT41" s="4">
+        <v>1058</v>
+      </c>
     </row>
-    <row r="42" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -35563,20 +35660,23 @@
       <c r="KO42" s="3">
         <v>1407</v>
       </c>
-      <c r="KP42" s="4">
+      <c r="KP42" s="3">
         <v>1426</v>
       </c>
-      <c r="KQ42" s="44">
+      <c r="KQ42" s="2">
         <v>1421</v>
       </c>
-      <c r="KR42" s="44">
+      <c r="KR42" s="3">
         <v>1431</v>
       </c>
-      <c r="KS42" s="44">
+      <c r="KS42" s="3">
         <v>1440</v>
       </c>
+      <c r="KT42" s="4">
+        <v>1417</v>
+      </c>
     </row>
-    <row r="43" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -36478,20 +36578,23 @@
       <c r="KO43" s="3">
         <v>1819</v>
       </c>
-      <c r="KP43" s="4">
+      <c r="KP43" s="3">
         <v>1792</v>
       </c>
-      <c r="KQ43" s="44">
+      <c r="KQ43" s="2">
         <v>1791</v>
       </c>
-      <c r="KR43" s="44">
+      <c r="KR43" s="3">
         <v>1798</v>
       </c>
-      <c r="KS43" s="44">
+      <c r="KS43" s="3">
         <v>1805</v>
       </c>
+      <c r="KT43" s="4">
+        <v>1786</v>
+      </c>
     </row>
-    <row r="44" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -37393,20 +37496,23 @@
       <c r="KO44" s="3">
         <v>1712</v>
       </c>
-      <c r="KP44" s="4">
+      <c r="KP44" s="3">
         <v>1715</v>
       </c>
-      <c r="KQ44" s="44">
+      <c r="KQ44" s="2">
         <v>1730</v>
       </c>
-      <c r="KR44" s="44">
+      <c r="KR44" s="3">
         <v>1746</v>
       </c>
-      <c r="KS44" s="44">
+      <c r="KS44" s="3">
         <v>1764</v>
       </c>
+      <c r="KT44" s="4">
+        <v>1746</v>
+      </c>
     </row>
-    <row r="45" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -38308,20 +38414,23 @@
       <c r="KO45" s="3">
         <v>1486</v>
       </c>
-      <c r="KP45" s="4">
+      <c r="KP45" s="3">
         <v>1481</v>
       </c>
-      <c r="KQ45" s="44">
+      <c r="KQ45" s="2">
         <v>1501</v>
       </c>
-      <c r="KR45" s="44">
+      <c r="KR45" s="3">
         <v>1509</v>
       </c>
-      <c r="KS45" s="44">
+      <c r="KS45" s="3">
         <v>1506</v>
       </c>
+      <c r="KT45" s="4">
+        <v>1515</v>
+      </c>
     </row>
-    <row r="46" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -38749,12 +38858,13 @@
       <c r="KM46" s="39"/>
       <c r="KN46" s="39"/>
       <c r="KO46" s="39"/>
-      <c r="KP46" s="37"/>
-      <c r="KQ46" s="45"/>
-      <c r="KR46" s="45"/>
-      <c r="KS46" s="45"/>
+      <c r="KP46" s="39"/>
+      <c r="KQ46" s="36"/>
+      <c r="KR46" s="39"/>
+      <c r="KS46" s="39"/>
+      <c r="KT46" s="37"/>
     </row>
-    <row r="47" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -39658,20 +39768,23 @@
       <c r="KO47" s="38">
         <v>515303</v>
       </c>
-      <c r="KP47" s="31">
+      <c r="KP47" s="38">
         <v>508146</v>
       </c>
-      <c r="KQ47" s="43">
+      <c r="KQ47" s="30">
         <v>512903</v>
       </c>
-      <c r="KR47" s="43">
+      <c r="KR47" s="38">
         <v>517652</v>
       </c>
-      <c r="KS47" s="43">
+      <c r="KS47" s="38">
         <v>519869</v>
       </c>
+      <c r="KT47" s="31">
+        <v>518782</v>
+      </c>
     </row>
-    <row r="48" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -40573,20 +40686,23 @@
       <c r="KO48" s="3">
         <v>79869</v>
       </c>
-      <c r="KP48" s="4">
+      <c r="KP48" s="3">
         <v>80010</v>
       </c>
-      <c r="KQ48" s="44">
+      <c r="KQ48" s="2">
         <v>81027</v>
       </c>
-      <c r="KR48" s="44">
+      <c r="KR48" s="3">
         <v>81751</v>
       </c>
-      <c r="KS48" s="44">
+      <c r="KS48" s="3">
         <v>82520</v>
       </c>
+      <c r="KT48" s="4">
+        <v>82503</v>
+      </c>
     </row>
-    <row r="49" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -41488,20 +41604,23 @@
       <c r="KO49" s="3">
         <v>14983</v>
       </c>
-      <c r="KP49" s="4">
+      <c r="KP49" s="3">
         <v>14242</v>
       </c>
-      <c r="KQ49" s="44">
+      <c r="KQ49" s="2">
         <v>14515</v>
       </c>
-      <c r="KR49" s="44">
+      <c r="KR49" s="3">
         <v>14908</v>
       </c>
-      <c r="KS49" s="44">
+      <c r="KS49" s="3">
         <v>15266</v>
       </c>
+      <c r="KT49" s="4">
+        <v>15101</v>
+      </c>
     </row>
-    <row r="50" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -42403,20 +42522,23 @@
       <c r="KO50" s="3">
         <v>72376</v>
       </c>
-      <c r="KP50" s="4">
+      <c r="KP50" s="3">
         <v>70298</v>
       </c>
-      <c r="KQ50" s="44">
+      <c r="KQ50" s="2">
         <v>70968</v>
       </c>
-      <c r="KR50" s="44">
+      <c r="KR50" s="3">
         <v>71719</v>
       </c>
-      <c r="KS50" s="44">
+      <c r="KS50" s="3">
         <v>72143</v>
       </c>
+      <c r="KT50" s="4">
+        <v>71950</v>
+      </c>
     </row>
-    <row r="51" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -43318,20 +43440,23 @@
       <c r="KO51" s="3">
         <v>83248</v>
       </c>
-      <c r="KP51" s="4">
+      <c r="KP51" s="3">
         <v>81844</v>
       </c>
-      <c r="KQ51" s="44">
+      <c r="KQ51" s="2">
         <v>82137</v>
       </c>
-      <c r="KR51" s="44">
+      <c r="KR51" s="3">
         <v>83127</v>
       </c>
-      <c r="KS51" s="44">
+      <c r="KS51" s="3">
         <v>83250</v>
       </c>
+      <c r="KT51" s="4">
+        <v>83108</v>
+      </c>
     </row>
-    <row r="52" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -44233,20 +44358,23 @@
       <c r="KO52" s="3">
         <v>77286</v>
       </c>
-      <c r="KP52" s="4">
+      <c r="KP52" s="3">
         <v>76191</v>
       </c>
-      <c r="KQ52" s="44">
+      <c r="KQ52" s="2">
         <v>77211</v>
       </c>
-      <c r="KR52" s="44">
+      <c r="KR52" s="3">
         <v>77846</v>
       </c>
-      <c r="KS52" s="44">
+      <c r="KS52" s="3">
         <v>77999</v>
       </c>
+      <c r="KT52" s="4">
+        <v>77778</v>
+      </c>
     </row>
-    <row r="53" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -45148,20 +45276,23 @@
       <c r="KO53" s="3">
         <v>68974</v>
       </c>
-      <c r="KP53" s="4">
+      <c r="KP53" s="3">
         <v>68002</v>
       </c>
-      <c r="KQ53" s="44">
+      <c r="KQ53" s="2">
         <v>68609</v>
       </c>
-      <c r="KR53" s="44">
+      <c r="KR53" s="3">
         <v>68992</v>
       </c>
-      <c r="KS53" s="44">
+      <c r="KS53" s="3">
         <v>69017</v>
       </c>
+      <c r="KT53" s="4">
+        <v>68818</v>
+      </c>
     </row>
-    <row r="54" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -46063,20 +46194,23 @@
       <c r="KO54" s="3">
         <v>63592</v>
       </c>
-      <c r="KP54" s="4">
+      <c r="KP54" s="3">
         <v>62982</v>
       </c>
-      <c r="KQ54" s="44">
+      <c r="KQ54" s="2">
         <v>63444</v>
       </c>
-      <c r="KR54" s="44">
+      <c r="KR54" s="3">
         <v>63880</v>
       </c>
-      <c r="KS54" s="44">
+      <c r="KS54" s="3">
         <v>64066</v>
       </c>
+      <c r="KT54" s="4">
+        <v>64013</v>
+      </c>
     </row>
-    <row r="55" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -46978,20 +47112,23 @@
       <c r="KO55" s="3">
         <v>54972</v>
       </c>
-      <c r="KP55" s="4">
+      <c r="KP55" s="3">
         <v>54574</v>
       </c>
-      <c r="KQ55" s="44">
+      <c r="KQ55" s="2">
         <v>54990</v>
       </c>
-      <c r="KR55" s="44">
+      <c r="KR55" s="3">
         <v>55424</v>
       </c>
-      <c r="KS55" s="44">
+      <c r="KS55" s="3">
         <v>55607</v>
       </c>
+      <c r="KT55" s="4">
+        <v>55508</v>
+      </c>
     </row>
-    <row r="56" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -47893,20 +48030,23 @@
       <c r="KO56" s="39">
         <v>3</v>
       </c>
-      <c r="KP56" s="37">
+      <c r="KP56" s="39">
         <v>3</v>
       </c>
-      <c r="KQ56" s="45">
+      <c r="KQ56" s="36">
         <v>2</v>
       </c>
-      <c r="KR56" s="45">
+      <c r="KR56" s="39">
         <v>5</v>
       </c>
-      <c r="KS56" s="45">
+      <c r="KS56" s="39">
         <v>1</v>
       </c>
+      <c r="KT56" s="37">
+        <v>3</v>
+      </c>
     </row>
-    <row r="57" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -48810,20 +48950,23 @@
       <c r="KO57" s="38">
         <v>2515</v>
       </c>
-      <c r="KP57" s="31">
+      <c r="KP57" s="38">
         <v>2500</v>
       </c>
-      <c r="KQ57" s="43">
+      <c r="KQ57" s="30">
         <v>2580</v>
       </c>
-      <c r="KR57" s="43">
+      <c r="KR57" s="38">
         <v>2633</v>
       </c>
-      <c r="KS57" s="43">
+      <c r="KS57" s="38">
         <v>2476</v>
       </c>
+      <c r="KT57" s="31">
+        <v>2545</v>
+      </c>
     </row>
-    <row r="58" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -49725,20 +49868,23 @@
       <c r="KO58" s="3">
         <v>528</v>
       </c>
-      <c r="KP58" s="4">
+      <c r="KP58" s="3">
         <v>533</v>
       </c>
-      <c r="KQ58" s="44">
+      <c r="KQ58" s="2">
         <v>531</v>
       </c>
-      <c r="KR58" s="44">
+      <c r="KR58" s="3">
         <v>548</v>
       </c>
-      <c r="KS58" s="44">
+      <c r="KS58" s="3">
         <v>538</v>
       </c>
+      <c r="KT58" s="4">
+        <v>552</v>
+      </c>
     </row>
-    <row r="59" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -50640,20 +50786,23 @@
       <c r="KO59" s="3">
         <v>32</v>
       </c>
-      <c r="KP59" s="4">
+      <c r="KP59" s="3">
         <v>29</v>
       </c>
-      <c r="KQ59" s="44">
+      <c r="KQ59" s="2">
         <v>35</v>
       </c>
-      <c r="KR59" s="44">
+      <c r="KR59" s="3">
         <v>35</v>
       </c>
-      <c r="KS59" s="44">
+      <c r="KS59" s="3">
         <v>30</v>
       </c>
+      <c r="KT59" s="4">
+        <v>29</v>
+      </c>
     </row>
-    <row r="60" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -51555,20 +51704,23 @@
       <c r="KO60" s="3">
         <v>190</v>
       </c>
-      <c r="KP60" s="4">
+      <c r="KP60" s="3">
         <v>182</v>
       </c>
-      <c r="KQ60" s="44">
+      <c r="KQ60" s="2">
         <v>190</v>
       </c>
-      <c r="KR60" s="44">
+      <c r="KR60" s="3">
         <v>197</v>
       </c>
-      <c r="KS60" s="44">
+      <c r="KS60" s="3">
         <v>183</v>
       </c>
+      <c r="KT60" s="4">
+        <v>180</v>
+      </c>
     </row>
-    <row r="61" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -52470,20 +52622,23 @@
       <c r="KO61" s="3">
         <v>380</v>
       </c>
-      <c r="KP61" s="4">
+      <c r="KP61" s="3">
         <v>381</v>
       </c>
-      <c r="KQ61" s="44">
+      <c r="KQ61" s="2">
         <v>383</v>
       </c>
-      <c r="KR61" s="44">
+      <c r="KR61" s="3">
         <v>393</v>
       </c>
-      <c r="KS61" s="44">
+      <c r="KS61" s="3">
         <v>379</v>
       </c>
+      <c r="KT61" s="4">
+        <v>378</v>
+      </c>
     </row>
-    <row r="62" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -53385,20 +53540,23 @@
       <c r="KO62" s="3">
         <v>401</v>
       </c>
-      <c r="KP62" s="4">
+      <c r="KP62" s="3">
         <v>391</v>
       </c>
-      <c r="KQ62" s="44">
+      <c r="KQ62" s="2">
         <v>425</v>
       </c>
-      <c r="KR62" s="44">
+      <c r="KR62" s="3">
         <v>421</v>
       </c>
-      <c r="KS62" s="44">
+      <c r="KS62" s="3">
         <v>379</v>
       </c>
+      <c r="KT62" s="4">
+        <v>388</v>
+      </c>
     </row>
-    <row r="63" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -54300,20 +54458,23 @@
       <c r="KO63" s="3">
         <v>377</v>
       </c>
-      <c r="KP63" s="4">
+      <c r="KP63" s="3">
         <v>372</v>
       </c>
-      <c r="KQ63" s="44">
+      <c r="KQ63" s="2">
         <v>385</v>
       </c>
-      <c r="KR63" s="44">
+      <c r="KR63" s="3">
         <v>392</v>
       </c>
-      <c r="KS63" s="44">
+      <c r="KS63" s="3">
         <v>357</v>
       </c>
+      <c r="KT63" s="4">
+        <v>380</v>
+      </c>
     </row>
-    <row r="64" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -55215,20 +55376,23 @@
       <c r="KO64" s="3">
         <v>333</v>
       </c>
-      <c r="KP64" s="4">
+      <c r="KP64" s="3">
         <v>335</v>
       </c>
-      <c r="KQ64" s="44">
+      <c r="KQ64" s="2">
         <v>341</v>
       </c>
-      <c r="KR64" s="44">
+      <c r="KR64" s="3">
         <v>347</v>
       </c>
-      <c r="KS64" s="44">
+      <c r="KS64" s="3">
         <v>327</v>
       </c>
+      <c r="KT64" s="4">
+        <v>337</v>
+      </c>
     </row>
-    <row r="65" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -56130,20 +56294,23 @@
       <c r="KO65" s="3">
         <v>274</v>
       </c>
-      <c r="KP65" s="4">
+      <c r="KP65" s="3">
         <v>277</v>
       </c>
-      <c r="KQ65" s="44">
+      <c r="KQ65" s="2">
         <v>290</v>
       </c>
-      <c r="KR65" s="44">
+      <c r="KR65" s="3">
         <v>299</v>
       </c>
-      <c r="KS65" s="44">
+      <c r="KS65" s="3">
         <v>283</v>
       </c>
+      <c r="KT65" s="4">
+        <v>301</v>
+      </c>
     </row>
-    <row r="66" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -56505,14 +56672,15 @@
       <c r="KM66" s="39"/>
       <c r="KN66" s="39"/>
       <c r="KO66" s="39"/>
-      <c r="KP66" s="37"/>
-      <c r="KQ66" s="45"/>
-      <c r="KR66" s="45">
+      <c r="KP66" s="39"/>
+      <c r="KQ66" s="36"/>
+      <c r="KR66" s="39">
         <v>1</v>
       </c>
-      <c r="KS66" s="45"/>
+      <c r="KS66" s="39"/>
+      <c r="KT66" s="37"/>
     </row>
-    <row r="67" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -57416,20 +57584,23 @@
       <c r="KO67" s="38">
         <v>650779</v>
       </c>
-      <c r="KP67" s="31">
+      <c r="KP67" s="38">
         <v>644397</v>
       </c>
-      <c r="KQ67" s="43">
+      <c r="KQ67" s="30">
         <v>649778</v>
       </c>
-      <c r="KR67" s="43">
+      <c r="KR67" s="38">
         <v>653050</v>
       </c>
-      <c r="KS67" s="43">
+      <c r="KS67" s="38">
         <v>656605</v>
       </c>
+      <c r="KT67" s="31">
+        <v>659145</v>
+      </c>
     </row>
-    <row r="68" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -58331,20 +58502,23 @@
       <c r="KO68" s="3">
         <v>136155</v>
       </c>
-      <c r="KP68" s="4">
+      <c r="KP68" s="3">
         <v>135336</v>
       </c>
-      <c r="KQ68" s="44">
+      <c r="KQ68" s="2">
         <v>137712</v>
       </c>
-      <c r="KR68" s="44">
+      <c r="KR68" s="3">
         <v>138793</v>
       </c>
-      <c r="KS68" s="44">
+      <c r="KS68" s="3">
         <v>139183</v>
       </c>
+      <c r="KT68" s="4">
+        <v>140723</v>
+      </c>
     </row>
-    <row r="69" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -59246,20 +59420,23 @@
       <c r="KO69" s="3">
         <v>10556</v>
       </c>
-      <c r="KP69" s="4">
+      <c r="KP69" s="3">
         <v>10333</v>
       </c>
-      <c r="KQ69" s="44">
+      <c r="KQ69" s="2">
         <v>10209</v>
       </c>
-      <c r="KR69" s="44">
+      <c r="KR69" s="3">
         <v>10433</v>
       </c>
-      <c r="KS69" s="44">
+      <c r="KS69" s="3">
         <v>10667</v>
       </c>
+      <c r="KT69" s="4">
+        <v>10682</v>
+      </c>
     </row>
-    <row r="70" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -60161,20 +60338,23 @@
       <c r="KO70" s="3">
         <v>63665</v>
       </c>
-      <c r="KP70" s="4">
+      <c r="KP70" s="3">
         <v>62559</v>
       </c>
-      <c r="KQ70" s="44">
+      <c r="KQ70" s="2">
         <v>62400</v>
       </c>
-      <c r="KR70" s="44">
+      <c r="KR70" s="3">
         <v>62797</v>
       </c>
-      <c r="KS70" s="44">
+      <c r="KS70" s="3">
         <v>63633</v>
       </c>
+      <c r="KT70" s="4">
+        <v>63782</v>
+      </c>
     </row>
-    <row r="71" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -61076,20 +61256,23 @@
       <c r="KO71" s="3">
         <v>101615</v>
       </c>
-      <c r="KP71" s="4">
+      <c r="KP71" s="3">
         <v>100575</v>
       </c>
-      <c r="KQ71" s="44">
+      <c r="KQ71" s="2">
         <v>100441</v>
       </c>
-      <c r="KR71" s="44">
+      <c r="KR71" s="3">
         <v>100741</v>
       </c>
-      <c r="KS71" s="44">
+      <c r="KS71" s="3">
         <v>101670</v>
       </c>
+      <c r="KT71" s="4">
+        <v>101860</v>
+      </c>
     </row>
-    <row r="72" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -61991,20 +62174,23 @@
       <c r="KO72" s="3">
         <v>98645</v>
       </c>
-      <c r="KP72" s="4">
+      <c r="KP72" s="3">
         <v>97821</v>
       </c>
-      <c r="KQ72" s="44">
+      <c r="KQ72" s="2">
         <v>98780</v>
       </c>
-      <c r="KR72" s="44">
+      <c r="KR72" s="3">
         <v>99071</v>
       </c>
-      <c r="KS72" s="44">
+      <c r="KS72" s="3">
         <v>99469</v>
       </c>
+      <c r="KT72" s="4">
+        <v>99771</v>
+      </c>
     </row>
-    <row r="73" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -62906,20 +63092,23 @@
       <c r="KO73" s="3">
         <v>88663</v>
       </c>
-      <c r="KP73" s="4">
+      <c r="KP73" s="3">
         <v>87830</v>
       </c>
-      <c r="KQ73" s="44">
+      <c r="KQ73" s="2">
         <v>88801</v>
       </c>
-      <c r="KR73" s="44">
+      <c r="KR73" s="3">
         <v>89166</v>
       </c>
-      <c r="KS73" s="44">
+      <c r="KS73" s="3">
         <v>89504</v>
       </c>
+      <c r="KT73" s="4">
+        <v>89613</v>
+      </c>
     </row>
-    <row r="74" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -63821,20 +64010,23 @@
       <c r="KO74" s="3">
         <v>79725</v>
       </c>
-      <c r="KP74" s="4">
+      <c r="KP74" s="3">
         <v>78905</v>
       </c>
-      <c r="KQ74" s="44">
+      <c r="KQ74" s="2">
         <v>79885</v>
       </c>
-      <c r="KR74" s="44">
+      <c r="KR74" s="3">
         <v>80234</v>
       </c>
-      <c r="KS74" s="44">
+      <c r="KS74" s="3">
         <v>80554</v>
       </c>
+      <c r="KT74" s="4">
+        <v>80670</v>
+      </c>
     </row>
-    <row r="75" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -64736,20 +64928,23 @@
       <c r="KO75" s="3">
         <v>71750</v>
       </c>
-      <c r="KP75" s="4">
+      <c r="KP75" s="3">
         <v>71034</v>
       </c>
-      <c r="KQ75" s="44">
+      <c r="KQ75" s="2">
         <v>71544</v>
       </c>
-      <c r="KR75" s="44">
+      <c r="KR75" s="3">
         <v>71812</v>
       </c>
-      <c r="KS75" s="44">
+      <c r="KS75" s="3">
         <v>71922</v>
       </c>
+      <c r="KT75" s="4">
+        <v>72040</v>
+      </c>
     </row>
-    <row r="76" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -65651,20 +65846,23 @@
       <c r="KO76" s="39">
         <v>5</v>
       </c>
-      <c r="KP76" s="37">
+      <c r="KP76" s="39">
         <v>4</v>
       </c>
-      <c r="KQ76" s="45">
+      <c r="KQ76" s="36">
         <v>6</v>
       </c>
-      <c r="KR76" s="45">
+      <c r="KR76" s="39">
         <v>3</v>
       </c>
-      <c r="KS76" s="45">
+      <c r="KS76" s="39">
         <v>3</v>
       </c>
+      <c r="KT76" s="37">
+        <v>4</v>
+      </c>
     </row>
-    <row r="77" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -66568,20 +66766,23 @@
       <c r="KO77" s="38">
         <v>105032</v>
       </c>
-      <c r="KP77" s="31">
+      <c r="KP77" s="38">
         <v>104444</v>
       </c>
-      <c r="KQ77" s="43">
+      <c r="KQ77" s="30">
         <v>104505</v>
       </c>
-      <c r="KR77" s="43">
+      <c r="KR77" s="38">
         <v>104603</v>
       </c>
-      <c r="KS77" s="43">
+      <c r="KS77" s="38">
         <v>104992</v>
       </c>
+      <c r="KT77" s="31">
+        <v>105213</v>
+      </c>
     </row>
-    <row r="78" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:306" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -67483,20 +67684,23 @@
       <c r="KO78" s="3">
         <v>18633</v>
       </c>
-      <c r="KP78" s="4">
+      <c r="KP78" s="3">
         <v>18744</v>
       </c>
-      <c r="KQ78" s="44">
+      <c r="KQ78" s="2">
         <v>18947</v>
       </c>
-      <c r="KR78" s="44">
+      <c r="KR78" s="3">
         <v>18961</v>
       </c>
-      <c r="KS78" s="44">
+      <c r="KS78" s="3">
         <v>19099</v>
       </c>
+      <c r="KT78" s="4">
+        <v>19176</v>
+      </c>
     </row>
-    <row r="79" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -68398,20 +68602,23 @@
       <c r="KO79" s="3">
         <v>1854</v>
       </c>
-      <c r="KP79" s="4">
+      <c r="KP79" s="3">
         <v>1761</v>
       </c>
-      <c r="KQ79" s="44">
+      <c r="KQ79" s="2">
         <v>1710</v>
       </c>
-      <c r="KR79" s="44">
+      <c r="KR79" s="3">
         <v>1753</v>
       </c>
-      <c r="KS79" s="44">
+      <c r="KS79" s="3">
         <v>1713</v>
       </c>
+      <c r="KT79" s="4">
+        <v>1692</v>
+      </c>
     </row>
-    <row r="80" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -69313,20 +69520,23 @@
       <c r="KO80" s="3">
         <v>12013</v>
       </c>
-      <c r="KP80" s="4">
+      <c r="KP80" s="3">
         <v>11818</v>
       </c>
-      <c r="KQ80" s="44">
+      <c r="KQ80" s="2">
         <v>11644</v>
       </c>
-      <c r="KR80" s="44">
+      <c r="KR80" s="3">
         <v>11714</v>
       </c>
-      <c r="KS80" s="44">
+      <c r="KS80" s="3">
         <v>11728</v>
       </c>
+      <c r="KT80" s="4">
+        <v>11737</v>
+      </c>
     </row>
-    <row r="81" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:307" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -70228,20 +70438,23 @@
       <c r="KO81" s="3">
         <v>16064</v>
       </c>
-      <c r="KP81" s="4">
+      <c r="KP81" s="3">
         <v>15931</v>
       </c>
-      <c r="KQ81" s="44">
+      <c r="KQ81" s="2">
         <v>15770</v>
       </c>
-      <c r="KR81" s="44">
+      <c r="KR81" s="3">
         <v>15731</v>
       </c>
-      <c r="KS81" s="44">
+      <c r="KS81" s="3">
         <v>15822</v>
       </c>
+      <c r="KT81" s="4">
+        <v>15877</v>
+      </c>
     </row>
-    <row r="82" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:307" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -71143,20 +71356,23 @@
       <c r="KO82" s="3">
         <v>16153</v>
       </c>
-      <c r="KP82" s="4">
+      <c r="KP82" s="3">
         <v>16051</v>
       </c>
-      <c r="KQ82" s="44">
+      <c r="KQ82" s="2">
         <v>16190</v>
       </c>
-      <c r="KR82" s="44">
+      <c r="KR82" s="3">
         <v>16186</v>
       </c>
-      <c r="KS82" s="44">
+      <c r="KS82" s="3">
         <v>16234</v>
       </c>
+      <c r="KT82" s="4">
+        <v>16159</v>
+      </c>
     </row>
-    <row r="83" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:307" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -72058,20 +72274,23 @@
       <c r="KO83" s="3">
         <v>15109</v>
       </c>
-      <c r="KP83" s="4">
+      <c r="KP83" s="3">
         <v>15025</v>
       </c>
-      <c r="KQ83" s="44">
+      <c r="KQ83" s="2">
         <v>15064</v>
       </c>
-      <c r="KR83" s="44">
+      <c r="KR83" s="3">
         <v>15104</v>
       </c>
-      <c r="KS83" s="44">
+      <c r="KS83" s="3">
         <v>15118</v>
       </c>
+      <c r="KT83" s="4">
+        <v>15206</v>
+      </c>
     </row>
-    <row r="84" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:307" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -72973,20 +73192,23 @@
       <c r="KO84" s="3">
         <v>13247</v>
       </c>
-      <c r="KP84" s="4">
+      <c r="KP84" s="3">
         <v>13165</v>
       </c>
-      <c r="KQ84" s="44">
+      <c r="KQ84" s="2">
         <v>13237</v>
       </c>
-      <c r="KR84" s="44">
+      <c r="KR84" s="3">
         <v>13205</v>
       </c>
-      <c r="KS84" s="44">
+      <c r="KS84" s="3">
         <v>13321</v>
       </c>
+      <c r="KT84" s="4">
+        <v>13408</v>
+      </c>
     </row>
-    <row r="85" spans="1:305" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:307" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -73888,20 +74110,23 @@
       <c r="KO85" s="3">
         <v>11958</v>
       </c>
-      <c r="KP85" s="4">
+      <c r="KP85" s="3">
         <v>11948</v>
       </c>
-      <c r="KQ85" s="44">
+      <c r="KQ85" s="2">
         <v>11942</v>
       </c>
-      <c r="KR85" s="44">
+      <c r="KR85" s="3">
         <v>11948</v>
       </c>
-      <c r="KS85" s="44">
+      <c r="KS85" s="3">
         <v>11956</v>
       </c>
+      <c r="KT85" s="4">
+        <v>11957</v>
+      </c>
     </row>
-    <row r="86" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:307" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -74615,20 +74840,23 @@
       <c r="KO86" s="39">
         <v>1</v>
       </c>
-      <c r="KP86" s="37">
+      <c r="KP86" s="39">
         <v>1</v>
       </c>
-      <c r="KQ86" s="45">
+      <c r="KQ86" s="36">
         <v>1</v>
       </c>
-      <c r="KR86" s="45">
+      <c r="KR86" s="39">
         <v>1</v>
       </c>
-      <c r="KS86" s="45">
+      <c r="KS86" s="39">
         <v>1</v>
       </c>
+      <c r="KT86" s="37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:307" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -75532,36 +75760,59 @@
       <c r="KO87" s="41">
         <v>1960510</v>
       </c>
-      <c r="KP87" s="35">
+      <c r="KP87" s="41">
         <v>1932962</v>
       </c>
-      <c r="KQ87" s="47">
+      <c r="KQ87" s="34">
         <v>1951256</v>
       </c>
-      <c r="KR87" s="47">
+      <c r="KR87" s="41">
         <v>1964519</v>
       </c>
-      <c r="KS87" s="47">
+      <c r="KS87" s="41">
         <v>1972715</v>
       </c>
+      <c r="KT87" s="35">
+        <v>1973202</v>
+      </c>
+      <c r="KU87" s="24"/>
     </row>
-    <row r="88" spans="1:305" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="s">
+    <row r="88" spans="1:307" x14ac:dyDescent="0.25">
+      <c r="A88" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
       <c r="KD88" s="24"/>
+      <c r="KR88" s="24"/>
+      <c r="KS88" s="24"/>
+      <c r="KT88" s="24"/>
     </row>
-    <row r="89" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:307" x14ac:dyDescent="0.25">
       <c r="KD89" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="KQ5:KT5"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="GY5:HJ5"/>
+    <mergeCell ref="HK5:HV5"/>
+    <mergeCell ref="HW5:IH5"/>
+    <mergeCell ref="II5:IT5"/>
+    <mergeCell ref="EE5:EP5"/>
+    <mergeCell ref="EQ5:FB5"/>
+    <mergeCell ref="FC5:FN5"/>
+    <mergeCell ref="FO5:FZ5"/>
+    <mergeCell ref="GA5:GL5"/>
+    <mergeCell ref="GM5:GX5"/>
+    <mergeCell ref="BW5:CH5"/>
+    <mergeCell ref="CI5:CT5"/>
+    <mergeCell ref="CU5:DF5"/>
+    <mergeCell ref="DG5:DR5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -75577,21 +75828,6 @@
     <mergeCell ref="AY5:BJ5"/>
     <mergeCell ref="BK5:BV5"/>
     <mergeCell ref="DS5:ED5"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="GY5:HJ5"/>
-    <mergeCell ref="HK5:HV5"/>
-    <mergeCell ref="HW5:IH5"/>
-    <mergeCell ref="II5:IT5"/>
-    <mergeCell ref="EE5:EP5"/>
-    <mergeCell ref="EQ5:FB5"/>
-    <mergeCell ref="FC5:FN5"/>
-    <mergeCell ref="FO5:FZ5"/>
-    <mergeCell ref="GA5:GL5"/>
-    <mergeCell ref="GM5:GX5"/>
-    <mergeCell ref="BW5:CH5"/>
-    <mergeCell ref="CI5:CT5"/>
-    <mergeCell ref="CU5:DF5"/>
-    <mergeCell ref="DG5:DR5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iieg\OneDrive\Escritorio\Susana\Actualizaciones pagina\Tabluados_imss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0625E441-DC19-4368-BF39-DD7C01B04554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ta_división_edad" sheetId="2" r:id="rId1"/>
@@ -17,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_división_edad!$A$6:$KD$87</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -145,13 +157,13 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998 - abril 2023</t>
+    <t>Enero 1998 - junio 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -839,32 +851,32 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="50">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -876,13 +888,13 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -891,28 +903,25 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,10 +939,10 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="34" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="20" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,29 +951,38 @@
     <xf numFmtId="3" fontId="20" fillId="34" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="36" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="36" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -983,15 +1001,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1313,410 +1322,540 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KU89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:KW89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="KK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KP96" sqref="KP96"/>
+      <selection pane="topRight" activeCell="KV90" sqref="KV90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.21875" style="5" customWidth="1"/>
     <col min="2" max="2" width="38.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="306" width="11.88671875" style="1" customWidth="1"/>
-    <col min="307" max="16384" width="11.33203125" style="1"/>
+    <col min="3" max="10" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="46" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="58" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="70" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="82" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="94" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="106" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="118" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="130" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="135" max="142" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="147" max="154" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="166" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="171" max="178" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="183" max="190" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="195" max="202" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="207" max="214" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="219" max="226" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="238" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="243" max="250" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="255" max="262" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="274" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="279" max="286" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="291" max="298" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="303" max="308" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="309" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:306" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:308" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:306" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:308" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
     </row>
-    <row r="3" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:306" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:308" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="47">
         <v>1998</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="45">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="47">
         <v>1999</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="45">
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="47">
         <v>2000</v>
       </c>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="45">
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="47">
         <v>2001</v>
       </c>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="45">
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="47">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="45">
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="49"/>
+      <c r="BK5" s="47">
         <v>2003</v>
       </c>
-      <c r="BL5" s="46"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="46"/>
-      <c r="BO5" s="46"/>
-      <c r="BP5" s="46"/>
-      <c r="BQ5" s="46"/>
-      <c r="BR5" s="46"/>
-      <c r="BS5" s="46"/>
-      <c r="BT5" s="46"/>
-      <c r="BU5" s="46"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="45">
+      <c r="BL5" s="48"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="48"/>
+      <c r="BO5" s="48"/>
+      <c r="BP5" s="48"/>
+      <c r="BQ5" s="48"/>
+      <c r="BR5" s="48"/>
+      <c r="BS5" s="48"/>
+      <c r="BT5" s="48"/>
+      <c r="BU5" s="48"/>
+      <c r="BV5" s="49"/>
+      <c r="BW5" s="47">
         <v>2004</v>
       </c>
-      <c r="BX5" s="46"/>
-      <c r="BY5" s="46"/>
-      <c r="BZ5" s="46"/>
-      <c r="CA5" s="46"/>
-      <c r="CB5" s="46"/>
-      <c r="CC5" s="46"/>
-      <c r="CD5" s="46"/>
-      <c r="CE5" s="46"/>
-      <c r="CF5" s="46"/>
-      <c r="CG5" s="46"/>
-      <c r="CH5" s="47"/>
-      <c r="CI5" s="45">
+      <c r="BX5" s="48"/>
+      <c r="BY5" s="48"/>
+      <c r="BZ5" s="48"/>
+      <c r="CA5" s="48"/>
+      <c r="CB5" s="48"/>
+      <c r="CC5" s="48"/>
+      <c r="CD5" s="48"/>
+      <c r="CE5" s="48"/>
+      <c r="CF5" s="48"/>
+      <c r="CG5" s="48"/>
+      <c r="CH5" s="49"/>
+      <c r="CI5" s="47">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="46"/>
-      <c r="CK5" s="46"/>
-      <c r="CL5" s="46"/>
-      <c r="CM5" s="46"/>
-      <c r="CN5" s="46"/>
-      <c r="CO5" s="46"/>
-      <c r="CP5" s="46"/>
-      <c r="CQ5" s="46"/>
-      <c r="CR5" s="46"/>
-      <c r="CS5" s="46"/>
-      <c r="CT5" s="47"/>
-      <c r="CU5" s="45">
+      <c r="CJ5" s="48"/>
+      <c r="CK5" s="48"/>
+      <c r="CL5" s="48"/>
+      <c r="CM5" s="48"/>
+      <c r="CN5" s="48"/>
+      <c r="CO5" s="48"/>
+      <c r="CP5" s="48"/>
+      <c r="CQ5" s="48"/>
+      <c r="CR5" s="48"/>
+      <c r="CS5" s="48"/>
+      <c r="CT5" s="49"/>
+      <c r="CU5" s="47">
         <v>2006</v>
       </c>
-      <c r="CV5" s="46"/>
-      <c r="CW5" s="46"/>
-      <c r="CX5" s="46"/>
-      <c r="CY5" s="46"/>
-      <c r="CZ5" s="46"/>
-      <c r="DA5" s="46"/>
-      <c r="DB5" s="46"/>
-      <c r="DC5" s="46"/>
-      <c r="DD5" s="46"/>
-      <c r="DE5" s="46"/>
-      <c r="DF5" s="47"/>
-      <c r="DG5" s="45">
+      <c r="CV5" s="48"/>
+      <c r="CW5" s="48"/>
+      <c r="CX5" s="48"/>
+      <c r="CY5" s="48"/>
+      <c r="CZ5" s="48"/>
+      <c r="DA5" s="48"/>
+      <c r="DB5" s="48"/>
+      <c r="DC5" s="48"/>
+      <c r="DD5" s="48"/>
+      <c r="DE5" s="48"/>
+      <c r="DF5" s="49"/>
+      <c r="DG5" s="47">
         <v>2007</v>
       </c>
-      <c r="DH5" s="46"/>
-      <c r="DI5" s="46"/>
-      <c r="DJ5" s="46"/>
-      <c r="DK5" s="46"/>
-      <c r="DL5" s="46"/>
-      <c r="DM5" s="46"/>
-      <c r="DN5" s="46"/>
-      <c r="DO5" s="46"/>
-      <c r="DP5" s="46"/>
-      <c r="DQ5" s="46"/>
-      <c r="DR5" s="47"/>
-      <c r="DS5" s="45">
+      <c r="DH5" s="48"/>
+      <c r="DI5" s="48"/>
+      <c r="DJ5" s="48"/>
+      <c r="DK5" s="48"/>
+      <c r="DL5" s="48"/>
+      <c r="DM5" s="48"/>
+      <c r="DN5" s="48"/>
+      <c r="DO5" s="48"/>
+      <c r="DP5" s="48"/>
+      <c r="DQ5" s="48"/>
+      <c r="DR5" s="49"/>
+      <c r="DS5" s="47">
         <v>2008</v>
       </c>
-      <c r="DT5" s="46"/>
-      <c r="DU5" s="46"/>
-      <c r="DV5" s="46"/>
-      <c r="DW5" s="46"/>
-      <c r="DX5" s="46"/>
-      <c r="DY5" s="46"/>
-      <c r="DZ5" s="46"/>
-      <c r="EA5" s="46"/>
-      <c r="EB5" s="46"/>
-      <c r="EC5" s="46"/>
-      <c r="ED5" s="47"/>
-      <c r="EE5" s="45">
+      <c r="DT5" s="48"/>
+      <c r="DU5" s="48"/>
+      <c r="DV5" s="48"/>
+      <c r="DW5" s="48"/>
+      <c r="DX5" s="48"/>
+      <c r="DY5" s="48"/>
+      <c r="DZ5" s="48"/>
+      <c r="EA5" s="48"/>
+      <c r="EB5" s="48"/>
+      <c r="EC5" s="48"/>
+      <c r="ED5" s="49"/>
+      <c r="EE5" s="47">
         <v>2009</v>
       </c>
-      <c r="EF5" s="46"/>
-      <c r="EG5" s="46"/>
-      <c r="EH5" s="46"/>
-      <c r="EI5" s="46"/>
-      <c r="EJ5" s="46"/>
-      <c r="EK5" s="46"/>
-      <c r="EL5" s="46"/>
-      <c r="EM5" s="46"/>
-      <c r="EN5" s="46"/>
-      <c r="EO5" s="46"/>
-      <c r="EP5" s="47"/>
-      <c r="EQ5" s="45">
+      <c r="EF5" s="48"/>
+      <c r="EG5" s="48"/>
+      <c r="EH5" s="48"/>
+      <c r="EI5" s="48"/>
+      <c r="EJ5" s="48"/>
+      <c r="EK5" s="48"/>
+      <c r="EL5" s="48"/>
+      <c r="EM5" s="48"/>
+      <c r="EN5" s="48"/>
+      <c r="EO5" s="48"/>
+      <c r="EP5" s="49"/>
+      <c r="EQ5" s="47">
         <v>2010</v>
       </c>
-      <c r="ER5" s="46"/>
-      <c r="ES5" s="46"/>
-      <c r="ET5" s="46"/>
-      <c r="EU5" s="46"/>
-      <c r="EV5" s="46"/>
-      <c r="EW5" s="46"/>
-      <c r="EX5" s="46"/>
-      <c r="EY5" s="46"/>
-      <c r="EZ5" s="46"/>
-      <c r="FA5" s="46"/>
-      <c r="FB5" s="47"/>
-      <c r="FC5" s="45">
+      <c r="ER5" s="48"/>
+      <c r="ES5" s="48"/>
+      <c r="ET5" s="48"/>
+      <c r="EU5" s="48"/>
+      <c r="EV5" s="48"/>
+      <c r="EW5" s="48"/>
+      <c r="EX5" s="48"/>
+      <c r="EY5" s="48"/>
+      <c r="EZ5" s="48"/>
+      <c r="FA5" s="48"/>
+      <c r="FB5" s="49"/>
+      <c r="FC5" s="47">
         <v>2011</v>
       </c>
-      <c r="FD5" s="46"/>
-      <c r="FE5" s="46"/>
-      <c r="FF5" s="46"/>
-      <c r="FG5" s="46"/>
-      <c r="FH5" s="46"/>
-      <c r="FI5" s="46"/>
-      <c r="FJ5" s="46"/>
-      <c r="FK5" s="46"/>
-      <c r="FL5" s="46"/>
-      <c r="FM5" s="46"/>
-      <c r="FN5" s="47"/>
-      <c r="FO5" s="45">
+      <c r="FD5" s="48"/>
+      <c r="FE5" s="48"/>
+      <c r="FF5" s="48"/>
+      <c r="FG5" s="48"/>
+      <c r="FH5" s="48"/>
+      <c r="FI5" s="48"/>
+      <c r="FJ5" s="48"/>
+      <c r="FK5" s="48"/>
+      <c r="FL5" s="48"/>
+      <c r="FM5" s="48"/>
+      <c r="FN5" s="49"/>
+      <c r="FO5" s="47">
         <v>2012</v>
       </c>
-      <c r="FP5" s="46"/>
-      <c r="FQ5" s="46"/>
-      <c r="FR5" s="46"/>
-      <c r="FS5" s="46"/>
-      <c r="FT5" s="46"/>
-      <c r="FU5" s="46"/>
-      <c r="FV5" s="46"/>
-      <c r="FW5" s="46"/>
-      <c r="FX5" s="46"/>
-      <c r="FY5" s="46"/>
-      <c r="FZ5" s="47"/>
-      <c r="GA5" s="45">
+      <c r="FP5" s="48"/>
+      <c r="FQ5" s="48"/>
+      <c r="FR5" s="48"/>
+      <c r="FS5" s="48"/>
+      <c r="FT5" s="48"/>
+      <c r="FU5" s="48"/>
+      <c r="FV5" s="48"/>
+      <c r="FW5" s="48"/>
+      <c r="FX5" s="48"/>
+      <c r="FY5" s="48"/>
+      <c r="FZ5" s="49"/>
+      <c r="GA5" s="47">
         <v>2013</v>
       </c>
-      <c r="GB5" s="46"/>
-      <c r="GC5" s="46"/>
-      <c r="GD5" s="46"/>
-      <c r="GE5" s="46"/>
-      <c r="GF5" s="46"/>
-      <c r="GG5" s="46"/>
-      <c r="GH5" s="46"/>
-      <c r="GI5" s="46"/>
-      <c r="GJ5" s="46"/>
-      <c r="GK5" s="46"/>
-      <c r="GL5" s="47"/>
-      <c r="GM5" s="45">
+      <c r="GB5" s="48"/>
+      <c r="GC5" s="48"/>
+      <c r="GD5" s="48"/>
+      <c r="GE5" s="48"/>
+      <c r="GF5" s="48"/>
+      <c r="GG5" s="48"/>
+      <c r="GH5" s="48"/>
+      <c r="GI5" s="48"/>
+      <c r="GJ5" s="48"/>
+      <c r="GK5" s="48"/>
+      <c r="GL5" s="49"/>
+      <c r="GM5" s="47">
         <v>2014</v>
       </c>
-      <c r="GN5" s="46"/>
-      <c r="GO5" s="46"/>
-      <c r="GP5" s="46"/>
-      <c r="GQ5" s="46"/>
-      <c r="GR5" s="46"/>
-      <c r="GS5" s="46"/>
-      <c r="GT5" s="46"/>
-      <c r="GU5" s="46"/>
-      <c r="GV5" s="46"/>
-      <c r="GW5" s="46"/>
-      <c r="GX5" s="47"/>
-      <c r="GY5" s="45">
+      <c r="GN5" s="48"/>
+      <c r="GO5" s="48"/>
+      <c r="GP5" s="48"/>
+      <c r="GQ5" s="48"/>
+      <c r="GR5" s="48"/>
+      <c r="GS5" s="48"/>
+      <c r="GT5" s="48"/>
+      <c r="GU5" s="48"/>
+      <c r="GV5" s="48"/>
+      <c r="GW5" s="48"/>
+      <c r="GX5" s="49"/>
+      <c r="GY5" s="47">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="46"/>
-      <c r="HA5" s="46"/>
-      <c r="HB5" s="46"/>
-      <c r="HC5" s="46"/>
-      <c r="HD5" s="46"/>
-      <c r="HE5" s="46"/>
-      <c r="HF5" s="46"/>
-      <c r="HG5" s="46"/>
-      <c r="HH5" s="46"/>
-      <c r="HI5" s="46"/>
-      <c r="HJ5" s="47"/>
-      <c r="HK5" s="45">
+      <c r="GZ5" s="48"/>
+      <c r="HA5" s="48"/>
+      <c r="HB5" s="48"/>
+      <c r="HC5" s="48"/>
+      <c r="HD5" s="48"/>
+      <c r="HE5" s="48"/>
+      <c r="HF5" s="48"/>
+      <c r="HG5" s="48"/>
+      <c r="HH5" s="48"/>
+      <c r="HI5" s="48"/>
+      <c r="HJ5" s="49"/>
+      <c r="HK5" s="47">
         <v>2016</v>
       </c>
-      <c r="HL5" s="46"/>
-      <c r="HM5" s="46"/>
-      <c r="HN5" s="46"/>
-      <c r="HO5" s="46"/>
-      <c r="HP5" s="46"/>
-      <c r="HQ5" s="46"/>
-      <c r="HR5" s="46"/>
-      <c r="HS5" s="46"/>
-      <c r="HT5" s="46"/>
-      <c r="HU5" s="46"/>
-      <c r="HV5" s="47"/>
-      <c r="HW5" s="45">
+      <c r="HL5" s="48"/>
+      <c r="HM5" s="48"/>
+      <c r="HN5" s="48"/>
+      <c r="HO5" s="48"/>
+      <c r="HP5" s="48"/>
+      <c r="HQ5" s="48"/>
+      <c r="HR5" s="48"/>
+      <c r="HS5" s="48"/>
+      <c r="HT5" s="48"/>
+      <c r="HU5" s="48"/>
+      <c r="HV5" s="49"/>
+      <c r="HW5" s="47">
         <v>2017</v>
       </c>
-      <c r="HX5" s="46"/>
-      <c r="HY5" s="46"/>
-      <c r="HZ5" s="46"/>
-      <c r="IA5" s="46"/>
-      <c r="IB5" s="46"/>
-      <c r="IC5" s="46"/>
-      <c r="ID5" s="46"/>
-      <c r="IE5" s="46"/>
-      <c r="IF5" s="46"/>
-      <c r="IG5" s="46"/>
-      <c r="IH5" s="47"/>
-      <c r="II5" s="45">
+      <c r="HX5" s="48"/>
+      <c r="HY5" s="48"/>
+      <c r="HZ5" s="48"/>
+      <c r="IA5" s="48"/>
+      <c r="IB5" s="48"/>
+      <c r="IC5" s="48"/>
+      <c r="ID5" s="48"/>
+      <c r="IE5" s="48"/>
+      <c r="IF5" s="48"/>
+      <c r="IG5" s="48"/>
+      <c r="IH5" s="49"/>
+      <c r="II5" s="47">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="46"/>
-      <c r="IK5" s="46"/>
-      <c r="IL5" s="46"/>
-      <c r="IM5" s="46"/>
-      <c r="IN5" s="46"/>
-      <c r="IO5" s="46"/>
-      <c r="IP5" s="46"/>
-      <c r="IQ5" s="46"/>
-      <c r="IR5" s="46"/>
-      <c r="IS5" s="46"/>
-      <c r="IT5" s="47"/>
-      <c r="IU5" s="45">
+      <c r="IJ5" s="48"/>
+      <c r="IK5" s="48"/>
+      <c r="IL5" s="48"/>
+      <c r="IM5" s="48"/>
+      <c r="IN5" s="48"/>
+      <c r="IO5" s="48"/>
+      <c r="IP5" s="48"/>
+      <c r="IQ5" s="48"/>
+      <c r="IR5" s="48"/>
+      <c r="IS5" s="48"/>
+      <c r="IT5" s="49"/>
+      <c r="IU5" s="47">
         <v>2019</v>
       </c>
-      <c r="IV5" s="46"/>
-      <c r="IW5" s="46"/>
-      <c r="IX5" s="46"/>
-      <c r="IY5" s="46"/>
-      <c r="IZ5" s="46"/>
-      <c r="JA5" s="46"/>
-      <c r="JB5" s="46"/>
-      <c r="JC5" s="46"/>
-      <c r="JD5" s="46"/>
-      <c r="JE5" s="46"/>
-      <c r="JF5" s="47"/>
-      <c r="JG5" s="45">
+      <c r="IV5" s="48"/>
+      <c r="IW5" s="48"/>
+      <c r="IX5" s="48"/>
+      <c r="IY5" s="48"/>
+      <c r="IZ5" s="48"/>
+      <c r="JA5" s="48"/>
+      <c r="JB5" s="48"/>
+      <c r="JC5" s="48"/>
+      <c r="JD5" s="48"/>
+      <c r="JE5" s="48"/>
+      <c r="JF5" s="49"/>
+      <c r="JG5" s="47">
         <v>2020</v>
       </c>
-      <c r="JH5" s="46"/>
-      <c r="JI5" s="46"/>
-      <c r="JJ5" s="46"/>
-      <c r="JK5" s="46"/>
-      <c r="JL5" s="46"/>
-      <c r="JM5" s="46"/>
-      <c r="JN5" s="46"/>
-      <c r="JO5" s="46"/>
-      <c r="JP5" s="46"/>
-      <c r="JQ5" s="46"/>
-      <c r="JR5" s="47"/>
-      <c r="JS5" s="45">
+      <c r="JH5" s="48"/>
+      <c r="JI5" s="48"/>
+      <c r="JJ5" s="48"/>
+      <c r="JK5" s="48"/>
+      <c r="JL5" s="48"/>
+      <c r="JM5" s="48"/>
+      <c r="JN5" s="48"/>
+      <c r="JO5" s="48"/>
+      <c r="JP5" s="48"/>
+      <c r="JQ5" s="48"/>
+      <c r="JR5" s="49"/>
+      <c r="JS5" s="47">
         <v>2021</v>
       </c>
-      <c r="JT5" s="46"/>
-      <c r="JU5" s="46"/>
-      <c r="JV5" s="46"/>
-      <c r="JW5" s="46"/>
-      <c r="JX5" s="46"/>
-      <c r="JY5" s="46"/>
-      <c r="JZ5" s="46"/>
-      <c r="KA5" s="46"/>
-      <c r="KB5" s="46"/>
-      <c r="KC5" s="46"/>
-      <c r="KD5" s="46"/>
-      <c r="KE5" s="45">
+      <c r="JT5" s="48"/>
+      <c r="JU5" s="48"/>
+      <c r="JV5" s="48"/>
+      <c r="JW5" s="48"/>
+      <c r="JX5" s="48"/>
+      <c r="JY5" s="48"/>
+      <c r="JZ5" s="48"/>
+      <c r="KA5" s="48"/>
+      <c r="KB5" s="48"/>
+      <c r="KC5" s="48"/>
+      <c r="KD5" s="48"/>
+      <c r="KE5" s="47">
         <v>2022</v>
       </c>
-      <c r="KF5" s="46"/>
-      <c r="KG5" s="46"/>
-      <c r="KH5" s="46"/>
-      <c r="KI5" s="46"/>
-      <c r="KJ5" s="46"/>
-      <c r="KK5" s="46"/>
-      <c r="KL5" s="46"/>
-      <c r="KM5" s="46"/>
-      <c r="KN5" s="46"/>
-      <c r="KO5" s="46"/>
-      <c r="KP5" s="47"/>
-      <c r="KQ5" s="45">
+      <c r="KF5" s="48"/>
+      <c r="KG5" s="48"/>
+      <c r="KH5" s="48"/>
+      <c r="KI5" s="48"/>
+      <c r="KJ5" s="48"/>
+      <c r="KK5" s="48"/>
+      <c r="KL5" s="48"/>
+      <c r="KM5" s="48"/>
+      <c r="KN5" s="48"/>
+      <c r="KO5" s="48"/>
+      <c r="KP5" s="49"/>
+      <c r="KQ5" s="47">
         <v>2023</v>
       </c>
-      <c r="KR5" s="46"/>
-      <c r="KS5" s="46"/>
-      <c r="KT5" s="47"/>
+      <c r="KR5" s="48"/>
+      <c r="KS5" s="48"/>
+      <c r="KT5" s="48"/>
+      <c r="KU5" s="48"/>
+      <c r="KV5" s="49"/>
     </row>
-    <row r="6" spans="1:306" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+    <row r="6" spans="1:308" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2617,20 +2756,26 @@
       <c r="KP6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="KQ6" s="48" t="s">
+      <c r="KQ6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="KR6" s="49" t="s">
+      <c r="KR6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="KS6" s="49" t="s">
+      <c r="KS6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="KT6" s="50" t="s">
+      <c r="KT6" s="42" t="s">
         <v>11</v>
       </c>
+      <c r="KU6" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="KV6" s="43" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:306" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:308" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3501,56 +3646,62 @@
       <c r="KD7" s="8">
         <v>116251</v>
       </c>
-      <c r="KE7" s="30">
+      <c r="KE7" s="29">
         <v>121583</v>
       </c>
-      <c r="KF7" s="38">
+      <c r="KF7" s="37">
         <v>123302</v>
       </c>
-      <c r="KG7" s="38">
+      <c r="KG7" s="37">
         <v>124917</v>
       </c>
-      <c r="KH7" s="38">
+      <c r="KH7" s="37">
         <v>120707</v>
       </c>
-      <c r="KI7" s="38">
+      <c r="KI7" s="37">
         <v>116527</v>
       </c>
-      <c r="KJ7" s="38">
+      <c r="KJ7" s="37">
         <v>114765</v>
       </c>
-      <c r="KK7" s="38">
+      <c r="KK7" s="37">
         <v>112865</v>
       </c>
-      <c r="KL7" s="38">
+      <c r="KL7" s="37">
         <v>115219</v>
       </c>
-      <c r="KM7" s="38">
+      <c r="KM7" s="37">
         <v>119089</v>
       </c>
-      <c r="KN7" s="38">
+      <c r="KN7" s="37">
         <v>121255</v>
       </c>
-      <c r="KO7" s="38">
+      <c r="KO7" s="37">
         <v>120917</v>
       </c>
-      <c r="KP7" s="38">
+      <c r="KP7" s="37">
         <v>118708</v>
       </c>
-      <c r="KQ7" s="30">
+      <c r="KQ7" s="29">
         <v>125411</v>
       </c>
-      <c r="KR7" s="38">
+      <c r="KR7" s="37">
         <v>126199</v>
       </c>
-      <c r="KS7" s="38">
+      <c r="KS7" s="37">
         <v>126571</v>
       </c>
-      <c r="KT7" s="31">
+      <c r="KT7" s="37">
         <v>123159</v>
       </c>
+      <c r="KU7" s="37">
+        <v>120101</v>
+      </c>
+      <c r="KV7" s="30">
+        <v>118854</v>
+      </c>
     </row>
-    <row r="8" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4464,11 +4615,17 @@
       <c r="KS8" s="3">
         <v>24607</v>
       </c>
-      <c r="KT8" s="4">
+      <c r="KT8" s="3">
         <v>24157</v>
       </c>
+      <c r="KU8" s="3">
+        <v>23731</v>
+      </c>
+      <c r="KV8" s="4">
+        <v>23665</v>
+      </c>
     </row>
-    <row r="9" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5382,11 +5539,17 @@
       <c r="KS9" s="3">
         <v>5885</v>
       </c>
-      <c r="KT9" s="4">
+      <c r="KT9" s="3">
         <v>5489</v>
       </c>
+      <c r="KU9" s="3">
+        <v>5267</v>
+      </c>
+      <c r="KV9" s="4">
+        <v>5325</v>
+      </c>
     </row>
-    <row r="10" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6300,11 +6463,17 @@
       <c r="KS10" s="3">
         <v>19196</v>
       </c>
-      <c r="KT10" s="4">
+      <c r="KT10" s="3">
         <v>18580</v>
       </c>
+      <c r="KU10" s="3">
+        <v>17937</v>
+      </c>
+      <c r="KV10" s="4">
+        <v>17708</v>
+      </c>
     </row>
-    <row r="11" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7218,11 +7387,17 @@
       <c r="KS11" s="3">
         <v>19251</v>
       </c>
-      <c r="KT11" s="4">
+      <c r="KT11" s="3">
         <v>18618</v>
       </c>
+      <c r="KU11" s="3">
+        <v>18113</v>
+      </c>
+      <c r="KV11" s="4">
+        <v>17734</v>
+      </c>
     </row>
-    <row r="12" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -8136,11 +8311,17 @@
       <c r="KS12" s="3">
         <v>17274</v>
       </c>
-      <c r="KT12" s="4">
+      <c r="KT12" s="3">
         <v>16841</v>
       </c>
+      <c r="KU12" s="3">
+        <v>16561</v>
+      </c>
+      <c r="KV12" s="4">
+        <v>16341</v>
+      </c>
     </row>
-    <row r="13" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -9054,11 +9235,17 @@
       <c r="KS13" s="3">
         <v>14872</v>
       </c>
-      <c r="KT13" s="4">
+      <c r="KT13" s="3">
         <v>14608</v>
       </c>
+      <c r="KU13" s="3">
+        <v>14285</v>
+      </c>
+      <c r="KV13" s="4">
+        <v>14105</v>
+      </c>
     </row>
-    <row r="14" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -9972,11 +10159,17 @@
       <c r="KS14" s="3">
         <v>13228</v>
       </c>
-      <c r="KT14" s="4">
+      <c r="KT14" s="3">
         <v>12951</v>
       </c>
+      <c r="KU14" s="3">
+        <v>12625</v>
+      </c>
+      <c r="KV14" s="4">
+        <v>12468</v>
+      </c>
     </row>
-    <row r="15" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -10890,11 +11083,17 @@
       <c r="KS15" s="3">
         <v>12247</v>
       </c>
-      <c r="KT15" s="4">
+      <c r="KT15" s="3">
         <v>11906</v>
       </c>
+      <c r="KU15" s="3">
+        <v>11575</v>
+      </c>
+      <c r="KV15" s="4">
+        <v>11502</v>
+      </c>
     </row>
-    <row r="16" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -11763,56 +11962,62 @@
       <c r="KD16" s="3">
         <v>6</v>
       </c>
-      <c r="KE16" s="36">
+      <c r="KE16" s="35">
         <v>7</v>
       </c>
-      <c r="KF16" s="39">
+      <c r="KF16" s="38">
         <v>8</v>
       </c>
-      <c r="KG16" s="39">
+      <c r="KG16" s="38">
         <v>8</v>
       </c>
-      <c r="KH16" s="39">
+      <c r="KH16" s="38">
         <v>10</v>
       </c>
-      <c r="KI16" s="39">
+      <c r="KI16" s="38">
         <v>13</v>
       </c>
-      <c r="KJ16" s="39">
+      <c r="KJ16" s="38">
         <v>14</v>
       </c>
-      <c r="KK16" s="39">
+      <c r="KK16" s="38">
         <v>9</v>
       </c>
-      <c r="KL16" s="39">
+      <c r="KL16" s="38">
         <v>7</v>
       </c>
-      <c r="KM16" s="39">
+      <c r="KM16" s="38">
         <v>9</v>
       </c>
-      <c r="KN16" s="39">
+      <c r="KN16" s="38">
         <v>10</v>
       </c>
-      <c r="KO16" s="39">
+      <c r="KO16" s="38">
         <v>9</v>
       </c>
-      <c r="KP16" s="39">
+      <c r="KP16" s="38">
         <v>7</v>
       </c>
-      <c r="KQ16" s="36">
+      <c r="KQ16" s="35">
         <v>10</v>
       </c>
-      <c r="KR16" s="39">
+      <c r="KR16" s="38">
         <v>11</v>
       </c>
-      <c r="KS16" s="39">
+      <c r="KS16" s="38">
         <v>11</v>
       </c>
-      <c r="KT16" s="37">
+      <c r="KT16" s="38">
         <v>9</v>
       </c>
+      <c r="KU16" s="38">
+        <v>7</v>
+      </c>
+      <c r="KV16" s="36">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12683,56 +12888,62 @@
       <c r="KD17" s="8">
         <v>388949</v>
       </c>
-      <c r="KE17" s="30">
+      <c r="KE17" s="29">
         <v>388222</v>
       </c>
-      <c r="KF17" s="38">
+      <c r="KF17" s="37">
         <v>388746</v>
       </c>
-      <c r="KG17" s="38">
+      <c r="KG17" s="37">
         <v>389036</v>
       </c>
-      <c r="KH17" s="38">
+      <c r="KH17" s="37">
         <v>389372</v>
       </c>
-      <c r="KI17" s="38">
+      <c r="KI17" s="37">
         <v>390157</v>
       </c>
-      <c r="KJ17" s="38">
+      <c r="KJ17" s="37">
         <v>393243</v>
       </c>
-      <c r="KK17" s="38">
+      <c r="KK17" s="37">
         <v>392581</v>
       </c>
-      <c r="KL17" s="38">
+      <c r="KL17" s="37">
         <v>394460</v>
       </c>
-      <c r="KM17" s="38">
+      <c r="KM17" s="37">
         <v>397012</v>
       </c>
-      <c r="KN17" s="38">
+      <c r="KN17" s="37">
         <v>402868</v>
       </c>
-      <c r="KO17" s="38">
+      <c r="KO17" s="37">
         <v>403989</v>
       </c>
-      <c r="KP17" s="38">
+      <c r="KP17" s="37">
         <v>399607</v>
       </c>
-      <c r="KQ17" s="30">
+      <c r="KQ17" s="29">
         <v>397405</v>
       </c>
-      <c r="KR17" s="38">
+      <c r="KR17" s="37">
         <v>399812</v>
       </c>
-      <c r="KS17" s="38">
+      <c r="KS17" s="37">
         <v>402175</v>
       </c>
-      <c r="KT17" s="31">
+      <c r="KT17" s="37">
         <v>404779</v>
       </c>
+      <c r="KU17" s="37">
+        <v>405961</v>
+      </c>
+      <c r="KV17" s="30">
+        <v>409197</v>
+      </c>
     </row>
-    <row r="18" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13646,11 +13857,17 @@
       <c r="KS18" s="3">
         <v>64481</v>
       </c>
-      <c r="KT18" s="4">
+      <c r="KT18" s="3">
         <v>65019</v>
       </c>
+      <c r="KU18" s="3">
+        <v>65605</v>
+      </c>
+      <c r="KV18" s="4">
+        <v>66510</v>
+      </c>
     </row>
-    <row r="19" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14564,11 +14781,17 @@
       <c r="KS19" s="3">
         <v>10754</v>
       </c>
-      <c r="KT19" s="4">
+      <c r="KT19" s="3">
         <v>10768</v>
       </c>
+      <c r="KU19" s="3">
+        <v>10742</v>
+      </c>
+      <c r="KV19" s="4">
+        <v>11299</v>
+      </c>
     </row>
-    <row r="20" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15482,11 +15705,17 @@
       <c r="KS20" s="3">
         <v>54414</v>
       </c>
-      <c r="KT20" s="4">
+      <c r="KT20" s="3">
         <v>54530</v>
       </c>
+      <c r="KU20" s="3">
+        <v>54709</v>
+      </c>
+      <c r="KV20" s="4">
+        <v>55536</v>
+      </c>
     </row>
-    <row r="21" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -16400,11 +16629,17 @@
       <c r="KS21" s="3">
         <v>65776</v>
       </c>
-      <c r="KT21" s="4">
+      <c r="KT21" s="3">
         <v>66160</v>
       </c>
+      <c r="KU21" s="3">
+        <v>66416</v>
+      </c>
+      <c r="KV21" s="4">
+        <v>66659</v>
+      </c>
     </row>
-    <row r="22" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -17318,11 +17553,17 @@
       <c r="KS22" s="3">
         <v>64570</v>
       </c>
-      <c r="KT22" s="4">
+      <c r="KT22" s="3">
         <v>64741</v>
       </c>
+      <c r="KU22" s="3">
+        <v>64798</v>
+      </c>
+      <c r="KV22" s="4">
+        <v>64838</v>
+      </c>
     </row>
-    <row r="23" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -18236,11 +18477,17 @@
       <c r="KS23" s="3">
         <v>56359</v>
       </c>
-      <c r="KT23" s="4">
+      <c r="KT23" s="3">
         <v>56863</v>
       </c>
+      <c r="KU23" s="3">
+        <v>56799</v>
+      </c>
+      <c r="KV23" s="4">
+        <v>56980</v>
+      </c>
     </row>
-    <row r="24" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -19154,11 +19401,17 @@
       <c r="KS24" s="3">
         <v>46742</v>
       </c>
-      <c r="KT24" s="4">
+      <c r="KT24" s="3">
         <v>47224</v>
       </c>
+      <c r="KU24" s="3">
+        <v>47385</v>
+      </c>
+      <c r="KV24" s="4">
+        <v>47700</v>
+      </c>
     </row>
-    <row r="25" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -20072,11 +20325,17 @@
       <c r="KS25" s="3">
         <v>39079</v>
       </c>
-      <c r="KT25" s="4">
+      <c r="KT25" s="3">
         <v>39473</v>
       </c>
+      <c r="KU25" s="3">
+        <v>39506</v>
+      </c>
+      <c r="KV25" s="4">
+        <v>39671</v>
+      </c>
     </row>
-    <row r="26" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -20941,50 +21200,56 @@
         <v>1</v>
       </c>
       <c r="KD26" s="3"/>
-      <c r="KE26" s="36"/>
-      <c r="KF26" s="39">
+      <c r="KE26" s="35"/>
+      <c r="KF26" s="38">
         <v>2</v>
       </c>
-      <c r="KG26" s="39">
+      <c r="KG26" s="38">
         <v>3</v>
       </c>
-      <c r="KH26" s="39">
+      <c r="KH26" s="38">
         <v>3</v>
       </c>
-      <c r="KI26" s="39">
+      <c r="KI26" s="38">
         <v>5</v>
       </c>
-      <c r="KJ26" s="39">
+      <c r="KJ26" s="38">
         <v>2</v>
       </c>
-      <c r="KK26" s="39">
+      <c r="KK26" s="38">
         <v>1</v>
       </c>
-      <c r="KL26" s="39"/>
-      <c r="KM26" s="39">
+      <c r="KL26" s="38"/>
+      <c r="KM26" s="38">
         <v>2</v>
       </c>
-      <c r="KN26" s="39">
+      <c r="KN26" s="38">
         <v>4</v>
       </c>
-      <c r="KO26" s="39">
+      <c r="KO26" s="38">
         <v>3</v>
       </c>
-      <c r="KP26" s="39">
+      <c r="KP26" s="38">
         <v>2</v>
       </c>
-      <c r="KQ26" s="36">
+      <c r="KQ26" s="35">
         <v>2</v>
       </c>
-      <c r="KR26" s="39">
+      <c r="KR26" s="38">
         <v>1</v>
       </c>
-      <c r="KS26" s="39"/>
-      <c r="KT26" s="37">
+      <c r="KS26" s="38"/>
+      <c r="KT26" s="38">
         <v>1</v>
       </c>
+      <c r="KU26" s="38">
+        <v>1</v>
+      </c>
+      <c r="KV26" s="36">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -21855,56 +22120,62 @@
       <c r="KD27" s="8">
         <v>134547</v>
       </c>
-      <c r="KE27" s="30">
+      <c r="KE27" s="29">
         <v>135688</v>
       </c>
-      <c r="KF27" s="38">
+      <c r="KF27" s="37">
         <v>136388</v>
       </c>
-      <c r="KG27" s="38">
+      <c r="KG27" s="37">
         <v>137344</v>
       </c>
-      <c r="KH27" s="38">
+      <c r="KH27" s="37">
         <v>137135</v>
       </c>
-      <c r="KI27" s="38">
+      <c r="KI27" s="37">
         <v>139462</v>
       </c>
-      <c r="KJ27" s="38">
+      <c r="KJ27" s="37">
         <v>140587</v>
       </c>
-      <c r="KK27" s="38">
+      <c r="KK27" s="37">
         <v>142342</v>
       </c>
-      <c r="KL27" s="38">
+      <c r="KL27" s="37">
         <v>144641</v>
       </c>
-      <c r="KM27" s="38">
+      <c r="KM27" s="37">
         <v>145163</v>
       </c>
-      <c r="KN27" s="38">
+      <c r="KN27" s="37">
         <v>150581</v>
       </c>
-      <c r="KO27" s="38">
+      <c r="KO27" s="37">
         <v>152128</v>
       </c>
-      <c r="KP27" s="38">
+      <c r="KP27" s="37">
         <v>145346</v>
       </c>
-      <c r="KQ27" s="30">
+      <c r="KQ27" s="29">
         <v>148827</v>
       </c>
-      <c r="KR27" s="38">
+      <c r="KR27" s="37">
         <v>150599</v>
       </c>
-      <c r="KS27" s="38">
+      <c r="KS27" s="37">
         <v>150009</v>
       </c>
-      <c r="KT27" s="31">
+      <c r="KT27" s="37">
         <v>149587</v>
       </c>
+      <c r="KU27" s="37">
+        <v>151152</v>
+      </c>
+      <c r="KV27" s="30">
+        <v>152849</v>
+      </c>
     </row>
-    <row r="28" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -22818,11 +23089,17 @@
       <c r="KS28" s="3">
         <v>28039</v>
       </c>
-      <c r="KT28" s="4">
+      <c r="KT28" s="3">
         <v>27720</v>
       </c>
+      <c r="KU28" s="3">
+        <v>27801</v>
+      </c>
+      <c r="KV28" s="4">
+        <v>28084</v>
+      </c>
     </row>
-    <row r="29" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -23736,11 +24013,17 @@
       <c r="KS29" s="3">
         <v>4747</v>
       </c>
-      <c r="KT29" s="4">
+      <c r="KT29" s="3">
         <v>4702</v>
       </c>
+      <c r="KU29" s="3">
+        <v>4786</v>
+      </c>
+      <c r="KV29" s="4">
+        <v>4862</v>
+      </c>
     </row>
-    <row r="30" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -24654,11 +24937,17 @@
       <c r="KS30" s="3">
         <v>18777</v>
       </c>
-      <c r="KT30" s="4">
+      <c r="KT30" s="3">
         <v>18752</v>
       </c>
+      <c r="KU30" s="3">
+        <v>19146</v>
+      </c>
+      <c r="KV30" s="4">
+        <v>19448</v>
+      </c>
     </row>
-    <row r="31" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -25572,11 +25861,17 @@
       <c r="KS31" s="3">
         <v>23702</v>
       </c>
-      <c r="KT31" s="4">
+      <c r="KT31" s="3">
         <v>23689</v>
       </c>
+      <c r="KU31" s="3">
+        <v>23943</v>
+      </c>
+      <c r="KV31" s="4">
+        <v>24406</v>
+      </c>
     </row>
-    <row r="32" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -26490,11 +26785,17 @@
       <c r="KS32" s="3">
         <v>22706</v>
       </c>
-      <c r="KT32" s="4">
+      <c r="KT32" s="3">
         <v>22545</v>
       </c>
+      <c r="KU32" s="3">
+        <v>22783</v>
+      </c>
+      <c r="KV32" s="4">
+        <v>22975</v>
+      </c>
     </row>
-    <row r="33" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -27408,11 +27709,17 @@
       <c r="KS33" s="3">
         <v>20010</v>
       </c>
-      <c r="KT33" s="4">
+      <c r="KT33" s="3">
         <v>19981</v>
       </c>
+      <c r="KU33" s="3">
+        <v>20184</v>
+      </c>
+      <c r="KV33" s="4">
+        <v>20346</v>
+      </c>
     </row>
-    <row r="34" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -28326,11 +28633,17 @@
       <c r="KS34" s="3">
         <v>17100</v>
       </c>
-      <c r="KT34" s="4">
+      <c r="KT34" s="3">
         <v>17237</v>
       </c>
+      <c r="KU34" s="3">
+        <v>17465</v>
+      </c>
+      <c r="KV34" s="4">
+        <v>17560</v>
+      </c>
     </row>
-    <row r="35" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -29244,11 +29557,17 @@
       <c r="KS35" s="3">
         <v>14912</v>
       </c>
-      <c r="KT35" s="4">
+      <c r="KT35" s="3">
         <v>14947</v>
       </c>
+      <c r="KU35" s="3">
+        <v>15030</v>
+      </c>
+      <c r="KV35" s="4">
+        <v>15150</v>
+      </c>
     </row>
-    <row r="36" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -30117,976 +30436,988 @@
       <c r="KD36" s="3">
         <v>23</v>
       </c>
-      <c r="KE36" s="36">
+      <c r="KE36" s="35">
         <v>21</v>
       </c>
-      <c r="KF36" s="39">
+      <c r="KF36" s="38">
         <v>21</v>
       </c>
-      <c r="KG36" s="39">
+      <c r="KG36" s="38">
         <v>21</v>
       </c>
-      <c r="KH36" s="39">
+      <c r="KH36" s="38">
         <v>20</v>
       </c>
-      <c r="KI36" s="39">
+      <c r="KI36" s="38">
         <v>15</v>
       </c>
-      <c r="KJ36" s="39">
+      <c r="KJ36" s="38">
         <v>16</v>
       </c>
-      <c r="KK36" s="39">
+      <c r="KK36" s="38">
         <v>20</v>
       </c>
-      <c r="KL36" s="39">
+      <c r="KL36" s="38">
         <v>23</v>
       </c>
-      <c r="KM36" s="39">
+      <c r="KM36" s="38">
         <v>22</v>
       </c>
-      <c r="KN36" s="39">
+      <c r="KN36" s="38">
         <v>20</v>
       </c>
-      <c r="KO36" s="39">
+      <c r="KO36" s="38">
         <v>15</v>
       </c>
-      <c r="KP36" s="39">
+      <c r="KP36" s="38">
         <v>15</v>
       </c>
-      <c r="KQ36" s="36">
+      <c r="KQ36" s="35">
         <v>13</v>
       </c>
-      <c r="KR36" s="39">
+      <c r="KR36" s="38">
         <v>12</v>
       </c>
-      <c r="KS36" s="39">
+      <c r="KS36" s="38">
         <v>16</v>
       </c>
-      <c r="KT36" s="37">
+      <c r="KT36" s="38">
         <v>14</v>
       </c>
+      <c r="KU36" s="38">
+        <v>14</v>
+      </c>
+      <c r="KV36" s="36">
+        <v>18</v>
+      </c>
     </row>
-    <row r="37" spans="1:306" s="29" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+    <row r="37" spans="1:308" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="25">
         <v>7246</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="26">
         <v>7117</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="26">
         <v>7374</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="26">
         <v>7442</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="26">
         <v>7381</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="26">
         <v>7414</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I37" s="26">
         <v>7460</v>
       </c>
-      <c r="J37" s="27">
+      <c r="J37" s="26">
         <v>7443</v>
       </c>
-      <c r="K37" s="27">
+      <c r="K37" s="26">
         <v>7415</v>
       </c>
-      <c r="L37" s="27">
+      <c r="L37" s="26">
         <v>7514</v>
       </c>
-      <c r="M37" s="27">
+      <c r="M37" s="26">
         <v>7646</v>
       </c>
-      <c r="N37" s="28">
+      <c r="N37" s="27">
         <v>7466</v>
       </c>
-      <c r="O37" s="26">
+      <c r="O37" s="25">
         <v>7298</v>
       </c>
-      <c r="P37" s="27">
+      <c r="P37" s="26">
         <v>7259</v>
       </c>
-      <c r="Q37" s="27">
+      <c r="Q37" s="26">
         <v>7527</v>
       </c>
-      <c r="R37" s="27">
+      <c r="R37" s="26">
         <v>7472</v>
       </c>
-      <c r="S37" s="27">
+      <c r="S37" s="26">
         <v>7486</v>
       </c>
-      <c r="T37" s="27">
+      <c r="T37" s="26">
         <v>7482</v>
       </c>
-      <c r="U37" s="27">
+      <c r="U37" s="26">
         <v>7539</v>
       </c>
-      <c r="V37" s="27">
+      <c r="V37" s="26">
         <v>7541</v>
       </c>
-      <c r="W37" s="27">
+      <c r="W37" s="26">
         <v>7420</v>
       </c>
-      <c r="X37" s="27">
+      <c r="X37" s="26">
         <v>7300</v>
       </c>
-      <c r="Y37" s="27">
+      <c r="Y37" s="26">
         <v>7362</v>
       </c>
-      <c r="Z37" s="28">
+      <c r="Z37" s="27">
         <v>7535</v>
       </c>
-      <c r="AA37" s="26">
+      <c r="AA37" s="25">
         <v>7276</v>
       </c>
-      <c r="AB37" s="27">
+      <c r="AB37" s="26">
         <v>7305</v>
       </c>
-      <c r="AC37" s="27">
+      <c r="AC37" s="26">
         <v>7337</v>
       </c>
-      <c r="AD37" s="27">
+      <c r="AD37" s="26">
         <v>7448</v>
       </c>
-      <c r="AE37" s="27">
+      <c r="AE37" s="26">
         <v>7473</v>
       </c>
-      <c r="AF37" s="27">
+      <c r="AF37" s="26">
         <v>7515</v>
       </c>
-      <c r="AG37" s="27">
+      <c r="AG37" s="26">
         <v>7620</v>
       </c>
-      <c r="AH37" s="27">
+      <c r="AH37" s="26">
         <v>7570</v>
       </c>
-      <c r="AI37" s="27">
+      <c r="AI37" s="26">
         <v>7451</v>
       </c>
-      <c r="AJ37" s="27">
+      <c r="AJ37" s="26">
         <v>7405</v>
       </c>
-      <c r="AK37" s="27">
+      <c r="AK37" s="26">
         <v>7226</v>
       </c>
-      <c r="AL37" s="28">
+      <c r="AL37" s="27">
         <v>7333</v>
       </c>
-      <c r="AM37" s="26">
+      <c r="AM37" s="25">
         <v>7225</v>
       </c>
-      <c r="AN37" s="27">
+      <c r="AN37" s="26">
         <v>7218</v>
       </c>
-      <c r="AO37" s="27">
+      <c r="AO37" s="26">
         <v>7290</v>
       </c>
-      <c r="AP37" s="27">
+      <c r="AP37" s="26">
         <v>7436</v>
       </c>
-      <c r="AQ37" s="27">
+      <c r="AQ37" s="26">
         <v>7486</v>
       </c>
-      <c r="AR37" s="27">
+      <c r="AR37" s="26">
         <v>7501</v>
       </c>
-      <c r="AS37" s="27">
+      <c r="AS37" s="26">
         <v>7528</v>
       </c>
-      <c r="AT37" s="27">
+      <c r="AT37" s="26">
         <v>7553</v>
       </c>
-      <c r="AU37" s="27">
+      <c r="AU37" s="26">
         <v>7466</v>
       </c>
-      <c r="AV37" s="27">
+      <c r="AV37" s="26">
         <v>7514</v>
       </c>
-      <c r="AW37" s="27">
+      <c r="AW37" s="26">
         <v>7519</v>
       </c>
-      <c r="AX37" s="28">
+      <c r="AX37" s="27">
         <v>7640</v>
       </c>
-      <c r="AY37" s="26">
+      <c r="AY37" s="25">
         <v>7566</v>
       </c>
-      <c r="AZ37" s="27">
+      <c r="AZ37" s="26">
         <v>7591</v>
       </c>
-      <c r="BA37" s="27">
+      <c r="BA37" s="26">
         <v>7638</v>
       </c>
-      <c r="BB37" s="27">
+      <c r="BB37" s="26">
         <v>7605</v>
       </c>
-      <c r="BC37" s="27">
+      <c r="BC37" s="26">
         <v>7544</v>
       </c>
-      <c r="BD37" s="27">
+      <c r="BD37" s="26">
         <v>7555</v>
       </c>
-      <c r="BE37" s="27">
+      <c r="BE37" s="26">
         <v>7576</v>
       </c>
-      <c r="BF37" s="27">
+      <c r="BF37" s="26">
         <v>7518</v>
       </c>
-      <c r="BG37" s="27">
+      <c r="BG37" s="26">
         <v>7404</v>
       </c>
-      <c r="BH37" s="27">
+      <c r="BH37" s="26">
         <v>7439</v>
       </c>
-      <c r="BI37" s="27">
+      <c r="BI37" s="26">
         <v>7424</v>
       </c>
-      <c r="BJ37" s="28">
+      <c r="BJ37" s="27">
         <v>7506</v>
       </c>
-      <c r="BK37" s="26">
+      <c r="BK37" s="25">
         <v>7471</v>
       </c>
-      <c r="BL37" s="27">
+      <c r="BL37" s="26">
         <v>7453</v>
       </c>
-      <c r="BM37" s="27">
+      <c r="BM37" s="26">
         <v>7484</v>
       </c>
-      <c r="BN37" s="27">
+      <c r="BN37" s="26">
         <v>7642</v>
       </c>
-      <c r="BO37" s="27">
+      <c r="BO37" s="26">
         <v>7603</v>
       </c>
-      <c r="BP37" s="27">
+      <c r="BP37" s="26">
         <v>7690</v>
       </c>
-      <c r="BQ37" s="27">
+      <c r="BQ37" s="26">
         <v>7908</v>
       </c>
-      <c r="BR37" s="27">
+      <c r="BR37" s="26">
         <v>7725</v>
       </c>
-      <c r="BS37" s="27">
+      <c r="BS37" s="26">
         <v>7720</v>
       </c>
-      <c r="BT37" s="27">
+      <c r="BT37" s="26">
         <v>7722</v>
       </c>
-      <c r="BU37" s="27">
+      <c r="BU37" s="26">
         <v>7572</v>
       </c>
-      <c r="BV37" s="28">
+      <c r="BV37" s="27">
         <v>7814</v>
       </c>
-      <c r="BW37" s="26">
+      <c r="BW37" s="25">
         <v>7584</v>
       </c>
-      <c r="BX37" s="27">
+      <c r="BX37" s="26">
         <v>7586</v>
       </c>
-      <c r="BY37" s="27">
+      <c r="BY37" s="26">
         <v>7706</v>
       </c>
-      <c r="BZ37" s="27">
+      <c r="BZ37" s="26">
         <v>7969</v>
       </c>
-      <c r="CA37" s="27">
+      <c r="CA37" s="26">
         <v>7995</v>
       </c>
-      <c r="CB37" s="27">
+      <c r="CB37" s="26">
         <v>8134</v>
       </c>
-      <c r="CC37" s="27">
+      <c r="CC37" s="26">
         <v>8242</v>
       </c>
-      <c r="CD37" s="27">
+      <c r="CD37" s="26">
         <v>7995</v>
       </c>
-      <c r="CE37" s="27">
+      <c r="CE37" s="26">
         <v>7992</v>
       </c>
-      <c r="CF37" s="27">
+      <c r="CF37" s="26">
         <v>7916</v>
       </c>
-      <c r="CG37" s="27">
+      <c r="CG37" s="26">
         <v>7927</v>
       </c>
-      <c r="CH37" s="28">
+      <c r="CH37" s="27">
         <v>7962</v>
       </c>
-      <c r="CI37" s="26">
+      <c r="CI37" s="25">
         <v>7777</v>
       </c>
-      <c r="CJ37" s="27">
+      <c r="CJ37" s="26">
         <v>7883</v>
       </c>
-      <c r="CK37" s="27">
+      <c r="CK37" s="26">
         <v>8151</v>
       </c>
-      <c r="CL37" s="27">
+      <c r="CL37" s="26">
         <v>8225</v>
       </c>
-      <c r="CM37" s="27">
+      <c r="CM37" s="26">
         <v>8301</v>
       </c>
-      <c r="CN37" s="27">
+      <c r="CN37" s="26">
         <v>8371</v>
       </c>
-      <c r="CO37" s="27">
+      <c r="CO37" s="26">
         <v>8408</v>
       </c>
-      <c r="CP37" s="27">
+      <c r="CP37" s="26">
         <v>8335</v>
       </c>
-      <c r="CQ37" s="27">
+      <c r="CQ37" s="26">
         <v>8432</v>
       </c>
-      <c r="CR37" s="27">
+      <c r="CR37" s="26">
         <v>8462</v>
       </c>
-      <c r="CS37" s="27">
+      <c r="CS37" s="26">
         <v>8559</v>
       </c>
-      <c r="CT37" s="28">
+      <c r="CT37" s="27">
         <v>8390</v>
       </c>
-      <c r="CU37" s="26">
+      <c r="CU37" s="25">
         <v>8260</v>
       </c>
-      <c r="CV37" s="27">
+      <c r="CV37" s="26">
         <v>8322</v>
       </c>
-      <c r="CW37" s="27">
+      <c r="CW37" s="26">
         <v>8078</v>
       </c>
-      <c r="CX37" s="27">
+      <c r="CX37" s="26">
         <v>8189</v>
       </c>
-      <c r="CY37" s="27">
+      <c r="CY37" s="26">
         <v>8206</v>
       </c>
-      <c r="CZ37" s="27">
+      <c r="CZ37" s="26">
         <v>8285</v>
       </c>
-      <c r="DA37" s="27">
+      <c r="DA37" s="26">
         <v>8310</v>
       </c>
-      <c r="DB37" s="27">
+      <c r="DB37" s="26">
         <v>8370</v>
       </c>
-      <c r="DC37" s="27">
+      <c r="DC37" s="26">
         <v>8314</v>
       </c>
-      <c r="DD37" s="27">
+      <c r="DD37" s="26">
         <v>8284</v>
       </c>
-      <c r="DE37" s="27">
+      <c r="DE37" s="26">
         <v>8340</v>
       </c>
-      <c r="DF37" s="28">
+      <c r="DF37" s="27">
         <v>8293</v>
       </c>
-      <c r="DG37" s="26">
+      <c r="DG37" s="25">
         <v>8057</v>
       </c>
-      <c r="DH37" s="27">
+      <c r="DH37" s="26">
         <v>8023</v>
       </c>
-      <c r="DI37" s="27">
+      <c r="DI37" s="26">
         <v>8137</v>
       </c>
-      <c r="DJ37" s="27">
+      <c r="DJ37" s="26">
         <v>8115</v>
       </c>
-      <c r="DK37" s="27">
+      <c r="DK37" s="26">
         <v>8195</v>
       </c>
-      <c r="DL37" s="27">
+      <c r="DL37" s="26">
         <v>8245</v>
       </c>
-      <c r="DM37" s="27">
+      <c r="DM37" s="26">
         <v>8333</v>
       </c>
-      <c r="DN37" s="27">
+      <c r="DN37" s="26">
         <v>8234</v>
       </c>
-      <c r="DO37" s="27">
+      <c r="DO37" s="26">
         <v>8157</v>
       </c>
-      <c r="DP37" s="27">
+      <c r="DP37" s="26">
         <v>8217</v>
       </c>
-      <c r="DQ37" s="27">
+      <c r="DQ37" s="26">
         <v>8354</v>
       </c>
-      <c r="DR37" s="28">
+      <c r="DR37" s="27">
         <v>8376</v>
       </c>
-      <c r="DS37" s="26">
+      <c r="DS37" s="25">
         <v>8367</v>
       </c>
-      <c r="DT37" s="27">
+      <c r="DT37" s="26">
         <v>8425</v>
       </c>
-      <c r="DU37" s="27">
+      <c r="DU37" s="26">
         <v>8527</v>
       </c>
-      <c r="DV37" s="27">
+      <c r="DV37" s="26">
         <v>8557</v>
       </c>
-      <c r="DW37" s="27">
+      <c r="DW37" s="26">
         <v>8635</v>
       </c>
-      <c r="DX37" s="27">
+      <c r="DX37" s="26">
         <v>8683</v>
       </c>
-      <c r="DY37" s="27">
+      <c r="DY37" s="26">
         <v>8679</v>
       </c>
-      <c r="DZ37" s="27">
+      <c r="DZ37" s="26">
         <v>8773</v>
       </c>
-      <c r="EA37" s="27">
+      <c r="EA37" s="26">
         <v>8723</v>
       </c>
-      <c r="EB37" s="27">
+      <c r="EB37" s="26">
         <v>8649</v>
       </c>
-      <c r="EC37" s="27">
+      <c r="EC37" s="26">
         <v>8638</v>
       </c>
-      <c r="ED37" s="28">
+      <c r="ED37" s="27">
         <v>8854</v>
       </c>
-      <c r="EE37" s="26">
+      <c r="EE37" s="25">
         <v>8643</v>
       </c>
-      <c r="EF37" s="27">
+      <c r="EF37" s="26">
         <v>8657</v>
       </c>
-      <c r="EG37" s="27">
+      <c r="EG37" s="26">
         <v>8842</v>
       </c>
-      <c r="EH37" s="27">
+      <c r="EH37" s="26">
         <v>8870</v>
       </c>
-      <c r="EI37" s="27">
+      <c r="EI37" s="26">
         <v>8940</v>
       </c>
-      <c r="EJ37" s="27">
+      <c r="EJ37" s="26">
         <v>8931</v>
       </c>
-      <c r="EK37" s="27">
+      <c r="EK37" s="26">
         <v>9199</v>
       </c>
-      <c r="EL37" s="27">
+      <c r="EL37" s="26">
         <v>8956</v>
       </c>
-      <c r="EM37" s="27">
+      <c r="EM37" s="26">
         <v>8865</v>
       </c>
-      <c r="EN37" s="27">
+      <c r="EN37" s="26">
         <v>8849</v>
       </c>
-      <c r="EO37" s="27">
+      <c r="EO37" s="26">
         <v>8887</v>
       </c>
-      <c r="EP37" s="28">
+      <c r="EP37" s="27">
         <v>9024</v>
       </c>
-      <c r="EQ37" s="26">
+      <c r="EQ37" s="25">
         <v>9061</v>
       </c>
-      <c r="ER37" s="27">
+      <c r="ER37" s="26">
         <v>9220</v>
       </c>
-      <c r="ES37" s="27">
+      <c r="ES37" s="26">
         <v>9507</v>
       </c>
-      <c r="ET37" s="27">
+      <c r="ET37" s="26">
         <v>9611</v>
       </c>
-      <c r="EU37" s="27">
+      <c r="EU37" s="26">
         <v>9626</v>
       </c>
-      <c r="EV37" s="27">
+      <c r="EV37" s="26">
         <v>9694</v>
       </c>
-      <c r="EW37" s="27">
+      <c r="EW37" s="26">
         <v>9706</v>
       </c>
-      <c r="EX37" s="27">
+      <c r="EX37" s="26">
         <v>9333</v>
       </c>
-      <c r="EY37" s="27">
+      <c r="EY37" s="26">
         <v>9242</v>
       </c>
-      <c r="EZ37" s="27">
+      <c r="EZ37" s="26">
         <v>9303</v>
       </c>
-      <c r="FA37" s="27">
+      <c r="FA37" s="26">
         <v>9104</v>
       </c>
-      <c r="FB37" s="28">
+      <c r="FB37" s="27">
         <v>9311</v>
       </c>
-      <c r="FC37" s="26">
+      <c r="FC37" s="25">
         <v>9172</v>
       </c>
-      <c r="FD37" s="27">
+      <c r="FD37" s="26">
         <v>9191</v>
       </c>
-      <c r="FE37" s="27">
+      <c r="FE37" s="26">
         <v>9154</v>
       </c>
-      <c r="FF37" s="27">
+      <c r="FF37" s="26">
         <v>9337</v>
       </c>
-      <c r="FG37" s="27">
+      <c r="FG37" s="26">
         <v>9205</v>
       </c>
-      <c r="FH37" s="27">
+      <c r="FH37" s="26">
         <v>9179</v>
       </c>
-      <c r="FI37" s="27">
+      <c r="FI37" s="26">
         <v>9295</v>
       </c>
-      <c r="FJ37" s="27">
+      <c r="FJ37" s="26">
         <v>9211</v>
       </c>
-      <c r="FK37" s="27">
+      <c r="FK37" s="26">
         <v>9157</v>
       </c>
-      <c r="FL37" s="27">
+      <c r="FL37" s="26">
         <v>9219</v>
       </c>
-      <c r="FM37" s="27">
+      <c r="FM37" s="26">
         <v>9071</v>
       </c>
-      <c r="FN37" s="28">
+      <c r="FN37" s="27">
         <v>9191</v>
       </c>
-      <c r="FO37" s="26">
+      <c r="FO37" s="25">
         <v>8998</v>
       </c>
-      <c r="FP37" s="27">
+      <c r="FP37" s="26">
         <v>9029</v>
       </c>
-      <c r="FQ37" s="27">
+      <c r="FQ37" s="26">
         <v>9124</v>
       </c>
-      <c r="FR37" s="27">
+      <c r="FR37" s="26">
         <v>9209</v>
       </c>
-      <c r="FS37" s="27">
+      <c r="FS37" s="26">
         <v>9183</v>
       </c>
-      <c r="FT37" s="27">
+      <c r="FT37" s="26">
         <v>9160</v>
       </c>
-      <c r="FU37" s="27">
+      <c r="FU37" s="26">
         <v>9196</v>
       </c>
-      <c r="FV37" s="27">
+      <c r="FV37" s="26">
         <v>9125</v>
       </c>
-      <c r="FW37" s="27">
+      <c r="FW37" s="26">
         <v>9070</v>
       </c>
-      <c r="FX37" s="27">
+      <c r="FX37" s="26">
         <v>9069</v>
       </c>
-      <c r="FY37" s="27">
+      <c r="FY37" s="26">
         <v>9087</v>
       </c>
-      <c r="FZ37" s="28">
+      <c r="FZ37" s="27">
         <v>9246</v>
       </c>
-      <c r="GA37" s="26">
+      <c r="GA37" s="25">
         <v>9107</v>
       </c>
-      <c r="GB37" s="27">
+      <c r="GB37" s="26">
         <v>9145</v>
       </c>
-      <c r="GC37" s="27">
+      <c r="GC37" s="26">
         <v>9177</v>
       </c>
-      <c r="GD37" s="27">
+      <c r="GD37" s="26">
         <v>9178</v>
       </c>
-      <c r="GE37" s="27">
+      <c r="GE37" s="26">
         <v>9254</v>
       </c>
-      <c r="GF37" s="27">
+      <c r="GF37" s="26">
         <v>9176</v>
       </c>
-      <c r="GG37" s="27">
+      <c r="GG37" s="26">
         <v>9237</v>
       </c>
-      <c r="GH37" s="27">
+      <c r="GH37" s="26">
         <v>9176</v>
       </c>
-      <c r="GI37" s="27">
+      <c r="GI37" s="26">
         <v>9171</v>
       </c>
-      <c r="GJ37" s="27">
+      <c r="GJ37" s="26">
         <v>9108</v>
       </c>
-      <c r="GK37" s="27">
+      <c r="GK37" s="26">
         <v>9143</v>
       </c>
-      <c r="GL37" s="28">
+      <c r="GL37" s="27">
         <v>9369</v>
       </c>
-      <c r="GM37" s="26">
+      <c r="GM37" s="25">
         <v>9148</v>
       </c>
-      <c r="GN37" s="27">
+      <c r="GN37" s="26">
         <v>9253</v>
       </c>
-      <c r="GO37" s="27">
+      <c r="GO37" s="26">
         <v>9218</v>
       </c>
-      <c r="GP37" s="27">
+      <c r="GP37" s="26">
         <v>9328</v>
       </c>
-      <c r="GQ37" s="27">
+      <c r="GQ37" s="26">
         <v>9307</v>
       </c>
-      <c r="GR37" s="27">
+      <c r="GR37" s="26">
         <v>9226</v>
       </c>
-      <c r="GS37" s="27">
+      <c r="GS37" s="26">
         <v>9429</v>
       </c>
-      <c r="GT37" s="27">
+      <c r="GT37" s="26">
         <v>9240</v>
       </c>
-      <c r="GU37" s="27">
+      <c r="GU37" s="26">
         <v>9401</v>
       </c>
-      <c r="GV37" s="27">
+      <c r="GV37" s="26">
         <v>9378</v>
       </c>
-      <c r="GW37" s="27">
+      <c r="GW37" s="26">
         <v>9346</v>
       </c>
-      <c r="GX37" s="28">
+      <c r="GX37" s="27">
         <v>9548</v>
       </c>
-      <c r="GY37" s="26">
+      <c r="GY37" s="25">
         <v>9332</v>
       </c>
-      <c r="GZ37" s="27">
+      <c r="GZ37" s="26">
         <v>9221</v>
       </c>
-      <c r="HA37" s="27">
+      <c r="HA37" s="26">
         <v>9389</v>
       </c>
-      <c r="HB37" s="27">
+      <c r="HB37" s="26">
         <v>9402</v>
       </c>
-      <c r="HC37" s="27">
+      <c r="HC37" s="26">
         <v>9350</v>
       </c>
-      <c r="HD37" s="27">
+      <c r="HD37" s="26">
         <v>9377</v>
       </c>
-      <c r="HE37" s="27">
+      <c r="HE37" s="26">
         <v>9440</v>
       </c>
-      <c r="HF37" s="27">
+      <c r="HF37" s="26">
         <v>9204</v>
       </c>
-      <c r="HG37" s="27">
+      <c r="HG37" s="26">
         <v>9121</v>
       </c>
-      <c r="HH37" s="27">
+      <c r="HH37" s="26">
         <v>9047</v>
       </c>
-      <c r="HI37" s="27">
+      <c r="HI37" s="26">
         <v>9126</v>
       </c>
-      <c r="HJ37" s="28">
+      <c r="HJ37" s="27">
         <v>9329</v>
       </c>
-      <c r="HK37" s="26">
+      <c r="HK37" s="25">
         <v>9153</v>
       </c>
-      <c r="HL37" s="27">
+      <c r="HL37" s="26">
         <v>9230</v>
       </c>
-      <c r="HM37" s="27">
+      <c r="HM37" s="26">
         <v>9429</v>
       </c>
-      <c r="HN37" s="27">
+      <c r="HN37" s="26">
         <v>9294</v>
       </c>
-      <c r="HO37" s="27">
+      <c r="HO37" s="26">
         <v>9204</v>
       </c>
-      <c r="HP37" s="27">
+      <c r="HP37" s="26">
         <v>9238</v>
       </c>
-      <c r="HQ37" s="27">
+      <c r="HQ37" s="26">
         <v>9290</v>
       </c>
-      <c r="HR37" s="27">
+      <c r="HR37" s="26">
         <v>9238</v>
       </c>
-      <c r="HS37" s="27">
+      <c r="HS37" s="26">
         <v>9247</v>
       </c>
-      <c r="HT37" s="27">
+      <c r="HT37" s="26">
         <v>9249</v>
       </c>
-      <c r="HU37" s="27">
+      <c r="HU37" s="26">
         <v>9253</v>
       </c>
-      <c r="HV37" s="28">
+      <c r="HV37" s="27">
         <v>9329</v>
       </c>
-      <c r="HW37" s="26">
+      <c r="HW37" s="25">
         <v>9211</v>
       </c>
-      <c r="HX37" s="27">
+      <c r="HX37" s="26">
         <v>9233</v>
       </c>
-      <c r="HY37" s="27">
+      <c r="HY37" s="26">
         <v>9264</v>
       </c>
-      <c r="HZ37" s="27">
+      <c r="HZ37" s="26">
         <v>9221</v>
       </c>
-      <c r="IA37" s="27">
+      <c r="IA37" s="26">
         <v>9150</v>
       </c>
-      <c r="IB37" s="27">
+      <c r="IB37" s="26">
         <v>9178</v>
       </c>
-      <c r="IC37" s="27">
+      <c r="IC37" s="26">
         <v>9225</v>
       </c>
-      <c r="ID37" s="27">
+      <c r="ID37" s="26">
         <v>9168</v>
       </c>
-      <c r="IE37" s="27">
+      <c r="IE37" s="26">
         <v>9107</v>
       </c>
-      <c r="IF37" s="27">
+      <c r="IF37" s="26">
         <v>9185</v>
       </c>
-      <c r="IG37" s="27">
+      <c r="IG37" s="26">
         <v>9100</v>
       </c>
-      <c r="IH37" s="28">
+      <c r="IH37" s="27">
         <v>9194</v>
       </c>
-      <c r="II37" s="26">
+      <c r="II37" s="25">
         <v>9163</v>
       </c>
-      <c r="IJ37" s="27">
+      <c r="IJ37" s="26">
         <v>9251</v>
       </c>
-      <c r="IK37" s="27">
+      <c r="IK37" s="26">
         <v>9275</v>
       </c>
-      <c r="IL37" s="27">
+      <c r="IL37" s="26">
         <v>9221</v>
       </c>
-      <c r="IM37" s="27">
+      <c r="IM37" s="26">
         <v>9364</v>
       </c>
-      <c r="IN37" s="27">
+      <c r="IN37" s="26">
         <v>9481</v>
       </c>
-      <c r="IO37" s="27">
+      <c r="IO37" s="26">
         <v>9574</v>
       </c>
-      <c r="IP37" s="27">
+      <c r="IP37" s="26">
         <v>9622</v>
       </c>
-      <c r="IQ37" s="27">
+      <c r="IQ37" s="26">
         <v>9492</v>
       </c>
-      <c r="IR37" s="27">
+      <c r="IR37" s="26">
         <v>9506</v>
       </c>
-      <c r="IS37" s="27">
+      <c r="IS37" s="26">
         <v>9464</v>
       </c>
-      <c r="IT37" s="28">
+      <c r="IT37" s="27">
         <v>9458</v>
       </c>
-      <c r="IU37" s="26">
+      <c r="IU37" s="25">
         <v>9448</v>
       </c>
-      <c r="IV37" s="27">
+      <c r="IV37" s="26">
         <v>9537</v>
       </c>
-      <c r="IW37" s="27">
+      <c r="IW37" s="26">
         <v>9509</v>
       </c>
-      <c r="IX37" s="27">
+      <c r="IX37" s="26">
         <v>9598</v>
       </c>
-      <c r="IY37" s="27">
+      <c r="IY37" s="26">
         <v>9687</v>
       </c>
-      <c r="IZ37" s="27">
+      <c r="IZ37" s="26">
         <v>9644</v>
       </c>
-      <c r="JA37" s="27">
+      <c r="JA37" s="26">
         <v>9754</v>
       </c>
-      <c r="JB37" s="27">
+      <c r="JB37" s="26">
         <v>9702</v>
       </c>
-      <c r="JC37" s="27">
+      <c r="JC37" s="26">
         <v>9646</v>
       </c>
-      <c r="JD37" s="27">
+      <c r="JD37" s="26">
         <v>9755</v>
       </c>
-      <c r="JE37" s="27">
+      <c r="JE37" s="26">
         <v>9637</v>
       </c>
-      <c r="JF37" s="28">
+      <c r="JF37" s="27">
         <v>9697</v>
       </c>
-      <c r="JG37" s="26">
+      <c r="JG37" s="25">
         <v>9895</v>
       </c>
-      <c r="JH37" s="27">
+      <c r="JH37" s="26">
         <v>9952</v>
       </c>
-      <c r="JI37" s="27">
+      <c r="JI37" s="26">
         <v>9921</v>
       </c>
-      <c r="JJ37" s="27">
+      <c r="JJ37" s="26">
         <v>9758</v>
       </c>
-      <c r="JK37" s="27">
+      <c r="JK37" s="26">
         <v>9733</v>
       </c>
-      <c r="JL37" s="27">
+      <c r="JL37" s="26">
         <v>9474</v>
       </c>
-      <c r="JM37" s="27">
+      <c r="JM37" s="26">
         <v>9829</v>
       </c>
-      <c r="JN37" s="27">
+      <c r="JN37" s="26">
         <v>9818</v>
       </c>
-      <c r="JO37" s="27">
+      <c r="JO37" s="26">
         <v>9911</v>
       </c>
-      <c r="JP37" s="27">
+      <c r="JP37" s="26">
         <v>9901</v>
       </c>
-      <c r="JQ37" s="27">
+      <c r="JQ37" s="26">
         <v>9956</v>
       </c>
-      <c r="JR37" s="28">
+      <c r="JR37" s="27">
         <v>9984</v>
       </c>
-      <c r="JS37" s="26">
+      <c r="JS37" s="25">
         <v>9992</v>
       </c>
-      <c r="JT37" s="27">
+      <c r="JT37" s="26">
         <v>10000</v>
       </c>
-      <c r="JU37" s="27">
+      <c r="JU37" s="26">
         <v>10132</v>
       </c>
-      <c r="JV37" s="27">
+      <c r="JV37" s="26">
         <v>9977</v>
       </c>
-      <c r="JW37" s="27">
+      <c r="JW37" s="26">
         <v>10007</v>
       </c>
-      <c r="JX37" s="27">
+      <c r="JX37" s="26">
         <v>10103</v>
       </c>
-      <c r="JY37" s="27">
+      <c r="JY37" s="26">
         <v>9603</v>
       </c>
-      <c r="JZ37" s="27">
+      <c r="JZ37" s="26">
         <v>9612</v>
       </c>
-      <c r="KA37" s="27">
+      <c r="KA37" s="26">
         <v>9562</v>
       </c>
-      <c r="KB37" s="27">
+      <c r="KB37" s="26">
         <v>9508</v>
       </c>
-      <c r="KC37" s="27">
+      <c r="KC37" s="26">
         <v>9570</v>
       </c>
-      <c r="KD37" s="27">
+      <c r="KD37" s="26">
         <v>9393</v>
       </c>
-      <c r="KE37" s="32">
+      <c r="KE37" s="31">
         <v>9433</v>
       </c>
-      <c r="KF37" s="40">
+      <c r="KF37" s="39">
         <v>9550</v>
       </c>
-      <c r="KG37" s="40">
+      <c r="KG37" s="39">
         <v>9619</v>
       </c>
-      <c r="KH37" s="40">
+      <c r="KH37" s="39">
         <v>9540</v>
       </c>
-      <c r="KI37" s="40">
+      <c r="KI37" s="39">
         <v>9600</v>
       </c>
-      <c r="KJ37" s="40">
+      <c r="KJ37" s="39">
         <v>9738</v>
       </c>
-      <c r="KK37" s="40">
+      <c r="KK37" s="39">
         <v>9682</v>
       </c>
-      <c r="KL37" s="40">
+      <c r="KL37" s="39">
         <v>9763</v>
       </c>
-      <c r="KM37" s="40">
+      <c r="KM37" s="39">
         <v>9686</v>
       </c>
-      <c r="KN37" s="40">
+      <c r="KN37" s="39">
         <v>9745</v>
       </c>
-      <c r="KO37" s="40">
+      <c r="KO37" s="39">
         <v>9847</v>
       </c>
-      <c r="KP37" s="40">
+      <c r="KP37" s="39">
         <v>9814</v>
       </c>
-      <c r="KQ37" s="32">
+      <c r="KQ37" s="31">
         <v>9847</v>
       </c>
-      <c r="KR37" s="40">
+      <c r="KR37" s="39">
         <v>9971</v>
       </c>
-      <c r="KS37" s="40">
+      <c r="KS37" s="39">
         <v>10018</v>
       </c>
-      <c r="KT37" s="33">
+      <c r="KT37" s="39">
         <v>9992</v>
       </c>
+      <c r="KU37" s="39">
+        <v>10020</v>
+      </c>
+      <c r="KV37" s="32">
+        <v>10060</v>
+      </c>
     </row>
-    <row r="38" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -32000,11 +32331,17 @@
       <c r="KS38" s="3">
         <v>1736</v>
       </c>
-      <c r="KT38" s="4">
+      <c r="KT38" s="3">
         <v>1749</v>
       </c>
+      <c r="KU38" s="3">
+        <v>1755</v>
+      </c>
+      <c r="KV38" s="4">
+        <v>1769</v>
+      </c>
     </row>
-    <row r="39" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -32918,11 +33255,17 @@
       <c r="KS39" s="3">
         <v>86</v>
       </c>
-      <c r="KT39" s="4">
+      <c r="KT39" s="3">
         <v>91</v>
       </c>
+      <c r="KU39" s="3">
+        <v>90</v>
+      </c>
+      <c r="KV39" s="4">
+        <v>95</v>
+      </c>
     </row>
-    <row r="40" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -33836,11 +34179,17 @@
       <c r="KS40" s="3">
         <v>642</v>
       </c>
-      <c r="KT40" s="4">
+      <c r="KT40" s="3">
         <v>630</v>
       </c>
+      <c r="KU40" s="3">
+        <v>649</v>
+      </c>
+      <c r="KV40" s="4">
+        <v>663</v>
+      </c>
     </row>
-    <row r="41" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -34754,11 +35103,17 @@
       <c r="KS41" s="3">
         <v>1039</v>
       </c>
-      <c r="KT41" s="4">
+      <c r="KT41" s="3">
         <v>1058</v>
       </c>
+      <c r="KU41" s="3">
+        <v>1062</v>
+      </c>
+      <c r="KV41" s="4">
+        <v>1057</v>
+      </c>
     </row>
-    <row r="42" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -35672,11 +36027,17 @@
       <c r="KS42" s="3">
         <v>1440</v>
       </c>
-      <c r="KT42" s="4">
+      <c r="KT42" s="3">
         <v>1417</v>
       </c>
+      <c r="KU42" s="3">
+        <v>1433</v>
+      </c>
+      <c r="KV42" s="4">
+        <v>1443</v>
+      </c>
     </row>
-    <row r="43" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -36590,11 +36951,17 @@
       <c r="KS43" s="3">
         <v>1805</v>
       </c>
-      <c r="KT43" s="4">
+      <c r="KT43" s="3">
         <v>1786</v>
       </c>
+      <c r="KU43" s="3">
+        <v>1788</v>
+      </c>
+      <c r="KV43" s="4">
+        <v>1777</v>
+      </c>
     </row>
-    <row r="44" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -37508,11 +37875,17 @@
       <c r="KS44" s="3">
         <v>1764</v>
       </c>
-      <c r="KT44" s="4">
+      <c r="KT44" s="3">
         <v>1746</v>
       </c>
+      <c r="KU44" s="3">
+        <v>1739</v>
+      </c>
+      <c r="KV44" s="4">
+        <v>1760</v>
+      </c>
     </row>
-    <row r="45" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -38426,11 +38799,17 @@
       <c r="KS45" s="3">
         <v>1506</v>
       </c>
-      <c r="KT45" s="4">
+      <c r="KT45" s="3">
         <v>1515</v>
       </c>
+      <c r="KU45" s="3">
+        <v>1504</v>
+      </c>
+      <c r="KV45" s="4">
+        <v>1496</v>
+      </c>
     </row>
-    <row r="46" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -38847,24 +39226,26 @@
       <c r="KB46" s="3"/>
       <c r="KC46" s="3"/>
       <c r="KD46" s="3"/>
-      <c r="KE46" s="36"/>
-      <c r="KF46" s="39"/>
-      <c r="KG46" s="39"/>
-      <c r="KH46" s="39"/>
-      <c r="KI46" s="39"/>
-      <c r="KJ46" s="39"/>
-      <c r="KK46" s="39"/>
-      <c r="KL46" s="39"/>
-      <c r="KM46" s="39"/>
-      <c r="KN46" s="39"/>
-      <c r="KO46" s="39"/>
-      <c r="KP46" s="39"/>
-      <c r="KQ46" s="36"/>
-      <c r="KR46" s="39"/>
-      <c r="KS46" s="39"/>
-      <c r="KT46" s="37"/>
+      <c r="KE46" s="35"/>
+      <c r="KF46" s="38"/>
+      <c r="KG46" s="38"/>
+      <c r="KH46" s="38"/>
+      <c r="KI46" s="38"/>
+      <c r="KJ46" s="38"/>
+      <c r="KK46" s="38"/>
+      <c r="KL46" s="38"/>
+      <c r="KM46" s="38"/>
+      <c r="KN46" s="38"/>
+      <c r="KO46" s="38"/>
+      <c r="KP46" s="38"/>
+      <c r="KQ46" s="35"/>
+      <c r="KR46" s="38"/>
+      <c r="KS46" s="38"/>
+      <c r="KT46" s="38"/>
+      <c r="KU46" s="38"/>
+      <c r="KV46" s="36"/>
     </row>
-    <row r="47" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -39735,56 +40116,62 @@
       <c r="KD47" s="8">
         <v>480660</v>
       </c>
-      <c r="KE47" s="30">
+      <c r="KE47" s="29">
         <v>483047</v>
       </c>
-      <c r="KF47" s="38">
+      <c r="KF47" s="37">
         <v>487818</v>
       </c>
-      <c r="KG47" s="38">
+      <c r="KG47" s="37">
         <v>493413</v>
       </c>
-      <c r="KH47" s="38">
+      <c r="KH47" s="37">
         <v>494824</v>
       </c>
-      <c r="KI47" s="38">
+      <c r="KI47" s="37">
         <v>496682</v>
       </c>
-      <c r="KJ47" s="38">
+      <c r="KJ47" s="37">
         <v>499541</v>
       </c>
-      <c r="KK47" s="38">
+      <c r="KK47" s="37">
         <v>502349</v>
       </c>
-      <c r="KL47" s="38">
+      <c r="KL47" s="37">
         <v>505597</v>
       </c>
-      <c r="KM47" s="38">
+      <c r="KM47" s="37">
         <v>509874</v>
       </c>
-      <c r="KN47" s="38">
+      <c r="KN47" s="37">
         <v>513734</v>
       </c>
-      <c r="KO47" s="38">
+      <c r="KO47" s="37">
         <v>515303</v>
       </c>
-      <c r="KP47" s="38">
+      <c r="KP47" s="37">
         <v>508146</v>
       </c>
-      <c r="KQ47" s="30">
+      <c r="KQ47" s="29">
         <v>512903</v>
       </c>
-      <c r="KR47" s="38">
+      <c r="KR47" s="37">
         <v>517652</v>
       </c>
-      <c r="KS47" s="38">
+      <c r="KS47" s="37">
         <v>519869</v>
       </c>
-      <c r="KT47" s="31">
+      <c r="KT47" s="37">
         <v>518782</v>
       </c>
+      <c r="KU47" s="37">
+        <v>519348</v>
+      </c>
+      <c r="KV47" s="30">
+        <v>520206</v>
+      </c>
     </row>
-    <row r="48" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -40698,11 +41085,17 @@
       <c r="KS48" s="3">
         <v>82520</v>
       </c>
-      <c r="KT48" s="4">
+      <c r="KT48" s="3">
         <v>82503</v>
       </c>
+      <c r="KU48" s="3">
+        <v>83054</v>
+      </c>
+      <c r="KV48" s="4">
+        <v>83482</v>
+      </c>
     </row>
-    <row r="49" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -41616,11 +42009,17 @@
       <c r="KS49" s="3">
         <v>15266</v>
       </c>
-      <c r="KT49" s="4">
+      <c r="KT49" s="3">
         <v>15101</v>
       </c>
+      <c r="KU49" s="3">
+        <v>14920</v>
+      </c>
+      <c r="KV49" s="4">
+        <v>15246</v>
+      </c>
     </row>
-    <row r="50" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -42534,11 +42933,17 @@
       <c r="KS50" s="3">
         <v>72143</v>
       </c>
-      <c r="KT50" s="4">
+      <c r="KT50" s="3">
         <v>71950</v>
       </c>
+      <c r="KU50" s="3">
+        <v>71885</v>
+      </c>
+      <c r="KV50" s="4">
+        <v>72437</v>
+      </c>
     </row>
-    <row r="51" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -43452,11 +43857,17 @@
       <c r="KS51" s="3">
         <v>83250</v>
       </c>
-      <c r="KT51" s="4">
+      <c r="KT51" s="3">
         <v>83108</v>
       </c>
+      <c r="KU51" s="3">
+        <v>83241</v>
+      </c>
+      <c r="KV51" s="4">
+        <v>83014</v>
+      </c>
     </row>
-    <row r="52" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -44370,11 +44781,17 @@
       <c r="KS52" s="3">
         <v>77999</v>
       </c>
-      <c r="KT52" s="4">
+      <c r="KT52" s="3">
         <v>77778</v>
       </c>
+      <c r="KU52" s="3">
+        <v>77689</v>
+      </c>
+      <c r="KV52" s="4">
+        <v>77611</v>
+      </c>
     </row>
-    <row r="53" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -45288,11 +45705,17 @@
       <c r="KS53" s="3">
         <v>69017</v>
       </c>
-      <c r="KT53" s="4">
+      <c r="KT53" s="3">
         <v>68818</v>
       </c>
+      <c r="KU53" s="3">
+        <v>68740</v>
+      </c>
+      <c r="KV53" s="4">
+        <v>68665</v>
+      </c>
     </row>
-    <row r="54" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -46206,11 +46629,17 @@
       <c r="KS54" s="3">
         <v>64066</v>
       </c>
-      <c r="KT54" s="4">
+      <c r="KT54" s="3">
         <v>64013</v>
       </c>
+      <c r="KU54" s="3">
+        <v>64108</v>
+      </c>
+      <c r="KV54" s="4">
+        <v>64112</v>
+      </c>
     </row>
-    <row r="55" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -47124,11 +47553,17 @@
       <c r="KS55" s="3">
         <v>55607</v>
       </c>
-      <c r="KT55" s="4">
+      <c r="KT55" s="3">
         <v>55508</v>
       </c>
+      <c r="KU55" s="3">
+        <v>55708</v>
+      </c>
+      <c r="KV55" s="4">
+        <v>55634</v>
+      </c>
     </row>
-    <row r="56" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -47997,56 +48432,62 @@
       <c r="KD56" s="3">
         <v>6</v>
       </c>
-      <c r="KE56" s="36">
+      <c r="KE56" s="35">
         <v>6</v>
       </c>
-      <c r="KF56" s="39">
+      <c r="KF56" s="38">
         <v>8</v>
       </c>
-      <c r="KG56" s="39">
+      <c r="KG56" s="38">
         <v>9</v>
       </c>
-      <c r="KH56" s="39">
+      <c r="KH56" s="38">
         <v>8</v>
       </c>
-      <c r="KI56" s="39">
+      <c r="KI56" s="38">
         <v>10</v>
       </c>
-      <c r="KJ56" s="39">
+      <c r="KJ56" s="38">
         <v>9</v>
       </c>
-      <c r="KK56" s="39">
+      <c r="KK56" s="38">
         <v>9</v>
       </c>
-      <c r="KL56" s="39">
+      <c r="KL56" s="38">
         <v>6</v>
       </c>
-      <c r="KM56" s="39">
+      <c r="KM56" s="38">
         <v>3</v>
       </c>
-      <c r="KN56" s="39">
+      <c r="KN56" s="38">
         <v>4</v>
       </c>
-      <c r="KO56" s="39">
+      <c r="KO56" s="38">
         <v>3</v>
       </c>
-      <c r="KP56" s="39">
+      <c r="KP56" s="38">
         <v>3</v>
       </c>
-      <c r="KQ56" s="36">
+      <c r="KQ56" s="35">
         <v>2</v>
       </c>
-      <c r="KR56" s="39">
+      <c r="KR56" s="38">
         <v>5</v>
       </c>
-      <c r="KS56" s="39">
+      <c r="KS56" s="38">
         <v>1</v>
       </c>
-      <c r="KT56" s="37">
+      <c r="KT56" s="38">
         <v>3</v>
       </c>
+      <c r="KU56" s="38">
+        <v>3</v>
+      </c>
+      <c r="KV56" s="36">
+        <v>5</v>
+      </c>
     </row>
-    <row r="57" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -48917,56 +49358,62 @@
       <c r="KD57" s="8">
         <v>2624</v>
       </c>
-      <c r="KE57" s="30">
+      <c r="KE57" s="29">
         <v>2642</v>
       </c>
-      <c r="KF57" s="38">
+      <c r="KF57" s="37">
         <v>2643</v>
       </c>
-      <c r="KG57" s="38">
+      <c r="KG57" s="37">
         <v>2577</v>
       </c>
-      <c r="KH57" s="38">
+      <c r="KH57" s="37">
         <v>2556</v>
       </c>
-      <c r="KI57" s="38">
+      <c r="KI57" s="37">
         <v>2538</v>
       </c>
-      <c r="KJ57" s="38">
+      <c r="KJ57" s="37">
         <v>2538</v>
       </c>
-      <c r="KK57" s="38">
+      <c r="KK57" s="37">
         <v>2465</v>
       </c>
-      <c r="KL57" s="38">
+      <c r="KL57" s="37">
         <v>2477</v>
       </c>
-      <c r="KM57" s="38">
+      <c r="KM57" s="37">
         <v>2518</v>
       </c>
-      <c r="KN57" s="38">
+      <c r="KN57" s="37">
         <v>2505</v>
       </c>
-      <c r="KO57" s="38">
+      <c r="KO57" s="37">
         <v>2515</v>
       </c>
-      <c r="KP57" s="38">
+      <c r="KP57" s="37">
         <v>2500</v>
       </c>
-      <c r="KQ57" s="30">
+      <c r="KQ57" s="29">
         <v>2580</v>
       </c>
-      <c r="KR57" s="38">
+      <c r="KR57" s="37">
         <v>2633</v>
       </c>
-      <c r="KS57" s="38">
+      <c r="KS57" s="37">
         <v>2476</v>
       </c>
-      <c r="KT57" s="31">
+      <c r="KT57" s="37">
         <v>2545</v>
       </c>
+      <c r="KU57" s="37">
+        <v>2538</v>
+      </c>
+      <c r="KV57" s="30">
+        <v>2593</v>
+      </c>
     </row>
-    <row r="58" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -49880,11 +50327,17 @@
       <c r="KS58" s="3">
         <v>538</v>
       </c>
-      <c r="KT58" s="4">
+      <c r="KT58" s="3">
         <v>552</v>
       </c>
+      <c r="KU58" s="3">
+        <v>560</v>
+      </c>
+      <c r="KV58" s="4">
+        <v>572</v>
+      </c>
     </row>
-    <row r="59" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -50798,11 +51251,17 @@
       <c r="KS59" s="3">
         <v>30</v>
       </c>
-      <c r="KT59" s="4">
+      <c r="KT59" s="3">
         <v>29</v>
       </c>
+      <c r="KU59" s="3">
+        <v>31</v>
+      </c>
+      <c r="KV59" s="4">
+        <v>29</v>
+      </c>
     </row>
-    <row r="60" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -51716,11 +52175,17 @@
       <c r="KS60" s="3">
         <v>183</v>
       </c>
-      <c r="KT60" s="4">
+      <c r="KT60" s="3">
         <v>180</v>
       </c>
+      <c r="KU60" s="3">
+        <v>174</v>
+      </c>
+      <c r="KV60" s="4">
+        <v>176</v>
+      </c>
     </row>
-    <row r="61" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -52634,11 +53099,17 @@
       <c r="KS61" s="3">
         <v>379</v>
       </c>
-      <c r="KT61" s="4">
+      <c r="KT61" s="3">
         <v>378</v>
       </c>
+      <c r="KU61" s="3">
+        <v>371</v>
+      </c>
+      <c r="KV61" s="4">
+        <v>377</v>
+      </c>
     </row>
-    <row r="62" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -53552,11 +54023,17 @@
       <c r="KS62" s="3">
         <v>379</v>
       </c>
-      <c r="KT62" s="4">
+      <c r="KT62" s="3">
         <v>388</v>
       </c>
+      <c r="KU62" s="3">
+        <v>391</v>
+      </c>
+      <c r="KV62" s="4">
+        <v>397</v>
+      </c>
     </row>
-    <row r="63" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -54470,11 +54947,17 @@
       <c r="KS63" s="3">
         <v>357</v>
       </c>
-      <c r="KT63" s="4">
+      <c r="KT63" s="3">
         <v>380</v>
       </c>
+      <c r="KU63" s="3">
+        <v>379</v>
+      </c>
+      <c r="KV63" s="4">
+        <v>396</v>
+      </c>
     </row>
-    <row r="64" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -55388,11 +55871,17 @@
       <c r="KS64" s="3">
         <v>327</v>
       </c>
-      <c r="KT64" s="4">
+      <c r="KT64" s="3">
         <v>337</v>
       </c>
+      <c r="KU64" s="3">
+        <v>326</v>
+      </c>
+      <c r="KV64" s="4">
+        <v>334</v>
+      </c>
     </row>
-    <row r="65" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -56306,11 +56795,17 @@
       <c r="KS65" s="3">
         <v>283</v>
       </c>
-      <c r="KT65" s="4">
+      <c r="KT65" s="3">
         <v>301</v>
       </c>
+      <c r="KU65" s="3">
+        <v>306</v>
+      </c>
+      <c r="KV65" s="4">
+        <v>312</v>
+      </c>
     </row>
-    <row r="66" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -56661,26 +57156,28 @@
       <c r="KB66" s="3"/>
       <c r="KC66" s="3"/>
       <c r="KD66" s="3"/>
-      <c r="KE66" s="36"/>
-      <c r="KF66" s="39"/>
-      <c r="KG66" s="39"/>
-      <c r="KH66" s="39"/>
-      <c r="KI66" s="39"/>
-      <c r="KJ66" s="39"/>
-      <c r="KK66" s="39"/>
-      <c r="KL66" s="39"/>
-      <c r="KM66" s="39"/>
-      <c r="KN66" s="39"/>
-      <c r="KO66" s="39"/>
-      <c r="KP66" s="39"/>
-      <c r="KQ66" s="36"/>
-      <c r="KR66" s="39">
+      <c r="KE66" s="35"/>
+      <c r="KF66" s="38"/>
+      <c r="KG66" s="38"/>
+      <c r="KH66" s="38"/>
+      <c r="KI66" s="38"/>
+      <c r="KJ66" s="38"/>
+      <c r="KK66" s="38"/>
+      <c r="KL66" s="38"/>
+      <c r="KM66" s="38"/>
+      <c r="KN66" s="38"/>
+      <c r="KO66" s="38"/>
+      <c r="KP66" s="38"/>
+      <c r="KQ66" s="35"/>
+      <c r="KR66" s="38">
         <v>1</v>
       </c>
-      <c r="KS66" s="39"/>
-      <c r="KT66" s="37"/>
+      <c r="KS66" s="38"/>
+      <c r="KT66" s="38"/>
+      <c r="KU66" s="38"/>
+      <c r="KV66" s="36"/>
     </row>
-    <row r="67" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -57551,56 +58048,62 @@
       <c r="KD67" s="8">
         <v>620320</v>
       </c>
-      <c r="KE67" s="30">
+      <c r="KE67" s="29">
         <v>622201</v>
       </c>
-      <c r="KF67" s="38">
+      <c r="KF67" s="37">
         <v>626630</v>
       </c>
-      <c r="KG67" s="38">
+      <c r="KG67" s="37">
         <v>630046</v>
       </c>
-      <c r="KH67" s="38">
+      <c r="KH67" s="37">
         <v>630421</v>
       </c>
-      <c r="KI67" s="38">
+      <c r="KI67" s="37">
         <v>632610</v>
       </c>
-      <c r="KJ67" s="38">
+      <c r="KJ67" s="37">
         <v>634764</v>
       </c>
-      <c r="KK67" s="38">
+      <c r="KK67" s="37">
         <v>632848</v>
       </c>
-      <c r="KL67" s="38">
+      <c r="KL67" s="37">
         <v>636862</v>
       </c>
-      <c r="KM67" s="38">
+      <c r="KM67" s="37">
         <v>640257</v>
       </c>
-      <c r="KN67" s="38">
+      <c r="KN67" s="37">
         <v>645409</v>
       </c>
-      <c r="KO67" s="38">
+      <c r="KO67" s="37">
         <v>650779</v>
       </c>
-      <c r="KP67" s="38">
+      <c r="KP67" s="37">
         <v>644397</v>
       </c>
-      <c r="KQ67" s="30">
+      <c r="KQ67" s="29">
         <v>649778</v>
       </c>
-      <c r="KR67" s="38">
+      <c r="KR67" s="37">
         <v>653050</v>
       </c>
-      <c r="KS67" s="38">
+      <c r="KS67" s="37">
         <v>656605</v>
       </c>
-      <c r="KT67" s="31">
+      <c r="KT67" s="37">
         <v>659145</v>
       </c>
+      <c r="KU67" s="37">
+        <v>659693</v>
+      </c>
+      <c r="KV67" s="30">
+        <v>660628</v>
+      </c>
     </row>
-    <row r="68" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -58514,11 +59017,17 @@
       <c r="KS68" s="3">
         <v>139183</v>
       </c>
-      <c r="KT68" s="4">
+      <c r="KT68" s="3">
         <v>140723</v>
       </c>
+      <c r="KU68" s="3">
+        <v>141513</v>
+      </c>
+      <c r="KV68" s="4">
+        <v>142019</v>
+      </c>
     </row>
-    <row r="69" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -59432,11 +59941,17 @@
       <c r="KS69" s="3">
         <v>10667</v>
       </c>
-      <c r="KT69" s="4">
+      <c r="KT69" s="3">
         <v>10682</v>
       </c>
+      <c r="KU69" s="3">
+        <v>10634</v>
+      </c>
+      <c r="KV69" s="4">
+        <v>10975</v>
+      </c>
     </row>
-    <row r="70" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -60350,11 +60865,17 @@
       <c r="KS70" s="3">
         <v>63633</v>
       </c>
-      <c r="KT70" s="4">
+      <c r="KT70" s="3">
         <v>63782</v>
       </c>
+      <c r="KU70" s="3">
+        <v>63571</v>
+      </c>
+      <c r="KV70" s="4">
+        <v>64198</v>
+      </c>
     </row>
-    <row r="71" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -61268,11 +61789,17 @@
       <c r="KS71" s="3">
         <v>101670</v>
       </c>
-      <c r="KT71" s="4">
+      <c r="KT71" s="3">
         <v>101860</v>
       </c>
+      <c r="KU71" s="3">
+        <v>101709</v>
+      </c>
+      <c r="KV71" s="4">
+        <v>101536</v>
+      </c>
     </row>
-    <row r="72" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -62186,11 +62713,17 @@
       <c r="KS72" s="3">
         <v>99469</v>
       </c>
-      <c r="KT72" s="4">
+      <c r="KT72" s="3">
         <v>99771</v>
       </c>
+      <c r="KU72" s="3">
+        <v>99650</v>
+      </c>
+      <c r="KV72" s="4">
+        <v>99394</v>
+      </c>
     </row>
-    <row r="73" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -63104,11 +63637,17 @@
       <c r="KS73" s="3">
         <v>89504</v>
       </c>
-      <c r="KT73" s="4">
+      <c r="KT73" s="3">
         <v>89613</v>
       </c>
+      <c r="KU73" s="3">
+        <v>89533</v>
+      </c>
+      <c r="KV73" s="4">
+        <v>89251</v>
+      </c>
     </row>
-    <row r="74" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -64022,11 +64561,17 @@
       <c r="KS74" s="3">
         <v>80554</v>
       </c>
-      <c r="KT74" s="4">
+      <c r="KT74" s="3">
         <v>80670</v>
       </c>
+      <c r="KU74" s="3">
+        <v>80906</v>
+      </c>
+      <c r="KV74" s="4">
+        <v>80983</v>
+      </c>
     </row>
-    <row r="75" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -64940,11 +65485,17 @@
       <c r="KS75" s="3">
         <v>71922</v>
       </c>
-      <c r="KT75" s="4">
+      <c r="KT75" s="3">
         <v>72040</v>
       </c>
+      <c r="KU75" s="3">
+        <v>72173</v>
+      </c>
+      <c r="KV75" s="4">
+        <v>72268</v>
+      </c>
     </row>
-    <row r="76" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -65813,56 +66364,62 @@
       <c r="KD76" s="3">
         <v>5</v>
       </c>
-      <c r="KE76" s="36">
+      <c r="KE76" s="35">
         <v>3</v>
       </c>
-      <c r="KF76" s="39">
+      <c r="KF76" s="38">
         <v>4</v>
       </c>
-      <c r="KG76" s="39">
+      <c r="KG76" s="38">
         <v>2</v>
       </c>
-      <c r="KH76" s="39">
+      <c r="KH76" s="38">
         <v>5</v>
       </c>
-      <c r="KI76" s="39">
+      <c r="KI76" s="38">
         <v>3</v>
       </c>
-      <c r="KJ76" s="39">
+      <c r="KJ76" s="38">
         <v>3</v>
       </c>
-      <c r="KK76" s="39">
+      <c r="KK76" s="38">
         <v>4</v>
       </c>
-      <c r="KL76" s="39">
+      <c r="KL76" s="38">
         <v>6</v>
       </c>
-      <c r="KM76" s="39">
+      <c r="KM76" s="38">
         <v>6</v>
       </c>
-      <c r="KN76" s="39">
+      <c r="KN76" s="38">
         <v>4</v>
       </c>
-      <c r="KO76" s="39">
+      <c r="KO76" s="38">
         <v>5</v>
       </c>
-      <c r="KP76" s="39">
+      <c r="KP76" s="38">
         <v>4</v>
       </c>
-      <c r="KQ76" s="36">
+      <c r="KQ76" s="35">
         <v>6</v>
       </c>
-      <c r="KR76" s="39">
+      <c r="KR76" s="38">
         <v>3</v>
       </c>
-      <c r="KS76" s="39">
+      <c r="KS76" s="38">
         <v>3</v>
       </c>
-      <c r="KT76" s="37">
+      <c r="KT76" s="38">
         <v>4</v>
       </c>
+      <c r="KU76" s="38">
+        <v>4</v>
+      </c>
+      <c r="KV76" s="36">
+        <v>4</v>
+      </c>
     </row>
-    <row r="77" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -66733,56 +67290,62 @@
       <c r="KD77" s="8">
         <v>97255</v>
       </c>
-      <c r="KE77" s="30">
+      <c r="KE77" s="29">
         <v>98343</v>
       </c>
-      <c r="KF77" s="38">
+      <c r="KF77" s="37">
         <v>99545</v>
       </c>
-      <c r="KG77" s="38">
+      <c r="KG77" s="37">
         <v>99824</v>
       </c>
-      <c r="KH77" s="38">
+      <c r="KH77" s="37">
         <v>100160</v>
       </c>
-      <c r="KI77" s="38">
+      <c r="KI77" s="37">
         <v>100656</v>
       </c>
-      <c r="KJ77" s="38">
+      <c r="KJ77" s="37">
         <v>101579</v>
       </c>
-      <c r="KK77" s="38">
+      <c r="KK77" s="37">
         <v>101385</v>
       </c>
-      <c r="KL77" s="38">
+      <c r="KL77" s="37">
         <v>101608</v>
       </c>
-      <c r="KM77" s="38">
+      <c r="KM77" s="37">
         <v>104048</v>
       </c>
-      <c r="KN77" s="38">
+      <c r="KN77" s="37">
         <v>104844</v>
       </c>
-      <c r="KO77" s="38">
+      <c r="KO77" s="37">
         <v>105032</v>
       </c>
-      <c r="KP77" s="38">
+      <c r="KP77" s="37">
         <v>104444</v>
       </c>
-      <c r="KQ77" s="30">
+      <c r="KQ77" s="29">
         <v>104505</v>
       </c>
-      <c r="KR77" s="38">
+      <c r="KR77" s="37">
         <v>104603</v>
       </c>
-      <c r="KS77" s="38">
+      <c r="KS77" s="37">
         <v>104992</v>
       </c>
-      <c r="KT77" s="31">
+      <c r="KT77" s="37">
         <v>105213</v>
       </c>
+      <c r="KU77" s="37">
+        <v>105752</v>
+      </c>
+      <c r="KV77" s="30">
+        <v>106403</v>
+      </c>
     </row>
-    <row r="78" spans="1:306" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -67696,11 +68259,17 @@
       <c r="KS78" s="3">
         <v>19099</v>
       </c>
-      <c r="KT78" s="4">
+      <c r="KT78" s="3">
         <v>19176</v>
       </c>
+      <c r="KU78" s="3">
+        <v>19235</v>
+      </c>
+      <c r="KV78" s="4">
+        <v>19385</v>
+      </c>
     </row>
-    <row r="79" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -68614,11 +69183,17 @@
       <c r="KS79" s="3">
         <v>1713</v>
       </c>
-      <c r="KT79" s="4">
+      <c r="KT79" s="3">
         <v>1692</v>
       </c>
+      <c r="KU79" s="3">
+        <v>1774</v>
+      </c>
+      <c r="KV79" s="4">
+        <v>1806</v>
+      </c>
     </row>
-    <row r="80" spans="1:306" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -69532,11 +70107,17 @@
       <c r="KS80" s="3">
         <v>11728</v>
       </c>
-      <c r="KT80" s="4">
+      <c r="KT80" s="3">
         <v>11737</v>
       </c>
+      <c r="KU80" s="3">
+        <v>11881</v>
+      </c>
+      <c r="KV80" s="4">
+        <v>11934</v>
+      </c>
     </row>
-    <row r="81" spans="1:307" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -70450,11 +71031,17 @@
       <c r="KS81" s="3">
         <v>15822</v>
       </c>
-      <c r="KT81" s="4">
+      <c r="KT81" s="3">
         <v>15877</v>
       </c>
+      <c r="KU81" s="3">
+        <v>15945</v>
+      </c>
+      <c r="KV81" s="4">
+        <v>16070</v>
+      </c>
     </row>
-    <row r="82" spans="1:307" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -71368,11 +71955,17 @@
       <c r="KS82" s="3">
         <v>16234</v>
       </c>
-      <c r="KT82" s="4">
+      <c r="KT82" s="3">
         <v>16159</v>
       </c>
+      <c r="KU82" s="3">
+        <v>16239</v>
+      </c>
+      <c r="KV82" s="4">
+        <v>16398</v>
+      </c>
     </row>
-    <row r="83" spans="1:307" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -72286,11 +72879,17 @@
       <c r="KS83" s="3">
         <v>15118</v>
       </c>
-      <c r="KT83" s="4">
+      <c r="KT83" s="3">
         <v>15206</v>
       </c>
+      <c r="KU83" s="3">
+        <v>15203</v>
+      </c>
+      <c r="KV83" s="4">
+        <v>15238</v>
+      </c>
     </row>
-    <row r="84" spans="1:307" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -73204,11 +73803,17 @@
       <c r="KS84" s="3">
         <v>13321</v>
       </c>
-      <c r="KT84" s="4">
+      <c r="KT84" s="3">
         <v>13408</v>
       </c>
+      <c r="KU84" s="3">
+        <v>13468</v>
+      </c>
+      <c r="KV84" s="4">
+        <v>13552</v>
+      </c>
     </row>
-    <row r="85" spans="1:307" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -74122,11 +74727,17 @@
       <c r="KS85" s="3">
         <v>11956</v>
       </c>
-      <c r="KT85" s="4">
+      <c r="KT85" s="3">
         <v>11957</v>
       </c>
+      <c r="KU85" s="3">
+        <v>12006</v>
+      </c>
+      <c r="KV85" s="4">
+        <v>12019</v>
+      </c>
     </row>
-    <row r="86" spans="1:307" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -74811,52 +75422,58 @@
       <c r="KD86" s="3">
         <v>1</v>
       </c>
-      <c r="KE86" s="36"/>
-      <c r="KF86" s="39"/>
-      <c r="KG86" s="39">
+      <c r="KE86" s="35"/>
+      <c r="KF86" s="38"/>
+      <c r="KG86" s="38">
         <v>1</v>
       </c>
-      <c r="KH86" s="39">
+      <c r="KH86" s="38">
         <v>1</v>
       </c>
-      <c r="KI86" s="39">
+      <c r="KI86" s="38">
         <v>1</v>
       </c>
-      <c r="KJ86" s="39">
+      <c r="KJ86" s="38">
         <v>1</v>
       </c>
-      <c r="KK86" s="39">
+      <c r="KK86" s="38">
         <v>2</v>
       </c>
-      <c r="KL86" s="39">
+      <c r="KL86" s="38">
         <v>1</v>
       </c>
-      <c r="KM86" s="39">
+      <c r="KM86" s="38">
         <v>3</v>
       </c>
-      <c r="KN86" s="39">
+      <c r="KN86" s="38">
         <v>5</v>
       </c>
-      <c r="KO86" s="39">
+      <c r="KO86" s="38">
         <v>1</v>
       </c>
-      <c r="KP86" s="39">
+      <c r="KP86" s="38">
         <v>1</v>
       </c>
-      <c r="KQ86" s="36">
+      <c r="KQ86" s="35">
         <v>1</v>
       </c>
-      <c r="KR86" s="39">
+      <c r="KR86" s="38">
         <v>1</v>
       </c>
-      <c r="KS86" s="39">
+      <c r="KS86" s="38">
         <v>1</v>
       </c>
-      <c r="KT86" s="37">
+      <c r="KT86" s="38">
         <v>1</v>
       </c>
+      <c r="KU86" s="38">
+        <v>1</v>
+      </c>
+      <c r="KV86" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:307" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -75727,77 +76344,85 @@
       <c r="KD87" s="22">
         <v>1849999</v>
       </c>
-      <c r="KE87" s="34">
+      <c r="KE87" s="33">
         <v>1861159</v>
       </c>
-      <c r="KF87" s="41">
+      <c r="KF87" s="40">
         <v>1874622</v>
       </c>
-      <c r="KG87" s="41">
+      <c r="KG87" s="40">
         <v>1886776</v>
       </c>
-      <c r="KH87" s="41">
+      <c r="KH87" s="40">
         <v>1884715</v>
       </c>
-      <c r="KI87" s="41">
+      <c r="KI87" s="40">
         <v>1888232</v>
       </c>
-      <c r="KJ87" s="41">
+      <c r="KJ87" s="40">
         <v>1896755</v>
       </c>
-      <c r="KK87" s="41">
+      <c r="KK87" s="40">
         <v>1896517</v>
       </c>
-      <c r="KL87" s="41">
+      <c r="KL87" s="40">
         <v>1910627</v>
       </c>
-      <c r="KM87" s="41">
+      <c r="KM87" s="40">
         <v>1927647</v>
       </c>
-      <c r="KN87" s="41">
+      <c r="KN87" s="40">
         <v>1950941</v>
       </c>
-      <c r="KO87" s="41">
+      <c r="KO87" s="40">
         <v>1960510</v>
       </c>
-      <c r="KP87" s="41">
+      <c r="KP87" s="40">
         <v>1932962</v>
       </c>
-      <c r="KQ87" s="34">
+      <c r="KQ87" s="33">
         <v>1951256</v>
       </c>
-      <c r="KR87" s="41">
+      <c r="KR87" s="40">
         <v>1964519</v>
       </c>
-      <c r="KS87" s="41">
+      <c r="KS87" s="40">
         <v>1972715</v>
       </c>
-      <c r="KT87" s="35">
+      <c r="KT87" s="40">
         <v>1973202</v>
       </c>
-      <c r="KU87" s="24"/>
+      <c r="KU87" s="40">
+        <v>1974565</v>
+      </c>
+      <c r="KV87" s="34">
+        <v>1980790</v>
+      </c>
+      <c r="KW87" s="3"/>
     </row>
-    <row r="88" spans="1:307" x14ac:dyDescent="0.25">
-      <c r="A88" s="42" t="s">
+    <row r="88" spans="1:309" x14ac:dyDescent="0.25">
+      <c r="A88" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
-      <c r="KD88" s="24"/>
-      <c r="KR88" s="24"/>
-      <c r="KS88" s="24"/>
-      <c r="KT88" s="24"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="KD88" s="3"/>
+      <c r="KR88" s="3"/>
+      <c r="KS88" s="3"/>
+      <c r="KT88" s="3"/>
+      <c r="KU88" s="3"/>
+      <c r="KV88" s="3"/>
     </row>
-    <row r="89" spans="1:307" x14ac:dyDescent="0.25">
-      <c r="KD89" s="24"/>
+    <row r="89" spans="1:309" x14ac:dyDescent="0.25">
+      <c r="KD89" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="KQ5:KT5"/>
+    <mergeCell ref="KQ5:KV5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0625E441-DC19-4368-BF39-DD7C01B04554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463515C7-4698-459D-95EC-382CBF66E277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -157,7 +157,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998 - junio 2023</t>
+    <t>Enero 1998 - julio 2023</t>
   </si>
 </sst>
 </file>
@@ -984,6 +984,15 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -991,15 +1000,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1323,11 +1323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KW89"/>
+  <dimension ref="A1:KX89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="KK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KV90" sqref="KV90"/>
+      <pane xSplit="2" topLeftCell="KL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KT95" sqref="KT95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1462,400 +1462,403 @@
     <col min="300" max="300" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="301" max="301" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="302" max="302" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="303" max="308" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="309" max="16384" width="11.33203125" style="1"/>
+    <col min="303" max="307" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="9.109375" style="1" customWidth="1"/>
+    <col min="309" max="309" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="310" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:308" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:309" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:308" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:309" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
     </row>
-    <row r="3" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:308" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:309" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="44">
         <v>1998</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="47">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="44">
         <v>1999</v>
       </c>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="47">
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="44">
         <v>2000</v>
       </c>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="47">
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="44">
         <v>2001</v>
       </c>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="47">
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="44">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="49"/>
-      <c r="BK5" s="47">
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="45"/>
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="46"/>
+      <c r="BK5" s="44">
         <v>2003</v>
       </c>
-      <c r="BL5" s="48"/>
-      <c r="BM5" s="48"/>
-      <c r="BN5" s="48"/>
-      <c r="BO5" s="48"/>
-      <c r="BP5" s="48"/>
-      <c r="BQ5" s="48"/>
-      <c r="BR5" s="48"/>
-      <c r="BS5" s="48"/>
-      <c r="BT5" s="48"/>
-      <c r="BU5" s="48"/>
-      <c r="BV5" s="49"/>
-      <c r="BW5" s="47">
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45"/>
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="45"/>
+      <c r="BP5" s="45"/>
+      <c r="BQ5" s="45"/>
+      <c r="BR5" s="45"/>
+      <c r="BS5" s="45"/>
+      <c r="BT5" s="45"/>
+      <c r="BU5" s="45"/>
+      <c r="BV5" s="46"/>
+      <c r="BW5" s="44">
         <v>2004</v>
       </c>
-      <c r="BX5" s="48"/>
-      <c r="BY5" s="48"/>
-      <c r="BZ5" s="48"/>
-      <c r="CA5" s="48"/>
-      <c r="CB5" s="48"/>
-      <c r="CC5" s="48"/>
-      <c r="CD5" s="48"/>
-      <c r="CE5" s="48"/>
-      <c r="CF5" s="48"/>
-      <c r="CG5" s="48"/>
-      <c r="CH5" s="49"/>
-      <c r="CI5" s="47">
+      <c r="BX5" s="45"/>
+      <c r="BY5" s="45"/>
+      <c r="BZ5" s="45"/>
+      <c r="CA5" s="45"/>
+      <c r="CB5" s="45"/>
+      <c r="CC5" s="45"/>
+      <c r="CD5" s="45"/>
+      <c r="CE5" s="45"/>
+      <c r="CF5" s="45"/>
+      <c r="CG5" s="45"/>
+      <c r="CH5" s="46"/>
+      <c r="CI5" s="44">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="48"/>
-      <c r="CK5" s="48"/>
-      <c r="CL5" s="48"/>
-      <c r="CM5" s="48"/>
-      <c r="CN5" s="48"/>
-      <c r="CO5" s="48"/>
-      <c r="CP5" s="48"/>
-      <c r="CQ5" s="48"/>
-      <c r="CR5" s="48"/>
-      <c r="CS5" s="48"/>
-      <c r="CT5" s="49"/>
-      <c r="CU5" s="47">
+      <c r="CJ5" s="45"/>
+      <c r="CK5" s="45"/>
+      <c r="CL5" s="45"/>
+      <c r="CM5" s="45"/>
+      <c r="CN5" s="45"/>
+      <c r="CO5" s="45"/>
+      <c r="CP5" s="45"/>
+      <c r="CQ5" s="45"/>
+      <c r="CR5" s="45"/>
+      <c r="CS5" s="45"/>
+      <c r="CT5" s="46"/>
+      <c r="CU5" s="44">
         <v>2006</v>
       </c>
-      <c r="CV5" s="48"/>
-      <c r="CW5" s="48"/>
-      <c r="CX5" s="48"/>
-      <c r="CY5" s="48"/>
-      <c r="CZ5" s="48"/>
-      <c r="DA5" s="48"/>
-      <c r="DB5" s="48"/>
-      <c r="DC5" s="48"/>
-      <c r="DD5" s="48"/>
-      <c r="DE5" s="48"/>
-      <c r="DF5" s="49"/>
-      <c r="DG5" s="47">
+      <c r="CV5" s="45"/>
+      <c r="CW5" s="45"/>
+      <c r="CX5" s="45"/>
+      <c r="CY5" s="45"/>
+      <c r="CZ5" s="45"/>
+      <c r="DA5" s="45"/>
+      <c r="DB5" s="45"/>
+      <c r="DC5" s="45"/>
+      <c r="DD5" s="45"/>
+      <c r="DE5" s="45"/>
+      <c r="DF5" s="46"/>
+      <c r="DG5" s="44">
         <v>2007</v>
       </c>
-      <c r="DH5" s="48"/>
-      <c r="DI5" s="48"/>
-      <c r="DJ5" s="48"/>
-      <c r="DK5" s="48"/>
-      <c r="DL5" s="48"/>
-      <c r="DM5" s="48"/>
-      <c r="DN5" s="48"/>
-      <c r="DO5" s="48"/>
-      <c r="DP5" s="48"/>
-      <c r="DQ5" s="48"/>
-      <c r="DR5" s="49"/>
-      <c r="DS5" s="47">
+      <c r="DH5" s="45"/>
+      <c r="DI5" s="45"/>
+      <c r="DJ5" s="45"/>
+      <c r="DK5" s="45"/>
+      <c r="DL5" s="45"/>
+      <c r="DM5" s="45"/>
+      <c r="DN5" s="45"/>
+      <c r="DO5" s="45"/>
+      <c r="DP5" s="45"/>
+      <c r="DQ5" s="45"/>
+      <c r="DR5" s="46"/>
+      <c r="DS5" s="44">
         <v>2008</v>
       </c>
-      <c r="DT5" s="48"/>
-      <c r="DU5" s="48"/>
-      <c r="DV5" s="48"/>
-      <c r="DW5" s="48"/>
-      <c r="DX5" s="48"/>
-      <c r="DY5" s="48"/>
-      <c r="DZ5" s="48"/>
-      <c r="EA5" s="48"/>
-      <c r="EB5" s="48"/>
-      <c r="EC5" s="48"/>
-      <c r="ED5" s="49"/>
-      <c r="EE5" s="47">
+      <c r="DT5" s="45"/>
+      <c r="DU5" s="45"/>
+      <c r="DV5" s="45"/>
+      <c r="DW5" s="45"/>
+      <c r="DX5" s="45"/>
+      <c r="DY5" s="45"/>
+      <c r="DZ5" s="45"/>
+      <c r="EA5" s="45"/>
+      <c r="EB5" s="45"/>
+      <c r="EC5" s="45"/>
+      <c r="ED5" s="46"/>
+      <c r="EE5" s="44">
         <v>2009</v>
       </c>
-      <c r="EF5" s="48"/>
-      <c r="EG5" s="48"/>
-      <c r="EH5" s="48"/>
-      <c r="EI5" s="48"/>
-      <c r="EJ5" s="48"/>
-      <c r="EK5" s="48"/>
-      <c r="EL5" s="48"/>
-      <c r="EM5" s="48"/>
-      <c r="EN5" s="48"/>
-      <c r="EO5" s="48"/>
-      <c r="EP5" s="49"/>
-      <c r="EQ5" s="47">
+      <c r="EF5" s="45"/>
+      <c r="EG5" s="45"/>
+      <c r="EH5" s="45"/>
+      <c r="EI5" s="45"/>
+      <c r="EJ5" s="45"/>
+      <c r="EK5" s="45"/>
+      <c r="EL5" s="45"/>
+      <c r="EM5" s="45"/>
+      <c r="EN5" s="45"/>
+      <c r="EO5" s="45"/>
+      <c r="EP5" s="46"/>
+      <c r="EQ5" s="44">
         <v>2010</v>
       </c>
-      <c r="ER5" s="48"/>
-      <c r="ES5" s="48"/>
-      <c r="ET5" s="48"/>
-      <c r="EU5" s="48"/>
-      <c r="EV5" s="48"/>
-      <c r="EW5" s="48"/>
-      <c r="EX5" s="48"/>
-      <c r="EY5" s="48"/>
-      <c r="EZ5" s="48"/>
-      <c r="FA5" s="48"/>
-      <c r="FB5" s="49"/>
-      <c r="FC5" s="47">
+      <c r="ER5" s="45"/>
+      <c r="ES5" s="45"/>
+      <c r="ET5" s="45"/>
+      <c r="EU5" s="45"/>
+      <c r="EV5" s="45"/>
+      <c r="EW5" s="45"/>
+      <c r="EX5" s="45"/>
+      <c r="EY5" s="45"/>
+      <c r="EZ5" s="45"/>
+      <c r="FA5" s="45"/>
+      <c r="FB5" s="46"/>
+      <c r="FC5" s="44">
         <v>2011</v>
       </c>
-      <c r="FD5" s="48"/>
-      <c r="FE5" s="48"/>
-      <c r="FF5" s="48"/>
-      <c r="FG5" s="48"/>
-      <c r="FH5" s="48"/>
-      <c r="FI5" s="48"/>
-      <c r="FJ5" s="48"/>
-      <c r="FK5" s="48"/>
-      <c r="FL5" s="48"/>
-      <c r="FM5" s="48"/>
-      <c r="FN5" s="49"/>
-      <c r="FO5" s="47">
+      <c r="FD5" s="45"/>
+      <c r="FE5" s="45"/>
+      <c r="FF5" s="45"/>
+      <c r="FG5" s="45"/>
+      <c r="FH5" s="45"/>
+      <c r="FI5" s="45"/>
+      <c r="FJ5" s="45"/>
+      <c r="FK5" s="45"/>
+      <c r="FL5" s="45"/>
+      <c r="FM5" s="45"/>
+      <c r="FN5" s="46"/>
+      <c r="FO5" s="44">
         <v>2012</v>
       </c>
-      <c r="FP5" s="48"/>
-      <c r="FQ5" s="48"/>
-      <c r="FR5" s="48"/>
-      <c r="FS5" s="48"/>
-      <c r="FT5" s="48"/>
-      <c r="FU5" s="48"/>
-      <c r="FV5" s="48"/>
-      <c r="FW5" s="48"/>
-      <c r="FX5" s="48"/>
-      <c r="FY5" s="48"/>
-      <c r="FZ5" s="49"/>
-      <c r="GA5" s="47">
+      <c r="FP5" s="45"/>
+      <c r="FQ5" s="45"/>
+      <c r="FR5" s="45"/>
+      <c r="FS5" s="45"/>
+      <c r="FT5" s="45"/>
+      <c r="FU5" s="45"/>
+      <c r="FV5" s="45"/>
+      <c r="FW5" s="45"/>
+      <c r="FX5" s="45"/>
+      <c r="FY5" s="45"/>
+      <c r="FZ5" s="46"/>
+      <c r="GA5" s="44">
         <v>2013</v>
       </c>
-      <c r="GB5" s="48"/>
-      <c r="GC5" s="48"/>
-      <c r="GD5" s="48"/>
-      <c r="GE5" s="48"/>
-      <c r="GF5" s="48"/>
-      <c r="GG5" s="48"/>
-      <c r="GH5" s="48"/>
-      <c r="GI5" s="48"/>
-      <c r="GJ5" s="48"/>
-      <c r="GK5" s="48"/>
-      <c r="GL5" s="49"/>
-      <c r="GM5" s="47">
+      <c r="GB5" s="45"/>
+      <c r="GC5" s="45"/>
+      <c r="GD5" s="45"/>
+      <c r="GE5" s="45"/>
+      <c r="GF5" s="45"/>
+      <c r="GG5" s="45"/>
+      <c r="GH5" s="45"/>
+      <c r="GI5" s="45"/>
+      <c r="GJ5" s="45"/>
+      <c r="GK5" s="45"/>
+      <c r="GL5" s="46"/>
+      <c r="GM5" s="44">
         <v>2014</v>
       </c>
-      <c r="GN5" s="48"/>
-      <c r="GO5" s="48"/>
-      <c r="GP5" s="48"/>
-      <c r="GQ5" s="48"/>
-      <c r="GR5" s="48"/>
-      <c r="GS5" s="48"/>
-      <c r="GT5" s="48"/>
-      <c r="GU5" s="48"/>
-      <c r="GV5" s="48"/>
-      <c r="GW5" s="48"/>
-      <c r="GX5" s="49"/>
-      <c r="GY5" s="47">
+      <c r="GN5" s="45"/>
+      <c r="GO5" s="45"/>
+      <c r="GP5" s="45"/>
+      <c r="GQ5" s="45"/>
+      <c r="GR5" s="45"/>
+      <c r="GS5" s="45"/>
+      <c r="GT5" s="45"/>
+      <c r="GU5" s="45"/>
+      <c r="GV5" s="45"/>
+      <c r="GW5" s="45"/>
+      <c r="GX5" s="46"/>
+      <c r="GY5" s="44">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="48"/>
-      <c r="HA5" s="48"/>
-      <c r="HB5" s="48"/>
-      <c r="HC5" s="48"/>
-      <c r="HD5" s="48"/>
-      <c r="HE5" s="48"/>
-      <c r="HF5" s="48"/>
-      <c r="HG5" s="48"/>
-      <c r="HH5" s="48"/>
-      <c r="HI5" s="48"/>
-      <c r="HJ5" s="49"/>
-      <c r="HK5" s="47">
+      <c r="GZ5" s="45"/>
+      <c r="HA5" s="45"/>
+      <c r="HB5" s="45"/>
+      <c r="HC5" s="45"/>
+      <c r="HD5" s="45"/>
+      <c r="HE5" s="45"/>
+      <c r="HF5" s="45"/>
+      <c r="HG5" s="45"/>
+      <c r="HH5" s="45"/>
+      <c r="HI5" s="45"/>
+      <c r="HJ5" s="46"/>
+      <c r="HK5" s="44">
         <v>2016</v>
       </c>
-      <c r="HL5" s="48"/>
-      <c r="HM5" s="48"/>
-      <c r="HN5" s="48"/>
-      <c r="HO5" s="48"/>
-      <c r="HP5" s="48"/>
-      <c r="HQ5" s="48"/>
-      <c r="HR5" s="48"/>
-      <c r="HS5" s="48"/>
-      <c r="HT5" s="48"/>
-      <c r="HU5" s="48"/>
-      <c r="HV5" s="49"/>
-      <c r="HW5" s="47">
+      <c r="HL5" s="45"/>
+      <c r="HM5" s="45"/>
+      <c r="HN5" s="45"/>
+      <c r="HO5" s="45"/>
+      <c r="HP5" s="45"/>
+      <c r="HQ5" s="45"/>
+      <c r="HR5" s="45"/>
+      <c r="HS5" s="45"/>
+      <c r="HT5" s="45"/>
+      <c r="HU5" s="45"/>
+      <c r="HV5" s="46"/>
+      <c r="HW5" s="44">
         <v>2017</v>
       </c>
-      <c r="HX5" s="48"/>
-      <c r="HY5" s="48"/>
-      <c r="HZ5" s="48"/>
-      <c r="IA5" s="48"/>
-      <c r="IB5" s="48"/>
-      <c r="IC5" s="48"/>
-      <c r="ID5" s="48"/>
-      <c r="IE5" s="48"/>
-      <c r="IF5" s="48"/>
-      <c r="IG5" s="48"/>
-      <c r="IH5" s="49"/>
-      <c r="II5" s="47">
+      <c r="HX5" s="45"/>
+      <c r="HY5" s="45"/>
+      <c r="HZ5" s="45"/>
+      <c r="IA5" s="45"/>
+      <c r="IB5" s="45"/>
+      <c r="IC5" s="45"/>
+      <c r="ID5" s="45"/>
+      <c r="IE5" s="45"/>
+      <c r="IF5" s="45"/>
+      <c r="IG5" s="45"/>
+      <c r="IH5" s="46"/>
+      <c r="II5" s="44">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="48"/>
-      <c r="IK5" s="48"/>
-      <c r="IL5" s="48"/>
-      <c r="IM5" s="48"/>
-      <c r="IN5" s="48"/>
-      <c r="IO5" s="48"/>
-      <c r="IP5" s="48"/>
-      <c r="IQ5" s="48"/>
-      <c r="IR5" s="48"/>
-      <c r="IS5" s="48"/>
-      <c r="IT5" s="49"/>
-      <c r="IU5" s="47">
+      <c r="IJ5" s="45"/>
+      <c r="IK5" s="45"/>
+      <c r="IL5" s="45"/>
+      <c r="IM5" s="45"/>
+      <c r="IN5" s="45"/>
+      <c r="IO5" s="45"/>
+      <c r="IP5" s="45"/>
+      <c r="IQ5" s="45"/>
+      <c r="IR5" s="45"/>
+      <c r="IS5" s="45"/>
+      <c r="IT5" s="46"/>
+      <c r="IU5" s="44">
         <v>2019</v>
       </c>
-      <c r="IV5" s="48"/>
-      <c r="IW5" s="48"/>
-      <c r="IX5" s="48"/>
-      <c r="IY5" s="48"/>
-      <c r="IZ5" s="48"/>
-      <c r="JA5" s="48"/>
-      <c r="JB5" s="48"/>
-      <c r="JC5" s="48"/>
-      <c r="JD5" s="48"/>
-      <c r="JE5" s="48"/>
-      <c r="JF5" s="49"/>
-      <c r="JG5" s="47">
+      <c r="IV5" s="45"/>
+      <c r="IW5" s="45"/>
+      <c r="IX5" s="45"/>
+      <c r="IY5" s="45"/>
+      <c r="IZ5" s="45"/>
+      <c r="JA5" s="45"/>
+      <c r="JB5" s="45"/>
+      <c r="JC5" s="45"/>
+      <c r="JD5" s="45"/>
+      <c r="JE5" s="45"/>
+      <c r="JF5" s="46"/>
+      <c r="JG5" s="44">
         <v>2020</v>
       </c>
-      <c r="JH5" s="48"/>
-      <c r="JI5" s="48"/>
-      <c r="JJ5" s="48"/>
-      <c r="JK5" s="48"/>
-      <c r="JL5" s="48"/>
-      <c r="JM5" s="48"/>
-      <c r="JN5" s="48"/>
-      <c r="JO5" s="48"/>
-      <c r="JP5" s="48"/>
-      <c r="JQ5" s="48"/>
-      <c r="JR5" s="49"/>
-      <c r="JS5" s="47">
+      <c r="JH5" s="45"/>
+      <c r="JI5" s="45"/>
+      <c r="JJ5" s="45"/>
+      <c r="JK5" s="45"/>
+      <c r="JL5" s="45"/>
+      <c r="JM5" s="45"/>
+      <c r="JN5" s="45"/>
+      <c r="JO5" s="45"/>
+      <c r="JP5" s="45"/>
+      <c r="JQ5" s="45"/>
+      <c r="JR5" s="46"/>
+      <c r="JS5" s="44">
         <v>2021</v>
       </c>
-      <c r="JT5" s="48"/>
-      <c r="JU5" s="48"/>
-      <c r="JV5" s="48"/>
-      <c r="JW5" s="48"/>
-      <c r="JX5" s="48"/>
-      <c r="JY5" s="48"/>
-      <c r="JZ5" s="48"/>
-      <c r="KA5" s="48"/>
-      <c r="KB5" s="48"/>
-      <c r="KC5" s="48"/>
-      <c r="KD5" s="48"/>
-      <c r="KE5" s="47">
+      <c r="JT5" s="45"/>
+      <c r="JU5" s="45"/>
+      <c r="JV5" s="45"/>
+      <c r="JW5" s="45"/>
+      <c r="JX5" s="45"/>
+      <c r="JY5" s="45"/>
+      <c r="JZ5" s="45"/>
+      <c r="KA5" s="45"/>
+      <c r="KB5" s="45"/>
+      <c r="KC5" s="45"/>
+      <c r="KD5" s="45"/>
+      <c r="KE5" s="44">
         <v>2022</v>
       </c>
-      <c r="KF5" s="48"/>
-      <c r="KG5" s="48"/>
-      <c r="KH5" s="48"/>
-      <c r="KI5" s="48"/>
-      <c r="KJ5" s="48"/>
-      <c r="KK5" s="48"/>
-      <c r="KL5" s="48"/>
-      <c r="KM5" s="48"/>
-      <c r="KN5" s="48"/>
-      <c r="KO5" s="48"/>
-      <c r="KP5" s="49"/>
-      <c r="KQ5" s="47">
+      <c r="KF5" s="45"/>
+      <c r="KG5" s="45"/>
+      <c r="KH5" s="45"/>
+      <c r="KI5" s="45"/>
+      <c r="KJ5" s="45"/>
+      <c r="KK5" s="45"/>
+      <c r="KL5" s="45"/>
+      <c r="KM5" s="45"/>
+      <c r="KN5" s="45"/>
+      <c r="KO5" s="45"/>
+      <c r="KP5" s="46"/>
+      <c r="KQ5" s="44">
         <v>2023</v>
       </c>
-      <c r="KR5" s="48"/>
-      <c r="KS5" s="48"/>
-      <c r="KT5" s="48"/>
-      <c r="KU5" s="48"/>
-      <c r="KV5" s="49"/>
+      <c r="KR5" s="45"/>
+      <c r="KS5" s="45"/>
+      <c r="KT5" s="45"/>
+      <c r="KU5" s="45"/>
+      <c r="KV5" s="45"/>
+      <c r="KW5" s="46"/>
     </row>
-    <row r="6" spans="1:308" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+    <row r="6" spans="1:309" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2771,11 +2774,14 @@
       <c r="KU6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="KV6" s="43" t="s">
+      <c r="KV6" s="42" t="s">
         <v>13</v>
       </c>
+      <c r="KW6" s="43" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:308" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:309" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3697,11 +3703,14 @@
       <c r="KU7" s="37">
         <v>120101</v>
       </c>
-      <c r="KV7" s="30">
+      <c r="KV7" s="37">
         <v>118854</v>
       </c>
+      <c r="KW7" s="30">
+        <v>116264</v>
+      </c>
     </row>
-    <row r="8" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4621,11 +4630,14 @@
       <c r="KU8" s="3">
         <v>23731</v>
       </c>
-      <c r="KV8" s="4">
+      <c r="KV8" s="3">
         <v>23665</v>
       </c>
+      <c r="KW8" s="4">
+        <v>23024</v>
+      </c>
     </row>
-    <row r="9" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5545,11 +5557,14 @@
       <c r="KU9" s="3">
         <v>5267</v>
       </c>
-      <c r="KV9" s="4">
+      <c r="KV9" s="3">
         <v>5325</v>
       </c>
+      <c r="KW9" s="4">
+        <v>5144</v>
+      </c>
     </row>
-    <row r="10" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6469,11 +6484,14 @@
       <c r="KU10" s="3">
         <v>17937</v>
       </c>
-      <c r="KV10" s="4">
+      <c r="KV10" s="3">
         <v>17708</v>
       </c>
+      <c r="KW10" s="4">
+        <v>17140</v>
+      </c>
     </row>
-    <row r="11" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7393,11 +7411,14 @@
       <c r="KU11" s="3">
         <v>18113</v>
       </c>
-      <c r="KV11" s="4">
+      <c r="KV11" s="3">
         <v>17734</v>
       </c>
+      <c r="KW11" s="4">
+        <v>17310</v>
+      </c>
     </row>
-    <row r="12" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -8317,11 +8338,14 @@
       <c r="KU12" s="3">
         <v>16561</v>
       </c>
-      <c r="KV12" s="4">
+      <c r="KV12" s="3">
         <v>16341</v>
       </c>
+      <c r="KW12" s="4">
+        <v>16051</v>
+      </c>
     </row>
-    <row r="13" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -9241,11 +9265,14 @@
       <c r="KU13" s="3">
         <v>14285</v>
       </c>
-      <c r="KV13" s="4">
+      <c r="KV13" s="3">
         <v>14105</v>
       </c>
+      <c r="KW13" s="4">
+        <v>13941</v>
+      </c>
     </row>
-    <row r="14" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -10165,11 +10192,14 @@
       <c r="KU14" s="3">
         <v>12625</v>
       </c>
-      <c r="KV14" s="4">
+      <c r="KV14" s="3">
         <v>12468</v>
       </c>
+      <c r="KW14" s="4">
+        <v>12282</v>
+      </c>
     </row>
-    <row r="15" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -11089,11 +11119,14 @@
       <c r="KU15" s="3">
         <v>11575</v>
       </c>
-      <c r="KV15" s="4">
+      <c r="KV15" s="3">
         <v>11502</v>
       </c>
+      <c r="KW15" s="4">
+        <v>11368</v>
+      </c>
     </row>
-    <row r="16" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -12013,11 +12046,14 @@
       <c r="KU16" s="38">
         <v>7</v>
       </c>
-      <c r="KV16" s="36">
+      <c r="KV16" s="38">
         <v>6</v>
       </c>
+      <c r="KW16" s="36">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12939,11 +12975,14 @@
       <c r="KU17" s="37">
         <v>405961</v>
       </c>
-      <c r="KV17" s="30">
+      <c r="KV17" s="37">
         <v>409197</v>
       </c>
+      <c r="KW17" s="30">
+        <v>411628</v>
+      </c>
     </row>
-    <row r="18" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13863,11 +13902,14 @@
       <c r="KU18" s="3">
         <v>65605</v>
       </c>
-      <c r="KV18" s="4">
+      <c r="KV18" s="3">
         <v>66510</v>
       </c>
+      <c r="KW18" s="4">
+        <v>67292</v>
+      </c>
     </row>
-    <row r="19" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14787,11 +14829,14 @@
       <c r="KU19" s="3">
         <v>10742</v>
       </c>
-      <c r="KV19" s="4">
+      <c r="KV19" s="3">
         <v>11299</v>
       </c>
+      <c r="KW19" s="4">
+        <v>11529</v>
+      </c>
     </row>
-    <row r="20" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15711,11 +15756,14 @@
       <c r="KU20" s="3">
         <v>54709</v>
       </c>
-      <c r="KV20" s="4">
+      <c r="KV20" s="3">
         <v>55536</v>
       </c>
+      <c r="KW20" s="4">
+        <v>55753</v>
+      </c>
     </row>
-    <row r="21" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -16635,11 +16683,14 @@
       <c r="KU21" s="3">
         <v>66416</v>
       </c>
-      <c r="KV21" s="4">
+      <c r="KV21" s="3">
         <v>66659</v>
       </c>
+      <c r="KW21" s="4">
+        <v>66993</v>
+      </c>
     </row>
-    <row r="22" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -17559,11 +17610,14 @@
       <c r="KU22" s="3">
         <v>64798</v>
       </c>
-      <c r="KV22" s="4">
+      <c r="KV22" s="3">
         <v>64838</v>
       </c>
+      <c r="KW22" s="4">
+        <v>64923</v>
+      </c>
     </row>
-    <row r="23" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -18483,11 +18537,14 @@
       <c r="KU23" s="3">
         <v>56799</v>
       </c>
-      <c r="KV23" s="4">
+      <c r="KV23" s="3">
         <v>56980</v>
       </c>
+      <c r="KW23" s="4">
+        <v>57303</v>
+      </c>
     </row>
-    <row r="24" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -19407,11 +19464,14 @@
       <c r="KU24" s="3">
         <v>47385</v>
       </c>
-      <c r="KV24" s="4">
+      <c r="KV24" s="3">
         <v>47700</v>
       </c>
+      <c r="KW24" s="4">
+        <v>47962</v>
+      </c>
     </row>
-    <row r="25" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -20331,11 +20391,14 @@
       <c r="KU25" s="3">
         <v>39506</v>
       </c>
-      <c r="KV25" s="4">
+      <c r="KV25" s="3">
         <v>39671</v>
       </c>
+      <c r="KW25" s="4">
+        <v>39870</v>
+      </c>
     </row>
-    <row r="26" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -21245,11 +21308,14 @@
       <c r="KU26" s="38">
         <v>1</v>
       </c>
-      <c r="KV26" s="36">
+      <c r="KV26" s="38">
         <v>4</v>
       </c>
+      <c r="KW26" s="36">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -22171,11 +22237,14 @@
       <c r="KU27" s="37">
         <v>151152</v>
       </c>
-      <c r="KV27" s="30">
+      <c r="KV27" s="37">
         <v>152849</v>
       </c>
+      <c r="KW27" s="30">
+        <v>153255</v>
+      </c>
     </row>
-    <row r="28" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -23095,11 +23164,14 @@
       <c r="KU28" s="3">
         <v>27801</v>
       </c>
-      <c r="KV28" s="4">
+      <c r="KV28" s="3">
         <v>28084</v>
       </c>
+      <c r="KW28" s="4">
+        <v>28074</v>
+      </c>
     </row>
-    <row r="29" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -24019,11 +24091,14 @@
       <c r="KU29" s="3">
         <v>4786</v>
       </c>
-      <c r="KV29" s="4">
+      <c r="KV29" s="3">
         <v>4862</v>
       </c>
+      <c r="KW29" s="4">
+        <v>4939</v>
+      </c>
     </row>
-    <row r="30" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -24943,11 +25018,14 @@
       <c r="KU30" s="3">
         <v>19146</v>
       </c>
-      <c r="KV30" s="4">
+      <c r="KV30" s="3">
         <v>19448</v>
       </c>
+      <c r="KW30" s="4">
+        <v>19616</v>
+      </c>
     </row>
-    <row r="31" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -25867,11 +25945,14 @@
       <c r="KU31" s="3">
         <v>23943</v>
       </c>
-      <c r="KV31" s="4">
+      <c r="KV31" s="3">
         <v>24406</v>
       </c>
+      <c r="KW31" s="4">
+        <v>24575</v>
+      </c>
     </row>
-    <row r="32" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -26791,11 +26872,14 @@
       <c r="KU32" s="3">
         <v>22783</v>
       </c>
-      <c r="KV32" s="4">
+      <c r="KV32" s="3">
         <v>22975</v>
       </c>
+      <c r="KW32" s="4">
+        <v>23078</v>
+      </c>
     </row>
-    <row r="33" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -27715,11 +27799,14 @@
       <c r="KU33" s="3">
         <v>20184</v>
       </c>
-      <c r="KV33" s="4">
+      <c r="KV33" s="3">
         <v>20346</v>
       </c>
+      <c r="KW33" s="4">
+        <v>20284</v>
+      </c>
     </row>
-    <row r="34" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -28639,11 +28726,14 @@
       <c r="KU34" s="3">
         <v>17465</v>
       </c>
-      <c r="KV34" s="4">
+      <c r="KV34" s="3">
         <v>17560</v>
       </c>
+      <c r="KW34" s="4">
+        <v>17549</v>
+      </c>
     </row>
-    <row r="35" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -29563,11 +29653,14 @@
       <c r="KU35" s="3">
         <v>15030</v>
       </c>
-      <c r="KV35" s="4">
+      <c r="KV35" s="3">
         <v>15150</v>
       </c>
+      <c r="KW35" s="4">
+        <v>15121</v>
+      </c>
     </row>
-    <row r="36" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -30487,11 +30580,14 @@
       <c r="KU36" s="38">
         <v>14</v>
       </c>
-      <c r="KV36" s="36">
+      <c r="KV36" s="38">
         <v>18</v>
       </c>
+      <c r="KW36" s="36">
+        <v>19</v>
+      </c>
     </row>
-    <row r="37" spans="1:308" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:309" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>34</v>
       </c>
@@ -31413,11 +31509,14 @@
       <c r="KU37" s="39">
         <v>10020</v>
       </c>
-      <c r="KV37" s="32">
+      <c r="KV37" s="39">
         <v>10060</v>
       </c>
+      <c r="KW37" s="32">
+        <v>10088</v>
+      </c>
     </row>
-    <row r="38" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -32337,11 +32436,14 @@
       <c r="KU38" s="3">
         <v>1755</v>
       </c>
-      <c r="KV38" s="4">
+      <c r="KV38" s="3">
         <v>1769</v>
       </c>
+      <c r="KW38" s="4">
+        <v>1770</v>
+      </c>
     </row>
-    <row r="39" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -33261,11 +33363,14 @@
       <c r="KU39" s="3">
         <v>90</v>
       </c>
-      <c r="KV39" s="4">
+      <c r="KV39" s="3">
         <v>95</v>
       </c>
+      <c r="KW39" s="4">
+        <v>102</v>
+      </c>
     </row>
-    <row r="40" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -34185,11 +34290,14 @@
       <c r="KU40" s="3">
         <v>649</v>
       </c>
-      <c r="KV40" s="4">
+      <c r="KV40" s="3">
         <v>663</v>
       </c>
+      <c r="KW40" s="4">
+        <v>648</v>
+      </c>
     </row>
-    <row r="41" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -35109,11 +35217,14 @@
       <c r="KU41" s="3">
         <v>1062</v>
       </c>
-      <c r="KV41" s="4">
+      <c r="KV41" s="3">
         <v>1057</v>
       </c>
+      <c r="KW41" s="4">
+        <v>1072</v>
+      </c>
     </row>
-    <row r="42" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -36033,11 +36144,14 @@
       <c r="KU42" s="3">
         <v>1433</v>
       </c>
-      <c r="KV42" s="4">
+      <c r="KV42" s="3">
         <v>1443</v>
       </c>
+      <c r="KW42" s="4">
+        <v>1452</v>
+      </c>
     </row>
-    <row r="43" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -36957,11 +37071,14 @@
       <c r="KU43" s="3">
         <v>1788</v>
       </c>
-      <c r="KV43" s="4">
+      <c r="KV43" s="3">
         <v>1777</v>
       </c>
+      <c r="KW43" s="4">
+        <v>1777</v>
+      </c>
     </row>
-    <row r="44" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -37881,11 +37998,14 @@
       <c r="KU44" s="3">
         <v>1739</v>
       </c>
-      <c r="KV44" s="4">
+      <c r="KV44" s="3">
         <v>1760</v>
       </c>
+      <c r="KW44" s="4">
+        <v>1775</v>
+      </c>
     </row>
-    <row r="45" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -38805,11 +38925,14 @@
       <c r="KU45" s="3">
         <v>1504</v>
       </c>
-      <c r="KV45" s="4">
+      <c r="KV45" s="3">
         <v>1496</v>
       </c>
+      <c r="KW45" s="4">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="46" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -39243,9 +39366,10 @@
       <c r="KS46" s="38"/>
       <c r="KT46" s="38"/>
       <c r="KU46" s="38"/>
-      <c r="KV46" s="36"/>
+      <c r="KV46" s="38"/>
+      <c r="KW46" s="36"/>
     </row>
-    <row r="47" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -40167,11 +40291,14 @@
       <c r="KU47" s="37">
         <v>519348</v>
       </c>
-      <c r="KV47" s="30">
+      <c r="KV47" s="37">
         <v>520206</v>
       </c>
+      <c r="KW47" s="30">
+        <v>520186</v>
+      </c>
     </row>
-    <row r="48" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -41091,11 +41218,14 @@
       <c r="KU48" s="3">
         <v>83054</v>
       </c>
-      <c r="KV48" s="4">
+      <c r="KV48" s="3">
         <v>83482</v>
       </c>
+      <c r="KW48" s="4">
+        <v>83641</v>
+      </c>
     </row>
-    <row r="49" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -42015,11 +42145,14 @@
       <c r="KU49" s="3">
         <v>14920</v>
       </c>
-      <c r="KV49" s="4">
+      <c r="KV49" s="3">
         <v>15246</v>
       </c>
+      <c r="KW49" s="4">
+        <v>15195</v>
+      </c>
     </row>
-    <row r="50" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -42939,11 +43072,14 @@
       <c r="KU50" s="3">
         <v>71885</v>
       </c>
-      <c r="KV50" s="4">
+      <c r="KV50" s="3">
         <v>72437</v>
       </c>
+      <c r="KW50" s="4">
+        <v>72287</v>
+      </c>
     </row>
-    <row r="51" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -43863,11 +43999,14 @@
       <c r="KU51" s="3">
         <v>83241</v>
       </c>
-      <c r="KV51" s="4">
+      <c r="KV51" s="3">
         <v>83014</v>
       </c>
+      <c r="KW51" s="4">
+        <v>83078</v>
+      </c>
     </row>
-    <row r="52" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -44787,11 +44926,14 @@
       <c r="KU52" s="3">
         <v>77689</v>
       </c>
-      <c r="KV52" s="4">
+      <c r="KV52" s="3">
         <v>77611</v>
       </c>
+      <c r="KW52" s="4">
+        <v>77678</v>
+      </c>
     </row>
-    <row r="53" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -45711,11 +45853,14 @@
       <c r="KU53" s="3">
         <v>68740</v>
       </c>
-      <c r="KV53" s="4">
+      <c r="KV53" s="3">
         <v>68665</v>
       </c>
+      <c r="KW53" s="4">
+        <v>68468</v>
+      </c>
     </row>
-    <row r="54" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -46635,11 +46780,14 @@
       <c r="KU54" s="3">
         <v>64108</v>
       </c>
-      <c r="KV54" s="4">
+      <c r="KV54" s="3">
         <v>64112</v>
       </c>
+      <c r="KW54" s="4">
+        <v>64205</v>
+      </c>
     </row>
-    <row r="55" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -47559,11 +47707,14 @@
       <c r="KU55" s="3">
         <v>55708</v>
       </c>
-      <c r="KV55" s="4">
+      <c r="KV55" s="3">
         <v>55634</v>
       </c>
+      <c r="KW55" s="4">
+        <v>55631</v>
+      </c>
     </row>
-    <row r="56" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -48483,11 +48634,14 @@
       <c r="KU56" s="38">
         <v>3</v>
       </c>
-      <c r="KV56" s="36">
+      <c r="KV56" s="38">
         <v>5</v>
       </c>
+      <c r="KW56" s="36">
+        <v>3</v>
+      </c>
     </row>
-    <row r="57" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -49409,11 +49563,14 @@
       <c r="KU57" s="37">
         <v>2538</v>
       </c>
-      <c r="KV57" s="30">
+      <c r="KV57" s="37">
         <v>2593</v>
       </c>
+      <c r="KW57" s="30">
+        <v>2602</v>
+      </c>
     </row>
-    <row r="58" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -50333,11 +50490,14 @@
       <c r="KU58" s="3">
         <v>560</v>
       </c>
-      <c r="KV58" s="4">
+      <c r="KV58" s="3">
         <v>572</v>
       </c>
+      <c r="KW58" s="4">
+        <v>589</v>
+      </c>
     </row>
-    <row r="59" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -51257,11 +51417,14 @@
       <c r="KU59" s="3">
         <v>31</v>
       </c>
-      <c r="KV59" s="4">
+      <c r="KV59" s="3">
         <v>29</v>
       </c>
+      <c r="KW59" s="4">
+        <v>27</v>
+      </c>
     </row>
-    <row r="60" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -52181,11 +52344,14 @@
       <c r="KU60" s="3">
         <v>174</v>
       </c>
-      <c r="KV60" s="4">
+      <c r="KV60" s="3">
         <v>176</v>
       </c>
+      <c r="KW60" s="4">
+        <v>183</v>
+      </c>
     </row>
-    <row r="61" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -53105,11 +53271,14 @@
       <c r="KU61" s="3">
         <v>371</v>
       </c>
-      <c r="KV61" s="4">
+      <c r="KV61" s="3">
         <v>377</v>
       </c>
+      <c r="KW61" s="4">
+        <v>363</v>
+      </c>
     </row>
-    <row r="62" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -54029,11 +54198,14 @@
       <c r="KU62" s="3">
         <v>391</v>
       </c>
-      <c r="KV62" s="4">
+      <c r="KV62" s="3">
         <v>397</v>
       </c>
+      <c r="KW62" s="4">
+        <v>395</v>
+      </c>
     </row>
-    <row r="63" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -54953,11 +55125,14 @@
       <c r="KU63" s="3">
         <v>379</v>
       </c>
-      <c r="KV63" s="4">
+      <c r="KV63" s="3">
         <v>396</v>
       </c>
+      <c r="KW63" s="4">
+        <v>399</v>
+      </c>
     </row>
-    <row r="64" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -55877,11 +56052,14 @@
       <c r="KU64" s="3">
         <v>326</v>
       </c>
-      <c r="KV64" s="4">
+      <c r="KV64" s="3">
         <v>334</v>
       </c>
+      <c r="KW64" s="4">
+        <v>330</v>
+      </c>
     </row>
-    <row r="65" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -56801,11 +56979,14 @@
       <c r="KU65" s="3">
         <v>306</v>
       </c>
-      <c r="KV65" s="4">
+      <c r="KV65" s="3">
         <v>312</v>
       </c>
+      <c r="KW65" s="4">
+        <v>316</v>
+      </c>
     </row>
-    <row r="66" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -57175,9 +57356,10 @@
       <c r="KS66" s="38"/>
       <c r="KT66" s="38"/>
       <c r="KU66" s="38"/>
-      <c r="KV66" s="36"/>
+      <c r="KV66" s="38"/>
+      <c r="KW66" s="36"/>
     </row>
-    <row r="67" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -58099,11 +58281,14 @@
       <c r="KU67" s="37">
         <v>659693</v>
       </c>
-      <c r="KV67" s="30">
+      <c r="KV67" s="37">
         <v>660628</v>
       </c>
+      <c r="KW67" s="30">
+        <v>660673</v>
+      </c>
     </row>
-    <row r="68" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -59023,11 +59208,14 @@
       <c r="KU68" s="3">
         <v>141513</v>
       </c>
-      <c r="KV68" s="4">
+      <c r="KV68" s="3">
         <v>142019</v>
       </c>
+      <c r="KW68" s="4">
+        <v>142748</v>
+      </c>
     </row>
-    <row r="69" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -59947,11 +60135,14 @@
       <c r="KU69" s="3">
         <v>10634</v>
       </c>
-      <c r="KV69" s="4">
+      <c r="KV69" s="3">
         <v>10975</v>
       </c>
+      <c r="KW69" s="4">
+        <v>11192</v>
+      </c>
     </row>
-    <row r="70" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -60871,11 +61062,14 @@
       <c r="KU70" s="3">
         <v>63571</v>
       </c>
-      <c r="KV70" s="4">
+      <c r="KV70" s="3">
         <v>64198</v>
       </c>
+      <c r="KW70" s="4">
+        <v>64091</v>
+      </c>
     </row>
-    <row r="71" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -61795,11 +61989,14 @@
       <c r="KU71" s="3">
         <v>101709</v>
       </c>
-      <c r="KV71" s="4">
+      <c r="KV71" s="3">
         <v>101536</v>
       </c>
+      <c r="KW71" s="4">
+        <v>101406</v>
+      </c>
     </row>
-    <row r="72" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -62719,11 +62916,14 @@
       <c r="KU72" s="3">
         <v>99650</v>
       </c>
-      <c r="KV72" s="4">
+      <c r="KV72" s="3">
         <v>99394</v>
       </c>
+      <c r="KW72" s="4">
+        <v>99234</v>
+      </c>
     </row>
-    <row r="73" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -63643,11 +63843,14 @@
       <c r="KU73" s="3">
         <v>89533</v>
       </c>
-      <c r="KV73" s="4">
+      <c r="KV73" s="3">
         <v>89251</v>
       </c>
+      <c r="KW73" s="4">
+        <v>89004</v>
+      </c>
     </row>
-    <row r="74" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -64567,11 +64770,14 @@
       <c r="KU74" s="3">
         <v>80906</v>
       </c>
-      <c r="KV74" s="4">
+      <c r="KV74" s="3">
         <v>80983</v>
       </c>
+      <c r="KW74" s="4">
+        <v>80909</v>
+      </c>
     </row>
-    <row r="75" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -65491,11 +65697,14 @@
       <c r="KU75" s="3">
         <v>72173</v>
       </c>
-      <c r="KV75" s="4">
+      <c r="KV75" s="3">
         <v>72268</v>
       </c>
+      <c r="KW75" s="4">
+        <v>72084</v>
+      </c>
     </row>
-    <row r="76" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -66415,11 +66624,14 @@
       <c r="KU76" s="38">
         <v>4</v>
       </c>
-      <c r="KV76" s="36">
+      <c r="KV76" s="38">
         <v>4</v>
       </c>
+      <c r="KW76" s="36">
+        <v>5</v>
+      </c>
     </row>
-    <row r="77" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -67341,11 +67553,14 @@
       <c r="KU77" s="37">
         <v>105752</v>
       </c>
-      <c r="KV77" s="30">
+      <c r="KV77" s="37">
         <v>106403</v>
       </c>
+      <c r="KW77" s="30">
+        <v>106450</v>
+      </c>
     </row>
-    <row r="78" spans="1:308" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -68265,11 +68480,14 @@
       <c r="KU78" s="3">
         <v>19235</v>
       </c>
-      <c r="KV78" s="4">
+      <c r="KV78" s="3">
         <v>19385</v>
       </c>
+      <c r="KW78" s="4">
+        <v>19417</v>
+      </c>
     </row>
-    <row r="79" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -69189,11 +69407,14 @@
       <c r="KU79" s="3">
         <v>1774</v>
       </c>
-      <c r="KV79" s="4">
+      <c r="KV79" s="3">
         <v>1806</v>
       </c>
+      <c r="KW79" s="4">
+        <v>1742</v>
+      </c>
     </row>
-    <row r="80" spans="1:308" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -70113,11 +70334,14 @@
       <c r="KU80" s="3">
         <v>11881</v>
       </c>
-      <c r="KV80" s="4">
+      <c r="KV80" s="3">
         <v>11934</v>
       </c>
+      <c r="KW80" s="4">
+        <v>11947</v>
+      </c>
     </row>
-    <row r="81" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -71037,11 +71261,14 @@
       <c r="KU81" s="3">
         <v>15945</v>
       </c>
-      <c r="KV81" s="4">
+      <c r="KV81" s="3">
         <v>16070</v>
       </c>
+      <c r="KW81" s="4">
+        <v>16114</v>
+      </c>
     </row>
-    <row r="82" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -71961,11 +72188,14 @@
       <c r="KU82" s="3">
         <v>16239</v>
       </c>
-      <c r="KV82" s="4">
+      <c r="KV82" s="3">
         <v>16398</v>
       </c>
+      <c r="KW82" s="4">
+        <v>16474</v>
+      </c>
     </row>
-    <row r="83" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -72885,11 +73115,14 @@
       <c r="KU83" s="3">
         <v>15203</v>
       </c>
-      <c r="KV83" s="4">
+      <c r="KV83" s="3">
         <v>15238</v>
       </c>
+      <c r="KW83" s="4">
+        <v>15172</v>
+      </c>
     </row>
-    <row r="84" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -73809,11 +74042,14 @@
       <c r="KU84" s="3">
         <v>13468</v>
       </c>
-      <c r="KV84" s="4">
+      <c r="KV84" s="3">
         <v>13552</v>
       </c>
+      <c r="KW84" s="4">
+        <v>13616</v>
+      </c>
     </row>
-    <row r="85" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -74733,11 +74969,14 @@
       <c r="KU85" s="3">
         <v>12006</v>
       </c>
-      <c r="KV85" s="4">
+      <c r="KV85" s="3">
         <v>12019</v>
       </c>
+      <c r="KW85" s="4">
+        <v>11966</v>
+      </c>
     </row>
-    <row r="86" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -75469,11 +75708,14 @@
       <c r="KU86" s="38">
         <v>1</v>
       </c>
-      <c r="KV86" s="36">
+      <c r="KV86" s="38">
         <v>1</v>
       </c>
+      <c r="KW86" s="36">
+        <v>2</v>
+      </c>
     </row>
-    <row r="87" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -76395,34 +76637,53 @@
       <c r="KU87" s="40">
         <v>1974565</v>
       </c>
-      <c r="KV87" s="34">
+      <c r="KV87" s="40">
         <v>1980790</v>
       </c>
-      <c r="KW87" s="3"/>
+      <c r="KW87" s="34">
+        <v>1981146</v>
+      </c>
+      <c r="KX87" s="3"/>
     </row>
-    <row r="88" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A88" s="44" t="s">
+    <row r="88" spans="1:310" x14ac:dyDescent="0.25">
+      <c r="A88" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
       <c r="KD88" s="3"/>
       <c r="KR88" s="3"/>
       <c r="KS88" s="3"/>
       <c r="KT88" s="3"/>
       <c r="KU88" s="3"/>
       <c r="KV88" s="3"/>
+      <c r="KW88" s="3"/>
     </row>
-    <row r="89" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:310" x14ac:dyDescent="0.25">
       <c r="KD89" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="KQ5:KV5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="KE5:KP5"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JS5:KD5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
+    <mergeCell ref="DS5:ED5"/>
+    <mergeCell ref="KQ5:KW5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -76438,21 +76699,6 @@
     <mergeCell ref="CI5:CT5"/>
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="KE5:KP5"/>
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JS5:KD5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
-    <mergeCell ref="DS5:ED5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463515C7-4698-459D-95EC-382CBF66E277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAE1993-15E7-4073-88E9-A0C7C50620B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -157,7 +157,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998 - julio 2023</t>
+    <t>Enero 1998 - agosto 2023</t>
   </si>
 </sst>
 </file>
@@ -1323,11 +1323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KX89"/>
+  <dimension ref="A1:KY89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="KL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KT95" sqref="KT95"/>
+      <pane xSplit="2" topLeftCell="KM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KY9" sqref="KY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1463,12 +1463,12 @@
     <col min="301" max="301" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="302" max="302" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="303" max="307" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="9.109375" style="1" customWidth="1"/>
-    <col min="309" max="309" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="310" max="16384" width="11.33203125" style="1"/>
+    <col min="308" max="309" width="9.109375" style="1" customWidth="1"/>
+    <col min="310" max="310" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="311" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:309" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:310" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>36</v>
       </c>
@@ -1477,19 +1477,19 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
     </row>
-    <row r="3" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:309" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:310" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>7</v>
       </c>
@@ -1854,9 +1854,10 @@
       <c r="KT5" s="45"/>
       <c r="KU5" s="45"/>
       <c r="KV5" s="45"/>
-      <c r="KW5" s="46"/>
+      <c r="KW5" s="45"/>
+      <c r="KX5" s="46"/>
     </row>
-    <row r="6" spans="1:309" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:310" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="49"/>
       <c r="C6" s="15" t="s">
@@ -2777,11 +2778,14 @@
       <c r="KV6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="KW6" s="43" t="s">
+      <c r="KW6" s="42" t="s">
         <v>14</v>
       </c>
+      <c r="KX6" s="43" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:309" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:310" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3706,11 +3710,14 @@
       <c r="KV7" s="37">
         <v>118854</v>
       </c>
-      <c r="KW7" s="30">
+      <c r="KW7" s="37">
         <v>116264</v>
       </c>
+      <c r="KX7" s="30">
+        <v>116045</v>
+      </c>
     </row>
-    <row r="8" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4633,11 +4640,14 @@
       <c r="KV8" s="3">
         <v>23665</v>
       </c>
-      <c r="KW8" s="4">
+      <c r="KW8" s="3">
         <v>23024</v>
       </c>
+      <c r="KX8" s="4">
+        <v>23633</v>
+      </c>
     </row>
-    <row r="9" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5560,11 +5570,14 @@
       <c r="KV9" s="3">
         <v>5325</v>
       </c>
-      <c r="KW9" s="4">
+      <c r="KW9" s="3">
         <v>5144</v>
       </c>
+      <c r="KX9" s="4">
+        <v>4942</v>
+      </c>
     </row>
-    <row r="10" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6487,11 +6500,14 @@
       <c r="KV10" s="3">
         <v>17708</v>
       </c>
-      <c r="KW10" s="4">
+      <c r="KW10" s="3">
         <v>17140</v>
       </c>
+      <c r="KX10" s="4">
+        <v>16686</v>
+      </c>
     </row>
-    <row r="11" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7414,11 +7430,14 @@
       <c r="KV11" s="3">
         <v>17734</v>
       </c>
-      <c r="KW11" s="4">
+      <c r="KW11" s="3">
         <v>17310</v>
       </c>
+      <c r="KX11" s="4">
+        <v>17043</v>
+      </c>
     </row>
-    <row r="12" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -8341,11 +8360,14 @@
       <c r="KV12" s="3">
         <v>16341</v>
       </c>
-      <c r="KW12" s="4">
+      <c r="KW12" s="3">
         <v>16051</v>
       </c>
+      <c r="KX12" s="4">
+        <v>16007</v>
+      </c>
     </row>
-    <row r="13" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -9268,11 +9290,14 @@
       <c r="KV13" s="3">
         <v>14105</v>
       </c>
-      <c r="KW13" s="4">
+      <c r="KW13" s="3">
         <v>13941</v>
       </c>
+      <c r="KX13" s="4">
+        <v>13937</v>
+      </c>
     </row>
-    <row r="14" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -10195,11 +10220,14 @@
       <c r="KV14" s="3">
         <v>12468</v>
       </c>
-      <c r="KW14" s="4">
+      <c r="KW14" s="3">
         <v>12282</v>
       </c>
+      <c r="KX14" s="4">
+        <v>12253</v>
+      </c>
     </row>
-    <row r="15" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -11122,11 +11150,14 @@
       <c r="KV15" s="3">
         <v>11502</v>
       </c>
-      <c r="KW15" s="4">
+      <c r="KW15" s="3">
         <v>11368</v>
       </c>
+      <c r="KX15" s="4">
+        <v>11538</v>
+      </c>
     </row>
-    <row r="16" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -12049,11 +12080,14 @@
       <c r="KV16" s="38">
         <v>6</v>
       </c>
-      <c r="KW16" s="36">
+      <c r="KW16" s="38">
         <v>4</v>
       </c>
+      <c r="KX16" s="36">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -12978,11 +13012,14 @@
       <c r="KV17" s="37">
         <v>409197</v>
       </c>
-      <c r="KW17" s="30">
+      <c r="KW17" s="37">
         <v>411628</v>
       </c>
+      <c r="KX17" s="30">
+        <v>411107</v>
+      </c>
     </row>
-    <row r="18" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13905,11 +13942,14 @@
       <c r="KV18" s="3">
         <v>66510</v>
       </c>
-      <c r="KW18" s="4">
+      <c r="KW18" s="3">
         <v>67292</v>
       </c>
+      <c r="KX18" s="4">
+        <v>67618</v>
+      </c>
     </row>
-    <row r="19" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14832,11 +14872,14 @@
       <c r="KV19" s="3">
         <v>11299</v>
       </c>
-      <c r="KW19" s="4">
+      <c r="KW19" s="3">
         <v>11529</v>
       </c>
+      <c r="KX19" s="4">
+        <v>11259</v>
+      </c>
     </row>
-    <row r="20" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15759,11 +15802,14 @@
       <c r="KV20" s="3">
         <v>55536</v>
       </c>
-      <c r="KW20" s="4">
+      <c r="KW20" s="3">
         <v>55753</v>
       </c>
+      <c r="KX20" s="4">
+        <v>55019</v>
+      </c>
     </row>
-    <row r="21" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -16686,11 +16732,14 @@
       <c r="KV21" s="3">
         <v>66659</v>
       </c>
-      <c r="KW21" s="4">
+      <c r="KW21" s="3">
         <v>66993</v>
       </c>
+      <c r="KX21" s="4">
+        <v>67091</v>
+      </c>
     </row>
-    <row r="22" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -17613,11 +17662,14 @@
       <c r="KV22" s="3">
         <v>64838</v>
       </c>
-      <c r="KW22" s="4">
+      <c r="KW22" s="3">
         <v>64923</v>
       </c>
+      <c r="KX22" s="4">
+        <v>64784</v>
+      </c>
     </row>
-    <row r="23" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -18540,11 +18592,14 @@
       <c r="KV23" s="3">
         <v>56980</v>
       </c>
-      <c r="KW23" s="4">
+      <c r="KW23" s="3">
         <v>57303</v>
       </c>
+      <c r="KX23" s="4">
+        <v>57293</v>
+      </c>
     </row>
-    <row r="24" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -19467,11 +19522,14 @@
       <c r="KV24" s="3">
         <v>47700</v>
       </c>
-      <c r="KW24" s="4">
+      <c r="KW24" s="3">
         <v>47962</v>
       </c>
+      <c r="KX24" s="4">
+        <v>48121</v>
+      </c>
     </row>
-    <row r="25" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -20394,11 +20452,14 @@
       <c r="KV25" s="3">
         <v>39671</v>
       </c>
-      <c r="KW25" s="4">
+      <c r="KW25" s="3">
         <v>39870</v>
       </c>
+      <c r="KX25" s="4">
+        <v>39920</v>
+      </c>
     </row>
-    <row r="26" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -21311,11 +21372,14 @@
       <c r="KV26" s="38">
         <v>4</v>
       </c>
-      <c r="KW26" s="36">
+      <c r="KW26" s="38">
         <v>3</v>
       </c>
+      <c r="KX26" s="36">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -22240,11 +22304,14 @@
       <c r="KV27" s="37">
         <v>152849</v>
       </c>
-      <c r="KW27" s="30">
+      <c r="KW27" s="37">
         <v>153255</v>
       </c>
+      <c r="KX27" s="30">
+        <v>157023</v>
+      </c>
     </row>
-    <row r="28" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -23167,11 +23234,14 @@
       <c r="KV28" s="3">
         <v>28084</v>
       </c>
-      <c r="KW28" s="4">
+      <c r="KW28" s="3">
         <v>28074</v>
       </c>
+      <c r="KX28" s="4">
+        <v>29005</v>
+      </c>
     </row>
-    <row r="29" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -24094,11 +24164,14 @@
       <c r="KV29" s="3">
         <v>4862</v>
       </c>
-      <c r="KW29" s="4">
+      <c r="KW29" s="3">
         <v>4939</v>
       </c>
+      <c r="KX29" s="4">
+        <v>4986</v>
+      </c>
     </row>
-    <row r="30" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -25021,11 +25094,14 @@
       <c r="KV30" s="3">
         <v>19448</v>
       </c>
-      <c r="KW30" s="4">
+      <c r="KW30" s="3">
         <v>19616</v>
       </c>
+      <c r="KX30" s="4">
+        <v>20040</v>
+      </c>
     </row>
-    <row r="31" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -25948,11 +26024,14 @@
       <c r="KV31" s="3">
         <v>24406</v>
       </c>
-      <c r="KW31" s="4">
+      <c r="KW31" s="3">
         <v>24575</v>
       </c>
+      <c r="KX31" s="4">
+        <v>25205</v>
+      </c>
     </row>
-    <row r="32" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -26875,11 +26954,14 @@
       <c r="KV32" s="3">
         <v>22975</v>
       </c>
-      <c r="KW32" s="4">
+      <c r="KW32" s="3">
         <v>23078</v>
       </c>
+      <c r="KX32" s="4">
+        <v>23396</v>
+      </c>
     </row>
-    <row r="33" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -27802,11 +27884,14 @@
       <c r="KV33" s="3">
         <v>20346</v>
       </c>
-      <c r="KW33" s="4">
+      <c r="KW33" s="3">
         <v>20284</v>
       </c>
+      <c r="KX33" s="4">
+        <v>20738</v>
+      </c>
     </row>
-    <row r="34" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -28729,11 +28814,14 @@
       <c r="KV34" s="3">
         <v>17560</v>
       </c>
-      <c r="KW34" s="4">
+      <c r="KW34" s="3">
         <v>17549</v>
       </c>
+      <c r="KX34" s="4">
+        <v>18122</v>
+      </c>
     </row>
-    <row r="35" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -29656,11 +29744,14 @@
       <c r="KV35" s="3">
         <v>15150</v>
       </c>
-      <c r="KW35" s="4">
+      <c r="KW35" s="3">
         <v>15121</v>
       </c>
+      <c r="KX35" s="4">
+        <v>15506</v>
+      </c>
     </row>
-    <row r="36" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -30583,11 +30674,14 @@
       <c r="KV36" s="38">
         <v>18</v>
       </c>
-      <c r="KW36" s="36">
+      <c r="KW36" s="38">
         <v>19</v>
       </c>
+      <c r="KX36" s="36">
+        <v>25</v>
+      </c>
     </row>
-    <row r="37" spans="1:309" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:310" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>34</v>
       </c>
@@ -31512,11 +31606,14 @@
       <c r="KV37" s="39">
         <v>10060</v>
       </c>
-      <c r="KW37" s="32">
+      <c r="KW37" s="39">
         <v>10088</v>
       </c>
+      <c r="KX37" s="32">
+        <v>10085</v>
+      </c>
     </row>
-    <row r="38" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -32439,11 +32536,14 @@
       <c r="KV38" s="3">
         <v>1769</v>
       </c>
-      <c r="KW38" s="4">
+      <c r="KW38" s="3">
         <v>1770</v>
       </c>
+      <c r="KX38" s="4">
+        <v>1773</v>
+      </c>
     </row>
-    <row r="39" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -33366,11 +33466,14 @@
       <c r="KV39" s="3">
         <v>95</v>
       </c>
-      <c r="KW39" s="4">
+      <c r="KW39" s="3">
         <v>102</v>
       </c>
+      <c r="KX39" s="4">
+        <v>92</v>
+      </c>
     </row>
-    <row r="40" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -34293,11 +34396,14 @@
       <c r="KV40" s="3">
         <v>663</v>
       </c>
-      <c r="KW40" s="4">
+      <c r="KW40" s="3">
         <v>648</v>
       </c>
+      <c r="KX40" s="4">
+        <v>645</v>
+      </c>
     </row>
-    <row r="41" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -35220,11 +35326,14 @@
       <c r="KV41" s="3">
         <v>1057</v>
       </c>
-      <c r="KW41" s="4">
+      <c r="KW41" s="3">
         <v>1072</v>
       </c>
+      <c r="KX41" s="4">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="42" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -36147,11 +36256,14 @@
       <c r="KV42" s="3">
         <v>1443</v>
       </c>
-      <c r="KW42" s="4">
+      <c r="KW42" s="3">
         <v>1452</v>
       </c>
+      <c r="KX42" s="4">
+        <v>1452</v>
+      </c>
     </row>
-    <row r="43" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -37074,11 +37186,14 @@
       <c r="KV43" s="3">
         <v>1777</v>
       </c>
-      <c r="KW43" s="4">
+      <c r="KW43" s="3">
         <v>1777</v>
       </c>
+      <c r="KX43" s="4">
+        <v>1792</v>
+      </c>
     </row>
-    <row r="44" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -38001,11 +38116,14 @@
       <c r="KV44" s="3">
         <v>1760</v>
       </c>
-      <c r="KW44" s="4">
+      <c r="KW44" s="3">
         <v>1775</v>
       </c>
+      <c r="KX44" s="4">
+        <v>1760</v>
+      </c>
     </row>
-    <row r="45" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -38928,11 +39046,14 @@
       <c r="KV45" s="3">
         <v>1496</v>
       </c>
-      <c r="KW45" s="4">
+      <c r="KW45" s="3">
         <v>1492</v>
       </c>
+      <c r="KX45" s="4">
+        <v>1497</v>
+      </c>
     </row>
-    <row r="46" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -39367,9 +39488,10 @@
       <c r="KT46" s="38"/>
       <c r="KU46" s="38"/>
       <c r="KV46" s="38"/>
-      <c r="KW46" s="36"/>
+      <c r="KW46" s="38"/>
+      <c r="KX46" s="36"/>
     </row>
-    <row r="47" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -40294,11 +40416,14 @@
       <c r="KV47" s="37">
         <v>520206</v>
       </c>
-      <c r="KW47" s="30">
+      <c r="KW47" s="37">
         <v>520186</v>
       </c>
+      <c r="KX47" s="30">
+        <v>521651</v>
+      </c>
     </row>
-    <row r="48" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -41221,11 +41346,14 @@
       <c r="KV48" s="3">
         <v>83482</v>
       </c>
-      <c r="KW48" s="4">
+      <c r="KW48" s="3">
         <v>83641</v>
       </c>
+      <c r="KX48" s="4">
+        <v>84381</v>
+      </c>
     </row>
-    <row r="49" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -42148,11 +42276,14 @@
       <c r="KV49" s="3">
         <v>15246</v>
       </c>
-      <c r="KW49" s="4">
+      <c r="KW49" s="3">
         <v>15195</v>
       </c>
+      <c r="KX49" s="4">
+        <v>15027</v>
+      </c>
     </row>
-    <row r="50" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -43075,11 +43206,14 @@
       <c r="KV50" s="3">
         <v>72437</v>
       </c>
-      <c r="KW50" s="4">
+      <c r="KW50" s="3">
         <v>72287</v>
       </c>
+      <c r="KX50" s="4">
+        <v>71767</v>
+      </c>
     </row>
-    <row r="51" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -44002,11 +44136,14 @@
       <c r="KV51" s="3">
         <v>83014</v>
       </c>
-      <c r="KW51" s="4">
+      <c r="KW51" s="3">
         <v>83078</v>
       </c>
+      <c r="KX51" s="4">
+        <v>83573</v>
+      </c>
     </row>
-    <row r="52" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -44929,11 +45066,14 @@
       <c r="KV52" s="3">
         <v>77611</v>
       </c>
-      <c r="KW52" s="4">
+      <c r="KW52" s="3">
         <v>77678</v>
       </c>
+      <c r="KX52" s="4">
+        <v>77940</v>
+      </c>
     </row>
-    <row r="53" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -45856,11 +45996,14 @@
       <c r="KV53" s="3">
         <v>68665</v>
       </c>
-      <c r="KW53" s="4">
+      <c r="KW53" s="3">
         <v>68468</v>
       </c>
+      <c r="KX53" s="4">
+        <v>68832</v>
+      </c>
     </row>
-    <row r="54" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -46783,11 +46926,14 @@
       <c r="KV54" s="3">
         <v>64112</v>
       </c>
-      <c r="KW54" s="4">
+      <c r="KW54" s="3">
         <v>64205</v>
       </c>
+      <c r="KX54" s="4">
+        <v>64308</v>
+      </c>
     </row>
-    <row r="55" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -47710,11 +47856,14 @@
       <c r="KV55" s="3">
         <v>55634</v>
       </c>
-      <c r="KW55" s="4">
+      <c r="KW55" s="3">
         <v>55631</v>
       </c>
+      <c r="KX55" s="4">
+        <v>55820</v>
+      </c>
     </row>
-    <row r="56" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -48637,11 +48786,14 @@
       <c r="KV56" s="38">
         <v>5</v>
       </c>
-      <c r="KW56" s="36">
+      <c r="KW56" s="38">
         <v>3</v>
       </c>
+      <c r="KX56" s="36">
+        <v>3</v>
+      </c>
     </row>
-    <row r="57" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -49566,11 +49718,14 @@
       <c r="KV57" s="37">
         <v>2593</v>
       </c>
-      <c r="KW57" s="30">
+      <c r="KW57" s="37">
         <v>2602</v>
       </c>
+      <c r="KX57" s="30">
+        <v>2584</v>
+      </c>
     </row>
-    <row r="58" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -50493,11 +50648,14 @@
       <c r="KV58" s="3">
         <v>572</v>
       </c>
-      <c r="KW58" s="4">
+      <c r="KW58" s="3">
         <v>589</v>
       </c>
+      <c r="KX58" s="4">
+        <v>593</v>
+      </c>
     </row>
-    <row r="59" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -51420,11 +51578,14 @@
       <c r="KV59" s="3">
         <v>29</v>
       </c>
-      <c r="KW59" s="4">
+      <c r="KW59" s="3">
         <v>27</v>
       </c>
+      <c r="KX59" s="4">
+        <v>31</v>
+      </c>
     </row>
-    <row r="60" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -52347,11 +52508,14 @@
       <c r="KV60" s="3">
         <v>176</v>
       </c>
-      <c r="KW60" s="4">
+      <c r="KW60" s="3">
         <v>183</v>
       </c>
+      <c r="KX60" s="4">
+        <v>170</v>
+      </c>
     </row>
-    <row r="61" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -53274,11 +53438,14 @@
       <c r="KV61" s="3">
         <v>377</v>
       </c>
-      <c r="KW61" s="4">
+      <c r="KW61" s="3">
         <v>363</v>
       </c>
+      <c r="KX61" s="4">
+        <v>360</v>
+      </c>
     </row>
-    <row r="62" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -54201,11 +54368,14 @@
       <c r="KV62" s="3">
         <v>397</v>
       </c>
-      <c r="KW62" s="4">
+      <c r="KW62" s="3">
         <v>395</v>
       </c>
+      <c r="KX62" s="4">
+        <v>397</v>
+      </c>
     </row>
-    <row r="63" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -55128,11 +55298,14 @@
       <c r="KV63" s="3">
         <v>396</v>
       </c>
-      <c r="KW63" s="4">
+      <c r="KW63" s="3">
         <v>399</v>
       </c>
+      <c r="KX63" s="4">
+        <v>392</v>
+      </c>
     </row>
-    <row r="64" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -56055,11 +56228,14 @@
       <c r="KV64" s="3">
         <v>334</v>
       </c>
-      <c r="KW64" s="4">
+      <c r="KW64" s="3">
         <v>330</v>
       </c>
+      <c r="KX64" s="4">
+        <v>328</v>
+      </c>
     </row>
-    <row r="65" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -56982,11 +57158,14 @@
       <c r="KV65" s="3">
         <v>312</v>
       </c>
-      <c r="KW65" s="4">
+      <c r="KW65" s="3">
         <v>316</v>
       </c>
+      <c r="KX65" s="4">
+        <v>313</v>
+      </c>
     </row>
-    <row r="66" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -57357,9 +57536,10 @@
       <c r="KT66" s="38"/>
       <c r="KU66" s="38"/>
       <c r="KV66" s="38"/>
-      <c r="KW66" s="36"/>
+      <c r="KW66" s="38"/>
+      <c r="KX66" s="36"/>
     </row>
-    <row r="67" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -58284,11 +58464,14 @@
       <c r="KV67" s="37">
         <v>660628</v>
       </c>
-      <c r="KW67" s="30">
+      <c r="KW67" s="37">
         <v>660673</v>
       </c>
+      <c r="KX67" s="30">
+        <v>662833</v>
+      </c>
     </row>
-    <row r="68" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -59211,11 +59394,14 @@
       <c r="KV68" s="3">
         <v>142019</v>
       </c>
-      <c r="KW68" s="4">
+      <c r="KW68" s="3">
         <v>142748</v>
       </c>
+      <c r="KX68" s="4">
+        <v>143829</v>
+      </c>
     </row>
-    <row r="69" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -60138,11 +60324,14 @@
       <c r="KV69" s="3">
         <v>10975</v>
       </c>
-      <c r="KW69" s="4">
+      <c r="KW69" s="3">
         <v>11192</v>
       </c>
+      <c r="KX69" s="4">
+        <v>10453</v>
+      </c>
     </row>
-    <row r="70" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -61065,11 +61254,14 @@
       <c r="KV70" s="3">
         <v>64198</v>
       </c>
-      <c r="KW70" s="4">
+      <c r="KW70" s="3">
         <v>64091</v>
       </c>
+      <c r="KX70" s="4">
+        <v>63106</v>
+      </c>
     </row>
-    <row r="71" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -61992,11 +62184,14 @@
       <c r="KV71" s="3">
         <v>101536</v>
       </c>
-      <c r="KW71" s="4">
+      <c r="KW71" s="3">
         <v>101406</v>
       </c>
+      <c r="KX71" s="4">
+        <v>101902</v>
+      </c>
     </row>
-    <row r="72" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -62919,11 +63114,14 @@
       <c r="KV72" s="3">
         <v>99394</v>
       </c>
-      <c r="KW72" s="4">
+      <c r="KW72" s="3">
         <v>99234</v>
       </c>
+      <c r="KX72" s="4">
+        <v>100055</v>
+      </c>
     </row>
-    <row r="73" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -63846,11 +64044,14 @@
       <c r="KV73" s="3">
         <v>89251</v>
       </c>
-      <c r="KW73" s="4">
+      <c r="KW73" s="3">
         <v>89004</v>
       </c>
+      <c r="KX73" s="4">
+        <v>89646</v>
+      </c>
     </row>
-    <row r="74" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -64773,11 +64974,14 @@
       <c r="KV74" s="3">
         <v>80983</v>
       </c>
-      <c r="KW74" s="4">
+      <c r="KW74" s="3">
         <v>80909</v>
       </c>
+      <c r="KX74" s="4">
+        <v>81458</v>
+      </c>
     </row>
-    <row r="75" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -65700,11 +65904,14 @@
       <c r="KV75" s="3">
         <v>72268</v>
       </c>
-      <c r="KW75" s="4">
+      <c r="KW75" s="3">
         <v>72084</v>
       </c>
+      <c r="KX75" s="4">
+        <v>72378</v>
+      </c>
     </row>
-    <row r="76" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -66627,11 +66834,14 @@
       <c r="KV76" s="38">
         <v>4</v>
       </c>
-      <c r="KW76" s="36">
+      <c r="KW76" s="38">
         <v>5</v>
       </c>
+      <c r="KX76" s="36">
+        <v>6</v>
+      </c>
     </row>
-    <row r="77" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -67556,11 +67766,14 @@
       <c r="KV77" s="37">
         <v>106403</v>
       </c>
-      <c r="KW77" s="30">
+      <c r="KW77" s="37">
         <v>106450</v>
       </c>
+      <c r="KX77" s="30">
+        <v>107418</v>
+      </c>
     </row>
-    <row r="78" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -68483,11 +68696,14 @@
       <c r="KV78" s="3">
         <v>19385</v>
       </c>
-      <c r="KW78" s="4">
+      <c r="KW78" s="3">
         <v>19417</v>
       </c>
+      <c r="KX78" s="4">
+        <v>19529</v>
+      </c>
     </row>
-    <row r="79" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -69410,11 +69626,14 @@
       <c r="KV79" s="3">
         <v>1806</v>
       </c>
-      <c r="KW79" s="4">
+      <c r="KW79" s="3">
         <v>1742</v>
       </c>
+      <c r="KX79" s="4">
+        <v>1834</v>
+      </c>
     </row>
-    <row r="80" spans="1:309" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -70337,11 +70556,14 @@
       <c r="KV80" s="3">
         <v>11934</v>
       </c>
-      <c r="KW80" s="4">
+      <c r="KW80" s="3">
         <v>11947</v>
       </c>
+      <c r="KX80" s="4">
+        <v>12162</v>
+      </c>
     </row>
-    <row r="81" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -71264,11 +71486,14 @@
       <c r="KV81" s="3">
         <v>16070</v>
       </c>
-      <c r="KW81" s="4">
+      <c r="KW81" s="3">
         <v>16114</v>
       </c>
+      <c r="KX81" s="4">
+        <v>16344</v>
+      </c>
     </row>
-    <row r="82" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -72191,11 +72416,14 @@
       <c r="KV82" s="3">
         <v>16398</v>
       </c>
-      <c r="KW82" s="4">
+      <c r="KW82" s="3">
         <v>16474</v>
       </c>
+      <c r="KX82" s="4">
+        <v>16664</v>
+      </c>
     </row>
-    <row r="83" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -73118,11 +73346,14 @@
       <c r="KV83" s="3">
         <v>15238</v>
       </c>
-      <c r="KW83" s="4">
+      <c r="KW83" s="3">
         <v>15172</v>
       </c>
+      <c r="KX83" s="4">
+        <v>15229</v>
+      </c>
     </row>
-    <row r="84" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -74045,11 +74276,14 @@
       <c r="KV84" s="3">
         <v>13552</v>
       </c>
-      <c r="KW84" s="4">
+      <c r="KW84" s="3">
         <v>13616</v>
       </c>
+      <c r="KX84" s="4">
+        <v>13662</v>
+      </c>
     </row>
-    <row r="85" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -74972,11 +75206,14 @@
       <c r="KV85" s="3">
         <v>12019</v>
       </c>
-      <c r="KW85" s="4">
+      <c r="KW85" s="3">
         <v>11966</v>
       </c>
+      <c r="KX85" s="4">
+        <v>11993</v>
+      </c>
     </row>
-    <row r="86" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -75711,11 +75948,14 @@
       <c r="KV86" s="38">
         <v>1</v>
       </c>
-      <c r="KW86" s="36">
+      <c r="KW86" s="38">
         <v>2</v>
       </c>
+      <c r="KX86" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -76640,12 +76880,15 @@
       <c r="KV87" s="40">
         <v>1980790</v>
       </c>
-      <c r="KW87" s="34">
+      <c r="KW87" s="40">
         <v>1981146</v>
       </c>
-      <c r="KX87" s="3"/>
+      <c r="KX87" s="34">
+        <v>1988746</v>
+      </c>
+      <c r="KY87" s="3"/>
     </row>
-    <row r="88" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A88" s="47" t="s">
         <v>23</v>
       </c>
@@ -76662,8 +76905,9 @@
       <c r="KU88" s="3"/>
       <c r="KV88" s="3"/>
       <c r="KW88" s="3"/>
+      <c r="KX88" s="3"/>
     </row>
-    <row r="89" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:311" x14ac:dyDescent="0.25">
       <c r="KD89" s="3"/>
     </row>
   </sheetData>
@@ -76683,7 +76927,7 @@
     <mergeCell ref="AY5:BJ5"/>
     <mergeCell ref="BK5:BV5"/>
     <mergeCell ref="DS5:ED5"/>
-    <mergeCell ref="KQ5:KW5"/>
+    <mergeCell ref="KQ5:KX5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAE1993-15E7-4073-88E9-A0C7C50620B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5A1C60-156E-42B2-BD3A-ACC3586FB4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -157,7 +157,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998 - agosto 2023</t>
+    <t>Enero 1998 - septiembre 2023</t>
   </si>
 </sst>
 </file>
@@ -1323,11 +1323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KY89"/>
+  <dimension ref="A1:KZ89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="KM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KY9" sqref="KY9"/>
+      <pane xSplit="2" topLeftCell="KN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KS89" sqref="KS89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1463,12 +1463,12 @@
     <col min="301" max="301" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="302" max="302" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="303" max="307" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="308" max="309" width="9.109375" style="1" customWidth="1"/>
-    <col min="310" max="310" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="311" max="16384" width="11.33203125" style="1"/>
+    <col min="308" max="310" width="9.109375" style="1" customWidth="1"/>
+    <col min="311" max="311" width="12" style="1" customWidth="1"/>
+    <col min="312" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:310" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:311" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>36</v>
       </c>
@@ -1477,19 +1477,19 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
     </row>
-    <row r="3" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:310" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:311" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>7</v>
       </c>
@@ -1855,9 +1855,10 @@
       <c r="KU5" s="45"/>
       <c r="KV5" s="45"/>
       <c r="KW5" s="45"/>
-      <c r="KX5" s="46"/>
+      <c r="KX5" s="45"/>
+      <c r="KY5" s="46"/>
     </row>
-    <row r="6" spans="1:310" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:311" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="49"/>
       <c r="C6" s="15" t="s">
@@ -2781,11 +2782,14 @@
       <c r="KW6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="KX6" s="43" t="s">
+      <c r="KX6" s="42" t="s">
         <v>15</v>
       </c>
+      <c r="KY6" s="43" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:310" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:311" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3713,11 +3717,14 @@
       <c r="KW7" s="37">
         <v>116264</v>
       </c>
-      <c r="KX7" s="30">
+      <c r="KX7" s="37">
         <v>116045</v>
       </c>
+      <c r="KY7" s="30">
+        <v>118223</v>
+      </c>
     </row>
-    <row r="8" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4643,11 +4650,14 @@
       <c r="KW8" s="3">
         <v>23024</v>
       </c>
-      <c r="KX8" s="4">
+      <c r="KX8" s="3">
         <v>23633</v>
       </c>
+      <c r="KY8" s="4">
+        <v>23962</v>
+      </c>
     </row>
-    <row r="9" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5573,11 +5583,14 @@
       <c r="KW9" s="3">
         <v>5144</v>
       </c>
-      <c r="KX9" s="4">
+      <c r="KX9" s="3">
         <v>4942</v>
       </c>
+      <c r="KY9" s="4">
+        <v>5066</v>
+      </c>
     </row>
-    <row r="10" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6503,11 +6516,14 @@
       <c r="KW10" s="3">
         <v>17140</v>
       </c>
-      <c r="KX10" s="4">
+      <c r="KX10" s="3">
         <v>16686</v>
       </c>
+      <c r="KY10" s="4">
+        <v>17215</v>
+      </c>
     </row>
-    <row r="11" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7433,11 +7449,14 @@
       <c r="KW11" s="3">
         <v>17310</v>
       </c>
-      <c r="KX11" s="4">
+      <c r="KX11" s="3">
         <v>17043</v>
       </c>
+      <c r="KY11" s="4">
+        <v>17493</v>
+      </c>
     </row>
-    <row r="12" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -8363,11 +8382,14 @@
       <c r="KW12" s="3">
         <v>16051</v>
       </c>
-      <c r="KX12" s="4">
+      <c r="KX12" s="3">
         <v>16007</v>
       </c>
+      <c r="KY12" s="4">
+        <v>16312</v>
+      </c>
     </row>
-    <row r="13" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -9293,11 +9315,14 @@
       <c r="KW13" s="3">
         <v>13941</v>
       </c>
-      <c r="KX13" s="4">
+      <c r="KX13" s="3">
         <v>13937</v>
       </c>
+      <c r="KY13" s="4">
+        <v>14185</v>
+      </c>
     </row>
-    <row r="14" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -10223,11 +10248,14 @@
       <c r="KW14" s="3">
         <v>12282</v>
       </c>
-      <c r="KX14" s="4">
+      <c r="KX14" s="3">
         <v>12253</v>
       </c>
+      <c r="KY14" s="4">
+        <v>12420</v>
+      </c>
     </row>
-    <row r="15" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -11153,11 +11181,14 @@
       <c r="KW15" s="3">
         <v>11368</v>
       </c>
-      <c r="KX15" s="4">
+      <c r="KX15" s="3">
         <v>11538</v>
       </c>
+      <c r="KY15" s="4">
+        <v>11563</v>
+      </c>
     </row>
-    <row r="16" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -12083,11 +12114,14 @@
       <c r="KW16" s="38">
         <v>4</v>
       </c>
-      <c r="KX16" s="36">
+      <c r="KX16" s="38">
         <v>6</v>
       </c>
+      <c r="KY16" s="36">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -13015,11 +13049,14 @@
       <c r="KW17" s="37">
         <v>411628</v>
       </c>
-      <c r="KX17" s="30">
+      <c r="KX17" s="37">
         <v>411107</v>
       </c>
+      <c r="KY17" s="30">
+        <v>412616</v>
+      </c>
     </row>
-    <row r="18" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13945,11 +13982,14 @@
       <c r="KW18" s="3">
         <v>67292</v>
       </c>
-      <c r="KX18" s="4">
+      <c r="KX18" s="3">
         <v>67618</v>
       </c>
+      <c r="KY18" s="4">
+        <v>67871</v>
+      </c>
     </row>
-    <row r="19" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14875,11 +14915,14 @@
       <c r="KW19" s="3">
         <v>11529</v>
       </c>
-      <c r="KX19" s="4">
+      <c r="KX19" s="3">
         <v>11259</v>
       </c>
+      <c r="KY19" s="4">
+        <v>11292</v>
+      </c>
     </row>
-    <row r="20" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15805,11 +15848,14 @@
       <c r="KW20" s="3">
         <v>55753</v>
       </c>
-      <c r="KX20" s="4">
+      <c r="KX20" s="3">
         <v>55019</v>
       </c>
+      <c r="KY20" s="4">
+        <v>55262</v>
+      </c>
     </row>
-    <row r="21" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -16735,11 +16781,14 @@
       <c r="KW21" s="3">
         <v>66993</v>
       </c>
-      <c r="KX21" s="4">
+      <c r="KX21" s="3">
         <v>67091</v>
       </c>
+      <c r="KY21" s="4">
+        <v>67337</v>
+      </c>
     </row>
-    <row r="22" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -17665,11 +17714,14 @@
       <c r="KW22" s="3">
         <v>64923</v>
       </c>
-      <c r="KX22" s="4">
+      <c r="KX22" s="3">
         <v>64784</v>
       </c>
+      <c r="KY22" s="4">
+        <v>64995</v>
+      </c>
     </row>
-    <row r="23" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -18595,11 +18647,14 @@
       <c r="KW23" s="3">
         <v>57303</v>
       </c>
-      <c r="KX23" s="4">
+      <c r="KX23" s="3">
         <v>57293</v>
       </c>
+      <c r="KY23" s="4">
+        <v>57481</v>
+      </c>
     </row>
-    <row r="24" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -19525,11 +19580,14 @@
       <c r="KW24" s="3">
         <v>47962</v>
       </c>
-      <c r="KX24" s="4">
+      <c r="KX24" s="3">
         <v>48121</v>
       </c>
+      <c r="KY24" s="4">
+        <v>48352</v>
+      </c>
     </row>
-    <row r="25" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -20455,11 +20513,14 @@
       <c r="KW25" s="3">
         <v>39870</v>
       </c>
-      <c r="KX25" s="4">
+      <c r="KX25" s="3">
         <v>39920</v>
       </c>
+      <c r="KY25" s="4">
+        <v>40024</v>
+      </c>
     </row>
-    <row r="26" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -21375,11 +21436,14 @@
       <c r="KW26" s="38">
         <v>3</v>
       </c>
-      <c r="KX26" s="36">
+      <c r="KX26" s="38">
         <v>2</v>
       </c>
+      <c r="KY26" s="36">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -22307,11 +22371,14 @@
       <c r="KW27" s="37">
         <v>153255</v>
       </c>
-      <c r="KX27" s="30">
+      <c r="KX27" s="37">
         <v>157023</v>
       </c>
+      <c r="KY27" s="30">
+        <v>156751</v>
+      </c>
     </row>
-    <row r="28" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -23237,11 +23304,14 @@
       <c r="KW28" s="3">
         <v>28074</v>
       </c>
-      <c r="KX28" s="4">
+      <c r="KX28" s="3">
         <v>29005</v>
       </c>
+      <c r="KY28" s="4">
+        <v>28787</v>
+      </c>
     </row>
-    <row r="29" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -24167,11 +24237,14 @@
       <c r="KW29" s="3">
         <v>4939</v>
       </c>
-      <c r="KX29" s="4">
+      <c r="KX29" s="3">
         <v>4986</v>
       </c>
+      <c r="KY29" s="4">
+        <v>4971</v>
+      </c>
     </row>
-    <row r="30" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -25097,11 +25170,14 @@
       <c r="KW30" s="3">
         <v>19616</v>
       </c>
-      <c r="KX30" s="4">
+      <c r="KX30" s="3">
         <v>20040</v>
       </c>
+      <c r="KY30" s="4">
+        <v>20186</v>
+      </c>
     </row>
-    <row r="31" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -26027,11 +26103,14 @@
       <c r="KW31" s="3">
         <v>24575</v>
       </c>
-      <c r="KX31" s="4">
+      <c r="KX31" s="3">
         <v>25205</v>
       </c>
+      <c r="KY31" s="4">
+        <v>25189</v>
+      </c>
     </row>
-    <row r="32" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -26957,11 +27036,14 @@
       <c r="KW32" s="3">
         <v>23078</v>
       </c>
-      <c r="KX32" s="4">
+      <c r="KX32" s="3">
         <v>23396</v>
       </c>
+      <c r="KY32" s="4">
+        <v>23459</v>
+      </c>
     </row>
-    <row r="33" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -27887,11 +27969,14 @@
       <c r="KW33" s="3">
         <v>20284</v>
       </c>
-      <c r="KX33" s="4">
+      <c r="KX33" s="3">
         <v>20738</v>
       </c>
+      <c r="KY33" s="4">
+        <v>20612</v>
+      </c>
     </row>
-    <row r="34" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -28817,11 +28902,14 @@
       <c r="KW34" s="3">
         <v>17549</v>
       </c>
-      <c r="KX34" s="4">
+      <c r="KX34" s="3">
         <v>18122</v>
       </c>
+      <c r="KY34" s="4">
+        <v>18070</v>
+      </c>
     </row>
-    <row r="35" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -29747,11 +29835,14 @@
       <c r="KW35" s="3">
         <v>15121</v>
       </c>
-      <c r="KX35" s="4">
+      <c r="KX35" s="3">
         <v>15506</v>
       </c>
+      <c r="KY35" s="4">
+        <v>15453</v>
+      </c>
     </row>
-    <row r="36" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -30677,11 +30768,14 @@
       <c r="KW36" s="38">
         <v>19</v>
       </c>
-      <c r="KX36" s="36">
+      <c r="KX36" s="38">
         <v>25</v>
       </c>
+      <c r="KY36" s="36">
+        <v>24</v>
+      </c>
     </row>
-    <row r="37" spans="1:310" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:311" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>34</v>
       </c>
@@ -31609,11 +31703,14 @@
       <c r="KW37" s="39">
         <v>10088</v>
       </c>
-      <c r="KX37" s="32">
+      <c r="KX37" s="39">
         <v>10085</v>
       </c>
+      <c r="KY37" s="32">
+        <v>10107</v>
+      </c>
     </row>
-    <row r="38" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -32539,11 +32636,14 @@
       <c r="KW38" s="3">
         <v>1770</v>
       </c>
-      <c r="KX38" s="4">
+      <c r="KX38" s="3">
         <v>1773</v>
       </c>
+      <c r="KY38" s="4">
+        <v>1774</v>
+      </c>
     </row>
-    <row r="39" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -33469,11 +33569,14 @@
       <c r="KW39" s="3">
         <v>102</v>
       </c>
-      <c r="KX39" s="4">
+      <c r="KX39" s="3">
         <v>92</v>
       </c>
+      <c r="KY39" s="4">
+        <v>90</v>
+      </c>
     </row>
-    <row r="40" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -34399,11 +34502,14 @@
       <c r="KW40" s="3">
         <v>648</v>
       </c>
-      <c r="KX40" s="4">
+      <c r="KX40" s="3">
         <v>645</v>
       </c>
+      <c r="KY40" s="4">
+        <v>675</v>
+      </c>
     </row>
-    <row r="41" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -35329,11 +35435,14 @@
       <c r="KW41" s="3">
         <v>1072</v>
       </c>
-      <c r="KX41" s="4">
+      <c r="KX41" s="3">
         <v>1074</v>
       </c>
+      <c r="KY41" s="4">
+        <v>1069</v>
+      </c>
     </row>
-    <row r="42" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -36259,11 +36368,14 @@
       <c r="KW42" s="3">
         <v>1452</v>
       </c>
-      <c r="KX42" s="4">
+      <c r="KX42" s="3">
         <v>1452</v>
       </c>
+      <c r="KY42" s="4">
+        <v>1433</v>
+      </c>
     </row>
-    <row r="43" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -37189,11 +37301,14 @@
       <c r="KW43" s="3">
         <v>1777</v>
       </c>
-      <c r="KX43" s="4">
+      <c r="KX43" s="3">
         <v>1792</v>
       </c>
+      <c r="KY43" s="4">
+        <v>1802</v>
+      </c>
     </row>
-    <row r="44" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -38119,11 +38234,14 @@
       <c r="KW44" s="3">
         <v>1775</v>
       </c>
-      <c r="KX44" s="4">
+      <c r="KX44" s="3">
         <v>1760</v>
       </c>
+      <c r="KY44" s="4">
+        <v>1777</v>
+      </c>
     </row>
-    <row r="45" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -39049,11 +39167,14 @@
       <c r="KW45" s="3">
         <v>1492</v>
       </c>
-      <c r="KX45" s="4">
+      <c r="KX45" s="3">
         <v>1497</v>
       </c>
+      <c r="KY45" s="4">
+        <v>1487</v>
+      </c>
     </row>
-    <row r="46" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -39489,9 +39610,10 @@
       <c r="KU46" s="38"/>
       <c r="KV46" s="38"/>
       <c r="KW46" s="38"/>
-      <c r="KX46" s="36"/>
+      <c r="KX46" s="38"/>
+      <c r="KY46" s="36"/>
     </row>
-    <row r="47" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -40419,11 +40541,14 @@
       <c r="KW47" s="37">
         <v>520186</v>
       </c>
-      <c r="KX47" s="30">
+      <c r="KX47" s="37">
         <v>521651</v>
       </c>
+      <c r="KY47" s="30">
+        <v>523366</v>
+      </c>
     </row>
-    <row r="48" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -41349,11 +41474,14 @@
       <c r="KW48" s="3">
         <v>83641</v>
       </c>
-      <c r="KX48" s="4">
+      <c r="KX48" s="3">
         <v>84381</v>
       </c>
+      <c r="KY48" s="4">
+        <v>84861</v>
+      </c>
     </row>
-    <row r="49" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -42279,11 +42407,14 @@
       <c r="KW49" s="3">
         <v>15195</v>
       </c>
-      <c r="KX49" s="4">
+      <c r="KX49" s="3">
         <v>15027</v>
       </c>
+      <c r="KY49" s="4">
+        <v>15070</v>
+      </c>
     </row>
-    <row r="50" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -43209,11 +43340,14 @@
       <c r="KW50" s="3">
         <v>72287</v>
       </c>
-      <c r="KX50" s="4">
+      <c r="KX50" s="3">
         <v>71767</v>
       </c>
+      <c r="KY50" s="4">
+        <v>71854</v>
+      </c>
     </row>
-    <row r="51" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -44139,11 +44273,14 @@
       <c r="KW51" s="3">
         <v>83078</v>
       </c>
-      <c r="KX51" s="4">
+      <c r="KX51" s="3">
         <v>83573</v>
       </c>
+      <c r="KY51" s="4">
+        <v>83763</v>
+      </c>
     </row>
-    <row r="52" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -45069,11 +45206,14 @@
       <c r="KW52" s="3">
         <v>77678</v>
       </c>
-      <c r="KX52" s="4">
+      <c r="KX52" s="3">
         <v>77940</v>
       </c>
+      <c r="KY52" s="4">
+        <v>78091</v>
+      </c>
     </row>
-    <row r="53" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -45999,11 +46139,14 @@
       <c r="KW53" s="3">
         <v>68468</v>
       </c>
-      <c r="KX53" s="4">
+      <c r="KX53" s="3">
         <v>68832</v>
       </c>
+      <c r="KY53" s="4">
+        <v>69004</v>
+      </c>
     </row>
-    <row r="54" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -46929,11 +47072,14 @@
       <c r="KW54" s="3">
         <v>64205</v>
       </c>
-      <c r="KX54" s="4">
+      <c r="KX54" s="3">
         <v>64308</v>
       </c>
+      <c r="KY54" s="4">
+        <v>64708</v>
+      </c>
     </row>
-    <row r="55" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -47859,11 +48005,14 @@
       <c r="KW55" s="3">
         <v>55631</v>
       </c>
-      <c r="KX55" s="4">
+      <c r="KX55" s="3">
         <v>55820</v>
       </c>
+      <c r="KY55" s="4">
+        <v>56012</v>
+      </c>
     </row>
-    <row r="56" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -48789,11 +48938,14 @@
       <c r="KW56" s="38">
         <v>3</v>
       </c>
-      <c r="KX56" s="36">
+      <c r="KX56" s="38">
         <v>3</v>
       </c>
+      <c r="KY56" s="36">
+        <v>3</v>
+      </c>
     </row>
-    <row r="57" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -49721,11 +49873,14 @@
       <c r="KW57" s="37">
         <v>2602</v>
       </c>
-      <c r="KX57" s="30">
+      <c r="KX57" s="37">
         <v>2584</v>
       </c>
+      <c r="KY57" s="30">
+        <v>2562</v>
+      </c>
     </row>
-    <row r="58" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -50651,11 +50806,14 @@
       <c r="KW58" s="3">
         <v>589</v>
       </c>
-      <c r="KX58" s="4">
+      <c r="KX58" s="3">
         <v>593</v>
       </c>
+      <c r="KY58" s="4">
+        <v>599</v>
+      </c>
     </row>
-    <row r="59" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -51581,11 +51739,14 @@
       <c r="KW59" s="3">
         <v>27</v>
       </c>
-      <c r="KX59" s="4">
+      <c r="KX59" s="3">
         <v>31</v>
       </c>
+      <c r="KY59" s="4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="60" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -52511,11 +52672,14 @@
       <c r="KW60" s="3">
         <v>183</v>
       </c>
-      <c r="KX60" s="4">
+      <c r="KX60" s="3">
         <v>170</v>
       </c>
+      <c r="KY60" s="4">
+        <v>164</v>
+      </c>
     </row>
-    <row r="61" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -53441,11 +53605,14 @@
       <c r="KW61" s="3">
         <v>363</v>
       </c>
-      <c r="KX61" s="4">
+      <c r="KX61" s="3">
         <v>360</v>
       </c>
+      <c r="KY61" s="4">
+        <v>352</v>
+      </c>
     </row>
-    <row r="62" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -54371,11 +54538,14 @@
       <c r="KW62" s="3">
         <v>395</v>
       </c>
-      <c r="KX62" s="4">
+      <c r="KX62" s="3">
         <v>397</v>
       </c>
+      <c r="KY62" s="4">
+        <v>391</v>
+      </c>
     </row>
-    <row r="63" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -55301,11 +55471,14 @@
       <c r="KW63" s="3">
         <v>399</v>
       </c>
-      <c r="KX63" s="4">
+      <c r="KX63" s="3">
         <v>392</v>
       </c>
+      <c r="KY63" s="4">
+        <v>392</v>
+      </c>
     </row>
-    <row r="64" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -56231,11 +56404,14 @@
       <c r="KW64" s="3">
         <v>330</v>
       </c>
-      <c r="KX64" s="4">
+      <c r="KX64" s="3">
         <v>328</v>
       </c>
+      <c r="KY64" s="4">
+        <v>327</v>
+      </c>
     </row>
-    <row r="65" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -57161,11 +57337,14 @@
       <c r="KW65" s="3">
         <v>316</v>
       </c>
-      <c r="KX65" s="4">
+      <c r="KX65" s="3">
         <v>313</v>
       </c>
+      <c r="KY65" s="4">
+        <v>307</v>
+      </c>
     </row>
-    <row r="66" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -57537,9 +57716,10 @@
       <c r="KU66" s="38"/>
       <c r="KV66" s="38"/>
       <c r="KW66" s="38"/>
-      <c r="KX66" s="36"/>
+      <c r="KX66" s="38"/>
+      <c r="KY66" s="36"/>
     </row>
-    <row r="67" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -58467,11 +58647,14 @@
       <c r="KW67" s="37">
         <v>660673</v>
       </c>
-      <c r="KX67" s="30">
+      <c r="KX67" s="37">
         <v>662833</v>
       </c>
+      <c r="KY67" s="30">
+        <v>667871</v>
+      </c>
     </row>
-    <row r="68" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -59397,11 +59580,14 @@
       <c r="KW68" s="3">
         <v>142748</v>
       </c>
-      <c r="KX68" s="4">
+      <c r="KX68" s="3">
         <v>143829</v>
       </c>
+      <c r="KY68" s="4">
+        <v>145286</v>
+      </c>
     </row>
-    <row r="69" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -60327,11 +60513,14 @@
       <c r="KW69" s="3">
         <v>11192</v>
       </c>
-      <c r="KX69" s="4">
+      <c r="KX69" s="3">
         <v>10453</v>
       </c>
+      <c r="KY69" s="4">
+        <v>10498</v>
+      </c>
     </row>
-    <row r="70" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -61257,11 +61446,14 @@
       <c r="KW70" s="3">
         <v>64091</v>
       </c>
-      <c r="KX70" s="4">
+      <c r="KX70" s="3">
         <v>63106</v>
       </c>
+      <c r="KY70" s="4">
+        <v>63536</v>
+      </c>
     </row>
-    <row r="71" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -62187,11 +62379,14 @@
       <c r="KW71" s="3">
         <v>101406</v>
       </c>
-      <c r="KX71" s="4">
+      <c r="KX71" s="3">
         <v>101902</v>
       </c>
+      <c r="KY71" s="4">
+        <v>102636</v>
+      </c>
     </row>
-    <row r="72" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -63117,11 +63312,14 @@
       <c r="KW72" s="3">
         <v>99234</v>
       </c>
-      <c r="KX72" s="4">
+      <c r="KX72" s="3">
         <v>100055</v>
       </c>
+      <c r="KY72" s="4">
+        <v>100768</v>
+      </c>
     </row>
-    <row r="73" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -64047,11 +64245,14 @@
       <c r="KW73" s="3">
         <v>89004</v>
       </c>
-      <c r="KX73" s="4">
+      <c r="KX73" s="3">
         <v>89646</v>
       </c>
+      <c r="KY73" s="4">
+        <v>90267</v>
+      </c>
     </row>
-    <row r="74" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -64977,11 +65178,14 @@
       <c r="KW74" s="3">
         <v>80909</v>
       </c>
-      <c r="KX74" s="4">
+      <c r="KX74" s="3">
         <v>81458</v>
       </c>
+      <c r="KY74" s="4">
+        <v>81992</v>
+      </c>
     </row>
-    <row r="75" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -65907,11 +66111,14 @@
       <c r="KW75" s="3">
         <v>72084</v>
       </c>
-      <c r="KX75" s="4">
+      <c r="KX75" s="3">
         <v>72378</v>
       </c>
+      <c r="KY75" s="4">
+        <v>72877</v>
+      </c>
     </row>
-    <row r="76" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -66837,11 +67044,14 @@
       <c r="KW76" s="38">
         <v>5</v>
       </c>
-      <c r="KX76" s="36">
+      <c r="KX76" s="38">
         <v>6</v>
       </c>
+      <c r="KY76" s="36">
+        <v>11</v>
+      </c>
     </row>
-    <row r="77" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -67769,11 +67979,14 @@
       <c r="KW77" s="37">
         <v>106450</v>
       </c>
-      <c r="KX77" s="30">
+      <c r="KX77" s="37">
         <v>107418</v>
       </c>
+      <c r="KY77" s="30">
+        <v>107864</v>
+      </c>
     </row>
-    <row r="78" spans="1:310" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:311" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -68699,11 +68912,14 @@
       <c r="KW78" s="3">
         <v>19417</v>
       </c>
-      <c r="KX78" s="4">
+      <c r="KX78" s="3">
         <v>19529</v>
       </c>
+      <c r="KY78" s="4">
+        <v>19604</v>
+      </c>
     </row>
-    <row r="79" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -69629,11 +69845,14 @@
       <c r="KW79" s="3">
         <v>1742</v>
       </c>
-      <c r="KX79" s="4">
+      <c r="KX79" s="3">
         <v>1834</v>
       </c>
+      <c r="KY79" s="4">
+        <v>1859</v>
+      </c>
     </row>
-    <row r="80" spans="1:310" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -70559,11 +70778,14 @@
       <c r="KW80" s="3">
         <v>11947</v>
       </c>
-      <c r="KX80" s="4">
+      <c r="KX80" s="3">
         <v>12162</v>
       </c>
+      <c r="KY80" s="4">
+        <v>12231</v>
+      </c>
     </row>
-    <row r="81" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -71489,11 +71711,14 @@
       <c r="KW81" s="3">
         <v>16114</v>
       </c>
-      <c r="KX81" s="4">
+      <c r="KX81" s="3">
         <v>16344</v>
       </c>
+      <c r="KY81" s="4">
+        <v>16431</v>
+      </c>
     </row>
-    <row r="82" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -72419,11 +72644,14 @@
       <c r="KW82" s="3">
         <v>16474</v>
       </c>
-      <c r="KX82" s="4">
+      <c r="KX82" s="3">
         <v>16664</v>
       </c>
+      <c r="KY82" s="4">
+        <v>16700</v>
+      </c>
     </row>
-    <row r="83" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -73349,11 +73577,14 @@
       <c r="KW83" s="3">
         <v>15172</v>
       </c>
-      <c r="KX83" s="4">
+      <c r="KX83" s="3">
         <v>15229</v>
       </c>
+      <c r="KY83" s="4">
+        <v>15302</v>
+      </c>
     </row>
-    <row r="84" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -74279,11 +74510,14 @@
       <c r="KW84" s="3">
         <v>13616</v>
       </c>
-      <c r="KX84" s="4">
+      <c r="KX84" s="3">
         <v>13662</v>
       </c>
+      <c r="KY84" s="4">
+        <v>13712</v>
+      </c>
     </row>
-    <row r="85" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -75209,11 +75443,14 @@
       <c r="KW85" s="3">
         <v>11966</v>
       </c>
-      <c r="KX85" s="4">
+      <c r="KX85" s="3">
         <v>11993</v>
       </c>
+      <c r="KY85" s="4">
+        <v>12023</v>
+      </c>
     </row>
-    <row r="86" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -75951,11 +76188,14 @@
       <c r="KW86" s="38">
         <v>2</v>
       </c>
-      <c r="KX86" s="36">
+      <c r="KX86" s="38">
         <v>1</v>
       </c>
+      <c r="KY86" s="36">
+        <v>2</v>
+      </c>
     </row>
-    <row r="87" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -76883,12 +77123,15 @@
       <c r="KW87" s="40">
         <v>1981146</v>
       </c>
-      <c r="KX87" s="34">
+      <c r="KX87" s="40">
         <v>1988746</v>
       </c>
-      <c r="KY87" s="3"/>
+      <c r="KY87" s="34">
+        <v>1999360</v>
+      </c>
+      <c r="KZ87" s="3"/>
     </row>
-    <row r="88" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A88" s="47" t="s">
         <v>23</v>
       </c>
@@ -76906,8 +77149,9 @@
       <c r="KV88" s="3"/>
       <c r="KW88" s="3"/>
       <c r="KX88" s="3"/>
+      <c r="KY88" s="3"/>
     </row>
-    <row r="89" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:312" x14ac:dyDescent="0.25">
       <c r="KD89" s="3"/>
     </row>
   </sheetData>
@@ -76927,7 +77171,7 @@
     <mergeCell ref="AY5:BJ5"/>
     <mergeCell ref="BK5:BV5"/>
     <mergeCell ref="DS5:ED5"/>
-    <mergeCell ref="KQ5:KX5"/>
+    <mergeCell ref="KQ5:KY5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5A1C60-156E-42B2-BD3A-ACC3586FB4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A199D-617E-4D06-A49E-3C8CB811F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -157,7 +157,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998 - septiembre 2023</t>
+    <t>Enero 1998 - octubre 2023</t>
   </si>
 </sst>
 </file>
@@ -984,6 +984,15 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -991,15 +1000,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1323,11 +1323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KZ89"/>
+  <dimension ref="A1:LA89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="KN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KS89" sqref="KS89"/>
+      <pane xSplit="2" topLeftCell="KO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KW94" sqref="KW94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1464,403 +1464,405 @@
     <col min="302" max="302" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="303" max="307" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="308" max="310" width="9.109375" style="1" customWidth="1"/>
-    <col min="311" max="311" width="12" style="1" customWidth="1"/>
-    <col min="312" max="16384" width="11.33203125" style="1"/>
+    <col min="311" max="311" width="11.21875" style="1" customWidth="1"/>
+    <col min="312" max="312" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="313" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:311" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:312" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:311" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:312" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
     </row>
-    <row r="3" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:311" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:312" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="47">
         <v>1998</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="44">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="47">
         <v>1999</v>
       </c>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="44">
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="47">
         <v>2000</v>
       </c>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="44">
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="47">
         <v>2001</v>
       </c>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="44">
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="47">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="45"/>
-      <c r="BF5" s="45"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="46"/>
-      <c r="BK5" s="44">
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="49"/>
+      <c r="BK5" s="47">
         <v>2003</v>
       </c>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="45"/>
-      <c r="BO5" s="45"/>
-      <c r="BP5" s="45"/>
-      <c r="BQ5" s="45"/>
-      <c r="BR5" s="45"/>
-      <c r="BS5" s="45"/>
-      <c r="BT5" s="45"/>
-      <c r="BU5" s="45"/>
-      <c r="BV5" s="46"/>
-      <c r="BW5" s="44">
+      <c r="BL5" s="48"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="48"/>
+      <c r="BO5" s="48"/>
+      <c r="BP5" s="48"/>
+      <c r="BQ5" s="48"/>
+      <c r="BR5" s="48"/>
+      <c r="BS5" s="48"/>
+      <c r="BT5" s="48"/>
+      <c r="BU5" s="48"/>
+      <c r="BV5" s="49"/>
+      <c r="BW5" s="47">
         <v>2004</v>
       </c>
-      <c r="BX5" s="45"/>
-      <c r="BY5" s="45"/>
-      <c r="BZ5" s="45"/>
-      <c r="CA5" s="45"/>
-      <c r="CB5" s="45"/>
-      <c r="CC5" s="45"/>
-      <c r="CD5" s="45"/>
-      <c r="CE5" s="45"/>
-      <c r="CF5" s="45"/>
-      <c r="CG5" s="45"/>
-      <c r="CH5" s="46"/>
-      <c r="CI5" s="44">
+      <c r="BX5" s="48"/>
+      <c r="BY5" s="48"/>
+      <c r="BZ5" s="48"/>
+      <c r="CA5" s="48"/>
+      <c r="CB5" s="48"/>
+      <c r="CC5" s="48"/>
+      <c r="CD5" s="48"/>
+      <c r="CE5" s="48"/>
+      <c r="CF5" s="48"/>
+      <c r="CG5" s="48"/>
+      <c r="CH5" s="49"/>
+      <c r="CI5" s="47">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="45"/>
-      <c r="CK5" s="45"/>
-      <c r="CL5" s="45"/>
-      <c r="CM5" s="45"/>
-      <c r="CN5" s="45"/>
-      <c r="CO5" s="45"/>
-      <c r="CP5" s="45"/>
-      <c r="CQ5" s="45"/>
-      <c r="CR5" s="45"/>
-      <c r="CS5" s="45"/>
-      <c r="CT5" s="46"/>
-      <c r="CU5" s="44">
+      <c r="CJ5" s="48"/>
+      <c r="CK5" s="48"/>
+      <c r="CL5" s="48"/>
+      <c r="CM5" s="48"/>
+      <c r="CN5" s="48"/>
+      <c r="CO5" s="48"/>
+      <c r="CP5" s="48"/>
+      <c r="CQ5" s="48"/>
+      <c r="CR5" s="48"/>
+      <c r="CS5" s="48"/>
+      <c r="CT5" s="49"/>
+      <c r="CU5" s="47">
         <v>2006</v>
       </c>
-      <c r="CV5" s="45"/>
-      <c r="CW5" s="45"/>
-      <c r="CX5" s="45"/>
-      <c r="CY5" s="45"/>
-      <c r="CZ5" s="45"/>
-      <c r="DA5" s="45"/>
-      <c r="DB5" s="45"/>
-      <c r="DC5" s="45"/>
-      <c r="DD5" s="45"/>
-      <c r="DE5" s="45"/>
-      <c r="DF5" s="46"/>
-      <c r="DG5" s="44">
+      <c r="CV5" s="48"/>
+      <c r="CW5" s="48"/>
+      <c r="CX5" s="48"/>
+      <c r="CY5" s="48"/>
+      <c r="CZ5" s="48"/>
+      <c r="DA5" s="48"/>
+      <c r="DB5" s="48"/>
+      <c r="DC5" s="48"/>
+      <c r="DD5" s="48"/>
+      <c r="DE5" s="48"/>
+      <c r="DF5" s="49"/>
+      <c r="DG5" s="47">
         <v>2007</v>
       </c>
-      <c r="DH5" s="45"/>
-      <c r="DI5" s="45"/>
-      <c r="DJ5" s="45"/>
-      <c r="DK5" s="45"/>
-      <c r="DL5" s="45"/>
-      <c r="DM5" s="45"/>
-      <c r="DN5" s="45"/>
-      <c r="DO5" s="45"/>
-      <c r="DP5" s="45"/>
-      <c r="DQ5" s="45"/>
-      <c r="DR5" s="46"/>
-      <c r="DS5" s="44">
+      <c r="DH5" s="48"/>
+      <c r="DI5" s="48"/>
+      <c r="DJ5" s="48"/>
+      <c r="DK5" s="48"/>
+      <c r="DL5" s="48"/>
+      <c r="DM5" s="48"/>
+      <c r="DN5" s="48"/>
+      <c r="DO5" s="48"/>
+      <c r="DP5" s="48"/>
+      <c r="DQ5" s="48"/>
+      <c r="DR5" s="49"/>
+      <c r="DS5" s="47">
         <v>2008</v>
       </c>
-      <c r="DT5" s="45"/>
-      <c r="DU5" s="45"/>
-      <c r="DV5" s="45"/>
-      <c r="DW5" s="45"/>
-      <c r="DX5" s="45"/>
-      <c r="DY5" s="45"/>
-      <c r="DZ5" s="45"/>
-      <c r="EA5" s="45"/>
-      <c r="EB5" s="45"/>
-      <c r="EC5" s="45"/>
-      <c r="ED5" s="46"/>
-      <c r="EE5" s="44">
+      <c r="DT5" s="48"/>
+      <c r="DU5" s="48"/>
+      <c r="DV5" s="48"/>
+      <c r="DW5" s="48"/>
+      <c r="DX5" s="48"/>
+      <c r="DY5" s="48"/>
+      <c r="DZ5" s="48"/>
+      <c r="EA5" s="48"/>
+      <c r="EB5" s="48"/>
+      <c r="EC5" s="48"/>
+      <c r="ED5" s="49"/>
+      <c r="EE5" s="47">
         <v>2009</v>
       </c>
-      <c r="EF5" s="45"/>
-      <c r="EG5" s="45"/>
-      <c r="EH5" s="45"/>
-      <c r="EI5" s="45"/>
-      <c r="EJ5" s="45"/>
-      <c r="EK5" s="45"/>
-      <c r="EL5" s="45"/>
-      <c r="EM5" s="45"/>
-      <c r="EN5" s="45"/>
-      <c r="EO5" s="45"/>
-      <c r="EP5" s="46"/>
-      <c r="EQ5" s="44">
+      <c r="EF5" s="48"/>
+      <c r="EG5" s="48"/>
+      <c r="EH5" s="48"/>
+      <c r="EI5" s="48"/>
+      <c r="EJ5" s="48"/>
+      <c r="EK5" s="48"/>
+      <c r="EL5" s="48"/>
+      <c r="EM5" s="48"/>
+      <c r="EN5" s="48"/>
+      <c r="EO5" s="48"/>
+      <c r="EP5" s="49"/>
+      <c r="EQ5" s="47">
         <v>2010</v>
       </c>
-      <c r="ER5" s="45"/>
-      <c r="ES5" s="45"/>
-      <c r="ET5" s="45"/>
-      <c r="EU5" s="45"/>
-      <c r="EV5" s="45"/>
-      <c r="EW5" s="45"/>
-      <c r="EX5" s="45"/>
-      <c r="EY5" s="45"/>
-      <c r="EZ5" s="45"/>
-      <c r="FA5" s="45"/>
-      <c r="FB5" s="46"/>
-      <c r="FC5" s="44">
+      <c r="ER5" s="48"/>
+      <c r="ES5" s="48"/>
+      <c r="ET5" s="48"/>
+      <c r="EU5" s="48"/>
+      <c r="EV5" s="48"/>
+      <c r="EW5" s="48"/>
+      <c r="EX5" s="48"/>
+      <c r="EY5" s="48"/>
+      <c r="EZ5" s="48"/>
+      <c r="FA5" s="48"/>
+      <c r="FB5" s="49"/>
+      <c r="FC5" s="47">
         <v>2011</v>
       </c>
-      <c r="FD5" s="45"/>
-      <c r="FE5" s="45"/>
-      <c r="FF5" s="45"/>
-      <c r="FG5" s="45"/>
-      <c r="FH5" s="45"/>
-      <c r="FI5" s="45"/>
-      <c r="FJ5" s="45"/>
-      <c r="FK5" s="45"/>
-      <c r="FL5" s="45"/>
-      <c r="FM5" s="45"/>
-      <c r="FN5" s="46"/>
-      <c r="FO5" s="44">
+      <c r="FD5" s="48"/>
+      <c r="FE5" s="48"/>
+      <c r="FF5" s="48"/>
+      <c r="FG5" s="48"/>
+      <c r="FH5" s="48"/>
+      <c r="FI5" s="48"/>
+      <c r="FJ5" s="48"/>
+      <c r="FK5" s="48"/>
+      <c r="FL5" s="48"/>
+      <c r="FM5" s="48"/>
+      <c r="FN5" s="49"/>
+      <c r="FO5" s="47">
         <v>2012</v>
       </c>
-      <c r="FP5" s="45"/>
-      <c r="FQ5" s="45"/>
-      <c r="FR5" s="45"/>
-      <c r="FS5" s="45"/>
-      <c r="FT5" s="45"/>
-      <c r="FU5" s="45"/>
-      <c r="FV5" s="45"/>
-      <c r="FW5" s="45"/>
-      <c r="FX5" s="45"/>
-      <c r="FY5" s="45"/>
-      <c r="FZ5" s="46"/>
-      <c r="GA5" s="44">
+      <c r="FP5" s="48"/>
+      <c r="FQ5" s="48"/>
+      <c r="FR5" s="48"/>
+      <c r="FS5" s="48"/>
+      <c r="FT5" s="48"/>
+      <c r="FU5" s="48"/>
+      <c r="FV5" s="48"/>
+      <c r="FW5" s="48"/>
+      <c r="FX5" s="48"/>
+      <c r="FY5" s="48"/>
+      <c r="FZ5" s="49"/>
+      <c r="GA5" s="47">
         <v>2013</v>
       </c>
-      <c r="GB5" s="45"/>
-      <c r="GC5" s="45"/>
-      <c r="GD5" s="45"/>
-      <c r="GE5" s="45"/>
-      <c r="GF5" s="45"/>
-      <c r="GG5" s="45"/>
-      <c r="GH5" s="45"/>
-      <c r="GI5" s="45"/>
-      <c r="GJ5" s="45"/>
-      <c r="GK5" s="45"/>
-      <c r="GL5" s="46"/>
-      <c r="GM5" s="44">
+      <c r="GB5" s="48"/>
+      <c r="GC5" s="48"/>
+      <c r="GD5" s="48"/>
+      <c r="GE5" s="48"/>
+      <c r="GF5" s="48"/>
+      <c r="GG5" s="48"/>
+      <c r="GH5" s="48"/>
+      <c r="GI5" s="48"/>
+      <c r="GJ5" s="48"/>
+      <c r="GK5" s="48"/>
+      <c r="GL5" s="49"/>
+      <c r="GM5" s="47">
         <v>2014</v>
       </c>
-      <c r="GN5" s="45"/>
-      <c r="GO5" s="45"/>
-      <c r="GP5" s="45"/>
-      <c r="GQ5" s="45"/>
-      <c r="GR5" s="45"/>
-      <c r="GS5" s="45"/>
-      <c r="GT5" s="45"/>
-      <c r="GU5" s="45"/>
-      <c r="GV5" s="45"/>
-      <c r="GW5" s="45"/>
-      <c r="GX5" s="46"/>
-      <c r="GY5" s="44">
+      <c r="GN5" s="48"/>
+      <c r="GO5" s="48"/>
+      <c r="GP5" s="48"/>
+      <c r="GQ5" s="48"/>
+      <c r="GR5" s="48"/>
+      <c r="GS5" s="48"/>
+      <c r="GT5" s="48"/>
+      <c r="GU5" s="48"/>
+      <c r="GV5" s="48"/>
+      <c r="GW5" s="48"/>
+      <c r="GX5" s="49"/>
+      <c r="GY5" s="47">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="45"/>
-      <c r="HA5" s="45"/>
-      <c r="HB5" s="45"/>
-      <c r="HC5" s="45"/>
-      <c r="HD5" s="45"/>
-      <c r="HE5" s="45"/>
-      <c r="HF5" s="45"/>
-      <c r="HG5" s="45"/>
-      <c r="HH5" s="45"/>
-      <c r="HI5" s="45"/>
-      <c r="HJ5" s="46"/>
-      <c r="HK5" s="44">
+      <c r="GZ5" s="48"/>
+      <c r="HA5" s="48"/>
+      <c r="HB5" s="48"/>
+      <c r="HC5" s="48"/>
+      <c r="HD5" s="48"/>
+      <c r="HE5" s="48"/>
+      <c r="HF5" s="48"/>
+      <c r="HG5" s="48"/>
+      <c r="HH5" s="48"/>
+      <c r="HI5" s="48"/>
+      <c r="HJ5" s="49"/>
+      <c r="HK5" s="47">
         <v>2016</v>
       </c>
-      <c r="HL5" s="45"/>
-      <c r="HM5" s="45"/>
-      <c r="HN5" s="45"/>
-      <c r="HO5" s="45"/>
-      <c r="HP5" s="45"/>
-      <c r="HQ5" s="45"/>
-      <c r="HR5" s="45"/>
-      <c r="HS5" s="45"/>
-      <c r="HT5" s="45"/>
-      <c r="HU5" s="45"/>
-      <c r="HV5" s="46"/>
-      <c r="HW5" s="44">
+      <c r="HL5" s="48"/>
+      <c r="HM5" s="48"/>
+      <c r="HN5" s="48"/>
+      <c r="HO5" s="48"/>
+      <c r="HP5" s="48"/>
+      <c r="HQ5" s="48"/>
+      <c r="HR5" s="48"/>
+      <c r="HS5" s="48"/>
+      <c r="HT5" s="48"/>
+      <c r="HU5" s="48"/>
+      <c r="HV5" s="49"/>
+      <c r="HW5" s="47">
         <v>2017</v>
       </c>
-      <c r="HX5" s="45"/>
-      <c r="HY5" s="45"/>
-      <c r="HZ5" s="45"/>
-      <c r="IA5" s="45"/>
-      <c r="IB5" s="45"/>
-      <c r="IC5" s="45"/>
-      <c r="ID5" s="45"/>
-      <c r="IE5" s="45"/>
-      <c r="IF5" s="45"/>
-      <c r="IG5" s="45"/>
-      <c r="IH5" s="46"/>
-      <c r="II5" s="44">
+      <c r="HX5" s="48"/>
+      <c r="HY5" s="48"/>
+      <c r="HZ5" s="48"/>
+      <c r="IA5" s="48"/>
+      <c r="IB5" s="48"/>
+      <c r="IC5" s="48"/>
+      <c r="ID5" s="48"/>
+      <c r="IE5" s="48"/>
+      <c r="IF5" s="48"/>
+      <c r="IG5" s="48"/>
+      <c r="IH5" s="49"/>
+      <c r="II5" s="47">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="45"/>
-      <c r="IK5" s="45"/>
-      <c r="IL5" s="45"/>
-      <c r="IM5" s="45"/>
-      <c r="IN5" s="45"/>
-      <c r="IO5" s="45"/>
-      <c r="IP5" s="45"/>
-      <c r="IQ5" s="45"/>
-      <c r="IR5" s="45"/>
-      <c r="IS5" s="45"/>
-      <c r="IT5" s="46"/>
-      <c r="IU5" s="44">
+      <c r="IJ5" s="48"/>
+      <c r="IK5" s="48"/>
+      <c r="IL5" s="48"/>
+      <c r="IM5" s="48"/>
+      <c r="IN5" s="48"/>
+      <c r="IO5" s="48"/>
+      <c r="IP5" s="48"/>
+      <c r="IQ5" s="48"/>
+      <c r="IR5" s="48"/>
+      <c r="IS5" s="48"/>
+      <c r="IT5" s="49"/>
+      <c r="IU5" s="47">
         <v>2019</v>
       </c>
-      <c r="IV5" s="45"/>
-      <c r="IW5" s="45"/>
-      <c r="IX5" s="45"/>
-      <c r="IY5" s="45"/>
-      <c r="IZ5" s="45"/>
-      <c r="JA5" s="45"/>
-      <c r="JB5" s="45"/>
-      <c r="JC5" s="45"/>
-      <c r="JD5" s="45"/>
-      <c r="JE5" s="45"/>
-      <c r="JF5" s="46"/>
-      <c r="JG5" s="44">
+      <c r="IV5" s="48"/>
+      <c r="IW5" s="48"/>
+      <c r="IX5" s="48"/>
+      <c r="IY5" s="48"/>
+      <c r="IZ5" s="48"/>
+      <c r="JA5" s="48"/>
+      <c r="JB5" s="48"/>
+      <c r="JC5" s="48"/>
+      <c r="JD5" s="48"/>
+      <c r="JE5" s="48"/>
+      <c r="JF5" s="49"/>
+      <c r="JG5" s="47">
         <v>2020</v>
       </c>
-      <c r="JH5" s="45"/>
-      <c r="JI5" s="45"/>
-      <c r="JJ5" s="45"/>
-      <c r="JK5" s="45"/>
-      <c r="JL5" s="45"/>
-      <c r="JM5" s="45"/>
-      <c r="JN5" s="45"/>
-      <c r="JO5" s="45"/>
-      <c r="JP5" s="45"/>
-      <c r="JQ5" s="45"/>
-      <c r="JR5" s="46"/>
-      <c r="JS5" s="44">
+      <c r="JH5" s="48"/>
+      <c r="JI5" s="48"/>
+      <c r="JJ5" s="48"/>
+      <c r="JK5" s="48"/>
+      <c r="JL5" s="48"/>
+      <c r="JM5" s="48"/>
+      <c r="JN5" s="48"/>
+      <c r="JO5" s="48"/>
+      <c r="JP5" s="48"/>
+      <c r="JQ5" s="48"/>
+      <c r="JR5" s="49"/>
+      <c r="JS5" s="47">
         <v>2021</v>
       </c>
-      <c r="JT5" s="45"/>
-      <c r="JU5" s="45"/>
-      <c r="JV5" s="45"/>
-      <c r="JW5" s="45"/>
-      <c r="JX5" s="45"/>
-      <c r="JY5" s="45"/>
-      <c r="JZ5" s="45"/>
-      <c r="KA5" s="45"/>
-      <c r="KB5" s="45"/>
-      <c r="KC5" s="45"/>
-      <c r="KD5" s="45"/>
-      <c r="KE5" s="44">
+      <c r="JT5" s="48"/>
+      <c r="JU5" s="48"/>
+      <c r="JV5" s="48"/>
+      <c r="JW5" s="48"/>
+      <c r="JX5" s="48"/>
+      <c r="JY5" s="48"/>
+      <c r="JZ5" s="48"/>
+      <c r="KA5" s="48"/>
+      <c r="KB5" s="48"/>
+      <c r="KC5" s="48"/>
+      <c r="KD5" s="48"/>
+      <c r="KE5" s="47">
         <v>2022</v>
       </c>
-      <c r="KF5" s="45"/>
-      <c r="KG5" s="45"/>
-      <c r="KH5" s="45"/>
-      <c r="KI5" s="45"/>
-      <c r="KJ5" s="45"/>
-      <c r="KK5" s="45"/>
-      <c r="KL5" s="45"/>
-      <c r="KM5" s="45"/>
-      <c r="KN5" s="45"/>
-      <c r="KO5" s="45"/>
-      <c r="KP5" s="46"/>
-      <c r="KQ5" s="44">
+      <c r="KF5" s="48"/>
+      <c r="KG5" s="48"/>
+      <c r="KH5" s="48"/>
+      <c r="KI5" s="48"/>
+      <c r="KJ5" s="48"/>
+      <c r="KK5" s="48"/>
+      <c r="KL5" s="48"/>
+      <c r="KM5" s="48"/>
+      <c r="KN5" s="48"/>
+      <c r="KO5" s="48"/>
+      <c r="KP5" s="49"/>
+      <c r="KQ5" s="47">
         <v>2023</v>
       </c>
-      <c r="KR5" s="45"/>
-      <c r="KS5" s="45"/>
-      <c r="KT5" s="45"/>
-      <c r="KU5" s="45"/>
-      <c r="KV5" s="45"/>
-      <c r="KW5" s="45"/>
-      <c r="KX5" s="45"/>
-      <c r="KY5" s="46"/>
+      <c r="KR5" s="48"/>
+      <c r="KS5" s="48"/>
+      <c r="KT5" s="48"/>
+      <c r="KU5" s="48"/>
+      <c r="KV5" s="48"/>
+      <c r="KW5" s="48"/>
+      <c r="KX5" s="48"/>
+      <c r="KY5" s="48"/>
+      <c r="KZ5" s="49"/>
     </row>
-    <row r="6" spans="1:311" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
+    <row r="6" spans="1:312" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2785,11 +2787,14 @@
       <c r="KX6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="KY6" s="43" t="s">
+      <c r="KY6" s="42" t="s">
         <v>16</v>
       </c>
+      <c r="KZ6" s="43" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:311" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:312" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3720,11 +3725,14 @@
       <c r="KX7" s="37">
         <v>116045</v>
       </c>
-      <c r="KY7" s="30">
+      <c r="KY7" s="37">
         <v>118223</v>
       </c>
+      <c r="KZ7" s="30">
+        <v>120205</v>
+      </c>
     </row>
-    <row r="8" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4653,11 +4661,14 @@
       <c r="KX8" s="3">
         <v>23633</v>
       </c>
-      <c r="KY8" s="4">
+      <c r="KY8" s="3">
         <v>23962</v>
       </c>
+      <c r="KZ8" s="4">
+        <v>24169</v>
+      </c>
     </row>
-    <row r="9" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5586,11 +5597,14 @@
       <c r="KX9" s="3">
         <v>4942</v>
       </c>
-      <c r="KY9" s="4">
+      <c r="KY9" s="3">
         <v>5066</v>
       </c>
+      <c r="KZ9" s="4">
+        <v>5228</v>
+      </c>
     </row>
-    <row r="10" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6519,11 +6533,14 @@
       <c r="KX10" s="3">
         <v>16686</v>
       </c>
-      <c r="KY10" s="4">
+      <c r="KY10" s="3">
         <v>17215</v>
       </c>
+      <c r="KZ10" s="4">
+        <v>17708</v>
+      </c>
     </row>
-    <row r="11" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7452,11 +7469,14 @@
       <c r="KX11" s="3">
         <v>17043</v>
       </c>
-      <c r="KY11" s="4">
+      <c r="KY11" s="3">
         <v>17493</v>
       </c>
+      <c r="KZ11" s="4">
+        <v>17806</v>
+      </c>
     </row>
-    <row r="12" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -8385,11 +8405,14 @@
       <c r="KX12" s="3">
         <v>16007</v>
       </c>
-      <c r="KY12" s="4">
+      <c r="KY12" s="3">
         <v>16312</v>
       </c>
+      <c r="KZ12" s="4">
+        <v>16527</v>
+      </c>
     </row>
-    <row r="13" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -9318,11 +9341,14 @@
       <c r="KX13" s="3">
         <v>13937</v>
       </c>
-      <c r="KY13" s="4">
+      <c r="KY13" s="3">
         <v>14185</v>
       </c>
+      <c r="KZ13" s="4">
+        <v>14470</v>
+      </c>
     </row>
-    <row r="14" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -10251,11 +10277,14 @@
       <c r="KX14" s="3">
         <v>12253</v>
       </c>
-      <c r="KY14" s="4">
+      <c r="KY14" s="3">
         <v>12420</v>
       </c>
+      <c r="KZ14" s="4">
+        <v>12610</v>
+      </c>
     </row>
-    <row r="15" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -11184,11 +11213,14 @@
       <c r="KX15" s="3">
         <v>11538</v>
       </c>
-      <c r="KY15" s="4">
+      <c r="KY15" s="3">
         <v>11563</v>
       </c>
+      <c r="KZ15" s="4">
+        <v>11681</v>
+      </c>
     </row>
-    <row r="16" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -12117,11 +12149,14 @@
       <c r="KX16" s="38">
         <v>6</v>
       </c>
-      <c r="KY16" s="36">
+      <c r="KY16" s="38">
         <v>7</v>
       </c>
+      <c r="KZ16" s="36">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -13052,11 +13087,14 @@
       <c r="KX17" s="37">
         <v>411107</v>
       </c>
-      <c r="KY17" s="30">
+      <c r="KY17" s="37">
         <v>412616</v>
       </c>
+      <c r="KZ17" s="30">
+        <v>416253</v>
+      </c>
     </row>
-    <row r="18" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -13985,11 +14023,14 @@
       <c r="KX18" s="3">
         <v>67618</v>
       </c>
-      <c r="KY18" s="4">
+      <c r="KY18" s="3">
         <v>67871</v>
       </c>
+      <c r="KZ18" s="4">
+        <v>68678</v>
+      </c>
     </row>
-    <row r="19" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14918,11 +14959,14 @@
       <c r="KX19" s="3">
         <v>11259</v>
       </c>
-      <c r="KY19" s="4">
+      <c r="KY19" s="3">
         <v>11292</v>
       </c>
+      <c r="KZ19" s="4">
+        <v>11675</v>
+      </c>
     </row>
-    <row r="20" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15851,11 +15895,14 @@
       <c r="KX20" s="3">
         <v>55019</v>
       </c>
-      <c r="KY20" s="4">
+      <c r="KY20" s="3">
         <v>55262</v>
       </c>
+      <c r="KZ20" s="4">
+        <v>56235</v>
+      </c>
     </row>
-    <row r="21" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -16784,11 +16831,14 @@
       <c r="KX21" s="3">
         <v>67091</v>
       </c>
-      <c r="KY21" s="4">
+      <c r="KY21" s="3">
         <v>67337</v>
       </c>
+      <c r="KZ21" s="4">
+        <v>67867</v>
+      </c>
     </row>
-    <row r="22" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -17717,11 +17767,14 @@
       <c r="KX22" s="3">
         <v>64784</v>
       </c>
-      <c r="KY22" s="4">
+      <c r="KY22" s="3">
         <v>64995</v>
       </c>
+      <c r="KZ22" s="4">
+        <v>65370</v>
+      </c>
     </row>
-    <row r="23" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -18650,11 +18703,14 @@
       <c r="KX23" s="3">
         <v>57293</v>
       </c>
-      <c r="KY23" s="4">
+      <c r="KY23" s="3">
         <v>57481</v>
       </c>
+      <c r="KZ23" s="4">
+        <v>57633</v>
+      </c>
     </row>
-    <row r="24" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -19583,11 +19639,14 @@
       <c r="KX24" s="3">
         <v>48121</v>
       </c>
-      <c r="KY24" s="4">
+      <c r="KY24" s="3">
         <v>48352</v>
       </c>
+      <c r="KZ24" s="4">
+        <v>48703</v>
+      </c>
     </row>
-    <row r="25" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -20516,11 +20575,14 @@
       <c r="KX25" s="3">
         <v>39920</v>
       </c>
-      <c r="KY25" s="4">
+      <c r="KY25" s="3">
         <v>40024</v>
       </c>
+      <c r="KZ25" s="4">
+        <v>40091</v>
+      </c>
     </row>
-    <row r="26" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -21439,11 +21501,14 @@
       <c r="KX26" s="38">
         <v>2</v>
       </c>
-      <c r="KY26" s="36">
+      <c r="KY26" s="38">
         <v>2</v>
       </c>
+      <c r="KZ26" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -22374,11 +22439,14 @@
       <c r="KX27" s="37">
         <v>157023</v>
       </c>
-      <c r="KY27" s="30">
+      <c r="KY27" s="37">
         <v>156751</v>
       </c>
+      <c r="KZ27" s="30">
+        <v>157805</v>
+      </c>
     </row>
-    <row r="28" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -23307,11 +23375,14 @@
       <c r="KX28" s="3">
         <v>29005</v>
       </c>
-      <c r="KY28" s="4">
+      <c r="KY28" s="3">
         <v>28787</v>
       </c>
+      <c r="KZ28" s="4">
+        <v>29142</v>
+      </c>
     </row>
-    <row r="29" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -24240,11 +24311,14 @@
       <c r="KX29" s="3">
         <v>4986</v>
       </c>
-      <c r="KY29" s="4">
+      <c r="KY29" s="3">
         <v>4971</v>
       </c>
+      <c r="KZ29" s="4">
+        <v>5007</v>
+      </c>
     </row>
-    <row r="30" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -25173,11 +25247,14 @@
       <c r="KX30" s="3">
         <v>20040</v>
       </c>
-      <c r="KY30" s="4">
+      <c r="KY30" s="3">
         <v>20186</v>
       </c>
+      <c r="KZ30" s="4">
+        <v>20200</v>
+      </c>
     </row>
-    <row r="31" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -26106,11 +26183,14 @@
       <c r="KX31" s="3">
         <v>25205</v>
       </c>
-      <c r="KY31" s="4">
+      <c r="KY31" s="3">
         <v>25189</v>
       </c>
+      <c r="KZ31" s="4">
+        <v>25292</v>
+      </c>
     </row>
-    <row r="32" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -27039,11 +27119,14 @@
       <c r="KX32" s="3">
         <v>23396</v>
       </c>
-      <c r="KY32" s="4">
+      <c r="KY32" s="3">
         <v>23459</v>
       </c>
+      <c r="KZ32" s="4">
+        <v>23630</v>
+      </c>
     </row>
-    <row r="33" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -27972,11 +28055,14 @@
       <c r="KX33" s="3">
         <v>20738</v>
       </c>
-      <c r="KY33" s="4">
+      <c r="KY33" s="3">
         <v>20612</v>
       </c>
+      <c r="KZ33" s="4">
+        <v>20821</v>
+      </c>
     </row>
-    <row r="34" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -28905,11 +28991,14 @@
       <c r="KX34" s="3">
         <v>18122</v>
       </c>
-      <c r="KY34" s="4">
+      <c r="KY34" s="3">
         <v>18070</v>
       </c>
+      <c r="KZ34" s="4">
+        <v>18137</v>
+      </c>
     </row>
-    <row r="35" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -29838,11 +29927,14 @@
       <c r="KX35" s="3">
         <v>15506</v>
       </c>
-      <c r="KY35" s="4">
+      <c r="KY35" s="3">
         <v>15453</v>
       </c>
+      <c r="KZ35" s="4">
+        <v>15552</v>
+      </c>
     </row>
-    <row r="36" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -30771,11 +30863,14 @@
       <c r="KX36" s="38">
         <v>25</v>
       </c>
-      <c r="KY36" s="36">
+      <c r="KY36" s="38">
         <v>24</v>
       </c>
+      <c r="KZ36" s="36">
+        <v>24</v>
+      </c>
     </row>
-    <row r="37" spans="1:311" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:312" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>34</v>
       </c>
@@ -31706,11 +31801,14 @@
       <c r="KX37" s="39">
         <v>10085</v>
       </c>
-      <c r="KY37" s="32">
+      <c r="KY37" s="39">
         <v>10107</v>
       </c>
+      <c r="KZ37" s="32">
+        <v>10145</v>
+      </c>
     </row>
-    <row r="38" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -32639,11 +32737,14 @@
       <c r="KX38" s="3">
         <v>1773</v>
       </c>
-      <c r="KY38" s="4">
+      <c r="KY38" s="3">
         <v>1774</v>
       </c>
+      <c r="KZ38" s="4">
+        <v>1784</v>
+      </c>
     </row>
-    <row r="39" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -33572,11 +33673,14 @@
       <c r="KX39" s="3">
         <v>92</v>
       </c>
-      <c r="KY39" s="4">
+      <c r="KY39" s="3">
         <v>90</v>
       </c>
+      <c r="KZ39" s="4">
+        <v>85</v>
+      </c>
     </row>
-    <row r="40" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -34505,11 +34609,14 @@
       <c r="KX40" s="3">
         <v>645</v>
       </c>
-      <c r="KY40" s="4">
+      <c r="KY40" s="3">
         <v>675</v>
       </c>
+      <c r="KZ40" s="4">
+        <v>690</v>
+      </c>
     </row>
-    <row r="41" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -35438,11 +35545,14 @@
       <c r="KX41" s="3">
         <v>1074</v>
       </c>
-      <c r="KY41" s="4">
+      <c r="KY41" s="3">
         <v>1069</v>
       </c>
+      <c r="KZ41" s="4">
+        <v>1072</v>
+      </c>
     </row>
-    <row r="42" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -36371,11 +36481,14 @@
       <c r="KX42" s="3">
         <v>1452</v>
       </c>
-      <c r="KY42" s="4">
+      <c r="KY42" s="3">
         <v>1433</v>
       </c>
+      <c r="KZ42" s="4">
+        <v>1431</v>
+      </c>
     </row>
-    <row r="43" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -37304,11 +37417,14 @@
       <c r="KX43" s="3">
         <v>1792</v>
       </c>
-      <c r="KY43" s="4">
+      <c r="KY43" s="3">
         <v>1802</v>
       </c>
+      <c r="KZ43" s="4">
+        <v>1801</v>
+      </c>
     </row>
-    <row r="44" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -38237,11 +38353,14 @@
       <c r="KX44" s="3">
         <v>1760</v>
       </c>
-      <c r="KY44" s="4">
+      <c r="KY44" s="3">
         <v>1777</v>
       </c>
+      <c r="KZ44" s="4">
+        <v>1795</v>
+      </c>
     </row>
-    <row r="45" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -39170,11 +39289,14 @@
       <c r="KX45" s="3">
         <v>1497</v>
       </c>
-      <c r="KY45" s="4">
+      <c r="KY45" s="3">
         <v>1487</v>
       </c>
+      <c r="KZ45" s="4">
+        <v>1487</v>
+      </c>
     </row>
-    <row r="46" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -39611,9 +39733,10 @@
       <c r="KV46" s="38"/>
       <c r="KW46" s="38"/>
       <c r="KX46" s="38"/>
-      <c r="KY46" s="36"/>
+      <c r="KY46" s="38"/>
+      <c r="KZ46" s="36"/>
     </row>
-    <row r="47" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -40544,11 +40667,14 @@
       <c r="KX47" s="37">
         <v>521651</v>
       </c>
-      <c r="KY47" s="30">
+      <c r="KY47" s="37">
         <v>523366</v>
       </c>
+      <c r="KZ47" s="30">
+        <v>523564</v>
+      </c>
     </row>
-    <row r="48" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -41477,11 +41603,14 @@
       <c r="KX48" s="3">
         <v>84381</v>
       </c>
-      <c r="KY48" s="4">
+      <c r="KY48" s="3">
         <v>84861</v>
       </c>
+      <c r="KZ48" s="4">
+        <v>85300</v>
+      </c>
     </row>
-    <row r="49" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -42410,11 +42539,14 @@
       <c r="KX49" s="3">
         <v>15027</v>
       </c>
-      <c r="KY49" s="4">
+      <c r="KY49" s="3">
         <v>15070</v>
       </c>
+      <c r="KZ49" s="4">
+        <v>14920</v>
+      </c>
     </row>
-    <row r="50" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -43343,11 +43475,14 @@
       <c r="KX50" s="3">
         <v>71767</v>
       </c>
-      <c r="KY50" s="4">
+      <c r="KY50" s="3">
         <v>71854</v>
       </c>
+      <c r="KZ50" s="4">
+        <v>71472</v>
+      </c>
     </row>
-    <row r="51" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -44276,11 +44411,14 @@
       <c r="KX51" s="3">
         <v>83573</v>
       </c>
-      <c r="KY51" s="4">
+      <c r="KY51" s="3">
         <v>83763</v>
       </c>
+      <c r="KZ51" s="4">
+        <v>83776</v>
+      </c>
     </row>
-    <row r="52" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -45209,11 +45347,14 @@
       <c r="KX52" s="3">
         <v>77940</v>
       </c>
-      <c r="KY52" s="4">
+      <c r="KY52" s="3">
         <v>78091</v>
       </c>
+      <c r="KZ52" s="4">
+        <v>78051</v>
+      </c>
     </row>
-    <row r="53" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -46142,11 +46283,14 @@
       <c r="KX53" s="3">
         <v>68832</v>
       </c>
-      <c r="KY53" s="4">
+      <c r="KY53" s="3">
         <v>69004</v>
       </c>
+      <c r="KZ53" s="4">
+        <v>69050</v>
+      </c>
     </row>
-    <row r="54" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -47075,11 +47219,14 @@
       <c r="KX54" s="3">
         <v>64308</v>
       </c>
-      <c r="KY54" s="4">
+      <c r="KY54" s="3">
         <v>64708</v>
       </c>
+      <c r="KZ54" s="4">
+        <v>64877</v>
+      </c>
     </row>
-    <row r="55" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -48008,11 +48155,14 @@
       <c r="KX55" s="3">
         <v>55820</v>
       </c>
-      <c r="KY55" s="4">
+      <c r="KY55" s="3">
         <v>56012</v>
       </c>
+      <c r="KZ55" s="4">
+        <v>56114</v>
+      </c>
     </row>
-    <row r="56" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -48941,11 +49091,14 @@
       <c r="KX56" s="38">
         <v>3</v>
       </c>
-      <c r="KY56" s="36">
+      <c r="KY56" s="38">
         <v>3</v>
       </c>
+      <c r="KZ56" s="36">
+        <v>4</v>
+      </c>
     </row>
-    <row r="57" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -49876,11 +50029,14 @@
       <c r="KX57" s="37">
         <v>2584</v>
       </c>
-      <c r="KY57" s="30">
+      <c r="KY57" s="37">
         <v>2562</v>
       </c>
+      <c r="KZ57" s="30">
+        <v>2586</v>
+      </c>
     </row>
-    <row r="58" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -50809,11 +50965,14 @@
       <c r="KX58" s="3">
         <v>593</v>
       </c>
-      <c r="KY58" s="4">
+      <c r="KY58" s="3">
         <v>599</v>
       </c>
+      <c r="KZ58" s="4">
+        <v>616</v>
+      </c>
     </row>
-    <row r="59" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -51742,11 +51901,14 @@
       <c r="KX59" s="3">
         <v>31</v>
       </c>
-      <c r="KY59" s="4">
+      <c r="KY59" s="3">
         <v>30</v>
       </c>
+      <c r="KZ59" s="4">
+        <v>31</v>
+      </c>
     </row>
-    <row r="60" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -52675,11 +52837,14 @@
       <c r="KX60" s="3">
         <v>170</v>
       </c>
-      <c r="KY60" s="4">
+      <c r="KY60" s="3">
         <v>164</v>
       </c>
+      <c r="KZ60" s="4">
+        <v>171</v>
+      </c>
     </row>
-    <row r="61" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -53608,11 +53773,14 @@
       <c r="KX61" s="3">
         <v>360</v>
       </c>
-      <c r="KY61" s="4">
+      <c r="KY61" s="3">
         <v>352</v>
       </c>
+      <c r="KZ61" s="4">
+        <v>340</v>
+      </c>
     </row>
-    <row r="62" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -54541,11 +54709,14 @@
       <c r="KX62" s="3">
         <v>397</v>
       </c>
-      <c r="KY62" s="4">
+      <c r="KY62" s="3">
         <v>391</v>
       </c>
+      <c r="KZ62" s="4">
+        <v>391</v>
+      </c>
     </row>
-    <row r="63" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -55474,11 +55645,14 @@
       <c r="KX63" s="3">
         <v>392</v>
       </c>
-      <c r="KY63" s="4">
+      <c r="KY63" s="3">
         <v>392</v>
       </c>
+      <c r="KZ63" s="4">
+        <v>398</v>
+      </c>
     </row>
-    <row r="64" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -56407,11 +56581,14 @@
       <c r="KX64" s="3">
         <v>328</v>
       </c>
-      <c r="KY64" s="4">
+      <c r="KY64" s="3">
         <v>327</v>
       </c>
+      <c r="KZ64" s="4">
+        <v>330</v>
+      </c>
     </row>
-    <row r="65" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -57340,11 +57517,14 @@
       <c r="KX65" s="3">
         <v>313</v>
       </c>
-      <c r="KY65" s="4">
+      <c r="KY65" s="3">
         <v>307</v>
       </c>
+      <c r="KZ65" s="4">
+        <v>309</v>
+      </c>
     </row>
-    <row r="66" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -57717,9 +57897,10 @@
       <c r="KV66" s="38"/>
       <c r="KW66" s="38"/>
       <c r="KX66" s="38"/>
-      <c r="KY66" s="36"/>
+      <c r="KY66" s="38"/>
+      <c r="KZ66" s="36"/>
     </row>
-    <row r="67" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -58650,11 +58831,14 @@
       <c r="KX67" s="37">
         <v>662833</v>
       </c>
-      <c r="KY67" s="30">
+      <c r="KY67" s="37">
         <v>667871</v>
       </c>
+      <c r="KZ67" s="30">
+        <v>673350</v>
+      </c>
     </row>
-    <row r="68" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -59583,11 +59767,14 @@
       <c r="KX68" s="3">
         <v>143829</v>
       </c>
-      <c r="KY68" s="4">
+      <c r="KY68" s="3">
         <v>145286</v>
       </c>
+      <c r="KZ68" s="4">
+        <v>146750</v>
+      </c>
     </row>
-    <row r="69" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -60516,11 +60703,14 @@
       <c r="KX69" s="3">
         <v>10453</v>
       </c>
-      <c r="KY69" s="4">
+      <c r="KY69" s="3">
         <v>10498</v>
       </c>
+      <c r="KZ69" s="4">
+        <v>10621</v>
+      </c>
     </row>
-    <row r="70" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -61449,11 +61639,14 @@
       <c r="KX70" s="3">
         <v>63106</v>
       </c>
-      <c r="KY70" s="4">
+      <c r="KY70" s="3">
         <v>63536</v>
       </c>
+      <c r="KZ70" s="4">
+        <v>64001</v>
+      </c>
     </row>
-    <row r="71" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -62382,11 +62575,14 @@
       <c r="KX71" s="3">
         <v>101902</v>
       </c>
-      <c r="KY71" s="4">
+      <c r="KY71" s="3">
         <v>102636</v>
       </c>
+      <c r="KZ71" s="4">
+        <v>103465</v>
+      </c>
     </row>
-    <row r="72" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -63315,11 +63511,14 @@
       <c r="KX72" s="3">
         <v>100055</v>
       </c>
-      <c r="KY72" s="4">
+      <c r="KY72" s="3">
         <v>100768</v>
       </c>
+      <c r="KZ72" s="4">
+        <v>101806</v>
+      </c>
     </row>
-    <row r="73" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -64248,11 +64447,14 @@
       <c r="KX73" s="3">
         <v>89646</v>
       </c>
-      <c r="KY73" s="4">
+      <c r="KY73" s="3">
         <v>90267</v>
       </c>
+      <c r="KZ73" s="4">
+        <v>90872</v>
+      </c>
     </row>
-    <row r="74" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -65181,11 +65383,14 @@
       <c r="KX74" s="3">
         <v>81458</v>
       </c>
-      <c r="KY74" s="4">
+      <c r="KY74" s="3">
         <v>81992</v>
       </c>
+      <c r="KZ74" s="4">
+        <v>82423</v>
+      </c>
     </row>
-    <row r="75" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -66114,11 +66319,14 @@
       <c r="KX75" s="3">
         <v>72378</v>
       </c>
-      <c r="KY75" s="4">
+      <c r="KY75" s="3">
         <v>72877</v>
       </c>
+      <c r="KZ75" s="4">
+        <v>73404</v>
+      </c>
     </row>
-    <row r="76" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -67047,11 +67255,14 @@
       <c r="KX76" s="38">
         <v>6</v>
       </c>
-      <c r="KY76" s="36">
+      <c r="KY76" s="38">
         <v>11</v>
       </c>
+      <c r="KZ76" s="36">
+        <v>8</v>
+      </c>
     </row>
-    <row r="77" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -67982,11 +68193,14 @@
       <c r="KX77" s="37">
         <v>107418</v>
       </c>
-      <c r="KY77" s="30">
+      <c r="KY77" s="37">
         <v>107864</v>
       </c>
+      <c r="KZ77" s="30">
+        <v>109523</v>
+      </c>
     </row>
-    <row r="78" spans="1:311" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -68915,11 +69129,14 @@
       <c r="KX78" s="3">
         <v>19529</v>
       </c>
-      <c r="KY78" s="4">
+      <c r="KY78" s="3">
         <v>19604</v>
       </c>
+      <c r="KZ78" s="4">
+        <v>19870</v>
+      </c>
     </row>
-    <row r="79" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -69848,11 +70065,14 @@
       <c r="KX79" s="3">
         <v>1834</v>
       </c>
-      <c r="KY79" s="4">
+      <c r="KY79" s="3">
         <v>1859</v>
       </c>
+      <c r="KZ79" s="4">
+        <v>1933</v>
+      </c>
     </row>
-    <row r="80" spans="1:311" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -70781,11 +71001,14 @@
       <c r="KX80" s="3">
         <v>12162</v>
       </c>
-      <c r="KY80" s="4">
+      <c r="KY80" s="3">
         <v>12231</v>
       </c>
+      <c r="KZ80" s="4">
+        <v>12498</v>
+      </c>
     </row>
-    <row r="81" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:313" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -71714,11 +71937,14 @@
       <c r="KX81" s="3">
         <v>16344</v>
       </c>
-      <c r="KY81" s="4">
+      <c r="KY81" s="3">
         <v>16431</v>
       </c>
+      <c r="KZ81" s="4">
+        <v>16774</v>
+      </c>
     </row>
-    <row r="82" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:313" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -72647,11 +72873,14 @@
       <c r="KX82" s="3">
         <v>16664</v>
       </c>
-      <c r="KY82" s="4">
+      <c r="KY82" s="3">
         <v>16700</v>
       </c>
+      <c r="KZ82" s="4">
+        <v>16939</v>
+      </c>
     </row>
-    <row r="83" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:313" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -73580,11 +73809,14 @@
       <c r="KX83" s="3">
         <v>15229</v>
       </c>
-      <c r="KY83" s="4">
+      <c r="KY83" s="3">
         <v>15302</v>
       </c>
+      <c r="KZ83" s="4">
+        <v>15525</v>
+      </c>
     </row>
-    <row r="84" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:313" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -74513,11 +74745,14 @@
       <c r="KX84" s="3">
         <v>13662</v>
       </c>
-      <c r="KY84" s="4">
+      <c r="KY84" s="3">
         <v>13712</v>
       </c>
+      <c r="KZ84" s="4">
+        <v>13843</v>
+      </c>
     </row>
-    <row r="85" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:313" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -75446,11 +75681,14 @@
       <c r="KX85" s="3">
         <v>11993</v>
       </c>
-      <c r="KY85" s="4">
+      <c r="KY85" s="3">
         <v>12023</v>
       </c>
+      <c r="KZ85" s="4">
+        <v>12140</v>
+      </c>
     </row>
-    <row r="86" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -76191,11 +76429,14 @@
       <c r="KX86" s="38">
         <v>1</v>
       </c>
-      <c r="KY86" s="36">
+      <c r="KY86" s="38">
         <v>2</v>
       </c>
+      <c r="KZ86" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -77126,21 +77367,24 @@
       <c r="KX87" s="40">
         <v>1988746</v>
       </c>
-      <c r="KY87" s="34">
+      <c r="KY87" s="40">
         <v>1999360</v>
       </c>
-      <c r="KZ87" s="3"/>
+      <c r="KZ87" s="34">
+        <v>2013431</v>
+      </c>
+      <c r="LA87" s="3"/>
     </row>
-    <row r="88" spans="1:312" x14ac:dyDescent="0.25">
-      <c r="A88" s="47" t="s">
+    <row r="88" spans="1:313" x14ac:dyDescent="0.25">
+      <c r="A88" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="47"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
       <c r="KD88" s="3"/>
       <c r="KR88" s="3"/>
       <c r="KS88" s="3"/>
@@ -77150,12 +77394,29 @@
       <c r="KW88" s="3"/>
       <c r="KX88" s="3"/>
       <c r="KY88" s="3"/>
+      <c r="KZ88" s="3"/>
     </row>
-    <row r="89" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:313" x14ac:dyDescent="0.25">
       <c r="KD89" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="KQ5:KZ5"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="GY5:HJ5"/>
+    <mergeCell ref="HK5:HV5"/>
+    <mergeCell ref="HW5:IH5"/>
+    <mergeCell ref="II5:IT5"/>
+    <mergeCell ref="EE5:EP5"/>
+    <mergeCell ref="EQ5:FB5"/>
+    <mergeCell ref="FC5:FN5"/>
+    <mergeCell ref="FO5:FZ5"/>
+    <mergeCell ref="GA5:GL5"/>
+    <mergeCell ref="GM5:GX5"/>
+    <mergeCell ref="BW5:CH5"/>
+    <mergeCell ref="CI5:CT5"/>
+    <mergeCell ref="CU5:DF5"/>
+    <mergeCell ref="DG5:DR5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -77171,22 +77432,6 @@
     <mergeCell ref="AY5:BJ5"/>
     <mergeCell ref="BK5:BV5"/>
     <mergeCell ref="DS5:ED5"/>
-    <mergeCell ref="KQ5:KY5"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="GY5:HJ5"/>
-    <mergeCell ref="HK5:HV5"/>
-    <mergeCell ref="HW5:IH5"/>
-    <mergeCell ref="II5:IT5"/>
-    <mergeCell ref="EE5:EP5"/>
-    <mergeCell ref="EQ5:FB5"/>
-    <mergeCell ref="FC5:FN5"/>
-    <mergeCell ref="FO5:FZ5"/>
-    <mergeCell ref="GA5:GL5"/>
-    <mergeCell ref="GM5:GX5"/>
-    <mergeCell ref="BW5:CH5"/>
-    <mergeCell ref="CI5:CT5"/>
-    <mergeCell ref="CU5:DF5"/>
-    <mergeCell ref="DG5:DR5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A199D-617E-4D06-A49E-3C8CB811F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A1E099-204E-43E5-AD99-B7C178E358FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -157,7 +157,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998 - octubre 2023</t>
+    <t>Enero 1998 - noviembre 2023</t>
   </si>
 </sst>
 </file>
@@ -1323,11 +1323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LA89"/>
+  <dimension ref="A1:LB89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="KO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KW94" sqref="KW94"/>
+      <pane xSplit="2" topLeftCell="KP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KX90" sqref="KX90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1464,12 +1464,12 @@
     <col min="302" max="302" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="303" max="307" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="308" max="310" width="9.109375" style="1" customWidth="1"/>
-    <col min="311" max="311" width="11.21875" style="1" customWidth="1"/>
-    <col min="312" max="312" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="313" max="16384" width="11.33203125" style="1"/>
+    <col min="311" max="312" width="11.21875" style="1" customWidth="1"/>
+    <col min="313" max="313" width="11.44140625" style="1" customWidth="1"/>
+    <col min="314" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:312" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:313" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>36</v>
       </c>
@@ -1478,19 +1478,19 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
     </row>
-    <row r="3" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:312" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:313" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>7</v>
       </c>
@@ -1858,9 +1858,10 @@
       <c r="KW5" s="48"/>
       <c r="KX5" s="48"/>
       <c r="KY5" s="48"/>
-      <c r="KZ5" s="49"/>
+      <c r="KZ5" s="48"/>
+      <c r="LA5" s="49"/>
     </row>
-    <row r="6" spans="1:312" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:313" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="15" t="s">
@@ -2790,11 +2791,14 @@
       <c r="KY6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="KZ6" s="43" t="s">
+      <c r="KZ6" s="42" t="s">
         <v>17</v>
       </c>
+      <c r="LA6" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:312" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:313" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3728,11 +3732,14 @@
       <c r="KY7" s="37">
         <v>118223</v>
       </c>
-      <c r="KZ7" s="30">
+      <c r="KZ7" s="37">
         <v>120205</v>
       </c>
+      <c r="LA7" s="30">
+        <v>121905</v>
+      </c>
     </row>
-    <row r="8" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4664,11 +4671,14 @@
       <c r="KY8" s="3">
         <v>23962</v>
       </c>
-      <c r="KZ8" s="4">
+      <c r="KZ8" s="3">
         <v>24169</v>
       </c>
+      <c r="LA8" s="4">
+        <v>24543</v>
+      </c>
     </row>
-    <row r="9" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5600,11 +5610,14 @@
       <c r="KY9" s="3">
         <v>5066</v>
       </c>
-      <c r="KZ9" s="4">
+      <c r="KZ9" s="3">
         <v>5228</v>
       </c>
+      <c r="LA9" s="4">
+        <v>5275</v>
+      </c>
     </row>
-    <row r="10" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6536,11 +6549,14 @@
       <c r="KY10" s="3">
         <v>17215</v>
       </c>
-      <c r="KZ10" s="4">
+      <c r="KZ10" s="3">
         <v>17708</v>
       </c>
+      <c r="LA10" s="4">
+        <v>18000</v>
+      </c>
     </row>
-    <row r="11" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7472,11 +7488,14 @@
       <c r="KY11" s="3">
         <v>17493</v>
       </c>
-      <c r="KZ11" s="4">
+      <c r="KZ11" s="3">
         <v>17806</v>
       </c>
+      <c r="LA11" s="4">
+        <v>18098</v>
+      </c>
     </row>
-    <row r="12" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -8408,11 +8427,14 @@
       <c r="KY12" s="3">
         <v>16312</v>
       </c>
-      <c r="KZ12" s="4">
+      <c r="KZ12" s="3">
         <v>16527</v>
       </c>
+      <c r="LA12" s="4">
+        <v>16698</v>
+      </c>
     </row>
-    <row r="13" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -9344,11 +9366,14 @@
       <c r="KY13" s="3">
         <v>14185</v>
       </c>
-      <c r="KZ13" s="4">
+      <c r="KZ13" s="3">
         <v>14470</v>
       </c>
+      <c r="LA13" s="4">
+        <v>14629</v>
+      </c>
     </row>
-    <row r="14" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -10280,11 +10305,14 @@
       <c r="KY14" s="3">
         <v>12420</v>
       </c>
-      <c r="KZ14" s="4">
+      <c r="KZ14" s="3">
         <v>12610</v>
       </c>
+      <c r="LA14" s="4">
+        <v>12830</v>
+      </c>
     </row>
-    <row r="15" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -11216,11 +11244,14 @@
       <c r="KY15" s="3">
         <v>11563</v>
       </c>
-      <c r="KZ15" s="4">
+      <c r="KZ15" s="3">
         <v>11681</v>
       </c>
+      <c r="LA15" s="4">
+        <v>11828</v>
+      </c>
     </row>
-    <row r="16" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -12152,11 +12183,14 @@
       <c r="KY16" s="38">
         <v>7</v>
       </c>
-      <c r="KZ16" s="36">
+      <c r="KZ16" s="38">
         <v>6</v>
       </c>
+      <c r="LA16" s="36">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -13090,11 +13124,14 @@
       <c r="KY17" s="37">
         <v>412616</v>
       </c>
-      <c r="KZ17" s="30">
+      <c r="KZ17" s="37">
         <v>416253</v>
       </c>
+      <c r="LA17" s="30">
+        <v>421219</v>
+      </c>
     </row>
-    <row r="18" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -14026,11 +14063,14 @@
       <c r="KY18" s="3">
         <v>67871</v>
       </c>
-      <c r="KZ18" s="4">
+      <c r="KZ18" s="3">
         <v>68678</v>
       </c>
+      <c r="LA18" s="4">
+        <v>69548</v>
+      </c>
     </row>
-    <row r="19" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -14962,11 +15002,14 @@
       <c r="KY19" s="3">
         <v>11292</v>
       </c>
-      <c r="KZ19" s="4">
+      <c r="KZ19" s="3">
         <v>11675</v>
       </c>
+      <c r="LA19" s="4">
+        <v>12050</v>
+      </c>
     </row>
-    <row r="20" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15898,11 +15941,14 @@
       <c r="KY20" s="3">
         <v>55262</v>
       </c>
-      <c r="KZ20" s="4">
+      <c r="KZ20" s="3">
         <v>56235</v>
       </c>
+      <c r="LA20" s="4">
+        <v>57405</v>
+      </c>
     </row>
-    <row r="21" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -16834,11 +16880,14 @@
       <c r="KY21" s="3">
         <v>67337</v>
       </c>
-      <c r="KZ21" s="4">
+      <c r="KZ21" s="3">
         <v>67867</v>
       </c>
+      <c r="LA21" s="4">
+        <v>68466</v>
+      </c>
     </row>
-    <row r="22" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -17770,11 +17819,14 @@
       <c r="KY22" s="3">
         <v>64995</v>
       </c>
-      <c r="KZ22" s="4">
+      <c r="KZ22" s="3">
         <v>65370</v>
       </c>
+      <c r="LA22" s="4">
+        <v>65777</v>
+      </c>
     </row>
-    <row r="23" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -18706,11 +18758,14 @@
       <c r="KY23" s="3">
         <v>57481</v>
       </c>
-      <c r="KZ23" s="4">
+      <c r="KZ23" s="3">
         <v>57633</v>
       </c>
+      <c r="LA23" s="4">
+        <v>58038</v>
+      </c>
     </row>
-    <row r="24" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -19642,11 +19697,14 @@
       <c r="KY24" s="3">
         <v>48352</v>
       </c>
-      <c r="KZ24" s="4">
+      <c r="KZ24" s="3">
         <v>48703</v>
       </c>
+      <c r="LA24" s="4">
+        <v>49368</v>
+      </c>
     </row>
-    <row r="25" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -20578,11 +20636,14 @@
       <c r="KY25" s="3">
         <v>40024</v>
       </c>
-      <c r="KZ25" s="4">
+      <c r="KZ25" s="3">
         <v>40091</v>
       </c>
+      <c r="LA25" s="4">
+        <v>40566</v>
+      </c>
     </row>
-    <row r="26" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -21504,11 +21565,14 @@
       <c r="KY26" s="38">
         <v>2</v>
       </c>
-      <c r="KZ26" s="36">
+      <c r="KZ26" s="38">
         <v>1</v>
       </c>
+      <c r="LA26" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -22442,11 +22506,14 @@
       <c r="KY27" s="37">
         <v>156751</v>
       </c>
-      <c r="KZ27" s="30">
+      <c r="KZ27" s="37">
         <v>157805</v>
       </c>
+      <c r="LA27" s="30">
+        <v>156771</v>
+      </c>
     </row>
-    <row r="28" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -23378,11 +23445,14 @@
       <c r="KY28" s="3">
         <v>28787</v>
       </c>
-      <c r="KZ28" s="4">
+      <c r="KZ28" s="3">
         <v>29142</v>
       </c>
+      <c r="LA28" s="4">
+        <v>29018</v>
+      </c>
     </row>
-    <row r="29" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -24314,11 +24384,14 @@
       <c r="KY29" s="3">
         <v>4971</v>
       </c>
-      <c r="KZ29" s="4">
+      <c r="KZ29" s="3">
         <v>5007</v>
       </c>
+      <c r="LA29" s="4">
+        <v>4909</v>
+      </c>
     </row>
-    <row r="30" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -25250,11 +25323,14 @@
       <c r="KY30" s="3">
         <v>20186</v>
       </c>
-      <c r="KZ30" s="4">
+      <c r="KZ30" s="3">
         <v>20200</v>
       </c>
+      <c r="LA30" s="4">
+        <v>19957</v>
+      </c>
     </row>
-    <row r="31" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -26186,11 +26262,14 @@
       <c r="KY31" s="3">
         <v>25189</v>
       </c>
-      <c r="KZ31" s="4">
+      <c r="KZ31" s="3">
         <v>25292</v>
       </c>
+      <c r="LA31" s="4">
+        <v>25179</v>
+      </c>
     </row>
-    <row r="32" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -27122,11 +27201,14 @@
       <c r="KY32" s="3">
         <v>23459</v>
       </c>
-      <c r="KZ32" s="4">
+      <c r="KZ32" s="3">
         <v>23630</v>
       </c>
+      <c r="LA32" s="4">
+        <v>23427</v>
+      </c>
     </row>
-    <row r="33" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -28058,11 +28140,14 @@
       <c r="KY33" s="3">
         <v>20612</v>
       </c>
-      <c r="KZ33" s="4">
+      <c r="KZ33" s="3">
         <v>20821</v>
       </c>
+      <c r="LA33" s="4">
+        <v>20773</v>
+      </c>
     </row>
-    <row r="34" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -28994,11 +29079,14 @@
       <c r="KY34" s="3">
         <v>18070</v>
       </c>
-      <c r="KZ34" s="4">
+      <c r="KZ34" s="3">
         <v>18137</v>
       </c>
+      <c r="LA34" s="4">
+        <v>17987</v>
+      </c>
     </row>
-    <row r="35" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -29930,11 +30018,14 @@
       <c r="KY35" s="3">
         <v>15453</v>
       </c>
-      <c r="KZ35" s="4">
+      <c r="KZ35" s="3">
         <v>15552</v>
       </c>
+      <c r="LA35" s="4">
+        <v>15497</v>
+      </c>
     </row>
-    <row r="36" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -30866,11 +30957,14 @@
       <c r="KY36" s="38">
         <v>24</v>
       </c>
-      <c r="KZ36" s="36">
+      <c r="KZ36" s="38">
         <v>24</v>
       </c>
+      <c r="LA36" s="36">
+        <v>24</v>
+      </c>
     </row>
-    <row r="37" spans="1:312" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:313" s="28" customFormat="1" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>34</v>
       </c>
@@ -31804,11 +31898,14 @@
       <c r="KY37" s="39">
         <v>10107</v>
       </c>
-      <c r="KZ37" s="32">
+      <c r="KZ37" s="39">
         <v>10145</v>
       </c>
+      <c r="LA37" s="32">
+        <v>10075</v>
+      </c>
     </row>
-    <row r="38" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -32740,11 +32837,14 @@
       <c r="KY38" s="3">
         <v>1774</v>
       </c>
-      <c r="KZ38" s="4">
+      <c r="KZ38" s="3">
         <v>1784</v>
       </c>
+      <c r="LA38" s="4">
+        <v>1773</v>
+      </c>
     </row>
-    <row r="39" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -33676,11 +33776,14 @@
       <c r="KY39" s="3">
         <v>90</v>
       </c>
-      <c r="KZ39" s="4">
+      <c r="KZ39" s="3">
         <v>85</v>
       </c>
+      <c r="LA39" s="4">
+        <v>80</v>
+      </c>
     </row>
-    <row r="40" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -34612,11 +34715,14 @@
       <c r="KY40" s="3">
         <v>675</v>
       </c>
-      <c r="KZ40" s="4">
+      <c r="KZ40" s="3">
         <v>690</v>
       </c>
+      <c r="LA40" s="4">
+        <v>664</v>
+      </c>
     </row>
-    <row r="41" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -35548,11 +35654,14 @@
       <c r="KY41" s="3">
         <v>1069</v>
       </c>
-      <c r="KZ41" s="4">
+      <c r="KZ41" s="3">
         <v>1072</v>
       </c>
+      <c r="LA41" s="4">
+        <v>1053</v>
+      </c>
     </row>
-    <row r="42" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -36484,11 +36593,14 @@
       <c r="KY42" s="3">
         <v>1433</v>
       </c>
-      <c r="KZ42" s="4">
+      <c r="KZ42" s="3">
         <v>1431</v>
       </c>
+      <c r="LA42" s="4">
+        <v>1420</v>
+      </c>
     </row>
-    <row r="43" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -37420,11 +37532,14 @@
       <c r="KY43" s="3">
         <v>1802</v>
       </c>
-      <c r="KZ43" s="4">
+      <c r="KZ43" s="3">
         <v>1801</v>
       </c>
+      <c r="LA43" s="4">
+        <v>1801</v>
+      </c>
     </row>
-    <row r="44" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -38356,11 +38471,14 @@
       <c r="KY44" s="3">
         <v>1777</v>
       </c>
-      <c r="KZ44" s="4">
+      <c r="KZ44" s="3">
         <v>1795</v>
       </c>
+      <c r="LA44" s="4">
+        <v>1791</v>
+      </c>
     </row>
-    <row r="45" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -39292,11 +39410,14 @@
       <c r="KY45" s="3">
         <v>1487</v>
       </c>
-      <c r="KZ45" s="4">
+      <c r="KZ45" s="3">
         <v>1487</v>
       </c>
+      <c r="LA45" s="4">
+        <v>1493</v>
+      </c>
     </row>
-    <row r="46" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -39734,9 +39855,10 @@
       <c r="KW46" s="38"/>
       <c r="KX46" s="38"/>
       <c r="KY46" s="38"/>
-      <c r="KZ46" s="36"/>
+      <c r="KZ46" s="38"/>
+      <c r="LA46" s="36"/>
     </row>
-    <row r="47" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -40670,11 +40792,14 @@
       <c r="KY47" s="37">
         <v>523366</v>
       </c>
-      <c r="KZ47" s="30">
+      <c r="KZ47" s="37">
         <v>523564</v>
       </c>
+      <c r="LA47" s="30">
+        <v>523749</v>
+      </c>
     </row>
-    <row r="48" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -41606,11 +41731,14 @@
       <c r="KY48" s="3">
         <v>84861</v>
       </c>
-      <c r="KZ48" s="4">
+      <c r="KZ48" s="3">
         <v>85300</v>
       </c>
+      <c r="LA48" s="4">
+        <v>85896</v>
+      </c>
     </row>
-    <row r="49" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -42542,11 +42670,14 @@
       <c r="KY49" s="3">
         <v>15070</v>
       </c>
-      <c r="KZ49" s="4">
+      <c r="KZ49" s="3">
         <v>14920</v>
       </c>
+      <c r="LA49" s="4">
+        <v>14829</v>
+      </c>
     </row>
-    <row r="50" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -43478,11 +43609,14 @@
       <c r="KY50" s="3">
         <v>71854</v>
       </c>
-      <c r="KZ50" s="4">
+      <c r="KZ50" s="3">
         <v>71472</v>
       </c>
+      <c r="LA50" s="4">
+        <v>71148</v>
+      </c>
     </row>
-    <row r="51" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -44414,11 +44548,14 @@
       <c r="KY51" s="3">
         <v>83763</v>
       </c>
-      <c r="KZ51" s="4">
+      <c r="KZ51" s="3">
         <v>83776</v>
       </c>
+      <c r="LA51" s="4">
+        <v>83572</v>
+      </c>
     </row>
-    <row r="52" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -45350,11 +45487,14 @@
       <c r="KY52" s="3">
         <v>78091</v>
       </c>
-      <c r="KZ52" s="4">
+      <c r="KZ52" s="3">
         <v>78051</v>
       </c>
+      <c r="LA52" s="4">
+        <v>78023</v>
+      </c>
     </row>
-    <row r="53" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -46286,11 +46426,14 @@
       <c r="KY53" s="3">
         <v>69004</v>
       </c>
-      <c r="KZ53" s="4">
+      <c r="KZ53" s="3">
         <v>69050</v>
       </c>
+      <c r="LA53" s="4">
+        <v>69161</v>
+      </c>
     </row>
-    <row r="54" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -47222,11 +47365,14 @@
       <c r="KY54" s="3">
         <v>64708</v>
       </c>
-      <c r="KZ54" s="4">
+      <c r="KZ54" s="3">
         <v>64877</v>
       </c>
+      <c r="LA54" s="4">
+        <v>64948</v>
+      </c>
     </row>
-    <row r="55" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -48158,11 +48304,14 @@
       <c r="KY55" s="3">
         <v>56012</v>
       </c>
-      <c r="KZ55" s="4">
+      <c r="KZ55" s="3">
         <v>56114</v>
       </c>
+      <c r="LA55" s="4">
+        <v>56169</v>
+      </c>
     </row>
-    <row r="56" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -49094,11 +49243,14 @@
       <c r="KY56" s="38">
         <v>3</v>
       </c>
-      <c r="KZ56" s="36">
+      <c r="KZ56" s="38">
         <v>4</v>
       </c>
+      <c r="LA56" s="36">
+        <v>3</v>
+      </c>
     </row>
-    <row r="57" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -50032,11 +50184,14 @@
       <c r="KY57" s="37">
         <v>2562</v>
       </c>
-      <c r="KZ57" s="30">
+      <c r="KZ57" s="37">
         <v>2586</v>
       </c>
+      <c r="LA57" s="30">
+        <v>2592</v>
+      </c>
     </row>
-    <row r="58" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -50968,11 +51123,14 @@
       <c r="KY58" s="3">
         <v>599</v>
       </c>
-      <c r="KZ58" s="4">
+      <c r="KZ58" s="3">
         <v>616</v>
       </c>
+      <c r="LA58" s="4">
+        <v>613</v>
+      </c>
     </row>
-    <row r="59" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -51904,11 +52062,14 @@
       <c r="KY59" s="3">
         <v>30</v>
       </c>
-      <c r="KZ59" s="4">
+      <c r="KZ59" s="3">
         <v>31</v>
       </c>
+      <c r="LA59" s="4">
+        <v>31</v>
+      </c>
     </row>
-    <row r="60" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -52840,11 +53001,14 @@
       <c r="KY60" s="3">
         <v>164</v>
       </c>
-      <c r="KZ60" s="4">
+      <c r="KZ60" s="3">
         <v>171</v>
       </c>
+      <c r="LA60" s="4">
+        <v>163</v>
+      </c>
     </row>
-    <row r="61" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -53776,11 +53940,14 @@
       <c r="KY61" s="3">
         <v>352</v>
       </c>
-      <c r="KZ61" s="4">
+      <c r="KZ61" s="3">
         <v>340</v>
       </c>
+      <c r="LA61" s="4">
+        <v>332</v>
+      </c>
     </row>
-    <row r="62" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -54712,11 +54879,14 @@
       <c r="KY62" s="3">
         <v>391</v>
       </c>
-      <c r="KZ62" s="4">
+      <c r="KZ62" s="3">
         <v>391</v>
       </c>
+      <c r="LA62" s="4">
+        <v>400</v>
+      </c>
     </row>
-    <row r="63" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -55648,11 +55818,14 @@
       <c r="KY63" s="3">
         <v>392</v>
       </c>
-      <c r="KZ63" s="4">
+      <c r="KZ63" s="3">
         <v>398</v>
       </c>
+      <c r="LA63" s="4">
+        <v>409</v>
+      </c>
     </row>
-    <row r="64" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -56584,11 +56757,14 @@
       <c r="KY64" s="3">
         <v>327</v>
       </c>
-      <c r="KZ64" s="4">
+      <c r="KZ64" s="3">
         <v>330</v>
       </c>
+      <c r="LA64" s="4">
+        <v>333</v>
+      </c>
     </row>
-    <row r="65" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -57520,11 +57696,14 @@
       <c r="KY65" s="3">
         <v>307</v>
       </c>
-      <c r="KZ65" s="4">
+      <c r="KZ65" s="3">
         <v>309</v>
       </c>
+      <c r="LA65" s="4">
+        <v>311</v>
+      </c>
     </row>
-    <row r="66" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -57898,9 +58077,10 @@
       <c r="KW66" s="38"/>
       <c r="KX66" s="38"/>
       <c r="KY66" s="38"/>
-      <c r="KZ66" s="36"/>
+      <c r="KZ66" s="38"/>
+      <c r="LA66" s="36"/>
     </row>
-    <row r="67" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -58834,11 +59014,14 @@
       <c r="KY67" s="37">
         <v>667871</v>
       </c>
-      <c r="KZ67" s="30">
+      <c r="KZ67" s="37">
         <v>673350</v>
       </c>
+      <c r="LA67" s="30">
+        <v>679191</v>
+      </c>
     </row>
-    <row r="68" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -59770,11 +59953,14 @@
       <c r="KY68" s="3">
         <v>145286</v>
       </c>
-      <c r="KZ68" s="4">
+      <c r="KZ68" s="3">
         <v>146750</v>
       </c>
+      <c r="LA68" s="4">
+        <v>148224</v>
+      </c>
     </row>
-    <row r="69" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -60706,11 +60892,14 @@
       <c r="KY69" s="3">
         <v>10498</v>
       </c>
-      <c r="KZ69" s="4">
+      <c r="KZ69" s="3">
         <v>10621</v>
       </c>
+      <c r="LA69" s="4">
+        <v>10769</v>
+      </c>
     </row>
-    <row r="70" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -61642,11 +61831,14 @@
       <c r="KY70" s="3">
         <v>63536</v>
       </c>
-      <c r="KZ70" s="4">
+      <c r="KZ70" s="3">
         <v>64001</v>
       </c>
+      <c r="LA70" s="4">
+        <v>64618</v>
+      </c>
     </row>
-    <row r="71" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -62578,11 +62770,14 @@
       <c r="KY71" s="3">
         <v>102636</v>
       </c>
-      <c r="KZ71" s="4">
+      <c r="KZ71" s="3">
         <v>103465</v>
       </c>
+      <c r="LA71" s="4">
+        <v>104613</v>
+      </c>
     </row>
-    <row r="72" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -63514,11 +63709,14 @@
       <c r="KY72" s="3">
         <v>100768</v>
       </c>
-      <c r="KZ72" s="4">
+      <c r="KZ72" s="3">
         <v>101806</v>
       </c>
+      <c r="LA72" s="4">
+        <v>102594</v>
+      </c>
     </row>
-    <row r="73" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -64450,11 +64648,14 @@
       <c r="KY73" s="3">
         <v>90267</v>
       </c>
-      <c r="KZ73" s="4">
+      <c r="KZ73" s="3">
         <v>90872</v>
       </c>
+      <c r="LA73" s="4">
+        <v>91454</v>
+      </c>
     </row>
-    <row r="74" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -65386,11 +65587,14 @@
       <c r="KY74" s="3">
         <v>81992</v>
       </c>
-      <c r="KZ74" s="4">
+      <c r="KZ74" s="3">
         <v>82423</v>
       </c>
+      <c r="LA74" s="4">
+        <v>83119</v>
+      </c>
     </row>
-    <row r="75" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -66322,11 +66526,14 @@
       <c r="KY75" s="3">
         <v>72877</v>
       </c>
-      <c r="KZ75" s="4">
+      <c r="KZ75" s="3">
         <v>73404</v>
       </c>
+      <c r="LA75" s="4">
+        <v>73794</v>
+      </c>
     </row>
-    <row r="76" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -67258,11 +67465,14 @@
       <c r="KY76" s="38">
         <v>11</v>
       </c>
-      <c r="KZ76" s="36">
+      <c r="KZ76" s="38">
         <v>8</v>
       </c>
+      <c r="LA76" s="36">
+        <v>6</v>
+      </c>
     </row>
-    <row r="77" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -68196,11 +68406,14 @@
       <c r="KY77" s="37">
         <v>107864</v>
       </c>
-      <c r="KZ77" s="30">
+      <c r="KZ77" s="37">
         <v>109523</v>
       </c>
+      <c r="LA77" s="30">
+        <v>111433</v>
+      </c>
     </row>
-    <row r="78" spans="1:312" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -69132,11 +69345,14 @@
       <c r="KY78" s="3">
         <v>19604</v>
       </c>
-      <c r="KZ78" s="4">
+      <c r="KZ78" s="3">
         <v>19870</v>
       </c>
+      <c r="LA78" s="4">
+        <v>20060</v>
+      </c>
     </row>
-    <row r="79" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -70068,11 +70284,14 @@
       <c r="KY79" s="3">
         <v>1859</v>
       </c>
-      <c r="KZ79" s="4">
+      <c r="KZ79" s="3">
         <v>1933</v>
       </c>
+      <c r="LA79" s="4">
+        <v>2026</v>
+      </c>
     </row>
-    <row r="80" spans="1:312" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -71004,11 +71223,14 @@
       <c r="KY80" s="3">
         <v>12231</v>
       </c>
-      <c r="KZ80" s="4">
+      <c r="KZ80" s="3">
         <v>12498</v>
       </c>
+      <c r="LA80" s="4">
+        <v>12896</v>
+      </c>
     </row>
-    <row r="81" spans="1:313" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -71940,11 +72162,14 @@
       <c r="KY81" s="3">
         <v>16431</v>
       </c>
-      <c r="KZ81" s="4">
+      <c r="KZ81" s="3">
         <v>16774</v>
       </c>
+      <c r="LA81" s="4">
+        <v>17266</v>
+      </c>
     </row>
-    <row r="82" spans="1:313" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -72876,11 +73101,14 @@
       <c r="KY82" s="3">
         <v>16700</v>
       </c>
-      <c r="KZ82" s="4">
+      <c r="KZ82" s="3">
         <v>16939</v>
       </c>
+      <c r="LA82" s="4">
+        <v>17140</v>
+      </c>
     </row>
-    <row r="83" spans="1:313" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -73812,11 +74040,14 @@
       <c r="KY83" s="3">
         <v>15302</v>
       </c>
-      <c r="KZ83" s="4">
+      <c r="KZ83" s="3">
         <v>15525</v>
       </c>
+      <c r="LA83" s="4">
+        <v>15767</v>
+      </c>
     </row>
-    <row r="84" spans="1:313" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -74748,11 +74979,14 @@
       <c r="KY84" s="3">
         <v>13712</v>
       </c>
-      <c r="KZ84" s="4">
+      <c r="KZ84" s="3">
         <v>13843</v>
       </c>
+      <c r="LA84" s="4">
+        <v>14028</v>
+      </c>
     </row>
-    <row r="85" spans="1:313" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -75684,11 +75918,14 @@
       <c r="KY85" s="3">
         <v>12023</v>
       </c>
-      <c r="KZ85" s="4">
+      <c r="KZ85" s="3">
         <v>12140</v>
       </c>
+      <c r="LA85" s="4">
+        <v>12250</v>
+      </c>
     </row>
-    <row r="86" spans="1:313" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -76432,11 +76669,12 @@
       <c r="KY86" s="38">
         <v>2</v>
       </c>
-      <c r="KZ86" s="36">
+      <c r="KZ86" s="38">
         <v>1</v>
       </c>
+      <c r="LA86" s="36"/>
     </row>
-    <row r="87" spans="1:313" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:314" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -77370,12 +77608,15 @@
       <c r="KY87" s="40">
         <v>1999360</v>
       </c>
-      <c r="KZ87" s="34">
+      <c r="KZ87" s="40">
         <v>2013431</v>
       </c>
-      <c r="LA87" s="3"/>
+      <c r="LA87" s="34">
+        <v>2026935</v>
+      </c>
+      <c r="LB87" s="3"/>
     </row>
-    <row r="88" spans="1:313" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:314" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="s">
         <v>23</v>
       </c>
@@ -77395,13 +77636,14 @@
       <c r="KX88" s="3"/>
       <c r="KY88" s="3"/>
       <c r="KZ88" s="3"/>
+      <c r="LA88" s="3"/>
     </row>
-    <row r="89" spans="1:313" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:314" x14ac:dyDescent="0.25">
       <c r="KD89" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="KQ5:KZ5"/>
+    <mergeCell ref="KQ5:LA5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A1E099-204E-43E5-AD99-B7C178E358FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD52371-108D-4CD0-86B7-8A66D3246F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -157,7 +157,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998 - noviembre 2023</t>
+    <t>Enero 1998 - diciembre 2023</t>
   </si>
 </sst>
 </file>
@@ -984,6 +984,15 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -991,15 +1000,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1323,11 +1323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LB89"/>
+  <dimension ref="A1:LC89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="KP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KX90" sqref="KX90"/>
+      <pane xSplit="2" topLeftCell="KQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KY94" sqref="KY94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1464,406 +1464,407 @@
     <col min="302" max="302" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="303" max="307" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="308" max="310" width="9.109375" style="1" customWidth="1"/>
-    <col min="311" max="312" width="11.21875" style="1" customWidth="1"/>
-    <col min="313" max="313" width="11.44140625" style="1" customWidth="1"/>
-    <col min="314" max="16384" width="11.33203125" style="1"/>
+    <col min="311" max="313" width="11.21875" style="1" customWidth="1"/>
+    <col min="314" max="314" width="11.44140625" style="1" customWidth="1"/>
+    <col min="315" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:313" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:314" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:313" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:314" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
     </row>
-    <row r="3" spans="1:313" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:314" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:313" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:314" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="44">
         <v>1998</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="47">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="44">
         <v>1999</v>
       </c>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="47">
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="44">
         <v>2000</v>
       </c>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="47">
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="44">
         <v>2001</v>
       </c>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="47">
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="44">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="49"/>
-      <c r="BK5" s="47">
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="45"/>
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="46"/>
+      <c r="BK5" s="44">
         <v>2003</v>
       </c>
-      <c r="BL5" s="48"/>
-      <c r="BM5" s="48"/>
-      <c r="BN5" s="48"/>
-      <c r="BO5" s="48"/>
-      <c r="BP5" s="48"/>
-      <c r="BQ5" s="48"/>
-      <c r="BR5" s="48"/>
-      <c r="BS5" s="48"/>
-      <c r="BT5" s="48"/>
-      <c r="BU5" s="48"/>
-      <c r="BV5" s="49"/>
-      <c r="BW5" s="47">
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45"/>
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="45"/>
+      <c r="BP5" s="45"/>
+      <c r="BQ5" s="45"/>
+      <c r="BR5" s="45"/>
+      <c r="BS5" s="45"/>
+      <c r="BT5" s="45"/>
+      <c r="BU5" s="45"/>
+      <c r="BV5" s="46"/>
+      <c r="BW5" s="44">
         <v>2004</v>
       </c>
-      <c r="BX5" s="48"/>
-      <c r="BY5" s="48"/>
-      <c r="BZ5" s="48"/>
-      <c r="CA5" s="48"/>
-      <c r="CB5" s="48"/>
-      <c r="CC5" s="48"/>
-      <c r="CD5" s="48"/>
-      <c r="CE5" s="48"/>
-      <c r="CF5" s="48"/>
-      <c r="CG5" s="48"/>
-      <c r="CH5" s="49"/>
-      <c r="CI5" s="47">
+      <c r="BX5" s="45"/>
+      <c r="BY5" s="45"/>
+      <c r="BZ5" s="45"/>
+      <c r="CA5" s="45"/>
+      <c r="CB5" s="45"/>
+      <c r="CC5" s="45"/>
+      <c r="CD5" s="45"/>
+      <c r="CE5" s="45"/>
+      <c r="CF5" s="45"/>
+      <c r="CG5" s="45"/>
+      <c r="CH5" s="46"/>
+      <c r="CI5" s="44">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="48"/>
-      <c r="CK5" s="48"/>
-      <c r="CL5" s="48"/>
-      <c r="CM5" s="48"/>
-      <c r="CN5" s="48"/>
-      <c r="CO5" s="48"/>
-      <c r="CP5" s="48"/>
-      <c r="CQ5" s="48"/>
-      <c r="CR5" s="48"/>
-      <c r="CS5" s="48"/>
-      <c r="CT5" s="49"/>
-      <c r="CU5" s="47">
+      <c r="CJ5" s="45"/>
+      <c r="CK5" s="45"/>
+      <c r="CL5" s="45"/>
+      <c r="CM5" s="45"/>
+      <c r="CN5" s="45"/>
+      <c r="CO5" s="45"/>
+      <c r="CP5" s="45"/>
+      <c r="CQ5" s="45"/>
+      <c r="CR5" s="45"/>
+      <c r="CS5" s="45"/>
+      <c r="CT5" s="46"/>
+      <c r="CU5" s="44">
         <v>2006</v>
       </c>
-      <c r="CV5" s="48"/>
-      <c r="CW5" s="48"/>
-      <c r="CX5" s="48"/>
-      <c r="CY5" s="48"/>
-      <c r="CZ5" s="48"/>
-      <c r="DA5" s="48"/>
-      <c r="DB5" s="48"/>
-      <c r="DC5" s="48"/>
-      <c r="DD5" s="48"/>
-      <c r="DE5" s="48"/>
-      <c r="DF5" s="49"/>
-      <c r="DG5" s="47">
+      <c r="CV5" s="45"/>
+      <c r="CW5" s="45"/>
+      <c r="CX5" s="45"/>
+      <c r="CY5" s="45"/>
+      <c r="CZ5" s="45"/>
+      <c r="DA5" s="45"/>
+      <c r="DB5" s="45"/>
+      <c r="DC5" s="45"/>
+      <c r="DD5" s="45"/>
+      <c r="DE5" s="45"/>
+      <c r="DF5" s="46"/>
+      <c r="DG5" s="44">
         <v>2007</v>
       </c>
-      <c r="DH5" s="48"/>
-      <c r="DI5" s="48"/>
-      <c r="DJ5" s="48"/>
-      <c r="DK5" s="48"/>
-      <c r="DL5" s="48"/>
-      <c r="DM5" s="48"/>
-      <c r="DN5" s="48"/>
-      <c r="DO5" s="48"/>
-      <c r="DP5" s="48"/>
-      <c r="DQ5" s="48"/>
-      <c r="DR5" s="49"/>
-      <c r="DS5" s="47">
+      <c r="DH5" s="45"/>
+      <c r="DI5" s="45"/>
+      <c r="DJ5" s="45"/>
+      <c r="DK5" s="45"/>
+      <c r="DL5" s="45"/>
+      <c r="DM5" s="45"/>
+      <c r="DN5" s="45"/>
+      <c r="DO5" s="45"/>
+      <c r="DP5" s="45"/>
+      <c r="DQ5" s="45"/>
+      <c r="DR5" s="46"/>
+      <c r="DS5" s="44">
         <v>2008</v>
       </c>
-      <c r="DT5" s="48"/>
-      <c r="DU5" s="48"/>
-      <c r="DV5" s="48"/>
-      <c r="DW5" s="48"/>
-      <c r="DX5" s="48"/>
-      <c r="DY5" s="48"/>
-      <c r="DZ5" s="48"/>
-      <c r="EA5" s="48"/>
-      <c r="EB5" s="48"/>
-      <c r="EC5" s="48"/>
-      <c r="ED5" s="49"/>
-      <c r="EE5" s="47">
+      <c r="DT5" s="45"/>
+      <c r="DU5" s="45"/>
+      <c r="DV5" s="45"/>
+      <c r="DW5" s="45"/>
+      <c r="DX5" s="45"/>
+      <c r="DY5" s="45"/>
+      <c r="DZ5" s="45"/>
+      <c r="EA5" s="45"/>
+      <c r="EB5" s="45"/>
+      <c r="EC5" s="45"/>
+      <c r="ED5" s="46"/>
+      <c r="EE5" s="44">
         <v>2009</v>
       </c>
-      <c r="EF5" s="48"/>
-      <c r="EG5" s="48"/>
-      <c r="EH5" s="48"/>
-      <c r="EI5" s="48"/>
-      <c r="EJ5" s="48"/>
-      <c r="EK5" s="48"/>
-      <c r="EL5" s="48"/>
-      <c r="EM5" s="48"/>
-      <c r="EN5" s="48"/>
-      <c r="EO5" s="48"/>
-      <c r="EP5" s="49"/>
-      <c r="EQ5" s="47">
+      <c r="EF5" s="45"/>
+      <c r="EG5" s="45"/>
+      <c r="EH5" s="45"/>
+      <c r="EI5" s="45"/>
+      <c r="EJ5" s="45"/>
+      <c r="EK5" s="45"/>
+      <c r="EL5" s="45"/>
+      <c r="EM5" s="45"/>
+      <c r="EN5" s="45"/>
+      <c r="EO5" s="45"/>
+      <c r="EP5" s="46"/>
+      <c r="EQ5" s="44">
         <v>2010</v>
       </c>
-      <c r="ER5" s="48"/>
-      <c r="ES5" s="48"/>
-      <c r="ET5" s="48"/>
-      <c r="EU5" s="48"/>
-      <c r="EV5" s="48"/>
-      <c r="EW5" s="48"/>
-      <c r="EX5" s="48"/>
-      <c r="EY5" s="48"/>
-      <c r="EZ5" s="48"/>
-      <c r="FA5" s="48"/>
-      <c r="FB5" s="49"/>
-      <c r="FC5" s="47">
+      <c r="ER5" s="45"/>
+      <c r="ES5" s="45"/>
+      <c r="ET5" s="45"/>
+      <c r="EU5" s="45"/>
+      <c r="EV5" s="45"/>
+      <c r="EW5" s="45"/>
+      <c r="EX5" s="45"/>
+      <c r="EY5" s="45"/>
+      <c r="EZ5" s="45"/>
+      <c r="FA5" s="45"/>
+      <c r="FB5" s="46"/>
+      <c r="FC5" s="44">
         <v>2011</v>
       </c>
-      <c r="FD5" s="48"/>
-      <c r="FE5" s="48"/>
-      <c r="FF5" s="48"/>
-      <c r="FG5" s="48"/>
-      <c r="FH5" s="48"/>
-      <c r="FI5" s="48"/>
-      <c r="FJ5" s="48"/>
-      <c r="FK5" s="48"/>
-      <c r="FL5" s="48"/>
-      <c r="FM5" s="48"/>
-      <c r="FN5" s="49"/>
-      <c r="FO5" s="47">
+      <c r="FD5" s="45"/>
+      <c r="FE5" s="45"/>
+      <c r="FF5" s="45"/>
+      <c r="FG5" s="45"/>
+      <c r="FH5" s="45"/>
+      <c r="FI5" s="45"/>
+      <c r="FJ5" s="45"/>
+      <c r="FK5" s="45"/>
+      <c r="FL5" s="45"/>
+      <c r="FM5" s="45"/>
+      <c r="FN5" s="46"/>
+      <c r="FO5" s="44">
         <v>2012</v>
       </c>
-      <c r="FP5" s="48"/>
-      <c r="FQ5" s="48"/>
-      <c r="FR5" s="48"/>
-      <c r="FS5" s="48"/>
-      <c r="FT5" s="48"/>
-      <c r="FU5" s="48"/>
-      <c r="FV5" s="48"/>
-      <c r="FW5" s="48"/>
-      <c r="FX5" s="48"/>
-      <c r="FY5" s="48"/>
-      <c r="FZ5" s="49"/>
-      <c r="GA5" s="47">
+      <c r="FP5" s="45"/>
+      <c r="FQ5" s="45"/>
+      <c r="FR5" s="45"/>
+      <c r="FS5" s="45"/>
+      <c r="FT5" s="45"/>
+      <c r="FU5" s="45"/>
+      <c r="FV5" s="45"/>
+      <c r="FW5" s="45"/>
+      <c r="FX5" s="45"/>
+      <c r="FY5" s="45"/>
+      <c r="FZ5" s="46"/>
+      <c r="GA5" s="44">
         <v>2013</v>
       </c>
-      <c r="GB5" s="48"/>
-      <c r="GC5" s="48"/>
-      <c r="GD5" s="48"/>
-      <c r="GE5" s="48"/>
-      <c r="GF5" s="48"/>
-      <c r="GG5" s="48"/>
-      <c r="GH5" s="48"/>
-      <c r="GI5" s="48"/>
-      <c r="GJ5" s="48"/>
-      <c r="GK5" s="48"/>
-      <c r="GL5" s="49"/>
-      <c r="GM5" s="47">
+      <c r="GB5" s="45"/>
+      <c r="GC5" s="45"/>
+      <c r="GD5" s="45"/>
+      <c r="GE5" s="45"/>
+      <c r="GF5" s="45"/>
+      <c r="GG5" s="45"/>
+      <c r="GH5" s="45"/>
+      <c r="GI5" s="45"/>
+      <c r="GJ5" s="45"/>
+      <c r="GK5" s="45"/>
+      <c r="GL5" s="46"/>
+      <c r="GM5" s="44">
         <v>2014</v>
       </c>
-      <c r="GN5" s="48"/>
-      <c r="GO5" s="48"/>
-      <c r="GP5" s="48"/>
-      <c r="GQ5" s="48"/>
-      <c r="GR5" s="48"/>
-      <c r="GS5" s="48"/>
-      <c r="GT5" s="48"/>
-      <c r="GU5" s="48"/>
-      <c r="GV5" s="48"/>
-      <c r="GW5" s="48"/>
-      <c r="GX5" s="49"/>
-      <c r="GY5" s="47">
+      <c r="GN5" s="45"/>
+      <c r="GO5" s="45"/>
+      <c r="GP5" s="45"/>
+      <c r="GQ5" s="45"/>
+      <c r="GR5" s="45"/>
+      <c r="GS5" s="45"/>
+      <c r="GT5" s="45"/>
+      <c r="GU5" s="45"/>
+      <c r="GV5" s="45"/>
+      <c r="GW5" s="45"/>
+      <c r="GX5" s="46"/>
+      <c r="GY5" s="44">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="48"/>
-      <c r="HA5" s="48"/>
-      <c r="HB5" s="48"/>
-      <c r="HC5" s="48"/>
-      <c r="HD5" s="48"/>
-      <c r="HE5" s="48"/>
-      <c r="HF5" s="48"/>
-      <c r="HG5" s="48"/>
-      <c r="HH5" s="48"/>
-      <c r="HI5" s="48"/>
-      <c r="HJ5" s="49"/>
-      <c r="HK5" s="47">
+      <c r="GZ5" s="45"/>
+      <c r="HA5" s="45"/>
+      <c r="HB5" s="45"/>
+      <c r="HC5" s="45"/>
+      <c r="HD5" s="45"/>
+      <c r="HE5" s="45"/>
+      <c r="HF5" s="45"/>
+      <c r="HG5" s="45"/>
+      <c r="HH5" s="45"/>
+      <c r="HI5" s="45"/>
+      <c r="HJ5" s="46"/>
+      <c r="HK5" s="44">
         <v>2016</v>
       </c>
-      <c r="HL5" s="48"/>
-      <c r="HM5" s="48"/>
-      <c r="HN5" s="48"/>
-      <c r="HO5" s="48"/>
-      <c r="HP5" s="48"/>
-      <c r="HQ5" s="48"/>
-      <c r="HR5" s="48"/>
-      <c r="HS5" s="48"/>
-      <c r="HT5" s="48"/>
-      <c r="HU5" s="48"/>
-      <c r="HV5" s="49"/>
-      <c r="HW5" s="47">
+      <c r="HL5" s="45"/>
+      <c r="HM5" s="45"/>
+      <c r="HN5" s="45"/>
+      <c r="HO5" s="45"/>
+      <c r="HP5" s="45"/>
+      <c r="HQ5" s="45"/>
+      <c r="HR5" s="45"/>
+      <c r="HS5" s="45"/>
+      <c r="HT5" s="45"/>
+      <c r="HU5" s="45"/>
+      <c r="HV5" s="46"/>
+      <c r="HW5" s="44">
         <v>2017</v>
       </c>
-      <c r="HX5" s="48"/>
-      <c r="HY5" s="48"/>
-      <c r="HZ5" s="48"/>
-      <c r="IA5" s="48"/>
-      <c r="IB5" s="48"/>
-      <c r="IC5" s="48"/>
-      <c r="ID5" s="48"/>
-      <c r="IE5" s="48"/>
-      <c r="IF5" s="48"/>
-      <c r="IG5" s="48"/>
-      <c r="IH5" s="49"/>
-      <c r="II5" s="47">
+      <c r="HX5" s="45"/>
+      <c r="HY5" s="45"/>
+      <c r="HZ5" s="45"/>
+      <c r="IA5" s="45"/>
+      <c r="IB5" s="45"/>
+      <c r="IC5" s="45"/>
+      <c r="ID5" s="45"/>
+      <c r="IE5" s="45"/>
+      <c r="IF5" s="45"/>
+      <c r="IG5" s="45"/>
+      <c r="IH5" s="46"/>
+      <c r="II5" s="44">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="48"/>
-      <c r="IK5" s="48"/>
-      <c r="IL5" s="48"/>
-      <c r="IM5" s="48"/>
-      <c r="IN5" s="48"/>
-      <c r="IO5" s="48"/>
-      <c r="IP5" s="48"/>
-      <c r="IQ5" s="48"/>
-      <c r="IR5" s="48"/>
-      <c r="IS5" s="48"/>
-      <c r="IT5" s="49"/>
-      <c r="IU5" s="47">
+      <c r="IJ5" s="45"/>
+      <c r="IK5" s="45"/>
+      <c r="IL5" s="45"/>
+      <c r="IM5" s="45"/>
+      <c r="IN5" s="45"/>
+      <c r="IO5" s="45"/>
+      <c r="IP5" s="45"/>
+      <c r="IQ5" s="45"/>
+      <c r="IR5" s="45"/>
+      <c r="IS5" s="45"/>
+      <c r="IT5" s="46"/>
+      <c r="IU5" s="44">
         <v>2019</v>
       </c>
-      <c r="IV5" s="48"/>
-      <c r="IW5" s="48"/>
-      <c r="IX5" s="48"/>
-      <c r="IY5" s="48"/>
-      <c r="IZ5" s="48"/>
-      <c r="JA5" s="48"/>
-      <c r="JB5" s="48"/>
-      <c r="JC5" s="48"/>
-      <c r="JD5" s="48"/>
-      <c r="JE5" s="48"/>
-      <c r="JF5" s="49"/>
-      <c r="JG5" s="47">
+      <c r="IV5" s="45"/>
+      <c r="IW5" s="45"/>
+      <c r="IX5" s="45"/>
+      <c r="IY5" s="45"/>
+      <c r="IZ5" s="45"/>
+      <c r="JA5" s="45"/>
+      <c r="JB5" s="45"/>
+      <c r="JC5" s="45"/>
+      <c r="JD5" s="45"/>
+      <c r="JE5" s="45"/>
+      <c r="JF5" s="46"/>
+      <c r="JG5" s="44">
         <v>2020</v>
       </c>
-      <c r="JH5" s="48"/>
-      <c r="JI5" s="48"/>
-      <c r="JJ5" s="48"/>
-      <c r="JK5" s="48"/>
-      <c r="JL5" s="48"/>
-      <c r="JM5" s="48"/>
-      <c r="JN5" s="48"/>
-      <c r="JO5" s="48"/>
-      <c r="JP5" s="48"/>
-      <c r="JQ5" s="48"/>
-      <c r="JR5" s="49"/>
-      <c r="JS5" s="47">
+      <c r="JH5" s="45"/>
+      <c r="JI5" s="45"/>
+      <c r="JJ5" s="45"/>
+      <c r="JK5" s="45"/>
+      <c r="JL5" s="45"/>
+      <c r="JM5" s="45"/>
+      <c r="JN5" s="45"/>
+      <c r="JO5" s="45"/>
+      <c r="JP5" s="45"/>
+      <c r="JQ5" s="45"/>
+      <c r="JR5" s="46"/>
+      <c r="JS5" s="44">
         <v>2021</v>
       </c>
-      <c r="JT5" s="48"/>
-      <c r="JU5" s="48"/>
-      <c r="JV5" s="48"/>
-      <c r="JW5" s="48"/>
-      <c r="JX5" s="48"/>
-      <c r="JY5" s="48"/>
-      <c r="JZ5" s="48"/>
-      <c r="KA5" s="48"/>
-      <c r="KB5" s="48"/>
-      <c r="KC5" s="48"/>
-      <c r="KD5" s="48"/>
-      <c r="KE5" s="47">
+      <c r="JT5" s="45"/>
+      <c r="JU5" s="45"/>
+      <c r="JV5" s="45"/>
+      <c r="JW5" s="45"/>
+      <c r="JX5" s="45"/>
+      <c r="JY5" s="45"/>
+      <c r="JZ5" s="45"/>
+      <c r="KA5" s="45"/>
+      <c r="KB5" s="45"/>
+      <c r="KC5" s="45"/>
+      <c r="KD5" s="45"/>
+      <c r="KE5" s="44">
         <v>2022</v>
       </c>
-      <c r="KF5" s="48"/>
-      <c r="KG5" s="48"/>
-      <c r="KH5" s="48"/>
-      <c r="KI5" s="48"/>
-      <c r="KJ5" s="48"/>
-      <c r="KK5" s="48"/>
-      <c r="KL5" s="48"/>
-      <c r="KM5" s="48"/>
-      <c r="KN5" s="48"/>
-      <c r="KO5" s="48"/>
-      <c r="KP5" s="49"/>
-      <c r="KQ5" s="47">
+      <c r="KF5" s="45"/>
+      <c r="KG5" s="45"/>
+      <c r="KH5" s="45"/>
+      <c r="KI5" s="45"/>
+      <c r="KJ5" s="45"/>
+      <c r="KK5" s="45"/>
+      <c r="KL5" s="45"/>
+      <c r="KM5" s="45"/>
+      <c r="KN5" s="45"/>
+      <c r="KO5" s="45"/>
+      <c r="KP5" s="46"/>
+      <c r="KQ5" s="44">
         <v>2023</v>
       </c>
-      <c r="KR5" s="48"/>
-      <c r="KS5" s="48"/>
-      <c r="KT5" s="48"/>
-      <c r="KU5" s="48"/>
-      <c r="KV5" s="48"/>
-      <c r="KW5" s="48"/>
-      <c r="KX5" s="48"/>
-      <c r="KY5" s="48"/>
-      <c r="KZ5" s="48"/>
-      <c r="LA5" s="49"/>
+      <c r="KR5" s="45"/>
+      <c r="KS5" s="45"/>
+      <c r="KT5" s="45"/>
+      <c r="KU5" s="45"/>
+      <c r="KV5" s="45"/>
+      <c r="KW5" s="45"/>
+      <c r="KX5" s="45"/>
+      <c r="KY5" s="45"/>
+      <c r="KZ5" s="45"/>
+      <c r="LA5" s="45"/>
+      <c r="LB5" s="46"/>
     </row>
-    <row r="6" spans="1:313" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+    <row r="6" spans="1:314" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2794,11 +2795,14 @@
       <c r="KZ6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="LA6" s="43" t="s">
+      <c r="LA6" s="42" t="s">
         <v>18</v>
       </c>
+      <c r="LB6" s="43" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:313" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:314" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3735,11 +3739,14 @@
       <c r="KZ7" s="37">
         <v>120205</v>
       </c>
-      <c r="LA7" s="30">
+      <c r="LA7" s="37">
         <v>121905</v>
       </c>
+      <c r="LB7" s="30">
+        <v>118874</v>
+      </c>
     </row>
-    <row r="8" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4674,11 +4681,14 @@
       <c r="KZ8" s="3">
         <v>24169</v>
       </c>
-      <c r="LA8" s="4">
+      <c r="LA8" s="3">
         <v>24543</v>
       </c>
+      <c r="LB8" s="4">
+        <v>24669</v>
+      </c>
     </row>
-    <row r="9" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5613,11 +5623,14 @@
       <c r="KZ9" s="3">
         <v>5228</v>
       </c>
-      <c r="LA9" s="4">
+      <c r="LA9" s="3">
         <v>5275</v>
       </c>
+      <c r="LB9" s="4">
+        <v>4774</v>
+      </c>
     </row>
-    <row r="10" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6552,11 +6565,14 @@
       <c r="KZ10" s="3">
         <v>17708</v>
       </c>
-      <c r="LA10" s="4">
+      <c r="LA10" s="3">
         <v>18000</v>
       </c>
+      <c r="LB10" s="4">
+        <v>16916</v>
+      </c>
     </row>
-    <row r="11" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7491,11 +7507,14 @@
       <c r="KZ11" s="3">
         <v>17806</v>
       </c>
-      <c r="LA11" s="4">
+      <c r="LA11" s="3">
         <v>18098</v>
       </c>
+      <c r="LB11" s="4">
+        <v>17550</v>
+      </c>
     </row>
-    <row r="12" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -8430,11 +8449,14 @@
       <c r="KZ12" s="3">
         <v>16527</v>
       </c>
-      <c r="LA12" s="4">
+      <c r="LA12" s="3">
         <v>16698</v>
       </c>
+      <c r="LB12" s="4">
+        <v>16175</v>
+      </c>
     </row>
-    <row r="13" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -9369,11 +9391,14 @@
       <c r="KZ13" s="3">
         <v>14470</v>
       </c>
-      <c r="LA13" s="4">
+      <c r="LA13" s="3">
         <v>14629</v>
       </c>
+      <c r="LB13" s="4">
+        <v>14390</v>
+      </c>
     </row>
-    <row r="14" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -10308,11 +10333,14 @@
       <c r="KZ14" s="3">
         <v>12610</v>
       </c>
-      <c r="LA14" s="4">
+      <c r="LA14" s="3">
         <v>12830</v>
       </c>
+      <c r="LB14" s="4">
+        <v>12672</v>
+      </c>
     </row>
-    <row r="15" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -11247,11 +11275,14 @@
       <c r="KZ15" s="3">
         <v>11681</v>
       </c>
-      <c r="LA15" s="4">
+      <c r="LA15" s="3">
         <v>11828</v>
       </c>
+      <c r="LB15" s="4">
+        <v>11723</v>
+      </c>
     </row>
-    <row r="16" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -12186,11 +12217,14 @@
       <c r="KZ16" s="38">
         <v>6</v>
       </c>
-      <c r="LA16" s="36">
+      <c r="LA16" s="38">
         <v>4</v>
       </c>
+      <c r="LB16" s="36">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -13127,11 +13161,14 @@
       <c r="KZ17" s="37">
         <v>416253</v>
       </c>
-      <c r="LA17" s="30">
+      <c r="LA17" s="37">
         <v>421219</v>
       </c>
+      <c r="LB17" s="30">
+        <v>416183</v>
+      </c>
     </row>
-    <row r="18" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -14066,11 +14103,14 @@
       <c r="KZ18" s="3">
         <v>68678</v>
       </c>
-      <c r="LA18" s="4">
+      <c r="LA18" s="3">
         <v>69548</v>
       </c>
+      <c r="LB18" s="4">
+        <v>69543</v>
+      </c>
     </row>
-    <row r="19" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -15005,11 +15045,14 @@
       <c r="KZ19" s="3">
         <v>11675</v>
       </c>
-      <c r="LA19" s="4">
+      <c r="LA19" s="3">
         <v>12050</v>
       </c>
+      <c r="LB19" s="4">
+        <v>11839</v>
+      </c>
     </row>
-    <row r="20" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15944,11 +15987,14 @@
       <c r="KZ20" s="3">
         <v>56235</v>
       </c>
-      <c r="LA20" s="4">
+      <c r="LA20" s="3">
         <v>57405</v>
       </c>
+      <c r="LB20" s="4">
+        <v>56176</v>
+      </c>
     </row>
-    <row r="21" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -16883,11 +16929,14 @@
       <c r="KZ21" s="3">
         <v>67867</v>
       </c>
-      <c r="LA21" s="4">
+      <c r="LA21" s="3">
         <v>68466</v>
       </c>
+      <c r="LB21" s="4">
+        <v>67351</v>
+      </c>
     </row>
-    <row r="22" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -17822,11 +17871,14 @@
       <c r="KZ22" s="3">
         <v>65370</v>
       </c>
-      <c r="LA22" s="4">
+      <c r="LA22" s="3">
         <v>65777</v>
       </c>
+      <c r="LB22" s="4">
+        <v>64850</v>
+      </c>
     </row>
-    <row r="23" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -18761,11 +18813,14 @@
       <c r="KZ23" s="3">
         <v>57633</v>
       </c>
-      <c r="LA23" s="4">
+      <c r="LA23" s="3">
         <v>58038</v>
       </c>
+      <c r="LB23" s="4">
+        <v>57416</v>
+      </c>
     </row>
-    <row r="24" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -19700,11 +19755,14 @@
       <c r="KZ24" s="3">
         <v>48703</v>
       </c>
-      <c r="LA24" s="4">
+      <c r="LA24" s="3">
         <v>49368</v>
       </c>
+      <c r="LB24" s="4">
+        <v>48854</v>
+      </c>
     </row>
-    <row r="25" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -20639,11 +20697,14 @@
       <c r="KZ25" s="3">
         <v>40091</v>
       </c>
-      <c r="LA25" s="4">
+      <c r="LA25" s="3">
         <v>40566</v>
       </c>
+      <c r="LB25" s="4">
+        <v>40153</v>
+      </c>
     </row>
-    <row r="26" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -21568,11 +21629,14 @@
       <c r="KZ26" s="38">
         <v>1</v>
       </c>
-      <c r="LA26" s="36">
+      <c r="LA26" s="38">
         <v>1</v>
       </c>
+      <c r="LB26" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -22509,11 +22573,14 @@
       <c r="KZ27" s="37">
         <v>157805</v>
       </c>
-      <c r="LA27" s="30">
+      <c r="LA27" s="37">
         <v>156771</v>
       </c>
+      <c r="LB27" s="30">
+        <v>149029</v>
+      </c>
     </row>
-    <row r="28" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -23448,11 +23515,14 @@
       <c r="KZ28" s="3">
         <v>29142</v>
       </c>
-      <c r="LA28" s="4">
+      <c r="LA28" s="3">
         <v>29018</v>
       </c>
+      <c r="LB28" s="4">
+        <v>28369</v>
+      </c>
     </row>
-    <row r="29" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -24387,11 +24457,14 @@
       <c r="KZ29" s="3">
         <v>5007</v>
       </c>
-      <c r="LA29" s="4">
+      <c r="LA29" s="3">
         <v>4909</v>
       </c>
+      <c r="LB29" s="4">
+        <v>4458</v>
+      </c>
     </row>
-    <row r="30" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -25326,11 +25399,14 @@
       <c r="KZ30" s="3">
         <v>20200</v>
       </c>
-      <c r="LA30" s="4">
+      <c r="LA30" s="3">
         <v>19957</v>
       </c>
+      <c r="LB30" s="4">
+        <v>18630</v>
+      </c>
     </row>
-    <row r="31" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -26265,11 +26341,14 @@
       <c r="KZ31" s="3">
         <v>25292</v>
       </c>
-      <c r="LA31" s="4">
+      <c r="LA31" s="3">
         <v>25179</v>
       </c>
+      <c r="LB31" s="4">
+        <v>23556</v>
+      </c>
     </row>
-    <row r="32" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -27204,11 +27283,14 @@
       <c r="KZ32" s="3">
         <v>23630</v>
       </c>
-      <c r="LA32" s="4">
+      <c r="LA32" s="3">
         <v>23427</v>
       </c>
+      <c r="LB32" s="4">
+        <v>22165</v>
+      </c>
     </row>
-    <row r="33" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -28143,11 +28225,14 @@
       <c r="KZ33" s="3">
         <v>20821</v>
       </c>
-      <c r="LA33" s="4">
+      <c r="LA33" s="3">
         <v>20773</v>
       </c>
+      <c r="LB33" s="4">
+        <v>19736</v>
+      </c>
     </row>
-    <row r="34" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -29082,11 +29167,14 @@
       <c r="KZ34" s="3">
         <v>18137</v>
       </c>
-      <c r="LA34" s="4">
+      <c r="LA34" s="3">
         <v>17987</v>
       </c>
+      <c r="LB34" s="4">
+        <v>17192</v>
+      </c>
     </row>
-    <row r="35" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -30021,11 +30109,14 @@
       <c r="KZ35" s="3">
         <v>15552</v>
       </c>
-      <c r="LA35" s="4">
+      <c r="LA35" s="3">
         <v>15497</v>
       </c>
+      <c r="LB35" s="4">
+        <v>14908</v>
+      </c>
     </row>
-    <row r="36" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -30960,11 +31051,14 @@
       <c r="KZ36" s="38">
         <v>24</v>
       </c>
-      <c r="LA36" s="36">
+      <c r="LA36" s="38">
         <v>24</v>
       </c>
+      <c r="LB36" s="36">
+        <v>15</v>
+      </c>
     </row>
-    <row r="37" spans="1:313" s="28" customFormat="1" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:314" s="28" customFormat="1" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>34</v>
       </c>
@@ -31901,11 +31995,14 @@
       <c r="KZ37" s="39">
         <v>10145</v>
       </c>
-      <c r="LA37" s="32">
+      <c r="LA37" s="39">
         <v>10075</v>
       </c>
+      <c r="LB37" s="32">
+        <v>10144</v>
+      </c>
     </row>
-    <row r="38" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
@@ -32840,11 +32937,14 @@
       <c r="KZ38" s="3">
         <v>1784</v>
       </c>
-      <c r="LA38" s="4">
+      <c r="LA38" s="3">
         <v>1773</v>
       </c>
+      <c r="LB38" s="4">
+        <v>1798</v>
+      </c>
     </row>
-    <row r="39" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -33779,11 +33879,14 @@
       <c r="KZ39" s="3">
         <v>85</v>
       </c>
-      <c r="LA39" s="4">
+      <c r="LA39" s="3">
         <v>80</v>
       </c>
+      <c r="LB39" s="4">
+        <v>81</v>
+      </c>
     </row>
-    <row r="40" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -34718,11 +34821,14 @@
       <c r="KZ40" s="3">
         <v>690</v>
       </c>
-      <c r="LA40" s="4">
+      <c r="LA40" s="3">
         <v>664</v>
       </c>
+      <c r="LB40" s="4">
+        <v>684</v>
+      </c>
     </row>
-    <row r="41" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -35657,11 +35763,14 @@
       <c r="KZ41" s="3">
         <v>1072</v>
       </c>
-      <c r="LA41" s="4">
+      <c r="LA41" s="3">
         <v>1053</v>
       </c>
+      <c r="LB41" s="4">
+        <v>1057</v>
+      </c>
     </row>
-    <row r="42" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -36596,11 +36705,14 @@
       <c r="KZ42" s="3">
         <v>1431</v>
       </c>
-      <c r="LA42" s="4">
+      <c r="LA42" s="3">
         <v>1420</v>
       </c>
+      <c r="LB42" s="4">
+        <v>1444</v>
+      </c>
     </row>
-    <row r="43" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -37535,11 +37647,14 @@
       <c r="KZ43" s="3">
         <v>1801</v>
       </c>
-      <c r="LA43" s="4">
+      <c r="LA43" s="3">
         <v>1801</v>
       </c>
+      <c r="LB43" s="4">
+        <v>1802</v>
+      </c>
     </row>
-    <row r="44" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -38474,11 +38589,14 @@
       <c r="KZ44" s="3">
         <v>1795</v>
       </c>
-      <c r="LA44" s="4">
+      <c r="LA44" s="3">
         <v>1791</v>
       </c>
+      <c r="LB44" s="4">
+        <v>1789</v>
+      </c>
     </row>
-    <row r="45" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -39413,11 +39531,14 @@
       <c r="KZ45" s="3">
         <v>1487</v>
       </c>
-      <c r="LA45" s="4">
+      <c r="LA45" s="3">
         <v>1493</v>
       </c>
+      <c r="LB45" s="4">
+        <v>1489</v>
+      </c>
     </row>
-    <row r="46" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -39856,9 +39977,10 @@
       <c r="KX46" s="38"/>
       <c r="KY46" s="38"/>
       <c r="KZ46" s="38"/>
-      <c r="LA46" s="36"/>
+      <c r="LA46" s="38"/>
+      <c r="LB46" s="36"/>
     </row>
-    <row r="47" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -40795,11 +40917,14 @@
       <c r="KZ47" s="37">
         <v>523564</v>
       </c>
-      <c r="LA47" s="30">
+      <c r="LA47" s="37">
         <v>523749</v>
       </c>
+      <c r="LB47" s="30">
+        <v>516606</v>
+      </c>
     </row>
-    <row r="48" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -41734,11 +41859,14 @@
       <c r="KZ48" s="3">
         <v>85300</v>
       </c>
-      <c r="LA48" s="4">
+      <c r="LA48" s="3">
         <v>85896</v>
       </c>
+      <c r="LB48" s="4">
+        <v>85846</v>
+      </c>
     </row>
-    <row r="49" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -42673,11 +42801,14 @@
       <c r="KZ49" s="3">
         <v>14920</v>
       </c>
-      <c r="LA49" s="4">
+      <c r="LA49" s="3">
         <v>14829</v>
       </c>
+      <c r="LB49" s="4">
+        <v>14038</v>
+      </c>
     </row>
-    <row r="50" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -43612,11 +43743,14 @@
       <c r="KZ50" s="3">
         <v>71472</v>
       </c>
-      <c r="LA50" s="4">
+      <c r="LA50" s="3">
         <v>71148</v>
       </c>
+      <c r="LB50" s="4">
+        <v>68982</v>
+      </c>
     </row>
-    <row r="51" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -44551,11 +44685,14 @@
       <c r="KZ51" s="3">
         <v>83776</v>
       </c>
-      <c r="LA51" s="4">
+      <c r="LA51" s="3">
         <v>83572</v>
       </c>
+      <c r="LB51" s="4">
+        <v>82232</v>
+      </c>
     </row>
-    <row r="52" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -45490,11 +45627,14 @@
       <c r="KZ52" s="3">
         <v>78051</v>
       </c>
-      <c r="LA52" s="4">
+      <c r="LA52" s="3">
         <v>78023</v>
       </c>
+      <c r="LB52" s="4">
+        <v>77079</v>
+      </c>
     </row>
-    <row r="53" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -46429,11 +46569,14 @@
       <c r="KZ53" s="3">
         <v>69050</v>
       </c>
-      <c r="LA53" s="4">
+      <c r="LA53" s="3">
         <v>69161</v>
       </c>
+      <c r="LB53" s="4">
+        <v>68362</v>
+      </c>
     </row>
-    <row r="54" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -47368,11 +47511,14 @@
       <c r="KZ54" s="3">
         <v>64877</v>
       </c>
-      <c r="LA54" s="4">
+      <c r="LA54" s="3">
         <v>64948</v>
       </c>
+      <c r="LB54" s="4">
+        <v>64363</v>
+      </c>
     </row>
-    <row r="55" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -48307,11 +48453,14 @@
       <c r="KZ55" s="3">
         <v>56114</v>
       </c>
-      <c r="LA55" s="4">
+      <c r="LA55" s="3">
         <v>56169</v>
       </c>
+      <c r="LB55" s="4">
+        <v>55700</v>
+      </c>
     </row>
-    <row r="56" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -49246,11 +49395,14 @@
       <c r="KZ56" s="38">
         <v>4</v>
       </c>
-      <c r="LA56" s="36">
+      <c r="LA56" s="38">
         <v>3</v>
       </c>
+      <c r="LB56" s="36">
+        <v>4</v>
+      </c>
     </row>
-    <row r="57" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -50187,11 +50339,14 @@
       <c r="KZ57" s="37">
         <v>2586</v>
       </c>
-      <c r="LA57" s="30">
+      <c r="LA57" s="37">
         <v>2592</v>
       </c>
+      <c r="LB57" s="30">
+        <v>2616</v>
+      </c>
     </row>
-    <row r="58" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -51126,11 +51281,14 @@
       <c r="KZ58" s="3">
         <v>616</v>
       </c>
-      <c r="LA58" s="4">
+      <c r="LA58" s="3">
         <v>613</v>
       </c>
+      <c r="LB58" s="4">
+        <v>634</v>
+      </c>
     </row>
-    <row r="59" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -52065,11 +52223,14 @@
       <c r="KZ59" s="3">
         <v>31</v>
       </c>
-      <c r="LA59" s="4">
+      <c r="LA59" s="3">
         <v>31</v>
       </c>
+      <c r="LB59" s="4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="60" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -53004,11 +53165,14 @@
       <c r="KZ60" s="3">
         <v>171</v>
       </c>
-      <c r="LA60" s="4">
+      <c r="LA60" s="3">
         <v>163</v>
       </c>
+      <c r="LB60" s="4">
+        <v>163</v>
+      </c>
     </row>
-    <row r="61" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -53943,11 +54107,14 @@
       <c r="KZ61" s="3">
         <v>340</v>
       </c>
-      <c r="LA61" s="4">
+      <c r="LA61" s="3">
         <v>332</v>
       </c>
+      <c r="LB61" s="4">
+        <v>337</v>
+      </c>
     </row>
-    <row r="62" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -54882,11 +55049,14 @@
       <c r="KZ62" s="3">
         <v>391</v>
       </c>
-      <c r="LA62" s="4">
+      <c r="LA62" s="3">
         <v>400</v>
       </c>
+      <c r="LB62" s="4">
+        <v>396</v>
+      </c>
     </row>
-    <row r="63" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -55821,11 +55991,14 @@
       <c r="KZ63" s="3">
         <v>398</v>
       </c>
-      <c r="LA63" s="4">
+      <c r="LA63" s="3">
         <v>409</v>
       </c>
+      <c r="LB63" s="4">
+        <v>410</v>
+      </c>
     </row>
-    <row r="64" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -56760,11 +56933,14 @@
       <c r="KZ64" s="3">
         <v>330</v>
       </c>
-      <c r="LA64" s="4">
+      <c r="LA64" s="3">
         <v>333</v>
       </c>
+      <c r="LB64" s="4">
+        <v>336</v>
+      </c>
     </row>
-    <row r="65" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -57699,11 +57875,14 @@
       <c r="KZ65" s="3">
         <v>309</v>
       </c>
-      <c r="LA65" s="4">
+      <c r="LA65" s="3">
         <v>311</v>
       </c>
+      <c r="LB65" s="4">
+        <v>310</v>
+      </c>
     </row>
-    <row r="66" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -58078,9 +58257,10 @@
       <c r="KX66" s="38"/>
       <c r="KY66" s="38"/>
       <c r="KZ66" s="38"/>
-      <c r="LA66" s="36"/>
+      <c r="LA66" s="38"/>
+      <c r="LB66" s="36"/>
     </row>
-    <row r="67" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -59017,11 +59197,14 @@
       <c r="KZ67" s="37">
         <v>673350</v>
       </c>
-      <c r="LA67" s="30">
+      <c r="LA67" s="37">
         <v>679191</v>
       </c>
+      <c r="LB67" s="30">
+        <v>669912</v>
+      </c>
     </row>
-    <row r="68" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -59956,11 +60139,14 @@
       <c r="KZ68" s="3">
         <v>146750</v>
       </c>
-      <c r="LA68" s="4">
+      <c r="LA68" s="3">
         <v>148224</v>
       </c>
+      <c r="LB68" s="4">
+        <v>147055</v>
+      </c>
     </row>
-    <row r="69" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -60895,11 +61081,14 @@
       <c r="KZ69" s="3">
         <v>10621</v>
       </c>
-      <c r="LA69" s="4">
+      <c r="LA69" s="3">
         <v>10769</v>
       </c>
+      <c r="LB69" s="4">
+        <v>10561</v>
+      </c>
     </row>
-    <row r="70" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -61834,11 +62023,14 @@
       <c r="KZ70" s="3">
         <v>64001</v>
       </c>
-      <c r="LA70" s="4">
+      <c r="LA70" s="3">
         <v>64618</v>
       </c>
+      <c r="LB70" s="4">
+        <v>63173</v>
+      </c>
     </row>
-    <row r="71" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -62773,11 +62965,14 @@
       <c r="KZ71" s="3">
         <v>103465</v>
       </c>
-      <c r="LA71" s="4">
+      <c r="LA71" s="3">
         <v>104613</v>
       </c>
+      <c r="LB71" s="4">
+        <v>102934</v>
+      </c>
     </row>
-    <row r="72" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -63712,11 +63907,14 @@
       <c r="KZ72" s="3">
         <v>101806</v>
       </c>
-      <c r="LA72" s="4">
+      <c r="LA72" s="3">
         <v>102594</v>
       </c>
+      <c r="LB72" s="4">
+        <v>101029</v>
+      </c>
     </row>
-    <row r="73" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -64651,11 +64849,14 @@
       <c r="KZ73" s="3">
         <v>90872</v>
       </c>
-      <c r="LA73" s="4">
+      <c r="LA73" s="3">
         <v>91454</v>
       </c>
+      <c r="LB73" s="4">
+        <v>90163</v>
+      </c>
     </row>
-    <row r="74" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -65590,11 +65791,14 @@
       <c r="KZ74" s="3">
         <v>82423</v>
       </c>
-      <c r="LA74" s="4">
+      <c r="LA74" s="3">
         <v>83119</v>
       </c>
+      <c r="LB74" s="4">
+        <v>82147</v>
+      </c>
     </row>
-    <row r="75" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -66529,11 +66733,14 @@
       <c r="KZ75" s="3">
         <v>73404</v>
       </c>
-      <c r="LA75" s="4">
+      <c r="LA75" s="3">
         <v>73794</v>
       </c>
+      <c r="LB75" s="4">
+        <v>72844</v>
+      </c>
     </row>
-    <row r="76" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -67468,11 +67675,14 @@
       <c r="KZ76" s="38">
         <v>8</v>
       </c>
-      <c r="LA76" s="36">
+      <c r="LA76" s="38">
         <v>6</v>
       </c>
+      <c r="LB76" s="36">
+        <v>6</v>
+      </c>
     </row>
-    <row r="77" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -68409,11 +68619,14 @@
       <c r="KZ77" s="37">
         <v>109523</v>
       </c>
-      <c r="LA77" s="30">
+      <c r="LA77" s="37">
         <v>111433</v>
       </c>
+      <c r="LB77" s="30">
+        <v>111993</v>
+      </c>
     </row>
-    <row r="78" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -69348,11 +69561,14 @@
       <c r="KZ78" s="3">
         <v>19870</v>
       </c>
-      <c r="LA78" s="4">
+      <c r="LA78" s="3">
         <v>20060</v>
       </c>
+      <c r="LB78" s="4">
+        <v>20289</v>
+      </c>
     </row>
-    <row r="79" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -70287,11 +70503,14 @@
       <c r="KZ79" s="3">
         <v>1933</v>
       </c>
-      <c r="LA79" s="4">
+      <c r="LA79" s="3">
         <v>2026</v>
       </c>
+      <c r="LB79" s="4">
+        <v>2080</v>
+      </c>
     </row>
-    <row r="80" spans="1:313" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -71226,11 +71445,14 @@
       <c r="KZ80" s="3">
         <v>12498</v>
       </c>
-      <c r="LA80" s="4">
+      <c r="LA80" s="3">
         <v>12896</v>
       </c>
+      <c r="LB80" s="4">
+        <v>12869</v>
+      </c>
     </row>
-    <row r="81" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -72165,11 +72387,14 @@
       <c r="KZ81" s="3">
         <v>16774</v>
       </c>
-      <c r="LA81" s="4">
+      <c r="LA81" s="3">
         <v>17266</v>
       </c>
+      <c r="LB81" s="4">
+        <v>17342</v>
+      </c>
     </row>
-    <row r="82" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -73104,11 +73329,14 @@
       <c r="KZ82" s="3">
         <v>16939</v>
       </c>
-      <c r="LA82" s="4">
+      <c r="LA82" s="3">
         <v>17140</v>
       </c>
+      <c r="LB82" s="4">
+        <v>17204</v>
+      </c>
     </row>
-    <row r="83" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -74043,11 +74271,14 @@
       <c r="KZ83" s="3">
         <v>15525</v>
       </c>
-      <c r="LA83" s="4">
+      <c r="LA83" s="3">
         <v>15767</v>
       </c>
+      <c r="LB83" s="4">
+        <v>15868</v>
+      </c>
     </row>
-    <row r="84" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -74982,11 +75213,14 @@
       <c r="KZ84" s="3">
         <v>13843</v>
       </c>
-      <c r="LA84" s="4">
+      <c r="LA84" s="3">
         <v>14028</v>
       </c>
+      <c r="LB84" s="4">
+        <v>14079</v>
+      </c>
     </row>
-    <row r="85" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -75921,11 +76155,14 @@
       <c r="KZ85" s="3">
         <v>12140</v>
       </c>
-      <c r="LA85" s="4">
+      <c r="LA85" s="3">
         <v>12250</v>
       </c>
+      <c r="LB85" s="4">
+        <v>12262</v>
+      </c>
     </row>
-    <row r="86" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -76672,9 +76909,10 @@
       <c r="KZ86" s="38">
         <v>1</v>
       </c>
-      <c r="LA86" s="36"/>
+      <c r="LA86" s="38"/>
+      <c r="LB86" s="36"/>
     </row>
-    <row r="87" spans="1:314" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:315" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -77611,21 +77849,24 @@
       <c r="KZ87" s="40">
         <v>2013431</v>
       </c>
-      <c r="LA87" s="34">
+      <c r="LA87" s="40">
         <v>2026935</v>
       </c>
-      <c r="LB87" s="3"/>
+      <c r="LB87" s="34">
+        <v>1995357</v>
+      </c>
+      <c r="LC87" s="3"/>
     </row>
-    <row r="88" spans="1:314" x14ac:dyDescent="0.25">
-      <c r="A88" s="44" t="s">
+    <row r="88" spans="1:315" x14ac:dyDescent="0.25">
+      <c r="A88" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
       <c r="KD88" s="3"/>
       <c r="KR88" s="3"/>
       <c r="KS88" s="3"/>
@@ -77637,13 +77878,29 @@
       <c r="KY88" s="3"/>
       <c r="KZ88" s="3"/>
       <c r="LA88" s="3"/>
+      <c r="LB88" s="3"/>
     </row>
-    <row r="89" spans="1:314" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:315" x14ac:dyDescent="0.25">
       <c r="KD89" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="KQ5:LA5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="KE5:KP5"/>
+    <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JS5:KD5"/>
+    <mergeCell ref="JG5:JR5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="AA5:AL5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BJ5"/>
+    <mergeCell ref="BK5:BV5"/>
+    <mergeCell ref="DS5:ED5"/>
+    <mergeCell ref="KQ5:LB5"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="GY5:HJ5"/>
     <mergeCell ref="HK5:HV5"/>
@@ -77659,21 +77916,6 @@
     <mergeCell ref="CI5:CT5"/>
     <mergeCell ref="CU5:DF5"/>
     <mergeCell ref="DG5:DR5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="KE5:KP5"/>
-    <mergeCell ref="IU5:JF5"/>
-    <mergeCell ref="JS5:KD5"/>
-    <mergeCell ref="JG5:JR5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="AA5:AL5"/>
-    <mergeCell ref="AM5:AX5"/>
-    <mergeCell ref="AY5:BJ5"/>
-    <mergeCell ref="BK5:BV5"/>
-    <mergeCell ref="DS5:ED5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD52371-108D-4CD0-86B7-8A66D3246F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E920D04-09AA-4730-A7A3-BF82A9FC02E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -157,7 +157,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998 - diciembre 2023</t>
+    <t>Enero 1998 - enero 2024</t>
   </si>
 </sst>
 </file>
@@ -851,7 +851,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
@@ -924,9 +924,6 @@
     <xf numFmtId="3" fontId="19" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="20" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -984,12 +981,6 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1001,6 +992,30 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1323,11 +1338,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LC89"/>
+  <dimension ref="A1:LD89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="KQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KY94" sqref="KY94"/>
+      <pane xSplit="2" topLeftCell="KS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="LC87" sqref="LC87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1464,407 +1479,410 @@
     <col min="302" max="302" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="303" max="307" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="308" max="310" width="9.109375" style="1" customWidth="1"/>
-    <col min="311" max="313" width="11.21875" style="1" customWidth="1"/>
-    <col min="314" max="314" width="11.44140625" style="1" customWidth="1"/>
-    <col min="315" max="16384" width="11.33203125" style="1"/>
+    <col min="311" max="314" width="11.21875" style="1" customWidth="1"/>
+    <col min="315" max="315" width="11.44140625" style="1" customWidth="1"/>
+    <col min="316" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:314" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:315" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:314" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:315" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
     </row>
-    <row r="3" spans="1:314" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:315" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:314" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:315" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="47">
         <v>1998</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="44">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="47">
         <v>1999</v>
       </c>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="44">
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="47">
         <v>2000</v>
       </c>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="44">
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="47">
         <v>2001</v>
       </c>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="44">
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="47">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="45"/>
-      <c r="BF5" s="45"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="46"/>
-      <c r="BK5" s="44">
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="49"/>
+      <c r="BK5" s="47">
         <v>2003</v>
       </c>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="45"/>
-      <c r="BO5" s="45"/>
-      <c r="BP5" s="45"/>
-      <c r="BQ5" s="45"/>
-      <c r="BR5" s="45"/>
-      <c r="BS5" s="45"/>
-      <c r="BT5" s="45"/>
-      <c r="BU5" s="45"/>
-      <c r="BV5" s="46"/>
-      <c r="BW5" s="44">
+      <c r="BL5" s="48"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="48"/>
+      <c r="BO5" s="48"/>
+      <c r="BP5" s="48"/>
+      <c r="BQ5" s="48"/>
+      <c r="BR5" s="48"/>
+      <c r="BS5" s="48"/>
+      <c r="BT5" s="48"/>
+      <c r="BU5" s="48"/>
+      <c r="BV5" s="49"/>
+      <c r="BW5" s="47">
         <v>2004</v>
       </c>
-      <c r="BX5" s="45"/>
-      <c r="BY5" s="45"/>
-      <c r="BZ5" s="45"/>
-      <c r="CA5" s="45"/>
-      <c r="CB5" s="45"/>
-      <c r="CC5" s="45"/>
-      <c r="CD5" s="45"/>
-      <c r="CE5" s="45"/>
-      <c r="CF5" s="45"/>
-      <c r="CG5" s="45"/>
-      <c r="CH5" s="46"/>
-      <c r="CI5" s="44">
+      <c r="BX5" s="48"/>
+      <c r="BY5" s="48"/>
+      <c r="BZ5" s="48"/>
+      <c r="CA5" s="48"/>
+      <c r="CB5" s="48"/>
+      <c r="CC5" s="48"/>
+      <c r="CD5" s="48"/>
+      <c r="CE5" s="48"/>
+      <c r="CF5" s="48"/>
+      <c r="CG5" s="48"/>
+      <c r="CH5" s="49"/>
+      <c r="CI5" s="47">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="45"/>
-      <c r="CK5" s="45"/>
-      <c r="CL5" s="45"/>
-      <c r="CM5" s="45"/>
-      <c r="CN5" s="45"/>
-      <c r="CO5" s="45"/>
-      <c r="CP5" s="45"/>
-      <c r="CQ5" s="45"/>
-      <c r="CR5" s="45"/>
-      <c r="CS5" s="45"/>
-      <c r="CT5" s="46"/>
-      <c r="CU5" s="44">
+      <c r="CJ5" s="48"/>
+      <c r="CK5" s="48"/>
+      <c r="CL5" s="48"/>
+      <c r="CM5" s="48"/>
+      <c r="CN5" s="48"/>
+      <c r="CO5" s="48"/>
+      <c r="CP5" s="48"/>
+      <c r="CQ5" s="48"/>
+      <c r="CR5" s="48"/>
+      <c r="CS5" s="48"/>
+      <c r="CT5" s="49"/>
+      <c r="CU5" s="47">
         <v>2006</v>
       </c>
-      <c r="CV5" s="45"/>
-      <c r="CW5" s="45"/>
-      <c r="CX5" s="45"/>
-      <c r="CY5" s="45"/>
-      <c r="CZ5" s="45"/>
-      <c r="DA5" s="45"/>
-      <c r="DB5" s="45"/>
-      <c r="DC5" s="45"/>
-      <c r="DD5" s="45"/>
-      <c r="DE5" s="45"/>
-      <c r="DF5" s="46"/>
-      <c r="DG5" s="44">
+      <c r="CV5" s="48"/>
+      <c r="CW5" s="48"/>
+      <c r="CX5" s="48"/>
+      <c r="CY5" s="48"/>
+      <c r="CZ5" s="48"/>
+      <c r="DA5" s="48"/>
+      <c r="DB5" s="48"/>
+      <c r="DC5" s="48"/>
+      <c r="DD5" s="48"/>
+      <c r="DE5" s="48"/>
+      <c r="DF5" s="49"/>
+      <c r="DG5" s="47">
         <v>2007</v>
       </c>
-      <c r="DH5" s="45"/>
-      <c r="DI5" s="45"/>
-      <c r="DJ5" s="45"/>
-      <c r="DK5" s="45"/>
-      <c r="DL5" s="45"/>
-      <c r="DM5" s="45"/>
-      <c r="DN5" s="45"/>
-      <c r="DO5" s="45"/>
-      <c r="DP5" s="45"/>
-      <c r="DQ5" s="45"/>
-      <c r="DR5" s="46"/>
-      <c r="DS5" s="44">
+      <c r="DH5" s="48"/>
+      <c r="DI5" s="48"/>
+      <c r="DJ5" s="48"/>
+      <c r="DK5" s="48"/>
+      <c r="DL5" s="48"/>
+      <c r="DM5" s="48"/>
+      <c r="DN5" s="48"/>
+      <c r="DO5" s="48"/>
+      <c r="DP5" s="48"/>
+      <c r="DQ5" s="48"/>
+      <c r="DR5" s="49"/>
+      <c r="DS5" s="47">
         <v>2008</v>
       </c>
-      <c r="DT5" s="45"/>
-      <c r="DU5" s="45"/>
-      <c r="DV5" s="45"/>
-      <c r="DW5" s="45"/>
-      <c r="DX5" s="45"/>
-      <c r="DY5" s="45"/>
-      <c r="DZ5" s="45"/>
-      <c r="EA5" s="45"/>
-      <c r="EB5" s="45"/>
-      <c r="EC5" s="45"/>
-      <c r="ED5" s="46"/>
-      <c r="EE5" s="44">
+      <c r="DT5" s="48"/>
+      <c r="DU5" s="48"/>
+      <c r="DV5" s="48"/>
+      <c r="DW5" s="48"/>
+      <c r="DX5" s="48"/>
+      <c r="DY5" s="48"/>
+      <c r="DZ5" s="48"/>
+      <c r="EA5" s="48"/>
+      <c r="EB5" s="48"/>
+      <c r="EC5" s="48"/>
+      <c r="ED5" s="49"/>
+      <c r="EE5" s="47">
         <v>2009</v>
       </c>
-      <c r="EF5" s="45"/>
-      <c r="EG5" s="45"/>
-      <c r="EH5" s="45"/>
-      <c r="EI5" s="45"/>
-      <c r="EJ5" s="45"/>
-      <c r="EK5" s="45"/>
-      <c r="EL5" s="45"/>
-      <c r="EM5" s="45"/>
-      <c r="EN5" s="45"/>
-      <c r="EO5" s="45"/>
-      <c r="EP5" s="46"/>
-      <c r="EQ5" s="44">
+      <c r="EF5" s="48"/>
+      <c r="EG5" s="48"/>
+      <c r="EH5" s="48"/>
+      <c r="EI5" s="48"/>
+      <c r="EJ5" s="48"/>
+      <c r="EK5" s="48"/>
+      <c r="EL5" s="48"/>
+      <c r="EM5" s="48"/>
+      <c r="EN5" s="48"/>
+      <c r="EO5" s="48"/>
+      <c r="EP5" s="49"/>
+      <c r="EQ5" s="47">
         <v>2010</v>
       </c>
-      <c r="ER5" s="45"/>
-      <c r="ES5" s="45"/>
-      <c r="ET5" s="45"/>
-      <c r="EU5" s="45"/>
-      <c r="EV5" s="45"/>
-      <c r="EW5" s="45"/>
-      <c r="EX5" s="45"/>
-      <c r="EY5" s="45"/>
-      <c r="EZ5" s="45"/>
-      <c r="FA5" s="45"/>
-      <c r="FB5" s="46"/>
-      <c r="FC5" s="44">
+      <c r="ER5" s="48"/>
+      <c r="ES5" s="48"/>
+      <c r="ET5" s="48"/>
+      <c r="EU5" s="48"/>
+      <c r="EV5" s="48"/>
+      <c r="EW5" s="48"/>
+      <c r="EX5" s="48"/>
+      <c r="EY5" s="48"/>
+      <c r="EZ5" s="48"/>
+      <c r="FA5" s="48"/>
+      <c r="FB5" s="49"/>
+      <c r="FC5" s="47">
         <v>2011</v>
       </c>
-      <c r="FD5" s="45"/>
-      <c r="FE5" s="45"/>
-      <c r="FF5" s="45"/>
-      <c r="FG5" s="45"/>
-      <c r="FH5" s="45"/>
-      <c r="FI5" s="45"/>
-      <c r="FJ5" s="45"/>
-      <c r="FK5" s="45"/>
-      <c r="FL5" s="45"/>
-      <c r="FM5" s="45"/>
-      <c r="FN5" s="46"/>
-      <c r="FO5" s="44">
+      <c r="FD5" s="48"/>
+      <c r="FE5" s="48"/>
+      <c r="FF5" s="48"/>
+      <c r="FG5" s="48"/>
+      <c r="FH5" s="48"/>
+      <c r="FI5" s="48"/>
+      <c r="FJ5" s="48"/>
+      <c r="FK5" s="48"/>
+      <c r="FL5" s="48"/>
+      <c r="FM5" s="48"/>
+      <c r="FN5" s="49"/>
+      <c r="FO5" s="47">
         <v>2012</v>
       </c>
-      <c r="FP5" s="45"/>
-      <c r="FQ5" s="45"/>
-      <c r="FR5" s="45"/>
-      <c r="FS5" s="45"/>
-      <c r="FT5" s="45"/>
-      <c r="FU5" s="45"/>
-      <c r="FV5" s="45"/>
-      <c r="FW5" s="45"/>
-      <c r="FX5" s="45"/>
-      <c r="FY5" s="45"/>
-      <c r="FZ5" s="46"/>
-      <c r="GA5" s="44">
+      <c r="FP5" s="48"/>
+      <c r="FQ5" s="48"/>
+      <c r="FR5" s="48"/>
+      <c r="FS5" s="48"/>
+      <c r="FT5" s="48"/>
+      <c r="FU5" s="48"/>
+      <c r="FV5" s="48"/>
+      <c r="FW5" s="48"/>
+      <c r="FX5" s="48"/>
+      <c r="FY5" s="48"/>
+      <c r="FZ5" s="49"/>
+      <c r="GA5" s="47">
         <v>2013</v>
       </c>
-      <c r="GB5" s="45"/>
-      <c r="GC5" s="45"/>
-      <c r="GD5" s="45"/>
-      <c r="GE5" s="45"/>
-      <c r="GF5" s="45"/>
-      <c r="GG5" s="45"/>
-      <c r="GH5" s="45"/>
-      <c r="GI5" s="45"/>
-      <c r="GJ5" s="45"/>
-      <c r="GK5" s="45"/>
-      <c r="GL5" s="46"/>
-      <c r="GM5" s="44">
+      <c r="GB5" s="48"/>
+      <c r="GC5" s="48"/>
+      <c r="GD5" s="48"/>
+      <c r="GE5" s="48"/>
+      <c r="GF5" s="48"/>
+      <c r="GG5" s="48"/>
+      <c r="GH5" s="48"/>
+      <c r="GI5" s="48"/>
+      <c r="GJ5" s="48"/>
+      <c r="GK5" s="48"/>
+      <c r="GL5" s="49"/>
+      <c r="GM5" s="47">
         <v>2014</v>
       </c>
-      <c r="GN5" s="45"/>
-      <c r="GO5" s="45"/>
-      <c r="GP5" s="45"/>
-      <c r="GQ5" s="45"/>
-      <c r="GR5" s="45"/>
-      <c r="GS5" s="45"/>
-      <c r="GT5" s="45"/>
-      <c r="GU5" s="45"/>
-      <c r="GV5" s="45"/>
-      <c r="GW5" s="45"/>
-      <c r="GX5" s="46"/>
-      <c r="GY5" s="44">
+      <c r="GN5" s="48"/>
+      <c r="GO5" s="48"/>
+      <c r="GP5" s="48"/>
+      <c r="GQ5" s="48"/>
+      <c r="GR5" s="48"/>
+      <c r="GS5" s="48"/>
+      <c r="GT5" s="48"/>
+      <c r="GU5" s="48"/>
+      <c r="GV5" s="48"/>
+      <c r="GW5" s="48"/>
+      <c r="GX5" s="49"/>
+      <c r="GY5" s="47">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="45"/>
-      <c r="HA5" s="45"/>
-      <c r="HB5" s="45"/>
-      <c r="HC5" s="45"/>
-      <c r="HD5" s="45"/>
-      <c r="HE5" s="45"/>
-      <c r="HF5" s="45"/>
-      <c r="HG5" s="45"/>
-      <c r="HH5" s="45"/>
-      <c r="HI5" s="45"/>
-      <c r="HJ5" s="46"/>
-      <c r="HK5" s="44">
+      <c r="GZ5" s="48"/>
+      <c r="HA5" s="48"/>
+      <c r="HB5" s="48"/>
+      <c r="HC5" s="48"/>
+      <c r="HD5" s="48"/>
+      <c r="HE5" s="48"/>
+      <c r="HF5" s="48"/>
+      <c r="HG5" s="48"/>
+      <c r="HH5" s="48"/>
+      <c r="HI5" s="48"/>
+      <c r="HJ5" s="49"/>
+      <c r="HK5" s="47">
         <v>2016</v>
       </c>
-      <c r="HL5" s="45"/>
-      <c r="HM5" s="45"/>
-      <c r="HN5" s="45"/>
-      <c r="HO5" s="45"/>
-      <c r="HP5" s="45"/>
-      <c r="HQ5" s="45"/>
-      <c r="HR5" s="45"/>
-      <c r="HS5" s="45"/>
-      <c r="HT5" s="45"/>
-      <c r="HU5" s="45"/>
-      <c r="HV5" s="46"/>
-      <c r="HW5" s="44">
+      <c r="HL5" s="48"/>
+      <c r="HM5" s="48"/>
+      <c r="HN5" s="48"/>
+      <c r="HO5" s="48"/>
+      <c r="HP5" s="48"/>
+      <c r="HQ5" s="48"/>
+      <c r="HR5" s="48"/>
+      <c r="HS5" s="48"/>
+      <c r="HT5" s="48"/>
+      <c r="HU5" s="48"/>
+      <c r="HV5" s="49"/>
+      <c r="HW5" s="47">
         <v>2017</v>
       </c>
-      <c r="HX5" s="45"/>
-      <c r="HY5" s="45"/>
-      <c r="HZ5" s="45"/>
-      <c r="IA5" s="45"/>
-      <c r="IB5" s="45"/>
-      <c r="IC5" s="45"/>
-      <c r="ID5" s="45"/>
-      <c r="IE5" s="45"/>
-      <c r="IF5" s="45"/>
-      <c r="IG5" s="45"/>
-      <c r="IH5" s="46"/>
-      <c r="II5" s="44">
+      <c r="HX5" s="48"/>
+      <c r="HY5" s="48"/>
+      <c r="HZ5" s="48"/>
+      <c r="IA5" s="48"/>
+      <c r="IB5" s="48"/>
+      <c r="IC5" s="48"/>
+      <c r="ID5" s="48"/>
+      <c r="IE5" s="48"/>
+      <c r="IF5" s="48"/>
+      <c r="IG5" s="48"/>
+      <c r="IH5" s="49"/>
+      <c r="II5" s="47">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="45"/>
-      <c r="IK5" s="45"/>
-      <c r="IL5" s="45"/>
-      <c r="IM5" s="45"/>
-      <c r="IN5" s="45"/>
-      <c r="IO5" s="45"/>
-      <c r="IP5" s="45"/>
-      <c r="IQ5" s="45"/>
-      <c r="IR5" s="45"/>
-      <c r="IS5" s="45"/>
-      <c r="IT5" s="46"/>
-      <c r="IU5" s="44">
+      <c r="IJ5" s="48"/>
+      <c r="IK5" s="48"/>
+      <c r="IL5" s="48"/>
+      <c r="IM5" s="48"/>
+      <c r="IN5" s="48"/>
+      <c r="IO5" s="48"/>
+      <c r="IP5" s="48"/>
+      <c r="IQ5" s="48"/>
+      <c r="IR5" s="48"/>
+      <c r="IS5" s="48"/>
+      <c r="IT5" s="49"/>
+      <c r="IU5" s="47">
         <v>2019</v>
       </c>
-      <c r="IV5" s="45"/>
-      <c r="IW5" s="45"/>
-      <c r="IX5" s="45"/>
-      <c r="IY5" s="45"/>
-      <c r="IZ5" s="45"/>
-      <c r="JA5" s="45"/>
-      <c r="JB5" s="45"/>
-      <c r="JC5" s="45"/>
-      <c r="JD5" s="45"/>
-      <c r="JE5" s="45"/>
-      <c r="JF5" s="46"/>
-      <c r="JG5" s="44">
+      <c r="IV5" s="48"/>
+      <c r="IW5" s="48"/>
+      <c r="IX5" s="48"/>
+      <c r="IY5" s="48"/>
+      <c r="IZ5" s="48"/>
+      <c r="JA5" s="48"/>
+      <c r="JB5" s="48"/>
+      <c r="JC5" s="48"/>
+      <c r="JD5" s="48"/>
+      <c r="JE5" s="48"/>
+      <c r="JF5" s="49"/>
+      <c r="JG5" s="47">
         <v>2020</v>
       </c>
-      <c r="JH5" s="45"/>
-      <c r="JI5" s="45"/>
-      <c r="JJ5" s="45"/>
-      <c r="JK5" s="45"/>
-      <c r="JL5" s="45"/>
-      <c r="JM5" s="45"/>
-      <c r="JN5" s="45"/>
-      <c r="JO5" s="45"/>
-      <c r="JP5" s="45"/>
-      <c r="JQ5" s="45"/>
-      <c r="JR5" s="46"/>
-      <c r="JS5" s="44">
+      <c r="JH5" s="48"/>
+      <c r="JI5" s="48"/>
+      <c r="JJ5" s="48"/>
+      <c r="JK5" s="48"/>
+      <c r="JL5" s="48"/>
+      <c r="JM5" s="48"/>
+      <c r="JN5" s="48"/>
+      <c r="JO5" s="48"/>
+      <c r="JP5" s="48"/>
+      <c r="JQ5" s="48"/>
+      <c r="JR5" s="49"/>
+      <c r="JS5" s="47">
         <v>2021</v>
       </c>
-      <c r="JT5" s="45"/>
-      <c r="JU5" s="45"/>
-      <c r="JV5" s="45"/>
-      <c r="JW5" s="45"/>
-      <c r="JX5" s="45"/>
-      <c r="JY5" s="45"/>
-      <c r="JZ5" s="45"/>
-      <c r="KA5" s="45"/>
-      <c r="KB5" s="45"/>
-      <c r="KC5" s="45"/>
-      <c r="KD5" s="45"/>
-      <c r="KE5" s="44">
+      <c r="JT5" s="48"/>
+      <c r="JU5" s="48"/>
+      <c r="JV5" s="48"/>
+      <c r="JW5" s="48"/>
+      <c r="JX5" s="48"/>
+      <c r="JY5" s="48"/>
+      <c r="JZ5" s="48"/>
+      <c r="KA5" s="48"/>
+      <c r="KB5" s="48"/>
+      <c r="KC5" s="48"/>
+      <c r="KD5" s="48"/>
+      <c r="KE5" s="47">
         <v>2022</v>
       </c>
-      <c r="KF5" s="45"/>
-      <c r="KG5" s="45"/>
-      <c r="KH5" s="45"/>
-      <c r="KI5" s="45"/>
-      <c r="KJ5" s="45"/>
-      <c r="KK5" s="45"/>
-      <c r="KL5" s="45"/>
-      <c r="KM5" s="45"/>
-      <c r="KN5" s="45"/>
-      <c r="KO5" s="45"/>
-      <c r="KP5" s="46"/>
-      <c r="KQ5" s="44">
+      <c r="KF5" s="48"/>
+      <c r="KG5" s="48"/>
+      <c r="KH5" s="48"/>
+      <c r="KI5" s="48"/>
+      <c r="KJ5" s="48"/>
+      <c r="KK5" s="48"/>
+      <c r="KL5" s="48"/>
+      <c r="KM5" s="48"/>
+      <c r="KN5" s="48"/>
+      <c r="KO5" s="48"/>
+      <c r="KP5" s="49"/>
+      <c r="KQ5" s="47">
         <v>2023</v>
       </c>
-      <c r="KR5" s="45"/>
-      <c r="KS5" s="45"/>
-      <c r="KT5" s="45"/>
-      <c r="KU5" s="45"/>
-      <c r="KV5" s="45"/>
-      <c r="KW5" s="45"/>
-      <c r="KX5" s="45"/>
-      <c r="KY5" s="45"/>
-      <c r="KZ5" s="45"/>
-      <c r="LA5" s="45"/>
-      <c r="LB5" s="46"/>
+      <c r="KR5" s="48"/>
+      <c r="KS5" s="48"/>
+      <c r="KT5" s="48"/>
+      <c r="KU5" s="48"/>
+      <c r="KV5" s="48"/>
+      <c r="KW5" s="48"/>
+      <c r="KX5" s="48"/>
+      <c r="KY5" s="48"/>
+      <c r="KZ5" s="48"/>
+      <c r="LA5" s="48"/>
+      <c r="LB5" s="49"/>
+      <c r="LC5" s="43">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="6" spans="1:314" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
+    <row r="6" spans="1:315" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2765,44 +2783,47 @@
       <c r="KP6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="KQ6" s="41" t="s">
+      <c r="KQ6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="KR6" s="42" t="s">
+      <c r="KR6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="KS6" s="42" t="s">
+      <c r="KS6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="KT6" s="42" t="s">
+      <c r="KT6" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="KU6" s="42" t="s">
+      <c r="KU6" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="KV6" s="42" t="s">
+      <c r="KV6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="KW6" s="42" t="s">
+      <c r="KW6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="KX6" s="42" t="s">
+      <c r="KX6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="KY6" s="42" t="s">
+      <c r="KY6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="KZ6" s="42" t="s">
+      <c r="KZ6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="LA6" s="42" t="s">
+      <c r="LA6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="LB6" s="43" t="s">
+      <c r="LB6" s="42" t="s">
         <v>19</v>
       </c>
+      <c r="LC6" s="42" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:314" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:315" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3673,80 +3694,83 @@
       <c r="KD7" s="8">
         <v>116251</v>
       </c>
-      <c r="KE7" s="29">
+      <c r="KE7" s="28">
         <v>121583</v>
       </c>
-      <c r="KF7" s="37">
+      <c r="KF7" s="36">
         <v>123302</v>
       </c>
-      <c r="KG7" s="37">
+      <c r="KG7" s="36">
         <v>124917</v>
       </c>
-      <c r="KH7" s="37">
+      <c r="KH7" s="36">
         <v>120707</v>
       </c>
-      <c r="KI7" s="37">
+      <c r="KI7" s="36">
         <v>116527</v>
       </c>
-      <c r="KJ7" s="37">
+      <c r="KJ7" s="36">
         <v>114765</v>
       </c>
-      <c r="KK7" s="37">
+      <c r="KK7" s="36">
         <v>112865</v>
       </c>
-      <c r="KL7" s="37">
+      <c r="KL7" s="36">
         <v>115219</v>
       </c>
-      <c r="KM7" s="37">
+      <c r="KM7" s="36">
         <v>119089</v>
       </c>
-      <c r="KN7" s="37">
+      <c r="KN7" s="36">
         <v>121255</v>
       </c>
-      <c r="KO7" s="37">
+      <c r="KO7" s="36">
         <v>120917</v>
       </c>
-      <c r="KP7" s="37">
+      <c r="KP7" s="36">
         <v>118708</v>
       </c>
-      <c r="KQ7" s="29">
+      <c r="KQ7" s="28">
         <v>125411</v>
       </c>
-      <c r="KR7" s="37">
+      <c r="KR7" s="50">
         <v>126199</v>
       </c>
-      <c r="KS7" s="37">
+      <c r="KS7" s="50">
         <v>126571</v>
       </c>
-      <c r="KT7" s="37">
+      <c r="KT7" s="50">
         <v>123159</v>
       </c>
-      <c r="KU7" s="37">
+      <c r="KU7" s="50">
         <v>120101</v>
       </c>
-      <c r="KV7" s="37">
+      <c r="KV7" s="50">
         <v>118854</v>
       </c>
-      <c r="KW7" s="37">
+      <c r="KW7" s="50">
         <v>116264</v>
       </c>
-      <c r="KX7" s="37">
+      <c r="KX7" s="50">
         <v>116045</v>
       </c>
-      <c r="KY7" s="37">
+      <c r="KY7" s="50">
         <v>118223</v>
       </c>
-      <c r="KZ7" s="37">
+      <c r="KZ7" s="50">
         <v>120205</v>
       </c>
-      <c r="LA7" s="37">
+      <c r="LA7" s="50">
         <v>121905</v>
       </c>
-      <c r="LB7" s="30">
+      <c r="LB7" s="29">
         <v>118874</v>
       </c>
+      <c r="LC7" s="29">
+        <v>122319</v>
+      </c>
     </row>
-    <row r="8" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4654,41 +4678,44 @@
       <c r="KQ8" s="2">
         <v>24223</v>
       </c>
-      <c r="KR8" s="3">
+      <c r="KR8" s="51">
         <v>24493</v>
       </c>
-      <c r="KS8" s="3">
+      <c r="KS8" s="51">
         <v>24607</v>
       </c>
-      <c r="KT8" s="3">
+      <c r="KT8" s="51">
         <v>24157</v>
       </c>
-      <c r="KU8" s="3">
+      <c r="KU8" s="51">
         <v>23731</v>
       </c>
-      <c r="KV8" s="3">
+      <c r="KV8" s="51">
         <v>23665</v>
       </c>
-      <c r="KW8" s="3">
+      <c r="KW8" s="51">
         <v>23024</v>
       </c>
-      <c r="KX8" s="3">
+      <c r="KX8" s="51">
         <v>23633</v>
       </c>
-      <c r="KY8" s="3">
+      <c r="KY8" s="51">
         <v>23962</v>
       </c>
-      <c r="KZ8" s="3">
+      <c r="KZ8" s="51">
         <v>24169</v>
       </c>
-      <c r="LA8" s="3">
+      <c r="LA8" s="51">
         <v>24543</v>
       </c>
       <c r="LB8" s="4">
         <v>24669</v>
       </c>
+      <c r="LC8" s="4">
+        <v>25180</v>
+      </c>
     </row>
-    <row r="9" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5596,41 +5623,44 @@
       <c r="KQ9" s="2">
         <v>5773</v>
       </c>
-      <c r="KR9" s="3">
+      <c r="KR9" s="51">
         <v>5833</v>
       </c>
-      <c r="KS9" s="3">
+      <c r="KS9" s="51">
         <v>5885</v>
       </c>
-      <c r="KT9" s="3">
+      <c r="KT9" s="51">
         <v>5489</v>
       </c>
-      <c r="KU9" s="3">
+      <c r="KU9" s="51">
         <v>5267</v>
       </c>
-      <c r="KV9" s="3">
+      <c r="KV9" s="51">
         <v>5325</v>
       </c>
-      <c r="KW9" s="3">
+      <c r="KW9" s="51">
         <v>5144</v>
       </c>
-      <c r="KX9" s="3">
+      <c r="KX9" s="51">
         <v>4942</v>
       </c>
-      <c r="KY9" s="3">
+      <c r="KY9" s="51">
         <v>5066</v>
       </c>
-      <c r="KZ9" s="3">
+      <c r="KZ9" s="51">
         <v>5228</v>
       </c>
-      <c r="LA9" s="3">
+      <c r="LA9" s="51">
         <v>5275</v>
       </c>
       <c r="LB9" s="4">
         <v>4774</v>
       </c>
+      <c r="LC9" s="4">
+        <v>5169</v>
+      </c>
     </row>
-    <row r="10" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6538,41 +6568,44 @@
       <c r="KQ10" s="2">
         <v>19266</v>
       </c>
-      <c r="KR10" s="3">
+      <c r="KR10" s="51">
         <v>19304</v>
       </c>
-      <c r="KS10" s="3">
+      <c r="KS10" s="51">
         <v>19196</v>
       </c>
-      <c r="KT10" s="3">
+      <c r="KT10" s="51">
         <v>18580</v>
       </c>
-      <c r="KU10" s="3">
+      <c r="KU10" s="51">
         <v>17937</v>
       </c>
-      <c r="KV10" s="3">
+      <c r="KV10" s="51">
         <v>17708</v>
       </c>
-      <c r="KW10" s="3">
+      <c r="KW10" s="51">
         <v>17140</v>
       </c>
-      <c r="KX10" s="3">
+      <c r="KX10" s="51">
         <v>16686</v>
       </c>
-      <c r="KY10" s="3">
+      <c r="KY10" s="51">
         <v>17215</v>
       </c>
-      <c r="KZ10" s="3">
+      <c r="KZ10" s="51">
         <v>17708</v>
       </c>
-      <c r="LA10" s="3">
+      <c r="LA10" s="51">
         <v>18000</v>
       </c>
       <c r="LB10" s="4">
         <v>16916</v>
       </c>
+      <c r="LC10" s="4">
+        <v>17504</v>
+      </c>
     </row>
-    <row r="11" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7480,41 +7513,44 @@
       <c r="KQ11" s="2">
         <v>19218</v>
       </c>
-      <c r="KR11" s="3">
+      <c r="KR11" s="51">
         <v>19228</v>
       </c>
-      <c r="KS11" s="3">
+      <c r="KS11" s="51">
         <v>19251</v>
       </c>
-      <c r="KT11" s="3">
+      <c r="KT11" s="51">
         <v>18618</v>
       </c>
-      <c r="KU11" s="3">
+      <c r="KU11" s="51">
         <v>18113</v>
       </c>
-      <c r="KV11" s="3">
+      <c r="KV11" s="51">
         <v>17734</v>
       </c>
-      <c r="KW11" s="3">
+      <c r="KW11" s="51">
         <v>17310</v>
       </c>
-      <c r="KX11" s="3">
+      <c r="KX11" s="51">
         <v>17043</v>
       </c>
-      <c r="KY11" s="3">
+      <c r="KY11" s="51">
         <v>17493</v>
       </c>
-      <c r="KZ11" s="3">
+      <c r="KZ11" s="51">
         <v>17806</v>
       </c>
-      <c r="LA11" s="3">
+      <c r="LA11" s="51">
         <v>18098</v>
       </c>
       <c r="LB11" s="4">
         <v>17550</v>
       </c>
+      <c r="LC11" s="4">
+        <v>17873</v>
+      </c>
     </row>
-    <row r="12" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -8422,41 +8458,44 @@
       <c r="KQ12" s="2">
         <v>17134</v>
       </c>
-      <c r="KR12" s="3">
+      <c r="KR12" s="51">
         <v>17249</v>
       </c>
-      <c r="KS12" s="3">
+      <c r="KS12" s="51">
         <v>17274</v>
       </c>
-      <c r="KT12" s="3">
+      <c r="KT12" s="51">
         <v>16841</v>
       </c>
-      <c r="KU12" s="3">
+      <c r="KU12" s="51">
         <v>16561</v>
       </c>
-      <c r="KV12" s="3">
+      <c r="KV12" s="51">
         <v>16341</v>
       </c>
-      <c r="KW12" s="3">
+      <c r="KW12" s="51">
         <v>16051</v>
       </c>
-      <c r="KX12" s="3">
+      <c r="KX12" s="51">
         <v>16007</v>
       </c>
-      <c r="KY12" s="3">
+      <c r="KY12" s="51">
         <v>16312</v>
       </c>
-      <c r="KZ12" s="3">
+      <c r="KZ12" s="51">
         <v>16527</v>
       </c>
-      <c r="LA12" s="3">
+      <c r="LA12" s="51">
         <v>16698</v>
       </c>
       <c r="LB12" s="4">
         <v>16175</v>
       </c>
+      <c r="LC12" s="4">
+        <v>16929</v>
+      </c>
     </row>
-    <row r="13" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
@@ -9364,41 +9403,44 @@
       <c r="KQ13" s="2">
         <v>14794</v>
       </c>
-      <c r="KR13" s="3">
+      <c r="KR13" s="51">
         <v>14795</v>
       </c>
-      <c r="KS13" s="3">
+      <c r="KS13" s="51">
         <v>14872</v>
       </c>
-      <c r="KT13" s="3">
+      <c r="KT13" s="51">
         <v>14608</v>
       </c>
-      <c r="KU13" s="3">
+      <c r="KU13" s="51">
         <v>14285</v>
       </c>
-      <c r="KV13" s="3">
+      <c r="KV13" s="51">
         <v>14105</v>
       </c>
-      <c r="KW13" s="3">
+      <c r="KW13" s="51">
         <v>13941</v>
       </c>
-      <c r="KX13" s="3">
+      <c r="KX13" s="51">
         <v>13937</v>
       </c>
-      <c r="KY13" s="3">
+      <c r="KY13" s="51">
         <v>14185</v>
       </c>
-      <c r="KZ13" s="3">
+      <c r="KZ13" s="51">
         <v>14470</v>
       </c>
-      <c r="LA13" s="3">
+      <c r="LA13" s="51">
         <v>14629</v>
       </c>
       <c r="LB13" s="4">
         <v>14390</v>
       </c>
+      <c r="LC13" s="4">
+        <v>14750</v>
+      </c>
     </row>
-    <row r="14" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
@@ -10306,41 +10348,44 @@
       <c r="KQ14" s="2">
         <v>12928</v>
       </c>
-      <c r="KR14" s="3">
+      <c r="KR14" s="51">
         <v>13108</v>
       </c>
-      <c r="KS14" s="3">
+      <c r="KS14" s="51">
         <v>13228</v>
       </c>
-      <c r="KT14" s="3">
+      <c r="KT14" s="51">
         <v>12951</v>
       </c>
-      <c r="KU14" s="3">
+      <c r="KU14" s="51">
         <v>12625</v>
       </c>
-      <c r="KV14" s="3">
+      <c r="KV14" s="51">
         <v>12468</v>
       </c>
-      <c r="KW14" s="3">
+      <c r="KW14" s="51">
         <v>12282</v>
       </c>
-      <c r="KX14" s="3">
+      <c r="KX14" s="51">
         <v>12253</v>
       </c>
-      <c r="KY14" s="3">
+      <c r="KY14" s="51">
         <v>12420</v>
       </c>
-      <c r="KZ14" s="3">
+      <c r="KZ14" s="51">
         <v>12610</v>
       </c>
-      <c r="LA14" s="3">
+      <c r="LA14" s="51">
         <v>12830</v>
       </c>
       <c r="LB14" s="4">
         <v>12672</v>
       </c>
+      <c r="LC14" s="4">
+        <v>12961</v>
+      </c>
     </row>
-    <row r="15" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -11248,41 +11293,44 @@
       <c r="KQ15" s="2">
         <v>12065</v>
       </c>
-      <c r="KR15" s="3">
+      <c r="KR15" s="51">
         <v>12178</v>
       </c>
-      <c r="KS15" s="3">
+      <c r="KS15" s="51">
         <v>12247</v>
       </c>
-      <c r="KT15" s="3">
+      <c r="KT15" s="51">
         <v>11906</v>
       </c>
-      <c r="KU15" s="3">
+      <c r="KU15" s="51">
         <v>11575</v>
       </c>
-      <c r="KV15" s="3">
+      <c r="KV15" s="51">
         <v>11502</v>
       </c>
-      <c r="KW15" s="3">
+      <c r="KW15" s="51">
         <v>11368</v>
       </c>
-      <c r="KX15" s="3">
+      <c r="KX15" s="51">
         <v>11538</v>
       </c>
-      <c r="KY15" s="3">
+      <c r="KY15" s="51">
         <v>11563</v>
       </c>
-      <c r="KZ15" s="3">
+      <c r="KZ15" s="51">
         <v>11681</v>
       </c>
-      <c r="LA15" s="3">
+      <c r="LA15" s="51">
         <v>11828</v>
       </c>
       <c r="LB15" s="4">
         <v>11723</v>
       </c>
+      <c r="LC15" s="4">
+        <v>11949</v>
+      </c>
     </row>
-    <row r="16" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="14" t="s">
         <v>33</v>
@@ -12151,80 +12199,83 @@
       <c r="KD16" s="3">
         <v>6</v>
       </c>
-      <c r="KE16" s="35">
+      <c r="KE16" s="34">
         <v>7</v>
       </c>
-      <c r="KF16" s="38">
+      <c r="KF16" s="37">
         <v>8</v>
       </c>
-      <c r="KG16" s="38">
+      <c r="KG16" s="37">
         <v>8</v>
       </c>
-      <c r="KH16" s="38">
+      <c r="KH16" s="37">
         <v>10</v>
       </c>
-      <c r="KI16" s="38">
+      <c r="KI16" s="37">
         <v>13</v>
       </c>
-      <c r="KJ16" s="38">
+      <c r="KJ16" s="37">
         <v>14</v>
       </c>
-      <c r="KK16" s="38">
+      <c r="KK16" s="37">
         <v>9</v>
       </c>
-      <c r="KL16" s="38">
+      <c r="KL16" s="37">
         <v>7</v>
       </c>
-      <c r="KM16" s="38">
+      <c r="KM16" s="37">
         <v>9</v>
       </c>
-      <c r="KN16" s="38">
+      <c r="KN16" s="37">
         <v>10</v>
       </c>
-      <c r="KO16" s="38">
+      <c r="KO16" s="37">
         <v>9</v>
       </c>
-      <c r="KP16" s="38">
+      <c r="KP16" s="37">
         <v>7</v>
       </c>
-      <c r="KQ16" s="35">
+      <c r="KQ16" s="34">
         <v>10</v>
       </c>
-      <c r="KR16" s="38">
+      <c r="KR16" s="37">
         <v>11</v>
       </c>
-      <c r="KS16" s="38">
+      <c r="KS16" s="37">
         <v>11</v>
       </c>
-      <c r="KT16" s="38">
+      <c r="KT16" s="37">
         <v>9</v>
       </c>
-      <c r="KU16" s="38">
+      <c r="KU16" s="37">
         <v>7</v>
       </c>
-      <c r="KV16" s="38">
+      <c r="KV16" s="37">
         <v>6</v>
       </c>
-      <c r="KW16" s="38">
+      <c r="KW16" s="37">
         <v>4</v>
       </c>
-      <c r="KX16" s="38">
+      <c r="KX16" s="37">
         <v>6</v>
       </c>
-      <c r="KY16" s="38">
+      <c r="KY16" s="37">
         <v>7</v>
       </c>
-      <c r="KZ16" s="38">
+      <c r="KZ16" s="37">
         <v>6</v>
       </c>
-      <c r="LA16" s="38">
+      <c r="LA16" s="37">
         <v>4</v>
       </c>
-      <c r="LB16" s="36">
+      <c r="LB16" s="35">
         <v>5</v>
       </c>
+      <c r="LC16" s="35">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -13095,80 +13146,83 @@
       <c r="KD17" s="8">
         <v>388949</v>
       </c>
-      <c r="KE17" s="29">
+      <c r="KE17" s="28">
         <v>388222</v>
       </c>
-      <c r="KF17" s="37">
+      <c r="KF17" s="36">
         <v>388746</v>
       </c>
-      <c r="KG17" s="37">
+      <c r="KG17" s="36">
         <v>389036</v>
       </c>
-      <c r="KH17" s="37">
+      <c r="KH17" s="36">
         <v>389372</v>
       </c>
-      <c r="KI17" s="37">
+      <c r="KI17" s="36">
         <v>390157</v>
       </c>
-      <c r="KJ17" s="37">
+      <c r="KJ17" s="36">
         <v>393243</v>
       </c>
-      <c r="KK17" s="37">
+      <c r="KK17" s="36">
         <v>392581</v>
       </c>
-      <c r="KL17" s="37">
+      <c r="KL17" s="36">
         <v>394460</v>
       </c>
-      <c r="KM17" s="37">
+      <c r="KM17" s="36">
         <v>397012</v>
       </c>
-      <c r="KN17" s="37">
+      <c r="KN17" s="36">
         <v>402868</v>
       </c>
-      <c r="KO17" s="37">
+      <c r="KO17" s="36">
         <v>403989</v>
       </c>
-      <c r="KP17" s="37">
+      <c r="KP17" s="36">
         <v>399607</v>
       </c>
-      <c r="KQ17" s="29">
+      <c r="KQ17" s="28">
         <v>397405</v>
       </c>
-      <c r="KR17" s="37">
+      <c r="KR17" s="50">
         <v>399812</v>
       </c>
-      <c r="KS17" s="37">
+      <c r="KS17" s="50">
         <v>402175</v>
       </c>
-      <c r="KT17" s="37">
+      <c r="KT17" s="50">
         <v>404779</v>
       </c>
-      <c r="KU17" s="37">
+      <c r="KU17" s="50">
         <v>405961</v>
       </c>
-      <c r="KV17" s="37">
+      <c r="KV17" s="50">
         <v>409197</v>
       </c>
-      <c r="KW17" s="37">
+      <c r="KW17" s="50">
         <v>411628</v>
       </c>
-      <c r="KX17" s="37">
+      <c r="KX17" s="50">
         <v>411107</v>
       </c>
-      <c r="KY17" s="37">
+      <c r="KY17" s="50">
         <v>412616</v>
       </c>
-      <c r="KZ17" s="37">
+      <c r="KZ17" s="50">
         <v>416253</v>
       </c>
-      <c r="LA17" s="37">
+      <c r="LA17" s="50">
         <v>421219</v>
       </c>
-      <c r="LB17" s="30">
+      <c r="LB17" s="29">
         <v>416183</v>
       </c>
+      <c r="LC17" s="29">
+        <v>416624</v>
+      </c>
     </row>
-    <row r="18" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
@@ -14076,41 +14130,44 @@
       <c r="KQ18" s="2">
         <v>63340</v>
       </c>
-      <c r="KR18" s="3">
+      <c r="KR18" s="51">
         <v>63907</v>
       </c>
-      <c r="KS18" s="3">
+      <c r="KS18" s="51">
         <v>64481</v>
       </c>
-      <c r="KT18" s="3">
+      <c r="KT18" s="51">
         <v>65019</v>
       </c>
-      <c r="KU18" s="3">
+      <c r="KU18" s="51">
         <v>65605</v>
       </c>
-      <c r="KV18" s="3">
+      <c r="KV18" s="51">
         <v>66510</v>
       </c>
-      <c r="KW18" s="3">
+      <c r="KW18" s="51">
         <v>67292</v>
       </c>
-      <c r="KX18" s="3">
+      <c r="KX18" s="51">
         <v>67618</v>
       </c>
-      <c r="KY18" s="3">
+      <c r="KY18" s="51">
         <v>67871</v>
       </c>
-      <c r="KZ18" s="3">
+      <c r="KZ18" s="51">
         <v>68678</v>
       </c>
-      <c r="LA18" s="3">
+      <c r="LA18" s="51">
         <v>69548</v>
       </c>
       <c r="LB18" s="4">
         <v>69543</v>
       </c>
+      <c r="LC18" s="4">
+        <v>70690</v>
+      </c>
     </row>
-    <row r="19" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
         <v>26</v>
@@ -15018,41 +15075,44 @@
       <c r="KQ19" s="2">
         <v>10445</v>
       </c>
-      <c r="KR19" s="3">
+      <c r="KR19" s="51">
         <v>10579</v>
       </c>
-      <c r="KS19" s="3">
+      <c r="KS19" s="51">
         <v>10754</v>
       </c>
-      <c r="KT19" s="3">
+      <c r="KT19" s="51">
         <v>10768</v>
       </c>
-      <c r="KU19" s="3">
+      <c r="KU19" s="51">
         <v>10742</v>
       </c>
-      <c r="KV19" s="3">
+      <c r="KV19" s="51">
         <v>11299</v>
       </c>
-      <c r="KW19" s="3">
+      <c r="KW19" s="51">
         <v>11529</v>
       </c>
-      <c r="KX19" s="3">
+      <c r="KX19" s="51">
         <v>11259</v>
       </c>
-      <c r="KY19" s="3">
+      <c r="KY19" s="51">
         <v>11292</v>
       </c>
-      <c r="KZ19" s="3">
+      <c r="KZ19" s="51">
         <v>11675</v>
       </c>
-      <c r="LA19" s="3">
+      <c r="LA19" s="51">
         <v>12050</v>
       </c>
       <c r="LB19" s="4">
         <v>11839</v>
       </c>
+      <c r="LC19" s="4">
+        <v>11189</v>
+      </c>
     </row>
-    <row r="20" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="14" t="s">
         <v>27</v>
@@ -15960,41 +16020,44 @@
       <c r="KQ20" s="2">
         <v>53792</v>
       </c>
-      <c r="KR20" s="3">
+      <c r="KR20" s="51">
         <v>54189</v>
       </c>
-      <c r="KS20" s="3">
+      <c r="KS20" s="51">
         <v>54414</v>
       </c>
-      <c r="KT20" s="3">
+      <c r="KT20" s="51">
         <v>54530</v>
       </c>
-      <c r="KU20" s="3">
+      <c r="KU20" s="51">
         <v>54709</v>
       </c>
-      <c r="KV20" s="3">
+      <c r="KV20" s="51">
         <v>55536</v>
       </c>
-      <c r="KW20" s="3">
+      <c r="KW20" s="51">
         <v>55753</v>
       </c>
-      <c r="KX20" s="3">
+      <c r="KX20" s="51">
         <v>55019</v>
       </c>
-      <c r="KY20" s="3">
+      <c r="KY20" s="51">
         <v>55262</v>
       </c>
-      <c r="KZ20" s="3">
+      <c r="KZ20" s="51">
         <v>56235</v>
       </c>
-      <c r="LA20" s="3">
+      <c r="LA20" s="51">
         <v>57405</v>
       </c>
       <c r="LB20" s="4">
         <v>56176</v>
       </c>
+      <c r="LC20" s="4">
+        <v>55141</v>
+      </c>
     </row>
-    <row r="21" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -16902,41 +16965,44 @@
       <c r="KQ21" s="2">
         <v>65090</v>
       </c>
-      <c r="KR21" s="3">
+      <c r="KR21" s="51">
         <v>65342</v>
       </c>
-      <c r="KS21" s="3">
+      <c r="KS21" s="51">
         <v>65776</v>
       </c>
-      <c r="KT21" s="3">
+      <c r="KT21" s="51">
         <v>66160</v>
       </c>
-      <c r="KU21" s="3">
+      <c r="KU21" s="51">
         <v>66416</v>
       </c>
-      <c r="KV21" s="3">
+      <c r="KV21" s="51">
         <v>66659</v>
       </c>
-      <c r="KW21" s="3">
+      <c r="KW21" s="51">
         <v>66993</v>
       </c>
-      <c r="KX21" s="3">
+      <c r="KX21" s="51">
         <v>67091</v>
       </c>
-      <c r="KY21" s="3">
+      <c r="KY21" s="51">
         <v>67337</v>
       </c>
-      <c r="KZ21" s="3">
+      <c r="KZ21" s="51">
         <v>67867</v>
       </c>
-      <c r="LA21" s="3">
+      <c r="LA21" s="51">
         <v>68466</v>
       </c>
       <c r="LB21" s="4">
         <v>67351</v>
       </c>
+      <c r="LC21" s="4">
+        <v>66891</v>
+      </c>
     </row>
-    <row r="22" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -17844,41 +17910,44 @@
       <c r="KQ22" s="2">
         <v>64192</v>
       </c>
-      <c r="KR22" s="3">
+      <c r="KR22" s="51">
         <v>64434</v>
       </c>
-      <c r="KS22" s="3">
+      <c r="KS22" s="51">
         <v>64570</v>
       </c>
-      <c r="KT22" s="3">
+      <c r="KT22" s="51">
         <v>64741</v>
       </c>
-      <c r="KU22" s="3">
+      <c r="KU22" s="51">
         <v>64798</v>
       </c>
-      <c r="KV22" s="3">
+      <c r="KV22" s="51">
         <v>64838</v>
       </c>
-      <c r="KW22" s="3">
+      <c r="KW22" s="51">
         <v>64923</v>
       </c>
-      <c r="KX22" s="3">
+      <c r="KX22" s="51">
         <v>64784</v>
       </c>
-      <c r="KY22" s="3">
+      <c r="KY22" s="51">
         <v>64995</v>
       </c>
-      <c r="KZ22" s="3">
+      <c r="KZ22" s="51">
         <v>65370</v>
       </c>
-      <c r="LA22" s="3">
+      <c r="LA22" s="51">
         <v>65777</v>
       </c>
       <c r="LB22" s="4">
         <v>64850</v>
       </c>
+      <c r="LC22" s="4">
+        <v>65395</v>
+      </c>
     </row>
-    <row r="23" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>30</v>
@@ -18786,41 +18855,44 @@
       <c r="KQ23" s="2">
         <v>55494</v>
       </c>
-      <c r="KR23" s="3">
+      <c r="KR23" s="51">
         <v>55912</v>
       </c>
-      <c r="KS23" s="3">
+      <c r="KS23" s="51">
         <v>56359</v>
       </c>
-      <c r="KT23" s="3">
+      <c r="KT23" s="51">
         <v>56863</v>
       </c>
-      <c r="KU23" s="3">
+      <c r="KU23" s="51">
         <v>56799</v>
       </c>
-      <c r="KV23" s="3">
+      <c r="KV23" s="51">
         <v>56980</v>
       </c>
-      <c r="KW23" s="3">
+      <c r="KW23" s="51">
         <v>57303</v>
       </c>
-      <c r="KX23" s="3">
+      <c r="KX23" s="51">
         <v>57293</v>
       </c>
-      <c r="KY23" s="3">
+      <c r="KY23" s="51">
         <v>57481</v>
       </c>
-      <c r="KZ23" s="3">
+      <c r="KZ23" s="51">
         <v>57633</v>
       </c>
-      <c r="LA23" s="3">
+      <c r="LA23" s="51">
         <v>58038</v>
       </c>
       <c r="LB23" s="4">
         <v>57416</v>
       </c>
+      <c r="LC23" s="4">
+        <v>57734</v>
+      </c>
     </row>
-    <row r="24" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
         <v>31</v>
@@ -19728,41 +19800,44 @@
       <c r="KQ24" s="2">
         <v>46261</v>
       </c>
-      <c r="KR24" s="3">
+      <c r="KR24" s="51">
         <v>46508</v>
       </c>
-      <c r="KS24" s="3">
+      <c r="KS24" s="51">
         <v>46742</v>
       </c>
-      <c r="KT24" s="3">
+      <c r="KT24" s="51">
         <v>47224</v>
       </c>
-      <c r="KU24" s="3">
+      <c r="KU24" s="51">
         <v>47385</v>
       </c>
-      <c r="KV24" s="3">
+      <c r="KV24" s="51">
         <v>47700</v>
       </c>
-      <c r="KW24" s="3">
+      <c r="KW24" s="51">
         <v>47962</v>
       </c>
-      <c r="KX24" s="3">
+      <c r="KX24" s="51">
         <v>48121</v>
       </c>
-      <c r="KY24" s="3">
+      <c r="KY24" s="51">
         <v>48352</v>
       </c>
-      <c r="KZ24" s="3">
+      <c r="KZ24" s="51">
         <v>48703</v>
       </c>
-      <c r="LA24" s="3">
+      <c r="LA24" s="51">
         <v>49368</v>
       </c>
       <c r="LB24" s="4">
         <v>48854</v>
       </c>
+      <c r="LC24" s="4">
+        <v>49251</v>
+      </c>
     </row>
-    <row r="25" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -20670,41 +20745,44 @@
       <c r="KQ25" s="2">
         <v>38789</v>
       </c>
-      <c r="KR25" s="3">
+      <c r="KR25" s="51">
         <v>38940</v>
       </c>
-      <c r="KS25" s="3">
+      <c r="KS25" s="51">
         <v>39079</v>
       </c>
-      <c r="KT25" s="3">
+      <c r="KT25" s="51">
         <v>39473</v>
       </c>
-      <c r="KU25" s="3">
+      <c r="KU25" s="51">
         <v>39506</v>
       </c>
-      <c r="KV25" s="3">
+      <c r="KV25" s="51">
         <v>39671</v>
       </c>
-      <c r="KW25" s="3">
+      <c r="KW25" s="51">
         <v>39870</v>
       </c>
-      <c r="KX25" s="3">
+      <c r="KX25" s="51">
         <v>39920</v>
       </c>
-      <c r="KY25" s="3">
+      <c r="KY25" s="51">
         <v>40024</v>
       </c>
-      <c r="KZ25" s="3">
+      <c r="KZ25" s="51">
         <v>40091</v>
       </c>
-      <c r="LA25" s="3">
+      <c r="LA25" s="51">
         <v>40566</v>
       </c>
       <c r="LB25" s="4">
         <v>40153</v>
       </c>
+      <c r="LC25" s="4">
+        <v>40332</v>
+      </c>
     </row>
-    <row r="26" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
         <v>33</v>
@@ -21569,74 +21647,77 @@
         <v>1</v>
       </c>
       <c r="KD26" s="3"/>
-      <c r="KE26" s="35"/>
-      <c r="KF26" s="38">
+      <c r="KE26" s="34"/>
+      <c r="KF26" s="37">
         <v>2</v>
       </c>
-      <c r="KG26" s="38">
+      <c r="KG26" s="37">
         <v>3</v>
       </c>
-      <c r="KH26" s="38">
+      <c r="KH26" s="37">
         <v>3</v>
       </c>
-      <c r="KI26" s="38">
+      <c r="KI26" s="37">
         <v>5</v>
       </c>
-      <c r="KJ26" s="38">
+      <c r="KJ26" s="37">
         <v>2</v>
       </c>
-      <c r="KK26" s="38">
+      <c r="KK26" s="37">
         <v>1</v>
       </c>
-      <c r="KL26" s="38"/>
-      <c r="KM26" s="38">
+      <c r="KL26" s="37"/>
+      <c r="KM26" s="37">
         <v>2</v>
       </c>
-      <c r="KN26" s="38">
+      <c r="KN26" s="37">
         <v>4</v>
       </c>
-      <c r="KO26" s="38">
+      <c r="KO26" s="37">
         <v>3</v>
       </c>
-      <c r="KP26" s="38">
+      <c r="KP26" s="37">
         <v>2</v>
       </c>
-      <c r="KQ26" s="35">
+      <c r="KQ26" s="34">
         <v>2</v>
       </c>
-      <c r="KR26" s="38">
+      <c r="KR26" s="37">
         <v>1</v>
       </c>
-      <c r="KS26" s="38"/>
-      <c r="KT26" s="38">
+      <c r="KS26" s="37"/>
+      <c r="KT26" s="37">
         <v>1</v>
       </c>
-      <c r="KU26" s="38">
+      <c r="KU26" s="37">
         <v>1</v>
       </c>
-      <c r="KV26" s="38">
+      <c r="KV26" s="37">
         <v>4</v>
       </c>
-      <c r="KW26" s="38">
+      <c r="KW26" s="37">
         <v>3</v>
       </c>
-      <c r="KX26" s="38">
+      <c r="KX26" s="37">
         <v>2</v>
       </c>
-      <c r="KY26" s="38">
+      <c r="KY26" s="37">
         <v>2</v>
       </c>
-      <c r="KZ26" s="38">
+      <c r="KZ26" s="37">
         <v>1</v>
       </c>
-      <c r="LA26" s="38">
+      <c r="LA26" s="37">
         <v>1</v>
       </c>
-      <c r="LB26" s="36">
+      <c r="LB26" s="35">
         <v>1</v>
       </c>
+      <c r="LC26" s="35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -22507,80 +22588,83 @@
       <c r="KD27" s="8">
         <v>134547</v>
       </c>
-      <c r="KE27" s="29">
+      <c r="KE27" s="28">
         <v>135688</v>
       </c>
-      <c r="KF27" s="37">
+      <c r="KF27" s="36">
         <v>136388</v>
       </c>
-      <c r="KG27" s="37">
+      <c r="KG27" s="36">
         <v>137344</v>
       </c>
-      <c r="KH27" s="37">
+      <c r="KH27" s="36">
         <v>137135</v>
       </c>
-      <c r="KI27" s="37">
+      <c r="KI27" s="36">
         <v>139462</v>
       </c>
-      <c r="KJ27" s="37">
+      <c r="KJ27" s="36">
         <v>140587</v>
       </c>
-      <c r="KK27" s="37">
+      <c r="KK27" s="36">
         <v>142342</v>
       </c>
-      <c r="KL27" s="37">
+      <c r="KL27" s="36">
         <v>144641</v>
       </c>
-      <c r="KM27" s="37">
+      <c r="KM27" s="36">
         <v>145163</v>
       </c>
-      <c r="KN27" s="37">
+      <c r="KN27" s="36">
         <v>150581</v>
       </c>
-      <c r="KO27" s="37">
+      <c r="KO27" s="36">
         <v>152128</v>
       </c>
-      <c r="KP27" s="37">
+      <c r="KP27" s="36">
         <v>145346</v>
       </c>
-      <c r="KQ27" s="29">
+      <c r="KQ27" s="28">
         <v>148827</v>
       </c>
-      <c r="KR27" s="37">
+      <c r="KR27" s="50">
         <v>150599</v>
       </c>
-      <c r="KS27" s="37">
+      <c r="KS27" s="50">
         <v>150009</v>
       </c>
-      <c r="KT27" s="37">
+      <c r="KT27" s="50">
         <v>149587</v>
       </c>
-      <c r="KU27" s="37">
+      <c r="KU27" s="50">
         <v>151152</v>
       </c>
-      <c r="KV27" s="37">
+      <c r="KV27" s="50">
         <v>152849</v>
       </c>
-      <c r="KW27" s="37">
+      <c r="KW27" s="50">
         <v>153255</v>
       </c>
-      <c r="KX27" s="37">
+      <c r="KX27" s="50">
         <v>157023</v>
       </c>
-      <c r="KY27" s="37">
+      <c r="KY27" s="50">
         <v>156751</v>
       </c>
-      <c r="KZ27" s="37">
+      <c r="KZ27" s="50">
         <v>157805</v>
       </c>
-      <c r="LA27" s="37">
+      <c r="LA27" s="50">
         <v>156771</v>
       </c>
-      <c r="LB27" s="30">
+      <c r="LB27" s="29">
         <v>149029</v>
       </c>
+      <c r="LC27" s="29">
+        <v>154091</v>
+      </c>
     </row>
-    <row r="28" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
@@ -23488,41 +23572,44 @@
       <c r="KQ28" s="2">
         <v>27501</v>
       </c>
-      <c r="KR28" s="3">
+      <c r="KR28" s="51">
         <v>27808</v>
       </c>
-      <c r="KS28" s="3">
+      <c r="KS28" s="51">
         <v>28039</v>
       </c>
-      <c r="KT28" s="3">
+      <c r="KT28" s="51">
         <v>27720</v>
       </c>
-      <c r="KU28" s="3">
+      <c r="KU28" s="51">
         <v>27801</v>
       </c>
-      <c r="KV28" s="3">
+      <c r="KV28" s="51">
         <v>28084</v>
       </c>
-      <c r="KW28" s="3">
+      <c r="KW28" s="51">
         <v>28074</v>
       </c>
-      <c r="KX28" s="3">
+      <c r="KX28" s="51">
         <v>29005</v>
       </c>
-      <c r="KY28" s="3">
+      <c r="KY28" s="51">
         <v>28787</v>
       </c>
-      <c r="KZ28" s="3">
+      <c r="KZ28" s="51">
         <v>29142</v>
       </c>
-      <c r="LA28" s="3">
+      <c r="LA28" s="51">
         <v>29018</v>
       </c>
       <c r="LB28" s="4">
         <v>28369</v>
       </c>
+      <c r="LC28" s="4">
+        <v>29171</v>
+      </c>
     </row>
-    <row r="29" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -24430,41 +24517,44 @@
       <c r="KQ29" s="2">
         <v>4676</v>
       </c>
-      <c r="KR29" s="3">
+      <c r="KR29" s="51">
         <v>4760</v>
       </c>
-      <c r="KS29" s="3">
+      <c r="KS29" s="51">
         <v>4747</v>
       </c>
-      <c r="KT29" s="3">
+      <c r="KT29" s="51">
         <v>4702</v>
       </c>
-      <c r="KU29" s="3">
+      <c r="KU29" s="51">
         <v>4786</v>
       </c>
-      <c r="KV29" s="3">
+      <c r="KV29" s="51">
         <v>4862</v>
       </c>
-      <c r="KW29" s="3">
+      <c r="KW29" s="51">
         <v>4939</v>
       </c>
-      <c r="KX29" s="3">
+      <c r="KX29" s="51">
         <v>4986</v>
       </c>
-      <c r="KY29" s="3">
+      <c r="KY29" s="51">
         <v>4971</v>
       </c>
-      <c r="KZ29" s="3">
+      <c r="KZ29" s="51">
         <v>5007</v>
       </c>
-      <c r="LA29" s="3">
+      <c r="LA29" s="51">
         <v>4909</v>
       </c>
       <c r="LB29" s="4">
         <v>4458</v>
       </c>
+      <c r="LC29" s="4">
+        <v>4639</v>
+      </c>
     </row>
-    <row r="30" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="14" t="s">
         <v>27</v>
@@ -25372,41 +25462,44 @@
       <c r="KQ30" s="2">
         <v>18581</v>
       </c>
-      <c r="KR30" s="3">
+      <c r="KR30" s="51">
         <v>19064</v>
       </c>
-      <c r="KS30" s="3">
+      <c r="KS30" s="51">
         <v>18777</v>
       </c>
-      <c r="KT30" s="3">
+      <c r="KT30" s="51">
         <v>18752</v>
       </c>
-      <c r="KU30" s="3">
+      <c r="KU30" s="51">
         <v>19146</v>
       </c>
-      <c r="KV30" s="3">
+      <c r="KV30" s="51">
         <v>19448</v>
       </c>
-      <c r="KW30" s="3">
+      <c r="KW30" s="51">
         <v>19616</v>
       </c>
-      <c r="KX30" s="3">
+      <c r="KX30" s="51">
         <v>20040</v>
       </c>
-      <c r="KY30" s="3">
+      <c r="KY30" s="51">
         <v>20186</v>
       </c>
-      <c r="KZ30" s="3">
+      <c r="KZ30" s="51">
         <v>20200</v>
       </c>
-      <c r="LA30" s="3">
+      <c r="LA30" s="51">
         <v>19957</v>
       </c>
       <c r="LB30" s="4">
         <v>18630</v>
       </c>
+      <c r="LC30" s="4">
+        <v>19336</v>
+      </c>
     </row>
-    <row r="31" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -26314,41 +26407,44 @@
       <c r="KQ31" s="2">
         <v>23650</v>
       </c>
-      <c r="KR31" s="3">
+      <c r="KR31" s="51">
         <v>23825</v>
       </c>
-      <c r="KS31" s="3">
+      <c r="KS31" s="51">
         <v>23702</v>
       </c>
-      <c r="KT31" s="3">
+      <c r="KT31" s="51">
         <v>23689</v>
       </c>
-      <c r="KU31" s="3">
+      <c r="KU31" s="51">
         <v>23943</v>
       </c>
-      <c r="KV31" s="3">
+      <c r="KV31" s="51">
         <v>24406</v>
       </c>
-      <c r="KW31" s="3">
+      <c r="KW31" s="51">
         <v>24575</v>
       </c>
-      <c r="KX31" s="3">
+      <c r="KX31" s="51">
         <v>25205</v>
       </c>
-      <c r="KY31" s="3">
+      <c r="KY31" s="51">
         <v>25189</v>
       </c>
-      <c r="KZ31" s="3">
+      <c r="KZ31" s="51">
         <v>25292</v>
       </c>
-      <c r="LA31" s="3">
+      <c r="LA31" s="51">
         <v>25179</v>
       </c>
       <c r="LB31" s="4">
         <v>23556</v>
       </c>
+      <c r="LC31" s="4">
+        <v>24304</v>
+      </c>
     </row>
-    <row r="32" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="14" t="s">
         <v>29</v>
@@ -27256,41 +27352,44 @@
       <c r="KQ32" s="2">
         <v>22629</v>
       </c>
-      <c r="KR32" s="3">
+      <c r="KR32" s="51">
         <v>23003</v>
       </c>
-      <c r="KS32" s="3">
+      <c r="KS32" s="51">
         <v>22706</v>
       </c>
-      <c r="KT32" s="3">
+      <c r="KT32" s="51">
         <v>22545</v>
       </c>
-      <c r="KU32" s="3">
+      <c r="KU32" s="51">
         <v>22783</v>
       </c>
-      <c r="KV32" s="3">
+      <c r="KV32" s="51">
         <v>22975</v>
       </c>
-      <c r="KW32" s="3">
+      <c r="KW32" s="51">
         <v>23078</v>
       </c>
-      <c r="KX32" s="3">
+      <c r="KX32" s="51">
         <v>23396</v>
       </c>
-      <c r="KY32" s="3">
+      <c r="KY32" s="51">
         <v>23459</v>
       </c>
-      <c r="KZ32" s="3">
+      <c r="KZ32" s="51">
         <v>23630</v>
       </c>
-      <c r="LA32" s="3">
+      <c r="LA32" s="51">
         <v>23427</v>
       </c>
       <c r="LB32" s="4">
         <v>22165</v>
       </c>
+      <c r="LC32" s="4">
+        <v>23322</v>
+      </c>
     </row>
-    <row r="33" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -28198,41 +28297,44 @@
       <c r="KQ33" s="2">
         <v>20032</v>
       </c>
-      <c r="KR33" s="3">
+      <c r="KR33" s="51">
         <v>20144</v>
       </c>
-      <c r="KS33" s="3">
+      <c r="KS33" s="51">
         <v>20010</v>
       </c>
-      <c r="KT33" s="3">
+      <c r="KT33" s="51">
         <v>19981</v>
       </c>
-      <c r="KU33" s="3">
+      <c r="KU33" s="51">
         <v>20184</v>
       </c>
-      <c r="KV33" s="3">
+      <c r="KV33" s="51">
         <v>20346</v>
       </c>
-      <c r="KW33" s="3">
+      <c r="KW33" s="51">
         <v>20284</v>
       </c>
-      <c r="KX33" s="3">
+      <c r="KX33" s="51">
         <v>20738</v>
       </c>
-      <c r="KY33" s="3">
+      <c r="KY33" s="51">
         <v>20612</v>
       </c>
-      <c r="KZ33" s="3">
+      <c r="KZ33" s="51">
         <v>20821</v>
       </c>
-      <c r="LA33" s="3">
+      <c r="LA33" s="51">
         <v>20773</v>
       </c>
       <c r="LB33" s="4">
         <v>19736</v>
       </c>
+      <c r="LC33" s="4">
+        <v>20428</v>
+      </c>
     </row>
-    <row r="34" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
         <v>31</v>
@@ -29140,41 +29242,44 @@
       <c r="KQ34" s="2">
         <v>16956</v>
       </c>
-      <c r="KR34" s="3">
+      <c r="KR34" s="51">
         <v>17080</v>
       </c>
-      <c r="KS34" s="3">
+      <c r="KS34" s="51">
         <v>17100</v>
       </c>
-      <c r="KT34" s="3">
+      <c r="KT34" s="51">
         <v>17237</v>
       </c>
-      <c r="KU34" s="3">
+      <c r="KU34" s="51">
         <v>17465</v>
       </c>
-      <c r="KV34" s="3">
+      <c r="KV34" s="51">
         <v>17560</v>
       </c>
-      <c r="KW34" s="3">
+      <c r="KW34" s="51">
         <v>17549</v>
       </c>
-      <c r="KX34" s="3">
+      <c r="KX34" s="51">
         <v>18122</v>
       </c>
-      <c r="KY34" s="3">
+      <c r="KY34" s="51">
         <v>18070</v>
       </c>
-      <c r="KZ34" s="3">
+      <c r="KZ34" s="51">
         <v>18137</v>
       </c>
-      <c r="LA34" s="3">
+      <c r="LA34" s="51">
         <v>17987</v>
       </c>
       <c r="LB34" s="4">
         <v>17192</v>
       </c>
+      <c r="LC34" s="4">
+        <v>17690</v>
+      </c>
     </row>
-    <row r="35" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
         <v>32</v>
@@ -30082,41 +30187,44 @@
       <c r="KQ35" s="2">
         <v>14789</v>
       </c>
-      <c r="KR35" s="3">
+      <c r="KR35" s="51">
         <v>14903</v>
       </c>
-      <c r="KS35" s="3">
+      <c r="KS35" s="51">
         <v>14912</v>
       </c>
-      <c r="KT35" s="3">
+      <c r="KT35" s="51">
         <v>14947</v>
       </c>
-      <c r="KU35" s="3">
+      <c r="KU35" s="51">
         <v>15030</v>
       </c>
-      <c r="KV35" s="3">
+      <c r="KV35" s="51">
         <v>15150</v>
       </c>
-      <c r="KW35" s="3">
+      <c r="KW35" s="51">
         <v>15121</v>
       </c>
-      <c r="KX35" s="3">
+      <c r="KX35" s="51">
         <v>15506</v>
       </c>
-      <c r="KY35" s="3">
+      <c r="KY35" s="51">
         <v>15453</v>
       </c>
-      <c r="KZ35" s="3">
+      <c r="KZ35" s="51">
         <v>15552</v>
       </c>
-      <c r="LA35" s="3">
+      <c r="LA35" s="51">
         <v>15497</v>
       </c>
       <c r="LB35" s="4">
         <v>14908</v>
       </c>
+      <c r="LC35" s="4">
+        <v>15187</v>
+      </c>
     </row>
-    <row r="36" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
@@ -30985,1025 +31093,1031 @@
       <c r="KD36" s="3">
         <v>23</v>
       </c>
-      <c r="KE36" s="35">
+      <c r="KE36" s="34">
         <v>21</v>
       </c>
-      <c r="KF36" s="38">
+      <c r="KF36" s="37">
         <v>21</v>
       </c>
-      <c r="KG36" s="38">
+      <c r="KG36" s="37">
         <v>21</v>
       </c>
-      <c r="KH36" s="38">
+      <c r="KH36" s="37">
         <v>20</v>
       </c>
-      <c r="KI36" s="38">
+      <c r="KI36" s="37">
         <v>15</v>
       </c>
-      <c r="KJ36" s="38">
+      <c r="KJ36" s="37">
         <v>16</v>
       </c>
-      <c r="KK36" s="38">
+      <c r="KK36" s="37">
         <v>20</v>
       </c>
-      <c r="KL36" s="38">
+      <c r="KL36" s="37">
         <v>23</v>
       </c>
-      <c r="KM36" s="38">
+      <c r="KM36" s="37">
         <v>22</v>
       </c>
-      <c r="KN36" s="38">
+      <c r="KN36" s="37">
         <v>20</v>
       </c>
-      <c r="KO36" s="38">
+      <c r="KO36" s="37">
         <v>15</v>
       </c>
-      <c r="KP36" s="38">
+      <c r="KP36" s="37">
         <v>15</v>
       </c>
-      <c r="KQ36" s="35">
+      <c r="KQ36" s="34">
         <v>13</v>
       </c>
-      <c r="KR36" s="38">
+      <c r="KR36" s="37">
         <v>12</v>
       </c>
-      <c r="KS36" s="38">
+      <c r="KS36" s="37">
         <v>16</v>
       </c>
-      <c r="KT36" s="38">
+      <c r="KT36" s="37">
         <v>14</v>
       </c>
-      <c r="KU36" s="38">
+      <c r="KU36" s="37">
         <v>14</v>
       </c>
-      <c r="KV36" s="38">
+      <c r="KV36" s="37">
         <v>18</v>
       </c>
-      <c r="KW36" s="38">
+      <c r="KW36" s="37">
         <v>19</v>
       </c>
-      <c r="KX36" s="38">
+      <c r="KX36" s="37">
         <v>25</v>
       </c>
-      <c r="KY36" s="38">
+      <c r="KY36" s="37">
         <v>24</v>
       </c>
-      <c r="KZ36" s="38">
+      <c r="KZ36" s="37">
         <v>24</v>
       </c>
-      <c r="LA36" s="38">
+      <c r="LA36" s="37">
         <v>24</v>
       </c>
-      <c r="LB36" s="36">
+      <c r="LB36" s="35">
         <v>15</v>
       </c>
+      <c r="LC36" s="35">
+        <v>14</v>
+      </c>
     </row>
-    <row r="37" spans="1:314" s="28" customFormat="1" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+    <row r="37" spans="1:315" s="27" customFormat="1" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="53" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="24">
         <v>7246</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="25">
         <v>7117</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="25">
         <v>7374</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="25">
         <v>7442</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="25">
         <v>7381</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="25">
         <v>7414</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="25">
         <v>7460</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="25">
         <v>7443</v>
       </c>
-      <c r="K37" s="26">
+      <c r="K37" s="25">
         <v>7415</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37" s="25">
         <v>7514</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37" s="25">
         <v>7646</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="26">
         <v>7466</v>
       </c>
-      <c r="O37" s="25">
+      <c r="O37" s="24">
         <v>7298</v>
       </c>
-      <c r="P37" s="26">
+      <c r="P37" s="25">
         <v>7259</v>
       </c>
-      <c r="Q37" s="26">
+      <c r="Q37" s="25">
         <v>7527</v>
       </c>
-      <c r="R37" s="26">
+      <c r="R37" s="25">
         <v>7472</v>
       </c>
-      <c r="S37" s="26">
+      <c r="S37" s="25">
         <v>7486</v>
       </c>
-      <c r="T37" s="26">
+      <c r="T37" s="25">
         <v>7482</v>
       </c>
-      <c r="U37" s="26">
+      <c r="U37" s="25">
         <v>7539</v>
       </c>
-      <c r="V37" s="26">
+      <c r="V37" s="25">
         <v>7541</v>
       </c>
-      <c r="W37" s="26">
+      <c r="W37" s="25">
         <v>7420</v>
       </c>
-      <c r="X37" s="26">
+      <c r="X37" s="25">
         <v>7300</v>
       </c>
-      <c r="Y37" s="26">
+      <c r="Y37" s="25">
         <v>7362</v>
       </c>
-      <c r="Z37" s="27">
+      <c r="Z37" s="26">
         <v>7535</v>
       </c>
-      <c r="AA37" s="25">
+      <c r="AA37" s="24">
         <v>7276</v>
       </c>
-      <c r="AB37" s="26">
+      <c r="AB37" s="25">
         <v>7305</v>
       </c>
-      <c r="AC37" s="26">
+      <c r="AC37" s="25">
         <v>7337</v>
       </c>
-      <c r="AD37" s="26">
+      <c r="AD37" s="25">
         <v>7448</v>
       </c>
-      <c r="AE37" s="26">
+      <c r="AE37" s="25">
         <v>7473</v>
       </c>
-      <c r="AF37" s="26">
+      <c r="AF37" s="25">
         <v>7515</v>
       </c>
-      <c r="AG37" s="26">
+      <c r="AG37" s="25">
         <v>7620</v>
       </c>
-      <c r="AH37" s="26">
+      <c r="AH37" s="25">
         <v>7570</v>
       </c>
-      <c r="AI37" s="26">
+      <c r="AI37" s="25">
         <v>7451</v>
       </c>
-      <c r="AJ37" s="26">
+      <c r="AJ37" s="25">
         <v>7405</v>
       </c>
-      <c r="AK37" s="26">
+      <c r="AK37" s="25">
         <v>7226</v>
       </c>
-      <c r="AL37" s="27">
+      <c r="AL37" s="26">
         <v>7333</v>
       </c>
-      <c r="AM37" s="25">
+      <c r="AM37" s="24">
         <v>7225</v>
       </c>
-      <c r="AN37" s="26">
+      <c r="AN37" s="25">
         <v>7218</v>
       </c>
-      <c r="AO37" s="26">
+      <c r="AO37" s="25">
         <v>7290</v>
       </c>
-      <c r="AP37" s="26">
+      <c r="AP37" s="25">
         <v>7436</v>
       </c>
-      <c r="AQ37" s="26">
+      <c r="AQ37" s="25">
         <v>7486</v>
       </c>
-      <c r="AR37" s="26">
+      <c r="AR37" s="25">
         <v>7501</v>
       </c>
-      <c r="AS37" s="26">
+      <c r="AS37" s="25">
         <v>7528</v>
       </c>
-      <c r="AT37" s="26">
+      <c r="AT37" s="25">
         <v>7553</v>
       </c>
-      <c r="AU37" s="26">
+      <c r="AU37" s="25">
         <v>7466</v>
       </c>
-      <c r="AV37" s="26">
+      <c r="AV37" s="25">
         <v>7514</v>
       </c>
-      <c r="AW37" s="26">
+      <c r="AW37" s="25">
         <v>7519</v>
       </c>
-      <c r="AX37" s="27">
+      <c r="AX37" s="26">
         <v>7640</v>
       </c>
-      <c r="AY37" s="25">
+      <c r="AY37" s="24">
         <v>7566</v>
       </c>
-      <c r="AZ37" s="26">
+      <c r="AZ37" s="25">
         <v>7591</v>
       </c>
-      <c r="BA37" s="26">
+      <c r="BA37" s="25">
         <v>7638</v>
       </c>
-      <c r="BB37" s="26">
+      <c r="BB37" s="25">
         <v>7605</v>
       </c>
-      <c r="BC37" s="26">
+      <c r="BC37" s="25">
         <v>7544</v>
       </c>
-      <c r="BD37" s="26">
+      <c r="BD37" s="25">
         <v>7555</v>
       </c>
-      <c r="BE37" s="26">
+      <c r="BE37" s="25">
         <v>7576</v>
       </c>
-      <c r="BF37" s="26">
+      <c r="BF37" s="25">
         <v>7518</v>
       </c>
-      <c r="BG37" s="26">
+      <c r="BG37" s="25">
         <v>7404</v>
       </c>
-      <c r="BH37" s="26">
+      <c r="BH37" s="25">
         <v>7439</v>
       </c>
-      <c r="BI37" s="26">
+      <c r="BI37" s="25">
         <v>7424</v>
       </c>
-      <c r="BJ37" s="27">
+      <c r="BJ37" s="26">
         <v>7506</v>
       </c>
-      <c r="BK37" s="25">
+      <c r="BK37" s="24">
         <v>7471</v>
       </c>
-      <c r="BL37" s="26">
+      <c r="BL37" s="25">
         <v>7453</v>
       </c>
-      <c r="BM37" s="26">
+      <c r="BM37" s="25">
         <v>7484</v>
       </c>
-      <c r="BN37" s="26">
+      <c r="BN37" s="25">
         <v>7642</v>
       </c>
-      <c r="BO37" s="26">
+      <c r="BO37" s="25">
         <v>7603</v>
       </c>
-      <c r="BP37" s="26">
+      <c r="BP37" s="25">
         <v>7690</v>
       </c>
-      <c r="BQ37" s="26">
+      <c r="BQ37" s="25">
         <v>7908</v>
       </c>
-      <c r="BR37" s="26">
+      <c r="BR37" s="25">
         <v>7725</v>
       </c>
-      <c r="BS37" s="26">
+      <c r="BS37" s="25">
         <v>7720</v>
       </c>
-      <c r="BT37" s="26">
+      <c r="BT37" s="25">
         <v>7722</v>
       </c>
-      <c r="BU37" s="26">
+      <c r="BU37" s="25">
         <v>7572</v>
       </c>
-      <c r="BV37" s="27">
+      <c r="BV37" s="26">
         <v>7814</v>
       </c>
-      <c r="BW37" s="25">
+      <c r="BW37" s="24">
         <v>7584</v>
       </c>
-      <c r="BX37" s="26">
+      <c r="BX37" s="25">
         <v>7586</v>
       </c>
-      <c r="BY37" s="26">
+      <c r="BY37" s="25">
         <v>7706</v>
       </c>
-      <c r="BZ37" s="26">
+      <c r="BZ37" s="25">
         <v>7969</v>
       </c>
-      <c r="CA37" s="26">
+      <c r="CA37" s="25">
         <v>7995</v>
       </c>
-      <c r="CB37" s="26">
+      <c r="CB37" s="25">
         <v>8134</v>
       </c>
-      <c r="CC37" s="26">
+      <c r="CC37" s="25">
         <v>8242</v>
       </c>
-      <c r="CD37" s="26">
+      <c r="CD37" s="25">
         <v>7995</v>
       </c>
-      <c r="CE37" s="26">
+      <c r="CE37" s="25">
         <v>7992</v>
       </c>
-      <c r="CF37" s="26">
+      <c r="CF37" s="25">
         <v>7916</v>
       </c>
-      <c r="CG37" s="26">
+      <c r="CG37" s="25">
         <v>7927</v>
       </c>
-      <c r="CH37" s="27">
+      <c r="CH37" s="26">
         <v>7962</v>
       </c>
-      <c r="CI37" s="25">
+      <c r="CI37" s="24">
         <v>7777</v>
       </c>
-      <c r="CJ37" s="26">
+      <c r="CJ37" s="25">
         <v>7883</v>
       </c>
-      <c r="CK37" s="26">
+      <c r="CK37" s="25">
         <v>8151</v>
       </c>
-      <c r="CL37" s="26">
+      <c r="CL37" s="25">
         <v>8225</v>
       </c>
-      <c r="CM37" s="26">
+      <c r="CM37" s="25">
         <v>8301</v>
       </c>
-      <c r="CN37" s="26">
+      <c r="CN37" s="25">
         <v>8371</v>
       </c>
-      <c r="CO37" s="26">
+      <c r="CO37" s="25">
         <v>8408</v>
       </c>
-      <c r="CP37" s="26">
+      <c r="CP37" s="25">
         <v>8335</v>
       </c>
-      <c r="CQ37" s="26">
+      <c r="CQ37" s="25">
         <v>8432</v>
       </c>
-      <c r="CR37" s="26">
+      <c r="CR37" s="25">
         <v>8462</v>
       </c>
-      <c r="CS37" s="26">
+      <c r="CS37" s="25">
         <v>8559</v>
       </c>
-      <c r="CT37" s="27">
+      <c r="CT37" s="26">
         <v>8390</v>
       </c>
-      <c r="CU37" s="25">
+      <c r="CU37" s="24">
         <v>8260</v>
       </c>
-      <c r="CV37" s="26">
+      <c r="CV37" s="25">
         <v>8322</v>
       </c>
-      <c r="CW37" s="26">
+      <c r="CW37" s="25">
         <v>8078</v>
       </c>
-      <c r="CX37" s="26">
+      <c r="CX37" s="25">
         <v>8189</v>
       </c>
-      <c r="CY37" s="26">
+      <c r="CY37" s="25">
         <v>8206</v>
       </c>
-      <c r="CZ37" s="26">
+      <c r="CZ37" s="25">
         <v>8285</v>
       </c>
-      <c r="DA37" s="26">
+      <c r="DA37" s="25">
         <v>8310</v>
       </c>
-      <c r="DB37" s="26">
+      <c r="DB37" s="25">
         <v>8370</v>
       </c>
-      <c r="DC37" s="26">
+      <c r="DC37" s="25">
         <v>8314</v>
       </c>
-      <c r="DD37" s="26">
+      <c r="DD37" s="25">
         <v>8284</v>
       </c>
-      <c r="DE37" s="26">
+      <c r="DE37" s="25">
         <v>8340</v>
       </c>
-      <c r="DF37" s="27">
+      <c r="DF37" s="26">
         <v>8293</v>
       </c>
-      <c r="DG37" s="25">
+      <c r="DG37" s="24">
         <v>8057</v>
       </c>
-      <c r="DH37" s="26">
+      <c r="DH37" s="25">
         <v>8023</v>
       </c>
-      <c r="DI37" s="26">
+      <c r="DI37" s="25">
         <v>8137</v>
       </c>
-      <c r="DJ37" s="26">
+      <c r="DJ37" s="25">
         <v>8115</v>
       </c>
-      <c r="DK37" s="26">
+      <c r="DK37" s="25">
         <v>8195</v>
       </c>
-      <c r="DL37" s="26">
+      <c r="DL37" s="25">
         <v>8245</v>
       </c>
-      <c r="DM37" s="26">
+      <c r="DM37" s="25">
         <v>8333</v>
       </c>
-      <c r="DN37" s="26">
+      <c r="DN37" s="25">
         <v>8234</v>
       </c>
-      <c r="DO37" s="26">
+      <c r="DO37" s="25">
         <v>8157</v>
       </c>
-      <c r="DP37" s="26">
+      <c r="DP37" s="25">
         <v>8217</v>
       </c>
-      <c r="DQ37" s="26">
+      <c r="DQ37" s="25">
         <v>8354</v>
       </c>
-      <c r="DR37" s="27">
+      <c r="DR37" s="26">
         <v>8376</v>
       </c>
-      <c r="DS37" s="25">
+      <c r="DS37" s="24">
         <v>8367</v>
       </c>
-      <c r="DT37" s="26">
+      <c r="DT37" s="25">
         <v>8425</v>
       </c>
-      <c r="DU37" s="26">
+      <c r="DU37" s="25">
         <v>8527</v>
       </c>
-      <c r="DV37" s="26">
+      <c r="DV37" s="25">
         <v>8557</v>
       </c>
-      <c r="DW37" s="26">
+      <c r="DW37" s="25">
         <v>8635</v>
       </c>
-      <c r="DX37" s="26">
+      <c r="DX37" s="25">
         <v>8683</v>
       </c>
-      <c r="DY37" s="26">
+      <c r="DY37" s="25">
         <v>8679</v>
       </c>
-      <c r="DZ37" s="26">
+      <c r="DZ37" s="25">
         <v>8773</v>
       </c>
-      <c r="EA37" s="26">
+      <c r="EA37" s="25">
         <v>8723</v>
       </c>
-      <c r="EB37" s="26">
+      <c r="EB37" s="25">
         <v>8649</v>
       </c>
-      <c r="EC37" s="26">
+      <c r="EC37" s="25">
         <v>8638</v>
       </c>
-      <c r="ED37" s="27">
+      <c r="ED37" s="26">
         <v>8854</v>
       </c>
-      <c r="EE37" s="25">
+      <c r="EE37" s="24">
         <v>8643</v>
       </c>
-      <c r="EF37" s="26">
+      <c r="EF37" s="25">
         <v>8657</v>
       </c>
-      <c r="EG37" s="26">
+      <c r="EG37" s="25">
         <v>8842</v>
       </c>
-      <c r="EH37" s="26">
+      <c r="EH37" s="25">
         <v>8870</v>
       </c>
-      <c r="EI37" s="26">
+      <c r="EI37" s="25">
         <v>8940</v>
       </c>
-      <c r="EJ37" s="26">
+      <c r="EJ37" s="25">
         <v>8931</v>
       </c>
-      <c r="EK37" s="26">
+      <c r="EK37" s="25">
         <v>9199</v>
       </c>
-      <c r="EL37" s="26">
+      <c r="EL37" s="25">
         <v>8956</v>
       </c>
-      <c r="EM37" s="26">
+      <c r="EM37" s="25">
         <v>8865</v>
       </c>
-      <c r="EN37" s="26">
+      <c r="EN37" s="25">
         <v>8849</v>
       </c>
-      <c r="EO37" s="26">
+      <c r="EO37" s="25">
         <v>8887</v>
       </c>
-      <c r="EP37" s="27">
+      <c r="EP37" s="26">
         <v>9024</v>
       </c>
-      <c r="EQ37" s="25">
+      <c r="EQ37" s="24">
         <v>9061</v>
       </c>
-      <c r="ER37" s="26">
+      <c r="ER37" s="25">
         <v>9220</v>
       </c>
-      <c r="ES37" s="26">
+      <c r="ES37" s="25">
         <v>9507</v>
       </c>
-      <c r="ET37" s="26">
+      <c r="ET37" s="25">
         <v>9611</v>
       </c>
-      <c r="EU37" s="26">
+      <c r="EU37" s="25">
         <v>9626</v>
       </c>
-      <c r="EV37" s="26">
+      <c r="EV37" s="25">
         <v>9694</v>
       </c>
-      <c r="EW37" s="26">
+      <c r="EW37" s="25">
         <v>9706</v>
       </c>
-      <c r="EX37" s="26">
+      <c r="EX37" s="25">
         <v>9333</v>
       </c>
-      <c r="EY37" s="26">
+      <c r="EY37" s="25">
         <v>9242</v>
       </c>
-      <c r="EZ37" s="26">
+      <c r="EZ37" s="25">
         <v>9303</v>
       </c>
-      <c r="FA37" s="26">
+      <c r="FA37" s="25">
         <v>9104</v>
       </c>
-      <c r="FB37" s="27">
+      <c r="FB37" s="26">
         <v>9311</v>
       </c>
-      <c r="FC37" s="25">
+      <c r="FC37" s="24">
         <v>9172</v>
       </c>
-      <c r="FD37" s="26">
+      <c r="FD37" s="25">
         <v>9191</v>
       </c>
-      <c r="FE37" s="26">
+      <c r="FE37" s="25">
         <v>9154</v>
       </c>
-      <c r="FF37" s="26">
+      <c r="FF37" s="25">
         <v>9337</v>
       </c>
-      <c r="FG37" s="26">
+      <c r="FG37" s="25">
         <v>9205</v>
       </c>
-      <c r="FH37" s="26">
+      <c r="FH37" s="25">
         <v>9179</v>
       </c>
-      <c r="FI37" s="26">
+      <c r="FI37" s="25">
         <v>9295</v>
       </c>
-      <c r="FJ37" s="26">
+      <c r="FJ37" s="25">
         <v>9211</v>
       </c>
-      <c r="FK37" s="26">
+      <c r="FK37" s="25">
         <v>9157</v>
       </c>
-      <c r="FL37" s="26">
+      <c r="FL37" s="25">
         <v>9219</v>
       </c>
-      <c r="FM37" s="26">
+      <c r="FM37" s="25">
         <v>9071</v>
       </c>
-      <c r="FN37" s="27">
+      <c r="FN37" s="26">
         <v>9191</v>
       </c>
-      <c r="FO37" s="25">
+      <c r="FO37" s="24">
         <v>8998</v>
       </c>
-      <c r="FP37" s="26">
+      <c r="FP37" s="25">
         <v>9029</v>
       </c>
-      <c r="FQ37" s="26">
+      <c r="FQ37" s="25">
         <v>9124</v>
       </c>
-      <c r="FR37" s="26">
+      <c r="FR37" s="25">
         <v>9209</v>
       </c>
-      <c r="FS37" s="26">
+      <c r="FS37" s="25">
         <v>9183</v>
       </c>
-      <c r="FT37" s="26">
+      <c r="FT37" s="25">
         <v>9160</v>
       </c>
-      <c r="FU37" s="26">
+      <c r="FU37" s="25">
         <v>9196</v>
       </c>
-      <c r="FV37" s="26">
+      <c r="FV37" s="25">
         <v>9125</v>
       </c>
-      <c r="FW37" s="26">
+      <c r="FW37" s="25">
         <v>9070</v>
       </c>
-      <c r="FX37" s="26">
+      <c r="FX37" s="25">
         <v>9069</v>
       </c>
-      <c r="FY37" s="26">
+      <c r="FY37" s="25">
         <v>9087</v>
       </c>
-      <c r="FZ37" s="27">
+      <c r="FZ37" s="26">
         <v>9246</v>
       </c>
-      <c r="GA37" s="25">
+      <c r="GA37" s="24">
         <v>9107</v>
       </c>
-      <c r="GB37" s="26">
+      <c r="GB37" s="25">
         <v>9145</v>
       </c>
-      <c r="GC37" s="26">
+      <c r="GC37" s="25">
         <v>9177</v>
       </c>
-      <c r="GD37" s="26">
+      <c r="GD37" s="25">
         <v>9178</v>
       </c>
-      <c r="GE37" s="26">
+      <c r="GE37" s="25">
         <v>9254</v>
       </c>
-      <c r="GF37" s="26">
+      <c r="GF37" s="25">
         <v>9176</v>
       </c>
-      <c r="GG37" s="26">
+      <c r="GG37" s="25">
         <v>9237</v>
       </c>
-      <c r="GH37" s="26">
+      <c r="GH37" s="25">
         <v>9176</v>
       </c>
-      <c r="GI37" s="26">
+      <c r="GI37" s="25">
         <v>9171</v>
       </c>
-      <c r="GJ37" s="26">
+      <c r="GJ37" s="25">
         <v>9108</v>
       </c>
-      <c r="GK37" s="26">
+      <c r="GK37" s="25">
         <v>9143</v>
       </c>
-      <c r="GL37" s="27">
+      <c r="GL37" s="26">
         <v>9369</v>
       </c>
-      <c r="GM37" s="25">
+      <c r="GM37" s="24">
         <v>9148</v>
       </c>
-      <c r="GN37" s="26">
+      <c r="GN37" s="25">
         <v>9253</v>
       </c>
-      <c r="GO37" s="26">
+      <c r="GO37" s="25">
         <v>9218</v>
       </c>
-      <c r="GP37" s="26">
+      <c r="GP37" s="25">
         <v>9328</v>
       </c>
-      <c r="GQ37" s="26">
+      <c r="GQ37" s="25">
         <v>9307</v>
       </c>
-      <c r="GR37" s="26">
+      <c r="GR37" s="25">
         <v>9226</v>
       </c>
-      <c r="GS37" s="26">
+      <c r="GS37" s="25">
         <v>9429</v>
       </c>
-      <c r="GT37" s="26">
+      <c r="GT37" s="25">
         <v>9240</v>
       </c>
-      <c r="GU37" s="26">
+      <c r="GU37" s="25">
         <v>9401</v>
       </c>
-      <c r="GV37" s="26">
+      <c r="GV37" s="25">
         <v>9378</v>
       </c>
-      <c r="GW37" s="26">
+      <c r="GW37" s="25">
         <v>9346</v>
       </c>
-      <c r="GX37" s="27">
+      <c r="GX37" s="26">
         <v>9548</v>
       </c>
-      <c r="GY37" s="25">
+      <c r="GY37" s="24">
         <v>9332</v>
       </c>
-      <c r="GZ37" s="26">
+      <c r="GZ37" s="25">
         <v>9221</v>
       </c>
-      <c r="HA37" s="26">
+      <c r="HA37" s="25">
         <v>9389</v>
       </c>
-      <c r="HB37" s="26">
+      <c r="HB37" s="25">
         <v>9402</v>
       </c>
-      <c r="HC37" s="26">
+      <c r="HC37" s="25">
         <v>9350</v>
       </c>
-      <c r="HD37" s="26">
+      <c r="HD37" s="25">
         <v>9377</v>
       </c>
-      <c r="HE37" s="26">
+      <c r="HE37" s="25">
         <v>9440</v>
       </c>
-      <c r="HF37" s="26">
+      <c r="HF37" s="25">
         <v>9204</v>
       </c>
-      <c r="HG37" s="26">
+      <c r="HG37" s="25">
         <v>9121</v>
       </c>
-      <c r="HH37" s="26">
+      <c r="HH37" s="25">
         <v>9047</v>
       </c>
-      <c r="HI37" s="26">
+      <c r="HI37" s="25">
         <v>9126</v>
       </c>
-      <c r="HJ37" s="27">
+      <c r="HJ37" s="26">
         <v>9329</v>
       </c>
-      <c r="HK37" s="25">
+      <c r="HK37" s="24">
         <v>9153</v>
       </c>
-      <c r="HL37" s="26">
+      <c r="HL37" s="25">
         <v>9230</v>
       </c>
-      <c r="HM37" s="26">
+      <c r="HM37" s="25">
         <v>9429</v>
       </c>
-      <c r="HN37" s="26">
+      <c r="HN37" s="25">
         <v>9294</v>
       </c>
-      <c r="HO37" s="26">
+      <c r="HO37" s="25">
         <v>9204</v>
       </c>
-      <c r="HP37" s="26">
+      <c r="HP37" s="25">
         <v>9238</v>
       </c>
-      <c r="HQ37" s="26">
+      <c r="HQ37" s="25">
         <v>9290</v>
       </c>
-      <c r="HR37" s="26">
+      <c r="HR37" s="25">
         <v>9238</v>
       </c>
-      <c r="HS37" s="26">
+      <c r="HS37" s="25">
         <v>9247</v>
       </c>
-      <c r="HT37" s="26">
+      <c r="HT37" s="25">
         <v>9249</v>
       </c>
-      <c r="HU37" s="26">
+      <c r="HU37" s="25">
         <v>9253</v>
       </c>
-      <c r="HV37" s="27">
+      <c r="HV37" s="26">
         <v>9329</v>
       </c>
-      <c r="HW37" s="25">
+      <c r="HW37" s="24">
         <v>9211</v>
       </c>
-      <c r="HX37" s="26">
+      <c r="HX37" s="25">
         <v>9233</v>
       </c>
-      <c r="HY37" s="26">
+      <c r="HY37" s="25">
         <v>9264</v>
       </c>
-      <c r="HZ37" s="26">
+      <c r="HZ37" s="25">
         <v>9221</v>
       </c>
-      <c r="IA37" s="26">
+      <c r="IA37" s="25">
         <v>9150</v>
       </c>
-      <c r="IB37" s="26">
+      <c r="IB37" s="25">
         <v>9178</v>
       </c>
-      <c r="IC37" s="26">
+      <c r="IC37" s="25">
         <v>9225</v>
       </c>
-      <c r="ID37" s="26">
+      <c r="ID37" s="25">
         <v>9168</v>
       </c>
-      <c r="IE37" s="26">
+      <c r="IE37" s="25">
         <v>9107</v>
       </c>
-      <c r="IF37" s="26">
+      <c r="IF37" s="25">
         <v>9185</v>
       </c>
-      <c r="IG37" s="26">
+      <c r="IG37" s="25">
         <v>9100</v>
       </c>
-      <c r="IH37" s="27">
+      <c r="IH37" s="26">
         <v>9194</v>
       </c>
-      <c r="II37" s="25">
+      <c r="II37" s="24">
         <v>9163</v>
       </c>
-      <c r="IJ37" s="26">
+      <c r="IJ37" s="25">
         <v>9251</v>
       </c>
-      <c r="IK37" s="26">
+      <c r="IK37" s="25">
         <v>9275</v>
       </c>
-      <c r="IL37" s="26">
+      <c r="IL37" s="25">
         <v>9221</v>
       </c>
-      <c r="IM37" s="26">
+      <c r="IM37" s="25">
         <v>9364</v>
       </c>
-      <c r="IN37" s="26">
+      <c r="IN37" s="25">
         <v>9481</v>
       </c>
-      <c r="IO37" s="26">
+      <c r="IO37" s="25">
         <v>9574</v>
       </c>
-      <c r="IP37" s="26">
+      <c r="IP37" s="25">
         <v>9622</v>
       </c>
-      <c r="IQ37" s="26">
+      <c r="IQ37" s="25">
         <v>9492</v>
       </c>
-      <c r="IR37" s="26">
+      <c r="IR37" s="25">
         <v>9506</v>
       </c>
-      <c r="IS37" s="26">
+      <c r="IS37" s="25">
         <v>9464</v>
       </c>
-      <c r="IT37" s="27">
+      <c r="IT37" s="26">
         <v>9458</v>
       </c>
-      <c r="IU37" s="25">
+      <c r="IU37" s="24">
         <v>9448</v>
       </c>
-      <c r="IV37" s="26">
+      <c r="IV37" s="25">
         <v>9537</v>
       </c>
-      <c r="IW37" s="26">
+      <c r="IW37" s="25">
         <v>9509</v>
       </c>
-      <c r="IX37" s="26">
+      <c r="IX37" s="25">
         <v>9598</v>
       </c>
-      <c r="IY37" s="26">
+      <c r="IY37" s="25">
         <v>9687</v>
       </c>
-      <c r="IZ37" s="26">
+      <c r="IZ37" s="25">
         <v>9644</v>
       </c>
-      <c r="JA37" s="26">
+      <c r="JA37" s="25">
         <v>9754</v>
       </c>
-      <c r="JB37" s="26">
+      <c r="JB37" s="25">
         <v>9702</v>
       </c>
-      <c r="JC37" s="26">
+      <c r="JC37" s="25">
         <v>9646</v>
       </c>
-      <c r="JD37" s="26">
+      <c r="JD37" s="25">
         <v>9755</v>
       </c>
-      <c r="JE37" s="26">
+      <c r="JE37" s="25">
         <v>9637</v>
       </c>
-      <c r="JF37" s="27">
+      <c r="JF37" s="26">
         <v>9697</v>
       </c>
-      <c r="JG37" s="25">
+      <c r="JG37" s="24">
         <v>9895</v>
       </c>
-      <c r="JH37" s="26">
+      <c r="JH37" s="25">
         <v>9952</v>
       </c>
-      <c r="JI37" s="26">
+      <c r="JI37" s="25">
         <v>9921</v>
       </c>
-      <c r="JJ37" s="26">
+      <c r="JJ37" s="25">
         <v>9758</v>
       </c>
-      <c r="JK37" s="26">
+      <c r="JK37" s="25">
         <v>9733</v>
       </c>
-      <c r="JL37" s="26">
+      <c r="JL37" s="25">
         <v>9474</v>
       </c>
-      <c r="JM37" s="26">
+      <c r="JM37" s="25">
         <v>9829</v>
       </c>
-      <c r="JN37" s="26">
+      <c r="JN37" s="25">
         <v>9818</v>
       </c>
-      <c r="JO37" s="26">
+      <c r="JO37" s="25">
         <v>9911</v>
       </c>
-      <c r="JP37" s="26">
+      <c r="JP37" s="25">
         <v>9901</v>
       </c>
-      <c r="JQ37" s="26">
+      <c r="JQ37" s="25">
         <v>9956</v>
       </c>
-      <c r="JR37" s="27">
+      <c r="JR37" s="26">
         <v>9984</v>
       </c>
-      <c r="JS37" s="25">
+      <c r="JS37" s="24">
         <v>9992</v>
       </c>
-      <c r="JT37" s="26">
+      <c r="JT37" s="25">
         <v>10000</v>
       </c>
-      <c r="JU37" s="26">
+      <c r="JU37" s="25">
         <v>10132</v>
       </c>
-      <c r="JV37" s="26">
+      <c r="JV37" s="25">
         <v>9977</v>
       </c>
-      <c r="JW37" s="26">
+      <c r="JW37" s="25">
         <v>10007</v>
       </c>
-      <c r="JX37" s="26">
+      <c r="JX37" s="25">
         <v>10103</v>
       </c>
-      <c r="JY37" s="26">
+      <c r="JY37" s="25">
         <v>9603</v>
       </c>
-      <c r="JZ37" s="26">
+      <c r="JZ37" s="25">
         <v>9612</v>
       </c>
-      <c r="KA37" s="26">
+      <c r="KA37" s="25">
         <v>9562</v>
       </c>
-      <c r="KB37" s="26">
+      <c r="KB37" s="25">
         <v>9508</v>
       </c>
-      <c r="KC37" s="26">
+      <c r="KC37" s="25">
         <v>9570</v>
       </c>
-      <c r="KD37" s="26">
+      <c r="KD37" s="25">
         <v>9393</v>
       </c>
-      <c r="KE37" s="31">
+      <c r="KE37" s="30">
         <v>9433</v>
       </c>
-      <c r="KF37" s="39">
+      <c r="KF37" s="38">
         <v>9550</v>
       </c>
-      <c r="KG37" s="39">
+      <c r="KG37" s="38">
         <v>9619</v>
       </c>
-      <c r="KH37" s="39">
+      <c r="KH37" s="38">
         <v>9540</v>
       </c>
-      <c r="KI37" s="39">
+      <c r="KI37" s="38">
         <v>9600</v>
       </c>
-      <c r="KJ37" s="39">
+      <c r="KJ37" s="38">
         <v>9738</v>
       </c>
-      <c r="KK37" s="39">
+      <c r="KK37" s="38">
         <v>9682</v>
       </c>
-      <c r="KL37" s="39">
+      <c r="KL37" s="38">
         <v>9763</v>
       </c>
-      <c r="KM37" s="39">
+      <c r="KM37" s="38">
         <v>9686</v>
       </c>
-      <c r="KN37" s="39">
+      <c r="KN37" s="38">
         <v>9745</v>
       </c>
-      <c r="KO37" s="39">
+      <c r="KO37" s="38">
         <v>9847</v>
       </c>
-      <c r="KP37" s="39">
+      <c r="KP37" s="38">
         <v>9814</v>
       </c>
-      <c r="KQ37" s="31">
+      <c r="KQ37" s="30">
         <v>9847</v>
       </c>
-      <c r="KR37" s="39">
+      <c r="KR37" s="52">
         <v>9971</v>
       </c>
-      <c r="KS37" s="39">
+      <c r="KS37" s="52">
         <v>10018</v>
       </c>
-      <c r="KT37" s="39">
+      <c r="KT37" s="52">
         <v>9992</v>
       </c>
-      <c r="KU37" s="39">
+      <c r="KU37" s="52">
         <v>10020</v>
       </c>
-      <c r="KV37" s="39">
+      <c r="KV37" s="52">
         <v>10060</v>
       </c>
-      <c r="KW37" s="39">
+      <c r="KW37" s="52">
         <v>10088</v>
       </c>
-      <c r="KX37" s="39">
+      <c r="KX37" s="52">
         <v>10085</v>
       </c>
-      <c r="KY37" s="39">
+      <c r="KY37" s="52">
         <v>10107</v>
       </c>
-      <c r="KZ37" s="39">
+      <c r="KZ37" s="52">
         <v>10145</v>
       </c>
-      <c r="LA37" s="39">
+      <c r="LA37" s="52">
         <v>10075</v>
       </c>
-      <c r="LB37" s="32">
+      <c r="LB37" s="31">
         <v>10144</v>
       </c>
+      <c r="LC37" s="31">
+        <v>10082</v>
+      </c>
     </row>
-    <row r="38" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+    <row r="38" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="54"/>
       <c r="B38" s="14" t="s">
         <v>25</v>
       </c>
@@ -32910,41 +33024,44 @@
       <c r="KQ38" s="2">
         <v>1724</v>
       </c>
-      <c r="KR38" s="3">
+      <c r="KR38" s="51">
         <v>1737</v>
       </c>
-      <c r="KS38" s="3">
+      <c r="KS38" s="51">
         <v>1736</v>
       </c>
-      <c r="KT38" s="3">
+      <c r="KT38" s="51">
         <v>1749</v>
       </c>
-      <c r="KU38" s="3">
+      <c r="KU38" s="51">
         <v>1755</v>
       </c>
-      <c r="KV38" s="3">
+      <c r="KV38" s="51">
         <v>1769</v>
       </c>
-      <c r="KW38" s="3">
+      <c r="KW38" s="51">
         <v>1770</v>
       </c>
-      <c r="KX38" s="3">
+      <c r="KX38" s="51">
         <v>1773</v>
       </c>
-      <c r="KY38" s="3">
+      <c r="KY38" s="51">
         <v>1774</v>
       </c>
-      <c r="KZ38" s="3">
+      <c r="KZ38" s="51">
         <v>1784</v>
       </c>
-      <c r="LA38" s="3">
+      <c r="LA38" s="51">
         <v>1773</v>
       </c>
       <c r="LB38" s="4">
         <v>1798</v>
       </c>
+      <c r="LC38" s="4">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="39" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
         <v>26</v>
@@ -33852,41 +33969,44 @@
       <c r="KQ39" s="2">
         <v>81</v>
       </c>
-      <c r="KR39" s="3">
+      <c r="KR39" s="51">
         <v>92</v>
       </c>
-      <c r="KS39" s="3">
+      <c r="KS39" s="51">
         <v>86</v>
       </c>
-      <c r="KT39" s="3">
+      <c r="KT39" s="51">
         <v>91</v>
       </c>
-      <c r="KU39" s="3">
+      <c r="KU39" s="51">
         <v>90</v>
       </c>
-      <c r="KV39" s="3">
+      <c r="KV39" s="51">
         <v>95</v>
       </c>
-      <c r="KW39" s="3">
+      <c r="KW39" s="51">
         <v>102</v>
       </c>
-      <c r="KX39" s="3">
+      <c r="KX39" s="51">
         <v>92</v>
       </c>
-      <c r="KY39" s="3">
+      <c r="KY39" s="51">
         <v>90</v>
       </c>
-      <c r="KZ39" s="3">
+      <c r="KZ39" s="51">
         <v>85</v>
       </c>
-      <c r="LA39" s="3">
+      <c r="LA39" s="51">
         <v>80</v>
       </c>
       <c r="LB39" s="4">
         <v>81</v>
       </c>
+      <c r="LC39" s="4">
+        <v>71</v>
+      </c>
     </row>
-    <row r="40" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -34794,41 +34914,44 @@
       <c r="KQ40" s="2">
         <v>576</v>
       </c>
-      <c r="KR40" s="3">
+      <c r="KR40" s="51">
         <v>618</v>
       </c>
-      <c r="KS40" s="3">
+      <c r="KS40" s="51">
         <v>642</v>
       </c>
-      <c r="KT40" s="3">
+      <c r="KT40" s="51">
         <v>630</v>
       </c>
-      <c r="KU40" s="3">
+      <c r="KU40" s="51">
         <v>649</v>
       </c>
-      <c r="KV40" s="3">
+      <c r="KV40" s="51">
         <v>663</v>
       </c>
-      <c r="KW40" s="3">
+      <c r="KW40" s="51">
         <v>648</v>
       </c>
-      <c r="KX40" s="3">
+      <c r="KX40" s="51">
         <v>645</v>
       </c>
-      <c r="KY40" s="3">
+      <c r="KY40" s="51">
         <v>675</v>
       </c>
-      <c r="KZ40" s="3">
+      <c r="KZ40" s="51">
         <v>690</v>
       </c>
-      <c r="LA40" s="3">
+      <c r="LA40" s="51">
         <v>664</v>
       </c>
       <c r="LB40" s="4">
         <v>684</v>
       </c>
+      <c r="LC40" s="4">
+        <v>669</v>
+      </c>
     </row>
-    <row r="41" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -35736,41 +35859,44 @@
       <c r="KQ41" s="2">
         <v>1023</v>
       </c>
-      <c r="KR41" s="3">
+      <c r="KR41" s="51">
         <v>1040</v>
       </c>
-      <c r="KS41" s="3">
+      <c r="KS41" s="51">
         <v>1039</v>
       </c>
-      <c r="KT41" s="3">
+      <c r="KT41" s="51">
         <v>1058</v>
       </c>
-      <c r="KU41" s="3">
+      <c r="KU41" s="51">
         <v>1062</v>
       </c>
-      <c r="KV41" s="3">
+      <c r="KV41" s="51">
         <v>1057</v>
       </c>
-      <c r="KW41" s="3">
+      <c r="KW41" s="51">
         <v>1072</v>
       </c>
-      <c r="KX41" s="3">
+      <c r="KX41" s="51">
         <v>1074</v>
       </c>
-      <c r="KY41" s="3">
+      <c r="KY41" s="51">
         <v>1069</v>
       </c>
-      <c r="KZ41" s="3">
+      <c r="KZ41" s="51">
         <v>1072</v>
       </c>
-      <c r="LA41" s="3">
+      <c r="LA41" s="51">
         <v>1053</v>
       </c>
       <c r="LB41" s="4">
         <v>1057</v>
       </c>
+      <c r="LC41" s="4">
+        <v>1064</v>
+      </c>
     </row>
-    <row r="42" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="14" t="s">
         <v>29</v>
@@ -36678,41 +36804,44 @@
       <c r="KQ42" s="2">
         <v>1421</v>
       </c>
-      <c r="KR42" s="3">
+      <c r="KR42" s="51">
         <v>1431</v>
       </c>
-      <c r="KS42" s="3">
+      <c r="KS42" s="51">
         <v>1440</v>
       </c>
-      <c r="KT42" s="3">
+      <c r="KT42" s="51">
         <v>1417</v>
       </c>
-      <c r="KU42" s="3">
+      <c r="KU42" s="51">
         <v>1433</v>
       </c>
-      <c r="KV42" s="3">
+      <c r="KV42" s="51">
         <v>1443</v>
       </c>
-      <c r="KW42" s="3">
+      <c r="KW42" s="51">
         <v>1452</v>
       </c>
-      <c r="KX42" s="3">
+      <c r="KX42" s="51">
         <v>1452</v>
       </c>
-      <c r="KY42" s="3">
+      <c r="KY42" s="51">
         <v>1433</v>
       </c>
-      <c r="KZ42" s="3">
+      <c r="KZ42" s="51">
         <v>1431</v>
       </c>
-      <c r="LA42" s="3">
+      <c r="LA42" s="51">
         <v>1420</v>
       </c>
       <c r="LB42" s="4">
         <v>1444</v>
       </c>
+      <c r="LC42" s="4">
+        <v>1403</v>
+      </c>
     </row>
-    <row r="43" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
         <v>30</v>
@@ -37620,41 +37749,44 @@
       <c r="KQ43" s="2">
         <v>1791</v>
       </c>
-      <c r="KR43" s="3">
+      <c r="KR43" s="51">
         <v>1798</v>
       </c>
-      <c r="KS43" s="3">
+      <c r="KS43" s="51">
         <v>1805</v>
       </c>
-      <c r="KT43" s="3">
+      <c r="KT43" s="51">
         <v>1786</v>
       </c>
-      <c r="KU43" s="3">
+      <c r="KU43" s="51">
         <v>1788</v>
       </c>
-      <c r="KV43" s="3">
+      <c r="KV43" s="51">
         <v>1777</v>
       </c>
-      <c r="KW43" s="3">
+      <c r="KW43" s="51">
         <v>1777</v>
       </c>
-      <c r="KX43" s="3">
+      <c r="KX43" s="51">
         <v>1792</v>
       </c>
-      <c r="KY43" s="3">
+      <c r="KY43" s="51">
         <v>1802</v>
       </c>
-      <c r="KZ43" s="3">
+      <c r="KZ43" s="51">
         <v>1801</v>
       </c>
-      <c r="LA43" s="3">
+      <c r="LA43" s="51">
         <v>1801</v>
       </c>
       <c r="LB43" s="4">
         <v>1802</v>
       </c>
+      <c r="LC43" s="4">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="44" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
         <v>31</v>
@@ -38562,41 +38694,44 @@
       <c r="KQ44" s="2">
         <v>1730</v>
       </c>
-      <c r="KR44" s="3">
+      <c r="KR44" s="51">
         <v>1746</v>
       </c>
-      <c r="KS44" s="3">
+      <c r="KS44" s="51">
         <v>1764</v>
       </c>
-      <c r="KT44" s="3">
+      <c r="KT44" s="51">
         <v>1746</v>
       </c>
-      <c r="KU44" s="3">
+      <c r="KU44" s="51">
         <v>1739</v>
       </c>
-      <c r="KV44" s="3">
+      <c r="KV44" s="51">
         <v>1760</v>
       </c>
-      <c r="KW44" s="3">
+      <c r="KW44" s="51">
         <v>1775</v>
       </c>
-      <c r="KX44" s="3">
+      <c r="KX44" s="51">
         <v>1760</v>
       </c>
-      <c r="KY44" s="3">
+      <c r="KY44" s="51">
         <v>1777</v>
       </c>
-      <c r="KZ44" s="3">
+      <c r="KZ44" s="51">
         <v>1795</v>
       </c>
-      <c r="LA44" s="3">
+      <c r="LA44" s="51">
         <v>1791</v>
       </c>
       <c r="LB44" s="4">
         <v>1789</v>
       </c>
+      <c r="LC44" s="4">
+        <v>1780</v>
+      </c>
     </row>
-    <row r="45" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
         <v>32</v>
@@ -39504,41 +39639,44 @@
       <c r="KQ45" s="2">
         <v>1501</v>
       </c>
-      <c r="KR45" s="3">
+      <c r="KR45" s="51">
         <v>1509</v>
       </c>
-      <c r="KS45" s="3">
+      <c r="KS45" s="51">
         <v>1506</v>
       </c>
-      <c r="KT45" s="3">
+      <c r="KT45" s="51">
         <v>1515</v>
       </c>
-      <c r="KU45" s="3">
+      <c r="KU45" s="51">
         <v>1504</v>
       </c>
-      <c r="KV45" s="3">
+      <c r="KV45" s="51">
         <v>1496</v>
       </c>
-      <c r="KW45" s="3">
+      <c r="KW45" s="51">
         <v>1492</v>
       </c>
-      <c r="KX45" s="3">
+      <c r="KX45" s="51">
         <v>1497</v>
       </c>
-      <c r="KY45" s="3">
+      <c r="KY45" s="51">
         <v>1487</v>
       </c>
-      <c r="KZ45" s="3">
+      <c r="KZ45" s="51">
         <v>1487</v>
       </c>
-      <c r="LA45" s="3">
+      <c r="LA45" s="51">
         <v>1493</v>
       </c>
       <c r="LB45" s="4">
         <v>1489</v>
       </c>
+      <c r="LC45" s="4">
+        <v>1495</v>
+      </c>
     </row>
-    <row r="46" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
         <v>33</v>
@@ -39955,32 +40093,33 @@
       <c r="KB46" s="3"/>
       <c r="KC46" s="3"/>
       <c r="KD46" s="3"/>
-      <c r="KE46" s="35"/>
-      <c r="KF46" s="38"/>
-      <c r="KG46" s="38"/>
-      <c r="KH46" s="38"/>
-      <c r="KI46" s="38"/>
-      <c r="KJ46" s="38"/>
-      <c r="KK46" s="38"/>
-      <c r="KL46" s="38"/>
-      <c r="KM46" s="38"/>
-      <c r="KN46" s="38"/>
-      <c r="KO46" s="38"/>
-      <c r="KP46" s="38"/>
-      <c r="KQ46" s="35"/>
-      <c r="KR46" s="38"/>
-      <c r="KS46" s="38"/>
-      <c r="KT46" s="38"/>
-      <c r="KU46" s="38"/>
-      <c r="KV46" s="38"/>
-      <c r="KW46" s="38"/>
-      <c r="KX46" s="38"/>
-      <c r="KY46" s="38"/>
-      <c r="KZ46" s="38"/>
-      <c r="LA46" s="38"/>
-      <c r="LB46" s="36"/>
+      <c r="KE46" s="34"/>
+      <c r="KF46" s="37"/>
+      <c r="KG46" s="37"/>
+      <c r="KH46" s="37"/>
+      <c r="KI46" s="37"/>
+      <c r="KJ46" s="37"/>
+      <c r="KK46" s="37"/>
+      <c r="KL46" s="37"/>
+      <c r="KM46" s="37"/>
+      <c r="KN46" s="37"/>
+      <c r="KO46" s="37"/>
+      <c r="KP46" s="37"/>
+      <c r="KQ46" s="34"/>
+      <c r="KR46" s="37"/>
+      <c r="KS46" s="37"/>
+      <c r="KT46" s="37"/>
+      <c r="KU46" s="37"/>
+      <c r="KV46" s="37"/>
+      <c r="KW46" s="37"/>
+      <c r="KX46" s="37"/>
+      <c r="KY46" s="37"/>
+      <c r="KZ46" s="37"/>
+      <c r="LA46" s="37"/>
+      <c r="LB46" s="35"/>
+      <c r="LC46" s="35"/>
     </row>
-    <row r="47" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -40851,80 +40990,83 @@
       <c r="KD47" s="8">
         <v>480660</v>
       </c>
-      <c r="KE47" s="29">
+      <c r="KE47" s="28">
         <v>483047</v>
       </c>
-      <c r="KF47" s="37">
+      <c r="KF47" s="36">
         <v>487818</v>
       </c>
-      <c r="KG47" s="37">
+      <c r="KG47" s="36">
         <v>493413</v>
       </c>
-      <c r="KH47" s="37">
+      <c r="KH47" s="36">
         <v>494824</v>
       </c>
-      <c r="KI47" s="37">
+      <c r="KI47" s="36">
         <v>496682</v>
       </c>
-      <c r="KJ47" s="37">
+      <c r="KJ47" s="36">
         <v>499541</v>
       </c>
-      <c r="KK47" s="37">
+      <c r="KK47" s="36">
         <v>502349</v>
       </c>
-      <c r="KL47" s="37">
+      <c r="KL47" s="36">
         <v>505597</v>
       </c>
-      <c r="KM47" s="37">
+      <c r="KM47" s="36">
         <v>509874</v>
       </c>
-      <c r="KN47" s="37">
+      <c r="KN47" s="36">
         <v>513734</v>
       </c>
-      <c r="KO47" s="37">
+      <c r="KO47" s="36">
         <v>515303</v>
       </c>
-      <c r="KP47" s="37">
+      <c r="KP47" s="36">
         <v>508146</v>
       </c>
-      <c r="KQ47" s="29">
+      <c r="KQ47" s="28">
         <v>512903</v>
       </c>
-      <c r="KR47" s="37">
+      <c r="KR47" s="50">
         <v>517652</v>
       </c>
-      <c r="KS47" s="37">
+      <c r="KS47" s="50">
         <v>519869</v>
       </c>
-      <c r="KT47" s="37">
+      <c r="KT47" s="50">
         <v>518782</v>
       </c>
-      <c r="KU47" s="37">
+      <c r="KU47" s="50">
         <v>519348</v>
       </c>
-      <c r="KV47" s="37">
+      <c r="KV47" s="50">
         <v>520206</v>
       </c>
-      <c r="KW47" s="37">
+      <c r="KW47" s="50">
         <v>520186</v>
       </c>
-      <c r="KX47" s="37">
+      <c r="KX47" s="50">
         <v>521651</v>
       </c>
-      <c r="KY47" s="37">
+      <c r="KY47" s="50">
         <v>523366</v>
       </c>
-      <c r="KZ47" s="37">
+      <c r="KZ47" s="50">
         <v>523564</v>
       </c>
-      <c r="LA47" s="37">
+      <c r="LA47" s="50">
         <v>523749</v>
       </c>
-      <c r="LB47" s="30">
+      <c r="LB47" s="29">
         <v>516606</v>
       </c>
+      <c r="LC47" s="29">
+        <v>517363</v>
+      </c>
     </row>
-    <row r="48" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
         <v>25</v>
@@ -41832,41 +41974,44 @@
       <c r="KQ48" s="2">
         <v>81027</v>
       </c>
-      <c r="KR48" s="3">
+      <c r="KR48" s="51">
         <v>81751</v>
       </c>
-      <c r="KS48" s="3">
+      <c r="KS48" s="51">
         <v>82520</v>
       </c>
-      <c r="KT48" s="3">
+      <c r="KT48" s="51">
         <v>82503</v>
       </c>
-      <c r="KU48" s="3">
+      <c r="KU48" s="51">
         <v>83054</v>
       </c>
-      <c r="KV48" s="3">
+      <c r="KV48" s="51">
         <v>83482</v>
       </c>
-      <c r="KW48" s="3">
+      <c r="KW48" s="51">
         <v>83641</v>
       </c>
-      <c r="KX48" s="3">
+      <c r="KX48" s="51">
         <v>84381</v>
       </c>
-      <c r="KY48" s="3">
+      <c r="KY48" s="51">
         <v>84861</v>
       </c>
-      <c r="KZ48" s="3">
+      <c r="KZ48" s="51">
         <v>85300</v>
       </c>
-      <c r="LA48" s="3">
+      <c r="LA48" s="51">
         <v>85896</v>
       </c>
       <c r="LB48" s="4">
         <v>85846</v>
       </c>
+      <c r="LC48" s="4">
+        <v>86337</v>
+      </c>
     </row>
-    <row r="49" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
         <v>26</v>
@@ -42774,41 +42919,44 @@
       <c r="KQ49" s="2">
         <v>14515</v>
       </c>
-      <c r="KR49" s="3">
+      <c r="KR49" s="51">
         <v>14908</v>
       </c>
-      <c r="KS49" s="3">
+      <c r="KS49" s="51">
         <v>15266</v>
       </c>
-      <c r="KT49" s="3">
+      <c r="KT49" s="51">
         <v>15101</v>
       </c>
-      <c r="KU49" s="3">
+      <c r="KU49" s="51">
         <v>14920</v>
       </c>
-      <c r="KV49" s="3">
+      <c r="KV49" s="51">
         <v>15246</v>
       </c>
-      <c r="KW49" s="3">
+      <c r="KW49" s="51">
         <v>15195</v>
       </c>
-      <c r="KX49" s="3">
+      <c r="KX49" s="51">
         <v>15027</v>
       </c>
-      <c r="KY49" s="3">
+      <c r="KY49" s="51">
         <v>15070</v>
       </c>
-      <c r="KZ49" s="3">
+      <c r="KZ49" s="51">
         <v>14920</v>
       </c>
-      <c r="LA49" s="3">
+      <c r="LA49" s="51">
         <v>14829</v>
       </c>
       <c r="LB49" s="4">
         <v>14038</v>
       </c>
+      <c r="LC49" s="4">
+        <v>14108</v>
+      </c>
     </row>
-    <row r="50" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
@@ -43716,41 +43864,44 @@
       <c r="KQ50" s="2">
         <v>70968</v>
       </c>
-      <c r="KR50" s="3">
+      <c r="KR50" s="51">
         <v>71719</v>
       </c>
-      <c r="KS50" s="3">
+      <c r="KS50" s="51">
         <v>72143</v>
       </c>
-      <c r="KT50" s="3">
+      <c r="KT50" s="51">
         <v>71950</v>
       </c>
-      <c r="KU50" s="3">
+      <c r="KU50" s="51">
         <v>71885</v>
       </c>
-      <c r="KV50" s="3">
+      <c r="KV50" s="51">
         <v>72437</v>
       </c>
-      <c r="KW50" s="3">
+      <c r="KW50" s="51">
         <v>72287</v>
       </c>
-      <c r="KX50" s="3">
+      <c r="KX50" s="51">
         <v>71767</v>
       </c>
-      <c r="KY50" s="3">
+      <c r="KY50" s="51">
         <v>71854</v>
       </c>
-      <c r="KZ50" s="3">
+      <c r="KZ50" s="51">
         <v>71472</v>
       </c>
-      <c r="LA50" s="3">
+      <c r="LA50" s="51">
         <v>71148</v>
       </c>
       <c r="LB50" s="4">
         <v>68982</v>
       </c>
+      <c r="LC50" s="4">
+        <v>68916</v>
+      </c>
     </row>
-    <row r="51" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="14" t="s">
         <v>28</v>
@@ -44658,41 +44809,44 @@
       <c r="KQ51" s="2">
         <v>82137</v>
       </c>
-      <c r="KR51" s="3">
+      <c r="KR51" s="51">
         <v>83127</v>
       </c>
-      <c r="KS51" s="3">
+      <c r="KS51" s="51">
         <v>83250</v>
       </c>
-      <c r="KT51" s="3">
+      <c r="KT51" s="51">
         <v>83108</v>
       </c>
-      <c r="KU51" s="3">
+      <c r="KU51" s="51">
         <v>83241</v>
       </c>
-      <c r="KV51" s="3">
+      <c r="KV51" s="51">
         <v>83014</v>
       </c>
-      <c r="KW51" s="3">
+      <c r="KW51" s="51">
         <v>83078</v>
       </c>
-      <c r="KX51" s="3">
+      <c r="KX51" s="51">
         <v>83573</v>
       </c>
-      <c r="KY51" s="3">
+      <c r="KY51" s="51">
         <v>83763</v>
       </c>
-      <c r="KZ51" s="3">
+      <c r="KZ51" s="51">
         <v>83776</v>
       </c>
-      <c r="LA51" s="3">
+      <c r="LA51" s="51">
         <v>83572</v>
       </c>
       <c r="LB51" s="4">
         <v>82232</v>
       </c>
+      <c r="LC51" s="4">
+        <v>81685</v>
+      </c>
     </row>
-    <row r="52" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="14" t="s">
         <v>29</v>
@@ -45600,41 +45754,44 @@
       <c r="KQ52" s="2">
         <v>77211</v>
       </c>
-      <c r="KR52" s="3">
+      <c r="KR52" s="51">
         <v>77846</v>
       </c>
-      <c r="KS52" s="3">
+      <c r="KS52" s="51">
         <v>77999</v>
       </c>
-      <c r="KT52" s="3">
+      <c r="KT52" s="51">
         <v>77778</v>
       </c>
-      <c r="KU52" s="3">
+      <c r="KU52" s="51">
         <v>77689</v>
       </c>
-      <c r="KV52" s="3">
+      <c r="KV52" s="51">
         <v>77611</v>
       </c>
-      <c r="KW52" s="3">
+      <c r="KW52" s="51">
         <v>77678</v>
       </c>
-      <c r="KX52" s="3">
+      <c r="KX52" s="51">
         <v>77940</v>
       </c>
-      <c r="KY52" s="3">
+      <c r="KY52" s="51">
         <v>78091</v>
       </c>
-      <c r="KZ52" s="3">
+      <c r="KZ52" s="51">
         <v>78051</v>
       </c>
-      <c r="LA52" s="3">
+      <c r="LA52" s="51">
         <v>78023</v>
       </c>
       <c r="LB52" s="4">
         <v>77079</v>
       </c>
+      <c r="LC52" s="4">
+        <v>77650</v>
+      </c>
     </row>
-    <row r="53" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="14" t="s">
         <v>30</v>
@@ -46542,41 +46699,44 @@
       <c r="KQ53" s="2">
         <v>68609</v>
       </c>
-      <c r="KR53" s="3">
+      <c r="KR53" s="51">
         <v>68992</v>
       </c>
-      <c r="KS53" s="3">
+      <c r="KS53" s="51">
         <v>69017</v>
       </c>
-      <c r="KT53" s="3">
+      <c r="KT53" s="51">
         <v>68818</v>
       </c>
-      <c r="KU53" s="3">
+      <c r="KU53" s="51">
         <v>68740</v>
       </c>
-      <c r="KV53" s="3">
+      <c r="KV53" s="51">
         <v>68665</v>
       </c>
-      <c r="KW53" s="3">
+      <c r="KW53" s="51">
         <v>68468</v>
       </c>
-      <c r="KX53" s="3">
+      <c r="KX53" s="51">
         <v>68832</v>
       </c>
-      <c r="KY53" s="3">
+      <c r="KY53" s="51">
         <v>69004</v>
       </c>
-      <c r="KZ53" s="3">
+      <c r="KZ53" s="51">
         <v>69050</v>
       </c>
-      <c r="LA53" s="3">
+      <c r="LA53" s="51">
         <v>69161</v>
       </c>
       <c r="LB53" s="4">
         <v>68362</v>
       </c>
+      <c r="LC53" s="4">
+        <v>68684</v>
+      </c>
     </row>
-    <row r="54" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="14" t="s">
         <v>31</v>
@@ -47484,41 +47644,44 @@
       <c r="KQ54" s="2">
         <v>63444</v>
       </c>
-      <c r="KR54" s="3">
+      <c r="KR54" s="51">
         <v>63880</v>
       </c>
-      <c r="KS54" s="3">
+      <c r="KS54" s="51">
         <v>64066</v>
       </c>
-      <c r="KT54" s="3">
+      <c r="KT54" s="51">
         <v>64013</v>
       </c>
-      <c r="KU54" s="3">
+      <c r="KU54" s="51">
         <v>64108</v>
       </c>
-      <c r="KV54" s="3">
+      <c r="KV54" s="51">
         <v>64112</v>
       </c>
-      <c r="KW54" s="3">
+      <c r="KW54" s="51">
         <v>64205</v>
       </c>
-      <c r="KX54" s="3">
+      <c r="KX54" s="51">
         <v>64308</v>
       </c>
-      <c r="KY54" s="3">
+      <c r="KY54" s="51">
         <v>64708</v>
       </c>
-      <c r="KZ54" s="3">
+      <c r="KZ54" s="51">
         <v>64877</v>
       </c>
-      <c r="LA54" s="3">
+      <c r="LA54" s="51">
         <v>64948</v>
       </c>
       <c r="LB54" s="4">
         <v>64363</v>
       </c>
+      <c r="LC54" s="4">
+        <v>64349</v>
+      </c>
     </row>
-    <row r="55" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="14" t="s">
         <v>32</v>
@@ -48426,41 +48589,44 @@
       <c r="KQ55" s="2">
         <v>54990</v>
       </c>
-      <c r="KR55" s="3">
+      <c r="KR55" s="51">
         <v>55424</v>
       </c>
-      <c r="KS55" s="3">
+      <c r="KS55" s="51">
         <v>55607</v>
       </c>
-      <c r="KT55" s="3">
+      <c r="KT55" s="51">
         <v>55508</v>
       </c>
-      <c r="KU55" s="3">
+      <c r="KU55" s="51">
         <v>55708</v>
       </c>
-      <c r="KV55" s="3">
+      <c r="KV55" s="51">
         <v>55634</v>
       </c>
-      <c r="KW55" s="3">
+      <c r="KW55" s="51">
         <v>55631</v>
       </c>
-      <c r="KX55" s="3">
+      <c r="KX55" s="51">
         <v>55820</v>
       </c>
-      <c r="KY55" s="3">
+      <c r="KY55" s="51">
         <v>56012</v>
       </c>
-      <c r="KZ55" s="3">
+      <c r="KZ55" s="51">
         <v>56114</v>
       </c>
-      <c r="LA55" s="3">
+      <c r="LA55" s="51">
         <v>56169</v>
       </c>
       <c r="LB55" s="4">
         <v>55700</v>
       </c>
+      <c r="LC55" s="4">
+        <v>55632</v>
+      </c>
     </row>
-    <row r="56" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="14" t="s">
         <v>33</v>
@@ -49329,80 +49495,83 @@
       <c r="KD56" s="3">
         <v>6</v>
       </c>
-      <c r="KE56" s="35">
+      <c r="KE56" s="34">
         <v>6</v>
       </c>
-      <c r="KF56" s="38">
+      <c r="KF56" s="37">
         <v>8</v>
       </c>
-      <c r="KG56" s="38">
+      <c r="KG56" s="37">
         <v>9</v>
       </c>
-      <c r="KH56" s="38">
+      <c r="KH56" s="37">
         <v>8</v>
       </c>
-      <c r="KI56" s="38">
+      <c r="KI56" s="37">
         <v>10</v>
       </c>
-      <c r="KJ56" s="38">
+      <c r="KJ56" s="37">
         <v>9</v>
       </c>
-      <c r="KK56" s="38">
+      <c r="KK56" s="37">
         <v>9</v>
       </c>
-      <c r="KL56" s="38">
+      <c r="KL56" s="37">
         <v>6</v>
       </c>
-      <c r="KM56" s="38">
+      <c r="KM56" s="37">
         <v>3</v>
       </c>
-      <c r="KN56" s="38">
+      <c r="KN56" s="37">
         <v>4</v>
       </c>
-      <c r="KO56" s="38">
+      <c r="KO56" s="37">
         <v>3</v>
       </c>
-      <c r="KP56" s="38">
+      <c r="KP56" s="37">
         <v>3</v>
       </c>
-      <c r="KQ56" s="35">
+      <c r="KQ56" s="34">
         <v>2</v>
       </c>
-      <c r="KR56" s="38">
+      <c r="KR56" s="37">
         <v>5</v>
       </c>
-      <c r="KS56" s="38">
+      <c r="KS56" s="37">
         <v>1</v>
       </c>
-      <c r="KT56" s="38">
+      <c r="KT56" s="37">
         <v>3</v>
       </c>
-      <c r="KU56" s="38">
+      <c r="KU56" s="37">
         <v>3</v>
       </c>
-      <c r="KV56" s="38">
+      <c r="KV56" s="37">
         <v>5</v>
       </c>
-      <c r="KW56" s="38">
+      <c r="KW56" s="37">
         <v>3</v>
       </c>
-      <c r="KX56" s="38">
+      <c r="KX56" s="37">
         <v>3</v>
       </c>
-      <c r="KY56" s="38">
+      <c r="KY56" s="37">
         <v>3</v>
       </c>
-      <c r="KZ56" s="38">
+      <c r="KZ56" s="37">
         <v>4</v>
       </c>
-      <c r="LA56" s="38">
+      <c r="LA56" s="37">
         <v>3</v>
       </c>
-      <c r="LB56" s="36">
+      <c r="LB56" s="35">
         <v>4</v>
       </c>
+      <c r="LC56" s="35">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -50273,80 +50442,83 @@
       <c r="KD57" s="8">
         <v>2624</v>
       </c>
-      <c r="KE57" s="29">
+      <c r="KE57" s="28">
         <v>2642</v>
       </c>
-      <c r="KF57" s="37">
+      <c r="KF57" s="36">
         <v>2643</v>
       </c>
-      <c r="KG57" s="37">
+      <c r="KG57" s="36">
         <v>2577</v>
       </c>
-      <c r="KH57" s="37">
+      <c r="KH57" s="36">
         <v>2556</v>
       </c>
-      <c r="KI57" s="37">
+      <c r="KI57" s="36">
         <v>2538</v>
       </c>
-      <c r="KJ57" s="37">
+      <c r="KJ57" s="36">
         <v>2538</v>
       </c>
-      <c r="KK57" s="37">
+      <c r="KK57" s="36">
         <v>2465</v>
       </c>
-      <c r="KL57" s="37">
+      <c r="KL57" s="36">
         <v>2477</v>
       </c>
-      <c r="KM57" s="37">
+      <c r="KM57" s="36">
         <v>2518</v>
       </c>
-      <c r="KN57" s="37">
+      <c r="KN57" s="36">
         <v>2505</v>
       </c>
-      <c r="KO57" s="37">
+      <c r="KO57" s="36">
         <v>2515</v>
       </c>
-      <c r="KP57" s="37">
+      <c r="KP57" s="36">
         <v>2500</v>
       </c>
-      <c r="KQ57" s="29">
+      <c r="KQ57" s="28">
         <v>2580</v>
       </c>
-      <c r="KR57" s="37">
+      <c r="KR57" s="50">
         <v>2633</v>
       </c>
-      <c r="KS57" s="37">
+      <c r="KS57" s="50">
         <v>2476</v>
       </c>
-      <c r="KT57" s="37">
+      <c r="KT57" s="50">
         <v>2545</v>
       </c>
-      <c r="KU57" s="37">
+      <c r="KU57" s="50">
         <v>2538</v>
       </c>
-      <c r="KV57" s="37">
+      <c r="KV57" s="50">
         <v>2593</v>
       </c>
-      <c r="KW57" s="37">
+      <c r="KW57" s="50">
         <v>2602</v>
       </c>
-      <c r="KX57" s="37">
+      <c r="KX57" s="50">
         <v>2584</v>
       </c>
-      <c r="KY57" s="37">
+      <c r="KY57" s="50">
         <v>2562</v>
       </c>
-      <c r="KZ57" s="37">
+      <c r="KZ57" s="50">
         <v>2586</v>
       </c>
-      <c r="LA57" s="37">
+      <c r="LA57" s="50">
         <v>2592</v>
       </c>
-      <c r="LB57" s="30">
+      <c r="LB57" s="29">
         <v>2616</v>
       </c>
+      <c r="LC57" s="29">
+        <v>2653</v>
+      </c>
     </row>
-    <row r="58" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="14" t="s">
         <v>25</v>
@@ -51254,41 +51426,44 @@
       <c r="KQ58" s="2">
         <v>531</v>
       </c>
-      <c r="KR58" s="3">
+      <c r="KR58" s="51">
         <v>548</v>
       </c>
-      <c r="KS58" s="3">
+      <c r="KS58" s="51">
         <v>538</v>
       </c>
-      <c r="KT58" s="3">
+      <c r="KT58" s="51">
         <v>552</v>
       </c>
-      <c r="KU58" s="3">
+      <c r="KU58" s="51">
         <v>560</v>
       </c>
-      <c r="KV58" s="3">
+      <c r="KV58" s="51">
         <v>572</v>
       </c>
-      <c r="KW58" s="3">
+      <c r="KW58" s="51">
         <v>589</v>
       </c>
-      <c r="KX58" s="3">
+      <c r="KX58" s="51">
         <v>593</v>
       </c>
-      <c r="KY58" s="3">
+      <c r="KY58" s="51">
         <v>599</v>
       </c>
-      <c r="KZ58" s="3">
+      <c r="KZ58" s="51">
         <v>616</v>
       </c>
-      <c r="LA58" s="3">
+      <c r="LA58" s="51">
         <v>613</v>
       </c>
       <c r="LB58" s="4">
         <v>634</v>
       </c>
+      <c r="LC58" s="4">
+        <v>636</v>
+      </c>
     </row>
-    <row r="59" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
         <v>26</v>
@@ -52196,41 +52371,44 @@
       <c r="KQ59" s="2">
         <v>35</v>
       </c>
-      <c r="KR59" s="3">
+      <c r="KR59" s="51">
         <v>35</v>
       </c>
-      <c r="KS59" s="3">
+      <c r="KS59" s="51">
         <v>30</v>
       </c>
-      <c r="KT59" s="3">
+      <c r="KT59" s="51">
         <v>29</v>
       </c>
-      <c r="KU59" s="3">
+      <c r="KU59" s="51">
         <v>31</v>
       </c>
-      <c r="KV59" s="3">
+      <c r="KV59" s="51">
         <v>29</v>
       </c>
-      <c r="KW59" s="3">
+      <c r="KW59" s="51">
         <v>27</v>
       </c>
-      <c r="KX59" s="3">
+      <c r="KX59" s="51">
         <v>31</v>
       </c>
-      <c r="KY59" s="3">
+      <c r="KY59" s="51">
         <v>30</v>
       </c>
-      <c r="KZ59" s="3">
+      <c r="KZ59" s="51">
         <v>31</v>
       </c>
-      <c r="LA59" s="3">
+      <c r="LA59" s="51">
         <v>31</v>
       </c>
       <c r="LB59" s="4">
         <v>30</v>
       </c>
+      <c r="LC59" s="4">
+        <v>27</v>
+      </c>
     </row>
-    <row r="60" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="14" t="s">
         <v>27</v>
@@ -53138,41 +53316,44 @@
       <c r="KQ60" s="2">
         <v>190</v>
       </c>
-      <c r="KR60" s="3">
+      <c r="KR60" s="51">
         <v>197</v>
       </c>
-      <c r="KS60" s="3">
+      <c r="KS60" s="51">
         <v>183</v>
       </c>
-      <c r="KT60" s="3">
+      <c r="KT60" s="51">
         <v>180</v>
       </c>
-      <c r="KU60" s="3">
+      <c r="KU60" s="51">
         <v>174</v>
       </c>
-      <c r="KV60" s="3">
+      <c r="KV60" s="51">
         <v>176</v>
       </c>
-      <c r="KW60" s="3">
+      <c r="KW60" s="51">
         <v>183</v>
       </c>
-      <c r="KX60" s="3">
+      <c r="KX60" s="51">
         <v>170</v>
       </c>
-      <c r="KY60" s="3">
+      <c r="KY60" s="51">
         <v>164</v>
       </c>
-      <c r="KZ60" s="3">
+      <c r="KZ60" s="51">
         <v>171</v>
       </c>
-      <c r="LA60" s="3">
+      <c r="LA60" s="51">
         <v>163</v>
       </c>
       <c r="LB60" s="4">
         <v>163</v>
       </c>
+      <c r="LC60" s="4">
+        <v>170</v>
+      </c>
     </row>
-    <row r="61" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -54080,41 +54261,44 @@
       <c r="KQ61" s="2">
         <v>383</v>
       </c>
-      <c r="KR61" s="3">
+      <c r="KR61" s="51">
         <v>393</v>
       </c>
-      <c r="KS61" s="3">
+      <c r="KS61" s="51">
         <v>379</v>
       </c>
-      <c r="KT61" s="3">
+      <c r="KT61" s="51">
         <v>378</v>
       </c>
-      <c r="KU61" s="3">
+      <c r="KU61" s="51">
         <v>371</v>
       </c>
-      <c r="KV61" s="3">
+      <c r="KV61" s="51">
         <v>377</v>
       </c>
-      <c r="KW61" s="3">
+      <c r="KW61" s="51">
         <v>363</v>
       </c>
-      <c r="KX61" s="3">
+      <c r="KX61" s="51">
         <v>360</v>
       </c>
-      <c r="KY61" s="3">
+      <c r="KY61" s="51">
         <v>352</v>
       </c>
-      <c r="KZ61" s="3">
+      <c r="KZ61" s="51">
         <v>340</v>
       </c>
-      <c r="LA61" s="3">
+      <c r="LA61" s="51">
         <v>332</v>
       </c>
       <c r="LB61" s="4">
         <v>337</v>
       </c>
+      <c r="LC61" s="4">
+        <v>344</v>
+      </c>
     </row>
-    <row r="62" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="14" t="s">
         <v>29</v>
@@ -55022,41 +55206,44 @@
       <c r="KQ62" s="2">
         <v>425</v>
       </c>
-      <c r="KR62" s="3">
+      <c r="KR62" s="51">
         <v>421</v>
       </c>
-      <c r="KS62" s="3">
+      <c r="KS62" s="51">
         <v>379</v>
       </c>
-      <c r="KT62" s="3">
+      <c r="KT62" s="51">
         <v>388</v>
       </c>
-      <c r="KU62" s="3">
+      <c r="KU62" s="51">
         <v>391</v>
       </c>
-      <c r="KV62" s="3">
+      <c r="KV62" s="51">
         <v>397</v>
       </c>
-      <c r="KW62" s="3">
+      <c r="KW62" s="51">
         <v>395</v>
       </c>
-      <c r="KX62" s="3">
+      <c r="KX62" s="51">
         <v>397</v>
       </c>
-      <c r="KY62" s="3">
+      <c r="KY62" s="51">
         <v>391</v>
       </c>
-      <c r="KZ62" s="3">
+      <c r="KZ62" s="51">
         <v>391</v>
       </c>
-      <c r="LA62" s="3">
+      <c r="LA62" s="51">
         <v>400</v>
       </c>
       <c r="LB62" s="4">
         <v>396</v>
       </c>
+      <c r="LC62" s="4">
+        <v>401</v>
+      </c>
     </row>
-    <row r="63" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="14" t="s">
         <v>30</v>
@@ -55964,41 +56151,44 @@
       <c r="KQ63" s="2">
         <v>385</v>
       </c>
-      <c r="KR63" s="3">
+      <c r="KR63" s="51">
         <v>392</v>
       </c>
-      <c r="KS63" s="3">
+      <c r="KS63" s="51">
         <v>357</v>
       </c>
-      <c r="KT63" s="3">
+      <c r="KT63" s="51">
         <v>380</v>
       </c>
-      <c r="KU63" s="3">
+      <c r="KU63" s="51">
         <v>379</v>
       </c>
-      <c r="KV63" s="3">
+      <c r="KV63" s="51">
         <v>396</v>
       </c>
-      <c r="KW63" s="3">
+      <c r="KW63" s="51">
         <v>399</v>
       </c>
-      <c r="KX63" s="3">
+      <c r="KX63" s="51">
         <v>392</v>
       </c>
-      <c r="KY63" s="3">
+      <c r="KY63" s="51">
         <v>392</v>
       </c>
-      <c r="KZ63" s="3">
+      <c r="KZ63" s="51">
         <v>398</v>
       </c>
-      <c r="LA63" s="3">
+      <c r="LA63" s="51">
         <v>409</v>
       </c>
       <c r="LB63" s="4">
         <v>410</v>
       </c>
+      <c r="LC63" s="4">
+        <v>407</v>
+      </c>
     </row>
-    <row r="64" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="14" t="s">
         <v>31</v>
@@ -56906,41 +57096,44 @@
       <c r="KQ64" s="2">
         <v>341</v>
       </c>
-      <c r="KR64" s="3">
+      <c r="KR64" s="51">
         <v>347</v>
       </c>
-      <c r="KS64" s="3">
+      <c r="KS64" s="51">
         <v>327</v>
       </c>
-      <c r="KT64" s="3">
+      <c r="KT64" s="51">
         <v>337</v>
       </c>
-      <c r="KU64" s="3">
+      <c r="KU64" s="51">
         <v>326</v>
       </c>
-      <c r="KV64" s="3">
+      <c r="KV64" s="51">
         <v>334</v>
       </c>
-      <c r="KW64" s="3">
+      <c r="KW64" s="51">
         <v>330</v>
       </c>
-      <c r="KX64" s="3">
+      <c r="KX64" s="51">
         <v>328</v>
       </c>
-      <c r="KY64" s="3">
+      <c r="KY64" s="51">
         <v>327</v>
       </c>
-      <c r="KZ64" s="3">
+      <c r="KZ64" s="51">
         <v>330</v>
       </c>
-      <c r="LA64" s="3">
+      <c r="LA64" s="51">
         <v>333</v>
       </c>
       <c r="LB64" s="4">
         <v>336</v>
       </c>
+      <c r="LC64" s="4">
+        <v>350</v>
+      </c>
     </row>
-    <row r="65" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
         <v>32</v>
@@ -57848,41 +58041,44 @@
       <c r="KQ65" s="2">
         <v>290</v>
       </c>
-      <c r="KR65" s="3">
+      <c r="KR65" s="51">
         <v>299</v>
       </c>
-      <c r="KS65" s="3">
+      <c r="KS65" s="51">
         <v>283</v>
       </c>
-      <c r="KT65" s="3">
+      <c r="KT65" s="51">
         <v>301</v>
       </c>
-      <c r="KU65" s="3">
+      <c r="KU65" s="51">
         <v>306</v>
       </c>
-      <c r="KV65" s="3">
+      <c r="KV65" s="51">
         <v>312</v>
       </c>
-      <c r="KW65" s="3">
+      <c r="KW65" s="51">
         <v>316</v>
       </c>
-      <c r="KX65" s="3">
+      <c r="KX65" s="51">
         <v>313</v>
       </c>
-      <c r="KY65" s="3">
+      <c r="KY65" s="51">
         <v>307</v>
       </c>
-      <c r="KZ65" s="3">
+      <c r="KZ65" s="51">
         <v>309</v>
       </c>
-      <c r="LA65" s="3">
+      <c r="LA65" s="51">
         <v>311</v>
       </c>
       <c r="LB65" s="4">
         <v>310</v>
       </c>
+      <c r="LC65" s="4">
+        <v>318</v>
+      </c>
     </row>
-    <row r="66" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
         <v>33</v>
@@ -58233,34 +58429,35 @@
       <c r="KB66" s="3"/>
       <c r="KC66" s="3"/>
       <c r="KD66" s="3"/>
-      <c r="KE66" s="35"/>
-      <c r="KF66" s="38"/>
-      <c r="KG66" s="38"/>
-      <c r="KH66" s="38"/>
-      <c r="KI66" s="38"/>
-      <c r="KJ66" s="38"/>
-      <c r="KK66" s="38"/>
-      <c r="KL66" s="38"/>
-      <c r="KM66" s="38"/>
-      <c r="KN66" s="38"/>
-      <c r="KO66" s="38"/>
-      <c r="KP66" s="38"/>
-      <c r="KQ66" s="35"/>
-      <c r="KR66" s="38">
+      <c r="KE66" s="34"/>
+      <c r="KF66" s="37"/>
+      <c r="KG66" s="37"/>
+      <c r="KH66" s="37"/>
+      <c r="KI66" s="37"/>
+      <c r="KJ66" s="37"/>
+      <c r="KK66" s="37"/>
+      <c r="KL66" s="37"/>
+      <c r="KM66" s="37"/>
+      <c r="KN66" s="37"/>
+      <c r="KO66" s="37"/>
+      <c r="KP66" s="37"/>
+      <c r="KQ66" s="34"/>
+      <c r="KR66" s="37">
         <v>1</v>
       </c>
-      <c r="KS66" s="38"/>
-      <c r="KT66" s="38"/>
-      <c r="KU66" s="38"/>
-      <c r="KV66" s="38"/>
-      <c r="KW66" s="38"/>
-      <c r="KX66" s="38"/>
-      <c r="KY66" s="38"/>
-      <c r="KZ66" s="38"/>
-      <c r="LA66" s="38"/>
-      <c r="LB66" s="36"/>
+      <c r="KS66" s="37"/>
+      <c r="KT66" s="37"/>
+      <c r="KU66" s="37"/>
+      <c r="KV66" s="37"/>
+      <c r="KW66" s="37"/>
+      <c r="KX66" s="37"/>
+      <c r="KY66" s="37"/>
+      <c r="KZ66" s="37"/>
+      <c r="LA66" s="37"/>
+      <c r="LB66" s="35"/>
+      <c r="LC66" s="35"/>
     </row>
-    <row r="67" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
@@ -59131,80 +59328,83 @@
       <c r="KD67" s="8">
         <v>620320</v>
       </c>
-      <c r="KE67" s="29">
+      <c r="KE67" s="28">
         <v>622201</v>
       </c>
-      <c r="KF67" s="37">
+      <c r="KF67" s="36">
         <v>626630</v>
       </c>
-      <c r="KG67" s="37">
+      <c r="KG67" s="36">
         <v>630046</v>
       </c>
-      <c r="KH67" s="37">
+      <c r="KH67" s="36">
         <v>630421</v>
       </c>
-      <c r="KI67" s="37">
+      <c r="KI67" s="36">
         <v>632610</v>
       </c>
-      <c r="KJ67" s="37">
+      <c r="KJ67" s="36">
         <v>634764</v>
       </c>
-      <c r="KK67" s="37">
+      <c r="KK67" s="36">
         <v>632848</v>
       </c>
-      <c r="KL67" s="37">
+      <c r="KL67" s="36">
         <v>636862</v>
       </c>
-      <c r="KM67" s="37">
+      <c r="KM67" s="36">
         <v>640257</v>
       </c>
-      <c r="KN67" s="37">
+      <c r="KN67" s="36">
         <v>645409</v>
       </c>
-      <c r="KO67" s="37">
+      <c r="KO67" s="36">
         <v>650779</v>
       </c>
-      <c r="KP67" s="37">
+      <c r="KP67" s="36">
         <v>644397</v>
       </c>
-      <c r="KQ67" s="29">
+      <c r="KQ67" s="28">
         <v>649778</v>
       </c>
-      <c r="KR67" s="37">
+      <c r="KR67" s="50">
         <v>653050</v>
       </c>
-      <c r="KS67" s="37">
+      <c r="KS67" s="50">
         <v>656605</v>
       </c>
-      <c r="KT67" s="37">
+      <c r="KT67" s="50">
         <v>659145</v>
       </c>
-      <c r="KU67" s="37">
+      <c r="KU67" s="50">
         <v>659693</v>
       </c>
-      <c r="KV67" s="37">
+      <c r="KV67" s="50">
         <v>660628</v>
       </c>
-      <c r="KW67" s="37">
+      <c r="KW67" s="50">
         <v>660673</v>
       </c>
-      <c r="KX67" s="37">
+      <c r="KX67" s="50">
         <v>662833</v>
       </c>
-      <c r="KY67" s="37">
+      <c r="KY67" s="50">
         <v>667871</v>
       </c>
-      <c r="KZ67" s="37">
+      <c r="KZ67" s="50">
         <v>673350</v>
       </c>
-      <c r="LA67" s="37">
+      <c r="LA67" s="50">
         <v>679191</v>
       </c>
-      <c r="LB67" s="30">
+      <c r="LB67" s="29">
         <v>669912</v>
       </c>
+      <c r="LC67" s="29">
+        <v>673639</v>
+      </c>
     </row>
-    <row r="68" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="14" t="s">
         <v>25</v>
@@ -60112,41 +60312,44 @@
       <c r="KQ68" s="2">
         <v>137712</v>
       </c>
-      <c r="KR68" s="3">
+      <c r="KR68" s="51">
         <v>138793</v>
       </c>
-      <c r="KS68" s="3">
+      <c r="KS68" s="51">
         <v>139183</v>
       </c>
-      <c r="KT68" s="3">
+      <c r="KT68" s="51">
         <v>140723</v>
       </c>
-      <c r="KU68" s="3">
+      <c r="KU68" s="51">
         <v>141513</v>
       </c>
-      <c r="KV68" s="3">
+      <c r="KV68" s="51">
         <v>142019</v>
       </c>
-      <c r="KW68" s="3">
+      <c r="KW68" s="51">
         <v>142748</v>
       </c>
-      <c r="KX68" s="3">
+      <c r="KX68" s="51">
         <v>143829</v>
       </c>
-      <c r="KY68" s="3">
+      <c r="KY68" s="51">
         <v>145286</v>
       </c>
-      <c r="KZ68" s="3">
+      <c r="KZ68" s="51">
         <v>146750</v>
       </c>
-      <c r="LA68" s="3">
+      <c r="LA68" s="51">
         <v>148224</v>
       </c>
       <c r="LB68" s="4">
         <v>147055</v>
       </c>
+      <c r="LC68" s="4">
+        <v>148596</v>
+      </c>
     </row>
-    <row r="69" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -61054,41 +61257,44 @@
       <c r="KQ69" s="2">
         <v>10209</v>
       </c>
-      <c r="KR69" s="3">
+      <c r="KR69" s="51">
         <v>10433</v>
       </c>
-      <c r="KS69" s="3">
+      <c r="KS69" s="51">
         <v>10667</v>
       </c>
-      <c r="KT69" s="3">
+      <c r="KT69" s="51">
         <v>10682</v>
       </c>
-      <c r="KU69" s="3">
+      <c r="KU69" s="51">
         <v>10634</v>
       </c>
-      <c r="KV69" s="3">
+      <c r="KV69" s="51">
         <v>10975</v>
       </c>
-      <c r="KW69" s="3">
+      <c r="KW69" s="51">
         <v>11192</v>
       </c>
-      <c r="KX69" s="3">
+      <c r="KX69" s="51">
         <v>10453</v>
       </c>
-      <c r="KY69" s="3">
+      <c r="KY69" s="51">
         <v>10498</v>
       </c>
-      <c r="KZ69" s="3">
+      <c r="KZ69" s="51">
         <v>10621</v>
       </c>
-      <c r="LA69" s="3">
+      <c r="LA69" s="51">
         <v>10769</v>
       </c>
       <c r="LB69" s="4">
         <v>10561</v>
       </c>
+      <c r="LC69" s="4">
+        <v>10345</v>
+      </c>
     </row>
-    <row r="70" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="14" t="s">
         <v>27</v>
@@ -61996,41 +62202,44 @@
       <c r="KQ70" s="2">
         <v>62400</v>
       </c>
-      <c r="KR70" s="3">
+      <c r="KR70" s="51">
         <v>62797</v>
       </c>
-      <c r="KS70" s="3">
+      <c r="KS70" s="51">
         <v>63633</v>
       </c>
-      <c r="KT70" s="3">
+      <c r="KT70" s="51">
         <v>63782</v>
       </c>
-      <c r="KU70" s="3">
+      <c r="KU70" s="51">
         <v>63571</v>
       </c>
-      <c r="KV70" s="3">
+      <c r="KV70" s="51">
         <v>64198</v>
       </c>
-      <c r="KW70" s="3">
+      <c r="KW70" s="51">
         <v>64091</v>
       </c>
-      <c r="KX70" s="3">
+      <c r="KX70" s="51">
         <v>63106</v>
       </c>
-      <c r="KY70" s="3">
+      <c r="KY70" s="51">
         <v>63536</v>
       </c>
-      <c r="KZ70" s="3">
+      <c r="KZ70" s="51">
         <v>64001</v>
       </c>
-      <c r="LA70" s="3">
+      <c r="LA70" s="51">
         <v>64618</v>
       </c>
       <c r="LB70" s="4">
         <v>63173</v>
       </c>
+      <c r="LC70" s="4">
+        <v>62698</v>
+      </c>
     </row>
-    <row r="71" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="14" t="s">
         <v>28</v>
@@ -62938,41 +63147,44 @@
       <c r="KQ71" s="2">
         <v>100441</v>
       </c>
-      <c r="KR71" s="3">
+      <c r="KR71" s="51">
         <v>100741</v>
       </c>
-      <c r="KS71" s="3">
+      <c r="KS71" s="51">
         <v>101670</v>
       </c>
-      <c r="KT71" s="3">
+      <c r="KT71" s="51">
         <v>101860</v>
       </c>
-      <c r="KU71" s="3">
+      <c r="KU71" s="51">
         <v>101709</v>
       </c>
-      <c r="KV71" s="3">
+      <c r="KV71" s="51">
         <v>101536</v>
       </c>
-      <c r="KW71" s="3">
+      <c r="KW71" s="51">
         <v>101406</v>
       </c>
-      <c r="KX71" s="3">
+      <c r="KX71" s="51">
         <v>101902</v>
       </c>
-      <c r="KY71" s="3">
+      <c r="KY71" s="51">
         <v>102636</v>
       </c>
-      <c r="KZ71" s="3">
+      <c r="KZ71" s="51">
         <v>103465</v>
       </c>
-      <c r="LA71" s="3">
+      <c r="LA71" s="51">
         <v>104613</v>
       </c>
       <c r="LB71" s="4">
         <v>102934</v>
       </c>
+      <c r="LC71" s="4">
+        <v>102702</v>
+      </c>
     </row>
-    <row r="72" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="14" t="s">
         <v>29</v>
@@ -63880,41 +64092,44 @@
       <c r="KQ72" s="2">
         <v>98780</v>
       </c>
-      <c r="KR72" s="3">
+      <c r="KR72" s="51">
         <v>99071</v>
       </c>
-      <c r="KS72" s="3">
+      <c r="KS72" s="51">
         <v>99469</v>
       </c>
-      <c r="KT72" s="3">
+      <c r="KT72" s="51">
         <v>99771</v>
       </c>
-      <c r="KU72" s="3">
+      <c r="KU72" s="51">
         <v>99650</v>
       </c>
-      <c r="KV72" s="3">
+      <c r="KV72" s="51">
         <v>99394</v>
       </c>
-      <c r="KW72" s="3">
+      <c r="KW72" s="51">
         <v>99234</v>
       </c>
-      <c r="KX72" s="3">
+      <c r="KX72" s="51">
         <v>100055</v>
       </c>
-      <c r="KY72" s="3">
+      <c r="KY72" s="51">
         <v>100768</v>
       </c>
-      <c r="KZ72" s="3">
+      <c r="KZ72" s="51">
         <v>101806</v>
       </c>
-      <c r="LA72" s="3">
+      <c r="LA72" s="51">
         <v>102594</v>
       </c>
       <c r="LB72" s="4">
         <v>101029</v>
       </c>
+      <c r="LC72" s="4">
+        <v>101871</v>
+      </c>
     </row>
-    <row r="73" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="14" t="s">
         <v>30</v>
@@ -64822,41 +65037,44 @@
       <c r="KQ73" s="2">
         <v>88801</v>
       </c>
-      <c r="KR73" s="3">
+      <c r="KR73" s="51">
         <v>89166</v>
       </c>
-      <c r="KS73" s="3">
+      <c r="KS73" s="51">
         <v>89504</v>
       </c>
-      <c r="KT73" s="3">
+      <c r="KT73" s="51">
         <v>89613</v>
       </c>
-      <c r="KU73" s="3">
+      <c r="KU73" s="51">
         <v>89533</v>
       </c>
-      <c r="KV73" s="3">
+      <c r="KV73" s="51">
         <v>89251</v>
       </c>
-      <c r="KW73" s="3">
+      <c r="KW73" s="51">
         <v>89004</v>
       </c>
-      <c r="KX73" s="3">
+      <c r="KX73" s="51">
         <v>89646</v>
       </c>
-      <c r="KY73" s="3">
+      <c r="KY73" s="51">
         <v>90267</v>
       </c>
-      <c r="KZ73" s="3">
+      <c r="KZ73" s="51">
         <v>90872</v>
       </c>
-      <c r="LA73" s="3">
+      <c r="LA73" s="51">
         <v>91454</v>
       </c>
       <c r="LB73" s="4">
         <v>90163</v>
       </c>
+      <c r="LC73" s="4">
+        <v>90927</v>
+      </c>
     </row>
-    <row r="74" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="14" t="s">
         <v>31</v>
@@ -65764,41 +65982,44 @@
       <c r="KQ74" s="2">
         <v>79885</v>
       </c>
-      <c r="KR74" s="3">
+      <c r="KR74" s="51">
         <v>80234</v>
       </c>
-      <c r="KS74" s="3">
+      <c r="KS74" s="51">
         <v>80554</v>
       </c>
-      <c r="KT74" s="3">
+      <c r="KT74" s="51">
         <v>80670</v>
       </c>
-      <c r="KU74" s="3">
+      <c r="KU74" s="51">
         <v>80906</v>
       </c>
-      <c r="KV74" s="3">
+      <c r="KV74" s="51">
         <v>80983</v>
       </c>
-      <c r="KW74" s="3">
+      <c r="KW74" s="51">
         <v>80909</v>
       </c>
-      <c r="KX74" s="3">
+      <c r="KX74" s="51">
         <v>81458</v>
       </c>
-      <c r="KY74" s="3">
+      <c r="KY74" s="51">
         <v>81992</v>
       </c>
-      <c r="KZ74" s="3">
+      <c r="KZ74" s="51">
         <v>82423</v>
       </c>
-      <c r="LA74" s="3">
+      <c r="LA74" s="51">
         <v>83119</v>
       </c>
       <c r="LB74" s="4">
         <v>82147</v>
       </c>
+      <c r="LC74" s="4">
+        <v>83050</v>
+      </c>
     </row>
-    <row r="75" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="14" t="s">
         <v>32</v>
@@ -66706,41 +66927,44 @@
       <c r="KQ75" s="2">
         <v>71544</v>
       </c>
-      <c r="KR75" s="3">
+      <c r="KR75" s="51">
         <v>71812</v>
       </c>
-      <c r="KS75" s="3">
+      <c r="KS75" s="51">
         <v>71922</v>
       </c>
-      <c r="KT75" s="3">
+      <c r="KT75" s="51">
         <v>72040</v>
       </c>
-      <c r="KU75" s="3">
+      <c r="KU75" s="51">
         <v>72173</v>
       </c>
-      <c r="KV75" s="3">
+      <c r="KV75" s="51">
         <v>72268</v>
       </c>
-      <c r="KW75" s="3">
+      <c r="KW75" s="51">
         <v>72084</v>
       </c>
-      <c r="KX75" s="3">
+      <c r="KX75" s="51">
         <v>72378</v>
       </c>
-      <c r="KY75" s="3">
+      <c r="KY75" s="51">
         <v>72877</v>
       </c>
-      <c r="KZ75" s="3">
+      <c r="KZ75" s="51">
         <v>73404</v>
       </c>
-      <c r="LA75" s="3">
+      <c r="LA75" s="51">
         <v>73794</v>
       </c>
       <c r="LB75" s="4">
         <v>72844</v>
       </c>
+      <c r="LC75" s="4">
+        <v>73443</v>
+      </c>
     </row>
-    <row r="76" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="14" t="s">
         <v>33</v>
@@ -67609,80 +67833,83 @@
       <c r="KD76" s="3">
         <v>5</v>
       </c>
-      <c r="KE76" s="35">
+      <c r="KE76" s="34">
         <v>3</v>
       </c>
-      <c r="KF76" s="38">
+      <c r="KF76" s="37">
         <v>4</v>
       </c>
-      <c r="KG76" s="38">
+      <c r="KG76" s="37">
         <v>2</v>
       </c>
-      <c r="KH76" s="38">
+      <c r="KH76" s="37">
         <v>5</v>
       </c>
-      <c r="KI76" s="38">
+      <c r="KI76" s="37">
         <v>3</v>
       </c>
-      <c r="KJ76" s="38">
+      <c r="KJ76" s="37">
         <v>3</v>
       </c>
-      <c r="KK76" s="38">
+      <c r="KK76" s="37">
         <v>4</v>
       </c>
-      <c r="KL76" s="38">
+      <c r="KL76" s="37">
         <v>6</v>
       </c>
-      <c r="KM76" s="38">
+      <c r="KM76" s="37">
         <v>6</v>
       </c>
-      <c r="KN76" s="38">
+      <c r="KN76" s="37">
         <v>4</v>
       </c>
-      <c r="KO76" s="38">
+      <c r="KO76" s="37">
         <v>5</v>
       </c>
-      <c r="KP76" s="38">
+      <c r="KP76" s="37">
         <v>4</v>
       </c>
-      <c r="KQ76" s="35">
+      <c r="KQ76" s="34">
         <v>6</v>
       </c>
-      <c r="KR76" s="38">
+      <c r="KR76" s="37">
         <v>3</v>
       </c>
-      <c r="KS76" s="38">
+      <c r="KS76" s="37">
         <v>3</v>
       </c>
-      <c r="KT76" s="38">
+      <c r="KT76" s="37">
         <v>4</v>
       </c>
-      <c r="KU76" s="38">
+      <c r="KU76" s="37">
         <v>4</v>
       </c>
-      <c r="KV76" s="38">
+      <c r="KV76" s="37">
         <v>4</v>
       </c>
-      <c r="KW76" s="38">
+      <c r="KW76" s="37">
         <v>5</v>
       </c>
-      <c r="KX76" s="38">
+      <c r="KX76" s="37">
         <v>6</v>
       </c>
-      <c r="KY76" s="38">
+      <c r="KY76" s="37">
         <v>11</v>
       </c>
-      <c r="KZ76" s="38">
+      <c r="KZ76" s="37">
         <v>8</v>
       </c>
-      <c r="LA76" s="38">
+      <c r="LA76" s="37">
         <v>6</v>
       </c>
-      <c r="LB76" s="36">
+      <c r="LB76" s="35">
         <v>6</v>
       </c>
+      <c r="LC76" s="35">
+        <v>7</v>
+      </c>
     </row>
-    <row r="77" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -68553,80 +68780,83 @@
       <c r="KD77" s="8">
         <v>97255</v>
       </c>
-      <c r="KE77" s="29">
+      <c r="KE77" s="28">
         <v>98343</v>
       </c>
-      <c r="KF77" s="37">
+      <c r="KF77" s="36">
         <v>99545</v>
       </c>
-      <c r="KG77" s="37">
+      <c r="KG77" s="36">
         <v>99824</v>
       </c>
-      <c r="KH77" s="37">
+      <c r="KH77" s="36">
         <v>100160</v>
       </c>
-      <c r="KI77" s="37">
+      <c r="KI77" s="36">
         <v>100656</v>
       </c>
-      <c r="KJ77" s="37">
+      <c r="KJ77" s="36">
         <v>101579</v>
       </c>
-      <c r="KK77" s="37">
+      <c r="KK77" s="36">
         <v>101385</v>
       </c>
-      <c r="KL77" s="37">
+      <c r="KL77" s="36">
         <v>101608</v>
       </c>
-      <c r="KM77" s="37">
+      <c r="KM77" s="36">
         <v>104048</v>
       </c>
-      <c r="KN77" s="37">
+      <c r="KN77" s="36">
         <v>104844</v>
       </c>
-      <c r="KO77" s="37">
+      <c r="KO77" s="36">
         <v>105032</v>
       </c>
-      <c r="KP77" s="37">
+      <c r="KP77" s="36">
         <v>104444</v>
       </c>
-      <c r="KQ77" s="29">
+      <c r="KQ77" s="28">
         <v>104505</v>
       </c>
-      <c r="KR77" s="37">
+      <c r="KR77" s="50">
         <v>104603</v>
       </c>
-      <c r="KS77" s="37">
+      <c r="KS77" s="50">
         <v>104992</v>
       </c>
-      <c r="KT77" s="37">
+      <c r="KT77" s="50">
         <v>105213</v>
       </c>
-      <c r="KU77" s="37">
+      <c r="KU77" s="50">
         <v>105752</v>
       </c>
-      <c r="KV77" s="37">
+      <c r="KV77" s="50">
         <v>106403</v>
       </c>
-      <c r="KW77" s="37">
+      <c r="KW77" s="50">
         <v>106450</v>
       </c>
-      <c r="KX77" s="37">
+      <c r="KX77" s="50">
         <v>107418</v>
       </c>
-      <c r="KY77" s="37">
+      <c r="KY77" s="50">
         <v>107864</v>
       </c>
-      <c r="KZ77" s="37">
+      <c r="KZ77" s="50">
         <v>109523</v>
       </c>
-      <c r="LA77" s="37">
+      <c r="LA77" s="50">
         <v>111433</v>
       </c>
-      <c r="LB77" s="30">
+      <c r="LB77" s="29">
         <v>111993</v>
       </c>
+      <c r="LC77" s="29">
+        <v>113082</v>
+      </c>
     </row>
-    <row r="78" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>25</v>
@@ -69534,41 +69764,44 @@
       <c r="KQ78" s="2">
         <v>18947</v>
       </c>
-      <c r="KR78" s="3">
+      <c r="KR78" s="51">
         <v>18961</v>
       </c>
-      <c r="KS78" s="3">
+      <c r="KS78" s="51">
         <v>19099</v>
       </c>
-      <c r="KT78" s="3">
+      <c r="KT78" s="51">
         <v>19176</v>
       </c>
-      <c r="KU78" s="3">
+      <c r="KU78" s="51">
         <v>19235</v>
       </c>
-      <c r="KV78" s="3">
+      <c r="KV78" s="51">
         <v>19385</v>
       </c>
-      <c r="KW78" s="3">
+      <c r="KW78" s="51">
         <v>19417</v>
       </c>
-      <c r="KX78" s="3">
+      <c r="KX78" s="51">
         <v>19529</v>
       </c>
-      <c r="KY78" s="3">
+      <c r="KY78" s="51">
         <v>19604</v>
       </c>
-      <c r="KZ78" s="3">
+      <c r="KZ78" s="51">
         <v>19870</v>
       </c>
-      <c r="LA78" s="3">
+      <c r="LA78" s="51">
         <v>20060</v>
       </c>
       <c r="LB78" s="4">
         <v>20289</v>
       </c>
+      <c r="LC78" s="4">
+        <v>20532</v>
+      </c>
     </row>
-    <row r="79" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>26</v>
@@ -70476,41 +70709,44 @@
       <c r="KQ79" s="2">
         <v>1710</v>
       </c>
-      <c r="KR79" s="3">
+      <c r="KR79" s="51">
         <v>1753</v>
       </c>
-      <c r="KS79" s="3">
+      <c r="KS79" s="51">
         <v>1713</v>
       </c>
-      <c r="KT79" s="3">
+      <c r="KT79" s="51">
         <v>1692</v>
       </c>
-      <c r="KU79" s="3">
+      <c r="KU79" s="51">
         <v>1774</v>
       </c>
-      <c r="KV79" s="3">
+      <c r="KV79" s="51">
         <v>1806</v>
       </c>
-      <c r="KW79" s="3">
+      <c r="KW79" s="51">
         <v>1742</v>
       </c>
-      <c r="KX79" s="3">
+      <c r="KX79" s="51">
         <v>1834</v>
       </c>
-      <c r="KY79" s="3">
+      <c r="KY79" s="51">
         <v>1859</v>
       </c>
-      <c r="KZ79" s="3">
+      <c r="KZ79" s="51">
         <v>1933</v>
       </c>
-      <c r="LA79" s="3">
+      <c r="LA79" s="51">
         <v>2026</v>
       </c>
       <c r="LB79" s="4">
         <v>2080</v>
       </c>
+      <c r="LC79" s="4">
+        <v>2054</v>
+      </c>
     </row>
-    <row r="80" spans="1:314" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="14" t="s">
         <v>27</v>
@@ -71418,41 +71654,44 @@
       <c r="KQ80" s="2">
         <v>11644</v>
       </c>
-      <c r="KR80" s="3">
+      <c r="KR80" s="51">
         <v>11714</v>
       </c>
-      <c r="KS80" s="3">
+      <c r="KS80" s="51">
         <v>11728</v>
       </c>
-      <c r="KT80" s="3">
+      <c r="KT80" s="51">
         <v>11737</v>
       </c>
-      <c r="KU80" s="3">
+      <c r="KU80" s="51">
         <v>11881</v>
       </c>
-      <c r="KV80" s="3">
+      <c r="KV80" s="51">
         <v>11934</v>
       </c>
-      <c r="KW80" s="3">
+      <c r="KW80" s="51">
         <v>11947</v>
       </c>
-      <c r="KX80" s="3">
+      <c r="KX80" s="51">
         <v>12162</v>
       </c>
-      <c r="KY80" s="3">
+      <c r="KY80" s="51">
         <v>12231</v>
       </c>
-      <c r="KZ80" s="3">
+      <c r="KZ80" s="51">
         <v>12498</v>
       </c>
-      <c r="LA80" s="3">
+      <c r="LA80" s="51">
         <v>12896</v>
       </c>
       <c r="LB80" s="4">
         <v>12869</v>
       </c>
+      <c r="LC80" s="4">
+        <v>12983</v>
+      </c>
     </row>
-    <row r="81" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:316" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>28</v>
@@ -72360,41 +72599,44 @@
       <c r="KQ81" s="2">
         <v>15770</v>
       </c>
-      <c r="KR81" s="3">
+      <c r="KR81" s="51">
         <v>15731</v>
       </c>
-      <c r="KS81" s="3">
+      <c r="KS81" s="51">
         <v>15822</v>
       </c>
-      <c r="KT81" s="3">
+      <c r="KT81" s="51">
         <v>15877</v>
       </c>
-      <c r="KU81" s="3">
+      <c r="KU81" s="51">
         <v>15945</v>
       </c>
-      <c r="KV81" s="3">
+      <c r="KV81" s="51">
         <v>16070</v>
       </c>
-      <c r="KW81" s="3">
+      <c r="KW81" s="51">
         <v>16114</v>
       </c>
-      <c r="KX81" s="3">
+      <c r="KX81" s="51">
         <v>16344</v>
       </c>
-      <c r="KY81" s="3">
+      <c r="KY81" s="51">
         <v>16431</v>
       </c>
-      <c r="KZ81" s="3">
+      <c r="KZ81" s="51">
         <v>16774</v>
       </c>
-      <c r="LA81" s="3">
+      <c r="LA81" s="51">
         <v>17266</v>
       </c>
       <c r="LB81" s="4">
         <v>17342</v>
       </c>
+      <c r="LC81" s="4">
+        <v>17407</v>
+      </c>
     </row>
-    <row r="82" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:316" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>29</v>
@@ -73302,41 +73544,44 @@
       <c r="KQ82" s="2">
         <v>16190</v>
       </c>
-      <c r="KR82" s="3">
+      <c r="KR82" s="51">
         <v>16186</v>
       </c>
-      <c r="KS82" s="3">
+      <c r="KS82" s="51">
         <v>16234</v>
       </c>
-      <c r="KT82" s="3">
+      <c r="KT82" s="51">
         <v>16159</v>
       </c>
-      <c r="KU82" s="3">
+      <c r="KU82" s="51">
         <v>16239</v>
       </c>
-      <c r="KV82" s="3">
+      <c r="KV82" s="51">
         <v>16398</v>
       </c>
-      <c r="KW82" s="3">
+      <c r="KW82" s="51">
         <v>16474</v>
       </c>
-      <c r="KX82" s="3">
+      <c r="KX82" s="51">
         <v>16664</v>
       </c>
-      <c r="KY82" s="3">
+      <c r="KY82" s="51">
         <v>16700</v>
       </c>
-      <c r="KZ82" s="3">
+      <c r="KZ82" s="51">
         <v>16939</v>
       </c>
-      <c r="LA82" s="3">
+      <c r="LA82" s="51">
         <v>17140</v>
       </c>
       <c r="LB82" s="4">
         <v>17204</v>
       </c>
+      <c r="LC82" s="4">
+        <v>17488</v>
+      </c>
     </row>
-    <row r="83" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:316" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="14" t="s">
         <v>30</v>
@@ -74244,41 +74489,44 @@
       <c r="KQ83" s="2">
         <v>15064</v>
       </c>
-      <c r="KR83" s="3">
+      <c r="KR83" s="51">
         <v>15104</v>
       </c>
-      <c r="KS83" s="3">
+      <c r="KS83" s="51">
         <v>15118</v>
       </c>
-      <c r="KT83" s="3">
+      <c r="KT83" s="51">
         <v>15206</v>
       </c>
-      <c r="KU83" s="3">
+      <c r="KU83" s="51">
         <v>15203</v>
       </c>
-      <c r="KV83" s="3">
+      <c r="KV83" s="51">
         <v>15238</v>
       </c>
-      <c r="KW83" s="3">
+      <c r="KW83" s="51">
         <v>15172</v>
       </c>
-      <c r="KX83" s="3">
+      <c r="KX83" s="51">
         <v>15229</v>
       </c>
-      <c r="KY83" s="3">
+      <c r="KY83" s="51">
         <v>15302</v>
       </c>
-      <c r="KZ83" s="3">
+      <c r="KZ83" s="51">
         <v>15525</v>
       </c>
-      <c r="LA83" s="3">
+      <c r="LA83" s="51">
         <v>15767</v>
       </c>
       <c r="LB83" s="4">
         <v>15868</v>
       </c>
+      <c r="LC83" s="4">
+        <v>16157</v>
+      </c>
     </row>
-    <row r="84" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:316" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="14" t="s">
         <v>31</v>
@@ -75186,41 +75434,44 @@
       <c r="KQ84" s="2">
         <v>13237</v>
       </c>
-      <c r="KR84" s="3">
+      <c r="KR84" s="51">
         <v>13205</v>
       </c>
-      <c r="KS84" s="3">
+      <c r="KS84" s="51">
         <v>13321</v>
       </c>
-      <c r="KT84" s="3">
+      <c r="KT84" s="51">
         <v>13408</v>
       </c>
-      <c r="KU84" s="3">
+      <c r="KU84" s="51">
         <v>13468</v>
       </c>
-      <c r="KV84" s="3">
+      <c r="KV84" s="51">
         <v>13552</v>
       </c>
-      <c r="KW84" s="3">
+      <c r="KW84" s="51">
         <v>13616</v>
       </c>
-      <c r="KX84" s="3">
+      <c r="KX84" s="51">
         <v>13662</v>
       </c>
-      <c r="KY84" s="3">
+      <c r="KY84" s="51">
         <v>13712</v>
       </c>
-      <c r="KZ84" s="3">
+      <c r="KZ84" s="51">
         <v>13843</v>
       </c>
-      <c r="LA84" s="3">
+      <c r="LA84" s="51">
         <v>14028</v>
       </c>
       <c r="LB84" s="4">
         <v>14079</v>
       </c>
+      <c r="LC84" s="4">
+        <v>14178</v>
+      </c>
     </row>
-    <row r="85" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:316" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="14" t="s">
         <v>32</v>
@@ -76128,41 +76379,44 @@
       <c r="KQ85" s="2">
         <v>11942</v>
       </c>
-      <c r="KR85" s="3">
+      <c r="KR85" s="51">
         <v>11948</v>
       </c>
-      <c r="KS85" s="3">
+      <c r="KS85" s="51">
         <v>11956</v>
       </c>
-      <c r="KT85" s="3">
+      <c r="KT85" s="51">
         <v>11957</v>
       </c>
-      <c r="KU85" s="3">
+      <c r="KU85" s="51">
         <v>12006</v>
       </c>
-      <c r="KV85" s="3">
+      <c r="KV85" s="51">
         <v>12019</v>
       </c>
-      <c r="KW85" s="3">
+      <c r="KW85" s="51">
         <v>11966</v>
       </c>
-      <c r="KX85" s="3">
+      <c r="KX85" s="51">
         <v>11993</v>
       </c>
-      <c r="KY85" s="3">
+      <c r="KY85" s="51">
         <v>12023</v>
       </c>
-      <c r="KZ85" s="3">
+      <c r="KZ85" s="51">
         <v>12140</v>
       </c>
-      <c r="LA85" s="3">
+      <c r="LA85" s="51">
         <v>12250</v>
       </c>
       <c r="LB85" s="4">
         <v>12262</v>
       </c>
+      <c r="LC85" s="4">
+        <v>12283</v>
+      </c>
     </row>
-    <row r="86" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:316" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="14" t="s">
         <v>33</v>
@@ -76847,72 +77101,73 @@
       <c r="KD86" s="3">
         <v>1</v>
       </c>
-      <c r="KE86" s="35"/>
-      <c r="KF86" s="38"/>
-      <c r="KG86" s="38">
+      <c r="KE86" s="34"/>
+      <c r="KF86" s="37"/>
+      <c r="KG86" s="37">
         <v>1</v>
       </c>
-      <c r="KH86" s="38">
+      <c r="KH86" s="37">
         <v>1</v>
       </c>
-      <c r="KI86" s="38">
+      <c r="KI86" s="37">
         <v>1</v>
       </c>
-      <c r="KJ86" s="38">
+      <c r="KJ86" s="37">
         <v>1</v>
       </c>
-      <c r="KK86" s="38">
+      <c r="KK86" s="37">
         <v>2</v>
       </c>
-      <c r="KL86" s="38">
+      <c r="KL86" s="37">
         <v>1</v>
       </c>
-      <c r="KM86" s="38">
+      <c r="KM86" s="37">
         <v>3</v>
       </c>
-      <c r="KN86" s="38">
+      <c r="KN86" s="37">
         <v>5</v>
       </c>
-      <c r="KO86" s="38">
+      <c r="KO86" s="37">
         <v>1</v>
       </c>
-      <c r="KP86" s="38">
+      <c r="KP86" s="37">
         <v>1</v>
       </c>
-      <c r="KQ86" s="35">
+      <c r="KQ86" s="34">
         <v>1</v>
       </c>
-      <c r="KR86" s="38">
+      <c r="KR86" s="37">
         <v>1</v>
       </c>
-      <c r="KS86" s="38">
+      <c r="KS86" s="37">
         <v>1</v>
       </c>
-      <c r="KT86" s="38">
+      <c r="KT86" s="37">
         <v>1</v>
       </c>
-      <c r="KU86" s="38">
+      <c r="KU86" s="37">
         <v>1</v>
       </c>
-      <c r="KV86" s="38">
+      <c r="KV86" s="37">
         <v>1</v>
       </c>
-      <c r="KW86" s="38">
+      <c r="KW86" s="37">
         <v>2</v>
       </c>
-      <c r="KX86" s="38">
+      <c r="KX86" s="37">
         <v>1</v>
       </c>
-      <c r="KY86" s="38">
+      <c r="KY86" s="37">
         <v>2</v>
       </c>
-      <c r="KZ86" s="38">
+      <c r="KZ86" s="37">
         <v>1</v>
       </c>
-      <c r="LA86" s="38"/>
-      <c r="LB86" s="36"/>
+      <c r="LA86" s="37"/>
+      <c r="LB86" s="35"/>
+      <c r="LC86" s="35"/>
     </row>
-    <row r="87" spans="1:315" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>22</v>
       </c>
@@ -77783,90 +78038,93 @@
       <c r="KD87" s="22">
         <v>1849999</v>
       </c>
-      <c r="KE87" s="33">
+      <c r="KE87" s="32">
         <v>1861159</v>
       </c>
-      <c r="KF87" s="40">
+      <c r="KF87" s="39">
         <v>1874622</v>
       </c>
-      <c r="KG87" s="40">
+      <c r="KG87" s="39">
         <v>1886776</v>
       </c>
-      <c r="KH87" s="40">
+      <c r="KH87" s="39">
         <v>1884715</v>
       </c>
-      <c r="KI87" s="40">
+      <c r="KI87" s="39">
         <v>1888232</v>
       </c>
-      <c r="KJ87" s="40">
+      <c r="KJ87" s="39">
         <v>1896755</v>
       </c>
-      <c r="KK87" s="40">
+      <c r="KK87" s="39">
         <v>1896517</v>
       </c>
-      <c r="KL87" s="40">
+      <c r="KL87" s="39">
         <v>1910627</v>
       </c>
-      <c r="KM87" s="40">
+      <c r="KM87" s="39">
         <v>1927647</v>
       </c>
-      <c r="KN87" s="40">
+      <c r="KN87" s="39">
         <v>1950941</v>
       </c>
-      <c r="KO87" s="40">
+      <c r="KO87" s="39">
         <v>1960510</v>
       </c>
-      <c r="KP87" s="40">
+      <c r="KP87" s="39">
         <v>1932962</v>
       </c>
-      <c r="KQ87" s="33">
+      <c r="KQ87" s="32">
         <v>1951256</v>
       </c>
-      <c r="KR87" s="40">
+      <c r="KR87" s="39">
         <v>1964519</v>
       </c>
-      <c r="KS87" s="40">
+      <c r="KS87" s="39">
         <v>1972715</v>
       </c>
-      <c r="KT87" s="40">
+      <c r="KT87" s="39">
         <v>1973202</v>
       </c>
-      <c r="KU87" s="40">
+      <c r="KU87" s="39">
         <v>1974565</v>
       </c>
-      <c r="KV87" s="40">
+      <c r="KV87" s="39">
         <v>1980790</v>
       </c>
-      <c r="KW87" s="40">
+      <c r="KW87" s="39">
         <v>1981146</v>
       </c>
-      <c r="KX87" s="40">
+      <c r="KX87" s="39">
         <v>1988746</v>
       </c>
-      <c r="KY87" s="40">
+      <c r="KY87" s="39">
         <v>1999360</v>
       </c>
-      <c r="KZ87" s="40">
+      <c r="KZ87" s="39">
         <v>2013431</v>
       </c>
-      <c r="LA87" s="40">
+      <c r="LA87" s="39">
         <v>2026935</v>
       </c>
-      <c r="LB87" s="34">
+      <c r="LB87" s="33">
         <v>1995357</v>
       </c>
-      <c r="LC87" s="3"/>
+      <c r="LC87" s="33">
+        <v>2009853</v>
+      </c>
+      <c r="LD87" s="3"/>
     </row>
-    <row r="88" spans="1:315" x14ac:dyDescent="0.25">
-      <c r="A88" s="47" t="s">
+    <row r="88" spans="1:316" x14ac:dyDescent="0.25">
+      <c r="A88" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="47"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
       <c r="KD88" s="3"/>
       <c r="KR88" s="3"/>
       <c r="KS88" s="3"/>
@@ -77879,12 +78137,30 @@
       <c r="KZ88" s="3"/>
       <c r="LA88" s="3"/>
       <c r="LB88" s="3"/>
+      <c r="LC88" s="3"/>
     </row>
-    <row r="89" spans="1:315" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:316" x14ac:dyDescent="0.25">
       <c r="KD89" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="KQ5:LB5"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="GY5:HJ5"/>
+    <mergeCell ref="HK5:HV5"/>
+    <mergeCell ref="HW5:IH5"/>
+    <mergeCell ref="II5:IT5"/>
+    <mergeCell ref="EE5:EP5"/>
+    <mergeCell ref="EQ5:FB5"/>
+    <mergeCell ref="FC5:FN5"/>
+    <mergeCell ref="FO5:FZ5"/>
+    <mergeCell ref="GA5:GL5"/>
+    <mergeCell ref="GM5:GX5"/>
+    <mergeCell ref="BW5:CH5"/>
+    <mergeCell ref="CI5:CT5"/>
+    <mergeCell ref="CU5:DF5"/>
+    <mergeCell ref="DG5:DR5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -77900,22 +78176,6 @@
     <mergeCell ref="AY5:BJ5"/>
     <mergeCell ref="BK5:BV5"/>
     <mergeCell ref="DS5:ED5"/>
-    <mergeCell ref="KQ5:LB5"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="GY5:HJ5"/>
-    <mergeCell ref="HK5:HV5"/>
-    <mergeCell ref="HW5:IH5"/>
-    <mergeCell ref="II5:IT5"/>
-    <mergeCell ref="EE5:EP5"/>
-    <mergeCell ref="EQ5:FB5"/>
-    <mergeCell ref="FC5:FN5"/>
-    <mergeCell ref="FO5:FZ5"/>
-    <mergeCell ref="GA5:GL5"/>
-    <mergeCell ref="GM5:GX5"/>
-    <mergeCell ref="BW5:CH5"/>
-    <mergeCell ref="CI5:CT5"/>
-    <mergeCell ref="CU5:DF5"/>
-    <mergeCell ref="DG5:DR5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabluados_imss/ta_jalisco_división_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E920D04-09AA-4730-A7A3-BF82A9FC02E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A20E2C-2DA4-49A5-9C8E-EFE07D1C4E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="38">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -157,7 +157,7 @@
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
-    <t>Enero 1998 - enero 2024</t>
+    <t>Enero 1998 - febrero 2024</t>
   </si>
 </sst>
 </file>
@@ -851,7 +851,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
@@ -951,9 +951,6 @@
     <xf numFmtId="3" fontId="19" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="36" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="18" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
@@ -981,6 +978,18 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -992,24 +1001,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1338,11 +1329,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LD89"/>
+  <dimension ref="A1:LE89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="KS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="LC87" sqref="LC87"/>
+      <pane xSplit="2" topLeftCell="KT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="LB72" sqref="LB72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1479,410 +1470,411 @@
     <col min="302" max="302" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="303" max="307" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="308" max="310" width="9.109375" style="1" customWidth="1"/>
-    <col min="311" max="314" width="11.21875" style="1" customWidth="1"/>
-    <col min="315" max="315" width="11.44140625" style="1" customWidth="1"/>
-    <col min="316" max="16384" width="11.33203125" style="1"/>
+    <col min="311" max="315" width="11.21875" style="1" customWidth="1"/>
+    <col min="316" max="316" width="11.44140625" style="1" customWidth="1"/>
+    <col min="317" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:315" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:316" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:315" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:316" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
     </row>
-    <row r="3" spans="1:315" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:315" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:316" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="44">
         <v>1998</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="47">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="44">
         <v>1999</v>
       </c>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="47">
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="44">
         <v>2000</v>
       </c>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="47">
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="44">
         <v>2001</v>
       </c>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="47">
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="44">
         <v>2002</v>
       </c>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="49"/>
-      <c r="BK5" s="47">
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="45"/>
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="46"/>
+      <c r="BK5" s="44">
         <v>2003</v>
       </c>
-      <c r="BL5" s="48"/>
-      <c r="BM5" s="48"/>
-      <c r="BN5" s="48"/>
-      <c r="BO5" s="48"/>
-      <c r="BP5" s="48"/>
-      <c r="BQ5" s="48"/>
-      <c r="BR5" s="48"/>
-      <c r="BS5" s="48"/>
-      <c r="BT5" s="48"/>
-      <c r="BU5" s="48"/>
-      <c r="BV5" s="49"/>
-      <c r="BW5" s="47">
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45"/>
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="45"/>
+      <c r="BP5" s="45"/>
+      <c r="BQ5" s="45"/>
+      <c r="BR5" s="45"/>
+      <c r="BS5" s="45"/>
+      <c r="BT5" s="45"/>
+      <c r="BU5" s="45"/>
+      <c r="BV5" s="46"/>
+      <c r="BW5" s="44">
         <v>2004</v>
       </c>
-      <c r="BX5" s="48"/>
-      <c r="BY5" s="48"/>
-      <c r="BZ5" s="48"/>
-      <c r="CA5" s="48"/>
-      <c r="CB5" s="48"/>
-      <c r="CC5" s="48"/>
-      <c r="CD5" s="48"/>
-      <c r="CE5" s="48"/>
-      <c r="CF5" s="48"/>
-      <c r="CG5" s="48"/>
-      <c r="CH5" s="49"/>
-      <c r="CI5" s="47">
+      <c r="BX5" s="45"/>
+      <c r="BY5" s="45"/>
+      <c r="BZ5" s="45"/>
+      <c r="CA5" s="45"/>
+      <c r="CB5" s="45"/>
+      <c r="CC5" s="45"/>
+      <c r="CD5" s="45"/>
+      <c r="CE5" s="45"/>
+      <c r="CF5" s="45"/>
+      <c r="CG5" s="45"/>
+      <c r="CH5" s="46"/>
+      <c r="CI5" s="44">
         <v>2005</v>
       </c>
-      <c r="CJ5" s="48"/>
-      <c r="CK5" s="48"/>
-      <c r="CL5" s="48"/>
-      <c r="CM5" s="48"/>
-      <c r="CN5" s="48"/>
-      <c r="CO5" s="48"/>
-      <c r="CP5" s="48"/>
-      <c r="CQ5" s="48"/>
-      <c r="CR5" s="48"/>
-      <c r="CS5" s="48"/>
-      <c r="CT5" s="49"/>
-      <c r="CU5" s="47">
+      <c r="CJ5" s="45"/>
+      <c r="CK5" s="45"/>
+      <c r="CL5" s="45"/>
+      <c r="CM5" s="45"/>
+      <c r="CN5" s="45"/>
+      <c r="CO5" s="45"/>
+      <c r="CP5" s="45"/>
+      <c r="CQ5" s="45"/>
+      <c r="CR5" s="45"/>
+      <c r="CS5" s="45"/>
+      <c r="CT5" s="46"/>
+      <c r="CU5" s="44">
         <v>2006</v>
       </c>
-      <c r="CV5" s="48"/>
-      <c r="CW5" s="48"/>
-      <c r="CX5" s="48"/>
-      <c r="CY5" s="48"/>
-      <c r="CZ5" s="48"/>
-      <c r="DA5" s="48"/>
-      <c r="DB5" s="48"/>
-      <c r="DC5" s="48"/>
-      <c r="DD5" s="48"/>
-      <c r="DE5" s="48"/>
-      <c r="DF5" s="49"/>
-      <c r="DG5" s="47">
+      <c r="CV5" s="45"/>
+      <c r="CW5" s="45"/>
+      <c r="CX5" s="45"/>
+      <c r="CY5" s="45"/>
+      <c r="CZ5" s="45"/>
+      <c r="DA5" s="45"/>
+      <c r="DB5" s="45"/>
+      <c r="DC5" s="45"/>
+      <c r="DD5" s="45"/>
+      <c r="DE5" s="45"/>
+      <c r="DF5" s="46"/>
+      <c r="DG5" s="44">
         <v>2007</v>
       </c>
-      <c r="DH5" s="48"/>
-      <c r="DI5" s="48"/>
-      <c r="DJ5" s="48"/>
-      <c r="DK5" s="48"/>
-      <c r="DL5" s="48"/>
-      <c r="DM5" s="48"/>
-      <c r="DN5" s="48"/>
-      <c r="DO5" s="48"/>
-      <c r="DP5" s="48"/>
-      <c r="DQ5" s="48"/>
-      <c r="DR5" s="49"/>
-      <c r="DS5" s="47">
+      <c r="DH5" s="45"/>
+      <c r="DI5" s="45"/>
+      <c r="DJ5" s="45"/>
+      <c r="DK5" s="45"/>
+      <c r="DL5" s="45"/>
+      <c r="DM5" s="45"/>
+      <c r="DN5" s="45"/>
+      <c r="DO5" s="45"/>
+      <c r="DP5" s="45"/>
+      <c r="DQ5" s="45"/>
+      <c r="DR5" s="46"/>
+      <c r="DS5" s="44">
         <v>2008</v>
       </c>
-      <c r="DT5" s="48"/>
-      <c r="DU5" s="48"/>
-      <c r="DV5" s="48"/>
-      <c r="DW5" s="48"/>
-      <c r="DX5" s="48"/>
-      <c r="DY5" s="48"/>
-      <c r="DZ5" s="48"/>
-      <c r="EA5" s="48"/>
-      <c r="EB5" s="48"/>
-      <c r="EC5" s="48"/>
-      <c r="ED5" s="49"/>
-      <c r="EE5" s="47">
+      <c r="DT5" s="45"/>
+      <c r="DU5" s="45"/>
+      <c r="DV5" s="45"/>
+      <c r="DW5" s="45"/>
+      <c r="DX5" s="45"/>
+      <c r="DY5" s="45"/>
+      <c r="DZ5" s="45"/>
+      <c r="EA5" s="45"/>
+      <c r="EB5" s="45"/>
+      <c r="EC5" s="45"/>
+      <c r="ED5" s="46"/>
+      <c r="EE5" s="44">
         <v>2009</v>
       </c>
-      <c r="EF5" s="48"/>
-      <c r="EG5" s="48"/>
-      <c r="EH5" s="48"/>
-      <c r="EI5" s="48"/>
-      <c r="EJ5" s="48"/>
-      <c r="EK5" s="48"/>
-      <c r="EL5" s="48"/>
-      <c r="EM5" s="48"/>
-      <c r="EN5" s="48"/>
-      <c r="EO5" s="48"/>
-      <c r="EP5" s="49"/>
-      <c r="EQ5" s="47">
+      <c r="EF5" s="45"/>
+      <c r="EG5" s="45"/>
+      <c r="EH5" s="45"/>
+      <c r="EI5" s="45"/>
+      <c r="EJ5" s="45"/>
+      <c r="EK5" s="45"/>
+      <c r="EL5" s="45"/>
+      <c r="EM5" s="45"/>
+      <c r="EN5" s="45"/>
+      <c r="EO5" s="45"/>
+      <c r="EP5" s="46"/>
+      <c r="EQ5" s="44">
         <v>2010</v>
       </c>
-      <c r="ER5" s="48"/>
-      <c r="ES5" s="48"/>
-      <c r="ET5" s="48"/>
-      <c r="EU5" s="48"/>
-      <c r="EV5" s="48"/>
-      <c r="EW5" s="48"/>
-      <c r="EX5" s="48"/>
-      <c r="EY5" s="48"/>
-      <c r="EZ5" s="48"/>
-      <c r="FA5" s="48"/>
-      <c r="FB5" s="49"/>
-      <c r="FC5" s="47">
+      <c r="ER5" s="45"/>
+      <c r="ES5" s="45"/>
+      <c r="ET5" s="45"/>
+      <c r="EU5" s="45"/>
+      <c r="EV5" s="45"/>
+      <c r="EW5" s="45"/>
+      <c r="EX5" s="45"/>
+      <c r="EY5" s="45"/>
+      <c r="EZ5" s="45"/>
+      <c r="FA5" s="45"/>
+      <c r="FB5" s="46"/>
+      <c r="FC5" s="44">
         <v>2011</v>
       </c>
-      <c r="FD5" s="48"/>
-      <c r="FE5" s="48"/>
-      <c r="FF5" s="48"/>
-      <c r="FG5" s="48"/>
-      <c r="FH5" s="48"/>
-      <c r="FI5" s="48"/>
-      <c r="FJ5" s="48"/>
-      <c r="FK5" s="48"/>
-      <c r="FL5" s="48"/>
-      <c r="FM5" s="48"/>
-      <c r="FN5" s="49"/>
-      <c r="FO5" s="47">
+      <c r="FD5" s="45"/>
+      <c r="FE5" s="45"/>
+      <c r="FF5" s="45"/>
+      <c r="FG5" s="45"/>
+      <c r="FH5" s="45"/>
+      <c r="FI5" s="45"/>
+      <c r="FJ5" s="45"/>
+      <c r="FK5" s="45"/>
+      <c r="FL5" s="45"/>
+      <c r="FM5" s="45"/>
+      <c r="FN5" s="46"/>
+      <c r="FO5" s="44">
         <v>2012</v>
       </c>
-      <c r="FP5" s="48"/>
-      <c r="FQ5" s="48"/>
-      <c r="FR5" s="48"/>
-      <c r="FS5" s="48"/>
-      <c r="FT5" s="48"/>
-      <c r="FU5" s="48"/>
-      <c r="FV5" s="48"/>
-      <c r="FW5" s="48"/>
-      <c r="FX5" s="48"/>
-      <c r="FY5" s="48"/>
-      <c r="FZ5" s="49"/>
-      <c r="GA5" s="47">
+      <c r="FP5" s="45"/>
+      <c r="FQ5" s="45"/>
+      <c r="FR5" s="45"/>
+      <c r="FS5" s="45"/>
+      <c r="FT5" s="45"/>
+      <c r="FU5" s="45"/>
+      <c r="FV5" s="45"/>
+      <c r="FW5" s="45"/>
+      <c r="FX5" s="45"/>
+      <c r="FY5" s="45"/>
+      <c r="FZ5" s="46"/>
+      <c r="GA5" s="44">
         <v>2013</v>
       </c>
-      <c r="GB5" s="48"/>
-      <c r="GC5" s="48"/>
-      <c r="GD5" s="48"/>
-      <c r="GE5" s="48"/>
-      <c r="GF5" s="48"/>
-      <c r="GG5" s="48"/>
-      <c r="GH5" s="48"/>
-      <c r="GI5" s="48"/>
-      <c r="GJ5" s="48"/>
-      <c r="GK5" s="48"/>
-      <c r="GL5" s="49"/>
-      <c r="GM5" s="47">
+      <c r="GB5" s="45"/>
+      <c r="GC5" s="45"/>
+      <c r="GD5" s="45"/>
+      <c r="GE5" s="45"/>
+      <c r="GF5" s="45"/>
+      <c r="GG5" s="45"/>
+      <c r="GH5" s="45"/>
+      <c r="GI5" s="45"/>
+      <c r="GJ5" s="45"/>
+      <c r="GK5" s="45"/>
+      <c r="GL5" s="46"/>
+      <c r="GM5" s="44">
         <v>2014</v>
       </c>
-      <c r="GN5" s="48"/>
-      <c r="GO5" s="48"/>
-      <c r="GP5" s="48"/>
-      <c r="GQ5" s="48"/>
-      <c r="GR5" s="48"/>
-      <c r="GS5" s="48"/>
-      <c r="GT5" s="48"/>
-      <c r="GU5" s="48"/>
-      <c r="GV5" s="48"/>
-      <c r="GW5" s="48"/>
-      <c r="GX5" s="49"/>
-      <c r="GY5" s="47">
+      <c r="GN5" s="45"/>
+      <c r="GO5" s="45"/>
+      <c r="GP5" s="45"/>
+      <c r="GQ5" s="45"/>
+      <c r="GR5" s="45"/>
+      <c r="GS5" s="45"/>
+      <c r="GT5" s="45"/>
+      <c r="GU5" s="45"/>
+      <c r="GV5" s="45"/>
+      <c r="GW5" s="45"/>
+      <c r="GX5" s="46"/>
+      <c r="GY5" s="44">
         <v>2015</v>
       </c>
-      <c r="GZ5" s="48"/>
-      <c r="HA5" s="48"/>
-      <c r="HB5" s="48"/>
-      <c r="HC5" s="48"/>
-      <c r="HD5" s="48"/>
-      <c r="HE5" s="48"/>
-      <c r="HF5" s="48"/>
-      <c r="HG5" s="48"/>
-      <c r="HH5" s="48"/>
-      <c r="HI5" s="48"/>
-      <c r="HJ5" s="49"/>
-      <c r="HK5" s="47">
+      <c r="GZ5" s="45"/>
+      <c r="HA5" s="45"/>
+      <c r="HB5" s="45"/>
+      <c r="HC5" s="45"/>
+      <c r="HD5" s="45"/>
+      <c r="HE5" s="45"/>
+      <c r="HF5" s="45"/>
+      <c r="HG5" s="45"/>
+      <c r="HH5" s="45"/>
+      <c r="HI5" s="45"/>
+      <c r="HJ5" s="46"/>
+      <c r="HK5" s="44">
         <v>2016</v>
       </c>
-      <c r="HL5" s="48"/>
-      <c r="HM5" s="48"/>
-      <c r="HN5" s="48"/>
-      <c r="HO5" s="48"/>
-      <c r="HP5" s="48"/>
-      <c r="HQ5" s="48"/>
-      <c r="HR5" s="48"/>
-      <c r="HS5" s="48"/>
-      <c r="HT5" s="48"/>
-      <c r="HU5" s="48"/>
-      <c r="HV5" s="49"/>
-      <c r="HW5" s="47">
+      <c r="HL5" s="45"/>
+      <c r="HM5" s="45"/>
+      <c r="HN5" s="45"/>
+      <c r="HO5" s="45"/>
+      <c r="HP5" s="45"/>
+      <c r="HQ5" s="45"/>
+      <c r="HR5" s="45"/>
+      <c r="HS5" s="45"/>
+      <c r="HT5" s="45"/>
+      <c r="HU5" s="45"/>
+      <c r="HV5" s="46"/>
+      <c r="HW5" s="44">
         <v>2017</v>
       </c>
-      <c r="HX5" s="48"/>
-      <c r="HY5" s="48"/>
-      <c r="HZ5" s="48"/>
-      <c r="IA5" s="48"/>
-      <c r="IB5" s="48"/>
-      <c r="IC5" s="48"/>
-      <c r="ID5" s="48"/>
-      <c r="IE5" s="48"/>
-      <c r="IF5" s="48"/>
-      <c r="IG5" s="48"/>
-      <c r="IH5" s="49"/>
-      <c r="II5" s="47">
+      <c r="HX5" s="45"/>
+      <c r="HY5" s="45"/>
+      <c r="HZ5" s="45"/>
+      <c r="IA5" s="45"/>
+      <c r="IB5" s="45"/>
+      <c r="IC5" s="45"/>
+      <c r="ID5" s="45"/>
+      <c r="IE5" s="45"/>
+      <c r="IF5" s="45"/>
+      <c r="IG5" s="45"/>
+      <c r="IH5" s="46"/>
+      <c r="II5" s="44">
         <v>2018</v>
       </c>
-      <c r="IJ5" s="48"/>
-      <c r="IK5" s="48"/>
-      <c r="IL5" s="48"/>
-      <c r="IM5" s="48"/>
-      <c r="IN5" s="48"/>
-      <c r="IO5" s="48"/>
-      <c r="IP5" s="48"/>
-      <c r="IQ5" s="48"/>
-      <c r="IR5" s="48"/>
-      <c r="IS5" s="48"/>
-      <c r="IT5" s="49"/>
-      <c r="IU5" s="47">
+      <c r="IJ5" s="45"/>
+      <c r="IK5" s="45"/>
+      <c r="IL5" s="45"/>
+      <c r="IM5" s="45"/>
+      <c r="IN5" s="45"/>
+      <c r="IO5" s="45"/>
+      <c r="IP5" s="45"/>
+      <c r="IQ5" s="45"/>
+      <c r="IR5" s="45"/>
+      <c r="IS5" s="45"/>
+      <c r="IT5" s="46"/>
+      <c r="IU5" s="44">
         <v>2019</v>
       </c>
-      <c r="IV5" s="48"/>
-      <c r="IW5" s="48"/>
-      <c r="IX5" s="48"/>
-      <c r="IY5" s="48"/>
-      <c r="IZ5" s="48"/>
-      <c r="JA5" s="48"/>
-      <c r="JB5" s="48"/>
-      <c r="JC5" s="48"/>
-      <c r="JD5" s="48"/>
-      <c r="JE5" s="48"/>
-      <c r="JF5" s="49"/>
-      <c r="JG5" s="47">
+      <c r="IV5" s="45"/>
+      <c r="IW5" s="45"/>
+      <c r="IX5" s="45"/>
+      <c r="IY5" s="45"/>
+      <c r="IZ5" s="45"/>
+      <c r="JA5" s="45"/>
+      <c r="JB5" s="45"/>
+      <c r="JC5" s="45"/>
+      <c r="JD5" s="45"/>
+      <c r="JE5" s="45"/>
+      <c r="JF5" s="46"/>
+      <c r="JG5" s="44">
         <v>2020</v>
       </c>
-      <c r="JH5" s="48"/>
-      <c r="JI5" s="48"/>
-      <c r="JJ5" s="48"/>
-      <c r="JK5" s="48"/>
-      <c r="JL5" s="48"/>
-      <c r="JM5" s="48"/>
-      <c r="JN5" s="48"/>
-      <c r="JO5" s="48"/>
-      <c r="JP5" s="48"/>
-      <c r="JQ5" s="48"/>
-      <c r="JR5" s="49"/>
-      <c r="JS5" s="47">
+      <c r="JH5" s="45"/>
+      <c r="JI5" s="45"/>
+      <c r="JJ5" s="45"/>
+      <c r="JK5" s="45"/>
+      <c r="JL5" s="45"/>
+      <c r="JM5" s="45"/>
+      <c r="JN5" s="45"/>
+      <c r="JO5" s="45"/>
+      <c r="JP5" s="45"/>
+      <c r="JQ5" s="45"/>
+      <c r="JR5" s="46"/>
+      <c r="JS5" s="44">
         <v>2021</v>
       </c>
-      <c r="JT5" s="48"/>
-      <c r="JU5" s="48"/>
-      <c r="JV5" s="48"/>
-      <c r="JW5" s="48"/>
-      <c r="JX5" s="48"/>
-      <c r="JY5" s="48"/>
-      <c r="JZ5" s="48"/>
-      <c r="KA5" s="48"/>
-      <c r="KB5" s="48"/>
-      <c r="KC5" s="48"/>
-      <c r="KD5" s="48"/>
-      <c r="KE5" s="47">
+      <c r="JT5" s="45"/>
+      <c r="JU5" s="45"/>
+      <c r="JV5" s="45"/>
+      <c r="JW5" s="45"/>
+      <c r="JX5" s="45"/>
+      <c r="JY5" s="45"/>
+      <c r="JZ5" s="45"/>
+      <c r="KA5" s="45"/>
+      <c r="KB5" s="45"/>
+      <c r="KC5" s="45"/>
+      <c r="KD5" s="45"/>
+      <c r="KE5" s="44">
         <v>2022</v>
       </c>
-      <c r="KF5" s="48"/>
-      <c r="KG5" s="48"/>
-      <c r="KH5" s="48"/>
-      <c r="KI5" s="48"/>
-      <c r="KJ5" s="48"/>
-      <c r="KK5" s="48"/>
-      <c r="KL5" s="48"/>
-      <c r="KM5" s="48"/>
-      <c r="KN5" s="48"/>
-      <c r="KO5" s="48"/>
-      <c r="KP5" s="49"/>
-      <c r="KQ5" s="47">
+      <c r="KF5" s="45"/>
+      <c r="KG5" s="45"/>
+      <c r="KH5" s="45"/>
+      <c r="KI5" s="45"/>
+      <c r="KJ5" s="45"/>
+      <c r="KK5" s="45"/>
+      <c r="KL5" s="45"/>
+      <c r="KM5" s="45"/>
+      <c r="KN5" s="45"/>
+      <c r="KO5" s="45"/>
+      <c r="KP5" s="46"/>
+      <c r="KQ5" s="44">
         <v>2023</v>
       </c>
-      <c r="KR5" s="48"/>
-      <c r="KS5" s="48"/>
-      <c r="KT5" s="48"/>
-      <c r="KU5" s="48"/>
-      <c r="KV5" s="48"/>
-      <c r="KW5" s="48"/>
-      <c r="KX5" s="48"/>
-      <c r="KY5" s="48"/>
-      <c r="KZ5" s="48"/>
-      <c r="LA5" s="48"/>
-      <c r="LB5" s="49"/>
-      <c r="LC5" s="43">
+      <c r="KR5" s="45"/>
+      <c r="KS5" s="45"/>
+      <c r="KT5" s="45"/>
+      <c r="KU5" s="45"/>
+      <c r="KV5" s="45"/>
+      <c r="KW5" s="45"/>
+      <c r="KX5" s="45"/>
+      <c r="KY5" s="45"/>
+      <c r="KZ5" s="45"/>
+      <c r="LA5" s="45"/>
+      <c r="LB5" s="46"/>
+      <c r="LC5" s="42">
         <v>2024</v>
       </c>
+      <c r="LD5" s="43"/>
     </row>
-    <row r="6" spans="1:315" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+    <row r="6" spans="1:316" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -2783,47 +2775,50 @@
       <c r="KP6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="KQ6" s="40" t="s">
+      <c r="KQ6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="KR6" s="41" t="s">
+      <c r="KR6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="KS6" s="41" t="s">
+      <c r="KS6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="KT6" s="41" t="s">
+      <c r="KT6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="KU6" s="41" t="s">
+      <c r="KU6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="KV6" s="41" t="s">
+      <c r="KV6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="KW6" s="41" t="s">
+      <c r="KW6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="KX6" s="41" t="s">
+      <c r="KX6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="KY6" s="41" t="s">
+      <c r="KY6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="KZ6" s="41" t="s">
+      <c r="KZ6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="LA6" s="41" t="s">
+      <c r="LA6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="LB6" s="42" t="s">
+      <c r="LB6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="LC6" s="42" t="s">
+      <c r="LC6" s="39" t="s">
         <v>8</v>
       </c>
+      <c r="LD6" s="41" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:315" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:316" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -3697,80 +3692,83 @@
       <c r="KE7" s="28">
         <v>121583</v>
       </c>
-      <c r="KF7" s="36">
+      <c r="KF7" s="35">
         <v>123302</v>
       </c>
-      <c r="KG7" s="36">
+      <c r="KG7" s="35">
         <v>124917</v>
       </c>
-      <c r="KH7" s="36">
+      <c r="KH7" s="35">
         <v>120707</v>
       </c>
-      <c r="KI7" s="36">
+      <c r="KI7" s="35">
         <v>116527</v>
       </c>
-      <c r="KJ7" s="36">
+      <c r="KJ7" s="35">
         <v>114765</v>
       </c>
-      <c r="KK7" s="36">
+      <c r="KK7" s="35">
         <v>112865</v>
       </c>
-      <c r="KL7" s="36">
+      <c r="KL7" s="35">
         <v>115219</v>
       </c>
-      <c r="KM7" s="36">
+      <c r="KM7" s="35">
         <v>119089</v>
       </c>
-      <c r="KN7" s="36">
+      <c r="KN7" s="35">
         <v>121255</v>
       </c>
-      <c r="KO7" s="36">
+      <c r="KO7" s="35">
         <v>120917</v>
       </c>
-      <c r="KP7" s="36">
+      <c r="KP7" s="35">
         <v>118708</v>
       </c>
       <c r="KQ7" s="28">
         <v>125411</v>
       </c>
-      <c r="KR7" s="50">
+      <c r="KR7" s="35">
         <v>126199</v>
       </c>
-      <c r="KS7" s="50">
+      <c r="KS7" s="35">
         <v>126571</v>
       </c>
-      <c r="KT7" s="50">
+      <c r="KT7" s="35">
         <v>123159</v>
       </c>
-      <c r="KU7" s="50">
+      <c r="KU7" s="35">
         <v>120101</v>
       </c>
-      <c r="KV7" s="50">
+      <c r="KV7" s="35">
         <v>118854</v>
       </c>
-      <c r="KW7" s="50">
+      <c r="KW7" s="35">
         <v>116264</v>
       </c>
-      <c r="KX7" s="50">
+      <c r="KX7" s="35">
         <v>116045</v>
       </c>
-      <c r="KY7" s="50">
+      <c r="KY7" s="35">
         <v>118223</v>
       </c>
-      <c r="KZ7" s="50">
+      <c r="KZ7" s="35">
         <v>120205</v>
       </c>
-      <c r="LA7" s="50">
+      <c r="LA7" s="35">
         <v>121905</v>
       </c>
-      <c r="LB7" s="29">
+      <c r="LB7" s="35">
         <v>118874</v>
       </c>
-      <c r="LC7" s="29">
+      <c r="LC7" s="28">
         <v>122319</v>
       </c>
+      <c r="LD7" s="29">
+        <v>122122</v>
+      </c>
     </row>
-    <row r="8" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:316" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>25</v>
@@ -4678,44 +4676,47 @@
       <c r="KQ8" s="2">
         <v>24223</v>
       </c>
-      <c r="KR8" s="51">
+      <c r="KR8" s="3">
         <v>24493</v>
       </c>
-      <c r="KS8" s="51">
+      <c r="KS8" s="3">
         <v>24607</v>
       </c>
-      <c r="KT8" s="51">
+      <c r="KT8" s="3">
         <v>24157</v>
       </c>
-      <c r="KU8" s="51">
+      <c r="KU8" s="3">
         <v>23731</v>
       </c>
-      <c r="KV8" s="51">
+      <c r="KV8" s="3">
         <v>23665</v>
       </c>
-      <c r="KW8" s="51">
+      <c r="KW8" s="3">
         <v>23024</v>
       </c>
-      <c r="KX8" s="51">
+      <c r="KX8" s="3">
         <v>23633</v>
       </c>
-      <c r="KY8" s="51">
+      <c r="KY8" s="3">
         <v>23962</v>
       </c>
-      <c r="KZ8" s="51">
+      <c r="KZ8" s="3">
         <v>24169</v>
       </c>
-      <c r="LA8" s="51">
+      <c r="LA8" s="3">
         <v>24543</v>
       </c>
-      <c r="LB8" s="4">
+      <c r="LB8" s="3">
         <v>24669</v>
       </c>
-      <c r="LC8" s="4">
+      <c r="LC8" s="2">
         <v>25180</v>
       </c>
+      <c r="LD8" s="4">
+        <v>25300</v>
+      </c>
     </row>
-    <row r="9" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:316" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>26</v>
@@ -5623,44 +5624,47 @@
       <c r="KQ9" s="2">
         <v>5773</v>
       </c>
-      <c r="KR9" s="51">
+      <c r="KR9" s="3">
         <v>5833</v>
       </c>
-      <c r="KS9" s="51">
+      <c r="KS9" s="3">
         <v>5885</v>
       </c>
-      <c r="KT9" s="51">
+      <c r="KT9" s="3">
         <v>5489</v>
       </c>
-      <c r="KU9" s="51">
+      <c r="KU9" s="3">
         <v>5267</v>
       </c>
-      <c r="KV9" s="51">
+      <c r="KV9" s="3">
         <v>5325</v>
       </c>
-      <c r="KW9" s="51">
+      <c r="KW9" s="3">
         <v>5144</v>
       </c>
-      <c r="KX9" s="51">
+      <c r="KX9" s="3">
         <v>4942</v>
       </c>
-      <c r="KY9" s="51">
+      <c r="KY9" s="3">
         <v>5066</v>
       </c>
-      <c r="KZ9" s="51">
+      <c r="KZ9" s="3">
         <v>5228</v>
       </c>
-      <c r="LA9" s="51">
+      <c r="LA9" s="3">
         <v>5275</v>
       </c>
-      <c r="LB9" s="4">
+      <c r="LB9" s="3">
         <v>4774</v>
       </c>
-      <c r="LC9" s="4">
+      <c r="LC9" s="2">
         <v>5169</v>
       </c>
+      <c r="LD9" s="4">
+        <v>5168</v>
+      </c>
     </row>
-    <row r="10" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:316" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -6568,44 +6572,47 @@
       <c r="KQ10" s="2">
         <v>19266</v>
       </c>
-      <c r="KR10" s="51">
+      <c r="KR10" s="3">
         <v>19304</v>
       </c>
-      <c r="KS10" s="51">
+      <c r="KS10" s="3">
         <v>19196</v>
       </c>
-      <c r="KT10" s="51">
+      <c r="KT10" s="3">
         <v>18580</v>
       </c>
-      <c r="KU10" s="51">
+      <c r="KU10" s="3">
         <v>17937</v>
       </c>
-      <c r="KV10" s="51">
+      <c r="KV10" s="3">
         <v>17708</v>
       </c>
-      <c r="KW10" s="51">
+      <c r="KW10" s="3">
         <v>17140</v>
       </c>
-      <c r="KX10" s="51">
+      <c r="KX10" s="3">
         <v>16686</v>
       </c>
-      <c r="KY10" s="51">
+      <c r="KY10" s="3">
         <v>17215</v>
       </c>
-      <c r="KZ10" s="51">
+      <c r="KZ10" s="3">
         <v>17708</v>
       </c>
-      <c r="LA10" s="51">
+      <c r="LA10" s="3">
         <v>18000</v>
       </c>
-      <c r="LB10" s="4">
+      <c r="LB10" s="3">
         <v>16916</v>
       </c>
-      <c r="LC10" s="4">
+      <c r="LC10" s="2">
         <v>17504</v>
       </c>
+      <c r="LD10" s="4">
+        <v>17416</v>
+      </c>
     </row>
-    <row r="11" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:316" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="14" t="s">
         <v>28</v>
@@ -7513,44 +7520,47 @@
       <c r="KQ11" s="2">
         <v>19218</v>
       </c>
-      <c r="KR11" s="51">
+      <c r="KR11" s="3">
         <v>19228</v>
       </c>
-      <c r="KS11" s="51">
+      <c r="KS11" s="3">
         <v>19251</v>
       </c>
-      <c r="KT11" s="51">
+      <c r="KT11" s="3">
         <v>18618</v>
       </c>
-      <c r="KU11" s="51">
+      <c r="KU11" s="3">
         <v>18113</v>
       </c>
-      <c r="KV11" s="51">
+      <c r="KV11" s="3">
         <v>17734</v>
       </c>
-      <c r="KW11" s="51">
+      <c r="KW11" s="3">
         <v>17310</v>
       </c>
-      <c r="KX11" s="51">
+      <c r="KX11" s="3">
         <v>17043</v>
       </c>
-      <c r="KY11" s="51">
+      <c r="KY11" s="3">
         <v>17493</v>
       </c>
-      <c r="KZ11" s="51">
+      <c r="KZ11" s="3">
         <v>17806</v>
       </c>
-      <c r="LA11" s="51">
+      <c r="LA11" s="3">
         <v>18098</v>
       </c>
-      <c r="LB11" s="4">
+      <c r="LB11" s="3">
         <v>17550</v>
       </c>
-      <c r="LC11" s="4">
+      <c r="LC11" s="2">
         <v>17873</v>
       </c>
+      <c r="LD11" s="4">
+        <v>17838</v>
+      </c>
     </row>
-    <row r="12" spans="1:315" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:316" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -8458,44 +8468,47 @@
       <c r="KQ1